--- a/MexcData20250221.xlsx
+++ b/MexcData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91279</v>
+        <v>91237</v>
       </c>
       <c r="F2" t="n">
-        <v>5.542947543197921</v>
+        <v>5.527877235150494</v>
       </c>
       <c r="G2" t="n">
-        <v>32.53319867842975</v>
+        <v>32.53381784669637</v>
       </c>
       <c r="H2" t="n">
         <v>0.43</v>
       </c>
       <c r="I2" t="n">
-        <v>1873.77</v>
+        <v>1851.61</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>602918961</v>
+        <v>603049576</v>
       </c>
       <c r="E3" t="n">
-        <v>1169932705</v>
+        <v>1170191736</v>
       </c>
       <c r="F3" t="n">
-        <v>22336.72191027582</v>
+        <v>20312.13751240588</v>
       </c>
       <c r="G3" t="n">
-        <v>26743.01302036656</v>
+        <v>37033.01699157307</v>
       </c>
       <c r="H3" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>23009563</v>
+        <v>22275795</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244074641</v>
+        <v>245879539</v>
       </c>
       <c r="E4" t="n">
-        <v>1530557766</v>
+        <v>1541876027</v>
       </c>
       <c r="F4" t="n">
-        <v>68633.88293629189</v>
+        <v>76291.18090044618</v>
       </c>
       <c r="G4" t="n">
-        <v>86172.81393681862</v>
+        <v>129219.8750211036</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>16404903</v>
+        <v>16672781</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141614889</v>
+        <v>142700290</v>
       </c>
       <c r="E5" t="n">
-        <v>156931429</v>
+        <v>158134223</v>
       </c>
       <c r="F5" t="n">
-        <v>145159.4957350849</v>
+        <v>134412.4281291398</v>
       </c>
       <c r="G5" t="n">
-        <v>323876.1722425533</v>
+        <v>373881.5452045399</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>35184920</v>
+        <v>35862877</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48400265</v>
+        <v>48188584</v>
       </c>
       <c r="E6" t="n">
-        <v>60547490</v>
+        <v>60282683</v>
       </c>
       <c r="F6" t="n">
-        <v>9800.245267812419</v>
+        <v>9307.715453256291</v>
       </c>
       <c r="G6" t="n">
-        <v>9154.717276548095</v>
+        <v>8766.46300563518</v>
       </c>
       <c r="H6" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="I6" t="n">
-        <v>622863</v>
+        <v>601814</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8458884</v>
+        <v>8352341</v>
       </c>
       <c r="E7" t="n">
-        <v>8672185</v>
+        <v>8562956</v>
       </c>
       <c r="F7" t="n">
-        <v>313.3544442325758</v>
+        <v>310.8680677609332</v>
       </c>
       <c r="G7" t="n">
-        <v>370.2716278446674</v>
+        <v>181.6426817561724</v>
       </c>
       <c r="H7" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="I7" t="n">
-        <v>91871</v>
+        <v>90736</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69350801</v>
+        <v>69406719</v>
       </c>
       <c r="E8" t="n">
-        <v>138099973</v>
+        <v>138234694</v>
       </c>
       <c r="F8" t="n">
-        <v>30090.2817590788</v>
+        <v>30583.5818970177</v>
       </c>
       <c r="G8" t="n">
-        <v>21509.14730463384</v>
+        <v>18225.16225228429</v>
       </c>
       <c r="H8" t="n">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
       <c r="I8" t="n">
-        <v>1147799</v>
+        <v>1140356</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5098898</v>
+        <v>5107684</v>
       </c>
       <c r="E9" t="n">
-        <v>8146506</v>
+        <v>8160545</v>
       </c>
       <c r="F9" t="n">
-        <v>336.7460319602397</v>
+        <v>276.728553906801</v>
       </c>
       <c r="G9" t="n">
-        <v>282.887631294234</v>
+        <v>303.7504300771806</v>
       </c>
       <c r="H9" t="n">
-        <v>0.11</v>
+        <v>0.59</v>
       </c>
       <c r="I9" t="n">
-        <v>101701</v>
+        <v>101391</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14266005</v>
+        <v>14346509</v>
       </c>
       <c r="E10" t="n">
-        <v>42040996</v>
+        <v>42278234</v>
       </c>
       <c r="F10" t="n">
-        <v>3988.401511707539</v>
+        <v>3978.720522956482</v>
       </c>
       <c r="G10" t="n">
-        <v>5123.88962038205</v>
+        <v>5034.187957352059</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>881393</v>
+        <v>866582</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>125249282</v>
+        <v>126629583</v>
       </c>
       <c r="E11" t="n">
-        <v>490939682</v>
+        <v>496350048</v>
       </c>
       <c r="F11" t="n">
-        <v>62522.32860877283</v>
+        <v>56090.18900088833</v>
       </c>
       <c r="G11" t="n">
-        <v>60605.16233769244</v>
+        <v>58847.9680883828</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>30969852</v>
+        <v>30758185</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9143418</v>
+        <v>9256506</v>
       </c>
       <c r="E12" t="n">
-        <v>39300627</v>
+        <v>39786706</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4838.208726774001</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3419.82918329527</v>
       </c>
       <c r="H12" t="n">
-        <v>20.55</v>
+        <v>0.51</v>
       </c>
       <c r="I12" t="n">
-        <v>902106</v>
+        <v>793017</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1002688</v>
+        <v>1003593</v>
       </c>
       <c r="E13" t="n">
-        <v>12270192</v>
+        <v>12281274</v>
       </c>
       <c r="F13" t="n">
-        <v>271.0291530136863</v>
+        <v>271.0185310680611</v>
       </c>
       <c r="G13" t="n">
-        <v>199.9126508192895</v>
+        <v>200.0460465642364</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1130.23</v>
+        <v>1139.83</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>588414</v>
+        <v>587679</v>
       </c>
       <c r="E14" t="n">
-        <v>588414</v>
+        <v>587679</v>
       </c>
       <c r="F14" t="n">
-        <v>346.5506755114199</v>
+        <v>309.6008255118309</v>
       </c>
       <c r="G14" t="n">
-        <v>233.4157731887609</v>
+        <v>261.2288136955912</v>
       </c>
       <c r="H14" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I14" t="n">
-        <v>28357</v>
+        <v>28896</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>570424553</v>
+        <v>576332543</v>
       </c>
       <c r="E15" t="n">
-        <v>713516336</v>
+        <v>720906353</v>
       </c>
       <c r="F15" t="n">
-        <v>539743.3204791757</v>
+        <v>472936.9858805577</v>
       </c>
       <c r="G15" t="n">
-        <v>441383.4166104374</v>
+        <v>277339.0830921531</v>
       </c>
       <c r="H15" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I15" t="n">
-        <v>51496880</v>
+        <v>51593642</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3349886</v>
+        <v>3342734</v>
       </c>
       <c r="E16" t="n">
-        <v>9530129</v>
+        <v>9509783</v>
       </c>
       <c r="F16" t="n">
-        <v>52.89580437352608</v>
+        <v>180.1180968196671</v>
       </c>
       <c r="G16" t="n">
-        <v>362.8025486163229</v>
+        <v>68.94908398523364</v>
       </c>
       <c r="H16" t="n">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>127196</v>
+        <v>124329</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>324840</v>
+        <v>325405</v>
       </c>
       <c r="E17" t="n">
-        <v>3749039</v>
+        <v>3755564</v>
       </c>
       <c r="F17" t="n">
-        <v>5.600120927221838</v>
+        <v>5.599891361124071</v>
       </c>
       <c r="G17" t="n">
-        <v>4.79689562611044</v>
+        <v>4.796698986676294</v>
       </c>
       <c r="H17" t="n">
         <v>0.76</v>
       </c>
       <c r="I17" t="n">
-        <v>2810.81</v>
+        <v>2815.98</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1303681</v>
+        <v>1301288</v>
       </c>
       <c r="E18" t="n">
-        <v>10000011</v>
+        <v>9981655</v>
       </c>
       <c r="F18" t="n">
-        <v>240.5694579034676</v>
+        <v>730.4186915207157</v>
       </c>
       <c r="G18" t="n">
-        <v>83.68490326277511</v>
+        <v>105.1229475622537</v>
       </c>
       <c r="H18" t="n">
-        <v>0.74</v>
+        <v>0.39</v>
       </c>
       <c r="I18" t="n">
-        <v>144617</v>
+        <v>139315</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23300431</v>
+        <v>23321517</v>
       </c>
       <c r="E19" t="n">
-        <v>23343895</v>
+        <v>23365020</v>
       </c>
       <c r="F19" t="n">
-        <v>751.8076776741345</v>
+        <v>752.2596302216871</v>
       </c>
       <c r="G19" t="n">
-        <v>1134.210998323735</v>
+        <v>1094.651132766036</v>
       </c>
       <c r="H19" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="I19" t="n">
-        <v>849456</v>
+        <v>858996</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3784104</v>
+        <v>3788573</v>
       </c>
       <c r="E20" t="n">
-        <v>20996448</v>
+        <v>21021248</v>
       </c>
       <c r="F20" t="n">
-        <v>5.402988249070476</v>
+        <v>5.402586669754513</v>
       </c>
       <c r="G20" t="n">
-        <v>3.874877370835423</v>
+        <v>3.874589368986763</v>
       </c>
       <c r="H20" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>7301.68</v>
+        <v>7204.03</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6872381</v>
+        <v>6872787</v>
       </c>
       <c r="E21" t="n">
-        <v>12749715</v>
+        <v>12750470</v>
       </c>
       <c r="F21" t="n">
-        <v>333.2448353584521</v>
+        <v>271.6156612925708</v>
       </c>
       <c r="G21" t="n">
-        <v>455.9210037120018</v>
+        <v>455.9360002867056</v>
       </c>
       <c r="H21" t="n">
         <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>51266</v>
+        <v>50625</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>69924184</v>
+        <v>70053005</v>
       </c>
       <c r="E22" t="n">
-        <v>121104839</v>
+        <v>121326499</v>
       </c>
       <c r="F22" t="n">
-        <v>465.8820553717926</v>
+        <v>396.261921217859</v>
       </c>
       <c r="G22" t="n">
-        <v>698.8472603530267</v>
+        <v>2047.994341332722</v>
       </c>
       <c r="H22" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="I22" t="n">
-        <v>708988</v>
+        <v>717228</v>
       </c>
     </row>
     <row r="23">
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>173095</v>
+        <v>173241</v>
       </c>
       <c r="E23" t="n">
-        <v>520586</v>
+        <v>521026</v>
       </c>
       <c r="F23" t="n">
         <v>5.238231190820482</v>
@@ -1247,7 +1247,7 @@
         <v>0.39</v>
       </c>
       <c r="I23" t="n">
-        <v>182.74</v>
+        <v>182.93</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81163037</v>
+        <v>81642196</v>
       </c>
       <c r="E24" t="n">
-        <v>238791722</v>
+        <v>240201467</v>
       </c>
       <c r="F24" t="n">
-        <v>112.7548621303939</v>
+        <v>137.6178876303748</v>
       </c>
       <c r="G24" t="n">
-        <v>499.1291472514481</v>
+        <v>390.2070165726625</v>
       </c>
       <c r="H24" t="n">
         <v>0.58</v>
       </c>
       <c r="I24" t="n">
-        <v>338064</v>
+        <v>359156</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6886117</v>
+        <v>7096162</v>
       </c>
       <c r="F25" t="n">
-        <v>8.984566609853234</v>
+        <v>4.088057360764334</v>
       </c>
       <c r="G25" t="n">
-        <v>5.479873871863874</v>
+        <v>5.479694458808327</v>
       </c>
       <c r="H25" t="n">
         <v>0.57</v>
       </c>
       <c r="I25" t="n">
-        <v>21284</v>
+        <v>18393.93</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2437446</v>
+        <v>2438824</v>
       </c>
       <c r="E26" t="n">
-        <v>2437446</v>
+        <v>2438824</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>7.05</v>
       </c>
       <c r="I26" t="n">
-        <v>328129</v>
+        <v>323793</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17678237</v>
+        <v>17763565</v>
       </c>
       <c r="E27" t="n">
-        <v>22753342</v>
+        <v>22863167</v>
       </c>
       <c r="F27" t="n">
-        <v>4714.113369550939</v>
+        <v>5153.694732832745</v>
       </c>
       <c r="G27" t="n">
-        <v>1343.010085592077</v>
+        <v>1976.712558628484</v>
       </c>
       <c r="H27" t="n">
         <v>0.36</v>
       </c>
       <c r="I27" t="n">
-        <v>1863002</v>
+        <v>1685108</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4665017</v>
+        <v>4671464</v>
       </c>
       <c r="E28" t="n">
-        <v>4665017</v>
+        <v>4671464</v>
       </c>
       <c r="F28" t="n">
-        <v>1217.783702868484</v>
+        <v>986.2210069744131</v>
       </c>
       <c r="G28" t="n">
-        <v>750.4801873877171</v>
+        <v>1454.520630217855</v>
       </c>
       <c r="H28" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="I28" t="n">
-        <v>2013720</v>
+        <v>2027004</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1706817</v>
+        <v>1710945</v>
       </c>
       <c r="F29" t="n">
-        <v>78.74191683768277</v>
+        <v>83.43637003315006</v>
       </c>
       <c r="G29" t="n">
-        <v>369.8363443477428</v>
+        <v>387.409940262807</v>
       </c>
       <c r="H29" t="n">
-        <v>3.33</v>
+        <v>2.52</v>
       </c>
       <c r="I29" t="n">
-        <v>137949</v>
+        <v>140235</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3390104</v>
+        <v>3375099</v>
       </c>
       <c r="E30" t="n">
-        <v>3390104</v>
+        <v>3375099</v>
       </c>
       <c r="F30" t="n">
-        <v>570.0226784473507</v>
+        <v>466.1485276244836</v>
       </c>
       <c r="G30" t="n">
-        <v>636.2075377600344</v>
+        <v>709.2614757007963</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="I30" t="n">
-        <v>527867</v>
+        <v>518991</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>349400</v>
+        <v>340887</v>
       </c>
       <c r="E31" t="n">
-        <v>1631035</v>
+        <v>1591295</v>
       </c>
       <c r="F31" t="n">
-        <v>408.9306150049724</v>
+        <v>236.3991005699485</v>
       </c>
       <c r="G31" t="n">
-        <v>149.7145865543011</v>
+        <v>116.039872887901</v>
       </c>
       <c r="H31" t="n">
-        <v>0.61</v>
+        <v>2.48</v>
       </c>
       <c r="I31" t="n">
-        <v>749967</v>
+        <v>731674</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>351289</v>
+        <v>350784</v>
       </c>
       <c r="E32" t="n">
-        <v>351289</v>
+        <v>350784</v>
       </c>
       <c r="F32" t="n">
-        <v>93.23266807925398</v>
+        <v>63.90585806549285</v>
       </c>
       <c r="G32" t="n">
-        <v>3.989384741167694</v>
+        <v>3.988925015842629</v>
       </c>
       <c r="H32" t="n">
         <v>0.14</v>
       </c>
       <c r="I32" t="n">
-        <v>47170</v>
+        <v>46575</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1865149</v>
+        <v>1857657</v>
       </c>
       <c r="F33" t="n">
-        <v>52.36953729659025</v>
+        <v>52.36345352752589</v>
       </c>
       <c r="G33" t="n">
-        <v>10.06903949213233</v>
+        <v>9.973355170117372</v>
       </c>
       <c r="H33" t="n">
         <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1214060</v>
+        <v>631022</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1599383</v>
+        <v>1509945</v>
       </c>
       <c r="F34" t="n">
-        <v>642.2996843947707</v>
+        <v>238.3981736876357</v>
       </c>
       <c r="G34" t="n">
-        <v>333.7486324592829</v>
+        <v>217.2826211035339</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="I34" t="n">
-        <v>248942</v>
+        <v>256415</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12810587</v>
+        <v>12791214</v>
       </c>
       <c r="E35" t="n">
-        <v>31883234</v>
+        <v>31835018</v>
       </c>
       <c r="F35" t="n">
-        <v>999.0155160911208</v>
+        <v>1007.158715111113</v>
       </c>
       <c r="G35" t="n">
-        <v>1725.638358098025</v>
+        <v>1648.483497892333</v>
       </c>
       <c r="H35" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="I35" t="n">
-        <v>1407595</v>
+        <v>1407371</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7014254</v>
+        <v>6927716</v>
       </c>
       <c r="E36" t="n">
-        <v>9660420</v>
+        <v>9541235</v>
       </c>
       <c r="F36" t="n">
-        <v>366.0423819519929</v>
+        <v>632.7878193651484</v>
       </c>
       <c r="G36" t="n">
-        <v>132.4968838946107</v>
+        <v>483.5414208180607</v>
       </c>
       <c r="H36" t="n">
-        <v>2.11</v>
+        <v>1.61</v>
       </c>
       <c r="I36" t="n">
-        <v>604096</v>
+        <v>557147</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>903650</v>
+        <v>899334</v>
       </c>
       <c r="E37" t="n">
-        <v>6325550</v>
+        <v>6295337</v>
       </c>
       <c r="F37" t="n">
-        <v>330.2207951101033</v>
+        <v>336.6529877660092</v>
       </c>
       <c r="G37" t="n">
-        <v>253.7901415287485</v>
+        <v>258.3359868051733</v>
       </c>
       <c r="H37" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>179079</v>
+        <v>156109</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>109191194</v>
+        <v>111168025</v>
       </c>
       <c r="E38" t="n">
-        <v>424900266</v>
+        <v>432578237</v>
       </c>
       <c r="F38" t="n">
-        <v>14423.10161547799</v>
+        <v>11793.90222561186</v>
       </c>
       <c r="G38" t="n">
-        <v>20397.07307327129</v>
+        <v>20905.41782586016</v>
       </c>
       <c r="H38" t="n">
         <v>0.12</v>
       </c>
       <c r="I38" t="n">
-        <v>7927132</v>
+        <v>7974452</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5413772</v>
+        <v>5527027</v>
       </c>
       <c r="E39" t="n">
-        <v>5672768</v>
+        <v>5791441</v>
       </c>
       <c r="F39" t="n">
-        <v>172.7536821837778</v>
+        <v>74.87754541637817</v>
       </c>
       <c r="G39" t="n">
-        <v>2451.716341440639</v>
+        <v>1705.602639969775</v>
       </c>
       <c r="H39" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>136079</v>
+        <v>177175</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5182604</v>
+        <v>5171379</v>
       </c>
       <c r="E40" t="n">
-        <v>7629074</v>
+        <v>7612550</v>
       </c>
       <c r="F40" t="n">
-        <v>700.3959570143962</v>
+        <v>668.160157928103</v>
       </c>
       <c r="G40" t="n">
-        <v>276.1294688522164</v>
+        <v>743.3836953982294</v>
       </c>
       <c r="H40" t="n">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
       <c r="I40" t="n">
-        <v>640513</v>
+        <v>680904</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7674701</v>
+        <v>7677233</v>
       </c>
       <c r="E41" t="n">
-        <v>7674701</v>
+        <v>7677233</v>
       </c>
       <c r="F41" t="n">
-        <v>1803.020166073774</v>
+        <v>1728.585332821199</v>
       </c>
       <c r="G41" t="n">
-        <v>1815.142571601373</v>
+        <v>1914.427203882369</v>
       </c>
       <c r="H41" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="I41" t="n">
-        <v>269068</v>
+        <v>313537</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1454855</v>
+        <v>1454589</v>
       </c>
       <c r="E42" t="n">
-        <v>1454855</v>
+        <v>1454589</v>
       </c>
       <c r="F42" t="n">
-        <v>356.7513217217016</v>
+        <v>351.6396089609045</v>
       </c>
       <c r="G42" t="n">
-        <v>192.7488085932648</v>
+        <v>212.7455862058282</v>
       </c>
       <c r="H42" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I42" t="n">
-        <v>278958</v>
+        <v>278527</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16083568</v>
+        <v>15983387</v>
       </c>
       <c r="F43" t="n">
-        <v>305.5157491903528</v>
+        <v>302.8153492657785</v>
       </c>
       <c r="G43" t="n">
-        <v>502.8585036497478</v>
+        <v>380.1104228618235</v>
       </c>
       <c r="H43" t="n">
-        <v>0.54</v>
+        <v>0.17</v>
       </c>
       <c r="I43" t="n">
-        <v>8428.59</v>
+        <v>9705.120000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>136244103</v>
+        <v>137704432</v>
       </c>
       <c r="E44" t="n">
-        <v>136244103</v>
+        <v>137704432</v>
       </c>
       <c r="F44" t="n">
-        <v>307273.1661436293</v>
+        <v>359708.014017529</v>
       </c>
       <c r="G44" t="n">
-        <v>400799.9424981738</v>
+        <v>465776.4737097268</v>
       </c>
       <c r="H44" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>61091114</v>
+        <v>63747687</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>64802614</v>
+        <v>65211458</v>
       </c>
       <c r="E45" t="n">
-        <v>332321099</v>
+        <v>334417735</v>
       </c>
       <c r="F45" t="n">
-        <v>89104.86257865342</v>
+        <v>86683.02327246658</v>
       </c>
       <c r="G45" t="n">
-        <v>64457.19187896269</v>
+        <v>67719.37357573872</v>
       </c>
       <c r="H45" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>21187985</v>
+        <v>21443024</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>594841</v>
+        <v>594859</v>
       </c>
       <c r="F46" t="n">
-        <v>149.1095955043746</v>
+        <v>148.9124807662968</v>
       </c>
       <c r="G46" t="n">
-        <v>578.3919203819254</v>
+        <v>577.8787213098047</v>
       </c>
       <c r="H46" t="n">
         <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>1459.73</v>
+        <v>1459.79</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2670946</v>
+        <v>2678089</v>
       </c>
       <c r="E47" t="n">
-        <v>10733922</v>
+        <v>10762630</v>
       </c>
       <c r="F47" t="n">
-        <v>25.37710183641915</v>
+        <v>850.2475446456875</v>
       </c>
       <c r="G47" t="n">
-        <v>23.38252154530208</v>
+        <v>56.56378453083971</v>
       </c>
       <c r="H47" t="n">
-        <v>2.73</v>
+        <v>0.91</v>
       </c>
       <c r="I47" t="n">
-        <v>32460</v>
+        <v>33296</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17649777</v>
+        <v>17641345</v>
       </c>
       <c r="E48" t="n">
-        <v>124402903</v>
+        <v>124342667</v>
       </c>
       <c r="F48" t="n">
-        <v>681.051070683728</v>
+        <v>678.696409962206</v>
       </c>
       <c r="G48" t="n">
-        <v>443.1949693186217</v>
+        <v>572.1673485101397</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="I48" t="n">
-        <v>1111457</v>
+        <v>1098409</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1032622</v>
+        <v>1034332</v>
       </c>
       <c r="E49" t="n">
-        <v>1212052</v>
+        <v>1214059</v>
       </c>
       <c r="F49" t="n">
-        <v>1616.581149302603</v>
+        <v>1471.131599882164</v>
       </c>
       <c r="G49" t="n">
-        <v>4054.733872133915</v>
+        <v>3352.483953163496</v>
       </c>
       <c r="H49" t="n">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>209224</v>
+        <v>211070</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>171060</v>
+        <v>171352</v>
       </c>
       <c r="E50" t="n">
-        <v>2288876</v>
+        <v>2292790</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>53495</v>
+        <v>53603</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>251011457</v>
+        <v>252695643</v>
       </c>
       <c r="E51" t="n">
-        <v>251011457</v>
+        <v>252695643</v>
       </c>
       <c r="F51" t="n">
-        <v>20993.75329388437</v>
+        <v>22810.52244860033</v>
       </c>
       <c r="G51" t="n">
-        <v>28133.70187036972</v>
+        <v>32413.55894425684</v>
       </c>
       <c r="H51" t="n">
         <v>0.35</v>
       </c>
       <c r="I51" t="n">
-        <v>14823735</v>
+        <v>14702495</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1130014</v>
+        <v>1125266</v>
       </c>
       <c r="F52" t="n">
-        <v>4.078280512256856</v>
+        <v>4.078113331055778</v>
       </c>
       <c r="G52" t="n">
-        <v>632.0492029865552</v>
+        <v>632.0232933551362</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>183766</v>
+        <v>181125</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>115179</v>
+        <v>115773</v>
       </c>
       <c r="E54" t="n">
-        <v>115179</v>
+        <v>115773</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>72.28</v>
+        <v>72.89</v>
       </c>
     </row>
     <row r="55">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6827548</v>
+        <v>6797450</v>
       </c>
       <c r="E55" t="n">
-        <v>16583588</v>
+        <v>16510481</v>
       </c>
       <c r="F55" t="n">
         <v>383.1862273965155</v>
@@ -2363,7 +2363,7 @@
         <v>1.01</v>
       </c>
       <c r="I55" t="n">
-        <v>479113</v>
+        <v>483586</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>448542300</v>
+        <v>447031814</v>
       </c>
       <c r="E56" t="n">
-        <v>448542300</v>
+        <v>447031814</v>
       </c>
       <c r="F56" t="n">
-        <v>3671.054940856663</v>
+        <v>3657.458065074316</v>
       </c>
       <c r="G56" t="n">
-        <v>4996.68347831218</v>
+        <v>5037.439849203898</v>
       </c>
       <c r="H56" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>2795229</v>
+        <v>2754708</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2449624</v>
+        <v>2448937</v>
       </c>
       <c r="E57" t="n">
-        <v>2449624</v>
+        <v>2448937</v>
       </c>
       <c r="F57" t="n">
-        <v>2.572269380556163</v>
+        <v>2.572168570347409</v>
       </c>
       <c r="G57" t="n">
-        <v>5.180394168421431</v>
+        <v>5.259890538185371</v>
       </c>
       <c r="H57" t="n">
         <v>0.51</v>
       </c>
       <c r="I57" t="n">
-        <v>57554</v>
+        <v>56507</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>154236156</v>
+        <v>159144842</v>
       </c>
       <c r="E58" t="n">
-        <v>202956743</v>
+        <v>209415999</v>
       </c>
       <c r="F58" t="n">
-        <v>13694.39172435137</v>
+        <v>10491.18162118047</v>
       </c>
       <c r="G58" t="n">
-        <v>23280.62642686083</v>
+        <v>15459.5458600318</v>
       </c>
       <c r="H58" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="I58" t="n">
-        <v>8089479</v>
+        <v>8084713</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1128802</v>
+        <v>1128402</v>
       </c>
       <c r="E59" t="n">
-        <v>12267397</v>
+        <v>12263046</v>
       </c>
       <c r="F59" t="n">
-        <v>12.51623353152966</v>
+        <v>12.54615025523034</v>
       </c>
       <c r="G59" t="n">
-        <v>3.894989809440234</v>
+        <v>3.795383179980682</v>
       </c>
       <c r="H59" t="n">
         <v>0.33</v>
       </c>
       <c r="I59" t="n">
-        <v>31167</v>
+        <v>31146</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2548118</v>
+        <v>2557760</v>
       </c>
       <c r="E60" t="n">
-        <v>6514484</v>
+        <v>6539136</v>
       </c>
       <c r="F60" t="n">
-        <v>277.2562697730306</v>
+        <v>273.3879259368891</v>
       </c>
       <c r="G60" t="n">
-        <v>240.8519060446926</v>
+        <v>255.9142367167003</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>111548</v>
+        <v>112936</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>74900277</v>
+        <v>76270860</v>
       </c>
       <c r="E61" t="n">
-        <v>209637695</v>
+        <v>213474891</v>
       </c>
       <c r="F61" t="n">
-        <v>83168.29390504019</v>
+        <v>53294.54729443762</v>
       </c>
       <c r="G61" t="n">
-        <v>89529.22495364808</v>
+        <v>80707.83216918079</v>
       </c>
       <c r="H61" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I61" t="n">
-        <v>34808682</v>
+        <v>34276041</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>72951408</v>
+        <v>73271543</v>
       </c>
       <c r="E62" t="n">
-        <v>72951408</v>
+        <v>73271543</v>
       </c>
       <c r="F62" t="n">
-        <v>2505.717005731904</v>
+        <v>2654.561448252896</v>
       </c>
       <c r="G62" t="n">
-        <v>4430.79857732751</v>
+        <v>3587.733667428205</v>
       </c>
       <c r="H62" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I62" t="n">
-        <v>3557135</v>
+        <v>3522988</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4147794</v>
+        <v>4137973</v>
       </c>
       <c r="E63" t="n">
-        <v>8179800</v>
+        <v>8160431</v>
       </c>
       <c r="F63" t="n">
-        <v>1672.890413425226</v>
+        <v>1670.928905887098</v>
       </c>
       <c r="G63" t="n">
-        <v>1829.473770326615</v>
+        <v>2153.074234541107</v>
       </c>
       <c r="H63" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="I63" t="n">
-        <v>1623331</v>
+        <v>1619761</v>
       </c>
     </row>
     <row r="64">
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1583375</v>
+        <v>1590607</v>
       </c>
       <c r="E64" t="n">
-        <v>9091147</v>
+        <v>9132672</v>
       </c>
       <c r="F64" t="n">
         <v>237.0921527990839</v>
@@ -2678,7 +2678,7 @@
         <v>1.04</v>
       </c>
       <c r="I64" t="n">
-        <v>305457</v>
+        <v>303357</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>565054</v>
+        <v>564795</v>
       </c>
       <c r="F65" t="n">
-        <v>52.26890850997217</v>
+        <v>53.61680622114614</v>
       </c>
       <c r="G65" t="n">
-        <v>4.132354108258363</v>
+        <v>3.870945003001661</v>
       </c>
       <c r="H65" t="n">
         <v>0.9</v>
       </c>
       <c r="I65" t="n">
-        <v>1709.5</v>
+        <v>1571.38</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31217384</v>
+        <v>31173718</v>
       </c>
       <c r="F66" t="n">
-        <v>864.9160171180888</v>
+        <v>785.4742449577187</v>
       </c>
       <c r="G66" t="n">
-        <v>300.4247151758014</v>
+        <v>321.3130744617885</v>
       </c>
       <c r="H66" t="n">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="I66" t="n">
-        <v>250539</v>
+        <v>247573</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>165487</v>
+        <v>173211</v>
       </c>
       <c r="E67" t="n">
-        <v>1117550</v>
+        <v>1169711</v>
       </c>
       <c r="F67" t="n">
-        <v>10.37527553776025</v>
+        <v>4.059763181830177</v>
       </c>
       <c r="G67" t="n">
-        <v>4.011735492566502</v>
+        <v>18.10661702485587</v>
       </c>
       <c r="H67" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="I67" t="n">
-        <v>2740891</v>
+        <v>2761714</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7648739</v>
+        <v>7636689</v>
       </c>
       <c r="E68" t="n">
-        <v>18014300</v>
+        <v>17985920</v>
       </c>
       <c r="F68" t="n">
-        <v>846.5490021802108</v>
+        <v>846.5158249468014</v>
       </c>
       <c r="G68" t="n">
-        <v>3724.455799886565</v>
+        <v>3736.24900833951</v>
       </c>
       <c r="H68" t="n">
         <v>0.06</v>
       </c>
       <c r="I68" t="n">
-        <v>34224</v>
+        <v>31941</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2975191</v>
+        <v>2965536</v>
       </c>
       <c r="E69" t="n">
-        <v>2975191</v>
+        <v>2965536</v>
       </c>
       <c r="F69" t="n">
-        <v>5.282313519264046</v>
+        <v>4.04129526479097</v>
       </c>
       <c r="G69" t="n">
-        <v>777.1492111793758</v>
+        <v>786.8045624443206</v>
       </c>
       <c r="H69" t="n">
-        <v>0.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>17590.18</v>
+        <v>17676.19</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3358158</v>
+        <v>3358826</v>
       </c>
       <c r="E70" t="n">
-        <v>8286084</v>
+        <v>8287732</v>
       </c>
       <c r="F70" t="n">
-        <v>1316.678298616275</v>
+        <v>1218.837342294153</v>
       </c>
       <c r="G70" t="n">
-        <v>1104.118054760449</v>
+        <v>1156.075137706053</v>
       </c>
       <c r="H70" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>45925</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23079098</v>
+        <v>23051228</v>
       </c>
       <c r="F71" t="n">
-        <v>359.8780889617308</v>
+        <v>407.5908019205142</v>
       </c>
       <c r="G71" t="n">
-        <v>116.3846033091921</v>
+        <v>15.37205344135573</v>
       </c>
       <c r="H71" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I71" t="n">
-        <v>123587</v>
+        <v>123696</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>271904</v>
+        <v>271823</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1917.51</v>
+        <v>1917.45</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>73836849</v>
+        <v>74522029</v>
       </c>
       <c r="E73" t="n">
-        <v>153987325</v>
+        <v>155416273</v>
       </c>
       <c r="F73" t="n">
-        <v>17424.09401675341</v>
+        <v>18208.60068032887</v>
       </c>
       <c r="G73" t="n">
-        <v>285.9737123996645</v>
+        <v>174.255506888011</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="I73" t="n">
-        <v>15928707</v>
+        <v>16068460</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>201423343</v>
+        <v>199483706</v>
       </c>
       <c r="F75" t="n">
-        <v>10751.99037148153</v>
+        <v>8478.917842375133</v>
       </c>
       <c r="G75" t="n">
-        <v>27433.51735916813</v>
+        <v>15469.38667311985</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I75" t="n">
-        <v>4429311</v>
+        <v>4312192</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>84519597</v>
+        <v>84929698</v>
       </c>
       <c r="E76" t="n">
-        <v>116058559</v>
+        <v>116621692</v>
       </c>
       <c r="F76" t="n">
-        <v>456.9304810419206</v>
+        <v>539.6677569227531</v>
       </c>
       <c r="G76" t="n">
-        <v>3885.71463479073</v>
+        <v>4296.010236500822</v>
       </c>
       <c r="H76" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I76" t="n">
-        <v>1019558</v>
+        <v>804419</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>178907</v>
+        <v>179224</v>
       </c>
       <c r="E77" t="n">
-        <v>186830</v>
+        <v>187161</v>
       </c>
       <c r="F77" t="n">
-        <v>3.948444370330212</v>
+        <v>3.952601785582353</v>
       </c>
       <c r="G77" t="n">
-        <v>4.002823361750893</v>
+        <v>4.035769221254445</v>
       </c>
       <c r="H77" t="n">
         <v>0.93</v>
       </c>
       <c r="I77" t="n">
-        <v>443.69</v>
+        <v>387.14</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8063115</v>
+        <v>8058740</v>
       </c>
       <c r="E78" t="n">
-        <v>8869966</v>
+        <v>8865152</v>
       </c>
       <c r="F78" t="n">
-        <v>749.9269925868481</v>
+        <v>513.6877922128341</v>
       </c>
       <c r="G78" t="n">
-        <v>162.0366798059394</v>
+        <v>221.1451952720798</v>
       </c>
       <c r="H78" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="I78" t="n">
-        <v>743878</v>
+        <v>739059</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28226777</v>
+        <v>28304777</v>
       </c>
       <c r="E79" t="n">
-        <v>28226777</v>
+        <v>28304777</v>
       </c>
       <c r="F79" t="n">
-        <v>504.4701865878622</v>
+        <v>1101.396425016784</v>
       </c>
       <c r="G79" t="n">
-        <v>1012.994256498343</v>
+        <v>779.7409993605758</v>
       </c>
       <c r="H79" t="n">
-        <v>0.89</v>
+        <v>0.34</v>
       </c>
       <c r="I79" t="n">
-        <v>288599</v>
+        <v>284559</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>269894591</v>
+        <v>271576371</v>
       </c>
       <c r="E80" t="n">
-        <v>269894591</v>
+        <v>271576371</v>
       </c>
       <c r="F80" t="n">
-        <v>4491.537357571646</v>
+        <v>1313.596759062271</v>
       </c>
       <c r="G80" t="n">
-        <v>2799.308980530336</v>
+        <v>14668.90973924774</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="I80" t="n">
-        <v>9697841</v>
+        <v>9645767</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>636897655</v>
+        <v>643139598</v>
       </c>
       <c r="E81" t="n">
-        <v>636897655</v>
+        <v>643139598</v>
       </c>
       <c r="F81" t="n">
-        <v>1343231.197548255</v>
+        <v>1468354.099221727</v>
       </c>
       <c r="G81" t="n">
-        <v>1372281.961847908</v>
+        <v>1193544.43061366</v>
       </c>
       <c r="H81" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="I81" t="n">
-        <v>286440801</v>
+        <v>287376588</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>119449</v>
+        <v>119822</v>
       </c>
       <c r="E82" t="n">
-        <v>119449</v>
+        <v>119822</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>304.89</v>
+        <v>305.03</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>201136266</v>
+        <v>201295983</v>
       </c>
       <c r="E83" t="n">
-        <v>698765568</v>
+        <v>699320437</v>
       </c>
       <c r="F83" t="n">
-        <v>1139.179646687723</v>
+        <v>1239.134895596316</v>
       </c>
       <c r="G83" t="n">
-        <v>2020.295047325954</v>
+        <v>1550.157116039263</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="I83" t="n">
-        <v>27173996</v>
+        <v>27287823</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3331870</v>
+        <v>3517858</v>
       </c>
       <c r="E84" t="n">
-        <v>3331870</v>
+        <v>3517858</v>
       </c>
       <c r="F84" t="n">
-        <v>3489.836128672144</v>
+        <v>2910.678291772092</v>
       </c>
       <c r="G84" t="n">
-        <v>989.3325801935596</v>
+        <v>1481.086197472066</v>
       </c>
       <c r="H84" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="I84" t="n">
-        <v>2768710</v>
+        <v>2785115</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>113605635</v>
+        <v>114566749</v>
       </c>
       <c r="E85" t="n">
-        <v>482831057</v>
+        <v>486886103</v>
       </c>
       <c r="F85" t="n">
-        <v>335557.9389406081</v>
+        <v>322300.760009198</v>
       </c>
       <c r="G85" t="n">
-        <v>466939.7178339273</v>
+        <v>436445.0915752163</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I85" t="n">
-        <v>14459567</v>
+        <v>14543621</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71608287</v>
+        <v>71748686</v>
       </c>
       <c r="E86" t="n">
-        <v>82161388</v>
+        <v>82322478</v>
       </c>
       <c r="F86" t="n">
-        <v>15911.52821462854</v>
+        <v>22586.12965641195</v>
       </c>
       <c r="G86" t="n">
-        <v>17358.13799089293</v>
+        <v>17751.17203569303</v>
       </c>
       <c r="H86" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="I86" t="n">
-        <v>1151304</v>
+        <v>1156045</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3133338</v>
+        <v>3135305</v>
       </c>
       <c r="E87" t="n">
-        <v>15709930</v>
+        <v>15719788</v>
       </c>
       <c r="F87" t="n">
-        <v>3.966326341718456</v>
+        <v>4.207922129483791</v>
       </c>
       <c r="G87" t="n">
-        <v>5.567456081088467</v>
+        <v>74.57494200018424</v>
       </c>
       <c r="H87" t="n">
         <v>0.92</v>
       </c>
       <c r="I87" t="n">
-        <v>33794</v>
+        <v>33369</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>536416</v>
+        <v>537211</v>
       </c>
       <c r="E88" t="n">
-        <v>9175352</v>
+        <v>9188952</v>
       </c>
       <c r="F88" t="n">
-        <v>3.126406050332882</v>
+        <v>203.6065081991513</v>
       </c>
       <c r="G88" t="n">
-        <v>19.40829952304305</v>
+        <v>41.96526057255312</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I88" t="n">
-        <v>174323</v>
+        <v>172274</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5791808</v>
+        <v>5623686</v>
       </c>
       <c r="E89" t="n">
-        <v>7868677</v>
+        <v>7640094</v>
       </c>
       <c r="F89" t="n">
-        <v>668.5251844508018</v>
+        <v>642.2135234970942</v>
       </c>
       <c r="G89" t="n">
-        <v>117.5639666099077</v>
+        <v>50.96191455639548</v>
       </c>
       <c r="H89" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="I89" t="n">
-        <v>5914908</v>
+        <v>5876741</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40523310</v>
+        <v>40555936</v>
       </c>
       <c r="E90" t="n">
-        <v>47330263</v>
+        <v>47368370</v>
       </c>
       <c r="F90" t="n">
-        <v>290.3391540008873</v>
+        <v>159.5010131676888</v>
       </c>
       <c r="G90" t="n">
-        <v>66.85370570342248</v>
+        <v>115.1865879264063</v>
       </c>
       <c r="H90" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="I90" t="n">
-        <v>877397</v>
+        <v>877980</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14369852</v>
+        <v>14481658</v>
       </c>
       <c r="F91" t="n">
-        <v>189.6744453985719</v>
+        <v>118.2064716549725</v>
       </c>
       <c r="G91" t="n">
-        <v>281.7576482758565</v>
+        <v>626.307634547829</v>
       </c>
       <c r="H91" t="n">
-        <v>1.28</v>
+        <v>1.97</v>
       </c>
       <c r="I91" t="n">
-        <v>303577</v>
+        <v>143949</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35874843</v>
+        <v>35961098</v>
       </c>
       <c r="E92" t="n">
-        <v>35874843</v>
+        <v>35961098</v>
       </c>
       <c r="F92" t="n">
-        <v>26.7797278242645</v>
+        <v>26.70579273780513</v>
       </c>
       <c r="G92" t="n">
-        <v>886.1078107807667</v>
+        <v>971.3106504323343</v>
       </c>
       <c r="H92" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="I92" t="n">
-        <v>807419</v>
+        <v>800338</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17317746</v>
+        <v>17360965</v>
       </c>
       <c r="F93" t="n">
-        <v>113.026377567779</v>
+        <v>124.0187179015108</v>
       </c>
       <c r="G93" t="n">
-        <v>261.3972052541298</v>
+        <v>479.5720341152367</v>
       </c>
       <c r="H93" t="n">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="I93" t="n">
-        <v>177290</v>
+        <v>174949</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>627472</v>
+        <v>644687</v>
       </c>
       <c r="E94" t="n">
-        <v>7610622</v>
+        <v>7819431</v>
       </c>
       <c r="F94" t="n">
-        <v>514.7204182000918</v>
+        <v>464.4279132828916</v>
       </c>
       <c r="G94" t="n">
-        <v>4.150046800474581</v>
+        <v>102.0768998203781</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I94" t="n">
-        <v>2897942</v>
+        <v>2395632</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25489249</v>
+        <v>25632406</v>
       </c>
       <c r="E95" t="n">
-        <v>36028058</v>
+        <v>36230405</v>
       </c>
       <c r="F95" t="n">
-        <v>31.37442869068087</v>
+        <v>4.082807150639197</v>
       </c>
       <c r="G95" t="n">
-        <v>5.363659917718984</v>
+        <v>5.369912909120343</v>
       </c>
       <c r="H95" t="n">
-        <v>0.47</v>
+        <v>0.72</v>
       </c>
       <c r="I95" t="n">
-        <v>63939</v>
+        <v>62749</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1258853146</v>
+        <v>1275110829</v>
       </c>
       <c r="E96" t="n">
-        <v>6036458644</v>
+        <v>6114417563</v>
       </c>
       <c r="F96" t="n">
-        <v>617938.4345998722</v>
+        <v>500143.3266939492</v>
       </c>
       <c r="G96" t="n">
-        <v>597106.0947453713</v>
+        <v>619866.7893119276</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>160716281</v>
+        <v>159709380</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>265030976</v>
+        <v>268842153</v>
       </c>
       <c r="E97" t="n">
-        <v>1144020821</v>
+        <v>1160471979</v>
       </c>
       <c r="F97" t="n">
-        <v>295335.0269728776</v>
+        <v>268168.9670793335</v>
       </c>
       <c r="G97" t="n">
-        <v>975216.6264000349</v>
+        <v>1092977.113657375</v>
       </c>
       <c r="H97" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>102549300</v>
+        <v>98938737</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5006279</v>
+        <v>5008959</v>
       </c>
       <c r="E98" t="n">
-        <v>5547955</v>
+        <v>5550924</v>
       </c>
       <c r="F98" t="n">
-        <v>1121.290202533009</v>
+        <v>1198.890781053278</v>
       </c>
       <c r="G98" t="n">
-        <v>274.2161822607366</v>
+        <v>273.7524276952901</v>
       </c>
       <c r="H98" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="I98" t="n">
-        <v>632734</v>
+        <v>614669</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94704</v>
+        <v>94641</v>
       </c>
       <c r="E99" t="n">
-        <v>94704</v>
+        <v>94641</v>
       </c>
       <c r="F99" t="n">
-        <v>4.058605506305624</v>
+        <v>4.165951524929477</v>
       </c>
       <c r="G99" t="n">
-        <v>3.980895087798987</v>
+        <v>3.980731898724537</v>
       </c>
       <c r="H99" t="n">
         <v>0.77</v>
       </c>
       <c r="I99" t="n">
-        <v>5235.62</v>
+        <v>5087.59</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>114406271</v>
+        <v>114421671</v>
       </c>
       <c r="E100" t="n">
-        <v>114406271</v>
+        <v>114421671</v>
       </c>
       <c r="F100" t="n">
-        <v>4900.969311516575</v>
+        <v>7530.230987267639</v>
       </c>
       <c r="G100" t="n">
-        <v>29149.43251697519</v>
+        <v>17091.89443842833</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6152726</v>
+        <v>6161770</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3733214</v>
+        <v>3732124</v>
       </c>
       <c r="F101" t="n">
-        <v>881.8773675489068</v>
+        <v>1940.786128197916</v>
       </c>
       <c r="G101" t="n">
-        <v>1826.655293384619</v>
+        <v>984.7997173371375</v>
       </c>
       <c r="H101" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="I101" t="n">
-        <v>296619</v>
+        <v>294502</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2043863539</v>
+        <v>2041464811</v>
       </c>
       <c r="E102" t="n">
-        <v>2043863539</v>
+        <v>2041464811</v>
       </c>
       <c r="F102" t="n">
-        <v>7147603.363449284</v>
+        <v>6974360.99852287</v>
       </c>
       <c r="G102" t="n">
-        <v>5643316.814549953</v>
+        <v>5660459.156531828</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>6401246819</v>
+        <v>6410013950</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5359562</v>
+        <v>5359660</v>
       </c>
       <c r="E103" t="n">
-        <v>5365628</v>
+        <v>5365726</v>
       </c>
       <c r="F103" t="n">
-        <v>66.67063108216875</v>
+        <v>66.75840719710891</v>
       </c>
       <c r="G103" t="n">
-        <v>82.87669385140909</v>
+        <v>82.91742696690537</v>
       </c>
       <c r="H103" t="n">
         <v>0.75</v>
       </c>
       <c r="I103" t="n">
-        <v>152765</v>
+        <v>152116</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2319180</v>
+        <v>2317175</v>
       </c>
       <c r="F104" t="n">
-        <v>5.153794452978711</v>
+        <v>5.153200684348289</v>
       </c>
       <c r="G104" t="n">
-        <v>281.7252955278068</v>
+        <v>281.7834334216618</v>
       </c>
       <c r="H104" t="n">
         <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>61032</v>
+        <v>59950</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4342960</v>
+        <v>4396969</v>
       </c>
       <c r="E105" t="n">
-        <v>5701740</v>
+        <v>5772647</v>
       </c>
       <c r="F105" t="n">
-        <v>11409.81932139104</v>
+        <v>11135.98537059881</v>
       </c>
       <c r="G105" t="n">
-        <v>11953.94210385468</v>
+        <v>6072.021344488052</v>
       </c>
       <c r="H105" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>555304</v>
+        <v>557601</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19749740</v>
+        <v>19776030</v>
       </c>
       <c r="F106" t="n">
-        <v>167.1037040822806</v>
+        <v>145.815248704958</v>
       </c>
       <c r="G106" t="n">
-        <v>232.7047889299937</v>
+        <v>222.0383652743603</v>
       </c>
       <c r="H106" t="n">
         <v>1.01</v>
       </c>
       <c r="I106" t="n">
-        <v>89698</v>
+        <v>89779</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1308536</v>
+        <v>1308187</v>
       </c>
       <c r="E107" t="n">
-        <v>4878568</v>
+        <v>4877269</v>
       </c>
       <c r="F107" t="n">
-        <v>131.7786570928265</v>
+        <v>173.8805574587379</v>
       </c>
       <c r="G107" t="n">
-        <v>143.8623811290058</v>
+        <v>179.503755450891</v>
       </c>
       <c r="H107" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I107" t="n">
-        <v>459638</v>
+        <v>459027</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4189984</v>
+        <v>4170547</v>
       </c>
       <c r="E108" t="n">
-        <v>12069145</v>
+        <v>12013157</v>
       </c>
       <c r="F108" t="n">
-        <v>24.37776890293819</v>
+        <v>128.8709466211429</v>
       </c>
       <c r="G108" t="n">
-        <v>80.82177941345243</v>
+        <v>125.4497950736999</v>
       </c>
       <c r="H108" t="n">
-        <v>2.94</v>
+        <v>2.29</v>
       </c>
       <c r="I108" t="n">
-        <v>628396</v>
+        <v>632179</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80578814</v>
+        <v>80152771</v>
       </c>
       <c r="E109" t="n">
-        <v>102542803</v>
+        <v>102000630</v>
       </c>
       <c r="F109" t="n">
-        <v>4719.984830473416</v>
+        <v>4042.052910921413</v>
       </c>
       <c r="G109" t="n">
-        <v>638.694396532151</v>
+        <v>710.2315162513021</v>
       </c>
       <c r="H109" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="I109" t="n">
-        <v>5539520</v>
+        <v>6153934</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22507135</v>
+        <v>22832275</v>
       </c>
       <c r="E110" t="n">
-        <v>29196902</v>
+        <v>29618683</v>
       </c>
       <c r="F110" t="n">
-        <v>20946.15980113131</v>
+        <v>17647.81769396503</v>
       </c>
       <c r="G110" t="n">
-        <v>17189.57535306873</v>
+        <v>16341.59050606771</v>
       </c>
       <c r="H110" t="n">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="I110" t="n">
-        <v>165234</v>
+        <v>282334</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>623608</v>
+        <v>640675</v>
       </c>
       <c r="E111" t="n">
-        <v>623608</v>
+        <v>640675</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>5.217772827155724</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>516.6737841848807</v>
       </c>
       <c r="H111" t="n">
-        <v>8.470000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I111" t="n">
-        <v>80649</v>
+        <v>83204</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13562437</v>
+        <v>13581624</v>
       </c>
       <c r="E112" t="n">
-        <v>13562437</v>
+        <v>13581624</v>
       </c>
       <c r="F112" t="n">
-        <v>4165.920813043615</v>
+        <v>3018.153796667174</v>
       </c>
       <c r="G112" t="n">
-        <v>2449.293582102294</v>
+        <v>2101.500635227319</v>
       </c>
       <c r="H112" t="n">
-        <v>0.61</v>
+        <v>0.25</v>
       </c>
       <c r="I112" t="n">
-        <v>4736610</v>
+        <v>4853428</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98081388</v>
+        <v>97841943</v>
       </c>
       <c r="E113" t="n">
-        <v>121323167</v>
+        <v>121026982</v>
       </c>
       <c r="F113" t="n">
-        <v>99.78733819704146</v>
+        <v>111.0295932097178</v>
       </c>
       <c r="G113" t="n">
-        <v>1382.777566075807</v>
+        <v>1382.638047227609</v>
       </c>
       <c r="H113" t="n">
         <v>0.46</v>
       </c>
       <c r="I113" t="n">
-        <v>832633</v>
+        <v>831210</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>852447</v>
+        <v>849762</v>
       </c>
       <c r="F114" t="n">
-        <v>108.0178542504522</v>
+        <v>168.2441453086627</v>
       </c>
       <c r="G114" t="n">
-        <v>250.5627760188408</v>
+        <v>167.0828589447988</v>
       </c>
       <c r="H114" t="n">
-        <v>1.48</v>
+        <v>1.05</v>
       </c>
       <c r="I114" t="n">
-        <v>24552</v>
+        <v>24523</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2786693</v>
+        <v>2794271</v>
       </c>
       <c r="F115" t="n">
-        <v>73.95773350317698</v>
+        <v>170.6137999207166</v>
       </c>
       <c r="G115" t="n">
-        <v>80.8542847535673</v>
+        <v>1083.720602761614</v>
       </c>
       <c r="H115" t="n">
-        <v>1.36</v>
+        <v>1.02</v>
       </c>
       <c r="I115" t="n">
-        <v>31038</v>
+        <v>31185</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11292642</v>
+        <v>11314808</v>
       </c>
       <c r="E116" t="n">
-        <v>16606826</v>
+        <v>16639422</v>
       </c>
       <c r="F116" t="n">
-        <v>3225.86694580739</v>
+        <v>3435.345160949561</v>
       </c>
       <c r="G116" t="n">
-        <v>1380.438175222004</v>
+        <v>1857.153929051336</v>
       </c>
       <c r="H116" t="n">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
       <c r="I116" t="n">
-        <v>590934</v>
+        <v>592616</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3108258</v>
+        <v>3100344</v>
       </c>
       <c r="F117" t="n">
-        <v>4.07493151563094</v>
+        <v>4.074832298545915</v>
       </c>
       <c r="G117" t="n">
-        <v>37.26015494602833</v>
+        <v>419.2240087478374</v>
       </c>
       <c r="H117" t="n">
         <v>0.6</v>
       </c>
       <c r="I117" t="n">
-        <v>35674</v>
+        <v>36964</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1229441</v>
+        <v>1229266</v>
       </c>
       <c r="F118" t="n">
-        <v>3.955345231223531</v>
+        <v>3.729835470479171</v>
       </c>
       <c r="G118" t="n">
-        <v>280.1157761097751</v>
+        <v>279.9449515528939</v>
       </c>
       <c r="H118" t="n">
         <v>0.65</v>
       </c>
       <c r="I118" t="n">
-        <v>5212.16</v>
+        <v>5233.51</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5217969</v>
+        <v>5203570</v>
       </c>
       <c r="E119" t="n">
-        <v>7300695</v>
+        <v>7280549</v>
       </c>
       <c r="F119" t="n">
-        <v>1104.504061217052</v>
+        <v>1047.652300252039</v>
       </c>
       <c r="G119" t="n">
-        <v>1380.425398602358</v>
+        <v>810.1658963536214</v>
       </c>
       <c r="H119" t="n">
         <v>0.53</v>
       </c>
       <c r="I119" t="n">
-        <v>116864</v>
+        <v>116160</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10225248</v>
+        <v>10241314</v>
       </c>
       <c r="E120" t="n">
-        <v>28165007</v>
+        <v>28209263</v>
       </c>
       <c r="F120" t="n">
-        <v>429.6628272802695</v>
+        <v>392.9740225633342</v>
       </c>
       <c r="G120" t="n">
-        <v>13.98808778283987</v>
+        <v>135.8883643082149</v>
       </c>
       <c r="H120" t="n">
-        <v>2.17</v>
+        <v>1.2</v>
       </c>
       <c r="I120" t="n">
-        <v>345326</v>
+        <v>343146</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50949090</v>
+        <v>51139865</v>
       </c>
       <c r="E121" t="n">
-        <v>129795719</v>
+        <v>130281729</v>
       </c>
       <c r="F121" t="n">
-        <v>637.0898086226651</v>
+        <v>576.1556739738584</v>
       </c>
       <c r="G121" t="n">
-        <v>10761.08715165713</v>
+        <v>11062.72914602786</v>
       </c>
       <c r="H121" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="I121" t="n">
-        <v>2395755</v>
+        <v>2374070</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14231218</v>
+        <v>14285859</v>
       </c>
       <c r="E122" t="n">
-        <v>68924059</v>
+        <v>69188694</v>
       </c>
       <c r="F122" t="n">
-        <v>2363.390357506978</v>
+        <v>1844.045135163492</v>
       </c>
       <c r="G122" t="n">
-        <v>3680.397470728392</v>
+        <v>3116.357660935446</v>
       </c>
       <c r="H122" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I122" t="n">
-        <v>3698023</v>
+        <v>3711924</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>508941</v>
+        <v>508685</v>
       </c>
       <c r="F123" t="n">
-        <v>8.070603153350197</v>
+        <v>8.070442350841009</v>
       </c>
       <c r="G123" t="n">
-        <v>3.854125603547013</v>
+        <v>3.854048812128082</v>
       </c>
       <c r="H123" t="n">
         <v>0.29</v>
       </c>
       <c r="I123" t="n">
-        <v>7586.56</v>
+        <v>7352.87</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4590786</v>
+        <v>4583892</v>
       </c>
       <c r="E124" t="n">
-        <v>10464495</v>
+        <v>10448780</v>
       </c>
       <c r="F124" t="n">
-        <v>800.3012526442117</v>
+        <v>800.268445846288</v>
       </c>
       <c r="G124" t="n">
-        <v>2186.646981085269</v>
+        <v>1604.462645951437</v>
       </c>
       <c r="H124" t="n">
         <v>1.51</v>
       </c>
       <c r="I124" t="n">
-        <v>87606</v>
+        <v>87185</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1913659492</v>
+        <v>1919721354</v>
       </c>
       <c r="F125" t="n">
-        <v>74802.07856989597</v>
+        <v>74108.57198285802</v>
       </c>
       <c r="G125" t="n">
-        <v>78290.87973645139</v>
+        <v>73896.44646621624</v>
       </c>
       <c r="H125" t="n">
-        <v>0.99</v>
+        <v>0.73</v>
       </c>
       <c r="I125" t="n">
-        <v>26790504</v>
+        <v>26993443</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9351795</v>
+        <v>9361808</v>
       </c>
       <c r="E126" t="n">
-        <v>34040619</v>
+        <v>34075323</v>
       </c>
       <c r="F126" t="n">
-        <v>1164.35968068769</v>
+        <v>1164.391435040156</v>
       </c>
       <c r="G126" t="n">
-        <v>5.404394665115264</v>
+        <v>5.369069297075037</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>162587</v>
+        <v>157486</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>533616</v>
+        <v>538600</v>
       </c>
       <c r="F127" t="n">
-        <v>64.03814799791718</v>
+        <v>26.77924736532938</v>
       </c>
       <c r="G127" t="n">
-        <v>60.34412226809104</v>
+        <v>162.3818787884451</v>
       </c>
       <c r="H127" t="n">
-        <v>0.41</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I127" t="n">
-        <v>859.23</v>
+        <v>912.97</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12273986</v>
+        <v>12272958</v>
       </c>
       <c r="E128" t="n">
-        <v>17795508</v>
+        <v>17794018</v>
       </c>
       <c r="F128" t="n">
-        <v>799.2478025886326</v>
+        <v>227.5752160278572</v>
       </c>
       <c r="G128" t="n">
-        <v>6280.349164941117</v>
+        <v>6281.881230693931</v>
       </c>
       <c r="H128" t="n">
-        <v>2.25</v>
+        <v>1.17</v>
       </c>
       <c r="I128" t="n">
-        <v>1834624</v>
+        <v>1910356</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31397739</v>
+        <v>31501478</v>
       </c>
       <c r="E129" t="n">
-        <v>97762484</v>
+        <v>98085496</v>
       </c>
       <c r="F129" t="n">
-        <v>8759.91438985063</v>
+        <v>8347.142891131933</v>
       </c>
       <c r="G129" t="n">
-        <v>12406.64156747345</v>
+        <v>11736.93145036474</v>
       </c>
       <c r="H129" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I129" t="n">
-        <v>11659634</v>
+        <v>11637811</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2063809</v>
+        <v>2060562</v>
       </c>
       <c r="E130" t="n">
-        <v>14799370</v>
+        <v>14776084</v>
       </c>
       <c r="F130" t="n">
-        <v>42.2414635479796</v>
+        <v>37.39531644345553</v>
       </c>
       <c r="G130" t="n">
-        <v>5.407524603999024</v>
+        <v>3.83513449672927</v>
       </c>
       <c r="H130" t="n">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
       <c r="I130" t="n">
-        <v>1978872</v>
+        <v>1975894</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7497028</v>
+        <v>7492866</v>
       </c>
       <c r="F131" t="n">
-        <v>122.4552950400484</v>
+        <v>334.9397409650243</v>
       </c>
       <c r="G131" t="n">
-        <v>283.7035742885923</v>
+        <v>127.6590336155762</v>
       </c>
       <c r="H131" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="I131" t="n">
-        <v>516379</v>
+        <v>518027</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>197784459</v>
+        <v>199225020</v>
       </c>
       <c r="E132" t="n">
-        <v>1119977137</v>
+        <v>1128134475</v>
       </c>
       <c r="F132" t="n">
-        <v>398939.6261090131</v>
+        <v>334589.562788188</v>
       </c>
       <c r="G132" t="n">
-        <v>615058.286055356</v>
+        <v>515513.9919360213</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>62215838</v>
+        <v>62084641</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1035040</v>
+        <v>1035502</v>
       </c>
       <c r="E133" t="n">
-        <v>1035040</v>
+        <v>1035502</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>8203.5</v>
+        <v>8140.54</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>504035</v>
+        <v>503950</v>
       </c>
       <c r="E134" t="n">
-        <v>1696512</v>
+        <v>1696225</v>
       </c>
       <c r="F134" t="n">
-        <v>90.34373079233869</v>
+        <v>132.1069134872709</v>
       </c>
       <c r="G134" t="n">
-        <v>272.7990610249674</v>
+        <v>237.0181636772</v>
       </c>
       <c r="H134" t="n">
-        <v>0.59</v>
+        <v>1.17</v>
       </c>
       <c r="I134" t="n">
-        <v>628735</v>
+        <v>631486</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>14143683</v>
+        <v>14142696</v>
       </c>
       <c r="F135" t="n">
-        <v>4.013514562632697</v>
+        <v>4.128092952849697</v>
       </c>
       <c r="G135" t="n">
-        <v>5.51142640879233</v>
+        <v>4.156412248276398</v>
       </c>
       <c r="H135" t="n">
         <v>0.35</v>
       </c>
       <c r="I135" t="n">
-        <v>142.86</v>
+        <v>142.82</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>139305529</v>
+        <v>139338126</v>
       </c>
       <c r="E136" t="n">
-        <v>1031892810</v>
+        <v>1032134268</v>
       </c>
       <c r="F136" t="n">
-        <v>59306.41013759524</v>
+        <v>40815.84116049274</v>
       </c>
       <c r="G136" t="n">
-        <v>59320.61877926397</v>
+        <v>40612.70667037138</v>
       </c>
       <c r="H136" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I136" t="n">
-        <v>10068251</v>
+        <v>9983381</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31319285</v>
+        <v>31446942</v>
       </c>
       <c r="E137" t="n">
-        <v>148789196</v>
+        <v>149395655</v>
       </c>
       <c r="F137" t="n">
-        <v>16386.08632599419</v>
+        <v>16634.80396359002</v>
       </c>
       <c r="G137" t="n">
-        <v>16850.43552588576</v>
+        <v>16720.20085739472</v>
       </c>
       <c r="H137" t="n">
         <v>0.34</v>
       </c>
       <c r="I137" t="n">
-        <v>1138671</v>
+        <v>1131685</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8012867</v>
+        <v>8022912</v>
       </c>
       <c r="E138" t="n">
-        <v>10734570</v>
+        <v>10748028</v>
       </c>
       <c r="F138" t="n">
-        <v>456.3003112270541</v>
+        <v>366.2420931674766</v>
       </c>
       <c r="G138" t="n">
-        <v>143.8030186198752</v>
+        <v>163.0946767674338</v>
       </c>
       <c r="H138" t="n">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="I138" t="n">
-        <v>59450</v>
+        <v>59208</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1225111</v>
+        <v>1230768</v>
       </c>
       <c r="F139" t="n">
-        <v>96.16696956330102</v>
+        <v>96.14036133465004</v>
       </c>
       <c r="G139" t="n">
-        <v>3.849432445345844</v>
+        <v>3.849281581641081</v>
       </c>
       <c r="H139" t="n">
         <v>0.93</v>
       </c>
       <c r="I139" t="n">
-        <v>46622</v>
+        <v>46780</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2369255</v>
+        <v>2372172</v>
       </c>
       <c r="E140" t="n">
-        <v>2369255</v>
+        <v>2372172</v>
       </c>
       <c r="F140" t="n">
-        <v>1557.275634625012</v>
+        <v>1586.477126827246</v>
       </c>
       <c r="G140" t="n">
-        <v>363.4063745015318</v>
+        <v>352.6021945747182</v>
       </c>
       <c r="H140" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="I140" t="n">
-        <v>260463</v>
+        <v>260823</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26273689</v>
+        <v>26335443</v>
       </c>
       <c r="E141" t="n">
-        <v>26273689</v>
+        <v>26335443</v>
       </c>
       <c r="F141" t="n">
-        <v>683.8779442705865</v>
+        <v>738.1599911980128</v>
       </c>
       <c r="G141" t="n">
-        <v>1276.343052890587</v>
+        <v>2202.392531306166</v>
       </c>
       <c r="H141" t="n">
-        <v>1.26</v>
+        <v>0.24</v>
       </c>
       <c r="I141" t="n">
-        <v>305757</v>
+        <v>309663</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6354374</v>
+        <v>6338188</v>
       </c>
       <c r="E142" t="n">
-        <v>6710930</v>
+        <v>6693836</v>
       </c>
       <c r="F142" t="n">
-        <v>427.0001041865189</v>
+        <v>444.5052045214964</v>
       </c>
       <c r="G142" t="n">
-        <v>248.0920125043101</v>
+        <v>170.4377020749786</v>
       </c>
       <c r="H142" t="n">
-        <v>0.89</v>
+        <v>1.62</v>
       </c>
       <c r="I142" t="n">
-        <v>38457</v>
+        <v>36731</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3408032</v>
+        <v>3416908</v>
       </c>
       <c r="E143" t="n">
-        <v>7958323</v>
+        <v>7979050</v>
       </c>
       <c r="F143" t="n">
-        <v>1311.277307607842</v>
+        <v>649.3833708212464</v>
       </c>
       <c r="G143" t="n">
-        <v>1416.543572810348</v>
+        <v>1136.746115314637</v>
       </c>
       <c r="H143" t="n">
-        <v>0.29</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I143" t="n">
-        <v>660711</v>
+        <v>679539</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1575807</v>
+        <v>1577269</v>
       </c>
       <c r="E144" t="n">
-        <v>12237897</v>
+        <v>12249249</v>
       </c>
       <c r="F144" t="n">
-        <v>200.0709022934261</v>
+        <v>200.2803239759121</v>
       </c>
       <c r="G144" t="n">
-        <v>8725.734631586694</v>
+        <v>5710.709459494166</v>
       </c>
       <c r="H144" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="I144" t="n">
-        <v>484476</v>
+        <v>484777</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>335316456</v>
+        <v>338645070</v>
       </c>
       <c r="E145" t="n">
-        <v>3016714761</v>
+        <v>3046661035</v>
       </c>
       <c r="F145" t="n">
-        <v>543620.0671441458</v>
+        <v>465267.7732578013</v>
       </c>
       <c r="G145" t="n">
-        <v>716412.6038166864</v>
+        <v>630715.9505927243</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>37422992</v>
+        <v>37633910</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>246437</v>
+        <v>246020</v>
       </c>
       <c r="E146" t="n">
-        <v>2174990</v>
+        <v>2171314</v>
       </c>
       <c r="F146" t="n">
-        <v>5.336143168982364</v>
+        <v>3.972104923905622</v>
       </c>
       <c r="G146" t="n">
-        <v>33.94461599105264</v>
+        <v>112.3700656516208</v>
       </c>
       <c r="H146" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="I146" t="n">
-        <v>77913</v>
+        <v>78693</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>656117</v>
+        <v>656375</v>
       </c>
       <c r="F147" t="n">
-        <v>583.8602061252968</v>
+        <v>583.7929395941786</v>
       </c>
       <c r="G147" t="n">
-        <v>841.6951868544992</v>
+        <v>841.5982151566772</v>
       </c>
       <c r="H147" t="n">
         <v>0.19</v>
       </c>
       <c r="I147" t="n">
-        <v>3873.72</v>
+        <v>4075.61</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4940582</v>
+        <v>4931648</v>
       </c>
       <c r="E148" t="n">
-        <v>17457373</v>
+        <v>17425808</v>
       </c>
       <c r="F148" t="n">
-        <v>1802.609332617664</v>
+        <v>1883.175126081427</v>
       </c>
       <c r="G148" t="n">
-        <v>2387.167023918815</v>
+        <v>2369.413359734611</v>
       </c>
       <c r="H148" t="n">
         <v>0.17</v>
       </c>
       <c r="I148" t="n">
-        <v>84060</v>
+        <v>87101</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9219435</v>
+        <v>9218375</v>
       </c>
       <c r="E149" t="n">
-        <v>42732611</v>
+        <v>42727699</v>
       </c>
       <c r="F149" t="n">
-        <v>1694.501000380086</v>
+        <v>1845.55839929528</v>
       </c>
       <c r="G149" t="n">
-        <v>3191.242083229125</v>
+        <v>3266.0203738057</v>
       </c>
       <c r="H149" t="n">
         <v>0.21</v>
       </c>
       <c r="I149" t="n">
-        <v>125924</v>
+        <v>125292</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>48271357</v>
+        <v>49817334</v>
       </c>
       <c r="E150" t="n">
-        <v>279471213</v>
+        <v>288421782</v>
       </c>
       <c r="F150" t="n">
-        <v>57459.8869446503</v>
+        <v>67948.76753163125</v>
       </c>
       <c r="G150" t="n">
-        <v>56046.72029744841</v>
+        <v>62546.16514078587</v>
       </c>
       <c r="H150" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>24989014</v>
+        <v>26692478</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>83518</v>
+        <v>83329</v>
       </c>
       <c r="E151" t="n">
-        <v>83518</v>
+        <v>83329</v>
       </c>
       <c r="F151" t="n">
-        <v>4.085981414187989</v>
+        <v>4.08551066829186</v>
       </c>
       <c r="G151" t="n">
-        <v>4.115667362578449</v>
+        <v>4.115193196564371</v>
       </c>
       <c r="H151" t="n">
         <v>0.92</v>
       </c>
       <c r="I151" t="n">
-        <v>22455</v>
+        <v>22502</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4424913</v>
+        <v>4431496</v>
       </c>
       <c r="F152" t="n">
-        <v>883.3589188234629</v>
+        <v>834.1939211157305</v>
       </c>
       <c r="G152" t="n">
-        <v>236.9356894954443</v>
+        <v>283.6374358882466</v>
       </c>
       <c r="H152" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I152" t="n">
-        <v>300489</v>
+        <v>303955</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>40067184</v>
+        <v>40101245</v>
       </c>
       <c r="E153" t="n">
-        <v>55338486</v>
+        <v>55385529</v>
       </c>
       <c r="F153" t="n">
-        <v>671.2164648276066</v>
+        <v>4419.621068042261</v>
       </c>
       <c r="G153" t="n">
-        <v>1833.710638539932</v>
+        <v>7607.959553037946</v>
       </c>
       <c r="H153" t="n">
-        <v>1.2</v>
+        <v>0.38</v>
       </c>
       <c r="I153" t="n">
-        <v>336530</v>
+        <v>339503</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2135809</v>
+        <v>2124500</v>
       </c>
       <c r="E154" t="n">
-        <v>8722090</v>
+        <v>8675909</v>
       </c>
       <c r="F154" t="n">
-        <v>855.0403237517686</v>
+        <v>484.3195118420721</v>
       </c>
       <c r="G154" t="n">
-        <v>259.6661592173757</v>
+        <v>414.6976068840638</v>
       </c>
       <c r="H154" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I154" t="n">
-        <v>566429</v>
+        <v>567268</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7386448</v>
+        <v>7441787</v>
       </c>
       <c r="E155" t="n">
-        <v>7441354</v>
+        <v>7497104</v>
       </c>
       <c r="F155" t="n">
-        <v>2982.762133569329</v>
+        <v>2301.200156456071</v>
       </c>
       <c r="G155" t="n">
-        <v>2302.702103542936</v>
+        <v>658.8908150815936</v>
       </c>
       <c r="H155" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I155" t="n">
-        <v>5134518</v>
+        <v>5123161</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>456288</v>
+        <v>496725</v>
       </c>
       <c r="E156" t="n">
-        <v>456288</v>
+        <v>496725</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>23.37</v>
+        <v>27.2</v>
       </c>
       <c r="I156" t="n">
-        <v>10358.84</v>
+        <v>11300.8</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13368671</v>
+        <v>13404279</v>
       </c>
       <c r="E157" t="n">
-        <v>13414166</v>
+        <v>13449895</v>
       </c>
       <c r="F157" t="n">
-        <v>5970.306050523051</v>
+        <v>4811.74827054533</v>
       </c>
       <c r="G157" t="n">
-        <v>2659.680622078577</v>
+        <v>4435.496108834118</v>
       </c>
       <c r="H157" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I157" t="n">
-        <v>5856339</v>
+        <v>5846929</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42808281</v>
+        <v>42800236</v>
       </c>
       <c r="E158" t="n">
-        <v>72678502</v>
+        <v>72664843</v>
       </c>
       <c r="F158" t="n">
-        <v>536.1701363376865</v>
+        <v>583.644869652397</v>
       </c>
       <c r="G158" t="n">
-        <v>747.5120730671247</v>
+        <v>777.7443523335307</v>
       </c>
       <c r="H158" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I158" t="n">
-        <v>1122785</v>
+        <v>1122898</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>23231720</v>
+        <v>22891357</v>
       </c>
       <c r="E159" t="n">
-        <v>69638014</v>
+        <v>68617761</v>
       </c>
       <c r="F159" t="n">
-        <v>21904.73728628121</v>
+        <v>15817.82788802131</v>
       </c>
       <c r="G159" t="n">
-        <v>13142.18158789093</v>
+        <v>11060.09870600514</v>
       </c>
       <c r="H159" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I159" t="n">
-        <v>3059407</v>
+        <v>3097295</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101382458</v>
+        <v>101408037</v>
       </c>
       <c r="E160" t="n">
-        <v>107778716</v>
+        <v>107805908</v>
       </c>
       <c r="F160" t="n">
-        <v>1250.019410304938</v>
+        <v>1479.935376751776</v>
       </c>
       <c r="G160" t="n">
-        <v>1467.233326665429</v>
+        <v>1064.451337033615</v>
       </c>
       <c r="H160" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="I160" t="n">
-        <v>387044</v>
+        <v>385710</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10451514</v>
+        <v>10365994</v>
       </c>
       <c r="E161" t="n">
-        <v>45411519</v>
+        <v>45039553</v>
       </c>
       <c r="F161" t="n">
-        <v>4329.024548824106</v>
+        <v>4151.511911484088</v>
       </c>
       <c r="G161" t="n">
-        <v>2671.296639254077</v>
+        <v>3530.985091387253</v>
       </c>
       <c r="H161" t="n">
-        <v>0.14</v>
+        <v>0.47</v>
       </c>
       <c r="I161" t="n">
-        <v>112656</v>
+        <v>113650</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15431081</v>
+        <v>15503799</v>
       </c>
       <c r="E162" t="n">
-        <v>94582170</v>
+        <v>95027880</v>
       </c>
       <c r="F162" t="n">
-        <v>1214.819991144127</v>
+        <v>2332.632360319117</v>
       </c>
       <c r="G162" t="n">
-        <v>1507.497012348914</v>
+        <v>871.2208934406353</v>
       </c>
       <c r="H162" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I162" t="n">
-        <v>11266353</v>
+        <v>11198618</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1500940</v>
+        <v>1506253</v>
       </c>
       <c r="E163" t="n">
-        <v>1543160</v>
+        <v>1548622</v>
       </c>
       <c r="F163" t="n">
-        <v>91.62325668590415</v>
+        <v>77.21161223656966</v>
       </c>
       <c r="G163" t="n">
-        <v>60.71658044084953</v>
+        <v>60.71409413399469</v>
       </c>
       <c r="H163" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="I163" t="n">
-        <v>146656</v>
+        <v>147846</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>96328</v>
+        <v>96281</v>
       </c>
       <c r="E164" t="n">
-        <v>273260</v>
+        <v>273126</v>
       </c>
       <c r="F164" t="n">
-        <v>3.030135142066713</v>
+        <v>3.029786040213755</v>
       </c>
       <c r="G164" t="n">
-        <v>106.8385527350789</v>
+        <v>106.8262438660092</v>
       </c>
       <c r="H164" t="n">
         <v>0.51</v>
       </c>
       <c r="I164" t="n">
-        <v>41.61</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>46964319</v>
+        <v>47137069</v>
       </c>
       <c r="E165" t="n">
-        <v>202317151</v>
+        <v>203061340</v>
       </c>
       <c r="F165" t="n">
-        <v>3607.416117431658</v>
+        <v>3301.246376594424</v>
       </c>
       <c r="G165" t="n">
-        <v>5517.620752667635</v>
+        <v>5075.918967228025</v>
       </c>
       <c r="H165" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I165" t="n">
-        <v>8603970</v>
+        <v>8944074</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7691563</v>
+        <v>7656834</v>
       </c>
       <c r="F166" t="n">
-        <v>100.6865852234685</v>
+        <v>82.20800984081775</v>
       </c>
       <c r="G166" t="n">
-        <v>584.9432398457775</v>
+        <v>290.003469448382</v>
       </c>
       <c r="H166" t="n">
-        <v>0.48</v>
+        <v>0.87</v>
       </c>
       <c r="I166" t="n">
-        <v>6589783</v>
+        <v>6590727</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>671869</v>
+        <v>671957</v>
       </c>
       <c r="E167" t="n">
-        <v>2425810</v>
+        <v>2426130</v>
       </c>
       <c r="F167" t="n">
-        <v>50.37367546668072</v>
+        <v>50.65738509409454</v>
       </c>
       <c r="G167" t="n">
-        <v>10.84740043394183</v>
+        <v>10.33472660086945</v>
       </c>
       <c r="H167" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>359378</v>
+        <v>357060</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1593687</v>
+        <v>1605595</v>
       </c>
       <c r="F168" t="n">
-        <v>17.00403736373949</v>
+        <v>17.00153816440561</v>
       </c>
       <c r="G168" t="n">
-        <v>27.07204085690102</v>
+        <v>22.00241657297551</v>
       </c>
       <c r="H168" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="I168" t="n">
-        <v>85875</v>
+        <v>86821</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>12986234</v>
+        <v>13136036</v>
       </c>
       <c r="E169" t="n">
-        <v>12986234</v>
+        <v>13136036</v>
       </c>
       <c r="F169" t="n">
-        <v>212.6532780061039</v>
+        <v>508.2846552092689</v>
       </c>
       <c r="G169" t="n">
-        <v>1096.319001806023</v>
+        <v>69.65588932926144</v>
       </c>
       <c r="H169" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="I169" t="n">
-        <v>3526455</v>
+        <v>3560271</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1737247</v>
+        <v>1787738</v>
       </c>
       <c r="E170" t="n">
-        <v>6312080</v>
+        <v>6494917</v>
       </c>
       <c r="F170" t="n">
-        <v>724.6803639069873</v>
+        <v>337.2741423321575</v>
       </c>
       <c r="G170" t="n">
-        <v>118.7962036525693</v>
+        <v>175.5037473784605</v>
       </c>
       <c r="H170" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="I170" t="n">
-        <v>120109</v>
+        <v>119925</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8990836</v>
+        <v>8984733</v>
       </c>
       <c r="E171" t="n">
-        <v>19964489</v>
+        <v>19950936</v>
       </c>
       <c r="F171" t="n">
-        <v>1630.100908312328</v>
+        <v>1759.026521448922</v>
       </c>
       <c r="G171" t="n">
-        <v>1629.009499799389</v>
+        <v>1597.248976382568</v>
       </c>
       <c r="H171" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="I171" t="n">
-        <v>346497</v>
+        <v>331620</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1036559</v>
+        <v>1038292</v>
       </c>
       <c r="E172" t="n">
-        <v>3029682</v>
+        <v>3034747</v>
       </c>
       <c r="F172" t="n">
-        <v>86.47434859454232</v>
+        <v>86.46429716195196</v>
       </c>
       <c r="G172" t="n">
-        <v>687.6763159068092</v>
+        <v>687.6184276271855</v>
       </c>
       <c r="H172" t="n">
         <v>0.43</v>
       </c>
       <c r="I172" t="n">
-        <v>21018</v>
+        <v>20958</v>
       </c>
     </row>
     <row r="173">
@@ -6460,10 +6460,10 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20609585</v>
+        <v>20565721</v>
       </c>
       <c r="E173" t="n">
-        <v>82438341</v>
+        <v>82262883</v>
       </c>
       <c r="F173" t="n">
         <v>19770.2904264145</v>
@@ -6475,7 +6475,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="I173" t="n">
-        <v>4674003</v>
+        <v>4864841</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4197925</v>
+        <v>4203213</v>
       </c>
       <c r="E174" t="n">
-        <v>4197925</v>
+        <v>4203213</v>
       </c>
       <c r="F174" t="n">
-        <v>1801.61292601634</v>
+        <v>1756.340835938373</v>
       </c>
       <c r="G174" t="n">
-        <v>1137.460201939998</v>
+        <v>1070.698101562178</v>
       </c>
       <c r="H174" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="I174" t="n">
-        <v>2689591</v>
+        <v>2700104</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>311449720</v>
+        <v>312717282</v>
       </c>
       <c r="E175" t="n">
-        <v>311449720</v>
+        <v>312717282</v>
       </c>
       <c r="F175" t="n">
-        <v>2409.327802031974</v>
+        <v>2756.372614151428</v>
       </c>
       <c r="G175" t="n">
-        <v>3344.76905950507</v>
+        <v>2786.077764919249</v>
       </c>
       <c r="H175" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="I175" t="n">
-        <v>13496858</v>
+        <v>13394905</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12874939</v>
+        <v>12856646</v>
       </c>
       <c r="E176" t="n">
-        <v>40731654</v>
+        <v>40673781</v>
       </c>
       <c r="F176" t="n">
-        <v>4059.35242724061</v>
+        <v>3081.602545252898</v>
       </c>
       <c r="G176" t="n">
-        <v>3505.115120592237</v>
+        <v>3844.685583888177</v>
       </c>
       <c r="H176" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
       <c r="I176" t="n">
-        <v>1375831</v>
+        <v>1336032</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>25942</v>
+        <v>25865</v>
       </c>
       <c r="E177" t="n">
-        <v>204029</v>
+        <v>203420</v>
       </c>
       <c r="F177" t="n">
-        <v>103.6397648085716</v>
+        <v>57.7213283997911</v>
       </c>
       <c r="G177" t="n">
-        <v>140.5163820717867</v>
+        <v>611.2620788411671</v>
       </c>
       <c r="H177" t="n">
         <v>0.48</v>
       </c>
       <c r="I177" t="n">
-        <v>102009</v>
+        <v>102031</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8088675</v>
+        <v>8099656</v>
       </c>
       <c r="E178" t="n">
-        <v>8088675</v>
+        <v>8099656</v>
       </c>
       <c r="F178" t="n">
-        <v>1521.151585179366</v>
+        <v>1968.958601689028</v>
       </c>
       <c r="G178" t="n">
-        <v>1661.484024268531</v>
+        <v>1330.183523894111</v>
       </c>
       <c r="H178" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I178" t="n">
-        <v>3576231</v>
+        <v>3572334</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1084794</v>
+        <v>1084835</v>
       </c>
       <c r="E179" t="n">
-        <v>2470725</v>
+        <v>2470819</v>
       </c>
       <c r="F179" t="n">
-        <v>2.762557009702567</v>
+        <v>3.917146967962215</v>
       </c>
       <c r="G179" t="n">
-        <v>4.891751643043331</v>
+        <v>4.924151699861016</v>
       </c>
       <c r="H179" t="n">
         <v>0.45</v>
       </c>
       <c r="I179" t="n">
-        <v>4702.03</v>
+        <v>4640.37</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9070189</v>
+        <v>9142040</v>
       </c>
       <c r="E180" t="n">
-        <v>9070189</v>
+        <v>9142040</v>
       </c>
       <c r="F180" t="n">
-        <v>1399.32579118524</v>
+        <v>3637.180597603384</v>
       </c>
       <c r="G180" t="n">
-        <v>1857.511400405083</v>
+        <v>3427.938699233095</v>
       </c>
       <c r="H180" t="n">
         <v>0.51</v>
       </c>
       <c r="I180" t="n">
-        <v>3081406</v>
+        <v>3248317</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17622742</v>
+        <v>17721245</v>
       </c>
       <c r="E181" t="n">
-        <v>17622742</v>
+        <v>17721245</v>
       </c>
       <c r="F181" t="n">
-        <v>2670.639271708537</v>
+        <v>3246.910826303974</v>
       </c>
       <c r="G181" t="n">
-        <v>3452.773686724694</v>
+        <v>3337.994902423807</v>
       </c>
       <c r="H181" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I181" t="n">
-        <v>2745783</v>
+        <v>2726244</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31943611</v>
+        <v>31608733</v>
       </c>
       <c r="E182" t="n">
-        <v>88480632</v>
+        <v>87553053</v>
       </c>
       <c r="F182" t="n">
-        <v>5319.829263348756</v>
+        <v>5170.453038441096</v>
       </c>
       <c r="G182" t="n">
-        <v>5660.463014089662</v>
+        <v>6812.262535392199</v>
       </c>
       <c r="H182" t="n">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="I182" t="n">
-        <v>12139661</v>
+        <v>12057667</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>37377152</v>
+        <v>37566789</v>
       </c>
       <c r="E183" t="n">
-        <v>94247233</v>
+        <v>94725407</v>
       </c>
       <c r="F183" t="n">
-        <v>11477.62137886508</v>
+        <v>16886.85065179678</v>
       </c>
       <c r="G183" t="n">
-        <v>9561.877329882853</v>
+        <v>8443.749413029806</v>
       </c>
       <c r="H183" t="n">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I183" t="n">
-        <v>3245147</v>
+        <v>3347685</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>301527971</v>
+        <v>303639347</v>
       </c>
       <c r="E184" t="n">
-        <v>306241891</v>
+        <v>308385214</v>
       </c>
       <c r="F184" t="n">
-        <v>29082.22999578059</v>
+        <v>22057.82504051821</v>
       </c>
       <c r="G184" t="n">
-        <v>17440.03473507515</v>
+        <v>25043.09012943029</v>
       </c>
       <c r="H184" t="n">
         <v>0.02</v>
       </c>
       <c r="I184" t="n">
-        <v>12874097</v>
+        <v>13009359</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>406172</v>
+        <v>406857</v>
       </c>
       <c r="F185" t="n">
-        <v>1.097029306934467</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>2.06139480097197</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>3.89</v>
+        <v>4.12</v>
       </c>
       <c r="I185" t="n">
-        <v>65913</v>
+        <v>66321</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28251968</v>
+        <v>28194857</v>
       </c>
       <c r="E186" t="n">
-        <v>67119651</v>
+        <v>66983971</v>
       </c>
       <c r="F186" t="n">
-        <v>10112.22942609817</v>
+        <v>10244.70465031392</v>
       </c>
       <c r="G186" t="n">
-        <v>11160.10495452072</v>
+        <v>7190.202227112488</v>
       </c>
       <c r="H186" t="n">
         <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>497559</v>
+        <v>520702</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>19902726</v>
+        <v>19904520</v>
       </c>
       <c r="F187" t="n">
-        <v>3.975271880545835</v>
+        <v>3.870656327578564</v>
       </c>
       <c r="G187" t="n">
-        <v>2681.424222668147</v>
+        <v>2425.342787619176</v>
       </c>
       <c r="H187" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="I187" t="n">
-        <v>1880.65</v>
+        <v>1880.82</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12655819</v>
+        <v>12757684</v>
       </c>
       <c r="E188" t="n">
-        <v>19265010</v>
+        <v>19420073</v>
       </c>
       <c r="F188" t="n">
-        <v>2638.511350059283</v>
+        <v>3554.116672503863</v>
       </c>
       <c r="G188" t="n">
-        <v>3395.019766119601</v>
+        <v>1558.426621342748</v>
       </c>
       <c r="H188" t="n">
-        <v>0.37</v>
+        <v>0.73</v>
       </c>
       <c r="I188" t="n">
-        <v>718469</v>
+        <v>750119</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>85116626</v>
+        <v>85417440</v>
       </c>
       <c r="E189" t="n">
-        <v>85116626</v>
+        <v>85417440</v>
       </c>
       <c r="F189" t="n">
-        <v>5877.342717535338</v>
+        <v>4897.81360932489</v>
       </c>
       <c r="G189" t="n">
-        <v>11266.85202592431</v>
+        <v>46889.83983475743</v>
       </c>
       <c r="H189" t="n">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="I189" t="n">
-        <v>5160927</v>
+        <v>5348551</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>310411354</v>
+        <v>312247416</v>
       </c>
       <c r="E190" t="n">
-        <v>310411354</v>
+        <v>312247416</v>
       </c>
       <c r="F190" t="n">
-        <v>219297.1939275271</v>
+        <v>214151.086249658</v>
       </c>
       <c r="G190" t="n">
-        <v>289836.4213066873</v>
+        <v>250998.291445241</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>49897450</v>
+        <v>50345343</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10268261</v>
+        <v>10272202</v>
       </c>
       <c r="E191" t="n">
-        <v>29153306</v>
+        <v>29164494</v>
       </c>
       <c r="F191" t="n">
-        <v>841.9611199345044</v>
+        <v>847.7854956544619</v>
       </c>
       <c r="G191" t="n">
-        <v>6707.161373209325</v>
+        <v>6633.913408505457</v>
       </c>
       <c r="H191" t="n">
         <v>0.68</v>
       </c>
       <c r="I191" t="n">
-        <v>130078</v>
+        <v>124261</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4151127</v>
+        <v>4161790</v>
       </c>
       <c r="E192" t="n">
-        <v>28364358</v>
+        <v>28437219</v>
       </c>
       <c r="F192" t="n">
-        <v>2625.474680280116</v>
+        <v>4634.683130382301</v>
       </c>
       <c r="G192" t="n">
-        <v>1824.152501438423</v>
+        <v>2974.2962310835</v>
       </c>
       <c r="H192" t="n">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="I192" t="n">
-        <v>2621658</v>
+        <v>2621813</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2814237</v>
+        <v>2818566</v>
       </c>
       <c r="E193" t="n">
-        <v>4173409</v>
+        <v>4179425</v>
       </c>
       <c r="F193" t="n">
-        <v>291.9168831471628</v>
+        <v>73.94491816614045</v>
       </c>
       <c r="G193" t="n">
-        <v>130.5130328748202</v>
+        <v>6403.055766265762</v>
       </c>
       <c r="H193" t="n">
-        <v>0.71</v>
+        <v>0.24</v>
       </c>
       <c r="I193" t="n">
-        <v>211386</v>
+        <v>209953</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>88579240</v>
+        <v>89110162</v>
       </c>
       <c r="E194" t="n">
-        <v>510431787</v>
+        <v>513491186</v>
       </c>
       <c r="F194" t="n">
-        <v>417952.9365967874</v>
+        <v>469778.7185470625</v>
       </c>
       <c r="G194" t="n">
-        <v>456437.5140297121</v>
+        <v>482033.0642444826</v>
       </c>
       <c r="H194" t="n">
         <v>0.06</v>
       </c>
       <c r="I194" t="n">
-        <v>16621319</v>
+        <v>16192354</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>685067</v>
+        <v>721196</v>
       </c>
       <c r="E195" t="n">
-        <v>747130</v>
+        <v>786532</v>
       </c>
       <c r="F195" t="n">
-        <v>52.76609550221592</v>
+        <v>127.4291493796086</v>
       </c>
       <c r="G195" t="n">
-        <v>5.41390963266369</v>
+        <v>5.413687699936846</v>
       </c>
       <c r="H195" t="n">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
       <c r="I195" t="n">
-        <v>121231</v>
+        <v>126470</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>107951066</v>
+        <v>108252653</v>
       </c>
       <c r="E196" t="n">
-        <v>265601799</v>
+        <v>266343819</v>
       </c>
       <c r="F196" t="n">
-        <v>52170.95926712376</v>
+        <v>70281.81663615402</v>
       </c>
       <c r="G196" t="n">
-        <v>51540.22366873054</v>
+        <v>39297.57505370743</v>
       </c>
       <c r="H196" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2283307</v>
+        <v>2285733</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>19205002</v>
+        <v>18397307</v>
       </c>
       <c r="E197" t="n">
-        <v>19205002</v>
+        <v>18397307</v>
       </c>
       <c r="F197" t="n">
-        <v>5.306271393426369</v>
+        <v>5.278262391931142</v>
       </c>
       <c r="G197" t="n">
-        <v>5.523979985364642</v>
+        <v>47.04937361627234</v>
       </c>
       <c r="H197" t="n">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="I197" t="n">
-        <v>121374</v>
+        <v>118201</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1319588</v>
+        <v>1338299</v>
       </c>
       <c r="F198" t="n">
-        <v>423.5855015973438</v>
+        <v>377.6380518714919</v>
       </c>
       <c r="G198" t="n">
-        <v>4.006237890495866</v>
+        <v>5.283441046292669</v>
       </c>
       <c r="H198" t="n">
         <v>0.52</v>
       </c>
       <c r="I198" t="n">
-        <v>105282</v>
+        <v>32918</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>126627</v>
+        <v>127106</v>
       </c>
       <c r="E199" t="n">
-        <v>275666</v>
+        <v>276707</v>
       </c>
       <c r="F199" t="n">
-        <v>4.026928472530886</v>
+        <v>5.411949902263379</v>
       </c>
       <c r="G199" t="n">
-        <v>39.14874681234945</v>
+        <v>15.43460103605004</v>
       </c>
       <c r="H199" t="n">
         <v>1.06</v>
       </c>
       <c r="I199" t="n">
-        <v>46245</v>
+        <v>46725</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>3057199</v>
+        <v>2836939</v>
       </c>
       <c r="F200" t="n">
-        <v>183.1875603962154</v>
+        <v>171.8612616311837</v>
       </c>
       <c r="G200" t="n">
-        <v>106.5649119586066</v>
+        <v>269.7309943891153</v>
       </c>
       <c r="H200" t="n">
-        <v>2.96</v>
+        <v>3.14</v>
       </c>
       <c r="I200" t="n">
-        <v>415227</v>
+        <v>416638</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>183297</v>
+        <v>184185</v>
       </c>
       <c r="E201" t="n">
-        <v>1415418</v>
+        <v>1422276</v>
       </c>
       <c r="F201" t="n">
-        <v>247.8882888338748</v>
+        <v>20.7159714358775</v>
       </c>
       <c r="G201" t="n">
-        <v>8.973506320712788</v>
+        <v>10.30462238619817</v>
       </c>
       <c r="H201" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="I201" t="n">
-        <v>135340</v>
+        <v>136387</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30216862</v>
+        <v>30263823</v>
       </c>
       <c r="E202" t="n">
-        <v>135293285</v>
+        <v>135503551</v>
       </c>
       <c r="F202" t="n">
-        <v>10162.0028885475</v>
+        <v>8309.872459413085</v>
       </c>
       <c r="G202" t="n">
-        <v>11837.54687735948</v>
+        <v>10522.89054834073</v>
       </c>
       <c r="H202" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I202" t="n">
-        <v>8384889</v>
+        <v>8470794</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13063544</v>
+        <v>13073246</v>
       </c>
       <c r="E203" t="n">
-        <v>26115682</v>
+        <v>26135078</v>
       </c>
       <c r="F203" t="n">
-        <v>806.3446478193766</v>
+        <v>707.3392076864586</v>
       </c>
       <c r="G203" t="n">
-        <v>716.7480987817429</v>
+        <v>713.2606911947776</v>
       </c>
       <c r="H203" t="n">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
       <c r="I203" t="n">
-        <v>42213</v>
+        <v>42347</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1496284</v>
+        <v>1486980</v>
       </c>
       <c r="F204" t="n">
-        <v>100.2884448649672</v>
+        <v>110.1630841783156</v>
       </c>
       <c r="G204" t="n">
-        <v>198.4549116306803</v>
+        <v>40.11937690847504</v>
       </c>
       <c r="H204" t="n">
-        <v>2.51</v>
+        <v>2.83</v>
       </c>
       <c r="I204" t="n">
-        <v>41276</v>
+        <v>25225</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>983209</v>
+        <v>979255</v>
       </c>
       <c r="E205" t="n">
-        <v>4547481</v>
+        <v>4529195</v>
       </c>
       <c r="F205" t="n">
-        <v>3747.593090149498</v>
+        <v>4942.405533974577</v>
       </c>
       <c r="G205" t="n">
-        <v>3164.407974246424</v>
+        <v>3431.118538431185</v>
       </c>
       <c r="H205" t="n">
-        <v>0.76</v>
+        <v>0.21</v>
       </c>
       <c r="I205" t="n">
-        <v>489945</v>
+        <v>408922</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3006541</v>
+        <v>3026387</v>
       </c>
       <c r="E206" t="n">
-        <v>3006541</v>
+        <v>3026387</v>
       </c>
       <c r="F206" t="n">
-        <v>860.1387364708569</v>
+        <v>439.7535595799371</v>
       </c>
       <c r="G206" t="n">
-        <v>522.3334159391062</v>
+        <v>7999.742439612637</v>
       </c>
       <c r="H206" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="I206" t="n">
-        <v>437964</v>
+        <v>439983</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>560206</v>
+        <v>559799</v>
       </c>
       <c r="E207" t="n">
-        <v>560206</v>
+        <v>559799</v>
       </c>
       <c r="F207" t="n">
-        <v>64.39715100281717</v>
+        <v>5.348974595487539</v>
       </c>
       <c r="G207" t="n">
-        <v>4.112291872011979</v>
+        <v>63.94649346741306</v>
       </c>
       <c r="H207" t="n">
         <v>0.71</v>
       </c>
       <c r="I207" t="n">
-        <v>47557</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13677610</v>
+        <v>13845567</v>
       </c>
       <c r="E208" t="n">
-        <v>17413782</v>
+        <v>17627617</v>
       </c>
       <c r="F208" t="n">
-        <v>167.5839387447388</v>
+        <v>137.3673414698798</v>
       </c>
       <c r="G208" t="n">
-        <v>119.8548606226444</v>
+        <v>119.8536655188993</v>
       </c>
       <c r="H208" t="n">
         <v>0.19</v>
       </c>
       <c r="I208" t="n">
-        <v>818612</v>
+        <v>809390</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1820852</v>
+        <v>1814549</v>
       </c>
       <c r="E209" t="n">
-        <v>1820852</v>
+        <v>1814549</v>
       </c>
       <c r="F209" t="n">
-        <v>27.60948990102658</v>
+        <v>27.50076623336846</v>
       </c>
       <c r="G209" t="n">
-        <v>17.03228521014107</v>
+        <v>27.02551693912773</v>
       </c>
       <c r="H209" t="n">
-        <v>0.29</v>
+        <v>0.8</v>
       </c>
       <c r="I209" t="n">
-        <v>4397</v>
+        <v>4397.68</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5918556</v>
+        <v>5972565</v>
       </c>
       <c r="E210" t="n">
-        <v>15533265</v>
+        <v>15675013</v>
       </c>
       <c r="F210" t="n">
-        <v>887.8303640879908</v>
+        <v>1208.941787158294</v>
       </c>
       <c r="G210" t="n">
-        <v>528.7877777124252</v>
+        <v>258.4033815753185</v>
       </c>
       <c r="H210" t="n">
-        <v>1.19</v>
+        <v>0.44</v>
       </c>
       <c r="I210" t="n">
-        <v>29728</v>
+        <v>28813</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29601543</v>
+        <v>29864604</v>
       </c>
       <c r="F211" t="n">
-        <v>1260.565743733691</v>
+        <v>1276.647578544278</v>
       </c>
       <c r="G211" t="n">
-        <v>49.8729688106188</v>
+        <v>348.2734558787601</v>
       </c>
       <c r="H211" t="n">
-        <v>1.58</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I211" t="n">
-        <v>387697</v>
+        <v>373212</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17621223</v>
+        <v>17669300</v>
       </c>
       <c r="E212" t="n">
-        <v>17621223</v>
+        <v>17669536</v>
       </c>
       <c r="F212" t="n">
-        <v>28059.39801485393</v>
+        <v>30070.0361085127</v>
       </c>
       <c r="G212" t="n">
-        <v>37408.76796127255</v>
+        <v>32896.93309610143</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2922145</v>
+        <v>2933758</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>48217541</v>
+        <v>48734832</v>
       </c>
       <c r="E213" t="n">
-        <v>312677919</v>
+        <v>316032415</v>
       </c>
       <c r="F213" t="n">
-        <v>73747.40515297005</v>
+        <v>70599.70039536264</v>
       </c>
       <c r="G213" t="n">
-        <v>197431.0470918666</v>
+        <v>187669.7629657962</v>
       </c>
       <c r="H213" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I213" t="n">
-        <v>16745223</v>
+        <v>16287882</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9111135</v>
+        <v>9122084</v>
       </c>
       <c r="F214" t="n">
-        <v>5.444159438637096</v>
+        <v>5.236627386462766</v>
       </c>
       <c r="G214" t="n">
-        <v>4.033192436051399</v>
+        <v>226.6220199243148</v>
       </c>
       <c r="H214" t="n">
         <v>0.78</v>
       </c>
       <c r="I214" t="n">
-        <v>300379</v>
+        <v>303203</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>6955557</v>
+        <v>6976785</v>
       </c>
       <c r="E215" t="n">
-        <v>6965520</v>
+        <v>6986767</v>
       </c>
       <c r="F215" t="n">
-        <v>65.9870063386991</v>
+        <v>62.01089390449891</v>
       </c>
       <c r="G215" t="n">
-        <v>3.924736836095359</v>
+        <v>374.5634964794095</v>
       </c>
       <c r="H215" t="n">
-        <v>0.44</v>
+        <v>0.02</v>
       </c>
       <c r="I215" t="n">
-        <v>605518</v>
+        <v>608259</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4786157</v>
+        <v>4788757</v>
       </c>
       <c r="F216" t="n">
-        <v>924.305899242903</v>
+        <v>1133.030450236675</v>
       </c>
       <c r="G216" t="n">
-        <v>296.1601707042971</v>
+        <v>300.0015707398672</v>
       </c>
       <c r="H216" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="I216" t="n">
-        <v>199954</v>
+        <v>199215</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2466752</v>
+        <v>2570492</v>
       </c>
       <c r="E217" t="n">
-        <v>4468986</v>
+        <v>4656931</v>
       </c>
       <c r="F217" t="n">
-        <v>1055.623035104337</v>
+        <v>335.0131462820566</v>
       </c>
       <c r="G217" t="n">
-        <v>481.4852183263419</v>
+        <v>123.8157824644387</v>
       </c>
       <c r="H217" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="I217" t="n">
-        <v>120816</v>
+        <v>127958</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125212298</v>
+        <v>125491437</v>
       </c>
       <c r="E218" t="n">
-        <v>2073618201</v>
+        <v>2078240970</v>
       </c>
       <c r="F218" t="n">
-        <v>4864.695977193443</v>
+        <v>5897.453128662513</v>
       </c>
       <c r="G218" t="n">
-        <v>12935.63610571845</v>
+        <v>10778.1918513052</v>
       </c>
       <c r="H218" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I218" t="n">
-        <v>4962740</v>
+        <v>4835896</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>94834886</v>
+        <v>98692603</v>
       </c>
       <c r="E219" t="n">
-        <v>95855720</v>
+        <v>99754962</v>
       </c>
       <c r="F219" t="n">
-        <v>7805.923959864259</v>
+        <v>9730.621766924001</v>
       </c>
       <c r="G219" t="n">
-        <v>22898.26811558795</v>
+        <v>8931.870239092401</v>
       </c>
       <c r="H219" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I219" t="n">
-        <v>30015718</v>
+        <v>31840999</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>227560062</v>
+        <v>231163033</v>
       </c>
       <c r="E220" t="n">
-        <v>227560062</v>
+        <v>231163033</v>
       </c>
       <c r="F220" t="n">
-        <v>67634.18209309834</v>
+        <v>98498.6249276356</v>
       </c>
       <c r="G220" t="n">
-        <v>115207.4306999079</v>
+        <v>120225.4895422474</v>
       </c>
       <c r="H220" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I220" t="n">
-        <v>44142155</v>
+        <v>44176084</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>23759669</v>
+        <v>24031151</v>
       </c>
       <c r="E221" t="n">
-        <v>142158874</v>
+        <v>143783208</v>
       </c>
       <c r="F221" t="n">
-        <v>93493.79737543086</v>
+        <v>117650.4427523435</v>
       </c>
       <c r="G221" t="n">
-        <v>97873.64393232085</v>
+        <v>85542.68624358691</v>
       </c>
       <c r="H221" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>11672212</v>
+        <v>11527716</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1074262</v>
+        <v>1071492</v>
       </c>
       <c r="F222" t="n">
-        <v>63.24057697896215</v>
+        <v>51.28423941311405</v>
       </c>
       <c r="G222" t="n">
-        <v>165.2073207651896</v>
+        <v>2752.717687602679</v>
       </c>
       <c r="H222" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="I222" t="n">
-        <v>72701</v>
+        <v>71880</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2225483</v>
+        <v>2243193</v>
       </c>
       <c r="F223" t="n">
-        <v>120.3860338635933</v>
+        <v>149.1011803905724</v>
       </c>
       <c r="G223" t="n">
-        <v>54.84876932258148</v>
+        <v>1339.018931723482</v>
       </c>
       <c r="H223" t="n">
-        <v>0.48</v>
+        <v>0.03</v>
       </c>
       <c r="I223" t="n">
-        <v>181324</v>
+        <v>179497</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13617043</v>
+        <v>13698784</v>
       </c>
       <c r="E224" t="n">
-        <v>41785927</v>
+        <v>42036762</v>
       </c>
       <c r="F224" t="n">
-        <v>3319.657808770054</v>
+        <v>2464.558250359235</v>
       </c>
       <c r="G224" t="n">
-        <v>1801.660418586701</v>
+        <v>1577.552697257516</v>
       </c>
       <c r="H224" t="n">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="I224" t="n">
-        <v>2569350</v>
+        <v>2572249</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>54845429</v>
+        <v>55139118</v>
       </c>
       <c r="E225" t="n">
-        <v>94729979</v>
+        <v>95237244</v>
       </c>
       <c r="F225" t="n">
-        <v>8331.806303952659</v>
+        <v>292.0520604954403</v>
       </c>
       <c r="G225" t="n">
-        <v>13931.91193364541</v>
+        <v>13926.21790005743</v>
       </c>
       <c r="H225" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="I225" t="n">
-        <v>2353993</v>
+        <v>2400142</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4230007</v>
+        <v>4209893</v>
       </c>
       <c r="E226" t="n">
-        <v>4230007</v>
+        <v>4209893</v>
       </c>
       <c r="F226" t="n">
-        <v>34.18159539232099</v>
+        <v>34.27243639030221</v>
       </c>
       <c r="G226" t="n">
-        <v>82.41010517310704</v>
+        <v>91.85322090595962</v>
       </c>
       <c r="H226" t="n">
         <v>0.98</v>
       </c>
       <c r="I226" t="n">
-        <v>1556282</v>
+        <v>1573278</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>209143</v>
+        <v>211133</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>50644</v>
+        <v>50915</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6694338</v>
+        <v>6675422</v>
       </c>
       <c r="E228" t="n">
-        <v>34440337</v>
+        <v>34343015</v>
       </c>
       <c r="F228" t="n">
-        <v>85.12029553790998</v>
+        <v>92.34718317867878</v>
       </c>
       <c r="G228" t="n">
-        <v>113.0605234453308</v>
+        <v>126.6405028994773</v>
       </c>
       <c r="H228" t="n">
         <v>0.35</v>
       </c>
       <c r="I228" t="n">
-        <v>922670</v>
+        <v>924588</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>176261256</v>
+        <v>175576484</v>
       </c>
       <c r="E230" t="n">
-        <v>205925191</v>
+        <v>205125175</v>
       </c>
       <c r="F230" t="n">
-        <v>15827.67598434412</v>
+        <v>12497.0407687372</v>
       </c>
       <c r="G230" t="n">
-        <v>78079.81209163665</v>
+        <v>88375.76660490177</v>
       </c>
       <c r="H230" t="n">
         <v>0.19</v>
       </c>
       <c r="I230" t="n">
-        <v>4491992</v>
+        <v>4180073</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>303767</v>
+        <v>296300</v>
       </c>
       <c r="F231" t="n">
-        <v>74.80104110248166</v>
+        <v>521.6374018561745</v>
       </c>
       <c r="G231" t="n">
-        <v>90.99426232552202</v>
+        <v>164.6074952097039</v>
       </c>
       <c r="H231" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="I231" t="n">
-        <v>348645</v>
+        <v>219448</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29115387</v>
+        <v>29113818</v>
       </c>
       <c r="E232" t="n">
-        <v>39922286</v>
+        <v>39920135</v>
       </c>
       <c r="F232" t="n">
-        <v>5663.545456565796</v>
+        <v>5924.23697456754</v>
       </c>
       <c r="G232" t="n">
-        <v>6081.448564619065</v>
+        <v>5792.918042644211</v>
       </c>
       <c r="H232" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I232" t="n">
-        <v>227720</v>
+        <v>220754</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1975178</v>
+        <v>1741061</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1589466</v>
+        <v>1597414</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7996735</v>
+        <v>7992351</v>
       </c>
       <c r="F234" t="n">
-        <v>448.8256163828746</v>
+        <v>469.6815647658862</v>
       </c>
       <c r="G234" t="n">
-        <v>3233.214790909734</v>
+        <v>3275.808859625047</v>
       </c>
       <c r="H234" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>691237</v>
+        <v>680325</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>22890274</v>
+        <v>23075977</v>
       </c>
       <c r="E235" t="n">
-        <v>22890274</v>
+        <v>23076229</v>
       </c>
       <c r="F235" t="n">
-        <v>4111.791938385785</v>
+        <v>16892.59491787429</v>
       </c>
       <c r="G235" t="n">
-        <v>6395.079714952718</v>
+        <v>8285.356422662011</v>
       </c>
       <c r="H235" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="I235" t="n">
-        <v>2062423</v>
+        <v>2056583</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3374680</v>
+        <v>3363092</v>
       </c>
       <c r="E236" t="n">
-        <v>4520598</v>
+        <v>4505075</v>
       </c>
       <c r="F236" t="n">
-        <v>601.8834210051441</v>
+        <v>665.4090029058732</v>
       </c>
       <c r="G236" t="n">
-        <v>293.7726043779056</v>
+        <v>471.2440240400616</v>
       </c>
       <c r="H236" t="n">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="I236" t="n">
-        <v>150956</v>
+        <v>150207</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>34699784</v>
+        <v>34864997</v>
       </c>
       <c r="E237" t="n">
-        <v>173167920</v>
+        <v>173992406</v>
       </c>
       <c r="F237" t="n">
-        <v>102643.8753887528</v>
+        <v>94856.85452137623</v>
       </c>
       <c r="G237" t="n">
-        <v>89966.52448778476</v>
+        <v>92020.91685805396</v>
       </c>
       <c r="H237" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I237" t="n">
-        <v>10272849</v>
+        <v>10179894</v>
       </c>
     </row>
     <row r="238">
@@ -8727,10 +8727,10 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26402845</v>
+        <v>26397437</v>
       </c>
       <c r="E238" t="n">
-        <v>59521677</v>
+        <v>59509484</v>
       </c>
       <c r="F238" t="n">
         <v>272.5466529358008</v>
@@ -8742,7 +8742,7 @@
         <v>0.52</v>
       </c>
       <c r="I238" t="n">
-        <v>403168</v>
+        <v>415695</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1967289</v>
+        <v>1980897</v>
       </c>
       <c r="E239" t="n">
-        <v>1967289</v>
+        <v>1980897</v>
       </c>
       <c r="F239" t="n">
-        <v>156.0806552151672</v>
+        <v>155.8852213305566</v>
       </c>
       <c r="G239" t="n">
-        <v>153.4560556627425</v>
+        <v>153.4456621663638</v>
       </c>
       <c r="H239" t="n">
         <v>0.42</v>
       </c>
       <c r="I239" t="n">
-        <v>13369.18</v>
+        <v>13617.12</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>72118844</v>
+        <v>72112748</v>
       </c>
       <c r="F240" t="n">
-        <v>4.114658133265258</v>
+        <v>4.092897848665857</v>
       </c>
       <c r="G240" t="n">
-        <v>3.96439380027976</v>
+        <v>3.928944324685263</v>
       </c>
       <c r="H240" t="n">
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>64048</v>
+        <v>63712</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>905196</v>
+        <v>904732</v>
       </c>
       <c r="E241" t="n">
-        <v>905196</v>
+        <v>904732</v>
       </c>
       <c r="F241" t="n">
-        <v>5.547190007241481</v>
+        <v>3.954228185428274</v>
       </c>
       <c r="G241" t="n">
-        <v>2.907637096418877</v>
+        <v>37.11560423788288</v>
       </c>
       <c r="H241" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I241" t="n">
-        <v>15511.56</v>
+        <v>15470.06</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>115375</v>
+        <v>115518</v>
       </c>
       <c r="E242" t="n">
-        <v>115375</v>
+        <v>115518</v>
       </c>
       <c r="F242" t="n">
-        <v>4.258312781665217</v>
+        <v>4.077471547891849</v>
       </c>
       <c r="G242" t="n">
-        <v>376.7777643338666</v>
+        <v>350.6282852992563</v>
       </c>
       <c r="H242" t="n">
         <v>0.93</v>
       </c>
       <c r="I242" t="n">
-        <v>38863</v>
+        <v>38785</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3465367</v>
+        <v>3496655</v>
       </c>
       <c r="E243" t="n">
-        <v>4978182</v>
+        <v>5023129</v>
       </c>
       <c r="F243" t="n">
-        <v>638.8134297453701</v>
+        <v>346.7622604838272</v>
       </c>
       <c r="G243" t="n">
-        <v>405.781652581738</v>
+        <v>131.4533239040814</v>
       </c>
       <c r="H243" t="n">
-        <v>1.19</v>
+        <v>2.19</v>
       </c>
       <c r="I243" t="n">
-        <v>160105</v>
+        <v>156825</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>313791933</v>
+        <v>315542417</v>
       </c>
       <c r="E244" t="n">
-        <v>580586635</v>
+        <v>583825430</v>
       </c>
       <c r="F244" t="n">
-        <v>18588.69461827832</v>
+        <v>18168.69093576335</v>
       </c>
       <c r="G244" t="n">
-        <v>14525.43661209961</v>
+        <v>17004.80645465386</v>
       </c>
       <c r="H244" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>13312453</v>
+        <v>13333841</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>69731353</v>
+        <v>70722697</v>
       </c>
       <c r="E245" t="n">
-        <v>665242824</v>
+        <v>674689792</v>
       </c>
       <c r="F245" t="n">
-        <v>46132.18936381154</v>
+        <v>56446.48149503702</v>
       </c>
       <c r="G245" t="n">
-        <v>82214.56665341016</v>
+        <v>46105.46760106834</v>
       </c>
       <c r="H245" t="n">
         <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>21421482</v>
+        <v>21439349</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81029</v>
+        <v>81058</v>
       </c>
       <c r="E246" t="n">
-        <v>673615</v>
+        <v>673855</v>
       </c>
       <c r="F246" t="n">
-        <v>4.015298769564325</v>
+        <v>4.014826906219182</v>
       </c>
       <c r="G246" t="n">
-        <v>4.044339444590443</v>
+        <v>4.043864168490522</v>
       </c>
       <c r="H246" t="n">
         <v>0.58</v>
       </c>
       <c r="I246" t="n">
-        <v>178</v>
+        <v>174.38</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1892999</v>
+        <v>1887841</v>
       </c>
       <c r="E247" t="n">
-        <v>5406163</v>
+        <v>5391432</v>
       </c>
       <c r="F247" t="n">
-        <v>407.8839592468718</v>
+        <v>396.697679375315</v>
       </c>
       <c r="G247" t="n">
-        <v>267.4023750333943</v>
+        <v>265.2794653952034</v>
       </c>
       <c r="H247" t="n">
         <v>0.43</v>
       </c>
       <c r="I247" t="n">
-        <v>70948</v>
+        <v>69711</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37935291</v>
+        <v>37850723</v>
       </c>
       <c r="E248" t="n">
-        <v>49598009</v>
+        <v>49487436</v>
       </c>
       <c r="F248" t="n">
-        <v>400.922120662178</v>
+        <v>769.5522094914761</v>
       </c>
       <c r="G248" t="n">
-        <v>3882.129969716369</v>
+        <v>3601.291789786761</v>
       </c>
       <c r="H248" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="I248" t="n">
-        <v>304267</v>
+        <v>117794</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>10066074</v>
+        <v>10558856</v>
       </c>
       <c r="E249" t="n">
-        <v>29868332</v>
+        <v>31330528</v>
       </c>
       <c r="F249" t="n">
-        <v>912.3261342707989</v>
+        <v>823.2657585900366</v>
       </c>
       <c r="G249" t="n">
-        <v>1668.848295140174</v>
+        <v>2362.024104011342</v>
       </c>
       <c r="H249" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I249" t="n">
-        <v>5268025</v>
+        <v>6472218</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1997059</v>
+        <v>2009365</v>
       </c>
       <c r="E250" t="n">
-        <v>5794110</v>
+        <v>5829815</v>
       </c>
       <c r="F250" t="n">
-        <v>3.975570879523796</v>
+        <v>4.147730350171758</v>
       </c>
       <c r="G250" t="n">
-        <v>191.6258043455654</v>
+        <v>39.56120408653555</v>
       </c>
       <c r="H250" t="n">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="I250" t="n">
-        <v>50165</v>
+        <v>47479</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7407490</v>
+        <v>7393995</v>
       </c>
       <c r="E251" t="n">
-        <v>7407501</v>
+        <v>7394006</v>
       </c>
       <c r="F251" t="n">
-        <v>1608.962635137806</v>
+        <v>1564.720107691548</v>
       </c>
       <c r="G251" t="n">
-        <v>427.7518422724408</v>
+        <v>374.4456309661619</v>
       </c>
       <c r="H251" t="n">
-        <v>1.2</v>
+        <v>1.68</v>
       </c>
       <c r="I251" t="n">
-        <v>313381</v>
+        <v>313987</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6250566</v>
+        <v>6265368</v>
       </c>
       <c r="E252" t="n">
-        <v>6250566</v>
+        <v>6265368</v>
       </c>
       <c r="F252" t="n">
-        <v>380.8598194541847</v>
+        <v>460.598343398826</v>
       </c>
       <c r="G252" t="n">
-        <v>1587.141866568769</v>
+        <v>1582.041993545763</v>
       </c>
       <c r="H252" t="n">
         <v>0.32</v>
       </c>
       <c r="I252" t="n">
-        <v>281554</v>
+        <v>271005</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6212754</v>
+        <v>6211086</v>
       </c>
       <c r="E253" t="n">
-        <v>22692788</v>
+        <v>22686693</v>
       </c>
       <c r="F253" t="n">
-        <v>609.9325686671598</v>
+        <v>504.6975270601982</v>
       </c>
       <c r="G253" t="n">
-        <v>176.2031311788983</v>
+        <v>155.637551255196</v>
       </c>
       <c r="H253" t="n">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="I253" t="n">
-        <v>514850</v>
+        <v>511475</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2166824</v>
+        <v>2147187</v>
       </c>
       <c r="E254" t="n">
-        <v>19112822</v>
+        <v>18939617</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>86.20144264756766</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>62.83630253605536</v>
       </c>
       <c r="H254" t="n">
-        <v>4.5</v>
+        <v>3.16</v>
       </c>
       <c r="I254" t="n">
-        <v>79934</v>
+        <v>79636</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14619923</v>
+        <v>14587318</v>
       </c>
       <c r="E255" t="n">
-        <v>29597141</v>
+        <v>29531135</v>
       </c>
       <c r="F255" t="n">
-        <v>96.25025435875797</v>
+        <v>96.18075246206777</v>
       </c>
       <c r="G255" t="n">
-        <v>279.8731882341668</v>
+        <v>280.345807601492</v>
       </c>
       <c r="H255" t="n">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="I255" t="n">
-        <v>507080</v>
+        <v>539837</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44200545</v>
+        <v>44436035</v>
       </c>
       <c r="E256" t="n">
-        <v>44200545</v>
+        <v>44436035</v>
       </c>
       <c r="F256" t="n">
-        <v>7628.086502199198</v>
+        <v>7227.092184558977</v>
       </c>
       <c r="G256" t="n">
-        <v>4371.189078179686</v>
+        <v>3393.539454603891</v>
       </c>
       <c r="H256" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I256" t="n">
-        <v>7706662</v>
+        <v>7610785</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8430010</v>
+        <v>8428527</v>
       </c>
       <c r="E257" t="n">
-        <v>12010833</v>
+        <v>12008720</v>
       </c>
       <c r="F257" t="n">
-        <v>68.29435305270388</v>
+        <v>123.9242624996265</v>
       </c>
       <c r="G257" t="n">
-        <v>810.916428770603</v>
+        <v>176.1475165058134</v>
       </c>
       <c r="H257" t="n">
         <v>0.25</v>
       </c>
       <c r="I257" t="n">
-        <v>438693</v>
+        <v>437612</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>151985229</v>
+        <v>150246765</v>
       </c>
       <c r="F258" t="n">
-        <v>3.639015600356626</v>
+        <v>268.8584786152926</v>
       </c>
       <c r="G258" t="n">
-        <v>106.8317964280999</v>
+        <v>210.1191483404021</v>
       </c>
       <c r="H258" t="n">
-        <v>3.59</v>
+        <v>2.18</v>
       </c>
       <c r="I258" t="n">
-        <v>478594</v>
+        <v>1692660</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16221771</v>
+        <v>16273899</v>
       </c>
       <c r="F259" t="n">
-        <v>119.9670933273997</v>
+        <v>119.9529952297951</v>
       </c>
       <c r="G259" t="n">
-        <v>104.1783437271279</v>
+        <v>104.1661010660997</v>
       </c>
       <c r="H259" t="n">
         <v>0.29</v>
       </c>
       <c r="I259" t="n">
-        <v>974783</v>
+        <v>976776</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>724369</v>
+        <v>723950</v>
       </c>
       <c r="F260" t="n">
-        <v>8.056920311769163</v>
+        <v>8.056590033944804</v>
       </c>
       <c r="G260" t="n">
-        <v>5.015812819498696</v>
+        <v>5.015607205978727</v>
       </c>
       <c r="H260" t="n">
         <v>1.84</v>
       </c>
       <c r="I260" t="n">
-        <v>254970</v>
+        <v>244991</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3143221</v>
+        <v>3112524</v>
       </c>
       <c r="F261" t="n">
-        <v>66.12589980094221</v>
+        <v>12.83714524796946</v>
       </c>
       <c r="G261" t="n">
-        <v>38.88611698361762</v>
+        <v>71.50863187577369</v>
       </c>
       <c r="H261" t="n">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>74984</v>
+        <v>73340</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2836476</v>
+        <v>2839071</v>
       </c>
       <c r="E262" t="n">
-        <v>2838932</v>
+        <v>2841530</v>
       </c>
       <c r="F262" t="n">
-        <v>25.62696272022025</v>
+        <v>445.4906280525798</v>
       </c>
       <c r="G262" t="n">
-        <v>368.1859088209611</v>
+        <v>23.78346477499925</v>
       </c>
       <c r="H262" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="I262" t="n">
-        <v>94482</v>
+        <v>97829</v>
       </c>
     </row>
     <row r="263">
@@ -9602,10 +9602,10 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>62470671</v>
+        <v>62495076</v>
       </c>
       <c r="E263" t="n">
-        <v>103351446</v>
+        <v>103391821</v>
       </c>
       <c r="F263" t="n">
         <v>8299.23994914628</v>
@@ -9617,7 +9617,7 @@
         <v>0.13</v>
       </c>
       <c r="I263" t="n">
-        <v>6688604</v>
+        <v>6700754</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>691198</v>
+        <v>690672</v>
       </c>
       <c r="F264" t="n">
-        <v>3162.869848543945</v>
+        <v>3162.635633314464</v>
       </c>
       <c r="G264" t="n">
-        <v>91.43193349908321</v>
+        <v>98.07352741644827</v>
       </c>
       <c r="H264" t="n">
         <v>0.99</v>
       </c>
       <c r="I264" t="n">
-        <v>669080</v>
+        <v>676218</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1256692</v>
+        <v>1257997</v>
       </c>
       <c r="E265" t="n">
-        <v>3799824</v>
+        <v>3803155</v>
       </c>
       <c r="F265" t="n">
-        <v>71.84455558066405</v>
+        <v>71.83611266912193</v>
       </c>
       <c r="G265" t="n">
-        <v>917.2664051119018</v>
+        <v>874.0993839996678</v>
       </c>
       <c r="H265" t="n">
         <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>11210.99</v>
+        <v>11277.05</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>37948296</v>
+        <v>38103187</v>
       </c>
       <c r="E266" t="n">
-        <v>269047225</v>
+        <v>270145378</v>
       </c>
       <c r="F266" t="n">
-        <v>69435.60221134426</v>
+        <v>54878.78818960012</v>
       </c>
       <c r="G266" t="n">
-        <v>20909.52484554465</v>
+        <v>26166.01685403103</v>
       </c>
       <c r="H266" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="I266" t="n">
-        <v>1464273</v>
+        <v>1474748</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>57575</v>
+        <v>58395</v>
       </c>
       <c r="E267" t="n">
-        <v>300403</v>
+        <v>304683</v>
       </c>
       <c r="F267" t="n">
-        <v>25.26706825336867</v>
+        <v>21.65052844387292</v>
       </c>
       <c r="G267" t="n">
-        <v>207.6234585375885</v>
+        <v>23.68231596177781</v>
       </c>
       <c r="H267" t="n">
-        <v>1.25</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I267" t="n">
-        <v>262498</v>
+        <v>270648</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1269614</v>
+        <v>1270275</v>
       </c>
       <c r="E268" t="n">
-        <v>7872907</v>
+        <v>7877009</v>
       </c>
       <c r="F268" t="n">
-        <v>2007.315393552965</v>
+        <v>1839.909081712891</v>
       </c>
       <c r="G268" t="n">
-        <v>2367.961952742888</v>
+        <v>2300.513965837542</v>
       </c>
       <c r="H268" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I268" t="n">
-        <v>731049</v>
+        <v>743869</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>595957132</v>
+        <v>599340792</v>
       </c>
       <c r="E269" t="n">
-        <v>2308054046</v>
+        <v>2321158462</v>
       </c>
       <c r="F269" t="n">
-        <v>271089.5882821758</v>
+        <v>213960.5436939264</v>
       </c>
       <c r="G269" t="n">
-        <v>419408.6265912346</v>
+        <v>352769.5936369022</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>32883450</v>
+        <v>32749024</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3290799</v>
+        <v>3278973</v>
       </c>
       <c r="F270" t="n">
-        <v>401.3092892193497</v>
+        <v>394.0131581406372</v>
       </c>
       <c r="G270" t="n">
-        <v>113.621707943921</v>
+        <v>146.5759728778677</v>
       </c>
       <c r="H270" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="I270" t="n">
-        <v>32450</v>
+        <v>32475</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>821362</v>
+        <v>821814</v>
       </c>
       <c r="F271" t="n">
-        <v>106.3902154642456</v>
+        <v>169.3172342381047</v>
       </c>
       <c r="G271" t="n">
-        <v>43.90871091323187</v>
+        <v>43.903610038355</v>
       </c>
       <c r="H271" t="n">
-        <v>1.94</v>
+        <v>2.17</v>
       </c>
       <c r="I271" t="n">
-        <v>233752</v>
+        <v>231321</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5835068</v>
+        <v>5838165</v>
       </c>
       <c r="E272" t="n">
-        <v>26124328</v>
+        <v>26138193</v>
       </c>
       <c r="F272" t="n">
-        <v>368.2112024349379</v>
+        <v>281.2391984263054</v>
       </c>
       <c r="G272" t="n">
-        <v>130.7765541982165</v>
+        <v>144.346196964828</v>
       </c>
       <c r="H272" t="n">
         <v>0.31</v>
       </c>
       <c r="I272" t="n">
-        <v>137922</v>
+        <v>148054</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6669084</v>
+        <v>6675505</v>
       </c>
       <c r="E273" t="n">
-        <v>12768502</v>
+        <v>12780796</v>
       </c>
       <c r="F273" t="n">
-        <v>5447.496176641074</v>
+        <v>5418.180118898604</v>
       </c>
       <c r="G273" t="n">
-        <v>70.17005181885503</v>
+        <v>4003.698100436495</v>
       </c>
       <c r="H273" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="I273" t="n">
-        <v>164272</v>
+        <v>163042</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3279059</v>
+        <v>3280745</v>
       </c>
       <c r="E274" t="n">
-        <v>21562326</v>
+        <v>21573417</v>
       </c>
       <c r="F274" t="n">
-        <v>108.255148438073</v>
+        <v>108.2602346618996</v>
       </c>
       <c r="G274" t="n">
-        <v>140.9470026620647</v>
+        <v>140.9304390816238</v>
       </c>
       <c r="H274" t="n">
         <v>1.06</v>
       </c>
       <c r="I274" t="n">
-        <v>1306900</v>
+        <v>1468844</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3679483</v>
+        <v>3677040</v>
       </c>
       <c r="E275" t="n">
-        <v>6272178</v>
+        <v>6268015</v>
       </c>
       <c r="F275" t="n">
-        <v>674.4000544745883</v>
+        <v>690.7738256723965</v>
       </c>
       <c r="G275" t="n">
-        <v>524.4121443342965</v>
+        <v>472.6961224420102</v>
       </c>
       <c r="H275" t="n">
         <v>0.48</v>
       </c>
       <c r="I275" t="n">
-        <v>1279910</v>
+        <v>1277353</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>435512</v>
+        <v>435477</v>
       </c>
       <c r="E276" t="n">
-        <v>435512</v>
+        <v>435477</v>
       </c>
       <c r="F276" t="n">
-        <v>21.14930445809228</v>
+        <v>21.14686784684265</v>
       </c>
       <c r="G276" t="n">
-        <v>5.430131619493801</v>
+        <v>5.482843158393199</v>
       </c>
       <c r="H276" t="n">
         <v>0.58</v>
       </c>
       <c r="I276" t="n">
-        <v>328.07</v>
+        <v>328.05</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7404999</v>
+        <v>7359682</v>
       </c>
       <c r="E277" t="n">
-        <v>10610151</v>
+        <v>10545219</v>
       </c>
       <c r="F277" t="n">
-        <v>2426.821269946706</v>
+        <v>2012.388995556554</v>
       </c>
       <c r="G277" t="n">
-        <v>3767.317420700592</v>
+        <v>3108.185447149512</v>
       </c>
       <c r="H277" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I277" t="n">
-        <v>175814</v>
+        <v>173316</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>119404138</v>
+        <v>121269794</v>
       </c>
       <c r="E278" t="n">
-        <v>1038145591</v>
+        <v>1054366327</v>
       </c>
       <c r="F278" t="n">
-        <v>8666.290151250127</v>
+        <v>7557.621516032119</v>
       </c>
       <c r="G278" t="n">
-        <v>12893.15223898477</v>
+        <v>7690.902831426165</v>
       </c>
       <c r="H278" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I278" t="n">
-        <v>8791518</v>
+        <v>9079973</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>112740466</v>
+        <v>111925038</v>
       </c>
       <c r="E279" t="n">
-        <v>171988223</v>
+        <v>170744269</v>
       </c>
       <c r="F279" t="n">
-        <v>47038.68959913386</v>
+        <v>46690.72334944813</v>
       </c>
       <c r="G279" t="n">
-        <v>49804.44165413656</v>
+        <v>52279.09676664022</v>
       </c>
       <c r="H279" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I279" t="n">
-        <v>9064899</v>
+        <v>9228920</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>16266134</v>
+        <v>16342507</v>
       </c>
       <c r="E280" t="n">
-        <v>22315726</v>
+        <v>22420504</v>
       </c>
       <c r="F280" t="n">
-        <v>835.4985539055133</v>
+        <v>894.9846113079352</v>
       </c>
       <c r="G280" t="n">
-        <v>2259.157629764683</v>
+        <v>1921.12784771085</v>
       </c>
       <c r="H280" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I280" t="n">
-        <v>460031</v>
+        <v>462148</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5503929</v>
+        <v>5540787</v>
       </c>
       <c r="E281" t="n">
-        <v>5503929</v>
+        <v>5540787</v>
       </c>
       <c r="F281" t="n">
-        <v>432.3592737581652</v>
+        <v>425.3851600241715</v>
       </c>
       <c r="G281" t="n">
-        <v>84.46353042264397</v>
+        <v>42.0962492799823</v>
       </c>
       <c r="H281" t="n">
-        <v>0.76</v>
+        <v>0.18</v>
       </c>
       <c r="I281" t="n">
-        <v>657222</v>
+        <v>682065</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>116610355</v>
+        <v>117937805</v>
       </c>
       <c r="E282" t="n">
-        <v>447336092</v>
+        <v>452428403</v>
       </c>
       <c r="F282" t="n">
-        <v>56948.68002569833</v>
+        <v>29792.29012378393</v>
       </c>
       <c r="G282" t="n">
-        <v>95799.63247286592</v>
+        <v>74689.9994011979</v>
       </c>
       <c r="H282" t="n">
         <v>0.04</v>
       </c>
       <c r="I282" t="n">
-        <v>31058438</v>
+        <v>30870209</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>755782</v>
+        <v>759874</v>
       </c>
       <c r="F283" t="n">
-        <v>4.105318205082839</v>
+        <v>4.105150935809975</v>
       </c>
       <c r="G283" t="n">
-        <v>4.001534532741424</v>
+        <v>4.001371492085817</v>
       </c>
       <c r="H283" t="n">
         <v>0.49</v>
       </c>
       <c r="I283" t="n">
-        <v>53366</v>
+        <v>53566</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3174269</v>
+        <v>3175001</v>
       </c>
       <c r="E284" t="n">
-        <v>30076673</v>
+        <v>30083601</v>
       </c>
       <c r="F284" t="n">
-        <v>1210.72757888235</v>
+        <v>1258.570935291757</v>
       </c>
       <c r="G284" t="n">
-        <v>757.0592463730179</v>
+        <v>779.7330936499926</v>
       </c>
       <c r="H284" t="n">
         <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>214919</v>
+        <v>204177</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>82098</v>
+        <v>79501</v>
       </c>
       <c r="F285" t="n">
-        <v>20.75205491829937</v>
+        <v>0.01000407015385126</v>
       </c>
       <c r="G285" t="n">
-        <v>174.0811304903685</v>
+        <v>203.1198336323279</v>
       </c>
       <c r="H285" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I285" t="n">
-        <v>9257.84</v>
+        <v>9921.18</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>133701</v>
+        <v>132102</v>
       </c>
       <c r="F286" t="n">
-        <v>72.49339669118521</v>
+        <v>49.85646945974236</v>
       </c>
       <c r="G286" t="n">
-        <v>4.101286635021061</v>
+        <v>74.53989284076627</v>
       </c>
       <c r="H286" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="I286" t="n">
-        <v>92683</v>
+        <v>92435</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>22814408</v>
+        <v>23167484</v>
       </c>
       <c r="E287" t="n">
-        <v>22814408</v>
+        <v>23167484</v>
       </c>
       <c r="F287" t="n">
-        <v>901.2324515389413</v>
+        <v>1590.683920803968</v>
       </c>
       <c r="G287" t="n">
-        <v>1367.379663851091</v>
+        <v>882.7105813025479</v>
       </c>
       <c r="H287" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="I287" t="n">
-        <v>613588</v>
+        <v>637877</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>570309</v>
+        <v>570561</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>936.41</v>
+        <v>934.5599999999999</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5834767</v>
+        <v>5835831</v>
       </c>
       <c r="E289" t="n">
-        <v>36465621</v>
+        <v>36472271</v>
       </c>
       <c r="F289" t="n">
-        <v>5948.539472667736</v>
+        <v>5902.773096691945</v>
       </c>
       <c r="G289" t="n">
-        <v>658.2694876669942</v>
+        <v>944.3517300972483</v>
       </c>
       <c r="H289" t="n">
         <v>0.23</v>
       </c>
       <c r="I289" t="n">
-        <v>394761</v>
+        <v>397347</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494794696</v>
+        <v>494292769</v>
       </c>
       <c r="E290" t="n">
-        <v>494794696</v>
+        <v>494292769</v>
       </c>
       <c r="F290" t="n">
-        <v>1229653.271591085</v>
+        <v>1127833.406199856</v>
       </c>
       <c r="G290" t="n">
-        <v>2002511.154535783</v>
+        <v>1890034.940824703</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>20303942</v>
+        <v>33109756</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5117553</v>
+        <v>5119927</v>
       </c>
       <c r="E291" t="n">
-        <v>19056719</v>
+        <v>19065558</v>
       </c>
       <c r="F291" t="n">
-        <v>7122.445916649995</v>
+        <v>7126.645363806972</v>
       </c>
       <c r="G291" t="n">
-        <v>2565.047771124724</v>
+        <v>2382.107983461261</v>
       </c>
       <c r="H291" t="n">
         <v>0.16</v>
       </c>
       <c r="I291" t="n">
-        <v>115450</v>
+        <v>62118</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31823351</v>
+        <v>31596501</v>
       </c>
       <c r="F292" t="n">
-        <v>11056.71757217764</v>
+        <v>7772.275172141249</v>
       </c>
       <c r="G292" t="n">
-        <v>6807.282926240752</v>
+        <v>9051.784997640385</v>
       </c>
       <c r="H292" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="I292" t="n">
-        <v>5542375</v>
+        <v>5475019</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31608131</v>
+        <v>31662110</v>
       </c>
       <c r="E293" t="n">
-        <v>113294927</v>
+        <v>113488410</v>
       </c>
       <c r="F293" t="n">
-        <v>22.66863516710881</v>
+        <v>103.3062923824984</v>
       </c>
       <c r="G293" t="n">
-        <v>2190.046409265874</v>
+        <v>2269.808170706778</v>
       </c>
       <c r="H293" t="n">
         <v>0.7</v>
       </c>
       <c r="I293" t="n">
-        <v>94640</v>
+        <v>93441</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>752365</v>
+        <v>751548</v>
       </c>
       <c r="E294" t="n">
-        <v>11999961</v>
+        <v>11986923</v>
       </c>
       <c r="F294" t="n">
-        <v>12.86404209336484</v>
+        <v>12.86362942149835</v>
       </c>
       <c r="G294" t="n">
-        <v>2.298038481009868</v>
+        <v>2.297964761115114</v>
       </c>
       <c r="H294" t="n">
         <v>2.64</v>
       </c>
       <c r="I294" t="n">
-        <v>63351</v>
+        <v>63117</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85459</v>
+        <v>85287</v>
       </c>
       <c r="F295" t="n">
-        <v>85.5510376944715</v>
+        <v>85.54963275839073</v>
       </c>
       <c r="G295" t="n">
-        <v>59.83265650000632</v>
+        <v>60.37935911439461</v>
       </c>
       <c r="H295" t="n">
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>56673</v>
+        <v>56456</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1520431</v>
+        <v>1519305</v>
       </c>
       <c r="F296" t="n">
-        <v>3.830377003832741</v>
+        <v>3.830219984955261</v>
       </c>
       <c r="G296" t="n">
-        <v>10.56437140147786</v>
+        <v>10.56393833555848</v>
       </c>
       <c r="H296" t="n">
         <v>0.49</v>
       </c>
       <c r="I296" t="n">
-        <v>604523</v>
+        <v>603181</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2618906851</v>
+        <v>2625925711</v>
       </c>
       <c r="E297" t="n">
-        <v>2780597629</v>
+        <v>2788049832</v>
       </c>
       <c r="F297" t="n">
-        <v>38003.70463988731</v>
+        <v>43621.43001847027</v>
       </c>
       <c r="G297" t="n">
-        <v>113160.056165696</v>
+        <v>98456.19762969961</v>
       </c>
       <c r="H297" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I297" t="n">
-        <v>37490548</v>
+        <v>36893140</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2261185</v>
+        <v>2231012</v>
       </c>
       <c r="E298" t="n">
-        <v>17392396</v>
+        <v>17160309</v>
       </c>
       <c r="F298" t="n">
-        <v>4137.724363533875</v>
+        <v>4067.242218185823</v>
       </c>
       <c r="G298" t="n">
-        <v>4091.869623314604</v>
+        <v>4051.895666375765</v>
       </c>
       <c r="H298" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="I298" t="n">
-        <v>176717</v>
+        <v>175324</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1693043</v>
+        <v>1699415</v>
       </c>
       <c r="E299" t="n">
-        <v>1699019</v>
+        <v>1705413</v>
       </c>
       <c r="F299" t="n">
-        <v>1016.841497261929</v>
+        <v>1192.061335006463</v>
       </c>
       <c r="G299" t="n">
-        <v>696.7608467630861</v>
+        <v>987.2821853843069</v>
       </c>
       <c r="H299" t="n">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="I299" t="n">
-        <v>422508</v>
+        <v>424819</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>87658035</v>
+        <v>88060293</v>
       </c>
       <c r="E300" t="n">
-        <v>324038948</v>
+        <v>325524452</v>
       </c>
       <c r="F300" t="n">
-        <v>4453.143920356098</v>
+        <v>5935.315491957243</v>
       </c>
       <c r="G300" t="n">
-        <v>2571.099146550972</v>
+        <v>2174.822250000369</v>
       </c>
       <c r="H300" t="n">
         <v>0.45</v>
       </c>
       <c r="I300" t="n">
-        <v>282517</v>
+        <v>277030</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2323137</v>
+        <v>2318825</v>
       </c>
       <c r="E301" t="n">
-        <v>9321666</v>
+        <v>9304362</v>
       </c>
       <c r="F301" t="n">
-        <v>5.344582953556993</v>
+        <v>5.312181493941305</v>
       </c>
       <c r="G301" t="n">
-        <v>3.899632970569946</v>
+        <v>3.882405131345885</v>
       </c>
       <c r="H301" t="n">
         <v>0.32</v>
       </c>
       <c r="I301" t="n">
-        <v>43050</v>
+        <v>40917</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>60863854</v>
+        <v>60534324</v>
       </c>
       <c r="E302" t="n">
-        <v>149294908</v>
+        <v>148486594</v>
       </c>
       <c r="F302" t="n">
-        <v>632.6019767447273</v>
+        <v>1960.526026424856</v>
       </c>
       <c r="G302" t="n">
-        <v>2066.868043617379</v>
+        <v>2206.120488466552</v>
       </c>
       <c r="H302" t="n">
-        <v>1.01</v>
+        <v>0.68</v>
       </c>
       <c r="I302" t="n">
-        <v>22506488</v>
+        <v>22505524</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>714092145</v>
+        <v>712738619</v>
       </c>
       <c r="E303" t="n">
-        <v>1101193136</v>
+        <v>1099105879</v>
       </c>
       <c r="F303" t="n">
-        <v>50040.87694535657</v>
+        <v>35230.50306272657</v>
       </c>
       <c r="G303" t="n">
-        <v>52566.41215680539</v>
+        <v>52504.55730857501</v>
       </c>
       <c r="H303" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I303" t="n">
-        <v>187068276</v>
+        <v>186982791</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20675257</v>
+        <v>20983276</v>
       </c>
       <c r="E304" t="n">
-        <v>20675257</v>
+        <v>20983276</v>
       </c>
       <c r="F304" t="n">
-        <v>3679.002098513508</v>
+        <v>3361.469001257504</v>
       </c>
       <c r="G304" t="n">
-        <v>3987.831353820895</v>
+        <v>3307.60143350619</v>
       </c>
       <c r="H304" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="I304" t="n">
-        <v>7077378</v>
+        <v>7114650</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1704061</v>
+        <v>1790801</v>
       </c>
       <c r="E305" t="n">
-        <v>2796075</v>
+        <v>2938401</v>
       </c>
       <c r="F305" t="n">
-        <v>77.73186195995949</v>
+        <v>789.8230614177332</v>
       </c>
       <c r="G305" t="n">
-        <v>524.9383820649718</v>
+        <v>4.609783648698917</v>
       </c>
       <c r="H305" t="n">
-        <v>2.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I305" t="n">
-        <v>180512</v>
+        <v>195495</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5812200</v>
+        <v>5808518</v>
       </c>
       <c r="E306" t="n">
-        <v>5812200</v>
+        <v>5808518</v>
       </c>
       <c r="F306" t="n">
-        <v>37.10563983411288</v>
+        <v>32.12482373320431</v>
       </c>
       <c r="G306" t="n">
-        <v>5.241710643292612</v>
+        <v>5.241495769529413</v>
       </c>
       <c r="H306" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="I306" t="n">
-        <v>636.91</v>
+        <v>631.37</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39676031</v>
+        <v>39533590</v>
       </c>
       <c r="E307" t="n">
-        <v>189229695</v>
+        <v>188543813</v>
       </c>
       <c r="F307" t="n">
-        <v>830.2492800221829</v>
+        <v>769.2409315891655</v>
       </c>
       <c r="G307" t="n">
-        <v>303.509595793388</v>
+        <v>198.7231387186817</v>
       </c>
       <c r="H307" t="n">
-        <v>0.71</v>
+        <v>0.41</v>
       </c>
       <c r="I307" t="n">
-        <v>419160</v>
+        <v>421117</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>384830</v>
+        <v>383464</v>
       </c>
       <c r="E308" t="n">
-        <v>719742</v>
+        <v>717186</v>
       </c>
       <c r="F308" t="n">
-        <v>792.5327638213722</v>
+        <v>32.67437562699608</v>
       </c>
       <c r="G308" t="n">
-        <v>111.5224231216362</v>
+        <v>246.033132386871</v>
       </c>
       <c r="H308" t="n">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="I308" t="n">
-        <v>1504.81</v>
+        <v>1532.43</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23652586</v>
+        <v>23635866</v>
       </c>
       <c r="E309" t="n">
-        <v>39420975</v>
+        <v>39393110</v>
       </c>
       <c r="F309" t="n">
-        <v>5172.813850652632</v>
+        <v>3738.754806620736</v>
       </c>
       <c r="G309" t="n">
-        <v>3469.882723495708</v>
+        <v>3720.997287386563</v>
       </c>
       <c r="H309" t="n">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>699394</v>
+        <v>690508</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>108430</v>
+        <v>108371</v>
       </c>
       <c r="F310" t="n">
-        <v>14.99808130198231</v>
+        <v>14.99746648472332</v>
       </c>
       <c r="G310" t="n">
-        <v>86.98872107678343</v>
+        <v>87.03083430869104</v>
       </c>
       <c r="H310" t="n">
         <v>0.18</v>
       </c>
       <c r="I310" t="n">
-        <v>48782</v>
+        <v>48517</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>22484774</v>
+        <v>22660487</v>
       </c>
       <c r="E311" t="n">
-        <v>22484774</v>
+        <v>22660487</v>
       </c>
       <c r="F311" t="n">
-        <v>5411.214667565405</v>
+        <v>5705.477200884869</v>
       </c>
       <c r="G311" t="n">
-        <v>6195.491317275738</v>
+        <v>6657.559636732724</v>
       </c>
       <c r="H311" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="I311" t="n">
-        <v>5985827</v>
+        <v>5712804</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3813338</v>
+        <v>3819865</v>
       </c>
       <c r="E312" t="n">
-        <v>8320653</v>
+        <v>8334896</v>
       </c>
       <c r="F312" t="n">
-        <v>1798.647340378413</v>
+        <v>1812.235780725403</v>
       </c>
       <c r="G312" t="n">
-        <v>1804.957345463037</v>
+        <v>1795.344875748009</v>
       </c>
       <c r="H312" t="n">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="I312" t="n">
-        <v>1284538</v>
+        <v>1311472</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9351620</v>
+        <v>9349605</v>
       </c>
       <c r="E313" t="n">
-        <v>9351620</v>
+        <v>9349605</v>
       </c>
       <c r="F313" t="n">
-        <v>15305.02151108918</v>
+        <v>15325.76477452804</v>
       </c>
       <c r="G313" t="n">
-        <v>112941.1305953452</v>
+        <v>112947.4127203185</v>
       </c>
       <c r="H313" t="n">
         <v>0.01</v>
       </c>
       <c r="I313" t="n">
-        <v>2933845</v>
+        <v>2907291</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>486226997</v>
+        <v>487215437</v>
       </c>
       <c r="E314" t="n">
-        <v>1692515713</v>
+        <v>1695956387</v>
       </c>
       <c r="F314" t="n">
-        <v>332988.3710287704</v>
+        <v>389629.7526063253</v>
       </c>
       <c r="G314" t="n">
-        <v>615104.9946478873</v>
+        <v>580430.8259497926</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>29636516</v>
+        <v>29318611</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24073026</v>
+        <v>24098280</v>
       </c>
       <c r="E315" t="n">
-        <v>24052115</v>
+        <v>24077347</v>
       </c>
       <c r="F315" t="n">
-        <v>198.0211380410369</v>
+        <v>217.5208711848008</v>
       </c>
       <c r="G315" t="n">
-        <v>747.8421866393674</v>
+        <v>770.9299706978271</v>
       </c>
       <c r="H315" t="n">
         <v>0.42</v>
       </c>
       <c r="I315" t="n">
-        <v>91506</v>
+        <v>90029</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48293595</v>
+        <v>48320703</v>
       </c>
       <c r="E316" t="n">
-        <v>119189068</v>
+        <v>119255980</v>
       </c>
       <c r="F316" t="n">
-        <v>1046.490426209167</v>
+        <v>1215.360319800293</v>
       </c>
       <c r="G316" t="n">
-        <v>1658.830067424246</v>
+        <v>1598.942145959369</v>
       </c>
       <c r="H316" t="n">
         <v>0.33</v>
       </c>
       <c r="I316" t="n">
-        <v>34575</v>
+        <v>31953</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12200813</v>
+        <v>12177827</v>
       </c>
       <c r="E317" t="n">
-        <v>24684509</v>
+        <v>24634958</v>
       </c>
       <c r="F317" t="n">
-        <v>296.3956046020951</v>
+        <v>360.7526051954372</v>
       </c>
       <c r="G317" t="n">
-        <v>3317.250910454919</v>
+        <v>2646.814932831531</v>
       </c>
       <c r="H317" t="n">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="I317" t="n">
-        <v>41646</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7634708</v>
+        <v>7634735</v>
       </c>
       <c r="E318" t="n">
-        <v>19834151</v>
+        <v>19834221</v>
       </c>
       <c r="F318" t="n">
-        <v>186.3904413838303</v>
+        <v>186.2768567035153</v>
       </c>
       <c r="G318" t="n">
-        <v>592.3922214358662</v>
+        <v>481.4663394970041</v>
       </c>
       <c r="H318" t="n">
         <v>0.2</v>
       </c>
       <c r="I318" t="n">
-        <v>708787</v>
+        <v>710857</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>151793</v>
+        <v>152766</v>
       </c>
       <c r="F319" t="n">
-        <v>268.3827969625743</v>
+        <v>246.6626276390014</v>
       </c>
       <c r="G319" t="n">
-        <v>1.099814807854568</v>
+        <v>13.80540009603505</v>
       </c>
       <c r="H319" t="n">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="I319" t="n">
-        <v>56355</v>
+        <v>57504</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19194234412</v>
+        <v>19197404080</v>
       </c>
       <c r="F320" t="n">
-        <v>52056.4368089198</v>
+        <v>51974.44910854023</v>
       </c>
       <c r="G320" t="n">
-        <v>49771.00817992759</v>
+        <v>49709.44432854169</v>
       </c>
       <c r="H320" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I320" t="n">
-        <v>48601584</v>
+        <v>48213036</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>101489306</v>
+        <v>101432282</v>
       </c>
       <c r="E321" t="n">
-        <v>153768024</v>
+        <v>153681626</v>
       </c>
       <c r="F321" t="n">
-        <v>21640.15323173211</v>
+        <v>11297.18554874923</v>
       </c>
       <c r="G321" t="n">
-        <v>22400.27794112293</v>
+        <v>24456.5204900235</v>
       </c>
       <c r="H321" t="n">
         <v>0.82</v>
       </c>
       <c r="I321" t="n">
-        <v>7058883</v>
+        <v>7082782</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2616602</v>
+        <v>2630350</v>
       </c>
       <c r="E322" t="n">
-        <v>10466410</v>
+        <v>10521400</v>
       </c>
       <c r="F322" t="n">
-        <v>14821.94219237104</v>
+        <v>33712.79691569175</v>
       </c>
       <c r="G322" t="n">
-        <v>38620.03621883257</v>
+        <v>36931.08021037392</v>
       </c>
       <c r="H322" t="n">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="I322" t="n">
-        <v>6997822</v>
+        <v>6960976</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>215438758</v>
+        <v>216024295</v>
       </c>
       <c r="E323" t="n">
-        <v>662393107</v>
+        <v>664193411</v>
       </c>
       <c r="F323" t="n">
-        <v>147752.8175855023</v>
+        <v>132195.279236784</v>
       </c>
       <c r="G323" t="n">
-        <v>185113.2666741695</v>
+        <v>239336.6968948343</v>
       </c>
       <c r="H323" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I323" t="n">
-        <v>11847023</v>
+        <v>11917132</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>151430810</v>
+        <v>150929160</v>
       </c>
       <c r="E324" t="n">
-        <v>395608790</v>
+        <v>394298244</v>
       </c>
       <c r="F324" t="n">
-        <v>6255.254997232984</v>
+        <v>5569.694720488455</v>
       </c>
       <c r="G324" t="n">
-        <v>9985.328836495983</v>
+        <v>7689.990199914911</v>
       </c>
       <c r="H324" t="n">
         <v>0.2</v>
       </c>
       <c r="I324" t="n">
-        <v>7095655</v>
+        <v>7205365</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2443915</v>
+        <v>2441941</v>
       </c>
       <c r="E325" t="n">
-        <v>3354326</v>
+        <v>3351663</v>
       </c>
       <c r="F325" t="n">
-        <v>1169.168918752896</v>
+        <v>149.1000268187572</v>
       </c>
       <c r="G325" t="n">
-        <v>2627.517236325426</v>
+        <v>2100.942310316929</v>
       </c>
       <c r="H325" t="n">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="I325" t="n">
-        <v>1050215</v>
+        <v>1048393</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>394626933</v>
+        <v>398438642</v>
       </c>
       <c r="E326" t="n">
-        <v>2255011045</v>
+        <v>2276792241</v>
       </c>
       <c r="F326" t="n">
-        <v>264642.05660438</v>
+        <v>242014.4175799673</v>
       </c>
       <c r="G326" t="n">
-        <v>374059.3767121517</v>
+        <v>375516.1565595668</v>
       </c>
       <c r="H326" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I326" t="n">
-        <v>38650105</v>
+        <v>38239618</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250221.xlsx
+++ b/MexcData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91237</v>
+        <v>91241</v>
       </c>
       <c r="F2" t="n">
-        <v>5.527877235150494</v>
+        <v>4.197047287549947</v>
       </c>
       <c r="G2" t="n">
-        <v>32.53381784669637</v>
+        <v>32.70636010116663</v>
       </c>
       <c r="H2" t="n">
         <v>0.43</v>
       </c>
       <c r="I2" t="n">
-        <v>1851.61</v>
+        <v>1849.93</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>603049576</v>
+        <v>605064378</v>
       </c>
       <c r="E3" t="n">
-        <v>1170191736</v>
+        <v>1174104285</v>
       </c>
       <c r="F3" t="n">
-        <v>20312.13751240588</v>
+        <v>17217.29178882161</v>
       </c>
       <c r="G3" t="n">
-        <v>37033.01699157307</v>
+        <v>30935.68385052363</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I3" t="n">
-        <v>22275795</v>
+        <v>19835626</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245879539</v>
+        <v>245603249</v>
       </c>
       <c r="E4" t="n">
-        <v>1541876027</v>
+        <v>1540143450</v>
       </c>
       <c r="F4" t="n">
-        <v>76291.18090044618</v>
+        <v>107814.8674613982</v>
       </c>
       <c r="G4" t="n">
-        <v>129219.8750211036</v>
+        <v>67367.17554328541</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>16672781</v>
+        <v>16538839</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>142700290</v>
+        <v>144081045</v>
       </c>
       <c r="E5" t="n">
-        <v>158134223</v>
+        <v>159664315</v>
       </c>
       <c r="F5" t="n">
-        <v>134412.4281291398</v>
+        <v>133076.8988990404</v>
       </c>
       <c r="G5" t="n">
-        <v>373881.5452045399</v>
+        <v>356062.6803382036</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>35862877</v>
+        <v>36229998</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48188584</v>
+        <v>48823162</v>
       </c>
       <c r="E6" t="n">
-        <v>60282683</v>
+        <v>61076524</v>
       </c>
       <c r="F6" t="n">
-        <v>9307.715453256291</v>
+        <v>11156.48528443842</v>
       </c>
       <c r="G6" t="n">
-        <v>8766.46300563518</v>
+        <v>10841.55841703359</v>
       </c>
       <c r="H6" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="I6" t="n">
-        <v>601814</v>
+        <v>597201</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8352341</v>
+        <v>8348415</v>
       </c>
       <c r="E7" t="n">
-        <v>8562956</v>
+        <v>8558931</v>
       </c>
       <c r="F7" t="n">
-        <v>310.8680677609332</v>
+        <v>462.1589800742034</v>
       </c>
       <c r="G7" t="n">
-        <v>181.6426817561724</v>
+        <v>425.5764634451024</v>
       </c>
       <c r="H7" t="n">
-        <v>2.25</v>
+        <v>1.81</v>
       </c>
       <c r="I7" t="n">
-        <v>90736</v>
+        <v>89283</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69406719</v>
+        <v>69429765</v>
       </c>
       <c r="E8" t="n">
-        <v>138234694</v>
+        <v>138280594</v>
       </c>
       <c r="F8" t="n">
-        <v>30583.5818970177</v>
+        <v>29375.29596156674</v>
       </c>
       <c r="G8" t="n">
-        <v>18225.16225228429</v>
+        <v>21449.94974850999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1140356</v>
+        <v>1108827</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5107684</v>
+        <v>5088431</v>
       </c>
       <c r="E9" t="n">
-        <v>8160545</v>
+        <v>8129783</v>
       </c>
       <c r="F9" t="n">
-        <v>276.728553906801</v>
+        <v>317.3847761949812</v>
       </c>
       <c r="G9" t="n">
-        <v>303.7504300771806</v>
+        <v>303.7202599145339</v>
       </c>
       <c r="H9" t="n">
-        <v>0.59</v>
+        <v>0.18</v>
       </c>
       <c r="I9" t="n">
-        <v>101391</v>
+        <v>100598</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14346509</v>
+        <v>14229955</v>
       </c>
       <c r="E10" t="n">
-        <v>42278234</v>
+        <v>41934759</v>
       </c>
       <c r="F10" t="n">
-        <v>3978.720522956482</v>
+        <v>3956.901189892182</v>
       </c>
       <c r="G10" t="n">
-        <v>5034.187957352059</v>
+        <v>5077.637905059039</v>
       </c>
       <c r="H10" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="I10" t="n">
-        <v>866582</v>
+        <v>880849</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>126629583</v>
+        <v>128326015</v>
       </c>
       <c r="E11" t="n">
-        <v>496350048</v>
+        <v>502999555</v>
       </c>
       <c r="F11" t="n">
-        <v>56090.18900088833</v>
+        <v>71302.36832447651</v>
       </c>
       <c r="G11" t="n">
-        <v>58847.9680883828</v>
+        <v>47344.97467493686</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>30758185</v>
+        <v>30493875</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9256506</v>
+        <v>11138864</v>
       </c>
       <c r="E12" t="n">
-        <v>39786706</v>
+        <v>47877540</v>
       </c>
       <c r="F12" t="n">
-        <v>4838.208726774001</v>
+        <v>3309.100519023078</v>
       </c>
       <c r="G12" t="n">
-        <v>3419.82918329527</v>
+        <v>453.7365565760275</v>
       </c>
       <c r="H12" t="n">
-        <v>0.51</v>
+        <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>793017</v>
+        <v>934135</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1003593</v>
+        <v>1004589</v>
       </c>
       <c r="E13" t="n">
-        <v>12281274</v>
+        <v>12293463</v>
       </c>
       <c r="F13" t="n">
-        <v>271.0185310680611</v>
+        <v>271.020433234223</v>
       </c>
       <c r="G13" t="n">
-        <v>200.0460465642364</v>
+        <v>200.1173282321037</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1139.83</v>
+        <v>1149.39</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>587679</v>
+        <v>591195</v>
       </c>
       <c r="E14" t="n">
-        <v>587679</v>
+        <v>591195</v>
       </c>
       <c r="F14" t="n">
-        <v>309.6008255118309</v>
+        <v>674.8367735724667</v>
       </c>
       <c r="G14" t="n">
-        <v>261.2288136955912</v>
+        <v>424.2369631159806</v>
       </c>
       <c r="H14" t="n">
         <v>0.32</v>
       </c>
       <c r="I14" t="n">
-        <v>28896</v>
+        <v>29571</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>576332543</v>
+        <v>583789655</v>
       </c>
       <c r="E15" t="n">
-        <v>720906353</v>
+        <v>730234092</v>
       </c>
       <c r="F15" t="n">
-        <v>472936.9858805577</v>
+        <v>447652.1525032716</v>
       </c>
       <c r="G15" t="n">
-        <v>277339.0830921531</v>
+        <v>497939.843798739</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I15" t="n">
-        <v>51593642</v>
+        <v>52638361</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3342734</v>
+        <v>3342262</v>
       </c>
       <c r="E16" t="n">
-        <v>9509783</v>
+        <v>9508441</v>
       </c>
       <c r="F16" t="n">
-        <v>180.1180968196671</v>
+        <v>126.9968638861516</v>
       </c>
       <c r="G16" t="n">
-        <v>68.94908398523364</v>
+        <v>702.3467935470882</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="I16" t="n">
-        <v>124329</v>
+        <v>119628</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>325405</v>
+        <v>325717</v>
       </c>
       <c r="E17" t="n">
-        <v>3755564</v>
+        <v>3759164</v>
       </c>
       <c r="F17" t="n">
-        <v>5.599891361124071</v>
+        <v>5.631108432620224</v>
       </c>
       <c r="G17" t="n">
-        <v>4.796698986676294</v>
+        <v>4.869579454394058</v>
       </c>
       <c r="H17" t="n">
         <v>0.76</v>
       </c>
       <c r="I17" t="n">
-        <v>2815.98</v>
+        <v>2818.48</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1301288</v>
+        <v>1304388</v>
       </c>
       <c r="E18" t="n">
-        <v>9981655</v>
+        <v>10005429</v>
       </c>
       <c r="F18" t="n">
-        <v>730.4186915207157</v>
+        <v>730.2517825564058</v>
       </c>
       <c r="G18" t="n">
-        <v>105.1229475622537</v>
+        <v>103.6141985853008</v>
       </c>
       <c r="H18" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="I18" t="n">
-        <v>139315</v>
+        <v>143662</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23321517</v>
+        <v>23196177</v>
       </c>
       <c r="E19" t="n">
-        <v>23365020</v>
+        <v>23239447</v>
       </c>
       <c r="F19" t="n">
-        <v>752.2596302216871</v>
+        <v>846.4359033159338</v>
       </c>
       <c r="G19" t="n">
-        <v>1094.651132766036</v>
+        <v>1149.795799447342</v>
       </c>
       <c r="H19" t="n">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="I19" t="n">
-        <v>858996</v>
+        <v>853662</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3788573</v>
+        <v>3794201</v>
       </c>
       <c r="E20" t="n">
-        <v>21021248</v>
+        <v>21052473</v>
       </c>
       <c r="F20" t="n">
-        <v>5.402586669754513</v>
+        <v>5.505077332065483</v>
       </c>
       <c r="G20" t="n">
-        <v>3.874589368986763</v>
+        <v>3.858032255144499</v>
       </c>
       <c r="H20" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>7204.03</v>
+        <v>6478.37</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6872787</v>
+        <v>6851789</v>
       </c>
       <c r="E21" t="n">
-        <v>12750470</v>
+        <v>12711513</v>
       </c>
       <c r="F21" t="n">
-        <v>271.6156612925708</v>
+        <v>266.7691499661832</v>
       </c>
       <c r="G21" t="n">
-        <v>455.9360002867056</v>
+        <v>458.4496491013269</v>
       </c>
       <c r="H21" t="n">
         <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>50625</v>
+        <v>53491</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>70053005</v>
+        <v>70988919</v>
       </c>
       <c r="E22" t="n">
-        <v>121326499</v>
+        <v>122944492</v>
       </c>
       <c r="F22" t="n">
-        <v>396.261921217859</v>
+        <v>362.9184026973235</v>
       </c>
       <c r="G22" t="n">
-        <v>2047.994341332722</v>
+        <v>1933.267654501868</v>
       </c>
       <c r="H22" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="I22" t="n">
-        <v>717228</v>
+        <v>766732</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>173241</v>
+        <v>172075</v>
       </c>
       <c r="E23" t="n">
-        <v>521026</v>
+        <v>517520</v>
       </c>
       <c r="F23" t="n">
-        <v>5.238231190820482</v>
+        <v>4.096012869186974</v>
       </c>
       <c r="G23" t="n">
-        <v>148.1185072838693</v>
+        <v>148.0699624600348</v>
       </c>
       <c r="H23" t="n">
         <v>0.39</v>
       </c>
       <c r="I23" t="n">
-        <v>182.93</v>
+        <v>142.17</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81642196</v>
+        <v>81261440</v>
       </c>
       <c r="E24" t="n">
-        <v>240201467</v>
+        <v>239081236</v>
       </c>
       <c r="F24" t="n">
-        <v>137.6178876303748</v>
+        <v>179.3489195678062</v>
       </c>
       <c r="G24" t="n">
-        <v>390.2070165726625</v>
+        <v>304.3196353251452</v>
       </c>
       <c r="H24" t="n">
-        <v>0.58</v>
+        <v>0.39</v>
       </c>
       <c r="I24" t="n">
-        <v>359156</v>
+        <v>357330</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7096162</v>
+        <v>7265793</v>
       </c>
       <c r="F25" t="n">
-        <v>4.088057360764334</v>
+        <v>4.096281496653147</v>
       </c>
       <c r="G25" t="n">
-        <v>5.479694458808327</v>
+        <v>3.750735057345263</v>
       </c>
       <c r="H25" t="n">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="I25" t="n">
-        <v>18393.93</v>
+        <v>19033.76</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2438824</v>
+        <v>2441997</v>
       </c>
       <c r="E26" t="n">
-        <v>2438824</v>
+        <v>2441997</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.05</v>
+        <v>5.82</v>
       </c>
       <c r="I26" t="n">
-        <v>323793</v>
+        <v>323466</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17763565</v>
+        <v>17471900</v>
       </c>
       <c r="E27" t="n">
-        <v>22863167</v>
+        <v>22487770</v>
       </c>
       <c r="F27" t="n">
-        <v>5153.694732832745</v>
+        <v>5035.266901330942</v>
       </c>
       <c r="G27" t="n">
-        <v>1976.712558628484</v>
+        <v>5375.638399459923</v>
       </c>
       <c r="H27" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="I27" t="n">
-        <v>1685108</v>
+        <v>1705803</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4671464</v>
+        <v>4682947</v>
       </c>
       <c r="E28" t="n">
-        <v>4671464</v>
+        <v>4682947</v>
       </c>
       <c r="F28" t="n">
-        <v>986.2210069744131</v>
+        <v>1125.655693235615</v>
       </c>
       <c r="G28" t="n">
-        <v>1454.520630217855</v>
+        <v>1831.516677838162</v>
       </c>
       <c r="H28" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I28" t="n">
-        <v>2027004</v>
+        <v>2002460</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1710945</v>
+        <v>1721455</v>
       </c>
       <c r="F29" t="n">
-        <v>83.43637003315006</v>
+        <v>140.6924981245179</v>
       </c>
       <c r="G29" t="n">
-        <v>387.409940262807</v>
+        <v>58.79692463483924</v>
       </c>
       <c r="H29" t="n">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="I29" t="n">
-        <v>140235</v>
+        <v>143977</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3375099</v>
+        <v>3389469</v>
       </c>
       <c r="E30" t="n">
-        <v>3375099</v>
+        <v>3389469</v>
       </c>
       <c r="F30" t="n">
-        <v>466.1485276244836</v>
+        <v>582.6262995396229</v>
       </c>
       <c r="G30" t="n">
-        <v>709.2614757007963</v>
+        <v>543.6199223607787</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="I30" t="n">
-        <v>518991</v>
+        <v>519348</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>340887</v>
+        <v>318263</v>
       </c>
       <c r="E31" t="n">
-        <v>1591295</v>
+        <v>1485683</v>
       </c>
       <c r="F31" t="n">
-        <v>236.3991005699485</v>
+        <v>18.29968304197886</v>
       </c>
       <c r="G31" t="n">
-        <v>116.039872887901</v>
+        <v>98.2834009774168</v>
       </c>
       <c r="H31" t="n">
-        <v>2.48</v>
+        <v>3.38</v>
       </c>
       <c r="I31" t="n">
-        <v>731674</v>
+        <v>694115</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>350784</v>
+        <v>354553</v>
       </c>
       <c r="E32" t="n">
-        <v>350784</v>
+        <v>354553</v>
       </c>
       <c r="F32" t="n">
-        <v>63.90585806549285</v>
+        <v>160.0588192878546</v>
       </c>
       <c r="G32" t="n">
-        <v>3.988925015842629</v>
+        <v>4.016104847912348</v>
       </c>
       <c r="H32" t="n">
         <v>0.14</v>
       </c>
       <c r="I32" t="n">
-        <v>46575</v>
+        <v>46613</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1857657</v>
+        <v>1857976</v>
       </c>
       <c r="F33" t="n">
-        <v>52.36345352752589</v>
+        <v>77.85678417466595</v>
       </c>
       <c r="G33" t="n">
-        <v>9.973355170117372</v>
+        <v>9.900521103406682</v>
       </c>
       <c r="H33" t="n">
         <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>631022</v>
+        <v>632154</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1509945</v>
+        <v>1521487</v>
       </c>
       <c r="F34" t="n">
-        <v>238.3981736876357</v>
+        <v>491.4032602121936</v>
       </c>
       <c r="G34" t="n">
-        <v>217.2826211035339</v>
+        <v>221.6041104229328</v>
       </c>
       <c r="H34" t="n">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="I34" t="n">
-        <v>256415</v>
+        <v>268656</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12791214</v>
+        <v>12802279</v>
       </c>
       <c r="E35" t="n">
-        <v>31835018</v>
+        <v>31862556</v>
       </c>
       <c r="F35" t="n">
-        <v>1007.158715111113</v>
+        <v>1026.304645829903</v>
       </c>
       <c r="G35" t="n">
-        <v>1648.483497892333</v>
+        <v>1623.563946442734</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="I35" t="n">
-        <v>1407371</v>
+        <v>1403868</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6927716</v>
+        <v>6823397</v>
       </c>
       <c r="E36" t="n">
-        <v>9541235</v>
+        <v>9397561</v>
       </c>
       <c r="F36" t="n">
-        <v>632.7878193651484</v>
+        <v>592.0916926777068</v>
       </c>
       <c r="G36" t="n">
-        <v>483.5414208180607</v>
+        <v>424.0381396977933</v>
       </c>
       <c r="H36" t="n">
-        <v>1.61</v>
+        <v>1.29</v>
       </c>
       <c r="I36" t="n">
-        <v>557147</v>
+        <v>505532</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>899334</v>
+        <v>904016</v>
       </c>
       <c r="E37" t="n">
-        <v>6295337</v>
+        <v>6328115</v>
       </c>
       <c r="F37" t="n">
-        <v>336.6529877660092</v>
+        <v>343.5384684810281</v>
       </c>
       <c r="G37" t="n">
-        <v>258.3359868051733</v>
+        <v>244.8818893680087</v>
       </c>
       <c r="H37" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I37" t="n">
-        <v>156109</v>
+        <v>154304</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>111168025</v>
+        <v>112713924</v>
       </c>
       <c r="E38" t="n">
-        <v>432578237</v>
+        <v>438568260</v>
       </c>
       <c r="F38" t="n">
-        <v>11793.90222561186</v>
+        <v>13101.50353978305</v>
       </c>
       <c r="G38" t="n">
-        <v>20905.41782586016</v>
+        <v>16925.47542314902</v>
       </c>
       <c r="H38" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>7974452</v>
+        <v>8524104</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5527027</v>
+        <v>5651536</v>
       </c>
       <c r="E39" t="n">
-        <v>5791441</v>
+        <v>5921906</v>
       </c>
       <c r="F39" t="n">
-        <v>74.87754541637817</v>
+        <v>218.9851717475818</v>
       </c>
       <c r="G39" t="n">
-        <v>1705.602639969775</v>
+        <v>66.41958534935291</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I39" t="n">
-        <v>177175</v>
+        <v>152180</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5171379</v>
+        <v>5178925</v>
       </c>
       <c r="E40" t="n">
-        <v>7612550</v>
+        <v>7623658</v>
       </c>
       <c r="F40" t="n">
-        <v>668.160157928103</v>
+        <v>851.3072740727024</v>
       </c>
       <c r="G40" t="n">
-        <v>743.3836953982294</v>
+        <v>709.8309882358574</v>
       </c>
       <c r="H40" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I40" t="n">
-        <v>680904</v>
+        <v>634519</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7677233</v>
+        <v>7678010</v>
       </c>
       <c r="E41" t="n">
-        <v>7677233</v>
+        <v>7678010</v>
       </c>
       <c r="F41" t="n">
-        <v>1728.585332821199</v>
+        <v>1726.015303367463</v>
       </c>
       <c r="G41" t="n">
-        <v>1914.427203882369</v>
+        <v>1858.743616546586</v>
       </c>
       <c r="H41" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="I41" t="n">
-        <v>313537</v>
+        <v>318324</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1454589</v>
+        <v>1457125</v>
       </c>
       <c r="E42" t="n">
-        <v>1454589</v>
+        <v>1457125</v>
       </c>
       <c r="F42" t="n">
-        <v>351.6396089609045</v>
+        <v>353.6424588116459</v>
       </c>
       <c r="G42" t="n">
-        <v>212.7455862058282</v>
+        <v>205.0317899607886</v>
       </c>
       <c r="H42" t="n">
         <v>0.22</v>
       </c>
       <c r="I42" t="n">
-        <v>278527</v>
+        <v>283372</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15983387</v>
+        <v>15982259</v>
       </c>
       <c r="F43" t="n">
-        <v>302.8153492657785</v>
+        <v>651.0705095318507</v>
       </c>
       <c r="G43" t="n">
-        <v>380.1104228618235</v>
+        <v>107.1450205201443</v>
       </c>
       <c r="H43" t="n">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="I43" t="n">
-        <v>9705.120000000001</v>
+        <v>10825.09</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>137704432</v>
+        <v>138806916</v>
       </c>
       <c r="E44" t="n">
-        <v>137704432</v>
+        <v>138806916</v>
       </c>
       <c r="F44" t="n">
-        <v>359708.014017529</v>
+        <v>283150.2265890589</v>
       </c>
       <c r="G44" t="n">
-        <v>465776.4737097268</v>
+        <v>439750.9139228243</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>63747687</v>
+        <v>65244534</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>65211458</v>
+        <v>65499001</v>
       </c>
       <c r="E45" t="n">
-        <v>334417735</v>
+        <v>335892315</v>
       </c>
       <c r="F45" t="n">
-        <v>86683.02327246658</v>
+        <v>61213.7855926571</v>
       </c>
       <c r="G45" t="n">
-        <v>67719.37357573872</v>
+        <v>87985.70025131125</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I45" t="n">
-        <v>21443024</v>
+        <v>21666920</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>594859</v>
+        <v>594267</v>
       </c>
       <c r="F46" t="n">
-        <v>148.9124807662968</v>
+        <v>91.74130211102913</v>
       </c>
       <c r="G46" t="n">
-        <v>577.8787213098047</v>
+        <v>578.4092900674</v>
       </c>
       <c r="H46" t="n">
         <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>1459.79</v>
+        <v>1014.74</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2678089</v>
+        <v>2666292</v>
       </c>
       <c r="E47" t="n">
-        <v>10762630</v>
+        <v>10715220</v>
       </c>
       <c r="F47" t="n">
-        <v>850.2475446456875</v>
+        <v>401.3738927855094</v>
       </c>
       <c r="G47" t="n">
-        <v>56.56378453083971</v>
+        <v>369.645378938023</v>
       </c>
       <c r="H47" t="n">
-        <v>0.91</v>
+        <v>1.83</v>
       </c>
       <c r="I47" t="n">
-        <v>33296</v>
+        <v>33198</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17641345</v>
+        <v>17616068</v>
       </c>
       <c r="E48" t="n">
-        <v>124342667</v>
+        <v>124163536</v>
       </c>
       <c r="F48" t="n">
-        <v>678.696409962206</v>
+        <v>368.6407000313391</v>
       </c>
       <c r="G48" t="n">
-        <v>572.1673485101397</v>
+        <v>388.3841144454375</v>
       </c>
       <c r="H48" t="n">
-        <v>0.92</v>
+        <v>1.2</v>
       </c>
       <c r="I48" t="n">
-        <v>1098409</v>
+        <v>1067110</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1034332</v>
+        <v>1033668</v>
       </c>
       <c r="E49" t="n">
-        <v>1214059</v>
+        <v>1213280</v>
       </c>
       <c r="F49" t="n">
-        <v>1471.131599882164</v>
+        <v>1617.260653035758</v>
       </c>
       <c r="G49" t="n">
-        <v>3352.483953163496</v>
+        <v>3350.324743145919</v>
       </c>
       <c r="H49" t="n">
         <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>211070</v>
+        <v>209483</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>171352</v>
+        <v>172349</v>
       </c>
       <c r="E50" t="n">
-        <v>2292790</v>
+        <v>2306132</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>53603</v>
+        <v>52696</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>252695643</v>
+        <v>253972952</v>
       </c>
       <c r="E51" t="n">
-        <v>252695643</v>
+        <v>253972952</v>
       </c>
       <c r="F51" t="n">
-        <v>22810.52244860033</v>
+        <v>17174.30121659932</v>
       </c>
       <c r="G51" t="n">
-        <v>32413.55894425684</v>
+        <v>55934.37931369297</v>
       </c>
       <c r="H51" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="I51" t="n">
-        <v>14702495</v>
+        <v>14554205</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1125266</v>
+        <v>1121882</v>
       </c>
       <c r="F52" t="n">
-        <v>4.078113331055778</v>
+        <v>4.161346997486215</v>
       </c>
       <c r="G52" t="n">
-        <v>632.0232933551362</v>
+        <v>210.5219721879221</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>181125</v>
+        <v>181220</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>115773</v>
+        <v>115956</v>
       </c>
       <c r="E54" t="n">
-        <v>115773</v>
+        <v>115956</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>72.89</v>
+        <v>72.77</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6797450</v>
+        <v>6827448</v>
       </c>
       <c r="E55" t="n">
-        <v>16510481</v>
+        <v>16583344</v>
       </c>
       <c r="F55" t="n">
-        <v>383.1862273965155</v>
+        <v>336.8093765348602</v>
       </c>
       <c r="G55" t="n">
-        <v>4.423726351313276</v>
+        <v>79.20572039700474</v>
       </c>
       <c r="H55" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="I55" t="n">
-        <v>483586</v>
+        <v>484948</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>447031814</v>
+        <v>442369684</v>
       </c>
       <c r="E56" t="n">
-        <v>447031814</v>
+        <v>442369684</v>
       </c>
       <c r="F56" t="n">
-        <v>3657.458065074316</v>
+        <v>5030.756175169423</v>
       </c>
       <c r="G56" t="n">
-        <v>5037.439849203898</v>
+        <v>4523.706599905824</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="I56" t="n">
-        <v>2754708</v>
+        <v>2638222</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2448937</v>
+        <v>2400157</v>
       </c>
       <c r="E57" t="n">
-        <v>2448937</v>
+        <v>2400157</v>
       </c>
       <c r="F57" t="n">
-        <v>2.572168570347409</v>
+        <v>3.824046091850883</v>
       </c>
       <c r="G57" t="n">
-        <v>5.259890538185371</v>
+        <v>5.257571268274084</v>
       </c>
       <c r="H57" t="n">
         <v>0.51</v>
       </c>
       <c r="I57" t="n">
-        <v>56507</v>
+        <v>103945</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>159144842</v>
+        <v>159214825</v>
       </c>
       <c r="E58" t="n">
-        <v>209415999</v>
+        <v>209508089</v>
       </c>
       <c r="F58" t="n">
-        <v>10491.18162118047</v>
+        <v>11885.47059913289</v>
       </c>
       <c r="G58" t="n">
-        <v>15459.5458600318</v>
+        <v>14284.8789745257</v>
       </c>
       <c r="H58" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="I58" t="n">
-        <v>8084713</v>
+        <v>8282225</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1128402</v>
+        <v>1129002</v>
       </c>
       <c r="E59" t="n">
-        <v>12263046</v>
+        <v>12269575</v>
       </c>
       <c r="F59" t="n">
-        <v>12.54615025523034</v>
+        <v>12.74321497388453</v>
       </c>
       <c r="G59" t="n">
-        <v>3.795383179980682</v>
+        <v>3.795380407695475</v>
       </c>
       <c r="H59" t="n">
         <v>0.33</v>
       </c>
       <c r="I59" t="n">
-        <v>31146</v>
+        <v>31155</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2557760</v>
+        <v>2553152</v>
       </c>
       <c r="E60" t="n">
-        <v>6539136</v>
+        <v>6527354</v>
       </c>
       <c r="F60" t="n">
-        <v>273.3879259368891</v>
+        <v>206.8643051303632</v>
       </c>
       <c r="G60" t="n">
-        <v>255.9142367167003</v>
+        <v>189.058124564876</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>112936</v>
+        <v>112780</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>76270860</v>
+        <v>78443795</v>
       </c>
       <c r="E61" t="n">
-        <v>213474891</v>
+        <v>219508529</v>
       </c>
       <c r="F61" t="n">
-        <v>53294.54729443762</v>
+        <v>69093.89840386903</v>
       </c>
       <c r="G61" t="n">
-        <v>80707.83216918079</v>
+        <v>83212.16578713243</v>
       </c>
       <c r="H61" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="I61" t="n">
-        <v>34276041</v>
+        <v>34440277</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>73271543</v>
+        <v>73559238</v>
       </c>
       <c r="E62" t="n">
-        <v>73271543</v>
+        <v>73559238</v>
       </c>
       <c r="F62" t="n">
-        <v>2654.561448252896</v>
+        <v>1877.833881680594</v>
       </c>
       <c r="G62" t="n">
-        <v>3587.733667428205</v>
+        <v>4176.331309333795</v>
       </c>
       <c r="H62" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I62" t="n">
-        <v>3522988</v>
+        <v>3343930</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4137973</v>
+        <v>4140618</v>
       </c>
       <c r="E63" t="n">
-        <v>8160431</v>
+        <v>8165647</v>
       </c>
       <c r="F63" t="n">
-        <v>1670.928905887098</v>
+        <v>1669.592221539568</v>
       </c>
       <c r="G63" t="n">
-        <v>2153.074234541107</v>
+        <v>2089.956430724296</v>
       </c>
       <c r="H63" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="I63" t="n">
-        <v>1619761</v>
+        <v>1620125</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1590607</v>
+        <v>1581877</v>
       </c>
       <c r="E64" t="n">
-        <v>9132672</v>
+        <v>9082546</v>
       </c>
       <c r="F64" t="n">
-        <v>237.0921527990839</v>
+        <v>176.5341251255543</v>
       </c>
       <c r="G64" t="n">
-        <v>59.68096158052608</v>
+        <v>114.0613576624334</v>
       </c>
       <c r="H64" t="n">
-        <v>1.04</v>
+        <v>0.61</v>
       </c>
       <c r="I64" t="n">
-        <v>303357</v>
+        <v>295368</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>564795</v>
+        <v>565301</v>
       </c>
       <c r="F65" t="n">
-        <v>53.61680622114614</v>
+        <v>53.61952406906616</v>
       </c>
       <c r="G65" t="n">
-        <v>3.870945003001661</v>
+        <v>3.871141222071136</v>
       </c>
       <c r="H65" t="n">
         <v>0.9</v>
       </c>
       <c r="I65" t="n">
-        <v>1571.38</v>
+        <v>1708.61</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31173718</v>
+        <v>31223206</v>
       </c>
       <c r="F66" t="n">
-        <v>785.4742449577187</v>
+        <v>788.1847884220329</v>
       </c>
       <c r="G66" t="n">
-        <v>321.3130744617885</v>
+        <v>343.0839844954055</v>
       </c>
       <c r="H66" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="I66" t="n">
-        <v>247573</v>
+        <v>246733</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>173211</v>
+        <v>173940</v>
       </c>
       <c r="E67" t="n">
-        <v>1169711</v>
+        <v>1174638</v>
       </c>
       <c r="F67" t="n">
-        <v>4.059763181830177</v>
+        <v>5.339216922515768</v>
       </c>
       <c r="G67" t="n">
-        <v>18.10661702485587</v>
+        <v>4.004784752716023</v>
       </c>
       <c r="H67" t="n">
-        <v>0.66</v>
+        <v>1.07</v>
       </c>
       <c r="I67" t="n">
-        <v>2761714</v>
+        <v>2780211</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7636689</v>
+        <v>7639128</v>
       </c>
       <c r="E68" t="n">
-        <v>17985920</v>
+        <v>17991666</v>
       </c>
       <c r="F68" t="n">
-        <v>846.5158249468014</v>
+        <v>846.6059265293677</v>
       </c>
       <c r="G68" t="n">
-        <v>3736.24900833951</v>
+        <v>3725.405072841628</v>
       </c>
       <c r="H68" t="n">
         <v>0.06</v>
       </c>
       <c r="I68" t="n">
-        <v>31941</v>
+        <v>29860</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2965536</v>
+        <v>2943181</v>
       </c>
       <c r="E69" t="n">
-        <v>2965536</v>
+        <v>2943181</v>
       </c>
       <c r="F69" t="n">
-        <v>4.04129526479097</v>
+        <v>5.216113392577154</v>
       </c>
       <c r="G69" t="n">
-        <v>786.8045624443206</v>
+        <v>1148.596994003415</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="I69" t="n">
-        <v>17676.19</v>
+        <v>18026.15</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3358826</v>
+        <v>3367652</v>
       </c>
       <c r="E70" t="n">
-        <v>8287732</v>
+        <v>8309509</v>
       </c>
       <c r="F70" t="n">
-        <v>1218.837342294153</v>
+        <v>1196.102098879155</v>
       </c>
       <c r="G70" t="n">
-        <v>1156.075137706053</v>
+        <v>1179.608491228051</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>45450</v>
+        <v>44441</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23051228</v>
+        <v>22934681</v>
       </c>
       <c r="F71" t="n">
-        <v>407.5908019205142</v>
+        <v>392.4028298259882</v>
       </c>
       <c r="G71" t="n">
-        <v>15.37205344135573</v>
+        <v>111.6512083756779</v>
       </c>
       <c r="H71" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I71" t="n">
-        <v>123696</v>
+        <v>124863</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>271823</v>
+        <v>271939</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1917.45</v>
+        <v>1691.78</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>74522029</v>
+        <v>75634028</v>
       </c>
       <c r="E73" t="n">
-        <v>155416273</v>
+        <v>157735357</v>
       </c>
       <c r="F73" t="n">
-        <v>18208.60068032887</v>
+        <v>19564.78281504046</v>
       </c>
       <c r="G73" t="n">
-        <v>174.255506888011</v>
+        <v>10124.29264743827</v>
       </c>
       <c r="H73" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="I73" t="n">
-        <v>16068460</v>
+        <v>15943896</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>199483706</v>
+        <v>196014158</v>
       </c>
       <c r="F75" t="n">
-        <v>8478.917842375133</v>
+        <v>23348.75684003428</v>
       </c>
       <c r="G75" t="n">
-        <v>15469.38667311985</v>
+        <v>5750.720604012469</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="I75" t="n">
-        <v>4312192</v>
+        <v>4360396</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>84929698</v>
+        <v>85729443</v>
       </c>
       <c r="E76" t="n">
-        <v>116621692</v>
+        <v>117719866</v>
       </c>
       <c r="F76" t="n">
-        <v>539.6677569227531</v>
+        <v>536.834078356717</v>
       </c>
       <c r="G76" t="n">
-        <v>4296.010236500822</v>
+        <v>2273.606952251383</v>
       </c>
       <c r="H76" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I76" t="n">
-        <v>804419</v>
+        <v>1052546</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>179224</v>
+        <v>179606</v>
       </c>
       <c r="E77" t="n">
-        <v>187161</v>
+        <v>187559</v>
       </c>
       <c r="F77" t="n">
-        <v>3.952601785582353</v>
+        <v>3.9528671629766</v>
       </c>
       <c r="G77" t="n">
-        <v>4.035769221254445</v>
+        <v>416.4003132002404</v>
       </c>
       <c r="H77" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="I77" t="n">
-        <v>387.14</v>
+        <v>334.22</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8058740</v>
+        <v>8241563</v>
       </c>
       <c r="E78" t="n">
-        <v>8865152</v>
+        <v>9066270</v>
       </c>
       <c r="F78" t="n">
-        <v>513.6877922128341</v>
+        <v>742.7511371692445</v>
       </c>
       <c r="G78" t="n">
-        <v>221.1451952720798</v>
+        <v>251.5719220033006</v>
       </c>
       <c r="H78" t="n">
-        <v>1.51</v>
+        <v>1.98</v>
       </c>
       <c r="I78" t="n">
-        <v>739059</v>
+        <v>753312</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28304777</v>
+        <v>28176876</v>
       </c>
       <c r="E79" t="n">
-        <v>28304777</v>
+        <v>28176876</v>
       </c>
       <c r="F79" t="n">
-        <v>1101.396425016784</v>
+        <v>1047.791565174852</v>
       </c>
       <c r="G79" t="n">
-        <v>779.7409993605758</v>
+        <v>791.1027293645444</v>
       </c>
       <c r="H79" t="n">
-        <v>0.34</v>
+        <v>0.89</v>
       </c>
       <c r="I79" t="n">
-        <v>284559</v>
+        <v>281280</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>271576371</v>
+        <v>272740656</v>
       </c>
       <c r="E80" t="n">
-        <v>271576371</v>
+        <v>272740656</v>
       </c>
       <c r="F80" t="n">
-        <v>1313.596759062271</v>
+        <v>3646.104848596313</v>
       </c>
       <c r="G80" t="n">
-        <v>14668.90973924774</v>
+        <v>21908.89774176143</v>
       </c>
       <c r="H80" t="n">
         <v>0.48</v>
       </c>
       <c r="I80" t="n">
-        <v>9645767</v>
+        <v>9519203</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>643139598</v>
+        <v>647982224</v>
       </c>
       <c r="E81" t="n">
-        <v>643139598</v>
+        <v>647982224</v>
       </c>
       <c r="F81" t="n">
-        <v>1468354.099221727</v>
+        <v>1246565.678476958</v>
       </c>
       <c r="G81" t="n">
-        <v>1193544.43061366</v>
+        <v>1513815.859964583</v>
       </c>
       <c r="H81" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I81" t="n">
-        <v>287376588</v>
+        <v>292690354</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>119822</v>
+        <v>120967</v>
       </c>
       <c r="E82" t="n">
-        <v>119822</v>
+        <v>120967</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>305.03</v>
+        <v>311.13</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>201295983</v>
+        <v>202651650</v>
       </c>
       <c r="E83" t="n">
-        <v>699320437</v>
+        <v>704030147</v>
       </c>
       <c r="F83" t="n">
-        <v>1239.134895596316</v>
+        <v>1268.958250297689</v>
       </c>
       <c r="G83" t="n">
-        <v>1550.157116039263</v>
+        <v>1952.089828263079</v>
       </c>
       <c r="H83" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="I83" t="n">
-        <v>27287823</v>
+        <v>27692221</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3517858</v>
+        <v>3397083</v>
       </c>
       <c r="E84" t="n">
-        <v>3517858</v>
+        <v>3397083</v>
       </c>
       <c r="F84" t="n">
-        <v>2910.678291772092</v>
+        <v>2778.132235354328</v>
       </c>
       <c r="G84" t="n">
-        <v>1481.086197472066</v>
+        <v>958.4437935715983</v>
       </c>
       <c r="H84" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="I84" t="n">
-        <v>2785115</v>
+        <v>2722286</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>114566749</v>
+        <v>115776149</v>
       </c>
       <c r="E85" t="n">
-        <v>486886103</v>
+        <v>491974404</v>
       </c>
       <c r="F85" t="n">
-        <v>322300.760009198</v>
+        <v>299302.4757732486</v>
       </c>
       <c r="G85" t="n">
-        <v>436445.0915752163</v>
+        <v>418278.7016345711</v>
       </c>
       <c r="H85" t="n">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="I85" t="n">
-        <v>14543621</v>
+        <v>14725374</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71748686</v>
+        <v>71867963</v>
       </c>
       <c r="E86" t="n">
-        <v>82322478</v>
+        <v>82459333</v>
       </c>
       <c r="F86" t="n">
-        <v>22586.12965641195</v>
+        <v>21076.23812276986</v>
       </c>
       <c r="G86" t="n">
-        <v>17751.17203569303</v>
+        <v>18069.57974318642</v>
       </c>
       <c r="H86" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="I86" t="n">
-        <v>1156045</v>
+        <v>1289591</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3135305</v>
+        <v>3136098</v>
       </c>
       <c r="E87" t="n">
-        <v>15719788</v>
+        <v>15723765</v>
       </c>
       <c r="F87" t="n">
-        <v>4.207922129483791</v>
+        <v>5.585373579790393</v>
       </c>
       <c r="G87" t="n">
-        <v>74.57494200018424</v>
+        <v>71.04440056701489</v>
       </c>
       <c r="H87" t="n">
-        <v>0.92</v>
+        <v>0.31</v>
       </c>
       <c r="I87" t="n">
-        <v>33369</v>
+        <v>33835</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>537211</v>
+        <v>525820</v>
       </c>
       <c r="E88" t="n">
-        <v>9188952</v>
+        <v>8994114</v>
       </c>
       <c r="F88" t="n">
-        <v>203.6065081991513</v>
+        <v>8.115636880879578</v>
       </c>
       <c r="G88" t="n">
-        <v>41.96526057255312</v>
+        <v>286.4939102958478</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>172274</v>
+        <v>168068</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5623686</v>
+        <v>5650201</v>
       </c>
       <c r="E89" t="n">
-        <v>7640094</v>
+        <v>7676116</v>
       </c>
       <c r="F89" t="n">
-        <v>642.2135234970942</v>
+        <v>252.7230072204072</v>
       </c>
       <c r="G89" t="n">
-        <v>50.96191455639548</v>
+        <v>81.99321436363751</v>
       </c>
       <c r="H89" t="n">
-        <v>0.42</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I89" t="n">
-        <v>5876741</v>
+        <v>5823500</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40555936</v>
+        <v>40740896</v>
       </c>
       <c r="E90" t="n">
-        <v>47368370</v>
+        <v>47584399</v>
       </c>
       <c r="F90" t="n">
-        <v>159.5010131676888</v>
+        <v>4.068690021365493</v>
       </c>
       <c r="G90" t="n">
-        <v>115.1865879264063</v>
+        <v>162.5486701405267</v>
       </c>
       <c r="H90" t="n">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="I90" t="n">
-        <v>877980</v>
+        <v>880801</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14481658</v>
+        <v>14510305</v>
       </c>
       <c r="F91" t="n">
-        <v>118.2064716549725</v>
+        <v>93.21972340379158</v>
       </c>
       <c r="G91" t="n">
-        <v>626.307634547829</v>
+        <v>266.6733045072768</v>
       </c>
       <c r="H91" t="n">
-        <v>1.97</v>
+        <v>1.5</v>
       </c>
       <c r="I91" t="n">
-        <v>143949</v>
+        <v>289271</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35961098</v>
+        <v>35538692</v>
       </c>
       <c r="E92" t="n">
-        <v>35961098</v>
+        <v>35538692</v>
       </c>
       <c r="F92" t="n">
-        <v>26.70579273780513</v>
+        <v>32.3522326233139</v>
       </c>
       <c r="G92" t="n">
-        <v>971.3106504323343</v>
+        <v>651.8279814853623</v>
       </c>
       <c r="H92" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="I92" t="n">
-        <v>800338</v>
+        <v>789307</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17360965</v>
+        <v>17370105</v>
       </c>
       <c r="F93" t="n">
-        <v>124.0187179015108</v>
+        <v>124.0670971543768</v>
       </c>
       <c r="G93" t="n">
-        <v>479.5720341152367</v>
+        <v>437.6767559525141</v>
       </c>
       <c r="H93" t="n">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="I93" t="n">
-        <v>174949</v>
+        <v>173924</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>644687</v>
+        <v>575467</v>
       </c>
       <c r="E94" t="n">
-        <v>7819431</v>
+        <v>6979852</v>
       </c>
       <c r="F94" t="n">
-        <v>464.4279132828916</v>
+        <v>1000.584949680673</v>
       </c>
       <c r="G94" t="n">
-        <v>102.0768998203781</v>
+        <v>531.7359426120287</v>
       </c>
       <c r="H94" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="I94" t="n">
-        <v>2395632</v>
+        <v>2841561</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25632406</v>
+        <v>25753362</v>
       </c>
       <c r="E95" t="n">
-        <v>36230405</v>
+        <v>36401372</v>
       </c>
       <c r="F95" t="n">
-        <v>4.082807150639197</v>
+        <v>102.6341091053285</v>
       </c>
       <c r="G95" t="n">
-        <v>5.369912909120343</v>
+        <v>5.241464329673939</v>
       </c>
       <c r="H95" t="n">
-        <v>0.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I95" t="n">
-        <v>62749</v>
+        <v>58751</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1275110829</v>
+        <v>1307633788</v>
       </c>
       <c r="E96" t="n">
-        <v>6114417563</v>
+        <v>6270371812</v>
       </c>
       <c r="F96" t="n">
-        <v>500143.3266939492</v>
+        <v>653790.0701062997</v>
       </c>
       <c r="G96" t="n">
-        <v>619866.7893119276</v>
+        <v>526073.7760485975</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>159709380</v>
+        <v>164940160</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>268842153</v>
+        <v>271714838</v>
       </c>
       <c r="E97" t="n">
-        <v>1160471979</v>
+        <v>1172872080</v>
       </c>
       <c r="F97" t="n">
-        <v>268168.9670793335</v>
+        <v>241962.0385354616</v>
       </c>
       <c r="G97" t="n">
-        <v>1092977.113657375</v>
+        <v>886837.0225504163</v>
       </c>
       <c r="H97" t="n">
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>98938737</v>
+        <v>99395823</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5008959</v>
+        <v>5038411</v>
       </c>
       <c r="E98" t="n">
-        <v>5550924</v>
+        <v>5583563</v>
       </c>
       <c r="F98" t="n">
-        <v>1198.890781053278</v>
+        <v>962.0485678354934</v>
       </c>
       <c r="G98" t="n">
-        <v>273.7524276952901</v>
+        <v>347.8128814003377</v>
       </c>
       <c r="H98" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I98" t="n">
-        <v>614669</v>
+        <v>576637</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94641</v>
+        <v>94701</v>
       </c>
       <c r="E99" t="n">
-        <v>94641</v>
+        <v>94701</v>
       </c>
       <c r="F99" t="n">
-        <v>4.165951524929477</v>
+        <v>5.438993478245388</v>
       </c>
       <c r="G99" t="n">
-        <v>3.980731898724537</v>
+        <v>3.97344032413355</v>
       </c>
       <c r="H99" t="n">
         <v>0.77</v>
       </c>
       <c r="I99" t="n">
-        <v>5087.59</v>
+        <v>4376.79</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>114421671</v>
+        <v>115118776</v>
       </c>
       <c r="E100" t="n">
-        <v>114421671</v>
+        <v>115118776</v>
       </c>
       <c r="F100" t="n">
-        <v>7530.230987267639</v>
+        <v>10115.35732249266</v>
       </c>
       <c r="G100" t="n">
-        <v>17091.89443842833</v>
+        <v>14210.04463349378</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6161770</v>
+        <v>6236704</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3732124</v>
+        <v>3749688</v>
       </c>
       <c r="F101" t="n">
-        <v>1940.786128197916</v>
+        <v>1260.046211852593</v>
       </c>
       <c r="G101" t="n">
-        <v>984.7997173371375</v>
+        <v>1122.92752267546</v>
       </c>
       <c r="H101" t="n">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="I101" t="n">
-        <v>294502</v>
+        <v>302729</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2041464811</v>
+        <v>2043303573</v>
       </c>
       <c r="E102" t="n">
-        <v>2041464811</v>
+        <v>2043303573</v>
       </c>
       <c r="F102" t="n">
-        <v>6974360.99852287</v>
+        <v>6893955.476667574</v>
       </c>
       <c r="G102" t="n">
-        <v>5660459.156531828</v>
+        <v>5620687.773354035</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>6410013950</v>
+        <v>6511163917</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5359660</v>
+        <v>5358271</v>
       </c>
       <c r="E103" t="n">
-        <v>5365726</v>
+        <v>5364335</v>
       </c>
       <c r="F103" t="n">
-        <v>66.75840719710891</v>
+        <v>66.75886597927115</v>
       </c>
       <c r="G103" t="n">
-        <v>82.91742696690537</v>
+        <v>83.15061733150149</v>
       </c>
       <c r="H103" t="n">
         <v>0.75</v>
       </c>
       <c r="I103" t="n">
-        <v>152116</v>
+        <v>148477</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2317175</v>
+        <v>2242340</v>
       </c>
       <c r="F104" t="n">
-        <v>5.153200684348289</v>
+        <v>5.385010141033931</v>
       </c>
       <c r="G104" t="n">
-        <v>281.7834334216618</v>
+        <v>288.3232076162352</v>
       </c>
       <c r="H104" t="n">
         <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>59950</v>
+        <v>57443</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4396969</v>
+        <v>4444165</v>
       </c>
       <c r="E105" t="n">
-        <v>5772647</v>
+        <v>5834610</v>
       </c>
       <c r="F105" t="n">
-        <v>11135.98537059881</v>
+        <v>11212.76041872146</v>
       </c>
       <c r="G105" t="n">
-        <v>6072.021344488052</v>
+        <v>5960.95103173853</v>
       </c>
       <c r="H105" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>557601</v>
+        <v>576214</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19776030</v>
+        <v>19878439</v>
       </c>
       <c r="F106" t="n">
-        <v>145.815248704958</v>
+        <v>112.8475313166202</v>
       </c>
       <c r="G106" t="n">
-        <v>222.0383652743603</v>
+        <v>213.7795352266812</v>
       </c>
       <c r="H106" t="n">
         <v>1.01</v>
       </c>
       <c r="I106" t="n">
-        <v>89779</v>
+        <v>91655</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1308187</v>
+        <v>1301249</v>
       </c>
       <c r="E107" t="n">
-        <v>4877269</v>
+        <v>4851392</v>
       </c>
       <c r="F107" t="n">
-        <v>173.8805574587379</v>
+        <v>1607.767808167228</v>
       </c>
       <c r="G107" t="n">
-        <v>179.503755450891</v>
+        <v>175.6972122641823</v>
       </c>
       <c r="H107" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I107" t="n">
-        <v>459027</v>
+        <v>483597</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4170547</v>
+        <v>4103136</v>
       </c>
       <c r="E108" t="n">
-        <v>12013157</v>
+        <v>11818983</v>
       </c>
       <c r="F108" t="n">
-        <v>128.8709466211429</v>
+        <v>134.1715586625888</v>
       </c>
       <c r="G108" t="n">
-        <v>125.4497950736999</v>
+        <v>65.55070972055353</v>
       </c>
       <c r="H108" t="n">
-        <v>2.29</v>
+        <v>2.07</v>
       </c>
       <c r="I108" t="n">
-        <v>632179</v>
+        <v>633643</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80152771</v>
+        <v>80091588</v>
       </c>
       <c r="E109" t="n">
-        <v>102000630</v>
+        <v>101922770</v>
       </c>
       <c r="F109" t="n">
-        <v>4042.052910921413</v>
+        <v>4180.117396580617</v>
       </c>
       <c r="G109" t="n">
-        <v>710.2315162513021</v>
+        <v>326.1828611904764</v>
       </c>
       <c r="H109" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="I109" t="n">
-        <v>6153934</v>
+        <v>6200905</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22832275</v>
+        <v>22568357</v>
       </c>
       <c r="E110" t="n">
-        <v>29618683</v>
+        <v>29276322</v>
       </c>
       <c r="F110" t="n">
-        <v>17647.81769396503</v>
+        <v>18157.83667410987</v>
       </c>
       <c r="G110" t="n">
-        <v>16341.59050606771</v>
+        <v>16778.92648965332</v>
       </c>
       <c r="H110" t="n">
-        <v>0.52</v>
+        <v>0.14</v>
       </c>
       <c r="I110" t="n">
-        <v>282334</v>
+        <v>162003</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>640675</v>
+        <v>647672</v>
       </c>
       <c r="E111" t="n">
-        <v>640675</v>
+        <v>647672</v>
       </c>
       <c r="F111" t="n">
-        <v>5.217772827155724</v>
+        <v>1.348016541011296</v>
       </c>
       <c r="G111" t="n">
-        <v>516.6737841848807</v>
+        <v>2.702014558116693</v>
       </c>
       <c r="H111" t="n">
-        <v>0.21</v>
+        <v>2.36</v>
       </c>
       <c r="I111" t="n">
-        <v>83204</v>
+        <v>82786</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13581624</v>
+        <v>13546904</v>
       </c>
       <c r="E112" t="n">
-        <v>13581624</v>
+        <v>13546904</v>
       </c>
       <c r="F112" t="n">
-        <v>3018.153796667174</v>
+        <v>2467.183946156184</v>
       </c>
       <c r="G112" t="n">
-        <v>2101.500635227319</v>
+        <v>7903.38552610336</v>
       </c>
       <c r="H112" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>4853428</v>
+        <v>4776801</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>97841943</v>
+        <v>98265978</v>
       </c>
       <c r="E113" t="n">
-        <v>121026982</v>
+        <v>121551497</v>
       </c>
       <c r="F113" t="n">
-        <v>111.0295932097178</v>
+        <v>414.8951715047441</v>
       </c>
       <c r="G113" t="n">
-        <v>1382.638047227609</v>
+        <v>1361.94465004131</v>
       </c>
       <c r="H113" t="n">
         <v>0.46</v>
       </c>
       <c r="I113" t="n">
-        <v>831210</v>
+        <v>810841</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>849762</v>
+        <v>844369</v>
       </c>
       <c r="F114" t="n">
-        <v>168.2441453086627</v>
+        <v>71.92378708912452</v>
       </c>
       <c r="G114" t="n">
-        <v>167.0828589447988</v>
+        <v>259.6547878171332</v>
       </c>
       <c r="H114" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="I114" t="n">
-        <v>24523</v>
+        <v>24182</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2794271</v>
+        <v>2846566</v>
       </c>
       <c r="F115" t="n">
-        <v>170.6137999207166</v>
+        <v>15.8934228889333</v>
       </c>
       <c r="G115" t="n">
-        <v>1083.720602761614</v>
+        <v>3177.00156546117</v>
       </c>
       <c r="H115" t="n">
         <v>1.02</v>
       </c>
       <c r="I115" t="n">
-        <v>31185</v>
+        <v>32357</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11314808</v>
+        <v>11136987</v>
       </c>
       <c r="E116" t="n">
-        <v>16639422</v>
+        <v>16377921</v>
       </c>
       <c r="F116" t="n">
-        <v>3435.345160949561</v>
+        <v>13161.34770974103</v>
       </c>
       <c r="G116" t="n">
-        <v>1857.153929051336</v>
+        <v>2384.496910207371</v>
       </c>
       <c r="H116" t="n">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="I116" t="n">
-        <v>592616</v>
+        <v>552832</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3100344</v>
+        <v>3108506</v>
       </c>
       <c r="F117" t="n">
-        <v>4.074832298545915</v>
+        <v>4.178113030651964</v>
       </c>
       <c r="G117" t="n">
-        <v>419.2240087478374</v>
+        <v>413.264514704969</v>
       </c>
       <c r="H117" t="n">
         <v>0.6</v>
       </c>
       <c r="I117" t="n">
-        <v>36964</v>
+        <v>38176</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1229266</v>
+        <v>1232476</v>
       </c>
       <c r="F118" t="n">
-        <v>3.729835470479171</v>
+        <v>3.823859648703735</v>
       </c>
       <c r="G118" t="n">
-        <v>279.9449515528939</v>
+        <v>279.9412140913806</v>
       </c>
       <c r="H118" t="n">
         <v>0.65</v>
       </c>
       <c r="I118" t="n">
-        <v>5233.51</v>
+        <v>4947.41</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5203570</v>
+        <v>5236478</v>
       </c>
       <c r="E119" t="n">
-        <v>7280549</v>
+        <v>7326592</v>
       </c>
       <c r="F119" t="n">
-        <v>1047.652300252039</v>
+        <v>1386.243666775289</v>
       </c>
       <c r="G119" t="n">
-        <v>810.1658963536214</v>
+        <v>1679.275526234336</v>
       </c>
       <c r="H119" t="n">
-        <v>0.53</v>
+        <v>0.74</v>
       </c>
       <c r="I119" t="n">
-        <v>116160</v>
+        <v>112226</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10241314</v>
+        <v>10235844</v>
       </c>
       <c r="E120" t="n">
-        <v>28209263</v>
+        <v>28194194</v>
       </c>
       <c r="F120" t="n">
-        <v>392.9740225633342</v>
+        <v>447.2829593873063</v>
       </c>
       <c r="G120" t="n">
-        <v>135.8883643082149</v>
+        <v>53.32845584139655</v>
       </c>
       <c r="H120" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="I120" t="n">
-        <v>343146</v>
+        <v>342394</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51139865</v>
+        <v>51087453</v>
       </c>
       <c r="E121" t="n">
-        <v>130281729</v>
+        <v>130148207</v>
       </c>
       <c r="F121" t="n">
-        <v>576.1556739738584</v>
+        <v>668.2117969915616</v>
       </c>
       <c r="G121" t="n">
-        <v>11062.72914602786</v>
+        <v>11860.35269786903</v>
       </c>
       <c r="H121" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I121" t="n">
-        <v>2374070</v>
+        <v>2338980</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14285859</v>
+        <v>14562048</v>
       </c>
       <c r="E122" t="n">
-        <v>69188694</v>
+        <v>70526325</v>
       </c>
       <c r="F122" t="n">
-        <v>1844.045135163492</v>
+        <v>2785.20419875649</v>
       </c>
       <c r="G122" t="n">
-        <v>3116.357660935446</v>
+        <v>3368.444569414426</v>
       </c>
       <c r="H122" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I122" t="n">
-        <v>3711924</v>
+        <v>3714311</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>508685</v>
+        <v>495506</v>
       </c>
       <c r="F123" t="n">
-        <v>8.070442350841009</v>
+        <v>4.144002448111436</v>
       </c>
       <c r="G123" t="n">
-        <v>3.854048812128082</v>
+        <v>5.336455760069743</v>
       </c>
       <c r="H123" t="n">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
       <c r="I123" t="n">
-        <v>7352.87</v>
+        <v>7491.96</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4583892</v>
+        <v>4598550</v>
       </c>
       <c r="E124" t="n">
-        <v>10448780</v>
+        <v>10482192</v>
       </c>
       <c r="F124" t="n">
-        <v>800.268445846288</v>
+        <v>827.2402930755028</v>
       </c>
       <c r="G124" t="n">
-        <v>1604.462645951437</v>
+        <v>1604.014181166683</v>
       </c>
       <c r="H124" t="n">
         <v>1.51</v>
       </c>
       <c r="I124" t="n">
-        <v>87185</v>
+        <v>86962</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1919721354</v>
+        <v>1929357622</v>
       </c>
       <c r="F125" t="n">
-        <v>74108.57198285802</v>
+        <v>74104.90476777105</v>
       </c>
       <c r="G125" t="n">
-        <v>73896.44646621624</v>
+        <v>73525.24821055496</v>
       </c>
       <c r="H125" t="n">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="I125" t="n">
-        <v>26993443</v>
+        <v>27295919</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9361808</v>
+        <v>9366913</v>
       </c>
       <c r="E126" t="n">
-        <v>34075323</v>
+        <v>34093802</v>
       </c>
       <c r="F126" t="n">
-        <v>1164.391435040156</v>
+        <v>1164.390584526519</v>
       </c>
       <c r="G126" t="n">
-        <v>5.369069297075037</v>
+        <v>5.369065375312548</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>157486</v>
+        <v>156880</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>538600</v>
+        <v>546930</v>
       </c>
       <c r="F127" t="n">
-        <v>26.77924736532938</v>
+        <v>15.07154528062837</v>
       </c>
       <c r="G127" t="n">
-        <v>162.3818787884451</v>
+        <v>159.7885337410354</v>
       </c>
       <c r="H127" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I127" t="n">
-        <v>912.97</v>
+        <v>882.88</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12272958</v>
+        <v>12217947</v>
       </c>
       <c r="E128" t="n">
-        <v>17794018</v>
+        <v>17714260</v>
       </c>
       <c r="F128" t="n">
-        <v>227.5752160278572</v>
+        <v>6992.46275395759</v>
       </c>
       <c r="G128" t="n">
-        <v>6281.881230693931</v>
+        <v>6800.181194227603</v>
       </c>
       <c r="H128" t="n">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="I128" t="n">
-        <v>1910356</v>
+        <v>2005666</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31501478</v>
+        <v>31639793</v>
       </c>
       <c r="E129" t="n">
-        <v>98085496</v>
+        <v>98516163</v>
       </c>
       <c r="F129" t="n">
-        <v>8347.142891131933</v>
+        <v>8071.822677688142</v>
       </c>
       <c r="G129" t="n">
-        <v>11736.93145036474</v>
+        <v>10676.78950720603</v>
       </c>
       <c r="H129" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I129" t="n">
-        <v>11637811</v>
+        <v>11642126</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2060562</v>
+        <v>2048519</v>
       </c>
       <c r="E130" t="n">
-        <v>14776084</v>
+        <v>14689725</v>
       </c>
       <c r="F130" t="n">
-        <v>37.39531644345553</v>
+        <v>22.50083947028298</v>
       </c>
       <c r="G130" t="n">
-        <v>3.83513449672927</v>
+        <v>3.9504413306554</v>
       </c>
       <c r="H130" t="n">
-        <v>0.54</v>
+        <v>0.68</v>
       </c>
       <c r="I130" t="n">
-        <v>1975894</v>
+        <v>1976413</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7492866</v>
+        <v>7490182</v>
       </c>
       <c r="F131" t="n">
-        <v>334.9397409650243</v>
+        <v>298.0591410466794</v>
       </c>
       <c r="G131" t="n">
-        <v>127.6590336155762</v>
+        <v>112.573098591748</v>
       </c>
       <c r="H131" t="n">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
       <c r="I131" t="n">
-        <v>518027</v>
+        <v>519224</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>199225020</v>
+        <v>200649999</v>
       </c>
       <c r="E132" t="n">
-        <v>1128134475</v>
+        <v>1136203584</v>
       </c>
       <c r="F132" t="n">
-        <v>334589.562788188</v>
+        <v>467500.8414991343</v>
       </c>
       <c r="G132" t="n">
-        <v>515513.9919360213</v>
+        <v>444726.4863859431</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>62084641</v>
+        <v>62541745</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1035502</v>
+        <v>1035540</v>
       </c>
       <c r="E133" t="n">
-        <v>1035502</v>
+        <v>1035540</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>8140.54</v>
+        <v>8052.88</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>503950</v>
+        <v>507685</v>
       </c>
       <c r="E134" t="n">
-        <v>1696225</v>
+        <v>1708798</v>
       </c>
       <c r="F134" t="n">
-        <v>132.1069134872709</v>
+        <v>330.718459469277</v>
       </c>
       <c r="G134" t="n">
-        <v>237.0181636772</v>
+        <v>250.1480544707712</v>
       </c>
       <c r="H134" t="n">
-        <v>1.17</v>
+        <v>0.59</v>
       </c>
       <c r="I134" t="n">
-        <v>631486</v>
+        <v>217751</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>14142696</v>
+        <v>14142909</v>
       </c>
       <c r="F135" t="n">
-        <v>4.128092952849697</v>
+        <v>4.128373961021519</v>
       </c>
       <c r="G135" t="n">
-        <v>4.156412248276398</v>
+        <v>4.15669518420361</v>
       </c>
       <c r="H135" t="n">
         <v>0.35</v>
       </c>
       <c r="I135" t="n">
-        <v>142.82</v>
+        <v>142.85</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>139338126</v>
+        <v>139927376</v>
       </c>
       <c r="E136" t="n">
-        <v>1032134268</v>
+        <v>1036499085</v>
       </c>
       <c r="F136" t="n">
-        <v>40815.84116049274</v>
+        <v>27630.43867779385</v>
       </c>
       <c r="G136" t="n">
-        <v>40612.70667037138</v>
+        <v>27807.484512594</v>
       </c>
       <c r="H136" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I136" t="n">
-        <v>9983381</v>
+        <v>9934796</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31446942</v>
+        <v>32380664</v>
       </c>
       <c r="E137" t="n">
-        <v>149395655</v>
+        <v>153831509</v>
       </c>
       <c r="F137" t="n">
-        <v>16634.80396359002</v>
+        <v>11691.21544341717</v>
       </c>
       <c r="G137" t="n">
-        <v>16720.20085739472</v>
+        <v>1018.837685569946</v>
       </c>
       <c r="H137" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="I137" t="n">
-        <v>1131685</v>
+        <v>1141963</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8022912</v>
+        <v>8024384</v>
       </c>
       <c r="E138" t="n">
-        <v>10748028</v>
+        <v>10749998</v>
       </c>
       <c r="F138" t="n">
-        <v>366.2420931674766</v>
+        <v>6.859641197396291</v>
       </c>
       <c r="G138" t="n">
-        <v>163.0946767674338</v>
+        <v>166.9689461976854</v>
       </c>
       <c r="H138" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I138" t="n">
-        <v>59208</v>
+        <v>59148</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1230768</v>
+        <v>1237784</v>
       </c>
       <c r="F139" t="n">
-        <v>96.14036133465004</v>
+        <v>104.7720624286539</v>
       </c>
       <c r="G139" t="n">
-        <v>3.849281581641081</v>
+        <v>11.23102724317729</v>
       </c>
       <c r="H139" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="I139" t="n">
-        <v>46780</v>
+        <v>45662</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2372172</v>
+        <v>2380028</v>
       </c>
       <c r="E140" t="n">
-        <v>2372172</v>
+        <v>2380028</v>
       </c>
       <c r="F140" t="n">
-        <v>1586.477126827246</v>
+        <v>1637.391231600005</v>
       </c>
       <c r="G140" t="n">
-        <v>352.6021945747182</v>
+        <v>327.6781897548157</v>
       </c>
       <c r="H140" t="n">
         <v>0.45</v>
       </c>
       <c r="I140" t="n">
-        <v>260823</v>
+        <v>157029</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26335443</v>
+        <v>26326446</v>
       </c>
       <c r="E141" t="n">
-        <v>26335443</v>
+        <v>26326446</v>
       </c>
       <c r="F141" t="n">
-        <v>738.1599911980128</v>
+        <v>521.12504803639</v>
       </c>
       <c r="G141" t="n">
-        <v>2202.392531306166</v>
+        <v>2201.123047680294</v>
       </c>
       <c r="H141" t="n">
         <v>0.24</v>
       </c>
       <c r="I141" t="n">
-        <v>309663</v>
+        <v>313986</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6338188</v>
+        <v>6380926</v>
       </c>
       <c r="E142" t="n">
-        <v>6693836</v>
+        <v>6738973</v>
       </c>
       <c r="F142" t="n">
-        <v>444.5052045214964</v>
+        <v>100.8825431390156</v>
       </c>
       <c r="G142" t="n">
-        <v>170.4377020749786</v>
+        <v>1068.59808612259</v>
       </c>
       <c r="H142" t="n">
-        <v>1.62</v>
+        <v>0.45</v>
       </c>
       <c r="I142" t="n">
-        <v>36731</v>
+        <v>34187</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3416908</v>
+        <v>3412496</v>
       </c>
       <c r="E143" t="n">
-        <v>7979050</v>
+        <v>7968747</v>
       </c>
       <c r="F143" t="n">
-        <v>649.3833708212464</v>
+        <v>1194.685214316382</v>
       </c>
       <c r="G143" t="n">
-        <v>1136.746115314637</v>
+        <v>712.5221681115891</v>
       </c>
       <c r="H143" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="I143" t="n">
-        <v>679539</v>
+        <v>684916</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1577269</v>
+        <v>1577580</v>
       </c>
       <c r="E144" t="n">
-        <v>12249249</v>
+        <v>12251665</v>
       </c>
       <c r="F144" t="n">
-        <v>200.2803239759121</v>
+        <v>200.264461429548</v>
       </c>
       <c r="G144" t="n">
-        <v>5710.709459494166</v>
+        <v>1366.858703473564</v>
       </c>
       <c r="H144" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="I144" t="n">
-        <v>484777</v>
+        <v>499476</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>338645070</v>
+        <v>338714074</v>
       </c>
       <c r="E145" t="n">
-        <v>3046661035</v>
+        <v>3047281837</v>
       </c>
       <c r="F145" t="n">
-        <v>465267.7732578013</v>
+        <v>548258.03717531</v>
       </c>
       <c r="G145" t="n">
-        <v>630715.9505927243</v>
+        <v>779593.9030429721</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>37633910</v>
+        <v>38332420</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>246020</v>
+        <v>246423</v>
       </c>
       <c r="E146" t="n">
-        <v>2171314</v>
+        <v>2174866</v>
       </c>
       <c r="F146" t="n">
-        <v>3.972104923905622</v>
+        <v>2.650255301429016</v>
       </c>
       <c r="G146" t="n">
-        <v>112.3700656516208</v>
+        <v>3.994631794555624</v>
       </c>
       <c r="H146" t="n">
-        <v>1.39</v>
+        <v>1.84</v>
       </c>
       <c r="I146" t="n">
-        <v>78693</v>
+        <v>80500</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>656375</v>
+        <v>656326</v>
       </c>
       <c r="F147" t="n">
-        <v>583.7929395941786</v>
+        <v>583.626598433038</v>
       </c>
       <c r="G147" t="n">
-        <v>841.5982151566772</v>
+        <v>841.9507195162801</v>
       </c>
       <c r="H147" t="n">
         <v>0.19</v>
       </c>
       <c r="I147" t="n">
-        <v>4075.61</v>
+        <v>3251.35</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4931648</v>
+        <v>4916679</v>
       </c>
       <c r="E148" t="n">
-        <v>17425808</v>
+        <v>17372915</v>
       </c>
       <c r="F148" t="n">
-        <v>1883.175126081427</v>
+        <v>1501.716814348168</v>
       </c>
       <c r="G148" t="n">
-        <v>2369.413359734611</v>
+        <v>2475.404410464936</v>
       </c>
       <c r="H148" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I148" t="n">
-        <v>87101</v>
+        <v>87290</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9218375</v>
+        <v>9306744</v>
       </c>
       <c r="E149" t="n">
-        <v>42727699</v>
+        <v>43137293</v>
       </c>
       <c r="F149" t="n">
-        <v>1845.55839929528</v>
+        <v>1738.551323040167</v>
       </c>
       <c r="G149" t="n">
-        <v>3266.0203738057</v>
+        <v>3152.367206897192</v>
       </c>
       <c r="H149" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="I149" t="n">
-        <v>125292</v>
+        <v>130899</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>49817334</v>
+        <v>48943257</v>
       </c>
       <c r="E150" t="n">
-        <v>288421782</v>
+        <v>283361233</v>
       </c>
       <c r="F150" t="n">
-        <v>67948.76753163125</v>
+        <v>95811.76956120202</v>
       </c>
       <c r="G150" t="n">
-        <v>62546.16514078587</v>
+        <v>68964.40188634711</v>
       </c>
       <c r="H150" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I150" t="n">
-        <v>26692478</v>
+        <v>27443026</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>83329</v>
+        <v>84902</v>
       </c>
       <c r="E151" t="n">
-        <v>83329</v>
+        <v>84902</v>
       </c>
       <c r="F151" t="n">
-        <v>4.08551066829186</v>
+        <v>4.085839901892349</v>
       </c>
       <c r="G151" t="n">
-        <v>4.115193196564371</v>
+        <v>4.115524822151186</v>
       </c>
       <c r="H151" t="n">
         <v>0.92</v>
       </c>
       <c r="I151" t="n">
-        <v>22502</v>
+        <v>22993</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4431496</v>
+        <v>4384636</v>
       </c>
       <c r="F152" t="n">
-        <v>834.1939211157305</v>
+        <v>868.1241241152266</v>
       </c>
       <c r="G152" t="n">
-        <v>283.6374358882466</v>
+        <v>302.6537629282329</v>
       </c>
       <c r="H152" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="I152" t="n">
-        <v>303955</v>
+        <v>313700</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>40101245</v>
+        <v>39916316</v>
       </c>
       <c r="E153" t="n">
-        <v>55385529</v>
+        <v>55130116</v>
       </c>
       <c r="F153" t="n">
-        <v>4419.621068042261</v>
+        <v>4666.820561187532</v>
       </c>
       <c r="G153" t="n">
-        <v>7607.959553037946</v>
+        <v>15003.52981954348</v>
       </c>
       <c r="H153" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="I153" t="n">
-        <v>339503</v>
+        <v>332292</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2124500</v>
+        <v>2111656</v>
       </c>
       <c r="E154" t="n">
-        <v>8675909</v>
+        <v>8623454</v>
       </c>
       <c r="F154" t="n">
-        <v>484.3195118420721</v>
+        <v>561.124496643061</v>
       </c>
       <c r="G154" t="n">
-        <v>414.6976068840638</v>
+        <v>470.0128144098015</v>
       </c>
       <c r="H154" t="n">
         <v>0.14</v>
       </c>
       <c r="I154" t="n">
-        <v>567268</v>
+        <v>554822</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7441787</v>
+        <v>7397432</v>
       </c>
       <c r="E155" t="n">
-        <v>7497104</v>
+        <v>7452419</v>
       </c>
       <c r="F155" t="n">
-        <v>2301.200156456071</v>
+        <v>2487.661927097183</v>
       </c>
       <c r="G155" t="n">
-        <v>658.8908150815936</v>
+        <v>1425.242282587859</v>
       </c>
       <c r="H155" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I155" t="n">
-        <v>5123161</v>
+        <v>4901908</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>496725</v>
+        <v>488724</v>
       </c>
       <c r="E156" t="n">
-        <v>496725</v>
+        <v>488724</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>27.2</v>
+        <v>34.35</v>
       </c>
       <c r="I156" t="n">
-        <v>11300.8</v>
+        <v>9630.620000000001</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13404279</v>
+        <v>13419628</v>
       </c>
       <c r="E157" t="n">
-        <v>13449895</v>
+        <v>13465297</v>
       </c>
       <c r="F157" t="n">
-        <v>4811.74827054533</v>
+        <v>5045.381446651888</v>
       </c>
       <c r="G157" t="n">
-        <v>4435.496108834118</v>
+        <v>3692.115112524625</v>
       </c>
       <c r="H157" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I157" t="n">
-        <v>5846929</v>
+        <v>5854440</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42800236</v>
+        <v>42672701</v>
       </c>
       <c r="E158" t="n">
-        <v>72664843</v>
+        <v>72448319</v>
       </c>
       <c r="F158" t="n">
-        <v>583.644869652397</v>
+        <v>285.6396775147778</v>
       </c>
       <c r="G158" t="n">
-        <v>777.7443523335307</v>
+        <v>544.1264636648352</v>
       </c>
       <c r="H158" t="n">
-        <v>0.03</v>
+        <v>0.39</v>
       </c>
       <c r="I158" t="n">
-        <v>1122898</v>
+        <v>1119460</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>22891357</v>
+        <v>22897854</v>
       </c>
       <c r="E159" t="n">
-        <v>68617761</v>
+        <v>68637238</v>
       </c>
       <c r="F159" t="n">
-        <v>15817.82788802131</v>
+        <v>14004.3061024906</v>
       </c>
       <c r="G159" t="n">
-        <v>11060.09870600514</v>
+        <v>15272.20821484235</v>
       </c>
       <c r="H159" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I159" t="n">
-        <v>3097295</v>
+        <v>3125740</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101408037</v>
+        <v>101556145</v>
       </c>
       <c r="E160" t="n">
-        <v>107805908</v>
+        <v>107963360</v>
       </c>
       <c r="F160" t="n">
-        <v>1479.935376751776</v>
+        <v>1307.383187117961</v>
       </c>
       <c r="G160" t="n">
-        <v>1064.451337033615</v>
+        <v>600.9128258064788</v>
       </c>
       <c r="H160" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="I160" t="n">
-        <v>385710</v>
+        <v>382935</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10365994</v>
+        <v>10385991</v>
       </c>
       <c r="E161" t="n">
-        <v>45039553</v>
+        <v>45158771</v>
       </c>
       <c r="F161" t="n">
-        <v>4151.511911484088</v>
+        <v>4113.835731469781</v>
       </c>
       <c r="G161" t="n">
-        <v>3530.985091387253</v>
+        <v>2649.760605441752</v>
       </c>
       <c r="H161" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="I161" t="n">
-        <v>113650</v>
+        <v>114306</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15503799</v>
+        <v>15621480</v>
       </c>
       <c r="E162" t="n">
-        <v>95027880</v>
+        <v>95749188</v>
       </c>
       <c r="F162" t="n">
-        <v>2332.632360319117</v>
+        <v>2004.762140225824</v>
       </c>
       <c r="G162" t="n">
-        <v>871.2208934406353</v>
+        <v>1286.063375995997</v>
       </c>
       <c r="H162" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I162" t="n">
-        <v>11198618</v>
+        <v>10981173</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1506253</v>
+        <v>1504903</v>
       </c>
       <c r="E163" t="n">
-        <v>1548622</v>
+        <v>1547234</v>
       </c>
       <c r="F163" t="n">
-        <v>77.21161223656966</v>
+        <v>96.91670911214717</v>
       </c>
       <c r="G163" t="n">
-        <v>60.71409413399469</v>
+        <v>65.69054373646973</v>
       </c>
       <c r="H163" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="I163" t="n">
-        <v>147846</v>
+        <v>150816</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>96281</v>
+        <v>96291</v>
       </c>
       <c r="E164" t="n">
-        <v>273126</v>
+        <v>273155</v>
       </c>
       <c r="F164" t="n">
-        <v>3.029786040213755</v>
+        <v>4.224278923728682</v>
       </c>
       <c r="G164" t="n">
-        <v>106.8262438660092</v>
+        <v>85.99154300534077</v>
       </c>
       <c r="H164" t="n">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="I164" t="n">
-        <v>41.6</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47137069</v>
+        <v>47367984</v>
       </c>
       <c r="E165" t="n">
-        <v>203061340</v>
+        <v>204056096</v>
       </c>
       <c r="F165" t="n">
-        <v>3301.246376594424</v>
+        <v>7145.269076284675</v>
       </c>
       <c r="G165" t="n">
-        <v>5075.918967228025</v>
+        <v>3889.794420475341</v>
       </c>
       <c r="H165" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I165" t="n">
-        <v>8944074</v>
+        <v>8977109</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7656834</v>
+        <v>7827117</v>
       </c>
       <c r="F166" t="n">
-        <v>82.20800984081775</v>
+        <v>66.31437862136261</v>
       </c>
       <c r="G166" t="n">
-        <v>290.003469448382</v>
+        <v>298.6912145779357</v>
       </c>
       <c r="H166" t="n">
         <v>0.87</v>
       </c>
       <c r="I166" t="n">
-        <v>6590727</v>
+        <v>6649725</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>671957</v>
+        <v>673099</v>
       </c>
       <c r="E167" t="n">
-        <v>2426130</v>
+        <v>2430252</v>
       </c>
       <c r="F167" t="n">
-        <v>50.65738509409454</v>
+        <v>50.05491835463992</v>
       </c>
       <c r="G167" t="n">
-        <v>10.33472660086945</v>
+        <v>10.67448180011541</v>
       </c>
       <c r="H167" t="n">
         <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>357060</v>
+        <v>353857</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1605595</v>
+        <v>1598103</v>
       </c>
       <c r="F168" t="n">
-        <v>17.00153816440561</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>22.00241657297551</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>1.33</v>
+        <v>4.86</v>
       </c>
       <c r="I168" t="n">
-        <v>86821</v>
+        <v>84847</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13136036</v>
+        <v>13195221</v>
       </c>
       <c r="E169" t="n">
-        <v>13136036</v>
+        <v>13195221</v>
       </c>
       <c r="F169" t="n">
-        <v>508.2846552092689</v>
+        <v>48.55623635968551</v>
       </c>
       <c r="G169" t="n">
-        <v>69.65588932926144</v>
+        <v>399.1027390102848</v>
       </c>
       <c r="H169" t="n">
-        <v>2.72</v>
+        <v>2.36</v>
       </c>
       <c r="I169" t="n">
-        <v>3560271</v>
+        <v>3221368</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1787738</v>
+        <v>1866500</v>
       </c>
       <c r="E170" t="n">
-        <v>6494917</v>
+        <v>6780943</v>
       </c>
       <c r="F170" t="n">
-        <v>337.2741423321575</v>
+        <v>263.8819279009235</v>
       </c>
       <c r="G170" t="n">
-        <v>175.5037473784605</v>
+        <v>194.6122925923505</v>
       </c>
       <c r="H170" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="I170" t="n">
-        <v>119925</v>
+        <v>129364</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8984733</v>
+        <v>8993462</v>
       </c>
       <c r="E171" t="n">
-        <v>19950936</v>
+        <v>19970319</v>
       </c>
       <c r="F171" t="n">
-        <v>1759.026521448922</v>
+        <v>1759.172687541595</v>
       </c>
       <c r="G171" t="n">
-        <v>1597.248976382568</v>
+        <v>1523.762228776962</v>
       </c>
       <c r="H171" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="I171" t="n">
-        <v>331620</v>
+        <v>343865</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1038292</v>
+        <v>1037491</v>
       </c>
       <c r="E172" t="n">
-        <v>3034747</v>
+        <v>3032406</v>
       </c>
       <c r="F172" t="n">
-        <v>86.46429716195196</v>
+        <v>86.72709610321115</v>
       </c>
       <c r="G172" t="n">
-        <v>687.6184276271855</v>
+        <v>687.667708229436</v>
       </c>
       <c r="H172" t="n">
         <v>0.43</v>
       </c>
       <c r="I172" t="n">
-        <v>20958</v>
+        <v>19856.59</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20565721</v>
+        <v>20616362</v>
       </c>
       <c r="E173" t="n">
-        <v>82262883</v>
+        <v>82465446</v>
       </c>
       <c r="F173" t="n">
-        <v>19770.2904264145</v>
+        <v>8162.111621728251</v>
       </c>
       <c r="G173" t="n">
-        <v>13304.07214554503</v>
+        <v>7996.517880583353</v>
       </c>
       <c r="H173" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="I173" t="n">
-        <v>4864841</v>
+        <v>4802177</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4203213</v>
+        <v>4203411</v>
       </c>
       <c r="E174" t="n">
-        <v>4203213</v>
+        <v>4203411</v>
       </c>
       <c r="F174" t="n">
-        <v>1756.340835938373</v>
+        <v>1683.076278510754</v>
       </c>
       <c r="G174" t="n">
-        <v>1070.698101562178</v>
+        <v>1390.695762025403</v>
       </c>
       <c r="H174" t="n">
-        <v>0.62</v>
+        <v>0.37</v>
       </c>
       <c r="I174" t="n">
-        <v>2700104</v>
+        <v>2688646</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>312717282</v>
+        <v>310386068</v>
       </c>
       <c r="E175" t="n">
-        <v>312717282</v>
+        <v>310386068</v>
       </c>
       <c r="F175" t="n">
-        <v>2756.372614151428</v>
+        <v>10414.89141731176</v>
       </c>
       <c r="G175" t="n">
-        <v>2786.077764919249</v>
+        <v>3440.60339389471</v>
       </c>
       <c r="H175" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="I175" t="n">
-        <v>13394905</v>
+        <v>14691275</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12856646</v>
+        <v>12889313</v>
       </c>
       <c r="E176" t="n">
-        <v>40673781</v>
+        <v>40777126</v>
       </c>
       <c r="F176" t="n">
-        <v>3081.602545252898</v>
+        <v>3927.340777724936</v>
       </c>
       <c r="G176" t="n">
-        <v>3844.685583888177</v>
+        <v>2521.805436634709</v>
       </c>
       <c r="H176" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I176" t="n">
-        <v>1336032</v>
+        <v>1264959</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>25865</v>
+        <v>25089</v>
       </c>
       <c r="E177" t="n">
-        <v>203420</v>
+        <v>197319</v>
       </c>
       <c r="F177" t="n">
-        <v>57.7213283997911</v>
+        <v>613.0850113216129</v>
       </c>
       <c r="G177" t="n">
-        <v>611.2620788411671</v>
+        <v>78.46187811755533</v>
       </c>
       <c r="H177" t="n">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>102031</v>
+        <v>97105</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8099656</v>
+        <v>8128718</v>
       </c>
       <c r="E178" t="n">
-        <v>8099656</v>
+        <v>8128718</v>
       </c>
       <c r="F178" t="n">
-        <v>1968.958601689028</v>
+        <v>1717.706632409905</v>
       </c>
       <c r="G178" t="n">
-        <v>1330.183523894111</v>
+        <v>2085.27010521079</v>
       </c>
       <c r="H178" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I178" t="n">
-        <v>3572334</v>
+        <v>3548386</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1084835</v>
+        <v>1083431</v>
       </c>
       <c r="E179" t="n">
-        <v>2470819</v>
+        <v>2467621</v>
       </c>
       <c r="F179" t="n">
-        <v>3.917146967962215</v>
+        <v>3.916938569649494</v>
       </c>
       <c r="G179" t="n">
-        <v>4.924151699861016</v>
+        <v>4.92388972732993</v>
       </c>
       <c r="H179" t="n">
         <v>0.45</v>
       </c>
       <c r="I179" t="n">
-        <v>4640.37</v>
+        <v>2818.59</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9142040</v>
+        <v>9117464</v>
       </c>
       <c r="E180" t="n">
-        <v>9142040</v>
+        <v>9117464</v>
       </c>
       <c r="F180" t="n">
-        <v>3637.180597603384</v>
+        <v>4418.221723779942</v>
       </c>
       <c r="G180" t="n">
-        <v>3427.938699233095</v>
+        <v>4382.853672701201</v>
       </c>
       <c r="H180" t="n">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
       <c r="I180" t="n">
-        <v>3248317</v>
+        <v>3143737</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17721245</v>
+        <v>17916798</v>
       </c>
       <c r="E181" t="n">
-        <v>17721245</v>
+        <v>17916798</v>
       </c>
       <c r="F181" t="n">
-        <v>3246.910826303974</v>
+        <v>2741.031031577467</v>
       </c>
       <c r="G181" t="n">
-        <v>3337.994902423807</v>
+        <v>3280.55272740643</v>
       </c>
       <c r="H181" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="I181" t="n">
-        <v>2726244</v>
+        <v>3662782</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31608733</v>
+        <v>31847792</v>
       </c>
       <c r="E182" t="n">
-        <v>87553053</v>
+        <v>88215224</v>
       </c>
       <c r="F182" t="n">
-        <v>5170.453038441096</v>
+        <v>4130.951475170246</v>
       </c>
       <c r="G182" t="n">
-        <v>6812.262535392199</v>
+        <v>4446.924924569991</v>
       </c>
       <c r="H182" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I182" t="n">
-        <v>12057667</v>
+        <v>12106644</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>37566789</v>
+        <v>38196868</v>
       </c>
       <c r="E183" t="n">
-        <v>94725407</v>
+        <v>96314164</v>
       </c>
       <c r="F183" t="n">
-        <v>16886.85065179678</v>
+        <v>12167.43908292218</v>
       </c>
       <c r="G183" t="n">
-        <v>8443.749413029806</v>
+        <v>7738.54377384053</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I183" t="n">
-        <v>3347685</v>
+        <v>3449406</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>303639347</v>
+        <v>308432528</v>
       </c>
       <c r="E184" t="n">
-        <v>308385214</v>
+        <v>313251099</v>
       </c>
       <c r="F184" t="n">
-        <v>22057.82504051821</v>
+        <v>19666.63898385445</v>
       </c>
       <c r="G184" t="n">
-        <v>25043.09012943029</v>
+        <v>31435.10238133873</v>
       </c>
       <c r="H184" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I184" t="n">
-        <v>13009359</v>
+        <v>13325477</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>406857</v>
+        <v>408196</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>433.4379787369157</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>50.24038580902486</v>
       </c>
       <c r="H185" t="n">
-        <v>4.12</v>
+        <v>2.91</v>
       </c>
       <c r="I185" t="n">
-        <v>66321</v>
+        <v>66884</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28194857</v>
+        <v>28188113</v>
       </c>
       <c r="E186" t="n">
-        <v>66983971</v>
+        <v>66967947</v>
       </c>
       <c r="F186" t="n">
-        <v>10244.70465031392</v>
+        <v>10268.2193453432</v>
       </c>
       <c r="G186" t="n">
-        <v>7190.202227112488</v>
+        <v>6988.984678364891</v>
       </c>
       <c r="H186" t="n">
         <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>520702</v>
+        <v>496860</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>19904520</v>
+        <v>20026140</v>
       </c>
       <c r="F187" t="n">
-        <v>3.870656327578564</v>
+        <v>3.870845386799009</v>
       </c>
       <c r="G187" t="n">
-        <v>2425.342787619176</v>
+        <v>2634.773347878463</v>
       </c>
       <c r="H187" t="n">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="I187" t="n">
-        <v>1880.82</v>
+        <v>1905.38</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12757684</v>
+        <v>12770817</v>
       </c>
       <c r="E188" t="n">
-        <v>19420073</v>
+        <v>19440063</v>
       </c>
       <c r="F188" t="n">
-        <v>3554.116672503863</v>
+        <v>3199.63126473604</v>
       </c>
       <c r="G188" t="n">
-        <v>1558.426621342748</v>
+        <v>2467.318093631719</v>
       </c>
       <c r="H188" t="n">
         <v>0.73</v>
       </c>
       <c r="I188" t="n">
-        <v>750119</v>
+        <v>777667</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>85417440</v>
+        <v>87017085</v>
       </c>
       <c r="E189" t="n">
-        <v>85417440</v>
+        <v>87017085</v>
       </c>
       <c r="F189" t="n">
-        <v>4897.81360932489</v>
+        <v>9410.889843820778</v>
       </c>
       <c r="G189" t="n">
-        <v>46889.83983475743</v>
+        <v>11715.20108118199</v>
       </c>
       <c r="H189" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="I189" t="n">
-        <v>5348551</v>
+        <v>5367570</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>312247416</v>
+        <v>315800725</v>
       </c>
       <c r="E190" t="n">
-        <v>312247416</v>
+        <v>315800725</v>
       </c>
       <c r="F190" t="n">
-        <v>214151.086249658</v>
+        <v>243205.1807023964</v>
       </c>
       <c r="G190" t="n">
-        <v>250998.291445241</v>
+        <v>271089.8184174846</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>50345343</v>
+        <v>51315400</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10272202</v>
+        <v>10262947</v>
       </c>
       <c r="E191" t="n">
-        <v>29164494</v>
+        <v>29138217</v>
       </c>
       <c r="F191" t="n">
-        <v>847.7854956544619</v>
+        <v>787.1268800027167</v>
       </c>
       <c r="G191" t="n">
-        <v>6633.913408505457</v>
+        <v>7743.157480987599</v>
       </c>
       <c r="H191" t="n">
-        <v>0.68</v>
+        <v>0.34</v>
       </c>
       <c r="I191" t="n">
-        <v>124261</v>
+        <v>121079</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4161790</v>
+        <v>4168215</v>
       </c>
       <c r="E192" t="n">
-        <v>28437219</v>
+        <v>28481121</v>
       </c>
       <c r="F192" t="n">
-        <v>4634.683130382301</v>
+        <v>4539.973114888979</v>
       </c>
       <c r="G192" t="n">
-        <v>2974.2962310835</v>
+        <v>4719.98599975958</v>
       </c>
       <c r="H192" t="n">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
       <c r="I192" t="n">
-        <v>2621813</v>
+        <v>2620084</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2818566</v>
+        <v>2816438</v>
       </c>
       <c r="E193" t="n">
-        <v>4179425</v>
+        <v>4175926</v>
       </c>
       <c r="F193" t="n">
-        <v>73.94491816614045</v>
+        <v>398.797401517631</v>
       </c>
       <c r="G193" t="n">
-        <v>6403.055766265762</v>
+        <v>260.7910073358248</v>
       </c>
       <c r="H193" t="n">
-        <v>0.24</v>
+        <v>1.19</v>
       </c>
       <c r="I193" t="n">
-        <v>209953</v>
+        <v>209695</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>89110162</v>
+        <v>90346209</v>
       </c>
       <c r="E194" t="n">
-        <v>513491186</v>
+        <v>520613826</v>
       </c>
       <c r="F194" t="n">
-        <v>469778.7185470625</v>
+        <v>573223.9056043888</v>
       </c>
       <c r="G194" t="n">
-        <v>482033.0642444826</v>
+        <v>510028.8807812388</v>
       </c>
       <c r="H194" t="n">
         <v>0.06</v>
       </c>
       <c r="I194" t="n">
-        <v>16192354</v>
+        <v>16652751</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>721196</v>
+        <v>729072</v>
       </c>
       <c r="E195" t="n">
-        <v>786532</v>
+        <v>795120</v>
       </c>
       <c r="F195" t="n">
-        <v>127.4291493796086</v>
+        <v>5.424953183575057</v>
       </c>
       <c r="G195" t="n">
-        <v>5.413687699936846</v>
+        <v>5.407181312917367</v>
       </c>
       <c r="H195" t="n">
-        <v>0.48</v>
+        <v>0.66</v>
       </c>
       <c r="I195" t="n">
-        <v>126470</v>
+        <v>130352</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>108252653</v>
+        <v>108513270</v>
       </c>
       <c r="E196" t="n">
-        <v>266343819</v>
+        <v>266985041</v>
       </c>
       <c r="F196" t="n">
-        <v>70281.81663615402</v>
+        <v>43612.00310977241</v>
       </c>
       <c r="G196" t="n">
-        <v>39297.57505370743</v>
+        <v>42406.68926193509</v>
       </c>
       <c r="H196" t="n">
         <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2285733</v>
+        <v>2285796</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18397307</v>
+        <v>18674987</v>
       </c>
       <c r="E197" t="n">
-        <v>18397307</v>
+        <v>18674987</v>
       </c>
       <c r="F197" t="n">
-        <v>5.278262391931142</v>
+        <v>14.61171507811752</v>
       </c>
       <c r="G197" t="n">
-        <v>47.04937361627234</v>
+        <v>4.050147882932338</v>
       </c>
       <c r="H197" t="n">
-        <v>0.51</v>
+        <v>0.31</v>
       </c>
       <c r="I197" t="n">
-        <v>118201</v>
+        <v>117540</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1338299</v>
+        <v>1339104</v>
       </c>
       <c r="F198" t="n">
-        <v>377.6380518714919</v>
+        <v>412.9175749615242</v>
       </c>
       <c r="G198" t="n">
-        <v>5.283441046292669</v>
+        <v>5.283134657485213</v>
       </c>
       <c r="H198" t="n">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="I198" t="n">
-        <v>32918</v>
+        <v>31938</v>
       </c>
     </row>
     <row r="199">
@@ -7370,10 +7370,10 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>127106</v>
+        <v>146235</v>
       </c>
       <c r="E199" t="n">
-        <v>276707</v>
+        <v>318352</v>
       </c>
       <c r="F199" t="n">
         <v>5.411949902263379</v>
@@ -7385,7 +7385,7 @@
         <v>1.06</v>
       </c>
       <c r="I199" t="n">
-        <v>46725</v>
+        <v>191.2</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2836939</v>
+        <v>2835930</v>
       </c>
       <c r="F200" t="n">
-        <v>171.8612616311837</v>
+        <v>173.907465481805</v>
       </c>
       <c r="G200" t="n">
-        <v>269.7309943891153</v>
+        <v>112.4552191846262</v>
       </c>
       <c r="H200" t="n">
-        <v>3.14</v>
+        <v>2.8</v>
       </c>
       <c r="I200" t="n">
-        <v>416638</v>
+        <v>420465</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>184185</v>
+        <v>184034</v>
       </c>
       <c r="E201" t="n">
-        <v>1422276</v>
+        <v>1421115</v>
       </c>
       <c r="F201" t="n">
-        <v>20.7159714358775</v>
+        <v>20.71745611910812</v>
       </c>
       <c r="G201" t="n">
-        <v>10.30462238619817</v>
+        <v>10.37970047965613</v>
       </c>
       <c r="H201" t="n">
         <v>0.57</v>
       </c>
       <c r="I201" t="n">
-        <v>136387</v>
+        <v>123781</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30263823</v>
+        <v>30458962</v>
       </c>
       <c r="E202" t="n">
-        <v>135503551</v>
+        <v>136377267</v>
       </c>
       <c r="F202" t="n">
-        <v>8309.872459413085</v>
+        <v>7613.654194182404</v>
       </c>
       <c r="G202" t="n">
-        <v>10522.89054834073</v>
+        <v>12027.89049429245</v>
       </c>
       <c r="H202" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="I202" t="n">
-        <v>8470794</v>
+        <v>8463632</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13073246</v>
+        <v>13046766</v>
       </c>
       <c r="E203" t="n">
-        <v>26135078</v>
+        <v>26082140</v>
       </c>
       <c r="F203" t="n">
-        <v>707.3392076864586</v>
+        <v>705.0751709811009</v>
       </c>
       <c r="G203" t="n">
-        <v>713.2606911947776</v>
+        <v>716.3290933843379</v>
       </c>
       <c r="H203" t="n">
-        <v>0.37</v>
+        <v>0.15</v>
       </c>
       <c r="I203" t="n">
-        <v>42347</v>
+        <v>34195</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1486980</v>
+        <v>1485700</v>
       </c>
       <c r="F204" t="n">
-        <v>110.1630841783156</v>
+        <v>303.7037578967451</v>
       </c>
       <c r="G204" t="n">
-        <v>40.11937690847504</v>
+        <v>143.0923455013566</v>
       </c>
       <c r="H204" t="n">
-        <v>2.83</v>
+        <v>2.34</v>
       </c>
       <c r="I204" t="n">
-        <v>25225</v>
+        <v>25033</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>979255</v>
+        <v>978916</v>
       </c>
       <c r="E205" t="n">
-        <v>4529195</v>
+        <v>4527627</v>
       </c>
       <c r="F205" t="n">
-        <v>4942.405533974577</v>
+        <v>4786.700849952847</v>
       </c>
       <c r="G205" t="n">
-        <v>3431.118538431185</v>
+        <v>3477.285906235059</v>
       </c>
       <c r="H205" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I205" t="n">
-        <v>408922</v>
+        <v>411856</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3026387</v>
+        <v>3078327</v>
       </c>
       <c r="E206" t="n">
-        <v>3026387</v>
+        <v>3078327</v>
       </c>
       <c r="F206" t="n">
-        <v>439.7535595799371</v>
+        <v>600.4340670680991</v>
       </c>
       <c r="G206" t="n">
-        <v>7999.742439612637</v>
+        <v>1280.083605614001</v>
       </c>
       <c r="H206" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I206" t="n">
-        <v>439983</v>
+        <v>432325</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>559799</v>
+        <v>560015</v>
       </c>
       <c r="E207" t="n">
-        <v>559799</v>
+        <v>560015</v>
       </c>
       <c r="F207" t="n">
-        <v>5.348974595487539</v>
+        <v>5.436757846129</v>
       </c>
       <c r="G207" t="n">
-        <v>63.94649346741306</v>
+        <v>624.6560845791558</v>
       </c>
       <c r="H207" t="n">
         <v>0.71</v>
       </c>
       <c r="I207" t="n">
-        <v>44589</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>13845567</v>
+        <v>14551106</v>
       </c>
       <c r="E208" t="n">
-        <v>17627617</v>
+        <v>18525881</v>
       </c>
       <c r="F208" t="n">
-        <v>137.3673414698798</v>
+        <v>332.9288340639247</v>
       </c>
       <c r="G208" t="n">
-        <v>119.8536655188993</v>
+        <v>249.3230015176756</v>
       </c>
       <c r="H208" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="I208" t="n">
-        <v>809390</v>
+        <v>854132</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1814549</v>
+        <v>1815493</v>
       </c>
       <c r="E209" t="n">
-        <v>1814549</v>
+        <v>1815493</v>
       </c>
       <c r="F209" t="n">
-        <v>27.50076623336846</v>
+        <v>28.99394723939915</v>
       </c>
       <c r="G209" t="n">
-        <v>27.02551693912773</v>
+        <v>26.98443647265814</v>
       </c>
       <c r="H209" t="n">
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="I209" t="n">
-        <v>4397.68</v>
+        <v>4294.42</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5972565</v>
+        <v>5993092</v>
       </c>
       <c r="E210" t="n">
-        <v>15675013</v>
+        <v>15728885</v>
       </c>
       <c r="F210" t="n">
-        <v>1208.941787158294</v>
+        <v>765.3592799210335</v>
       </c>
       <c r="G210" t="n">
-        <v>258.4033815753185</v>
+        <v>781.6263298527717</v>
       </c>
       <c r="H210" t="n">
-        <v>0.44</v>
+        <v>1.33</v>
       </c>
       <c r="I210" t="n">
-        <v>28813</v>
+        <v>21494</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29864604</v>
+        <v>29706859</v>
       </c>
       <c r="F211" t="n">
-        <v>1276.647578544278</v>
+        <v>747.5518010316237</v>
       </c>
       <c r="G211" t="n">
-        <v>348.2734558787601</v>
+        <v>339.7941823369593</v>
       </c>
       <c r="H211" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="I211" t="n">
-        <v>373212</v>
+        <v>370903</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17669300</v>
+        <v>17764000</v>
       </c>
       <c r="E212" t="n">
-        <v>17669536</v>
+        <v>17764000</v>
       </c>
       <c r="F212" t="n">
-        <v>30070.0361085127</v>
+        <v>24686.99539569376</v>
       </c>
       <c r="G212" t="n">
-        <v>32896.93309610143</v>
+        <v>35353.45398496834</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2933758</v>
+        <v>2926736</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>48734832</v>
+        <v>49347822</v>
       </c>
       <c r="E213" t="n">
-        <v>316032415</v>
+        <v>320007494</v>
       </c>
       <c r="F213" t="n">
-        <v>70599.70039536264</v>
+        <v>79190.54180080956</v>
       </c>
       <c r="G213" t="n">
-        <v>187669.7629657962</v>
+        <v>160671.9421503411</v>
       </c>
       <c r="H213" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I213" t="n">
-        <v>16287882</v>
+        <v>16622626</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9122084</v>
+        <v>9105269</v>
       </c>
       <c r="F214" t="n">
-        <v>5.236627386462766</v>
+        <v>139.5848868724684</v>
       </c>
       <c r="G214" t="n">
-        <v>226.6220199243148</v>
+        <v>5.138466786688644</v>
       </c>
       <c r="H214" t="n">
-        <v>0.78</v>
+        <v>0.22</v>
       </c>
       <c r="I214" t="n">
-        <v>303203</v>
+        <v>304116</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>6976785</v>
+        <v>7014897</v>
       </c>
       <c r="E215" t="n">
-        <v>6986767</v>
+        <v>7024881</v>
       </c>
       <c r="F215" t="n">
-        <v>62.01089390449891</v>
+        <v>46.69537185812899</v>
       </c>
       <c r="G215" t="n">
-        <v>374.5634964794095</v>
+        <v>1901.273063361032</v>
       </c>
       <c r="H215" t="n">
-        <v>0.02</v>
+        <v>0.67</v>
       </c>
       <c r="I215" t="n">
-        <v>608259</v>
+        <v>758442</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4788757</v>
+        <v>4781108</v>
       </c>
       <c r="F216" t="n">
-        <v>1133.030450236675</v>
+        <v>1128.329607464485</v>
       </c>
       <c r="G216" t="n">
-        <v>300.0015707398672</v>
+        <v>304.920915087204</v>
       </c>
       <c r="H216" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="I216" t="n">
-        <v>199215</v>
+        <v>183028</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2570492</v>
+        <v>2508589</v>
       </c>
       <c r="E217" t="n">
-        <v>4656931</v>
+        <v>4544782</v>
       </c>
       <c r="F217" t="n">
-        <v>335.0131462820566</v>
+        <v>1188.505314505167</v>
       </c>
       <c r="G217" t="n">
-        <v>123.8157824644387</v>
+        <v>151.4675351809869</v>
       </c>
       <c r="H217" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="I217" t="n">
-        <v>127958</v>
+        <v>128860</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125491437</v>
+        <v>125301070</v>
       </c>
       <c r="E218" t="n">
-        <v>2078240970</v>
+        <v>2075088342</v>
       </c>
       <c r="F218" t="n">
-        <v>5897.453128662513</v>
+        <v>6899.556654107995</v>
       </c>
       <c r="G218" t="n">
-        <v>10778.1918513052</v>
+        <v>12474.71516415077</v>
       </c>
       <c r="H218" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>4835896</v>
+        <v>4847594</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>98692603</v>
+        <v>94729879</v>
       </c>
       <c r="E219" t="n">
-        <v>99754962</v>
+        <v>95749582</v>
       </c>
       <c r="F219" t="n">
-        <v>9730.621766924001</v>
+        <v>5269.828400570838</v>
       </c>
       <c r="G219" t="n">
-        <v>8931.870239092401</v>
+        <v>6063.882365652714</v>
       </c>
       <c r="H219" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I219" t="n">
-        <v>31840999</v>
+        <v>33976562</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>231163033</v>
+        <v>237032016</v>
       </c>
       <c r="E220" t="n">
-        <v>231163033</v>
+        <v>237032016</v>
       </c>
       <c r="F220" t="n">
-        <v>98498.6249276356</v>
+        <v>94932.66899795161</v>
       </c>
       <c r="G220" t="n">
-        <v>120225.4895422474</v>
+        <v>113839.8200372497</v>
       </c>
       <c r="H220" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I220" t="n">
-        <v>44176084</v>
+        <v>44847252</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24031151</v>
+        <v>24487208</v>
       </c>
       <c r="E221" t="n">
-        <v>143783208</v>
+        <v>146511890</v>
       </c>
       <c r="F221" t="n">
-        <v>117650.4427523435</v>
+        <v>130767.9893008709</v>
       </c>
       <c r="G221" t="n">
-        <v>85542.68624358691</v>
+        <v>80497.30695944338</v>
       </c>
       <c r="H221" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>11527716</v>
+        <v>12016176</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1071492</v>
+        <v>1084209</v>
       </c>
       <c r="F222" t="n">
-        <v>51.28423941311405</v>
+        <v>157.3561332407048</v>
       </c>
       <c r="G222" t="n">
-        <v>2752.717687602679</v>
+        <v>1.765398173887764</v>
       </c>
       <c r="H222" t="n">
-        <v>2.49</v>
+        <v>1.48</v>
       </c>
       <c r="I222" t="n">
-        <v>71880</v>
+        <v>73643</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2243193</v>
+        <v>2251025</v>
       </c>
       <c r="F223" t="n">
-        <v>149.1011803905724</v>
+        <v>136.4408974615153</v>
       </c>
       <c r="G223" t="n">
-        <v>1339.018931723482</v>
+        <v>919.6608858170013</v>
       </c>
       <c r="H223" t="n">
-        <v>0.03</v>
+        <v>0.41</v>
       </c>
       <c r="I223" t="n">
-        <v>179497</v>
+        <v>174507</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13698784</v>
+        <v>13589153</v>
       </c>
       <c r="E224" t="n">
-        <v>42036762</v>
+        <v>41700344</v>
       </c>
       <c r="F224" t="n">
-        <v>2464.558250359235</v>
+        <v>1834.701142692567</v>
       </c>
       <c r="G224" t="n">
-        <v>1577.552697257516</v>
+        <v>1844.410454296049</v>
       </c>
       <c r="H224" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="I224" t="n">
-        <v>2572249</v>
+        <v>2577666</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>55139118</v>
+        <v>55239739</v>
       </c>
       <c r="E225" t="n">
-        <v>95237244</v>
+        <v>95411038</v>
       </c>
       <c r="F225" t="n">
-        <v>292.0520604954403</v>
+        <v>7681.60938337536</v>
       </c>
       <c r="G225" t="n">
-        <v>13926.21790005743</v>
+        <v>6828.592542424742</v>
       </c>
       <c r="H225" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="I225" t="n">
-        <v>2400142</v>
+        <v>2378940</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4209893</v>
+        <v>4185433</v>
       </c>
       <c r="E226" t="n">
-        <v>4209893</v>
+        <v>4185433</v>
       </c>
       <c r="F226" t="n">
-        <v>34.27243639030221</v>
+        <v>65.84750368595506</v>
       </c>
       <c r="G226" t="n">
-        <v>91.85322090595962</v>
+        <v>86.24849264227883</v>
       </c>
       <c r="H226" t="n">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="I226" t="n">
-        <v>1573278</v>
+        <v>1594594</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>211133</v>
+        <v>212090</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>50915</v>
+        <v>51501</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6675422</v>
+        <v>6656603</v>
       </c>
       <c r="E228" t="n">
-        <v>34343015</v>
+        <v>34246202</v>
       </c>
       <c r="F228" t="n">
-        <v>92.34718317867878</v>
+        <v>257.8126810568132</v>
       </c>
       <c r="G228" t="n">
-        <v>126.6405028994773</v>
+        <v>119.5360760468475</v>
       </c>
       <c r="H228" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="I228" t="n">
-        <v>924588</v>
+        <v>921876</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>175576484</v>
+        <v>176456759</v>
       </c>
       <c r="E230" t="n">
-        <v>205125175</v>
+        <v>206153596</v>
       </c>
       <c r="F230" t="n">
-        <v>12497.0407687372</v>
+        <v>12889.38139228258</v>
       </c>
       <c r="G230" t="n">
-        <v>88375.76660490177</v>
+        <v>62538.02104032984</v>
       </c>
       <c r="H230" t="n">
         <v>0.19</v>
       </c>
       <c r="I230" t="n">
-        <v>4180073</v>
+        <v>3981062</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>296300</v>
+        <v>302358</v>
       </c>
       <c r="F231" t="n">
-        <v>521.6374018561745</v>
+        <v>456.9178624601803</v>
       </c>
       <c r="G231" t="n">
-        <v>164.6074952097039</v>
+        <v>74.41246512107732</v>
       </c>
       <c r="H231" t="n">
-        <v>0.54</v>
+        <v>0.13</v>
       </c>
       <c r="I231" t="n">
-        <v>219448</v>
+        <v>318505</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29113818</v>
+        <v>29179402</v>
       </c>
       <c r="E232" t="n">
-        <v>39920135</v>
+        <v>40010062</v>
       </c>
       <c r="F232" t="n">
-        <v>5924.23697456754</v>
+        <v>6496.086688376994</v>
       </c>
       <c r="G232" t="n">
-        <v>5792.918042644211</v>
+        <v>6875.519009640938</v>
       </c>
       <c r="H232" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I232" t="n">
-        <v>220754</v>
+        <v>209900</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1741061</v>
+        <v>1730964</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1597414</v>
+        <v>1606440</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7992351</v>
+        <v>7997370</v>
       </c>
       <c r="F234" t="n">
-        <v>469.6815647658862</v>
+        <v>469.8944464531018</v>
       </c>
       <c r="G234" t="n">
-        <v>3275.808859625047</v>
+        <v>3248.759618962051</v>
       </c>
       <c r="H234" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I234" t="n">
-        <v>680325</v>
+        <v>668003</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23075977</v>
+        <v>22984729</v>
       </c>
       <c r="E235" t="n">
-        <v>23076229</v>
+        <v>22984729</v>
       </c>
       <c r="F235" t="n">
-        <v>16892.59491787429</v>
+        <v>16638.89002603612</v>
       </c>
       <c r="G235" t="n">
-        <v>8285.356422662011</v>
+        <v>5494.183246486466</v>
       </c>
       <c r="H235" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="I235" t="n">
-        <v>2056583</v>
+        <v>2081076</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3363092</v>
+        <v>3364362</v>
       </c>
       <c r="E236" t="n">
-        <v>4505075</v>
+        <v>4506775</v>
       </c>
       <c r="F236" t="n">
-        <v>665.4090029058732</v>
+        <v>498.5041042958972</v>
       </c>
       <c r="G236" t="n">
-        <v>471.2440240400616</v>
+        <v>407.0191722717161</v>
       </c>
       <c r="H236" t="n">
-        <v>0.42</v>
+        <v>0.64</v>
       </c>
       <c r="I236" t="n">
-        <v>150207</v>
+        <v>149750</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>34864997</v>
+        <v>35151227</v>
       </c>
       <c r="E237" t="n">
-        <v>173992406</v>
+        <v>175420826</v>
       </c>
       <c r="F237" t="n">
-        <v>94856.85452137623</v>
+        <v>96271.19831912628</v>
       </c>
       <c r="G237" t="n">
-        <v>92020.91685805396</v>
+        <v>95676.0013366958</v>
       </c>
       <c r="H237" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>10179894</v>
+        <v>10342511</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26397437</v>
+        <v>26412671</v>
       </c>
       <c r="E238" t="n">
-        <v>59509484</v>
+        <v>59543829</v>
       </c>
       <c r="F238" t="n">
-        <v>272.5466529358008</v>
+        <v>244.7866624498367</v>
       </c>
       <c r="G238" t="n">
-        <v>158.1687653182856</v>
+        <v>68.55867998764337</v>
       </c>
       <c r="H238" t="n">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
       <c r="I238" t="n">
-        <v>415695</v>
+        <v>396143</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1980897</v>
+        <v>1982902</v>
       </c>
       <c r="E239" t="n">
-        <v>1980897</v>
+        <v>1982902</v>
       </c>
       <c r="F239" t="n">
-        <v>155.8852213305566</v>
+        <v>155.8976306295789</v>
       </c>
       <c r="G239" t="n">
-        <v>153.4456621663638</v>
+        <v>153.4121303387348</v>
       </c>
       <c r="H239" t="n">
         <v>0.42</v>
       </c>
       <c r="I239" t="n">
-        <v>13617.12</v>
+        <v>13481.95</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>72112748</v>
+        <v>72116572</v>
       </c>
       <c r="F240" t="n">
-        <v>4.092897848665857</v>
+        <v>4.069391461620271</v>
       </c>
       <c r="G240" t="n">
-        <v>3.928944324685263</v>
+        <v>3.928752705091594</v>
       </c>
       <c r="H240" t="n">
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>63712</v>
+        <v>62806</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>904732</v>
+        <v>904361</v>
       </c>
       <c r="E241" t="n">
-        <v>904732</v>
+        <v>904361</v>
       </c>
       <c r="F241" t="n">
-        <v>3.954228185428274</v>
+        <v>3.954542963182935</v>
       </c>
       <c r="G241" t="n">
-        <v>37.11560423788288</v>
+        <v>34.41669451805441</v>
       </c>
       <c r="H241" t="n">
         <v>0.44</v>
       </c>
       <c r="I241" t="n">
-        <v>15470.06</v>
+        <v>15015.44</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>115518</v>
+        <v>119110</v>
       </c>
       <c r="E242" t="n">
-        <v>115518</v>
+        <v>119110</v>
       </c>
       <c r="F242" t="n">
-        <v>4.077471547891849</v>
+        <v>89.02492787322991</v>
       </c>
       <c r="G242" t="n">
-        <v>350.6282852992563</v>
+        <v>4.508423431554808</v>
       </c>
       <c r="H242" t="n">
-        <v>0.93</v>
+        <v>0.15</v>
       </c>
       <c r="I242" t="n">
-        <v>38785</v>
+        <v>39795</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3496655</v>
+        <v>3497386</v>
       </c>
       <c r="E243" t="n">
-        <v>5023129</v>
+        <v>5024179</v>
       </c>
       <c r="F243" t="n">
-        <v>346.7622604838272</v>
+        <v>346.7894023235513</v>
       </c>
       <c r="G243" t="n">
-        <v>131.4533239040814</v>
+        <v>267.5187545297488</v>
       </c>
       <c r="H243" t="n">
         <v>2.19</v>
       </c>
       <c r="I243" t="n">
-        <v>156825</v>
+        <v>154191</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>315542417</v>
+        <v>317327525</v>
       </c>
       <c r="E244" t="n">
-        <v>583825430</v>
+        <v>587128287</v>
       </c>
       <c r="F244" t="n">
-        <v>18168.69093576335</v>
+        <v>19183.0057289444</v>
       </c>
       <c r="G244" t="n">
-        <v>17004.80645465386</v>
+        <v>16432.86496670222</v>
       </c>
       <c r="H244" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>13333841</v>
+        <v>13356414</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>70722697</v>
+        <v>72147764</v>
       </c>
       <c r="E245" t="n">
-        <v>674689792</v>
+        <v>688281165</v>
       </c>
       <c r="F245" t="n">
-        <v>56446.48149503702</v>
+        <v>52016.19594176193</v>
       </c>
       <c r="G245" t="n">
-        <v>46105.46760106834</v>
+        <v>75170.41722372214</v>
       </c>
       <c r="H245" t="n">
         <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>21439349</v>
+        <v>21690680</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81058</v>
+        <v>81051</v>
       </c>
       <c r="E246" t="n">
-        <v>673855</v>
+        <v>673795</v>
       </c>
       <c r="F246" t="n">
-        <v>4.014826906219182</v>
+        <v>4.01517279047653</v>
       </c>
       <c r="G246" t="n">
-        <v>4.043864168490522</v>
+        <v>4.228828143006472</v>
       </c>
       <c r="H246" t="n">
         <v>0.58</v>
       </c>
       <c r="I246" t="n">
-        <v>174.38</v>
+        <v>174.04</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1887841</v>
+        <v>1889691</v>
       </c>
       <c r="E247" t="n">
-        <v>5391432</v>
+        <v>5396714</v>
       </c>
       <c r="F247" t="n">
-        <v>396.697679375315</v>
+        <v>268.1421818941454</v>
       </c>
       <c r="G247" t="n">
-        <v>265.2794653952034</v>
+        <v>256.1631965622257</v>
       </c>
       <c r="H247" t="n">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="I247" t="n">
-        <v>69711</v>
+        <v>68006</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37850723</v>
+        <v>37887217</v>
       </c>
       <c r="E248" t="n">
-        <v>49487436</v>
+        <v>49535082</v>
       </c>
       <c r="F248" t="n">
-        <v>769.5522094914761</v>
+        <v>13.8562561692899</v>
       </c>
       <c r="G248" t="n">
-        <v>3601.291789786761</v>
+        <v>3625.202014143426</v>
       </c>
       <c r="H248" t="n">
-        <v>1.12</v>
+        <v>1.73</v>
       </c>
       <c r="I248" t="n">
-        <v>117794</v>
+        <v>259691</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>10558856</v>
+        <v>10875960</v>
       </c>
       <c r="E249" t="n">
-        <v>31330528</v>
+        <v>32269693</v>
       </c>
       <c r="F249" t="n">
-        <v>823.2657585900366</v>
+        <v>602.8831026304135</v>
       </c>
       <c r="G249" t="n">
-        <v>2362.024104011342</v>
+        <v>2409.894934978845</v>
       </c>
       <c r="H249" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="I249" t="n">
-        <v>6472218</v>
+        <v>6615973</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2009365</v>
+        <v>1984573</v>
       </c>
       <c r="E250" t="n">
-        <v>5829815</v>
+        <v>5757885</v>
       </c>
       <c r="F250" t="n">
-        <v>4.147730350171758</v>
+        <v>58.44502313350794</v>
       </c>
       <c r="G250" t="n">
-        <v>39.56120408653555</v>
+        <v>200.4445152099857</v>
       </c>
       <c r="H250" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="I250" t="n">
-        <v>47479</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7393995</v>
+        <v>7389724</v>
       </c>
       <c r="E251" t="n">
-        <v>7394006</v>
+        <v>7389735</v>
       </c>
       <c r="F251" t="n">
-        <v>1564.720107691548</v>
+        <v>1549.370969545083</v>
       </c>
       <c r="G251" t="n">
-        <v>374.4456309661619</v>
+        <v>651.9174278702089</v>
       </c>
       <c r="H251" t="n">
         <v>1.68</v>
       </c>
       <c r="I251" t="n">
-        <v>313987</v>
+        <v>320544</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6265368</v>
+        <v>6280868</v>
       </c>
       <c r="E252" t="n">
-        <v>6265368</v>
+        <v>6280868</v>
       </c>
       <c r="F252" t="n">
-        <v>460.598343398826</v>
+        <v>460.5281707150162</v>
       </c>
       <c r="G252" t="n">
-        <v>1582.041993545763</v>
+        <v>1301.55217274225</v>
       </c>
       <c r="H252" t="n">
         <v>0.32</v>
       </c>
       <c r="I252" t="n">
-        <v>271005</v>
+        <v>464210</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6211086</v>
+        <v>6220943</v>
       </c>
       <c r="E253" t="n">
-        <v>22686693</v>
+        <v>22722698</v>
       </c>
       <c r="F253" t="n">
-        <v>504.6975270601982</v>
+        <v>566.0383599293638</v>
       </c>
       <c r="G253" t="n">
-        <v>155.637551255196</v>
+        <v>284.2997464289783</v>
       </c>
       <c r="H253" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="I253" t="n">
-        <v>511475</v>
+        <v>508583</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2147187</v>
+        <v>2138318</v>
       </c>
       <c r="E254" t="n">
-        <v>18939617</v>
+        <v>18861384</v>
       </c>
       <c r="F254" t="n">
-        <v>86.20144264756766</v>
+        <v>289.3269758680302</v>
       </c>
       <c r="G254" t="n">
-        <v>62.83630253605536</v>
+        <v>125.7658045521247</v>
       </c>
       <c r="H254" t="n">
-        <v>3.16</v>
+        <v>2.59</v>
       </c>
       <c r="I254" t="n">
-        <v>79636</v>
+        <v>74427</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14587318</v>
+        <v>14543698</v>
       </c>
       <c r="E255" t="n">
-        <v>29531135</v>
+        <v>29442830</v>
       </c>
       <c r="F255" t="n">
-        <v>96.18075246206777</v>
+        <v>95.79735214306055</v>
       </c>
       <c r="G255" t="n">
-        <v>280.345807601492</v>
+        <v>160.7650715360687</v>
       </c>
       <c r="H255" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="I255" t="n">
-        <v>539837</v>
+        <v>554639</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44436035</v>
+        <v>44621228</v>
       </c>
       <c r="E256" t="n">
-        <v>44436035</v>
+        <v>44621228</v>
       </c>
       <c r="F256" t="n">
-        <v>7227.092184558977</v>
+        <v>7351.501907491695</v>
       </c>
       <c r="G256" t="n">
-        <v>3393.539454603891</v>
+        <v>3989.30825395491</v>
       </c>
       <c r="H256" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I256" t="n">
-        <v>7610785</v>
+        <v>7600907</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8428527</v>
+        <v>8432127</v>
       </c>
       <c r="E257" t="n">
-        <v>12008720</v>
+        <v>12013849</v>
       </c>
       <c r="F257" t="n">
-        <v>123.9242624996265</v>
+        <v>123.6252596023843</v>
       </c>
       <c r="G257" t="n">
-        <v>176.1475165058134</v>
+        <v>155.8506809454504</v>
       </c>
       <c r="H257" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>437612</v>
+        <v>435674</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>150246765</v>
+        <v>150013326</v>
       </c>
       <c r="F258" t="n">
-        <v>268.8584786152926</v>
+        <v>1104.79073913328</v>
       </c>
       <c r="G258" t="n">
-        <v>210.1191483404021</v>
+        <v>244.8016205597403</v>
       </c>
       <c r="H258" t="n">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
       <c r="I258" t="n">
-        <v>1692660</v>
+        <v>1700977</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16273899</v>
+        <v>16365010</v>
       </c>
       <c r="F259" t="n">
-        <v>119.9529952297951</v>
+        <v>104.2674656653007</v>
       </c>
       <c r="G259" t="n">
-        <v>104.1661010660997</v>
+        <v>103.0179194980658</v>
       </c>
       <c r="H259" t="n">
         <v>0.29</v>
       </c>
       <c r="I259" t="n">
-        <v>976776</v>
+        <v>982435</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>723950</v>
+        <v>717836</v>
       </c>
       <c r="F260" t="n">
-        <v>8.056590033944804</v>
+        <v>9.584644588570029</v>
       </c>
       <c r="G260" t="n">
-        <v>5.015607205978727</v>
+        <v>5.015475683215242</v>
       </c>
       <c r="H260" t="n">
         <v>1.84</v>
       </c>
       <c r="I260" t="n">
-        <v>244991</v>
+        <v>228106</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3112524</v>
+        <v>3020056</v>
       </c>
       <c r="F261" t="n">
-        <v>12.83714524796946</v>
+        <v>12.83646229187112</v>
       </c>
       <c r="G261" t="n">
-        <v>71.50863187577369</v>
+        <v>71.50482750530972</v>
       </c>
       <c r="H261" t="n">
         <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>73340</v>
+        <v>71409</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2839071</v>
+        <v>2809687</v>
       </c>
       <c r="E262" t="n">
-        <v>2841530</v>
+        <v>2812120</v>
       </c>
       <c r="F262" t="n">
-        <v>445.4906280525798</v>
+        <v>425.3558400733288</v>
       </c>
       <c r="G262" t="n">
-        <v>23.78346477499925</v>
+        <v>23.76135881012576</v>
       </c>
       <c r="H262" t="n">
         <v>0.63</v>
       </c>
       <c r="I262" t="n">
-        <v>97829</v>
+        <v>97864</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>62495076</v>
+        <v>62456221</v>
       </c>
       <c r="E263" t="n">
-        <v>103391821</v>
+        <v>103327539</v>
       </c>
       <c r="F263" t="n">
-        <v>8299.23994914628</v>
+        <v>7420.281042103159</v>
       </c>
       <c r="G263" t="n">
-        <v>11083.86090166468</v>
+        <v>10563.05630931602</v>
       </c>
       <c r="H263" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="I263" t="n">
-        <v>6700754</v>
+        <v>6601385</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>690672</v>
+        <v>694675</v>
       </c>
       <c r="F264" t="n">
-        <v>3162.635633314464</v>
+        <v>3106.463473642146</v>
       </c>
       <c r="G264" t="n">
-        <v>98.07352741644827</v>
+        <v>175.0802729114814</v>
       </c>
       <c r="H264" t="n">
-        <v>0.99</v>
+        <v>1.13</v>
       </c>
       <c r="I264" t="n">
-        <v>676218</v>
+        <v>683761</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1257997</v>
+        <v>1262705</v>
       </c>
       <c r="E265" t="n">
-        <v>3803155</v>
+        <v>3816809</v>
       </c>
       <c r="F265" t="n">
-        <v>71.83611266912193</v>
+        <v>71.83962144859282</v>
       </c>
       <c r="G265" t="n">
-        <v>874.0993839996678</v>
+        <v>890.7740436077793</v>
       </c>
       <c r="H265" t="n">
         <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>11277.05</v>
+        <v>12420.53</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>38103187</v>
+        <v>38844633</v>
       </c>
       <c r="E266" t="n">
-        <v>270145378</v>
+        <v>275402112</v>
       </c>
       <c r="F266" t="n">
-        <v>54878.78818960012</v>
+        <v>85223.70975478756</v>
       </c>
       <c r="G266" t="n">
-        <v>26166.01685403103</v>
+        <v>30637.73099287716</v>
       </c>
       <c r="H266" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I266" t="n">
-        <v>1474748</v>
+        <v>1602049</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>58395</v>
+        <v>58910</v>
       </c>
       <c r="E267" t="n">
-        <v>304683</v>
+        <v>307369</v>
       </c>
       <c r="F267" t="n">
-        <v>21.65052844387292</v>
+        <v>22.26172113567765</v>
       </c>
       <c r="G267" t="n">
-        <v>23.68231596177781</v>
+        <v>153.0893468997599</v>
       </c>
       <c r="H267" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="I267" t="n">
-        <v>270648</v>
+        <v>277663</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1270275</v>
+        <v>1270247</v>
       </c>
       <c r="E268" t="n">
-        <v>7877009</v>
+        <v>7876830</v>
       </c>
       <c r="F268" t="n">
-        <v>1839.909081712891</v>
+        <v>1873.870576687325</v>
       </c>
       <c r="G268" t="n">
-        <v>2300.513965837542</v>
+        <v>2357.433725135721</v>
       </c>
       <c r="H268" t="n">
         <v>0.16</v>
       </c>
       <c r="I268" t="n">
-        <v>743869</v>
+        <v>754386</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>599340792</v>
+        <v>606389286</v>
       </c>
       <c r="E269" t="n">
-        <v>2321158462</v>
+        <v>2348456237</v>
       </c>
       <c r="F269" t="n">
-        <v>213960.5436939264</v>
+        <v>204793.3512124021</v>
       </c>
       <c r="G269" t="n">
-        <v>352769.5936369022</v>
+        <v>298265.6970758081</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>32749024</v>
+        <v>32909813</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3278973</v>
+        <v>3289594</v>
       </c>
       <c r="F270" t="n">
-        <v>394.0131581406372</v>
+        <v>406.4222532453828</v>
       </c>
       <c r="G270" t="n">
-        <v>146.5759728778677</v>
+        <v>158.8363876157453</v>
       </c>
       <c r="H270" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I270" t="n">
-        <v>32475</v>
+        <v>32946</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>821814</v>
+        <v>811537</v>
       </c>
       <c r="F271" t="n">
-        <v>169.3172342381047</v>
+        <v>9.339014295418984</v>
       </c>
       <c r="G271" t="n">
-        <v>43.903610038355</v>
+        <v>292.7014248748139</v>
       </c>
       <c r="H271" t="n">
-        <v>2.17</v>
+        <v>0.74</v>
       </c>
       <c r="I271" t="n">
-        <v>231321</v>
+        <v>222156</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5838165</v>
+        <v>5843251</v>
       </c>
       <c r="E272" t="n">
-        <v>26138193</v>
+        <v>26160966</v>
       </c>
       <c r="F272" t="n">
-        <v>281.2391984263054</v>
+        <v>433.4828260136579</v>
       </c>
       <c r="G272" t="n">
-        <v>144.346196964828</v>
+        <v>148.0003159856177</v>
       </c>
       <c r="H272" t="n">
         <v>0.31</v>
       </c>
       <c r="I272" t="n">
-        <v>148054</v>
+        <v>147824</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6675505</v>
+        <v>6685209</v>
       </c>
       <c r="E273" t="n">
-        <v>12780796</v>
+        <v>12799376</v>
       </c>
       <c r="F273" t="n">
-        <v>5418.180118898604</v>
+        <v>527.8998932256403</v>
       </c>
       <c r="G273" t="n">
-        <v>4003.698100436495</v>
+        <v>4088.983673534489</v>
       </c>
       <c r="H273" t="n">
-        <v>0.25</v>
+        <v>0.62</v>
       </c>
       <c r="I273" t="n">
-        <v>163042</v>
+        <v>162152</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3280745</v>
+        <v>3258485</v>
       </c>
       <c r="E274" t="n">
-        <v>21573417</v>
+        <v>21427037</v>
       </c>
       <c r="F274" t="n">
-        <v>108.2602346618996</v>
+        <v>108.4433447623407</v>
       </c>
       <c r="G274" t="n">
-        <v>140.9304390816238</v>
+        <v>140.719309944473</v>
       </c>
       <c r="H274" t="n">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="I274" t="n">
-        <v>1468844</v>
+        <v>1513047</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3677040</v>
+        <v>3711233</v>
       </c>
       <c r="E275" t="n">
-        <v>6268015</v>
+        <v>6326300</v>
       </c>
       <c r="F275" t="n">
-        <v>690.7738256723965</v>
+        <v>557.2146734465136</v>
       </c>
       <c r="G275" t="n">
-        <v>472.6961224420102</v>
+        <v>373.8596025824102</v>
       </c>
       <c r="H275" t="n">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="I275" t="n">
-        <v>1277353</v>
+        <v>1211707</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>435477</v>
+        <v>435498</v>
       </c>
       <c r="E276" t="n">
-        <v>435477</v>
+        <v>435498</v>
       </c>
       <c r="F276" t="n">
-        <v>21.14686784684265</v>
+        <v>21.15148976278899</v>
       </c>
       <c r="G276" t="n">
-        <v>5.482843158393199</v>
+        <v>5.293733578591426</v>
       </c>
       <c r="H276" t="n">
         <v>0.58</v>
       </c>
       <c r="I276" t="n">
-        <v>328.05</v>
+        <v>328.11</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7359682</v>
+        <v>7540581</v>
       </c>
       <c r="E277" t="n">
-        <v>10545219</v>
+        <v>10804393</v>
       </c>
       <c r="F277" t="n">
-        <v>2012.388995556554</v>
+        <v>589.0308151760057</v>
       </c>
       <c r="G277" t="n">
-        <v>3108.185447149512</v>
+        <v>749.4182829584869</v>
       </c>
       <c r="H277" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>173316</v>
+        <v>200855</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>121269794</v>
+        <v>122861762</v>
       </c>
       <c r="E278" t="n">
-        <v>1054366327</v>
+        <v>1068207506</v>
       </c>
       <c r="F278" t="n">
-        <v>7557.621516032119</v>
+        <v>8580.046130351526</v>
       </c>
       <c r="G278" t="n">
-        <v>7690.902831426165</v>
+        <v>11066.99648353375</v>
       </c>
       <c r="H278" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I278" t="n">
-        <v>9079973</v>
+        <v>9019798</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>111925038</v>
+        <v>115453166</v>
       </c>
       <c r="E279" t="n">
-        <v>170744269</v>
+        <v>176126511</v>
       </c>
       <c r="F279" t="n">
-        <v>46690.72334944813</v>
+        <v>47957.2532209485</v>
       </c>
       <c r="G279" t="n">
-        <v>52279.09676664022</v>
+        <v>50349.75321806193</v>
       </c>
       <c r="H279" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I279" t="n">
-        <v>9228920</v>
+        <v>8663773</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>16342507</v>
+        <v>16522307</v>
       </c>
       <c r="E280" t="n">
-        <v>22420504</v>
+        <v>22667174</v>
       </c>
       <c r="F280" t="n">
-        <v>894.9846113079352</v>
+        <v>2967.407710781293</v>
       </c>
       <c r="G280" t="n">
-        <v>1921.12784771085</v>
+        <v>1355.265869626463</v>
       </c>
       <c r="H280" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="I280" t="n">
-        <v>462148</v>
+        <v>471473</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5540787</v>
+        <v>5546398</v>
       </c>
       <c r="E281" t="n">
-        <v>5540787</v>
+        <v>5546398</v>
       </c>
       <c r="F281" t="n">
-        <v>425.3851600241715</v>
+        <v>726.1809717866863</v>
       </c>
       <c r="G281" t="n">
-        <v>42.0962492799823</v>
+        <v>23.73762618384383</v>
       </c>
       <c r="H281" t="n">
         <v>0.18</v>
       </c>
       <c r="I281" t="n">
-        <v>682065</v>
+        <v>708313</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>117937805</v>
+        <v>118649020</v>
       </c>
       <c r="E282" t="n">
-        <v>452428403</v>
+        <v>455156736</v>
       </c>
       <c r="F282" t="n">
-        <v>29792.29012378393</v>
+        <v>43194.94381252983</v>
       </c>
       <c r="G282" t="n">
-        <v>74689.9994011979</v>
+        <v>70821.36173179651</v>
       </c>
       <c r="H282" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I282" t="n">
-        <v>30870209</v>
+        <v>31028745</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>759874</v>
+        <v>756693</v>
       </c>
       <c r="F283" t="n">
-        <v>4.105150935809975</v>
+        <v>4.053642289048087</v>
       </c>
       <c r="G283" t="n">
-        <v>4.001371492085817</v>
+        <v>3.963338733226002</v>
       </c>
       <c r="H283" t="n">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="I283" t="n">
-        <v>53566</v>
+        <v>52268</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3175001</v>
+        <v>3179467</v>
       </c>
       <c r="E284" t="n">
-        <v>30083601</v>
+        <v>30125918</v>
       </c>
       <c r="F284" t="n">
-        <v>1258.570935291757</v>
+        <v>1433.138169296892</v>
       </c>
       <c r="G284" t="n">
-        <v>779.7330936499926</v>
+        <v>779.5467559485534</v>
       </c>
       <c r="H284" t="n">
         <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>204177</v>
+        <v>205899</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>79501</v>
+        <v>80867</v>
       </c>
       <c r="F285" t="n">
-        <v>0.01000407015385126</v>
+        <v>0.01999886098693111</v>
       </c>
       <c r="G285" t="n">
-        <v>203.1198336323279</v>
+        <v>157.131182892029</v>
       </c>
       <c r="H285" t="n">
         <v>0.25</v>
       </c>
       <c r="I285" t="n">
-        <v>9921.18</v>
+        <v>10309.35</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>132102</v>
+        <v>132109</v>
       </c>
       <c r="F286" t="n">
-        <v>49.85646945974236</v>
+        <v>9.391083513081888</v>
       </c>
       <c r="G286" t="n">
-        <v>74.53989284076627</v>
+        <v>497.4852933021893</v>
       </c>
       <c r="H286" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="I286" t="n">
-        <v>92435</v>
+        <v>91833</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>23167484</v>
+        <v>23270343</v>
       </c>
       <c r="E287" t="n">
-        <v>23167484</v>
+        <v>23270343</v>
       </c>
       <c r="F287" t="n">
-        <v>1590.683920803968</v>
+        <v>2467.826491462949</v>
       </c>
       <c r="G287" t="n">
-        <v>882.7105813025479</v>
+        <v>1466.231190814174</v>
       </c>
       <c r="H287" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="I287" t="n">
-        <v>637877</v>
+        <v>638025</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>570561</v>
+        <v>570529</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>934.5599999999999</v>
+        <v>934.5700000000001</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5835831</v>
+        <v>5819528</v>
       </c>
       <c r="E289" t="n">
-        <v>36472271</v>
+        <v>36370382</v>
       </c>
       <c r="F289" t="n">
-        <v>5902.773096691945</v>
+        <v>5932.779440501849</v>
       </c>
       <c r="G289" t="n">
-        <v>944.3517300972483</v>
+        <v>648.7424184501861</v>
       </c>
       <c r="H289" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I289" t="n">
-        <v>397347</v>
+        <v>216661</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494292769</v>
+        <v>494567129</v>
       </c>
       <c r="E290" t="n">
-        <v>494292769</v>
+        <v>494567129</v>
       </c>
       <c r="F290" t="n">
-        <v>1127833.406199856</v>
+        <v>1127339.272815377</v>
       </c>
       <c r="G290" t="n">
-        <v>1890034.940824703</v>
+        <v>1889007.025025302</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>33109756</v>
+        <v>33155613</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5119927</v>
+        <v>5116757</v>
       </c>
       <c r="E291" t="n">
-        <v>19065558</v>
+        <v>19053755</v>
       </c>
       <c r="F291" t="n">
-        <v>7126.645363806972</v>
+        <v>7118.631285454087</v>
       </c>
       <c r="G291" t="n">
-        <v>2382.107983461261</v>
+        <v>2649.533467843654</v>
       </c>
       <c r="H291" t="n">
         <v>0.16</v>
       </c>
       <c r="I291" t="n">
-        <v>62118</v>
+        <v>57408</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31596501</v>
+        <v>32253086</v>
       </c>
       <c r="F292" t="n">
-        <v>7772.275172141249</v>
+        <v>5174.459510136222</v>
       </c>
       <c r="G292" t="n">
-        <v>9051.784997640385</v>
+        <v>9234.538293177642</v>
       </c>
       <c r="H292" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="I292" t="n">
-        <v>5475019</v>
+        <v>5491816</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31662110</v>
+        <v>31480352</v>
       </c>
       <c r="E293" t="n">
-        <v>113488410</v>
+        <v>112836921</v>
       </c>
       <c r="F293" t="n">
-        <v>103.3062923824984</v>
+        <v>22.62503986980375</v>
       </c>
       <c r="G293" t="n">
-        <v>2269.808170706778</v>
+        <v>2189.814863217367</v>
       </c>
       <c r="H293" t="n">
         <v>0.7</v>
       </c>
       <c r="I293" t="n">
-        <v>93441</v>
+        <v>93715</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>751548</v>
+        <v>751360</v>
       </c>
       <c r="E294" t="n">
-        <v>11986923</v>
+        <v>11983920</v>
       </c>
       <c r="F294" t="n">
-        <v>12.86362942149835</v>
+        <v>12.86286109473145</v>
       </c>
       <c r="G294" t="n">
-        <v>2.297964761115114</v>
+        <v>2.297827506863029</v>
       </c>
       <c r="H294" t="n">
         <v>2.64</v>
       </c>
       <c r="I294" t="n">
-        <v>63117</v>
+        <v>64496</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85287</v>
+        <v>85065</v>
       </c>
       <c r="F295" t="n">
-        <v>85.54963275839073</v>
+        <v>93.67748882615733</v>
       </c>
       <c r="G295" t="n">
-        <v>60.37935911439461</v>
+        <v>41.8245306822729</v>
       </c>
       <c r="H295" t="n">
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>56456</v>
+        <v>56380</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1519305</v>
+        <v>1528913</v>
       </c>
       <c r="F296" t="n">
-        <v>3.830219984955261</v>
+        <v>3.830248365279561</v>
       </c>
       <c r="G296" t="n">
-        <v>10.56393833555848</v>
+        <v>10.5640166099127</v>
       </c>
       <c r="H296" t="n">
         <v>0.49</v>
       </c>
       <c r="I296" t="n">
-        <v>603181</v>
+        <v>606271</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2625925711</v>
+        <v>2630754683</v>
       </c>
       <c r="E297" t="n">
-        <v>2788049832</v>
+        <v>2793176943</v>
       </c>
       <c r="F297" t="n">
-        <v>43621.43001847027</v>
+        <v>46549.45478738557</v>
       </c>
       <c r="G297" t="n">
-        <v>98456.19762969961</v>
+        <v>79016.05645062131</v>
       </c>
       <c r="H297" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="I297" t="n">
-        <v>36893140</v>
+        <v>35905181</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2231012</v>
+        <v>2238722</v>
       </c>
       <c r="E298" t="n">
-        <v>17160309</v>
+        <v>17219617</v>
       </c>
       <c r="F298" t="n">
-        <v>4067.242218185823</v>
+        <v>1384.142349285276</v>
       </c>
       <c r="G298" t="n">
-        <v>4051.895666375765</v>
+        <v>4072.683487835702</v>
       </c>
       <c r="H298" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="I298" t="n">
-        <v>175324</v>
+        <v>174580</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1699415</v>
+        <v>1750961</v>
       </c>
       <c r="E299" t="n">
-        <v>1705413</v>
+        <v>1757141</v>
       </c>
       <c r="F299" t="n">
-        <v>1192.061335006463</v>
+        <v>843.2442006709201</v>
       </c>
       <c r="G299" t="n">
-        <v>987.2821853843069</v>
+        <v>507.7678832168647</v>
       </c>
       <c r="H299" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="I299" t="n">
-        <v>424819</v>
+        <v>436315</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>88060293</v>
+        <v>88225967</v>
       </c>
       <c r="E300" t="n">
-        <v>325524452</v>
+        <v>326135380</v>
       </c>
       <c r="F300" t="n">
-        <v>5935.315491957243</v>
+        <v>5770.345146893901</v>
       </c>
       <c r="G300" t="n">
-        <v>2174.822250000369</v>
+        <v>2194.917157895755</v>
       </c>
       <c r="H300" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I300" t="n">
-        <v>277030</v>
+        <v>260289</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2318825</v>
+        <v>2319403</v>
       </c>
       <c r="E301" t="n">
-        <v>9304362</v>
+        <v>9306681</v>
       </c>
       <c r="F301" t="n">
-        <v>5.312181493941305</v>
+        <v>102.0669344739532</v>
       </c>
       <c r="G301" t="n">
-        <v>3.882405131345885</v>
+        <v>4.060526799148373</v>
       </c>
       <c r="H301" t="n">
         <v>0.32</v>
       </c>
       <c r="I301" t="n">
-        <v>40917</v>
+        <v>40797</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>60534324</v>
+        <v>61009153</v>
       </c>
       <c r="E302" t="n">
-        <v>148486594</v>
+        <v>149651318</v>
       </c>
       <c r="F302" t="n">
-        <v>1960.526026424856</v>
+        <v>1700.809594875689</v>
       </c>
       <c r="G302" t="n">
-        <v>2206.120488466552</v>
+        <v>2331.189164560983</v>
       </c>
       <c r="H302" t="n">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="I302" t="n">
-        <v>22505524</v>
+        <v>22437460</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>712738619</v>
+        <v>726786502</v>
       </c>
       <c r="E303" t="n">
-        <v>1099105879</v>
+        <v>1120768955</v>
       </c>
       <c r="F303" t="n">
-        <v>35230.50306272657</v>
+        <v>40998.5136613533</v>
       </c>
       <c r="G303" t="n">
-        <v>52504.55730857501</v>
+        <v>53249.05528636056</v>
       </c>
       <c r="H303" t="n">
         <v>0.15</v>
       </c>
       <c r="I303" t="n">
-        <v>186982791</v>
+        <v>218350202</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20983276</v>
+        <v>20942693</v>
       </c>
       <c r="E304" t="n">
-        <v>20983276</v>
+        <v>20942693</v>
       </c>
       <c r="F304" t="n">
-        <v>3361.469001257504</v>
+        <v>3994.751878559803</v>
       </c>
       <c r="G304" t="n">
-        <v>3307.60143350619</v>
+        <v>3824.224494208127</v>
       </c>
       <c r="H304" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I304" t="n">
-        <v>7114650</v>
+        <v>7105611</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1790801</v>
+        <v>1837498</v>
       </c>
       <c r="E305" t="n">
-        <v>2938401</v>
+        <v>3015023</v>
       </c>
       <c r="F305" t="n">
-        <v>789.8230614177332</v>
+        <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>4.609783648698917</v>
+        <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>0.07000000000000001</v>
+        <v>6.49</v>
       </c>
       <c r="I305" t="n">
-        <v>195495</v>
+        <v>204013</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5808518</v>
+        <v>5785333</v>
       </c>
       <c r="E306" t="n">
-        <v>5808518</v>
+        <v>5785333</v>
       </c>
       <c r="F306" t="n">
-        <v>32.12482373320431</v>
+        <v>38.5824171795258</v>
       </c>
       <c r="G306" t="n">
-        <v>5.241495769529413</v>
+        <v>5.697478329334205</v>
       </c>
       <c r="H306" t="n">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="I306" t="n">
-        <v>631.37</v>
+        <v>656.28</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39533590</v>
+        <v>39766166</v>
       </c>
       <c r="E307" t="n">
-        <v>188543813</v>
+        <v>189652865</v>
       </c>
       <c r="F307" t="n">
-        <v>769.2409315891655</v>
+        <v>1615.075134086868</v>
       </c>
       <c r="G307" t="n">
-        <v>198.7231387186817</v>
+        <v>167.8030393788933</v>
       </c>
       <c r="H307" t="n">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="I307" t="n">
-        <v>421117</v>
+        <v>294422</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>383464</v>
+        <v>383644</v>
       </c>
       <c r="E308" t="n">
-        <v>717186</v>
+        <v>717523</v>
       </c>
       <c r="F308" t="n">
-        <v>32.67437562699608</v>
+        <v>32.67670385285841</v>
       </c>
       <c r="G308" t="n">
-        <v>246.033132386871</v>
+        <v>246.0506635773168</v>
       </c>
       <c r="H308" t="n">
         <v>0.32</v>
       </c>
       <c r="I308" t="n">
-        <v>1532.43</v>
+        <v>1445.39</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23635866</v>
+        <v>23671307</v>
       </c>
       <c r="E309" t="n">
-        <v>39393110</v>
+        <v>39452177</v>
       </c>
       <c r="F309" t="n">
-        <v>3738.754806620736</v>
+        <v>4136.800202440899</v>
       </c>
       <c r="G309" t="n">
-        <v>3720.997287386563</v>
+        <v>3305.364867606857</v>
       </c>
       <c r="H309" t="n">
         <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>690508</v>
+        <v>669997</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>108371</v>
+        <v>110190</v>
       </c>
       <c r="F310" t="n">
-        <v>14.99746648472332</v>
+        <v>14.99666859617431</v>
       </c>
       <c r="G310" t="n">
-        <v>87.03083430869104</v>
+        <v>85.93715225910746</v>
       </c>
       <c r="H310" t="n">
         <v>0.18</v>
       </c>
       <c r="I310" t="n">
-        <v>48517</v>
+        <v>49756</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>22660487</v>
+        <v>22967421</v>
       </c>
       <c r="E311" t="n">
-        <v>22660487</v>
+        <v>22967421</v>
       </c>
       <c r="F311" t="n">
-        <v>5705.477200884869</v>
+        <v>6162.044025306297</v>
       </c>
       <c r="G311" t="n">
-        <v>6657.559636732724</v>
+        <v>7492.48640869685</v>
       </c>
       <c r="H311" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I311" t="n">
-        <v>5712804</v>
+        <v>5700575</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3819865</v>
+        <v>3822252</v>
       </c>
       <c r="E312" t="n">
-        <v>8334896</v>
+        <v>8340103</v>
       </c>
       <c r="F312" t="n">
-        <v>1812.235780725403</v>
+        <v>1778.72413656153</v>
       </c>
       <c r="G312" t="n">
-        <v>1795.344875748009</v>
+        <v>1794.690497635957</v>
       </c>
       <c r="H312" t="n">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="I312" t="n">
-        <v>1311472</v>
+        <v>1428526</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9349605</v>
+        <v>9351887</v>
       </c>
       <c r="E313" t="n">
-        <v>9349605</v>
+        <v>9351887</v>
       </c>
       <c r="F313" t="n">
-        <v>15325.76477452804</v>
+        <v>15673.32798431642</v>
       </c>
       <c r="G313" t="n">
-        <v>112947.4127203185</v>
+        <v>112903.3531420045</v>
       </c>
       <c r="H313" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>2907291</v>
+        <v>2888662</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>487215437</v>
+        <v>493168298</v>
       </c>
       <c r="E314" t="n">
-        <v>1695956387</v>
+        <v>1716677803</v>
       </c>
       <c r="F314" t="n">
-        <v>389629.7526063253</v>
+        <v>456957.0807016895</v>
       </c>
       <c r="G314" t="n">
-        <v>580430.8259497926</v>
+        <v>509217.5104872355</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>29318611</v>
+        <v>29291105</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24098280</v>
+        <v>23983451</v>
       </c>
       <c r="E315" t="n">
-        <v>24077347</v>
+        <v>23962618</v>
       </c>
       <c r="F315" t="n">
-        <v>217.5208711848008</v>
+        <v>190.8436403536345</v>
       </c>
       <c r="G315" t="n">
-        <v>770.9299706978271</v>
+        <v>266.3153679746807</v>
       </c>
       <c r="H315" t="n">
-        <v>0.42</v>
+        <v>0.8</v>
       </c>
       <c r="I315" t="n">
-        <v>90029</v>
+        <v>89346</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48320703</v>
+        <v>48528677</v>
       </c>
       <c r="E316" t="n">
-        <v>119255980</v>
+        <v>119769264</v>
       </c>
       <c r="F316" t="n">
-        <v>1215.360319800293</v>
+        <v>1188.699777579557</v>
       </c>
       <c r="G316" t="n">
-        <v>1598.942145959369</v>
+        <v>1689.869506038995</v>
       </c>
       <c r="H316" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="I316" t="n">
-        <v>31953</v>
+        <v>22276</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12177827</v>
+        <v>12222269</v>
       </c>
       <c r="E317" t="n">
-        <v>24634958</v>
+        <v>24721768</v>
       </c>
       <c r="F317" t="n">
-        <v>360.7526051954372</v>
+        <v>360.720535137052</v>
       </c>
       <c r="G317" t="n">
-        <v>2646.814932831531</v>
+        <v>2646.860664211884</v>
       </c>
       <c r="H317" t="n">
         <v>0.23</v>
       </c>
       <c r="I317" t="n">
-        <v>42489</v>
+        <v>40771</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7634735</v>
+        <v>7664964</v>
       </c>
       <c r="E318" t="n">
-        <v>19834221</v>
+        <v>19912753</v>
       </c>
       <c r="F318" t="n">
-        <v>186.2768567035153</v>
+        <v>197.3581376602499</v>
       </c>
       <c r="G318" t="n">
-        <v>481.4663394970041</v>
+        <v>580.6527273878739</v>
       </c>
       <c r="H318" t="n">
         <v>0.2</v>
       </c>
       <c r="I318" t="n">
-        <v>710857</v>
+        <v>707431</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>152766</v>
+        <v>153078</v>
       </c>
       <c r="F319" t="n">
-        <v>246.6626276390014</v>
+        <v>261.5040560509659</v>
       </c>
       <c r="G319" t="n">
-        <v>13.80540009603505</v>
+        <v>1.098180555949404</v>
       </c>
       <c r="H319" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="I319" t="n">
-        <v>57504</v>
+        <v>57430</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19197404080</v>
+        <v>19199972089</v>
       </c>
       <c r="F320" t="n">
-        <v>51974.44910854023</v>
+        <v>51914.30939899589</v>
       </c>
       <c r="G320" t="n">
-        <v>49709.44432854169</v>
+        <v>50053.96352319115</v>
       </c>
       <c r="H320" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="I320" t="n">
-        <v>48213036</v>
+        <v>47879523</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>101432282</v>
+        <v>102002215</v>
       </c>
       <c r="E321" t="n">
-        <v>153681626</v>
+        <v>154545142</v>
       </c>
       <c r="F321" t="n">
-        <v>11297.18554874923</v>
+        <v>15114.84538066919</v>
       </c>
       <c r="G321" t="n">
-        <v>24456.5204900235</v>
+        <v>20994.90969849655</v>
       </c>
       <c r="H321" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I321" t="n">
-        <v>7082782</v>
+        <v>6943062</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2630350</v>
+        <v>2618689</v>
       </c>
       <c r="E322" t="n">
-        <v>10521400</v>
+        <v>10474757</v>
       </c>
       <c r="F322" t="n">
-        <v>33712.79691569175</v>
+        <v>17810.75798714003</v>
       </c>
       <c r="G322" t="n">
-        <v>36931.08021037392</v>
+        <v>36008.10533926643</v>
       </c>
       <c r="H322" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="I322" t="n">
-        <v>6960976</v>
+        <v>6897257</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>216024295</v>
+        <v>219937018</v>
       </c>
       <c r="E323" t="n">
-        <v>664193411</v>
+        <v>676223563</v>
       </c>
       <c r="F323" t="n">
-        <v>132195.279236784</v>
+        <v>77005.25157222306</v>
       </c>
       <c r="G323" t="n">
-        <v>239336.6968948343</v>
+        <v>164481.1583620691</v>
       </c>
       <c r="H323" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>11917132</v>
+        <v>13074098</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>150929160</v>
+        <v>151312336</v>
       </c>
       <c r="E324" t="n">
-        <v>394298244</v>
+        <v>395299280</v>
       </c>
       <c r="F324" t="n">
-        <v>5569.694720488455</v>
+        <v>5989.785058780757</v>
       </c>
       <c r="G324" t="n">
-        <v>7689.990199914911</v>
+        <v>10946.50478283489</v>
       </c>
       <c r="H324" t="n">
         <v>0.2</v>
       </c>
       <c r="I324" t="n">
-        <v>7205365</v>
+        <v>6907182</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2441941</v>
+        <v>2436452</v>
       </c>
       <c r="E325" t="n">
-        <v>3351663</v>
+        <v>3343765</v>
       </c>
       <c r="F325" t="n">
-        <v>149.1000268187572</v>
+        <v>221.423528016236</v>
       </c>
       <c r="G325" t="n">
-        <v>2100.942310316929</v>
+        <v>2122.61115293602</v>
       </c>
       <c r="H325" t="n">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="I325" t="n">
-        <v>1048393</v>
+        <v>1044794</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>398438642</v>
+        <v>401842223</v>
       </c>
       <c r="E326" t="n">
-        <v>2276792241</v>
+        <v>2296241275</v>
       </c>
       <c r="F326" t="n">
-        <v>242014.4175799673</v>
+        <v>256020.1534916961</v>
       </c>
       <c r="G326" t="n">
-        <v>375516.1565595668</v>
+        <v>356224.6079398865</v>
       </c>
       <c r="H326" t="n">
         <v>0.18</v>
       </c>
       <c r="I326" t="n">
-        <v>38239618</v>
+        <v>38250071</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250221.xlsx
+++ b/MexcData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91241</v>
+        <v>91260</v>
       </c>
       <c r="F2" t="n">
-        <v>4.197047287549947</v>
+        <v>4.197078272312909</v>
       </c>
       <c r="G2" t="n">
-        <v>32.70636010116663</v>
+        <v>32.70660155634825</v>
       </c>
       <c r="H2" t="n">
         <v>0.43</v>
       </c>
       <c r="I2" t="n">
-        <v>1849.93</v>
+        <v>1558.75</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>605064378</v>
+        <v>606162948</v>
       </c>
       <c r="E3" t="n">
-        <v>1174104285</v>
+        <v>1176240478</v>
       </c>
       <c r="F3" t="n">
-        <v>17217.29178882161</v>
+        <v>16814.44083544783</v>
       </c>
       <c r="G3" t="n">
-        <v>30935.68385052363</v>
+        <v>27122.63948802311</v>
       </c>
       <c r="H3" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="I3" t="n">
-        <v>19835626</v>
+        <v>19583986</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245603249</v>
+        <v>246088828</v>
       </c>
       <c r="E4" t="n">
-        <v>1540143450</v>
+        <v>1543188452</v>
       </c>
       <c r="F4" t="n">
-        <v>107814.8674613982</v>
+        <v>67717.42596260518</v>
       </c>
       <c r="G4" t="n">
-        <v>67367.17554328541</v>
+        <v>69941.89586640787</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>16538839</v>
+        <v>15971688</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>144081045</v>
+        <v>144853050</v>
       </c>
       <c r="E5" t="n">
-        <v>159664315</v>
+        <v>160519817</v>
       </c>
       <c r="F5" t="n">
-        <v>133076.8988990404</v>
+        <v>139514.7731147466</v>
       </c>
       <c r="G5" t="n">
-        <v>356062.6803382036</v>
+        <v>354293.6861893061</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>36229998</v>
+        <v>36744140</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48823162</v>
+        <v>49362857</v>
       </c>
       <c r="E6" t="n">
-        <v>61076524</v>
+        <v>61751669</v>
       </c>
       <c r="F6" t="n">
-        <v>11156.48528443842</v>
+        <v>10303.8540017285</v>
       </c>
       <c r="G6" t="n">
-        <v>10841.55841703359</v>
+        <v>11657.66775578155</v>
       </c>
       <c r="H6" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>597201</v>
+        <v>612039</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8348415</v>
+        <v>8420423</v>
       </c>
       <c r="E7" t="n">
-        <v>8558931</v>
+        <v>8632755</v>
       </c>
       <c r="F7" t="n">
-        <v>462.1589800742034</v>
+        <v>364.2502937019294</v>
       </c>
       <c r="G7" t="n">
-        <v>425.5764634451024</v>
+        <v>604.7114956530081</v>
       </c>
       <c r="H7" t="n">
-        <v>1.81</v>
+        <v>1.48</v>
       </c>
       <c r="I7" t="n">
-        <v>89283</v>
+        <v>88655</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69429765</v>
+        <v>69254681</v>
       </c>
       <c r="E8" t="n">
-        <v>138280594</v>
+        <v>137931887</v>
       </c>
       <c r="F8" t="n">
-        <v>29375.29596156674</v>
+        <v>22162.65220525736</v>
       </c>
       <c r="G8" t="n">
-        <v>21449.94974850999</v>
+        <v>28136.04920726863</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="I8" t="n">
-        <v>1108827</v>
+        <v>1033253</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5088431</v>
+        <v>5026454</v>
       </c>
       <c r="E9" t="n">
-        <v>8129783</v>
+        <v>8030762</v>
       </c>
       <c r="F9" t="n">
-        <v>317.3847761949812</v>
+        <v>343.8847957082967</v>
       </c>
       <c r="G9" t="n">
-        <v>303.7202599145339</v>
+        <v>213.618966207848</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="I9" t="n">
-        <v>100598</v>
+        <v>99401</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14229955</v>
+        <v>14125733</v>
       </c>
       <c r="E10" t="n">
-        <v>41934759</v>
+        <v>41627624</v>
       </c>
       <c r="F10" t="n">
-        <v>3956.901189892182</v>
+        <v>3849.860956963214</v>
       </c>
       <c r="G10" t="n">
-        <v>5077.637905059039</v>
+        <v>2914.012929023344</v>
       </c>
       <c r="H10" t="n">
         <v>0.45</v>
       </c>
       <c r="I10" t="n">
-        <v>880849</v>
+        <v>881161</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>128326015</v>
+        <v>127612115</v>
       </c>
       <c r="E11" t="n">
-        <v>502999555</v>
+        <v>500201283</v>
       </c>
       <c r="F11" t="n">
-        <v>71302.36832447651</v>
+        <v>58695.55019673499</v>
       </c>
       <c r="G11" t="n">
-        <v>47344.97467493686</v>
+        <v>46765.86828768549</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>30493875</v>
+        <v>30294053</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11138864</v>
+        <v>10726589</v>
       </c>
       <c r="E12" t="n">
-        <v>47877540</v>
+        <v>46105481</v>
       </c>
       <c r="F12" t="n">
-        <v>3309.100519023078</v>
+        <v>1201.09119568936</v>
       </c>
       <c r="G12" t="n">
-        <v>453.7365565760275</v>
+        <v>0.002400475181631167</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01</v>
+        <v>0.41</v>
       </c>
       <c r="I12" t="n">
-        <v>934135</v>
+        <v>966627</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1004589</v>
+        <v>1004866</v>
       </c>
       <c r="E13" t="n">
-        <v>12293463</v>
+        <v>12296851</v>
       </c>
       <c r="F13" t="n">
-        <v>271.020433234223</v>
+        <v>271.0134156904718</v>
       </c>
       <c r="G13" t="n">
-        <v>200.1173282321037</v>
+        <v>200.2851138408548</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1149.39</v>
+        <v>351.74</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>591195</v>
+        <v>598375</v>
       </c>
       <c r="E14" t="n">
-        <v>591195</v>
+        <v>598375</v>
       </c>
       <c r="F14" t="n">
-        <v>674.8367735724667</v>
+        <v>768.6436591066432</v>
       </c>
       <c r="G14" t="n">
-        <v>424.2369631159806</v>
+        <v>119.9337492402833</v>
       </c>
       <c r="H14" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="I14" t="n">
-        <v>29571</v>
+        <v>29835</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>583789655</v>
+        <v>584738507</v>
       </c>
       <c r="E15" t="n">
-        <v>730234092</v>
+        <v>731420965</v>
       </c>
       <c r="F15" t="n">
-        <v>447652.1525032716</v>
+        <v>467482.5484838529</v>
       </c>
       <c r="G15" t="n">
-        <v>497939.843798739</v>
+        <v>539997.7556589949</v>
       </c>
       <c r="H15" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>52638361</v>
+        <v>54999974</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3342262</v>
+        <v>3358174</v>
       </c>
       <c r="E16" t="n">
-        <v>9508441</v>
+        <v>9553709</v>
       </c>
       <c r="F16" t="n">
-        <v>126.9968638861516</v>
+        <v>24.47913203902635</v>
       </c>
       <c r="G16" t="n">
-        <v>702.3467935470882</v>
+        <v>5.170711216175928</v>
       </c>
       <c r="H16" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>119628</v>
+        <v>116799</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>325717</v>
+        <v>326014</v>
       </c>
       <c r="E17" t="n">
-        <v>3759164</v>
+        <v>3762586</v>
       </c>
       <c r="F17" t="n">
-        <v>5.631108432620224</v>
+        <v>5.631143702651557</v>
       </c>
       <c r="G17" t="n">
-        <v>4.869579454394058</v>
+        <v>4.822800688603132</v>
       </c>
       <c r="H17" t="n">
         <v>0.76</v>
       </c>
       <c r="I17" t="n">
-        <v>2818.48</v>
+        <v>2821.92</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1304388</v>
+        <v>1310897</v>
       </c>
       <c r="E18" t="n">
-        <v>10005429</v>
+        <v>10055361</v>
       </c>
       <c r="F18" t="n">
-        <v>730.2517825564058</v>
+        <v>245.6037243876364</v>
       </c>
       <c r="G18" t="n">
-        <v>103.6141985853008</v>
+        <v>105.3671527983744</v>
       </c>
       <c r="H18" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="I18" t="n">
-        <v>143662</v>
+        <v>143164</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23196177</v>
+        <v>23178555</v>
       </c>
       <c r="E19" t="n">
-        <v>23239447</v>
+        <v>23221791</v>
       </c>
       <c r="F19" t="n">
-        <v>846.4359033159338</v>
+        <v>2390.977993240077</v>
       </c>
       <c r="G19" t="n">
-        <v>1149.795799447342</v>
+        <v>701.8734005772171</v>
       </c>
       <c r="H19" t="n">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>853662</v>
+        <v>852660</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3794201</v>
+        <v>3794756</v>
       </c>
       <c r="E20" t="n">
-        <v>21052473</v>
+        <v>21055552</v>
       </c>
       <c r="F20" t="n">
-        <v>5.505077332065483</v>
+        <v>5.645882018302494</v>
       </c>
       <c r="G20" t="n">
-        <v>3.858032255144499</v>
+        <v>3.883873934130201</v>
       </c>
       <c r="H20" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>6478.37</v>
+        <v>6415.64</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6851789</v>
+        <v>6882594</v>
       </c>
       <c r="E21" t="n">
-        <v>12711513</v>
+        <v>12768662</v>
       </c>
       <c r="F21" t="n">
-        <v>266.7691499661832</v>
+        <v>232.2363849246628</v>
       </c>
       <c r="G21" t="n">
-        <v>458.4496491013269</v>
+        <v>546.8579812616941</v>
       </c>
       <c r="H21" t="n">
         <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>53491</v>
+        <v>52980</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>70988919</v>
+        <v>71432688</v>
       </c>
       <c r="E22" t="n">
-        <v>122944492</v>
+        <v>123710092</v>
       </c>
       <c r="F22" t="n">
-        <v>362.9184026973235</v>
+        <v>546.5969103830455</v>
       </c>
       <c r="G22" t="n">
-        <v>1933.267654501868</v>
+        <v>782.4742262301783</v>
       </c>
       <c r="H22" t="n">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="I22" t="n">
-        <v>766732</v>
+        <v>792713</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>172075</v>
+        <v>172181</v>
       </c>
       <c r="E23" t="n">
-        <v>517520</v>
+        <v>517838</v>
       </c>
       <c r="F23" t="n">
-        <v>4.096012869186974</v>
+        <v>4.096050174160621</v>
       </c>
       <c r="G23" t="n">
-        <v>148.0699624600348</v>
+        <v>148.0713110266101</v>
       </c>
       <c r="H23" t="n">
         <v>0.39</v>
       </c>
       <c r="I23" t="n">
-        <v>142.17</v>
+        <v>142.37</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81261440</v>
+        <v>81765886</v>
       </c>
       <c r="E24" t="n">
-        <v>239081236</v>
+        <v>240565378</v>
       </c>
       <c r="F24" t="n">
-        <v>179.3489195678062</v>
+        <v>177.0386153521313</v>
       </c>
       <c r="G24" t="n">
-        <v>304.3196353251452</v>
+        <v>595.0107642569192</v>
       </c>
       <c r="H24" t="n">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="I24" t="n">
-        <v>357330</v>
+        <v>322171</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7265793</v>
+        <v>7547181</v>
       </c>
       <c r="F25" t="n">
-        <v>4.096281496653147</v>
+        <v>4.003385270160522</v>
       </c>
       <c r="G25" t="n">
-        <v>3.750735057345263</v>
+        <v>4.086404748623204</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="I25" t="n">
-        <v>19033.76</v>
+        <v>18413.51</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2441997</v>
+        <v>2441996</v>
       </c>
       <c r="E26" t="n">
-        <v>2441997</v>
+        <v>2441996</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.82</v>
+        <v>6.96</v>
       </c>
       <c r="I26" t="n">
-        <v>323466</v>
+        <v>322959</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17471900</v>
+        <v>17164610</v>
       </c>
       <c r="E27" t="n">
-        <v>22487770</v>
+        <v>22092262</v>
       </c>
       <c r="F27" t="n">
-        <v>5035.266901330942</v>
+        <v>935.8031777725732</v>
       </c>
       <c r="G27" t="n">
-        <v>5375.638399459923</v>
+        <v>4131.488318998568</v>
       </c>
       <c r="H27" t="n">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="I27" t="n">
-        <v>1705803</v>
+        <v>1662706</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4682947</v>
+        <v>4706559</v>
       </c>
       <c r="E28" t="n">
-        <v>4682947</v>
+        <v>4706559</v>
       </c>
       <c r="F28" t="n">
-        <v>1125.655693235615</v>
+        <v>620.2486285903882</v>
       </c>
       <c r="G28" t="n">
-        <v>1831.516677838162</v>
+        <v>7505.54354587672</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="I28" t="n">
-        <v>2002460</v>
+        <v>1926814</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1721455</v>
+        <v>1726667</v>
       </c>
       <c r="F29" t="n">
-        <v>140.6924981245179</v>
+        <v>118.3080567250369</v>
       </c>
       <c r="G29" t="n">
-        <v>58.79692463483924</v>
+        <v>46.12511265540686</v>
       </c>
       <c r="H29" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="I29" t="n">
-        <v>143977</v>
+        <v>146543</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3389469</v>
+        <v>3416512</v>
       </c>
       <c r="E30" t="n">
-        <v>3389469</v>
+        <v>3416512</v>
       </c>
       <c r="F30" t="n">
-        <v>582.6262995396229</v>
+        <v>585.2627537472819</v>
       </c>
       <c r="G30" t="n">
-        <v>543.6199223607787</v>
+        <v>561.2968177276074</v>
       </c>
       <c r="H30" t="n">
         <v>0.26</v>
       </c>
       <c r="I30" t="n">
-        <v>519348</v>
+        <v>516750</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>318263</v>
+        <v>313044</v>
       </c>
       <c r="E31" t="n">
-        <v>1485683</v>
+        <v>1461321</v>
       </c>
       <c r="F31" t="n">
-        <v>18.29968304197886</v>
+        <v>292.1543724275701</v>
       </c>
       <c r="G31" t="n">
-        <v>98.2834009774168</v>
+        <v>90.98193019250712</v>
       </c>
       <c r="H31" t="n">
-        <v>3.38</v>
+        <v>2.05</v>
       </c>
       <c r="I31" t="n">
-        <v>694115</v>
+        <v>688290</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>354553</v>
+        <v>352241</v>
       </c>
       <c r="E32" t="n">
-        <v>354553</v>
+        <v>352241</v>
       </c>
       <c r="F32" t="n">
-        <v>160.0588192878546</v>
+        <v>247.8938686889478</v>
       </c>
       <c r="G32" t="n">
-        <v>4.016104847912348</v>
+        <v>4.016221076087486</v>
       </c>
       <c r="H32" t="n">
         <v>0.14</v>
       </c>
       <c r="I32" t="n">
-        <v>46613</v>
+        <v>46196</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1857976</v>
+        <v>1861423</v>
       </c>
       <c r="F33" t="n">
-        <v>77.85678417466595</v>
+        <v>238.6300771310466</v>
       </c>
       <c r="G33" t="n">
-        <v>9.900521103406682</v>
+        <v>9.900807647503646</v>
       </c>
       <c r="H33" t="n">
         <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>632154</v>
+        <v>1393143</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1521487</v>
+        <v>1522092</v>
       </c>
       <c r="F34" t="n">
-        <v>491.4032602121936</v>
+        <v>471.0886053346425</v>
       </c>
       <c r="G34" t="n">
-        <v>221.6041104229328</v>
+        <v>290.2610932780039</v>
       </c>
       <c r="H34" t="n">
-        <v>0.72</v>
+        <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>268656</v>
+        <v>276340</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12802279</v>
+        <v>12785886</v>
       </c>
       <c r="E35" t="n">
-        <v>31862556</v>
+        <v>31821758</v>
       </c>
       <c r="F35" t="n">
-        <v>1026.304645829903</v>
+        <v>935.6196661918611</v>
       </c>
       <c r="G35" t="n">
-        <v>1623.563946442734</v>
+        <v>1158.379994836727</v>
       </c>
       <c r="H35" t="n">
         <v>0.47</v>
       </c>
       <c r="I35" t="n">
-        <v>1403868</v>
+        <v>1288092</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6823397</v>
+        <v>7003500</v>
       </c>
       <c r="E36" t="n">
-        <v>9397561</v>
+        <v>9645609</v>
       </c>
       <c r="F36" t="n">
-        <v>592.0916926777068</v>
+        <v>70.84618683471766</v>
       </c>
       <c r="G36" t="n">
-        <v>424.0381396977933</v>
+        <v>2400.505734565736</v>
       </c>
       <c r="H36" t="n">
-        <v>1.29</v>
+        <v>2.06</v>
       </c>
       <c r="I36" t="n">
-        <v>505532</v>
+        <v>498604</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>904016</v>
+        <v>934855</v>
       </c>
       <c r="E37" t="n">
-        <v>6328115</v>
+        <v>6543986</v>
       </c>
       <c r="F37" t="n">
-        <v>343.5384684810281</v>
+        <v>1541.550504096185</v>
       </c>
       <c r="G37" t="n">
-        <v>244.8818893680087</v>
+        <v>60.73876294836582</v>
       </c>
       <c r="H37" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="I37" t="n">
-        <v>154304</v>
+        <v>221390</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>112713924</v>
+        <v>111982823</v>
       </c>
       <c r="E38" t="n">
-        <v>438568260</v>
+        <v>435698439</v>
       </c>
       <c r="F38" t="n">
-        <v>13101.50353978305</v>
+        <v>18433.68223021524</v>
       </c>
       <c r="G38" t="n">
-        <v>16925.47542314902</v>
+        <v>28280.0669764049</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>8524104</v>
+        <v>8712905</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5651536</v>
+        <v>5634026</v>
       </c>
       <c r="E39" t="n">
-        <v>5921906</v>
+        <v>5903558</v>
       </c>
       <c r="F39" t="n">
-        <v>218.9851717475818</v>
+        <v>137.5947842799305</v>
       </c>
       <c r="G39" t="n">
-        <v>66.41958534935291</v>
+        <v>508.0081116544006</v>
       </c>
       <c r="H39" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>152180</v>
+        <v>150279</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5178925</v>
+        <v>5128084</v>
       </c>
       <c r="E40" t="n">
-        <v>7623658</v>
+        <v>7548817</v>
       </c>
       <c r="F40" t="n">
-        <v>851.3072740727024</v>
+        <v>727.7218196887945</v>
       </c>
       <c r="G40" t="n">
-        <v>709.8309882358574</v>
+        <v>829.9093462318823</v>
       </c>
       <c r="H40" t="n">
-        <v>1.48</v>
+        <v>0.87</v>
       </c>
       <c r="I40" t="n">
-        <v>634519</v>
+        <v>593262</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7678010</v>
+        <v>7689918</v>
       </c>
       <c r="E41" t="n">
-        <v>7678010</v>
+        <v>7689918</v>
       </c>
       <c r="F41" t="n">
-        <v>1726.015303367463</v>
+        <v>1726.020049846508</v>
       </c>
       <c r="G41" t="n">
-        <v>1858.743616546586</v>
+        <v>1929.950624979436</v>
       </c>
       <c r="H41" t="n">
         <v>0.75</v>
       </c>
       <c r="I41" t="n">
-        <v>318324</v>
+        <v>311414</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1457125</v>
+        <v>1456687</v>
       </c>
       <c r="E42" t="n">
-        <v>1457125</v>
+        <v>1456687</v>
       </c>
       <c r="F42" t="n">
-        <v>353.6424588116459</v>
+        <v>265.4749145627047</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0317899607886</v>
+        <v>225.668743315646</v>
       </c>
       <c r="H42" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I42" t="n">
-        <v>283372</v>
+        <v>282530</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15982259</v>
+        <v>15982224</v>
       </c>
       <c r="F43" t="n">
-        <v>651.0705095318507</v>
+        <v>386.4421688890434</v>
       </c>
       <c r="G43" t="n">
-        <v>107.1450205201443</v>
+        <v>177.5281593223356</v>
       </c>
       <c r="H43" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I43" t="n">
-        <v>10825.09</v>
+        <v>10769.09</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>138806916</v>
+        <v>138766037</v>
       </c>
       <c r="E44" t="n">
-        <v>138806916</v>
+        <v>138766037</v>
       </c>
       <c r="F44" t="n">
-        <v>283150.2265890589</v>
+        <v>273301.3691126749</v>
       </c>
       <c r="G44" t="n">
-        <v>439750.9139228243</v>
+        <v>393744.6967394622</v>
       </c>
       <c r="H44" t="n">
         <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>65244534</v>
+        <v>66055581</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>65499001</v>
+        <v>65745806</v>
       </c>
       <c r="E45" t="n">
-        <v>335892315</v>
+        <v>337157982</v>
       </c>
       <c r="F45" t="n">
-        <v>61213.7855926571</v>
+        <v>75732.73960631933</v>
       </c>
       <c r="G45" t="n">
-        <v>87985.70025131125</v>
+        <v>67590.40041820532</v>
       </c>
       <c r="H45" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I45" t="n">
-        <v>21666920</v>
+        <v>21698380</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>594267</v>
+        <v>594334</v>
       </c>
       <c r="F46" t="n">
-        <v>91.74130211102913</v>
+        <v>91.09909800032017</v>
       </c>
       <c r="G46" t="n">
-        <v>578.4092900674</v>
+        <v>577.8872406557396</v>
       </c>
       <c r="H46" t="n">
         <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>1014.74</v>
+        <v>999.3099999999999</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2666292</v>
+        <v>2672107</v>
       </c>
       <c r="E47" t="n">
-        <v>10715220</v>
+        <v>10738588</v>
       </c>
       <c r="F47" t="n">
-        <v>401.3738927855094</v>
+        <v>863.713562142047</v>
       </c>
       <c r="G47" t="n">
-        <v>369.645378938023</v>
+        <v>358.3710099293961</v>
       </c>
       <c r="H47" t="n">
-        <v>1.83</v>
+        <v>0.93</v>
       </c>
       <c r="I47" t="n">
-        <v>33198</v>
+        <v>33522</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17616068</v>
+        <v>17613882</v>
       </c>
       <c r="E48" t="n">
-        <v>124163536</v>
+        <v>124147267</v>
       </c>
       <c r="F48" t="n">
-        <v>368.6407000313391</v>
+        <v>306.8095927134039</v>
       </c>
       <c r="G48" t="n">
-        <v>388.3841144454375</v>
+        <v>640.7707986236892</v>
       </c>
       <c r="H48" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="I48" t="n">
-        <v>1067110</v>
+        <v>1044432</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1033668</v>
+        <v>1034966</v>
       </c>
       <c r="E49" t="n">
-        <v>1213280</v>
+        <v>1214803</v>
       </c>
       <c r="F49" t="n">
-        <v>1617.260653035758</v>
+        <v>1616.290927866076</v>
       </c>
       <c r="G49" t="n">
-        <v>3350.324743145919</v>
+        <v>3350.30640732998</v>
       </c>
       <c r="H49" t="n">
         <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>209483</v>
+        <v>206696</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>172349</v>
+        <v>172532</v>
       </c>
       <c r="E50" t="n">
-        <v>2306132</v>
+        <v>2308570</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>52696</v>
+        <v>52467</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>253972952</v>
+        <v>255344315</v>
       </c>
       <c r="E51" t="n">
-        <v>253972952</v>
+        <v>255344315</v>
       </c>
       <c r="F51" t="n">
-        <v>17174.30121659932</v>
+        <v>21696.3072849892</v>
       </c>
       <c r="G51" t="n">
-        <v>55934.37931369297</v>
+        <v>28407.09303947247</v>
       </c>
       <c r="H51" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>14554205</v>
+        <v>14541169</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1121882</v>
+        <v>1125876</v>
       </c>
       <c r="F52" t="n">
-        <v>4.161346997486215</v>
+        <v>4.161481861736697</v>
       </c>
       <c r="G52" t="n">
-        <v>210.5219721879221</v>
+        <v>633.2537439208113</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>181220</v>
+        <v>179906</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>115956</v>
+        <v>115338</v>
       </c>
       <c r="E54" t="n">
-        <v>115956</v>
+        <v>115338</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>72.77</v>
+        <v>74.45999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6827448</v>
+        <v>6850383</v>
       </c>
       <c r="E55" t="n">
-        <v>16583344</v>
+        <v>16639052</v>
       </c>
       <c r="F55" t="n">
-        <v>336.8093765348602</v>
+        <v>341.7801297388334</v>
       </c>
       <c r="G55" t="n">
-        <v>79.20572039700474</v>
+        <v>228.9791355813771</v>
       </c>
       <c r="H55" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="I55" t="n">
-        <v>484948</v>
+        <v>485458</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>442369684</v>
+        <v>440610109</v>
       </c>
       <c r="E56" t="n">
-        <v>442369684</v>
+        <v>440610109</v>
       </c>
       <c r="F56" t="n">
-        <v>5030.756175169423</v>
+        <v>4821.639538364006</v>
       </c>
       <c r="G56" t="n">
-        <v>4523.706599905824</v>
+        <v>6477.6897124113</v>
       </c>
       <c r="H56" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="I56" t="n">
-        <v>2638222</v>
+        <v>2513910</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2400157</v>
+        <v>2464492</v>
       </c>
       <c r="E57" t="n">
-        <v>2400157</v>
+        <v>2464492</v>
       </c>
       <c r="F57" t="n">
-        <v>3.824046091850883</v>
+        <v>3.782636648423117</v>
       </c>
       <c r="G57" t="n">
-        <v>5.257571268274084</v>
+        <v>3.898689463317043</v>
       </c>
       <c r="H57" t="n">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="I57" t="n">
-        <v>103945</v>
+        <v>56315</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>159214825</v>
+        <v>161231847</v>
       </c>
       <c r="E58" t="n">
-        <v>209508089</v>
+        <v>212162254</v>
       </c>
       <c r="F58" t="n">
-        <v>11885.47059913289</v>
+        <v>10922.40592810391</v>
       </c>
       <c r="G58" t="n">
-        <v>14284.8789745257</v>
+        <v>10522.71262994426</v>
       </c>
       <c r="H58" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="I58" t="n">
-        <v>8282225</v>
+        <v>8207366</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1129002</v>
+        <v>1129178</v>
       </c>
       <c r="E59" t="n">
-        <v>12269575</v>
+        <v>12271486</v>
       </c>
       <c r="F59" t="n">
-        <v>12.74321497388453</v>
+        <v>12.83282085260925</v>
       </c>
       <c r="G59" t="n">
-        <v>3.795380407695475</v>
+        <v>3.808611217944505</v>
       </c>
       <c r="H59" t="n">
         <v>0.33</v>
       </c>
       <c r="I59" t="n">
-        <v>31155</v>
+        <v>31153</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2553152</v>
+        <v>2556258</v>
       </c>
       <c r="E60" t="n">
-        <v>6527354</v>
+        <v>6535296</v>
       </c>
       <c r="F60" t="n">
-        <v>206.8643051303632</v>
+        <v>206.8670506331817</v>
       </c>
       <c r="G60" t="n">
-        <v>189.058124564876</v>
+        <v>191.8428811726121</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>112780</v>
+        <v>112674</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>78443795</v>
+        <v>78625152</v>
       </c>
       <c r="E61" t="n">
-        <v>219508529</v>
+        <v>220006484</v>
       </c>
       <c r="F61" t="n">
-        <v>69093.89840386903</v>
+        <v>64073.9347684568</v>
       </c>
       <c r="G61" t="n">
-        <v>83212.16578713243</v>
+        <v>70324.79541995258</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I61" t="n">
-        <v>34440277</v>
+        <v>34466847</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>73559238</v>
+        <v>73619992</v>
       </c>
       <c r="E62" t="n">
-        <v>73559238</v>
+        <v>73619992</v>
       </c>
       <c r="F62" t="n">
-        <v>1877.833881680594</v>
+        <v>4356.900519258553</v>
       </c>
       <c r="G62" t="n">
-        <v>4176.331309333795</v>
+        <v>4571.864016484442</v>
       </c>
       <c r="H62" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="I62" t="n">
-        <v>3343930</v>
+        <v>3365988</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4140618</v>
+        <v>4134688</v>
       </c>
       <c r="E63" t="n">
-        <v>8165647</v>
+        <v>8153952</v>
       </c>
       <c r="F63" t="n">
-        <v>1669.592221539568</v>
+        <v>545.4031699690928</v>
       </c>
       <c r="G63" t="n">
-        <v>2089.956430724296</v>
+        <v>135.9032717971407</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="I63" t="n">
-        <v>1620125</v>
+        <v>1638356</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1581877</v>
+        <v>1589604</v>
       </c>
       <c r="E64" t="n">
-        <v>9082546</v>
+        <v>9126911</v>
       </c>
       <c r="F64" t="n">
-        <v>176.5341251255543</v>
+        <v>169.1157816906635</v>
       </c>
       <c r="G64" t="n">
-        <v>114.0613576624334</v>
+        <v>4.20769619380672</v>
       </c>
       <c r="H64" t="n">
-        <v>0.61</v>
+        <v>0.38</v>
       </c>
       <c r="I64" t="n">
-        <v>295368</v>
+        <v>294948</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>565301</v>
+        <v>565299</v>
       </c>
       <c r="F65" t="n">
-        <v>53.61952406906616</v>
+        <v>53.62112432714648</v>
       </c>
       <c r="G65" t="n">
-        <v>3.871141222071136</v>
+        <v>3.871256755081327</v>
       </c>
       <c r="H65" t="n">
         <v>0.9</v>
       </c>
       <c r="I65" t="n">
-        <v>1708.61</v>
+        <v>1673.03</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31223206</v>
+        <v>31163734</v>
       </c>
       <c r="F66" t="n">
-        <v>788.1847884220329</v>
+        <v>779.4757505291237</v>
       </c>
       <c r="G66" t="n">
-        <v>343.0839844954055</v>
+        <v>306.1688987038494</v>
       </c>
       <c r="H66" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>246733</v>
+        <v>246492</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>173940</v>
+        <v>167308</v>
       </c>
       <c r="E67" t="n">
-        <v>1174638</v>
+        <v>1129850</v>
       </c>
       <c r="F67" t="n">
-        <v>5.339216922515768</v>
+        <v>4.066357757480062</v>
       </c>
       <c r="G67" t="n">
-        <v>4.004784752716023</v>
+        <v>94.39688330670397</v>
       </c>
       <c r="H67" t="n">
-        <v>1.07</v>
+        <v>0.68</v>
       </c>
       <c r="I67" t="n">
-        <v>2780211</v>
+        <v>2780105</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7639128</v>
+        <v>7639191</v>
       </c>
       <c r="E68" t="n">
-        <v>17991666</v>
+        <v>17991813</v>
       </c>
       <c r="F68" t="n">
-        <v>846.6059265293677</v>
+        <v>846.6311932209003</v>
       </c>
       <c r="G68" t="n">
-        <v>3725.405072841628</v>
+        <v>3739.353877544967</v>
       </c>
       <c r="H68" t="n">
         <v>0.06</v>
       </c>
       <c r="I68" t="n">
-        <v>29860</v>
+        <v>29781</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2943181</v>
+        <v>2969899</v>
       </c>
       <c r="E69" t="n">
-        <v>2943181</v>
+        <v>2969899</v>
       </c>
       <c r="F69" t="n">
-        <v>5.216113392577154</v>
+        <v>315.9491530110611</v>
       </c>
       <c r="G69" t="n">
-        <v>1148.596994003415</v>
+        <v>23.84476804702009</v>
       </c>
       <c r="H69" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="I69" t="n">
-        <v>18026.15</v>
+        <v>18314.56</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3367652</v>
+        <v>3367245</v>
       </c>
       <c r="E70" t="n">
-        <v>8309509</v>
+        <v>8308506</v>
       </c>
       <c r="F70" t="n">
-        <v>1196.102098879155</v>
+        <v>1206.515444126178</v>
       </c>
       <c r="G70" t="n">
-        <v>1179.608491228051</v>
+        <v>1148.804294072068</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>44441</v>
+        <v>43166</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>22934681</v>
+        <v>23056433</v>
       </c>
       <c r="F71" t="n">
-        <v>392.4028298259882</v>
+        <v>434.8093089954343</v>
       </c>
       <c r="G71" t="n">
-        <v>111.6512083756779</v>
+        <v>33.85816464717637</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="I71" t="n">
-        <v>124863</v>
+        <v>126289</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>271939</v>
+        <v>269087</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1691.78</v>
+        <v>1799.57</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>75634028</v>
+        <v>75946500</v>
       </c>
       <c r="E73" t="n">
-        <v>157735357</v>
+        <v>158387019</v>
       </c>
       <c r="F73" t="n">
-        <v>19564.78281504046</v>
+        <v>13123.95642485891</v>
       </c>
       <c r="G73" t="n">
-        <v>10124.29264743827</v>
+        <v>606.3192824561738</v>
       </c>
       <c r="H73" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="I73" t="n">
-        <v>15943896</v>
+        <v>16269927</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>196014158</v>
+        <v>197724989</v>
       </c>
       <c r="F75" t="n">
-        <v>23348.75684003428</v>
+        <v>7421.493321003682</v>
       </c>
       <c r="G75" t="n">
-        <v>5750.720604012469</v>
+        <v>11279.82645821394</v>
       </c>
       <c r="H75" t="n">
         <v>0.15</v>
       </c>
       <c r="I75" t="n">
-        <v>4360396</v>
+        <v>4011840</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>85729443</v>
+        <v>85654822</v>
       </c>
       <c r="E76" t="n">
-        <v>117719866</v>
+        <v>117617401</v>
       </c>
       <c r="F76" t="n">
-        <v>536.834078356717</v>
+        <v>563.5593973596723</v>
       </c>
       <c r="G76" t="n">
-        <v>2273.606952251383</v>
+        <v>3115.493871835426</v>
       </c>
       <c r="H76" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I76" t="n">
-        <v>1052546</v>
+        <v>1046581</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>179606</v>
+        <v>179618</v>
       </c>
       <c r="E77" t="n">
-        <v>187559</v>
+        <v>187572</v>
       </c>
       <c r="F77" t="n">
-        <v>3.9528671629766</v>
+        <v>3.952919625425017</v>
       </c>
       <c r="G77" t="n">
-        <v>416.4003132002404</v>
+        <v>416.4058396647158</v>
       </c>
       <c r="H77" t="n">
         <v>0.88</v>
       </c>
       <c r="I77" t="n">
-        <v>334.22</v>
+        <v>334.38</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8241563</v>
+        <v>8264737</v>
       </c>
       <c r="E78" t="n">
-        <v>9066270</v>
+        <v>9091763</v>
       </c>
       <c r="F78" t="n">
-        <v>742.7511371692445</v>
+        <v>735.0026654600123</v>
       </c>
       <c r="G78" t="n">
-        <v>251.5719220033006</v>
+        <v>415.1516694839029</v>
       </c>
       <c r="H78" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="I78" t="n">
-        <v>753312</v>
+        <v>763202</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28176876</v>
+        <v>28493970</v>
       </c>
       <c r="E79" t="n">
-        <v>28176876</v>
+        <v>28493970</v>
       </c>
       <c r="F79" t="n">
-        <v>1047.791565174852</v>
+        <v>1547.442257013791</v>
       </c>
       <c r="G79" t="n">
-        <v>791.1027293645444</v>
+        <v>595.4479682240682</v>
       </c>
       <c r="H79" t="n">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="I79" t="n">
-        <v>281280</v>
+        <v>282396</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>272740656</v>
+        <v>274202998</v>
       </c>
       <c r="E80" t="n">
-        <v>272740656</v>
+        <v>274202998</v>
       </c>
       <c r="F80" t="n">
-        <v>3646.104848596313</v>
+        <v>198.1019602952889</v>
       </c>
       <c r="G80" t="n">
-        <v>21908.89774176143</v>
+        <v>3035.884428600619</v>
       </c>
       <c r="H80" t="n">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="I80" t="n">
-        <v>9519203</v>
+        <v>9623522</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>647982224</v>
+        <v>652863747</v>
       </c>
       <c r="E81" t="n">
-        <v>647982224</v>
+        <v>652863747</v>
       </c>
       <c r="F81" t="n">
-        <v>1246565.678476958</v>
+        <v>1261855.082207063</v>
       </c>
       <c r="G81" t="n">
-        <v>1513815.859964583</v>
+        <v>1350444.554064194</v>
       </c>
       <c r="H81" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I81" t="n">
-        <v>292690354</v>
+        <v>302384847</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>120967</v>
+        <v>120976</v>
       </c>
       <c r="E82" t="n">
-        <v>120967</v>
+        <v>120976</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>311.13</v>
+        <v>311.18</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>202651650</v>
+        <v>202643466</v>
       </c>
       <c r="E83" t="n">
-        <v>704030147</v>
+        <v>704001715</v>
       </c>
       <c r="F83" t="n">
-        <v>1268.958250297689</v>
+        <v>1134.493133492957</v>
       </c>
       <c r="G83" t="n">
-        <v>1952.089828263079</v>
+        <v>1701.571299403959</v>
       </c>
       <c r="H83" t="n">
         <v>0.31</v>
       </c>
       <c r="I83" t="n">
-        <v>27692221</v>
+        <v>28170899</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3397083</v>
+        <v>3520576</v>
       </c>
       <c r="E84" t="n">
-        <v>3397083</v>
+        <v>3520576</v>
       </c>
       <c r="F84" t="n">
-        <v>2778.132235354328</v>
+        <v>620.4986263365842</v>
       </c>
       <c r="G84" t="n">
-        <v>958.4437935715983</v>
+        <v>1240.789343258844</v>
       </c>
       <c r="H84" t="n">
-        <v>0.15</v>
+        <v>0.57</v>
       </c>
       <c r="I84" t="n">
-        <v>2722286</v>
+        <v>2628453</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>115776149</v>
+        <v>116257038</v>
       </c>
       <c r="E85" t="n">
-        <v>491974404</v>
+        <v>493966205</v>
       </c>
       <c r="F85" t="n">
-        <v>299302.4757732486</v>
+        <v>353426.725574721</v>
       </c>
       <c r="G85" t="n">
-        <v>418278.7016345711</v>
+        <v>444799.1345321815</v>
       </c>
       <c r="H85" t="n">
-        <v>0.47</v>
+        <v>0.16</v>
       </c>
       <c r="I85" t="n">
-        <v>14725374</v>
+        <v>15002689</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71867963</v>
+        <v>71706120</v>
       </c>
       <c r="E86" t="n">
-        <v>82459333</v>
+        <v>82273639</v>
       </c>
       <c r="F86" t="n">
-        <v>21076.23812276986</v>
+        <v>22653.03147804659</v>
       </c>
       <c r="G86" t="n">
-        <v>18069.57974318642</v>
+        <v>26567.32042761934</v>
       </c>
       <c r="H86" t="n">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="I86" t="n">
-        <v>1289591</v>
+        <v>1166768</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3136098</v>
+        <v>3152265</v>
       </c>
       <c r="E87" t="n">
-        <v>15723765</v>
+        <v>15804822</v>
       </c>
       <c r="F87" t="n">
-        <v>5.585373579790393</v>
+        <v>5.645550354740053</v>
       </c>
       <c r="G87" t="n">
-        <v>71.04440056701489</v>
+        <v>71.13174621035056</v>
       </c>
       <c r="H87" t="n">
         <v>0.31</v>
       </c>
       <c r="I87" t="n">
-        <v>33835</v>
+        <v>34073</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>525820</v>
+        <v>526017</v>
       </c>
       <c r="E88" t="n">
-        <v>8994114</v>
+        <v>8997486</v>
       </c>
       <c r="F88" t="n">
-        <v>8.115636880879578</v>
+        <v>999.3187210918023</v>
       </c>
       <c r="G88" t="n">
-        <v>286.4939102958478</v>
+        <v>260.708061382792</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I88" t="n">
-        <v>168068</v>
+        <v>162730</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5650201</v>
+        <v>5632496</v>
       </c>
       <c r="E89" t="n">
-        <v>7676116</v>
+        <v>7652063</v>
       </c>
       <c r="F89" t="n">
-        <v>252.7230072204072</v>
+        <v>705.5713293226823</v>
       </c>
       <c r="G89" t="n">
-        <v>81.99321436363751</v>
+        <v>54.98221538492012</v>
       </c>
       <c r="H89" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="I89" t="n">
-        <v>5823500</v>
+        <v>5793678</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40740896</v>
+        <v>40823921</v>
       </c>
       <c r="E90" t="n">
-        <v>47584399</v>
+        <v>47681370</v>
       </c>
       <c r="F90" t="n">
-        <v>4.068690021365493</v>
+        <v>154.9327255143777</v>
       </c>
       <c r="G90" t="n">
-        <v>162.5486701405267</v>
+        <v>197.5799208945357</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="I90" t="n">
-        <v>880801</v>
+        <v>872858</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14510305</v>
+        <v>14520838</v>
       </c>
       <c r="F91" t="n">
-        <v>93.21972340379158</v>
+        <v>54.8686827485586</v>
       </c>
       <c r="G91" t="n">
-        <v>266.6733045072768</v>
+        <v>220.9391058925179</v>
       </c>
       <c r="H91" t="n">
-        <v>1.5</v>
+        <v>1.96</v>
       </c>
       <c r="I91" t="n">
-        <v>289271</v>
+        <v>277682</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35538692</v>
+        <v>35262780</v>
       </c>
       <c r="E92" t="n">
-        <v>35538692</v>
+        <v>35262780</v>
       </c>
       <c r="F92" t="n">
-        <v>32.3522326233139</v>
+        <v>549.3824175797309</v>
       </c>
       <c r="G92" t="n">
-        <v>651.8279814853623</v>
+        <v>284.1406452024664</v>
       </c>
       <c r="H92" t="n">
-        <v>0.76</v>
+        <v>0.5</v>
       </c>
       <c r="I92" t="n">
-        <v>789307</v>
+        <v>295285</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17370105</v>
+        <v>17345250</v>
       </c>
       <c r="F93" t="n">
-        <v>124.0670971543768</v>
+        <v>134.1068733263024</v>
       </c>
       <c r="G93" t="n">
-        <v>437.6767559525141</v>
+        <v>474.7235410065375</v>
       </c>
       <c r="H93" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="I93" t="n">
-        <v>173924</v>
+        <v>177793</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>575467</v>
+        <v>557093</v>
       </c>
       <c r="E94" t="n">
-        <v>6979852</v>
+        <v>6756998</v>
       </c>
       <c r="F94" t="n">
-        <v>1000.584949680673</v>
+        <v>939.6734166157129</v>
       </c>
       <c r="G94" t="n">
-        <v>531.7359426120287</v>
+        <v>675.3917764317293</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="I94" t="n">
-        <v>2841561</v>
+        <v>2874630</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25753362</v>
+        <v>25916910</v>
       </c>
       <c r="E95" t="n">
-        <v>36401372</v>
+        <v>36632541</v>
       </c>
       <c r="F95" t="n">
-        <v>102.6341091053285</v>
+        <v>116.480413465121</v>
       </c>
       <c r="G95" t="n">
-        <v>5.241464329673939</v>
+        <v>5.241510073446099</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="I95" t="n">
-        <v>58751</v>
+        <v>66714</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1307633788</v>
+        <v>1301520631</v>
       </c>
       <c r="E96" t="n">
-        <v>6270371812</v>
+        <v>6241057970</v>
       </c>
       <c r="F96" t="n">
-        <v>653790.0701062997</v>
+        <v>406245.6815679413</v>
       </c>
       <c r="G96" t="n">
-        <v>526073.7760485975</v>
+        <v>593198.4496945676</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>164940160</v>
+        <v>165723369</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>271714838</v>
+        <v>271485250</v>
       </c>
       <c r="E97" t="n">
-        <v>1172872080</v>
+        <v>1171881051</v>
       </c>
       <c r="F97" t="n">
-        <v>241962.0385354616</v>
+        <v>113835.996863936</v>
       </c>
       <c r="G97" t="n">
-        <v>886837.0225504163</v>
+        <v>974055.2529907243</v>
       </c>
       <c r="H97" t="n">
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>99395823</v>
+        <v>98696005</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5038411</v>
+        <v>5050471</v>
       </c>
       <c r="E98" t="n">
-        <v>5583563</v>
+        <v>5596929</v>
       </c>
       <c r="F98" t="n">
-        <v>962.0485678354934</v>
+        <v>626.0381515490373</v>
       </c>
       <c r="G98" t="n">
-        <v>347.8128814003377</v>
+        <v>696.6657886501264</v>
       </c>
       <c r="H98" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I98" t="n">
-        <v>576637</v>
+        <v>586085</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94701</v>
+        <v>94774</v>
       </c>
       <c r="E99" t="n">
-        <v>94701</v>
+        <v>94774</v>
       </c>
       <c r="F99" t="n">
-        <v>5.438993478245388</v>
+        <v>5.439140554874489</v>
       </c>
       <c r="G99" t="n">
-        <v>3.97344032413355</v>
+        <v>3.973547770522509</v>
       </c>
       <c r="H99" t="n">
         <v>0.77</v>
       </c>
       <c r="I99" t="n">
-        <v>4376.79</v>
+        <v>4016.48</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>115118776</v>
+        <v>114527891</v>
       </c>
       <c r="E100" t="n">
-        <v>115118776</v>
+        <v>114527891</v>
       </c>
       <c r="F100" t="n">
-        <v>10115.35732249266</v>
+        <v>39349.50525724699</v>
       </c>
       <c r="G100" t="n">
-        <v>14210.04463349378</v>
+        <v>26721.87504406773</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6236704</v>
+        <v>6221531</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3749688</v>
+        <v>3747654</v>
       </c>
       <c r="F101" t="n">
-        <v>1260.046211852593</v>
+        <v>1148.463740227356</v>
       </c>
       <c r="G101" t="n">
-        <v>1122.92752267546</v>
+        <v>1210.006301595885</v>
       </c>
       <c r="H101" t="n">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="I101" t="n">
-        <v>302729</v>
+        <v>305291</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2043303573</v>
+        <v>2046031370</v>
       </c>
       <c r="E102" t="n">
-        <v>2043303573</v>
+        <v>2046031370</v>
       </c>
       <c r="F102" t="n">
-        <v>6893955.476667574</v>
+        <v>6765824.753686384</v>
       </c>
       <c r="G102" t="n">
-        <v>5620687.773354035</v>
+        <v>5623817.891272095</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>6511163917</v>
+        <v>6596285565</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5358271</v>
+        <v>5319294</v>
       </c>
       <c r="E103" t="n">
-        <v>5364335</v>
+        <v>5325314</v>
       </c>
       <c r="F103" t="n">
-        <v>66.75886597927115</v>
+        <v>66.93453950336551</v>
       </c>
       <c r="G103" t="n">
-        <v>83.15061733150149</v>
+        <v>83.0923958536883</v>
       </c>
       <c r="H103" t="n">
         <v>0.75</v>
       </c>
       <c r="I103" t="n">
-        <v>148477</v>
+        <v>148297</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2242340</v>
+        <v>2251095</v>
       </c>
       <c r="F104" t="n">
-        <v>5.385010141033931</v>
+        <v>5.494125372016367</v>
       </c>
       <c r="G104" t="n">
-        <v>288.3232076162352</v>
+        <v>288.3270342415133</v>
       </c>
       <c r="H104" t="n">
         <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>57443</v>
+        <v>57622</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4444165</v>
+        <v>4493270</v>
       </c>
       <c r="E105" t="n">
-        <v>5834610</v>
+        <v>5899077</v>
       </c>
       <c r="F105" t="n">
-        <v>11212.76041872146</v>
+        <v>11435.71422958709</v>
       </c>
       <c r="G105" t="n">
-        <v>5960.95103173853</v>
+        <v>12475.39844325489</v>
       </c>
       <c r="H105" t="n">
         <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>576214</v>
+        <v>599503</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19878439</v>
+        <v>19885244</v>
       </c>
       <c r="F106" t="n">
-        <v>112.8475313166202</v>
+        <v>149.8190772787434</v>
       </c>
       <c r="G106" t="n">
-        <v>213.7795352266812</v>
+        <v>1303.325125558132</v>
       </c>
       <c r="H106" t="n">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="I106" t="n">
-        <v>91655</v>
+        <v>68508</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1301249</v>
+        <v>1298713</v>
       </c>
       <c r="E107" t="n">
-        <v>4851392</v>
+        <v>4841939</v>
       </c>
       <c r="F107" t="n">
-        <v>1607.767808167228</v>
+        <v>180.2753377633056</v>
       </c>
       <c r="G107" t="n">
-        <v>175.6972122641823</v>
+        <v>168.2571206355632</v>
       </c>
       <c r="H107" t="n">
         <v>0.2</v>
       </c>
       <c r="I107" t="n">
-        <v>483597</v>
+        <v>498856</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4103136</v>
+        <v>4215388</v>
       </c>
       <c r="E108" t="n">
-        <v>11818983</v>
+        <v>12142322</v>
       </c>
       <c r="F108" t="n">
-        <v>134.1715586625888</v>
+        <v>73.82016060475014</v>
       </c>
       <c r="G108" t="n">
-        <v>65.55070972055353</v>
+        <v>92.16570600645721</v>
       </c>
       <c r="H108" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="I108" t="n">
-        <v>633643</v>
+        <v>652034</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80091588</v>
+        <v>79417579</v>
       </c>
       <c r="E109" t="n">
-        <v>101922770</v>
+        <v>101065042</v>
       </c>
       <c r="F109" t="n">
-        <v>4180.117396580617</v>
+        <v>7515.395408070242</v>
       </c>
       <c r="G109" t="n">
-        <v>326.1828611904764</v>
+        <v>347.391357130557</v>
       </c>
       <c r="H109" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="I109" t="n">
-        <v>6200905</v>
+        <v>6210341</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22568357</v>
+        <v>22620039</v>
       </c>
       <c r="E110" t="n">
-        <v>29276322</v>
+        <v>29343365</v>
       </c>
       <c r="F110" t="n">
-        <v>18157.83667410987</v>
+        <v>21644.09245178589</v>
       </c>
       <c r="G110" t="n">
-        <v>16778.92648965332</v>
+        <v>13662.42003174738</v>
       </c>
       <c r="H110" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="I110" t="n">
-        <v>162003</v>
+        <v>163306</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>647672</v>
+        <v>645483</v>
       </c>
       <c r="E111" t="n">
-        <v>647672</v>
+        <v>645483</v>
       </c>
       <c r="F111" t="n">
-        <v>1.348016541011296</v>
+        <v>17.6188262172338</v>
       </c>
       <c r="G111" t="n">
-        <v>2.702014558116693</v>
+        <v>544.3038443632718</v>
       </c>
       <c r="H111" t="n">
-        <v>2.36</v>
+        <v>0.62</v>
       </c>
       <c r="I111" t="n">
-        <v>82786</v>
+        <v>85301</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13546904</v>
+        <v>13555695</v>
       </c>
       <c r="E112" t="n">
-        <v>13546904</v>
+        <v>13555695</v>
       </c>
       <c r="F112" t="n">
-        <v>2467.183946156184</v>
+        <v>2393.152511905605</v>
       </c>
       <c r="G112" t="n">
-        <v>7903.38552610336</v>
+        <v>2860.86599860505</v>
       </c>
       <c r="H112" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I112" t="n">
-        <v>4776801</v>
+        <v>4776956</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98265978</v>
+        <v>99564968</v>
       </c>
       <c r="E113" t="n">
-        <v>121551497</v>
+        <v>123158302</v>
       </c>
       <c r="F113" t="n">
-        <v>414.8951715047441</v>
+        <v>570.1201057120011</v>
       </c>
       <c r="G113" t="n">
-        <v>1361.94465004131</v>
+        <v>163.7961008469128</v>
       </c>
       <c r="H113" t="n">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="I113" t="n">
-        <v>810841</v>
+        <v>840381</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>844369</v>
+        <v>846272</v>
       </c>
       <c r="F114" t="n">
-        <v>71.92378708912452</v>
+        <v>124.2313496176187</v>
       </c>
       <c r="G114" t="n">
-        <v>259.6547878171332</v>
+        <v>247.1334504919758</v>
       </c>
       <c r="H114" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="I114" t="n">
-        <v>24182</v>
+        <v>24175</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2846566</v>
+        <v>2637357</v>
       </c>
       <c r="F115" t="n">
-        <v>15.8934228889333</v>
+        <v>218.0132865427425</v>
       </c>
       <c r="G115" t="n">
-        <v>3177.00156546117</v>
+        <v>3000.579575513114</v>
       </c>
       <c r="H115" t="n">
-        <v>1.02</v>
+        <v>1.75</v>
       </c>
       <c r="I115" t="n">
-        <v>32357</v>
+        <v>75992</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11136987</v>
+        <v>11003067</v>
       </c>
       <c r="E116" t="n">
-        <v>16377921</v>
+        <v>16180980</v>
       </c>
       <c r="F116" t="n">
-        <v>13161.34770974103</v>
+        <v>10478.47121724892</v>
       </c>
       <c r="G116" t="n">
-        <v>2384.496910207371</v>
+        <v>3214.466185448062</v>
       </c>
       <c r="H116" t="n">
-        <v>0.67</v>
+        <v>0.49</v>
       </c>
       <c r="I116" t="n">
-        <v>552832</v>
+        <v>544664</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3108506</v>
+        <v>3107937</v>
       </c>
       <c r="F117" t="n">
-        <v>4.178113030651964</v>
+        <v>4.199467654965921</v>
       </c>
       <c r="G117" t="n">
-        <v>413.264514704969</v>
+        <v>419.2266504296082</v>
       </c>
       <c r="H117" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="I117" t="n">
-        <v>38176</v>
+        <v>36584</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1232476</v>
+        <v>1232956</v>
       </c>
       <c r="F118" t="n">
-        <v>3.823859648703735</v>
+        <v>3.823833261025531</v>
       </c>
       <c r="G118" t="n">
-        <v>279.9412140913806</v>
+        <v>145.1284026247227</v>
       </c>
       <c r="H118" t="n">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="I118" t="n">
-        <v>4947.41</v>
+        <v>4913.39</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5236478</v>
+        <v>5200250</v>
       </c>
       <c r="E119" t="n">
-        <v>7326592</v>
+        <v>7275904</v>
       </c>
       <c r="F119" t="n">
-        <v>1386.243666775289</v>
+        <v>1397.53667551427</v>
       </c>
       <c r="G119" t="n">
-        <v>1679.275526234336</v>
+        <v>1232.467726068264</v>
       </c>
       <c r="H119" t="n">
-        <v>0.74</v>
+        <v>0.95</v>
       </c>
       <c r="I119" t="n">
-        <v>112226</v>
+        <v>106973</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10235844</v>
+        <v>10203417</v>
       </c>
       <c r="E120" t="n">
-        <v>28194194</v>
+        <v>28104876</v>
       </c>
       <c r="F120" t="n">
-        <v>447.2829593873063</v>
+        <v>386.4451371408378</v>
       </c>
       <c r="G120" t="n">
-        <v>53.32845584139655</v>
+        <v>5.416246179661201</v>
       </c>
       <c r="H120" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="I120" t="n">
-        <v>342394</v>
+        <v>341777</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51087453</v>
+        <v>51227408</v>
       </c>
       <c r="E121" t="n">
-        <v>130148207</v>
+        <v>130504749</v>
       </c>
       <c r="F121" t="n">
-        <v>668.2117969915616</v>
+        <v>656.0138500220959</v>
       </c>
       <c r="G121" t="n">
-        <v>11860.35269786903</v>
+        <v>10546.80468846232</v>
       </c>
       <c r="H121" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I121" t="n">
-        <v>2338980</v>
+        <v>2359830</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14562048</v>
+        <v>14569407</v>
       </c>
       <c r="E122" t="n">
-        <v>70526325</v>
+        <v>70561963</v>
       </c>
       <c r="F122" t="n">
-        <v>2785.20419875649</v>
+        <v>2714.828648519494</v>
       </c>
       <c r="G122" t="n">
-        <v>3368.444569414426</v>
+        <v>3319.89257555345</v>
       </c>
       <c r="H122" t="n">
-        <v>0.14</v>
+        <v>0.35</v>
       </c>
       <c r="I122" t="n">
-        <v>3714311</v>
+        <v>3695466</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>495506</v>
+        <v>495563</v>
       </c>
       <c r="F123" t="n">
-        <v>4.144002448111436</v>
+        <v>4.144134421361748</v>
       </c>
       <c r="G123" t="n">
-        <v>5.336455760069743</v>
+        <v>5.336625709151729</v>
       </c>
       <c r="H123" t="n">
         <v>0.43</v>
       </c>
       <c r="I123" t="n">
-        <v>7491.96</v>
+        <v>7492.75</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4598550</v>
+        <v>4631318</v>
       </c>
       <c r="E124" t="n">
-        <v>10482192</v>
+        <v>10556884</v>
       </c>
       <c r="F124" t="n">
-        <v>827.2402930755028</v>
+        <v>837.3700325460434</v>
       </c>
       <c r="G124" t="n">
-        <v>1604.014181166683</v>
+        <v>1408.444586985529</v>
       </c>
       <c r="H124" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="I124" t="n">
-        <v>86962</v>
+        <v>79123</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1929357622</v>
+        <v>1928027356</v>
       </c>
       <c r="F125" t="n">
-        <v>74104.90476777105</v>
+        <v>76490.60965404655</v>
       </c>
       <c r="G125" t="n">
-        <v>73525.24821055496</v>
+        <v>75356.54468008385</v>
       </c>
       <c r="H125" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="I125" t="n">
-        <v>27295919</v>
+        <v>27846542</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9366913</v>
+        <v>9461670</v>
       </c>
       <c r="E126" t="n">
-        <v>34093802</v>
+        <v>34438217</v>
       </c>
       <c r="F126" t="n">
-        <v>1164.390584526519</v>
+        <v>1140.053124292456</v>
       </c>
       <c r="G126" t="n">
-        <v>5.369065375312548</v>
+        <v>5.368928770679865</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>156880</v>
+        <v>160791</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>546930</v>
+        <v>559900</v>
       </c>
       <c r="F127" t="n">
-        <v>15.07154528062837</v>
+        <v>9.84250478271621</v>
       </c>
       <c r="G127" t="n">
-        <v>159.7885337410354</v>
+        <v>3.881598203759576</v>
       </c>
       <c r="H127" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="I127" t="n">
-        <v>882.88</v>
+        <v>955.33</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12217947</v>
+        <v>12178531</v>
       </c>
       <c r="E128" t="n">
-        <v>17714260</v>
+        <v>17657113</v>
       </c>
       <c r="F128" t="n">
-        <v>6992.46275395759</v>
+        <v>2155.719520676634</v>
       </c>
       <c r="G128" t="n">
-        <v>6800.181194227603</v>
+        <v>6565.665409031179</v>
       </c>
       <c r="H128" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="I128" t="n">
-        <v>2005666</v>
+        <v>2036039</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31639793</v>
+        <v>31979942</v>
       </c>
       <c r="E129" t="n">
-        <v>98516163</v>
+        <v>99575279</v>
       </c>
       <c r="F129" t="n">
-        <v>8071.822677688142</v>
+        <v>15309.94800101075</v>
       </c>
       <c r="G129" t="n">
-        <v>10676.78950720603</v>
+        <v>9815.886430249444</v>
       </c>
       <c r="H129" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I129" t="n">
-        <v>11642126</v>
+        <v>11581362</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2048519</v>
+        <v>2051175</v>
       </c>
       <c r="E130" t="n">
-        <v>14689725</v>
+        <v>14708770</v>
       </c>
       <c r="F130" t="n">
-        <v>22.50083947028298</v>
+        <v>22.50100497488293</v>
       </c>
       <c r="G130" t="n">
-        <v>3.9504413306554</v>
+        <v>3.950470388069587</v>
       </c>
       <c r="H130" t="n">
         <v>0.68</v>
       </c>
       <c r="I130" t="n">
-        <v>1976413</v>
+        <v>1995719</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7490182</v>
+        <v>7488850</v>
       </c>
       <c r="F131" t="n">
-        <v>298.0591410466794</v>
+        <v>159.3106490360789</v>
       </c>
       <c r="G131" t="n">
-        <v>112.573098591748</v>
+        <v>62.57455654310666</v>
       </c>
       <c r="H131" t="n">
         <v>0.66</v>
       </c>
       <c r="I131" t="n">
-        <v>519224</v>
+        <v>519283</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>200649999</v>
+        <v>201431334</v>
       </c>
       <c r="E132" t="n">
-        <v>1136203584</v>
+        <v>1140627984</v>
       </c>
       <c r="F132" t="n">
-        <v>467500.8414991343</v>
+        <v>420183.4729272601</v>
       </c>
       <c r="G132" t="n">
-        <v>444726.4863859431</v>
+        <v>431895.5874729243</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>62541745</v>
+        <v>63300280</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1035540</v>
+        <v>1035492</v>
       </c>
       <c r="E133" t="n">
-        <v>1035540</v>
+        <v>1035492</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>8052.88</v>
+        <v>7842.38</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>507685</v>
+        <v>500393</v>
       </c>
       <c r="E134" t="n">
-        <v>1708798</v>
+        <v>1684254</v>
       </c>
       <c r="F134" t="n">
-        <v>330.718459469277</v>
+        <v>117.6204954198272</v>
       </c>
       <c r="G134" t="n">
-        <v>250.1480544707712</v>
+        <v>288.2970883025058</v>
       </c>
       <c r="H134" t="n">
-        <v>0.59</v>
+        <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>217751</v>
+        <v>632095</v>
       </c>
     </row>
     <row r="135">
@@ -5137,13 +5137,13 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>14142909</v>
+        <v>14143715</v>
       </c>
       <c r="F135" t="n">
-        <v>4.128373961021519</v>
+        <v>4.128428752795957</v>
       </c>
       <c r="G135" t="n">
-        <v>4.15669518420361</v>
+        <v>4.156750351857289</v>
       </c>
       <c r="H135" t="n">
         <v>0.35</v>
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>139927376</v>
+        <v>141460218</v>
       </c>
       <c r="E136" t="n">
-        <v>1036499085</v>
+        <v>1047853463</v>
       </c>
       <c r="F136" t="n">
-        <v>27630.43867779385</v>
+        <v>59338.16357396128</v>
       </c>
       <c r="G136" t="n">
-        <v>27807.484512594</v>
+        <v>59295.5403147304</v>
       </c>
       <c r="H136" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I136" t="n">
-        <v>9934796</v>
+        <v>9511743</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>32380664</v>
+        <v>32306428</v>
       </c>
       <c r="E137" t="n">
-        <v>153831509</v>
+        <v>153476238</v>
       </c>
       <c r="F137" t="n">
-        <v>11691.21544341717</v>
+        <v>16747.85985566628</v>
       </c>
       <c r="G137" t="n">
-        <v>1018.837685569946</v>
+        <v>30686.77491785377</v>
       </c>
       <c r="H137" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="I137" t="n">
-        <v>1141963</v>
+        <v>994924</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8024384</v>
+        <v>8028439</v>
       </c>
       <c r="E138" t="n">
-        <v>10749998</v>
+        <v>10755432</v>
       </c>
       <c r="F138" t="n">
-        <v>6.859641197396291</v>
+        <v>20.01409034681179</v>
       </c>
       <c r="G138" t="n">
-        <v>166.9689461976854</v>
+        <v>165.914610698755</v>
       </c>
       <c r="H138" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I138" t="n">
-        <v>59148</v>
+        <v>58834</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1237784</v>
+        <v>1251097</v>
       </c>
       <c r="F139" t="n">
-        <v>104.7720624286539</v>
+        <v>97.34033404631738</v>
       </c>
       <c r="G139" t="n">
-        <v>11.23102724317729</v>
+        <v>11.23170459329331</v>
       </c>
       <c r="H139" t="n">
         <v>0.85</v>
       </c>
       <c r="I139" t="n">
-        <v>45662</v>
+        <v>43547</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2380028</v>
+        <v>2365079</v>
       </c>
       <c r="E140" t="n">
-        <v>2380028</v>
+        <v>2365079</v>
       </c>
       <c r="F140" t="n">
-        <v>1637.391231600005</v>
+        <v>1579.353055917293</v>
       </c>
       <c r="G140" t="n">
-        <v>327.6781897548157</v>
+        <v>332.5655143921897</v>
       </c>
       <c r="H140" t="n">
         <v>0.45</v>
       </c>
       <c r="I140" t="n">
-        <v>157029</v>
+        <v>264064</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26326446</v>
+        <v>26381273</v>
       </c>
       <c r="E141" t="n">
-        <v>26326446</v>
+        <v>26381273</v>
       </c>
       <c r="F141" t="n">
-        <v>521.12504803639</v>
+        <v>388.4532353526894</v>
       </c>
       <c r="G141" t="n">
-        <v>2201.123047680294</v>
+        <v>2103.072484519073</v>
       </c>
       <c r="H141" t="n">
         <v>0.24</v>
       </c>
       <c r="I141" t="n">
-        <v>313986</v>
+        <v>313318</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6380926</v>
+        <v>6365445</v>
       </c>
       <c r="E142" t="n">
-        <v>6738973</v>
+        <v>6722623</v>
       </c>
       <c r="F142" t="n">
-        <v>100.8825431390156</v>
+        <v>7.011501772883981</v>
       </c>
       <c r="G142" t="n">
-        <v>1068.59808612259</v>
+        <v>176.095660141174</v>
       </c>
       <c r="H142" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="I142" t="n">
-        <v>34187</v>
+        <v>31777</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3412496</v>
+        <v>3386289</v>
       </c>
       <c r="E143" t="n">
-        <v>7968747</v>
+        <v>7907548</v>
       </c>
       <c r="F143" t="n">
-        <v>1194.685214316382</v>
+        <v>1086.365501834565</v>
       </c>
       <c r="G143" t="n">
-        <v>712.5221681115891</v>
+        <v>1101.500634252229</v>
       </c>
       <c r="H143" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I143" t="n">
-        <v>684916</v>
+        <v>656313</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1577580</v>
+        <v>1577640</v>
       </c>
       <c r="E144" t="n">
-        <v>12251665</v>
+        <v>12252136</v>
       </c>
       <c r="F144" t="n">
-        <v>200.264461429548</v>
+        <v>200.4560083416709</v>
       </c>
       <c r="G144" t="n">
-        <v>1366.858703473564</v>
+        <v>1580.686602696004</v>
       </c>
       <c r="H144" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="I144" t="n">
-        <v>499476</v>
+        <v>517112</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>338714074</v>
+        <v>339893653</v>
       </c>
       <c r="E145" t="n">
-        <v>3047281837</v>
+        <v>3057894066</v>
       </c>
       <c r="F145" t="n">
-        <v>548258.03717531</v>
+        <v>586011.4314390229</v>
       </c>
       <c r="G145" t="n">
-        <v>779593.9030429721</v>
+        <v>741773.8172158092</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>38332420</v>
+        <v>38809846</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>246423</v>
+        <v>244264</v>
       </c>
       <c r="E146" t="n">
-        <v>2174866</v>
+        <v>2155816</v>
       </c>
       <c r="F146" t="n">
-        <v>2.650255301429016</v>
+        <v>4.187385306124635</v>
       </c>
       <c r="G146" t="n">
-        <v>3.994631794555624</v>
+        <v>45.57237759583982</v>
       </c>
       <c r="H146" t="n">
-        <v>1.84</v>
+        <v>0.84</v>
       </c>
       <c r="I146" t="n">
-        <v>80500</v>
+        <v>82280</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>656326</v>
+        <v>653653</v>
       </c>
       <c r="F147" t="n">
-        <v>583.626598433038</v>
+        <v>541.5543364989428</v>
       </c>
       <c r="G147" t="n">
-        <v>841.9507195162801</v>
+        <v>580.9161372012317</v>
       </c>
       <c r="H147" t="n">
-        <v>0.19</v>
+        <v>0.67</v>
       </c>
       <c r="I147" t="n">
-        <v>3251.35</v>
+        <v>3346.15</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4916679</v>
+        <v>4904682</v>
       </c>
       <c r="E148" t="n">
-        <v>17372915</v>
+        <v>17330523</v>
       </c>
       <c r="F148" t="n">
-        <v>1501.716814348168</v>
+        <v>1393.403310202451</v>
       </c>
       <c r="G148" t="n">
-        <v>2475.404410464936</v>
+        <v>2340.234736319456</v>
       </c>
       <c r="H148" t="n">
         <v>0.06</v>
       </c>
       <c r="I148" t="n">
-        <v>87290</v>
+        <v>87096</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9306744</v>
+        <v>9267920</v>
       </c>
       <c r="E149" t="n">
-        <v>43137293</v>
+        <v>42957343</v>
       </c>
       <c r="F149" t="n">
-        <v>1738.551323040167</v>
+        <v>1553.665640012319</v>
       </c>
       <c r="G149" t="n">
-        <v>3152.367206897192</v>
+        <v>3224.492061370728</v>
       </c>
       <c r="H149" t="n">
         <v>0.42</v>
       </c>
       <c r="I149" t="n">
-        <v>130899</v>
+        <v>129687</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>48943257</v>
+        <v>49166367</v>
       </c>
       <c r="E150" t="n">
-        <v>283361233</v>
+        <v>284652948</v>
       </c>
       <c r="F150" t="n">
-        <v>95811.76956120202</v>
+        <v>93142.21589441977</v>
       </c>
       <c r="G150" t="n">
-        <v>68964.40188634711</v>
+        <v>66374.92153189937</v>
       </c>
       <c r="H150" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>27443026</v>
+        <v>28125616</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>84902</v>
+        <v>84899</v>
       </c>
       <c r="E151" t="n">
-        <v>84902</v>
+        <v>84899</v>
       </c>
       <c r="F151" t="n">
-        <v>4.085839901892349</v>
+        <v>10.73804713028769</v>
       </c>
       <c r="G151" t="n">
-        <v>4.115524822151186</v>
+        <v>10.81623700822057</v>
       </c>
       <c r="H151" t="n">
         <v>0.92</v>
       </c>
       <c r="I151" t="n">
-        <v>22993</v>
+        <v>22929</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4384636</v>
+        <v>4389843</v>
       </c>
       <c r="F152" t="n">
-        <v>868.1241241152266</v>
+        <v>899.0874761322813</v>
       </c>
       <c r="G152" t="n">
-        <v>302.6537629282329</v>
+        <v>300.0849956458761</v>
       </c>
       <c r="H152" t="n">
         <v>0.29</v>
       </c>
       <c r="I152" t="n">
-        <v>313700</v>
+        <v>312016</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39916316</v>
+        <v>39642899</v>
       </c>
       <c r="E153" t="n">
-        <v>55130116</v>
+        <v>54752488</v>
       </c>
       <c r="F153" t="n">
-        <v>4666.820561187532</v>
+        <v>4487.813600512065</v>
       </c>
       <c r="G153" t="n">
-        <v>15003.52981954348</v>
+        <v>6922.497213003072</v>
       </c>
       <c r="H153" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I153" t="n">
-        <v>332292</v>
+        <v>335597</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2111656</v>
+        <v>2073215</v>
       </c>
       <c r="E154" t="n">
-        <v>8623454</v>
+        <v>8466474</v>
       </c>
       <c r="F154" t="n">
-        <v>561.124496643061</v>
+        <v>458.4105596734766</v>
       </c>
       <c r="G154" t="n">
-        <v>470.0128144098015</v>
+        <v>2428.739165331611</v>
       </c>
       <c r="H154" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="I154" t="n">
-        <v>554822</v>
+        <v>555564</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7397432</v>
+        <v>7522496</v>
       </c>
       <c r="E155" t="n">
-        <v>7452419</v>
+        <v>7578413</v>
       </c>
       <c r="F155" t="n">
-        <v>2487.661927097183</v>
+        <v>471.3691333503255</v>
       </c>
       <c r="G155" t="n">
-        <v>1425.242282587859</v>
+        <v>7281.125459530607</v>
       </c>
       <c r="H155" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I155" t="n">
-        <v>4901908</v>
+        <v>5042778</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>488724</v>
+        <v>474393</v>
       </c>
       <c r="E156" t="n">
-        <v>488724</v>
+        <v>474393</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>34.35</v>
+        <v>19.39</v>
       </c>
       <c r="I156" t="n">
-        <v>9630.620000000001</v>
+        <v>9723.07</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13419628</v>
+        <v>13494251</v>
       </c>
       <c r="E157" t="n">
-        <v>13465297</v>
+        <v>13540173</v>
       </c>
       <c r="F157" t="n">
-        <v>5045.381446651888</v>
+        <v>2455.614956143394</v>
       </c>
       <c r="G157" t="n">
-        <v>3692.115112524625</v>
+        <v>4067.985933962438</v>
       </c>
       <c r="H157" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I157" t="n">
-        <v>5854440</v>
+        <v>5340665</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42672701</v>
+        <v>42694439</v>
       </c>
       <c r="E158" t="n">
-        <v>72448319</v>
+        <v>72485225</v>
       </c>
       <c r="F158" t="n">
-        <v>285.6396775147778</v>
+        <v>311.0350258148724</v>
       </c>
       <c r="G158" t="n">
-        <v>544.1264636648352</v>
+        <v>414.1649782630382</v>
       </c>
       <c r="H158" t="n">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="I158" t="n">
-        <v>1119460</v>
+        <v>1095864</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>22897854</v>
+        <v>22539179</v>
       </c>
       <c r="E159" t="n">
-        <v>68637238</v>
+        <v>67562094</v>
       </c>
       <c r="F159" t="n">
-        <v>14004.3061024906</v>
+        <v>14879.21608323949</v>
       </c>
       <c r="G159" t="n">
-        <v>15272.20821484235</v>
+        <v>13949.34384829859</v>
       </c>
       <c r="H159" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="I159" t="n">
-        <v>3125740</v>
+        <v>3233101</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101556145</v>
+        <v>101165440</v>
       </c>
       <c r="E160" t="n">
-        <v>107963360</v>
+        <v>107548006</v>
       </c>
       <c r="F160" t="n">
-        <v>1307.383187117961</v>
+        <v>508.2592749159566</v>
       </c>
       <c r="G160" t="n">
-        <v>600.9128258064788</v>
+        <v>1131.865513317012</v>
       </c>
       <c r="H160" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="I160" t="n">
-        <v>382935</v>
+        <v>374891</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10385991</v>
+        <v>10396712</v>
       </c>
       <c r="E161" t="n">
-        <v>45158771</v>
+        <v>45170247</v>
       </c>
       <c r="F161" t="n">
-        <v>4113.835731469781</v>
+        <v>4134.522213607647</v>
       </c>
       <c r="G161" t="n">
-        <v>2649.760605441752</v>
+        <v>3624.752193436404</v>
       </c>
       <c r="H161" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="I161" t="n">
-        <v>114306</v>
+        <v>114230</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15621480</v>
+        <v>15685989</v>
       </c>
       <c r="E162" t="n">
-        <v>95749188</v>
+        <v>96144582</v>
       </c>
       <c r="F162" t="n">
-        <v>2004.762140225824</v>
+        <v>751.77550204849</v>
       </c>
       <c r="G162" t="n">
-        <v>1286.063375995997</v>
+        <v>1625.808888840852</v>
       </c>
       <c r="H162" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I162" t="n">
-        <v>10981173</v>
+        <v>10777344</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1504903</v>
+        <v>1503829</v>
       </c>
       <c r="E163" t="n">
-        <v>1547234</v>
+        <v>1546130</v>
       </c>
       <c r="F163" t="n">
-        <v>96.91670911214717</v>
+        <v>73.76589556830115</v>
       </c>
       <c r="G163" t="n">
-        <v>65.69054373646973</v>
+        <v>65.69238263948726</v>
       </c>
       <c r="H163" t="n">
-        <v>1.17</v>
+        <v>0.84</v>
       </c>
       <c r="I163" t="n">
-        <v>150816</v>
+        <v>152817</v>
       </c>
     </row>
     <row r="164">
@@ -6145,16 +6145,16 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>96291</v>
+        <v>96302</v>
       </c>
       <c r="E164" t="n">
-        <v>273155</v>
+        <v>273188</v>
       </c>
       <c r="F164" t="n">
-        <v>4.224278923728682</v>
+        <v>4.224334988353673</v>
       </c>
       <c r="G164" t="n">
-        <v>85.99154300534077</v>
+        <v>85.99268428500011</v>
       </c>
       <c r="H164" t="n">
         <v>0.44</v>
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47367984</v>
+        <v>47353997</v>
       </c>
       <c r="E165" t="n">
-        <v>204056096</v>
+        <v>203995840</v>
       </c>
       <c r="F165" t="n">
-        <v>7145.269076284675</v>
+        <v>4830.844861941415</v>
       </c>
       <c r="G165" t="n">
-        <v>3889.794420475341</v>
+        <v>5563.399076292783</v>
       </c>
       <c r="H165" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I165" t="n">
-        <v>8977109</v>
+        <v>8908586</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7827117</v>
+        <v>7809681</v>
       </c>
       <c r="F166" t="n">
-        <v>66.31437862136261</v>
+        <v>68.32004254725209</v>
       </c>
       <c r="G166" t="n">
-        <v>298.6912145779357</v>
+        <v>300.4267621342985</v>
       </c>
       <c r="H166" t="n">
         <v>0.87</v>
       </c>
       <c r="I166" t="n">
-        <v>6649725</v>
+        <v>6652577</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>673099</v>
+        <v>672020</v>
       </c>
       <c r="E167" t="n">
-        <v>2430252</v>
+        <v>2426355</v>
       </c>
       <c r="F167" t="n">
-        <v>50.05491835463992</v>
+        <v>50.05793719735311</v>
       </c>
       <c r="G167" t="n">
-        <v>10.67448180011541</v>
+        <v>10.67512558463566</v>
       </c>
       <c r="H167" t="n">
         <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>353857</v>
+        <v>343582</v>
       </c>
     </row>
     <row r="168">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1598103</v>
+        <v>1585694</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>4.86</v>
+        <v>4.24</v>
       </c>
       <c r="I168" t="n">
-        <v>84847</v>
+        <v>83742</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13195221</v>
+        <v>13080886</v>
       </c>
       <c r="E169" t="n">
-        <v>13195221</v>
+        <v>13080886</v>
       </c>
       <c r="F169" t="n">
-        <v>48.55623635968551</v>
+        <v>565.3674274349266</v>
       </c>
       <c r="G169" t="n">
-        <v>399.1027390102848</v>
+        <v>150.1002001879096</v>
       </c>
       <c r="H169" t="n">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="I169" t="n">
-        <v>3221368</v>
+        <v>3621634</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1866500</v>
+        <v>1876030</v>
       </c>
       <c r="E170" t="n">
-        <v>6780943</v>
+        <v>6815445</v>
       </c>
       <c r="F170" t="n">
-        <v>263.8819279009235</v>
+        <v>283.627692550448</v>
       </c>
       <c r="G170" t="n">
-        <v>194.6122925923505</v>
+        <v>3380.973730019124</v>
       </c>
       <c r="H170" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I170" t="n">
-        <v>129364</v>
+        <v>130079</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8993462</v>
+        <v>9046306</v>
       </c>
       <c r="E171" t="n">
-        <v>19970319</v>
+        <v>20087634</v>
       </c>
       <c r="F171" t="n">
-        <v>1759.172687541595</v>
+        <v>1376.769018794206</v>
       </c>
       <c r="G171" t="n">
-        <v>1523.762228776962</v>
+        <v>1675.350770031434</v>
       </c>
       <c r="H171" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="I171" t="n">
-        <v>343865</v>
+        <v>346833</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1037491</v>
+        <v>1041051</v>
       </c>
       <c r="E172" t="n">
-        <v>3032406</v>
+        <v>3042810</v>
       </c>
       <c r="F172" t="n">
-        <v>86.72709610321115</v>
+        <v>97.98291101970553</v>
       </c>
       <c r="G172" t="n">
-        <v>687.667708229436</v>
+        <v>662.2892375638916</v>
       </c>
       <c r="H172" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="I172" t="n">
-        <v>19856.59</v>
+        <v>19864.36</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20616362</v>
+        <v>20972436</v>
       </c>
       <c r="E173" t="n">
-        <v>82465446</v>
+        <v>83889744</v>
       </c>
       <c r="F173" t="n">
-        <v>8162.111621728251</v>
+        <v>21833.40569682082</v>
       </c>
       <c r="G173" t="n">
-        <v>7996.517880583353</v>
+        <v>13816.66921863731</v>
       </c>
       <c r="H173" t="n">
-        <v>0.76</v>
+        <v>0.01</v>
       </c>
       <c r="I173" t="n">
-        <v>4802177</v>
+        <v>4339076</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4203411</v>
+        <v>4218575</v>
       </c>
       <c r="E174" t="n">
-        <v>4203411</v>
+        <v>4218575</v>
       </c>
       <c r="F174" t="n">
-        <v>1683.076278510754</v>
+        <v>2099.885836366481</v>
       </c>
       <c r="G174" t="n">
-        <v>1390.695762025403</v>
+        <v>1440.297131601616</v>
       </c>
       <c r="H174" t="n">
-        <v>0.37</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I174" t="n">
-        <v>2688646</v>
+        <v>2682273</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>310386068</v>
+        <v>311365754</v>
       </c>
       <c r="E175" t="n">
-        <v>310386068</v>
+        <v>311365754</v>
       </c>
       <c r="F175" t="n">
-        <v>10414.89141731176</v>
+        <v>10781.3002152605</v>
       </c>
       <c r="G175" t="n">
-        <v>3440.60339389471</v>
+        <v>2984.001283769078</v>
       </c>
       <c r="H175" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I175" t="n">
-        <v>14691275</v>
+        <v>14887409</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12889313</v>
+        <v>12863562</v>
       </c>
       <c r="E176" t="n">
-        <v>40777126</v>
+        <v>40695660</v>
       </c>
       <c r="F176" t="n">
-        <v>3927.340777724936</v>
+        <v>4749.202890382543</v>
       </c>
       <c r="G176" t="n">
-        <v>2521.805436634709</v>
+        <v>2521.248834190258</v>
       </c>
       <c r="H176" t="n">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="I176" t="n">
-        <v>1264959</v>
+        <v>1204380</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>25089</v>
+        <v>24920</v>
       </c>
       <c r="E177" t="n">
-        <v>197319</v>
+        <v>195987</v>
       </c>
       <c r="F177" t="n">
-        <v>613.0850113216129</v>
+        <v>114.8793616047669</v>
       </c>
       <c r="G177" t="n">
-        <v>78.46187811755533</v>
+        <v>282.6965070717632</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="I177" t="n">
-        <v>97105</v>
+        <v>89847</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8128718</v>
+        <v>8287735</v>
       </c>
       <c r="E178" t="n">
-        <v>8128718</v>
+        <v>8287735</v>
       </c>
       <c r="F178" t="n">
-        <v>1717.706632409905</v>
+        <v>1632.412045731628</v>
       </c>
       <c r="G178" t="n">
-        <v>2085.27010521079</v>
+        <v>1796.335485443388</v>
       </c>
       <c r="H178" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="I178" t="n">
-        <v>3548386</v>
+        <v>3602677</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1083431</v>
+        <v>1083718</v>
       </c>
       <c r="E179" t="n">
-        <v>2467621</v>
+        <v>2468275</v>
       </c>
       <c r="F179" t="n">
-        <v>3.916938569649494</v>
+        <v>5.326794117691566</v>
       </c>
       <c r="G179" t="n">
-        <v>4.92388972732993</v>
+        <v>5.395176618223164</v>
       </c>
       <c r="H179" t="n">
         <v>0.45</v>
       </c>
       <c r="I179" t="n">
-        <v>2818.59</v>
+        <v>2818.6</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9117464</v>
+        <v>9137578</v>
       </c>
       <c r="E180" t="n">
-        <v>9117464</v>
+        <v>9137578</v>
       </c>
       <c r="F180" t="n">
-        <v>4418.221723779942</v>
+        <v>4017.509890084953</v>
       </c>
       <c r="G180" t="n">
-        <v>4382.853672701201</v>
+        <v>3975.245170879671</v>
       </c>
       <c r="H180" t="n">
         <v>0.76</v>
       </c>
       <c r="I180" t="n">
-        <v>3143737</v>
+        <v>2964349</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>17916798</v>
+        <v>18033640</v>
       </c>
       <c r="E181" t="n">
-        <v>17916798</v>
+        <v>18033640</v>
       </c>
       <c r="F181" t="n">
-        <v>2741.031031577467</v>
+        <v>3263.869188731236</v>
       </c>
       <c r="G181" t="n">
-        <v>3280.55272740643</v>
+        <v>3734.183117016692</v>
       </c>
       <c r="H181" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="I181" t="n">
-        <v>3662782</v>
+        <v>3679404</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31847792</v>
+        <v>31829944</v>
       </c>
       <c r="E182" t="n">
-        <v>88215224</v>
+        <v>88165786</v>
       </c>
       <c r="F182" t="n">
-        <v>4130.951475170246</v>
+        <v>5243.10609638273</v>
       </c>
       <c r="G182" t="n">
-        <v>4446.924924569991</v>
+        <v>6309.664852051157</v>
       </c>
       <c r="H182" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I182" t="n">
-        <v>12106644</v>
+        <v>12051086</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>38196868</v>
+        <v>38347754</v>
       </c>
       <c r="E183" t="n">
-        <v>96314164</v>
+        <v>96694626</v>
       </c>
       <c r="F183" t="n">
-        <v>12167.43908292218</v>
+        <v>20146.56628362019</v>
       </c>
       <c r="G183" t="n">
-        <v>7738.54377384053</v>
+        <v>7094.472681737005</v>
       </c>
       <c r="H183" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="I183" t="n">
-        <v>3449406</v>
+        <v>3409109</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>308432528</v>
+        <v>308155264</v>
       </c>
       <c r="E184" t="n">
-        <v>313251099</v>
+        <v>312968362</v>
       </c>
       <c r="F184" t="n">
-        <v>19666.63898385445</v>
+        <v>15889.06032137712</v>
       </c>
       <c r="G184" t="n">
-        <v>31435.10238133873</v>
+        <v>14689.69828915138</v>
       </c>
       <c r="H184" t="n">
         <v>0.01</v>
       </c>
       <c r="I184" t="n">
-        <v>13325477</v>
+        <v>14167906</v>
       </c>
     </row>
     <row r="185">
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>408196</v>
+        <v>407373</v>
       </c>
       <c r="F185" t="n">
         <v>433.4379787369157</v>
@@ -6895,7 +6895,7 @@
         <v>2.91</v>
       </c>
       <c r="I185" t="n">
-        <v>66884</v>
+        <v>67243</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28188113</v>
+        <v>28168884</v>
       </c>
       <c r="E186" t="n">
-        <v>66967947</v>
+        <v>66922265</v>
       </c>
       <c r="F186" t="n">
-        <v>10268.2193453432</v>
+        <v>11140.43540695633</v>
       </c>
       <c r="G186" t="n">
-        <v>6988.984678364891</v>
+        <v>6902.802444395205</v>
       </c>
       <c r="H186" t="n">
         <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>496860</v>
+        <v>458288</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>20026140</v>
+        <v>20032196</v>
       </c>
       <c r="F187" t="n">
-        <v>3.870845386799009</v>
+        <v>3.870968660868836</v>
       </c>
       <c r="G187" t="n">
-        <v>2634.773347878463</v>
+        <v>2635.375358092092</v>
       </c>
       <c r="H187" t="n">
         <v>0.58</v>
       </c>
       <c r="I187" t="n">
-        <v>1905.38</v>
+        <v>1906.31</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12770817</v>
+        <v>12756084</v>
       </c>
       <c r="E188" t="n">
-        <v>19440063</v>
+        <v>19417636</v>
       </c>
       <c r="F188" t="n">
-        <v>3199.63126473604</v>
+        <v>3559.191296464523</v>
       </c>
       <c r="G188" t="n">
-        <v>2467.318093631719</v>
+        <v>2485.636779190908</v>
       </c>
       <c r="H188" t="n">
         <v>0.73</v>
       </c>
       <c r="I188" t="n">
-        <v>777667</v>
+        <v>770024</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>87017085</v>
+        <v>85796232</v>
       </c>
       <c r="E189" t="n">
-        <v>87017085</v>
+        <v>85796232</v>
       </c>
       <c r="F189" t="n">
-        <v>9410.889843820778</v>
+        <v>6494.759562685724</v>
       </c>
       <c r="G189" t="n">
-        <v>11715.20108118199</v>
+        <v>10080.76565700856</v>
       </c>
       <c r="H189" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="I189" t="n">
-        <v>5367570</v>
+        <v>5300221</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>315800725</v>
+        <v>314578029</v>
       </c>
       <c r="E190" t="n">
-        <v>315800725</v>
+        <v>314578029</v>
       </c>
       <c r="F190" t="n">
-        <v>243205.1807023964</v>
+        <v>216249.3286071025</v>
       </c>
       <c r="G190" t="n">
-        <v>271089.8184174846</v>
+        <v>306882.0644074882</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>51315400</v>
+        <v>51654675</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10262947</v>
+        <v>10408665</v>
       </c>
       <c r="E191" t="n">
-        <v>29138217</v>
+        <v>29551935</v>
       </c>
       <c r="F191" t="n">
-        <v>787.1268800027167</v>
+        <v>3164.547333796612</v>
       </c>
       <c r="G191" t="n">
-        <v>7743.157480987599</v>
+        <v>3062.545425001543</v>
       </c>
       <c r="H191" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="I191" t="n">
-        <v>121079</v>
+        <v>122260</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4168215</v>
+        <v>4289533</v>
       </c>
       <c r="E192" t="n">
-        <v>28481121</v>
+        <v>29310077</v>
       </c>
       <c r="F192" t="n">
-        <v>4539.973114888979</v>
+        <v>4666.063676217319</v>
       </c>
       <c r="G192" t="n">
-        <v>4719.98599975958</v>
+        <v>2963.77785977246</v>
       </c>
       <c r="H192" t="n">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="I192" t="n">
-        <v>2620084</v>
+        <v>2642814</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2816438</v>
+        <v>2848153</v>
       </c>
       <c r="E193" t="n">
-        <v>4175926</v>
+        <v>4222479</v>
       </c>
       <c r="F193" t="n">
-        <v>398.797401517631</v>
+        <v>591.7735604422169</v>
       </c>
       <c r="G193" t="n">
-        <v>260.7910073358248</v>
+        <v>436.3643496989278</v>
       </c>
       <c r="H193" t="n">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I193" t="n">
-        <v>209695</v>
+        <v>210465</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>90346209</v>
+        <v>90640805</v>
       </c>
       <c r="E194" t="n">
-        <v>520613826</v>
+        <v>522311416</v>
       </c>
       <c r="F194" t="n">
-        <v>573223.9056043888</v>
+        <v>523659.2016204321</v>
       </c>
       <c r="G194" t="n">
-        <v>510028.8807812388</v>
+        <v>444714.1015353578</v>
       </c>
       <c r="H194" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I194" t="n">
-        <v>16652751</v>
+        <v>16570422</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>729072</v>
+        <v>729661</v>
       </c>
       <c r="E195" t="n">
-        <v>795120</v>
+        <v>795763</v>
       </c>
       <c r="F195" t="n">
-        <v>5.424953183575057</v>
+        <v>5.425286537641544</v>
       </c>
       <c r="G195" t="n">
-        <v>5.407181312917367</v>
+        <v>5.40751357493289</v>
       </c>
       <c r="H195" t="n">
         <v>0.66</v>
       </c>
       <c r="I195" t="n">
-        <v>130352</v>
+        <v>129437</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>108513270</v>
+        <v>108376861</v>
       </c>
       <c r="E196" t="n">
-        <v>266985041</v>
+        <v>266649420</v>
       </c>
       <c r="F196" t="n">
-        <v>43612.00310977241</v>
+        <v>40052.96612434104</v>
       </c>
       <c r="G196" t="n">
-        <v>42406.68926193509</v>
+        <v>58791.60847205936</v>
       </c>
       <c r="H196" t="n">
         <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2285796</v>
+        <v>2275353</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18674987</v>
+        <v>18586070</v>
       </c>
       <c r="E197" t="n">
-        <v>18674987</v>
+        <v>18586070</v>
       </c>
       <c r="F197" t="n">
-        <v>14.61171507811752</v>
+        <v>5.508694964979521</v>
       </c>
       <c r="G197" t="n">
-        <v>4.050147882932338</v>
+        <v>4.016724395627913</v>
       </c>
       <c r="H197" t="n">
-        <v>0.31</v>
+        <v>0.8</v>
       </c>
       <c r="I197" t="n">
-        <v>117540</v>
+        <v>124439</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1339104</v>
+        <v>1340188</v>
       </c>
       <c r="F198" t="n">
-        <v>412.9175749615242</v>
+        <v>412.9599801373765</v>
       </c>
       <c r="G198" t="n">
-        <v>5.283134657485213</v>
+        <v>5.283453286564789</v>
       </c>
       <c r="H198" t="n">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="I198" t="n">
-        <v>31938</v>
+        <v>30146</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>146235</v>
+        <v>145695</v>
       </c>
       <c r="E199" t="n">
-        <v>318352</v>
+        <v>317176</v>
       </c>
       <c r="F199" t="n">
-        <v>5.411949902263379</v>
+        <v>5.383830938908711</v>
       </c>
       <c r="G199" t="n">
-        <v>15.43460103605004</v>
+        <v>3.642263594149868</v>
       </c>
       <c r="H199" t="n">
-        <v>1.06</v>
+        <v>0.61</v>
       </c>
       <c r="I199" t="n">
-        <v>191.2</v>
+        <v>54073</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2835930</v>
+        <v>2811000</v>
       </c>
       <c r="F200" t="n">
-        <v>173.907465481805</v>
+        <v>498.9113900579912</v>
       </c>
       <c r="G200" t="n">
-        <v>112.4552191846262</v>
+        <v>702.2264203067172</v>
       </c>
       <c r="H200" t="n">
-        <v>2.8</v>
+        <v>1.42</v>
       </c>
       <c r="I200" t="n">
-        <v>420465</v>
+        <v>423534</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>184034</v>
+        <v>184029</v>
       </c>
       <c r="E201" t="n">
-        <v>1421115</v>
+        <v>1421071</v>
       </c>
       <c r="F201" t="n">
-        <v>20.71745611910812</v>
+        <v>20.82779780268874</v>
       </c>
       <c r="G201" t="n">
-        <v>10.37970047965613</v>
+        <v>10.32982780223141</v>
       </c>
       <c r="H201" t="n">
         <v>0.57</v>
       </c>
       <c r="I201" t="n">
-        <v>123781</v>
+        <v>108370</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30458962</v>
+        <v>30936291</v>
       </c>
       <c r="E202" t="n">
-        <v>136377267</v>
+        <v>138514466</v>
       </c>
       <c r="F202" t="n">
-        <v>7613.654194182404</v>
+        <v>7967.05028572505</v>
       </c>
       <c r="G202" t="n">
-        <v>12027.89049429245</v>
+        <v>12103.68948749832</v>
       </c>
       <c r="H202" t="n">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="I202" t="n">
-        <v>8463632</v>
+        <v>8803843</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13046766</v>
+        <v>13022616</v>
       </c>
       <c r="E203" t="n">
-        <v>26082140</v>
+        <v>26033861</v>
       </c>
       <c r="F203" t="n">
-        <v>705.0751709811009</v>
+        <v>681.1089266596438</v>
       </c>
       <c r="G203" t="n">
-        <v>716.3290933843379</v>
+        <v>716.6006817644763</v>
       </c>
       <c r="H203" t="n">
         <v>0.15</v>
       </c>
       <c r="I203" t="n">
-        <v>34195</v>
+        <v>33737</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1485700</v>
+        <v>1463324</v>
       </c>
       <c r="F204" t="n">
-        <v>303.7037578967451</v>
+        <v>188.7077469153003</v>
       </c>
       <c r="G204" t="n">
-        <v>143.0923455013566</v>
+        <v>17.96393304573192</v>
       </c>
       <c r="H204" t="n">
-        <v>2.34</v>
+        <v>2.47</v>
       </c>
       <c r="I204" t="n">
-        <v>25033</v>
+        <v>54530</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>978916</v>
+        <v>980772</v>
       </c>
       <c r="E205" t="n">
-        <v>4527627</v>
+        <v>4536210</v>
       </c>
       <c r="F205" t="n">
-        <v>4786.700849952847</v>
+        <v>3510.071393019891</v>
       </c>
       <c r="G205" t="n">
-        <v>3477.285906235059</v>
+        <v>2907.446733258349</v>
       </c>
       <c r="H205" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I205" t="n">
-        <v>411856</v>
+        <v>498234</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3078327</v>
+        <v>3082009</v>
       </c>
       <c r="E206" t="n">
-        <v>3078327</v>
+        <v>3082009</v>
       </c>
       <c r="F206" t="n">
-        <v>600.4340670680991</v>
+        <v>703.3935043123429</v>
       </c>
       <c r="G206" t="n">
-        <v>1280.083605614001</v>
+        <v>1271.569222028342</v>
       </c>
       <c r="H206" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I206" t="n">
-        <v>432325</v>
+        <v>424766</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>560015</v>
+        <v>560690</v>
       </c>
       <c r="E207" t="n">
-        <v>560015</v>
+        <v>560690</v>
       </c>
       <c r="F207" t="n">
-        <v>5.436757846129</v>
+        <v>5.240110391484641</v>
       </c>
       <c r="G207" t="n">
-        <v>624.6560845791558</v>
+        <v>63.57164962036077</v>
       </c>
       <c r="H207" t="n">
         <v>0.71</v>
       </c>
       <c r="I207" t="n">
-        <v>44351</v>
+        <v>38017</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14551106</v>
+        <v>15271470</v>
       </c>
       <c r="E208" t="n">
-        <v>18525881</v>
+        <v>19443019</v>
       </c>
       <c r="F208" t="n">
-        <v>332.9288340639247</v>
+        <v>152.8241989670016</v>
       </c>
       <c r="G208" t="n">
-        <v>249.3230015176756</v>
+        <v>141.2182727711603</v>
       </c>
       <c r="H208" t="n">
         <v>0.28</v>
       </c>
       <c r="I208" t="n">
-        <v>854132</v>
+        <v>911211</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1815493</v>
+        <v>1816244</v>
       </c>
       <c r="E209" t="n">
-        <v>1815493</v>
+        <v>1816244</v>
       </c>
       <c r="F209" t="n">
-        <v>28.99394723939915</v>
+        <v>29.0294607648915</v>
       </c>
       <c r="G209" t="n">
-        <v>26.98443647265814</v>
+        <v>26.93659994389296</v>
       </c>
       <c r="H209" t="n">
         <v>0.38</v>
       </c>
       <c r="I209" t="n">
-        <v>4294.42</v>
+        <v>4302.94</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5993092</v>
+        <v>5996109</v>
       </c>
       <c r="E210" t="n">
-        <v>15728885</v>
+        <v>15736803</v>
       </c>
       <c r="F210" t="n">
-        <v>765.3592799210335</v>
+        <v>847.2627633483945</v>
       </c>
       <c r="G210" t="n">
-        <v>781.6263298527717</v>
+        <v>232.6545451679566</v>
       </c>
       <c r="H210" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="I210" t="n">
-        <v>21494</v>
+        <v>21340</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29706859</v>
+        <v>29748504</v>
       </c>
       <c r="F211" t="n">
-        <v>747.5518010316237</v>
+        <v>1020.410945519644</v>
       </c>
       <c r="G211" t="n">
-        <v>339.7941823369593</v>
+        <v>1720.978876586928</v>
       </c>
       <c r="H211" t="n">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="I211" t="n">
-        <v>370903</v>
+        <v>371985</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17764000</v>
+        <v>17860034</v>
       </c>
       <c r="E212" t="n">
-        <v>17764000</v>
+        <v>17860034</v>
       </c>
       <c r="F212" t="n">
-        <v>24686.99539569376</v>
+        <v>26210.17026090913</v>
       </c>
       <c r="G212" t="n">
-        <v>35353.45398496834</v>
+        <v>33219.54915182001</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2926736</v>
+        <v>2904758</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>49347822</v>
+        <v>49854857</v>
       </c>
       <c r="E213" t="n">
-        <v>320007494</v>
+        <v>323295478</v>
       </c>
       <c r="F213" t="n">
-        <v>79190.54180080956</v>
+        <v>118876.5925876981</v>
       </c>
       <c r="G213" t="n">
-        <v>160671.9421503411</v>
+        <v>179674.0134333943</v>
       </c>
       <c r="H213" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I213" t="n">
-        <v>16622626</v>
+        <v>16847513</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9105269</v>
+        <v>9117545</v>
       </c>
       <c r="F214" t="n">
-        <v>139.5848868724684</v>
+        <v>139.5934641663853</v>
       </c>
       <c r="G214" t="n">
-        <v>5.138466786688644</v>
+        <v>5.138782538206586</v>
       </c>
       <c r="H214" t="n">
         <v>0.22</v>
       </c>
       <c r="I214" t="n">
-        <v>304116</v>
+        <v>304745</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7014897</v>
+        <v>7059165</v>
       </c>
       <c r="E215" t="n">
-        <v>7024881</v>
+        <v>7069185</v>
       </c>
       <c r="F215" t="n">
-        <v>46.69537185812899</v>
+        <v>71.38325514401005</v>
       </c>
       <c r="G215" t="n">
-        <v>1901.273063361032</v>
+        <v>1939.458212009739</v>
       </c>
       <c r="H215" t="n">
-        <v>0.67</v>
+        <v>0.26</v>
       </c>
       <c r="I215" t="n">
-        <v>758442</v>
+        <v>764813</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4781108</v>
+        <v>4789695</v>
       </c>
       <c r="F216" t="n">
-        <v>1128.329607464485</v>
+        <v>1144.474188640384</v>
       </c>
       <c r="G216" t="n">
-        <v>304.920915087204</v>
+        <v>352.0152683918051</v>
       </c>
       <c r="H216" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="I216" t="n">
-        <v>183028</v>
+        <v>200711</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2508589</v>
+        <v>2490096</v>
       </c>
       <c r="E217" t="n">
-        <v>4544782</v>
+        <v>4511278</v>
       </c>
       <c r="F217" t="n">
-        <v>1188.505314505167</v>
+        <v>222.8296994771764</v>
       </c>
       <c r="G217" t="n">
-        <v>151.4675351809869</v>
+        <v>97.26465163459741</v>
       </c>
       <c r="H217" t="n">
-        <v>0.49</v>
+        <v>2.15</v>
       </c>
       <c r="I217" t="n">
-        <v>128860</v>
+        <v>134536</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125301070</v>
+        <v>125371236</v>
       </c>
       <c r="E218" t="n">
-        <v>2075088342</v>
+        <v>2076250343</v>
       </c>
       <c r="F218" t="n">
-        <v>6899.556654107995</v>
+        <v>7520.170613176869</v>
       </c>
       <c r="G218" t="n">
-        <v>12474.71516415077</v>
+        <v>2824.815737832967</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>4847594</v>
+        <v>4913185</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>94729879</v>
+        <v>95618550</v>
       </c>
       <c r="E219" t="n">
-        <v>95749582</v>
+        <v>96647820</v>
       </c>
       <c r="F219" t="n">
-        <v>5269.828400570838</v>
+        <v>8574.038674053128</v>
       </c>
       <c r="G219" t="n">
-        <v>6063.882365652714</v>
+        <v>22304.98137947549</v>
       </c>
       <c r="H219" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I219" t="n">
-        <v>33976562</v>
+        <v>35300341</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>237032016</v>
+        <v>238961608</v>
       </c>
       <c r="E220" t="n">
-        <v>237032016</v>
+        <v>238961608</v>
       </c>
       <c r="F220" t="n">
-        <v>94932.66899795161</v>
+        <v>72563.73094742435</v>
       </c>
       <c r="G220" t="n">
-        <v>113839.8200372497</v>
+        <v>104220.3464937652</v>
       </c>
       <c r="H220" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I220" t="n">
-        <v>44847252</v>
+        <v>45480118</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24487208</v>
+        <v>24592810</v>
       </c>
       <c r="E221" t="n">
-        <v>146511890</v>
+        <v>147143725</v>
       </c>
       <c r="F221" t="n">
-        <v>130767.9893008709</v>
+        <v>67206.16703664877</v>
       </c>
       <c r="G221" t="n">
-        <v>80497.30695944338</v>
+        <v>81443.57112760757</v>
       </c>
       <c r="H221" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>12016176</v>
+        <v>12052307</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1084209</v>
+        <v>1059703</v>
       </c>
       <c r="F222" t="n">
-        <v>157.3561332407048</v>
+        <v>139.7231050137443</v>
       </c>
       <c r="G222" t="n">
-        <v>1.765398173887764</v>
+        <v>383.3250646996768</v>
       </c>
       <c r="H222" t="n">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="I222" t="n">
-        <v>73643</v>
+        <v>70941</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2251025</v>
+        <v>2249477</v>
       </c>
       <c r="F223" t="n">
-        <v>136.4408974615153</v>
+        <v>139.4242207045444</v>
       </c>
       <c r="G223" t="n">
-        <v>919.6608858170013</v>
+        <v>884.2343219363887</v>
       </c>
       <c r="H223" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I223" t="n">
-        <v>174507</v>
+        <v>175562</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13589153</v>
+        <v>13586806</v>
       </c>
       <c r="E224" t="n">
-        <v>41700344</v>
+        <v>41693139</v>
       </c>
       <c r="F224" t="n">
-        <v>1834.701142692567</v>
+        <v>859.1455493204688</v>
       </c>
       <c r="G224" t="n">
-        <v>1844.410454296049</v>
+        <v>2850.096618632329</v>
       </c>
       <c r="H224" t="n">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
       <c r="I224" t="n">
-        <v>2577666</v>
+        <v>2603452</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>55239739</v>
+        <v>55251748</v>
       </c>
       <c r="E225" t="n">
-        <v>95411038</v>
+        <v>95431780</v>
       </c>
       <c r="F225" t="n">
-        <v>7681.60938337536</v>
+        <v>7495.646491114981</v>
       </c>
       <c r="G225" t="n">
-        <v>6828.592542424742</v>
+        <v>6072.745391819544</v>
       </c>
       <c r="H225" t="n">
         <v>0.18</v>
       </c>
       <c r="I225" t="n">
-        <v>2378940</v>
+        <v>2305219</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4185433</v>
+        <v>4197787</v>
       </c>
       <c r="E226" t="n">
-        <v>4185433</v>
+        <v>4197787</v>
       </c>
       <c r="F226" t="n">
-        <v>65.84750368595506</v>
+        <v>3.989901812441869</v>
       </c>
       <c r="G226" t="n">
-        <v>86.24849264227883</v>
+        <v>14.92712323661271</v>
       </c>
       <c r="H226" t="n">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="I226" t="n">
-        <v>1594594</v>
+        <v>1621850</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>212090</v>
+        <v>212051</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>51501</v>
+        <v>51109</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6656603</v>
+        <v>6720419</v>
       </c>
       <c r="E228" t="n">
-        <v>34246202</v>
+        <v>34574512</v>
       </c>
       <c r="F228" t="n">
-        <v>257.8126810568132</v>
+        <v>149.9454121402246</v>
       </c>
       <c r="G228" t="n">
-        <v>119.5360760468475</v>
+        <v>112.9067940873894</v>
       </c>
       <c r="H228" t="n">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="I228" t="n">
-        <v>921876</v>
+        <v>920168</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>176456759</v>
+        <v>177900624</v>
       </c>
       <c r="E230" t="n">
-        <v>206153596</v>
+        <v>207840457</v>
       </c>
       <c r="F230" t="n">
-        <v>12889.38139228258</v>
+        <v>20233.24052794548</v>
       </c>
       <c r="G230" t="n">
-        <v>62538.02104032984</v>
+        <v>42876.69600497732</v>
       </c>
       <c r="H230" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I230" t="n">
-        <v>3981062</v>
+        <v>4255144</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>302358</v>
+        <v>298696</v>
       </c>
       <c r="F231" t="n">
-        <v>456.9178624601803</v>
+        <v>19.86125979872111</v>
       </c>
       <c r="G231" t="n">
-        <v>74.41246512107732</v>
+        <v>79.25028527681296</v>
       </c>
       <c r="H231" t="n">
-        <v>0.13</v>
+        <v>0.78</v>
       </c>
       <c r="I231" t="n">
-        <v>318505</v>
+        <v>216702</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29179402</v>
+        <v>29146599</v>
       </c>
       <c r="E232" t="n">
-        <v>40010062</v>
+        <v>39965083</v>
       </c>
       <c r="F232" t="n">
-        <v>6496.086688376994</v>
+        <v>5719.760460035731</v>
       </c>
       <c r="G232" t="n">
-        <v>6875.519009640938</v>
+        <v>5708.792920679848</v>
       </c>
       <c r="H232" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="I232" t="n">
-        <v>209900</v>
+        <v>209709</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1730964</v>
+        <v>1775261</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1606440</v>
+        <v>1545247</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7997370</v>
+        <v>7995060</v>
       </c>
       <c r="F234" t="n">
-        <v>469.8944464531018</v>
+        <v>467.0098507982842</v>
       </c>
       <c r="G234" t="n">
-        <v>3248.759618962051</v>
+        <v>3295.035668739639</v>
       </c>
       <c r="H234" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>668003</v>
+        <v>660306</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>22984729</v>
+        <v>23038088</v>
       </c>
       <c r="E235" t="n">
-        <v>22984729</v>
+        <v>23038088</v>
       </c>
       <c r="F235" t="n">
-        <v>16638.89002603612</v>
+        <v>15230.87561288895</v>
       </c>
       <c r="G235" t="n">
-        <v>5494.183246486466</v>
+        <v>7098.602314397604</v>
       </c>
       <c r="H235" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="I235" t="n">
-        <v>2081076</v>
+        <v>2110408</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3364362</v>
+        <v>3396418</v>
       </c>
       <c r="E236" t="n">
-        <v>4506775</v>
+        <v>4549717</v>
       </c>
       <c r="F236" t="n">
-        <v>498.5041042958972</v>
+        <v>544.6373443154622</v>
       </c>
       <c r="G236" t="n">
-        <v>407.0191722717161</v>
+        <v>247.0531679791287</v>
       </c>
       <c r="H236" t="n">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="I236" t="n">
-        <v>149750</v>
+        <v>150661</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>35151227</v>
+        <v>35120573</v>
       </c>
       <c r="E237" t="n">
-        <v>175420826</v>
+        <v>175267851</v>
       </c>
       <c r="F237" t="n">
-        <v>96271.19831912628</v>
+        <v>101729.7804897014</v>
       </c>
       <c r="G237" t="n">
-        <v>95676.0013366958</v>
+        <v>75065.76479246945</v>
       </c>
       <c r="H237" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I237" t="n">
-        <v>10342511</v>
+        <v>10398341</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26412671</v>
+        <v>26398582</v>
       </c>
       <c r="E238" t="n">
-        <v>59543829</v>
+        <v>59512066</v>
       </c>
       <c r="F238" t="n">
-        <v>244.7866624498367</v>
+        <v>267.1383311177281</v>
       </c>
       <c r="G238" t="n">
-        <v>68.55867998764337</v>
+        <v>150.8495072865796</v>
       </c>
       <c r="H238" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I238" t="n">
-        <v>396143</v>
+        <v>395839</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1982902</v>
+        <v>1979089</v>
       </c>
       <c r="E239" t="n">
-        <v>1982902</v>
+        <v>1979089</v>
       </c>
       <c r="F239" t="n">
-        <v>155.8976306295789</v>
+        <v>155.8980774159884</v>
       </c>
       <c r="G239" t="n">
-        <v>153.4121303387348</v>
+        <v>153.457135623864</v>
       </c>
       <c r="H239" t="n">
         <v>0.42</v>
       </c>
       <c r="I239" t="n">
-        <v>13481.95</v>
+        <v>9990.049999999999</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>72116572</v>
+        <v>72307865</v>
       </c>
       <c r="F240" t="n">
-        <v>4.069391461620271</v>
+        <v>4.069529781158435</v>
       </c>
       <c r="G240" t="n">
-        <v>3.928752705091594</v>
+        <v>3.928886244286546</v>
       </c>
       <c r="H240" t="n">
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>62806</v>
+        <v>62848</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>904361</v>
+        <v>910384</v>
       </c>
       <c r="E241" t="n">
-        <v>904361</v>
+        <v>910384</v>
       </c>
       <c r="F241" t="n">
-        <v>3.954542963182935</v>
+        <v>5.358461394328828</v>
       </c>
       <c r="G241" t="n">
-        <v>34.41669451805441</v>
+        <v>35.39140312984256</v>
       </c>
       <c r="H241" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I241" t="n">
-        <v>15015.44</v>
+        <v>12368.47</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>119110</v>
+        <v>116280</v>
       </c>
       <c r="E242" t="n">
-        <v>119110</v>
+        <v>116280</v>
       </c>
       <c r="F242" t="n">
-        <v>89.02492787322991</v>
+        <v>43.50949574227087</v>
       </c>
       <c r="G242" t="n">
-        <v>4.508423431554808</v>
+        <v>4.591416701478746</v>
       </c>
       <c r="H242" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I242" t="n">
-        <v>39795</v>
+        <v>38730</v>
       </c>
     </row>
     <row r="243">
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3497386</v>
+        <v>3492598</v>
       </c>
       <c r="E243" t="n">
-        <v>5024179</v>
+        <v>5017301</v>
       </c>
       <c r="F243" t="n">
         <v>346.7894023235513</v>
@@ -8917,7 +8917,7 @@
         <v>2.19</v>
       </c>
       <c r="I243" t="n">
-        <v>154191</v>
+        <v>152053</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>317327525</v>
+        <v>316251386</v>
       </c>
       <c r="E244" t="n">
-        <v>587128287</v>
+        <v>585137184</v>
       </c>
       <c r="F244" t="n">
-        <v>19183.0057289444</v>
+        <v>17287.3357736215</v>
       </c>
       <c r="G244" t="n">
-        <v>16432.86496670222</v>
+        <v>17722.22333498543</v>
       </c>
       <c r="H244" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I244" t="n">
-        <v>13356414</v>
+        <v>13470669</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>72147764</v>
+        <v>72197109</v>
       </c>
       <c r="E245" t="n">
-        <v>688281165</v>
+        <v>688741196</v>
       </c>
       <c r="F245" t="n">
-        <v>52016.19594176193</v>
+        <v>57427.44885957685</v>
       </c>
       <c r="G245" t="n">
-        <v>75170.41722372214</v>
+        <v>59016.70322448947</v>
       </c>
       <c r="H245" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>21690680</v>
+        <v>21802361</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81051</v>
+        <v>81434</v>
       </c>
       <c r="E246" t="n">
-        <v>673795</v>
+        <v>676974</v>
       </c>
       <c r="F246" t="n">
-        <v>4.01517279047653</v>
+        <v>3.931643849829937</v>
       </c>
       <c r="G246" t="n">
-        <v>4.228828143006472</v>
+        <v>5.682545737091553</v>
       </c>
       <c r="H246" t="n">
-        <v>0.58</v>
+        <v>0.73</v>
       </c>
       <c r="I246" t="n">
-        <v>174.04</v>
+        <v>176.2</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1889691</v>
+        <v>1892008</v>
       </c>
       <c r="E247" t="n">
-        <v>5396714</v>
+        <v>5403333</v>
       </c>
       <c r="F247" t="n">
-        <v>268.1421818941454</v>
+        <v>340.8079950172189</v>
       </c>
       <c r="G247" t="n">
-        <v>256.1631965622257</v>
+        <v>222.4383103649093</v>
       </c>
       <c r="H247" t="n">
         <v>0.27</v>
       </c>
       <c r="I247" t="n">
-        <v>68006</v>
+        <v>66927</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37887217</v>
+        <v>37886260</v>
       </c>
       <c r="E248" t="n">
-        <v>49535082</v>
+        <v>49533819</v>
       </c>
       <c r="F248" t="n">
-        <v>13.8562561692899</v>
+        <v>421.2080647729551</v>
       </c>
       <c r="G248" t="n">
-        <v>3625.202014143426</v>
+        <v>3828.731775594922</v>
       </c>
       <c r="H248" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="I248" t="n">
-        <v>259691</v>
+        <v>282917</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>10875960</v>
+        <v>11452048</v>
       </c>
       <c r="E249" t="n">
-        <v>32269693</v>
+        <v>33978984</v>
       </c>
       <c r="F249" t="n">
-        <v>602.8831026304135</v>
+        <v>666.1367128627137</v>
       </c>
       <c r="G249" t="n">
-        <v>2409.894934978845</v>
+        <v>1964.479910992603</v>
       </c>
       <c r="H249" t="n">
-        <v>0.84</v>
+        <v>2.11</v>
       </c>
       <c r="I249" t="n">
-        <v>6615973</v>
+        <v>6923895</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1984573</v>
+        <v>1984290</v>
       </c>
       <c r="E250" t="n">
-        <v>5757885</v>
+        <v>5757065</v>
       </c>
       <c r="F250" t="n">
-        <v>58.44502313350794</v>
+        <v>163.1062666497754</v>
       </c>
       <c r="G250" t="n">
-        <v>200.4445152099857</v>
+        <v>138.5126128584609</v>
       </c>
       <c r="H250" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I250" t="n">
-        <v>45839</v>
+        <v>48769</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7389724</v>
+        <v>7399983</v>
       </c>
       <c r="E251" t="n">
-        <v>7389735</v>
+        <v>7399994</v>
       </c>
       <c r="F251" t="n">
-        <v>1549.370969545083</v>
+        <v>1760.849305491791</v>
       </c>
       <c r="G251" t="n">
-        <v>651.9174278702089</v>
+        <v>1683.52422186769</v>
       </c>
       <c r="H251" t="n">
-        <v>1.68</v>
+        <v>0.96</v>
       </c>
       <c r="I251" t="n">
-        <v>320544</v>
+        <v>321890</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6280868</v>
+        <v>6227103</v>
       </c>
       <c r="E252" t="n">
-        <v>6280868</v>
+        <v>6227103</v>
       </c>
       <c r="F252" t="n">
-        <v>460.5281707150162</v>
+        <v>467.2693708346101</v>
       </c>
       <c r="G252" t="n">
-        <v>1301.55217274225</v>
+        <v>1572.483248940692</v>
       </c>
       <c r="H252" t="n">
         <v>0.32</v>
       </c>
       <c r="I252" t="n">
-        <v>464210</v>
+        <v>480754</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6220943</v>
+        <v>6223089</v>
       </c>
       <c r="E253" t="n">
-        <v>22722698</v>
+        <v>22730535</v>
       </c>
       <c r="F253" t="n">
-        <v>566.0383599293638</v>
+        <v>516.0623394550905</v>
       </c>
       <c r="G253" t="n">
-        <v>284.2997464289783</v>
+        <v>348.9546830039209</v>
       </c>
       <c r="H253" t="n">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="I253" t="n">
-        <v>508583</v>
+        <v>502389</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2138318</v>
+        <v>2113513</v>
       </c>
       <c r="E254" t="n">
-        <v>18861384</v>
+        <v>18642586</v>
       </c>
       <c r="F254" t="n">
-        <v>289.3269758680302</v>
+        <v>208.5506642615738</v>
       </c>
       <c r="G254" t="n">
-        <v>125.7658045521247</v>
+        <v>1549.751205037574</v>
       </c>
       <c r="H254" t="n">
-        <v>2.59</v>
+        <v>2.3</v>
       </c>
       <c r="I254" t="n">
-        <v>74427</v>
+        <v>74590</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14543698</v>
+        <v>14537539</v>
       </c>
       <c r="E255" t="n">
-        <v>29442830</v>
+        <v>29430359</v>
       </c>
       <c r="F255" t="n">
-        <v>95.79735214306055</v>
+        <v>95.9087299335136</v>
       </c>
       <c r="G255" t="n">
-        <v>160.7650715360687</v>
+        <v>280.6110925410371</v>
       </c>
       <c r="H255" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="I255" t="n">
-        <v>554639</v>
+        <v>570748</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44621228</v>
+        <v>44785505</v>
       </c>
       <c r="E256" t="n">
-        <v>44621228</v>
+        <v>44785505</v>
       </c>
       <c r="F256" t="n">
-        <v>7351.501907491695</v>
+        <v>7456.02825239775</v>
       </c>
       <c r="G256" t="n">
-        <v>3989.30825395491</v>
+        <v>3460.384051239432</v>
       </c>
       <c r="H256" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I256" t="n">
-        <v>7600907</v>
+        <v>8635833</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8432127</v>
+        <v>8432218</v>
       </c>
       <c r="E257" t="n">
-        <v>12013849</v>
+        <v>12013978</v>
       </c>
       <c r="F257" t="n">
-        <v>123.6252596023843</v>
+        <v>87.55412951651995</v>
       </c>
       <c r="G257" t="n">
-        <v>155.8506809454504</v>
+        <v>776.6626283311622</v>
       </c>
       <c r="H257" t="n">
         <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>435674</v>
+        <v>432070</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>150013326</v>
+        <v>149998297</v>
       </c>
       <c r="F258" t="n">
-        <v>1104.79073913328</v>
+        <v>1045.224516488747</v>
       </c>
       <c r="G258" t="n">
-        <v>244.8016205597403</v>
+        <v>374.4341664238758</v>
       </c>
       <c r="H258" t="n">
-        <v>1.03</v>
+        <v>0.21</v>
       </c>
       <c r="I258" t="n">
-        <v>1700977</v>
+        <v>1696089</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16365010</v>
+        <v>16303852</v>
       </c>
       <c r="F259" t="n">
-        <v>104.2674656653007</v>
+        <v>130.3115748124164</v>
       </c>
       <c r="G259" t="n">
-        <v>103.0179194980658</v>
+        <v>103.0209940359502</v>
       </c>
       <c r="H259" t="n">
         <v>0.29</v>
       </c>
       <c r="I259" t="n">
-        <v>982435</v>
+        <v>989262</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>717836</v>
+        <v>718031</v>
       </c>
       <c r="F260" t="n">
-        <v>9.584644588570029</v>
+        <v>9.631708767283786</v>
       </c>
       <c r="G260" t="n">
-        <v>5.015475683215242</v>
+        <v>3.515360138942015</v>
       </c>
       <c r="H260" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="I260" t="n">
-        <v>228106</v>
+        <v>226116</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3020056</v>
+        <v>3024647</v>
       </c>
       <c r="F261" t="n">
-        <v>12.83646229187112</v>
+        <v>12.83725107432743</v>
       </c>
       <c r="G261" t="n">
-        <v>71.50482750530972</v>
+        <v>71.65927507945158</v>
       </c>
       <c r="H261" t="n">
         <v>0.26</v>
       </c>
       <c r="I261" t="n">
-        <v>71409</v>
+        <v>71985</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2809687</v>
+        <v>2841949</v>
       </c>
       <c r="E262" t="n">
-        <v>2812120</v>
+        <v>2844411</v>
       </c>
       <c r="F262" t="n">
-        <v>425.3558400733288</v>
+        <v>445.5792238123141</v>
       </c>
       <c r="G262" t="n">
-        <v>23.76135881012576</v>
+        <v>23.81037333847909</v>
       </c>
       <c r="H262" t="n">
         <v>0.63</v>
       </c>
       <c r="I262" t="n">
-        <v>97864</v>
+        <v>97978</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>62456221</v>
+        <v>62536756</v>
       </c>
       <c r="E263" t="n">
-        <v>103327539</v>
+        <v>103460776</v>
       </c>
       <c r="F263" t="n">
-        <v>7420.281042103159</v>
+        <v>7348.519377681504</v>
       </c>
       <c r="G263" t="n">
-        <v>10563.05630931602</v>
+        <v>10312.13826978582</v>
       </c>
       <c r="H263" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="I263" t="n">
-        <v>6601385</v>
+        <v>6629610</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>694675</v>
+        <v>690346</v>
       </c>
       <c r="F264" t="n">
-        <v>3106.463473642146</v>
+        <v>1930.749286286775</v>
       </c>
       <c r="G264" t="n">
-        <v>175.0802729114814</v>
+        <v>121.9811081505929</v>
       </c>
       <c r="H264" t="n">
-        <v>1.13</v>
+        <v>0.09</v>
       </c>
       <c r="I264" t="n">
-        <v>683761</v>
+        <v>692895</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1262705</v>
+        <v>1260540</v>
       </c>
       <c r="E265" t="n">
-        <v>3816809</v>
+        <v>3809987</v>
       </c>
       <c r="F265" t="n">
-        <v>71.83962144859282</v>
+        <v>72.00261711044693</v>
       </c>
       <c r="G265" t="n">
-        <v>890.7740436077793</v>
+        <v>890.8107935240289</v>
       </c>
       <c r="H265" t="n">
         <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>12420.53</v>
+        <v>12494.64</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>38844633</v>
+        <v>38835496</v>
       </c>
       <c r="E266" t="n">
-        <v>275402112</v>
+        <v>275337332</v>
       </c>
       <c r="F266" t="n">
-        <v>85223.70975478756</v>
+        <v>62134.50713521908</v>
       </c>
       <c r="G266" t="n">
-        <v>30637.73099287716</v>
+        <v>29909.21360632665</v>
       </c>
       <c r="H266" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I266" t="n">
-        <v>1602049</v>
+        <v>1605433</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>58910</v>
+        <v>63023</v>
       </c>
       <c r="E267" t="n">
-        <v>307369</v>
+        <v>328826</v>
       </c>
       <c r="F267" t="n">
-        <v>22.26172113567765</v>
+        <v>21.98308217721707</v>
       </c>
       <c r="G267" t="n">
-        <v>153.0893468997599</v>
+        <v>20.87892626185449</v>
       </c>
       <c r="H267" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="I267" t="n">
-        <v>277663</v>
+        <v>291244</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1270247</v>
+        <v>1271159</v>
       </c>
       <c r="E268" t="n">
-        <v>7876830</v>
+        <v>7882488</v>
       </c>
       <c r="F268" t="n">
-        <v>1873.870576687325</v>
+        <v>1857.17318832097</v>
       </c>
       <c r="G268" t="n">
-        <v>2357.433725135721</v>
+        <v>2414.099640842302</v>
       </c>
       <c r="H268" t="n">
         <v>0.16</v>
       </c>
       <c r="I268" t="n">
-        <v>754386</v>
+        <v>769226</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>606389286</v>
+        <v>608577038</v>
       </c>
       <c r="E269" t="n">
-        <v>2348456237</v>
+        <v>2356929081</v>
       </c>
       <c r="F269" t="n">
-        <v>204793.3512124021</v>
+        <v>206174.5087563377</v>
       </c>
       <c r="G269" t="n">
-        <v>298265.6970758081</v>
+        <v>307751.586556674</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>32909813</v>
+        <v>32703836</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3289594</v>
+        <v>3281617</v>
       </c>
       <c r="F270" t="n">
-        <v>406.4222532453828</v>
+        <v>301.3566399769352</v>
       </c>
       <c r="G270" t="n">
-        <v>158.8363876157453</v>
+        <v>117.5505291100933</v>
       </c>
       <c r="H270" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I270" t="n">
-        <v>32946</v>
+        <v>33064</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>811537</v>
+        <v>800372</v>
       </c>
       <c r="F271" t="n">
-        <v>9.339014295418984</v>
+        <v>66.5703617711393</v>
       </c>
       <c r="G271" t="n">
-        <v>292.7014248748139</v>
+        <v>421.5341443989872</v>
       </c>
       <c r="H271" t="n">
         <v>0.74</v>
       </c>
       <c r="I271" t="n">
-        <v>222156</v>
+        <v>214026</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5843251</v>
+        <v>5887806</v>
       </c>
       <c r="E272" t="n">
-        <v>26160966</v>
+        <v>26360445</v>
       </c>
       <c r="F272" t="n">
-        <v>433.4828260136579</v>
+        <v>115.6238927801571</v>
       </c>
       <c r="G272" t="n">
-        <v>148.0003159856177</v>
+        <v>446.5589891228216</v>
       </c>
       <c r="H272" t="n">
-        <v>0.31</v>
+        <v>0.57</v>
       </c>
       <c r="I272" t="n">
-        <v>147824</v>
+        <v>153220</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6685209</v>
+        <v>6673326</v>
       </c>
       <c r="E273" t="n">
-        <v>12799376</v>
+        <v>12776624</v>
       </c>
       <c r="F273" t="n">
-        <v>527.8998932256403</v>
+        <v>527.9045003603874</v>
       </c>
       <c r="G273" t="n">
-        <v>4088.983673534489</v>
+        <v>4037.069488634601</v>
       </c>
       <c r="H273" t="n">
-        <v>0.62</v>
+        <v>0.12</v>
       </c>
       <c r="I273" t="n">
-        <v>162152</v>
+        <v>148186</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3258485</v>
+        <v>3256739</v>
       </c>
       <c r="E274" t="n">
-        <v>21427037</v>
+        <v>21415559</v>
       </c>
       <c r="F274" t="n">
-        <v>108.4433447623407</v>
+        <v>218.1483737812435</v>
       </c>
       <c r="G274" t="n">
-        <v>140.719309944473</v>
+        <v>143.999932064406</v>
       </c>
       <c r="H274" t="n">
         <v>0.95</v>
       </c>
       <c r="I274" t="n">
-        <v>1513047</v>
+        <v>1605029</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3711233</v>
+        <v>3710656</v>
       </c>
       <c r="E275" t="n">
-        <v>6326300</v>
+        <v>6325317</v>
       </c>
       <c r="F275" t="n">
-        <v>557.2146734465136</v>
+        <v>566.8303247825344</v>
       </c>
       <c r="G275" t="n">
-        <v>373.8596025824102</v>
+        <v>406.5934411340408</v>
       </c>
       <c r="H275" t="n">
         <v>0.63</v>
       </c>
       <c r="I275" t="n">
-        <v>1211707</v>
+        <v>1282334</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>435498</v>
+        <v>435810</v>
       </c>
       <c r="E276" t="n">
-        <v>435498</v>
+        <v>435810</v>
       </c>
       <c r="F276" t="n">
-        <v>21.15148976278899</v>
+        <v>21.15177048533667</v>
       </c>
       <c r="G276" t="n">
-        <v>5.293733578591426</v>
+        <v>5.293803837017361</v>
       </c>
       <c r="H276" t="n">
         <v>0.58</v>
       </c>
       <c r="I276" t="n">
-        <v>328.11</v>
+        <v>328.14</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7540581</v>
+        <v>7401473</v>
       </c>
       <c r="E277" t="n">
-        <v>10804393</v>
+        <v>10605056</v>
       </c>
       <c r="F277" t="n">
-        <v>589.0308151760057</v>
+        <v>989.3542932041707</v>
       </c>
       <c r="G277" t="n">
-        <v>749.4182829584869</v>
+        <v>3232.897858933327</v>
       </c>
       <c r="H277" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I277" t="n">
-        <v>200855</v>
+        <v>199651</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>122861762</v>
+        <v>122489752</v>
       </c>
       <c r="E278" t="n">
-        <v>1068207506</v>
+        <v>1064973109</v>
       </c>
       <c r="F278" t="n">
-        <v>8580.046130351526</v>
+        <v>10419.1821592365</v>
       </c>
       <c r="G278" t="n">
-        <v>11066.99648353375</v>
+        <v>7341.053809275892</v>
       </c>
       <c r="H278" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I278" t="n">
-        <v>9019798</v>
+        <v>9262849</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>115453166</v>
+        <v>117808773</v>
       </c>
       <c r="E279" t="n">
-        <v>176126511</v>
+        <v>179720045</v>
       </c>
       <c r="F279" t="n">
-        <v>47957.2532209485</v>
+        <v>48210.08947062244</v>
       </c>
       <c r="G279" t="n">
-        <v>50349.75321806193</v>
+        <v>55112.77908939743</v>
       </c>
       <c r="H279" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="I279" t="n">
-        <v>8663773</v>
+        <v>7961302</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>16522307</v>
+        <v>16629165</v>
       </c>
       <c r="E280" t="n">
-        <v>22667174</v>
+        <v>22813775</v>
       </c>
       <c r="F280" t="n">
-        <v>2967.407710781293</v>
+        <v>3338.421363251258</v>
       </c>
       <c r="G280" t="n">
-        <v>1355.265869626463</v>
+        <v>1814.143400335345</v>
       </c>
       <c r="H280" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="I280" t="n">
-        <v>471473</v>
+        <v>458824</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5546398</v>
+        <v>5539118</v>
       </c>
       <c r="E281" t="n">
-        <v>5546398</v>
+        <v>5539118</v>
       </c>
       <c r="F281" t="n">
-        <v>726.1809717866863</v>
+        <v>80.05194122417794</v>
       </c>
       <c r="G281" t="n">
-        <v>23.73762618384383</v>
+        <v>54.91897255378261</v>
       </c>
       <c r="H281" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I281" t="n">
-        <v>708313</v>
+        <v>712804</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>118649020</v>
+        <v>120149947</v>
       </c>
       <c r="E282" t="n">
-        <v>455156736</v>
+        <v>460914537</v>
       </c>
       <c r="F282" t="n">
-        <v>43194.94381252983</v>
+        <v>50007.97775280509</v>
       </c>
       <c r="G282" t="n">
-        <v>70821.36173179651</v>
+        <v>61145.67542682128</v>
       </c>
       <c r="H282" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I282" t="n">
-        <v>31028745</v>
+        <v>31328564</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>756693</v>
+        <v>760009</v>
       </c>
       <c r="F283" t="n">
-        <v>4.053642289048087</v>
+        <v>3.779532260328214</v>
       </c>
       <c r="G283" t="n">
-        <v>3.963338733226002</v>
+        <v>4.104360881177932</v>
       </c>
       <c r="H283" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="I283" t="n">
-        <v>52268</v>
+        <v>51752</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3179467</v>
+        <v>3188949</v>
       </c>
       <c r="E284" t="n">
-        <v>30125918</v>
+        <v>30215767</v>
       </c>
       <c r="F284" t="n">
-        <v>1433.138169296892</v>
+        <v>1481.718745364505</v>
       </c>
       <c r="G284" t="n">
-        <v>779.5467559485534</v>
+        <v>774.6229637348564</v>
       </c>
       <c r="H284" t="n">
         <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>205899</v>
+        <v>216994</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>80867</v>
+        <v>84327</v>
       </c>
       <c r="F285" t="n">
-        <v>0.01999886098693111</v>
+        <v>487.1623286422069</v>
       </c>
       <c r="G285" t="n">
-        <v>157.131182892029</v>
+        <v>66.65488763508867</v>
       </c>
       <c r="H285" t="n">
-        <v>0.25</v>
+        <v>0.83</v>
       </c>
       <c r="I285" t="n">
-        <v>10309.35</v>
+        <v>11930.68</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>132109</v>
+        <v>132836</v>
       </c>
       <c r="F286" t="n">
-        <v>9.391083513081888</v>
+        <v>9.402376458445211</v>
       </c>
       <c r="G286" t="n">
-        <v>497.4852933021893</v>
+        <v>497.5152969442283</v>
       </c>
       <c r="H286" t="n">
-        <v>0.21</v>
+        <v>0.49</v>
       </c>
       <c r="I286" t="n">
-        <v>91833</v>
+        <v>91433</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>23270343</v>
+        <v>22196153</v>
       </c>
       <c r="E287" t="n">
-        <v>23270343</v>
+        <v>22196153</v>
       </c>
       <c r="F287" t="n">
-        <v>2467.826491462949</v>
+        <v>3478.166834091852</v>
       </c>
       <c r="G287" t="n">
-        <v>1466.231190814174</v>
+        <v>2794.961391420253</v>
       </c>
       <c r="H287" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="I287" t="n">
-        <v>638025</v>
+        <v>643742</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>570529</v>
+        <v>570625</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>934.5700000000001</v>
+        <v>932.98</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5819528</v>
+        <v>5908173</v>
       </c>
       <c r="E289" t="n">
-        <v>36370382</v>
+        <v>36924390</v>
       </c>
       <c r="F289" t="n">
-        <v>5932.779440501849</v>
+        <v>891.9475538306899</v>
       </c>
       <c r="G289" t="n">
-        <v>648.7424184501861</v>
+        <v>745.5669173221388</v>
       </c>
       <c r="H289" t="n">
-        <v>0.46</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I289" t="n">
-        <v>216661</v>
+        <v>415427</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494567129</v>
+        <v>494837107</v>
       </c>
       <c r="E290" t="n">
-        <v>494567129</v>
+        <v>494837107</v>
       </c>
       <c r="F290" t="n">
-        <v>1127339.272815377</v>
+        <v>1159714.87420896</v>
       </c>
       <c r="G290" t="n">
-        <v>1889007.025025302</v>
+        <v>1842969.60675721</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>33155613</v>
+        <v>32929305</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5116757</v>
+        <v>5144992</v>
       </c>
       <c r="E291" t="n">
-        <v>19053755</v>
+        <v>19158895</v>
       </c>
       <c r="F291" t="n">
-        <v>7118.631285454087</v>
+        <v>6916.069531367813</v>
       </c>
       <c r="G291" t="n">
-        <v>2649.533467843654</v>
+        <v>6918.937759356093</v>
       </c>
       <c r="H291" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I291" t="n">
-        <v>57408</v>
+        <v>61909</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>32253086</v>
+        <v>31932052</v>
       </c>
       <c r="F292" t="n">
-        <v>5174.459510136222</v>
+        <v>7236.497634634732</v>
       </c>
       <c r="G292" t="n">
-        <v>9234.538293177642</v>
+        <v>8564.76135505722</v>
       </c>
       <c r="H292" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="I292" t="n">
-        <v>5491816</v>
+        <v>5490155</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31480352</v>
+        <v>31731723</v>
       </c>
       <c r="E293" t="n">
-        <v>112836921</v>
+        <v>113737928</v>
       </c>
       <c r="F293" t="n">
-        <v>22.62503986980375</v>
+        <v>103.0016074929787</v>
       </c>
       <c r="G293" t="n">
-        <v>2189.814863217367</v>
+        <v>2190.380523731184</v>
       </c>
       <c r="H293" t="n">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="I293" t="n">
-        <v>93715</v>
+        <v>92507</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>751360</v>
+        <v>810738</v>
       </c>
       <c r="E294" t="n">
-        <v>11983920</v>
+        <v>12930989</v>
       </c>
       <c r="F294" t="n">
-        <v>12.86286109473145</v>
+        <v>10.65260969767851</v>
       </c>
       <c r="G294" t="n">
-        <v>2.297827506863029</v>
+        <v>18.89190550226243</v>
       </c>
       <c r="H294" t="n">
-        <v>2.64</v>
+        <v>2.15</v>
       </c>
       <c r="I294" t="n">
-        <v>64496</v>
+        <v>229059</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85065</v>
+        <v>85177</v>
       </c>
       <c r="F295" t="n">
-        <v>93.67748882615733</v>
+        <v>93.67757018318001</v>
       </c>
       <c r="G295" t="n">
-        <v>41.8245306822729</v>
+        <v>41.82456700604005</v>
       </c>
       <c r="H295" t="n">
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>56380</v>
+        <v>56592</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1528913</v>
+        <v>1522176</v>
       </c>
       <c r="F296" t="n">
-        <v>3.830248365279561</v>
+        <v>4.765091014105275</v>
       </c>
       <c r="G296" t="n">
-        <v>10.5640166099127</v>
+        <v>3.912814271570849</v>
       </c>
       <c r="H296" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="I296" t="n">
-        <v>606271</v>
+        <v>608536</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2630754683</v>
+        <v>2634164391</v>
       </c>
       <c r="E297" t="n">
-        <v>2793176943</v>
+        <v>2796797166</v>
       </c>
       <c r="F297" t="n">
-        <v>46549.45478738557</v>
+        <v>40641.30052604909</v>
       </c>
       <c r="G297" t="n">
-        <v>79016.05645062131</v>
+        <v>86615.97679088281</v>
       </c>
       <c r="H297" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I297" t="n">
-        <v>35905181</v>
+        <v>35357868</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2238722</v>
+        <v>2229347</v>
       </c>
       <c r="E298" t="n">
-        <v>17219617</v>
+        <v>17147507</v>
       </c>
       <c r="F298" t="n">
-        <v>1384.142349285276</v>
+        <v>4053.041709208379</v>
       </c>
       <c r="G298" t="n">
-        <v>4072.683487835702</v>
+        <v>4038.192383108431</v>
       </c>
       <c r="H298" t="n">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I298" t="n">
-        <v>174580</v>
+        <v>174211</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1750961</v>
+        <v>1701105</v>
       </c>
       <c r="E299" t="n">
-        <v>1757141</v>
+        <v>1707109</v>
       </c>
       <c r="F299" t="n">
-        <v>843.2442006709201</v>
+        <v>876.9213100324415</v>
       </c>
       <c r="G299" t="n">
-        <v>507.7678832168647</v>
+        <v>518.3157345270918</v>
       </c>
       <c r="H299" t="n">
-        <v>0.65</v>
+        <v>1.27</v>
       </c>
       <c r="I299" t="n">
-        <v>436315</v>
+        <v>439857</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>88225967</v>
+        <v>88715328</v>
       </c>
       <c r="E300" t="n">
-        <v>326135380</v>
+        <v>327944584</v>
       </c>
       <c r="F300" t="n">
-        <v>5770.345146893901</v>
+        <v>5653.58416510612</v>
       </c>
       <c r="G300" t="n">
-        <v>2194.917157895755</v>
+        <v>612.0621951601071</v>
       </c>
       <c r="H300" t="n">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="I300" t="n">
-        <v>260289</v>
+        <v>259046</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2319403</v>
+        <v>2318243</v>
       </c>
       <c r="E301" t="n">
-        <v>9306681</v>
+        <v>9302029</v>
       </c>
       <c r="F301" t="n">
-        <v>102.0669344739532</v>
+        <v>43.77777879510325</v>
       </c>
       <c r="G301" t="n">
-        <v>4.060526799148373</v>
+        <v>4.060656113965719</v>
       </c>
       <c r="H301" t="n">
         <v>0.32</v>
       </c>
       <c r="I301" t="n">
-        <v>40797</v>
+        <v>40838</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>61009153</v>
+        <v>61061293</v>
       </c>
       <c r="E302" t="n">
-        <v>149651318</v>
+        <v>149779214</v>
       </c>
       <c r="F302" t="n">
-        <v>1700.809594875689</v>
+        <v>1229.692115310032</v>
       </c>
       <c r="G302" t="n">
-        <v>2331.189164560983</v>
+        <v>2901.488264216007</v>
       </c>
       <c r="H302" t="n">
-        <v>0.89</v>
+        <v>0.34</v>
       </c>
       <c r="I302" t="n">
-        <v>22437460</v>
+        <v>22499823</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>726786502</v>
+        <v>727189337</v>
       </c>
       <c r="E303" t="n">
-        <v>1120768955</v>
+        <v>1121390163</v>
       </c>
       <c r="F303" t="n">
-        <v>40998.5136613533</v>
+        <v>40622.24655552551</v>
       </c>
       <c r="G303" t="n">
-        <v>53249.05528636056</v>
+        <v>62594.18477396321</v>
       </c>
       <c r="H303" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I303" t="n">
-        <v>218350202</v>
+        <v>183693100</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20942693</v>
+        <v>21077151</v>
       </c>
       <c r="E304" t="n">
-        <v>20942693</v>
+        <v>21077151</v>
       </c>
       <c r="F304" t="n">
-        <v>3994.751878559803</v>
+        <v>3505.498762879295</v>
       </c>
       <c r="G304" t="n">
-        <v>3824.224494208127</v>
+        <v>3721.621643918001</v>
       </c>
       <c r="H304" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I304" t="n">
-        <v>7105611</v>
+        <v>7149041</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1837498</v>
+        <v>1842445</v>
       </c>
       <c r="E305" t="n">
-        <v>3015023</v>
+        <v>3023140</v>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>718.9667323346823</v>
       </c>
       <c r="G305" t="n">
-        <v>0</v>
+        <v>6.23331019094643</v>
       </c>
       <c r="H305" t="n">
-        <v>6.49</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I305" t="n">
-        <v>204013</v>
+        <v>201827</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5785333</v>
+        <v>5782394</v>
       </c>
       <c r="E306" t="n">
-        <v>5785333</v>
+        <v>5782394</v>
       </c>
       <c r="F306" t="n">
-        <v>38.5824171795258</v>
+        <v>41.26277719685221</v>
       </c>
       <c r="G306" t="n">
-        <v>5.697478329334205</v>
+        <v>5.228640225819181</v>
       </c>
       <c r="H306" t="n">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="I306" t="n">
-        <v>656.28</v>
+        <v>658.49</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39766166</v>
+        <v>39775550</v>
       </c>
       <c r="E307" t="n">
-        <v>189652865</v>
+        <v>189697617</v>
       </c>
       <c r="F307" t="n">
-        <v>1615.075134086868</v>
+        <v>1609.181103093283</v>
       </c>
       <c r="G307" t="n">
-        <v>167.8030393788933</v>
+        <v>288.6540142822852</v>
       </c>
       <c r="H307" t="n">
-        <v>0.16</v>
+        <v>0.61</v>
       </c>
       <c r="I307" t="n">
-        <v>294422</v>
+        <v>293359</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>383644</v>
+        <v>383969</v>
       </c>
       <c r="E308" t="n">
-        <v>717523</v>
+        <v>718130</v>
       </c>
       <c r="F308" t="n">
-        <v>32.67670385285841</v>
+        <v>32.67707091211657</v>
       </c>
       <c r="G308" t="n">
-        <v>246.0506635773168</v>
+        <v>246.0534274783042</v>
       </c>
       <c r="H308" t="n">
         <v>0.32</v>
       </c>
       <c r="I308" t="n">
-        <v>1445.39</v>
+        <v>1444.44</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23671307</v>
+        <v>23530234</v>
       </c>
       <c r="E309" t="n">
-        <v>39452177</v>
+        <v>39217056</v>
       </c>
       <c r="F309" t="n">
-        <v>4136.800202440899</v>
+        <v>3362.814536363521</v>
       </c>
       <c r="G309" t="n">
-        <v>3305.364867606857</v>
+        <v>3360.227134114359</v>
       </c>
       <c r="H309" t="n">
         <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>669997</v>
+        <v>652920</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>110190</v>
+        <v>110331</v>
       </c>
       <c r="F310" t="n">
-        <v>14.99666859617431</v>
+        <v>15.14930835335599</v>
       </c>
       <c r="G310" t="n">
-        <v>85.93715225910746</v>
+        <v>87.04666456171773</v>
       </c>
       <c r="H310" t="n">
         <v>0.18</v>
       </c>
       <c r="I310" t="n">
-        <v>49756</v>
+        <v>49765</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>22967421</v>
+        <v>23166320</v>
       </c>
       <c r="E311" t="n">
-        <v>22967421</v>
+        <v>23166320</v>
       </c>
       <c r="F311" t="n">
-        <v>6162.044025306297</v>
+        <v>5656.508344168062</v>
       </c>
       <c r="G311" t="n">
-        <v>7492.48640869685</v>
+        <v>7168.131265426459</v>
       </c>
       <c r="H311" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I311" t="n">
-        <v>5700575</v>
+        <v>5644485</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3822252</v>
+        <v>3821316</v>
       </c>
       <c r="E312" t="n">
-        <v>8340103</v>
+        <v>8338061</v>
       </c>
       <c r="F312" t="n">
-        <v>1778.72413656153</v>
+        <v>1837.526272319529</v>
       </c>
       <c r="G312" t="n">
-        <v>1794.690497635957</v>
+        <v>1706.61585198905</v>
       </c>
       <c r="H312" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="I312" t="n">
-        <v>1428526</v>
+        <v>1500226</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9351887</v>
+        <v>9351107</v>
       </c>
       <c r="E313" t="n">
-        <v>9351887</v>
+        <v>9351107</v>
       </c>
       <c r="F313" t="n">
-        <v>15673.32798431642</v>
+        <v>15333.50887763313</v>
       </c>
       <c r="G313" t="n">
-        <v>112903.3531420045</v>
+        <v>112913.3117999275</v>
       </c>
       <c r="H313" t="n">
         <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>2888662</v>
+        <v>2856757</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>493168298</v>
+        <v>496975364</v>
       </c>
       <c r="E314" t="n">
-        <v>1716677803</v>
+        <v>1729929883</v>
       </c>
       <c r="F314" t="n">
-        <v>456957.0807016895</v>
+        <v>385798.285506806</v>
       </c>
       <c r="G314" t="n">
-        <v>509217.5104872355</v>
+        <v>334643.1280875146</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>29291105</v>
+        <v>30513919</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>23983451</v>
+        <v>24077292</v>
       </c>
       <c r="E315" t="n">
-        <v>23962618</v>
+        <v>24056378</v>
       </c>
       <c r="F315" t="n">
-        <v>190.8436403536345</v>
+        <v>234.5558559985754</v>
       </c>
       <c r="G315" t="n">
-        <v>266.3153679746807</v>
+        <v>751.1954837340073</v>
       </c>
       <c r="H315" t="n">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="I315" t="n">
-        <v>89346</v>
+        <v>85130</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48528677</v>
+        <v>48611712</v>
       </c>
       <c r="E316" t="n">
-        <v>119769264</v>
+        <v>119974201</v>
       </c>
       <c r="F316" t="n">
-        <v>1188.699777579557</v>
+        <v>922.1290703310764</v>
       </c>
       <c r="G316" t="n">
-        <v>1689.869506038995</v>
+        <v>1613.460008360617</v>
       </c>
       <c r="H316" t="n">
         <v>0.17</v>
       </c>
       <c r="I316" t="n">
-        <v>22276</v>
+        <v>24187</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12222269</v>
+        <v>12242244</v>
       </c>
       <c r="E317" t="n">
-        <v>24721768</v>
+        <v>24760169</v>
       </c>
       <c r="F317" t="n">
-        <v>360.720535137052</v>
+        <v>360.4366057187505</v>
       </c>
       <c r="G317" t="n">
-        <v>2646.860664211884</v>
+        <v>2645.638717437668</v>
       </c>
       <c r="H317" t="n">
         <v>0.23</v>
       </c>
       <c r="I317" t="n">
-        <v>40771</v>
+        <v>40874</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7664964</v>
+        <v>7543649</v>
       </c>
       <c r="E318" t="n">
-        <v>19912753</v>
+        <v>19597590</v>
       </c>
       <c r="F318" t="n">
-        <v>197.3581376602499</v>
+        <v>156.8039547200316</v>
       </c>
       <c r="G318" t="n">
-        <v>580.6527273878739</v>
+        <v>187.0361289536004</v>
       </c>
       <c r="H318" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I318" t="n">
-        <v>707431</v>
+        <v>715216</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>153078</v>
+        <v>152079</v>
       </c>
       <c r="F319" t="n">
-        <v>261.5040560509659</v>
+        <v>162.1553258271928</v>
       </c>
       <c r="G319" t="n">
-        <v>1.098180555949404</v>
+        <v>13.87831909414399</v>
       </c>
       <c r="H319" t="n">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="I319" t="n">
-        <v>57430</v>
+        <v>57248</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19199972089</v>
+        <v>19215071644</v>
       </c>
       <c r="F320" t="n">
-        <v>51914.30939899589</v>
+        <v>51799.54742354338</v>
       </c>
       <c r="G320" t="n">
-        <v>50053.96352319115</v>
+        <v>49997.87374825111</v>
       </c>
       <c r="H320" t="n">
         <v>0.51</v>
       </c>
       <c r="I320" t="n">
-        <v>47879523</v>
+        <v>47365874</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>102002215</v>
+        <v>102169974</v>
       </c>
       <c r="E321" t="n">
-        <v>154545142</v>
+        <v>154799316</v>
       </c>
       <c r="F321" t="n">
-        <v>15114.84538066919</v>
+        <v>17822.07666358602</v>
       </c>
       <c r="G321" t="n">
-        <v>20994.90969849655</v>
+        <v>18957.38349992767</v>
       </c>
       <c r="H321" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="I321" t="n">
-        <v>6943062</v>
+        <v>6960534</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2618689</v>
+        <v>2625312</v>
       </c>
       <c r="E322" t="n">
-        <v>10474757</v>
+        <v>10501247</v>
       </c>
       <c r="F322" t="n">
-        <v>17810.75798714003</v>
+        <v>33593.83882075565</v>
       </c>
       <c r="G322" t="n">
-        <v>36008.10533926643</v>
+        <v>29754.18476869819</v>
       </c>
       <c r="H322" t="n">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="I322" t="n">
-        <v>6897257</v>
+        <v>6925877</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>219937018</v>
+        <v>220199662</v>
       </c>
       <c r="E323" t="n">
-        <v>676223563</v>
+        <v>677031096</v>
       </c>
       <c r="F323" t="n">
-        <v>77005.25157222306</v>
+        <v>113314.6142061756</v>
       </c>
       <c r="G323" t="n">
-        <v>164481.1583620691</v>
+        <v>171712.1709796729</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>13074098</v>
+        <v>12423747</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>151312336</v>
+        <v>150559844</v>
       </c>
       <c r="E324" t="n">
-        <v>395299280</v>
+        <v>393333417</v>
       </c>
       <c r="F324" t="n">
-        <v>5989.785058780757</v>
+        <v>4822.073869447319</v>
       </c>
       <c r="G324" t="n">
-        <v>10946.50478283489</v>
+        <v>11459.17170412221</v>
       </c>
       <c r="H324" t="n">
         <v>0.2</v>
       </c>
       <c r="I324" t="n">
-        <v>6907182</v>
+        <v>7292672</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2436452</v>
+        <v>2444626</v>
       </c>
       <c r="E325" t="n">
-        <v>3343765</v>
+        <v>3355241</v>
       </c>
       <c r="F325" t="n">
-        <v>221.423528016236</v>
+        <v>196.5387784709068</v>
       </c>
       <c r="G325" t="n">
-        <v>2122.61115293602</v>
+        <v>2024.577213843196</v>
       </c>
       <c r="H325" t="n">
-        <v>0.84</v>
+        <v>1.26</v>
       </c>
       <c r="I325" t="n">
-        <v>1044794</v>
+        <v>1044584</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>401842223</v>
+        <v>401283996</v>
       </c>
       <c r="E326" t="n">
-        <v>2296241275</v>
+        <v>2293051405</v>
       </c>
       <c r="F326" t="n">
-        <v>256020.1534916961</v>
+        <v>291579.4203806464</v>
       </c>
       <c r="G326" t="n">
-        <v>356224.6079398865</v>
+        <v>333961.0209831195</v>
       </c>
       <c r="H326" t="n">
         <v>0.18</v>
       </c>
       <c r="I326" t="n">
-        <v>38250071</v>
+        <v>38416525</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250221.xlsx
+++ b/MexcData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91260</v>
+        <v>91295</v>
       </c>
       <c r="F2" t="n">
-        <v>4.197078272312909</v>
+        <v>4.235439980779544</v>
       </c>
       <c r="G2" t="n">
-        <v>32.70660155634825</v>
+        <v>32.70594364746378</v>
       </c>
       <c r="H2" t="n">
         <v>0.43</v>
       </c>
       <c r="I2" t="n">
-        <v>1558.75</v>
+        <v>1410.8</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>606162948</v>
+        <v>606479180</v>
       </c>
       <c r="E3" t="n">
-        <v>1176240478</v>
+        <v>1176839564</v>
       </c>
       <c r="F3" t="n">
-        <v>16814.44083544783</v>
+        <v>23499.22624434035</v>
       </c>
       <c r="G3" t="n">
-        <v>27122.63948802311</v>
+        <v>33457.07179834862</v>
       </c>
       <c r="H3" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="I3" t="n">
-        <v>19583986</v>
+        <v>19403373</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246088828</v>
+        <v>246465876</v>
       </c>
       <c r="E4" t="n">
-        <v>1543188452</v>
+        <v>1545552866</v>
       </c>
       <c r="F4" t="n">
-        <v>67717.42596260518</v>
+        <v>68316.04818376563</v>
       </c>
       <c r="G4" t="n">
-        <v>69941.89586640787</v>
+        <v>85266.90038766369</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15971688</v>
+        <v>16844144</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>144853050</v>
+        <v>146458886</v>
       </c>
       <c r="E5" t="n">
-        <v>160519817</v>
+        <v>162299334</v>
       </c>
       <c r="F5" t="n">
-        <v>139514.7731147466</v>
+        <v>136695.9926069589</v>
       </c>
       <c r="G5" t="n">
-        <v>354293.6861893061</v>
+        <v>323972.0705277452</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>36744140</v>
+        <v>36876080</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49362857</v>
+        <v>49083239</v>
       </c>
       <c r="E6" t="n">
-        <v>61751669</v>
+        <v>61401874</v>
       </c>
       <c r="F6" t="n">
-        <v>10303.8540017285</v>
+        <v>10399.351466568</v>
       </c>
       <c r="G6" t="n">
-        <v>11657.66775578155</v>
+        <v>10306.42459736509</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="I6" t="n">
-        <v>612039</v>
+        <v>392076</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8420423</v>
+        <v>8357261</v>
       </c>
       <c r="E7" t="n">
-        <v>8632755</v>
+        <v>8568000</v>
       </c>
       <c r="F7" t="n">
-        <v>364.2502937019294</v>
+        <v>310.3220005315131</v>
       </c>
       <c r="G7" t="n">
-        <v>604.7114956530081</v>
+        <v>3847.034008739791</v>
       </c>
       <c r="H7" t="n">
-        <v>1.48</v>
+        <v>2.51</v>
       </c>
       <c r="I7" t="n">
-        <v>88655</v>
+        <v>87623</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69254681</v>
+        <v>69456257</v>
       </c>
       <c r="E8" t="n">
-        <v>137931887</v>
+        <v>138333358</v>
       </c>
       <c r="F8" t="n">
-        <v>22162.65220525736</v>
+        <v>28925.25383174575</v>
       </c>
       <c r="G8" t="n">
-        <v>28136.04920726863</v>
+        <v>25327.73088870203</v>
       </c>
       <c r="H8" t="n">
-        <v>0.42</v>
+        <v>0.16</v>
       </c>
       <c r="I8" t="n">
-        <v>1033253</v>
+        <v>1017904</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5026454</v>
+        <v>5000019</v>
       </c>
       <c r="E9" t="n">
-        <v>8030762</v>
+        <v>7988528</v>
       </c>
       <c r="F9" t="n">
-        <v>343.8847957082967</v>
+        <v>377.443589727219</v>
       </c>
       <c r="G9" t="n">
-        <v>213.618966207848</v>
+        <v>220.6091494697624</v>
       </c>
       <c r="H9" t="n">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="I9" t="n">
-        <v>99401</v>
+        <v>98781</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14125733</v>
+        <v>14128392</v>
       </c>
       <c r="E10" t="n">
-        <v>41627624</v>
+        <v>41635458</v>
       </c>
       <c r="F10" t="n">
-        <v>3849.860956963214</v>
+        <v>3849.822606776554</v>
       </c>
       <c r="G10" t="n">
-        <v>2914.012929023344</v>
+        <v>2845.590674638277</v>
       </c>
       <c r="H10" t="n">
         <v>0.45</v>
       </c>
       <c r="I10" t="n">
-        <v>881161</v>
+        <v>884531</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>127612115</v>
+        <v>126597551</v>
       </c>
       <c r="E11" t="n">
-        <v>500201283</v>
+        <v>496224495</v>
       </c>
       <c r="F11" t="n">
-        <v>58695.55019673499</v>
+        <v>56840.98563226339</v>
       </c>
       <c r="G11" t="n">
-        <v>46765.86828768549</v>
+        <v>51123.67726515999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>30294053</v>
+        <v>29746145</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10726589</v>
+        <v>10932299</v>
       </c>
       <c r="E12" t="n">
-        <v>46105481</v>
+        <v>46989672</v>
       </c>
       <c r="F12" t="n">
-        <v>1201.09119568936</v>
+        <v>558.5816531115066</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002400475181631167</v>
+        <v>1627.516935676757</v>
       </c>
       <c r="H12" t="n">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="I12" t="n">
-        <v>966627</v>
+        <v>881259</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1004866</v>
+        <v>1000878</v>
       </c>
       <c r="E13" t="n">
-        <v>12296851</v>
+        <v>12248043</v>
       </c>
       <c r="F13" t="n">
-        <v>271.0134156904718</v>
+        <v>271.0167836192001</v>
       </c>
       <c r="G13" t="n">
-        <v>200.2851138408548</v>
+        <v>200.6019248864857</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>351.74</v>
+        <v>490.65</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>598375</v>
+        <v>584631</v>
       </c>
       <c r="E14" t="n">
-        <v>598375</v>
+        <v>584631</v>
       </c>
       <c r="F14" t="n">
-        <v>768.6436591066432</v>
+        <v>81.72010305011766</v>
       </c>
       <c r="G14" t="n">
-        <v>119.9337492402833</v>
+        <v>193.884193067358</v>
       </c>
       <c r="H14" t="n">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="I14" t="n">
-        <v>29835</v>
+        <v>31302</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>584738507</v>
+        <v>584183689</v>
       </c>
       <c r="E15" t="n">
-        <v>731420965</v>
+        <v>730726969</v>
       </c>
       <c r="F15" t="n">
-        <v>467482.5484838529</v>
+        <v>485354.6328442615</v>
       </c>
       <c r="G15" t="n">
-        <v>539997.7556589949</v>
+        <v>479225.4701221149</v>
       </c>
       <c r="H15" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I15" t="n">
-        <v>54999974</v>
+        <v>55802790</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3358174</v>
+        <v>3363073</v>
       </c>
       <c r="E16" t="n">
-        <v>9553709</v>
+        <v>9567645</v>
       </c>
       <c r="F16" t="n">
-        <v>24.47913203902635</v>
+        <v>178.3400397799871</v>
       </c>
       <c r="G16" t="n">
-        <v>5.170711216175928</v>
+        <v>631.5666307533961</v>
       </c>
       <c r="H16" t="n">
-        <v>0.11</v>
+        <v>1.35</v>
       </c>
       <c r="I16" t="n">
-        <v>116799</v>
+        <v>109852</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>326014</v>
+        <v>315128</v>
       </c>
       <c r="E17" t="n">
-        <v>3762586</v>
+        <v>3636948</v>
       </c>
       <c r="F17" t="n">
-        <v>5.631143702651557</v>
+        <v>3.761605526412315</v>
       </c>
       <c r="G17" t="n">
-        <v>4.822800688603132</v>
+        <v>3.931865555116899</v>
       </c>
       <c r="H17" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2821.92</v>
+        <v>3405.46</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1310897</v>
+        <v>1310419</v>
       </c>
       <c r="E18" t="n">
-        <v>10055361</v>
+        <v>10051690</v>
       </c>
       <c r="F18" t="n">
-        <v>245.6037243876364</v>
+        <v>127.8272009332172</v>
       </c>
       <c r="G18" t="n">
-        <v>105.3671527983744</v>
+        <v>212.6141101790567</v>
       </c>
       <c r="H18" t="n">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
       <c r="I18" t="n">
-        <v>143164</v>
+        <v>143548</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23178555</v>
+        <v>23250062</v>
       </c>
       <c r="E19" t="n">
-        <v>23221791</v>
+        <v>23293231</v>
       </c>
       <c r="F19" t="n">
-        <v>2390.977993240077</v>
+        <v>1968.111527837715</v>
       </c>
       <c r="G19" t="n">
-        <v>701.8734005772171</v>
+        <v>1124.734788020438</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="I19" t="n">
-        <v>852660</v>
+        <v>855112</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3794756</v>
+        <v>3793349</v>
       </c>
       <c r="E20" t="n">
-        <v>21055552</v>
+        <v>21047748</v>
       </c>
       <c r="F20" t="n">
-        <v>5.645882018302494</v>
+        <v>5.645804055169608</v>
       </c>
       <c r="G20" t="n">
-        <v>3.883873934130201</v>
+        <v>3.883820302301081</v>
       </c>
       <c r="H20" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>6415.64</v>
+        <v>6415.44</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6882594</v>
+        <v>6912087</v>
       </c>
       <c r="E21" t="n">
-        <v>12768662</v>
+        <v>12823379</v>
       </c>
       <c r="F21" t="n">
-        <v>232.2363849246628</v>
+        <v>472.9011961578913</v>
       </c>
       <c r="G21" t="n">
-        <v>546.8579812616941</v>
+        <v>455.9107764054529</v>
       </c>
       <c r="H21" t="n">
         <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>52980</v>
+        <v>52242</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71432688</v>
+        <v>71433766</v>
       </c>
       <c r="E22" t="n">
-        <v>123710092</v>
+        <v>123707523</v>
       </c>
       <c r="F22" t="n">
-        <v>546.5969103830455</v>
+        <v>509.961122913826</v>
       </c>
       <c r="G22" t="n">
-        <v>782.4742262301783</v>
+        <v>693.7389424631386</v>
       </c>
       <c r="H22" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I22" t="n">
-        <v>792713</v>
+        <v>791397</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>172181</v>
+        <v>172298</v>
       </c>
       <c r="E23" t="n">
-        <v>517838</v>
+        <v>518189</v>
       </c>
       <c r="F23" t="n">
-        <v>4.096050174160621</v>
+        <v>4.096082993092087</v>
       </c>
       <c r="G23" t="n">
-        <v>148.0713110266101</v>
+        <v>148.0724974237493</v>
       </c>
       <c r="H23" t="n">
         <v>0.39</v>
       </c>
       <c r="I23" t="n">
-        <v>142.37</v>
+        <v>142.31</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81765886</v>
+        <v>81928959</v>
       </c>
       <c r="E24" t="n">
-        <v>240565378</v>
+        <v>241045159</v>
       </c>
       <c r="F24" t="n">
-        <v>177.0386153521313</v>
+        <v>226.3683591636817</v>
       </c>
       <c r="G24" t="n">
-        <v>595.0107642569192</v>
+        <v>100.4454941873002</v>
       </c>
       <c r="H24" t="n">
         <v>0.78</v>
       </c>
       <c r="I24" t="n">
-        <v>322171</v>
+        <v>331111</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7547181</v>
+        <v>7210988</v>
       </c>
       <c r="F25" t="n">
-        <v>4.003385270160522</v>
+        <v>4.166911838569476</v>
       </c>
       <c r="G25" t="n">
-        <v>4.086404748623204</v>
+        <v>4.031068657088719</v>
       </c>
       <c r="H25" t="n">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="I25" t="n">
-        <v>18413.51</v>
+        <v>13804.76</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2441996</v>
+        <v>2442516</v>
       </c>
       <c r="E26" t="n">
-        <v>2441996</v>
+        <v>2442516</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.96</v>
+        <v>6.89</v>
       </c>
       <c r="I26" t="n">
-        <v>322959</v>
+        <v>323498</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17164610</v>
+        <v>17393462</v>
       </c>
       <c r="E27" t="n">
-        <v>22092262</v>
+        <v>22386813</v>
       </c>
       <c r="F27" t="n">
-        <v>935.8031777725732</v>
+        <v>1160.121110535848</v>
       </c>
       <c r="G27" t="n">
-        <v>4131.488318998568</v>
+        <v>5092.565601478401</v>
       </c>
       <c r="H27" t="n">
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
       <c r="I27" t="n">
-        <v>1662706</v>
+        <v>1665574</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4706559</v>
+        <v>4729653</v>
       </c>
       <c r="E28" t="n">
-        <v>4706559</v>
+        <v>4729653</v>
       </c>
       <c r="F28" t="n">
-        <v>620.2486285903882</v>
+        <v>1009.985246258149</v>
       </c>
       <c r="G28" t="n">
-        <v>7505.54354587672</v>
+        <v>7439.884732470466</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="I28" t="n">
-        <v>1926814</v>
+        <v>2011651</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1726667</v>
+        <v>1727369</v>
       </c>
       <c r="F29" t="n">
-        <v>118.3080567250369</v>
+        <v>33.17724445014751</v>
       </c>
       <c r="G29" t="n">
-        <v>46.12511265540686</v>
+        <v>64.47630304522946</v>
       </c>
       <c r="H29" t="n">
-        <v>2.25</v>
+        <v>3.82</v>
       </c>
       <c r="I29" t="n">
-        <v>146543</v>
+        <v>148515</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3416512</v>
+        <v>3415088</v>
       </c>
       <c r="E30" t="n">
-        <v>3416512</v>
+        <v>3415088</v>
       </c>
       <c r="F30" t="n">
-        <v>585.2627537472819</v>
+        <v>467.5538629956037</v>
       </c>
       <c r="G30" t="n">
-        <v>561.2968177276074</v>
+        <v>517.8543744835423</v>
       </c>
       <c r="H30" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>516750</v>
+        <v>515700</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>313044</v>
+        <v>318556</v>
       </c>
       <c r="E31" t="n">
-        <v>1461321</v>
+        <v>1487054</v>
       </c>
       <c r="F31" t="n">
-        <v>292.1543724275701</v>
+        <v>275.1985175916788</v>
       </c>
       <c r="G31" t="n">
-        <v>90.98193019250712</v>
+        <v>72.78888137623485</v>
       </c>
       <c r="H31" t="n">
-        <v>2.05</v>
+        <v>1.37</v>
       </c>
       <c r="I31" t="n">
-        <v>688290</v>
+        <v>715280</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>352241</v>
+        <v>368705</v>
       </c>
       <c r="E32" t="n">
-        <v>352241</v>
+        <v>368705</v>
       </c>
       <c r="F32" t="n">
-        <v>247.8938686889478</v>
+        <v>121.8397835130837</v>
       </c>
       <c r="G32" t="n">
-        <v>4.016221076087486</v>
+        <v>631.1021943590854</v>
       </c>
       <c r="H32" t="n">
-        <v>0.14</v>
+        <v>1.04</v>
       </c>
       <c r="I32" t="n">
-        <v>46196</v>
+        <v>51804</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1861423</v>
+        <v>1866484</v>
       </c>
       <c r="F33" t="n">
-        <v>238.6300771310466</v>
+        <v>238.6338121571009</v>
       </c>
       <c r="G33" t="n">
-        <v>9.900807647503646</v>
+        <v>9.877302279102322</v>
       </c>
       <c r="H33" t="n">
         <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1393143</v>
+        <v>1374636</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1522092</v>
+        <v>1517802</v>
       </c>
       <c r="F34" t="n">
-        <v>471.0886053346425</v>
+        <v>479.090459404001</v>
       </c>
       <c r="G34" t="n">
-        <v>290.2610932780039</v>
+        <v>20.55666793523214</v>
       </c>
       <c r="H34" t="n">
         <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>276340</v>
+        <v>284471</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12785886</v>
+        <v>12768953</v>
       </c>
       <c r="E35" t="n">
-        <v>31821758</v>
+        <v>31779615</v>
       </c>
       <c r="F35" t="n">
-        <v>935.6196661918611</v>
+        <v>892.5051025397571</v>
       </c>
       <c r="G35" t="n">
-        <v>1158.379994836727</v>
+        <v>1977.168702427513</v>
       </c>
       <c r="H35" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
       <c r="I35" t="n">
-        <v>1288092</v>
+        <v>1238121</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7003500</v>
+        <v>6950209</v>
       </c>
       <c r="E36" t="n">
-        <v>9645609</v>
+        <v>9572214</v>
       </c>
       <c r="F36" t="n">
-        <v>70.84618683471766</v>
+        <v>770.0288529020852</v>
       </c>
       <c r="G36" t="n">
-        <v>2400.505734565736</v>
+        <v>533.5186575441569</v>
       </c>
       <c r="H36" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="I36" t="n">
-        <v>498604</v>
+        <v>454461</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>934855</v>
+        <v>929801</v>
       </c>
       <c r="E37" t="n">
-        <v>6543986</v>
+        <v>6508605</v>
       </c>
       <c r="F37" t="n">
-        <v>1541.550504096185</v>
+        <v>539.3954116575608</v>
       </c>
       <c r="G37" t="n">
-        <v>60.73876294836582</v>
+        <v>202.3738197193636</v>
       </c>
       <c r="H37" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>221390</v>
+        <v>222348</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>111982823</v>
+        <v>114445772</v>
       </c>
       <c r="E38" t="n">
-        <v>435698439</v>
+        <v>445251727</v>
       </c>
       <c r="F38" t="n">
-        <v>18433.68223021524</v>
+        <v>15713.48269301728</v>
       </c>
       <c r="G38" t="n">
-        <v>28280.0669764049</v>
+        <v>23657.95108639411</v>
       </c>
       <c r="H38" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>8712905</v>
+        <v>9043666</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5634026</v>
+        <v>5614208</v>
       </c>
       <c r="E39" t="n">
-        <v>5903558</v>
+        <v>5882791</v>
       </c>
       <c r="F39" t="n">
-        <v>137.5947842799305</v>
+        <v>205.2925085630437</v>
       </c>
       <c r="G39" t="n">
-        <v>508.0081116544006</v>
+        <v>356.0736194229644</v>
       </c>
       <c r="H39" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I39" t="n">
-        <v>150279</v>
+        <v>150969</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5128084</v>
+        <v>5152469</v>
       </c>
       <c r="E40" t="n">
-        <v>7548817</v>
+        <v>7584714</v>
       </c>
       <c r="F40" t="n">
-        <v>727.7218196887945</v>
+        <v>700.6402452684772</v>
       </c>
       <c r="G40" t="n">
-        <v>829.9093462318823</v>
+        <v>853.3433457850052</v>
       </c>
       <c r="H40" t="n">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="I40" t="n">
-        <v>593262</v>
+        <v>645394</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7689918</v>
+        <v>7679216</v>
       </c>
       <c r="E41" t="n">
-        <v>7689918</v>
+        <v>7679216</v>
       </c>
       <c r="F41" t="n">
-        <v>1726.020049846508</v>
+        <v>2315.919634243697</v>
       </c>
       <c r="G41" t="n">
-        <v>1929.950624979436</v>
+        <v>1597.294243765073</v>
       </c>
       <c r="H41" t="n">
-        <v>0.75</v>
+        <v>1.12</v>
       </c>
       <c r="I41" t="n">
-        <v>311414</v>
+        <v>332381</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1456687</v>
+        <v>1450743</v>
       </c>
       <c r="E42" t="n">
-        <v>1456687</v>
+        <v>1450743</v>
       </c>
       <c r="F42" t="n">
-        <v>265.4749145627047</v>
+        <v>332.530678268719</v>
       </c>
       <c r="G42" t="n">
-        <v>225.668743315646</v>
+        <v>87.64028086811926</v>
       </c>
       <c r="H42" t="n">
         <v>0.15</v>
       </c>
       <c r="I42" t="n">
-        <v>282530</v>
+        <v>284978</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15982224</v>
+        <v>15855049</v>
       </c>
       <c r="F43" t="n">
-        <v>386.4421688890434</v>
+        <v>594.4827174232455</v>
       </c>
       <c r="G43" t="n">
-        <v>177.5281593223356</v>
+        <v>149.6931333437705</v>
       </c>
       <c r="H43" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="I43" t="n">
-        <v>10769.09</v>
+        <v>11463.34</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>138766037</v>
+        <v>138523100</v>
       </c>
       <c r="E44" t="n">
-        <v>138766037</v>
+        <v>138523100</v>
       </c>
       <c r="F44" t="n">
-        <v>273301.3691126749</v>
+        <v>230006.2081801216</v>
       </c>
       <c r="G44" t="n">
-        <v>393744.6967394622</v>
+        <v>360435.3427102818</v>
       </c>
       <c r="H44" t="n">
         <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>66055581</v>
+        <v>64425499</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>65745806</v>
+        <v>66502184</v>
       </c>
       <c r="E45" t="n">
-        <v>337157982</v>
+        <v>341036841</v>
       </c>
       <c r="F45" t="n">
-        <v>75732.73960631933</v>
+        <v>64199.08994927865</v>
       </c>
       <c r="G45" t="n">
-        <v>67590.40041820532</v>
+        <v>114725.7268522808</v>
       </c>
       <c r="H45" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>21698380</v>
+        <v>21792684</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>594334</v>
+        <v>594013</v>
       </c>
       <c r="F46" t="n">
-        <v>91.09909800032017</v>
+        <v>91.12615888007019</v>
       </c>
       <c r="G46" t="n">
-        <v>577.8872406557396</v>
+        <v>549.3672531292408</v>
       </c>
       <c r="H46" t="n">
         <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>999.3099999999999</v>
+        <v>1083.46</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2672107</v>
+        <v>2677217</v>
       </c>
       <c r="E47" t="n">
-        <v>10738588</v>
+        <v>10759127</v>
       </c>
       <c r="F47" t="n">
-        <v>863.713562142047</v>
+        <v>671.8018243519474</v>
       </c>
       <c r="G47" t="n">
-        <v>358.3710099293961</v>
+        <v>125.953588510887</v>
       </c>
       <c r="H47" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="I47" t="n">
-        <v>33522</v>
+        <v>34038</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17613882</v>
+        <v>17538866</v>
       </c>
       <c r="E48" t="n">
-        <v>124147267</v>
+        <v>123617765</v>
       </c>
       <c r="F48" t="n">
-        <v>306.8095927134039</v>
+        <v>345.5854862505222</v>
       </c>
       <c r="G48" t="n">
-        <v>640.7707986236892</v>
+        <v>666.2943589078101</v>
       </c>
       <c r="H48" t="n">
-        <v>1.25</v>
+        <v>0.4</v>
       </c>
       <c r="I48" t="n">
-        <v>1044432</v>
+        <v>1047676</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1034966</v>
+        <v>1033937</v>
       </c>
       <c r="E49" t="n">
-        <v>1214803</v>
+        <v>1213595</v>
       </c>
       <c r="F49" t="n">
-        <v>1616.290927866076</v>
+        <v>1603.719132783649</v>
       </c>
       <c r="G49" t="n">
-        <v>3350.30640732998</v>
+        <v>3337.76308855077</v>
       </c>
       <c r="H49" t="n">
         <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>206696</v>
+        <v>206518</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>172532</v>
+        <v>149830</v>
       </c>
       <c r="E50" t="n">
-        <v>2308570</v>
+        <v>2004807</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>52467</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>255344315</v>
+        <v>257661476</v>
       </c>
       <c r="E51" t="n">
-        <v>255344315</v>
+        <v>257661476</v>
       </c>
       <c r="F51" t="n">
-        <v>21696.3072849892</v>
+        <v>26551.72234556685</v>
       </c>
       <c r="G51" t="n">
-        <v>28407.09303947247</v>
+        <v>25605.24585913719</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.38</v>
       </c>
       <c r="I51" t="n">
-        <v>14541169</v>
+        <v>14434531</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1125876</v>
+        <v>1120966</v>
       </c>
       <c r="F52" t="n">
-        <v>4.161481861736697</v>
+        <v>3.120438966005719</v>
       </c>
       <c r="G52" t="n">
-        <v>633.2537439208113</v>
+        <v>631.8323440983485</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>179906</v>
+        <v>177089</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>115338</v>
+        <v>117066</v>
       </c>
       <c r="E54" t="n">
-        <v>115338</v>
+        <v>117066</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>74.45999999999999</v>
+        <v>200.11</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6850383</v>
+        <v>6837225</v>
       </c>
       <c r="E55" t="n">
-        <v>16639052</v>
+        <v>16607092</v>
       </c>
       <c r="F55" t="n">
-        <v>341.7801297388334</v>
+        <v>369.3966532630787</v>
       </c>
       <c r="G55" t="n">
-        <v>228.9791355813771</v>
+        <v>143.0059656915768</v>
       </c>
       <c r="H55" t="n">
         <v>1.44</v>
       </c>
       <c r="I55" t="n">
-        <v>485458</v>
+        <v>484294</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>440610109</v>
+        <v>442702753</v>
       </c>
       <c r="E56" t="n">
-        <v>440610109</v>
+        <v>442702753</v>
       </c>
       <c r="F56" t="n">
-        <v>4821.639538364006</v>
+        <v>4819.820411034008</v>
       </c>
       <c r="G56" t="n">
-        <v>6477.6897124113</v>
+        <v>5076.478189589228</v>
       </c>
       <c r="H56" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I56" t="n">
-        <v>2513910</v>
+        <v>2543897</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2464492</v>
+        <v>2476740</v>
       </c>
       <c r="E57" t="n">
-        <v>2464492</v>
+        <v>2476740</v>
       </c>
       <c r="F57" t="n">
-        <v>3.782636648423117</v>
+        <v>6.289911574503632</v>
       </c>
       <c r="G57" t="n">
-        <v>3.898689463317043</v>
+        <v>4.151952111943853</v>
       </c>
       <c r="H57" t="n">
-        <v>0.37</v>
+        <v>0.71</v>
       </c>
       <c r="I57" t="n">
-        <v>56315</v>
+        <v>55089</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>161231847</v>
+        <v>159570678</v>
       </c>
       <c r="E58" t="n">
-        <v>212162254</v>
+        <v>209976349</v>
       </c>
       <c r="F58" t="n">
-        <v>10922.40592810391</v>
+        <v>11986.53281180896</v>
       </c>
       <c r="G58" t="n">
-        <v>10522.71262994426</v>
+        <v>10544.90798008541</v>
       </c>
       <c r="H58" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="I58" t="n">
-        <v>8207366</v>
+        <v>7978211</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1129178</v>
+        <v>1128680</v>
       </c>
       <c r="E59" t="n">
-        <v>12271486</v>
+        <v>12266073</v>
       </c>
       <c r="F59" t="n">
-        <v>12.83282085260925</v>
+        <v>12.84481919450831</v>
       </c>
       <c r="G59" t="n">
-        <v>3.808611217944505</v>
+        <v>3.822828556566967</v>
       </c>
       <c r="H59" t="n">
         <v>0.33</v>
       </c>
       <c r="I59" t="n">
-        <v>31153</v>
+        <v>31143</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2556258</v>
+        <v>2556352</v>
       </c>
       <c r="E60" t="n">
-        <v>6535296</v>
+        <v>6535534</v>
       </c>
       <c r="F60" t="n">
-        <v>206.8670506331817</v>
+        <v>271.497936578773</v>
       </c>
       <c r="G60" t="n">
-        <v>191.8428811726121</v>
+        <v>256.7819221951124</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>112674</v>
+        <v>112211</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>78625152</v>
+        <v>81530104</v>
       </c>
       <c r="E61" t="n">
-        <v>220006484</v>
+        <v>228144917</v>
       </c>
       <c r="F61" t="n">
-        <v>64073.9347684568</v>
+        <v>61751.92597782156</v>
       </c>
       <c r="G61" t="n">
-        <v>70324.79541995258</v>
+        <v>82738.39049555662</v>
       </c>
       <c r="H61" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I61" t="n">
-        <v>34466847</v>
+        <v>37493576</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>73619992</v>
+        <v>74359176</v>
       </c>
       <c r="E62" t="n">
-        <v>73619992</v>
+        <v>74359176</v>
       </c>
       <c r="F62" t="n">
-        <v>4356.900519258553</v>
+        <v>4076.870428599701</v>
       </c>
       <c r="G62" t="n">
-        <v>4571.864016484442</v>
+        <v>3465.914334357802</v>
       </c>
       <c r="H62" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="I62" t="n">
-        <v>3365988</v>
+        <v>3399147</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4134688</v>
+        <v>4109619</v>
       </c>
       <c r="E63" t="n">
-        <v>8153952</v>
+        <v>8104514</v>
       </c>
       <c r="F63" t="n">
-        <v>545.4031699690928</v>
+        <v>2479.560506886442</v>
       </c>
       <c r="G63" t="n">
-        <v>135.9032717971407</v>
+        <v>1542.319860773178</v>
       </c>
       <c r="H63" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I63" t="n">
-        <v>1638356</v>
+        <v>1654765</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1589604</v>
+        <v>1610685</v>
       </c>
       <c r="E64" t="n">
-        <v>9126911</v>
+        <v>9247951</v>
       </c>
       <c r="F64" t="n">
-        <v>169.1157816906635</v>
+        <v>17.92891073666771</v>
       </c>
       <c r="G64" t="n">
-        <v>4.20769619380672</v>
+        <v>4.053138409217293</v>
       </c>
       <c r="H64" t="n">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="I64" t="n">
-        <v>294948</v>
+        <v>275422</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>565299</v>
+        <v>564816</v>
       </c>
       <c r="F65" t="n">
-        <v>53.62112432714648</v>
+        <v>53.64961823865189</v>
       </c>
       <c r="G65" t="n">
-        <v>3.871256755081327</v>
+        <v>3.829681711687056</v>
       </c>
       <c r="H65" t="n">
         <v>0.9</v>
       </c>
       <c r="I65" t="n">
-        <v>1673.03</v>
+        <v>1654.28</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31163734</v>
+        <v>31060126</v>
       </c>
       <c r="F66" t="n">
-        <v>779.4757505291237</v>
+        <v>765.374958898779</v>
       </c>
       <c r="G66" t="n">
-        <v>306.1688987038494</v>
+        <v>381.1261108999458</v>
       </c>
       <c r="H66" t="n">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
       <c r="I66" t="n">
-        <v>246492</v>
+        <v>246034</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>167308</v>
+        <v>166327</v>
       </c>
       <c r="E67" t="n">
-        <v>1129850</v>
+        <v>1123227</v>
       </c>
       <c r="F67" t="n">
-        <v>4.066357757480062</v>
+        <v>7.777380136689822</v>
       </c>
       <c r="G67" t="n">
-        <v>94.39688330670397</v>
+        <v>8.229026457901686</v>
       </c>
       <c r="H67" t="n">
-        <v>0.68</v>
+        <v>1.33</v>
       </c>
       <c r="I67" t="n">
-        <v>2780105</v>
+        <v>2797524</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7639191</v>
+        <v>7644084</v>
       </c>
       <c r="E68" t="n">
-        <v>17991813</v>
+        <v>18003338</v>
       </c>
       <c r="F68" t="n">
-        <v>846.6311932209003</v>
+        <v>846.8119176363344</v>
       </c>
       <c r="G68" t="n">
-        <v>3739.353877544967</v>
+        <v>3449.895652742202</v>
       </c>
       <c r="H68" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I68" t="n">
-        <v>29781</v>
+        <v>21535</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2969899</v>
+        <v>2972028</v>
       </c>
       <c r="E69" t="n">
-        <v>2969899</v>
+        <v>2972028</v>
       </c>
       <c r="F69" t="n">
-        <v>315.9491530110611</v>
+        <v>5.250284744443804</v>
       </c>
       <c r="G69" t="n">
-        <v>23.84476804702009</v>
+        <v>776.0779493535319</v>
       </c>
       <c r="H69" t="n">
-        <v>0.93</v>
+        <v>0.4</v>
       </c>
       <c r="I69" t="n">
-        <v>18314.56</v>
+        <v>19461.13</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3367245</v>
+        <v>3368316</v>
       </c>
       <c r="E70" t="n">
-        <v>8308506</v>
+        <v>8311148</v>
       </c>
       <c r="F70" t="n">
-        <v>1206.515444126178</v>
+        <v>1183.819646685905</v>
       </c>
       <c r="G70" t="n">
-        <v>1148.804294072068</v>
+        <v>1145.465786331646</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>43166</v>
+        <v>41072</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23056433</v>
+        <v>23037696</v>
       </c>
       <c r="F71" t="n">
-        <v>434.8093089954343</v>
+        <v>142.2374510577574</v>
       </c>
       <c r="G71" t="n">
-        <v>33.85816464717637</v>
+        <v>441.9869684781898</v>
       </c>
       <c r="H71" t="n">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="I71" t="n">
-        <v>126289</v>
+        <v>127192</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>269087</v>
+        <v>265738</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1799.57</v>
+        <v>1620.55</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>75946500</v>
+        <v>76644865</v>
       </c>
       <c r="E73" t="n">
-        <v>158387019</v>
+        <v>159843465</v>
       </c>
       <c r="F73" t="n">
-        <v>13123.95642485891</v>
+        <v>18611.72456536802</v>
       </c>
       <c r="G73" t="n">
-        <v>606.3192824561738</v>
+        <v>667.734370464226</v>
       </c>
       <c r="H73" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="I73" t="n">
-        <v>16269927</v>
+        <v>16610542</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>197724989</v>
+        <v>199618293</v>
       </c>
       <c r="F75" t="n">
-        <v>7421.493321003682</v>
+        <v>7169.910191249638</v>
       </c>
       <c r="G75" t="n">
-        <v>11279.82645821394</v>
+        <v>7026.774385746744</v>
       </c>
       <c r="H75" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="I75" t="n">
-        <v>4011840</v>
+        <v>3775714</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>85654822</v>
+        <v>87075414</v>
       </c>
       <c r="E76" t="n">
-        <v>117617401</v>
+        <v>119568094</v>
       </c>
       <c r="F76" t="n">
-        <v>563.5593973596723</v>
+        <v>752.7453298486781</v>
       </c>
       <c r="G76" t="n">
-        <v>3115.493871835426</v>
+        <v>2394.065013387852</v>
       </c>
       <c r="H76" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I76" t="n">
-        <v>1046581</v>
+        <v>1089176</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>179618</v>
+        <v>179541</v>
       </c>
       <c r="E77" t="n">
-        <v>187572</v>
+        <v>187492</v>
       </c>
       <c r="F77" t="n">
-        <v>3.952919625425017</v>
+        <v>3.934048885702098</v>
       </c>
       <c r="G77" t="n">
-        <v>416.4058396647158</v>
+        <v>414.7390061205091</v>
       </c>
       <c r="H77" t="n">
         <v>0.88</v>
       </c>
       <c r="I77" t="n">
-        <v>334.38</v>
+        <v>330.09</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8264737</v>
+        <v>8115800</v>
       </c>
       <c r="E78" t="n">
-        <v>9091763</v>
+        <v>8927922</v>
       </c>
       <c r="F78" t="n">
-        <v>735.0026654600123</v>
+        <v>546.3043786235404</v>
       </c>
       <c r="G78" t="n">
-        <v>415.1516694839029</v>
+        <v>218.1986741228211</v>
       </c>
       <c r="H78" t="n">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="I78" t="n">
-        <v>763202</v>
+        <v>765135</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>28493970</v>
+        <v>29307226</v>
       </c>
       <c r="E79" t="n">
-        <v>28493970</v>
+        <v>29307226</v>
       </c>
       <c r="F79" t="n">
-        <v>1547.442257013791</v>
+        <v>1300.400443153167</v>
       </c>
       <c r="G79" t="n">
-        <v>595.4479682240682</v>
+        <v>842.0315719966212</v>
       </c>
       <c r="H79" t="n">
-        <v>0.78</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I79" t="n">
-        <v>282396</v>
+        <v>270795</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>274202998</v>
+        <v>273274077</v>
       </c>
       <c r="E80" t="n">
-        <v>274202998</v>
+        <v>273274077</v>
       </c>
       <c r="F80" t="n">
-        <v>198.1019602952889</v>
+        <v>279.1154601491745</v>
       </c>
       <c r="G80" t="n">
-        <v>3035.884428600619</v>
+        <v>1888.407641048978</v>
       </c>
       <c r="H80" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="I80" t="n">
-        <v>9623522</v>
+        <v>9773534</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>652863747</v>
+        <v>649815150</v>
       </c>
       <c r="E81" t="n">
-        <v>652863747</v>
+        <v>649815150</v>
       </c>
       <c r="F81" t="n">
-        <v>1261855.082207063</v>
+        <v>447456.4424322239</v>
       </c>
       <c r="G81" t="n">
-        <v>1350444.554064194</v>
+        <v>527908.2679077185</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="I81" t="n">
-        <v>302384847</v>
+        <v>308277982</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>120976</v>
+        <v>116593</v>
       </c>
       <c r="E82" t="n">
-        <v>120976</v>
+        <v>116593</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>311.18</v>
+        <v>428.29</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>202643466</v>
+        <v>205261517</v>
       </c>
       <c r="E83" t="n">
-        <v>704001715</v>
+        <v>713097060</v>
       </c>
       <c r="F83" t="n">
-        <v>1134.493133492957</v>
+        <v>1476.980319223776</v>
       </c>
       <c r="G83" t="n">
-        <v>1701.571299403959</v>
+        <v>1906.218643842177</v>
       </c>
       <c r="H83" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I83" t="n">
-        <v>28170899</v>
+        <v>27923315</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3520576</v>
+        <v>3733117</v>
       </c>
       <c r="E84" t="n">
-        <v>3520576</v>
+        <v>3733117</v>
       </c>
       <c r="F84" t="n">
-        <v>620.4986263365842</v>
+        <v>2650.057872853676</v>
       </c>
       <c r="G84" t="n">
-        <v>1240.789343258844</v>
+        <v>536.2299269259537</v>
       </c>
       <c r="H84" t="n">
-        <v>0.57</v>
+        <v>0.24</v>
       </c>
       <c r="I84" t="n">
-        <v>2628453</v>
+        <v>2644864</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>116257038</v>
+        <v>115991430</v>
       </c>
       <c r="E85" t="n">
-        <v>493966205</v>
+        <v>492777379</v>
       </c>
       <c r="F85" t="n">
-        <v>353426.725574721</v>
+        <v>330707.6266510518</v>
       </c>
       <c r="G85" t="n">
-        <v>444799.1345321815</v>
+        <v>465767.3153895882</v>
       </c>
       <c r="H85" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="I85" t="n">
-        <v>15002689</v>
+        <v>15352167</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71706120</v>
+        <v>71679601</v>
       </c>
       <c r="E86" t="n">
-        <v>82273639</v>
+        <v>82243212</v>
       </c>
       <c r="F86" t="n">
-        <v>22653.03147804659</v>
+        <v>23718.08863337564</v>
       </c>
       <c r="G86" t="n">
-        <v>26567.32042761934</v>
+        <v>19944.11638021549</v>
       </c>
       <c r="H86" t="n">
         <v>0.34</v>
       </c>
       <c r="I86" t="n">
-        <v>1166768</v>
+        <v>1301802</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3152265</v>
+        <v>3135306</v>
       </c>
       <c r="E87" t="n">
-        <v>15804822</v>
+        <v>15719792</v>
       </c>
       <c r="F87" t="n">
-        <v>5.645550354740053</v>
+        <v>5.52567495388805</v>
       </c>
       <c r="G87" t="n">
-        <v>71.13174621035056</v>
+        <v>71.18783377026841</v>
       </c>
       <c r="H87" t="n">
         <v>0.31</v>
       </c>
       <c r="I87" t="n">
-        <v>34073</v>
+        <v>34785</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>526017</v>
+        <v>525895</v>
       </c>
       <c r="E88" t="n">
-        <v>8997486</v>
+        <v>8995400</v>
       </c>
       <c r="F88" t="n">
-        <v>999.3187210918023</v>
+        <v>2.868591800902638</v>
       </c>
       <c r="G88" t="n">
-        <v>260.708061382792</v>
+        <v>2.303307777880196</v>
       </c>
       <c r="H88" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I88" t="n">
-        <v>162730</v>
+        <v>167903</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5632496</v>
+        <v>5697097</v>
       </c>
       <c r="E89" t="n">
-        <v>7652063</v>
+        <v>7739827</v>
       </c>
       <c r="F89" t="n">
-        <v>705.5713293226823</v>
+        <v>118.0569321572392</v>
       </c>
       <c r="G89" t="n">
-        <v>54.98221538492012</v>
+        <v>69.09847763906505</v>
       </c>
       <c r="H89" t="n">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="I89" t="n">
-        <v>5793678</v>
+        <v>5698920</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40823921</v>
+        <v>40412301</v>
       </c>
       <c r="E90" t="n">
-        <v>47681370</v>
+        <v>47200608</v>
       </c>
       <c r="F90" t="n">
-        <v>154.9327255143777</v>
+        <v>368.3050898613612</v>
       </c>
       <c r="G90" t="n">
-        <v>197.5799208945357</v>
+        <v>122.0795852636154</v>
       </c>
       <c r="H90" t="n">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="I90" t="n">
-        <v>872858</v>
+        <v>886453</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14520838</v>
+        <v>14701397</v>
       </c>
       <c r="F91" t="n">
-        <v>54.8686827485586</v>
+        <v>29.85008977644899</v>
       </c>
       <c r="G91" t="n">
-        <v>220.9391058925179</v>
+        <v>163.0391629336548</v>
       </c>
       <c r="H91" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="I91" t="n">
-        <v>277682</v>
+        <v>259627</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>35262780</v>
+        <v>36053232</v>
       </c>
       <c r="E92" t="n">
-        <v>35262780</v>
+        <v>36053232</v>
       </c>
       <c r="F92" t="n">
-        <v>549.3824175797309</v>
+        <v>423.6990890187199</v>
       </c>
       <c r="G92" t="n">
-        <v>284.1406452024664</v>
+        <v>158.5553265476421</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="I92" t="n">
-        <v>295285</v>
+        <v>773059</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17345250</v>
+        <v>17152668</v>
       </c>
       <c r="F93" t="n">
-        <v>134.1068733263024</v>
+        <v>114.4101742407473</v>
       </c>
       <c r="G93" t="n">
-        <v>474.7235410065375</v>
+        <v>261.36660043474</v>
       </c>
       <c r="H93" t="n">
-        <v>0.06</v>
+        <v>0.41</v>
       </c>
       <c r="I93" t="n">
-        <v>177793</v>
+        <v>189186</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>557093</v>
+        <v>565087</v>
       </c>
       <c r="E94" t="n">
-        <v>6756998</v>
+        <v>6853956</v>
       </c>
       <c r="F94" t="n">
-        <v>939.6734166157129</v>
+        <v>1192.13184844888</v>
       </c>
       <c r="G94" t="n">
-        <v>675.3917764317293</v>
+        <v>536.1361319188121</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I94" t="n">
-        <v>2874630</v>
+        <v>2816416</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25916910</v>
+        <v>26091845</v>
       </c>
       <c r="E95" t="n">
-        <v>36632541</v>
+        <v>36879804</v>
       </c>
       <c r="F95" t="n">
-        <v>116.480413465121</v>
+        <v>247.7965904326597</v>
       </c>
       <c r="G95" t="n">
-        <v>5.241510073446099</v>
+        <v>5.241427750293229</v>
       </c>
       <c r="H95" t="n">
         <v>1.06</v>
       </c>
       <c r="I95" t="n">
-        <v>66714</v>
+        <v>68999</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1301520631</v>
+        <v>1301325938</v>
       </c>
       <c r="E96" t="n">
-        <v>6241057970</v>
+        <v>6240124377</v>
       </c>
       <c r="F96" t="n">
-        <v>406245.6815679413</v>
+        <v>450641.1432355714</v>
       </c>
       <c r="G96" t="n">
-        <v>593198.4496945676</v>
+        <v>633238.2429531536</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>165723369</v>
+        <v>165566611</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>271485250</v>
+        <v>272015522</v>
       </c>
       <c r="E97" t="n">
-        <v>1171881051</v>
+        <v>1174169999</v>
       </c>
       <c r="F97" t="n">
-        <v>113835.996863936</v>
+        <v>260574.6550647991</v>
       </c>
       <c r="G97" t="n">
-        <v>974055.2529907243</v>
+        <v>1015871.183658705</v>
       </c>
       <c r="H97" t="n">
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>98696005</v>
+        <v>96753401</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5050471</v>
+        <v>5163357</v>
       </c>
       <c r="E98" t="n">
-        <v>5596929</v>
+        <v>5722028</v>
       </c>
       <c r="F98" t="n">
-        <v>626.0381515490373</v>
+        <v>666.3662486774796</v>
       </c>
       <c r="G98" t="n">
-        <v>696.6657886501264</v>
+        <v>709.8788232399424</v>
       </c>
       <c r="H98" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I98" t="n">
-        <v>586085</v>
+        <v>585007</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94774</v>
+        <v>94665</v>
       </c>
       <c r="E99" t="n">
-        <v>94774</v>
+        <v>94665</v>
       </c>
       <c r="F99" t="n">
-        <v>5.439140554874489</v>
+        <v>5.42425376933819</v>
       </c>
       <c r="G99" t="n">
-        <v>3.973547770522509</v>
+        <v>29.27644224907879</v>
       </c>
       <c r="H99" t="n">
         <v>0.77</v>
       </c>
       <c r="I99" t="n">
-        <v>4016.48</v>
+        <v>3597.07</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>114527891</v>
+        <v>114710807</v>
       </c>
       <c r="E100" t="n">
-        <v>114527891</v>
+        <v>114710807</v>
       </c>
       <c r="F100" t="n">
-        <v>39349.50525724699</v>
+        <v>12163.20024735776</v>
       </c>
       <c r="G100" t="n">
-        <v>26721.87504406773</v>
+        <v>7918.574536551295</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6221531</v>
+        <v>6120676</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3747654</v>
+        <v>3773701</v>
       </c>
       <c r="F101" t="n">
-        <v>1148.463740227356</v>
+        <v>2018.908313581021</v>
       </c>
       <c r="G101" t="n">
-        <v>1210.006301595885</v>
+        <v>1739.465339248425</v>
       </c>
       <c r="H101" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="I101" t="n">
-        <v>305291</v>
+        <v>307304</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2046031370</v>
+        <v>2043560323</v>
       </c>
       <c r="E102" t="n">
-        <v>2046031370</v>
+        <v>2043560323</v>
       </c>
       <c r="F102" t="n">
-        <v>6765824.753686384</v>
+        <v>7108092.368522346</v>
       </c>
       <c r="G102" t="n">
-        <v>5623817.891272095</v>
+        <v>5096922.801196224</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>6596285565</v>
+        <v>6696155987</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5319294</v>
+        <v>5332898</v>
       </c>
       <c r="E103" t="n">
-        <v>5325314</v>
+        <v>5338934</v>
       </c>
       <c r="F103" t="n">
-        <v>66.93453950336551</v>
+        <v>57.85414416125188</v>
       </c>
       <c r="G103" t="n">
-        <v>83.0923958536883</v>
+        <v>67.77821167695139</v>
       </c>
       <c r="H103" t="n">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="I103" t="n">
-        <v>148297</v>
+        <v>147314</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2251095</v>
+        <v>2252150</v>
       </c>
       <c r="F104" t="n">
-        <v>5.494125372016367</v>
+        <v>5.494046615563684</v>
       </c>
       <c r="G104" t="n">
-        <v>288.3270342415133</v>
+        <v>288.1803152814306</v>
       </c>
       <c r="H104" t="n">
         <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>57622</v>
+        <v>57631</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4493270</v>
+        <v>4469886</v>
       </c>
       <c r="E105" t="n">
-        <v>5899077</v>
+        <v>5868377</v>
       </c>
       <c r="F105" t="n">
-        <v>11435.71422958709</v>
+        <v>11421.94369170765</v>
       </c>
       <c r="G105" t="n">
-        <v>12475.39844325489</v>
+        <v>12481.76894912169</v>
       </c>
       <c r="H105" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>599503</v>
+        <v>598355</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19885244</v>
+        <v>19811305</v>
       </c>
       <c r="F106" t="n">
-        <v>149.8190772787434</v>
+        <v>167.7431703455394</v>
       </c>
       <c r="G106" t="n">
-        <v>1303.325125558132</v>
+        <v>194.2032865621526</v>
       </c>
       <c r="H106" t="n">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
       <c r="I106" t="n">
-        <v>68508</v>
+        <v>57389</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1298713</v>
+        <v>1300271</v>
       </c>
       <c r="E107" t="n">
-        <v>4841939</v>
+        <v>4847747</v>
       </c>
       <c r="F107" t="n">
-        <v>180.2753377633056</v>
+        <v>143.8878548461287</v>
       </c>
       <c r="G107" t="n">
-        <v>168.2571206355632</v>
+        <v>171.6585914193666</v>
       </c>
       <c r="H107" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I107" t="n">
-        <v>498856</v>
+        <v>514012</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4215388</v>
+        <v>4194989</v>
       </c>
       <c r="E108" t="n">
-        <v>12142322</v>
+        <v>12083564</v>
       </c>
       <c r="F108" t="n">
-        <v>73.82016060475014</v>
+        <v>181.9101165368178</v>
       </c>
       <c r="G108" t="n">
-        <v>92.16570600645721</v>
+        <v>204.2874648258697</v>
       </c>
       <c r="H108" t="n">
-        <v>1.95</v>
+        <v>3.24</v>
       </c>
       <c r="I108" t="n">
-        <v>652034</v>
+        <v>648534</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>79417579</v>
+        <v>80111811</v>
       </c>
       <c r="E109" t="n">
-        <v>101065042</v>
+        <v>101948505</v>
       </c>
       <c r="F109" t="n">
-        <v>7515.395408070242</v>
+        <v>5871.964856411736</v>
       </c>
       <c r="G109" t="n">
-        <v>347.391357130557</v>
+        <v>294.9220979896976</v>
       </c>
       <c r="H109" t="n">
-        <v>0.97</v>
+        <v>0.59</v>
       </c>
       <c r="I109" t="n">
-        <v>6210341</v>
+        <v>6210489</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22620039</v>
+        <v>22672895</v>
       </c>
       <c r="E110" t="n">
-        <v>29343365</v>
+        <v>29411931</v>
       </c>
       <c r="F110" t="n">
-        <v>21644.09245178589</v>
+        <v>21774.9376279848</v>
       </c>
       <c r="G110" t="n">
-        <v>13662.42003174738</v>
+        <v>12169.75866061144</v>
       </c>
       <c r="H110" t="n">
         <v>0.36</v>
       </c>
       <c r="I110" t="n">
-        <v>163306</v>
+        <v>155161</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>645483</v>
+        <v>638581</v>
       </c>
       <c r="E111" t="n">
-        <v>645483</v>
+        <v>638581</v>
       </c>
       <c r="F111" t="n">
-        <v>17.6188262172338</v>
+        <v>4.101409767817275</v>
       </c>
       <c r="G111" t="n">
-        <v>544.3038443632718</v>
+        <v>523.6354000420131</v>
       </c>
       <c r="H111" t="n">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="I111" t="n">
-        <v>85301</v>
+        <v>80191</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13555695</v>
+        <v>13796547</v>
       </c>
       <c r="E112" t="n">
-        <v>13555695</v>
+        <v>13796547</v>
       </c>
       <c r="F112" t="n">
-        <v>2393.152511905605</v>
+        <v>1963.895558604463</v>
       </c>
       <c r="G112" t="n">
-        <v>2860.86599860505</v>
+        <v>7739.060510157302</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I112" t="n">
-        <v>4776956</v>
+        <v>4868865</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99564968</v>
+        <v>99146608</v>
       </c>
       <c r="E113" t="n">
-        <v>123158302</v>
+        <v>122640806</v>
       </c>
       <c r="F113" t="n">
-        <v>570.1201057120011</v>
+        <v>411.4504228945829</v>
       </c>
       <c r="G113" t="n">
-        <v>163.7961008469128</v>
+        <v>479.5481253668887</v>
       </c>
       <c r="H113" t="n">
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I113" t="n">
-        <v>840381</v>
+        <v>826443</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>846272</v>
+        <v>847079</v>
       </c>
       <c r="F114" t="n">
-        <v>124.2313496176187</v>
+        <v>51.90176815809581</v>
       </c>
       <c r="G114" t="n">
-        <v>247.1334504919758</v>
+        <v>202.6525670036513</v>
       </c>
       <c r="H114" t="n">
-        <v>1.37</v>
+        <v>0.53</v>
       </c>
       <c r="I114" t="n">
-        <v>24175</v>
+        <v>24290</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2637357</v>
+        <v>2699087</v>
       </c>
       <c r="F115" t="n">
-        <v>218.0132865427425</v>
+        <v>245.8290809548853</v>
       </c>
       <c r="G115" t="n">
-        <v>3000.579575513114</v>
+        <v>1190.987051777678</v>
       </c>
       <c r="H115" t="n">
         <v>1.75</v>
       </c>
       <c r="I115" t="n">
-        <v>75992</v>
+        <v>82064</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11003067</v>
+        <v>11292254</v>
       </c>
       <c r="E116" t="n">
-        <v>16180980</v>
+        <v>16606255</v>
       </c>
       <c r="F116" t="n">
-        <v>10478.47121724892</v>
+        <v>4945.469783119196</v>
       </c>
       <c r="G116" t="n">
-        <v>3214.466185448062</v>
+        <v>3170.901274455264</v>
       </c>
       <c r="H116" t="n">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="I116" t="n">
-        <v>544664</v>
+        <v>604966</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3107937</v>
+        <v>3154226</v>
       </c>
       <c r="F117" t="n">
-        <v>4.199467654965921</v>
+        <v>5.448885059391205</v>
       </c>
       <c r="G117" t="n">
-        <v>419.2266504296082</v>
+        <v>419.2197548071711</v>
       </c>
       <c r="H117" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="I117" t="n">
-        <v>36584</v>
+        <v>35023</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1232956</v>
+        <v>1191520</v>
       </c>
       <c r="F118" t="n">
-        <v>3.823833261025531</v>
+        <v>2.972579133673356</v>
       </c>
       <c r="G118" t="n">
-        <v>145.1284026247227</v>
+        <v>21.96611528830222</v>
       </c>
       <c r="H118" t="n">
         <v>0.48</v>
       </c>
       <c r="I118" t="n">
-        <v>4913.39</v>
+        <v>4907.47</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5200250</v>
+        <v>5186847</v>
       </c>
       <c r="E119" t="n">
-        <v>7275904</v>
+        <v>7257151</v>
       </c>
       <c r="F119" t="n">
-        <v>1397.53667551427</v>
+        <v>1345.349316068665</v>
       </c>
       <c r="G119" t="n">
-        <v>1232.467726068264</v>
+        <v>829.3393853869553</v>
       </c>
       <c r="H119" t="n">
-        <v>0.95</v>
+        <v>0.32</v>
       </c>
       <c r="I119" t="n">
-        <v>106973</v>
+        <v>103643</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10203417</v>
+        <v>10100740</v>
       </c>
       <c r="E120" t="n">
-        <v>28104876</v>
+        <v>27822057</v>
       </c>
       <c r="F120" t="n">
-        <v>386.4451371408378</v>
+        <v>28.67885667518168</v>
       </c>
       <c r="G120" t="n">
-        <v>5.416246179661201</v>
+        <v>119.7479886963444</v>
       </c>
       <c r="H120" t="n">
-        <v>1.13</v>
+        <v>2.28</v>
       </c>
       <c r="I120" t="n">
-        <v>341777</v>
+        <v>336639</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51227408</v>
+        <v>51791441</v>
       </c>
       <c r="E121" t="n">
-        <v>130504749</v>
+        <v>131941658</v>
       </c>
       <c r="F121" t="n">
-        <v>656.0138500220959</v>
+        <v>450.1978904607493</v>
       </c>
       <c r="G121" t="n">
-        <v>10546.80468846232</v>
+        <v>13274.99494514097</v>
       </c>
       <c r="H121" t="n">
         <v>0.16</v>
       </c>
       <c r="I121" t="n">
-        <v>2359830</v>
+        <v>2388981</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14569407</v>
+        <v>14448058</v>
       </c>
       <c r="E122" t="n">
-        <v>70561963</v>
+        <v>69974252</v>
       </c>
       <c r="F122" t="n">
-        <v>2714.828648519494</v>
+        <v>2007.335417832438</v>
       </c>
       <c r="G122" t="n">
-        <v>3319.89257555345</v>
+        <v>2760.36639839335</v>
       </c>
       <c r="H122" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="I122" t="n">
-        <v>3695466</v>
+        <v>3802915</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>495563</v>
+        <v>512480</v>
       </c>
       <c r="F123" t="n">
-        <v>4.144134421361748</v>
+        <v>4.131618877362694</v>
       </c>
       <c r="G123" t="n">
-        <v>5.336625709151729</v>
+        <v>5.227396031675938</v>
       </c>
       <c r="H123" t="n">
         <v>0.43</v>
       </c>
       <c r="I123" t="n">
-        <v>7492.75</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4631318</v>
+        <v>4633359</v>
       </c>
       <c r="E124" t="n">
-        <v>10556884</v>
+        <v>10561537</v>
       </c>
       <c r="F124" t="n">
-        <v>837.3700325460434</v>
+        <v>558.2254208404343</v>
       </c>
       <c r="G124" t="n">
-        <v>1408.444586985529</v>
+        <v>2252.050003717263</v>
       </c>
       <c r="H124" t="n">
         <v>1.41</v>
       </c>
       <c r="I124" t="n">
-        <v>79123</v>
+        <v>87210</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1928027356</v>
+        <v>1931068011</v>
       </c>
       <c r="F125" t="n">
-        <v>76490.60965404655</v>
+        <v>76310.45028457601</v>
       </c>
       <c r="G125" t="n">
-        <v>75356.54468008385</v>
+        <v>77738.48199718697</v>
       </c>
       <c r="H125" t="n">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="I125" t="n">
-        <v>27846542</v>
+        <v>27425614</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9461670</v>
+        <v>9510169</v>
       </c>
       <c r="E126" t="n">
-        <v>34438217</v>
+        <v>34611822</v>
       </c>
       <c r="F126" t="n">
-        <v>1140.053124292456</v>
+        <v>1141.289696365832</v>
       </c>
       <c r="G126" t="n">
-        <v>5.368928770679865</v>
+        <v>5.29502901912535</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>160791</v>
+        <v>129770</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>559900</v>
+        <v>557472</v>
       </c>
       <c r="F127" t="n">
-        <v>9.84250478271621</v>
+        <v>9.842350188807378</v>
       </c>
       <c r="G127" t="n">
-        <v>3.881598203759576</v>
+        <v>3.881537236409081</v>
       </c>
       <c r="H127" t="n">
         <v>0.45</v>
       </c>
       <c r="I127" t="n">
-        <v>955.33</v>
+        <v>923.34</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12178531</v>
+        <v>12123571</v>
       </c>
       <c r="E128" t="n">
-        <v>17657113</v>
+        <v>17577428</v>
       </c>
       <c r="F128" t="n">
-        <v>2155.719520676634</v>
+        <v>3771.862936476583</v>
       </c>
       <c r="G128" t="n">
-        <v>6565.665409031179</v>
+        <v>6889.686288519782</v>
       </c>
       <c r="H128" t="n">
-        <v>0.86</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I128" t="n">
-        <v>2036039</v>
+        <v>2035787</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31979942</v>
+        <v>31728156</v>
       </c>
       <c r="E129" t="n">
-        <v>99575279</v>
+        <v>98791297</v>
       </c>
       <c r="F129" t="n">
-        <v>15309.94800101075</v>
+        <v>15891.76375694938</v>
       </c>
       <c r="G129" t="n">
-        <v>9815.886430249444</v>
+        <v>16835.27453626861</v>
       </c>
       <c r="H129" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I129" t="n">
-        <v>11581362</v>
+        <v>11686383</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2051175</v>
+        <v>2078331</v>
       </c>
       <c r="E130" t="n">
-        <v>14708770</v>
+        <v>14903501</v>
       </c>
       <c r="F130" t="n">
-        <v>22.50100497488293</v>
+        <v>3.854739316303451</v>
       </c>
       <c r="G130" t="n">
-        <v>3.950470388069587</v>
+        <v>3.95234584509492</v>
       </c>
       <c r="H130" t="n">
-        <v>0.68</v>
+        <v>0.34</v>
       </c>
       <c r="I130" t="n">
-        <v>1995719</v>
+        <v>1994353</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7488850</v>
+        <v>7497307</v>
       </c>
       <c r="F131" t="n">
-        <v>159.3106490360789</v>
+        <v>63.1924630080151</v>
       </c>
       <c r="G131" t="n">
-        <v>62.57455654310666</v>
+        <v>102.7680418599092</v>
       </c>
       <c r="H131" t="n">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="I131" t="n">
-        <v>519283</v>
+        <v>518350</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>201431334</v>
+        <v>204427980</v>
       </c>
       <c r="E132" t="n">
-        <v>1140627984</v>
+        <v>1157596832</v>
       </c>
       <c r="F132" t="n">
-        <v>420183.4729272601</v>
+        <v>424970.978333482</v>
       </c>
       <c r="G132" t="n">
-        <v>431895.5874729243</v>
+        <v>471354.6510900157</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>63300280</v>
+        <v>64777166</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1035492</v>
+        <v>1039028</v>
       </c>
       <c r="E133" t="n">
-        <v>1035492</v>
+        <v>1039028</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>7842.38</v>
+        <v>6694.47</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>500393</v>
+        <v>502788</v>
       </c>
       <c r="E134" t="n">
-        <v>1684254</v>
+        <v>1692315</v>
       </c>
       <c r="F134" t="n">
-        <v>117.6204954198272</v>
+        <v>143.3090296185947</v>
       </c>
       <c r="G134" t="n">
-        <v>288.2970883025058</v>
+        <v>305.99918331164</v>
       </c>
       <c r="H134" t="n">
         <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>632095</v>
+        <v>632374</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>14143715</v>
+        <v>14142383</v>
       </c>
       <c r="F135" t="n">
-        <v>4.128428752795957</v>
+        <v>4.088638280415752</v>
       </c>
       <c r="G135" t="n">
-        <v>4.156750351857289</v>
+        <v>3.868499579373655</v>
       </c>
       <c r="H135" t="n">
         <v>0.35</v>
       </c>
       <c r="I135" t="n">
-        <v>142.85</v>
+        <v>142.84</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>141460218</v>
+        <v>142922368</v>
       </c>
       <c r="E136" t="n">
-        <v>1047853463</v>
+        <v>1058684208</v>
       </c>
       <c r="F136" t="n">
-        <v>59338.16357396128</v>
+        <v>32880.1438923012</v>
       </c>
       <c r="G136" t="n">
-        <v>59295.5403147304</v>
+        <v>32888.33550480538</v>
       </c>
       <c r="H136" t="n">
-        <v>0.06</v>
+        <v>0.28</v>
       </c>
       <c r="I136" t="n">
-        <v>9511743</v>
+        <v>8964582</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>32306428</v>
+        <v>31840895</v>
       </c>
       <c r="E137" t="n">
-        <v>153476238</v>
+        <v>151264659</v>
       </c>
       <c r="F137" t="n">
-        <v>16747.85985566628</v>
+        <v>7707.562103319407</v>
       </c>
       <c r="G137" t="n">
-        <v>30686.77491785377</v>
+        <v>11716.29567507843</v>
       </c>
       <c r="H137" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="I137" t="n">
-        <v>994924</v>
+        <v>1120903</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8028439</v>
+        <v>8030490</v>
       </c>
       <c r="E138" t="n">
-        <v>10755432</v>
+        <v>10758179</v>
       </c>
       <c r="F138" t="n">
-        <v>20.01409034681179</v>
+        <v>543.0308837958823</v>
       </c>
       <c r="G138" t="n">
-        <v>165.914610698755</v>
+        <v>134.9225975166332</v>
       </c>
       <c r="H138" t="n">
         <v>0.99</v>
       </c>
       <c r="I138" t="n">
-        <v>58834</v>
+        <v>29905</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1251097</v>
+        <v>1253022</v>
       </c>
       <c r="F139" t="n">
-        <v>97.34033404631738</v>
+        <v>97.36110616020808</v>
       </c>
       <c r="G139" t="n">
-        <v>11.23170459329331</v>
+        <v>11.23149081845017</v>
       </c>
       <c r="H139" t="n">
         <v>0.85</v>
       </c>
       <c r="I139" t="n">
-        <v>43547</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2365079</v>
+        <v>2376059</v>
       </c>
       <c r="E140" t="n">
-        <v>2365079</v>
+        <v>2376059</v>
       </c>
       <c r="F140" t="n">
-        <v>1579.353055917293</v>
+        <v>679.8304293893507</v>
       </c>
       <c r="G140" t="n">
-        <v>332.5655143921897</v>
+        <v>340.4607518408012</v>
       </c>
       <c r="H140" t="n">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="I140" t="n">
-        <v>264064</v>
+        <v>159652</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26381273</v>
+        <v>26468804</v>
       </c>
       <c r="E141" t="n">
-        <v>26381273</v>
+        <v>26468804</v>
       </c>
       <c r="F141" t="n">
-        <v>388.4532353526894</v>
+        <v>336.8138902133154</v>
       </c>
       <c r="G141" t="n">
-        <v>2103.072484519073</v>
+        <v>1570.959108340279</v>
       </c>
       <c r="H141" t="n">
-        <v>0.24</v>
+        <v>0.68</v>
       </c>
       <c r="I141" t="n">
-        <v>313318</v>
+        <v>313742</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6365445</v>
+        <v>6401198</v>
       </c>
       <c r="E142" t="n">
-        <v>6722623</v>
+        <v>6760382</v>
       </c>
       <c r="F142" t="n">
-        <v>7.011501772883981</v>
+        <v>7.011391650242946</v>
       </c>
       <c r="G142" t="n">
-        <v>176.095660141174</v>
+        <v>891.4147040013858</v>
       </c>
       <c r="H142" t="n">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
       <c r="I142" t="n">
-        <v>31777</v>
+        <v>28565</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3386289</v>
+        <v>3417442</v>
       </c>
       <c r="E143" t="n">
-        <v>7907548</v>
+        <v>7980297</v>
       </c>
       <c r="F143" t="n">
-        <v>1086.365501834565</v>
+        <v>1341.767690784132</v>
       </c>
       <c r="G143" t="n">
-        <v>1101.500634252229</v>
+        <v>1039.78903260279</v>
       </c>
       <c r="H143" t="n">
-        <v>1.04</v>
+        <v>0.83</v>
       </c>
       <c r="I143" t="n">
-        <v>656313</v>
+        <v>636607</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1577640</v>
+        <v>1582974</v>
       </c>
       <c r="E144" t="n">
-        <v>12252136</v>
+        <v>12293555</v>
       </c>
       <c r="F144" t="n">
-        <v>200.4560083416709</v>
+        <v>200.0586182421036</v>
       </c>
       <c r="G144" t="n">
-        <v>1580.686602696004</v>
+        <v>7641.065459737501</v>
       </c>
       <c r="H144" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="I144" t="n">
-        <v>517112</v>
+        <v>523391</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>339893653</v>
+        <v>339691497</v>
       </c>
       <c r="E145" t="n">
-        <v>3057894066</v>
+        <v>3056075346</v>
       </c>
       <c r="F145" t="n">
-        <v>586011.4314390229</v>
+        <v>461422.6478297656</v>
       </c>
       <c r="G145" t="n">
-        <v>741773.8172158092</v>
+        <v>650297.3122056061</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>38809846</v>
+        <v>38516711</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>244264</v>
+        <v>244481</v>
       </c>
       <c r="E146" t="n">
-        <v>2155816</v>
+        <v>2157731</v>
       </c>
       <c r="F146" t="n">
-        <v>4.187385306124635</v>
+        <v>5.540034653653874</v>
       </c>
       <c r="G146" t="n">
-        <v>45.57237759583982</v>
+        <v>14.63165473653733</v>
       </c>
       <c r="H146" t="n">
-        <v>0.84</v>
+        <v>0.65</v>
       </c>
       <c r="I146" t="n">
-        <v>82280</v>
+        <v>85483</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>653653</v>
+        <v>650881</v>
       </c>
       <c r="F147" t="n">
-        <v>541.5543364989428</v>
+        <v>541.5465734983577</v>
       </c>
       <c r="G147" t="n">
-        <v>580.9161372012317</v>
+        <v>957.1763750603562</v>
       </c>
       <c r="H147" t="n">
         <v>0.67</v>
       </c>
       <c r="I147" t="n">
-        <v>3346.15</v>
+        <v>3329.93</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4904682</v>
+        <v>4911955</v>
       </c>
       <c r="E148" t="n">
-        <v>17330523</v>
+        <v>17356222</v>
       </c>
       <c r="F148" t="n">
-        <v>1393.403310202451</v>
+        <v>1585.997952032322</v>
       </c>
       <c r="G148" t="n">
-        <v>2340.234736319456</v>
+        <v>2770.942700705918</v>
       </c>
       <c r="H148" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I148" t="n">
-        <v>87096</v>
+        <v>88449</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9267920</v>
+        <v>9317979</v>
       </c>
       <c r="E149" t="n">
-        <v>42957343</v>
+        <v>43189367</v>
       </c>
       <c r="F149" t="n">
-        <v>1553.665640012319</v>
+        <v>1871.871152888629</v>
       </c>
       <c r="G149" t="n">
-        <v>3224.492061370728</v>
+        <v>2900.454044160787</v>
       </c>
       <c r="H149" t="n">
         <v>0.42</v>
       </c>
       <c r="I149" t="n">
-        <v>129687</v>
+        <v>131074</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>49166367</v>
+        <v>50553797</v>
       </c>
       <c r="E150" t="n">
-        <v>284652948</v>
+        <v>292685598</v>
       </c>
       <c r="F150" t="n">
-        <v>93142.21589441977</v>
+        <v>28635.80118225551</v>
       </c>
       <c r="G150" t="n">
-        <v>66374.92153189937</v>
+        <v>49493.28271019072</v>
       </c>
       <c r="H150" t="n">
         <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>28125616</v>
+        <v>30366979</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>84899</v>
+        <v>84907</v>
       </c>
       <c r="E151" t="n">
-        <v>84899</v>
+        <v>84907</v>
       </c>
       <c r="F151" t="n">
-        <v>10.73804713028769</v>
+        <v>5.418691656643061</v>
       </c>
       <c r="G151" t="n">
-        <v>10.81623700822057</v>
+        <v>3.979498563678326</v>
       </c>
       <c r="H151" t="n">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="I151" t="n">
-        <v>22929</v>
+        <v>22784</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4389843</v>
+        <v>4352470</v>
       </c>
       <c r="F152" t="n">
-        <v>899.0874761322813</v>
+        <v>277.4043291090579</v>
       </c>
       <c r="G152" t="n">
-        <v>300.0849956458761</v>
+        <v>211.54898264853</v>
       </c>
       <c r="H152" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="I152" t="n">
-        <v>312016</v>
+        <v>312258</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39642899</v>
+        <v>39677056</v>
       </c>
       <c r="E153" t="n">
-        <v>54752488</v>
+        <v>54799665</v>
       </c>
       <c r="F153" t="n">
-        <v>4487.813600512065</v>
+        <v>1040.703753291396</v>
       </c>
       <c r="G153" t="n">
-        <v>6922.497213003072</v>
+        <v>1447.344104131789</v>
       </c>
       <c r="H153" t="n">
-        <v>0.31</v>
+        <v>0.84</v>
       </c>
       <c r="I153" t="n">
-        <v>335597</v>
+        <v>342604</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2073215</v>
+        <v>2073067</v>
       </c>
       <c r="E154" t="n">
-        <v>8466474</v>
+        <v>8465869</v>
       </c>
       <c r="F154" t="n">
-        <v>458.4105596734766</v>
+        <v>685.2448906833932</v>
       </c>
       <c r="G154" t="n">
-        <v>2428.739165331611</v>
+        <v>398.8215026778225</v>
       </c>
       <c r="H154" t="n">
-        <v>0.04</v>
+        <v>0.78</v>
       </c>
       <c r="I154" t="n">
-        <v>555564</v>
+        <v>534687</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7522496</v>
+        <v>7455532</v>
       </c>
       <c r="E155" t="n">
-        <v>7578413</v>
+        <v>7510951</v>
       </c>
       <c r="F155" t="n">
-        <v>471.3691333503255</v>
+        <v>829.1101538408699</v>
       </c>
       <c r="G155" t="n">
-        <v>7281.125459530607</v>
+        <v>8725.295706007848</v>
       </c>
       <c r="H155" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I155" t="n">
-        <v>5042778</v>
+        <v>5096167</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>474393</v>
+        <v>474374</v>
       </c>
       <c r="E156" t="n">
-        <v>474393</v>
+        <v>474374</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>19.39</v>
+        <v>18.97</v>
       </c>
       <c r="I156" t="n">
-        <v>9723.07</v>
+        <v>9427.15</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13494251</v>
+        <v>13662176</v>
       </c>
       <c r="E157" t="n">
-        <v>13540173</v>
+        <v>13708670</v>
       </c>
       <c r="F157" t="n">
-        <v>2455.614956143394</v>
+        <v>3713.796619424639</v>
       </c>
       <c r="G157" t="n">
-        <v>4067.985933962438</v>
+        <v>3798.498347415952</v>
       </c>
       <c r="H157" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="I157" t="n">
-        <v>5340665</v>
+        <v>5796150</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42694439</v>
+        <v>42815182</v>
       </c>
       <c r="E158" t="n">
-        <v>72485225</v>
+        <v>72690218</v>
       </c>
       <c r="F158" t="n">
-        <v>311.0350258148724</v>
+        <v>276.9961615816856</v>
       </c>
       <c r="G158" t="n">
-        <v>414.1649782630382</v>
+        <v>421.2486034808146</v>
       </c>
       <c r="H158" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I158" t="n">
-        <v>1095864</v>
+        <v>1086607</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>22539179</v>
+        <v>22515919</v>
       </c>
       <c r="E159" t="n">
-        <v>67562094</v>
+        <v>67492372</v>
       </c>
       <c r="F159" t="n">
-        <v>14879.21608323949</v>
+        <v>16234.27263245282</v>
       </c>
       <c r="G159" t="n">
-        <v>13949.34384829859</v>
+        <v>8666.444848715446</v>
       </c>
       <c r="H159" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="I159" t="n">
-        <v>3233101</v>
+        <v>3340490</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101165440</v>
+        <v>101366688</v>
       </c>
       <c r="E160" t="n">
-        <v>107548006</v>
+        <v>107761950</v>
       </c>
       <c r="F160" t="n">
-        <v>508.2592749159566</v>
+        <v>1203.995316087457</v>
       </c>
       <c r="G160" t="n">
-        <v>1131.865513317012</v>
+        <v>1083.553508977375</v>
       </c>
       <c r="H160" t="n">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="I160" t="n">
-        <v>374891</v>
+        <v>375748</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10396712</v>
+        <v>10394441</v>
       </c>
       <c r="E161" t="n">
-        <v>45170247</v>
+        <v>45153193</v>
       </c>
       <c r="F161" t="n">
-        <v>4134.522213607647</v>
+        <v>4132.60929237305</v>
       </c>
       <c r="G161" t="n">
-        <v>3624.752193436404</v>
+        <v>3616.253799484636</v>
       </c>
       <c r="H161" t="n">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
       <c r="I161" t="n">
-        <v>114230</v>
+        <v>116199</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15685989</v>
+        <v>15754218</v>
       </c>
       <c r="E162" t="n">
-        <v>96144582</v>
+        <v>96562783</v>
       </c>
       <c r="F162" t="n">
-        <v>751.77550204849</v>
+        <v>1422.037552651992</v>
       </c>
       <c r="G162" t="n">
-        <v>1625.808888840852</v>
+        <v>550.7324642261888</v>
       </c>
       <c r="H162" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I162" t="n">
-        <v>10777344</v>
+        <v>10562158</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1503829</v>
+        <v>1509208</v>
       </c>
       <c r="E163" t="n">
-        <v>1546130</v>
+        <v>1551660</v>
       </c>
       <c r="F163" t="n">
-        <v>73.76589556830115</v>
+        <v>73.8215425604366</v>
       </c>
       <c r="G163" t="n">
-        <v>65.69238263948726</v>
+        <v>65.69144773606253</v>
       </c>
       <c r="H163" t="n">
-        <v>0.84</v>
+        <v>1.48</v>
       </c>
       <c r="I163" t="n">
-        <v>152817</v>
+        <v>151077</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>96302</v>
+        <v>96274</v>
       </c>
       <c r="E164" t="n">
-        <v>273188</v>
+        <v>273106</v>
       </c>
       <c r="F164" t="n">
-        <v>4.224334988353673</v>
+        <v>4.224277307122421</v>
       </c>
       <c r="G164" t="n">
-        <v>85.99268428500011</v>
+        <v>85.99151009689193</v>
       </c>
       <c r="H164" t="n">
         <v>0.44</v>
       </c>
       <c r="I164" t="n">
-        <v>63.64</v>
+        <v>63.63</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47353997</v>
+        <v>47635106</v>
       </c>
       <c r="E165" t="n">
-        <v>203995840</v>
+        <v>205206827</v>
       </c>
       <c r="F165" t="n">
-        <v>4830.844861941415</v>
+        <v>7712.819109445115</v>
       </c>
       <c r="G165" t="n">
-        <v>5563.399076292783</v>
+        <v>7435.88254091203</v>
       </c>
       <c r="H165" t="n">
         <v>0.06</v>
       </c>
       <c r="I165" t="n">
-        <v>8908586</v>
+        <v>8871247</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7809681</v>
+        <v>7789861</v>
       </c>
       <c r="F166" t="n">
-        <v>68.32004254725209</v>
+        <v>105.4083934339176</v>
       </c>
       <c r="G166" t="n">
-        <v>300.4267621342985</v>
+        <v>282.3200108073605</v>
       </c>
       <c r="H166" t="n">
         <v>0.87</v>
       </c>
       <c r="I166" t="n">
-        <v>6652577</v>
+        <v>6100279</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>672020</v>
+        <v>670611</v>
       </c>
       <c r="E167" t="n">
-        <v>2426355</v>
+        <v>2421271</v>
       </c>
       <c r="F167" t="n">
-        <v>50.05793719735311</v>
+        <v>10.1838885950634</v>
       </c>
       <c r="G167" t="n">
-        <v>10.67512558463566</v>
+        <v>10.61459543909694</v>
       </c>
       <c r="H167" t="n">
         <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>343582</v>
+        <v>337418</v>
       </c>
     </row>
     <row r="168">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1585694</v>
+        <v>1605671</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>4.24</v>
+        <v>5.14</v>
       </c>
       <c r="I168" t="n">
-        <v>83742</v>
+        <v>83603</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13080886</v>
+        <v>13162460</v>
       </c>
       <c r="E169" t="n">
-        <v>13080886</v>
+        <v>13162460</v>
       </c>
       <c r="F169" t="n">
-        <v>565.3674274349266</v>
+        <v>574.1352918325061</v>
       </c>
       <c r="G169" t="n">
-        <v>150.1002001879096</v>
+        <v>22.98457281890956</v>
       </c>
       <c r="H169" t="n">
-        <v>2.45</v>
+        <v>3.17</v>
       </c>
       <c r="I169" t="n">
-        <v>3621634</v>
+        <v>3676595</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1876030</v>
+        <v>1915703</v>
       </c>
       <c r="E170" t="n">
-        <v>6815445</v>
+        <v>6958943</v>
       </c>
       <c r="F170" t="n">
-        <v>283.627692550448</v>
+        <v>310.4807578558442</v>
       </c>
       <c r="G170" t="n">
-        <v>3380.973730019124</v>
+        <v>179.3992288835796</v>
       </c>
       <c r="H170" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I170" t="n">
-        <v>130079</v>
+        <v>143974</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>9046306</v>
+        <v>8963066</v>
       </c>
       <c r="E171" t="n">
-        <v>20087634</v>
+        <v>19902772</v>
       </c>
       <c r="F171" t="n">
-        <v>1376.769018794206</v>
+        <v>1643.183594324727</v>
       </c>
       <c r="G171" t="n">
-        <v>1675.350770031434</v>
+        <v>1606.860415327241</v>
       </c>
       <c r="H171" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="I171" t="n">
-        <v>346833</v>
+        <v>345611</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1041051</v>
+        <v>1038455</v>
       </c>
       <c r="E172" t="n">
-        <v>3042810</v>
+        <v>3035224</v>
       </c>
       <c r="F172" t="n">
-        <v>97.98291101970553</v>
+        <v>97.98418440208064</v>
       </c>
       <c r="G172" t="n">
-        <v>662.2892375638916</v>
+        <v>661.0965077125853</v>
       </c>
       <c r="H172" t="n">
         <v>0.36</v>
       </c>
       <c r="I172" t="n">
-        <v>19864.36</v>
+        <v>18868.62</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20972436</v>
+        <v>21046841</v>
       </c>
       <c r="E173" t="n">
-        <v>83889744</v>
+        <v>84187365</v>
       </c>
       <c r="F173" t="n">
-        <v>21833.40569682082</v>
+        <v>15788.87526127661</v>
       </c>
       <c r="G173" t="n">
-        <v>13816.66921863731</v>
+        <v>24485.46986117814</v>
       </c>
       <c r="H173" t="n">
         <v>0.01</v>
       </c>
       <c r="I173" t="n">
-        <v>4339076</v>
+        <v>3906965</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4218575</v>
+        <v>4215202</v>
       </c>
       <c r="E174" t="n">
-        <v>4218575</v>
+        <v>4215202</v>
       </c>
       <c r="F174" t="n">
-        <v>2099.885836366481</v>
+        <v>1871.366574305842</v>
       </c>
       <c r="G174" t="n">
-        <v>1440.297131601616</v>
+        <v>1336.396420206238</v>
       </c>
       <c r="H174" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="I174" t="n">
-        <v>2682273</v>
+        <v>2714072</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>311365754</v>
+        <v>313239979</v>
       </c>
       <c r="E175" t="n">
-        <v>311365754</v>
+        <v>313239979</v>
       </c>
       <c r="F175" t="n">
-        <v>10781.3002152605</v>
+        <v>11007.3618916825</v>
       </c>
       <c r="G175" t="n">
-        <v>2984.001283769078</v>
+        <v>7680.064084564829</v>
       </c>
       <c r="H175" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="I175" t="n">
-        <v>14887409</v>
+        <v>14920802</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12863562</v>
+        <v>12782764</v>
       </c>
       <c r="E176" t="n">
-        <v>40695660</v>
+        <v>40440044</v>
       </c>
       <c r="F176" t="n">
-        <v>4749.202890382543</v>
+        <v>4160.322835228465</v>
       </c>
       <c r="G176" t="n">
-        <v>2521.248834190258</v>
+        <v>3425.373068082545</v>
       </c>
       <c r="H176" t="n">
-        <v>0.49</v>
+        <v>0.74</v>
       </c>
       <c r="I176" t="n">
-        <v>1204380</v>
+        <v>1164255</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24920</v>
+        <v>25021</v>
       </c>
       <c r="E177" t="n">
-        <v>195987</v>
+        <v>196784</v>
       </c>
       <c r="F177" t="n">
-        <v>114.8793616047669</v>
+        <v>78.62367468032754</v>
       </c>
       <c r="G177" t="n">
-        <v>282.6965070717632</v>
+        <v>399.1074533514141</v>
       </c>
       <c r="H177" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="I177" t="n">
-        <v>89847</v>
+        <v>87583</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8287735</v>
+        <v>8559693</v>
       </c>
       <c r="E178" t="n">
-        <v>8287735</v>
+        <v>8559693</v>
       </c>
       <c r="F178" t="n">
-        <v>1632.412045731628</v>
+        <v>912.3544290298498</v>
       </c>
       <c r="G178" t="n">
-        <v>1796.335485443388</v>
+        <v>3078.812314758493</v>
       </c>
       <c r="H178" t="n">
-        <v>0.02</v>
+        <v>0.49</v>
       </c>
       <c r="I178" t="n">
-        <v>3602677</v>
+        <v>3675489</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1083718</v>
+        <v>1083149</v>
       </c>
       <c r="E179" t="n">
-        <v>2468275</v>
+        <v>2466978</v>
       </c>
       <c r="F179" t="n">
-        <v>5.326794117691566</v>
+        <v>5.390631974724537</v>
       </c>
       <c r="G179" t="n">
-        <v>5.395176618223164</v>
+        <v>5.451653457014745</v>
       </c>
       <c r="H179" t="n">
         <v>0.45</v>
       </c>
       <c r="I179" t="n">
-        <v>2818.6</v>
+        <v>2423.98</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9137578</v>
+        <v>9218608</v>
       </c>
       <c r="E180" t="n">
-        <v>9137578</v>
+        <v>9218608</v>
       </c>
       <c r="F180" t="n">
-        <v>4017.509890084953</v>
+        <v>3202.802230603637</v>
       </c>
       <c r="G180" t="n">
-        <v>3975.245170879671</v>
+        <v>4129.252825017595</v>
       </c>
       <c r="H180" t="n">
         <v>0.76</v>
       </c>
       <c r="I180" t="n">
-        <v>2964349</v>
+        <v>2995789</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18033640</v>
+        <v>18258961</v>
       </c>
       <c r="E181" t="n">
-        <v>18033640</v>
+        <v>18258961</v>
       </c>
       <c r="F181" t="n">
-        <v>3263.869188731236</v>
+        <v>2119.332069133392</v>
       </c>
       <c r="G181" t="n">
-        <v>3734.183117016692</v>
+        <v>7659.054923521233</v>
       </c>
       <c r="H181" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I181" t="n">
-        <v>3679404</v>
+        <v>3775024</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>31829944</v>
+        <v>32013560</v>
       </c>
       <c r="E182" t="n">
-        <v>88165786</v>
+        <v>88674385</v>
       </c>
       <c r="F182" t="n">
-        <v>5243.10609638273</v>
+        <v>7231.369749639658</v>
       </c>
       <c r="G182" t="n">
-        <v>6309.664852051157</v>
+        <v>6612.572902084375</v>
       </c>
       <c r="H182" t="n">
         <v>0.18</v>
       </c>
       <c r="I182" t="n">
-        <v>12051086</v>
+        <v>11811212</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>38347754</v>
+        <v>38096435</v>
       </c>
       <c r="E183" t="n">
-        <v>96694626</v>
+        <v>96060919</v>
       </c>
       <c r="F183" t="n">
-        <v>20146.56628362019</v>
+        <v>8761.665897956455</v>
       </c>
       <c r="G183" t="n">
-        <v>7094.472681737005</v>
+        <v>2313.758814310703</v>
       </c>
       <c r="H183" t="n">
-        <v>0.49</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I183" t="n">
-        <v>3409109</v>
+        <v>3419835</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>308155264</v>
+        <v>312170561</v>
       </c>
       <c r="E184" t="n">
-        <v>312968362</v>
+        <v>317045301</v>
       </c>
       <c r="F184" t="n">
-        <v>15889.06032137712</v>
+        <v>26964.45716669233</v>
       </c>
       <c r="G184" t="n">
-        <v>14689.69828915138</v>
+        <v>23250.87045267086</v>
       </c>
       <c r="H184" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I184" t="n">
-        <v>14167906</v>
+        <v>14908308</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>407373</v>
+        <v>411134</v>
       </c>
       <c r="F185" t="n">
-        <v>433.4379787369157</v>
+        <v>14.59464116877787</v>
       </c>
       <c r="G185" t="n">
-        <v>50.24038580902486</v>
+        <v>1.059073235081835</v>
       </c>
       <c r="H185" t="n">
-        <v>2.91</v>
+        <v>2.18</v>
       </c>
       <c r="I185" t="n">
-        <v>67243</v>
+        <v>68476</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28168884</v>
+        <v>28583224</v>
       </c>
       <c r="E186" t="n">
-        <v>66922265</v>
+        <v>67906634</v>
       </c>
       <c r="F186" t="n">
-        <v>11140.43540695633</v>
+        <v>11004.06798595172</v>
       </c>
       <c r="G186" t="n">
-        <v>6902.802444395205</v>
+        <v>6597.563147631384</v>
       </c>
       <c r="H186" t="n">
         <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>458288</v>
+        <v>283123</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>20032196</v>
+        <v>20119193</v>
       </c>
       <c r="F187" t="n">
-        <v>3.870968660868836</v>
+        <v>4.082557873105229</v>
       </c>
       <c r="G187" t="n">
-        <v>2635.375358092092</v>
+        <v>233.2517966598634</v>
       </c>
       <c r="H187" t="n">
-        <v>0.58</v>
+        <v>0.27</v>
       </c>
       <c r="I187" t="n">
-        <v>1906.31</v>
+        <v>1890.99</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12756084</v>
+        <v>12713827</v>
       </c>
       <c r="E188" t="n">
-        <v>19417636</v>
+        <v>19353312</v>
       </c>
       <c r="F188" t="n">
-        <v>3559.191296464523</v>
+        <v>3733.753775209173</v>
       </c>
       <c r="G188" t="n">
-        <v>2485.636779190908</v>
+        <v>2801.995992619779</v>
       </c>
       <c r="H188" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="I188" t="n">
-        <v>770024</v>
+        <v>762218</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>85796232</v>
+        <v>86619997</v>
       </c>
       <c r="E189" t="n">
-        <v>85796232</v>
+        <v>86619997</v>
       </c>
       <c r="F189" t="n">
-        <v>6494.759562685724</v>
+        <v>6784.777237746705</v>
       </c>
       <c r="G189" t="n">
-        <v>10080.76565700856</v>
+        <v>9139.748983945765</v>
       </c>
       <c r="H189" t="n">
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="I189" t="n">
-        <v>5300221</v>
+        <v>5122135</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>314578029</v>
+        <v>298456088</v>
       </c>
       <c r="E190" t="n">
-        <v>314578029</v>
+        <v>298456088</v>
       </c>
       <c r="F190" t="n">
-        <v>216249.3286071025</v>
+        <v>209049.3494186872</v>
       </c>
       <c r="G190" t="n">
-        <v>306882.0644074882</v>
+        <v>229167.832808923</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>51654675</v>
+        <v>63257284</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10408665</v>
+        <v>10216154</v>
       </c>
       <c r="E191" t="n">
-        <v>29551935</v>
+        <v>29005366</v>
       </c>
       <c r="F191" t="n">
-        <v>3164.547333796612</v>
+        <v>876.8434701777448</v>
       </c>
       <c r="G191" t="n">
-        <v>3062.545425001543</v>
+        <v>8158.894941345997</v>
       </c>
       <c r="H191" t="n">
-        <v>0.68</v>
+        <v>1.03</v>
       </c>
       <c r="I191" t="n">
-        <v>122260</v>
+        <v>124655</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4289533</v>
+        <v>4223077</v>
       </c>
       <c r="E192" t="n">
-        <v>29310077</v>
+        <v>28855989</v>
       </c>
       <c r="F192" t="n">
-        <v>4666.063676217319</v>
+        <v>3127.244488548285</v>
       </c>
       <c r="G192" t="n">
-        <v>2963.77785977246</v>
+        <v>5029.162385267887</v>
       </c>
       <c r="H192" t="n">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="I192" t="n">
-        <v>2642814</v>
+        <v>2650527</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2848153</v>
+        <v>2914753</v>
       </c>
       <c r="E193" t="n">
-        <v>4222479</v>
+        <v>4320700</v>
       </c>
       <c r="F193" t="n">
-        <v>591.7735604422169</v>
+        <v>759.7663060315882</v>
       </c>
       <c r="G193" t="n">
-        <v>436.3643496989278</v>
+        <v>190.9229961314398</v>
       </c>
       <c r="H193" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="I193" t="n">
-        <v>210465</v>
+        <v>214315</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>90640805</v>
+        <v>91478916</v>
       </c>
       <c r="E194" t="n">
-        <v>522311416</v>
+        <v>527140969</v>
       </c>
       <c r="F194" t="n">
-        <v>523659.2016204321</v>
+        <v>521281.4740661905</v>
       </c>
       <c r="G194" t="n">
-        <v>444714.1015353578</v>
+        <v>418202.8037739887</v>
       </c>
       <c r="H194" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I194" t="n">
-        <v>16570422</v>
+        <v>16872970</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>729661</v>
+        <v>687307</v>
       </c>
       <c r="E195" t="n">
-        <v>795763</v>
+        <v>749572</v>
       </c>
       <c r="F195" t="n">
-        <v>5.425286537641544</v>
+        <v>5.52266752290773</v>
       </c>
       <c r="G195" t="n">
-        <v>5.40751357493289</v>
+        <v>34.52626409645466</v>
       </c>
       <c r="H195" t="n">
-        <v>0.66</v>
+        <v>0.24</v>
       </c>
       <c r="I195" t="n">
-        <v>129437</v>
+        <v>121949</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>108376861</v>
+        <v>108643659</v>
       </c>
       <c r="E196" t="n">
-        <v>266649420</v>
+        <v>267305848</v>
       </c>
       <c r="F196" t="n">
-        <v>40052.96612434104</v>
+        <v>35710.34118131165</v>
       </c>
       <c r="G196" t="n">
-        <v>58791.60847205936</v>
+        <v>40322.99661224979</v>
       </c>
       <c r="H196" t="n">
         <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2275353</v>
+        <v>2116959</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18586070</v>
+        <v>19686919</v>
       </c>
       <c r="E197" t="n">
-        <v>18586070</v>
+        <v>19686919</v>
       </c>
       <c r="F197" t="n">
-        <v>5.508694964979521</v>
+        <v>5.508651858891392</v>
       </c>
       <c r="G197" t="n">
-        <v>4.016724395627913</v>
+        <v>4.016692964358458</v>
       </c>
       <c r="H197" t="n">
         <v>0.8</v>
       </c>
       <c r="I197" t="n">
-        <v>124439</v>
+        <v>122542</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1340188</v>
+        <v>1337183</v>
       </c>
       <c r="F198" t="n">
-        <v>412.9599801373765</v>
+        <v>18.6990678471186</v>
       </c>
       <c r="G198" t="n">
-        <v>5.283453286564789</v>
+        <v>3.867410860221846</v>
       </c>
       <c r="H198" t="n">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="I198" t="n">
-        <v>30146</v>
+        <v>4064.25</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>145695</v>
+        <v>144876</v>
       </c>
       <c r="E199" t="n">
-        <v>317176</v>
+        <v>315392</v>
       </c>
       <c r="F199" t="n">
-        <v>5.383830938908711</v>
+        <v>594.7349197124812</v>
       </c>
       <c r="G199" t="n">
-        <v>3.642263594149868</v>
+        <v>3.642213298681477</v>
       </c>
       <c r="H199" t="n">
         <v>0.61</v>
       </c>
       <c r="I199" t="n">
-        <v>54073</v>
+        <v>53022</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2811000</v>
+        <v>2664491</v>
       </c>
       <c r="F200" t="n">
-        <v>498.9113900579912</v>
+        <v>103.1739587355021</v>
       </c>
       <c r="G200" t="n">
-        <v>702.2264203067172</v>
+        <v>215.3849404055024</v>
       </c>
       <c r="H200" t="n">
-        <v>1.42</v>
+        <v>2.92</v>
       </c>
       <c r="I200" t="n">
-        <v>423534</v>
+        <v>422269</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>184029</v>
+        <v>184470</v>
       </c>
       <c r="E201" t="n">
-        <v>1421071</v>
+        <v>1424478</v>
       </c>
       <c r="F201" t="n">
-        <v>20.82779780268874</v>
+        <v>5.283616754145731</v>
       </c>
       <c r="G201" t="n">
-        <v>10.32982780223141</v>
+        <v>9.05414586805685</v>
       </c>
       <c r="H201" t="n">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="I201" t="n">
-        <v>108370</v>
+        <v>106919</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30936291</v>
+        <v>30788345</v>
       </c>
       <c r="E202" t="n">
-        <v>138514466</v>
+        <v>137852051</v>
       </c>
       <c r="F202" t="n">
-        <v>7967.05028572505</v>
+        <v>12231.75606274252</v>
       </c>
       <c r="G202" t="n">
-        <v>12103.68948749832</v>
+        <v>8834.823724768357</v>
       </c>
       <c r="H202" t="n">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
       <c r="I202" t="n">
-        <v>8803843</v>
+        <v>8702711</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13022616</v>
+        <v>13023764</v>
       </c>
       <c r="E203" t="n">
-        <v>26033861</v>
+        <v>26036156</v>
       </c>
       <c r="F203" t="n">
-        <v>681.1089266596438</v>
+        <v>679.8158013360667</v>
       </c>
       <c r="G203" t="n">
-        <v>716.6006817644763</v>
+        <v>716.1609472311031</v>
       </c>
       <c r="H203" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="I203" t="n">
-        <v>33737</v>
+        <v>30474</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1463324</v>
+        <v>1454564</v>
       </c>
       <c r="F204" t="n">
-        <v>188.7077469153003</v>
+        <v>168.5409637573924</v>
       </c>
       <c r="G204" t="n">
-        <v>17.96393304573192</v>
+        <v>92.274179637983</v>
       </c>
       <c r="H204" t="n">
-        <v>2.47</v>
+        <v>3.28</v>
       </c>
       <c r="I204" t="n">
-        <v>54530</v>
+        <v>51367</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>980772</v>
+        <v>978333</v>
       </c>
       <c r="E205" t="n">
-        <v>4536210</v>
+        <v>4524929</v>
       </c>
       <c r="F205" t="n">
-        <v>3510.071393019891</v>
+        <v>2794.811207767539</v>
       </c>
       <c r="G205" t="n">
-        <v>2907.446733258349</v>
+        <v>3334.569841204019</v>
       </c>
       <c r="H205" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="I205" t="n">
-        <v>498234</v>
+        <v>492999</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3082009</v>
+        <v>3105416</v>
       </c>
       <c r="E206" t="n">
-        <v>3082009</v>
+        <v>3105416</v>
       </c>
       <c r="F206" t="n">
-        <v>703.3935043123429</v>
+        <v>1065.14429538818</v>
       </c>
       <c r="G206" t="n">
-        <v>1271.569222028342</v>
+        <v>752.7444131277829</v>
       </c>
       <c r="H206" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="I206" t="n">
-        <v>424766</v>
+        <v>429715</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>560690</v>
+        <v>559864</v>
       </c>
       <c r="E207" t="n">
-        <v>560690</v>
+        <v>559864</v>
       </c>
       <c r="F207" t="n">
-        <v>5.240110391484641</v>
+        <v>5.240053088833237</v>
       </c>
       <c r="G207" t="n">
-        <v>63.57164962036077</v>
+        <v>63.4834827462323</v>
       </c>
       <c r="H207" t="n">
         <v>0.71</v>
       </c>
       <c r="I207" t="n">
-        <v>38017</v>
+        <v>30221</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>15271470</v>
+        <v>15465216</v>
       </c>
       <c r="E208" t="n">
-        <v>19443019</v>
+        <v>19689689</v>
       </c>
       <c r="F208" t="n">
-        <v>152.8241989670016</v>
+        <v>130.8291605765812</v>
       </c>
       <c r="G208" t="n">
-        <v>141.2182727711603</v>
+        <v>138.6505705522657</v>
       </c>
       <c r="H208" t="n">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="I208" t="n">
-        <v>911211</v>
+        <v>923550</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1816244</v>
+        <v>1776376</v>
       </c>
       <c r="E209" t="n">
-        <v>1816244</v>
+        <v>1776376</v>
       </c>
       <c r="F209" t="n">
-        <v>29.0294607648915</v>
+        <v>28.94569110287699</v>
       </c>
       <c r="G209" t="n">
-        <v>26.93659994389296</v>
+        <v>46.43618239110037</v>
       </c>
       <c r="H209" t="n">
         <v>0.38</v>
       </c>
       <c r="I209" t="n">
-        <v>4302.94</v>
+        <v>4279.46</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5996109</v>
+        <v>5857736</v>
       </c>
       <c r="E210" t="n">
-        <v>15736803</v>
+        <v>15373637</v>
       </c>
       <c r="F210" t="n">
-        <v>847.2627633483945</v>
+        <v>910.9097117423491</v>
       </c>
       <c r="G210" t="n">
-        <v>232.6545451679566</v>
+        <v>696.6368780427014</v>
       </c>
       <c r="H210" t="n">
-        <v>1.24</v>
+        <v>0.74</v>
       </c>
       <c r="I210" t="n">
-        <v>21340</v>
+        <v>20836</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29748504</v>
+        <v>29673300</v>
       </c>
       <c r="F211" t="n">
-        <v>1020.410945519644</v>
+        <v>1048.371275846968</v>
       </c>
       <c r="G211" t="n">
-        <v>1720.978876586928</v>
+        <v>129.6182736462432</v>
       </c>
       <c r="H211" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I211" t="n">
-        <v>371985</v>
+        <v>370987</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17860034</v>
+        <v>17975079</v>
       </c>
       <c r="E212" t="n">
-        <v>17860034</v>
+        <v>17975079</v>
       </c>
       <c r="F212" t="n">
-        <v>26210.17026090913</v>
+        <v>13456.61436618836</v>
       </c>
       <c r="G212" t="n">
-        <v>33219.54915182001</v>
+        <v>23172.51546832315</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2904758</v>
+        <v>2930835</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>49854857</v>
+        <v>49880733</v>
       </c>
       <c r="E213" t="n">
-        <v>323295478</v>
+        <v>323463277</v>
       </c>
       <c r="F213" t="n">
-        <v>118876.5925876981</v>
+        <v>93897.59802216031</v>
       </c>
       <c r="G213" t="n">
-        <v>179674.0134333943</v>
+        <v>99063.50821251843</v>
       </c>
       <c r="H213" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I213" t="n">
-        <v>16847513</v>
+        <v>16529856</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9117545</v>
+        <v>9078693</v>
       </c>
       <c r="F214" t="n">
-        <v>139.5934641663853</v>
+        <v>139.5237040687245</v>
       </c>
       <c r="G214" t="n">
-        <v>5.138782538206586</v>
+        <v>5.389206362956221</v>
       </c>
       <c r="H214" t="n">
         <v>0.22</v>
       </c>
       <c r="I214" t="n">
-        <v>304745</v>
+        <v>305196</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7059165</v>
+        <v>7066218</v>
       </c>
       <c r="E215" t="n">
-        <v>7069185</v>
+        <v>7076194</v>
       </c>
       <c r="F215" t="n">
-        <v>71.38325514401005</v>
+        <v>43.99072017495116</v>
       </c>
       <c r="G215" t="n">
-        <v>1939.458212009739</v>
+        <v>1836.436556063082</v>
       </c>
       <c r="H215" t="n">
-        <v>0.26</v>
+        <v>1.16</v>
       </c>
       <c r="I215" t="n">
-        <v>764813</v>
+        <v>776297</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4789695</v>
+        <v>4785476</v>
       </c>
       <c r="F216" t="n">
-        <v>1144.474188640384</v>
+        <v>1147.689937326227</v>
       </c>
       <c r="G216" t="n">
-        <v>352.0152683918051</v>
+        <v>321.9212867796105</v>
       </c>
       <c r="H216" t="n">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="I216" t="n">
-        <v>200711</v>
+        <v>182366</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2490096</v>
+        <v>2451825</v>
       </c>
       <c r="E217" t="n">
-        <v>4511278</v>
+        <v>4441943</v>
       </c>
       <c r="F217" t="n">
-        <v>222.8296994771764</v>
+        <v>1313.183257093225</v>
       </c>
       <c r="G217" t="n">
-        <v>97.26465163459741</v>
+        <v>244.6377874331923</v>
       </c>
       <c r="H217" t="n">
-        <v>2.15</v>
+        <v>0.51</v>
       </c>
       <c r="I217" t="n">
-        <v>134536</v>
+        <v>126323</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125371236</v>
+        <v>125352973</v>
       </c>
       <c r="E218" t="n">
-        <v>2076250343</v>
+        <v>2075947907</v>
       </c>
       <c r="F218" t="n">
-        <v>7520.170613176869</v>
+        <v>4681.407864437365</v>
       </c>
       <c r="G218" t="n">
-        <v>2824.815737832967</v>
+        <v>12796.42551635484</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>4913185</v>
+        <v>4809355</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>95618550</v>
+        <v>97297759</v>
       </c>
       <c r="E219" t="n">
-        <v>96647820</v>
+        <v>98345104</v>
       </c>
       <c r="F219" t="n">
-        <v>8574.038674053128</v>
+        <v>10681.69211222303</v>
       </c>
       <c r="G219" t="n">
-        <v>22304.98137947549</v>
+        <v>21196.57505645693</v>
       </c>
       <c r="H219" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I219" t="n">
-        <v>35300341</v>
+        <v>37791014</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>238961608</v>
+        <v>240469995</v>
       </c>
       <c r="E220" t="n">
-        <v>238961608</v>
+        <v>240469995</v>
       </c>
       <c r="F220" t="n">
-        <v>72563.73094742435</v>
+        <v>109665.9561678292</v>
       </c>
       <c r="G220" t="n">
-        <v>104220.3464937652</v>
+        <v>68063.95437300677</v>
       </c>
       <c r="H220" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I220" t="n">
-        <v>45480118</v>
+        <v>46400831</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24592810</v>
+        <v>24568295</v>
       </c>
       <c r="E221" t="n">
-        <v>147143725</v>
+        <v>146997048</v>
       </c>
       <c r="F221" t="n">
-        <v>67206.16703664877</v>
+        <v>67606.55491866023</v>
       </c>
       <c r="G221" t="n">
-        <v>81443.57112760757</v>
+        <v>77265.72784103491</v>
       </c>
       <c r="H221" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I221" t="n">
-        <v>12052307</v>
+        <v>12370688</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1059703</v>
+        <v>1059691</v>
       </c>
       <c r="F222" t="n">
-        <v>139.7231050137443</v>
+        <v>96.85121807927925</v>
       </c>
       <c r="G222" t="n">
-        <v>383.3250646996768</v>
+        <v>278.1610694586954</v>
       </c>
       <c r="H222" t="n">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="I222" t="n">
-        <v>70941</v>
+        <v>69257</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2249477</v>
+        <v>2262345</v>
       </c>
       <c r="F223" t="n">
-        <v>139.4242207045444</v>
+        <v>132.3666565506398</v>
       </c>
       <c r="G223" t="n">
-        <v>884.2343219363887</v>
+        <v>726.999560252351</v>
       </c>
       <c r="H223" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="I223" t="n">
-        <v>175562</v>
+        <v>176365</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13586806</v>
+        <v>13564786</v>
       </c>
       <c r="E224" t="n">
-        <v>41693139</v>
+        <v>41625568</v>
       </c>
       <c r="F224" t="n">
-        <v>859.1455493204688</v>
+        <v>1464.538370852027</v>
       </c>
       <c r="G224" t="n">
-        <v>2850.096618632329</v>
+        <v>1993.66490628563</v>
       </c>
       <c r="H224" t="n">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="I224" t="n">
-        <v>2603452</v>
+        <v>2607771</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>55251748</v>
+        <v>54951160</v>
       </c>
       <c r="E225" t="n">
-        <v>95431780</v>
+        <v>94912600</v>
       </c>
       <c r="F225" t="n">
-        <v>7495.646491114981</v>
+        <v>13539.13139225881</v>
       </c>
       <c r="G225" t="n">
-        <v>6072.745391819544</v>
+        <v>6497.46642747098</v>
       </c>
       <c r="H225" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I225" t="n">
-        <v>2305219</v>
+        <v>2310256</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4197787</v>
+        <v>4213570</v>
       </c>
       <c r="E226" t="n">
-        <v>4197787</v>
+        <v>4213570</v>
       </c>
       <c r="F226" t="n">
-        <v>3.989901812441869</v>
+        <v>3.989839148250033</v>
       </c>
       <c r="G226" t="n">
-        <v>14.92712323661271</v>
+        <v>14.87139476193862</v>
       </c>
       <c r="H226" t="n">
         <v>0.5</v>
       </c>
       <c r="I226" t="n">
-        <v>1621850</v>
+        <v>1656292</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>212051</v>
+        <v>211734</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>51109</v>
+        <v>50352</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6720419</v>
+        <v>6608900</v>
       </c>
       <c r="E228" t="n">
-        <v>34574512</v>
+        <v>34000781</v>
       </c>
       <c r="F228" t="n">
-        <v>149.9454121402246</v>
+        <v>389.9577196223177</v>
       </c>
       <c r="G228" t="n">
-        <v>112.9067940873894</v>
+        <v>107.1229403098212</v>
       </c>
       <c r="H228" t="n">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="I228" t="n">
-        <v>920168</v>
+        <v>921480</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>177900624</v>
+        <v>178522009</v>
       </c>
       <c r="E230" t="n">
-        <v>207840457</v>
+        <v>208566419</v>
       </c>
       <c r="F230" t="n">
-        <v>20233.24052794548</v>
+        <v>33134.06971689156</v>
       </c>
       <c r="G230" t="n">
-        <v>42876.69600497732</v>
+        <v>24054.44380341981</v>
       </c>
       <c r="H230" t="n">
         <v>0.26</v>
       </c>
       <c r="I230" t="n">
-        <v>4255144</v>
+        <v>4212274</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>298696</v>
+        <v>301778</v>
       </c>
       <c r="F231" t="n">
-        <v>19.86125979872111</v>
+        <v>16.06262382376288</v>
       </c>
       <c r="G231" t="n">
-        <v>79.25028527681296</v>
+        <v>48.51189554837235</v>
       </c>
       <c r="H231" t="n">
-        <v>0.78</v>
+        <v>0.37</v>
       </c>
       <c r="I231" t="n">
-        <v>216702</v>
+        <v>309069</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29146599</v>
+        <v>29211066</v>
       </c>
       <c r="E232" t="n">
-        <v>39965083</v>
+        <v>40053479</v>
       </c>
       <c r="F232" t="n">
-        <v>5719.760460035731</v>
+        <v>5864.773392049437</v>
       </c>
       <c r="G232" t="n">
-        <v>5708.792920679848</v>
+        <v>5690.758942216545</v>
       </c>
       <c r="H232" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I232" t="n">
-        <v>209709</v>
+        <v>209335</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1775261</v>
+        <v>1307730</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1545247</v>
+        <v>1518850</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7995060</v>
+        <v>7995187</v>
       </c>
       <c r="F234" t="n">
-        <v>467.0098507982842</v>
+        <v>389.0938114585086</v>
       </c>
       <c r="G234" t="n">
-        <v>3295.035668739639</v>
+        <v>2582.64461432072</v>
       </c>
       <c r="H234" t="n">
         <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>660306</v>
+        <v>649340</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23038088</v>
+        <v>22989792</v>
       </c>
       <c r="E235" t="n">
-        <v>23038088</v>
+        <v>22989792</v>
       </c>
       <c r="F235" t="n">
-        <v>15230.87561288895</v>
+        <v>17747.63420069967</v>
       </c>
       <c r="G235" t="n">
-        <v>7098.602314397604</v>
+        <v>5672.571035770326</v>
       </c>
       <c r="H235" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="I235" t="n">
-        <v>2110408</v>
+        <v>2073235</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3396418</v>
+        <v>3373066</v>
       </c>
       <c r="E236" t="n">
-        <v>4549717</v>
+        <v>4518435</v>
       </c>
       <c r="F236" t="n">
-        <v>544.6373443154622</v>
+        <v>456.3579419391888</v>
       </c>
       <c r="G236" t="n">
-        <v>247.0531679791287</v>
+        <v>759.432058899841</v>
       </c>
       <c r="H236" t="n">
-        <v>0.84</v>
+        <v>1.27</v>
       </c>
       <c r="I236" t="n">
-        <v>150661</v>
+        <v>149694</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>35120573</v>
+        <v>35073665</v>
       </c>
       <c r="E237" t="n">
-        <v>175267851</v>
+        <v>175033759</v>
       </c>
       <c r="F237" t="n">
-        <v>101729.7804897014</v>
+        <v>95799.95593745467</v>
       </c>
       <c r="G237" t="n">
-        <v>75065.76479246945</v>
+        <v>99563.57753337421</v>
       </c>
       <c r="H237" t="n">
         <v>0.11</v>
       </c>
       <c r="I237" t="n">
-        <v>10398341</v>
+        <v>10289979</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26398582</v>
+        <v>26413305</v>
       </c>
       <c r="E238" t="n">
-        <v>59512066</v>
+        <v>59545258</v>
       </c>
       <c r="F238" t="n">
-        <v>267.1383311177281</v>
+        <v>216.1553993947104</v>
       </c>
       <c r="G238" t="n">
-        <v>150.8495072865796</v>
+        <v>80.24259836381715</v>
       </c>
       <c r="H238" t="n">
         <v>0.34</v>
       </c>
       <c r="I238" t="n">
-        <v>395839</v>
+        <v>408304</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1979089</v>
+        <v>1987362</v>
       </c>
       <c r="E239" t="n">
-        <v>1979089</v>
+        <v>1987362</v>
       </c>
       <c r="F239" t="n">
-        <v>155.8980774159884</v>
+        <v>155.7445838529548</v>
       </c>
       <c r="G239" t="n">
-        <v>153.457135623864</v>
+        <v>153.6122463344072</v>
       </c>
       <c r="H239" t="n">
         <v>0.42</v>
       </c>
       <c r="I239" t="n">
-        <v>9990.049999999999</v>
+        <v>8927.42</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>72307865</v>
+        <v>72315547</v>
       </c>
       <c r="F240" t="n">
-        <v>4.069529781158435</v>
+        <v>5.486727186626238</v>
       </c>
       <c r="G240" t="n">
-        <v>3.928886244286546</v>
+        <v>3.949322050743701</v>
       </c>
       <c r="H240" t="n">
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>62848</v>
+        <v>61782</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>910384</v>
+        <v>904807</v>
       </c>
       <c r="E241" t="n">
-        <v>910384</v>
+        <v>904807</v>
       </c>
       <c r="F241" t="n">
-        <v>5.358461394328828</v>
+        <v>3.871113407022917</v>
       </c>
       <c r="G241" t="n">
-        <v>35.39140312984256</v>
+        <v>5.242742306446172</v>
       </c>
       <c r="H241" t="n">
-        <v>0.22</v>
+        <v>0.54</v>
       </c>
       <c r="I241" t="n">
-        <v>12368.47</v>
+        <v>12248.66</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>116280</v>
+        <v>114767</v>
       </c>
       <c r="E242" t="n">
-        <v>116280</v>
+        <v>114767</v>
       </c>
       <c r="F242" t="n">
-        <v>43.50949574227087</v>
+        <v>6.336307966134346</v>
       </c>
       <c r="G242" t="n">
-        <v>4.591416701478746</v>
+        <v>92.55364308318397</v>
       </c>
       <c r="H242" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I242" t="n">
-        <v>38730</v>
+        <v>38028</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3492598</v>
+        <v>3491770</v>
       </c>
       <c r="E243" t="n">
-        <v>5017301</v>
+        <v>5016111</v>
       </c>
       <c r="F243" t="n">
-        <v>346.7894023235513</v>
+        <v>612.6267447538156</v>
       </c>
       <c r="G243" t="n">
-        <v>267.5187545297488</v>
+        <v>183.9592068369003</v>
       </c>
       <c r="H243" t="n">
-        <v>2.19</v>
+        <v>2.39</v>
       </c>
       <c r="I243" t="n">
-        <v>152053</v>
+        <v>149658</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>316251386</v>
+        <v>316585868</v>
       </c>
       <c r="E244" t="n">
-        <v>585137184</v>
+        <v>585756052</v>
       </c>
       <c r="F244" t="n">
-        <v>17287.3357736215</v>
+        <v>19668.36866876082</v>
       </c>
       <c r="G244" t="n">
-        <v>17722.22333498543</v>
+        <v>14043.04988150203</v>
       </c>
       <c r="H244" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>13470669</v>
+        <v>13542454</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>72197109</v>
+        <v>71845765</v>
       </c>
       <c r="E245" t="n">
-        <v>688741196</v>
+        <v>685376161</v>
       </c>
       <c r="F245" t="n">
-        <v>57427.44885957685</v>
+        <v>47582.29984992599</v>
       </c>
       <c r="G245" t="n">
-        <v>59016.70322448947</v>
+        <v>60282.78818113211</v>
       </c>
       <c r="H245" t="n">
         <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>21802361</v>
+        <v>21841821</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>81434</v>
+        <v>82282</v>
       </c>
       <c r="E246" t="n">
-        <v>676974</v>
+        <v>684029</v>
       </c>
       <c r="F246" t="n">
-        <v>3.931643849829937</v>
+        <v>3.939547144553106</v>
       </c>
       <c r="G246" t="n">
-        <v>5.682545737091553</v>
+        <v>4.275323057815871</v>
       </c>
       <c r="H246" t="n">
         <v>0.73</v>
       </c>
       <c r="I246" t="n">
-        <v>176.2</v>
+        <v>121.18</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1892008</v>
+        <v>1889333</v>
       </c>
       <c r="E247" t="n">
-        <v>5403333</v>
+        <v>5395692</v>
       </c>
       <c r="F247" t="n">
-        <v>340.8079950172189</v>
+        <v>287.7305398935881</v>
       </c>
       <c r="G247" t="n">
-        <v>222.4383103649093</v>
+        <v>269.9157081403343</v>
       </c>
       <c r="H247" t="n">
         <v>0.27</v>
       </c>
       <c r="I247" t="n">
-        <v>66927</v>
+        <v>67211</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37886260</v>
+        <v>37855360</v>
       </c>
       <c r="E248" t="n">
-        <v>49533819</v>
+        <v>49493419</v>
       </c>
       <c r="F248" t="n">
-        <v>421.2080647729551</v>
+        <v>667.7679419481727</v>
       </c>
       <c r="G248" t="n">
-        <v>3828.731775594922</v>
+        <v>2610.761435968156</v>
       </c>
       <c r="H248" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="I248" t="n">
-        <v>282917</v>
+        <v>187599</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>11452048</v>
+        <v>11113089</v>
       </c>
       <c r="E249" t="n">
-        <v>33978984</v>
+        <v>32973270</v>
       </c>
       <c r="F249" t="n">
-        <v>666.1367128627137</v>
+        <v>1632.636571030348</v>
       </c>
       <c r="G249" t="n">
-        <v>1964.479910992603</v>
+        <v>2053.336214544315</v>
       </c>
       <c r="H249" t="n">
-        <v>2.11</v>
+        <v>0.3</v>
       </c>
       <c r="I249" t="n">
-        <v>6923895</v>
+        <v>6466674</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1984290</v>
+        <v>1983887</v>
       </c>
       <c r="E250" t="n">
-        <v>5757065</v>
+        <v>5755895</v>
       </c>
       <c r="F250" t="n">
-        <v>163.1062666497754</v>
+        <v>165.7731428679994</v>
       </c>
       <c r="G250" t="n">
-        <v>138.5126128584609</v>
+        <v>190.9668304379711</v>
       </c>
       <c r="H250" t="n">
-        <v>0.7</v>
+        <v>0.02</v>
       </c>
       <c r="I250" t="n">
-        <v>48769</v>
+        <v>52218</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7399983</v>
+        <v>7410509</v>
       </c>
       <c r="E251" t="n">
-        <v>7399994</v>
+        <v>7410520</v>
       </c>
       <c r="F251" t="n">
-        <v>1760.849305491791</v>
+        <v>1794.147797628631</v>
       </c>
       <c r="G251" t="n">
-        <v>1683.52422186769</v>
+        <v>3123.14650030871</v>
       </c>
       <c r="H251" t="n">
         <v>0.96</v>
       </c>
       <c r="I251" t="n">
-        <v>321890</v>
+        <v>322071</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6227103</v>
+        <v>6374269</v>
       </c>
       <c r="E252" t="n">
-        <v>6227103</v>
+        <v>6374269</v>
       </c>
       <c r="F252" t="n">
-        <v>467.2693708346101</v>
+        <v>86.83291470984504</v>
       </c>
       <c r="G252" t="n">
-        <v>1572.483248940692</v>
+        <v>990.3840615169978</v>
       </c>
       <c r="H252" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="I252" t="n">
-        <v>480754</v>
+        <v>253617</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6223089</v>
+        <v>6239892</v>
       </c>
       <c r="E253" t="n">
-        <v>22730535</v>
+        <v>22791911</v>
       </c>
       <c r="F253" t="n">
-        <v>516.0623394550905</v>
+        <v>495.1343104170425</v>
       </c>
       <c r="G253" t="n">
-        <v>348.9546830039209</v>
+        <v>96.1939078420873</v>
       </c>
       <c r="H253" t="n">
-        <v>1.16</v>
+        <v>2.39</v>
       </c>
       <c r="I253" t="n">
-        <v>502389</v>
+        <v>500771</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2113513</v>
+        <v>2314333</v>
       </c>
       <c r="E254" t="n">
-        <v>18642586</v>
+        <v>20413949</v>
       </c>
       <c r="F254" t="n">
-        <v>208.5506642615738</v>
+        <v>92.79312944582487</v>
       </c>
       <c r="G254" t="n">
-        <v>1549.751205037574</v>
+        <v>2238.993489295185</v>
       </c>
       <c r="H254" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="I254" t="n">
-        <v>74590</v>
+        <v>82032</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14537539</v>
+        <v>14552306</v>
       </c>
       <c r="E255" t="n">
-        <v>29430359</v>
+        <v>29460255</v>
       </c>
       <c r="F255" t="n">
-        <v>95.9087299335136</v>
+        <v>96.19278021707726</v>
       </c>
       <c r="G255" t="n">
-        <v>280.6110925410371</v>
+        <v>280.4193746453657</v>
       </c>
       <c r="H255" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="I255" t="n">
-        <v>570748</v>
+        <v>573475</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44785505</v>
+        <v>45084458</v>
       </c>
       <c r="E256" t="n">
-        <v>44785505</v>
+        <v>45084458</v>
       </c>
       <c r="F256" t="n">
-        <v>7456.02825239775</v>
+        <v>6038.762063932459</v>
       </c>
       <c r="G256" t="n">
-        <v>3460.384051239432</v>
+        <v>1585.866489771139</v>
       </c>
       <c r="H256" t="n">
         <v>0.16</v>
       </c>
       <c r="I256" t="n">
-        <v>8635833</v>
+        <v>7530264</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8432218</v>
+        <v>8417033</v>
       </c>
       <c r="E257" t="n">
-        <v>12013978</v>
+        <v>11992343</v>
       </c>
       <c r="F257" t="n">
-        <v>87.55412951651995</v>
+        <v>81.19777934126465</v>
       </c>
       <c r="G257" t="n">
-        <v>776.6626283311622</v>
+        <v>587.428824909376</v>
       </c>
       <c r="H257" t="n">
         <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>432070</v>
+        <v>427131</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>149998297</v>
+        <v>151758083</v>
       </c>
       <c r="F258" t="n">
-        <v>1045.224516488747</v>
+        <v>7.765704340535721</v>
       </c>
       <c r="G258" t="n">
-        <v>374.4341664238758</v>
+        <v>711.5360173294347</v>
       </c>
       <c r="H258" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
       <c r="I258" t="n">
-        <v>1696089</v>
+        <v>1412323</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16303852</v>
+        <v>16330961</v>
       </c>
       <c r="F259" t="n">
-        <v>130.3115748124164</v>
+        <v>130.3097753595425</v>
       </c>
       <c r="G259" t="n">
-        <v>103.0209940359502</v>
+        <v>103.0195714345883</v>
       </c>
       <c r="H259" t="n">
         <v>0.29</v>
       </c>
       <c r="I259" t="n">
-        <v>989262</v>
+        <v>994065</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>718031</v>
+        <v>726248</v>
       </c>
       <c r="F260" t="n">
-        <v>9.631708767283786</v>
+        <v>9.631535701481157</v>
       </c>
       <c r="G260" t="n">
-        <v>3.515360138942015</v>
+        <v>3.515296973761393</v>
       </c>
       <c r="H260" t="n">
         <v>1.97</v>
       </c>
       <c r="I260" t="n">
-        <v>226116</v>
+        <v>207438</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3024647</v>
+        <v>2993065</v>
       </c>
       <c r="F261" t="n">
-        <v>12.83725107432743</v>
+        <v>132.512452882169</v>
       </c>
       <c r="G261" t="n">
-        <v>71.65927507945158</v>
+        <v>57.93131097837966</v>
       </c>
       <c r="H261" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I261" t="n">
-        <v>71985</v>
+        <v>71464</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2841949</v>
+        <v>2853534</v>
       </c>
       <c r="E262" t="n">
-        <v>2844411</v>
+        <v>2856005</v>
       </c>
       <c r="F262" t="n">
-        <v>445.5792238123141</v>
+        <v>39.21522697575781</v>
       </c>
       <c r="G262" t="n">
-        <v>23.81037333847909</v>
+        <v>4.162438604503758</v>
       </c>
       <c r="H262" t="n">
-        <v>0.63</v>
+        <v>0.31</v>
       </c>
       <c r="I262" t="n">
-        <v>97978</v>
+        <v>109326</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>62536756</v>
+        <v>62327305</v>
       </c>
       <c r="E263" t="n">
-        <v>103460776</v>
+        <v>103114262</v>
       </c>
       <c r="F263" t="n">
-        <v>7348.519377681504</v>
+        <v>6420.702895569258</v>
       </c>
       <c r="G263" t="n">
-        <v>10312.13826978582</v>
+        <v>7502.549538163685</v>
       </c>
       <c r="H263" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I263" t="n">
-        <v>6629610</v>
+        <v>6658668</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>690346</v>
+        <v>687464</v>
       </c>
       <c r="F264" t="n">
-        <v>1930.749286286775</v>
+        <v>291.2278993659564</v>
       </c>
       <c r="G264" t="n">
-        <v>121.9811081505929</v>
+        <v>147.0355249787825</v>
       </c>
       <c r="H264" t="n">
-        <v>0.09</v>
+        <v>1.09</v>
       </c>
       <c r="I264" t="n">
-        <v>692895</v>
+        <v>687687</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1260540</v>
+        <v>1251841</v>
       </c>
       <c r="E265" t="n">
-        <v>3809987</v>
+        <v>3783321</v>
       </c>
       <c r="F265" t="n">
-        <v>72.00261711044693</v>
+        <v>44.48557643670176</v>
       </c>
       <c r="G265" t="n">
-        <v>890.8107935240289</v>
+        <v>711.5329981231109</v>
       </c>
       <c r="H265" t="n">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="I265" t="n">
-        <v>12494.64</v>
+        <v>11847.71</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>38835496</v>
+        <v>39013462</v>
       </c>
       <c r="E266" t="n">
-        <v>275337332</v>
+        <v>276599084</v>
       </c>
       <c r="F266" t="n">
-        <v>62134.50713521908</v>
+        <v>53969.82722546866</v>
       </c>
       <c r="G266" t="n">
-        <v>29909.21360632665</v>
+        <v>24910.21736677823</v>
       </c>
       <c r="H266" t="n">
         <v>0.22</v>
       </c>
       <c r="I266" t="n">
-        <v>1605433</v>
+        <v>1606947</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>63023</v>
+        <v>57343</v>
       </c>
       <c r="E267" t="n">
-        <v>328826</v>
+        <v>299194</v>
       </c>
       <c r="F267" t="n">
-        <v>21.98308217721707</v>
+        <v>4.031170990950823</v>
       </c>
       <c r="G267" t="n">
-        <v>20.87892626185449</v>
+        <v>5.520698177294473</v>
       </c>
       <c r="H267" t="n">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="I267" t="n">
-        <v>291244</v>
+        <v>279433</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1271159</v>
+        <v>1274364</v>
       </c>
       <c r="E268" t="n">
-        <v>7882488</v>
+        <v>7902360</v>
       </c>
       <c r="F268" t="n">
-        <v>1857.17318832097</v>
+        <v>3114.895841922685</v>
       </c>
       <c r="G268" t="n">
-        <v>2414.099640842302</v>
+        <v>2192.683454438928</v>
       </c>
       <c r="H268" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="I268" t="n">
-        <v>769226</v>
+        <v>780846</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>608577038</v>
+        <v>609269451</v>
       </c>
       <c r="E269" t="n">
-        <v>2356929081</v>
+        <v>2359610692</v>
       </c>
       <c r="F269" t="n">
-        <v>206174.5087563377</v>
+        <v>207196.878968267</v>
       </c>
       <c r="G269" t="n">
-        <v>307751.586556674</v>
+        <v>289090.0523572085</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>32703836</v>
+        <v>32614709</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3281617</v>
+        <v>3278923</v>
       </c>
       <c r="F270" t="n">
-        <v>301.3566399769352</v>
+        <v>393.8373518997088</v>
       </c>
       <c r="G270" t="n">
-        <v>117.5505291100933</v>
+        <v>117.5594759491534</v>
       </c>
       <c r="H270" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="I270" t="n">
-        <v>33064</v>
+        <v>33362</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>800372</v>
+        <v>799538</v>
       </c>
       <c r="F271" t="n">
-        <v>66.5703617711393</v>
+        <v>93.10290948386813</v>
       </c>
       <c r="G271" t="n">
-        <v>421.5341443989872</v>
+        <v>535.0811093619361</v>
       </c>
       <c r="H271" t="n">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="I271" t="n">
-        <v>214026</v>
+        <v>183955</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5887806</v>
+        <v>5891562</v>
       </c>
       <c r="E272" t="n">
-        <v>26360445</v>
+        <v>26373161</v>
       </c>
       <c r="F272" t="n">
-        <v>115.6238927801571</v>
+        <v>162.2787153140941</v>
       </c>
       <c r="G272" t="n">
-        <v>446.5589891228216</v>
+        <v>576.9207067977325</v>
       </c>
       <c r="H272" t="n">
         <v>0.57</v>
       </c>
       <c r="I272" t="n">
-        <v>153220</v>
+        <v>152589</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6673326</v>
+        <v>6731514</v>
       </c>
       <c r="E273" t="n">
-        <v>12776624</v>
+        <v>12888030</v>
       </c>
       <c r="F273" t="n">
-        <v>527.9045003603874</v>
+        <v>4940.555359214663</v>
       </c>
       <c r="G273" t="n">
-        <v>4037.069488634601</v>
+        <v>113.8576351757331</v>
       </c>
       <c r="H273" t="n">
-        <v>0.12</v>
+        <v>1.8</v>
       </c>
       <c r="I273" t="n">
-        <v>148186</v>
+        <v>143429</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3256739</v>
+        <v>3255457</v>
       </c>
       <c r="E274" t="n">
-        <v>21415559</v>
+        <v>21407128</v>
       </c>
       <c r="F274" t="n">
-        <v>218.1483737812435</v>
+        <v>121.6455678984318</v>
       </c>
       <c r="G274" t="n">
-        <v>143.999932064406</v>
+        <v>203.0022631519165</v>
       </c>
       <c r="H274" t="n">
         <v>0.95</v>
       </c>
       <c r="I274" t="n">
-        <v>1605029</v>
+        <v>1639731</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3710656</v>
+        <v>3710572</v>
       </c>
       <c r="E275" t="n">
-        <v>6325317</v>
+        <v>6325173</v>
       </c>
       <c r="F275" t="n">
-        <v>566.8303247825344</v>
+        <v>560.4728294517219</v>
       </c>
       <c r="G275" t="n">
-        <v>406.5934411340408</v>
+        <v>484.9453687861931</v>
       </c>
       <c r="H275" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I275" t="n">
-        <v>1282334</v>
+        <v>1259506</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>435810</v>
+        <v>435400</v>
       </c>
       <c r="E276" t="n">
-        <v>435810</v>
+        <v>435400</v>
       </c>
       <c r="F276" t="n">
-        <v>21.15177048533667</v>
+        <v>21.15146728176947</v>
       </c>
       <c r="G276" t="n">
-        <v>5.293803837017361</v>
+        <v>5.225133855957388</v>
       </c>
       <c r="H276" t="n">
         <v>0.58</v>
       </c>
       <c r="I276" t="n">
-        <v>328.14</v>
+        <v>321.01</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7401473</v>
+        <v>7348895</v>
       </c>
       <c r="E277" t="n">
-        <v>10605056</v>
+        <v>10529660</v>
       </c>
       <c r="F277" t="n">
-        <v>989.3542932041707</v>
+        <v>1034.241276023424</v>
       </c>
       <c r="G277" t="n">
-        <v>3232.897858933327</v>
+        <v>565.0527370168447</v>
       </c>
       <c r="H277" t="n">
         <v>0.21</v>
       </c>
       <c r="I277" t="n">
-        <v>199651</v>
+        <v>199617</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>122489752</v>
+        <v>123260499</v>
       </c>
       <c r="E278" t="n">
-        <v>1064973109</v>
+        <v>1071674284</v>
       </c>
       <c r="F278" t="n">
-        <v>10419.1821592365</v>
+        <v>10914.55437548549</v>
       </c>
       <c r="G278" t="n">
-        <v>7341.053809275892</v>
+        <v>13233.45390540055</v>
       </c>
       <c r="H278" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I278" t="n">
-        <v>9262849</v>
+        <v>9148719</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>117808773</v>
+        <v>114252919</v>
       </c>
       <c r="E279" t="n">
-        <v>179720045</v>
+        <v>174295506</v>
       </c>
       <c r="F279" t="n">
-        <v>48210.08947062244</v>
+        <v>49156.11861903154</v>
       </c>
       <c r="G279" t="n">
-        <v>55112.77908939743</v>
+        <v>54124.94696328769</v>
       </c>
       <c r="H279" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I279" t="n">
-        <v>7961302</v>
+        <v>7754857</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>16629165</v>
+        <v>16887042</v>
       </c>
       <c r="E280" t="n">
-        <v>22813775</v>
+        <v>23167559</v>
       </c>
       <c r="F280" t="n">
-        <v>3338.421363251258</v>
+        <v>371.3368689023856</v>
       </c>
       <c r="G280" t="n">
-        <v>1814.143400335345</v>
+        <v>632.2057320694338</v>
       </c>
       <c r="H280" t="n">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="I280" t="n">
-        <v>458824</v>
+        <v>493534</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5539118</v>
+        <v>5534164</v>
       </c>
       <c r="E281" t="n">
-        <v>5539118</v>
+        <v>5534164</v>
       </c>
       <c r="F281" t="n">
-        <v>80.05194122417794</v>
+        <v>79.91422514884061</v>
       </c>
       <c r="G281" t="n">
-        <v>54.91897255378261</v>
+        <v>56.5317023536787</v>
       </c>
       <c r="H281" t="n">
         <v>0.17</v>
       </c>
       <c r="I281" t="n">
-        <v>712804</v>
+        <v>720452</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>120149947</v>
+        <v>121203979</v>
       </c>
       <c r="E282" t="n">
-        <v>460914537</v>
+        <v>464957972</v>
       </c>
       <c r="F282" t="n">
-        <v>50007.97775280509</v>
+        <v>30517.89266743785</v>
       </c>
       <c r="G282" t="n">
-        <v>61145.67542682128</v>
+        <v>78628.37038578899</v>
       </c>
       <c r="H282" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I282" t="n">
-        <v>31328564</v>
+        <v>31423622</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>760009</v>
+        <v>766773</v>
       </c>
       <c r="F283" t="n">
-        <v>3.779532260328214</v>
+        <v>3.910332239585151</v>
       </c>
       <c r="G283" t="n">
-        <v>4.104360881177932</v>
+        <v>5.417515832771557</v>
       </c>
       <c r="H283" t="n">
         <v>0.5</v>
       </c>
       <c r="I283" t="n">
-        <v>51752</v>
+        <v>50224</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3188949</v>
+        <v>3188196</v>
       </c>
       <c r="E284" t="n">
-        <v>30215767</v>
+        <v>30208630</v>
       </c>
       <c r="F284" t="n">
-        <v>1481.718745364505</v>
+        <v>1483.587917588068</v>
       </c>
       <c r="G284" t="n">
-        <v>774.6229637348564</v>
+        <v>763.5050000562874</v>
       </c>
       <c r="H284" t="n">
         <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>216994</v>
+        <v>212341</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>84327</v>
+        <v>84859</v>
       </c>
       <c r="F285" t="n">
-        <v>487.1623286422069</v>
+        <v>668.2053044776715</v>
       </c>
       <c r="G285" t="n">
-        <v>66.65488763508867</v>
+        <v>79.98168316306479</v>
       </c>
       <c r="H285" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="I285" t="n">
-        <v>11930.68</v>
+        <v>13377.72</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>132836</v>
+        <v>133588</v>
       </c>
       <c r="F286" t="n">
-        <v>9.402376458445211</v>
+        <v>5.603868654172504</v>
       </c>
       <c r="G286" t="n">
-        <v>497.5152969442283</v>
+        <v>510.4782408790281</v>
       </c>
       <c r="H286" t="n">
-        <v>0.49</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I286" t="n">
-        <v>91433</v>
+        <v>90711</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>22196153</v>
+        <v>21978158</v>
       </c>
       <c r="E287" t="n">
-        <v>22196153</v>
+        <v>21978158</v>
       </c>
       <c r="F287" t="n">
-        <v>3478.166834091852</v>
+        <v>1970.522647650195</v>
       </c>
       <c r="G287" t="n">
-        <v>2794.961391420253</v>
+        <v>4589.227316440079</v>
       </c>
       <c r="H287" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="I287" t="n">
-        <v>643742</v>
+        <v>653530</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>570625</v>
+        <v>570652</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>932.98</v>
+        <v>932.9400000000001</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>5908173</v>
+        <v>6408324</v>
       </c>
       <c r="E289" t="n">
-        <v>36924390</v>
+        <v>40050193</v>
       </c>
       <c r="F289" t="n">
-        <v>891.9475538306899</v>
+        <v>104.6464418157327</v>
       </c>
       <c r="G289" t="n">
-        <v>745.5669173221388</v>
+        <v>1460.373823153157</v>
       </c>
       <c r="H289" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="I289" t="n">
-        <v>415427</v>
+        <v>431040</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494837107</v>
+        <v>494962885</v>
       </c>
       <c r="E290" t="n">
-        <v>494837107</v>
+        <v>494962885</v>
       </c>
       <c r="F290" t="n">
-        <v>1159714.87420896</v>
+        <v>1131960.777730159</v>
       </c>
       <c r="G290" t="n">
-        <v>1842969.60675721</v>
+        <v>1839623.925773476</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>32929305</v>
+        <v>32780046</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5144992</v>
+        <v>5151110</v>
       </c>
       <c r="E291" t="n">
-        <v>19158895</v>
+        <v>19181680</v>
       </c>
       <c r="F291" t="n">
-        <v>6916.069531367813</v>
+        <v>7084.718774047122</v>
       </c>
       <c r="G291" t="n">
-        <v>6918.937759356093</v>
+        <v>7028.030783567456</v>
       </c>
       <c r="H291" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I291" t="n">
-        <v>61909</v>
+        <v>62545</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31932052</v>
+        <v>31579600</v>
       </c>
       <c r="F292" t="n">
-        <v>7236.497634634732</v>
+        <v>8777.376996014413</v>
       </c>
       <c r="G292" t="n">
-        <v>8564.76135505722</v>
+        <v>9165.9642953987</v>
       </c>
       <c r="H292" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="I292" t="n">
-        <v>5490155</v>
+        <v>5376297</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31731723</v>
+        <v>31598792</v>
       </c>
       <c r="E293" t="n">
-        <v>113737928</v>
+        <v>113261455</v>
       </c>
       <c r="F293" t="n">
-        <v>103.0016074929787</v>
+        <v>28.2651043157239</v>
       </c>
       <c r="G293" t="n">
-        <v>2190.380523731184</v>
+        <v>2188.616575406669</v>
       </c>
       <c r="H293" t="n">
-        <v>0.82</v>
+        <v>0.53</v>
       </c>
       <c r="I293" t="n">
-        <v>92507</v>
+        <v>91038</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>810738</v>
+        <v>819616</v>
       </c>
       <c r="E294" t="n">
-        <v>12930989</v>
+        <v>13072586</v>
       </c>
       <c r="F294" t="n">
-        <v>10.65260969767851</v>
+        <v>15.45489371452409</v>
       </c>
       <c r="G294" t="n">
-        <v>18.89190550226243</v>
+        <v>2.907780863089508</v>
       </c>
       <c r="H294" t="n">
-        <v>2.15</v>
+        <v>2.74</v>
       </c>
       <c r="I294" t="n">
-        <v>229059</v>
+        <v>256679</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85177</v>
+        <v>85022</v>
       </c>
       <c r="F295" t="n">
-        <v>93.67757018318001</v>
+        <v>93.67622734649099</v>
       </c>
       <c r="G295" t="n">
-        <v>41.82456700604005</v>
+        <v>61.73292013393134</v>
       </c>
       <c r="H295" t="n">
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>56592</v>
+        <v>56082</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1522176</v>
+        <v>1570105</v>
       </c>
       <c r="F296" t="n">
-        <v>4.765091014105275</v>
+        <v>3.885702352883705</v>
       </c>
       <c r="G296" t="n">
-        <v>3.912814271570849</v>
+        <v>10.54745808329698</v>
       </c>
       <c r="H296" t="n">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
       <c r="I296" t="n">
-        <v>608536</v>
+        <v>603118</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2634164391</v>
+        <v>2643653080</v>
       </c>
       <c r="E297" t="n">
-        <v>2796797166</v>
+        <v>2806871685</v>
       </c>
       <c r="F297" t="n">
-        <v>40641.30052604909</v>
+        <v>34678.29449784519</v>
       </c>
       <c r="G297" t="n">
-        <v>86615.97679088281</v>
+        <v>63748.95012827713</v>
       </c>
       <c r="H297" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I297" t="n">
-        <v>35357868</v>
+        <v>34956250</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2229347</v>
+        <v>2217982</v>
       </c>
       <c r="E298" t="n">
-        <v>17147507</v>
+        <v>17060086</v>
       </c>
       <c r="F298" t="n">
-        <v>4053.041709208379</v>
+        <v>4069.594840830409</v>
       </c>
       <c r="G298" t="n">
-        <v>4038.192383108431</v>
+        <v>4061.093785462831</v>
       </c>
       <c r="H298" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I298" t="n">
-        <v>174211</v>
+        <v>175088</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1701105</v>
+        <v>1724141</v>
       </c>
       <c r="E299" t="n">
-        <v>1707109</v>
+        <v>1730227</v>
       </c>
       <c r="F299" t="n">
-        <v>876.9213100324415</v>
+        <v>1569.336665344857</v>
       </c>
       <c r="G299" t="n">
-        <v>518.3157345270918</v>
+        <v>887.5174630543067</v>
       </c>
       <c r="H299" t="n">
-        <v>1.27</v>
+        <v>0.76</v>
       </c>
       <c r="I299" t="n">
-        <v>439857</v>
+        <v>439459</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>88715328</v>
+        <v>88785494</v>
       </c>
       <c r="E300" t="n">
-        <v>327944584</v>
+        <v>328201941</v>
       </c>
       <c r="F300" t="n">
-        <v>5653.58416510612</v>
+        <v>5304.911590177349</v>
       </c>
       <c r="G300" t="n">
-        <v>612.0621951601071</v>
+        <v>2333.915854592994</v>
       </c>
       <c r="H300" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="I300" t="n">
-        <v>259046</v>
+        <v>245233</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2318243</v>
+        <v>2300621</v>
       </c>
       <c r="E301" t="n">
-        <v>9302029</v>
+        <v>9231319</v>
       </c>
       <c r="F301" t="n">
-        <v>43.77777879510325</v>
+        <v>5.454445936242807</v>
       </c>
       <c r="G301" t="n">
-        <v>4.060656113965719</v>
+        <v>4.122925251103635</v>
       </c>
       <c r="H301" t="n">
-        <v>0.32</v>
+        <v>0.75</v>
       </c>
       <c r="I301" t="n">
-        <v>40838</v>
+        <v>41713</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>61061293</v>
+        <v>61541296</v>
       </c>
       <c r="E302" t="n">
-        <v>149779214</v>
+        <v>150956628</v>
       </c>
       <c r="F302" t="n">
-        <v>1229.692115310032</v>
+        <v>2368.667372187678</v>
       </c>
       <c r="G302" t="n">
-        <v>2901.488264216007</v>
+        <v>2018.912560085616</v>
       </c>
       <c r="H302" t="n">
-        <v>0.34</v>
+        <v>0.66</v>
       </c>
       <c r="I302" t="n">
-        <v>22499823</v>
+        <v>22592072</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>727189337</v>
+        <v>752874274</v>
       </c>
       <c r="E303" t="n">
-        <v>1121390163</v>
+        <v>1160998603</v>
       </c>
       <c r="F303" t="n">
-        <v>40622.24655552551</v>
+        <v>47576.39616573536</v>
       </c>
       <c r="G303" t="n">
-        <v>62594.18477396321</v>
+        <v>43472.91994172347</v>
       </c>
       <c r="H303" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I303" t="n">
-        <v>183693100</v>
+        <v>220473890</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>21077151</v>
+        <v>20746726</v>
       </c>
       <c r="E304" t="n">
-        <v>21077151</v>
+        <v>20746726</v>
       </c>
       <c r="F304" t="n">
-        <v>3505.498762879295</v>
+        <v>3360.29439468605</v>
       </c>
       <c r="G304" t="n">
-        <v>3721.621643918001</v>
+        <v>2901.80217871029</v>
       </c>
       <c r="H304" t="n">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
       <c r="I304" t="n">
-        <v>7149041</v>
+        <v>7173194</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1842445</v>
+        <v>1840193</v>
       </c>
       <c r="E305" t="n">
-        <v>3023140</v>
+        <v>3019444</v>
       </c>
       <c r="F305" t="n">
-        <v>718.9667323346823</v>
+        <v>807.100491989772</v>
       </c>
       <c r="G305" t="n">
-        <v>6.23331019094643</v>
+        <v>6.254631012056571</v>
       </c>
       <c r="H305" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I305" t="n">
-        <v>201827</v>
+        <v>202246</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5782394</v>
+        <v>5763529</v>
       </c>
       <c r="E306" t="n">
-        <v>5782394</v>
+        <v>5763529</v>
       </c>
       <c r="F306" t="n">
-        <v>41.26277719685221</v>
+        <v>41.45993395615247</v>
       </c>
       <c r="G306" t="n">
-        <v>5.228640225819181</v>
+        <v>5.228539434814978</v>
       </c>
       <c r="H306" t="n">
         <v>0.16</v>
       </c>
       <c r="I306" t="n">
-        <v>658.49</v>
+        <v>622.61</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39775550</v>
+        <v>39544264</v>
       </c>
       <c r="E307" t="n">
-        <v>189697617</v>
+        <v>188594568</v>
       </c>
       <c r="F307" t="n">
-        <v>1609.181103093283</v>
+        <v>1107.591268893894</v>
       </c>
       <c r="G307" t="n">
-        <v>288.6540142822852</v>
+        <v>667.5798223944681</v>
       </c>
       <c r="H307" t="n">
-        <v>0.61</v>
+        <v>0.05</v>
       </c>
       <c r="I307" t="n">
-        <v>293359</v>
+        <v>422303</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>383969</v>
+        <v>383992</v>
       </c>
       <c r="E308" t="n">
-        <v>718130</v>
+        <v>718173</v>
       </c>
       <c r="F308" t="n">
-        <v>32.67707091211657</v>
+        <v>32.9514523512252</v>
       </c>
       <c r="G308" t="n">
-        <v>246.0534274783042</v>
+        <v>244.8869517894223</v>
       </c>
       <c r="H308" t="n">
         <v>0.32</v>
       </c>
       <c r="I308" t="n">
-        <v>1444.44</v>
+        <v>1443.68</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23530234</v>
+        <v>23511033</v>
       </c>
       <c r="E309" t="n">
-        <v>39217056</v>
+        <v>39185054</v>
       </c>
       <c r="F309" t="n">
-        <v>3362.814536363521</v>
+        <v>691.8600613051266</v>
       </c>
       <c r="G309" t="n">
-        <v>3360.227134114359</v>
+        <v>357.317013072403</v>
       </c>
       <c r="H309" t="n">
         <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>652920</v>
+        <v>510063</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>110331</v>
+        <v>110334</v>
       </c>
       <c r="F310" t="n">
-        <v>15.14930835335599</v>
+        <v>15.14897021882287</v>
       </c>
       <c r="G310" t="n">
-        <v>87.04666456171773</v>
+        <v>87.01528439856924</v>
       </c>
       <c r="H310" t="n">
         <v>0.18</v>
       </c>
       <c r="I310" t="n">
-        <v>49765</v>
+        <v>49948</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23166320</v>
+        <v>23451909</v>
       </c>
       <c r="E311" t="n">
-        <v>23166320</v>
+        <v>23451909</v>
       </c>
       <c r="F311" t="n">
-        <v>5656.508344168062</v>
+        <v>6847.11227309425</v>
       </c>
       <c r="G311" t="n">
-        <v>7168.131265426459</v>
+        <v>7569.279610208891</v>
       </c>
       <c r="H311" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I311" t="n">
-        <v>5644485</v>
+        <v>5738852</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3821316</v>
+        <v>3829392</v>
       </c>
       <c r="E312" t="n">
-        <v>8338061</v>
+        <v>8355684</v>
       </c>
       <c r="F312" t="n">
-        <v>1837.526272319529</v>
+        <v>1693.366471078379</v>
       </c>
       <c r="G312" t="n">
-        <v>1706.61585198905</v>
+        <v>1833.609357505718</v>
       </c>
       <c r="H312" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>1500226</v>
+        <v>1601650</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9351107</v>
+        <v>9251377</v>
       </c>
       <c r="E313" t="n">
-        <v>9351107</v>
+        <v>9251377</v>
       </c>
       <c r="F313" t="n">
-        <v>15333.50887763313</v>
+        <v>15398.00894422458</v>
       </c>
       <c r="G313" t="n">
-        <v>112913.3117999275</v>
+        <v>113127.0365387881</v>
       </c>
       <c r="H313" t="n">
         <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>2856757</v>
+        <v>2877932</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>496975364</v>
+        <v>495432508</v>
       </c>
       <c r="E314" t="n">
-        <v>1729929883</v>
+        <v>1724559330</v>
       </c>
       <c r="F314" t="n">
-        <v>385798.285506806</v>
+        <v>448632.7421509352</v>
       </c>
       <c r="G314" t="n">
-        <v>334643.1280875146</v>
+        <v>536340.5504780237</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>30513919</v>
+        <v>30664946</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24077292</v>
+        <v>24058672</v>
       </c>
       <c r="E315" t="n">
-        <v>24056378</v>
+        <v>24037773</v>
       </c>
       <c r="F315" t="n">
-        <v>234.5558559985754</v>
+        <v>210.7025395437925</v>
       </c>
       <c r="G315" t="n">
-        <v>751.1954837340073</v>
+        <v>757.0516910481372</v>
       </c>
       <c r="H315" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I315" t="n">
-        <v>85130</v>
+        <v>84406</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48611712</v>
+        <v>48714915</v>
       </c>
       <c r="E316" t="n">
-        <v>119974201</v>
+        <v>120228915</v>
       </c>
       <c r="F316" t="n">
-        <v>922.1290703310764</v>
+        <v>1032.124060925875</v>
       </c>
       <c r="G316" t="n">
-        <v>1613.460008360617</v>
+        <v>1825.804763857898</v>
       </c>
       <c r="H316" t="n">
         <v>0.17</v>
       </c>
       <c r="I316" t="n">
-        <v>24187</v>
+        <v>24575</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12242244</v>
+        <v>12246297</v>
       </c>
       <c r="E317" t="n">
-        <v>24760169</v>
+        <v>24766039</v>
       </c>
       <c r="F317" t="n">
-        <v>360.4366057187505</v>
+        <v>360.5252499073084</v>
       </c>
       <c r="G317" t="n">
-        <v>2645.638717437668</v>
+        <v>2646.433938324429</v>
       </c>
       <c r="H317" t="n">
         <v>0.23</v>
       </c>
       <c r="I317" t="n">
-        <v>40874</v>
+        <v>40929</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7543649</v>
+        <v>7533681</v>
       </c>
       <c r="E318" t="n">
-        <v>19597590</v>
+        <v>19571694</v>
       </c>
       <c r="F318" t="n">
-        <v>156.8039547200316</v>
+        <v>162.8899868940389</v>
       </c>
       <c r="G318" t="n">
-        <v>187.0361289536004</v>
+        <v>128.218829694863</v>
       </c>
       <c r="H318" t="n">
         <v>0.25</v>
       </c>
       <c r="I318" t="n">
-        <v>715216</v>
+        <v>714238</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>152079</v>
+        <v>152759</v>
       </c>
       <c r="F319" t="n">
-        <v>162.1553258271928</v>
+        <v>184.4124544012346</v>
       </c>
       <c r="G319" t="n">
-        <v>13.87831909414399</v>
+        <v>1.099784378762924</v>
       </c>
       <c r="H319" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="I319" t="n">
-        <v>57248</v>
+        <v>58593</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19215071644</v>
+        <v>19196474027</v>
       </c>
       <c r="F320" t="n">
-        <v>51799.54742354338</v>
+        <v>52926.09532677861</v>
       </c>
       <c r="G320" t="n">
-        <v>49997.87374825111</v>
+        <v>50082.80765574885</v>
       </c>
       <c r="H320" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="I320" t="n">
-        <v>47365874</v>
+        <v>46794918</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>102169974</v>
+        <v>103549925</v>
       </c>
       <c r="E321" t="n">
-        <v>154799316</v>
+        <v>156890100</v>
       </c>
       <c r="F321" t="n">
-        <v>17822.07666358602</v>
+        <v>21627.19461441299</v>
       </c>
       <c r="G321" t="n">
-        <v>18957.38349992767</v>
+        <v>22895.32788470498</v>
       </c>
       <c r="H321" t="n">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="I321" t="n">
-        <v>6960534</v>
+        <v>7584729</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2625312</v>
+        <v>2629047</v>
       </c>
       <c r="E322" t="n">
-        <v>10501247</v>
+        <v>10516186</v>
       </c>
       <c r="F322" t="n">
-        <v>33593.83882075565</v>
+        <v>30790.98752340462</v>
       </c>
       <c r="G322" t="n">
-        <v>29754.18476869819</v>
+        <v>34878.70391304072</v>
       </c>
       <c r="H322" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="I322" t="n">
-        <v>6925877</v>
+        <v>6889734</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>220199662</v>
+        <v>226522483</v>
       </c>
       <c r="E323" t="n">
-        <v>677031096</v>
+        <v>696471389</v>
       </c>
       <c r="F323" t="n">
-        <v>113314.6142061756</v>
+        <v>63059.16647217506</v>
       </c>
       <c r="G323" t="n">
-        <v>171712.1709796729</v>
+        <v>110183.0961046777</v>
       </c>
       <c r="H323" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I323" t="n">
-        <v>12423747</v>
+        <v>14404568</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>150559844</v>
+        <v>152221834</v>
       </c>
       <c r="E324" t="n">
-        <v>393333417</v>
+        <v>397675318</v>
       </c>
       <c r="F324" t="n">
-        <v>4822.073869447319</v>
+        <v>6378.781581947362</v>
       </c>
       <c r="G324" t="n">
-        <v>11459.17170412221</v>
+        <v>11342.21740507999</v>
       </c>
       <c r="H324" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I324" t="n">
-        <v>7292672</v>
+        <v>7288698</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2444626</v>
+        <v>2441925</v>
       </c>
       <c r="E325" t="n">
-        <v>3355241</v>
+        <v>3351555</v>
       </c>
       <c r="F325" t="n">
-        <v>196.5387784709068</v>
+        <v>195.1299058285291</v>
       </c>
       <c r="G325" t="n">
-        <v>2024.577213843196</v>
+        <v>2023.262002733094</v>
       </c>
       <c r="H325" t="n">
         <v>1.26</v>
       </c>
       <c r="I325" t="n">
-        <v>1044584</v>
+        <v>1046914</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>401283996</v>
+        <v>402105747</v>
       </c>
       <c r="E326" t="n">
-        <v>2293051405</v>
+        <v>2297747124</v>
       </c>
       <c r="F326" t="n">
-        <v>291579.4203806464</v>
+        <v>243964.9421529655</v>
       </c>
       <c r="G326" t="n">
-        <v>333961.0209831195</v>
+        <v>334778.1578919952</v>
       </c>
       <c r="H326" t="n">
         <v>0.18</v>
       </c>
       <c r="I326" t="n">
-        <v>38416525</v>
+        <v>38789232</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250221.xlsx
+++ b/MexcData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91295</v>
+        <v>91306</v>
       </c>
       <c r="F2" t="n">
-        <v>4.235439980779544</v>
+        <v>4.209420666294317</v>
       </c>
       <c r="G2" t="n">
-        <v>32.70594364746378</v>
+        <v>32.62894601134435</v>
       </c>
       <c r="H2" t="n">
         <v>0.43</v>
       </c>
       <c r="I2" t="n">
-        <v>1410.8</v>
+        <v>1411.52</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>606479180</v>
+        <v>609481703</v>
       </c>
       <c r="E3" t="n">
-        <v>1176839564</v>
+        <v>1182666553</v>
       </c>
       <c r="F3" t="n">
-        <v>23499.22624434035</v>
+        <v>9872.280587483932</v>
       </c>
       <c r="G3" t="n">
-        <v>33457.07179834862</v>
+        <v>27907.16004324934</v>
       </c>
       <c r="H3" t="n">
-        <v>0.14</v>
+        <v>0.37</v>
       </c>
       <c r="I3" t="n">
-        <v>19403373</v>
+        <v>18870950</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246465876</v>
+        <v>249969520</v>
       </c>
       <c r="E4" t="n">
-        <v>1545552866</v>
+        <v>1567523727</v>
       </c>
       <c r="F4" t="n">
-        <v>68316.04818376563</v>
+        <v>75313.39973116618</v>
       </c>
       <c r="G4" t="n">
-        <v>85266.90038766369</v>
+        <v>124026.6774974863</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>16844144</v>
+        <v>17422276</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146458886</v>
+        <v>146979466</v>
       </c>
       <c r="E5" t="n">
-        <v>162299334</v>
+        <v>162876218</v>
       </c>
       <c r="F5" t="n">
-        <v>136695.9926069589</v>
+        <v>114338.4888934419</v>
       </c>
       <c r="G5" t="n">
-        <v>323972.0705277452</v>
+        <v>302352.9081237594</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>36876080</v>
+        <v>37216024</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49083239</v>
+        <v>49301292</v>
       </c>
       <c r="E6" t="n">
-        <v>61401874</v>
+        <v>61674652</v>
       </c>
       <c r="F6" t="n">
-        <v>10399.351466568</v>
+        <v>10313.85161834095</v>
       </c>
       <c r="G6" t="n">
-        <v>10306.42459736509</v>
+        <v>10658.28418936548</v>
       </c>
       <c r="H6" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="I6" t="n">
-        <v>392076</v>
+        <v>390443</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8357261</v>
+        <v>8462517</v>
       </c>
       <c r="E7" t="n">
-        <v>8568000</v>
+        <v>8675910</v>
       </c>
       <c r="F7" t="n">
-        <v>310.3220005315131</v>
+        <v>405.5516731466067</v>
       </c>
       <c r="G7" t="n">
-        <v>3847.034008739791</v>
+        <v>384.2486829950967</v>
       </c>
       <c r="H7" t="n">
-        <v>2.51</v>
+        <v>1.49</v>
       </c>
       <c r="I7" t="n">
-        <v>87623</v>
+        <v>87999</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69456257</v>
+        <v>69096249</v>
       </c>
       <c r="E8" t="n">
-        <v>138333358</v>
+        <v>137616344</v>
       </c>
       <c r="F8" t="n">
-        <v>28925.25383174575</v>
+        <v>28184.3397012339</v>
       </c>
       <c r="G8" t="n">
-        <v>25327.73088870203</v>
+        <v>26818.40359674218</v>
       </c>
       <c r="H8" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1017904</v>
+        <v>1020914</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5000019</v>
+        <v>4981896</v>
       </c>
       <c r="E9" t="n">
-        <v>7988528</v>
+        <v>7959573</v>
       </c>
       <c r="F9" t="n">
-        <v>377.443589727219</v>
+        <v>381.4686443239488</v>
       </c>
       <c r="G9" t="n">
-        <v>220.6091494697624</v>
+        <v>225.1586688288087</v>
       </c>
       <c r="H9" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="I9" t="n">
-        <v>98781</v>
+        <v>98264</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14128392</v>
+        <v>14122784</v>
       </c>
       <c r="E10" t="n">
-        <v>41635458</v>
+        <v>41618932</v>
       </c>
       <c r="F10" t="n">
-        <v>3849.822606776554</v>
+        <v>3849.808250344392</v>
       </c>
       <c r="G10" t="n">
-        <v>2845.590674638277</v>
+        <v>2839.325408899142</v>
       </c>
       <c r="H10" t="n">
         <v>0.45</v>
       </c>
       <c r="I10" t="n">
-        <v>884531</v>
+        <v>884973</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>126597551</v>
+        <v>127751274</v>
       </c>
       <c r="E11" t="n">
-        <v>496224495</v>
+        <v>500746744</v>
       </c>
       <c r="F11" t="n">
-        <v>56840.98563226339</v>
+        <v>63048.87993106942</v>
       </c>
       <c r="G11" t="n">
-        <v>51123.67726515999</v>
+        <v>49485.92609980606</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>29746145</v>
+        <v>29636002</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10932299</v>
+        <v>10825324</v>
       </c>
       <c r="E12" t="n">
-        <v>46989672</v>
+        <v>46529867</v>
       </c>
       <c r="F12" t="n">
-        <v>558.5816531115066</v>
+        <v>1950.849073408818</v>
       </c>
       <c r="G12" t="n">
-        <v>1627.516935676757</v>
+        <v>2935.719725772146</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6</v>
+        <v>0.21</v>
       </c>
       <c r="I12" t="n">
-        <v>881259</v>
+        <v>866314</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1000878</v>
+        <v>1001003</v>
       </c>
       <c r="E13" t="n">
-        <v>12248043</v>
+        <v>12249572</v>
       </c>
       <c r="F13" t="n">
-        <v>271.0167836192001</v>
+        <v>271.0169628249987</v>
       </c>
       <c r="G13" t="n">
-        <v>200.6019248864857</v>
+        <v>200.725325993997</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>490.65</v>
+        <v>480.95</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>584631</v>
+        <v>586260</v>
       </c>
       <c r="E14" t="n">
-        <v>584631</v>
+        <v>586260</v>
       </c>
       <c r="F14" t="n">
-        <v>81.72010305011766</v>
+        <v>188.0769097055665</v>
       </c>
       <c r="G14" t="n">
-        <v>193.884193067358</v>
+        <v>193.0704176325224</v>
       </c>
       <c r="H14" t="n">
-        <v>0.33</v>
+        <v>0.48</v>
       </c>
       <c r="I14" t="n">
-        <v>31302</v>
+        <v>31023</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>584183689</v>
+        <v>582488549</v>
       </c>
       <c r="E15" t="n">
-        <v>730726969</v>
+        <v>728606601</v>
       </c>
       <c r="F15" t="n">
-        <v>485354.6328442615</v>
+        <v>533248.6078238231</v>
       </c>
       <c r="G15" t="n">
-        <v>479225.4701221149</v>
+        <v>397616.7634522474</v>
       </c>
       <c r="H15" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>55802790</v>
+        <v>55808530</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3363073</v>
+        <v>3355397</v>
       </c>
       <c r="E16" t="n">
-        <v>9567645</v>
+        <v>9545808</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3400397799871</v>
+        <v>228.6314889028019</v>
       </c>
       <c r="G16" t="n">
-        <v>631.5666307533961</v>
+        <v>48.80399622128972</v>
       </c>
       <c r="H16" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="I16" t="n">
-        <v>109852</v>
+        <v>107621</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>315128</v>
+        <v>315484</v>
       </c>
       <c r="E17" t="n">
-        <v>3636948</v>
+        <v>3641061</v>
       </c>
       <c r="F17" t="n">
-        <v>3.761605526412315</v>
+        <v>2.711582121939763</v>
       </c>
       <c r="G17" t="n">
-        <v>3.931865555116899</v>
+        <v>3.931865489825995</v>
       </c>
       <c r="H17" t="n">
         <v>0.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3405.46</v>
+        <v>3396.62</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1310419</v>
+        <v>1306654</v>
       </c>
       <c r="E18" t="n">
-        <v>10051690</v>
+        <v>10022814</v>
       </c>
       <c r="F18" t="n">
-        <v>127.8272009332172</v>
+        <v>131.6942152471833</v>
       </c>
       <c r="G18" t="n">
-        <v>212.6141101790567</v>
+        <v>162.8547501003217</v>
       </c>
       <c r="H18" t="n">
         <v>0.96</v>
       </c>
       <c r="I18" t="n">
-        <v>143548</v>
+        <v>143930</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23250062</v>
+        <v>23181540</v>
       </c>
       <c r="E19" t="n">
-        <v>23293231</v>
+        <v>23224581</v>
       </c>
       <c r="F19" t="n">
-        <v>1968.111527837715</v>
+        <v>2542.299120463308</v>
       </c>
       <c r="G19" t="n">
-        <v>1124.734788020438</v>
+        <v>766.7865696532216</v>
       </c>
       <c r="H19" t="n">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
       <c r="I19" t="n">
-        <v>855112</v>
+        <v>855070</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3793349</v>
+        <v>3718752</v>
       </c>
       <c r="E20" t="n">
-        <v>21047748</v>
+        <v>20633835</v>
       </c>
       <c r="F20" t="n">
-        <v>5.645804055169608</v>
+        <v>5.1525405524775</v>
       </c>
       <c r="G20" t="n">
-        <v>3.883820302301081</v>
+        <v>2.808450639971712</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="I20" t="n">
-        <v>6415.44</v>
+        <v>5852.91</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6912087</v>
+        <v>6908398</v>
       </c>
       <c r="E21" t="n">
-        <v>12823379</v>
+        <v>12816536</v>
       </c>
       <c r="F21" t="n">
-        <v>472.9011961578913</v>
+        <v>519.5968017654881</v>
       </c>
       <c r="G21" t="n">
-        <v>455.9107764054529</v>
+        <v>309.2774758250924</v>
       </c>
       <c r="H21" t="n">
         <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>52242</v>
+        <v>52260</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71433766</v>
+        <v>71694158</v>
       </c>
       <c r="E22" t="n">
-        <v>123707523</v>
+        <v>124156980</v>
       </c>
       <c r="F22" t="n">
-        <v>509.961122913826</v>
+        <v>518.8115284548271</v>
       </c>
       <c r="G22" t="n">
-        <v>693.7389424631386</v>
+        <v>444.1041249150725</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I22" t="n">
-        <v>791397</v>
+        <v>767032</v>
       </c>
     </row>
     <row r="23">
@@ -1232,16 +1232,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>172298</v>
+        <v>172432</v>
       </c>
       <c r="E23" t="n">
-        <v>518189</v>
+        <v>518592</v>
       </c>
       <c r="F23" t="n">
-        <v>4.096082993092087</v>
+        <v>5.615726540493657</v>
       </c>
       <c r="G23" t="n">
-        <v>148.0724974237493</v>
+        <v>148.0111739242637</v>
       </c>
       <c r="H23" t="n">
         <v>0.39</v>
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81928959</v>
+        <v>82081974</v>
       </c>
       <c r="E24" t="n">
-        <v>241045159</v>
+        <v>241495348</v>
       </c>
       <c r="F24" t="n">
-        <v>226.3683591636817</v>
+        <v>227.7418207003641</v>
       </c>
       <c r="G24" t="n">
-        <v>100.4454941873002</v>
+        <v>482.8782134303955</v>
       </c>
       <c r="H24" t="n">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
       <c r="I24" t="n">
-        <v>331111</v>
+        <v>364092</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7210988</v>
+        <v>7209803</v>
       </c>
       <c r="F25" t="n">
-        <v>4.166911838569476</v>
+        <v>4.024098979707813</v>
       </c>
       <c r="G25" t="n">
-        <v>4.031068657088719</v>
+        <v>5.31918447455398</v>
       </c>
       <c r="H25" t="n">
-        <v>0.83</v>
+        <v>0.57</v>
       </c>
       <c r="I25" t="n">
-        <v>13804.76</v>
+        <v>14387.35</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2442516</v>
+        <v>2446166</v>
       </c>
       <c r="E26" t="n">
-        <v>2442516</v>
+        <v>2446166</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>209.8228104333487</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>16.47204734378676</v>
       </c>
       <c r="H26" t="n">
-        <v>6.89</v>
+        <v>1.53</v>
       </c>
       <c r="I26" t="n">
-        <v>323498</v>
+        <v>320246</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17393462</v>
+        <v>17520376</v>
       </c>
       <c r="E27" t="n">
-        <v>22386813</v>
+        <v>22550162</v>
       </c>
       <c r="F27" t="n">
-        <v>1160.121110535848</v>
+        <v>4026.368830470261</v>
       </c>
       <c r="G27" t="n">
-        <v>5092.565601478401</v>
+        <v>4081.627324690348</v>
       </c>
       <c r="H27" t="n">
-        <v>0.63</v>
+        <v>0.37</v>
       </c>
       <c r="I27" t="n">
-        <v>1665574</v>
+        <v>1650509</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4729653</v>
+        <v>4722258</v>
       </c>
       <c r="E28" t="n">
-        <v>4729653</v>
+        <v>4722258</v>
       </c>
       <c r="F28" t="n">
-        <v>1009.985246258149</v>
+        <v>1060.504478982022</v>
       </c>
       <c r="G28" t="n">
-        <v>7439.884732470466</v>
+        <v>7734.885598584071</v>
       </c>
       <c r="H28" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I28" t="n">
-        <v>2011651</v>
+        <v>2008858</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1727369</v>
+        <v>1708880</v>
       </c>
       <c r="F29" t="n">
-        <v>33.17724445014751</v>
+        <v>12.1565901665185</v>
       </c>
       <c r="G29" t="n">
-        <v>64.47630304522946</v>
+        <v>81.88108059460912</v>
       </c>
       <c r="H29" t="n">
-        <v>3.82</v>
+        <v>2.19</v>
       </c>
       <c r="I29" t="n">
-        <v>148515</v>
+        <v>148749</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3415088</v>
+        <v>3383538</v>
       </c>
       <c r="E30" t="n">
-        <v>3415088</v>
+        <v>3383538</v>
       </c>
       <c r="F30" t="n">
-        <v>467.5538629956037</v>
+        <v>460.3186231255062</v>
       </c>
       <c r="G30" t="n">
-        <v>517.8543744835423</v>
+        <v>734.0719701087125</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I30" t="n">
-        <v>515700</v>
+        <v>515342</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>318556</v>
+        <v>314808</v>
       </c>
       <c r="E31" t="n">
-        <v>1487054</v>
+        <v>1469556</v>
       </c>
       <c r="F31" t="n">
-        <v>275.1985175916788</v>
+        <v>395.6572518908142</v>
       </c>
       <c r="G31" t="n">
-        <v>72.78888137623485</v>
+        <v>93.76453595916766</v>
       </c>
       <c r="H31" t="n">
-        <v>1.37</v>
+        <v>2.04</v>
       </c>
       <c r="I31" t="n">
-        <v>715280</v>
+        <v>708114</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>368705</v>
+        <v>366914</v>
       </c>
       <c r="E32" t="n">
-        <v>368705</v>
+        <v>366914</v>
       </c>
       <c r="F32" t="n">
-        <v>121.8397835130837</v>
+        <v>121.3859961981882</v>
       </c>
       <c r="G32" t="n">
-        <v>631.1021943590854</v>
+        <v>570.8733837998235</v>
       </c>
       <c r="H32" t="n">
         <v>1.04</v>
       </c>
       <c r="I32" t="n">
-        <v>51804</v>
+        <v>51584</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1866484</v>
+        <v>1858037</v>
       </c>
       <c r="F33" t="n">
-        <v>238.6338121571009</v>
+        <v>238.7769940138314</v>
       </c>
       <c r="G33" t="n">
-        <v>9.877302279102322</v>
+        <v>9.951559240473392</v>
       </c>
       <c r="H33" t="n">
         <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1374636</v>
+        <v>1395627</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1517802</v>
+        <v>1509438</v>
       </c>
       <c r="F34" t="n">
-        <v>479.090459404001</v>
+        <v>503.5684902265349</v>
       </c>
       <c r="G34" t="n">
-        <v>20.55666793523214</v>
+        <v>20.55654107357224</v>
       </c>
       <c r="H34" t="n">
         <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>284471</v>
+        <v>290805</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12768953</v>
+        <v>12796104</v>
       </c>
       <c r="E35" t="n">
-        <v>31779615</v>
+        <v>31847188</v>
       </c>
       <c r="F35" t="n">
-        <v>892.5051025397571</v>
+        <v>962.7088590145728</v>
       </c>
       <c r="G35" t="n">
-        <v>1977.168702427513</v>
+        <v>1884.244030469323</v>
       </c>
       <c r="H35" t="n">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="I35" t="n">
-        <v>1238121</v>
+        <v>1241262</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6950209</v>
+        <v>6810349</v>
       </c>
       <c r="E36" t="n">
-        <v>9572214</v>
+        <v>9379590</v>
       </c>
       <c r="F36" t="n">
-        <v>770.0288529020852</v>
+        <v>583.1268583007521</v>
       </c>
       <c r="G36" t="n">
-        <v>533.5186575441569</v>
+        <v>441.5195911951999</v>
       </c>
       <c r="H36" t="n">
-        <v>1.88</v>
+        <v>1.32</v>
       </c>
       <c r="I36" t="n">
-        <v>454461</v>
+        <v>421406</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>929801</v>
+        <v>935943</v>
       </c>
       <c r="E37" t="n">
-        <v>6508605</v>
+        <v>6551601</v>
       </c>
       <c r="F37" t="n">
-        <v>539.3954116575608</v>
+        <v>155.3462808987566</v>
       </c>
       <c r="G37" t="n">
-        <v>202.3738197193636</v>
+        <v>253.7624483259651</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="I37" t="n">
-        <v>222348</v>
+        <v>250613</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>114445772</v>
+        <v>116206932</v>
       </c>
       <c r="E38" t="n">
-        <v>445251727</v>
+        <v>452088937</v>
       </c>
       <c r="F38" t="n">
-        <v>15713.48269301728</v>
+        <v>21402.26779978388</v>
       </c>
       <c r="G38" t="n">
-        <v>23657.95108639411</v>
+        <v>19807.20899470182</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I38" t="n">
-        <v>9043666</v>
+        <v>9380242</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5614208</v>
+        <v>5688081</v>
       </c>
       <c r="E39" t="n">
-        <v>5882791</v>
+        <v>5960199</v>
       </c>
       <c r="F39" t="n">
-        <v>205.2925085630437</v>
+        <v>72.5870100948537</v>
       </c>
       <c r="G39" t="n">
-        <v>356.0736194229644</v>
+        <v>641.1170759138562</v>
       </c>
       <c r="H39" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>150969</v>
+        <v>151087</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5152469</v>
+        <v>5175624</v>
       </c>
       <c r="E40" t="n">
-        <v>7584714</v>
+        <v>7618798</v>
       </c>
       <c r="F40" t="n">
-        <v>700.6402452684772</v>
+        <v>643.0194764759973</v>
       </c>
       <c r="G40" t="n">
-        <v>853.3433457850052</v>
+        <v>769.726622087266</v>
       </c>
       <c r="H40" t="n">
-        <v>0.98</v>
+        <v>1.33</v>
       </c>
       <c r="I40" t="n">
-        <v>645394</v>
+        <v>601841</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7679216</v>
+        <v>7690156</v>
       </c>
       <c r="E41" t="n">
-        <v>7679216</v>
+        <v>7690156</v>
       </c>
       <c r="F41" t="n">
-        <v>2315.919634243697</v>
+        <v>2199.784930337042</v>
       </c>
       <c r="G41" t="n">
-        <v>1597.294243765073</v>
+        <v>1318.885573837635</v>
       </c>
       <c r="H41" t="n">
-        <v>1.12</v>
+        <v>0.67</v>
       </c>
       <c r="I41" t="n">
-        <v>332381</v>
+        <v>330642</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1450743</v>
+        <v>1448693</v>
       </c>
       <c r="E42" t="n">
-        <v>1450743</v>
+        <v>1448693</v>
       </c>
       <c r="F42" t="n">
-        <v>332.530678268719</v>
+        <v>336.5335452076893</v>
       </c>
       <c r="G42" t="n">
-        <v>87.64028086811926</v>
+        <v>97.61987523773114</v>
       </c>
       <c r="H42" t="n">
         <v>0.15</v>
       </c>
       <c r="I42" t="n">
-        <v>284978</v>
+        <v>277132</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15855049</v>
+        <v>15798640</v>
       </c>
       <c r="F43" t="n">
-        <v>594.4827174232455</v>
+        <v>405.0134431798986</v>
       </c>
       <c r="G43" t="n">
-        <v>149.6931333437705</v>
+        <v>161.3461422552874</v>
       </c>
       <c r="H43" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="I43" t="n">
-        <v>11463.34</v>
+        <v>11935.69</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>138523100</v>
+        <v>140134678</v>
       </c>
       <c r="E44" t="n">
-        <v>138523100</v>
+        <v>140134678</v>
       </c>
       <c r="F44" t="n">
-        <v>230006.2081801216</v>
+        <v>319448.4306826466</v>
       </c>
       <c r="G44" t="n">
-        <v>360435.3427102818</v>
+        <v>365237.8947801949</v>
       </c>
       <c r="H44" t="n">
         <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>64425499</v>
+        <v>68061754</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>66502184</v>
+        <v>67126410</v>
       </c>
       <c r="E45" t="n">
-        <v>341036841</v>
+        <v>344237998</v>
       </c>
       <c r="F45" t="n">
-        <v>64199.08994927865</v>
+        <v>55704.54135450943</v>
       </c>
       <c r="G45" t="n">
-        <v>114725.7268522808</v>
+        <v>69351.24715965736</v>
       </c>
       <c r="H45" t="n">
         <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>21792684</v>
+        <v>21456651</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>594013</v>
+        <v>594194</v>
       </c>
       <c r="F46" t="n">
-        <v>91.12615888007019</v>
+        <v>75.96247836179826</v>
       </c>
       <c r="G46" t="n">
-        <v>549.3672531292408</v>
+        <v>548.3398920746178</v>
       </c>
       <c r="H46" t="n">
         <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>1083.46</v>
+        <v>1082.43</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2677217</v>
+        <v>2677346</v>
       </c>
       <c r="E47" t="n">
-        <v>10759127</v>
+        <v>10759642</v>
       </c>
       <c r="F47" t="n">
-        <v>671.8018243519474</v>
+        <v>632.6897213217312</v>
       </c>
       <c r="G47" t="n">
-        <v>125.953588510887</v>
+        <v>125.9536717958153</v>
       </c>
       <c r="H47" t="n">
         <v>0.91</v>
       </c>
       <c r="I47" t="n">
-        <v>34038</v>
+        <v>34119</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17538866</v>
+        <v>17577558</v>
       </c>
       <c r="E48" t="n">
-        <v>123617765</v>
+        <v>123889246</v>
       </c>
       <c r="F48" t="n">
-        <v>345.5854862505222</v>
+        <v>424.3699257909367</v>
       </c>
       <c r="G48" t="n">
-        <v>666.2943589078101</v>
+        <v>933.8234548083931</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="I48" t="n">
-        <v>1047676</v>
+        <v>1052477</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1033937</v>
+        <v>1034614</v>
       </c>
       <c r="E49" t="n">
-        <v>1213595</v>
+        <v>1214389</v>
       </c>
       <c r="F49" t="n">
-        <v>1603.719132783649</v>
+        <v>1050.477822263827</v>
       </c>
       <c r="G49" t="n">
-        <v>3337.76308855077</v>
+        <v>4291.970910079101</v>
       </c>
       <c r="H49" t="n">
         <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>206518</v>
+        <v>216934</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>149830</v>
+        <v>149118</v>
       </c>
       <c r="E50" t="n">
-        <v>2004807</v>
+        <v>1995288</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>44333</v>
+        <v>44220</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>257661476</v>
+        <v>258570269</v>
       </c>
       <c r="E51" t="n">
-        <v>257661476</v>
+        <v>258570269</v>
       </c>
       <c r="F51" t="n">
-        <v>26551.72234556685</v>
+        <v>20401.38987247862</v>
       </c>
       <c r="G51" t="n">
-        <v>25605.24585913719</v>
+        <v>35548.92391181464</v>
       </c>
       <c r="H51" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="I51" t="n">
-        <v>14434531</v>
+        <v>14504273</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1120966</v>
+        <v>1123368</v>
       </c>
       <c r="F52" t="n">
-        <v>3.120438966005719</v>
+        <v>4.237386546555258</v>
       </c>
       <c r="G52" t="n">
-        <v>631.8323440983485</v>
+        <v>631.5800868724696</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>177089</v>
+        <v>176547</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>117066</v>
+        <v>117561</v>
       </c>
       <c r="E54" t="n">
-        <v>117066</v>
+        <v>117561</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>200.11</v>
+        <v>201.44</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6837225</v>
+        <v>6802737</v>
       </c>
       <c r="E55" t="n">
-        <v>16607092</v>
+        <v>16523325</v>
       </c>
       <c r="F55" t="n">
-        <v>369.3966532630787</v>
+        <v>516.0193632485684</v>
       </c>
       <c r="G55" t="n">
-        <v>143.0059656915768</v>
+        <v>76.5112126853334</v>
       </c>
       <c r="H55" t="n">
         <v>1.44</v>
       </c>
       <c r="I55" t="n">
-        <v>484294</v>
+        <v>482373</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>442702753</v>
+        <v>445553578</v>
       </c>
       <c r="E56" t="n">
-        <v>442702753</v>
+        <v>445553578</v>
       </c>
       <c r="F56" t="n">
-        <v>4819.820411034008</v>
+        <v>4363.901437118406</v>
       </c>
       <c r="G56" t="n">
-        <v>5076.478189589228</v>
+        <v>5107.385204618207</v>
       </c>
       <c r="H56" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="I56" t="n">
-        <v>2543897</v>
+        <v>2558090</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2476740</v>
+        <v>2473756</v>
       </c>
       <c r="E57" t="n">
-        <v>2476740</v>
+        <v>2473756</v>
       </c>
       <c r="F57" t="n">
-        <v>6.289911574503632</v>
+        <v>4.024576796659485</v>
       </c>
       <c r="G57" t="n">
-        <v>4.151952111943853</v>
+        <v>71.47390286405884</v>
       </c>
       <c r="H57" t="n">
-        <v>0.71</v>
+        <v>0.48</v>
       </c>
       <c r="I57" t="n">
-        <v>55089</v>
+        <v>55355</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>159570678</v>
+        <v>165744158</v>
       </c>
       <c r="E58" t="n">
-        <v>209976349</v>
+        <v>218099928</v>
       </c>
       <c r="F58" t="n">
-        <v>11986.53281180896</v>
+        <v>12239.63800114839</v>
       </c>
       <c r="G58" t="n">
-        <v>10544.90798008541</v>
+        <v>12936.92882134791</v>
       </c>
       <c r="H58" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="I58" t="n">
-        <v>7978211</v>
+        <v>8032650</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1128680</v>
+        <v>1127701</v>
       </c>
       <c r="E59" t="n">
-        <v>12266073</v>
+        <v>12255435</v>
       </c>
       <c r="F59" t="n">
-        <v>12.84481919450831</v>
+        <v>12.8828674332034</v>
       </c>
       <c r="G59" t="n">
-        <v>3.822828556566967</v>
+        <v>3.822828512167841</v>
       </c>
       <c r="H59" t="n">
         <v>0.33</v>
       </c>
       <c r="I59" t="n">
-        <v>31143</v>
+        <v>31125</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2556352</v>
+        <v>2557812</v>
       </c>
       <c r="E60" t="n">
-        <v>6535534</v>
+        <v>6539268</v>
       </c>
       <c r="F60" t="n">
-        <v>271.497936578773</v>
+        <v>271.5781306833126</v>
       </c>
       <c r="G60" t="n">
-        <v>256.7819221951124</v>
+        <v>257.0420289551041</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>112211</v>
+        <v>109480</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>81530104</v>
+        <v>83361989</v>
       </c>
       <c r="E61" t="n">
-        <v>228144917</v>
+        <v>233200969</v>
       </c>
       <c r="F61" t="n">
-        <v>61751.92597782156</v>
+        <v>63510.59760480923</v>
       </c>
       <c r="G61" t="n">
-        <v>82738.39049555662</v>
+        <v>74976.67530063346</v>
       </c>
       <c r="H61" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>37493576</v>
+        <v>44054211</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>74359176</v>
+        <v>74688687</v>
       </c>
       <c r="E62" t="n">
-        <v>74359176</v>
+        <v>74688687</v>
       </c>
       <c r="F62" t="n">
-        <v>4076.870428599701</v>
+        <v>3010.890814687738</v>
       </c>
       <c r="G62" t="n">
-        <v>3465.914334357802</v>
+        <v>4015.587371042148</v>
       </c>
       <c r="H62" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="I62" t="n">
-        <v>3399147</v>
+        <v>3403109</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4109619</v>
+        <v>4108986</v>
       </c>
       <c r="E63" t="n">
-        <v>8104514</v>
+        <v>8103266</v>
       </c>
       <c r="F63" t="n">
-        <v>2479.560506886442</v>
+        <v>2571.276326587166</v>
       </c>
       <c r="G63" t="n">
-        <v>1542.319860773178</v>
+        <v>1500.373289531213</v>
       </c>
       <c r="H63" t="n">
-        <v>0.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I63" t="n">
-        <v>1654765</v>
+        <v>1649889</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1610685</v>
+        <v>1619296</v>
       </c>
       <c r="E64" t="n">
-        <v>9247951</v>
+        <v>9297391</v>
       </c>
       <c r="F64" t="n">
-        <v>17.92891073666771</v>
+        <v>135.1713434503835</v>
       </c>
       <c r="G64" t="n">
-        <v>4.053138409217293</v>
+        <v>3.991603377506229</v>
       </c>
       <c r="H64" t="n">
-        <v>0.55</v>
+        <v>1.38</v>
       </c>
       <c r="I64" t="n">
-        <v>275422</v>
+        <v>279635</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>564816</v>
+        <v>552005</v>
       </c>
       <c r="F65" t="n">
-        <v>53.64961823865189</v>
+        <v>4.101806300269366</v>
       </c>
       <c r="G65" t="n">
-        <v>3.829681711687056</v>
+        <v>8.634214464476665</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
       <c r="I65" t="n">
-        <v>1654.28</v>
+        <v>1686.24</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31060126</v>
+        <v>31260149</v>
       </c>
       <c r="F66" t="n">
-        <v>765.374958898779</v>
+        <v>821.9832109732705</v>
       </c>
       <c r="G66" t="n">
-        <v>381.1261108999458</v>
+        <v>314.669684756581</v>
       </c>
       <c r="H66" t="n">
-        <v>0.32</v>
+        <v>0.09</v>
       </c>
       <c r="I66" t="n">
-        <v>246034</v>
+        <v>244900</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>166327</v>
+        <v>165308</v>
       </c>
       <c r="E67" t="n">
-        <v>1123227</v>
+        <v>1116341</v>
       </c>
       <c r="F67" t="n">
-        <v>7.777380136689822</v>
+        <v>3.929349940492644</v>
       </c>
       <c r="G67" t="n">
-        <v>8.229026457901686</v>
+        <v>674.9069562270431</v>
       </c>
       <c r="H67" t="n">
-        <v>1.33</v>
+        <v>0.9</v>
       </c>
       <c r="I67" t="n">
-        <v>2797524</v>
+        <v>2799648</v>
       </c>
     </row>
     <row r="68">
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7644084</v>
+        <v>7636252</v>
       </c>
       <c r="E68" t="n">
-        <v>18003338</v>
+        <v>17984893</v>
       </c>
       <c r="F68" t="n">
         <v>846.8119176363344</v>
@@ -2818,7 +2818,7 @@
         <v>0.11</v>
       </c>
       <c r="I68" t="n">
-        <v>21535</v>
+        <v>30060</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2972028</v>
+        <v>2995539</v>
       </c>
       <c r="E69" t="n">
-        <v>2972028</v>
+        <v>2995539</v>
       </c>
       <c r="F69" t="n">
-        <v>5.250284744443804</v>
+        <v>112.7258202791387</v>
       </c>
       <c r="G69" t="n">
-        <v>776.0779493535319</v>
+        <v>160.5927436110635</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>19461.13</v>
+        <v>19900.66</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3368316</v>
+        <v>3375884</v>
       </c>
       <c r="E70" t="n">
-        <v>8311148</v>
+        <v>8329823</v>
       </c>
       <c r="F70" t="n">
-        <v>1183.819646685905</v>
+        <v>1217.198119139433</v>
       </c>
       <c r="G70" t="n">
-        <v>1145.465786331646</v>
+        <v>1188.447695808222</v>
       </c>
       <c r="H70" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="I70" t="n">
-        <v>41072</v>
+        <v>40521</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23037696</v>
+        <v>23025954</v>
       </c>
       <c r="F71" t="n">
-        <v>142.2374510577574</v>
+        <v>427.3805630429731</v>
       </c>
       <c r="G71" t="n">
-        <v>441.9869684781898</v>
+        <v>125.6414889085664</v>
       </c>
       <c r="H71" t="n">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="I71" t="n">
-        <v>127192</v>
+        <v>127647</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>265738</v>
+        <v>265787</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1620.55</v>
+        <v>1696.08</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>76644865</v>
+        <v>78618838</v>
       </c>
       <c r="E73" t="n">
-        <v>159843465</v>
+        <v>163960201</v>
       </c>
       <c r="F73" t="n">
-        <v>18611.72456536802</v>
+        <v>12861.772996203</v>
       </c>
       <c r="G73" t="n">
-        <v>667.734370464226</v>
+        <v>136.7521376641133</v>
       </c>
       <c r="H73" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I73" t="n">
-        <v>16610542</v>
+        <v>17619763</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>199618293</v>
+        <v>199817335</v>
       </c>
       <c r="F75" t="n">
-        <v>7169.910191249638</v>
+        <v>23527.91677114753</v>
       </c>
       <c r="G75" t="n">
-        <v>7026.774385746744</v>
+        <v>7139.595378310172</v>
       </c>
       <c r="H75" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="I75" t="n">
-        <v>3775714</v>
+        <v>3607780</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>87075414</v>
+        <v>86650331</v>
       </c>
       <c r="E76" t="n">
-        <v>119568094</v>
+        <v>118984389</v>
       </c>
       <c r="F76" t="n">
-        <v>752.7453298486781</v>
+        <v>1964.787213686545</v>
       </c>
       <c r="G76" t="n">
-        <v>2394.065013387852</v>
+        <v>3053.171298065311</v>
       </c>
       <c r="H76" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I76" t="n">
-        <v>1089176</v>
+        <v>1062566</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>179541</v>
+        <v>179554</v>
       </c>
       <c r="E77" t="n">
-        <v>187492</v>
+        <v>187505</v>
       </c>
       <c r="F77" t="n">
-        <v>3.934048885702098</v>
+        <v>4.138357480511084</v>
       </c>
       <c r="G77" t="n">
-        <v>414.7390061205091</v>
+        <v>5.152798597141283</v>
       </c>
       <c r="H77" t="n">
-        <v>0.88</v>
+        <v>0.35</v>
       </c>
       <c r="I77" t="n">
-        <v>330.09</v>
+        <v>327.77</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8115800</v>
+        <v>7922620</v>
       </c>
       <c r="E78" t="n">
-        <v>8927922</v>
+        <v>8715411</v>
       </c>
       <c r="F78" t="n">
-        <v>546.3043786235404</v>
+        <v>431.861655286733</v>
       </c>
       <c r="G78" t="n">
-        <v>218.1986741228211</v>
+        <v>223.8942480227775</v>
       </c>
       <c r="H78" t="n">
-        <v>1.71</v>
+        <v>0.47</v>
       </c>
       <c r="I78" t="n">
-        <v>765135</v>
+        <v>731937</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29307226</v>
+        <v>29264698</v>
       </c>
       <c r="E79" t="n">
-        <v>29307226</v>
+        <v>29264698</v>
       </c>
       <c r="F79" t="n">
-        <v>1300.400443153167</v>
+        <v>987.4993111675561</v>
       </c>
       <c r="G79" t="n">
-        <v>842.0315719966212</v>
+        <v>78.87850636455978</v>
       </c>
       <c r="H79" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I79" t="n">
-        <v>270795</v>
+        <v>266542</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>273274077</v>
+        <v>277270276</v>
       </c>
       <c r="E80" t="n">
-        <v>273274077</v>
+        <v>277270276</v>
       </c>
       <c r="F80" t="n">
-        <v>279.1154601491745</v>
+        <v>2866.257755807831</v>
       </c>
       <c r="G80" t="n">
-        <v>1888.407641048978</v>
+        <v>3704.943363897306</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="I80" t="n">
-        <v>9773534</v>
+        <v>9941029</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>649815150</v>
+        <v>655077079</v>
       </c>
       <c r="E81" t="n">
-        <v>649815150</v>
+        <v>655077079</v>
       </c>
       <c r="F81" t="n">
-        <v>447456.4424322239</v>
+        <v>1143759.744308181</v>
       </c>
       <c r="G81" t="n">
-        <v>527908.2679077185</v>
+        <v>1442759.006367758</v>
       </c>
       <c r="H81" t="n">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="I81" t="n">
-        <v>308277982</v>
+        <v>310966747</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>116593</v>
+        <v>116620</v>
       </c>
       <c r="E82" t="n">
-        <v>116593</v>
+        <v>116620</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>428.29</v>
+        <v>428.11</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>205261517</v>
+        <v>205532152</v>
       </c>
       <c r="E83" t="n">
-        <v>713097060</v>
+        <v>714037271</v>
       </c>
       <c r="F83" t="n">
-        <v>1476.980319223776</v>
+        <v>959.3300064258495</v>
       </c>
       <c r="G83" t="n">
-        <v>1906.218643842177</v>
+        <v>1821.828985563854</v>
       </c>
       <c r="H83" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="I83" t="n">
-        <v>27923315</v>
+        <v>27934796</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3733117</v>
+        <v>3625828</v>
       </c>
       <c r="E84" t="n">
-        <v>3733117</v>
+        <v>3625828</v>
       </c>
       <c r="F84" t="n">
-        <v>2650.057872853676</v>
+        <v>2347.940603195381</v>
       </c>
       <c r="G84" t="n">
-        <v>536.2299269259537</v>
+        <v>393.2319032852765</v>
       </c>
       <c r="H84" t="n">
-        <v>0.24</v>
+        <v>0.95</v>
       </c>
       <c r="I84" t="n">
-        <v>2644864</v>
+        <v>2361294</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>115991430</v>
+        <v>116390807</v>
       </c>
       <c r="E85" t="n">
-        <v>492777379</v>
+        <v>494448270</v>
       </c>
       <c r="F85" t="n">
-        <v>330707.6266510518</v>
+        <v>348606.3503803161</v>
       </c>
       <c r="G85" t="n">
-        <v>465767.3153895882</v>
+        <v>487371.2939654901</v>
       </c>
       <c r="H85" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="I85" t="n">
-        <v>15352167</v>
+        <v>15398544</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71679601</v>
+        <v>71677448</v>
       </c>
       <c r="E86" t="n">
-        <v>82243212</v>
+        <v>82240741</v>
       </c>
       <c r="F86" t="n">
-        <v>23718.08863337564</v>
+        <v>23961.81374301542</v>
       </c>
       <c r="G86" t="n">
-        <v>19944.11638021549</v>
+        <v>18330.30905901134</v>
       </c>
       <c r="H86" t="n">
         <v>0.34</v>
       </c>
       <c r="I86" t="n">
-        <v>1301802</v>
+        <v>1165392</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3135306</v>
+        <v>3136395</v>
       </c>
       <c r="E87" t="n">
-        <v>15719792</v>
+        <v>15725254</v>
       </c>
       <c r="F87" t="n">
-        <v>5.52567495388805</v>
+        <v>5.408663688930059</v>
       </c>
       <c r="G87" t="n">
-        <v>71.18783377026841</v>
+        <v>71.18796336330678</v>
       </c>
       <c r="H87" t="n">
         <v>0.31</v>
       </c>
       <c r="I87" t="n">
-        <v>34785</v>
+        <v>33215</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>525895</v>
+        <v>510428</v>
       </c>
       <c r="E88" t="n">
-        <v>8995400</v>
+        <v>8730833</v>
       </c>
       <c r="F88" t="n">
-        <v>2.868591800902638</v>
+        <v>706.1985036544984</v>
       </c>
       <c r="G88" t="n">
-        <v>2.303307777880196</v>
+        <v>1383.284211217733</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2</v>
+        <v>1.64</v>
       </c>
       <c r="I88" t="n">
-        <v>167903</v>
+        <v>162870</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5697097</v>
+        <v>5822790</v>
       </c>
       <c r="E89" t="n">
-        <v>7739827</v>
+        <v>7910588</v>
       </c>
       <c r="F89" t="n">
-        <v>118.0569321572392</v>
+        <v>1121.948645434028</v>
       </c>
       <c r="G89" t="n">
-        <v>69.09847763906505</v>
+        <v>70.65052294902802</v>
       </c>
       <c r="H89" t="n">
-        <v>0.63</v>
+        <v>0.14</v>
       </c>
       <c r="I89" t="n">
-        <v>5698920</v>
+        <v>1327293</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40412301</v>
+        <v>40084614</v>
       </c>
       <c r="E90" t="n">
-        <v>47200608</v>
+        <v>46817878</v>
       </c>
       <c r="F90" t="n">
-        <v>368.3050898613612</v>
+        <v>413.7622920885887</v>
       </c>
       <c r="G90" t="n">
-        <v>122.0795852636154</v>
+        <v>119.9057343968515</v>
       </c>
       <c r="H90" t="n">
         <v>0.75</v>
       </c>
       <c r="I90" t="n">
-        <v>886453</v>
+        <v>917959</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14701397</v>
+        <v>14674306</v>
       </c>
       <c r="F91" t="n">
-        <v>29.85008977644899</v>
+        <v>69.76037422616595</v>
       </c>
       <c r="G91" t="n">
-        <v>163.0391629336548</v>
+        <v>206.1366724996152</v>
       </c>
       <c r="H91" t="n">
-        <v>2.42</v>
+        <v>1.39</v>
       </c>
       <c r="I91" t="n">
-        <v>259627</v>
+        <v>270363</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36053232</v>
+        <v>36308500</v>
       </c>
       <c r="E92" t="n">
-        <v>36053232</v>
+        <v>36308500</v>
       </c>
       <c r="F92" t="n">
-        <v>423.6990890187199</v>
+        <v>419.0733306409343</v>
       </c>
       <c r="G92" t="n">
-        <v>158.5553265476421</v>
+        <v>79.56008485721368</v>
       </c>
       <c r="H92" t="n">
-        <v>0.97</v>
+        <v>1.25</v>
       </c>
       <c r="I92" t="n">
-        <v>773059</v>
+        <v>769902</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17152668</v>
+        <v>17299059</v>
       </c>
       <c r="F93" t="n">
-        <v>114.4101742407473</v>
+        <v>124.1991225485032</v>
       </c>
       <c r="G93" t="n">
-        <v>261.36660043474</v>
+        <v>261.3450436019251</v>
       </c>
       <c r="H93" t="n">
         <v>0.41</v>
       </c>
       <c r="I93" t="n">
-        <v>189186</v>
+        <v>190284</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>565087</v>
+        <v>566841</v>
       </c>
       <c r="E94" t="n">
-        <v>6853956</v>
+        <v>6875235</v>
       </c>
       <c r="F94" t="n">
-        <v>1192.13184844888</v>
+        <v>718.868813936834</v>
       </c>
       <c r="G94" t="n">
-        <v>536.1361319188121</v>
+        <v>508.6760388532115</v>
       </c>
       <c r="H94" t="n">
         <v>0.05</v>
       </c>
       <c r="I94" t="n">
-        <v>2816416</v>
+        <v>2828258</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>26091845</v>
+        <v>25747540</v>
       </c>
       <c r="E95" t="n">
-        <v>36879804</v>
+        <v>36393143</v>
       </c>
       <c r="F95" t="n">
-        <v>247.7965904326597</v>
+        <v>12.46866103979714</v>
       </c>
       <c r="G95" t="n">
-        <v>5.241427750293229</v>
+        <v>5.241421833010283</v>
       </c>
       <c r="H95" t="n">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="I95" t="n">
-        <v>68999</v>
+        <v>70337</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1301325938</v>
+        <v>1311308996</v>
       </c>
       <c r="E96" t="n">
-        <v>6240124377</v>
+        <v>6287995186</v>
       </c>
       <c r="F96" t="n">
-        <v>450641.1432355714</v>
+        <v>494040.9415412595</v>
       </c>
       <c r="G96" t="n">
-        <v>633238.2429531536</v>
+        <v>602059.1151062143</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>165566611</v>
+        <v>166311963</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>272015522</v>
+        <v>274077591</v>
       </c>
       <c r="E97" t="n">
-        <v>1174169999</v>
+        <v>1183071036</v>
       </c>
       <c r="F97" t="n">
-        <v>260574.6550647991</v>
+        <v>148251.6913263433</v>
       </c>
       <c r="G97" t="n">
-        <v>1015871.183658705</v>
+        <v>922835.9126047229</v>
       </c>
       <c r="H97" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I97" t="n">
-        <v>96753401</v>
+        <v>98523518</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5163357</v>
+        <v>5162541</v>
       </c>
       <c r="E98" t="n">
-        <v>5722028</v>
+        <v>5721124</v>
       </c>
       <c r="F98" t="n">
-        <v>666.3662486774796</v>
+        <v>216.5292727291831</v>
       </c>
       <c r="G98" t="n">
-        <v>709.8788232399424</v>
+        <v>24.3589223801581</v>
       </c>
       <c r="H98" t="n">
-        <v>0.25</v>
+        <v>1.41</v>
       </c>
       <c r="I98" t="n">
-        <v>585007</v>
+        <v>612100</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94665</v>
+        <v>99502</v>
       </c>
       <c r="E99" t="n">
-        <v>94665</v>
+        <v>99502</v>
       </c>
       <c r="F99" t="n">
-        <v>5.42425376933819</v>
+        <v>3.888155429209552</v>
       </c>
       <c r="G99" t="n">
-        <v>29.27644224907879</v>
+        <v>4.003821748388143</v>
       </c>
       <c r="H99" t="n">
-        <v>0.77</v>
+        <v>0.47</v>
       </c>
       <c r="I99" t="n">
-        <v>3597.07</v>
+        <v>1946.11</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>114710807</v>
+        <v>115248900</v>
       </c>
       <c r="E100" t="n">
-        <v>114710807</v>
+        <v>115248900</v>
       </c>
       <c r="F100" t="n">
-        <v>12163.20024735776</v>
+        <v>17675.31219952905</v>
       </c>
       <c r="G100" t="n">
-        <v>7918.574536551295</v>
+        <v>8753.644264583545</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6120676</v>
+        <v>6106257</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3773701</v>
+        <v>3795942</v>
       </c>
       <c r="F101" t="n">
-        <v>2018.908313581021</v>
+        <v>1334.253837003952</v>
       </c>
       <c r="G101" t="n">
-        <v>1739.465339248425</v>
+        <v>1568.668501230793</v>
       </c>
       <c r="H101" t="n">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="I101" t="n">
-        <v>307304</v>
+        <v>306996</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2043560323</v>
+        <v>2043184622</v>
       </c>
       <c r="E102" t="n">
-        <v>2043560323</v>
+        <v>2043184622</v>
       </c>
       <c r="F102" t="n">
-        <v>7108092.368522346</v>
+        <v>6951161.214207358</v>
       </c>
       <c r="G102" t="n">
-        <v>5096922.801196224</v>
+        <v>5176308.286630729</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>6696155987</v>
+        <v>6752950103</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5332898</v>
+        <v>5342982</v>
       </c>
       <c r="E103" t="n">
-        <v>5338934</v>
+        <v>5349029</v>
       </c>
       <c r="F103" t="n">
-        <v>57.85414416125188</v>
+        <v>59.17977775236433</v>
       </c>
       <c r="G103" t="n">
-        <v>67.77821167695139</v>
+        <v>113.3720990899195</v>
       </c>
       <c r="H103" t="n">
-        <v>0.66</v>
+        <v>0.29</v>
       </c>
       <c r="I103" t="n">
-        <v>147314</v>
+        <v>146862</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2252150</v>
+        <v>2252734</v>
       </c>
       <c r="F104" t="n">
-        <v>5.494046615563684</v>
+        <v>5.426904467959384</v>
       </c>
       <c r="G104" t="n">
-        <v>288.1803152814306</v>
+        <v>278.9988518363053</v>
       </c>
       <c r="H104" t="n">
         <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>57631</v>
+        <v>57495</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4469886</v>
+        <v>4447855</v>
       </c>
       <c r="E105" t="n">
-        <v>5868377</v>
+        <v>5839453</v>
       </c>
       <c r="F105" t="n">
-        <v>11421.94369170765</v>
+        <v>4871.69330006189</v>
       </c>
       <c r="G105" t="n">
-        <v>12481.76894912169</v>
+        <v>12364.93711407178</v>
       </c>
       <c r="H105" t="n">
         <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>598355</v>
+        <v>602346</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19811305</v>
+        <v>19819963</v>
       </c>
       <c r="F106" t="n">
-        <v>167.7431703455394</v>
+        <v>413.3388881028475</v>
       </c>
       <c r="G106" t="n">
-        <v>194.2032865621526</v>
+        <v>160.3928523660825</v>
       </c>
       <c r="H106" t="n">
         <v>1.01</v>
       </c>
       <c r="I106" t="n">
-        <v>57389</v>
+        <v>55895</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1300271</v>
+        <v>1350337</v>
       </c>
       <c r="E107" t="n">
-        <v>4847747</v>
+        <v>5034404</v>
       </c>
       <c r="F107" t="n">
-        <v>143.8878548461287</v>
+        <v>1674.741064364557</v>
       </c>
       <c r="G107" t="n">
-        <v>171.6585914193666</v>
+        <v>151.6053364522668</v>
       </c>
       <c r="H107" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I107" t="n">
-        <v>514012</v>
+        <v>559945</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4194989</v>
+        <v>4222437</v>
       </c>
       <c r="E108" t="n">
-        <v>12083564</v>
+        <v>12162626</v>
       </c>
       <c r="F108" t="n">
-        <v>181.9101165368178</v>
+        <v>214.4015083222412</v>
       </c>
       <c r="G108" t="n">
-        <v>204.2874648258697</v>
+        <v>131.2003560729872</v>
       </c>
       <c r="H108" t="n">
-        <v>3.24</v>
+        <v>2.35</v>
       </c>
       <c r="I108" t="n">
-        <v>648534</v>
+        <v>635691</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80111811</v>
+        <v>80613477</v>
       </c>
       <c r="E109" t="n">
-        <v>101948505</v>
+        <v>102586915</v>
       </c>
       <c r="F109" t="n">
-        <v>5871.964856411736</v>
+        <v>6525.344720023666</v>
       </c>
       <c r="G109" t="n">
-        <v>294.9220979896976</v>
+        <v>99.2627651574701</v>
       </c>
       <c r="H109" t="n">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>6210489</v>
+        <v>6230827</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22672895</v>
+        <v>22789106</v>
       </c>
       <c r="E110" t="n">
-        <v>29411931</v>
+        <v>29562684</v>
       </c>
       <c r="F110" t="n">
-        <v>21774.9376279848</v>
+        <v>19796.01852615746</v>
       </c>
       <c r="G110" t="n">
-        <v>12169.75866061144</v>
+        <v>13088.23562390116</v>
       </c>
       <c r="H110" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="I110" t="n">
-        <v>155161</v>
+        <v>161696</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>638581</v>
+        <v>655552</v>
       </c>
       <c r="E111" t="n">
-        <v>638581</v>
+        <v>655552</v>
       </c>
       <c r="F111" t="n">
-        <v>4.101409767817275</v>
+        <v>0.6944383973779906</v>
       </c>
       <c r="G111" t="n">
-        <v>523.6354000420131</v>
+        <v>4.133057189606339</v>
       </c>
       <c r="H111" t="n">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="I111" t="n">
-        <v>80191</v>
+        <v>82775</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13796547</v>
+        <v>13849719</v>
       </c>
       <c r="E112" t="n">
-        <v>13796547</v>
+        <v>13849719</v>
       </c>
       <c r="F112" t="n">
-        <v>1963.895558604463</v>
+        <v>2048.493920265911</v>
       </c>
       <c r="G112" t="n">
-        <v>7739.060510157302</v>
+        <v>8358.806759019024</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I112" t="n">
-        <v>4868865</v>
+        <v>4864788</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99146608</v>
+        <v>99377667</v>
       </c>
       <c r="E113" t="n">
-        <v>122640806</v>
+        <v>122926618</v>
       </c>
       <c r="F113" t="n">
-        <v>411.4504228945829</v>
+        <v>505.57857178009</v>
       </c>
       <c r="G113" t="n">
-        <v>479.5481253668887</v>
+        <v>1337.11339740586</v>
       </c>
       <c r="H113" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="I113" t="n">
-        <v>826443</v>
+        <v>824813</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>847079</v>
+        <v>852563</v>
       </c>
       <c r="F114" t="n">
-        <v>51.90176815809581</v>
+        <v>130.0712456318149</v>
       </c>
       <c r="G114" t="n">
-        <v>202.6525670036513</v>
+        <v>86.13351936387031</v>
       </c>
       <c r="H114" t="n">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="I114" t="n">
-        <v>24290</v>
+        <v>25743</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2699087</v>
+        <v>2713113</v>
       </c>
       <c r="F115" t="n">
-        <v>245.8290809548853</v>
+        <v>257.8594381607297</v>
       </c>
       <c r="G115" t="n">
-        <v>1190.987051777678</v>
+        <v>1052.748127670524</v>
       </c>
       <c r="H115" t="n">
         <v>1.75</v>
       </c>
       <c r="I115" t="n">
-        <v>82064</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11292254</v>
+        <v>11426097</v>
       </c>
       <c r="E116" t="n">
-        <v>16606255</v>
+        <v>16803082</v>
       </c>
       <c r="F116" t="n">
-        <v>4945.469783119196</v>
+        <v>2650.158579696168</v>
       </c>
       <c r="G116" t="n">
-        <v>3170.901274455264</v>
+        <v>2067.188633172348</v>
       </c>
       <c r="H116" t="n">
-        <v>0.61</v>
+        <v>0.97</v>
       </c>
       <c r="I116" t="n">
-        <v>604966</v>
+        <v>590066</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3154226</v>
+        <v>3171978</v>
       </c>
       <c r="F117" t="n">
-        <v>5.448885059391205</v>
+        <v>4.001817227116271</v>
       </c>
       <c r="G117" t="n">
-        <v>419.2197548071711</v>
+        <v>420.6462808451349</v>
       </c>
       <c r="H117" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I117" t="n">
-        <v>35023</v>
+        <v>35620</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1191520</v>
+        <v>1191708</v>
       </c>
       <c r="F118" t="n">
-        <v>2.972579133673356</v>
+        <v>4.014240957688107</v>
       </c>
       <c r="G118" t="n">
-        <v>21.96611528830222</v>
+        <v>21.96612981306773</v>
       </c>
       <c r="H118" t="n">
         <v>0.48</v>
       </c>
       <c r="I118" t="n">
-        <v>4907.47</v>
+        <v>4856.52</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5186847</v>
+        <v>5180835</v>
       </c>
       <c r="E119" t="n">
-        <v>7257151</v>
+        <v>7248739</v>
       </c>
       <c r="F119" t="n">
-        <v>1345.349316068665</v>
+        <v>760.0775279814965</v>
       </c>
       <c r="G119" t="n">
-        <v>829.3393853869553</v>
+        <v>731.634774466035</v>
       </c>
       <c r="H119" t="n">
-        <v>0.32</v>
+        <v>0.85</v>
       </c>
       <c r="I119" t="n">
-        <v>103643</v>
+        <v>104012</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10100740</v>
+        <v>10144923</v>
       </c>
       <c r="E120" t="n">
-        <v>27822057</v>
+        <v>27943757</v>
       </c>
       <c r="F120" t="n">
-        <v>28.67885667518168</v>
+        <v>14.14250298129182</v>
       </c>
       <c r="G120" t="n">
-        <v>119.7479886963444</v>
+        <v>469.305284120563</v>
       </c>
       <c r="H120" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="I120" t="n">
-        <v>336639</v>
+        <v>332410</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51791441</v>
+        <v>51540214</v>
       </c>
       <c r="E121" t="n">
-        <v>131941658</v>
+        <v>131301641</v>
       </c>
       <c r="F121" t="n">
-        <v>450.1978904607493</v>
+        <v>1147.313015177092</v>
       </c>
       <c r="G121" t="n">
-        <v>13274.99494514097</v>
+        <v>11639.42646515405</v>
       </c>
       <c r="H121" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I121" t="n">
-        <v>2388981</v>
+        <v>2422992</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14448058</v>
+        <v>14642588</v>
       </c>
       <c r="E122" t="n">
-        <v>69974252</v>
+        <v>70916389</v>
       </c>
       <c r="F122" t="n">
-        <v>2007.335417832438</v>
+        <v>2852.232100534148</v>
       </c>
       <c r="G122" t="n">
-        <v>2760.36639839335</v>
+        <v>3148.230247158671</v>
       </c>
       <c r="H122" t="n">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="I122" t="n">
-        <v>3802915</v>
+        <v>3809741</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>512480</v>
+        <v>493730</v>
       </c>
       <c r="F123" t="n">
-        <v>4.131618877362694</v>
+        <v>5.531619555877851</v>
       </c>
       <c r="G123" t="n">
-        <v>5.227396031675938</v>
+        <v>3.977313889452293</v>
       </c>
       <c r="H123" t="n">
-        <v>0.43</v>
+        <v>0.8</v>
       </c>
       <c r="I123" t="n">
-        <v>7880</v>
+        <v>7710.73</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4633359</v>
+        <v>4634122</v>
       </c>
       <c r="E124" t="n">
-        <v>10561537</v>
+        <v>10563275</v>
       </c>
       <c r="F124" t="n">
-        <v>558.2254208404343</v>
+        <v>558.2257155512508</v>
       </c>
       <c r="G124" t="n">
-        <v>2252.050003717263</v>
+        <v>2254.245858329619</v>
       </c>
       <c r="H124" t="n">
         <v>1.41</v>
       </c>
       <c r="I124" t="n">
-        <v>87210</v>
+        <v>86603</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1931068011</v>
+        <v>1928529577</v>
       </c>
       <c r="F125" t="n">
-        <v>76310.45028457601</v>
+        <v>75884.56841154989</v>
       </c>
       <c r="G125" t="n">
-        <v>77738.48199718697</v>
+        <v>75536.66195562012</v>
       </c>
       <c r="H125" t="n">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
       <c r="I125" t="n">
-        <v>27425614</v>
+        <v>27625700</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9510169</v>
+        <v>9562351</v>
       </c>
       <c r="E126" t="n">
-        <v>34611822</v>
+        <v>34801389</v>
       </c>
       <c r="F126" t="n">
-        <v>1141.289696365832</v>
+        <v>1141.289666660768</v>
       </c>
       <c r="G126" t="n">
-        <v>5.29502901912535</v>
+        <v>5.295028881308302</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>129770</v>
+        <v>123946</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>557472</v>
+        <v>559435</v>
       </c>
       <c r="F127" t="n">
-        <v>9.842350188807378</v>
+        <v>23.54740284275978</v>
       </c>
       <c r="G127" t="n">
-        <v>3.881537236409081</v>
+        <v>5.25521859275911</v>
       </c>
       <c r="H127" t="n">
-        <v>0.45</v>
+        <v>0.06</v>
       </c>
       <c r="I127" t="n">
-        <v>923.34</v>
+        <v>853.25</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12123571</v>
+        <v>12150294</v>
       </c>
       <c r="E128" t="n">
-        <v>17577428</v>
+        <v>17616173</v>
       </c>
       <c r="F128" t="n">
-        <v>3771.862936476583</v>
+        <v>2983.817925614773</v>
       </c>
       <c r="G128" t="n">
-        <v>6889.686288519782</v>
+        <v>4753.812663032493</v>
       </c>
       <c r="H128" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I128" t="n">
-        <v>2035787</v>
+        <v>2030786</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31728156</v>
+        <v>31813700</v>
       </c>
       <c r="E129" t="n">
-        <v>98791297</v>
+        <v>99057654</v>
       </c>
       <c r="F129" t="n">
-        <v>15891.76375694938</v>
+        <v>14495.53634375113</v>
       </c>
       <c r="G129" t="n">
-        <v>16835.27453626861</v>
+        <v>18536.26359176411</v>
       </c>
       <c r="H129" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I129" t="n">
-        <v>11686383</v>
+        <v>11513271</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2078331</v>
+        <v>2068179</v>
       </c>
       <c r="E130" t="n">
-        <v>14903501</v>
+        <v>14830709</v>
       </c>
       <c r="F130" t="n">
-        <v>3.854739316303451</v>
+        <v>10.88404985299707</v>
       </c>
       <c r="G130" t="n">
-        <v>3.95234584509492</v>
+        <v>31.73614685141204</v>
       </c>
       <c r="H130" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="I130" t="n">
-        <v>1994353</v>
+        <v>1980262</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7497307</v>
+        <v>7470407</v>
       </c>
       <c r="F131" t="n">
-        <v>63.1924630080151</v>
+        <v>129.6345099332711</v>
       </c>
       <c r="G131" t="n">
-        <v>102.7680418599092</v>
+        <v>121.1307195376298</v>
       </c>
       <c r="H131" t="n">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="I131" t="n">
-        <v>518350</v>
+        <v>513469</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>204427980</v>
+        <v>205539632</v>
       </c>
       <c r="E132" t="n">
-        <v>1157596832</v>
+        <v>1163891689</v>
       </c>
       <c r="F132" t="n">
-        <v>424970.978333482</v>
+        <v>500809.7554253178</v>
       </c>
       <c r="G132" t="n">
-        <v>471354.6510900157</v>
+        <v>536612.8342075318</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>64777166</v>
+        <v>66201552</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1039028</v>
+        <v>1037432</v>
       </c>
       <c r="E133" t="n">
-        <v>1039028</v>
+        <v>1037432</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>6694.47</v>
+        <v>5514.16</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>502788</v>
+        <v>501775</v>
       </c>
       <c r="E134" t="n">
-        <v>1692315</v>
+        <v>1688904</v>
       </c>
       <c r="F134" t="n">
-        <v>143.3090296185947</v>
+        <v>113.2887466902102</v>
       </c>
       <c r="G134" t="n">
-        <v>305.99918331164</v>
+        <v>273.0083729441944</v>
       </c>
       <c r="H134" t="n">
         <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>632374</v>
+        <v>632329</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>14142383</v>
+        <v>14156569</v>
       </c>
       <c r="F135" t="n">
-        <v>4.088638280415752</v>
+        <v>4.088640983966721</v>
       </c>
       <c r="G135" t="n">
-        <v>3.868499579373655</v>
+        <v>3.868502137361198</v>
       </c>
       <c r="H135" t="n">
         <v>0.35</v>
       </c>
       <c r="I135" t="n">
-        <v>142.84</v>
+        <v>142.78</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>142922368</v>
+        <v>143166021</v>
       </c>
       <c r="E136" t="n">
-        <v>1058684208</v>
+        <v>1060489047</v>
       </c>
       <c r="F136" t="n">
-        <v>32880.1438923012</v>
+        <v>32203.50688669295</v>
       </c>
       <c r="G136" t="n">
-        <v>32888.33550480538</v>
+        <v>32702.09228307201</v>
       </c>
       <c r="H136" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="I136" t="n">
-        <v>8964582</v>
+        <v>8639971</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>31840895</v>
+        <v>32170813</v>
       </c>
       <c r="E137" t="n">
-        <v>151264659</v>
+        <v>152831980</v>
       </c>
       <c r="F137" t="n">
-        <v>7707.562103319407</v>
+        <v>10564.52626916591</v>
       </c>
       <c r="G137" t="n">
-        <v>11716.29567507843</v>
+        <v>10100.90048142339</v>
       </c>
       <c r="H137" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="I137" t="n">
-        <v>1120903</v>
+        <v>1132672</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8030490</v>
+        <v>7993109</v>
       </c>
       <c r="E138" t="n">
-        <v>10758179</v>
+        <v>10708100</v>
       </c>
       <c r="F138" t="n">
-        <v>543.0308837958823</v>
+        <v>639.9291107849689</v>
       </c>
       <c r="G138" t="n">
-        <v>134.9225975166332</v>
+        <v>316.5761993111137</v>
       </c>
       <c r="H138" t="n">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="I138" t="n">
-        <v>29905</v>
+        <v>37293</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1253022</v>
+        <v>1253048</v>
       </c>
       <c r="F139" t="n">
-        <v>97.36110616020808</v>
+        <v>19.9150747156085</v>
       </c>
       <c r="G139" t="n">
-        <v>11.23149081845017</v>
+        <v>10.06559978760329</v>
       </c>
       <c r="H139" t="n">
         <v>0.85</v>
       </c>
       <c r="I139" t="n">
-        <v>42080</v>
+        <v>21688</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2376059</v>
+        <v>2374850</v>
       </c>
       <c r="E140" t="n">
-        <v>2376059</v>
+        <v>2374850</v>
       </c>
       <c r="F140" t="n">
-        <v>679.8304293893507</v>
+        <v>650.4506728809524</v>
       </c>
       <c r="G140" t="n">
-        <v>340.4607518408012</v>
+        <v>300.7768117514178</v>
       </c>
       <c r="H140" t="n">
         <v>0.23</v>
       </c>
       <c r="I140" t="n">
-        <v>159652</v>
+        <v>264152</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26468804</v>
+        <v>26767245</v>
       </c>
       <c r="E141" t="n">
-        <v>26468804</v>
+        <v>26767245</v>
       </c>
       <c r="F141" t="n">
-        <v>336.8138902133154</v>
+        <v>875.4643437904965</v>
       </c>
       <c r="G141" t="n">
-        <v>1570.959108340279</v>
+        <v>1115.174524857413</v>
       </c>
       <c r="H141" t="n">
-        <v>0.68</v>
+        <v>1.14</v>
       </c>
       <c r="I141" t="n">
-        <v>313742</v>
+        <v>314973</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6401198</v>
+        <v>6447443</v>
       </c>
       <c r="E142" t="n">
-        <v>6760382</v>
+        <v>6809222</v>
       </c>
       <c r="F142" t="n">
-        <v>7.011391650242946</v>
+        <v>1061.709779031844</v>
       </c>
       <c r="G142" t="n">
-        <v>891.4147040013858</v>
+        <v>185.863338990871</v>
       </c>
       <c r="H142" t="n">
-        <v>0.75</v>
+        <v>1.45</v>
       </c>
       <c r="I142" t="n">
-        <v>28565</v>
+        <v>25995</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3417442</v>
+        <v>3401380</v>
       </c>
       <c r="E143" t="n">
-        <v>7980297</v>
+        <v>7942789</v>
       </c>
       <c r="F143" t="n">
-        <v>1341.767690784132</v>
+        <v>1169.952096870495</v>
       </c>
       <c r="G143" t="n">
-        <v>1039.78903260279</v>
+        <v>907.875782009034</v>
       </c>
       <c r="H143" t="n">
-        <v>0.83</v>
+        <v>0.06</v>
       </c>
       <c r="I143" t="n">
-        <v>636607</v>
+        <v>624666</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1582974</v>
+        <v>1565653</v>
       </c>
       <c r="E144" t="n">
-        <v>12293555</v>
+        <v>12159043</v>
       </c>
       <c r="F144" t="n">
-        <v>200.0586182421036</v>
+        <v>100.5295549087287</v>
       </c>
       <c r="G144" t="n">
-        <v>7641.065459737501</v>
+        <v>1367.90059546935</v>
       </c>
       <c r="H144" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="I144" t="n">
-        <v>523391</v>
+        <v>516902</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>339691497</v>
+        <v>347056848</v>
       </c>
       <c r="E145" t="n">
-        <v>3056075346</v>
+        <v>3122338611</v>
       </c>
       <c r="F145" t="n">
-        <v>461422.6478297656</v>
+        <v>590139.7841094307</v>
       </c>
       <c r="G145" t="n">
-        <v>650297.3122056061</v>
+        <v>647974.0147154969</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>38516711</v>
+        <v>39563652</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>244481</v>
+        <v>250561</v>
       </c>
       <c r="E146" t="n">
-        <v>2157731</v>
+        <v>2211385</v>
       </c>
       <c r="F146" t="n">
-        <v>5.540034653653874</v>
+        <v>113.8451187905494</v>
       </c>
       <c r="G146" t="n">
-        <v>14.63165473653733</v>
+        <v>5.623365130740221</v>
       </c>
       <c r="H146" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="I146" t="n">
-        <v>85483</v>
+        <v>90784</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>650881</v>
+        <v>646495</v>
       </c>
       <c r="F147" t="n">
-        <v>541.5465734983577</v>
+        <v>541.3972110652484</v>
       </c>
       <c r="G147" t="n">
-        <v>957.1763750603562</v>
+        <v>744.7274474967332</v>
       </c>
       <c r="H147" t="n">
         <v>0.67</v>
       </c>
       <c r="I147" t="n">
-        <v>3329.93</v>
+        <v>3580.98</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4911955</v>
+        <v>4900406</v>
       </c>
       <c r="E148" t="n">
-        <v>17356222</v>
+        <v>17315415</v>
       </c>
       <c r="F148" t="n">
-        <v>1585.997952032322</v>
+        <v>2383.393890268723</v>
       </c>
       <c r="G148" t="n">
-        <v>2770.942700705918</v>
+        <v>2422.324422740818</v>
       </c>
       <c r="H148" t="n">
         <v>0.17</v>
       </c>
       <c r="I148" t="n">
-        <v>88449</v>
+        <v>91223</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9317979</v>
+        <v>9290014</v>
       </c>
       <c r="E149" t="n">
-        <v>43189367</v>
+        <v>43059750</v>
       </c>
       <c r="F149" t="n">
-        <v>1871.871152888629</v>
+        <v>1759.746450874323</v>
       </c>
       <c r="G149" t="n">
-        <v>2900.454044160787</v>
+        <v>3578.612878023303</v>
       </c>
       <c r="H149" t="n">
         <v>0.42</v>
       </c>
       <c r="I149" t="n">
-        <v>131074</v>
+        <v>129766</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>50553797</v>
+        <v>50152718</v>
       </c>
       <c r="E150" t="n">
-        <v>292685598</v>
+        <v>290363513</v>
       </c>
       <c r="F150" t="n">
-        <v>28635.80118225551</v>
+        <v>61875.61459407767</v>
       </c>
       <c r="G150" t="n">
-        <v>49493.28271019072</v>
+        <v>69367.46793633192</v>
       </c>
       <c r="H150" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>30366979</v>
+        <v>31853135</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>84907</v>
+        <v>84624</v>
       </c>
       <c r="E151" t="n">
-        <v>84907</v>
+        <v>84624</v>
       </c>
       <c r="F151" t="n">
-        <v>5.418691656643061</v>
+        <v>4.017119685843216</v>
       </c>
       <c r="G151" t="n">
-        <v>3.979498563678326</v>
+        <v>5.426698090482443</v>
       </c>
       <c r="H151" t="n">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="I151" t="n">
-        <v>22784</v>
+        <v>22688</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4352470</v>
+        <v>4360438</v>
       </c>
       <c r="F152" t="n">
-        <v>277.4043291090579</v>
+        <v>257.9659314647466</v>
       </c>
       <c r="G152" t="n">
-        <v>211.54898264853</v>
+        <v>245.0014754762837</v>
       </c>
       <c r="H152" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I152" t="n">
-        <v>312258</v>
+        <v>311047</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39677056</v>
+        <v>39676564</v>
       </c>
       <c r="E153" t="n">
-        <v>54799665</v>
+        <v>54798985</v>
       </c>
       <c r="F153" t="n">
-        <v>1040.703753291396</v>
+        <v>10754.76856813666</v>
       </c>
       <c r="G153" t="n">
-        <v>1447.344104131789</v>
+        <v>5448.011319016954</v>
       </c>
       <c r="H153" t="n">
-        <v>0.84</v>
+        <v>0.46</v>
       </c>
       <c r="I153" t="n">
-        <v>342604</v>
+        <v>338594</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2073067</v>
+        <v>2091799</v>
       </c>
       <c r="E154" t="n">
-        <v>8465869</v>
+        <v>8542364</v>
       </c>
       <c r="F154" t="n">
-        <v>685.2448906833932</v>
+        <v>448.2641986745321</v>
       </c>
       <c r="G154" t="n">
-        <v>398.8215026778225</v>
+        <v>539.8829437304614</v>
       </c>
       <c r="H154" t="n">
-        <v>0.78</v>
+        <v>0.11</v>
       </c>
       <c r="I154" t="n">
-        <v>534687</v>
+        <v>567671</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7455532</v>
+        <v>7472338</v>
       </c>
       <c r="E155" t="n">
-        <v>7510951</v>
+        <v>7527882</v>
       </c>
       <c r="F155" t="n">
-        <v>829.1101538408699</v>
+        <v>564.7690405092965</v>
       </c>
       <c r="G155" t="n">
-        <v>8725.295706007848</v>
+        <v>6964.140101058589</v>
       </c>
       <c r="H155" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="I155" t="n">
-        <v>5096167</v>
+        <v>4971126</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>474374</v>
+        <v>474698</v>
       </c>
       <c r="E156" t="n">
-        <v>474374</v>
+        <v>474698</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>18.97</v>
+        <v>18.57</v>
       </c>
       <c r="I156" t="n">
-        <v>9427.15</v>
+        <v>9435.030000000001</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13662176</v>
+        <v>13620424</v>
       </c>
       <c r="E157" t="n">
-        <v>13708670</v>
+        <v>13666775</v>
       </c>
       <c r="F157" t="n">
-        <v>3713.796619424639</v>
+        <v>1789.018298419907</v>
       </c>
       <c r="G157" t="n">
-        <v>3798.498347415952</v>
+        <v>4010.3783592827</v>
       </c>
       <c r="H157" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="I157" t="n">
-        <v>5796150</v>
+        <v>5892536</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42815182</v>
+        <v>42768720</v>
       </c>
       <c r="E158" t="n">
-        <v>72690218</v>
+        <v>72611337</v>
       </c>
       <c r="F158" t="n">
-        <v>276.9961615816856</v>
+        <v>242.9642322355567</v>
       </c>
       <c r="G158" t="n">
-        <v>421.2486034808146</v>
+        <v>446.1168433613787</v>
       </c>
       <c r="H158" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="I158" t="n">
-        <v>1086607</v>
+        <v>1071695</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>22515919</v>
+        <v>22706934</v>
       </c>
       <c r="E159" t="n">
-        <v>67492372</v>
+        <v>68064947</v>
       </c>
       <c r="F159" t="n">
-        <v>16234.27263245282</v>
+        <v>19353.71408368956</v>
       </c>
       <c r="G159" t="n">
-        <v>8666.444848715446</v>
+        <v>9973.467217908334</v>
       </c>
       <c r="H159" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="I159" t="n">
-        <v>3340490</v>
+        <v>3356255</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101366688</v>
+        <v>101322175</v>
       </c>
       <c r="E160" t="n">
-        <v>107761950</v>
+        <v>107714629</v>
       </c>
       <c r="F160" t="n">
-        <v>1203.995316087457</v>
+        <v>764.4956225276661</v>
       </c>
       <c r="G160" t="n">
-        <v>1083.553508977375</v>
+        <v>1195.753535058024</v>
       </c>
       <c r="H160" t="n">
         <v>0.8</v>
       </c>
       <c r="I160" t="n">
-        <v>375748</v>
+        <v>378641</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10394441</v>
+        <v>10380799</v>
       </c>
       <c r="E161" t="n">
-        <v>45153193</v>
+        <v>45093613</v>
       </c>
       <c r="F161" t="n">
-        <v>4132.60929237305</v>
+        <v>4090.817123925474</v>
       </c>
       <c r="G161" t="n">
-        <v>3616.253799484636</v>
+        <v>2666.973575330597</v>
       </c>
       <c r="H161" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="I161" t="n">
-        <v>116199</v>
+        <v>116169</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15754218</v>
+        <v>15724816</v>
       </c>
       <c r="E162" t="n">
-        <v>96562783</v>
+        <v>96382569</v>
       </c>
       <c r="F162" t="n">
-        <v>1422.037552651992</v>
+        <v>1820.472866478487</v>
       </c>
       <c r="G162" t="n">
-        <v>550.7324642261888</v>
+        <v>1197.739922312805</v>
       </c>
       <c r="H162" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I162" t="n">
-        <v>10562158</v>
+        <v>10326429</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1509208</v>
+        <v>1512279</v>
       </c>
       <c r="E163" t="n">
-        <v>1551660</v>
+        <v>1554818</v>
       </c>
       <c r="F163" t="n">
-        <v>73.8215425604366</v>
+        <v>95.08379345962271</v>
       </c>
       <c r="G163" t="n">
-        <v>65.69144773606253</v>
+        <v>59.58586198065804</v>
       </c>
       <c r="H163" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="I163" t="n">
-        <v>151077</v>
+        <v>146015</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>96274</v>
+        <v>96282</v>
       </c>
       <c r="E164" t="n">
-        <v>273106</v>
+        <v>273129</v>
       </c>
       <c r="F164" t="n">
-        <v>4.224277307122421</v>
+        <v>4.01407048593741</v>
       </c>
       <c r="G164" t="n">
-        <v>85.99151009689193</v>
+        <v>87.17769125721362</v>
       </c>
       <c r="H164" t="n">
         <v>0.44</v>
       </c>
       <c r="I164" t="n">
-        <v>63.63</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47635106</v>
+        <v>48078152</v>
       </c>
       <c r="E165" t="n">
-        <v>205206827</v>
+        <v>207115421</v>
       </c>
       <c r="F165" t="n">
-        <v>7712.819109445115</v>
+        <v>8878.757567957393</v>
       </c>
       <c r="G165" t="n">
-        <v>7435.88254091203</v>
+        <v>3231.989122620243</v>
       </c>
       <c r="H165" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I165" t="n">
-        <v>8871247</v>
+        <v>8807739</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7789861</v>
+        <v>7755999</v>
       </c>
       <c r="F166" t="n">
-        <v>105.4083934339176</v>
+        <v>71.56542574389383</v>
       </c>
       <c r="G166" t="n">
-        <v>282.3200108073605</v>
+        <v>570.4935088762638</v>
       </c>
       <c r="H166" t="n">
-        <v>0.87</v>
+        <v>0.3</v>
       </c>
       <c r="I166" t="n">
-        <v>6100279</v>
+        <v>6618017</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>670611</v>
+        <v>672107</v>
       </c>
       <c r="E167" t="n">
-        <v>2421271</v>
+        <v>2426673</v>
       </c>
       <c r="F167" t="n">
-        <v>10.1838885950634</v>
+        <v>50.56562817709045</v>
       </c>
       <c r="G167" t="n">
-        <v>10.61459543909694</v>
+        <v>10.80897151533119</v>
       </c>
       <c r="H167" t="n">
         <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>337418</v>
+        <v>336508</v>
       </c>
     </row>
     <row r="168">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1605671</v>
+        <v>1603416</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>5.14</v>
+        <v>5.21</v>
       </c>
       <c r="I168" t="n">
-        <v>83603</v>
+        <v>79725</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13162460</v>
+        <v>13256372</v>
       </c>
       <c r="E169" t="n">
-        <v>13162460</v>
+        <v>13256372</v>
       </c>
       <c r="F169" t="n">
-        <v>574.1352918325061</v>
+        <v>323.2603282523062</v>
       </c>
       <c r="G169" t="n">
-        <v>22.98457281890956</v>
+        <v>43.38841650472803</v>
       </c>
       <c r="H169" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="I169" t="n">
-        <v>3676595</v>
+        <v>3709932</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1915703</v>
+        <v>1920867</v>
       </c>
       <c r="E170" t="n">
-        <v>6958943</v>
+        <v>6977702</v>
       </c>
       <c r="F170" t="n">
-        <v>310.4807578558442</v>
+        <v>155.032523965327</v>
       </c>
       <c r="G170" t="n">
-        <v>179.3992288835796</v>
+        <v>246.6054957264516</v>
       </c>
       <c r="H170" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="I170" t="n">
-        <v>143974</v>
+        <v>141003</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8963066</v>
+        <v>8794558</v>
       </c>
       <c r="E171" t="n">
-        <v>19902772</v>
+        <v>19528593</v>
       </c>
       <c r="F171" t="n">
-        <v>1643.183594324727</v>
+        <v>1692.065442991416</v>
       </c>
       <c r="G171" t="n">
-        <v>1606.860415327241</v>
+        <v>1553.427540110494</v>
       </c>
       <c r="H171" t="n">
-        <v>0.3</v>
+        <v>0.58</v>
       </c>
       <c r="I171" t="n">
-        <v>345611</v>
+        <v>337962</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1038455</v>
+        <v>1044041</v>
       </c>
       <c r="E172" t="n">
-        <v>3035224</v>
+        <v>3051551</v>
       </c>
       <c r="F172" t="n">
-        <v>97.98418440208064</v>
+        <v>98.04569176228912</v>
       </c>
       <c r="G172" t="n">
-        <v>661.0965077125853</v>
+        <v>661.0942994951057</v>
       </c>
       <c r="H172" t="n">
         <v>0.36</v>
       </c>
       <c r="I172" t="n">
-        <v>18868.62</v>
+        <v>18920.07</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>21046841</v>
+        <v>21007736</v>
       </c>
       <c r="E173" t="n">
-        <v>84187365</v>
+        <v>84030944</v>
       </c>
       <c r="F173" t="n">
-        <v>15788.87526127661</v>
+        <v>25324.49779805262</v>
       </c>
       <c r="G173" t="n">
-        <v>24485.46986117814</v>
+        <v>10881.96553884125</v>
       </c>
       <c r="H173" t="n">
         <v>0.01</v>
       </c>
       <c r="I173" t="n">
-        <v>3906965</v>
+        <v>3075220</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4215202</v>
+        <v>4594312</v>
       </c>
       <c r="E174" t="n">
-        <v>4215202</v>
+        <v>4594312</v>
       </c>
       <c r="F174" t="n">
-        <v>1871.366574305842</v>
+        <v>454.047141035242</v>
       </c>
       <c r="G174" t="n">
-        <v>1336.396420206238</v>
+        <v>206.0416331530029</v>
       </c>
       <c r="H174" t="n">
-        <v>0.58</v>
+        <v>1.18</v>
       </c>
       <c r="I174" t="n">
-        <v>2714072</v>
+        <v>2856270</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>313239979</v>
+        <v>314396678</v>
       </c>
       <c r="E175" t="n">
-        <v>313239979</v>
+        <v>314396678</v>
       </c>
       <c r="F175" t="n">
-        <v>11007.3618916825</v>
+        <v>9462.663125312449</v>
       </c>
       <c r="G175" t="n">
-        <v>7680.064084564829</v>
+        <v>7676.099881357493</v>
       </c>
       <c r="H175" t="n">
-        <v>0.01</v>
+        <v>0.17</v>
       </c>
       <c r="I175" t="n">
-        <v>14920802</v>
+        <v>15024675</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12782764</v>
+        <v>12755649</v>
       </c>
       <c r="E176" t="n">
-        <v>40440044</v>
+        <v>40354261</v>
       </c>
       <c r="F176" t="n">
-        <v>4160.322835228465</v>
+        <v>3869.577424851407</v>
       </c>
       <c r="G176" t="n">
-        <v>3425.373068082545</v>
+        <v>3482.502044429812</v>
       </c>
       <c r="H176" t="n">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
       <c r="I176" t="n">
-        <v>1164255</v>
+        <v>1066341</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>25021</v>
+        <v>24739</v>
       </c>
       <c r="E177" t="n">
-        <v>196784</v>
+        <v>194568</v>
       </c>
       <c r="F177" t="n">
-        <v>78.62367468032754</v>
+        <v>67.64270435843149</v>
       </c>
       <c r="G177" t="n">
-        <v>399.1074533514141</v>
+        <v>349.1152698578206</v>
       </c>
       <c r="H177" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="I177" t="n">
-        <v>87583</v>
+        <v>80015</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8559693</v>
+        <v>8412839</v>
       </c>
       <c r="E178" t="n">
-        <v>8559693</v>
+        <v>8412839</v>
       </c>
       <c r="F178" t="n">
-        <v>912.3544290298498</v>
+        <v>957.0694551692101</v>
       </c>
       <c r="G178" t="n">
-        <v>3078.812314758493</v>
+        <v>1428.989336920576</v>
       </c>
       <c r="H178" t="n">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
       <c r="I178" t="n">
-        <v>3675489</v>
+        <v>3733540</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1083149</v>
+        <v>1083104</v>
       </c>
       <c r="E179" t="n">
-        <v>2466978</v>
+        <v>2466875</v>
       </c>
       <c r="F179" t="n">
-        <v>5.390631974724537</v>
+        <v>5.390649172554971</v>
       </c>
       <c r="G179" t="n">
-        <v>5.451653457014745</v>
+        <v>5.451670849523115</v>
       </c>
       <c r="H179" t="n">
         <v>0.45</v>
       </c>
       <c r="I179" t="n">
-        <v>2423.98</v>
+        <v>2420.85</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9218608</v>
+        <v>9305574</v>
       </c>
       <c r="E180" t="n">
-        <v>9218608</v>
+        <v>9305574</v>
       </c>
       <c r="F180" t="n">
-        <v>3202.802230603637</v>
+        <v>4048.434005273247</v>
       </c>
       <c r="G180" t="n">
-        <v>4129.252825017595</v>
+        <v>4132.694959563138</v>
       </c>
       <c r="H180" t="n">
-        <v>0.76</v>
+        <v>0.25</v>
       </c>
       <c r="I180" t="n">
-        <v>2995789</v>
+        <v>3009187</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18258961</v>
+        <v>18458424</v>
       </c>
       <c r="E181" t="n">
-        <v>18258961</v>
+        <v>18458424</v>
       </c>
       <c r="F181" t="n">
-        <v>2119.332069133392</v>
+        <v>1348.804086866986</v>
       </c>
       <c r="G181" t="n">
-        <v>7659.054923521233</v>
+        <v>8840.324842437536</v>
       </c>
       <c r="H181" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I181" t="n">
-        <v>3775024</v>
+        <v>3783622</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>32013560</v>
+        <v>32121594</v>
       </c>
       <c r="E182" t="n">
-        <v>88674385</v>
+        <v>88973627</v>
       </c>
       <c r="F182" t="n">
-        <v>7231.369749639658</v>
+        <v>5667.663610063971</v>
       </c>
       <c r="G182" t="n">
-        <v>6612.572902084375</v>
+        <v>5541.254435045784</v>
       </c>
       <c r="H182" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I182" t="n">
-        <v>11811212</v>
+        <v>12037482</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>38096435</v>
+        <v>38146443</v>
       </c>
       <c r="E183" t="n">
-        <v>96060919</v>
+        <v>96187017</v>
       </c>
       <c r="F183" t="n">
-        <v>8761.665897956455</v>
+        <v>12177.25377054756</v>
       </c>
       <c r="G183" t="n">
-        <v>2313.758814310703</v>
+        <v>4950.852746565501</v>
       </c>
       <c r="H183" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="I183" t="n">
-        <v>3419835</v>
+        <v>3420747</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>312170561</v>
+        <v>314806333</v>
       </c>
       <c r="E184" t="n">
-        <v>317045301</v>
+        <v>319720801</v>
       </c>
       <c r="F184" t="n">
-        <v>26964.45716669233</v>
+        <v>21176.50541814255</v>
       </c>
       <c r="G184" t="n">
-        <v>23250.87045267086</v>
+        <v>19518.70255078274</v>
       </c>
       <c r="H184" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I184" t="n">
-        <v>14908308</v>
+        <v>15416145</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>411134</v>
+        <v>412553</v>
       </c>
       <c r="F185" t="n">
-        <v>14.59464116877787</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>1.059073235081835</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>2.18</v>
+        <v>6.56</v>
       </c>
       <c r="I185" t="n">
-        <v>68476</v>
+        <v>69185</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28583224</v>
+        <v>28354574</v>
       </c>
       <c r="E186" t="n">
-        <v>67906634</v>
+        <v>67363419</v>
       </c>
       <c r="F186" t="n">
-        <v>11004.06798595172</v>
+        <v>9760.989061985079</v>
       </c>
       <c r="G186" t="n">
-        <v>6597.563147631384</v>
+        <v>10476.63601217945</v>
       </c>
       <c r="H186" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I186" t="n">
-        <v>283123</v>
+        <v>401722</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>20119193</v>
+        <v>20142031</v>
       </c>
       <c r="F187" t="n">
-        <v>4.082557873105229</v>
+        <v>4.082570897763261</v>
       </c>
       <c r="G187" t="n">
-        <v>233.2517966598634</v>
+        <v>467.2371928430578</v>
       </c>
       <c r="H187" t="n">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="I187" t="n">
-        <v>1890.99</v>
+        <v>1575.46</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12713827</v>
+        <v>12714151</v>
       </c>
       <c r="E188" t="n">
-        <v>19353312</v>
+        <v>19353805</v>
       </c>
       <c r="F188" t="n">
-        <v>3733.753775209173</v>
+        <v>3737.298925427216</v>
       </c>
       <c r="G188" t="n">
-        <v>2801.995992619779</v>
+        <v>2719.920051282789</v>
       </c>
       <c r="H188" t="n">
         <v>0.68</v>
       </c>
       <c r="I188" t="n">
-        <v>762218</v>
+        <v>777376</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>86619997</v>
+        <v>86230023</v>
       </c>
       <c r="E189" t="n">
-        <v>86619997</v>
+        <v>86230023</v>
       </c>
       <c r="F189" t="n">
-        <v>6784.777237746705</v>
+        <v>6595.528467165198</v>
       </c>
       <c r="G189" t="n">
-        <v>9139.748983945765</v>
+        <v>10242.18457222709</v>
       </c>
       <c r="H189" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="I189" t="n">
-        <v>5122135</v>
+        <v>5230985</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>298456088</v>
+        <v>297488647</v>
       </c>
       <c r="E190" t="n">
-        <v>298456088</v>
+        <v>297488647</v>
       </c>
       <c r="F190" t="n">
-        <v>209049.3494186872</v>
+        <v>169979.4907564734</v>
       </c>
       <c r="G190" t="n">
-        <v>229167.832808923</v>
+        <v>284942.064479143</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>63257284</v>
+        <v>76060192</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10216154</v>
+        <v>10269816</v>
       </c>
       <c r="E191" t="n">
-        <v>29005366</v>
+        <v>29157721</v>
       </c>
       <c r="F191" t="n">
-        <v>876.8434701777448</v>
+        <v>1678.471217597636</v>
       </c>
       <c r="G191" t="n">
-        <v>8158.894941345997</v>
+        <v>9056.394085349204</v>
       </c>
       <c r="H191" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="I191" t="n">
-        <v>124655</v>
+        <v>129829</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4223077</v>
+        <v>4229663</v>
       </c>
       <c r="E192" t="n">
-        <v>28855989</v>
+        <v>28900991</v>
       </c>
       <c r="F192" t="n">
-        <v>3127.244488548285</v>
+        <v>1237.505486986549</v>
       </c>
       <c r="G192" t="n">
-        <v>5029.162385267887</v>
+        <v>2494.582959224755</v>
       </c>
       <c r="H192" t="n">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="I192" t="n">
-        <v>2650527</v>
+        <v>2656208</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2914753</v>
+        <v>3013000</v>
       </c>
       <c r="E193" t="n">
-        <v>4320700</v>
+        <v>4466337</v>
       </c>
       <c r="F193" t="n">
-        <v>759.7663060315882</v>
+        <v>483.3438402077833</v>
       </c>
       <c r="G193" t="n">
-        <v>190.9229961314398</v>
+        <v>177.1083413632856</v>
       </c>
       <c r="H193" t="n">
-        <v>0.92</v>
+        <v>1.38</v>
       </c>
       <c r="I193" t="n">
-        <v>214315</v>
+        <v>223996</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>91478916</v>
+        <v>91842631</v>
       </c>
       <c r="E194" t="n">
-        <v>527140969</v>
+        <v>529236852</v>
       </c>
       <c r="F194" t="n">
-        <v>521281.4740661905</v>
+        <v>460060.6714922645</v>
       </c>
       <c r="G194" t="n">
-        <v>418202.8037739887</v>
+        <v>437527.6039003225</v>
       </c>
       <c r="H194" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="I194" t="n">
-        <v>16872970</v>
+        <v>16878455</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>687307</v>
+        <v>690685</v>
       </c>
       <c r="E195" t="n">
-        <v>749572</v>
+        <v>753256</v>
       </c>
       <c r="F195" t="n">
-        <v>5.52266752290773</v>
+        <v>5.593929771922244</v>
       </c>
       <c r="G195" t="n">
-        <v>34.52626409645466</v>
+        <v>327.5432612897071</v>
       </c>
       <c r="H195" t="n">
-        <v>0.24</v>
+        <v>0.54</v>
       </c>
       <c r="I195" t="n">
-        <v>121949</v>
+        <v>122654</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>108643659</v>
+        <v>108905952</v>
       </c>
       <c r="E196" t="n">
-        <v>267305848</v>
+        <v>267951190</v>
       </c>
       <c r="F196" t="n">
-        <v>35710.34118131165</v>
+        <v>38862.45255332104</v>
       </c>
       <c r="G196" t="n">
-        <v>40322.99661224979</v>
+        <v>41581.52146052303</v>
       </c>
       <c r="H196" t="n">
         <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2116959</v>
+        <v>2066543</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>19686919</v>
+        <v>19692654</v>
       </c>
       <c r="E197" t="n">
-        <v>19686919</v>
+        <v>19692654</v>
       </c>
       <c r="F197" t="n">
-        <v>5.508651858891392</v>
+        <v>5.508651715514249</v>
       </c>
       <c r="G197" t="n">
-        <v>4.016692964358458</v>
+        <v>4.016692859813467</v>
       </c>
       <c r="H197" t="n">
         <v>0.8</v>
       </c>
       <c r="I197" t="n">
-        <v>122542</v>
+        <v>121766</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1337183</v>
+        <v>1338205</v>
       </c>
       <c r="F198" t="n">
-        <v>18.6990678471186</v>
+        <v>18.69919108690482</v>
       </c>
       <c r="G198" t="n">
-        <v>3.867410860221846</v>
+        <v>13.86787469334835</v>
       </c>
       <c r="H198" t="n">
         <v>0.3</v>
       </c>
       <c r="I198" t="n">
-        <v>4064.25</v>
+        <v>3675.19</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>144876</v>
+        <v>147051</v>
       </c>
       <c r="E199" t="n">
-        <v>315392</v>
+        <v>320128</v>
       </c>
       <c r="F199" t="n">
-        <v>594.7349197124812</v>
+        <v>5.272814389577547</v>
       </c>
       <c r="G199" t="n">
-        <v>3.642213298681477</v>
+        <v>3.749663308946425</v>
       </c>
       <c r="H199" t="n">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
       <c r="I199" t="n">
-        <v>53022</v>
+        <v>52156</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2664491</v>
+        <v>2609508</v>
       </c>
       <c r="F200" t="n">
-        <v>103.1739587355021</v>
+        <v>157.2109175227727</v>
       </c>
       <c r="G200" t="n">
-        <v>215.3849404055024</v>
+        <v>26.47803585549322</v>
       </c>
       <c r="H200" t="n">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="I200" t="n">
-        <v>422269</v>
+        <v>424137</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>184470</v>
+        <v>184817</v>
       </c>
       <c r="E201" t="n">
-        <v>1424478</v>
+        <v>1427158</v>
       </c>
       <c r="F201" t="n">
-        <v>5.283616754145731</v>
+        <v>4.0889470081132</v>
       </c>
       <c r="G201" t="n">
-        <v>9.05414586805685</v>
+        <v>3.93230115294893</v>
       </c>
       <c r="H201" t="n">
-        <v>0.42</v>
+        <v>0.82</v>
       </c>
       <c r="I201" t="n">
-        <v>106919</v>
+        <v>116188</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30788345</v>
+        <v>30932426</v>
       </c>
       <c r="E202" t="n">
-        <v>137852051</v>
+        <v>138497161</v>
       </c>
       <c r="F202" t="n">
-        <v>12231.75606274252</v>
+        <v>8915.884995466764</v>
       </c>
       <c r="G202" t="n">
-        <v>8834.823724768357</v>
+        <v>15601.50891220121</v>
       </c>
       <c r="H202" t="n">
         <v>0.22</v>
       </c>
       <c r="I202" t="n">
-        <v>8702711</v>
+        <v>8568042</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13023764</v>
+        <v>13025983</v>
       </c>
       <c r="E203" t="n">
-        <v>26036156</v>
+        <v>26040593</v>
       </c>
       <c r="F203" t="n">
-        <v>679.8158013360667</v>
+        <v>679.8385810807648</v>
       </c>
       <c r="G203" t="n">
-        <v>716.1609472311031</v>
+        <v>716.3462142517483</v>
       </c>
       <c r="H203" t="n">
         <v>0.26</v>
       </c>
       <c r="I203" t="n">
-        <v>30474</v>
+        <v>33101</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1454564</v>
+        <v>1526418</v>
       </c>
       <c r="F204" t="n">
-        <v>168.5409637573924</v>
+        <v>54.36381680879086</v>
       </c>
       <c r="G204" t="n">
-        <v>92.274179637983</v>
+        <v>194.7929569860694</v>
       </c>
       <c r="H204" t="n">
-        <v>3.28</v>
+        <v>2.58</v>
       </c>
       <c r="I204" t="n">
-        <v>51367</v>
+        <v>53904</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>978333</v>
+        <v>979185</v>
       </c>
       <c r="E205" t="n">
-        <v>4524929</v>
+        <v>4528870</v>
       </c>
       <c r="F205" t="n">
-        <v>2794.811207767539</v>
+        <v>2778.370176248713</v>
       </c>
       <c r="G205" t="n">
-        <v>3334.569841204019</v>
+        <v>3140.871609732148</v>
       </c>
       <c r="H205" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="I205" t="n">
-        <v>492999</v>
+        <v>492032</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3105416</v>
+        <v>3135802</v>
       </c>
       <c r="E206" t="n">
-        <v>3105416</v>
+        <v>3135802</v>
       </c>
       <c r="F206" t="n">
-        <v>1065.14429538818</v>
+        <v>1307.352490231132</v>
       </c>
       <c r="G206" t="n">
-        <v>752.7444131277829</v>
+        <v>1019.007626162167</v>
       </c>
       <c r="H206" t="n">
         <v>0.26</v>
       </c>
       <c r="I206" t="n">
-        <v>429715</v>
+        <v>422516</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>559864</v>
+        <v>560336</v>
       </c>
       <c r="E207" t="n">
-        <v>559864</v>
+        <v>560336</v>
       </c>
       <c r="F207" t="n">
-        <v>5.240053088833237</v>
+        <v>5.144569363322139</v>
       </c>
       <c r="G207" t="n">
-        <v>63.4834827462323</v>
+        <v>627.306357071429</v>
       </c>
       <c r="H207" t="n">
         <v>0.71</v>
       </c>
       <c r="I207" t="n">
-        <v>30221</v>
+        <v>45049</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>15465216</v>
+        <v>15692025</v>
       </c>
       <c r="E208" t="n">
-        <v>19689689</v>
+        <v>19978452</v>
       </c>
       <c r="F208" t="n">
-        <v>130.8291605765812</v>
+        <v>144.2498323390085</v>
       </c>
       <c r="G208" t="n">
-        <v>138.6505705522657</v>
+        <v>152.5750859578665</v>
       </c>
       <c r="H208" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="I208" t="n">
-        <v>923550</v>
+        <v>930733</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1776376</v>
+        <v>1777795</v>
       </c>
       <c r="E209" t="n">
-        <v>1776376</v>
+        <v>1777795</v>
       </c>
       <c r="F209" t="n">
-        <v>28.94569110287699</v>
+        <v>28.7638607431723</v>
       </c>
       <c r="G209" t="n">
-        <v>46.43618239110037</v>
+        <v>20.31700186931601</v>
       </c>
       <c r="H209" t="n">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
       <c r="I209" t="n">
-        <v>4279.46</v>
+        <v>4237.88</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5857736</v>
+        <v>5956714</v>
       </c>
       <c r="E210" t="n">
-        <v>15373637</v>
+        <v>15633405</v>
       </c>
       <c r="F210" t="n">
-        <v>910.9097117423491</v>
+        <v>1157.535117175732</v>
       </c>
       <c r="G210" t="n">
-        <v>696.6368780427014</v>
+        <v>130.9390308639399</v>
       </c>
       <c r="H210" t="n">
-        <v>0.74</v>
+        <v>0.36</v>
       </c>
       <c r="I210" t="n">
-        <v>20836</v>
+        <v>22154</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29673300</v>
+        <v>29748061</v>
       </c>
       <c r="F211" t="n">
-        <v>1048.371275846968</v>
+        <v>1774.981650020058</v>
       </c>
       <c r="G211" t="n">
-        <v>129.6182736462432</v>
+        <v>1748.377216755597</v>
       </c>
       <c r="H211" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="I211" t="n">
-        <v>370987</v>
+        <v>363427</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17975079</v>
+        <v>17977948</v>
       </c>
       <c r="E212" t="n">
-        <v>17975079</v>
+        <v>17977948</v>
       </c>
       <c r="F212" t="n">
-        <v>13456.61436618836</v>
+        <v>13830.25374006725</v>
       </c>
       <c r="G212" t="n">
-        <v>23172.51546832315</v>
+        <v>29474.13209605468</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2930835</v>
+        <v>2937286</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>49880733</v>
+        <v>50296732</v>
       </c>
       <c r="E213" t="n">
-        <v>323463277</v>
+        <v>326160922</v>
       </c>
       <c r="F213" t="n">
-        <v>93897.59802216031</v>
+        <v>79895.37766957466</v>
       </c>
       <c r="G213" t="n">
-        <v>99063.50821251843</v>
+        <v>190376.0083932473</v>
       </c>
       <c r="H213" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I213" t="n">
-        <v>16529856</v>
+        <v>16766966</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9078693</v>
+        <v>9083982</v>
       </c>
       <c r="F214" t="n">
-        <v>139.5237040687245</v>
+        <v>139.523698829294</v>
       </c>
       <c r="G214" t="n">
-        <v>5.389206362956221</v>
+        <v>5.389206160579339</v>
       </c>
       <c r="H214" t="n">
         <v>0.22</v>
       </c>
       <c r="I214" t="n">
-        <v>305196</v>
+        <v>303387</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7066218</v>
+        <v>7078613</v>
       </c>
       <c r="E215" t="n">
-        <v>7076194</v>
+        <v>7088607</v>
       </c>
       <c r="F215" t="n">
-        <v>43.99072017495116</v>
+        <v>4.000728282684467</v>
       </c>
       <c r="G215" t="n">
-        <v>1836.436556063082</v>
+        <v>2605.325485647289</v>
       </c>
       <c r="H215" t="n">
-        <v>1.16</v>
+        <v>0.44</v>
       </c>
       <c r="I215" t="n">
-        <v>776297</v>
+        <v>589270</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4785476</v>
+        <v>4774404</v>
       </c>
       <c r="F216" t="n">
-        <v>1147.689937326227</v>
+        <v>945.0395876688171</v>
       </c>
       <c r="G216" t="n">
-        <v>321.9212867796105</v>
+        <v>215.7588895494186</v>
       </c>
       <c r="H216" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="I216" t="n">
-        <v>182366</v>
+        <v>199025</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2451825</v>
+        <v>2414320</v>
       </c>
       <c r="E217" t="n">
-        <v>4441943</v>
+        <v>4373994</v>
       </c>
       <c r="F217" t="n">
-        <v>1313.183257093225</v>
+        <v>1268.578445576789</v>
       </c>
       <c r="G217" t="n">
-        <v>244.6377874331923</v>
+        <v>17.60724824558502</v>
       </c>
       <c r="H217" t="n">
         <v>0.51</v>
       </c>
       <c r="I217" t="n">
-        <v>126323</v>
+        <v>121561</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125352973</v>
+        <v>125524606</v>
       </c>
       <c r="E218" t="n">
-        <v>2075947907</v>
+        <v>2078790280</v>
       </c>
       <c r="F218" t="n">
-        <v>4681.407864437365</v>
+        <v>6169.184623476556</v>
       </c>
       <c r="G218" t="n">
-        <v>12796.42551635484</v>
+        <v>10363.2641535894</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>4809355</v>
+        <v>4697255</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>97297759</v>
+        <v>97491628</v>
       </c>
       <c r="E219" t="n">
-        <v>98345104</v>
+        <v>98541059</v>
       </c>
       <c r="F219" t="n">
-        <v>10681.69211222303</v>
+        <v>4490.831108273969</v>
       </c>
       <c r="G219" t="n">
-        <v>21196.57505645693</v>
+        <v>25537.69311148881</v>
       </c>
       <c r="H219" t="n">
         <v>0.2</v>
       </c>
       <c r="I219" t="n">
-        <v>37791014</v>
+        <v>38648402</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>240469995</v>
+        <v>242040555</v>
       </c>
       <c r="E220" t="n">
-        <v>240469995</v>
+        <v>242040555</v>
       </c>
       <c r="F220" t="n">
-        <v>109665.9561678292</v>
+        <v>88546.56673736728</v>
       </c>
       <c r="G220" t="n">
-        <v>68063.95437300677</v>
+        <v>99995.74080192788</v>
       </c>
       <c r="H220" t="n">
         <v>0.12</v>
       </c>
       <c r="I220" t="n">
-        <v>46400831</v>
+        <v>47118899</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24568295</v>
+        <v>24744495</v>
       </c>
       <c r="E221" t="n">
-        <v>146997048</v>
+        <v>148051290</v>
       </c>
       <c r="F221" t="n">
-        <v>67606.55491866023</v>
+        <v>82035.75634412847</v>
       </c>
       <c r="G221" t="n">
-        <v>77265.72784103491</v>
+        <v>83929.62056763044</v>
       </c>
       <c r="H221" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>12370688</v>
+        <v>12103880</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1059691</v>
+        <v>1057293</v>
       </c>
       <c r="F222" t="n">
-        <v>96.85121807927925</v>
+        <v>85.63494688299126</v>
       </c>
       <c r="G222" t="n">
-        <v>278.1610694586954</v>
+        <v>467.6355246212851</v>
       </c>
       <c r="H222" t="n">
-        <v>2.15</v>
+        <v>1.51</v>
       </c>
       <c r="I222" t="n">
-        <v>69257</v>
+        <v>68332</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2262345</v>
+        <v>2275947</v>
       </c>
       <c r="F223" t="n">
-        <v>132.3666565506398</v>
+        <v>129.6617872679557</v>
       </c>
       <c r="G223" t="n">
-        <v>726.999560252351</v>
+        <v>633.4161891457946</v>
       </c>
       <c r="H223" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="I223" t="n">
-        <v>176365</v>
+        <v>177838</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13564786</v>
+        <v>13598080</v>
       </c>
       <c r="E224" t="n">
-        <v>41625568</v>
+        <v>41727736</v>
       </c>
       <c r="F224" t="n">
-        <v>1464.538370852027</v>
+        <v>1486.937608367506</v>
       </c>
       <c r="G224" t="n">
-        <v>1993.66490628563</v>
+        <v>1543.559036738469</v>
       </c>
       <c r="H224" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I224" t="n">
-        <v>2607771</v>
+        <v>2582565</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>54951160</v>
+        <v>54957014</v>
       </c>
       <c r="E225" t="n">
-        <v>94912600</v>
+        <v>94922710</v>
       </c>
       <c r="F225" t="n">
-        <v>13539.13139225881</v>
+        <v>13487.10107499749</v>
       </c>
       <c r="G225" t="n">
-        <v>6497.46642747098</v>
+        <v>6526.310481122691</v>
       </c>
       <c r="H225" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I225" t="n">
-        <v>2310256</v>
+        <v>2286837</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4213570</v>
+        <v>4199052</v>
       </c>
       <c r="E226" t="n">
-        <v>4213570</v>
+        <v>4199052</v>
       </c>
       <c r="F226" t="n">
-        <v>3.989839148250033</v>
+        <v>4.049501236286847</v>
       </c>
       <c r="G226" t="n">
-        <v>14.87139476193862</v>
+        <v>14.95631984032895</v>
       </c>
       <c r="H226" t="n">
         <v>0.5</v>
       </c>
       <c r="I226" t="n">
-        <v>1656292</v>
+        <v>1070109</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>211734</v>
+        <v>212019</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>50352</v>
+        <v>49939</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6608900</v>
+        <v>6640315</v>
       </c>
       <c r="E228" t="n">
-        <v>34000781</v>
+        <v>34162405</v>
       </c>
       <c r="F228" t="n">
-        <v>389.9577196223177</v>
+        <v>393.8082533251867</v>
       </c>
       <c r="G228" t="n">
-        <v>107.1229403098212</v>
+        <v>107.1232820660701</v>
       </c>
       <c r="H228" t="n">
         <v>0.38</v>
       </c>
       <c r="I228" t="n">
-        <v>921480</v>
+        <v>912136</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>178522009</v>
+        <v>179248727</v>
       </c>
       <c r="E230" t="n">
-        <v>208566419</v>
+        <v>209415440</v>
       </c>
       <c r="F230" t="n">
-        <v>33134.06971689156</v>
+        <v>40808.43853083783</v>
       </c>
       <c r="G230" t="n">
-        <v>24054.44380341981</v>
+        <v>20271.44324234569</v>
       </c>
       <c r="H230" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I230" t="n">
-        <v>4212274</v>
+        <v>3814026</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>301778</v>
+        <v>302655</v>
       </c>
       <c r="F231" t="n">
-        <v>16.06262382376288</v>
+        <v>5.323462532626067</v>
       </c>
       <c r="G231" t="n">
-        <v>48.51189554837235</v>
+        <v>163.9713147417151</v>
       </c>
       <c r="H231" t="n">
-        <v>0.37</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I231" t="n">
-        <v>309069</v>
+        <v>325946</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29211066</v>
+        <v>29193490</v>
       </c>
       <c r="E232" t="n">
-        <v>40053479</v>
+        <v>40029379</v>
       </c>
       <c r="F232" t="n">
-        <v>5864.773392049437</v>
+        <v>6145.037054895753</v>
       </c>
       <c r="G232" t="n">
-        <v>5690.758942216545</v>
+        <v>5475.426546118915</v>
       </c>
       <c r="H232" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I232" t="n">
-        <v>209335</v>
+        <v>206931</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1307730</v>
+        <v>1283295</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1518850</v>
+        <v>1468330</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7995187</v>
+        <v>7991024</v>
       </c>
       <c r="F234" t="n">
-        <v>389.0938114585086</v>
+        <v>456.9750788772985</v>
       </c>
       <c r="G234" t="n">
-        <v>2582.64461432072</v>
+        <v>3255.596001985819</v>
       </c>
       <c r="H234" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I234" t="n">
-        <v>649340</v>
+        <v>641589</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>22989792</v>
+        <v>23182407</v>
       </c>
       <c r="E235" t="n">
-        <v>22989792</v>
+        <v>23182407</v>
       </c>
       <c r="F235" t="n">
-        <v>17747.63420069967</v>
+        <v>15793.6698416954</v>
       </c>
       <c r="G235" t="n">
-        <v>5672.571035770326</v>
+        <v>31957.00170587049</v>
       </c>
       <c r="H235" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="I235" t="n">
-        <v>2073235</v>
+        <v>2100220</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3373066</v>
+        <v>3389020</v>
       </c>
       <c r="E236" t="n">
-        <v>4518435</v>
+        <v>4539806</v>
       </c>
       <c r="F236" t="n">
-        <v>456.3579419391888</v>
+        <v>477.2159942042128</v>
       </c>
       <c r="G236" t="n">
-        <v>759.432058899841</v>
+        <v>450.7118638157298</v>
       </c>
       <c r="H236" t="n">
-        <v>1.27</v>
+        <v>0.42</v>
       </c>
       <c r="I236" t="n">
-        <v>149694</v>
+        <v>150375</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>35073665</v>
+        <v>35105283</v>
       </c>
       <c r="E237" t="n">
-        <v>175033759</v>
+        <v>175191544</v>
       </c>
       <c r="F237" t="n">
-        <v>95799.95593745467</v>
+        <v>90700.84998548673</v>
       </c>
       <c r="G237" t="n">
-        <v>99563.57753337421</v>
+        <v>94559.62477560186</v>
       </c>
       <c r="H237" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I237" t="n">
-        <v>10289979</v>
+        <v>10370044</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26413305</v>
+        <v>26455798</v>
       </c>
       <c r="E238" t="n">
-        <v>59545258</v>
+        <v>59641052</v>
       </c>
       <c r="F238" t="n">
-        <v>216.1553993947104</v>
+        <v>209.2969816163099</v>
       </c>
       <c r="G238" t="n">
-        <v>80.24259836381715</v>
+        <v>152.4976973703039</v>
       </c>
       <c r="H238" t="n">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="I238" t="n">
-        <v>408304</v>
+        <v>404943</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1987362</v>
+        <v>1973886</v>
       </c>
       <c r="E239" t="n">
-        <v>1987362</v>
+        <v>1973886</v>
       </c>
       <c r="F239" t="n">
-        <v>155.7445838529548</v>
+        <v>155.7445797992927</v>
       </c>
       <c r="G239" t="n">
-        <v>153.6122463344072</v>
+        <v>153.538140833173</v>
       </c>
       <c r="H239" t="n">
         <v>0.42</v>
       </c>
       <c r="I239" t="n">
-        <v>8927.42</v>
+        <v>12406.16</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>72315547</v>
+        <v>72163390</v>
       </c>
       <c r="F240" t="n">
-        <v>5.486727186626238</v>
+        <v>5.583264897366626</v>
       </c>
       <c r="G240" t="n">
-        <v>3.949322050743701</v>
+        <v>3.949307323266646</v>
       </c>
       <c r="H240" t="n">
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>61782</v>
+        <v>61293</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>904807</v>
+        <v>906445</v>
       </c>
       <c r="E241" t="n">
-        <v>904807</v>
+        <v>906445</v>
       </c>
       <c r="F241" t="n">
-        <v>3.871113407022917</v>
+        <v>3.8711132625836</v>
       </c>
       <c r="G241" t="n">
-        <v>5.242742306446172</v>
+        <v>5.242742110828519</v>
       </c>
       <c r="H241" t="n">
         <v>0.54</v>
       </c>
       <c r="I241" t="n">
-        <v>12248.66</v>
+        <v>12205.52</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>114767</v>
+        <v>115377</v>
       </c>
       <c r="E242" t="n">
-        <v>114767</v>
+        <v>115377</v>
       </c>
       <c r="F242" t="n">
-        <v>6.336307966134346</v>
+        <v>67.72240179357001</v>
       </c>
       <c r="G242" t="n">
-        <v>92.55364308318397</v>
+        <v>97.23748060277174</v>
       </c>
       <c r="H242" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I242" t="n">
-        <v>38028</v>
+        <v>38850</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3491770</v>
+        <v>3497746</v>
       </c>
       <c r="E243" t="n">
-        <v>5016111</v>
+        <v>5024697</v>
       </c>
       <c r="F243" t="n">
-        <v>612.6267447538156</v>
+        <v>320.2423892712916</v>
       </c>
       <c r="G243" t="n">
-        <v>183.9592068369003</v>
+        <v>34.10838365133154</v>
       </c>
       <c r="H243" t="n">
-        <v>2.39</v>
+        <v>2.79</v>
       </c>
       <c r="I243" t="n">
-        <v>149658</v>
+        <v>146144</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>316585868</v>
+        <v>317782505</v>
       </c>
       <c r="E244" t="n">
-        <v>585756052</v>
+        <v>587970103</v>
       </c>
       <c r="F244" t="n">
-        <v>19668.36866876082</v>
+        <v>16065.06894346384</v>
       </c>
       <c r="G244" t="n">
-        <v>14043.04988150203</v>
+        <v>20572.29477229775</v>
       </c>
       <c r="H244" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>13542454</v>
+        <v>13904725</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>71845765</v>
+        <v>72481945</v>
       </c>
       <c r="E245" t="n">
-        <v>685376161</v>
+        <v>691442398</v>
       </c>
       <c r="F245" t="n">
-        <v>47582.29984992599</v>
+        <v>47069.84963597281</v>
       </c>
       <c r="G245" t="n">
-        <v>60282.78818113211</v>
+        <v>71361.77733304691</v>
       </c>
       <c r="H245" t="n">
         <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>21841821</v>
+        <v>22117356</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>82282</v>
+        <v>82371</v>
       </c>
       <c r="E246" t="n">
-        <v>684029</v>
+        <v>684768</v>
       </c>
       <c r="F246" t="n">
-        <v>3.939547144553106</v>
+        <v>3.939529697295132</v>
       </c>
       <c r="G246" t="n">
-        <v>4.275323057815871</v>
+        <v>65.22092456496905</v>
       </c>
       <c r="H246" t="n">
         <v>0.73</v>
       </c>
       <c r="I246" t="n">
-        <v>121.18</v>
+        <v>121.12</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1889333</v>
+        <v>1890917</v>
       </c>
       <c r="E247" t="n">
-        <v>5395692</v>
+        <v>5400217</v>
       </c>
       <c r="F247" t="n">
-        <v>287.7305398935881</v>
+        <v>287.5264092105151</v>
       </c>
       <c r="G247" t="n">
-        <v>269.9157081403343</v>
+        <v>269.9201619298255</v>
       </c>
       <c r="H247" t="n">
         <v>0.27</v>
       </c>
       <c r="I247" t="n">
-        <v>67211</v>
+        <v>67239</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37855360</v>
+        <v>37853027</v>
       </c>
       <c r="E248" t="n">
-        <v>49493419</v>
+        <v>49489921</v>
       </c>
       <c r="F248" t="n">
-        <v>667.7679419481727</v>
+        <v>881.7190797734771</v>
       </c>
       <c r="G248" t="n">
-        <v>2610.761435968156</v>
+        <v>4250.782175411293</v>
       </c>
       <c r="H248" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="I248" t="n">
-        <v>187599</v>
+        <v>285645</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>11113089</v>
+        <v>11445255</v>
       </c>
       <c r="E249" t="n">
-        <v>32973270</v>
+        <v>33958829</v>
       </c>
       <c r="F249" t="n">
-        <v>1632.636571030348</v>
+        <v>1338.807113778762</v>
       </c>
       <c r="G249" t="n">
-        <v>2053.336214544315</v>
+        <v>2162.752071319326</v>
       </c>
       <c r="H249" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I249" t="n">
-        <v>6466674</v>
+        <v>7232166</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1983887</v>
+        <v>1996836</v>
       </c>
       <c r="E250" t="n">
-        <v>5755895</v>
+        <v>5793463</v>
       </c>
       <c r="F250" t="n">
-        <v>165.7731428679994</v>
+        <v>29.68517839175348</v>
       </c>
       <c r="G250" t="n">
-        <v>190.9668304379711</v>
+        <v>198.3571803275332</v>
       </c>
       <c r="H250" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I250" t="n">
-        <v>52218</v>
+        <v>47079</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7410509</v>
+        <v>7364398</v>
       </c>
       <c r="E251" t="n">
-        <v>7410520</v>
+        <v>7364409</v>
       </c>
       <c r="F251" t="n">
-        <v>1794.147797628631</v>
+        <v>2475.566545302445</v>
       </c>
       <c r="G251" t="n">
-        <v>3123.14650030871</v>
+        <v>776.4603021155013</v>
       </c>
       <c r="H251" t="n">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="I251" t="n">
-        <v>322071</v>
+        <v>321318</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6374269</v>
+        <v>6429137</v>
       </c>
       <c r="E252" t="n">
-        <v>6374269</v>
+        <v>6429137</v>
       </c>
       <c r="F252" t="n">
-        <v>86.83291470984504</v>
+        <v>5.418493377006818</v>
       </c>
       <c r="G252" t="n">
-        <v>990.3840615169978</v>
+        <v>1348.124656954323</v>
       </c>
       <c r="H252" t="n">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="I252" t="n">
-        <v>253617</v>
+        <v>507834</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6239892</v>
+        <v>6231421</v>
       </c>
       <c r="E253" t="n">
-        <v>22791911</v>
+        <v>22760969</v>
       </c>
       <c r="F253" t="n">
-        <v>495.1343104170425</v>
+        <v>489.1654898616373</v>
       </c>
       <c r="G253" t="n">
-        <v>96.1939078420873</v>
+        <v>96.19353322513028</v>
       </c>
       <c r="H253" t="n">
-        <v>2.39</v>
+        <v>2.61</v>
       </c>
       <c r="I253" t="n">
-        <v>500771</v>
+        <v>503448</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2314333</v>
+        <v>2323849</v>
       </c>
       <c r="E254" t="n">
-        <v>20413949</v>
+        <v>20497887</v>
       </c>
       <c r="F254" t="n">
-        <v>92.79312944582487</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>2238.993489295185</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>2.46</v>
+        <v>4.22</v>
       </c>
       <c r="I254" t="n">
-        <v>82032</v>
+        <v>82006</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14552306</v>
+        <v>14570032</v>
       </c>
       <c r="E255" t="n">
-        <v>29460255</v>
+        <v>29496141</v>
       </c>
       <c r="F255" t="n">
-        <v>96.19278021707726</v>
+        <v>96.01617765113929</v>
       </c>
       <c r="G255" t="n">
-        <v>280.4193746453657</v>
+        <v>278.9255578681257</v>
       </c>
       <c r="H255" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="I255" t="n">
-        <v>573475</v>
+        <v>571856</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>45084458</v>
+        <v>44895843</v>
       </c>
       <c r="E256" t="n">
-        <v>45084458</v>
+        <v>44895843</v>
       </c>
       <c r="F256" t="n">
-        <v>6038.762063932459</v>
+        <v>7054.08427676328</v>
       </c>
       <c r="G256" t="n">
-        <v>1585.866489771139</v>
+        <v>4369.094046190455</v>
       </c>
       <c r="H256" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="I256" t="n">
-        <v>7530264</v>
+        <v>7129828</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8417033</v>
+        <v>8416393</v>
       </c>
       <c r="E257" t="n">
-        <v>11992343</v>
+        <v>11991432</v>
       </c>
       <c r="F257" t="n">
-        <v>81.19777934126465</v>
+        <v>81.18709539512074</v>
       </c>
       <c r="G257" t="n">
-        <v>587.428824909376</v>
+        <v>751.8603721187433</v>
       </c>
       <c r="H257" t="n">
         <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>427131</v>
+        <v>408158</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>151758083</v>
+        <v>151275875</v>
       </c>
       <c r="F258" t="n">
-        <v>7.765704340535721</v>
+        <v>271.0703504406151</v>
       </c>
       <c r="G258" t="n">
-        <v>711.5360173294347</v>
+        <v>645.1687174070748</v>
       </c>
       <c r="H258" t="n">
-        <v>0.54</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>1412323</v>
+        <v>427831</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16330961</v>
+        <v>16297446</v>
       </c>
       <c r="F259" t="n">
-        <v>130.3097753595425</v>
+        <v>115.0918958890087</v>
       </c>
       <c r="G259" t="n">
-        <v>103.0195714345883</v>
+        <v>103.9881614276125</v>
       </c>
       <c r="H259" t="n">
         <v>0.29</v>
       </c>
       <c r="I259" t="n">
-        <v>994065</v>
+        <v>997668</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>726248</v>
+        <v>725878</v>
       </c>
       <c r="F260" t="n">
-        <v>9.631535701481157</v>
+        <v>9.631540786376336</v>
       </c>
       <c r="G260" t="n">
-        <v>3.515296973761393</v>
+        <v>3.515298829635388</v>
       </c>
       <c r="H260" t="n">
         <v>1.97</v>
       </c>
       <c r="I260" t="n">
-        <v>207438</v>
+        <v>194386</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2993065</v>
+        <v>2996205</v>
       </c>
       <c r="F261" t="n">
-        <v>132.512452882169</v>
+        <v>33.54951122309324</v>
       </c>
       <c r="G261" t="n">
-        <v>57.93131097837966</v>
+        <v>48.41743161367133</v>
       </c>
       <c r="H261" t="n">
-        <v>0.13</v>
+        <v>0.53</v>
       </c>
       <c r="I261" t="n">
-        <v>71464</v>
+        <v>70326</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2853534</v>
+        <v>2855493</v>
       </c>
       <c r="E262" t="n">
-        <v>2856005</v>
+        <v>2857966</v>
       </c>
       <c r="F262" t="n">
-        <v>39.21522697575781</v>
+        <v>4.113829638465186</v>
       </c>
       <c r="G262" t="n">
-        <v>4.162438604503758</v>
+        <v>543.3323881975601</v>
       </c>
       <c r="H262" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="I262" t="n">
-        <v>109326</v>
+        <v>111088</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>62327305</v>
+        <v>62422080</v>
       </c>
       <c r="E263" t="n">
-        <v>103114262</v>
+        <v>103271057</v>
       </c>
       <c r="F263" t="n">
-        <v>6420.702895569258</v>
+        <v>7517.364993769553</v>
       </c>
       <c r="G263" t="n">
-        <v>7502.549538163685</v>
+        <v>7287.58171394267</v>
       </c>
       <c r="H263" t="n">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="I263" t="n">
-        <v>6658668</v>
+        <v>6620854</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>687464</v>
+        <v>688915</v>
       </c>
       <c r="F264" t="n">
-        <v>291.2278993659564</v>
+        <v>231.7071105093521</v>
       </c>
       <c r="G264" t="n">
-        <v>147.0355249787825</v>
+        <v>165.0167832956869</v>
       </c>
       <c r="H264" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="I264" t="n">
-        <v>687687</v>
+        <v>675589</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1251841</v>
+        <v>1257444</v>
       </c>
       <c r="E265" t="n">
-        <v>3783321</v>
+        <v>3799748</v>
       </c>
       <c r="F265" t="n">
-        <v>44.48557643670176</v>
+        <v>13.66484339425756</v>
       </c>
       <c r="G265" t="n">
-        <v>711.5329981231109</v>
+        <v>929.8392410706711</v>
       </c>
       <c r="H265" t="n">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>11847.71</v>
+        <v>12577.01</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>39013462</v>
+        <v>39096778</v>
       </c>
       <c r="E266" t="n">
-        <v>276599084</v>
+        <v>277189775</v>
       </c>
       <c r="F266" t="n">
-        <v>53969.82722546866</v>
+        <v>53174.09865019006</v>
       </c>
       <c r="G266" t="n">
-        <v>24910.21736677823</v>
+        <v>27209.37590374034</v>
       </c>
       <c r="H266" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I266" t="n">
-        <v>1606947</v>
+        <v>1615786</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>57343</v>
+        <v>59376</v>
       </c>
       <c r="E267" t="n">
-        <v>299194</v>
+        <v>309797</v>
       </c>
       <c r="F267" t="n">
-        <v>4.031170990950823</v>
+        <v>5.218027659838224</v>
       </c>
       <c r="G267" t="n">
-        <v>5.520698177294473</v>
+        <v>5.414334031569225</v>
       </c>
       <c r="H267" t="n">
-        <v>0.48</v>
+        <v>0.87</v>
       </c>
       <c r="I267" t="n">
-        <v>279433</v>
+        <v>290609</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1274364</v>
+        <v>1275497</v>
       </c>
       <c r="E268" t="n">
-        <v>7902360</v>
+        <v>7909388</v>
       </c>
       <c r="F268" t="n">
-        <v>3114.895841922685</v>
+        <v>2385.244012116691</v>
       </c>
       <c r="G268" t="n">
-        <v>2192.683454438928</v>
+        <v>2215.098205402837</v>
       </c>
       <c r="H268" t="n">
         <v>0.23</v>
       </c>
       <c r="I268" t="n">
-        <v>780846</v>
+        <v>780929</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>609269451</v>
+        <v>611631851</v>
       </c>
       <c r="E269" t="n">
-        <v>2359610692</v>
+        <v>2368759918</v>
       </c>
       <c r="F269" t="n">
-        <v>207196.878968267</v>
+        <v>239927.0834620671</v>
       </c>
       <c r="G269" t="n">
-        <v>289090.0523572085</v>
+        <v>350043.4606501737</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>32614709</v>
+        <v>32805258</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3278923</v>
+        <v>3288618</v>
       </c>
       <c r="F270" t="n">
-        <v>393.8373518997088</v>
+        <v>391.3855447201165</v>
       </c>
       <c r="G270" t="n">
-        <v>117.5594759491534</v>
+        <v>140.5510376699881</v>
       </c>
       <c r="H270" t="n">
         <v>0.33</v>
       </c>
       <c r="I270" t="n">
-        <v>33362</v>
+        <v>33436</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>799538</v>
+        <v>673262</v>
       </c>
       <c r="F271" t="n">
-        <v>93.10290948386813</v>
+        <v>43.15170111025191</v>
       </c>
       <c r="G271" t="n">
-        <v>535.0811093619361</v>
+        <v>148.31742921225</v>
       </c>
       <c r="H271" t="n">
-        <v>0.5</v>
+        <v>1.69</v>
       </c>
       <c r="I271" t="n">
-        <v>183955</v>
+        <v>192559</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5891562</v>
+        <v>5889243</v>
       </c>
       <c r="E272" t="n">
-        <v>26373161</v>
+        <v>26362777</v>
       </c>
       <c r="F272" t="n">
-        <v>162.2787153140941</v>
+        <v>160.2401023105276</v>
       </c>
       <c r="G272" t="n">
-        <v>576.9207067977325</v>
+        <v>344.0491180758317</v>
       </c>
       <c r="H272" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="I272" t="n">
-        <v>152589</v>
+        <v>150261</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6731514</v>
+        <v>6758151</v>
       </c>
       <c r="E273" t="n">
-        <v>12888030</v>
+        <v>12939029</v>
       </c>
       <c r="F273" t="n">
-        <v>4940.555359214663</v>
+        <v>4904.483611858564</v>
       </c>
       <c r="G273" t="n">
-        <v>113.8576351757331</v>
+        <v>49.55833966159663</v>
       </c>
       <c r="H273" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I273" t="n">
-        <v>143429</v>
+        <v>129241</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3255457</v>
+        <v>3244644</v>
       </c>
       <c r="E274" t="n">
-        <v>21407128</v>
+        <v>21336025</v>
       </c>
       <c r="F274" t="n">
-        <v>121.6455678984318</v>
+        <v>223.5229122377005</v>
       </c>
       <c r="G274" t="n">
-        <v>203.0022631519165</v>
+        <v>203.0022578821151</v>
       </c>
       <c r="H274" t="n">
         <v>0.95</v>
       </c>
       <c r="I274" t="n">
-        <v>1639731</v>
+        <v>1647387</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3710572</v>
+        <v>3708492</v>
       </c>
       <c r="E275" t="n">
-        <v>6325173</v>
+        <v>6321628</v>
       </c>
       <c r="F275" t="n">
-        <v>560.4728294517219</v>
+        <v>652.887280391018</v>
       </c>
       <c r="G275" t="n">
-        <v>484.9453687861931</v>
+        <v>460.0958556858604</v>
       </c>
       <c r="H275" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="I275" t="n">
-        <v>1259506</v>
+        <v>1179493</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>435400</v>
+        <v>435413</v>
       </c>
       <c r="E276" t="n">
-        <v>435400</v>
+        <v>435413</v>
       </c>
       <c r="F276" t="n">
-        <v>21.15146728176947</v>
+        <v>21.07889989178446</v>
       </c>
       <c r="G276" t="n">
-        <v>5.225133855957388</v>
+        <v>26.17062770435634</v>
       </c>
       <c r="H276" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="I276" t="n">
-        <v>321.01</v>
+        <v>320.78</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7348895</v>
+        <v>7347820</v>
       </c>
       <c r="E277" t="n">
-        <v>10529660</v>
+        <v>10528078</v>
       </c>
       <c r="F277" t="n">
-        <v>1034.241276023424</v>
+        <v>1457.446349327018</v>
       </c>
       <c r="G277" t="n">
-        <v>565.0527370168447</v>
+        <v>243.6121852932604</v>
       </c>
       <c r="H277" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>199617</v>
+        <v>198800</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>123260499</v>
+        <v>123245975</v>
       </c>
       <c r="E278" t="n">
-        <v>1071674284</v>
+        <v>1071548003</v>
       </c>
       <c r="F278" t="n">
-        <v>10914.55437548549</v>
+        <v>8366.366012669621</v>
       </c>
       <c r="G278" t="n">
-        <v>13233.45390540055</v>
+        <v>11540.55227946636</v>
       </c>
       <c r="H278" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I278" t="n">
-        <v>9148719</v>
+        <v>9138233</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>114252919</v>
+        <v>114092597</v>
       </c>
       <c r="E279" t="n">
-        <v>174295506</v>
+        <v>174050930</v>
       </c>
       <c r="F279" t="n">
-        <v>49156.11861903154</v>
+        <v>41644.05010851981</v>
       </c>
       <c r="G279" t="n">
-        <v>54124.94696328769</v>
+        <v>53233.90616589342</v>
       </c>
       <c r="H279" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I279" t="n">
-        <v>7754857</v>
+        <v>7895454</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>16887042</v>
+        <v>17045998</v>
       </c>
       <c r="E280" t="n">
-        <v>23167559</v>
+        <v>23385632</v>
       </c>
       <c r="F280" t="n">
-        <v>371.3368689023856</v>
+        <v>413.7938079051406</v>
       </c>
       <c r="G280" t="n">
-        <v>632.2057320694338</v>
+        <v>4070.700275925118</v>
       </c>
       <c r="H280" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="I280" t="n">
-        <v>493534</v>
+        <v>514294</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5534164</v>
+        <v>5538229</v>
       </c>
       <c r="E281" t="n">
-        <v>5534164</v>
+        <v>5538229</v>
       </c>
       <c r="F281" t="n">
-        <v>79.91422514884061</v>
+        <v>14.59976333717905</v>
       </c>
       <c r="G281" t="n">
-        <v>56.5317023536787</v>
+        <v>56.44364329608754</v>
       </c>
       <c r="H281" t="n">
         <v>0.17</v>
       </c>
       <c r="I281" t="n">
-        <v>720452</v>
+        <v>705842</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>121203979</v>
+        <v>122896258</v>
       </c>
       <c r="E282" t="n">
-        <v>464957972</v>
+        <v>471449826</v>
       </c>
       <c r="F282" t="n">
-        <v>30517.89266743785</v>
+        <v>33624.37096115454</v>
       </c>
       <c r="G282" t="n">
-        <v>78628.37038578899</v>
+        <v>86793.59969234375</v>
       </c>
       <c r="H282" t="n">
         <v>0.02</v>
       </c>
       <c r="I282" t="n">
-        <v>31423622</v>
+        <v>30542670</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>766773</v>
+        <v>768095</v>
       </c>
       <c r="F283" t="n">
-        <v>3.910332239585151</v>
+        <v>3.910313496195778</v>
       </c>
       <c r="G283" t="n">
-        <v>5.417515832771557</v>
+        <v>5.417489865001437</v>
       </c>
       <c r="H283" t="n">
         <v>0.5</v>
       </c>
       <c r="I283" t="n">
-        <v>50224</v>
+        <v>49778</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3188196</v>
+        <v>3195388</v>
       </c>
       <c r="E284" t="n">
-        <v>30208630</v>
+        <v>30276775</v>
       </c>
       <c r="F284" t="n">
-        <v>1483.587917588068</v>
+        <v>1502.560045932964</v>
       </c>
       <c r="G284" t="n">
-        <v>763.5050000562874</v>
+        <v>795.251066378749</v>
       </c>
       <c r="H284" t="n">
         <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>212341</v>
+        <v>213150</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>84859</v>
+        <v>85134</v>
       </c>
       <c r="F285" t="n">
-        <v>668.2053044776715</v>
+        <v>704.7741305265604</v>
       </c>
       <c r="G285" t="n">
-        <v>79.98168316306479</v>
+        <v>74.4444455441589</v>
       </c>
       <c r="H285" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="I285" t="n">
-        <v>13377.72</v>
+        <v>14461.8</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>133588</v>
+        <v>133616</v>
       </c>
       <c r="F286" t="n">
-        <v>5.603868654172504</v>
+        <v>5.391447783994163</v>
       </c>
       <c r="G286" t="n">
-        <v>510.4782408790281</v>
+        <v>101.5495460246337</v>
       </c>
       <c r="H286" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="I286" t="n">
-        <v>90711</v>
+        <v>90449</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21978158</v>
+        <v>21836824</v>
       </c>
       <c r="E287" t="n">
-        <v>21978158</v>
+        <v>21836824</v>
       </c>
       <c r="F287" t="n">
-        <v>1970.522647650195</v>
+        <v>747.1543993955768</v>
       </c>
       <c r="G287" t="n">
-        <v>4589.227316440079</v>
+        <v>6375.325736779399</v>
       </c>
       <c r="H287" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I287" t="n">
-        <v>653530</v>
+        <v>657124</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>570652</v>
+        <v>570583</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>932.9400000000001</v>
+        <v>932.66</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6408324</v>
+        <v>6409291</v>
       </c>
       <c r="E289" t="n">
-        <v>40050193</v>
+        <v>40056232</v>
       </c>
       <c r="F289" t="n">
-        <v>104.6464418157327</v>
+        <v>534.6945941842403</v>
       </c>
       <c r="G289" t="n">
-        <v>1460.373823153157</v>
+        <v>125.8948710661633</v>
       </c>
       <c r="H289" t="n">
-        <v>0.05</v>
+        <v>3.14</v>
       </c>
       <c r="I289" t="n">
-        <v>431040</v>
+        <v>424424</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494962885</v>
+        <v>493824336</v>
       </c>
       <c r="E290" t="n">
-        <v>494962885</v>
+        <v>493824336</v>
       </c>
       <c r="F290" t="n">
-        <v>1131960.777730159</v>
+        <v>1129629.723129738</v>
       </c>
       <c r="G290" t="n">
-        <v>1839623.925773476</v>
+        <v>1847668.642332615</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>32780046</v>
+        <v>32653090</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5151110</v>
+        <v>5258689</v>
       </c>
       <c r="E291" t="n">
-        <v>19181680</v>
+        <v>19582281</v>
       </c>
       <c r="F291" t="n">
-        <v>7084.718774047122</v>
+        <v>3474.051806300458</v>
       </c>
       <c r="G291" t="n">
-        <v>7028.030783567456</v>
+        <v>4992.921992269159</v>
       </c>
       <c r="H291" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I291" t="n">
-        <v>62545</v>
+        <v>71573</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31579600</v>
+        <v>31843552</v>
       </c>
       <c r="F292" t="n">
-        <v>8777.376996014413</v>
+        <v>6797.911178068121</v>
       </c>
       <c r="G292" t="n">
-        <v>9165.9642953987</v>
+        <v>10236.13241188438</v>
       </c>
       <c r="H292" t="n">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="I292" t="n">
-        <v>5376297</v>
+        <v>5371860</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31598792</v>
+        <v>31565383</v>
       </c>
       <c r="E293" t="n">
-        <v>113261455</v>
+        <v>113141704</v>
       </c>
       <c r="F293" t="n">
-        <v>28.2651043157239</v>
+        <v>54.10956606121272</v>
       </c>
       <c r="G293" t="n">
-        <v>2188.616575406669</v>
+        <v>2188.602867954723</v>
       </c>
       <c r="H293" t="n">
         <v>0.53</v>
       </c>
       <c r="I293" t="n">
-        <v>91038</v>
+        <v>89127</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>819616</v>
+        <v>769782</v>
       </c>
       <c r="E294" t="n">
-        <v>13072586</v>
+        <v>12277756</v>
       </c>
       <c r="F294" t="n">
-        <v>15.45489371452409</v>
+        <v>14.21612906334379</v>
       </c>
       <c r="G294" t="n">
-        <v>2.907780863089508</v>
+        <v>27.88543240259806</v>
       </c>
       <c r="H294" t="n">
-        <v>2.74</v>
+        <v>2.32</v>
       </c>
       <c r="I294" t="n">
-        <v>256679</v>
+        <v>266910</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85022</v>
+        <v>85196</v>
       </c>
       <c r="F295" t="n">
-        <v>93.67622734649099</v>
+        <v>90.41850915240886</v>
       </c>
       <c r="G295" t="n">
-        <v>61.73292013393134</v>
+        <v>61.73296095390234</v>
       </c>
       <c r="H295" t="n">
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>56082</v>
+        <v>56323</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1570105</v>
+        <v>1578991</v>
       </c>
       <c r="F296" t="n">
-        <v>3.885702352883705</v>
+        <v>3.885727962348903</v>
       </c>
       <c r="G296" t="n">
-        <v>10.54745808329698</v>
+        <v>10.54752759833859</v>
       </c>
       <c r="H296" t="n">
         <v>0.61</v>
       </c>
       <c r="I296" t="n">
-        <v>603118</v>
+        <v>606405</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2643653080</v>
+        <v>2649742582</v>
       </c>
       <c r="E297" t="n">
-        <v>2806871685</v>
+        <v>2813337151</v>
       </c>
       <c r="F297" t="n">
-        <v>34678.29449784519</v>
+        <v>44943.73402827978</v>
       </c>
       <c r="G297" t="n">
-        <v>63748.95012827713</v>
+        <v>64592.71652517458</v>
       </c>
       <c r="H297" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I297" t="n">
-        <v>34956250</v>
+        <v>35047488</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2217982</v>
+        <v>2235938</v>
       </c>
       <c r="E298" t="n">
-        <v>17060086</v>
+        <v>17198203</v>
       </c>
       <c r="F298" t="n">
-        <v>4069.594840830409</v>
+        <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>4061.093785462831</v>
+        <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>0.8100000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="I298" t="n">
-        <v>175088</v>
+        <v>167305</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1724141</v>
+        <v>1720323</v>
       </c>
       <c r="E299" t="n">
-        <v>1730227</v>
+        <v>1726396</v>
       </c>
       <c r="F299" t="n">
-        <v>1569.336665344857</v>
+        <v>784.495037142873</v>
       </c>
       <c r="G299" t="n">
-        <v>887.5174630543067</v>
+        <v>889.1289245230145</v>
       </c>
       <c r="H299" t="n">
-        <v>0.76</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I299" t="n">
-        <v>439459</v>
+        <v>429785</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>88785494</v>
+        <v>89005814</v>
       </c>
       <c r="E300" t="n">
-        <v>328201941</v>
+        <v>329016118</v>
       </c>
       <c r="F300" t="n">
-        <v>5304.911590177349</v>
+        <v>5579.342888027797</v>
       </c>
       <c r="G300" t="n">
-        <v>2333.915854592994</v>
+        <v>695.1289788760018</v>
       </c>
       <c r="H300" t="n">
-        <v>0.27</v>
+        <v>0.57</v>
       </c>
       <c r="I300" t="n">
-        <v>245233</v>
+        <v>237273</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2300621</v>
+        <v>2300709</v>
       </c>
       <c r="E301" t="n">
-        <v>9231319</v>
+        <v>9231672</v>
       </c>
       <c r="F301" t="n">
-        <v>5.454445936242807</v>
+        <v>477.8323886899761</v>
       </c>
       <c r="G301" t="n">
-        <v>4.122925251103635</v>
+        <v>4.122909198367986</v>
       </c>
       <c r="H301" t="n">
         <v>0.75</v>
       </c>
       <c r="I301" t="n">
-        <v>41713</v>
+        <v>41691</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>61541296</v>
+        <v>61348466</v>
       </c>
       <c r="E302" t="n">
-        <v>150956628</v>
+        <v>150483630</v>
       </c>
       <c r="F302" t="n">
-        <v>2368.667372187678</v>
+        <v>2036.029613987892</v>
       </c>
       <c r="G302" t="n">
-        <v>2018.912560085616</v>
+        <v>2641.667069491347</v>
       </c>
       <c r="H302" t="n">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I302" t="n">
-        <v>22592072</v>
+        <v>22360467</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>752874274</v>
+        <v>761080639</v>
       </c>
       <c r="E303" t="n">
-        <v>1160998603</v>
+        <v>1173653542</v>
       </c>
       <c r="F303" t="n">
-        <v>47576.39616573536</v>
+        <v>35778.84498890513</v>
       </c>
       <c r="G303" t="n">
-        <v>43472.91994172347</v>
+        <v>39310.81166879192</v>
       </c>
       <c r="H303" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I303" t="n">
-        <v>220473890</v>
+        <v>223887237</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20746726</v>
+        <v>20647277</v>
       </c>
       <c r="E304" t="n">
-        <v>20746726</v>
+        <v>20647278</v>
       </c>
       <c r="F304" t="n">
-        <v>3360.29439468605</v>
+        <v>3293.159927956589</v>
       </c>
       <c r="G304" t="n">
-        <v>2901.80217871029</v>
+        <v>3798.531708720298</v>
       </c>
       <c r="H304" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="I304" t="n">
-        <v>7173194</v>
+        <v>7015663</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1840193</v>
+        <v>1810380</v>
       </c>
       <c r="E305" t="n">
-        <v>3019444</v>
+        <v>2970527</v>
       </c>
       <c r="F305" t="n">
-        <v>807.100491989772</v>
+        <v>701.2859705073162</v>
       </c>
       <c r="G305" t="n">
-        <v>6.254631012056571</v>
+        <v>5.214183647682447</v>
       </c>
       <c r="H305" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I305" t="n">
-        <v>202246</v>
+        <v>192779</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5763529</v>
+        <v>5761005</v>
       </c>
       <c r="E306" t="n">
-        <v>5763529</v>
+        <v>5761005</v>
       </c>
       <c r="F306" t="n">
-        <v>41.45993395615247</v>
+        <v>41.83012559705486</v>
       </c>
       <c r="G306" t="n">
-        <v>5.228539434814978</v>
+        <v>5.440999188052534</v>
       </c>
       <c r="H306" t="n">
         <v>0.16</v>
       </c>
       <c r="I306" t="n">
-        <v>622.61</v>
+        <v>618.34</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39544264</v>
+        <v>39576523</v>
       </c>
       <c r="E307" t="n">
-        <v>188594568</v>
+        <v>188748417</v>
       </c>
       <c r="F307" t="n">
-        <v>1107.591268893894</v>
+        <v>983.4256977679306</v>
       </c>
       <c r="G307" t="n">
-        <v>667.5798223944681</v>
+        <v>765.4640637085483</v>
       </c>
       <c r="H307" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="I307" t="n">
-        <v>422303</v>
+        <v>422206</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>383992</v>
+        <v>384336</v>
       </c>
       <c r="E308" t="n">
-        <v>718173</v>
+        <v>718818</v>
       </c>
       <c r="F308" t="n">
-        <v>32.9514523512252</v>
+        <v>32.9515793900835</v>
       </c>
       <c r="G308" t="n">
-        <v>244.8869517894223</v>
+        <v>244.8878959104412</v>
       </c>
       <c r="H308" t="n">
         <v>0.32</v>
       </c>
       <c r="I308" t="n">
-        <v>1443.68</v>
+        <v>1442.18</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23511033</v>
+        <v>23573866</v>
       </c>
       <c r="E309" t="n">
-        <v>39185054</v>
+        <v>39289775</v>
       </c>
       <c r="F309" t="n">
-        <v>691.8600613051266</v>
+        <v>1072.488846401941</v>
       </c>
       <c r="G309" t="n">
-        <v>357.317013072403</v>
+        <v>482.5467690478941</v>
       </c>
       <c r="H309" t="n">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
       <c r="I309" t="n">
-        <v>510063</v>
+        <v>485101</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>110334</v>
+        <v>110192</v>
       </c>
       <c r="F310" t="n">
-        <v>15.14897021882287</v>
+        <v>15.14907018082235</v>
       </c>
       <c r="G310" t="n">
-        <v>87.01528439856924</v>
+        <v>87.01585857765126</v>
       </c>
       <c r="H310" t="n">
         <v>0.18</v>
       </c>
       <c r="I310" t="n">
-        <v>49948</v>
+        <v>49842</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23451909</v>
+        <v>23508790</v>
       </c>
       <c r="E311" t="n">
-        <v>23451909</v>
+        <v>23508790</v>
       </c>
       <c r="F311" t="n">
-        <v>6847.11227309425</v>
+        <v>5759.031366917248</v>
       </c>
       <c r="G311" t="n">
-        <v>7569.279610208891</v>
+        <v>7583.349486129109</v>
       </c>
       <c r="H311" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I311" t="n">
-        <v>5738852</v>
+        <v>5686838</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3829392</v>
+        <v>3845880</v>
       </c>
       <c r="E312" t="n">
-        <v>8355684</v>
+        <v>8391660</v>
       </c>
       <c r="F312" t="n">
-        <v>1693.366471078379</v>
+        <v>1688.367916644221</v>
       </c>
       <c r="G312" t="n">
-        <v>1833.609357505718</v>
+        <v>1833.611906084005</v>
       </c>
       <c r="H312" t="n">
         <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>1601650</v>
+        <v>1660413</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9251377</v>
+        <v>9257156</v>
       </c>
       <c r="E313" t="n">
-        <v>9251377</v>
+        <v>9257156</v>
       </c>
       <c r="F313" t="n">
-        <v>15398.00894422458</v>
+        <v>15302.38639382876</v>
       </c>
       <c r="G313" t="n">
-        <v>113127.0365387881</v>
+        <v>113068.9201754412</v>
       </c>
       <c r="H313" t="n">
         <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>2877932</v>
+        <v>2876585</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>495432508</v>
+        <v>498764559</v>
       </c>
       <c r="E314" t="n">
-        <v>1724559330</v>
+        <v>1736157922</v>
       </c>
       <c r="F314" t="n">
-        <v>448632.7421509352</v>
+        <v>348435.5759798261</v>
       </c>
       <c r="G314" t="n">
-        <v>536340.5504780237</v>
+        <v>550373.6429658469</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>30664946</v>
+        <v>30692041</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24058672</v>
+        <v>24078560</v>
       </c>
       <c r="E315" t="n">
-        <v>24037773</v>
+        <v>24057644</v>
       </c>
       <c r="F315" t="n">
-        <v>210.7025395437925</v>
+        <v>219.6158062928554</v>
       </c>
       <c r="G315" t="n">
-        <v>757.0516910481372</v>
+        <v>784.4414076445348</v>
       </c>
       <c r="H315" t="n">
         <v>0.42</v>
       </c>
       <c r="I315" t="n">
-        <v>84406</v>
+        <v>84363</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48714915</v>
+        <v>48820047</v>
       </c>
       <c r="E316" t="n">
-        <v>120228915</v>
+        <v>120206539</v>
       </c>
       <c r="F316" t="n">
-        <v>1032.124060925875</v>
+        <v>1021.547038318267</v>
       </c>
       <c r="G316" t="n">
-        <v>1825.804763857898</v>
+        <v>1923.504632785908</v>
       </c>
       <c r="H316" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="I316" t="n">
-        <v>24575</v>
+        <v>24061</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12246297</v>
+        <v>12247554</v>
       </c>
       <c r="E317" t="n">
-        <v>24766039</v>
+        <v>24764989</v>
       </c>
       <c r="F317" t="n">
-        <v>360.5252499073084</v>
+        <v>360.8344102908209</v>
       </c>
       <c r="G317" t="n">
-        <v>2646.433938324429</v>
+        <v>2619.370056611539</v>
       </c>
       <c r="H317" t="n">
         <v>0.23</v>
       </c>
       <c r="I317" t="n">
-        <v>40929</v>
+        <v>41388</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7533681</v>
+        <v>7495912</v>
       </c>
       <c r="E318" t="n">
-        <v>19571694</v>
+        <v>19473573</v>
       </c>
       <c r="F318" t="n">
-        <v>162.8899868940389</v>
+        <v>162.8893796987724</v>
       </c>
       <c r="G318" t="n">
-        <v>128.218829694863</v>
+        <v>128.2183517411966</v>
       </c>
       <c r="H318" t="n">
         <v>0.25</v>
       </c>
       <c r="I318" t="n">
-        <v>714238</v>
+        <v>716509</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>152759</v>
+        <v>152115</v>
       </c>
       <c r="F319" t="n">
-        <v>184.4124544012346</v>
+        <v>261.4736879796116</v>
       </c>
       <c r="G319" t="n">
-        <v>1.099784378762924</v>
+        <v>7.100887852141615</v>
       </c>
       <c r="H319" t="n">
-        <v>1.65</v>
+        <v>0.92</v>
       </c>
       <c r="I319" t="n">
-        <v>58593</v>
+        <v>58550</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19196474027</v>
+        <v>19178362965</v>
       </c>
       <c r="F320" t="n">
-        <v>52926.09532677861</v>
+        <v>52938.80158283406</v>
       </c>
       <c r="G320" t="n">
-        <v>50082.80765574885</v>
+        <v>50118.57114618138</v>
       </c>
       <c r="H320" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="I320" t="n">
-        <v>46794918</v>
+        <v>46586615</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>103549925</v>
+        <v>104912189</v>
       </c>
       <c r="E321" t="n">
-        <v>156890100</v>
+        <v>158954087</v>
       </c>
       <c r="F321" t="n">
-        <v>21627.19461441299</v>
+        <v>29038.99368349362</v>
       </c>
       <c r="G321" t="n">
-        <v>22895.32788470498</v>
+        <v>18909.60621121889</v>
       </c>
       <c r="H321" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I321" t="n">
-        <v>7584729</v>
+        <v>7690876</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2629047</v>
+        <v>2631929</v>
       </c>
       <c r="E322" t="n">
-        <v>10516186</v>
+        <v>10527717</v>
       </c>
       <c r="F322" t="n">
-        <v>30790.98752340462</v>
+        <v>45528.20556886852</v>
       </c>
       <c r="G322" t="n">
-        <v>34878.70391304072</v>
+        <v>5476.860677889199</v>
       </c>
       <c r="H322" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="I322" t="n">
-        <v>6889734</v>
+        <v>6858130</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>226522483</v>
+        <v>229227366</v>
       </c>
       <c r="E323" t="n">
-        <v>696471389</v>
+        <v>704787887</v>
       </c>
       <c r="F323" t="n">
-        <v>63059.16647217506</v>
+        <v>64492.46640977807</v>
       </c>
       <c r="G323" t="n">
-        <v>110183.0961046777</v>
+        <v>186362.9475145313</v>
       </c>
       <c r="H323" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>14404568</v>
+        <v>15173660</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>152221834</v>
+        <v>148336981</v>
       </c>
       <c r="E324" t="n">
-        <v>397675318</v>
+        <v>387526249</v>
       </c>
       <c r="F324" t="n">
-        <v>6378.781581947362</v>
+        <v>5913.666354875788</v>
       </c>
       <c r="G324" t="n">
-        <v>11342.21740507999</v>
+        <v>11759.62132748716</v>
       </c>
       <c r="H324" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="I324" t="n">
-        <v>7288698</v>
+        <v>7692785</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2441925</v>
+        <v>2452859</v>
       </c>
       <c r="E325" t="n">
-        <v>3351555</v>
+        <v>3366597</v>
       </c>
       <c r="F325" t="n">
-        <v>195.1299058285291</v>
+        <v>179.2604482505268</v>
       </c>
       <c r="G325" t="n">
-        <v>2023.262002733094</v>
+        <v>2240.242778830989</v>
       </c>
       <c r="H325" t="n">
         <v>1.26</v>
       </c>
       <c r="I325" t="n">
-        <v>1046914</v>
+        <v>1905795</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>402105747</v>
+        <v>405510814</v>
       </c>
       <c r="E326" t="n">
-        <v>2297747124</v>
+        <v>2317204654</v>
       </c>
       <c r="F326" t="n">
-        <v>243964.9421529655</v>
+        <v>278256.0450217317</v>
       </c>
       <c r="G326" t="n">
-        <v>334778.1578919952</v>
+        <v>399089.5334785433</v>
       </c>
       <c r="H326" t="n">
         <v>0.18</v>
       </c>
       <c r="I326" t="n">
-        <v>38789232</v>
+        <v>39301762</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250221.xlsx
+++ b/MexcData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91306</v>
+        <v>91285</v>
       </c>
       <c r="F2" t="n">
-        <v>4.209420666294317</v>
+        <v>4.209424967366116</v>
       </c>
       <c r="G2" t="n">
-        <v>32.62894601134435</v>
+        <v>32.62897935071588</v>
       </c>
       <c r="H2" t="n">
         <v>0.43</v>
       </c>
       <c r="I2" t="n">
-        <v>1411.52</v>
+        <v>1410.85</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>609481703</v>
+        <v>609977785</v>
       </c>
       <c r="E3" t="n">
-        <v>1182666553</v>
+        <v>1183629172</v>
       </c>
       <c r="F3" t="n">
-        <v>9872.280587483932</v>
+        <v>19633.12106971892</v>
       </c>
       <c r="G3" t="n">
-        <v>27907.16004324934</v>
+        <v>25669.65044687089</v>
       </c>
       <c r="H3" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="I3" t="n">
-        <v>18870950</v>
+        <v>18752653</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249969520</v>
+        <v>248630681</v>
       </c>
       <c r="E4" t="n">
-        <v>1567523727</v>
+        <v>1559128054</v>
       </c>
       <c r="F4" t="n">
-        <v>75313.39973116618</v>
+        <v>68476.56195201578</v>
       </c>
       <c r="G4" t="n">
-        <v>124026.6774974863</v>
+        <v>129348.6961461398</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>17422276</v>
+        <v>17628194</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146979466</v>
+        <v>146579210</v>
       </c>
       <c r="E5" t="n">
-        <v>162876218</v>
+        <v>162432672</v>
       </c>
       <c r="F5" t="n">
-        <v>114338.4888934419</v>
+        <v>131222.9021911313</v>
       </c>
       <c r="G5" t="n">
-        <v>302352.9081237594</v>
+        <v>310942.7179722568</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>37216024</v>
+        <v>37229213</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49301292</v>
+        <v>49569778</v>
       </c>
       <c r="E6" t="n">
-        <v>61674652</v>
+        <v>62010522</v>
       </c>
       <c r="F6" t="n">
-        <v>10313.85161834095</v>
+        <v>7945.78541904956</v>
       </c>
       <c r="G6" t="n">
-        <v>10658.28418936548</v>
+        <v>10585.90917373</v>
       </c>
       <c r="H6" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="I6" t="n">
-        <v>390443</v>
+        <v>389718</v>
       </c>
     </row>
     <row r="7">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8462517</v>
+        <v>8466744</v>
       </c>
       <c r="E7" t="n">
-        <v>8675910</v>
+        <v>8680243</v>
       </c>
       <c r="F7" t="n">
         <v>405.5516731466067</v>
@@ -687,7 +687,7 @@
         <v>1.49</v>
       </c>
       <c r="I7" t="n">
-        <v>87999</v>
+        <v>88069</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69096249</v>
+        <v>69167189</v>
       </c>
       <c r="E8" t="n">
-        <v>137616344</v>
+        <v>137757632</v>
       </c>
       <c r="F8" t="n">
-        <v>28184.3397012339</v>
+        <v>28122.97058796946</v>
       </c>
       <c r="G8" t="n">
-        <v>26818.40359674218</v>
+        <v>24871.26193664037</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I8" t="n">
-        <v>1020914</v>
+        <v>1013110</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4981896</v>
+        <v>4982347</v>
       </c>
       <c r="E9" t="n">
-        <v>7959573</v>
+        <v>7960294</v>
       </c>
       <c r="F9" t="n">
-        <v>381.4686443239488</v>
+        <v>390.8152781735052</v>
       </c>
       <c r="G9" t="n">
-        <v>225.1586688288087</v>
+        <v>615.4516845239548</v>
       </c>
       <c r="H9" t="n">
         <v>0.04</v>
       </c>
       <c r="I9" t="n">
-        <v>98264</v>
+        <v>98737</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14122784</v>
+        <v>14146515</v>
       </c>
       <c r="E10" t="n">
-        <v>41618932</v>
+        <v>41688865</v>
       </c>
       <c r="F10" t="n">
-        <v>3849.808250344392</v>
+        <v>3927.62935774672</v>
       </c>
       <c r="G10" t="n">
-        <v>2839.325408899142</v>
+        <v>4945.667557325926</v>
       </c>
       <c r="H10" t="n">
         <v>0.45</v>
       </c>
       <c r="I10" t="n">
-        <v>884973</v>
+        <v>887485</v>
       </c>
     </row>
     <row r="11">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>127751274</v>
+        <v>127044403</v>
       </c>
       <c r="E11" t="n">
-        <v>500746744</v>
+        <v>497976018</v>
       </c>
       <c r="F11" t="n">
         <v>63048.87993106942</v>
@@ -827,7 +827,7 @@
         <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>29636002</v>
+        <v>29582342</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10825324</v>
+        <v>10713556</v>
       </c>
       <c r="E12" t="n">
-        <v>46529867</v>
+        <v>46049460</v>
       </c>
       <c r="F12" t="n">
-        <v>1950.849073408818</v>
+        <v>2466.83262039686</v>
       </c>
       <c r="G12" t="n">
-        <v>2935.719725772146</v>
+        <v>3314.849981425585</v>
       </c>
       <c r="H12" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="I12" t="n">
-        <v>866314</v>
+        <v>943689</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1001003</v>
+        <v>1000332</v>
       </c>
       <c r="E13" t="n">
-        <v>12249572</v>
+        <v>12241368</v>
       </c>
       <c r="F13" t="n">
-        <v>271.0169628249987</v>
+        <v>271.0175464891068</v>
       </c>
       <c r="G13" t="n">
-        <v>200.725325993997</v>
+        <v>200.8603450922797</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>480.95</v>
+        <v>470.97</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>586260</v>
+        <v>585440</v>
       </c>
       <c r="E14" t="n">
-        <v>586260</v>
+        <v>585440</v>
       </c>
       <c r="F14" t="n">
-        <v>188.0769097055665</v>
+        <v>186.5530371079445</v>
       </c>
       <c r="G14" t="n">
-        <v>193.0704176325224</v>
+        <v>204.5930014778542</v>
       </c>
       <c r="H14" t="n">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="I14" t="n">
-        <v>31023</v>
+        <v>28116</v>
       </c>
     </row>
     <row r="15">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>582488549</v>
+        <v>580241416</v>
       </c>
       <c r="E15" t="n">
-        <v>728606601</v>
+        <v>725795771</v>
       </c>
       <c r="F15" t="n">
         <v>533248.6078238231</v>
@@ -967,7 +967,7 @@
         <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>55808530</v>
+        <v>55959026</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3355397</v>
+        <v>3358945</v>
       </c>
       <c r="E16" t="n">
-        <v>9545808</v>
+        <v>9555900</v>
       </c>
       <c r="F16" t="n">
-        <v>228.6314889028019</v>
+        <v>254.1056537424077</v>
       </c>
       <c r="G16" t="n">
-        <v>48.80399622128972</v>
+        <v>45.73249770639323</v>
       </c>
       <c r="H16" t="n">
-        <v>1.14</v>
+        <v>1.77</v>
       </c>
       <c r="I16" t="n">
-        <v>107621</v>
+        <v>108224</v>
       </c>
     </row>
     <row r="17">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>315484</v>
+        <v>315304</v>
       </c>
       <c r="E17" t="n">
-        <v>3641061</v>
+        <v>3638984</v>
       </c>
       <c r="F17" t="n">
         <v>2.711582121939763</v>
@@ -1037,7 +1037,7 @@
         <v>0.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3396.62</v>
+        <v>3394.61</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1306654</v>
+        <v>1310309</v>
       </c>
       <c r="E18" t="n">
-        <v>10022814</v>
+        <v>10050851</v>
       </c>
       <c r="F18" t="n">
-        <v>131.6942152471833</v>
+        <v>86.58275340617489</v>
       </c>
       <c r="G18" t="n">
-        <v>162.8547501003217</v>
+        <v>110.2660429695099</v>
       </c>
       <c r="H18" t="n">
         <v>0.96</v>
       </c>
       <c r="I18" t="n">
-        <v>143930</v>
+        <v>144360</v>
       </c>
     </row>
     <row r="19">
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23181540</v>
+        <v>23218303</v>
       </c>
       <c r="E19" t="n">
-        <v>23224581</v>
+        <v>23261412</v>
       </c>
       <c r="F19" t="n">
         <v>2542.299120463308</v>
@@ -1107,7 +1107,7 @@
         <v>0.84</v>
       </c>
       <c r="I19" t="n">
-        <v>855070</v>
+        <v>855125</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3718752</v>
+        <v>3716434</v>
       </c>
       <c r="E20" t="n">
-        <v>20633835</v>
+        <v>20620977</v>
       </c>
       <c r="F20" t="n">
-        <v>5.1525405524775</v>
+        <v>5.152584741650507</v>
       </c>
       <c r="G20" t="n">
-        <v>2.808450639971712</v>
+        <v>2.808474725781411</v>
       </c>
       <c r="H20" t="n">
         <v>0.49</v>
       </c>
       <c r="I20" t="n">
-        <v>5852.91</v>
+        <v>5799.16</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6908398</v>
+        <v>6901596</v>
       </c>
       <c r="E21" t="n">
-        <v>12816536</v>
+        <v>12803916</v>
       </c>
       <c r="F21" t="n">
-        <v>519.5968017654881</v>
+        <v>271.0489718512807</v>
       </c>
       <c r="G21" t="n">
-        <v>309.2774758250924</v>
+        <v>436.0815659763754</v>
       </c>
       <c r="H21" t="n">
         <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>52260</v>
+        <v>51914</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71694158</v>
+        <v>71674630</v>
       </c>
       <c r="E22" t="n">
-        <v>124156980</v>
+        <v>124121679</v>
       </c>
       <c r="F22" t="n">
-        <v>518.8115284548271</v>
+        <v>569.1985769772911</v>
       </c>
       <c r="G22" t="n">
-        <v>444.1041249150725</v>
+        <v>405.2574381401425</v>
       </c>
       <c r="H22" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="I22" t="n">
-        <v>767032</v>
+        <v>784455</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>172432</v>
+        <v>172352</v>
       </c>
       <c r="E23" t="n">
-        <v>518592</v>
+        <v>518352</v>
       </c>
       <c r="F23" t="n">
-        <v>5.615726540493657</v>
+        <v>5.615755869839885</v>
       </c>
       <c r="G23" t="n">
-        <v>148.0111739242637</v>
+        <v>148.0119469446261</v>
       </c>
       <c r="H23" t="n">
         <v>0.39</v>
       </c>
       <c r="I23" t="n">
-        <v>142.31</v>
+        <v>142.34</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82081974</v>
+        <v>81412940</v>
       </c>
       <c r="E24" t="n">
-        <v>241495348</v>
+        <v>239526967</v>
       </c>
       <c r="F24" t="n">
-        <v>227.7418207003641</v>
+        <v>245.9460224243302</v>
       </c>
       <c r="G24" t="n">
-        <v>482.8782134303955</v>
+        <v>253.8441429219572</v>
       </c>
       <c r="H24" t="n">
         <v>0.57</v>
       </c>
       <c r="I24" t="n">
-        <v>364092</v>
+        <v>344755</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7209803</v>
+        <v>6984524</v>
       </c>
       <c r="F25" t="n">
-        <v>4.024098979707813</v>
+        <v>8.578901701952724</v>
       </c>
       <c r="G25" t="n">
-        <v>5.31918447455398</v>
+        <v>165.8987539161847</v>
       </c>
       <c r="H25" t="n">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
       <c r="I25" t="n">
-        <v>14387.35</v>
+        <v>13905.07</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2446166</v>
+        <v>2433203</v>
       </c>
       <c r="E26" t="n">
-        <v>2446166</v>
+        <v>2433203</v>
       </c>
       <c r="F26" t="n">
         <v>209.8228104333487</v>
@@ -1352,7 +1352,7 @@
         <v>1.53</v>
       </c>
       <c r="I26" t="n">
-        <v>320246</v>
+        <v>319721</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17520376</v>
+        <v>17535825</v>
       </c>
       <c r="E27" t="n">
-        <v>22550162</v>
+        <v>22570046</v>
       </c>
       <c r="F27" t="n">
-        <v>4026.368830470261</v>
+        <v>3123.418394687394</v>
       </c>
       <c r="G27" t="n">
-        <v>4081.627324690348</v>
+        <v>4070.995130463319</v>
       </c>
       <c r="H27" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1650509</v>
+        <v>1646333</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4722258</v>
+        <v>4715892</v>
       </c>
       <c r="E28" t="n">
-        <v>4722258</v>
+        <v>4715892</v>
       </c>
       <c r="F28" t="n">
-        <v>1060.504478982022</v>
+        <v>788.9382836187467</v>
       </c>
       <c r="G28" t="n">
-        <v>7734.885598584071</v>
+        <v>7554.21482706385</v>
       </c>
       <c r="H28" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I28" t="n">
-        <v>2008858</v>
+        <v>2015091</v>
       </c>
     </row>
     <row r="29">
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1708880</v>
+        <v>1719371</v>
       </c>
       <c r="F29" t="n">
         <v>12.1565901665185</v>
@@ -1457,7 +1457,7 @@
         <v>2.19</v>
       </c>
       <c r="I29" t="n">
-        <v>148749</v>
+        <v>150087</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3383538</v>
+        <v>3383636</v>
       </c>
       <c r="E30" t="n">
-        <v>3383538</v>
+        <v>3383636</v>
       </c>
       <c r="F30" t="n">
-        <v>460.3186231255062</v>
+        <v>570.5078825670728</v>
       </c>
       <c r="G30" t="n">
-        <v>734.0719701087125</v>
+        <v>731.7900893534043</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="I30" t="n">
-        <v>515342</v>
+        <v>517686</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>314808</v>
+        <v>311572</v>
       </c>
       <c r="E31" t="n">
-        <v>1469556</v>
+        <v>1454451</v>
       </c>
       <c r="F31" t="n">
-        <v>395.6572518908142</v>
+        <v>337.6096451618454</v>
       </c>
       <c r="G31" t="n">
-        <v>93.76453595916766</v>
+        <v>71.79779998599953</v>
       </c>
       <c r="H31" t="n">
-        <v>2.04</v>
+        <v>1.36</v>
       </c>
       <c r="I31" t="n">
-        <v>708114</v>
+        <v>696357</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>366914</v>
+        <v>370622</v>
       </c>
       <c r="E32" t="n">
-        <v>366914</v>
+        <v>370622</v>
       </c>
       <c r="F32" t="n">
-        <v>121.3859961981882</v>
+        <v>121.3632615899687</v>
       </c>
       <c r="G32" t="n">
-        <v>570.8733837998235</v>
+        <v>630.0343676203048</v>
       </c>
       <c r="H32" t="n">
         <v>1.04</v>
       </c>
       <c r="I32" t="n">
-        <v>51584</v>
+        <v>52378</v>
       </c>
     </row>
     <row r="33">
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1858037</v>
+        <v>1857151</v>
       </c>
       <c r="F33" t="n">
         <v>238.7769940138314</v>
@@ -1597,7 +1597,7 @@
         <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1395627</v>
+        <v>1379983</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1509438</v>
+        <v>1509545</v>
       </c>
       <c r="F34" t="n">
-        <v>503.5684902265349</v>
+        <v>493.881815464041</v>
       </c>
       <c r="G34" t="n">
-        <v>20.55654107357224</v>
+        <v>20.55671737039915</v>
       </c>
       <c r="H34" t="n">
         <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>290805</v>
+        <v>289298</v>
       </c>
     </row>
     <row r="35">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12796104</v>
+        <v>12763977</v>
       </c>
       <c r="E35" t="n">
-        <v>31847188</v>
+        <v>31767229</v>
       </c>
       <c r="F35" t="n">
         <v>962.7088590145728</v>
@@ -1667,7 +1667,7 @@
         <v>0.38</v>
       </c>
       <c r="I35" t="n">
-        <v>1241262</v>
+        <v>1235157</v>
       </c>
     </row>
     <row r="36">
@@ -1687,10 +1687,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6810349</v>
+        <v>6811095</v>
       </c>
       <c r="E36" t="n">
-        <v>9379590</v>
+        <v>9380618</v>
       </c>
       <c r="F36" t="n">
         <v>583.1268583007521</v>
@@ -1702,7 +1702,7 @@
         <v>1.32</v>
       </c>
       <c r="I36" t="n">
-        <v>421406</v>
+        <v>415305</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>935943</v>
+        <v>931251</v>
       </c>
       <c r="E37" t="n">
-        <v>6551601</v>
+        <v>6518755</v>
       </c>
       <c r="F37" t="n">
-        <v>155.3462808987566</v>
+        <v>68.06252010781944</v>
       </c>
       <c r="G37" t="n">
-        <v>253.7624483259651</v>
+        <v>590.584738396934</v>
       </c>
       <c r="H37" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="I37" t="n">
-        <v>250613</v>
+        <v>247788</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>116206932</v>
+        <v>115861639</v>
       </c>
       <c r="E38" t="n">
-        <v>452088937</v>
+        <v>450735360</v>
       </c>
       <c r="F38" t="n">
-        <v>21402.26779978388</v>
+        <v>17338.40076861578</v>
       </c>
       <c r="G38" t="n">
-        <v>19807.20899470182</v>
+        <v>22274.71905397145</v>
       </c>
       <c r="H38" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I38" t="n">
-        <v>9380242</v>
+        <v>9371762</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5688081</v>
+        <v>5722136</v>
       </c>
       <c r="E39" t="n">
-        <v>5960199</v>
+        <v>5995883</v>
       </c>
       <c r="F39" t="n">
-        <v>72.5870100948537</v>
+        <v>920.8927134692675</v>
       </c>
       <c r="G39" t="n">
-        <v>641.1170759138562</v>
+        <v>64.58768706964671</v>
       </c>
       <c r="H39" t="n">
         <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>151087</v>
+        <v>152500</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5175624</v>
+        <v>5229470</v>
       </c>
       <c r="E40" t="n">
-        <v>7618798</v>
+        <v>7698062</v>
       </c>
       <c r="F40" t="n">
-        <v>643.0194764759973</v>
+        <v>864.4951747018104</v>
       </c>
       <c r="G40" t="n">
-        <v>769.726622087266</v>
+        <v>742.8818104786587</v>
       </c>
       <c r="H40" t="n">
-        <v>1.33</v>
+        <v>0.99</v>
       </c>
       <c r="I40" t="n">
-        <v>601841</v>
+        <v>608239</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7690156</v>
+        <v>7690048</v>
       </c>
       <c r="E41" t="n">
-        <v>7690156</v>
+        <v>7690048</v>
       </c>
       <c r="F41" t="n">
-        <v>2199.784930337042</v>
+        <v>2241.175693736993</v>
       </c>
       <c r="G41" t="n">
-        <v>1318.885573837635</v>
+        <v>1319.257705266976</v>
       </c>
       <c r="H41" t="n">
         <v>0.67</v>
       </c>
       <c r="I41" t="n">
-        <v>330642</v>
+        <v>330039</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1448693</v>
+        <v>1448600</v>
       </c>
       <c r="E42" t="n">
-        <v>1448693</v>
+        <v>1448600</v>
       </c>
       <c r="F42" t="n">
-        <v>336.5335452076893</v>
+        <v>336.5335073297102</v>
       </c>
       <c r="G42" t="n">
-        <v>97.61987523773114</v>
+        <v>97.6198642502868</v>
       </c>
       <c r="H42" t="n">
         <v>0.15</v>
       </c>
       <c r="I42" t="n">
-        <v>277132</v>
+        <v>278268</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15798640</v>
+        <v>15788607</v>
       </c>
       <c r="F43" t="n">
-        <v>405.0134431798986</v>
+        <v>505.8912194310565</v>
       </c>
       <c r="G43" t="n">
-        <v>161.3461422552874</v>
+        <v>196.542767104989</v>
       </c>
       <c r="H43" t="n">
-        <v>0.48</v>
+        <v>0.85</v>
       </c>
       <c r="I43" t="n">
-        <v>11935.69</v>
+        <v>11437.61</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>140134678</v>
+        <v>139697662</v>
       </c>
       <c r="E44" t="n">
-        <v>140134678</v>
+        <v>139697662</v>
       </c>
       <c r="F44" t="n">
-        <v>319448.4306826466</v>
+        <v>281250.6211853488</v>
       </c>
       <c r="G44" t="n">
-        <v>365237.8947801949</v>
+        <v>360135.8587138532</v>
       </c>
       <c r="H44" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I44" t="n">
-        <v>68061754</v>
+        <v>68145221</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>67126410</v>
+        <v>66646798</v>
       </c>
       <c r="E45" t="n">
-        <v>344237998</v>
+        <v>341778453</v>
       </c>
       <c r="F45" t="n">
-        <v>55704.54135450943</v>
+        <v>72464.52910315363</v>
       </c>
       <c r="G45" t="n">
-        <v>69351.24715965736</v>
+        <v>87112.63400523274</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I45" t="n">
-        <v>21456651</v>
+        <v>22219146</v>
       </c>
     </row>
     <row r="46">
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>594194</v>
+        <v>593419</v>
       </c>
       <c r="F46" t="n">
         <v>75.96247836179826</v>
@@ -2052,7 +2052,7 @@
         <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>1082.43</v>
+        <v>1082.3</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2677346</v>
+        <v>2691002</v>
       </c>
       <c r="E47" t="n">
-        <v>10759642</v>
+        <v>10814522</v>
       </c>
       <c r="F47" t="n">
-        <v>632.6897213217312</v>
+        <v>486.9134357947451</v>
       </c>
       <c r="G47" t="n">
-        <v>125.9536717958153</v>
+        <v>125.9539430505617</v>
       </c>
       <c r="H47" t="n">
         <v>0.91</v>
       </c>
       <c r="I47" t="n">
-        <v>34119</v>
+        <v>34126</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17577558</v>
+        <v>17551971</v>
       </c>
       <c r="E48" t="n">
-        <v>123889246</v>
+        <v>123708545</v>
       </c>
       <c r="F48" t="n">
-        <v>424.3699257909367</v>
+        <v>780.7916908508039</v>
       </c>
       <c r="G48" t="n">
-        <v>933.8234548083931</v>
+        <v>441.5608011208842</v>
       </c>
       <c r="H48" t="n">
-        <v>0.32</v>
+        <v>0.96</v>
       </c>
       <c r="I48" t="n">
-        <v>1052477</v>
+        <v>1047979</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1034614</v>
+        <v>1034708</v>
       </c>
       <c r="E49" t="n">
-        <v>1214389</v>
+        <v>1214500</v>
       </c>
       <c r="F49" t="n">
-        <v>1050.477822263827</v>
+        <v>1050.482438219181</v>
       </c>
       <c r="G49" t="n">
-        <v>4291.970910079101</v>
+        <v>4291.98976963585</v>
       </c>
       <c r="H49" t="n">
         <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>216934</v>
+        <v>218009</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>149118</v>
+        <v>149193</v>
       </c>
       <c r="E50" t="n">
-        <v>1995288</v>
+        <v>1996291</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>44220</v>
+        <v>44356</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>258570269</v>
+        <v>257684251</v>
       </c>
       <c r="E51" t="n">
-        <v>258570269</v>
+        <v>257684251</v>
       </c>
       <c r="F51" t="n">
-        <v>20401.38987247862</v>
+        <v>20730.0081346618</v>
       </c>
       <c r="G51" t="n">
-        <v>35548.92391181464</v>
+        <v>38725.29702165117</v>
       </c>
       <c r="H51" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="I51" t="n">
-        <v>14504273</v>
+        <v>14406929</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1123368</v>
+        <v>1123201</v>
       </c>
       <c r="F52" t="n">
-        <v>4.237386546555258</v>
+        <v>4.237422887192522</v>
       </c>
       <c r="G52" t="n">
-        <v>631.5800868724696</v>
+        <v>631.5855034240604</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>176547</v>
+        <v>174728</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>117561</v>
+        <v>117213</v>
       </c>
       <c r="E54" t="n">
-        <v>117561</v>
+        <v>117213</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>201.44</v>
+        <v>201.03</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6802737</v>
+        <v>6796667</v>
       </c>
       <c r="E55" t="n">
-        <v>16523325</v>
+        <v>16508580</v>
       </c>
       <c r="F55" t="n">
-        <v>516.0193632485684</v>
+        <v>590.837079133307</v>
       </c>
       <c r="G55" t="n">
-        <v>76.5112126853334</v>
+        <v>41.46062837142535</v>
       </c>
       <c r="H55" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="I55" t="n">
-        <v>482373</v>
+        <v>481442</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>445553578</v>
+        <v>444046601</v>
       </c>
       <c r="E56" t="n">
-        <v>445553578</v>
+        <v>444046601</v>
       </c>
       <c r="F56" t="n">
-        <v>4363.901437118406</v>
+        <v>4005.382337724509</v>
       </c>
       <c r="G56" t="n">
-        <v>5107.385204618207</v>
+        <v>7343.527483431261</v>
       </c>
       <c r="H56" t="n">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>2558090</v>
+        <v>2520701</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2473756</v>
+        <v>2463165</v>
       </c>
       <c r="E57" t="n">
-        <v>2473756</v>
+        <v>2463165</v>
       </c>
       <c r="F57" t="n">
-        <v>4.024576796659485</v>
+        <v>4.024597815882097</v>
       </c>
       <c r="G57" t="n">
-        <v>71.47390286405884</v>
+        <v>71.47427615197238</v>
       </c>
       <c r="H57" t="n">
         <v>0.48</v>
       </c>
       <c r="I57" t="n">
-        <v>55355</v>
+        <v>55226</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>165744158</v>
+        <v>165367165</v>
       </c>
       <c r="E58" t="n">
-        <v>218099928</v>
+        <v>217603849</v>
       </c>
       <c r="F58" t="n">
-        <v>12239.63800114839</v>
+        <v>12506.32170508883</v>
       </c>
       <c r="G58" t="n">
-        <v>12936.92882134791</v>
+        <v>10880.14650526237</v>
       </c>
       <c r="H58" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="I58" t="n">
-        <v>8032650</v>
+        <v>8193378</v>
       </c>
     </row>
     <row r="59">
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1127701</v>
+        <v>1126210</v>
       </c>
       <c r="E59" t="n">
-        <v>12255435</v>
+        <v>12239231</v>
       </c>
       <c r="F59" t="n">
         <v>12.8828674332034</v>
@@ -2503,7 +2503,7 @@
         <v>0.33</v>
       </c>
       <c r="I59" t="n">
-        <v>31125</v>
+        <v>31063</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2557812</v>
+        <v>2556816</v>
       </c>
       <c r="E60" t="n">
-        <v>6539268</v>
+        <v>6536722</v>
       </c>
       <c r="F60" t="n">
-        <v>271.5781306833126</v>
+        <v>204.8764171648885</v>
       </c>
       <c r="G60" t="n">
-        <v>257.0420289551041</v>
+        <v>192.2206308249107</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>109480</v>
+        <v>109354</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>83361989</v>
+        <v>82042446</v>
       </c>
       <c r="E61" t="n">
-        <v>233200969</v>
+        <v>229569759</v>
       </c>
       <c r="F61" t="n">
-        <v>63510.59760480923</v>
+        <v>62233.74822836527</v>
       </c>
       <c r="G61" t="n">
-        <v>74976.67530063346</v>
+        <v>85846.41376857</v>
       </c>
       <c r="H61" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="I61" t="n">
-        <v>44054211</v>
+        <v>44481066</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>74688687</v>
+        <v>74549274</v>
       </c>
       <c r="E62" t="n">
-        <v>74688687</v>
+        <v>74549274</v>
       </c>
       <c r="F62" t="n">
-        <v>3010.890814687738</v>
+        <v>3303.947510955691</v>
       </c>
       <c r="G62" t="n">
-        <v>4015.587371042148</v>
+        <v>3787.061635020869</v>
       </c>
       <c r="H62" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I62" t="n">
-        <v>3403109</v>
+        <v>3380888</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4108986</v>
+        <v>4109583</v>
       </c>
       <c r="E63" t="n">
-        <v>8103266</v>
+        <v>8104443</v>
       </c>
       <c r="F63" t="n">
-        <v>2571.276326587166</v>
+        <v>2544.26219626932</v>
       </c>
       <c r="G63" t="n">
-        <v>1500.373289531213</v>
+        <v>1511.802470712371</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="I63" t="n">
-        <v>1649889</v>
+        <v>1649284</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1619296</v>
+        <v>1615119</v>
       </c>
       <c r="E64" t="n">
-        <v>9297391</v>
+        <v>9273410</v>
       </c>
       <c r="F64" t="n">
-        <v>135.1713434503835</v>
+        <v>22.09223249679978</v>
       </c>
       <c r="G64" t="n">
-        <v>3.991603377506229</v>
+        <v>14.10087456527032</v>
       </c>
       <c r="H64" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="I64" t="n">
-        <v>279635</v>
+        <v>277849</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>552005</v>
+        <v>551846</v>
       </c>
       <c r="F65" t="n">
-        <v>4.101806300269366</v>
+        <v>4.101841478144513</v>
       </c>
       <c r="G65" t="n">
-        <v>8.634214464476665</v>
+        <v>8.634288513150882</v>
       </c>
       <c r="H65" t="n">
         <v>0.43</v>
       </c>
       <c r="I65" t="n">
-        <v>1686.24</v>
+        <v>1686.48</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31260149</v>
+        <v>31243462</v>
       </c>
       <c r="F66" t="n">
-        <v>821.9832109732705</v>
+        <v>751.6915179278687</v>
       </c>
       <c r="G66" t="n">
-        <v>314.669684756581</v>
+        <v>365.340363200113</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="I66" t="n">
-        <v>244900</v>
+        <v>244615</v>
       </c>
     </row>
     <row r="67">
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>165308</v>
+        <v>164955</v>
       </c>
       <c r="E67" t="n">
-        <v>1116341</v>
+        <v>1113957</v>
       </c>
       <c r="F67" t="n">
         <v>3.929349940492644</v>
@@ -2783,7 +2783,7 @@
         <v>0.9</v>
       </c>
       <c r="I67" t="n">
-        <v>2799648</v>
+        <v>2806557</v>
       </c>
     </row>
     <row r="68">
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7636252</v>
+        <v>7626017</v>
       </c>
       <c r="E68" t="n">
-        <v>17984893</v>
+        <v>17960787</v>
       </c>
       <c r="F68" t="n">
         <v>846.8119176363344</v>
@@ -2818,7 +2818,7 @@
         <v>0.11</v>
       </c>
       <c r="I68" t="n">
-        <v>30060</v>
+        <v>30066</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2995539</v>
+        <v>3016081</v>
       </c>
       <c r="E69" t="n">
-        <v>2995539</v>
+        <v>3016081</v>
       </c>
       <c r="F69" t="n">
-        <v>112.7258202791387</v>
+        <v>112.7263156131121</v>
       </c>
       <c r="G69" t="n">
-        <v>160.5927436110635</v>
+        <v>160.5934492793975</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>19900.66</v>
+        <v>19979.56</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3375884</v>
+        <v>3374025</v>
       </c>
       <c r="E70" t="n">
-        <v>8329823</v>
+        <v>8325234</v>
       </c>
       <c r="F70" t="n">
-        <v>1217.198119139433</v>
+        <v>1164.256770758414</v>
       </c>
       <c r="G70" t="n">
-        <v>1188.447695808222</v>
+        <v>1201.50013497122</v>
       </c>
       <c r="H70" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>40521</v>
+        <v>40322</v>
       </c>
     </row>
     <row r="71">
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23025954</v>
+        <v>23045676</v>
       </c>
       <c r="F71" t="n">
         <v>427.3805630429731</v>
@@ -2923,7 +2923,7 @@
         <v>0.43</v>
       </c>
       <c r="I71" t="n">
-        <v>127647</v>
+        <v>125358</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>265787</v>
+        <v>265640</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1696.08</v>
+        <v>1592.05</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>78618838</v>
+        <v>78441662</v>
       </c>
       <c r="E73" t="n">
-        <v>163960201</v>
+        <v>163590699</v>
       </c>
       <c r="F73" t="n">
-        <v>12861.772996203</v>
+        <v>17655.68969663478</v>
       </c>
       <c r="G73" t="n">
-        <v>136.7521376641133</v>
+        <v>475.5941005211056</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>17619763</v>
+        <v>17754087</v>
       </c>
     </row>
     <row r="74">
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>199817335</v>
+        <v>199854883</v>
       </c>
       <c r="F75" t="n">
         <v>23527.91677114753</v>
@@ -3053,7 +3053,7 @@
         <v>0.3</v>
       </c>
       <c r="I75" t="n">
-        <v>3607780</v>
+        <v>3551381</v>
       </c>
     </row>
     <row r="76">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>86650331</v>
+        <v>86421856</v>
       </c>
       <c r="E76" t="n">
-        <v>118984389</v>
+        <v>118670658</v>
       </c>
       <c r="F76" t="n">
         <v>1964.787213686545</v>
@@ -3088,7 +3088,7 @@
         <v>0.11</v>
       </c>
       <c r="I76" t="n">
-        <v>1062566</v>
+        <v>823072</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>179554</v>
+        <v>179905</v>
       </c>
       <c r="E77" t="n">
-        <v>187505</v>
+        <v>187872</v>
       </c>
       <c r="F77" t="n">
-        <v>4.138357480511084</v>
+        <v>5.414156282629691</v>
       </c>
       <c r="G77" t="n">
-        <v>5.152798597141283</v>
+        <v>414.9329145530899</v>
       </c>
       <c r="H77" t="n">
-        <v>0.35</v>
+        <v>0.57</v>
       </c>
       <c r="I77" t="n">
-        <v>327.77</v>
+        <v>326.31</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7922620</v>
+        <v>7936982</v>
       </c>
       <c r="E78" t="n">
-        <v>8715411</v>
+        <v>8731211</v>
       </c>
       <c r="F78" t="n">
-        <v>431.861655286733</v>
+        <v>369.10597299968</v>
       </c>
       <c r="G78" t="n">
-        <v>223.8942480227775</v>
+        <v>377.4103309044402</v>
       </c>
       <c r="H78" t="n">
-        <v>0.47</v>
+        <v>1.04</v>
       </c>
       <c r="I78" t="n">
-        <v>731937</v>
+        <v>728236</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29264698</v>
+        <v>29229899</v>
       </c>
       <c r="E79" t="n">
-        <v>29264698</v>
+        <v>29229899</v>
       </c>
       <c r="F79" t="n">
-        <v>987.4993111675561</v>
+        <v>998.8274603898502</v>
       </c>
       <c r="G79" t="n">
-        <v>78.87850636455978</v>
+        <v>78.8791828417129</v>
       </c>
       <c r="H79" t="n">
         <v>0.2</v>
       </c>
       <c r="I79" t="n">
-        <v>266542</v>
+        <v>267228</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>277270276</v>
+        <v>276164541</v>
       </c>
       <c r="E80" t="n">
-        <v>277270276</v>
+        <v>276164541</v>
       </c>
       <c r="F80" t="n">
-        <v>2866.257755807831</v>
+        <v>320.6231193578303</v>
       </c>
       <c r="G80" t="n">
-        <v>3704.943363897306</v>
+        <v>6597.949117093371</v>
       </c>
       <c r="H80" t="n">
-        <v>0.62</v>
+        <v>0.18</v>
       </c>
       <c r="I80" t="n">
-        <v>9941029</v>
+        <v>9929474</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>655077079</v>
+        <v>653743509</v>
       </c>
       <c r="E81" t="n">
-        <v>655077079</v>
+        <v>653743509</v>
       </c>
       <c r="F81" t="n">
-        <v>1143759.744308181</v>
+        <v>1303610.718200854</v>
       </c>
       <c r="G81" t="n">
-        <v>1442759.006367758</v>
+        <v>1251178.635586022</v>
       </c>
       <c r="H81" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="I81" t="n">
-        <v>310966747</v>
+        <v>310054509</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>116620</v>
+        <v>116496</v>
       </c>
       <c r="E82" t="n">
-        <v>116620</v>
+        <v>116496</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>428.11</v>
+        <v>426.23</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>205532152</v>
+        <v>205191713</v>
       </c>
       <c r="E83" t="n">
-        <v>714037271</v>
+        <v>712854557</v>
       </c>
       <c r="F83" t="n">
-        <v>959.3300064258495</v>
+        <v>956.8486116592194</v>
       </c>
       <c r="G83" t="n">
-        <v>1821.828985563854</v>
+        <v>1915.416832658108</v>
       </c>
       <c r="H83" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="I83" t="n">
-        <v>27934796</v>
+        <v>28154743</v>
       </c>
     </row>
     <row r="84">
@@ -3351,10 +3351,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3625828</v>
+        <v>3639897</v>
       </c>
       <c r="E84" t="n">
-        <v>3625828</v>
+        <v>3639897</v>
       </c>
       <c r="F84" t="n">
         <v>2347.940603195381</v>
@@ -3366,7 +3366,7 @@
         <v>0.95</v>
       </c>
       <c r="I84" t="n">
-        <v>2361294</v>
+        <v>2609143</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>116390807</v>
+        <v>116051723</v>
       </c>
       <c r="E85" t="n">
-        <v>494448270</v>
+        <v>492985091</v>
       </c>
       <c r="F85" t="n">
-        <v>348606.3503803161</v>
+        <v>319557.4284744518</v>
       </c>
       <c r="G85" t="n">
-        <v>487371.2939654901</v>
+        <v>464334.2476587017</v>
       </c>
       <c r="H85" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="I85" t="n">
-        <v>15398544</v>
+        <v>15395429</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71677448</v>
+        <v>71816820</v>
       </c>
       <c r="E86" t="n">
-        <v>82240741</v>
+        <v>82400653</v>
       </c>
       <c r="F86" t="n">
-        <v>23961.81374301542</v>
+        <v>22859.45117344182</v>
       </c>
       <c r="G86" t="n">
-        <v>18330.30905901134</v>
+        <v>18078.96336773132</v>
       </c>
       <c r="H86" t="n">
         <v>0.34</v>
       </c>
       <c r="I86" t="n">
-        <v>1165392</v>
+        <v>1296085</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3136395</v>
+        <v>3133767</v>
       </c>
       <c r="E87" t="n">
-        <v>15725254</v>
+        <v>15712076</v>
       </c>
       <c r="F87" t="n">
-        <v>5.408663688930059</v>
+        <v>5.408663586943622</v>
       </c>
       <c r="G87" t="n">
-        <v>71.18796336330678</v>
+        <v>71.18796202097766</v>
       </c>
       <c r="H87" t="n">
         <v>0.31</v>
       </c>
       <c r="I87" t="n">
-        <v>33215</v>
+        <v>33136</v>
       </c>
     </row>
     <row r="88">
@@ -3491,10 +3491,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>510428</v>
+        <v>509753</v>
       </c>
       <c r="E88" t="n">
-        <v>8730833</v>
+        <v>8719286</v>
       </c>
       <c r="F88" t="n">
         <v>706.1985036544984</v>
@@ -3506,7 +3506,7 @@
         <v>1.64</v>
       </c>
       <c r="I88" t="n">
-        <v>162870</v>
+        <v>162706</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5822790</v>
+        <v>5815657</v>
       </c>
       <c r="E89" t="n">
-        <v>7910588</v>
+        <v>7900897</v>
       </c>
       <c r="F89" t="n">
-        <v>1121.948645434028</v>
+        <v>1658.15273249026</v>
       </c>
       <c r="G89" t="n">
-        <v>70.65052294902802</v>
+        <v>98.64384291423701</v>
       </c>
       <c r="H89" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="I89" t="n">
-        <v>1327293</v>
+        <v>1329617</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40084614</v>
+        <v>40384596</v>
       </c>
       <c r="E90" t="n">
-        <v>46817878</v>
+        <v>47168249</v>
       </c>
       <c r="F90" t="n">
-        <v>413.7622920885887</v>
+        <v>514.8121677810195</v>
       </c>
       <c r="G90" t="n">
-        <v>119.9057343968515</v>
+        <v>156.7722693014393</v>
       </c>
       <c r="H90" t="n">
-        <v>0.75</v>
+        <v>1.02</v>
       </c>
       <c r="I90" t="n">
-        <v>917959</v>
+        <v>921096</v>
       </c>
     </row>
     <row r="91">
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14674306</v>
+        <v>14656709</v>
       </c>
       <c r="F91" t="n">
         <v>69.76037422616595</v>
@@ -3611,7 +3611,7 @@
         <v>1.39</v>
       </c>
       <c r="I91" t="n">
-        <v>270363</v>
+        <v>270563</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36308500</v>
+        <v>36290951</v>
       </c>
       <c r="E92" t="n">
-        <v>36308500</v>
+        <v>36290951</v>
       </c>
       <c r="F92" t="n">
-        <v>419.0733306409343</v>
+        <v>429.6665797125598</v>
       </c>
       <c r="G92" t="n">
-        <v>79.56008485721368</v>
+        <v>119.0596899620589</v>
       </c>
       <c r="H92" t="n">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="I92" t="n">
-        <v>769902</v>
+        <v>769493</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17299059</v>
+        <v>17282158</v>
       </c>
       <c r="F93" t="n">
-        <v>124.1991225485032</v>
+        <v>267.0892056611054</v>
       </c>
       <c r="G93" t="n">
-        <v>261.3450436019251</v>
+        <v>167.6597164754924</v>
       </c>
       <c r="H93" t="n">
-        <v>0.41</v>
+        <v>1.56</v>
       </c>
       <c r="I93" t="n">
-        <v>190284</v>
+        <v>190382</v>
       </c>
     </row>
     <row r="94">
@@ -3701,10 +3701,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>566841</v>
+        <v>567534</v>
       </c>
       <c r="E94" t="n">
-        <v>6875235</v>
+        <v>6883637</v>
       </c>
       <c r="F94" t="n">
         <v>718.868813936834</v>
@@ -3716,7 +3716,7 @@
         <v>0.05</v>
       </c>
       <c r="I94" t="n">
-        <v>2828258</v>
+        <v>2828959</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>25747540</v>
+        <v>26105874</v>
       </c>
       <c r="E95" t="n">
-        <v>36393143</v>
+        <v>36899633</v>
       </c>
       <c r="F95" t="n">
-        <v>12.46866103979714</v>
+        <v>4.232945578320676</v>
       </c>
       <c r="G95" t="n">
-        <v>5.241421833010283</v>
+        <v>1386.632435020535</v>
       </c>
       <c r="H95" t="n">
-        <v>0.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I95" t="n">
-        <v>70337</v>
+        <v>58375</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1311308996</v>
+        <v>1303685598</v>
       </c>
       <c r="E96" t="n">
-        <v>6287995186</v>
+        <v>6251439432</v>
       </c>
       <c r="F96" t="n">
-        <v>494040.9415412595</v>
+        <v>458877.5379634137</v>
       </c>
       <c r="G96" t="n">
-        <v>602059.1151062143</v>
+        <v>644991.3628367692</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>166311963</v>
+        <v>165864202</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>274077591</v>
+        <v>271775792</v>
       </c>
       <c r="E97" t="n">
-        <v>1183071036</v>
+        <v>1173135191</v>
       </c>
       <c r="F97" t="n">
-        <v>148251.6913263433</v>
+        <v>136145.4126647557</v>
       </c>
       <c r="G97" t="n">
-        <v>922835.9126047229</v>
+        <v>803289.5362077474</v>
       </c>
       <c r="H97" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>98523518</v>
+        <v>100359041</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5162541</v>
+        <v>5151614</v>
       </c>
       <c r="E98" t="n">
-        <v>5721124</v>
+        <v>5709014</v>
       </c>
       <c r="F98" t="n">
-        <v>216.5292727291831</v>
+        <v>604.102107186986</v>
       </c>
       <c r="G98" t="n">
-        <v>24.3589223801581</v>
+        <v>179.1468453535996</v>
       </c>
       <c r="H98" t="n">
-        <v>1.41</v>
+        <v>0.82</v>
       </c>
       <c r="I98" t="n">
-        <v>612100</v>
+        <v>610757</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>99502</v>
+        <v>98502</v>
       </c>
       <c r="E99" t="n">
-        <v>99502</v>
+        <v>98502</v>
       </c>
       <c r="F99" t="n">
-        <v>3.888155429209552</v>
+        <v>3.888172514341185</v>
       </c>
       <c r="G99" t="n">
-        <v>4.003821748388143</v>
+        <v>4.003839341774738</v>
       </c>
       <c r="H99" t="n">
         <v>0.47</v>
       </c>
       <c r="I99" t="n">
-        <v>1946.11</v>
+        <v>1687.75</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>115248900</v>
+        <v>115226381</v>
       </c>
       <c r="E100" t="n">
-        <v>115248900</v>
+        <v>115226381</v>
       </c>
       <c r="F100" t="n">
-        <v>17675.31219952905</v>
+        <v>14697.14369742523</v>
       </c>
       <c r="G100" t="n">
-        <v>8753.644264583545</v>
+        <v>16731.91008031679</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6106257</v>
+        <v>6108118</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3795942</v>
+        <v>3806931</v>
       </c>
       <c r="F101" t="n">
-        <v>1334.253837003952</v>
+        <v>1151.982454573055</v>
       </c>
       <c r="G101" t="n">
-        <v>1568.668501230793</v>
+        <v>1666.467175804428</v>
       </c>
       <c r="H101" t="n">
         <v>0.84</v>
       </c>
       <c r="I101" t="n">
-        <v>306996</v>
+        <v>297254</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2043184622</v>
+        <v>2039190874</v>
       </c>
       <c r="E102" t="n">
-        <v>2043184622</v>
+        <v>2039190874</v>
       </c>
       <c r="F102" t="n">
-        <v>6951161.214207358</v>
+        <v>6983696.490713376</v>
       </c>
       <c r="G102" t="n">
-        <v>5176308.286630729</v>
+        <v>5088975.629965637</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>6752950103</v>
+        <v>6753134443</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5342982</v>
+        <v>5314468</v>
       </c>
       <c r="E103" t="n">
-        <v>5349029</v>
+        <v>5320483</v>
       </c>
       <c r="F103" t="n">
-        <v>59.17977775236433</v>
+        <v>59.17977663646307</v>
       </c>
       <c r="G103" t="n">
-        <v>113.3720990899195</v>
+        <v>113.3720969521611</v>
       </c>
       <c r="H103" t="n">
         <v>0.29</v>
       </c>
       <c r="I103" t="n">
-        <v>146862</v>
+        <v>146461</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2252734</v>
+        <v>2252856</v>
       </c>
       <c r="F104" t="n">
-        <v>5.426904467959384</v>
+        <v>5.42692195764116</v>
       </c>
       <c r="G104" t="n">
-        <v>278.9988518363053</v>
+        <v>284.8828034657996</v>
       </c>
       <c r="H104" t="n">
         <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>57495</v>
+        <v>57271</v>
       </c>
     </row>
     <row r="105">
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4447855</v>
+        <v>4453859</v>
       </c>
       <c r="E105" t="n">
-        <v>5839453</v>
+        <v>5847336</v>
       </c>
       <c r="F105" t="n">
         <v>4871.69330006189</v>
@@ -4101,7 +4101,7 @@
         <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>602346</v>
+        <v>603223</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19819963</v>
+        <v>19828895</v>
       </c>
       <c r="F106" t="n">
-        <v>413.3388881028475</v>
+        <v>176.9164059858613</v>
       </c>
       <c r="G106" t="n">
-        <v>160.3928523660825</v>
+        <v>353.3272126781365</v>
       </c>
       <c r="H106" t="n">
-        <v>1.01</v>
+        <v>0.5</v>
       </c>
       <c r="I106" t="n">
-        <v>55895</v>
+        <v>56197</v>
       </c>
     </row>
     <row r="107">
@@ -4156,10 +4156,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1350337</v>
+        <v>1351199</v>
       </c>
       <c r="E107" t="n">
-        <v>5034404</v>
+        <v>5037619</v>
       </c>
       <c r="F107" t="n">
         <v>1674.741064364557</v>
@@ -4171,7 +4171,7 @@
         <v>0.23</v>
       </c>
       <c r="I107" t="n">
-        <v>559945</v>
+        <v>564180</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4222437</v>
+        <v>4194667</v>
       </c>
       <c r="E108" t="n">
-        <v>12162626</v>
+        <v>12082636</v>
       </c>
       <c r="F108" t="n">
-        <v>214.4015083222412</v>
+        <v>347.5517963520821</v>
       </c>
       <c r="G108" t="n">
-        <v>131.2003560729872</v>
+        <v>89.39828166830318</v>
       </c>
       <c r="H108" t="n">
-        <v>2.35</v>
+        <v>1.71</v>
       </c>
       <c r="I108" t="n">
-        <v>635691</v>
+        <v>630549</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80613477</v>
+        <v>80478912</v>
       </c>
       <c r="E109" t="n">
-        <v>102586915</v>
+        <v>102415670</v>
       </c>
       <c r="F109" t="n">
-        <v>6525.344720023666</v>
+        <v>6990.671467796657</v>
       </c>
       <c r="G109" t="n">
-        <v>99.2627651574701</v>
+        <v>100.2949656578776</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="I109" t="n">
-        <v>6230827</v>
+        <v>6234765</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22789106</v>
+        <v>22985266</v>
       </c>
       <c r="E110" t="n">
-        <v>29562684</v>
+        <v>29817148</v>
       </c>
       <c r="F110" t="n">
-        <v>19796.01852615746</v>
+        <v>18829.10622616144</v>
       </c>
       <c r="G110" t="n">
-        <v>13088.23562390116</v>
+        <v>9775.210964691285</v>
       </c>
       <c r="H110" t="n">
-        <v>0.27</v>
+        <v>0.65</v>
       </c>
       <c r="I110" t="n">
-        <v>161696</v>
+        <v>161688</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>655552</v>
+        <v>727617</v>
       </c>
       <c r="E111" t="n">
-        <v>655552</v>
+        <v>727617</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6944383973779906</v>
+        <v>32.72342199988259</v>
       </c>
       <c r="G111" t="n">
-        <v>4.133057189606339</v>
+        <v>508.0795137679429</v>
       </c>
       <c r="H111" t="n">
-        <v>0.61</v>
+        <v>2.2</v>
       </c>
       <c r="I111" t="n">
-        <v>82775</v>
+        <v>82491</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13849719</v>
+        <v>13813776</v>
       </c>
       <c r="E112" t="n">
-        <v>13849719</v>
+        <v>13813776</v>
       </c>
       <c r="F112" t="n">
-        <v>2048.493920265911</v>
+        <v>2195.639351409714</v>
       </c>
       <c r="G112" t="n">
-        <v>8358.806759019024</v>
+        <v>3098.681141804761</v>
       </c>
       <c r="H112" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I112" t="n">
-        <v>4864788</v>
+        <v>4872053</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99377667</v>
+        <v>99096353</v>
       </c>
       <c r="E113" t="n">
-        <v>122926618</v>
+        <v>122578642</v>
       </c>
       <c r="F113" t="n">
-        <v>505.57857178009</v>
+        <v>459.2721479786505</v>
       </c>
       <c r="G113" t="n">
-        <v>1337.11339740586</v>
+        <v>565.3799348825598</v>
       </c>
       <c r="H113" t="n">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="I113" t="n">
-        <v>824813</v>
+        <v>826434</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>852563</v>
+        <v>845101</v>
       </c>
       <c r="F114" t="n">
-        <v>130.0712456318149</v>
+        <v>187.3153628113332</v>
       </c>
       <c r="G114" t="n">
-        <v>86.13351936387031</v>
+        <v>176.5762457360665</v>
       </c>
       <c r="H114" t="n">
-        <v>0.85</v>
+        <v>0.53</v>
       </c>
       <c r="I114" t="n">
-        <v>25743</v>
+        <v>25838</v>
       </c>
     </row>
     <row r="115">
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2713113</v>
+        <v>2712213</v>
       </c>
       <c r="F115" t="n">
         <v>257.8594381607297</v>
@@ -4451,7 +4451,7 @@
         <v>1.75</v>
       </c>
       <c r="I115" t="n">
-        <v>82500</v>
+        <v>82550</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11426097</v>
+        <v>11354908</v>
       </c>
       <c r="E116" t="n">
-        <v>16803082</v>
+        <v>16698393</v>
       </c>
       <c r="F116" t="n">
-        <v>2650.158579696168</v>
+        <v>2489.392801498137</v>
       </c>
       <c r="G116" t="n">
-        <v>2067.188633172348</v>
+        <v>5293.493110113093</v>
       </c>
       <c r="H116" t="n">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="I116" t="n">
-        <v>590066</v>
+        <v>590392</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3171978</v>
+        <v>3126581</v>
       </c>
       <c r="F117" t="n">
-        <v>4.001817227116271</v>
+        <v>3.942863806683686</v>
       </c>
       <c r="G117" t="n">
-        <v>420.6462808451349</v>
+        <v>419.2206028261279</v>
       </c>
       <c r="H117" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I117" t="n">
-        <v>35620</v>
+        <v>36043</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1191708</v>
+        <v>1190564</v>
       </c>
       <c r="F118" t="n">
-        <v>4.014240957688107</v>
+        <v>4.014240881995079</v>
       </c>
       <c r="G118" t="n">
-        <v>21.96612981306773</v>
+        <v>21.96612939887165</v>
       </c>
       <c r="H118" t="n">
         <v>0.48</v>
       </c>
       <c r="I118" t="n">
-        <v>4856.52</v>
+        <v>4853.63</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5180835</v>
+        <v>5170870</v>
       </c>
       <c r="E119" t="n">
-        <v>7248739</v>
+        <v>7234797</v>
       </c>
       <c r="F119" t="n">
-        <v>760.0775279814965</v>
+        <v>1187.870020443398</v>
       </c>
       <c r="G119" t="n">
-        <v>731.634774466035</v>
+        <v>1728.433524916128</v>
       </c>
       <c r="H119" t="n">
-        <v>0.85</v>
+        <v>0.32</v>
       </c>
       <c r="I119" t="n">
-        <v>104012</v>
+        <v>103663</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10144923</v>
+        <v>10121955</v>
       </c>
       <c r="E120" t="n">
-        <v>27943757</v>
+        <v>27880491</v>
       </c>
       <c r="F120" t="n">
-        <v>14.14250298129182</v>
+        <v>14.10753090962989</v>
       </c>
       <c r="G120" t="n">
-        <v>469.305284120563</v>
+        <v>137.5937039332327</v>
       </c>
       <c r="H120" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="I120" t="n">
-        <v>332410</v>
+        <v>331284</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51540214</v>
+        <v>51554668</v>
       </c>
       <c r="E121" t="n">
-        <v>131301641</v>
+        <v>131338464</v>
       </c>
       <c r="F121" t="n">
-        <v>1147.313015177092</v>
+        <v>1224.599161995642</v>
       </c>
       <c r="G121" t="n">
-        <v>11639.42646515405</v>
+        <v>11535.89044174342</v>
       </c>
       <c r="H121" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I121" t="n">
-        <v>2422992</v>
+        <v>2422664</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14642588</v>
+        <v>14595024</v>
       </c>
       <c r="E122" t="n">
-        <v>70916389</v>
+        <v>70686029</v>
       </c>
       <c r="F122" t="n">
-        <v>2852.232100534148</v>
+        <v>2697.183785214303</v>
       </c>
       <c r="G122" t="n">
-        <v>3148.230247158671</v>
+        <v>3393.383391120171</v>
       </c>
       <c r="H122" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="I122" t="n">
-        <v>3809741</v>
+        <v>3803677</v>
       </c>
     </row>
     <row r="123">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>493730</v>
+        <v>493409</v>
       </c>
       <c r="F123" t="n">
         <v>5.531619555877851</v>
@@ -4731,7 +4731,7 @@
         <v>0.8</v>
       </c>
       <c r="I123" t="n">
-        <v>7710.73</v>
+        <v>7708.77</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4634122</v>
+        <v>4625682</v>
       </c>
       <c r="E124" t="n">
-        <v>10563275</v>
+        <v>10544037</v>
       </c>
       <c r="F124" t="n">
-        <v>558.2257155512508</v>
+        <v>558.230503001727</v>
       </c>
       <c r="G124" t="n">
-        <v>2254.245858329619</v>
+        <v>2254.26519117314</v>
       </c>
       <c r="H124" t="n">
         <v>1.41</v>
       </c>
       <c r="I124" t="n">
-        <v>86603</v>
+        <v>86645</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1928529577</v>
+        <v>1919861201</v>
       </c>
       <c r="F125" t="n">
-        <v>75884.56841154989</v>
+        <v>73054.34746872187</v>
       </c>
       <c r="G125" t="n">
-        <v>75536.66195562012</v>
+        <v>53554.62813078787</v>
       </c>
       <c r="H125" t="n">
         <v>0.05</v>
       </c>
       <c r="I125" t="n">
-        <v>27625700</v>
+        <v>27760599</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9562351</v>
+        <v>9547092</v>
       </c>
       <c r="E126" t="n">
-        <v>34801389</v>
+        <v>34745813</v>
       </c>
       <c r="F126" t="n">
-        <v>1141.289666660768</v>
+        <v>1141.294681656835</v>
       </c>
       <c r="G126" t="n">
-        <v>5.295028881308302</v>
+        <v>5.295052148450547</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>123946</v>
+        <v>123978</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>559435</v>
+        <v>559499</v>
       </c>
       <c r="F127" t="n">
-        <v>23.54740284275978</v>
+        <v>53.12648342002564</v>
       </c>
       <c r="G127" t="n">
-        <v>5.25521859275911</v>
+        <v>3.190060607295941</v>
       </c>
       <c r="H127" t="n">
-        <v>0.06</v>
+        <v>0.52</v>
       </c>
       <c r="I127" t="n">
-        <v>853.25</v>
+        <v>853.5700000000001</v>
       </c>
     </row>
     <row r="128">
@@ -4891,10 +4891,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12150294</v>
+        <v>12146912</v>
       </c>
       <c r="E128" t="n">
-        <v>17616173</v>
+        <v>17611270</v>
       </c>
       <c r="F128" t="n">
         <v>2983.817925614773</v>
@@ -4906,7 +4906,7 @@
         <v>0.43</v>
       </c>
       <c r="I128" t="n">
-        <v>2030786</v>
+        <v>2029551</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31813700</v>
+        <v>31783213</v>
       </c>
       <c r="E129" t="n">
-        <v>99057654</v>
+        <v>98962726</v>
       </c>
       <c r="F129" t="n">
-        <v>14495.53634375113</v>
+        <v>12716.16024017</v>
       </c>
       <c r="G129" t="n">
-        <v>18536.26359176411</v>
+        <v>20073.21599307735</v>
       </c>
       <c r="H129" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I129" t="n">
-        <v>11513271</v>
+        <v>11433062</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2068179</v>
+        <v>2072989</v>
       </c>
       <c r="E130" t="n">
-        <v>14830709</v>
+        <v>14865195</v>
       </c>
       <c r="F130" t="n">
-        <v>10.88404985299707</v>
+        <v>83.16898105479217</v>
       </c>
       <c r="G130" t="n">
-        <v>31.73614685141204</v>
+        <v>4.167452361976093</v>
       </c>
       <c r="H130" t="n">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="I130" t="n">
-        <v>1980262</v>
+        <v>1983537</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7470407</v>
+        <v>7470318</v>
       </c>
       <c r="F131" t="n">
-        <v>129.6345099332711</v>
+        <v>129.5391172082559</v>
       </c>
       <c r="G131" t="n">
-        <v>121.1307195376298</v>
+        <v>120.0843444989563</v>
       </c>
       <c r="H131" t="n">
         <v>0.79</v>
       </c>
       <c r="I131" t="n">
-        <v>513469</v>
+        <v>511592</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>205539632</v>
+        <v>205582629</v>
       </c>
       <c r="E132" t="n">
-        <v>1163891689</v>
+        <v>1164135166</v>
       </c>
       <c r="F132" t="n">
-        <v>500809.7554253178</v>
+        <v>477602.3098340975</v>
       </c>
       <c r="G132" t="n">
-        <v>536612.8342075318</v>
+        <v>496496.9918999852</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>66201552</v>
+        <v>66439188</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1037432</v>
+        <v>1034892</v>
       </c>
       <c r="E133" t="n">
-        <v>1037432</v>
+        <v>1034892</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5514.16</v>
+        <v>5539.51</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>501775</v>
+        <v>503567</v>
       </c>
       <c r="E134" t="n">
-        <v>1688904</v>
+        <v>1694935</v>
       </c>
       <c r="F134" t="n">
-        <v>113.2887466902102</v>
+        <v>113.2893511162842</v>
       </c>
       <c r="G134" t="n">
-        <v>273.0083729441944</v>
+        <v>246.3750006360211</v>
       </c>
       <c r="H134" t="n">
         <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>632329</v>
+        <v>632790</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>14156569</v>
+        <v>14135057</v>
       </c>
       <c r="F135" t="n">
-        <v>4.088640983966721</v>
+        <v>5.405596651131791</v>
       </c>
       <c r="G135" t="n">
-        <v>3.868502137361198</v>
+        <v>3.86850206441624</v>
       </c>
       <c r="H135" t="n">
         <v>0.35</v>
       </c>
       <c r="I135" t="n">
-        <v>142.78</v>
+        <v>142.77</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>143166021</v>
+        <v>142990463</v>
       </c>
       <c r="E136" t="n">
-        <v>1060489047</v>
+        <v>1059188615</v>
       </c>
       <c r="F136" t="n">
-        <v>32203.50688669295</v>
+        <v>32276.27877911921</v>
       </c>
       <c r="G136" t="n">
-        <v>32702.09228307201</v>
+        <v>32723.88779806587</v>
       </c>
       <c r="H136" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I136" t="n">
-        <v>8639971</v>
+        <v>8585186</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>32170813</v>
+        <v>32188501</v>
       </c>
       <c r="E137" t="n">
-        <v>152831980</v>
+        <v>152915212</v>
       </c>
       <c r="F137" t="n">
-        <v>10564.52626916591</v>
+        <v>10449.36943033722</v>
       </c>
       <c r="G137" t="n">
-        <v>10100.90048142339</v>
+        <v>9648.834696689244</v>
       </c>
       <c r="H137" t="n">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="I137" t="n">
-        <v>1132672</v>
+        <v>1130248</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>7993109</v>
+        <v>8188099</v>
       </c>
       <c r="E138" t="n">
-        <v>10708100</v>
+        <v>10969323</v>
       </c>
       <c r="F138" t="n">
-        <v>639.9291107849689</v>
+        <v>639.8144065278356</v>
       </c>
       <c r="G138" t="n">
-        <v>316.5761993111137</v>
+        <v>344.1371760455469</v>
       </c>
       <c r="H138" t="n">
         <v>0.6</v>
       </c>
       <c r="I138" t="n">
-        <v>37293</v>
+        <v>60051</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1253048</v>
+        <v>1251633</v>
       </c>
       <c r="F139" t="n">
-        <v>19.9150747156085</v>
+        <v>97.52095217000429</v>
       </c>
       <c r="G139" t="n">
-        <v>10.06559978760329</v>
+        <v>6.371826284754759</v>
       </c>
       <c r="H139" t="n">
         <v>0.85</v>
       </c>
       <c r="I139" t="n">
-        <v>21688</v>
+        <v>8581.120000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2374850</v>
+        <v>2352771</v>
       </c>
       <c r="E140" t="n">
-        <v>2374850</v>
+        <v>2352771</v>
       </c>
       <c r="F140" t="n">
-        <v>650.4506728809524</v>
+        <v>690.7294027064672</v>
       </c>
       <c r="G140" t="n">
-        <v>300.7768117514178</v>
+        <v>350.9278897943476</v>
       </c>
       <c r="H140" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I140" t="n">
-        <v>264152</v>
+        <v>264011</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26767245</v>
+        <v>26786544</v>
       </c>
       <c r="E141" t="n">
-        <v>26767245</v>
+        <v>26786544</v>
       </c>
       <c r="F141" t="n">
-        <v>875.4643437904965</v>
+        <v>864.7115127486916</v>
       </c>
       <c r="G141" t="n">
-        <v>1115.174524857413</v>
+        <v>810.1468318920216</v>
       </c>
       <c r="H141" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="I141" t="n">
-        <v>314973</v>
+        <v>314570</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6447443</v>
+        <v>6401128</v>
       </c>
       <c r="E142" t="n">
-        <v>6809222</v>
+        <v>6760308</v>
       </c>
       <c r="F142" t="n">
-        <v>1061.709779031844</v>
+        <v>1131.027527635382</v>
       </c>
       <c r="G142" t="n">
-        <v>185.863338990871</v>
+        <v>204.5064590788511</v>
       </c>
       <c r="H142" t="n">
-        <v>1.45</v>
+        <v>1.02</v>
       </c>
       <c r="I142" t="n">
-        <v>25995</v>
+        <v>25146</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3401380</v>
+        <v>3396323</v>
       </c>
       <c r="E143" t="n">
-        <v>7942789</v>
+        <v>7930980</v>
       </c>
       <c r="F143" t="n">
-        <v>1169.952096870495</v>
+        <v>1284.314070649706</v>
       </c>
       <c r="G143" t="n">
-        <v>907.875782009034</v>
+        <v>1036.045995037993</v>
       </c>
       <c r="H143" t="n">
-        <v>0.06</v>
+        <v>1.14</v>
       </c>
       <c r="I143" t="n">
-        <v>624666</v>
+        <v>623944</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1565653</v>
+        <v>1564422</v>
       </c>
       <c r="E144" t="n">
-        <v>12159043</v>
+        <v>12149481</v>
       </c>
       <c r="F144" t="n">
-        <v>100.5295549087287</v>
+        <v>200.0157079136396</v>
       </c>
       <c r="G144" t="n">
-        <v>1367.90059546935</v>
+        <v>617.9251562124356</v>
       </c>
       <c r="H144" t="n">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="I144" t="n">
-        <v>516902</v>
+        <v>516302</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>347056848</v>
+        <v>344882920</v>
       </c>
       <c r="E145" t="n">
-        <v>3122338611</v>
+        <v>3102780603</v>
       </c>
       <c r="F145" t="n">
-        <v>590139.7841094307</v>
+        <v>564472.9482425001</v>
       </c>
       <c r="G145" t="n">
-        <v>647974.0147154969</v>
+        <v>676079.324126155</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>39563652</v>
+        <v>40087169</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>250561</v>
+        <v>247647</v>
       </c>
       <c r="E146" t="n">
-        <v>2211385</v>
+        <v>2185671</v>
       </c>
       <c r="F146" t="n">
-        <v>113.8451187905494</v>
+        <v>146.5892553305166</v>
       </c>
       <c r="G146" t="n">
-        <v>5.623365130740221</v>
+        <v>4.253080243993856</v>
       </c>
       <c r="H146" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="I146" t="n">
-        <v>90784</v>
+        <v>92234</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>646495</v>
+        <v>646213</v>
       </c>
       <c r="F147" t="n">
-        <v>541.3972110652484</v>
+        <v>541.3972008565951</v>
       </c>
       <c r="G147" t="n">
-        <v>744.7274474967332</v>
+        <v>965.8767715862431</v>
       </c>
       <c r="H147" t="n">
         <v>0.67</v>
       </c>
       <c r="I147" t="n">
-        <v>3580.98</v>
+        <v>3530.01</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4900406</v>
+        <v>4926179</v>
       </c>
       <c r="E148" t="n">
-        <v>17315415</v>
+        <v>17406481</v>
       </c>
       <c r="F148" t="n">
-        <v>2383.393890268723</v>
+        <v>1593.03144503561</v>
       </c>
       <c r="G148" t="n">
-        <v>2422.324422740818</v>
+        <v>2147.990488163524</v>
       </c>
       <c r="H148" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I148" t="n">
-        <v>91223</v>
+        <v>96698</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9290014</v>
+        <v>9294012</v>
       </c>
       <c r="E149" t="n">
-        <v>43059750</v>
+        <v>43078277</v>
       </c>
       <c r="F149" t="n">
-        <v>1759.746450874323</v>
+        <v>1713.490970299757</v>
       </c>
       <c r="G149" t="n">
-        <v>3578.612878023303</v>
+        <v>3545.176600883318</v>
       </c>
       <c r="H149" t="n">
         <v>0.42</v>
       </c>
       <c r="I149" t="n">
-        <v>129766</v>
+        <v>129870</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>50152718</v>
+        <v>50010689</v>
       </c>
       <c r="E150" t="n">
-        <v>290363513</v>
+        <v>289541226</v>
       </c>
       <c r="F150" t="n">
-        <v>61875.61459407767</v>
+        <v>50067.43455914505</v>
       </c>
       <c r="G150" t="n">
-        <v>69367.46793633192</v>
+        <v>58723.89522825108</v>
       </c>
       <c r="H150" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I150" t="n">
-        <v>31853135</v>
+        <v>32430215</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>84624</v>
+        <v>84563</v>
       </c>
       <c r="E151" t="n">
-        <v>84624</v>
+        <v>84563</v>
       </c>
       <c r="F151" t="n">
-        <v>4.017119685843216</v>
+        <v>4.017164109905051</v>
       </c>
       <c r="G151" t="n">
-        <v>5.426698090482443</v>
+        <v>5.426758102628055</v>
       </c>
       <c r="H151" t="n">
         <v>0.72</v>
       </c>
       <c r="I151" t="n">
-        <v>22688</v>
+        <v>22694</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4360438</v>
+        <v>4347419</v>
       </c>
       <c r="F152" t="n">
-        <v>257.9659314647466</v>
+        <v>205.434648982371</v>
       </c>
       <c r="G152" t="n">
-        <v>245.0014754762837</v>
+        <v>266.0737308508036</v>
       </c>
       <c r="H152" t="n">
         <v>0.35</v>
       </c>
       <c r="I152" t="n">
-        <v>311047</v>
+        <v>309148</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39676564</v>
+        <v>39668290</v>
       </c>
       <c r="E153" t="n">
-        <v>54798985</v>
+        <v>54787557</v>
       </c>
       <c r="F153" t="n">
-        <v>10754.76856813666</v>
+        <v>10807.78304489676</v>
       </c>
       <c r="G153" t="n">
-        <v>5448.011319016954</v>
+        <v>6561.773189576128</v>
       </c>
       <c r="H153" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="I153" t="n">
-        <v>338594</v>
+        <v>338799</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2091799</v>
+        <v>2089863</v>
       </c>
       <c r="E154" t="n">
-        <v>8542364</v>
+        <v>8534458</v>
       </c>
       <c r="F154" t="n">
-        <v>448.2641986745321</v>
+        <v>387.1683325558856</v>
       </c>
       <c r="G154" t="n">
-        <v>539.8829437304614</v>
+        <v>512.9356639615806</v>
       </c>
       <c r="H154" t="n">
         <v>0.11</v>
       </c>
       <c r="I154" t="n">
-        <v>567671</v>
+        <v>563468</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7472338</v>
+        <v>7497701</v>
       </c>
       <c r="E155" t="n">
-        <v>7527882</v>
+        <v>7553434</v>
       </c>
       <c r="F155" t="n">
-        <v>564.7690405092965</v>
+        <v>526.9311431349852</v>
       </c>
       <c r="G155" t="n">
-        <v>6964.140101058589</v>
+        <v>7495.101043139455</v>
       </c>
       <c r="H155" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="I155" t="n">
-        <v>4971126</v>
+        <v>4979554</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>474698</v>
+        <v>484139</v>
       </c>
       <c r="E156" t="n">
-        <v>474698</v>
+        <v>484139</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>18.57</v>
       </c>
       <c r="I156" t="n">
-        <v>9435.030000000001</v>
+        <v>11928.12</v>
       </c>
     </row>
     <row r="157">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13620424</v>
+        <v>13597064</v>
       </c>
       <c r="E157" t="n">
-        <v>13666775</v>
+        <v>13643336</v>
       </c>
       <c r="F157" t="n">
         <v>1789.018298419907</v>
@@ -5919,7 +5919,7 @@
         <v>0.26</v>
       </c>
       <c r="I157" t="n">
-        <v>5892536</v>
+        <v>5893795</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42768720</v>
+        <v>42759901</v>
       </c>
       <c r="E158" t="n">
-        <v>72611337</v>
+        <v>72596365</v>
       </c>
       <c r="F158" t="n">
-        <v>242.9642322355567</v>
+        <v>291.3578995506047</v>
       </c>
       <c r="G158" t="n">
-        <v>446.1168433613787</v>
+        <v>367.7131861243371</v>
       </c>
       <c r="H158" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I158" t="n">
-        <v>1071695</v>
+        <v>1070649</v>
       </c>
     </row>
     <row r="159">
@@ -5974,10 +5974,10 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>22706934</v>
+        <v>22748213</v>
       </c>
       <c r="E159" t="n">
-        <v>68064947</v>
+        <v>68188682</v>
       </c>
       <c r="F159" t="n">
         <v>19353.71408368956</v>
@@ -5989,7 +5989,7 @@
         <v>0.3</v>
       </c>
       <c r="I159" t="n">
-        <v>3356255</v>
+        <v>3366471</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101322175</v>
+        <v>101337381</v>
       </c>
       <c r="E160" t="n">
-        <v>107714629</v>
+        <v>107730795</v>
       </c>
       <c r="F160" t="n">
-        <v>764.4956225276661</v>
+        <v>1240.374304628588</v>
       </c>
       <c r="G160" t="n">
-        <v>1195.753535058024</v>
+        <v>1299.33815922552</v>
       </c>
       <c r="H160" t="n">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="I160" t="n">
-        <v>378641</v>
+        <v>835413</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10380799</v>
+        <v>10377513</v>
       </c>
       <c r="E161" t="n">
-        <v>45093613</v>
+        <v>45084150</v>
       </c>
       <c r="F161" t="n">
-        <v>4090.817123925474</v>
+        <v>4095.361410172511</v>
       </c>
       <c r="G161" t="n">
-        <v>2666.973575330597</v>
+        <v>2660.861134214842</v>
       </c>
       <c r="H161" t="n">
         <v>0.55</v>
       </c>
       <c r="I161" t="n">
-        <v>116169</v>
+        <v>116283</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15724816</v>
+        <v>15709878</v>
       </c>
       <c r="E162" t="n">
-        <v>96382569</v>
+        <v>96291010</v>
       </c>
       <c r="F162" t="n">
-        <v>1820.472866478487</v>
+        <v>1688.430075212636</v>
       </c>
       <c r="G162" t="n">
-        <v>1197.739922312805</v>
+        <v>2360.216452604076</v>
       </c>
       <c r="H162" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I162" t="n">
-        <v>10326429</v>
+        <v>10228486</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1512279</v>
+        <v>1508758</v>
       </c>
       <c r="E163" t="n">
-        <v>1554818</v>
+        <v>1551198</v>
       </c>
       <c r="F163" t="n">
-        <v>95.08379345962271</v>
+        <v>71.97200319757188</v>
       </c>
       <c r="G163" t="n">
-        <v>59.58586198065804</v>
+        <v>59.5858608738446</v>
       </c>
       <c r="H163" t="n">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="I163" t="n">
-        <v>146015</v>
+        <v>146718</v>
       </c>
     </row>
     <row r="164">
@@ -6145,16 +6145,16 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>96282</v>
+        <v>96237</v>
       </c>
       <c r="E164" t="n">
-        <v>273129</v>
+        <v>273002</v>
       </c>
       <c r="F164" t="n">
-        <v>4.01407048593741</v>
+        <v>4.014104911373437</v>
       </c>
       <c r="G164" t="n">
-        <v>87.17769125721362</v>
+        <v>87.17843890976329</v>
       </c>
       <c r="H164" t="n">
         <v>0.44</v>
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>48078152</v>
+        <v>47781173</v>
       </c>
       <c r="E165" t="n">
-        <v>207115421</v>
+        <v>205836067</v>
       </c>
       <c r="F165" t="n">
-        <v>8878.757567957393</v>
+        <v>8553.805405288827</v>
       </c>
       <c r="G165" t="n">
-        <v>3231.989122620243</v>
+        <v>3105.078332156459</v>
       </c>
       <c r="H165" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I165" t="n">
-        <v>8807739</v>
+        <v>8824284</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7755999</v>
+        <v>7765245</v>
       </c>
       <c r="F166" t="n">
-        <v>71.56542574389383</v>
+        <v>71.56580756477705</v>
       </c>
       <c r="G166" t="n">
-        <v>570.4935088762638</v>
+        <v>564.3101561772319</v>
       </c>
       <c r="H166" t="n">
         <v>0.3</v>
       </c>
       <c r="I166" t="n">
-        <v>6618017</v>
+        <v>6642693</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>672107</v>
+        <v>673310</v>
       </c>
       <c r="E167" t="n">
-        <v>2426673</v>
+        <v>2431014</v>
       </c>
       <c r="F167" t="n">
-        <v>50.56562817709045</v>
+        <v>50.56613147271568</v>
       </c>
       <c r="G167" t="n">
-        <v>10.80897151533119</v>
+        <v>10.80907910042947</v>
       </c>
       <c r="H167" t="n">
         <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>336508</v>
+        <v>337127</v>
       </c>
     </row>
     <row r="168">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1603416</v>
+        <v>1601324</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>5.21</v>
+        <v>4.75</v>
       </c>
       <c r="I168" t="n">
-        <v>79725</v>
+        <v>78959</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13256372</v>
+        <v>13218614</v>
       </c>
       <c r="E169" t="n">
-        <v>13256372</v>
+        <v>13218614</v>
       </c>
       <c r="F169" t="n">
-        <v>323.2603282523062</v>
+        <v>328.8838834479594</v>
       </c>
       <c r="G169" t="n">
-        <v>43.38841650472803</v>
+        <v>76.01452312130868</v>
       </c>
       <c r="H169" t="n">
-        <v>3.12</v>
+        <v>3.43</v>
       </c>
       <c r="I169" t="n">
-        <v>3709932</v>
+        <v>3756510</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1920867</v>
+        <v>1917275</v>
       </c>
       <c r="E170" t="n">
-        <v>6977702</v>
+        <v>6964592</v>
       </c>
       <c r="F170" t="n">
-        <v>155.032523965327</v>
+        <v>147.5975813919818</v>
       </c>
       <c r="G170" t="n">
-        <v>246.6054957264516</v>
+        <v>260.6108334722573</v>
       </c>
       <c r="H170" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I170" t="n">
-        <v>141003</v>
+        <v>141131</v>
       </c>
     </row>
     <row r="171">
@@ -6390,10 +6390,10 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8794558</v>
+        <v>8770162</v>
       </c>
       <c r="E171" t="n">
-        <v>19528593</v>
+        <v>19474421</v>
       </c>
       <c r="F171" t="n">
         <v>1692.065442991416</v>
@@ -6405,7 +6405,7 @@
         <v>0.58</v>
       </c>
       <c r="I171" t="n">
-        <v>337962</v>
+        <v>338746</v>
       </c>
     </row>
     <row r="172">
@@ -6425,10 +6425,10 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1044041</v>
+        <v>1040140</v>
       </c>
       <c r="E172" t="n">
-        <v>3051551</v>
+        <v>3040148</v>
       </c>
       <c r="F172" t="n">
         <v>98.04569176228912</v>
@@ -6440,7 +6440,7 @@
         <v>0.36</v>
       </c>
       <c r="I172" t="n">
-        <v>18920.07</v>
+        <v>18900.02</v>
       </c>
     </row>
     <row r="173">
@@ -6460,10 +6460,10 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>21007736</v>
+        <v>20992737</v>
       </c>
       <c r="E173" t="n">
-        <v>84030944</v>
+        <v>83970948</v>
       </c>
       <c r="F173" t="n">
         <v>25324.49779805262</v>
@@ -6475,7 +6475,7 @@
         <v>0.01</v>
       </c>
       <c r="I173" t="n">
-        <v>3075220</v>
+        <v>2596166</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4594312</v>
+        <v>4480684</v>
       </c>
       <c r="E174" t="n">
-        <v>4594312</v>
+        <v>4480684</v>
       </c>
       <c r="F174" t="n">
-        <v>454.047141035242</v>
+        <v>1106.97498749648</v>
       </c>
       <c r="G174" t="n">
-        <v>206.0416331530029</v>
+        <v>403.2648615713867</v>
       </c>
       <c r="H174" t="n">
-        <v>1.18</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I174" t="n">
-        <v>2856270</v>
+        <v>1830810</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>314396678</v>
+        <v>311922498</v>
       </c>
       <c r="E175" t="n">
-        <v>314396678</v>
+        <v>311922498</v>
       </c>
       <c r="F175" t="n">
-        <v>9462.663125312449</v>
+        <v>1620.476975817705</v>
       </c>
       <c r="G175" t="n">
-        <v>7676.099881357493</v>
+        <v>3598.999549942021</v>
       </c>
       <c r="H175" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I175" t="n">
-        <v>15024675</v>
+        <v>15040676</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12755649</v>
+        <v>12754622</v>
       </c>
       <c r="E176" t="n">
-        <v>40354261</v>
+        <v>40351013</v>
       </c>
       <c r="F176" t="n">
-        <v>3869.577424851407</v>
+        <v>3025.901479630052</v>
       </c>
       <c r="G176" t="n">
-        <v>3482.502044429812</v>
+        <v>3229.124912642841</v>
       </c>
       <c r="H176" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="I176" t="n">
-        <v>1066341</v>
+        <v>1034877</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24739</v>
+        <v>24609</v>
       </c>
       <c r="E177" t="n">
-        <v>194568</v>
+        <v>193546</v>
       </c>
       <c r="F177" t="n">
-        <v>67.64270435843149</v>
+        <v>497.7438388857904</v>
       </c>
       <c r="G177" t="n">
-        <v>349.1152698578206</v>
+        <v>338.7220299616154</v>
       </c>
       <c r="H177" t="n">
         <v>0.51</v>
       </c>
       <c r="I177" t="n">
-        <v>80015</v>
+        <v>75296</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8412839</v>
+        <v>8390361</v>
       </c>
       <c r="E178" t="n">
-        <v>8412839</v>
+        <v>8390361</v>
       </c>
       <c r="F178" t="n">
-        <v>957.0694551692101</v>
+        <v>1901.539126410963</v>
       </c>
       <c r="G178" t="n">
-        <v>1428.989336920576</v>
+        <v>2017.06912355491</v>
       </c>
       <c r="H178" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I178" t="n">
-        <v>3733540</v>
+        <v>3730647</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1083104</v>
+        <v>1083516</v>
       </c>
       <c r="E179" t="n">
-        <v>2466875</v>
+        <v>2467814</v>
       </c>
       <c r="F179" t="n">
-        <v>5.390649172554971</v>
+        <v>5.390677933124852</v>
       </c>
       <c r="G179" t="n">
-        <v>5.451670849523115</v>
+        <v>5.45169993566013</v>
       </c>
       <c r="H179" t="n">
         <v>0.45</v>
       </c>
       <c r="I179" t="n">
-        <v>2420.85</v>
+        <v>2423.93</v>
       </c>
     </row>
     <row r="180">
@@ -6705,10 +6705,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9305574</v>
+        <v>9276895</v>
       </c>
       <c r="E180" t="n">
-        <v>9305574</v>
+        <v>9276895</v>
       </c>
       <c r="F180" t="n">
         <v>4048.434005273247</v>
@@ -6720,7 +6720,7 @@
         <v>0.25</v>
       </c>
       <c r="I180" t="n">
-        <v>3009187</v>
+        <v>3005884</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18458424</v>
+        <v>18448965</v>
       </c>
       <c r="E181" t="n">
-        <v>18458424</v>
+        <v>18448965</v>
       </c>
       <c r="F181" t="n">
-        <v>1348.804086866986</v>
+        <v>612.453624855855</v>
       </c>
       <c r="G181" t="n">
-        <v>8840.324842437536</v>
+        <v>7648.712791485969</v>
       </c>
       <c r="H181" t="n">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="I181" t="n">
-        <v>3783622</v>
+        <v>3650160</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>32121594</v>
+        <v>32045200</v>
       </c>
       <c r="E182" t="n">
-        <v>88973627</v>
+        <v>88762023</v>
       </c>
       <c r="F182" t="n">
-        <v>5667.663610063971</v>
+        <v>4858.569097763428</v>
       </c>
       <c r="G182" t="n">
-        <v>5541.254435045784</v>
+        <v>6031.996487364838</v>
       </c>
       <c r="H182" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I182" t="n">
-        <v>12037482</v>
+        <v>12040457</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>38146443</v>
+        <v>38098249</v>
       </c>
       <c r="E183" t="n">
-        <v>96187017</v>
+        <v>96065493</v>
       </c>
       <c r="F183" t="n">
-        <v>12177.25377054756</v>
+        <v>15676.51812291586</v>
       </c>
       <c r="G183" t="n">
-        <v>4950.852746565501</v>
+        <v>6843.424727706706</v>
       </c>
       <c r="H183" t="n">
         <v>0.57</v>
       </c>
       <c r="I183" t="n">
-        <v>3420747</v>
+        <v>3424754</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>314806333</v>
+        <v>313132742</v>
       </c>
       <c r="E184" t="n">
-        <v>319720801</v>
+        <v>318019512</v>
       </c>
       <c r="F184" t="n">
-        <v>21176.50541814255</v>
+        <v>23474.72638518774</v>
       </c>
       <c r="G184" t="n">
-        <v>19518.70255078274</v>
+        <v>22396.34313847532</v>
       </c>
       <c r="H184" t="n">
         <v>0.01</v>
       </c>
       <c r="I184" t="n">
-        <v>15416145</v>
+        <v>15521823</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>412553</v>
+        <v>410958</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>15.99469143786831</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>351.8748414080453</v>
       </c>
       <c r="H185" t="n">
-        <v>6.56</v>
+        <v>1.93</v>
       </c>
       <c r="I185" t="n">
-        <v>69185</v>
+        <v>68743</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28354574</v>
+        <v>28332630</v>
       </c>
       <c r="E186" t="n">
-        <v>67363419</v>
+        <v>67311285</v>
       </c>
       <c r="F186" t="n">
-        <v>9760.989061985079</v>
+        <v>10866.77598783106</v>
       </c>
       <c r="G186" t="n">
-        <v>10476.63601217945</v>
+        <v>6673.487734607862</v>
       </c>
       <c r="H186" t="n">
         <v>0.06</v>
       </c>
       <c r="I186" t="n">
-        <v>401722</v>
+        <v>401677</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>20142031</v>
+        <v>20145081</v>
       </c>
       <c r="F187" t="n">
-        <v>4.082570897763261</v>
+        <v>4.082592679382104</v>
       </c>
       <c r="G187" t="n">
-        <v>467.2371928430578</v>
+        <v>361.9272743356938</v>
       </c>
       <c r="H187" t="n">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="I187" t="n">
-        <v>1575.46</v>
+        <v>1577.09</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12714151</v>
+        <v>12710755</v>
       </c>
       <c r="E188" t="n">
-        <v>19353805</v>
+        <v>19348636</v>
       </c>
       <c r="F188" t="n">
-        <v>3737.298925427216</v>
+        <v>3673.416256623811</v>
       </c>
       <c r="G188" t="n">
-        <v>2719.920051282789</v>
+        <v>2884.797759491777</v>
       </c>
       <c r="H188" t="n">
         <v>0.68</v>
       </c>
       <c r="I188" t="n">
-        <v>777376</v>
+        <v>771928</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>86230023</v>
+        <v>86479801</v>
       </c>
       <c r="E189" t="n">
-        <v>86230023</v>
+        <v>86479801</v>
       </c>
       <c r="F189" t="n">
-        <v>6595.528467165198</v>
+        <v>2875.036607680124</v>
       </c>
       <c r="G189" t="n">
-        <v>10242.18457222709</v>
+        <v>6255.145884038398</v>
       </c>
       <c r="H189" t="n">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I189" t="n">
-        <v>5230985</v>
+        <v>5000246</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>297488647</v>
+        <v>296574320</v>
       </c>
       <c r="E190" t="n">
-        <v>297488647</v>
+        <v>296574320</v>
       </c>
       <c r="F190" t="n">
-        <v>169979.4907564734</v>
+        <v>190795.3699952064</v>
       </c>
       <c r="G190" t="n">
-        <v>284942.064479143</v>
+        <v>239119.8674136868</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>76060192</v>
+        <v>76948653</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10269816</v>
+        <v>10186742</v>
       </c>
       <c r="E191" t="n">
-        <v>29157721</v>
+        <v>28921860</v>
       </c>
       <c r="F191" t="n">
-        <v>1678.471217597636</v>
+        <v>1563.719305685477</v>
       </c>
       <c r="G191" t="n">
-        <v>9056.394085349204</v>
+        <v>8931.209786919882</v>
       </c>
       <c r="H191" t="n">
         <v>1.02</v>
       </c>
       <c r="I191" t="n">
-        <v>129829</v>
+        <v>128966</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4229663</v>
+        <v>4224087</v>
       </c>
       <c r="E192" t="n">
-        <v>28900991</v>
+        <v>28862887</v>
       </c>
       <c r="F192" t="n">
-        <v>1237.505486986549</v>
+        <v>4025.517245479386</v>
       </c>
       <c r="G192" t="n">
-        <v>2494.582959224755</v>
+        <v>5702.515111350732</v>
       </c>
       <c r="H192" t="n">
-        <v>1.4</v>
+        <v>0.96</v>
       </c>
       <c r="I192" t="n">
-        <v>2656208</v>
+        <v>2648412</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3013000</v>
+        <v>3010832</v>
       </c>
       <c r="E193" t="n">
-        <v>4466337</v>
+        <v>4462860</v>
       </c>
       <c r="F193" t="n">
-        <v>483.3438402077833</v>
+        <v>290.4226275354628</v>
       </c>
       <c r="G193" t="n">
-        <v>177.1083413632856</v>
+        <v>407.3196668105811</v>
       </c>
       <c r="H193" t="n">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="I193" t="n">
-        <v>223996</v>
+        <v>224313</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>91842631</v>
+        <v>91307855</v>
       </c>
       <c r="E194" t="n">
-        <v>529236852</v>
+        <v>526155241</v>
       </c>
       <c r="F194" t="n">
-        <v>460060.6714922645</v>
+        <v>410853.5431757562</v>
       </c>
       <c r="G194" t="n">
-        <v>437527.6039003225</v>
+        <v>396089.5198626025</v>
       </c>
       <c r="H194" t="n">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="I194" t="n">
-        <v>16878455</v>
+        <v>16877185</v>
       </c>
     </row>
     <row r="195">
@@ -7230,10 +7230,10 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>690685</v>
+        <v>698049</v>
       </c>
       <c r="E195" t="n">
-        <v>753256</v>
+        <v>761287</v>
       </c>
       <c r="F195" t="n">
         <v>5.593929771922244</v>
@@ -7245,7 +7245,7 @@
         <v>0.54</v>
       </c>
       <c r="I195" t="n">
-        <v>122654</v>
+        <v>122583</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>108905952</v>
+        <v>108939123</v>
       </c>
       <c r="E196" t="n">
-        <v>267951190</v>
+        <v>268032806</v>
       </c>
       <c r="F196" t="n">
-        <v>38862.45255332104</v>
+        <v>32328.3161889361</v>
       </c>
       <c r="G196" t="n">
-        <v>41581.52146052303</v>
+        <v>57513.17333809612</v>
       </c>
       <c r="H196" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I196" t="n">
-        <v>2066543</v>
+        <v>2165632</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>19692654</v>
+        <v>19686155</v>
       </c>
       <c r="E197" t="n">
-        <v>19692654</v>
+        <v>19686155</v>
       </c>
       <c r="F197" t="n">
-        <v>5.508651715514249</v>
+        <v>5.508652282228129</v>
       </c>
       <c r="G197" t="n">
-        <v>4.016692859813467</v>
+        <v>4.01669327303901</v>
       </c>
       <c r="H197" t="n">
         <v>0.8</v>
       </c>
       <c r="I197" t="n">
-        <v>121766</v>
+        <v>121275</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1338205</v>
+        <v>1338188</v>
       </c>
       <c r="F198" t="n">
-        <v>18.69919108690482</v>
+        <v>18.69937720584388</v>
       </c>
       <c r="G198" t="n">
-        <v>13.86787469334835</v>
+        <v>13.8680127246735</v>
       </c>
       <c r="H198" t="n">
         <v>0.3</v>
       </c>
       <c r="I198" t="n">
-        <v>3675.19</v>
+        <v>4064.86</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>147051</v>
+        <v>145968</v>
       </c>
       <c r="E199" t="n">
-        <v>320128</v>
+        <v>317769</v>
       </c>
       <c r="F199" t="n">
-        <v>5.272814389577547</v>
+        <v>5.272859610241979</v>
       </c>
       <c r="G199" t="n">
-        <v>3.749663308946425</v>
+        <v>3.749695466775944</v>
       </c>
       <c r="H199" t="n">
         <v>0.36</v>
       </c>
       <c r="I199" t="n">
-        <v>52156</v>
+        <v>52122</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2609508</v>
+        <v>2582188</v>
       </c>
       <c r="F200" t="n">
-        <v>157.2109175227727</v>
+        <v>196.2690632037091</v>
       </c>
       <c r="G200" t="n">
-        <v>26.47803585549322</v>
+        <v>151.7886588862095</v>
       </c>
       <c r="H200" t="n">
-        <v>2.65</v>
+        <v>1.9</v>
       </c>
       <c r="I200" t="n">
-        <v>424137</v>
+        <v>423584</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>184817</v>
+        <v>184325</v>
       </c>
       <c r="E201" t="n">
-        <v>1427158</v>
+        <v>1423360</v>
       </c>
       <c r="F201" t="n">
-        <v>4.0889470081132</v>
+        <v>123.8467871883412</v>
       </c>
       <c r="G201" t="n">
-        <v>3.93230115294893</v>
+        <v>3.932323547006626</v>
       </c>
       <c r="H201" t="n">
         <v>0.82</v>
       </c>
       <c r="I201" t="n">
-        <v>116188</v>
+        <v>105543</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30932426</v>
+        <v>30809902</v>
       </c>
       <c r="E202" t="n">
-        <v>138497161</v>
+        <v>137948571</v>
       </c>
       <c r="F202" t="n">
-        <v>8915.884995466764</v>
+        <v>10454.66108814287</v>
       </c>
       <c r="G202" t="n">
-        <v>15601.50891220121</v>
+        <v>10624.58281033171</v>
       </c>
       <c r="H202" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I202" t="n">
-        <v>8568042</v>
+        <v>8588577</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13025983</v>
+        <v>13021964</v>
       </c>
       <c r="E203" t="n">
-        <v>26040593</v>
+        <v>26032558</v>
       </c>
       <c r="F203" t="n">
-        <v>679.8385810807648</v>
+        <v>703.7677119774453</v>
       </c>
       <c r="G203" t="n">
-        <v>716.3462142517483</v>
+        <v>715.7623301599444</v>
       </c>
       <c r="H203" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I203" t="n">
-        <v>33101</v>
+        <v>30480</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1526418</v>
+        <v>1523981</v>
       </c>
       <c r="F204" t="n">
-        <v>54.36381680879086</v>
+        <v>139.0230680423979</v>
       </c>
       <c r="G204" t="n">
-        <v>194.7929569860694</v>
+        <v>168.8702302038027</v>
       </c>
       <c r="H204" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="I204" t="n">
-        <v>53904</v>
+        <v>53821</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>979185</v>
+        <v>978184</v>
       </c>
       <c r="E205" t="n">
-        <v>4528870</v>
+        <v>4524238</v>
       </c>
       <c r="F205" t="n">
-        <v>2778.370176248713</v>
+        <v>3899.373629188136</v>
       </c>
       <c r="G205" t="n">
-        <v>3140.871609732148</v>
+        <v>3144.32794394791</v>
       </c>
       <c r="H205" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="I205" t="n">
-        <v>492032</v>
+        <v>493166</v>
       </c>
     </row>
     <row r="206">
@@ -7615,10 +7615,10 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3135802</v>
+        <v>3132651</v>
       </c>
       <c r="E206" t="n">
-        <v>3135802</v>
+        <v>3132651</v>
       </c>
       <c r="F206" t="n">
         <v>1307.352490231132</v>
@@ -7630,7 +7630,7 @@
         <v>0.26</v>
       </c>
       <c r="I206" t="n">
-        <v>422516</v>
+        <v>421101</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>560336</v>
+        <v>559567</v>
       </c>
       <c r="E207" t="n">
-        <v>560336</v>
+        <v>559567</v>
       </c>
       <c r="F207" t="n">
-        <v>5.144569363322139</v>
+        <v>5.144598661465318</v>
       </c>
       <c r="G207" t="n">
-        <v>627.306357071429</v>
+        <v>624.5003786651749</v>
       </c>
       <c r="H207" t="n">
         <v>0.71</v>
       </c>
       <c r="I207" t="n">
-        <v>45049</v>
+        <v>26300</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>15692025</v>
+        <v>15482193</v>
       </c>
       <c r="E208" t="n">
-        <v>19978452</v>
+        <v>19711303</v>
       </c>
       <c r="F208" t="n">
-        <v>144.2498323390085</v>
+        <v>133.91036294445</v>
       </c>
       <c r="G208" t="n">
-        <v>152.5750859578665</v>
+        <v>166.3459976772209</v>
       </c>
       <c r="H208" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I208" t="n">
-        <v>930733</v>
+        <v>931838</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1777795</v>
+        <v>1777648</v>
       </c>
       <c r="E209" t="n">
-        <v>1777795</v>
+        <v>1777648</v>
       </c>
       <c r="F209" t="n">
-        <v>28.7638607431723</v>
+        <v>28.86265349109352</v>
       </c>
       <c r="G209" t="n">
-        <v>20.31700186931601</v>
+        <v>20.31709114523557</v>
       </c>
       <c r="H209" t="n">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="I209" t="n">
-        <v>4237.88</v>
+        <v>4238.29</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5956714</v>
+        <v>5778936</v>
       </c>
       <c r="E210" t="n">
-        <v>15633405</v>
+        <v>15166826</v>
       </c>
       <c r="F210" t="n">
-        <v>1157.535117175732</v>
+        <v>497.8359793881514</v>
       </c>
       <c r="G210" t="n">
-        <v>130.9390308639399</v>
+        <v>179.7252344859133</v>
       </c>
       <c r="H210" t="n">
-        <v>0.36</v>
+        <v>2.26</v>
       </c>
       <c r="I210" t="n">
-        <v>22154</v>
+        <v>25956</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29748061</v>
+        <v>29725698</v>
       </c>
       <c r="F211" t="n">
-        <v>1774.981650020058</v>
+        <v>1775.653328103175</v>
       </c>
       <c r="G211" t="n">
-        <v>1748.377216755597</v>
+        <v>1749.420261265539</v>
       </c>
       <c r="H211" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I211" t="n">
-        <v>363427</v>
+        <v>363808</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17977948</v>
+        <v>17972523</v>
       </c>
       <c r="E212" t="n">
-        <v>17977948</v>
+        <v>17972523</v>
       </c>
       <c r="F212" t="n">
-        <v>13830.25374006725</v>
+        <v>29350.8089833641</v>
       </c>
       <c r="G212" t="n">
-        <v>29474.13209605468</v>
+        <v>34511.44640169771</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2937286</v>
+        <v>2989311</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>50296732</v>
+        <v>50202590</v>
       </c>
       <c r="E213" t="n">
-        <v>326160922</v>
+        <v>325550436</v>
       </c>
       <c r="F213" t="n">
-        <v>79895.37766957466</v>
+        <v>80172.18859638384</v>
       </c>
       <c r="G213" t="n">
-        <v>190376.0083932473</v>
+        <v>143639.5996950734</v>
       </c>
       <c r="H213" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I213" t="n">
-        <v>16766966</v>
+        <v>16786113</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9083982</v>
+        <v>9085007</v>
       </c>
       <c r="F214" t="n">
-        <v>139.523698829294</v>
+        <v>139.5244934118948</v>
       </c>
       <c r="G214" t="n">
-        <v>5.389206160579339</v>
+        <v>5.38923685192055</v>
       </c>
       <c r="H214" t="n">
         <v>0.22</v>
       </c>
       <c r="I214" t="n">
-        <v>303387</v>
+        <v>301140</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7078613</v>
+        <v>7063076</v>
       </c>
       <c r="E215" t="n">
-        <v>7088607</v>
+        <v>7073048</v>
       </c>
       <c r="F215" t="n">
-        <v>4.000728282684467</v>
+        <v>77.58194886539364</v>
       </c>
       <c r="G215" t="n">
-        <v>2605.325485647289</v>
+        <v>23.55451929514576</v>
       </c>
       <c r="H215" t="n">
-        <v>0.44</v>
+        <v>0.09</v>
       </c>
       <c r="I215" t="n">
-        <v>589270</v>
+        <v>588535</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4774404</v>
+        <v>4789581</v>
       </c>
       <c r="F216" t="n">
-        <v>945.0395876688171</v>
+        <v>958.5825218795792</v>
       </c>
       <c r="G216" t="n">
-        <v>215.7588895494186</v>
+        <v>292.9691859862129</v>
       </c>
       <c r="H216" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="I216" t="n">
-        <v>199025</v>
+        <v>199221</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2414320</v>
+        <v>2411951</v>
       </c>
       <c r="E217" t="n">
-        <v>4373994</v>
+        <v>4369703</v>
       </c>
       <c r="F217" t="n">
-        <v>1268.578445576789</v>
+        <v>1274.02285496792</v>
       </c>
       <c r="G217" t="n">
-        <v>17.60724824558502</v>
+        <v>151.7377359413865</v>
       </c>
       <c r="H217" t="n">
         <v>0.51</v>
       </c>
       <c r="I217" t="n">
-        <v>121561</v>
+        <v>120832</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125524606</v>
+        <v>125420326</v>
       </c>
       <c r="E218" t="n">
-        <v>2078790280</v>
+        <v>2077063316</v>
       </c>
       <c r="F218" t="n">
-        <v>6169.184623476556</v>
+        <v>7254.448743795446</v>
       </c>
       <c r="G218" t="n">
-        <v>10363.2641535894</v>
+        <v>12376.43944898295</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>4697255</v>
+        <v>4686981</v>
       </c>
     </row>
     <row r="219">
@@ -8070,10 +8070,10 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>97491628</v>
+        <v>96192430</v>
       </c>
       <c r="E219" t="n">
-        <v>98541059</v>
+        <v>97227877</v>
       </c>
       <c r="F219" t="n">
         <v>4490.831108273969</v>
@@ -8085,7 +8085,7 @@
         <v>0.2</v>
       </c>
       <c r="I219" t="n">
-        <v>38648402</v>
+        <v>38496374</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>242040555</v>
+        <v>241703472</v>
       </c>
       <c r="E220" t="n">
-        <v>242040555</v>
+        <v>241703472</v>
       </c>
       <c r="F220" t="n">
-        <v>88546.56673736728</v>
+        <v>80570.64915290606</v>
       </c>
       <c r="G220" t="n">
-        <v>99995.74080192788</v>
+        <v>117292.3846321887</v>
       </c>
       <c r="H220" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I220" t="n">
-        <v>47118899</v>
+        <v>47034763</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24744495</v>
+        <v>24589973</v>
       </c>
       <c r="E221" t="n">
-        <v>148051290</v>
+        <v>147126749</v>
       </c>
       <c r="F221" t="n">
-        <v>82035.75634412847</v>
+        <v>54497.19251411065</v>
       </c>
       <c r="G221" t="n">
-        <v>83929.62056763044</v>
+        <v>92360.17888222067</v>
       </c>
       <c r="H221" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>12103880</v>
+        <v>12498161</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1057293</v>
+        <v>1067151</v>
       </c>
       <c r="F222" t="n">
-        <v>85.63494688299126</v>
+        <v>85.71608327759525</v>
       </c>
       <c r="G222" t="n">
-        <v>467.6355246212851</v>
+        <v>477.6674033183176</v>
       </c>
       <c r="H222" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="I222" t="n">
-        <v>68332</v>
+        <v>68539</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2275947</v>
+        <v>2254230</v>
       </c>
       <c r="F223" t="n">
-        <v>129.6617872679557</v>
+        <v>156.1237244921303</v>
       </c>
       <c r="G223" t="n">
-        <v>633.4161891457946</v>
+        <v>127.8036805180315</v>
       </c>
       <c r="H223" t="n">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="I223" t="n">
-        <v>177838</v>
+        <v>176775</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13598080</v>
+        <v>13609882</v>
       </c>
       <c r="E224" t="n">
-        <v>41727736</v>
+        <v>41763952</v>
       </c>
       <c r="F224" t="n">
-        <v>1486.937608367506</v>
+        <v>1406.203912993718</v>
       </c>
       <c r="G224" t="n">
-        <v>1543.559036738469</v>
+        <v>1675.119119131202</v>
       </c>
       <c r="H224" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I224" t="n">
-        <v>2582565</v>
+        <v>2586537</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>54957014</v>
+        <v>54951990</v>
       </c>
       <c r="E225" t="n">
-        <v>94922710</v>
+        <v>94914034</v>
       </c>
       <c r="F225" t="n">
-        <v>13487.10107499749</v>
+        <v>13487.98085903064</v>
       </c>
       <c r="G225" t="n">
-        <v>6526.310481122691</v>
+        <v>6525.938914382776</v>
       </c>
       <c r="H225" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="I225" t="n">
-        <v>2286837</v>
+        <v>2254280</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4199052</v>
+        <v>4202631</v>
       </c>
       <c r="E226" t="n">
-        <v>4199052</v>
+        <v>4202631</v>
       </c>
       <c r="F226" t="n">
-        <v>4.049501236286847</v>
+        <v>4.049519030395887</v>
       </c>
       <c r="G226" t="n">
-        <v>14.95631984032895</v>
+        <v>14.9008912844234</v>
       </c>
       <c r="H226" t="n">
         <v>0.5</v>
       </c>
       <c r="I226" t="n">
-        <v>1070109</v>
+        <v>1677639</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>212019</v>
+        <v>211463</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>49939</v>
+        <v>49779</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6640315</v>
+        <v>6644637</v>
       </c>
       <c r="E228" t="n">
-        <v>34162405</v>
+        <v>34184636</v>
       </c>
       <c r="F228" t="n">
-        <v>393.8082533251867</v>
+        <v>106.812396115219</v>
       </c>
       <c r="G228" t="n">
-        <v>107.1232820660701</v>
+        <v>111.5288936196544</v>
       </c>
       <c r="H228" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="I228" t="n">
-        <v>912136</v>
+        <v>857212</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>179248727</v>
+        <v>178921539</v>
       </c>
       <c r="E230" t="n">
-        <v>209415440</v>
+        <v>209033187</v>
       </c>
       <c r="F230" t="n">
-        <v>40808.43853083783</v>
+        <v>36141.20055353494</v>
       </c>
       <c r="G230" t="n">
-        <v>20271.44324234569</v>
+        <v>21031.53499655962</v>
       </c>
       <c r="H230" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="I230" t="n">
-        <v>3814026</v>
+        <v>3843369</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>302655</v>
+        <v>303028</v>
       </c>
       <c r="F231" t="n">
-        <v>5.323462532626067</v>
+        <v>5.323482933099139</v>
       </c>
       <c r="G231" t="n">
-        <v>163.9713147417151</v>
+        <v>64.62351207321468</v>
       </c>
       <c r="H231" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="I231" t="n">
-        <v>325946</v>
+        <v>323692</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29193490</v>
+        <v>29211893</v>
       </c>
       <c r="E232" t="n">
-        <v>40029379</v>
+        <v>40054613</v>
       </c>
       <c r="F232" t="n">
-        <v>6145.037054895753</v>
+        <v>6047.615360093495</v>
       </c>
       <c r="G232" t="n">
-        <v>5475.426546118915</v>
+        <v>5386.147263922368</v>
       </c>
       <c r="H232" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="I232" t="n">
-        <v>206931</v>
+        <v>207011</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1283295</v>
+        <v>1288366</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1468330</v>
+        <v>1480130</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7991024</v>
+        <v>7994066</v>
       </c>
       <c r="F234" t="n">
-        <v>456.9750788772985</v>
+        <v>456.9750702605195</v>
       </c>
       <c r="G234" t="n">
-        <v>3255.596001985819</v>
+        <v>3212.630914944316</v>
       </c>
       <c r="H234" t="n">
         <v>0.4</v>
       </c>
       <c r="I234" t="n">
-        <v>641589</v>
+        <v>644450</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23182407</v>
+        <v>23246139</v>
       </c>
       <c r="E235" t="n">
-        <v>23182407</v>
+        <v>23246139</v>
       </c>
       <c r="F235" t="n">
-        <v>15793.6698416954</v>
+        <v>15551.42846721405</v>
       </c>
       <c r="G235" t="n">
-        <v>31957.00170587049</v>
+        <v>9467.494446500012</v>
       </c>
       <c r="H235" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="I235" t="n">
-        <v>2100220</v>
+        <v>2080956</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3389020</v>
+        <v>3394393</v>
       </c>
       <c r="E236" t="n">
-        <v>4539806</v>
+        <v>4547004</v>
       </c>
       <c r="F236" t="n">
-        <v>477.2159942042128</v>
+        <v>408.6574837651393</v>
       </c>
       <c r="G236" t="n">
-        <v>450.7118638157298</v>
+        <v>531.7959598377502</v>
       </c>
       <c r="H236" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="I236" t="n">
-        <v>150375</v>
+        <v>149570</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>35105283</v>
+        <v>34877316</v>
       </c>
       <c r="E237" t="n">
-        <v>175191544</v>
+        <v>174053884</v>
       </c>
       <c r="F237" t="n">
-        <v>90700.84998548673</v>
+        <v>88538.42453925485</v>
       </c>
       <c r="G237" t="n">
-        <v>94559.62477560186</v>
+        <v>91691.17687346</v>
       </c>
       <c r="H237" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I237" t="n">
-        <v>10370044</v>
+        <v>10463601</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26455798</v>
+        <v>26413666</v>
       </c>
       <c r="E238" t="n">
-        <v>59641052</v>
+        <v>59546072</v>
       </c>
       <c r="F238" t="n">
-        <v>209.2969816163099</v>
+        <v>202.5030420239601</v>
       </c>
       <c r="G238" t="n">
-        <v>152.4976973703039</v>
+        <v>146.7802572766521</v>
       </c>
       <c r="H238" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="I238" t="n">
-        <v>404943</v>
+        <v>404421</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1973886</v>
+        <v>1972363</v>
       </c>
       <c r="E239" t="n">
-        <v>1973886</v>
+        <v>1972363</v>
       </c>
       <c r="F239" t="n">
-        <v>155.7445797992927</v>
+        <v>155.7452641640758</v>
       </c>
       <c r="G239" t="n">
-        <v>153.538140833173</v>
+        <v>89.24112403955952</v>
       </c>
       <c r="H239" t="n">
         <v>0.42</v>
       </c>
       <c r="I239" t="n">
-        <v>12406.16</v>
+        <v>12379.99</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>72163390</v>
+        <v>72269013</v>
       </c>
       <c r="F240" t="n">
-        <v>5.583264897366626</v>
+        <v>5.583317331910877</v>
       </c>
       <c r="G240" t="n">
-        <v>3.949307323266646</v>
+        <v>3.949344412699695</v>
       </c>
       <c r="H240" t="n">
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>61293</v>
+        <v>61773</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>906445</v>
+        <v>904620</v>
       </c>
       <c r="E241" t="n">
-        <v>906445</v>
+        <v>904620</v>
       </c>
       <c r="F241" t="n">
-        <v>3.8711132625836</v>
+        <v>3.871135308438679</v>
       </c>
       <c r="G241" t="n">
-        <v>5.242742110828519</v>
+        <v>5.242771968062073</v>
       </c>
       <c r="H241" t="n">
         <v>0.54</v>
       </c>
       <c r="I241" t="n">
-        <v>12205.52</v>
+        <v>12199.01</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>115377</v>
+        <v>118668</v>
       </c>
       <c r="E242" t="n">
-        <v>115377</v>
+        <v>118668</v>
       </c>
       <c r="F242" t="n">
-        <v>67.72240179357001</v>
+        <v>103.0838315733276</v>
       </c>
       <c r="G242" t="n">
-        <v>97.23748060277174</v>
+        <v>20.07135641682757</v>
       </c>
       <c r="H242" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="I242" t="n">
-        <v>38850</v>
+        <v>39482</v>
       </c>
     </row>
     <row r="243">
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3497746</v>
+        <v>3493830</v>
       </c>
       <c r="E243" t="n">
-        <v>5024697</v>
+        <v>5019071</v>
       </c>
       <c r="F243" t="n">
         <v>320.2423892712916</v>
@@ -8917,7 +8917,7 @@
         <v>2.79</v>
       </c>
       <c r="I243" t="n">
-        <v>146144</v>
+        <v>145238</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>317782505</v>
+        <v>317257353</v>
       </c>
       <c r="E244" t="n">
-        <v>587970103</v>
+        <v>586998454</v>
       </c>
       <c r="F244" t="n">
-        <v>16065.06894346384</v>
+        <v>20995.33936162288</v>
       </c>
       <c r="G244" t="n">
-        <v>20572.29477229775</v>
+        <v>18818.16925214913</v>
       </c>
       <c r="H244" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>13904725</v>
+        <v>13925497</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>72481945</v>
+        <v>72035265</v>
       </c>
       <c r="E245" t="n">
-        <v>691442398</v>
+        <v>687181288</v>
       </c>
       <c r="F245" t="n">
-        <v>47069.84963597281</v>
+        <v>59454.18137109518</v>
       </c>
       <c r="G245" t="n">
-        <v>71361.77733304691</v>
+        <v>58590.76526969477</v>
       </c>
       <c r="H245" t="n">
         <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>22117356</v>
+        <v>22072587</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>82371</v>
+        <v>82296</v>
       </c>
       <c r="E246" t="n">
-        <v>684768</v>
+        <v>684147</v>
       </c>
       <c r="F246" t="n">
-        <v>3.939529697295132</v>
+        <v>3.939529623010869</v>
       </c>
       <c r="G246" t="n">
-        <v>65.22092456496905</v>
+        <v>65.22092333515518</v>
       </c>
       <c r="H246" t="n">
         <v>0.73</v>
       </c>
       <c r="I246" t="n">
-        <v>121.12</v>
+        <v>121.19</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1890917</v>
+        <v>1890334</v>
       </c>
       <c r="E247" t="n">
-        <v>5400217</v>
+        <v>5398552</v>
       </c>
       <c r="F247" t="n">
-        <v>287.5264092105151</v>
+        <v>287.5276726442021</v>
       </c>
       <c r="G247" t="n">
-        <v>269.9201619298255</v>
+        <v>269.9138325965463</v>
       </c>
       <c r="H247" t="n">
         <v>0.27</v>
       </c>
       <c r="I247" t="n">
-        <v>67239</v>
+        <v>67372</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37853027</v>
+        <v>38009497</v>
       </c>
       <c r="E248" t="n">
-        <v>49489921</v>
+        <v>49694438</v>
       </c>
       <c r="F248" t="n">
-        <v>881.7190797734771</v>
+        <v>197.1274714257236</v>
       </c>
       <c r="G248" t="n">
-        <v>4250.782175411293</v>
+        <v>4215.850540986337</v>
       </c>
       <c r="H248" t="n">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="I248" t="n">
-        <v>285645</v>
+        <v>552596</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>11445255</v>
+        <v>11558924</v>
       </c>
       <c r="E249" t="n">
-        <v>33958829</v>
+        <v>34296093</v>
       </c>
       <c r="F249" t="n">
-        <v>1338.807113778762</v>
+        <v>1182.151533953186</v>
       </c>
       <c r="G249" t="n">
-        <v>2162.752071319326</v>
+        <v>1904.310554335458</v>
       </c>
       <c r="H249" t="n">
-        <v>0.37</v>
+        <v>0.58</v>
       </c>
       <c r="I249" t="n">
-        <v>7232166</v>
+        <v>7264754</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1996836</v>
+        <v>1984398</v>
       </c>
       <c r="E250" t="n">
-        <v>5793463</v>
+        <v>5757377</v>
       </c>
       <c r="F250" t="n">
-        <v>29.68517839175348</v>
+        <v>146.866415667149</v>
       </c>
       <c r="G250" t="n">
-        <v>198.3571803275332</v>
+        <v>279.1541720339444</v>
       </c>
       <c r="H250" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I250" t="n">
-        <v>47079</v>
+        <v>46499</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7364398</v>
+        <v>7369714</v>
       </c>
       <c r="E251" t="n">
-        <v>7364409</v>
+        <v>7369725</v>
       </c>
       <c r="F251" t="n">
-        <v>2475.566545302445</v>
+        <v>2475.572502639938</v>
       </c>
       <c r="G251" t="n">
-        <v>776.4603021155013</v>
+        <v>776.462170631651</v>
       </c>
       <c r="H251" t="n">
         <v>0.73</v>
       </c>
       <c r="I251" t="n">
-        <v>321318</v>
+        <v>320822</v>
       </c>
     </row>
     <row r="252">
@@ -9217,10 +9217,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6429137</v>
+        <v>6506934</v>
       </c>
       <c r="E252" t="n">
-        <v>6429137</v>
+        <v>6506934</v>
       </c>
       <c r="F252" t="n">
         <v>5.418493377006818</v>
@@ -9232,7 +9232,7 @@
         <v>0.31</v>
       </c>
       <c r="I252" t="n">
-        <v>507834</v>
+        <v>516268</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6231421</v>
+        <v>6226533</v>
       </c>
       <c r="E253" t="n">
-        <v>22760969</v>
+        <v>22743117</v>
       </c>
       <c r="F253" t="n">
-        <v>489.1654898616373</v>
+        <v>489.1673644324345</v>
       </c>
       <c r="G253" t="n">
-        <v>96.19353322513028</v>
+        <v>102.1950267628393</v>
       </c>
       <c r="H253" t="n">
-        <v>2.61</v>
+        <v>1.73</v>
       </c>
       <c r="I253" t="n">
-        <v>503448</v>
+        <v>502584</v>
       </c>
     </row>
     <row r="254">
@@ -9287,10 +9287,10 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2323849</v>
+        <v>2328315</v>
       </c>
       <c r="E254" t="n">
-        <v>20497887</v>
+        <v>20537278</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>4.22</v>
       </c>
       <c r="I254" t="n">
-        <v>82006</v>
+        <v>81856</v>
       </c>
     </row>
     <row r="255">
@@ -9322,10 +9322,10 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14570032</v>
+        <v>14576404</v>
       </c>
       <c r="E255" t="n">
-        <v>29496141</v>
+        <v>29509040</v>
       </c>
       <c r="F255" t="n">
         <v>96.01617765113929</v>
@@ -9337,7 +9337,7 @@
         <v>0.61</v>
       </c>
       <c r="I255" t="n">
-        <v>571856</v>
+        <v>571760</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44895843</v>
+        <v>44896272</v>
       </c>
       <c r="E256" t="n">
-        <v>44895843</v>
+        <v>44896272</v>
       </c>
       <c r="F256" t="n">
-        <v>7054.08427676328</v>
+        <v>7400.01397598922</v>
       </c>
       <c r="G256" t="n">
-        <v>4369.094046190455</v>
+        <v>4689.036671265248</v>
       </c>
       <c r="H256" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="I256" t="n">
-        <v>7129828</v>
+        <v>7148698</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8416393</v>
+        <v>8405405</v>
       </c>
       <c r="E257" t="n">
-        <v>11991432</v>
+        <v>11975776</v>
       </c>
       <c r="F257" t="n">
-        <v>81.18709539512074</v>
+        <v>66.39235820500912</v>
       </c>
       <c r="G257" t="n">
-        <v>751.8603721187433</v>
+        <v>61.2807630397703</v>
       </c>
       <c r="H257" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I257" t="n">
-        <v>408158</v>
+        <v>404314</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>151275875</v>
+        <v>152420232</v>
       </c>
       <c r="F258" t="n">
-        <v>271.0703504406151</v>
+        <v>296.7207141161992</v>
       </c>
       <c r="G258" t="n">
-        <v>645.1687174070748</v>
+        <v>645.1723915777243</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="I258" t="n">
-        <v>427831</v>
+        <v>426666</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16297446</v>
+        <v>16283958</v>
       </c>
       <c r="F259" t="n">
-        <v>115.0918958890087</v>
+        <v>124.3679174838126</v>
       </c>
       <c r="G259" t="n">
-        <v>103.9881614276125</v>
+        <v>103.9885599290905</v>
       </c>
       <c r="H259" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="I259" t="n">
-        <v>997668</v>
+        <v>999546</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>725878</v>
+        <v>725401</v>
       </c>
       <c r="F260" t="n">
-        <v>9.631540786376336</v>
+        <v>9.631577696185929</v>
       </c>
       <c r="G260" t="n">
-        <v>3.515298829635388</v>
+        <v>3.515312300897498</v>
       </c>
       <c r="H260" t="n">
         <v>1.97</v>
       </c>
       <c r="I260" t="n">
-        <v>194386</v>
+        <v>193716</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2996205</v>
+        <v>2990455</v>
       </c>
       <c r="F261" t="n">
-        <v>33.54951122309324</v>
+        <v>33.54984523665198</v>
       </c>
       <c r="G261" t="n">
-        <v>48.41743161367133</v>
+        <v>49.51780362433848</v>
       </c>
       <c r="H261" t="n">
         <v>0.53</v>
       </c>
       <c r="I261" t="n">
-        <v>70326</v>
+        <v>70535</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2855493</v>
+        <v>2852057</v>
       </c>
       <c r="E262" t="n">
-        <v>2857966</v>
+        <v>2854527</v>
       </c>
       <c r="F262" t="n">
-        <v>4.113829638465186</v>
+        <v>4.056757061137799</v>
       </c>
       <c r="G262" t="n">
-        <v>543.3323881975601</v>
+        <v>554.1230789649244</v>
       </c>
       <c r="H262" t="n">
-        <v>0.64</v>
+        <v>0.33</v>
       </c>
       <c r="I262" t="n">
-        <v>111088</v>
+        <v>109955</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>62422080</v>
+        <v>62551065</v>
       </c>
       <c r="E263" t="n">
-        <v>103271057</v>
+        <v>103484450</v>
       </c>
       <c r="F263" t="n">
-        <v>7517.364993769553</v>
+        <v>7670.152124346972</v>
       </c>
       <c r="G263" t="n">
-        <v>7287.58171394267</v>
+        <v>28367.28593292654</v>
       </c>
       <c r="H263" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="I263" t="n">
-        <v>6620854</v>
+        <v>6702025</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>688915</v>
+        <v>688500</v>
       </c>
       <c r="F264" t="n">
-        <v>231.7071105093521</v>
+        <v>231.7024458112936</v>
       </c>
       <c r="G264" t="n">
-        <v>165.0167832956869</v>
+        <v>165.0143637738463</v>
       </c>
       <c r="H264" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="I264" t="n">
-        <v>675589</v>
+        <v>680470</v>
       </c>
     </row>
     <row r="265">
@@ -9672,10 +9672,10 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1257444</v>
+        <v>1260538</v>
       </c>
       <c r="E265" t="n">
-        <v>3799748</v>
+        <v>3809098</v>
       </c>
       <c r="F265" t="n">
         <v>13.66484339425756</v>
@@ -9687,7 +9687,7 @@
         <v>0.53</v>
       </c>
       <c r="I265" t="n">
-        <v>12577.01</v>
+        <v>12872.78</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>39096778</v>
+        <v>39071770</v>
       </c>
       <c r="E266" t="n">
-        <v>277189775</v>
+        <v>277012473</v>
       </c>
       <c r="F266" t="n">
-        <v>53174.09865019006</v>
+        <v>62274.21502962752</v>
       </c>
       <c r="G266" t="n">
-        <v>27209.37590374034</v>
+        <v>38677.31637800562</v>
       </c>
       <c r="H266" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="I266" t="n">
-        <v>1615786</v>
+        <v>1619851</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>59376</v>
+        <v>59479</v>
       </c>
       <c r="E267" t="n">
-        <v>309797</v>
+        <v>310339</v>
       </c>
       <c r="F267" t="n">
-        <v>5.218027659838224</v>
+        <v>29.22652503582667</v>
       </c>
       <c r="G267" t="n">
-        <v>5.414334031569225</v>
+        <v>4.012035885391755</v>
       </c>
       <c r="H267" t="n">
-        <v>0.87</v>
+        <v>1.45</v>
       </c>
       <c r="I267" t="n">
-        <v>290609</v>
+        <v>290678</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1275497</v>
+        <v>1275560</v>
       </c>
       <c r="E268" t="n">
-        <v>7909388</v>
+        <v>7909780</v>
       </c>
       <c r="F268" t="n">
-        <v>2385.244012116691</v>
+        <v>2376.613729832382</v>
       </c>
       <c r="G268" t="n">
-        <v>2215.098205402837</v>
+        <v>2175.81145612575</v>
       </c>
       <c r="H268" t="n">
         <v>0.23</v>
       </c>
       <c r="I268" t="n">
-        <v>780929</v>
+        <v>776598</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>611631851</v>
+        <v>610763818</v>
       </c>
       <c r="E269" t="n">
-        <v>2368759918</v>
+        <v>2365398155</v>
       </c>
       <c r="F269" t="n">
-        <v>239927.0834620671</v>
+        <v>201030.4134843109</v>
       </c>
       <c r="G269" t="n">
-        <v>350043.4606501737</v>
+        <v>294483.9438120222</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>32805258</v>
+        <v>33096925</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3288618</v>
+        <v>3290848</v>
       </c>
       <c r="F270" t="n">
-        <v>391.3855447201165</v>
+        <v>399.5560909830152</v>
       </c>
       <c r="G270" t="n">
-        <v>140.5510376699881</v>
+        <v>116.3228345834281</v>
       </c>
       <c r="H270" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="I270" t="n">
-        <v>33436</v>
+        <v>33565</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>673262</v>
+        <v>685691</v>
       </c>
       <c r="F271" t="n">
-        <v>43.15170111025191</v>
+        <v>13.18819517289817</v>
       </c>
       <c r="G271" t="n">
-        <v>148.31742921225</v>
+        <v>462.663162841393</v>
       </c>
       <c r="H271" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="I271" t="n">
-        <v>192559</v>
+        <v>188601</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5889243</v>
+        <v>5892357</v>
       </c>
       <c r="E272" t="n">
-        <v>26362777</v>
+        <v>26376719</v>
       </c>
       <c r="F272" t="n">
-        <v>160.2401023105276</v>
+        <v>160.2409572347701</v>
       </c>
       <c r="G272" t="n">
-        <v>344.0491180758317</v>
+        <v>449.3128498958461</v>
       </c>
       <c r="H272" t="n">
         <v>0.54</v>
       </c>
       <c r="I272" t="n">
-        <v>150261</v>
+        <v>151917</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6758151</v>
+        <v>6738519</v>
       </c>
       <c r="E273" t="n">
-        <v>12939029</v>
+        <v>12901441</v>
       </c>
       <c r="F273" t="n">
-        <v>4904.483611858564</v>
+        <v>821.65415161929</v>
       </c>
       <c r="G273" t="n">
-        <v>49.55833966159663</v>
+        <v>5.469762592294501</v>
       </c>
       <c r="H273" t="n">
-        <v>1.79</v>
+        <v>3.75</v>
       </c>
       <c r="I273" t="n">
-        <v>129241</v>
+        <v>135606</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3244644</v>
+        <v>3247362</v>
       </c>
       <c r="E274" t="n">
-        <v>21336025</v>
+        <v>21353894</v>
       </c>
       <c r="F274" t="n">
-        <v>223.5229122377005</v>
+        <v>223.523894430529</v>
       </c>
       <c r="G274" t="n">
-        <v>203.0022578821151</v>
+        <v>203.0031499041449</v>
       </c>
       <c r="H274" t="n">
         <v>0.95</v>
       </c>
       <c r="I274" t="n">
-        <v>1647387</v>
+        <v>1647803</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3708492</v>
+        <v>3709001</v>
       </c>
       <c r="E275" t="n">
-        <v>6321628</v>
+        <v>6322496</v>
       </c>
       <c r="F275" t="n">
-        <v>652.887280391018</v>
+        <v>588.6664785792311</v>
       </c>
       <c r="G275" t="n">
-        <v>460.0958556858604</v>
+        <v>456.8003339503075</v>
       </c>
       <c r="H275" t="n">
         <v>0.63</v>
       </c>
       <c r="I275" t="n">
-        <v>1179493</v>
+        <v>1166217</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>435413</v>
+        <v>435397</v>
       </c>
       <c r="E276" t="n">
-        <v>435413</v>
+        <v>435397</v>
       </c>
       <c r="F276" t="n">
-        <v>21.07889989178446</v>
+        <v>21.0788994943181</v>
       </c>
       <c r="G276" t="n">
-        <v>26.17062770435634</v>
+        <v>26.17062721087973</v>
       </c>
       <c r="H276" t="n">
         <v>0.49</v>
       </c>
       <c r="I276" t="n">
-        <v>320.78</v>
+        <v>321</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7347820</v>
+        <v>7305043</v>
       </c>
       <c r="E277" t="n">
-        <v>10528078</v>
+        <v>10466786</v>
       </c>
       <c r="F277" t="n">
-        <v>1457.446349327018</v>
+        <v>1454.902814205082</v>
       </c>
       <c r="G277" t="n">
-        <v>243.6121852932604</v>
+        <v>165.0254625660494</v>
       </c>
       <c r="H277" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I277" t="n">
-        <v>198800</v>
+        <v>196969</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>123245975</v>
+        <v>122855046</v>
       </c>
       <c r="E278" t="n">
-        <v>1071548003</v>
+        <v>1068149113</v>
       </c>
       <c r="F278" t="n">
-        <v>8366.366012669621</v>
+        <v>9494.294484145788</v>
       </c>
       <c r="G278" t="n">
-        <v>11540.55227946636</v>
+        <v>9576.381914498863</v>
       </c>
       <c r="H278" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I278" t="n">
-        <v>9138233</v>
+        <v>9266775</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>114092597</v>
+        <v>113135715</v>
       </c>
       <c r="E279" t="n">
-        <v>174050930</v>
+        <v>172591186</v>
       </c>
       <c r="F279" t="n">
-        <v>41644.05010851981</v>
+        <v>21085.28209126432</v>
       </c>
       <c r="G279" t="n">
-        <v>53233.90616589342</v>
+        <v>49111.07148237178</v>
       </c>
       <c r="H279" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="I279" t="n">
-        <v>7895454</v>
+        <v>7898618</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>17045998</v>
+        <v>17085403</v>
       </c>
       <c r="E280" t="n">
-        <v>23385632</v>
+        <v>23439693</v>
       </c>
       <c r="F280" t="n">
-        <v>413.7938079051406</v>
+        <v>385.8097046375273</v>
       </c>
       <c r="G280" t="n">
-        <v>4070.700275925118</v>
+        <v>4940.456792627791</v>
       </c>
       <c r="H280" t="n">
         <v>0.21</v>
       </c>
       <c r="I280" t="n">
-        <v>514294</v>
+        <v>513868</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5538229</v>
+        <v>5536183</v>
       </c>
       <c r="E281" t="n">
-        <v>5538229</v>
+        <v>5536183</v>
       </c>
       <c r="F281" t="n">
-        <v>14.59976333717905</v>
+        <v>14.59982749070454</v>
       </c>
       <c r="G281" t="n">
-        <v>56.44364329608754</v>
+        <v>56.41130657695062</v>
       </c>
       <c r="H281" t="n">
         <v>0.17</v>
       </c>
       <c r="I281" t="n">
-        <v>705842</v>
+        <v>699631</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>122896258</v>
+        <v>122779665</v>
       </c>
       <c r="E282" t="n">
-        <v>471449826</v>
+        <v>471002557</v>
       </c>
       <c r="F282" t="n">
-        <v>33624.37096115454</v>
+        <v>38656.30914088117</v>
       </c>
       <c r="G282" t="n">
-        <v>86793.59969234375</v>
+        <v>75102.82212652221</v>
       </c>
       <c r="H282" t="n">
         <v>0.02</v>
       </c>
       <c r="I282" t="n">
-        <v>30542670</v>
+        <v>31758298</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>768095</v>
+        <v>757111</v>
       </c>
       <c r="F283" t="n">
-        <v>3.910313496195778</v>
+        <v>4.065251637014399</v>
       </c>
       <c r="G283" t="n">
-        <v>5.417489865001437</v>
+        <v>3.922370186559067</v>
       </c>
       <c r="H283" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I283" t="n">
-        <v>49778</v>
+        <v>49451</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3195388</v>
+        <v>3196189</v>
       </c>
       <c r="E284" t="n">
-        <v>30276775</v>
+        <v>30284367</v>
       </c>
       <c r="F284" t="n">
-        <v>1502.560045932964</v>
+        <v>1227.666404166772</v>
       </c>
       <c r="G284" t="n">
-        <v>795.251066378749</v>
+        <v>821.1938113451615</v>
       </c>
       <c r="H284" t="n">
         <v>0.66</v>
       </c>
       <c r="I284" t="n">
-        <v>213150</v>
+        <v>213054</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>85134</v>
+        <v>84861</v>
       </c>
       <c r="F285" t="n">
-        <v>704.7741305265604</v>
+        <v>701.6927137334069</v>
       </c>
       <c r="G285" t="n">
-        <v>74.4444455441589</v>
+        <v>36.54886757996172</v>
       </c>
       <c r="H285" t="n">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="I285" t="n">
-        <v>14461.8</v>
+        <v>14696.96</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>133616</v>
+        <v>132831</v>
       </c>
       <c r="F286" t="n">
-        <v>5.391447783994163</v>
+        <v>4.117801189194711</v>
       </c>
       <c r="G286" t="n">
-        <v>101.5495460246337</v>
+        <v>3.930084051737562</v>
       </c>
       <c r="H286" t="n">
-        <v>0.49</v>
+        <v>0.89</v>
       </c>
       <c r="I286" t="n">
-        <v>90449</v>
+        <v>89764</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21836824</v>
+        <v>21304737</v>
       </c>
       <c r="E287" t="n">
-        <v>21836824</v>
+        <v>21304737</v>
       </c>
       <c r="F287" t="n">
-        <v>747.1543993955768</v>
+        <v>2902.608767071288</v>
       </c>
       <c r="G287" t="n">
-        <v>6375.325736779399</v>
+        <v>8489.786958884913</v>
       </c>
       <c r="H287" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I287" t="n">
-        <v>657124</v>
+        <v>670755</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>570583</v>
+        <v>570502</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>932.66</v>
+        <v>932.0700000000001</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6409291</v>
+        <v>6437659</v>
       </c>
       <c r="E289" t="n">
-        <v>40056232</v>
+        <v>40233525</v>
       </c>
       <c r="F289" t="n">
-        <v>534.6945941842403</v>
+        <v>84.66391650535519</v>
       </c>
       <c r="G289" t="n">
-        <v>125.8948710661633</v>
+        <v>599.0685462820395</v>
       </c>
       <c r="H289" t="n">
-        <v>3.14</v>
+        <v>1.24</v>
       </c>
       <c r="I289" t="n">
-        <v>424424</v>
+        <v>425197</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>493824336</v>
+        <v>493912203</v>
       </c>
       <c r="E290" t="n">
-        <v>493824336</v>
+        <v>493912203</v>
       </c>
       <c r="F290" t="n">
-        <v>1129629.723129738</v>
+        <v>1133796.103041069</v>
       </c>
       <c r="G290" t="n">
-        <v>1847668.642332615</v>
+        <v>1851246.411173533</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>32653090</v>
+        <v>32719006</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5258689</v>
+        <v>5291890</v>
       </c>
       <c r="E291" t="n">
-        <v>19582281</v>
+        <v>19705914</v>
       </c>
       <c r="F291" t="n">
-        <v>3474.051806300458</v>
+        <v>3618.089902403685</v>
       </c>
       <c r="G291" t="n">
-        <v>4992.921992269159</v>
+        <v>1933.771040251061</v>
       </c>
       <c r="H291" t="n">
         <v>0.05</v>
       </c>
       <c r="I291" t="n">
-        <v>71573</v>
+        <v>73128</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>31843552</v>
+        <v>32043285</v>
       </c>
       <c r="F292" t="n">
-        <v>6797.911178068121</v>
+        <v>6042.456914340279</v>
       </c>
       <c r="G292" t="n">
-        <v>10236.13241188438</v>
+        <v>9952.774272382872</v>
       </c>
       <c r="H292" t="n">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="I292" t="n">
-        <v>5371860</v>
+        <v>5426371</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31565383</v>
+        <v>31548039</v>
       </c>
       <c r="E293" t="n">
-        <v>113141704</v>
+        <v>113079535</v>
       </c>
       <c r="F293" t="n">
-        <v>54.10956606121272</v>
+        <v>2335.141701890348</v>
       </c>
       <c r="G293" t="n">
-        <v>2188.602867954723</v>
+        <v>4330.64838000218</v>
       </c>
       <c r="H293" t="n">
         <v>0.53</v>
       </c>
       <c r="I293" t="n">
-        <v>89127</v>
+        <v>88899</v>
       </c>
     </row>
     <row r="294">
@@ -10685,10 +10685,10 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>769782</v>
+        <v>755366</v>
       </c>
       <c r="E294" t="n">
-        <v>12277756</v>
+        <v>12047817</v>
       </c>
       <c r="F294" t="n">
         <v>14.21612906334379</v>
@@ -10700,7 +10700,7 @@
         <v>2.32</v>
       </c>
       <c r="I294" t="n">
-        <v>266910</v>
+        <v>268735</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85196</v>
+        <v>84978</v>
       </c>
       <c r="F295" t="n">
-        <v>90.41850915240886</v>
+        <v>90.41850744746618</v>
       </c>
       <c r="G295" t="n">
-        <v>61.73296095390234</v>
+        <v>44.43153676961492</v>
       </c>
       <c r="H295" t="n">
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>56323</v>
+        <v>56132</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1578991</v>
+        <v>1532004</v>
       </c>
       <c r="F296" t="n">
-        <v>3.885727962348903</v>
+        <v>3.885750094867056</v>
       </c>
       <c r="G296" t="n">
-        <v>10.54752759833859</v>
+        <v>10.54758767545883</v>
       </c>
       <c r="H296" t="n">
         <v>0.61</v>
       </c>
       <c r="I296" t="n">
-        <v>606405</v>
+        <v>608454</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2649742582</v>
+        <v>2643224703</v>
       </c>
       <c r="E297" t="n">
-        <v>2813337151</v>
+        <v>2806416859</v>
       </c>
       <c r="F297" t="n">
-        <v>44943.73402827978</v>
+        <v>52130.67727358785</v>
       </c>
       <c r="G297" t="n">
-        <v>64592.71652517458</v>
+        <v>71000.60160046449</v>
       </c>
       <c r="H297" t="n">
         <v>0.15</v>
       </c>
       <c r="I297" t="n">
-        <v>35047488</v>
+        <v>34853062</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2235938</v>
+        <v>2235945</v>
       </c>
       <c r="E298" t="n">
-        <v>17198203</v>
+        <v>17198257</v>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>1411.956455232918</v>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>4047.338485506049</v>
       </c>
       <c r="H298" t="n">
-        <v>7.98</v>
+        <v>0.76</v>
       </c>
       <c r="I298" t="n">
-        <v>167305</v>
+        <v>167430</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1720323</v>
+        <v>1727523</v>
       </c>
       <c r="E299" t="n">
-        <v>1726396</v>
+        <v>1733620</v>
       </c>
       <c r="F299" t="n">
-        <v>784.495037142873</v>
+        <v>945.2834382293224</v>
       </c>
       <c r="G299" t="n">
-        <v>889.1289245230145</v>
+        <v>550.3757025490359</v>
       </c>
       <c r="H299" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="I299" t="n">
-        <v>429785</v>
+        <v>434359</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>89005814</v>
+        <v>88954221</v>
       </c>
       <c r="E300" t="n">
-        <v>329016118</v>
+        <v>328824403</v>
       </c>
       <c r="F300" t="n">
-        <v>5579.342888027797</v>
+        <v>5549.494866557273</v>
       </c>
       <c r="G300" t="n">
-        <v>695.1289788760018</v>
+        <v>801.6323624727537</v>
       </c>
       <c r="H300" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="I300" t="n">
-        <v>237273</v>
+        <v>235787</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2300709</v>
+        <v>2298924</v>
       </c>
       <c r="E301" t="n">
-        <v>9231672</v>
+        <v>9224510</v>
       </c>
       <c r="F301" t="n">
-        <v>477.8323886899761</v>
+        <v>4.117456901814439</v>
       </c>
       <c r="G301" t="n">
-        <v>4.122909198367986</v>
+        <v>6.806745690993999</v>
       </c>
       <c r="H301" t="n">
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
       <c r="I301" t="n">
-        <v>41691</v>
+        <v>41863</v>
       </c>
     </row>
     <row r="302">
@@ -10965,10 +10965,10 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>61348466</v>
+        <v>61229143</v>
       </c>
       <c r="E302" t="n">
-        <v>150483630</v>
+        <v>150190938</v>
       </c>
       <c r="F302" t="n">
         <v>2036.029613987892</v>
@@ -10980,7 +10980,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="I302" t="n">
-        <v>22360467</v>
+        <v>22359804</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>761080639</v>
+        <v>760123612</v>
       </c>
       <c r="E303" t="n">
-        <v>1173653542</v>
+        <v>1172177722</v>
       </c>
       <c r="F303" t="n">
-        <v>35778.84498890513</v>
+        <v>41760.46457471683</v>
       </c>
       <c r="G303" t="n">
-        <v>39310.81166879192</v>
+        <v>47128.99504549568</v>
       </c>
       <c r="H303" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I303" t="n">
-        <v>223887237</v>
+        <v>223110497</v>
       </c>
     </row>
     <row r="304">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20647277</v>
+        <v>20647229</v>
       </c>
       <c r="E304" t="n">
-        <v>20647278</v>
+        <v>20647230</v>
       </c>
       <c r="F304" t="n">
         <v>3293.159927956589</v>
@@ -11050,7 +11050,7 @@
         <v>0.3</v>
       </c>
       <c r="I304" t="n">
-        <v>7015663</v>
+        <v>6910969</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1810380</v>
+        <v>1793000</v>
       </c>
       <c r="E305" t="n">
-        <v>2970527</v>
+        <v>2942009</v>
       </c>
       <c r="F305" t="n">
-        <v>701.2859705073162</v>
+        <v>285.766874905597</v>
       </c>
       <c r="G305" t="n">
-        <v>5.214183647682447</v>
+        <v>123.1143690629351</v>
       </c>
       <c r="H305" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I305" t="n">
-        <v>192779</v>
+        <v>184611</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5761005</v>
+        <v>5759039</v>
       </c>
       <c r="E306" t="n">
-        <v>5761005</v>
+        <v>5759039</v>
       </c>
       <c r="F306" t="n">
-        <v>41.83012559705486</v>
+        <v>41.55860333356901</v>
       </c>
       <c r="G306" t="n">
-        <v>5.440999188052534</v>
+        <v>5.441028217253352</v>
       </c>
       <c r="H306" t="n">
         <v>0.16</v>
       </c>
       <c r="I306" t="n">
-        <v>618.34</v>
+        <v>617.04</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39576523</v>
+        <v>39790782</v>
       </c>
       <c r="E307" t="n">
-        <v>188748417</v>
+        <v>189769819</v>
       </c>
       <c r="F307" t="n">
-        <v>983.4256977679306</v>
+        <v>983.4300190863049</v>
       </c>
       <c r="G307" t="n">
-        <v>765.4640637085483</v>
+        <v>765.4674272711753</v>
       </c>
       <c r="H307" t="n">
         <v>0.48</v>
       </c>
       <c r="I307" t="n">
-        <v>422206</v>
+        <v>292444</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>384336</v>
+        <v>384180</v>
       </c>
       <c r="E308" t="n">
-        <v>718818</v>
+        <v>718525</v>
       </c>
       <c r="F308" t="n">
-        <v>32.9515793900835</v>
+        <v>32.95176855495522</v>
       </c>
       <c r="G308" t="n">
-        <v>244.8878959104412</v>
+        <v>244.8893017364524</v>
       </c>
       <c r="H308" t="n">
         <v>0.32</v>
       </c>
       <c r="I308" t="n">
-        <v>1442.18</v>
+        <v>1443.66</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23573866</v>
+        <v>23559808</v>
       </c>
       <c r="E309" t="n">
-        <v>39289775</v>
+        <v>39266345</v>
       </c>
       <c r="F309" t="n">
-        <v>1072.488846401941</v>
+        <v>1119.38630824631</v>
       </c>
       <c r="G309" t="n">
-        <v>482.5467690478941</v>
+        <v>559.0400216938995</v>
       </c>
       <c r="H309" t="n">
         <v>0.26</v>
       </c>
       <c r="I309" t="n">
-        <v>485101</v>
+        <v>484777</v>
       </c>
     </row>
     <row r="310">
@@ -11248,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>110192</v>
+        <v>110289</v>
       </c>
       <c r="F310" t="n">
         <v>15.14907018082235</v>
@@ -11260,7 +11260,7 @@
         <v>0.18</v>
       </c>
       <c r="I310" t="n">
-        <v>49842</v>
+        <v>49922</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23508790</v>
+        <v>23462141</v>
       </c>
       <c r="E311" t="n">
-        <v>23508790</v>
+        <v>23462141</v>
       </c>
       <c r="F311" t="n">
-        <v>5759.031366917248</v>
+        <v>6614.899170180423</v>
       </c>
       <c r="G311" t="n">
-        <v>7583.349486129109</v>
+        <v>6564.065785085383</v>
       </c>
       <c r="H311" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I311" t="n">
-        <v>5686838</v>
+        <v>5682076</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3845880</v>
+        <v>3849541</v>
       </c>
       <c r="E312" t="n">
-        <v>8391660</v>
+        <v>8399648</v>
       </c>
       <c r="F312" t="n">
-        <v>1688.367916644221</v>
+        <v>1688.37533558326</v>
       </c>
       <c r="G312" t="n">
-        <v>1833.611906084005</v>
+        <v>1833.619963246675</v>
       </c>
       <c r="H312" t="n">
         <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>1660413</v>
+        <v>1676818</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9257156</v>
+        <v>9252294</v>
       </c>
       <c r="E313" t="n">
-        <v>9257156</v>
+        <v>9252294</v>
       </c>
       <c r="F313" t="n">
-        <v>15302.38639382876</v>
+        <v>15644.78154030732</v>
       </c>
       <c r="G313" t="n">
-        <v>113068.9201754412</v>
+        <v>112833.4695853499</v>
       </c>
       <c r="H313" t="n">
         <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>2876585</v>
+        <v>2863558</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>498764559</v>
+        <v>497085188</v>
       </c>
       <c r="E314" t="n">
-        <v>1736157922</v>
+        <v>1730312169</v>
       </c>
       <c r="F314" t="n">
-        <v>348435.5759798261</v>
+        <v>491651.4258420299</v>
       </c>
       <c r="G314" t="n">
-        <v>550373.6429658469</v>
+        <v>542819.4589949079</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>30692041</v>
+        <v>30666851</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24078560</v>
+        <v>24075335</v>
       </c>
       <c r="E315" t="n">
-        <v>24057644</v>
+        <v>24054422</v>
       </c>
       <c r="F315" t="n">
-        <v>219.6158062928554</v>
+        <v>199.1564246071966</v>
       </c>
       <c r="G315" t="n">
-        <v>784.4414076445348</v>
+        <v>784.4528199371121</v>
       </c>
       <c r="H315" t="n">
         <v>0.42</v>
       </c>
       <c r="I315" t="n">
-        <v>84363</v>
+        <v>84418</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48820047</v>
+        <v>48965951</v>
       </c>
       <c r="E316" t="n">
-        <v>120206539</v>
+        <v>120565791</v>
       </c>
       <c r="F316" t="n">
-        <v>1021.547038318267</v>
+        <v>1028.198275131868</v>
       </c>
       <c r="G316" t="n">
-        <v>1923.504632785908</v>
+        <v>1903.362824714308</v>
       </c>
       <c r="H316" t="n">
         <v>0.33</v>
       </c>
       <c r="I316" t="n">
-        <v>24061</v>
+        <v>18799.49</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12247554</v>
+        <v>12225909</v>
       </c>
       <c r="E317" t="n">
-        <v>24764989</v>
+        <v>24721222</v>
       </c>
       <c r="F317" t="n">
-        <v>360.8344102908209</v>
+        <v>360.647530448522</v>
       </c>
       <c r="G317" t="n">
-        <v>2619.370056611539</v>
+        <v>2619.384031658542</v>
       </c>
       <c r="H317" t="n">
         <v>0.23</v>
       </c>
       <c r="I317" t="n">
-        <v>41388</v>
+        <v>41375</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7495912</v>
+        <v>7500082</v>
       </c>
       <c r="E318" t="n">
-        <v>19473573</v>
+        <v>19484408</v>
       </c>
       <c r="F318" t="n">
-        <v>162.8893796987724</v>
+        <v>151.1795517230481</v>
       </c>
       <c r="G318" t="n">
-        <v>128.2183517411966</v>
+        <v>147.784141880757</v>
       </c>
       <c r="H318" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I318" t="n">
-        <v>716509</v>
+        <v>716708</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>152115</v>
+        <v>152486</v>
       </c>
       <c r="F319" t="n">
-        <v>261.4736879796116</v>
+        <v>261.2537183679839</v>
       </c>
       <c r="G319" t="n">
-        <v>7.100887852141615</v>
+        <v>3.621128929037495</v>
       </c>
       <c r="H319" t="n">
-        <v>0.92</v>
+        <v>1.29</v>
       </c>
       <c r="I319" t="n">
-        <v>58550</v>
+        <v>58711</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19178362965</v>
+        <v>19204461513</v>
       </c>
       <c r="F320" t="n">
-        <v>52938.80158283406</v>
+        <v>51838.3796135681</v>
       </c>
       <c r="G320" t="n">
-        <v>50118.57114618138</v>
+        <v>49712.28040462793</v>
       </c>
       <c r="H320" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="I320" t="n">
-        <v>46586615</v>
+        <v>46443546</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>104912189</v>
+        <v>105150441</v>
       </c>
       <c r="E321" t="n">
-        <v>158954087</v>
+        <v>159315068</v>
       </c>
       <c r="F321" t="n">
-        <v>29038.99368349362</v>
+        <v>17898.45172147625</v>
       </c>
       <c r="G321" t="n">
-        <v>18909.60621121889</v>
+        <v>18956.83957454304</v>
       </c>
       <c r="H321" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="I321" t="n">
-        <v>7690876</v>
+        <v>7613687</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2631929</v>
+        <v>2635114</v>
       </c>
       <c r="E322" t="n">
-        <v>10527717</v>
+        <v>10540455</v>
       </c>
       <c r="F322" t="n">
-        <v>45528.20556886852</v>
+        <v>41523.93791059196</v>
       </c>
       <c r="G322" t="n">
-        <v>5476.860677889199</v>
+        <v>14174.79589512237</v>
       </c>
       <c r="H322" t="n">
         <v>0.57</v>
       </c>
       <c r="I322" t="n">
-        <v>6858130</v>
+        <v>6857324</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>229227366</v>
+        <v>228465872</v>
       </c>
       <c r="E323" t="n">
-        <v>704787887</v>
+        <v>702446578</v>
       </c>
       <c r="F323" t="n">
-        <v>64492.46640977807</v>
+        <v>101755.3906514785</v>
       </c>
       <c r="G323" t="n">
-        <v>186362.9475145313</v>
+        <v>190184.6925439632</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>15173660</v>
+        <v>15302467</v>
       </c>
     </row>
     <row r="324">
@@ -11735,10 +11735,10 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>148336981</v>
+        <v>148172739</v>
       </c>
       <c r="E324" t="n">
-        <v>387526249</v>
+        <v>387097170</v>
       </c>
       <c r="F324" t="n">
         <v>5913.666354875788</v>
@@ -11750,7 +11750,7 @@
         <v>0.21</v>
       </c>
       <c r="I324" t="n">
-        <v>7692785</v>
+        <v>7789863</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2452859</v>
+        <v>2445633</v>
       </c>
       <c r="E325" t="n">
-        <v>3366597</v>
+        <v>3356679</v>
       </c>
       <c r="F325" t="n">
-        <v>179.2604482505268</v>
+        <v>109.9596325474109</v>
       </c>
       <c r="G325" t="n">
-        <v>2240.242778830989</v>
+        <v>2207.840545271</v>
       </c>
       <c r="H325" t="n">
         <v>1.26</v>
       </c>
       <c r="I325" t="n">
-        <v>1905795</v>
+        <v>2007738</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>405510814</v>
+        <v>404398007</v>
       </c>
       <c r="E326" t="n">
-        <v>2317204654</v>
+        <v>2310845756</v>
       </c>
       <c r="F326" t="n">
-        <v>278256.0450217317</v>
+        <v>248778.2144580956</v>
       </c>
       <c r="G326" t="n">
-        <v>399089.5334785433</v>
+        <v>377338.6669384222</v>
       </c>
       <c r="H326" t="n">
         <v>0.18</v>
       </c>
       <c r="I326" t="n">
-        <v>39301762</v>
+        <v>39312883</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250221.xlsx
+++ b/MexcData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91285</v>
+        <v>91277</v>
       </c>
       <c r="F2" t="n">
-        <v>4.209424967366116</v>
+        <v>4.209588337028269</v>
       </c>
       <c r="G2" t="n">
-        <v>32.62897935071588</v>
+        <v>32.63024569597069</v>
       </c>
       <c r="H2" t="n">
         <v>0.43</v>
       </c>
       <c r="I2" t="n">
-        <v>1410.85</v>
+        <v>1400.84</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>609977785</v>
+        <v>609131903</v>
       </c>
       <c r="E3" t="n">
-        <v>1183629172</v>
+        <v>1181993055</v>
       </c>
       <c r="F3" t="n">
-        <v>19633.12106971892</v>
+        <v>20427.78643869637</v>
       </c>
       <c r="G3" t="n">
-        <v>25669.65044687089</v>
+        <v>28337.38154728075</v>
       </c>
       <c r="H3" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="I3" t="n">
-        <v>18752653</v>
+        <v>19170774</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>248630681</v>
+        <v>248774205</v>
       </c>
       <c r="E4" t="n">
-        <v>1559128054</v>
+        <v>1560028073</v>
       </c>
       <c r="F4" t="n">
-        <v>68476.56195201578</v>
+        <v>73239.92677631766</v>
       </c>
       <c r="G4" t="n">
-        <v>129348.6961461398</v>
+        <v>108182.0710417408</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>17628194</v>
+        <v>17519151</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146579210</v>
+        <v>148177480</v>
       </c>
       <c r="E5" t="n">
-        <v>162432672</v>
+        <v>164203805</v>
       </c>
       <c r="F5" t="n">
-        <v>131222.9021911313</v>
+        <v>140730.1516333031</v>
       </c>
       <c r="G5" t="n">
-        <v>310942.7179722568</v>
+        <v>338330.3658500213</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>37229213</v>
+        <v>37810710</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49569778</v>
+        <v>49292841</v>
       </c>
       <c r="E6" t="n">
-        <v>62010522</v>
+        <v>61664081</v>
       </c>
       <c r="F6" t="n">
-        <v>7945.78541904956</v>
+        <v>12241.59038740358</v>
       </c>
       <c r="G6" t="n">
-        <v>10585.90917373</v>
+        <v>8312.523538358197</v>
       </c>
       <c r="H6" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="I6" t="n">
-        <v>389718</v>
+        <v>591815</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8466744</v>
+        <v>8418106</v>
       </c>
       <c r="E7" t="n">
-        <v>8680243</v>
+        <v>8630380</v>
       </c>
       <c r="F7" t="n">
-        <v>405.5516731466067</v>
+        <v>606.4280252101728</v>
       </c>
       <c r="G7" t="n">
-        <v>384.2486829950967</v>
+        <v>210.0534405519167</v>
       </c>
       <c r="H7" t="n">
-        <v>1.49</v>
+        <v>1.94</v>
       </c>
       <c r="I7" t="n">
-        <v>88069</v>
+        <v>87120</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69167189</v>
+        <v>68967473</v>
       </c>
       <c r="E8" t="n">
-        <v>137757632</v>
+        <v>137359865</v>
       </c>
       <c r="F8" t="n">
-        <v>28122.97058796946</v>
+        <v>30485.93384565242</v>
       </c>
       <c r="G8" t="n">
-        <v>24871.26193664037</v>
+        <v>25982.64324094809</v>
       </c>
       <c r="H8" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="I8" t="n">
-        <v>1013110</v>
+        <v>1013391</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4982347</v>
+        <v>4954605</v>
       </c>
       <c r="E9" t="n">
-        <v>7960294</v>
+        <v>7915970</v>
       </c>
       <c r="F9" t="n">
-        <v>390.8152781735052</v>
+        <v>389.727719093873</v>
       </c>
       <c r="G9" t="n">
-        <v>615.4516845239548</v>
+        <v>621.4900396862683</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="I9" t="n">
-        <v>98737</v>
+        <v>98723</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14146515</v>
+        <v>14185295</v>
       </c>
       <c r="E10" t="n">
-        <v>41688865</v>
+        <v>41803147</v>
       </c>
       <c r="F10" t="n">
-        <v>3927.62935774672</v>
+        <v>3928.101599280181</v>
       </c>
       <c r="G10" t="n">
-        <v>4945.667557325926</v>
+        <v>2842.357768966696</v>
       </c>
       <c r="H10" t="n">
-        <v>0.45</v>
+        <v>0.73</v>
       </c>
       <c r="I10" t="n">
-        <v>887485</v>
+        <v>895388</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>127044403</v>
+        <v>127001244</v>
       </c>
       <c r="E11" t="n">
-        <v>497976018</v>
+        <v>497806848</v>
       </c>
       <c r="F11" t="n">
-        <v>63048.87993106942</v>
+        <v>63474.09534806753</v>
       </c>
       <c r="G11" t="n">
-        <v>49485.92609980606</v>
+        <v>39178.33713959817</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>29582342</v>
+        <v>29577030</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10713556</v>
+        <v>10757862</v>
       </c>
       <c r="E12" t="n">
-        <v>46049460</v>
+        <v>46239900</v>
       </c>
       <c r="F12" t="n">
-        <v>2466.83262039686</v>
+        <v>3325.754024996667</v>
       </c>
       <c r="G12" t="n">
-        <v>3314.849981425585</v>
+        <v>3343.135572371023</v>
       </c>
       <c r="H12" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I12" t="n">
-        <v>943689</v>
+        <v>784037</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1000332</v>
+        <v>1002335</v>
       </c>
       <c r="E13" t="n">
-        <v>12241368</v>
+        <v>12265871</v>
       </c>
       <c r="F13" t="n">
-        <v>271.0175464891068</v>
+        <v>271.0190780440267</v>
       </c>
       <c r="G13" t="n">
-        <v>200.8603450922797</v>
+        <v>201.0091082332265</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>470.97</v>
+        <v>481.36</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>585440</v>
+        <v>587303</v>
       </c>
       <c r="E14" t="n">
-        <v>585440</v>
+        <v>587303</v>
       </c>
       <c r="F14" t="n">
-        <v>186.5530371079445</v>
+        <v>155.652562766126</v>
       </c>
       <c r="G14" t="n">
-        <v>204.5930014778542</v>
+        <v>135.5193695144053</v>
       </c>
       <c r="H14" t="n">
         <v>0.16</v>
       </c>
       <c r="I14" t="n">
-        <v>28116</v>
+        <v>24183</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>580241416</v>
+        <v>582750725</v>
       </c>
       <c r="E15" t="n">
-        <v>725795771</v>
+        <v>728934545</v>
       </c>
       <c r="F15" t="n">
-        <v>533248.6078238231</v>
+        <v>522366.683361529</v>
       </c>
       <c r="G15" t="n">
-        <v>397616.7634522474</v>
+        <v>437725.1405874062</v>
       </c>
       <c r="H15" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I15" t="n">
-        <v>55959026</v>
+        <v>55620663</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3358945</v>
+        <v>3351071</v>
       </c>
       <c r="E16" t="n">
-        <v>9555900</v>
+        <v>9533500</v>
       </c>
       <c r="F16" t="n">
-        <v>254.1056537424077</v>
+        <v>214.8421678321225</v>
       </c>
       <c r="G16" t="n">
-        <v>45.73249770639323</v>
+        <v>51.08659294223498</v>
       </c>
       <c r="H16" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>108224</v>
+        <v>106528</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>315304</v>
+        <v>315579</v>
       </c>
       <c r="E17" t="n">
-        <v>3638984</v>
+        <v>3642152</v>
       </c>
       <c r="F17" t="n">
-        <v>2.711582121939763</v>
+        <v>17.73225052369387</v>
       </c>
       <c r="G17" t="n">
-        <v>3.931865489825995</v>
+        <v>5.432385204683883</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3394.61</v>
+        <v>3397.34</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1310309</v>
+        <v>1308024</v>
       </c>
       <c r="E18" t="n">
-        <v>10050851</v>
+        <v>10033324</v>
       </c>
       <c r="F18" t="n">
-        <v>86.58275340617489</v>
+        <v>88.02075901324601</v>
       </c>
       <c r="G18" t="n">
-        <v>110.2660429695099</v>
+        <v>167.7978793351276</v>
       </c>
       <c r="H18" t="n">
         <v>0.96</v>
       </c>
       <c r="I18" t="n">
-        <v>144360</v>
+        <v>139244</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23218303</v>
+        <v>23205942</v>
       </c>
       <c r="E19" t="n">
-        <v>23261412</v>
+        <v>23249028</v>
       </c>
       <c r="F19" t="n">
-        <v>2542.299120463308</v>
+        <v>1461.541412735698</v>
       </c>
       <c r="G19" t="n">
-        <v>766.7865696532216</v>
+        <v>856.2766281876027</v>
       </c>
       <c r="H19" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="I19" t="n">
-        <v>855125</v>
+        <v>842648</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3716434</v>
+        <v>3781640</v>
       </c>
       <c r="E20" t="n">
-        <v>20620977</v>
+        <v>20982776</v>
       </c>
       <c r="F20" t="n">
-        <v>5.152584741650507</v>
+        <v>5.507854742164517</v>
       </c>
       <c r="G20" t="n">
-        <v>2.808474725781411</v>
+        <v>4.326951700705733</v>
       </c>
       <c r="H20" t="n">
-        <v>0.49</v>
+        <v>0.97</v>
       </c>
       <c r="I20" t="n">
-        <v>5799.16</v>
+        <v>6004.08</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6901596</v>
+        <v>6899369</v>
       </c>
       <c r="E21" t="n">
-        <v>12803916</v>
+        <v>12799785</v>
       </c>
       <c r="F21" t="n">
-        <v>271.0489718512807</v>
+        <v>157.9236910701494</v>
       </c>
       <c r="G21" t="n">
-        <v>436.0815659763754</v>
+        <v>497.9873218449408</v>
       </c>
       <c r="H21" t="n">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="I21" t="n">
-        <v>51914</v>
+        <v>52435</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71674630</v>
+        <v>71645885</v>
       </c>
       <c r="E22" t="n">
-        <v>124121679</v>
+        <v>124070419</v>
       </c>
       <c r="F22" t="n">
-        <v>569.1985769772911</v>
+        <v>464.0009725019256</v>
       </c>
       <c r="G22" t="n">
-        <v>405.2574381401425</v>
+        <v>708.0529445392926</v>
       </c>
       <c r="H22" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="I22" t="n">
-        <v>784455</v>
+        <v>780410</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>172352</v>
+        <v>172294</v>
       </c>
       <c r="E23" t="n">
-        <v>518352</v>
+        <v>518179</v>
       </c>
       <c r="F23" t="n">
-        <v>5.615755869839885</v>
+        <v>5.615812018389907</v>
       </c>
       <c r="G23" t="n">
-        <v>148.0119469446261</v>
+        <v>148.0134268266579</v>
       </c>
       <c r="H23" t="n">
         <v>0.39</v>
       </c>
       <c r="I23" t="n">
-        <v>142.34</v>
+        <v>142.35</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81412940</v>
+        <v>81899222</v>
       </c>
       <c r="E24" t="n">
-        <v>239526967</v>
+        <v>240957668</v>
       </c>
       <c r="F24" t="n">
-        <v>245.9460224243302</v>
+        <v>244.2614383904706</v>
       </c>
       <c r="G24" t="n">
-        <v>253.8441429219572</v>
+        <v>256.058537677953</v>
       </c>
       <c r="H24" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="I24" t="n">
-        <v>344755</v>
+        <v>339443</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6984524</v>
+        <v>7072765</v>
       </c>
       <c r="F25" t="n">
-        <v>8.578901701952724</v>
+        <v>9.940993345695214</v>
       </c>
       <c r="G25" t="n">
-        <v>165.8987539161847</v>
+        <v>5.276722722148798</v>
       </c>
       <c r="H25" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="I25" t="n">
-        <v>13905.07</v>
+        <v>18736.52</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2433203</v>
+        <v>2437425</v>
       </c>
       <c r="E26" t="n">
-        <v>2433203</v>
+        <v>2437425</v>
       </c>
       <c r="F26" t="n">
-        <v>209.8228104333487</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>16.47204734378676</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.53</v>
+        <v>7.65</v>
       </c>
       <c r="I26" t="n">
-        <v>319721</v>
+        <v>319130</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17535825</v>
+        <v>17294612</v>
       </c>
       <c r="E27" t="n">
-        <v>22570046</v>
+        <v>22259585</v>
       </c>
       <c r="F27" t="n">
-        <v>3123.418394687394</v>
+        <v>3967.210168684177</v>
       </c>
       <c r="G27" t="n">
-        <v>4070.995130463319</v>
+        <v>4976.299920886592</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="I27" t="n">
-        <v>1646333</v>
+        <v>1552936</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4715892</v>
+        <v>4755173</v>
       </c>
       <c r="E28" t="n">
-        <v>4715892</v>
+        <v>4755173</v>
       </c>
       <c r="F28" t="n">
-        <v>788.9382836187467</v>
+        <v>1471.007639221325</v>
       </c>
       <c r="G28" t="n">
-        <v>7554.21482706385</v>
+        <v>7816.786725578497</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="I28" t="n">
-        <v>2015091</v>
+        <v>1916249</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1719371</v>
+        <v>1721420</v>
       </c>
       <c r="F29" t="n">
-        <v>12.1565901665185</v>
+        <v>122.7728340781099</v>
       </c>
       <c r="G29" t="n">
-        <v>81.88108059460912</v>
+        <v>106.6574796693726</v>
       </c>
       <c r="H29" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="I29" t="n">
-        <v>150087</v>
+        <v>155883</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3383636</v>
+        <v>3419320</v>
       </c>
       <c r="E30" t="n">
-        <v>3383636</v>
+        <v>3419320</v>
       </c>
       <c r="F30" t="n">
-        <v>570.5078825670728</v>
+        <v>532.5100547294212</v>
       </c>
       <c r="G30" t="n">
-        <v>731.7900893534043</v>
+        <v>972.1614805341004</v>
       </c>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>517686</v>
+        <v>511834</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>311572</v>
+        <v>312879</v>
       </c>
       <c r="E31" t="n">
-        <v>1454451</v>
+        <v>1460552</v>
       </c>
       <c r="F31" t="n">
-        <v>337.6096451618454</v>
+        <v>77.38442863716406</v>
       </c>
       <c r="G31" t="n">
-        <v>71.79779998599953</v>
+        <v>106.3403310454549</v>
       </c>
       <c r="H31" t="n">
-        <v>1.36</v>
+        <v>2.05</v>
       </c>
       <c r="I31" t="n">
-        <v>696357</v>
+        <v>704142</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>370622</v>
+        <v>367466</v>
       </c>
       <c r="E32" t="n">
-        <v>370622</v>
+        <v>367466</v>
       </c>
       <c r="F32" t="n">
-        <v>121.3632615899687</v>
+        <v>121.9139926483876</v>
       </c>
       <c r="G32" t="n">
-        <v>630.0343676203048</v>
+        <v>630.8615375910168</v>
       </c>
       <c r="H32" t="n">
         <v>1.04</v>
       </c>
       <c r="I32" t="n">
-        <v>52378</v>
+        <v>52318</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1857151</v>
+        <v>1899528</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7769940138314</v>
+        <v>210.6436513842352</v>
       </c>
       <c r="G33" t="n">
-        <v>9.951559240473392</v>
+        <v>9.951569082098029</v>
       </c>
       <c r="H33" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="I33" t="n">
-        <v>1379983</v>
+        <v>1408461</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1509545</v>
+        <v>1489420</v>
       </c>
       <c r="F34" t="n">
-        <v>493.881815464041</v>
+        <v>459.8018022430284</v>
       </c>
       <c r="G34" t="n">
-        <v>20.55671737039915</v>
+        <v>232.6247246139824</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
+        <v>0.6</v>
       </c>
       <c r="I34" t="n">
-        <v>289298</v>
+        <v>293861</v>
       </c>
     </row>
     <row r="35">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12763977</v>
+        <v>12786229</v>
       </c>
       <c r="E35" t="n">
-        <v>31767229</v>
+        <v>31822611</v>
       </c>
       <c r="F35" t="n">
         <v>962.7088590145728</v>
@@ -1667,7 +1667,7 @@
         <v>0.38</v>
       </c>
       <c r="I35" t="n">
-        <v>1235157</v>
+        <v>1237311</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6811095</v>
+        <v>6825022</v>
       </c>
       <c r="E36" t="n">
-        <v>9380618</v>
+        <v>9399800</v>
       </c>
       <c r="F36" t="n">
-        <v>583.1268583007521</v>
+        <v>168.1930369829099</v>
       </c>
       <c r="G36" t="n">
-        <v>441.5195911951999</v>
+        <v>2257.934875162247</v>
       </c>
       <c r="H36" t="n">
-        <v>1.32</v>
+        <v>2.14</v>
       </c>
       <c r="I36" t="n">
-        <v>415305</v>
+        <v>414144</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>931251</v>
+        <v>901181</v>
       </c>
       <c r="E37" t="n">
-        <v>6518755</v>
+        <v>6308265</v>
       </c>
       <c r="F37" t="n">
-        <v>68.06252010781944</v>
+        <v>74.67315942257638</v>
       </c>
       <c r="G37" t="n">
-        <v>590.584738396934</v>
+        <v>182.5718448882528</v>
       </c>
       <c r="H37" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="I37" t="n">
-        <v>247788</v>
+        <v>226318</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>115861639</v>
+        <v>116826096</v>
       </c>
       <c r="E38" t="n">
-        <v>450735360</v>
+        <v>454463725</v>
       </c>
       <c r="F38" t="n">
-        <v>17338.40076861578</v>
+        <v>20108.51701384298</v>
       </c>
       <c r="G38" t="n">
-        <v>22274.71905397145</v>
+        <v>36501.28080449734</v>
       </c>
       <c r="H38" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I38" t="n">
-        <v>9371762</v>
+        <v>9465699</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5722136</v>
+        <v>5657808</v>
       </c>
       <c r="E39" t="n">
-        <v>5995883</v>
+        <v>5928477</v>
       </c>
       <c r="F39" t="n">
-        <v>920.8927134692675</v>
+        <v>145.7244102362816</v>
       </c>
       <c r="G39" t="n">
-        <v>64.58768706964671</v>
+        <v>694.3535331480812</v>
       </c>
       <c r="H39" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I39" t="n">
-        <v>152500</v>
+        <v>150261</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5229470</v>
+        <v>5407971</v>
       </c>
       <c r="E40" t="n">
-        <v>7698062</v>
+        <v>7960827</v>
       </c>
       <c r="F40" t="n">
-        <v>864.4951747018104</v>
+        <v>1356.311600802428</v>
       </c>
       <c r="G40" t="n">
-        <v>742.8818104786587</v>
+        <v>2433.960476152204</v>
       </c>
       <c r="H40" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="I40" t="n">
-        <v>608239</v>
+        <v>667000</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7690048</v>
+        <v>7595687</v>
       </c>
       <c r="E41" t="n">
-        <v>7690048</v>
+        <v>7595687</v>
       </c>
       <c r="F41" t="n">
-        <v>2241.175693736993</v>
+        <v>4460.365114069331</v>
       </c>
       <c r="G41" t="n">
-        <v>1319.257705266976</v>
+        <v>1956.851158117426</v>
       </c>
       <c r="H41" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="I41" t="n">
-        <v>330039</v>
+        <v>358417</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1448600</v>
+        <v>1455441</v>
       </c>
       <c r="E42" t="n">
-        <v>1448600</v>
+        <v>1455441</v>
       </c>
       <c r="F42" t="n">
-        <v>336.5335073297102</v>
+        <v>465.6061623360519</v>
       </c>
       <c r="G42" t="n">
-        <v>97.6198642502868</v>
+        <v>155.0184312542612</v>
       </c>
       <c r="H42" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>278268</v>
+        <v>277625</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15788607</v>
+        <v>15757544</v>
       </c>
       <c r="F43" t="n">
-        <v>505.8912194310565</v>
+        <v>440.8434884148338</v>
       </c>
       <c r="G43" t="n">
-        <v>196.542767104989</v>
+        <v>265.9980328964854</v>
       </c>
       <c r="H43" t="n">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="I43" t="n">
-        <v>11437.61</v>
+        <v>10172.71</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>139697662</v>
+        <v>141457637</v>
       </c>
       <c r="E44" t="n">
-        <v>139697662</v>
+        <v>141457637</v>
       </c>
       <c r="F44" t="n">
-        <v>281250.6211853488</v>
+        <v>229276.1778241247</v>
       </c>
       <c r="G44" t="n">
-        <v>360135.8587138532</v>
+        <v>396380.6305011517</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I44" t="n">
-        <v>68145221</v>
+        <v>69699156</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>66646798</v>
+        <v>68071047</v>
       </c>
       <c r="E45" t="n">
-        <v>341778453</v>
+        <v>349082291</v>
       </c>
       <c r="F45" t="n">
-        <v>72464.52910315363</v>
+        <v>39179.00031271546</v>
       </c>
       <c r="G45" t="n">
-        <v>87112.63400523274</v>
+        <v>56988.05293631955</v>
       </c>
       <c r="H45" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I45" t="n">
-        <v>22219146</v>
+        <v>24433161</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>593419</v>
+        <v>595228</v>
       </c>
       <c r="F46" t="n">
-        <v>75.96247836179826</v>
+        <v>90.77245723871258</v>
       </c>
       <c r="G46" t="n">
-        <v>548.3398920746178</v>
+        <v>559.1265280740122</v>
       </c>
       <c r="H46" t="n">
         <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>1082.3</v>
+        <v>1523.86</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2691002</v>
+        <v>2709433</v>
       </c>
       <c r="E47" t="n">
-        <v>10814522</v>
+        <v>10888596</v>
       </c>
       <c r="F47" t="n">
-        <v>486.9134357947451</v>
+        <v>495.7652484663233</v>
       </c>
       <c r="G47" t="n">
-        <v>125.9539430505617</v>
+        <v>338.5556437654157</v>
       </c>
       <c r="H47" t="n">
-        <v>0.91</v>
+        <v>1.83</v>
       </c>
       <c r="I47" t="n">
-        <v>34126</v>
+        <v>34166</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17551971</v>
+        <v>17618859</v>
       </c>
       <c r="E48" t="n">
-        <v>123708545</v>
+        <v>124156486</v>
       </c>
       <c r="F48" t="n">
-        <v>780.7916908508039</v>
+        <v>456.5767933149757</v>
       </c>
       <c r="G48" t="n">
-        <v>441.5608011208842</v>
+        <v>673.3163854845017</v>
       </c>
       <c r="H48" t="n">
-        <v>0.96</v>
+        <v>0.36</v>
       </c>
       <c r="I48" t="n">
-        <v>1047979</v>
+        <v>1063324</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1034708</v>
+        <v>1036019</v>
       </c>
       <c r="E49" t="n">
-        <v>1214500</v>
+        <v>1216039</v>
       </c>
       <c r="F49" t="n">
-        <v>1050.482438219181</v>
+        <v>1038.093056098652</v>
       </c>
       <c r="G49" t="n">
-        <v>4291.98976963585</v>
+        <v>3318.949651290617</v>
       </c>
       <c r="H49" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="I49" t="n">
-        <v>218009</v>
+        <v>215057</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>149193</v>
+        <v>148820</v>
       </c>
       <c r="E50" t="n">
-        <v>1996291</v>
+        <v>1991295</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>44356</v>
+        <v>43167</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>257684251</v>
+        <v>261684200</v>
       </c>
       <c r="E51" t="n">
-        <v>257684251</v>
+        <v>261684200</v>
       </c>
       <c r="F51" t="n">
-        <v>20730.0081346618</v>
+        <v>29495.73213649891</v>
       </c>
       <c r="G51" t="n">
-        <v>38725.29702165117</v>
+        <v>28043.85205326885</v>
       </c>
       <c r="H51" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="I51" t="n">
-        <v>14406929</v>
+        <v>14814529</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1123201</v>
+        <v>1125237</v>
       </c>
       <c r="F52" t="n">
-        <v>4.237422887192522</v>
+        <v>4.237408207906133</v>
       </c>
       <c r="G52" t="n">
-        <v>631.5855034240604</v>
+        <v>631.5833154846617</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>174728</v>
+        <v>174965</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>117213</v>
+        <v>118453</v>
       </c>
       <c r="E54" t="n">
-        <v>117213</v>
+        <v>118453</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>201.03</v>
+        <v>202.37</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6796667</v>
+        <v>6616823</v>
       </c>
       <c r="E55" t="n">
-        <v>16508580</v>
+        <v>16071752</v>
       </c>
       <c r="F55" t="n">
-        <v>590.837079133307</v>
+        <v>513.9603587452128</v>
       </c>
       <c r="G55" t="n">
-        <v>41.46062837142535</v>
+        <v>265.1976558069417</v>
       </c>
       <c r="H55" t="n">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="I55" t="n">
-        <v>481442</v>
+        <v>483369</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>444046601</v>
+        <v>445607709</v>
       </c>
       <c r="E56" t="n">
-        <v>444046601</v>
+        <v>445607709</v>
       </c>
       <c r="F56" t="n">
-        <v>4005.382337724509</v>
+        <v>4556.443568975436</v>
       </c>
       <c r="G56" t="n">
-        <v>7343.527483431261</v>
+        <v>4078.444425974177</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I56" t="n">
-        <v>2520701</v>
+        <v>2531960</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2463165</v>
+        <v>2491449</v>
       </c>
       <c r="E57" t="n">
-        <v>2463165</v>
+        <v>2491449</v>
       </c>
       <c r="F57" t="n">
-        <v>4.024597815882097</v>
+        <v>3.924619585519182</v>
       </c>
       <c r="G57" t="n">
-        <v>71.47427615197238</v>
+        <v>68.32016139175389</v>
       </c>
       <c r="H57" t="n">
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
       <c r="I57" t="n">
-        <v>55226</v>
+        <v>54587</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>165367165</v>
+        <v>179745135</v>
       </c>
       <c r="E58" t="n">
-        <v>217603849</v>
+        <v>236523576</v>
       </c>
       <c r="F58" t="n">
-        <v>12506.32170508883</v>
+        <v>5050.57739915698</v>
       </c>
       <c r="G58" t="n">
-        <v>10880.14650526237</v>
+        <v>10335.51797936022</v>
       </c>
       <c r="H58" t="n">
-        <v>0.46</v>
+        <v>1.08</v>
       </c>
       <c r="I58" t="n">
-        <v>8193378</v>
+        <v>9601153</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1126210</v>
+        <v>1128317</v>
       </c>
       <c r="E59" t="n">
-        <v>12239231</v>
+        <v>12262125</v>
       </c>
       <c r="F59" t="n">
-        <v>12.8828674332034</v>
+        <v>305.2048757241185</v>
       </c>
       <c r="G59" t="n">
-        <v>3.822828512167841</v>
+        <v>97.74581964500683</v>
       </c>
       <c r="H59" t="n">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="I59" t="n">
-        <v>31063</v>
+        <v>31910</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2556816</v>
+        <v>2556597</v>
       </c>
       <c r="E60" t="n">
-        <v>6536722</v>
+        <v>6536161</v>
       </c>
       <c r="F60" t="n">
-        <v>204.8764171648885</v>
+        <v>204.8773186132787</v>
       </c>
       <c r="G60" t="n">
-        <v>192.2206308249107</v>
+        <v>256.9837021714871</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>109354</v>
+        <v>109361</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>82042446</v>
+        <v>83401487</v>
       </c>
       <c r="E61" t="n">
-        <v>229569759</v>
+        <v>233311748</v>
       </c>
       <c r="F61" t="n">
-        <v>62233.74822836527</v>
+        <v>70505.24568202064</v>
       </c>
       <c r="G61" t="n">
-        <v>85846.41376857</v>
+        <v>90518.76086553626</v>
       </c>
       <c r="H61" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I61" t="n">
-        <v>44481066</v>
+        <v>43746291</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>74549274</v>
+        <v>74417519</v>
       </c>
       <c r="E62" t="n">
-        <v>74549274</v>
+        <v>74417519</v>
       </c>
       <c r="F62" t="n">
-        <v>3303.947510955691</v>
+        <v>3671.509580055484</v>
       </c>
       <c r="G62" t="n">
-        <v>3787.061635020869</v>
+        <v>7645.199132457805</v>
       </c>
       <c r="H62" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="I62" t="n">
-        <v>3380888</v>
+        <v>3295144</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4109583</v>
+        <v>4129094</v>
       </c>
       <c r="E63" t="n">
-        <v>8104443</v>
+        <v>8142921</v>
       </c>
       <c r="F63" t="n">
-        <v>2544.26219626932</v>
+        <v>1926.106542633082</v>
       </c>
       <c r="G63" t="n">
-        <v>1511.802470712371</v>
+        <v>3569.315639170344</v>
       </c>
       <c r="H63" t="n">
-        <v>0.66</v>
+        <v>0.12</v>
       </c>
       <c r="I63" t="n">
-        <v>1649284</v>
+        <v>1645740</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1615119</v>
+        <v>1628302</v>
       </c>
       <c r="E64" t="n">
-        <v>9273410</v>
+        <v>9349101</v>
       </c>
       <c r="F64" t="n">
-        <v>22.09223249679978</v>
+        <v>5.402243301465986</v>
       </c>
       <c r="G64" t="n">
-        <v>14.10087456527032</v>
+        <v>595.0316605568855</v>
       </c>
       <c r="H64" t="n">
-        <v>1.13</v>
+        <v>0.6</v>
       </c>
       <c r="I64" t="n">
-        <v>277849</v>
+        <v>281858</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>551846</v>
+        <v>548173</v>
       </c>
       <c r="F65" t="n">
-        <v>4.101841478144513</v>
+        <v>4.101827268539434</v>
       </c>
       <c r="G65" t="n">
-        <v>8.634288513150882</v>
+        <v>8.634258602236342</v>
       </c>
       <c r="H65" t="n">
         <v>0.43</v>
       </c>
       <c r="I65" t="n">
-        <v>1686.48</v>
+        <v>1723.98</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31243462</v>
+        <v>31195010</v>
       </c>
       <c r="F66" t="n">
-        <v>751.6915179278687</v>
+        <v>759.816729168518</v>
       </c>
       <c r="G66" t="n">
-        <v>365.340363200113</v>
+        <v>317.514658183134</v>
       </c>
       <c r="H66" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="I66" t="n">
-        <v>244615</v>
+        <v>244388</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>164955</v>
+        <v>169565</v>
       </c>
       <c r="E67" t="n">
-        <v>1113957</v>
+        <v>1145091</v>
       </c>
       <c r="F67" t="n">
-        <v>3.929349940492644</v>
+        <v>404.6862982198227</v>
       </c>
       <c r="G67" t="n">
-        <v>674.9069562270431</v>
+        <v>5.43595539379947</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9</v>
+        <v>0.22</v>
       </c>
       <c r="I67" t="n">
-        <v>2806557</v>
+        <v>2814814</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7626017</v>
+        <v>7693760</v>
       </c>
       <c r="E68" t="n">
-        <v>17960787</v>
+        <v>18120335</v>
       </c>
       <c r="F68" t="n">
-        <v>846.8119176363344</v>
+        <v>1195.754702615361</v>
       </c>
       <c r="G68" t="n">
-        <v>3449.895652742202</v>
+        <v>1551.001042153574</v>
       </c>
       <c r="H68" t="n">
-        <v>0.11</v>
+        <v>1.2</v>
       </c>
       <c r="I68" t="n">
-        <v>30066</v>
+        <v>32443</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3016081</v>
+        <v>3036300</v>
       </c>
       <c r="E69" t="n">
-        <v>3016081</v>
+        <v>3036300</v>
       </c>
       <c r="F69" t="n">
-        <v>112.7263156131121</v>
+        <v>91.9356827667897</v>
       </c>
       <c r="G69" t="n">
-        <v>160.5934492793975</v>
+        <v>198.1070173885649</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.52</v>
       </c>
       <c r="I69" t="n">
-        <v>19979.56</v>
+        <v>19759.68</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3374025</v>
+        <v>3362345</v>
       </c>
       <c r="E70" t="n">
-        <v>8325234</v>
+        <v>8296414</v>
       </c>
       <c r="F70" t="n">
-        <v>1164.256770758414</v>
+        <v>1143.641791354625</v>
       </c>
       <c r="G70" t="n">
-        <v>1201.50013497122</v>
+        <v>1177.531057884157</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>40322</v>
+        <v>38225</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23045676</v>
+        <v>23031317</v>
       </c>
       <c r="F71" t="n">
-        <v>427.3805630429731</v>
+        <v>447.8905345068884</v>
       </c>
       <c r="G71" t="n">
-        <v>125.6414889085664</v>
+        <v>98.59665618229231</v>
       </c>
       <c r="H71" t="n">
         <v>0.43</v>
       </c>
       <c r="I71" t="n">
-        <v>125358</v>
+        <v>129147</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>265640</v>
+        <v>265738</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1592.05</v>
+        <v>1588.39</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>78441662</v>
+        <v>78584792</v>
       </c>
       <c r="E73" t="n">
-        <v>163590699</v>
+        <v>163889198</v>
       </c>
       <c r="F73" t="n">
-        <v>17655.68969663478</v>
+        <v>21530.02774637489</v>
       </c>
       <c r="G73" t="n">
-        <v>475.5941005211056</v>
+        <v>275.8150876030764</v>
       </c>
       <c r="H73" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I73" t="n">
-        <v>17754087</v>
+        <v>18623221</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>199854883</v>
+        <v>199352248</v>
       </c>
       <c r="F75" t="n">
-        <v>23527.91677114753</v>
+        <v>31050.31525500865</v>
       </c>
       <c r="G75" t="n">
-        <v>7139.595378310172</v>
+        <v>7357.572130409076</v>
       </c>
       <c r="H75" t="n">
         <v>0.3</v>
       </c>
       <c r="I75" t="n">
-        <v>3551381</v>
+        <v>3365095</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>86421856</v>
+        <v>85818925</v>
       </c>
       <c r="E76" t="n">
-        <v>118670658</v>
+        <v>117842740</v>
       </c>
       <c r="F76" t="n">
-        <v>1964.787213686545</v>
+        <v>415.8878138529821</v>
       </c>
       <c r="G76" t="n">
-        <v>3053.171298065311</v>
+        <v>3116.508837775822</v>
       </c>
       <c r="H76" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="I76" t="n">
-        <v>823072</v>
+        <v>1061545</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>179905</v>
+        <v>179989</v>
       </c>
       <c r="E77" t="n">
-        <v>187872</v>
+        <v>187959</v>
       </c>
       <c r="F77" t="n">
-        <v>5.414156282629691</v>
+        <v>5.414354654846787</v>
       </c>
       <c r="G77" t="n">
-        <v>414.9329145530899</v>
+        <v>414.948117505851</v>
       </c>
       <c r="H77" t="n">
         <v>0.57</v>
       </c>
       <c r="I77" t="n">
-        <v>326.31</v>
+        <v>291.68</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7936982</v>
+        <v>8041494</v>
       </c>
       <c r="E78" t="n">
-        <v>8731211</v>
+        <v>8846181</v>
       </c>
       <c r="F78" t="n">
-        <v>369.10597299968</v>
+        <v>580.9193543846803</v>
       </c>
       <c r="G78" t="n">
-        <v>377.4103309044402</v>
+        <v>277.1675660371025</v>
       </c>
       <c r="H78" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="I78" t="n">
-        <v>728236</v>
+        <v>739002</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29229899</v>
+        <v>29006578</v>
       </c>
       <c r="E79" t="n">
-        <v>29229899</v>
+        <v>29006578</v>
       </c>
       <c r="F79" t="n">
-        <v>998.8274603898502</v>
+        <v>52.65251117340784</v>
       </c>
       <c r="G79" t="n">
-        <v>78.8791828417129</v>
+        <v>1767.400938810659</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I79" t="n">
-        <v>267228</v>
+        <v>266192</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>276164541</v>
+        <v>276125456</v>
       </c>
       <c r="E80" t="n">
-        <v>276164541</v>
+        <v>276125456</v>
       </c>
       <c r="F80" t="n">
-        <v>320.6231193578303</v>
+        <v>4061.273586635185</v>
       </c>
       <c r="G80" t="n">
-        <v>6597.949117093371</v>
+        <v>7504.695726569254</v>
       </c>
       <c r="H80" t="n">
         <v>0.18</v>
       </c>
       <c r="I80" t="n">
-        <v>9929474</v>
+        <v>9535608</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>653743509</v>
+        <v>653137762</v>
       </c>
       <c r="E81" t="n">
-        <v>653743509</v>
+        <v>653137762</v>
       </c>
       <c r="F81" t="n">
-        <v>1303610.718200854</v>
+        <v>1021735.534680799</v>
       </c>
       <c r="G81" t="n">
-        <v>1251178.635586022</v>
+        <v>1527298.62852685</v>
       </c>
       <c r="H81" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="I81" t="n">
-        <v>310054509</v>
+        <v>312249115</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>116496</v>
+        <v>116671</v>
       </c>
       <c r="E82" t="n">
-        <v>116496</v>
+        <v>116671</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>426.23</v>
+        <v>426.86</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>205191713</v>
+        <v>208070779</v>
       </c>
       <c r="E83" t="n">
-        <v>712854557</v>
+        <v>722856690</v>
       </c>
       <c r="F83" t="n">
-        <v>956.8486116592194</v>
+        <v>1438.230900623428</v>
       </c>
       <c r="G83" t="n">
-        <v>1915.416832658108</v>
+        <v>2167.004010799338</v>
       </c>
       <c r="H83" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I83" t="n">
-        <v>28154743</v>
+        <v>29289909</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3639897</v>
+        <v>3497397</v>
       </c>
       <c r="E84" t="n">
-        <v>3639897</v>
+        <v>3497397</v>
       </c>
       <c r="F84" t="n">
-        <v>2347.940603195381</v>
+        <v>2551.909857545859</v>
       </c>
       <c r="G84" t="n">
-        <v>393.2319032852765</v>
+        <v>790.851594583746</v>
       </c>
       <c r="H84" t="n">
-        <v>0.95</v>
+        <v>0.37</v>
       </c>
       <c r="I84" t="n">
-        <v>2609143</v>
+        <v>2532993</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>116051723</v>
+        <v>117000279</v>
       </c>
       <c r="E85" t="n">
-        <v>492985091</v>
+        <v>496970166</v>
       </c>
       <c r="F85" t="n">
-        <v>319557.4284744518</v>
+        <v>309128.8342435242</v>
       </c>
       <c r="G85" t="n">
-        <v>464334.2476587017</v>
+        <v>443545.7132052179</v>
       </c>
       <c r="H85" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I85" t="n">
-        <v>15395429</v>
+        <v>15632623</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71816820</v>
+        <v>71422618</v>
       </c>
       <c r="E86" t="n">
-        <v>82400653</v>
+        <v>81948357</v>
       </c>
       <c r="F86" t="n">
-        <v>22859.45117344182</v>
+        <v>22079.54377187265</v>
       </c>
       <c r="G86" t="n">
-        <v>18078.96336773132</v>
+        <v>17798.47915512192</v>
       </c>
       <c r="H86" t="n">
         <v>0.34</v>
       </c>
       <c r="I86" t="n">
-        <v>1296085</v>
+        <v>1174678</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3133767</v>
+        <v>3167417</v>
       </c>
       <c r="E87" t="n">
-        <v>15712076</v>
+        <v>15880791</v>
       </c>
       <c r="F87" t="n">
-        <v>5.408663586943622</v>
+        <v>5.333461503690215</v>
       </c>
       <c r="G87" t="n">
-        <v>71.18796202097766</v>
+        <v>71.04564981835352</v>
       </c>
       <c r="H87" t="n">
         <v>0.31</v>
       </c>
       <c r="I87" t="n">
-        <v>33136</v>
+        <v>32528</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>509753</v>
+        <v>508631</v>
       </c>
       <c r="E88" t="n">
-        <v>8719286</v>
+        <v>8700107</v>
       </c>
       <c r="F88" t="n">
-        <v>706.1985036544984</v>
+        <v>634.611761635715</v>
       </c>
       <c r="G88" t="n">
-        <v>1383.284211217733</v>
+        <v>1410.078965267148</v>
       </c>
       <c r="H88" t="n">
-        <v>1.64</v>
+        <v>1.13</v>
       </c>
       <c r="I88" t="n">
-        <v>162706</v>
+        <v>162320</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5815657</v>
+        <v>5782095</v>
       </c>
       <c r="E89" t="n">
-        <v>7900897</v>
+        <v>7855302</v>
       </c>
       <c r="F89" t="n">
-        <v>1658.15273249026</v>
+        <v>63.65108288939478</v>
       </c>
       <c r="G89" t="n">
-        <v>98.64384291423701</v>
+        <v>2250.276024345675</v>
       </c>
       <c r="H89" t="n">
         <v>0.34</v>
       </c>
       <c r="I89" t="n">
-        <v>1329617</v>
+        <v>5620354</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40384596</v>
+        <v>40314582</v>
       </c>
       <c r="E90" t="n">
-        <v>47168249</v>
+        <v>47086475</v>
       </c>
       <c r="F90" t="n">
-        <v>514.8121677810195</v>
+        <v>535.1480552268109</v>
       </c>
       <c r="G90" t="n">
-        <v>156.7722693014393</v>
+        <v>5.407202395112109</v>
       </c>
       <c r="H90" t="n">
         <v>1.02</v>
       </c>
       <c r="I90" t="n">
-        <v>921096</v>
+        <v>899374</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14656709</v>
+        <v>15035648</v>
       </c>
       <c r="F91" t="n">
-        <v>69.76037422616595</v>
+        <v>225.3462507523645</v>
       </c>
       <c r="G91" t="n">
-        <v>206.1366724996152</v>
+        <v>305.2669686475809</v>
       </c>
       <c r="H91" t="n">
-        <v>1.39</v>
+        <v>0.89</v>
       </c>
       <c r="I91" t="n">
-        <v>270563</v>
+        <v>271269</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36290951</v>
+        <v>36401393</v>
       </c>
       <c r="E92" t="n">
-        <v>36290951</v>
+        <v>36401393</v>
       </c>
       <c r="F92" t="n">
-        <v>429.6665797125598</v>
+        <v>347.3655801345009</v>
       </c>
       <c r="G92" t="n">
-        <v>119.0596899620589</v>
+        <v>81.2027927244274</v>
       </c>
       <c r="H92" t="n">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="I92" t="n">
-        <v>769493</v>
+        <v>784120</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17282158</v>
+        <v>17093199</v>
       </c>
       <c r="F93" t="n">
-        <v>267.0892056611054</v>
+        <v>114.2015794502726</v>
       </c>
       <c r="G93" t="n">
-        <v>167.6597164754924</v>
+        <v>263.4929861600047</v>
       </c>
       <c r="H93" t="n">
-        <v>1.56</v>
+        <v>0.47</v>
       </c>
       <c r="I93" t="n">
-        <v>190382</v>
+        <v>192615</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>567534</v>
+        <v>570049</v>
       </c>
       <c r="E94" t="n">
-        <v>6883637</v>
+        <v>6914139</v>
       </c>
       <c r="F94" t="n">
-        <v>718.868813936834</v>
+        <v>853.0239180491511</v>
       </c>
       <c r="G94" t="n">
-        <v>508.6760388532115</v>
+        <v>874.468515807596</v>
       </c>
       <c r="H94" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="I94" t="n">
-        <v>2828959</v>
+        <v>2814657</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>26105874</v>
+        <v>26124259</v>
       </c>
       <c r="E95" t="n">
-        <v>36899633</v>
+        <v>36925619</v>
       </c>
       <c r="F95" t="n">
-        <v>4.232945578320676</v>
+        <v>5.228653405990487</v>
       </c>
       <c r="G95" t="n">
-        <v>1386.632435020535</v>
+        <v>4.026862589673509</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="I95" t="n">
-        <v>58375</v>
+        <v>73659</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1303685598</v>
+        <v>1305017304</v>
       </c>
       <c r="E96" t="n">
-        <v>6251439432</v>
+        <v>6257825236</v>
       </c>
       <c r="F96" t="n">
-        <v>458877.5379634137</v>
+        <v>482542.086377044</v>
       </c>
       <c r="G96" t="n">
-        <v>644991.3628367692</v>
+        <v>570446.6673753369</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>165864202</v>
+        <v>165988352</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>271775792</v>
+        <v>272332396</v>
       </c>
       <c r="E97" t="n">
-        <v>1173135191</v>
+        <v>1175537804</v>
       </c>
       <c r="F97" t="n">
-        <v>136145.4126647557</v>
+        <v>286345.5795154736</v>
       </c>
       <c r="G97" t="n">
-        <v>803289.5362077474</v>
+        <v>1029563.860770669</v>
       </c>
       <c r="H97" t="n">
         <v>0.09</v>
       </c>
       <c r="I97" t="n">
-        <v>100359041</v>
+        <v>100893566</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5151614</v>
+        <v>5149051</v>
       </c>
       <c r="E98" t="n">
-        <v>5709014</v>
+        <v>5706175</v>
       </c>
       <c r="F98" t="n">
-        <v>604.102107186986</v>
+        <v>370.9726916989536</v>
       </c>
       <c r="G98" t="n">
-        <v>179.1468453535996</v>
+        <v>152.5241901669305</v>
       </c>
       <c r="H98" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>610757</v>
+        <v>620736</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>98502</v>
+        <v>98681</v>
       </c>
       <c r="E99" t="n">
-        <v>98502</v>
+        <v>98681</v>
       </c>
       <c r="F99" t="n">
-        <v>3.888172514341185</v>
+        <v>3.888185737086669</v>
       </c>
       <c r="G99" t="n">
-        <v>4.003839341774738</v>
+        <v>4.003852957875458</v>
       </c>
       <c r="H99" t="n">
         <v>0.47</v>
       </c>
       <c r="I99" t="n">
-        <v>1687.75</v>
+        <v>1625.33</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>115226381</v>
+        <v>115439393</v>
       </c>
       <c r="E100" t="n">
-        <v>115226381</v>
+        <v>115439393</v>
       </c>
       <c r="F100" t="n">
-        <v>14697.14369742523</v>
+        <v>43602.11679252678</v>
       </c>
       <c r="G100" t="n">
-        <v>16731.91008031679</v>
+        <v>14040.56083018163</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6108118</v>
+        <v>6136173</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3806931</v>
+        <v>3823745</v>
       </c>
       <c r="F101" t="n">
-        <v>1151.982454573055</v>
+        <v>617.9814355271798</v>
       </c>
       <c r="G101" t="n">
-        <v>1666.467175804428</v>
+        <v>452.8963636762371</v>
       </c>
       <c r="H101" t="n">
         <v>0.84</v>
       </c>
       <c r="I101" t="n">
-        <v>297254</v>
+        <v>298279</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2039190874</v>
+        <v>2043521737</v>
       </c>
       <c r="E102" t="n">
-        <v>2039190874</v>
+        <v>2043521737</v>
       </c>
       <c r="F102" t="n">
-        <v>6983696.490713376</v>
+        <v>6983969.04985078</v>
       </c>
       <c r="G102" t="n">
-        <v>5088975.629965637</v>
+        <v>5074385.882647256</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>6753134443</v>
+        <v>6224282481</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5314468</v>
+        <v>5340621</v>
       </c>
       <c r="E103" t="n">
-        <v>5320483</v>
+        <v>5346666</v>
       </c>
       <c r="F103" t="n">
-        <v>59.17977663646307</v>
+        <v>292.6012770974966</v>
       </c>
       <c r="G103" t="n">
-        <v>113.3720969521611</v>
+        <v>64.85836902817356</v>
       </c>
       <c r="H103" t="n">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="I103" t="n">
-        <v>146461</v>
+        <v>147206</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2252856</v>
+        <v>2237422</v>
       </c>
       <c r="F104" t="n">
-        <v>5.42692195764116</v>
+        <v>5.425632100323557</v>
       </c>
       <c r="G104" t="n">
-        <v>284.8828034657996</v>
+        <v>284.8815421997905</v>
       </c>
       <c r="H104" t="n">
         <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>57271</v>
+        <v>57108</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4453859</v>
+        <v>4439255</v>
       </c>
       <c r="E105" t="n">
-        <v>5847336</v>
+        <v>5828162</v>
       </c>
       <c r="F105" t="n">
-        <v>4871.69330006189</v>
+        <v>11568.0333003527</v>
       </c>
       <c r="G105" t="n">
-        <v>12364.93711407178</v>
+        <v>11613.9970381302</v>
       </c>
       <c r="H105" t="n">
         <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>603223</v>
+        <v>622852</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19828895</v>
+        <v>19761069</v>
       </c>
       <c r="F106" t="n">
-        <v>176.9164059858613</v>
+        <v>293.1616796713785</v>
       </c>
       <c r="G106" t="n">
-        <v>353.3272126781365</v>
+        <v>186.9916271489699</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5</v>
+        <v>1.01</v>
       </c>
       <c r="I106" t="n">
-        <v>56197</v>
+        <v>52310</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1351199</v>
+        <v>1345849</v>
       </c>
       <c r="E107" t="n">
-        <v>5037619</v>
+        <v>5017672</v>
       </c>
       <c r="F107" t="n">
-        <v>1674.741064364557</v>
+        <v>198.9131735067292</v>
       </c>
       <c r="G107" t="n">
-        <v>151.6053364522668</v>
+        <v>188.9882101764865</v>
       </c>
       <c r="H107" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I107" t="n">
-        <v>564180</v>
+        <v>578231</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4194667</v>
+        <v>4327374</v>
       </c>
       <c r="E108" t="n">
-        <v>12082636</v>
+        <v>12464896</v>
       </c>
       <c r="F108" t="n">
-        <v>347.5517963520821</v>
+        <v>25.69344254554439</v>
       </c>
       <c r="G108" t="n">
-        <v>89.39828166830318</v>
+        <v>124.814961775979</v>
       </c>
       <c r="H108" t="n">
-        <v>1.71</v>
+        <v>2.46</v>
       </c>
       <c r="I108" t="n">
-        <v>630549</v>
+        <v>617874</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80478912</v>
+        <v>80644355</v>
       </c>
       <c r="E109" t="n">
-        <v>102415670</v>
+        <v>102626209</v>
       </c>
       <c r="F109" t="n">
-        <v>6990.671467796657</v>
+        <v>4659.941303632169</v>
       </c>
       <c r="G109" t="n">
-        <v>100.2949656578776</v>
+        <v>289.6589969877971</v>
       </c>
       <c r="H109" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>6234765</v>
+        <v>6247414</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>22985266</v>
+        <v>23022514</v>
       </c>
       <c r="E110" t="n">
-        <v>29817148</v>
+        <v>29865467</v>
       </c>
       <c r="F110" t="n">
-        <v>18829.10622616144</v>
+        <v>20362.00695582038</v>
       </c>
       <c r="G110" t="n">
-        <v>9775.210964691285</v>
+        <v>14783.82576451618</v>
       </c>
       <c r="H110" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="I110" t="n">
-        <v>161688</v>
+        <v>163216</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>727617</v>
+        <v>662347</v>
       </c>
       <c r="E111" t="n">
-        <v>727617</v>
+        <v>662347</v>
       </c>
       <c r="F111" t="n">
-        <v>32.72342199988259</v>
+        <v>7.517727373488039</v>
       </c>
       <c r="G111" t="n">
-        <v>508.0795137679429</v>
+        <v>31.33895252964007</v>
       </c>
       <c r="H111" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="I111" t="n">
-        <v>82491</v>
+        <v>78666</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13813776</v>
+        <v>13915854</v>
       </c>
       <c r="E112" t="n">
-        <v>13813776</v>
+        <v>13915854</v>
       </c>
       <c r="F112" t="n">
-        <v>2195.639351409714</v>
+        <v>2698.289461831882</v>
       </c>
       <c r="G112" t="n">
-        <v>3098.681141804761</v>
+        <v>4031.617817554782</v>
       </c>
       <c r="H112" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="I112" t="n">
-        <v>4872053</v>
+        <v>4883319</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99096353</v>
+        <v>99000153</v>
       </c>
       <c r="E113" t="n">
-        <v>122578642</v>
+        <v>122459645</v>
       </c>
       <c r="F113" t="n">
-        <v>459.2721479786505</v>
+        <v>441.2457431103604</v>
       </c>
       <c r="G113" t="n">
-        <v>565.3799348825598</v>
+        <v>707.1308700068962</v>
       </c>
       <c r="H113" t="n">
         <v>0.54</v>
       </c>
       <c r="I113" t="n">
-        <v>826434</v>
+        <v>826749</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>845101</v>
+        <v>851594</v>
       </c>
       <c r="F114" t="n">
-        <v>187.3153628113332</v>
+        <v>543.127017382478</v>
       </c>
       <c r="G114" t="n">
-        <v>176.5762457360665</v>
+        <v>108.5974279436576</v>
       </c>
       <c r="H114" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="I114" t="n">
-        <v>25838</v>
+        <v>28997</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2712213</v>
+        <v>2734192</v>
       </c>
       <c r="F115" t="n">
-        <v>257.8594381607297</v>
+        <v>158.8645704431972</v>
       </c>
       <c r="G115" t="n">
-        <v>1052.748127670524</v>
+        <v>1051.302000904591</v>
       </c>
       <c r="H115" t="n">
         <v>1.75</v>
       </c>
       <c r="I115" t="n">
-        <v>82550</v>
+        <v>83409</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11354908</v>
+        <v>11401835</v>
       </c>
       <c r="E116" t="n">
-        <v>16698393</v>
+        <v>16767403</v>
       </c>
       <c r="F116" t="n">
-        <v>2489.392801498137</v>
+        <v>3745.697529515985</v>
       </c>
       <c r="G116" t="n">
-        <v>5293.493110113093</v>
+        <v>5359.738136613285</v>
       </c>
       <c r="H116" t="n">
-        <v>1.02</v>
+        <v>0.47</v>
       </c>
       <c r="I116" t="n">
-        <v>590392</v>
+        <v>591448</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3126581</v>
+        <v>3182095</v>
       </c>
       <c r="F117" t="n">
-        <v>3.942863806683686</v>
+        <v>15.61831078361011</v>
       </c>
       <c r="G117" t="n">
-        <v>419.2206028261279</v>
+        <v>419.2153102588603</v>
       </c>
       <c r="H117" t="n">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
       <c r="I117" t="n">
-        <v>36043</v>
+        <v>35717</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1190564</v>
+        <v>1133803</v>
       </c>
       <c r="F118" t="n">
-        <v>4.014240881995079</v>
+        <v>3.818032446343627</v>
       </c>
       <c r="G118" t="n">
-        <v>21.96612939887165</v>
+        <v>22.7188209010968</v>
       </c>
       <c r="H118" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="I118" t="n">
-        <v>4853.63</v>
+        <v>6816.84</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5170870</v>
+        <v>5169401</v>
       </c>
       <c r="E119" t="n">
-        <v>7234797</v>
+        <v>7232742</v>
       </c>
       <c r="F119" t="n">
-        <v>1187.870020443398</v>
+        <v>1215.479930280798</v>
       </c>
       <c r="G119" t="n">
-        <v>1728.433524916128</v>
+        <v>1853.660778853314</v>
       </c>
       <c r="H119" t="n">
         <v>0.32</v>
       </c>
       <c r="I119" t="n">
-        <v>103663</v>
+        <v>91854</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10121955</v>
+        <v>10195289</v>
       </c>
       <c r="E120" t="n">
-        <v>27880491</v>
+        <v>28082489</v>
       </c>
       <c r="F120" t="n">
-        <v>14.10753090962989</v>
+        <v>14.1275353176734</v>
       </c>
       <c r="G120" t="n">
-        <v>137.5937039332327</v>
+        <v>35.37893712110561</v>
       </c>
       <c r="H120" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="I120" t="n">
-        <v>331284</v>
+        <v>333098</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51554668</v>
+        <v>51779460</v>
       </c>
       <c r="E121" t="n">
-        <v>131338464</v>
+        <v>131911133</v>
       </c>
       <c r="F121" t="n">
-        <v>1224.599161995642</v>
+        <v>646.9658905752865</v>
       </c>
       <c r="G121" t="n">
-        <v>11535.89044174342</v>
+        <v>11401.93512440926</v>
       </c>
       <c r="H121" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="I121" t="n">
-        <v>2422664</v>
+        <v>2427326</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14595024</v>
+        <v>14890670</v>
       </c>
       <c r="E122" t="n">
-        <v>70686029</v>
+        <v>72117893</v>
       </c>
       <c r="F122" t="n">
-        <v>2697.183785214303</v>
+        <v>2454.113782661374</v>
       </c>
       <c r="G122" t="n">
-        <v>3393.383391120171</v>
+        <v>3486.459239057889</v>
       </c>
       <c r="H122" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="I122" t="n">
-        <v>3803677</v>
+        <v>3932429</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>493409</v>
+        <v>503104</v>
       </c>
       <c r="F123" t="n">
-        <v>5.531619555877851</v>
+        <v>5.531703753567871</v>
       </c>
       <c r="G123" t="n">
-        <v>3.977313889452293</v>
+        <v>3.977374428800415</v>
       </c>
       <c r="H123" t="n">
         <v>0.8</v>
       </c>
       <c r="I123" t="n">
-        <v>7708.77</v>
+        <v>6503.12</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4625682</v>
+        <v>4651519</v>
       </c>
       <c r="E124" t="n">
-        <v>10544037</v>
+        <v>10602933</v>
       </c>
       <c r="F124" t="n">
-        <v>558.230503001727</v>
+        <v>804.0892400108168</v>
       </c>
       <c r="G124" t="n">
-        <v>2254.26519117314</v>
+        <v>1835.88800269549</v>
       </c>
       <c r="H124" t="n">
         <v>1.41</v>
       </c>
       <c r="I124" t="n">
-        <v>86645</v>
+        <v>87143</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1919861201</v>
+        <v>1925406140</v>
       </c>
       <c r="F125" t="n">
-        <v>73054.34746872187</v>
+        <v>76255.96923642722</v>
       </c>
       <c r="G125" t="n">
-        <v>53554.62813078787</v>
+        <v>73861.06660897227</v>
       </c>
       <c r="H125" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I125" t="n">
-        <v>27760599</v>
+        <v>27679851</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9547092</v>
+        <v>9606023</v>
       </c>
       <c r="E126" t="n">
-        <v>34745813</v>
+        <v>34960278</v>
       </c>
       <c r="F126" t="n">
-        <v>1141.294681656835</v>
+        <v>1073.4825362948</v>
       </c>
       <c r="G126" t="n">
-        <v>5.295052148450547</v>
+        <v>5.295231416979922</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>123978</v>
+        <v>116797</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>559499</v>
+        <v>568714</v>
       </c>
       <c r="F127" t="n">
-        <v>53.12648342002564</v>
+        <v>24.80548635886113</v>
       </c>
       <c r="G127" t="n">
-        <v>3.190060607295941</v>
+        <v>4.119146946277795</v>
       </c>
       <c r="H127" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="I127" t="n">
-        <v>853.5700000000001</v>
+        <v>893.39</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12146912</v>
+        <v>12222554</v>
       </c>
       <c r="E128" t="n">
-        <v>17611270</v>
+        <v>17720940</v>
       </c>
       <c r="F128" t="n">
-        <v>2983.817925614773</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>4753.812663032493</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0.43</v>
+        <v>4.92</v>
       </c>
       <c r="I128" t="n">
-        <v>2029551</v>
+        <v>2035845</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31783213</v>
+        <v>31617236</v>
       </c>
       <c r="E129" t="n">
-        <v>98962726</v>
+        <v>98445927</v>
       </c>
       <c r="F129" t="n">
-        <v>12716.16024017</v>
+        <v>14932.34233199387</v>
       </c>
       <c r="G129" t="n">
-        <v>20073.21599307735</v>
+        <v>11282.85664150147</v>
       </c>
       <c r="H129" t="n">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="I129" t="n">
-        <v>11433062</v>
+        <v>10804548</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2072989</v>
+        <v>1979854</v>
       </c>
       <c r="E130" t="n">
-        <v>14865195</v>
+        <v>14197332</v>
       </c>
       <c r="F130" t="n">
-        <v>83.16898105479217</v>
+        <v>12.32317521884699</v>
       </c>
       <c r="G130" t="n">
-        <v>4.167452361976093</v>
+        <v>3.923573746864789</v>
       </c>
       <c r="H130" t="n">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="I130" t="n">
-        <v>1983537</v>
+        <v>2000489</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7470318</v>
+        <v>7472951</v>
       </c>
       <c r="F131" t="n">
-        <v>129.5391172082559</v>
+        <v>87.55092612223875</v>
       </c>
       <c r="G131" t="n">
-        <v>120.0843444989563</v>
+        <v>746.5908215169749</v>
       </c>
       <c r="H131" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="I131" t="n">
-        <v>511592</v>
+        <v>508186</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>205582629</v>
+        <v>205638160</v>
       </c>
       <c r="E132" t="n">
-        <v>1164135166</v>
+        <v>1164449613</v>
       </c>
       <c r="F132" t="n">
-        <v>477602.3098340975</v>
+        <v>430884.3646253446</v>
       </c>
       <c r="G132" t="n">
-        <v>496496.9918999852</v>
+        <v>610860.6577184283</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>66439188</v>
+        <v>67216625</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1034892</v>
+        <v>1042605</v>
       </c>
       <c r="E133" t="n">
-        <v>1034892</v>
+        <v>1042605</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5539.51</v>
+        <v>5497.15</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>503567</v>
+        <v>501416</v>
       </c>
       <c r="E134" t="n">
-        <v>1694935</v>
+        <v>1687695</v>
       </c>
       <c r="F134" t="n">
-        <v>113.2893511162842</v>
+        <v>183.4169138958123</v>
       </c>
       <c r="G134" t="n">
-        <v>246.3750006360211</v>
+        <v>264.6285927991796</v>
       </c>
       <c r="H134" t="n">
         <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>632790</v>
+        <v>632644</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>14135057</v>
+        <v>14147258</v>
       </c>
       <c r="F135" t="n">
-        <v>5.405596651131791</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>3.86850206441624</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0.35</v>
+        <v>6.97</v>
       </c>
       <c r="I135" t="n">
-        <v>142.77</v>
+        <v>162.18</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>142990463</v>
+        <v>143382269</v>
       </c>
       <c r="E136" t="n">
-        <v>1059188615</v>
+        <v>1062090881</v>
       </c>
       <c r="F136" t="n">
-        <v>32276.27877911921</v>
+        <v>32363.15548540485</v>
       </c>
       <c r="G136" t="n">
-        <v>32723.88779806587</v>
+        <v>32923.9526938459</v>
       </c>
       <c r="H136" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="I136" t="n">
-        <v>8585186</v>
+        <v>8467418</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>32188501</v>
+        <v>32728909</v>
       </c>
       <c r="E137" t="n">
-        <v>152915212</v>
+        <v>155482482</v>
       </c>
       <c r="F137" t="n">
-        <v>10449.36943033722</v>
+        <v>10228.65512045703</v>
       </c>
       <c r="G137" t="n">
-        <v>9648.834696689244</v>
+        <v>11590.8113989367</v>
       </c>
       <c r="H137" t="n">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="I137" t="n">
-        <v>1130248</v>
+        <v>1155064</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8188099</v>
+        <v>8232003</v>
       </c>
       <c r="E138" t="n">
-        <v>10969323</v>
+        <v>11028139</v>
       </c>
       <c r="F138" t="n">
-        <v>639.8144065278356</v>
+        <v>500.3508407612075</v>
       </c>
       <c r="G138" t="n">
-        <v>344.1371760455469</v>
+        <v>11.7403602356396</v>
       </c>
       <c r="H138" t="n">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="I138" t="n">
-        <v>60051</v>
+        <v>63088</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1251633</v>
+        <v>1242446</v>
       </c>
       <c r="F139" t="n">
-        <v>97.52095217000429</v>
+        <v>26.97404782193887</v>
       </c>
       <c r="G139" t="n">
-        <v>6.371826284754759</v>
+        <v>5.139725767168213</v>
       </c>
       <c r="H139" t="n">
-        <v>0.85</v>
+        <v>0.16</v>
       </c>
       <c r="I139" t="n">
-        <v>8581.120000000001</v>
+        <v>2423.77</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2352771</v>
+        <v>2444934</v>
       </c>
       <c r="E140" t="n">
-        <v>2352771</v>
+        <v>2444934</v>
       </c>
       <c r="F140" t="n">
-        <v>690.7294027064672</v>
+        <v>184.1286070449863</v>
       </c>
       <c r="G140" t="n">
-        <v>350.9278897943476</v>
+        <v>388.671729790771</v>
       </c>
       <c r="H140" t="n">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="I140" t="n">
-        <v>264011</v>
+        <v>274589</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26786544</v>
+        <v>26948882</v>
       </c>
       <c r="E141" t="n">
-        <v>26786544</v>
+        <v>26948882</v>
       </c>
       <c r="F141" t="n">
-        <v>864.7115127486916</v>
+        <v>607.8429779959338</v>
       </c>
       <c r="G141" t="n">
-        <v>810.1468318920216</v>
+        <v>1756.366440175751</v>
       </c>
       <c r="H141" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="I141" t="n">
-        <v>314570</v>
+        <v>314968</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6401128</v>
+        <v>6465368</v>
       </c>
       <c r="E142" t="n">
-        <v>6760308</v>
+        <v>6828153</v>
       </c>
       <c r="F142" t="n">
-        <v>1131.027527635382</v>
+        <v>1074.510094220093</v>
       </c>
       <c r="G142" t="n">
-        <v>204.5064590788511</v>
+        <v>174.7288431723242</v>
       </c>
       <c r="H142" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="I142" t="n">
-        <v>25146</v>
+        <v>23338</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3396323</v>
+        <v>3388433</v>
       </c>
       <c r="E143" t="n">
-        <v>7930980</v>
+        <v>7912557</v>
       </c>
       <c r="F143" t="n">
-        <v>1284.314070649706</v>
+        <v>1468.291431698464</v>
       </c>
       <c r="G143" t="n">
-        <v>1036.045995037993</v>
+        <v>1055.209881839236</v>
       </c>
       <c r="H143" t="n">
-        <v>1.14</v>
+        <v>0.33</v>
       </c>
       <c r="I143" t="n">
-        <v>623944</v>
+        <v>619452</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1564422</v>
+        <v>1561856</v>
       </c>
       <c r="E144" t="n">
-        <v>12149481</v>
+        <v>12129555</v>
       </c>
       <c r="F144" t="n">
-        <v>200.0157079136396</v>
+        <v>200.0419505432906</v>
       </c>
       <c r="G144" t="n">
-        <v>617.9251562124356</v>
+        <v>7205.492848187408</v>
       </c>
       <c r="H144" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="I144" t="n">
-        <v>516302</v>
+        <v>518443</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>344882920</v>
+        <v>346336344</v>
       </c>
       <c r="E145" t="n">
-        <v>3102780603</v>
+        <v>3115856511</v>
       </c>
       <c r="F145" t="n">
-        <v>564472.9482425001</v>
+        <v>368869.4533973122</v>
       </c>
       <c r="G145" t="n">
-        <v>676079.324126155</v>
+        <v>593478.0403051731</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>40087169</v>
+        <v>44032843</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>247647</v>
+        <v>248872</v>
       </c>
       <c r="E146" t="n">
-        <v>2185671</v>
+        <v>2196485</v>
       </c>
       <c r="F146" t="n">
-        <v>146.5892553305166</v>
+        <v>4.119491006529792</v>
       </c>
       <c r="G146" t="n">
-        <v>4.253080243993856</v>
+        <v>4.206146811163711</v>
       </c>
       <c r="H146" t="n">
-        <v>0.99</v>
+        <v>0.73</v>
       </c>
       <c r="I146" t="n">
-        <v>92234</v>
+        <v>93174</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>646213</v>
+        <v>641883</v>
       </c>
       <c r="F147" t="n">
-        <v>541.3972008565951</v>
+        <v>561.143978847733</v>
       </c>
       <c r="G147" t="n">
-        <v>965.8767715862431</v>
+        <v>807.340680064893</v>
       </c>
       <c r="H147" t="n">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="I147" t="n">
-        <v>3530.01</v>
+        <v>4940.63</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4926179</v>
+        <v>4920816</v>
       </c>
       <c r="E148" t="n">
-        <v>17406481</v>
+        <v>17387531</v>
       </c>
       <c r="F148" t="n">
-        <v>1593.03144503561</v>
+        <v>1748.072822733698</v>
       </c>
       <c r="G148" t="n">
-        <v>2147.990488163524</v>
+        <v>2347.804371765043</v>
       </c>
       <c r="H148" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I148" t="n">
-        <v>96698</v>
+        <v>96706</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9294012</v>
+        <v>9295895</v>
       </c>
       <c r="E149" t="n">
-        <v>43078277</v>
+        <v>43087008</v>
       </c>
       <c r="F149" t="n">
-        <v>1713.490970299757</v>
+        <v>2878.082138175548</v>
       </c>
       <c r="G149" t="n">
-        <v>3545.176600883318</v>
+        <v>3545.210373831062</v>
       </c>
       <c r="H149" t="n">
         <v>0.42</v>
       </c>
       <c r="I149" t="n">
-        <v>129870</v>
+        <v>128572</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>50010689</v>
+        <v>49688518</v>
       </c>
       <c r="E150" t="n">
-        <v>289541226</v>
+        <v>287675990</v>
       </c>
       <c r="F150" t="n">
-        <v>50067.43455914505</v>
+        <v>41175.7576115385</v>
       </c>
       <c r="G150" t="n">
-        <v>58723.89522825108</v>
+        <v>70123.64456333025</v>
       </c>
       <c r="H150" t="n">
         <v>0.09</v>
       </c>
       <c r="I150" t="n">
-        <v>32430215</v>
+        <v>33303148</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>84563</v>
+        <v>84385</v>
       </c>
       <c r="E151" t="n">
-        <v>84563</v>
+        <v>84385</v>
       </c>
       <c r="F151" t="n">
-        <v>4.017164109905051</v>
+        <v>9.316969052879731</v>
       </c>
       <c r="G151" t="n">
-        <v>5.426758102628055</v>
+        <v>10.60454825945414</v>
       </c>
       <c r="H151" t="n">
         <v>0.72</v>
       </c>
       <c r="I151" t="n">
-        <v>22694</v>
+        <v>22231</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4347419</v>
+        <v>4358442</v>
       </c>
       <c r="F152" t="n">
-        <v>205.434648982371</v>
+        <v>211.0840109496599</v>
       </c>
       <c r="G152" t="n">
-        <v>266.0737308508036</v>
+        <v>189.908146615006</v>
       </c>
       <c r="H152" t="n">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="I152" t="n">
-        <v>309148</v>
+        <v>307153</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39668290</v>
+        <v>39629141</v>
       </c>
       <c r="E153" t="n">
-        <v>54787557</v>
+        <v>54733486</v>
       </c>
       <c r="F153" t="n">
-        <v>10807.78304489676</v>
+        <v>349.456202884547</v>
       </c>
       <c r="G153" t="n">
-        <v>6561.773189576128</v>
+        <v>1859.139116043862</v>
       </c>
       <c r="H153" t="n">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="I153" t="n">
-        <v>338799</v>
+        <v>335435</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2089863</v>
+        <v>2111703</v>
       </c>
       <c r="E154" t="n">
-        <v>8534458</v>
+        <v>8623649</v>
       </c>
       <c r="F154" t="n">
-        <v>387.1683325558856</v>
+        <v>543.2949339925543</v>
       </c>
       <c r="G154" t="n">
-        <v>512.9356639615806</v>
+        <v>4839.898514442133</v>
       </c>
       <c r="H154" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I154" t="n">
-        <v>563468</v>
+        <v>567410</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7497701</v>
+        <v>7348837</v>
       </c>
       <c r="E155" t="n">
-        <v>7553434</v>
+        <v>7403463</v>
       </c>
       <c r="F155" t="n">
-        <v>526.9311431349852</v>
+        <v>915.8267964673871</v>
       </c>
       <c r="G155" t="n">
-        <v>7495.101043139455</v>
+        <v>7473.885541086647</v>
       </c>
       <c r="H155" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I155" t="n">
-        <v>4979554</v>
+        <v>5021785</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>484139</v>
+        <v>469348</v>
       </c>
       <c r="E156" t="n">
-        <v>484139</v>
+        <v>469348</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>18.57</v>
+        <v>22.8</v>
       </c>
       <c r="I156" t="n">
-        <v>11928.12</v>
+        <v>10903.58</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13597064</v>
+        <v>13734336</v>
       </c>
       <c r="E157" t="n">
-        <v>13643336</v>
+        <v>13781076</v>
       </c>
       <c r="F157" t="n">
-        <v>1789.018298419907</v>
+        <v>4741.526876569054</v>
       </c>
       <c r="G157" t="n">
-        <v>4010.3783592827</v>
+        <v>3697.917017820862</v>
       </c>
       <c r="H157" t="n">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="I157" t="n">
-        <v>5893795</v>
+        <v>5854398</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42759901</v>
+        <v>42812661</v>
       </c>
       <c r="E158" t="n">
-        <v>72596365</v>
+        <v>72685938</v>
       </c>
       <c r="F158" t="n">
-        <v>291.3578995506047</v>
+        <v>360.654591332517</v>
       </c>
       <c r="G158" t="n">
-        <v>367.7131861243371</v>
+        <v>612.4571579132946</v>
       </c>
       <c r="H158" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I158" t="n">
-        <v>1070649</v>
+        <v>1048046</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>22748213</v>
+        <v>22980735</v>
       </c>
       <c r="E159" t="n">
-        <v>68188682</v>
+        <v>68885677</v>
       </c>
       <c r="F159" t="n">
-        <v>19353.71408368956</v>
+        <v>10776.94797618729</v>
       </c>
       <c r="G159" t="n">
-        <v>9973.467217908334</v>
+        <v>13443.39885002962</v>
       </c>
       <c r="H159" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="I159" t="n">
-        <v>3366471</v>
+        <v>3452723</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>101337381</v>
+        <v>103814301</v>
       </c>
       <c r="E160" t="n">
-        <v>107730795</v>
+        <v>110363985</v>
       </c>
       <c r="F160" t="n">
-        <v>1240.374304628588</v>
+        <v>973.7504987807406</v>
       </c>
       <c r="G160" t="n">
-        <v>1299.33815922552</v>
+        <v>600.320914234097</v>
       </c>
       <c r="H160" t="n">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="I160" t="n">
-        <v>835413</v>
+        <v>1412713</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10377513</v>
+        <v>10406281</v>
       </c>
       <c r="E161" t="n">
-        <v>45084150</v>
+        <v>45211711</v>
       </c>
       <c r="F161" t="n">
-        <v>4095.361410172511</v>
+        <v>4233.850909999554</v>
       </c>
       <c r="G161" t="n">
-        <v>2660.861134214842</v>
+        <v>2749.920706541585</v>
       </c>
       <c r="H161" t="n">
-        <v>0.55</v>
+        <v>0.02</v>
       </c>
       <c r="I161" t="n">
-        <v>116283</v>
+        <v>111706</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15709878</v>
+        <v>15823974</v>
       </c>
       <c r="E162" t="n">
-        <v>96291010</v>
+        <v>96990341</v>
       </c>
       <c r="F162" t="n">
-        <v>1688.430075212636</v>
+        <v>1558.425854676723</v>
       </c>
       <c r="G162" t="n">
-        <v>2360.216452604076</v>
+        <v>660.4651656919672</v>
       </c>
       <c r="H162" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I162" t="n">
-        <v>10228486</v>
+        <v>10234510</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1508758</v>
+        <v>1505502</v>
       </c>
       <c r="E163" t="n">
-        <v>1551198</v>
+        <v>1547851</v>
       </c>
       <c r="F163" t="n">
-        <v>71.97200319757188</v>
+        <v>71.93065824399324</v>
       </c>
       <c r="G163" t="n">
-        <v>59.5858608738446</v>
+        <v>59.58814114213665</v>
       </c>
       <c r="H163" t="n">
-        <v>1.48</v>
+        <v>0.98</v>
       </c>
       <c r="I163" t="n">
-        <v>146718</v>
+        <v>145523</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>96237</v>
+        <v>96309</v>
       </c>
       <c r="E164" t="n">
-        <v>273002</v>
+        <v>273207</v>
       </c>
       <c r="F164" t="n">
-        <v>4.014104911373437</v>
+        <v>4.014259134268027</v>
       </c>
       <c r="G164" t="n">
-        <v>87.17843890976329</v>
+        <v>87.18178832675446</v>
       </c>
       <c r="H164" t="n">
         <v>0.44</v>
       </c>
       <c r="I164" t="n">
-        <v>63.6</v>
+        <v>63.65</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47781173</v>
+        <v>50394470</v>
       </c>
       <c r="E165" t="n">
-        <v>205836067</v>
+        <v>217093868</v>
       </c>
       <c r="F165" t="n">
-        <v>8553.805405288827</v>
+        <v>2877.009006547411</v>
       </c>
       <c r="G165" t="n">
-        <v>3105.078332156459</v>
+        <v>5455.489331055518</v>
       </c>
       <c r="H165" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I165" t="n">
-        <v>8824284</v>
+        <v>9870016</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7765245</v>
+        <v>7664526</v>
       </c>
       <c r="F166" t="n">
-        <v>71.56580756477705</v>
+        <v>96.85992858598765</v>
       </c>
       <c r="G166" t="n">
-        <v>564.3101561772319</v>
+        <v>448.0023064271373</v>
       </c>
       <c r="H166" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="I166" t="n">
-        <v>6642693</v>
+        <v>6630648</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>673310</v>
+        <v>672818</v>
       </c>
       <c r="E167" t="n">
-        <v>2431014</v>
+        <v>2429182</v>
       </c>
       <c r="F167" t="n">
-        <v>50.56613147271568</v>
+        <v>50.68544171846622</v>
       </c>
       <c r="G167" t="n">
-        <v>10.80907910042947</v>
+        <v>10.80943779558737</v>
       </c>
       <c r="H167" t="n">
         <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>337127</v>
+        <v>337889</v>
       </c>
     </row>
     <row r="168">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1601324</v>
+        <v>1572589</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6297,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>4.75</v>
+        <v>5.27</v>
       </c>
       <c r="I168" t="n">
-        <v>78959</v>
+        <v>75284</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13218614</v>
+        <v>13273393</v>
       </c>
       <c r="E169" t="n">
-        <v>13218614</v>
+        <v>13273393</v>
       </c>
       <c r="F169" t="n">
-        <v>328.8838834479594</v>
+        <v>666.165666699953</v>
       </c>
       <c r="G169" t="n">
-        <v>76.01452312130868</v>
+        <v>57.96284301962415</v>
       </c>
       <c r="H169" t="n">
-        <v>3.43</v>
+        <v>3.11</v>
       </c>
       <c r="I169" t="n">
-        <v>3756510</v>
+        <v>3335419</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1917275</v>
+        <v>1900903</v>
       </c>
       <c r="E170" t="n">
-        <v>6964592</v>
+        <v>6905120</v>
       </c>
       <c r="F170" t="n">
-        <v>147.5975813919818</v>
+        <v>150.7556111967323</v>
       </c>
       <c r="G170" t="n">
-        <v>260.6108334722573</v>
+        <v>1090.129387605821</v>
       </c>
       <c r="H170" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="I170" t="n">
-        <v>141131</v>
+        <v>147191</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8770162</v>
+        <v>8947999</v>
       </c>
       <c r="E171" t="n">
-        <v>19474421</v>
+        <v>19865162</v>
       </c>
       <c r="F171" t="n">
-        <v>1692.065442991416</v>
+        <v>1610.332475215149</v>
       </c>
       <c r="G171" t="n">
-        <v>1553.427540110494</v>
+        <v>1457.75557600612</v>
       </c>
       <c r="H171" t="n">
-        <v>0.58</v>
+        <v>0.14</v>
       </c>
       <c r="I171" t="n">
-        <v>338746</v>
+        <v>337289</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1040140</v>
+        <v>1043224</v>
       </c>
       <c r="E172" t="n">
-        <v>3040148</v>
+        <v>3049164</v>
       </c>
       <c r="F172" t="n">
-        <v>98.04569176228912</v>
+        <v>97.91430709877139</v>
       </c>
       <c r="G172" t="n">
-        <v>661.0942994951057</v>
+        <v>660.8335001354673</v>
       </c>
       <c r="H172" t="n">
         <v>0.36</v>
       </c>
       <c r="I172" t="n">
-        <v>18900.02</v>
+        <v>18895.43</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>20992737</v>
+        <v>21031081</v>
       </c>
       <c r="E173" t="n">
-        <v>83970948</v>
+        <v>84124324</v>
       </c>
       <c r="F173" t="n">
-        <v>25324.49779805262</v>
+        <v>23729.27892847667</v>
       </c>
       <c r="G173" t="n">
-        <v>10881.96553884125</v>
+        <v>14962.24800937049</v>
       </c>
       <c r="H173" t="n">
-        <v>0.01</v>
+        <v>0.52</v>
       </c>
       <c r="I173" t="n">
-        <v>2596166</v>
+        <v>2474741</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4480684</v>
+        <v>5003985</v>
       </c>
       <c r="E174" t="n">
-        <v>4480684</v>
+        <v>5003985</v>
       </c>
       <c r="F174" t="n">
-        <v>1106.97498749648</v>
+        <v>1287.581549062259</v>
       </c>
       <c r="G174" t="n">
-        <v>403.2648615713867</v>
+        <v>411.4425729362317</v>
       </c>
       <c r="H174" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="I174" t="n">
-        <v>1830810</v>
+        <v>3078999</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>311922498</v>
+        <v>312351068</v>
       </c>
       <c r="E175" t="n">
-        <v>311922498</v>
+        <v>312351068</v>
       </c>
       <c r="F175" t="n">
-        <v>1620.476975817705</v>
+        <v>7212.520605375991</v>
       </c>
       <c r="G175" t="n">
-        <v>3598.999549942021</v>
+        <v>12448.71849626562</v>
       </c>
       <c r="H175" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="I175" t="n">
-        <v>15040676</v>
+        <v>15316608</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12754622</v>
+        <v>12754841</v>
       </c>
       <c r="E176" t="n">
-        <v>40351013</v>
+        <v>40351707</v>
       </c>
       <c r="F176" t="n">
-        <v>3025.901479630052</v>
+        <v>1404.360128900621</v>
       </c>
       <c r="G176" t="n">
-        <v>3229.124912642841</v>
+        <v>2245.663883406142</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I176" t="n">
-        <v>1034877</v>
+        <v>989960</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24609</v>
+        <v>24589</v>
       </c>
       <c r="E177" t="n">
-        <v>193546</v>
+        <v>193388</v>
       </c>
       <c r="F177" t="n">
-        <v>497.7438388857904</v>
+        <v>55.73013401654897</v>
       </c>
       <c r="G177" t="n">
-        <v>338.7220299616154</v>
+        <v>223.2241147191509</v>
       </c>
       <c r="H177" t="n">
         <v>0.51</v>
       </c>
       <c r="I177" t="n">
-        <v>75296</v>
+        <v>62023</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8390361</v>
+        <v>8458862</v>
       </c>
       <c r="E178" t="n">
-        <v>8390361</v>
+        <v>8458862</v>
       </c>
       <c r="F178" t="n">
-        <v>1901.539126410963</v>
+        <v>1609.521355701109</v>
       </c>
       <c r="G178" t="n">
-        <v>2017.06912355491</v>
+        <v>1218.34204511662</v>
       </c>
       <c r="H178" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I178" t="n">
-        <v>3730647</v>
+        <v>3754752</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1083516</v>
+        <v>1070415</v>
       </c>
       <c r="E179" t="n">
-        <v>2467814</v>
+        <v>2437976</v>
       </c>
       <c r="F179" t="n">
-        <v>5.390677933124852</v>
+        <v>4.132480254985765</v>
       </c>
       <c r="G179" t="n">
-        <v>5.45169993566013</v>
+        <v>5.721285132069586</v>
       </c>
       <c r="H179" t="n">
         <v>0.45</v>
       </c>
       <c r="I179" t="n">
-        <v>2423.93</v>
+        <v>2064.97</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9276895</v>
+        <v>9109643</v>
       </c>
       <c r="E180" t="n">
-        <v>9276895</v>
+        <v>9109643</v>
       </c>
       <c r="F180" t="n">
-        <v>4048.434005273247</v>
+        <v>2921.984851676659</v>
       </c>
       <c r="G180" t="n">
-        <v>4132.694959563138</v>
+        <v>2655.77580543422</v>
       </c>
       <c r="H180" t="n">
-        <v>0.25</v>
+        <v>0.77</v>
       </c>
       <c r="I180" t="n">
-        <v>3005884</v>
+        <v>2974889</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18448965</v>
+        <v>18744624</v>
       </c>
       <c r="E181" t="n">
-        <v>18448965</v>
+        <v>18744624</v>
       </c>
       <c r="F181" t="n">
-        <v>612.453624855855</v>
+        <v>868.9821517739756</v>
       </c>
       <c r="G181" t="n">
-        <v>7648.712791485969</v>
+        <v>1834.773455219204</v>
       </c>
       <c r="H181" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="I181" t="n">
-        <v>3650160</v>
+        <v>3966908</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>32045200</v>
+        <v>32094519</v>
       </c>
       <c r="E182" t="n">
-        <v>88762023</v>
+        <v>88898633</v>
       </c>
       <c r="F182" t="n">
-        <v>4858.569097763428</v>
+        <v>5928.504036367689</v>
       </c>
       <c r="G182" t="n">
-        <v>6031.996487364838</v>
+        <v>5703.971943806744</v>
       </c>
       <c r="H182" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="I182" t="n">
-        <v>12040457</v>
+        <v>12129083</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>38098249</v>
+        <v>37744679</v>
       </c>
       <c r="E183" t="n">
-        <v>96065493</v>
+        <v>95173960</v>
       </c>
       <c r="F183" t="n">
-        <v>15676.51812291586</v>
+        <v>5008.01163633858</v>
       </c>
       <c r="G183" t="n">
-        <v>6843.424727706706</v>
+        <v>2475.460457130158</v>
       </c>
       <c r="H183" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="I183" t="n">
-        <v>3424754</v>
+        <v>3417531</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>313132742</v>
+        <v>314347853</v>
       </c>
       <c r="E184" t="n">
-        <v>318019512</v>
+        <v>319252037</v>
       </c>
       <c r="F184" t="n">
-        <v>23474.72638518774</v>
+        <v>33504.64400689503</v>
       </c>
       <c r="G184" t="n">
-        <v>22396.34313847532</v>
+        <v>32122.6315600018</v>
       </c>
       <c r="H184" t="n">
         <v>0.01</v>
       </c>
       <c r="I184" t="n">
-        <v>15521823</v>
+        <v>15817736</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>410958</v>
+        <v>410603</v>
       </c>
       <c r="F185" t="n">
-        <v>15.99469143786831</v>
+        <v>128.8720297766449</v>
       </c>
       <c r="G185" t="n">
-        <v>351.8748414080453</v>
+        <v>101.6790428065653</v>
       </c>
       <c r="H185" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="I185" t="n">
-        <v>68743</v>
+        <v>69340</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28332630</v>
+        <v>28286599</v>
       </c>
       <c r="E186" t="n">
-        <v>67311285</v>
+        <v>67201927</v>
       </c>
       <c r="F186" t="n">
-        <v>10866.77598783106</v>
+        <v>11195.06072226758</v>
       </c>
       <c r="G186" t="n">
-        <v>6673.487734607862</v>
+        <v>7273.767372258949</v>
       </c>
       <c r="H186" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>401677</v>
+        <v>397134</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>20145081</v>
+        <v>20152432</v>
       </c>
       <c r="F187" t="n">
-        <v>4.082592679382104</v>
+        <v>4.08263349875969</v>
       </c>
       <c r="G187" t="n">
-        <v>361.9272743356938</v>
+        <v>268.3923718414721</v>
       </c>
       <c r="H187" t="n">
         <v>0.77</v>
       </c>
       <c r="I187" t="n">
-        <v>1577.09</v>
+        <v>1524.69</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12710755</v>
+        <v>12713296</v>
       </c>
       <c r="E188" t="n">
-        <v>19348636</v>
+        <v>19352503</v>
       </c>
       <c r="F188" t="n">
-        <v>3673.416256623811</v>
+        <v>3715.886702152005</v>
       </c>
       <c r="G188" t="n">
-        <v>2884.797759491777</v>
+        <v>2059.333003413193</v>
       </c>
       <c r="H188" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="I188" t="n">
-        <v>771928</v>
+        <v>744855</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>86479801</v>
+        <v>86531396</v>
       </c>
       <c r="E189" t="n">
-        <v>86479801</v>
+        <v>86531396</v>
       </c>
       <c r="F189" t="n">
-        <v>2875.036607680124</v>
+        <v>8611.394970375402</v>
       </c>
       <c r="G189" t="n">
-        <v>6255.145884038398</v>
+        <v>8530.1366967221</v>
       </c>
       <c r="H189" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I189" t="n">
-        <v>5000246</v>
+        <v>5004372</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>296574320</v>
+        <v>301957688</v>
       </c>
       <c r="E190" t="n">
-        <v>296574320</v>
+        <v>301957688</v>
       </c>
       <c r="F190" t="n">
-        <v>190795.3699952064</v>
+        <v>178003.196408595</v>
       </c>
       <c r="G190" t="n">
-        <v>239119.8674136868</v>
+        <v>300883.3813966791</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>76948653</v>
+        <v>80080473</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10186742</v>
+        <v>10175818</v>
       </c>
       <c r="E191" t="n">
-        <v>28921860</v>
+        <v>28890844</v>
       </c>
       <c r="F191" t="n">
-        <v>1563.719305685477</v>
+        <v>1088.641915107446</v>
       </c>
       <c r="G191" t="n">
-        <v>8931.209786919882</v>
+        <v>8801.815211828009</v>
       </c>
       <c r="H191" t="n">
         <v>1.02</v>
       </c>
       <c r="I191" t="n">
-        <v>128966</v>
+        <v>121468</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4224087</v>
+        <v>4227992</v>
       </c>
       <c r="E192" t="n">
-        <v>28862887</v>
+        <v>28889573</v>
       </c>
       <c r="F192" t="n">
-        <v>4025.517245479386</v>
+        <v>3263.347947038122</v>
       </c>
       <c r="G192" t="n">
-        <v>5702.515111350732</v>
+        <v>2162.732785129618</v>
       </c>
       <c r="H192" t="n">
         <v>0.96</v>
       </c>
       <c r="I192" t="n">
-        <v>2648412</v>
+        <v>2647480</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3010832</v>
+        <v>2940687</v>
       </c>
       <c r="E193" t="n">
-        <v>4462860</v>
+        <v>4358493</v>
       </c>
       <c r="F193" t="n">
-        <v>290.4226275354628</v>
+        <v>493.523433119693</v>
       </c>
       <c r="G193" t="n">
-        <v>407.3196668105811</v>
+        <v>287.3906580729347</v>
       </c>
       <c r="H193" t="n">
-        <v>1.78</v>
+        <v>1.14</v>
       </c>
       <c r="I193" t="n">
-        <v>224313</v>
+        <v>192270</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>91307855</v>
+        <v>91923969</v>
       </c>
       <c r="E194" t="n">
-        <v>526155241</v>
+        <v>529705558</v>
       </c>
       <c r="F194" t="n">
-        <v>410853.5431757562</v>
+        <v>538613.112404639</v>
       </c>
       <c r="G194" t="n">
-        <v>396089.5198626025</v>
+        <v>602391.1493625819</v>
       </c>
       <c r="H194" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I194" t="n">
-        <v>16877185</v>
+        <v>16933600</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>698049</v>
+        <v>720617</v>
       </c>
       <c r="E195" t="n">
-        <v>761287</v>
+        <v>785899</v>
       </c>
       <c r="F195" t="n">
-        <v>5.593929771922244</v>
+        <v>4.199094211107198</v>
       </c>
       <c r="G195" t="n">
-        <v>327.5432612897071</v>
+        <v>4.253939735064846</v>
       </c>
       <c r="H195" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="I195" t="n">
-        <v>122583</v>
+        <v>126258</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>108939123</v>
+        <v>109443287</v>
       </c>
       <c r="E196" t="n">
-        <v>268032806</v>
+        <v>269273246</v>
       </c>
       <c r="F196" t="n">
-        <v>32328.3161889361</v>
+        <v>23469.90964756391</v>
       </c>
       <c r="G196" t="n">
-        <v>57513.17333809612</v>
+        <v>51826.84980057616</v>
       </c>
       <c r="H196" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2165632</v>
+        <v>2167290</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>19686155</v>
+        <v>18359067</v>
       </c>
       <c r="E197" t="n">
-        <v>19686155</v>
+        <v>18359067</v>
       </c>
       <c r="F197" t="n">
-        <v>5.508652282228129</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>4.01669327303901</v>
+        <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>0.8</v>
+        <v>5.88</v>
       </c>
       <c r="I197" t="n">
-        <v>121275</v>
+        <v>110325</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1338188</v>
+        <v>1327008</v>
       </c>
       <c r="F198" t="n">
-        <v>18.69937720584388</v>
+        <v>37.77102478835801</v>
       </c>
       <c r="G198" t="n">
-        <v>13.8680127246735</v>
+        <v>3.959175419878931</v>
       </c>
       <c r="H198" t="n">
-        <v>0.3</v>
+        <v>0.59</v>
       </c>
       <c r="I198" t="n">
-        <v>4064.86</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>145968</v>
+        <v>137733</v>
       </c>
       <c r="E199" t="n">
-        <v>317769</v>
+        <v>299843</v>
       </c>
       <c r="F199" t="n">
-        <v>5.272859610241979</v>
+        <v>5.272841343994223</v>
       </c>
       <c r="G199" t="n">
-        <v>3.749695466775944</v>
+        <v>3.749682477075579</v>
       </c>
       <c r="H199" t="n">
         <v>0.36</v>
       </c>
       <c r="I199" t="n">
-        <v>52122</v>
+        <v>293.64</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2582188</v>
+        <v>2476357</v>
       </c>
       <c r="F200" t="n">
-        <v>196.2690632037091</v>
+        <v>127.8194307446576</v>
       </c>
       <c r="G200" t="n">
-        <v>151.7886588862095</v>
+        <v>99.33575680702104</v>
       </c>
       <c r="H200" t="n">
-        <v>1.9</v>
+        <v>3.19</v>
       </c>
       <c r="I200" t="n">
-        <v>423584</v>
+        <v>426100</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>184325</v>
+        <v>189083</v>
       </c>
       <c r="E201" t="n">
-        <v>1423360</v>
+        <v>1460101</v>
       </c>
       <c r="F201" t="n">
-        <v>123.8467871883412</v>
+        <v>4.041531119047464</v>
       </c>
       <c r="G201" t="n">
-        <v>3.932323547006626</v>
+        <v>304.0607922899462</v>
       </c>
       <c r="H201" t="n">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="I201" t="n">
-        <v>105543</v>
+        <v>105356</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>30809902</v>
+        <v>31049206</v>
       </c>
       <c r="E202" t="n">
-        <v>137948571</v>
+        <v>139020034</v>
       </c>
       <c r="F202" t="n">
-        <v>10454.66108814287</v>
+        <v>9308.887711702315</v>
       </c>
       <c r="G202" t="n">
-        <v>10624.58281033171</v>
+        <v>12667.21576401625</v>
       </c>
       <c r="H202" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="I202" t="n">
-        <v>8588577</v>
+        <v>8559741</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>13021964</v>
+        <v>12956438</v>
       </c>
       <c r="E203" t="n">
-        <v>26032558</v>
+        <v>25901564</v>
       </c>
       <c r="F203" t="n">
-        <v>703.7677119774453</v>
+        <v>725.2756903861234</v>
       </c>
       <c r="G203" t="n">
-        <v>715.7623301599444</v>
+        <v>1217.27847391471</v>
       </c>
       <c r="H203" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I203" t="n">
-        <v>30480</v>
+        <v>32311</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1523981</v>
+        <v>1489558</v>
       </c>
       <c r="F204" t="n">
-        <v>139.0230680423979</v>
+        <v>311.5091758908412</v>
       </c>
       <c r="G204" t="n">
-        <v>168.8702302038027</v>
+        <v>223.8767945905439</v>
       </c>
       <c r="H204" t="n">
-        <v>2.53</v>
+        <v>1.62</v>
       </c>
       <c r="I204" t="n">
-        <v>53821</v>
+        <v>49743</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>978184</v>
+        <v>976383</v>
       </c>
       <c r="E205" t="n">
-        <v>4524238</v>
+        <v>4515911</v>
       </c>
       <c r="F205" t="n">
-        <v>3899.373629188136</v>
+        <v>3783.788501116941</v>
       </c>
       <c r="G205" t="n">
-        <v>3144.32794394791</v>
+        <v>2745.713840634796</v>
       </c>
       <c r="H205" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="I205" t="n">
-        <v>493166</v>
+        <v>492275</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3132651</v>
+        <v>3162364</v>
       </c>
       <c r="E206" t="n">
-        <v>3132651</v>
+        <v>3162364</v>
       </c>
       <c r="F206" t="n">
-        <v>1307.352490231132</v>
+        <v>1712.022544398196</v>
       </c>
       <c r="G206" t="n">
-        <v>1019.007626162167</v>
+        <v>810.1458787044801</v>
       </c>
       <c r="H206" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I206" t="n">
-        <v>421101</v>
+        <v>408475</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>559567</v>
+        <v>576560</v>
       </c>
       <c r="E207" t="n">
-        <v>559567</v>
+        <v>576560</v>
       </c>
       <c r="F207" t="n">
-        <v>5.144598661465318</v>
+        <v>5.037578160730586</v>
       </c>
       <c r="G207" t="n">
-        <v>624.5003786651749</v>
+        <v>624.7122015284187</v>
       </c>
       <c r="H207" t="n">
         <v>0.71</v>
       </c>
       <c r="I207" t="n">
-        <v>26300</v>
+        <v>1212478</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>15482193</v>
+        <v>15681364</v>
       </c>
       <c r="E208" t="n">
-        <v>19711303</v>
+        <v>19964880</v>
       </c>
       <c r="F208" t="n">
-        <v>133.91036294445</v>
+        <v>133.9155609513883</v>
       </c>
       <c r="G208" t="n">
-        <v>166.3459976772209</v>
+        <v>166.3524547402224</v>
       </c>
       <c r="H208" t="n">
         <v>0.13</v>
       </c>
       <c r="I208" t="n">
-        <v>931838</v>
+        <v>921873</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1777648</v>
+        <v>1787768</v>
       </c>
       <c r="E209" t="n">
-        <v>1777648</v>
+        <v>1787768</v>
       </c>
       <c r="F209" t="n">
-        <v>28.86265349109352</v>
+        <v>28.9622144763197</v>
       </c>
       <c r="G209" t="n">
-        <v>20.31709114523557</v>
+        <v>20.42580918972549</v>
       </c>
       <c r="H209" t="n">
         <v>0.57</v>
       </c>
       <c r="I209" t="n">
-        <v>4238.29</v>
+        <v>4337.62</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5778936</v>
+        <v>5788675</v>
       </c>
       <c r="E210" t="n">
-        <v>15166826</v>
+        <v>15192387</v>
       </c>
       <c r="F210" t="n">
-        <v>497.8359793881514</v>
+        <v>532.4251493236103</v>
       </c>
       <c r="G210" t="n">
-        <v>179.7252344859133</v>
+        <v>211.1592127739503</v>
       </c>
       <c r="H210" t="n">
-        <v>2.26</v>
+        <v>1.79</v>
       </c>
       <c r="I210" t="n">
-        <v>25956</v>
+        <v>25214</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29725698</v>
+        <v>29677096</v>
       </c>
       <c r="F211" t="n">
-        <v>1775.653328103175</v>
+        <v>1230.641788553572</v>
       </c>
       <c r="G211" t="n">
-        <v>1749.420261265539</v>
+        <v>1758.290093961783</v>
       </c>
       <c r="H211" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I211" t="n">
-        <v>363808</v>
+        <v>362407</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17972523</v>
+        <v>17983825</v>
       </c>
       <c r="E212" t="n">
-        <v>17972523</v>
+        <v>17983825</v>
       </c>
       <c r="F212" t="n">
-        <v>29350.8089833641</v>
+        <v>20692.61655750257</v>
       </c>
       <c r="G212" t="n">
-        <v>34511.44640169771</v>
+        <v>25580.77304541724</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2989311</v>
+        <v>2917317</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>50202590</v>
+        <v>51158695</v>
       </c>
       <c r="E213" t="n">
-        <v>325550436</v>
+        <v>331750524</v>
       </c>
       <c r="F213" t="n">
-        <v>80172.18859638384</v>
+        <v>104288.9927667111</v>
       </c>
       <c r="G213" t="n">
-        <v>143639.5996950734</v>
+        <v>167624.1984906407</v>
       </c>
       <c r="H213" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I213" t="n">
-        <v>16786113</v>
+        <v>16999309</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9085007</v>
+        <v>9132409</v>
       </c>
       <c r="F214" t="n">
-        <v>139.5244934118948</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>5.38923685192055</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>0.22</v>
+        <v>5.49</v>
       </c>
       <c r="I214" t="n">
-        <v>301140</v>
+        <v>292806</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7063076</v>
+        <v>7103776</v>
       </c>
       <c r="E215" t="n">
-        <v>7073048</v>
+        <v>7113762</v>
       </c>
       <c r="F215" t="n">
-        <v>77.58194886539364</v>
+        <v>3.565851620225873</v>
       </c>
       <c r="G215" t="n">
-        <v>23.55451929514576</v>
+        <v>2268.615812594635</v>
       </c>
       <c r="H215" t="n">
         <v>0.09</v>
       </c>
       <c r="I215" t="n">
-        <v>588535</v>
+        <v>777712</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4789581</v>
+        <v>4794423</v>
       </c>
       <c r="F216" t="n">
-        <v>958.5825218795792</v>
+        <v>1147.662051945828</v>
       </c>
       <c r="G216" t="n">
-        <v>292.9691859862129</v>
+        <v>309.1828577940618</v>
       </c>
       <c r="H216" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="I216" t="n">
-        <v>199221</v>
+        <v>196130</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2411951</v>
+        <v>2395406</v>
       </c>
       <c r="E217" t="n">
-        <v>4369703</v>
+        <v>4339729</v>
       </c>
       <c r="F217" t="n">
-        <v>1274.02285496792</v>
+        <v>963.4875906598195</v>
       </c>
       <c r="G217" t="n">
-        <v>151.7377359413865</v>
+        <v>108.9278523448786</v>
       </c>
       <c r="H217" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="I217" t="n">
-        <v>120832</v>
+        <v>120325</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125420326</v>
+        <v>125368446</v>
       </c>
       <c r="E218" t="n">
-        <v>2077063316</v>
+        <v>2076204141</v>
       </c>
       <c r="F218" t="n">
-        <v>7254.448743795446</v>
+        <v>6887.45990077089</v>
       </c>
       <c r="G218" t="n">
-        <v>12376.43944898295</v>
+        <v>10328.51038942689</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>4686981</v>
+        <v>4485337</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>96192430</v>
+        <v>99030972</v>
       </c>
       <c r="E219" t="n">
-        <v>97227877</v>
+        <v>100096973</v>
       </c>
       <c r="F219" t="n">
-        <v>4490.831108273969</v>
+        <v>4690.720454796698</v>
       </c>
       <c r="G219" t="n">
-        <v>25537.69311148881</v>
+        <v>24451.32370851246</v>
       </c>
       <c r="H219" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I219" t="n">
-        <v>38496374</v>
+        <v>41315576</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>241703472</v>
+        <v>241975569</v>
       </c>
       <c r="E220" t="n">
-        <v>241703472</v>
+        <v>241975569</v>
       </c>
       <c r="F220" t="n">
-        <v>80570.64915290606</v>
+        <v>89993.73672150311</v>
       </c>
       <c r="G220" t="n">
-        <v>117292.3846321887</v>
+        <v>115251.213728228</v>
       </c>
       <c r="H220" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I220" t="n">
-        <v>47034763</v>
+        <v>47646828</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24589973</v>
+        <v>24755339</v>
       </c>
       <c r="E221" t="n">
-        <v>147126749</v>
+        <v>148116172</v>
       </c>
       <c r="F221" t="n">
-        <v>54497.19251411065</v>
+        <v>49030.41731007898</v>
       </c>
       <c r="G221" t="n">
-        <v>92360.17888222067</v>
+        <v>87835.91678167302</v>
       </c>
       <c r="H221" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>12498161</v>
+        <v>12234212</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1067151</v>
+        <v>1051628</v>
       </c>
       <c r="F222" t="n">
-        <v>85.71608327759525</v>
+        <v>341.2919929073767</v>
       </c>
       <c r="G222" t="n">
-        <v>477.6674033183176</v>
+        <v>483.0822937934347</v>
       </c>
       <c r="H222" t="n">
-        <v>1.41</v>
+        <v>2.7</v>
       </c>
       <c r="I222" t="n">
-        <v>68539</v>
+        <v>66568</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2254230</v>
+        <v>2237323</v>
       </c>
       <c r="F223" t="n">
-        <v>156.1237244921303</v>
+        <v>148.4117067707643</v>
       </c>
       <c r="G223" t="n">
-        <v>127.8036805180315</v>
+        <v>220.9577853522518</v>
       </c>
       <c r="H223" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="I223" t="n">
-        <v>176775</v>
+        <v>177565</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13609882</v>
+        <v>13820428</v>
       </c>
       <c r="E224" t="n">
-        <v>41763952</v>
+        <v>42410045</v>
       </c>
       <c r="F224" t="n">
-        <v>1406.203912993718</v>
+        <v>1174.313225465716</v>
       </c>
       <c r="G224" t="n">
-        <v>1675.119119131202</v>
+        <v>1604.325686812828</v>
       </c>
       <c r="H224" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="I224" t="n">
-        <v>2586537</v>
+        <v>2619899</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>54951990</v>
+        <v>55109594</v>
       </c>
       <c r="E225" t="n">
-        <v>94914034</v>
+        <v>95186249</v>
       </c>
       <c r="F225" t="n">
-        <v>13487.98085903064</v>
+        <v>13468.33230551743</v>
       </c>
       <c r="G225" t="n">
-        <v>6525.938914382776</v>
+        <v>6523.661872467263</v>
       </c>
       <c r="H225" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="I225" t="n">
-        <v>2254280</v>
+        <v>2427655</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4202631</v>
+        <v>4302242</v>
       </c>
       <c r="E226" t="n">
-        <v>4202631</v>
+        <v>4302242</v>
       </c>
       <c r="F226" t="n">
-        <v>4.049519030395887</v>
+        <v>48.50768545375591</v>
       </c>
       <c r="G226" t="n">
-        <v>14.9008912844234</v>
+        <v>15.20590389807281</v>
       </c>
       <c r="H226" t="n">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="I226" t="n">
-        <v>1677639</v>
+        <v>1719278</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>211463</v>
+        <v>212596</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>49779</v>
+        <v>51412</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6644637</v>
+        <v>6643062</v>
       </c>
       <c r="E228" t="n">
-        <v>34184636</v>
+        <v>34176535</v>
       </c>
       <c r="F228" t="n">
-        <v>106.812396115219</v>
+        <v>143.5642240503409</v>
       </c>
       <c r="G228" t="n">
-        <v>111.5288936196544</v>
+        <v>2732.663828243772</v>
       </c>
       <c r="H228" t="n">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="I228" t="n">
-        <v>857212</v>
+        <v>912475</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>178921539</v>
+        <v>179980218</v>
       </c>
       <c r="E230" t="n">
-        <v>209033187</v>
+        <v>210270037</v>
       </c>
       <c r="F230" t="n">
-        <v>36141.20055353494</v>
+        <v>42906.73131534378</v>
       </c>
       <c r="G230" t="n">
-        <v>21031.53499655962</v>
+        <v>23241.94917422283</v>
       </c>
       <c r="H230" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I230" t="n">
-        <v>3843369</v>
+        <v>3448138</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>303028</v>
+        <v>305130</v>
       </c>
       <c r="F231" t="n">
-        <v>5.323482933099139</v>
+        <v>5.296737313106333</v>
       </c>
       <c r="G231" t="n">
-        <v>64.62351207321468</v>
+        <v>48.89288704335171</v>
       </c>
       <c r="H231" t="n">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
       <c r="I231" t="n">
-        <v>323692</v>
+        <v>319708</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29211893</v>
+        <v>29179448</v>
       </c>
       <c r="E232" t="n">
-        <v>40054613</v>
+        <v>40010124</v>
       </c>
       <c r="F232" t="n">
-        <v>6047.615360093495</v>
+        <v>5760.293479806365</v>
       </c>
       <c r="G232" t="n">
-        <v>5386.147263922368</v>
+        <v>5937.971147895983</v>
       </c>
       <c r="H232" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I232" t="n">
-        <v>207011</v>
+        <v>207145</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1288366</v>
+        <v>1170656</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1480130</v>
+        <v>1391013</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7994066</v>
+        <v>7986936</v>
       </c>
       <c r="F234" t="n">
-        <v>456.9750702605195</v>
+        <v>456.9975225413652</v>
       </c>
       <c r="G234" t="n">
-        <v>3212.630914944316</v>
+        <v>3255.486528077358</v>
       </c>
       <c r="H234" t="n">
         <v>0.4</v>
       </c>
       <c r="I234" t="n">
-        <v>644450</v>
+        <v>655155</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23246139</v>
+        <v>23084514</v>
       </c>
       <c r="E235" t="n">
-        <v>23246139</v>
+        <v>23084514</v>
       </c>
       <c r="F235" t="n">
-        <v>15551.42846721405</v>
+        <v>16395.55552081569</v>
       </c>
       <c r="G235" t="n">
-        <v>9467.494446500012</v>
+        <v>26177.95309065075</v>
       </c>
       <c r="H235" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I235" t="n">
-        <v>2080956</v>
+        <v>1957660</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3394393</v>
+        <v>3385229</v>
       </c>
       <c r="E236" t="n">
-        <v>4547004</v>
+        <v>4534728</v>
       </c>
       <c r="F236" t="n">
-        <v>408.6574837651393</v>
+        <v>469.3231031577379</v>
       </c>
       <c r="G236" t="n">
-        <v>531.7959598377502</v>
+        <v>586.5435416447295</v>
       </c>
       <c r="H236" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="I236" t="n">
-        <v>149570</v>
+        <v>148641</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>34877316</v>
+        <v>34860663</v>
       </c>
       <c r="E237" t="n">
-        <v>174053884</v>
+        <v>173970781</v>
       </c>
       <c r="F237" t="n">
-        <v>88538.42453925485</v>
+        <v>106041.7713344592</v>
       </c>
       <c r="G237" t="n">
-        <v>91691.17687346</v>
+        <v>91623.14338661426</v>
       </c>
       <c r="H237" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I237" t="n">
-        <v>10463601</v>
+        <v>10222691</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26413666</v>
+        <v>26574039</v>
       </c>
       <c r="E238" t="n">
-        <v>59546072</v>
+        <v>59907610</v>
       </c>
       <c r="F238" t="n">
-        <v>202.5030420239601</v>
+        <v>323.3915523898838</v>
       </c>
       <c r="G238" t="n">
-        <v>146.7802572766521</v>
+        <v>84.00566453701943</v>
       </c>
       <c r="H238" t="n">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="I238" t="n">
-        <v>404421</v>
+        <v>388540</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1972363</v>
+        <v>1957682</v>
       </c>
       <c r="E239" t="n">
-        <v>1972363</v>
+        <v>1957682</v>
       </c>
       <c r="F239" t="n">
-        <v>155.7452641640758</v>
+        <v>159.1353312033476</v>
       </c>
       <c r="G239" t="n">
-        <v>89.24112403955952</v>
+        <v>101.7907948580714</v>
       </c>
       <c r="H239" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="I239" t="n">
-        <v>12379.99</v>
+        <v>12679.84</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>72269013</v>
+        <v>72221900</v>
       </c>
       <c r="F240" t="n">
-        <v>5.583317331910877</v>
+        <v>5.583521813854744</v>
       </c>
       <c r="G240" t="n">
-        <v>3.949344412699695</v>
+        <v>3.949489052449596</v>
       </c>
       <c r="H240" t="n">
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>61773</v>
+        <v>61245</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>904620</v>
+        <v>917045</v>
       </c>
       <c r="E241" t="n">
-        <v>904620</v>
+        <v>917045</v>
       </c>
       <c r="F241" t="n">
-        <v>3.871135308438679</v>
+        <v>4.040476305756417</v>
       </c>
       <c r="G241" t="n">
-        <v>5.242771968062073</v>
+        <v>5.323689490162714</v>
       </c>
       <c r="H241" t="n">
         <v>0.54</v>
       </c>
       <c r="I241" t="n">
-        <v>12199.01</v>
+        <v>12346.53</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>118668</v>
+        <v>115861</v>
       </c>
       <c r="E242" t="n">
-        <v>118668</v>
+        <v>115861</v>
       </c>
       <c r="F242" t="n">
-        <v>103.0838315733276</v>
+        <v>158.0516791522505</v>
       </c>
       <c r="G242" t="n">
-        <v>20.07135641682757</v>
+        <v>11.18477478464526</v>
       </c>
       <c r="H242" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I242" t="n">
-        <v>39482</v>
+        <v>39248</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3493830</v>
+        <v>3501253</v>
       </c>
       <c r="E243" t="n">
-        <v>5019071</v>
+        <v>5029615</v>
       </c>
       <c r="F243" t="n">
-        <v>320.2423892712916</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>34.10838365133154</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>2.79</v>
+        <v>4.18</v>
       </c>
       <c r="I243" t="n">
-        <v>145238</v>
+        <v>142687</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>317257353</v>
+        <v>319861095</v>
       </c>
       <c r="E244" t="n">
-        <v>586998454</v>
+        <v>591815969</v>
       </c>
       <c r="F244" t="n">
-        <v>20995.33936162288</v>
+        <v>17812.40268615635</v>
       </c>
       <c r="G244" t="n">
-        <v>18818.16925214913</v>
+        <v>28252.43397960076</v>
       </c>
       <c r="H244" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I244" t="n">
-        <v>13925497</v>
+        <v>14111941</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>72035265</v>
+        <v>72216046</v>
       </c>
       <c r="E245" t="n">
-        <v>687181288</v>
+        <v>688889577</v>
       </c>
       <c r="F245" t="n">
-        <v>59454.18137109518</v>
+        <v>48509.39863677719</v>
       </c>
       <c r="G245" t="n">
-        <v>58590.76526969477</v>
+        <v>74776.82044471262</v>
       </c>
       <c r="H245" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I245" t="n">
-        <v>22072587</v>
+        <v>22350754</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>82296</v>
+        <v>82375</v>
       </c>
       <c r="E246" t="n">
-        <v>684147</v>
+        <v>684798</v>
       </c>
       <c r="F246" t="n">
-        <v>3.939529623010869</v>
+        <v>3.939682524377388</v>
       </c>
       <c r="G246" t="n">
-        <v>65.22092333515518</v>
+        <v>65.22345469530674</v>
       </c>
       <c r="H246" t="n">
         <v>0.73</v>
       </c>
       <c r="I246" t="n">
-        <v>121.19</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1890334</v>
+        <v>1891141</v>
       </c>
       <c r="E247" t="n">
-        <v>5398552</v>
+        <v>5400856</v>
       </c>
       <c r="F247" t="n">
-        <v>287.5276726442021</v>
+        <v>282.38056272609</v>
       </c>
       <c r="G247" t="n">
-        <v>269.9138325965463</v>
+        <v>268.7382652813448</v>
       </c>
       <c r="H247" t="n">
         <v>0.27</v>
       </c>
       <c r="I247" t="n">
-        <v>67372</v>
+        <v>68157</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>38009497</v>
+        <v>37939228</v>
       </c>
       <c r="E248" t="n">
-        <v>49694438</v>
+        <v>49602302</v>
       </c>
       <c r="F248" t="n">
-        <v>197.1274714257236</v>
+        <v>1021.530185846194</v>
       </c>
       <c r="G248" t="n">
-        <v>4215.850540986337</v>
+        <v>4264.292700131737</v>
       </c>
       <c r="H248" t="n">
-        <v>1.85</v>
+        <v>1.39</v>
       </c>
       <c r="I248" t="n">
-        <v>552596</v>
+        <v>350539</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>11558924</v>
+        <v>11290934</v>
       </c>
       <c r="E249" t="n">
-        <v>34296093</v>
+        <v>33494908</v>
       </c>
       <c r="F249" t="n">
-        <v>1182.151533953186</v>
+        <v>913.335037050467</v>
       </c>
       <c r="G249" t="n">
-        <v>1904.310554335458</v>
+        <v>2255.674017733588</v>
       </c>
       <c r="H249" t="n">
-        <v>0.58</v>
+        <v>0.37</v>
       </c>
       <c r="I249" t="n">
-        <v>7264754</v>
+        <v>7388180</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1984398</v>
+        <v>1981080</v>
       </c>
       <c r="E250" t="n">
-        <v>5757377</v>
+        <v>5747750</v>
       </c>
       <c r="F250" t="n">
-        <v>146.866415667149</v>
+        <v>43.02674973891114</v>
       </c>
       <c r="G250" t="n">
-        <v>279.1541720339444</v>
+        <v>183.30728416687</v>
       </c>
       <c r="H250" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I250" t="n">
-        <v>46499</v>
+        <v>47810</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7369714</v>
+        <v>7380913</v>
       </c>
       <c r="E251" t="n">
-        <v>7369725</v>
+        <v>7380924</v>
       </c>
       <c r="F251" t="n">
-        <v>2475.572502639938</v>
+        <v>2296.006848961819</v>
       </c>
       <c r="G251" t="n">
-        <v>776.462170631651</v>
+        <v>1664.007541732498</v>
       </c>
       <c r="H251" t="n">
         <v>0.73</v>
       </c>
       <c r="I251" t="n">
-        <v>320822</v>
+        <v>321463</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6506934</v>
+        <v>6483632</v>
       </c>
       <c r="E252" t="n">
-        <v>6506934</v>
+        <v>6483632</v>
       </c>
       <c r="F252" t="n">
-        <v>5.418493377006818</v>
+        <v>6.444495581824107</v>
       </c>
       <c r="G252" t="n">
-        <v>1348.124656954323</v>
+        <v>1462.666202971686</v>
       </c>
       <c r="H252" t="n">
         <v>0.31</v>
       </c>
       <c r="I252" t="n">
-        <v>516268</v>
+        <v>499518</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6226533</v>
+        <v>6246646</v>
       </c>
       <c r="E253" t="n">
-        <v>22743117</v>
+        <v>22816579</v>
       </c>
       <c r="F253" t="n">
-        <v>489.1673644324345</v>
+        <v>489.1884790576121</v>
       </c>
       <c r="G253" t="n">
-        <v>102.1950267628393</v>
+        <v>152.579405128073</v>
       </c>
       <c r="H253" t="n">
-        <v>1.73</v>
+        <v>2.57</v>
       </c>
       <c r="I253" t="n">
-        <v>502584</v>
+        <v>506689</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2328315</v>
+        <v>2150638</v>
       </c>
       <c r="E254" t="n">
-        <v>20537278</v>
+        <v>18970057</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>1.100479998642905</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1489.46698559574</v>
       </c>
       <c r="H254" t="n">
-        <v>4.22</v>
+        <v>2.65</v>
       </c>
       <c r="I254" t="n">
-        <v>81856</v>
+        <v>79639</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14576404</v>
+        <v>14533423</v>
       </c>
       <c r="E255" t="n">
-        <v>29509040</v>
+        <v>29422027</v>
       </c>
       <c r="F255" t="n">
-        <v>96.01617765113929</v>
+        <v>95.75073145110477</v>
       </c>
       <c r="G255" t="n">
-        <v>278.9255578681257</v>
+        <v>278.7226694635347</v>
       </c>
       <c r="H255" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="I255" t="n">
-        <v>571760</v>
+        <v>565353</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>44896272</v>
+        <v>45209455</v>
       </c>
       <c r="E256" t="n">
-        <v>44896272</v>
+        <v>45209455</v>
       </c>
       <c r="F256" t="n">
-        <v>7400.01397598922</v>
+        <v>6719.459257605949</v>
       </c>
       <c r="G256" t="n">
-        <v>4689.036671265248</v>
+        <v>4722.636498569902</v>
       </c>
       <c r="H256" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="I256" t="n">
-        <v>7148698</v>
+        <v>8541748</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8405405</v>
+        <v>8368129</v>
       </c>
       <c r="E257" t="n">
-        <v>11975776</v>
+        <v>11922666</v>
       </c>
       <c r="F257" t="n">
-        <v>66.39235820500912</v>
+        <v>77.14873569237177</v>
       </c>
       <c r="G257" t="n">
-        <v>61.2807630397703</v>
+        <v>163.4329041373981</v>
       </c>
       <c r="H257" t="n">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="I257" t="n">
-        <v>404314</v>
+        <v>393305</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>152420232</v>
+        <v>151343999</v>
       </c>
       <c r="F258" t="n">
-        <v>296.7207141161992</v>
+        <v>422.9918643329128</v>
       </c>
       <c r="G258" t="n">
-        <v>645.1723915777243</v>
+        <v>166.0135276624407</v>
       </c>
       <c r="H258" t="n">
-        <v>2.26</v>
+        <v>2.59</v>
       </c>
       <c r="I258" t="n">
-        <v>426666</v>
+        <v>1447330</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16283958</v>
+        <v>16436066</v>
       </c>
       <c r="F259" t="n">
-        <v>124.3679174838126</v>
+        <v>114.3409833351746</v>
       </c>
       <c r="G259" t="n">
-        <v>103.9885599290905</v>
+        <v>123.6729204600348</v>
       </c>
       <c r="H259" t="n">
-        <v>0.26</v>
+        <v>0.84</v>
       </c>
       <c r="I259" t="n">
-        <v>999546</v>
+        <v>1008745</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>725401</v>
+        <v>725883</v>
       </c>
       <c r="F260" t="n">
-        <v>9.631577696185929</v>
+        <v>9.631590022428359</v>
       </c>
       <c r="G260" t="n">
-        <v>3.515312300897498</v>
+        <v>3.515316799702679</v>
       </c>
       <c r="H260" t="n">
         <v>1.97</v>
       </c>
       <c r="I260" t="n">
-        <v>193716</v>
+        <v>198278</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>2990455</v>
+        <v>3000103</v>
       </c>
       <c r="F261" t="n">
-        <v>33.54984523665198</v>
+        <v>40.29350994100663</v>
       </c>
       <c r="G261" t="n">
-        <v>49.51780362433848</v>
+        <v>48.41842375107802</v>
       </c>
       <c r="H261" t="n">
         <v>0.53</v>
       </c>
       <c r="I261" t="n">
-        <v>70535</v>
+        <v>70815</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2852057</v>
+        <v>2854643</v>
       </c>
       <c r="E262" t="n">
-        <v>2854527</v>
+        <v>2857115</v>
       </c>
       <c r="F262" t="n">
-        <v>4.056757061137799</v>
+        <v>4.031968910908411</v>
       </c>
       <c r="G262" t="n">
-        <v>554.1230789649244</v>
+        <v>96.22151354477272</v>
       </c>
       <c r="H262" t="n">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="I262" t="n">
-        <v>109955</v>
+        <v>110266</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>62551065</v>
+        <v>62579413</v>
       </c>
       <c r="E263" t="n">
-        <v>103484450</v>
+        <v>103531349</v>
       </c>
       <c r="F263" t="n">
-        <v>7670.152124346972</v>
+        <v>7698.044139244121</v>
       </c>
       <c r="G263" t="n">
-        <v>28367.28593292654</v>
+        <v>22915.49619106015</v>
       </c>
       <c r="H263" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="I263" t="n">
-        <v>6702025</v>
+        <v>6616785</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>688500</v>
+        <v>686031</v>
       </c>
       <c r="F264" t="n">
-        <v>231.7024458112936</v>
+        <v>289.3646001603201</v>
       </c>
       <c r="G264" t="n">
-        <v>165.0143637738463</v>
+        <v>135.0172287792558</v>
       </c>
       <c r="H264" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I264" t="n">
-        <v>680470</v>
+        <v>674953</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1260538</v>
+        <v>1262406</v>
       </c>
       <c r="E265" t="n">
-        <v>3809098</v>
+        <v>3813954</v>
       </c>
       <c r="F265" t="n">
-        <v>13.66484339425756</v>
+        <v>57.34917667082891</v>
       </c>
       <c r="G265" t="n">
-        <v>929.8392410706711</v>
+        <v>949.4460509011162</v>
       </c>
       <c r="H265" t="n">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="I265" t="n">
-        <v>12872.78</v>
+        <v>14710.63</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>39071770</v>
+        <v>39061817</v>
       </c>
       <c r="E266" t="n">
-        <v>277012473</v>
+        <v>276941909</v>
       </c>
       <c r="F266" t="n">
-        <v>62274.21502962752</v>
+        <v>64601.97247591124</v>
       </c>
       <c r="G266" t="n">
-        <v>38677.31637800562</v>
+        <v>27654.91446256547</v>
       </c>
       <c r="H266" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I266" t="n">
-        <v>1619851</v>
+        <v>1628118</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>59479</v>
+        <v>60295</v>
       </c>
       <c r="E267" t="n">
-        <v>310339</v>
+        <v>314594</v>
       </c>
       <c r="F267" t="n">
-        <v>29.22652503582667</v>
+        <v>2.646625357407156</v>
       </c>
       <c r="G267" t="n">
-        <v>4.012035885391755</v>
+        <v>2.62195592524637</v>
       </c>
       <c r="H267" t="n">
-        <v>1.45</v>
+        <v>1.97</v>
       </c>
       <c r="I267" t="n">
-        <v>290678</v>
+        <v>288481</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1275560</v>
+        <v>1275528</v>
       </c>
       <c r="E268" t="n">
-        <v>7909780</v>
+        <v>7909583</v>
       </c>
       <c r="F268" t="n">
-        <v>2376.613729832382</v>
+        <v>2336.092106616365</v>
       </c>
       <c r="G268" t="n">
-        <v>2175.81145612575</v>
+        <v>2144.435761063126</v>
       </c>
       <c r="H268" t="n">
         <v>0.23</v>
       </c>
       <c r="I268" t="n">
-        <v>776598</v>
+        <v>779449</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>610763818</v>
+        <v>618868067</v>
       </c>
       <c r="E269" t="n">
-        <v>2365398155</v>
+        <v>2396784714</v>
       </c>
       <c r="F269" t="n">
-        <v>201030.4134843109</v>
+        <v>195479.2961312271</v>
       </c>
       <c r="G269" t="n">
-        <v>294483.9438120222</v>
+        <v>280927.4935709923</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>33096925</v>
+        <v>33580035</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3290848</v>
+        <v>3296057</v>
       </c>
       <c r="F270" t="n">
-        <v>399.5560909830152</v>
+        <v>399.5751439967034</v>
       </c>
       <c r="G270" t="n">
-        <v>116.3228345834281</v>
+        <v>148.9904876776696</v>
       </c>
       <c r="H270" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="I270" t="n">
-        <v>33565</v>
+        <v>33941</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>685691</v>
+        <v>716456</v>
       </c>
       <c r="F271" t="n">
-        <v>13.18819517289817</v>
+        <v>28.00794707496896</v>
       </c>
       <c r="G271" t="n">
-        <v>462.663162841393</v>
+        <v>208.5929915606788</v>
       </c>
       <c r="H271" t="n">
-        <v>2.06</v>
+        <v>3.29</v>
       </c>
       <c r="I271" t="n">
-        <v>188601</v>
+        <v>156694</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5892357</v>
+        <v>5892670</v>
       </c>
       <c r="E272" t="n">
-        <v>26376719</v>
+        <v>26378120</v>
       </c>
       <c r="F272" t="n">
-        <v>160.2409572347701</v>
+        <v>137.7581044165153</v>
       </c>
       <c r="G272" t="n">
-        <v>449.3128498958461</v>
+        <v>466.9088585142241</v>
       </c>
       <c r="H272" t="n">
         <v>0.54</v>
       </c>
       <c r="I272" t="n">
-        <v>151917</v>
+        <v>149502</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6738519</v>
+        <v>6771002</v>
       </c>
       <c r="E273" t="n">
-        <v>12901441</v>
+        <v>12963633</v>
       </c>
       <c r="F273" t="n">
-        <v>821.65415161929</v>
+        <v>4878.246019011092</v>
       </c>
       <c r="G273" t="n">
-        <v>5.469762592294501</v>
+        <v>2124.262156045694</v>
       </c>
       <c r="H273" t="n">
-        <v>3.75</v>
+        <v>0.49</v>
       </c>
       <c r="I273" t="n">
-        <v>135606</v>
+        <v>123507</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3247362</v>
+        <v>3249238</v>
       </c>
       <c r="E274" t="n">
-        <v>21353894</v>
+        <v>21366229</v>
       </c>
       <c r="F274" t="n">
-        <v>223.523894430529</v>
+        <v>11.03455193760897</v>
       </c>
       <c r="G274" t="n">
-        <v>203.0031499041449</v>
+        <v>175.7592788677081</v>
       </c>
       <c r="H274" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="I274" t="n">
-        <v>1647803</v>
+        <v>1653458</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3709001</v>
+        <v>3713046</v>
       </c>
       <c r="E275" t="n">
-        <v>6322496</v>
+        <v>6329390</v>
       </c>
       <c r="F275" t="n">
-        <v>588.6664785792311</v>
+        <v>646.8669418825517</v>
       </c>
       <c r="G275" t="n">
-        <v>456.8003339503075</v>
+        <v>463.1858446474869</v>
       </c>
       <c r="H275" t="n">
         <v>0.63</v>
       </c>
       <c r="I275" t="n">
-        <v>1166217</v>
+        <v>1115639</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>435397</v>
+        <v>439653</v>
       </c>
       <c r="E276" t="n">
-        <v>435397</v>
+        <v>439653</v>
       </c>
       <c r="F276" t="n">
-        <v>21.0788994943181</v>
+        <v>21.07971761039941</v>
       </c>
       <c r="G276" t="n">
-        <v>26.17062721087973</v>
+        <v>286.5184953434007</v>
       </c>
       <c r="H276" t="n">
         <v>0.49</v>
       </c>
       <c r="I276" t="n">
-        <v>321</v>
+        <v>260.45</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7305043</v>
+        <v>7231863</v>
       </c>
       <c r="E277" t="n">
-        <v>10466786</v>
+        <v>10361909</v>
       </c>
       <c r="F277" t="n">
-        <v>1454.902814205082</v>
+        <v>1699.372537295809</v>
       </c>
       <c r="G277" t="n">
-        <v>165.0254625660494</v>
+        <v>615.485100071279</v>
       </c>
       <c r="H277" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I277" t="n">
-        <v>196969</v>
+        <v>192413</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>122855046</v>
+        <v>115316696</v>
       </c>
       <c r="E278" t="n">
-        <v>1068149113</v>
+        <v>1071440619</v>
       </c>
       <c r="F278" t="n">
-        <v>9494.294484145788</v>
+        <v>9282.629181669899</v>
       </c>
       <c r="G278" t="n">
-        <v>9576.381914498863</v>
+        <v>11775.68864102277</v>
       </c>
       <c r="H278" t="n">
         <v>0.19</v>
       </c>
       <c r="I278" t="n">
-        <v>9266775</v>
+        <v>9275363</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>113135715</v>
+        <v>117211926</v>
       </c>
       <c r="E279" t="n">
-        <v>172591186</v>
+        <v>178809540</v>
       </c>
       <c r="F279" t="n">
-        <v>21085.28209126432</v>
+        <v>46068.63991843423</v>
       </c>
       <c r="G279" t="n">
-        <v>49111.07148237178</v>
+        <v>54865.18765712012</v>
       </c>
       <c r="H279" t="n">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="I279" t="n">
-        <v>7898618</v>
+        <v>7975144</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>17085403</v>
+        <v>17685776</v>
       </c>
       <c r="E280" t="n">
-        <v>23439693</v>
+        <v>24263353</v>
       </c>
       <c r="F280" t="n">
-        <v>385.8097046375273</v>
+        <v>2240.23218746926</v>
       </c>
       <c r="G280" t="n">
-        <v>4940.456792627791</v>
+        <v>1013.086184011969</v>
       </c>
       <c r="H280" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I280" t="n">
-        <v>513868</v>
+        <v>546633</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5536183</v>
+        <v>5549301</v>
       </c>
       <c r="E281" t="n">
-        <v>5536183</v>
+        <v>5549301</v>
       </c>
       <c r="F281" t="n">
-        <v>14.59982749070454</v>
+        <v>14.60032971086832</v>
       </c>
       <c r="G281" t="n">
-        <v>56.41130657695062</v>
+        <v>36.95617680907246</v>
       </c>
       <c r="H281" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I281" t="n">
-        <v>699631</v>
+        <v>692391</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>122779665</v>
+        <v>125389023</v>
       </c>
       <c r="E282" t="n">
-        <v>471002557</v>
+        <v>481012476</v>
       </c>
       <c r="F282" t="n">
-        <v>38656.30914088117</v>
+        <v>27267.28801970677</v>
       </c>
       <c r="G282" t="n">
-        <v>75102.82212652221</v>
+        <v>57365.30560246421</v>
       </c>
       <c r="H282" t="n">
         <v>0.02</v>
       </c>
       <c r="I282" t="n">
-        <v>31758298</v>
+        <v>32034482</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>757111</v>
+        <v>665759</v>
       </c>
       <c r="F283" t="n">
-        <v>4.065251637014399</v>
+        <v>4.065383967782813</v>
       </c>
       <c r="G283" t="n">
-        <v>3.922370186559067</v>
+        <v>3.922497866296299</v>
       </c>
       <c r="H283" t="n">
         <v>0.75</v>
       </c>
       <c r="I283" t="n">
-        <v>49451</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3196189</v>
+        <v>3237971</v>
       </c>
       <c r="E284" t="n">
-        <v>30284367</v>
+        <v>30680255</v>
       </c>
       <c r="F284" t="n">
-        <v>1227.666404166772</v>
+        <v>1288.556449608743</v>
       </c>
       <c r="G284" t="n">
-        <v>821.1938113451615</v>
+        <v>1103.639839241883</v>
       </c>
       <c r="H284" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I284" t="n">
-        <v>213054</v>
+        <v>223508</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>84861</v>
+        <v>85079</v>
       </c>
       <c r="F285" t="n">
-        <v>701.6927137334069</v>
+        <v>607.1970938448144</v>
       </c>
       <c r="G285" t="n">
-        <v>36.54886757996172</v>
+        <v>30.72858707222074</v>
       </c>
       <c r="H285" t="n">
         <v>0.7</v>
       </c>
       <c r="I285" t="n">
-        <v>14696.96</v>
+        <v>15392.33</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>132831</v>
+        <v>132129</v>
       </c>
       <c r="F286" t="n">
-        <v>4.117801189194711</v>
+        <v>4.057180223117802</v>
       </c>
       <c r="G286" t="n">
-        <v>3.930084051737562</v>
+        <v>3.945497721879121</v>
       </c>
       <c r="H286" t="n">
-        <v>0.89</v>
+        <v>0.27</v>
       </c>
       <c r="I286" t="n">
-        <v>89764</v>
+        <v>88802</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21304737</v>
+        <v>21200840</v>
       </c>
       <c r="E287" t="n">
-        <v>21304737</v>
+        <v>21200840</v>
       </c>
       <c r="F287" t="n">
-        <v>2902.608767071288</v>
+        <v>1129.3909000516</v>
       </c>
       <c r="G287" t="n">
-        <v>8489.786958884913</v>
+        <v>7230.667626459741</v>
       </c>
       <c r="H287" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="I287" t="n">
-        <v>670755</v>
+        <v>692846</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>570502</v>
+        <v>554919</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>932.0700000000001</v>
+        <v>1939.86</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6437659</v>
+        <v>6708999</v>
       </c>
       <c r="E289" t="n">
-        <v>40233525</v>
+        <v>41929323</v>
       </c>
       <c r="F289" t="n">
-        <v>84.66391650535519</v>
+        <v>209.1120051759249</v>
       </c>
       <c r="G289" t="n">
-        <v>599.0685462820395</v>
+        <v>850.1364517605626</v>
       </c>
       <c r="H289" t="n">
-        <v>1.24</v>
+        <v>0.05</v>
       </c>
       <c r="I289" t="n">
-        <v>425197</v>
+        <v>425670</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>493912203</v>
+        <v>494434648</v>
       </c>
       <c r="E290" t="n">
-        <v>493912203</v>
+        <v>494434648</v>
       </c>
       <c r="F290" t="n">
-        <v>1133796.103041069</v>
+        <v>1097984.393387241</v>
       </c>
       <c r="G290" t="n">
-        <v>1851246.411173533</v>
+        <v>1787940.169324635</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>32719006</v>
+        <v>32878807</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5291890</v>
+        <v>5273288</v>
       </c>
       <c r="E291" t="n">
-        <v>19705914</v>
+        <v>19636644</v>
       </c>
       <c r="F291" t="n">
-        <v>3618.089902403685</v>
+        <v>3809.213371650803</v>
       </c>
       <c r="G291" t="n">
-        <v>1933.771040251061</v>
+        <v>2360.350879337712</v>
       </c>
       <c r="H291" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I291" t="n">
-        <v>73128</v>
+        <v>77042</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>32043285</v>
+        <v>32560363</v>
       </c>
       <c r="F292" t="n">
-        <v>6042.456914340279</v>
+        <v>14890.16744468852</v>
       </c>
       <c r="G292" t="n">
-        <v>9952.774272382872</v>
+        <v>10019.43173398434</v>
       </c>
       <c r="H292" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="I292" t="n">
-        <v>5426371</v>
+        <v>5571446</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31548039</v>
+        <v>31525106</v>
       </c>
       <c r="E293" t="n">
-        <v>113079535</v>
+        <v>112997337</v>
       </c>
       <c r="F293" t="n">
-        <v>2335.141701890348</v>
+        <v>2754.662562576669</v>
       </c>
       <c r="G293" t="n">
-        <v>4330.64838000218</v>
+        <v>4240.788785500918</v>
       </c>
       <c r="H293" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="I293" t="n">
-        <v>88899</v>
+        <v>84279</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>755366</v>
+        <v>733140</v>
       </c>
       <c r="E294" t="n">
-        <v>12047817</v>
+        <v>11693324</v>
       </c>
       <c r="F294" t="n">
-        <v>14.21612906334379</v>
+        <v>15.25903316010551</v>
       </c>
       <c r="G294" t="n">
-        <v>27.88543240259806</v>
+        <v>1.624738841528188</v>
       </c>
       <c r="H294" t="n">
-        <v>2.32</v>
+        <v>2.73</v>
       </c>
       <c r="I294" t="n">
-        <v>268735</v>
+        <v>270612</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>84978</v>
+        <v>85088</v>
       </c>
       <c r="F295" t="n">
-        <v>90.41850744746618</v>
+        <v>90.42148993914722</v>
       </c>
       <c r="G295" t="n">
-        <v>44.43153676961492</v>
+        <v>44.43300236214162</v>
       </c>
       <c r="H295" t="n">
         <v>1.01</v>
       </c>
       <c r="I295" t="n">
-        <v>56132</v>
+        <v>55593</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1532004</v>
+        <v>1571439</v>
       </c>
       <c r="F296" t="n">
-        <v>3.885750094867056</v>
+        <v>3.871843138665559</v>
       </c>
       <c r="G296" t="n">
-        <v>10.54758767545883</v>
+        <v>3.95825027847741</v>
       </c>
       <c r="H296" t="n">
-        <v>0.61</v>
+        <v>1.1</v>
       </c>
       <c r="I296" t="n">
-        <v>608454</v>
+        <v>606789</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2643224703</v>
+        <v>2678545262</v>
       </c>
       <c r="E297" t="n">
-        <v>2806416859</v>
+        <v>2843918103</v>
       </c>
       <c r="F297" t="n">
-        <v>52130.67727358785</v>
+        <v>39898.00089257246</v>
       </c>
       <c r="G297" t="n">
-        <v>71000.60160046449</v>
+        <v>46073.62900329596</v>
       </c>
       <c r="H297" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="I297" t="n">
-        <v>34853062</v>
+        <v>35025683</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2235945</v>
+        <v>2202328</v>
       </c>
       <c r="E298" t="n">
-        <v>17198257</v>
+        <v>16939680</v>
       </c>
       <c r="F298" t="n">
-        <v>1411.956455232918</v>
+        <v>4056.009490561598</v>
       </c>
       <c r="G298" t="n">
-        <v>4047.338485506049</v>
+        <v>4050.990949071755</v>
       </c>
       <c r="H298" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="I298" t="n">
-        <v>167430</v>
+        <v>169090</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1727523</v>
+        <v>1724394</v>
       </c>
       <c r="E299" t="n">
-        <v>1733620</v>
+        <v>1730481</v>
       </c>
       <c r="F299" t="n">
-        <v>945.2834382293224</v>
+        <v>1045.750206046786</v>
       </c>
       <c r="G299" t="n">
-        <v>550.3757025490359</v>
+        <v>793.6086906573391</v>
       </c>
       <c r="H299" t="n">
-        <v>0.33</v>
+        <v>1.12</v>
       </c>
       <c r="I299" t="n">
-        <v>434359</v>
+        <v>442556</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>88954221</v>
+        <v>89001938</v>
       </c>
       <c r="E300" t="n">
-        <v>328824403</v>
+        <v>328999525</v>
       </c>
       <c r="F300" t="n">
-        <v>5549.494866557273</v>
+        <v>4845.889487234436</v>
       </c>
       <c r="G300" t="n">
-        <v>801.6323624727537</v>
+        <v>1020.811657154899</v>
       </c>
       <c r="H300" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="I300" t="n">
-        <v>235787</v>
+        <v>231104</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2298924</v>
+        <v>2271792</v>
       </c>
       <c r="E301" t="n">
-        <v>9224510</v>
+        <v>9108027</v>
       </c>
       <c r="F301" t="n">
-        <v>4.117456901814439</v>
+        <v>4.094843510837284</v>
       </c>
       <c r="G301" t="n">
-        <v>6.806745690993999</v>
+        <v>379.5347717770871</v>
       </c>
       <c r="H301" t="n">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
       <c r="I301" t="n">
-        <v>41863</v>
+        <v>41106</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>61229143</v>
+        <v>61555278</v>
       </c>
       <c r="E302" t="n">
-        <v>150190938</v>
+        <v>150990924</v>
       </c>
       <c r="F302" t="n">
-        <v>2036.029613987892</v>
+        <v>2239.986900343114</v>
       </c>
       <c r="G302" t="n">
-        <v>2641.667069491347</v>
+        <v>1913.82789544357</v>
       </c>
       <c r="H302" t="n">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
-        <v>22359804</v>
+        <v>22532235</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>760123612</v>
+        <v>802233169</v>
       </c>
       <c r="E303" t="n">
-        <v>1172177722</v>
+        <v>1237114377</v>
       </c>
       <c r="F303" t="n">
-        <v>41760.46457471683</v>
+        <v>35928.69504289413</v>
       </c>
       <c r="G303" t="n">
-        <v>47128.99504549568</v>
+        <v>47157.1812309827</v>
       </c>
       <c r="H303" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I303" t="n">
-        <v>223110497</v>
+        <v>254217398</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20647229</v>
+        <v>20225514</v>
       </c>
       <c r="E304" t="n">
-        <v>20647230</v>
+        <v>20225514</v>
       </c>
       <c r="F304" t="n">
-        <v>3293.159927956589</v>
+        <v>4302.918045827456</v>
       </c>
       <c r="G304" t="n">
-        <v>3798.531708720298</v>
+        <v>3242.592326251728</v>
       </c>
       <c r="H304" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I304" t="n">
-        <v>6910969</v>
+        <v>7062840</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1793000</v>
+        <v>1817050</v>
       </c>
       <c r="E305" t="n">
-        <v>2942009</v>
+        <v>2981470</v>
       </c>
       <c r="F305" t="n">
-        <v>285.766874905597</v>
+        <v>545.7593982757149</v>
       </c>
       <c r="G305" t="n">
-        <v>123.1143690629351</v>
+        <v>35.03786850799197</v>
       </c>
       <c r="H305" t="n">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="I305" t="n">
-        <v>184611</v>
+        <v>180584</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5759039</v>
+        <v>5779314</v>
       </c>
       <c r="E306" t="n">
-        <v>5759039</v>
+        <v>5779314</v>
       </c>
       <c r="F306" t="n">
-        <v>41.55860333356901</v>
+        <v>41.28909305722537</v>
       </c>
       <c r="G306" t="n">
-        <v>5.441028217253352</v>
+        <v>4.056958329305805</v>
       </c>
       <c r="H306" t="n">
-        <v>0.16</v>
+        <v>0.49</v>
       </c>
       <c r="I306" t="n">
-        <v>617.04</v>
+        <v>568.0700000000001</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39790782</v>
+        <v>39885758</v>
       </c>
       <c r="E307" t="n">
-        <v>189769819</v>
+        <v>190222761</v>
       </c>
       <c r="F307" t="n">
-        <v>983.4300190863049</v>
+        <v>1091.809526127252</v>
       </c>
       <c r="G307" t="n">
-        <v>765.4674272711753</v>
+        <v>757.1486013188717</v>
       </c>
       <c r="H307" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
       <c r="I307" t="n">
-        <v>292444</v>
+        <v>294534</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>384180</v>
+        <v>388336</v>
       </c>
       <c r="E308" t="n">
-        <v>718525</v>
+        <v>726298</v>
       </c>
       <c r="F308" t="n">
-        <v>32.95176855495522</v>
+        <v>722.9797122626582</v>
       </c>
       <c r="G308" t="n">
-        <v>244.8893017364524</v>
+        <v>107.3924010400982</v>
       </c>
       <c r="H308" t="n">
-        <v>0.32</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I308" t="n">
-        <v>1443.66</v>
+        <v>848.6799999999999</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23559808</v>
+        <v>23487117</v>
       </c>
       <c r="E309" t="n">
-        <v>39266345</v>
+        <v>39145195</v>
       </c>
       <c r="F309" t="n">
-        <v>1119.38630824631</v>
+        <v>5384.300808975782</v>
       </c>
       <c r="G309" t="n">
-        <v>559.0400216938995</v>
+        <v>1405.255121233127</v>
       </c>
       <c r="H309" t="n">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>484777</v>
+        <v>473411</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>110289</v>
+        <v>110016</v>
       </c>
       <c r="F310" t="n">
-        <v>15.14907018082235</v>
+        <v>14.87148521486214</v>
       </c>
       <c r="G310" t="n">
-        <v>87.01585857765126</v>
+        <v>84.13543448497758</v>
       </c>
       <c r="H310" t="n">
         <v>0.18</v>
       </c>
       <c r="I310" t="n">
-        <v>49922</v>
+        <v>50263</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23462141</v>
+        <v>23752929</v>
       </c>
       <c r="E311" t="n">
-        <v>23462141</v>
+        <v>23752929</v>
       </c>
       <c r="F311" t="n">
-        <v>6614.899170180423</v>
+        <v>4945.493353464672</v>
       </c>
       <c r="G311" t="n">
-        <v>6564.065785085383</v>
+        <v>7486.967318167692</v>
       </c>
       <c r="H311" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="I311" t="n">
-        <v>5682076</v>
+        <v>5768764</v>
       </c>
     </row>
     <row r="312">
@@ -11315,10 +11315,10 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3849541</v>
+        <v>3808904</v>
       </c>
       <c r="E312" t="n">
-        <v>8399648</v>
+        <v>8310979</v>
       </c>
       <c r="F312" t="n">
         <v>1688.37533558326</v>
@@ -11330,7 +11330,7 @@
         <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>1676818</v>
+        <v>1761497</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9252294</v>
+        <v>9254976</v>
       </c>
       <c r="E313" t="n">
-        <v>9252294</v>
+        <v>9254976</v>
       </c>
       <c r="F313" t="n">
-        <v>15644.78154030732</v>
+        <v>15456.79831061416</v>
       </c>
       <c r="G313" t="n">
-        <v>112833.4695853499</v>
+        <v>113171.6644576757</v>
       </c>
       <c r="H313" t="n">
         <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>2863558</v>
+        <v>768231</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>497085188</v>
+        <v>501151441</v>
       </c>
       <c r="E314" t="n">
-        <v>1730312169</v>
+        <v>1744466458</v>
       </c>
       <c r="F314" t="n">
-        <v>491651.4258420299</v>
+        <v>450830.0472537767</v>
       </c>
       <c r="G314" t="n">
-        <v>542819.4589949079</v>
+        <v>450324.160567939</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>30666851</v>
+        <v>31705938</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24075335</v>
+        <v>24103017</v>
       </c>
       <c r="E315" t="n">
-        <v>24054422</v>
+        <v>24082080</v>
       </c>
       <c r="F315" t="n">
-        <v>199.1564246071966</v>
+        <v>172.8338279699464</v>
       </c>
       <c r="G315" t="n">
-        <v>784.4528199371121</v>
+        <v>791.6106731703103</v>
       </c>
       <c r="H315" t="n">
         <v>0.42</v>
       </c>
       <c r="I315" t="n">
-        <v>84418</v>
+        <v>83580</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48965951</v>
+        <v>48864300</v>
       </c>
       <c r="E316" t="n">
-        <v>120565791</v>
+        <v>120315507</v>
       </c>
       <c r="F316" t="n">
-        <v>1028.198275131868</v>
+        <v>496.9453962893386</v>
       </c>
       <c r="G316" t="n">
-        <v>1903.362824714308</v>
+        <v>1038.519433899672</v>
       </c>
       <c r="H316" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="I316" t="n">
-        <v>18799.49</v>
+        <v>24703</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12225909</v>
+        <v>12231890</v>
       </c>
       <c r="E317" t="n">
-        <v>24721222</v>
+        <v>24729005</v>
       </c>
       <c r="F317" t="n">
-        <v>360.647530448522</v>
+        <v>360.9176570686758</v>
       </c>
       <c r="G317" t="n">
-        <v>2619.384031658542</v>
+        <v>2632.629396867343</v>
       </c>
       <c r="H317" t="n">
         <v>0.23</v>
       </c>
       <c r="I317" t="n">
-        <v>41375</v>
+        <v>41974</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7500082</v>
+        <v>7465323</v>
       </c>
       <c r="E318" t="n">
-        <v>19484408</v>
+        <v>19394107</v>
       </c>
       <c r="F318" t="n">
-        <v>151.1795517230481</v>
+        <v>300.0803712335725</v>
       </c>
       <c r="G318" t="n">
-        <v>147.784141880757</v>
+        <v>172.7764485832553</v>
       </c>
       <c r="H318" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="I318" t="n">
-        <v>716708</v>
+        <v>716528</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>152486</v>
+        <v>152924</v>
       </c>
       <c r="F319" t="n">
-        <v>261.2537183679839</v>
+        <v>221.6787299676936</v>
       </c>
       <c r="G319" t="n">
-        <v>3.621128929037495</v>
+        <v>13.87719425559491</v>
       </c>
       <c r="H319" t="n">
-        <v>1.29</v>
+        <v>1.83</v>
       </c>
       <c r="I319" t="n">
-        <v>58711</v>
+        <v>58667</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19204461513</v>
+        <v>19208860870</v>
       </c>
       <c r="F320" t="n">
-        <v>51838.3796135681</v>
+        <v>51858.39172070795</v>
       </c>
       <c r="G320" t="n">
-        <v>49712.28040462793</v>
+        <v>49646.87783033388</v>
       </c>
       <c r="H320" t="n">
         <v>0.53</v>
       </c>
       <c r="I320" t="n">
-        <v>46443546</v>
+        <v>46073720</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>105150441</v>
+        <v>106973999</v>
       </c>
       <c r="E321" t="n">
-        <v>159315068</v>
+        <v>162077968</v>
       </c>
       <c r="F321" t="n">
-        <v>17898.45172147625</v>
+        <v>15698.0731491867</v>
       </c>
       <c r="G321" t="n">
-        <v>18956.83957454304</v>
+        <v>19179.59966490863</v>
       </c>
       <c r="H321" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="I321" t="n">
-        <v>7613687</v>
+        <v>8103903</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2635114</v>
+        <v>2629834</v>
       </c>
       <c r="E322" t="n">
-        <v>10540455</v>
+        <v>10519336</v>
       </c>
       <c r="F322" t="n">
-        <v>41523.93791059196</v>
+        <v>37821.07935452931</v>
       </c>
       <c r="G322" t="n">
-        <v>14174.79589512237</v>
+        <v>15234.85001413981</v>
       </c>
       <c r="H322" t="n">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="I322" t="n">
-        <v>6857324</v>
+        <v>6885098</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>228465872</v>
+        <v>229315899</v>
       </c>
       <c r="E323" t="n">
-        <v>702446578</v>
+        <v>705060093</v>
       </c>
       <c r="F323" t="n">
-        <v>101755.3906514785</v>
+        <v>118070.9301637032</v>
       </c>
       <c r="G323" t="n">
-        <v>190184.6925439632</v>
+        <v>171457.585009469</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>15302467</v>
+        <v>16149618</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>148172739</v>
+        <v>143426714</v>
       </c>
       <c r="E324" t="n">
-        <v>387097170</v>
+        <v>374698312</v>
       </c>
       <c r="F324" t="n">
-        <v>5913.666354875788</v>
+        <v>8172.411680632382</v>
       </c>
       <c r="G324" t="n">
-        <v>11759.62132748716</v>
+        <v>9935.404481831536</v>
       </c>
       <c r="H324" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="I324" t="n">
-        <v>7789863</v>
+        <v>8417094</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2445633</v>
+        <v>2445587</v>
       </c>
       <c r="E325" t="n">
-        <v>3356679</v>
+        <v>3356574</v>
       </c>
       <c r="F325" t="n">
-        <v>109.9596325474109</v>
+        <v>143.3010013577106</v>
       </c>
       <c r="G325" t="n">
-        <v>2207.840545271</v>
+        <v>1926.366187298648</v>
       </c>
       <c r="H325" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="I325" t="n">
-        <v>2007738</v>
+        <v>1997738</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>404398007</v>
+        <v>405131613</v>
       </c>
       <c r="E326" t="n">
-        <v>2310845756</v>
+        <v>2315037789</v>
       </c>
       <c r="F326" t="n">
-        <v>248778.2144580956</v>
+        <v>289487.1039151237</v>
       </c>
       <c r="G326" t="n">
-        <v>377338.6669384222</v>
+        <v>377242.8923689724</v>
       </c>
       <c r="H326" t="n">
         <v>0.18</v>
       </c>
       <c r="I326" t="n">
-        <v>39312883</v>
+        <v>39757351</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250221.xlsx
+++ b/MexcData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91277</v>
+        <v>91398</v>
       </c>
       <c r="F2" t="n">
-        <v>4.209588337028269</v>
+        <v>4.209659064572324</v>
       </c>
       <c r="G2" t="n">
-        <v>32.63024569597069</v>
+        <v>32.63079393417244</v>
       </c>
       <c r="H2" t="n">
         <v>0.43</v>
       </c>
       <c r="I2" t="n">
-        <v>1400.84</v>
+        <v>1404.59</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>609131903</v>
+        <v>615731752</v>
       </c>
       <c r="E3" t="n">
-        <v>1181993055</v>
+        <v>1194800022</v>
       </c>
       <c r="F3" t="n">
-        <v>20427.78643869637</v>
+        <v>18448.1560058806</v>
       </c>
       <c r="G3" t="n">
-        <v>28337.38154728075</v>
+        <v>20650.27177323674</v>
       </c>
       <c r="H3" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>19170774</v>
+        <v>20293379</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>248774205</v>
+        <v>249953270</v>
       </c>
       <c r="E4" t="n">
-        <v>1560028073</v>
+        <v>1567421821</v>
       </c>
       <c r="F4" t="n">
-        <v>73239.92677631766</v>
+        <v>67555.89962665085</v>
       </c>
       <c r="G4" t="n">
-        <v>108182.0710417408</v>
+        <v>81880.59963882141</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>17519151</v>
+        <v>18329369</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148177480</v>
+        <v>149214893</v>
       </c>
       <c r="E5" t="n">
-        <v>164203805</v>
+        <v>165353421</v>
       </c>
       <c r="F5" t="n">
-        <v>140730.1516333031</v>
+        <v>120842.2956493331</v>
       </c>
       <c r="G5" t="n">
-        <v>338330.3658500213</v>
+        <v>255154.6650802027</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>37810710</v>
+        <v>38546899</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49292841</v>
+        <v>49575467</v>
       </c>
       <c r="E6" t="n">
-        <v>61664081</v>
+        <v>62017638</v>
       </c>
       <c r="F6" t="n">
-        <v>12241.59038740358</v>
+        <v>3276.601574471921</v>
       </c>
       <c r="G6" t="n">
-        <v>8312.523538358197</v>
+        <v>4140.866661202876</v>
       </c>
       <c r="H6" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="n">
-        <v>591815</v>
+        <v>651642</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8418106</v>
+        <v>8493278</v>
       </c>
       <c r="E7" t="n">
-        <v>8630380</v>
+        <v>8707447</v>
       </c>
       <c r="F7" t="n">
-        <v>606.4280252101728</v>
+        <v>342.2045619401038</v>
       </c>
       <c r="G7" t="n">
-        <v>210.0534405519167</v>
+        <v>982.1532163645429</v>
       </c>
       <c r="H7" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="I7" t="n">
-        <v>87120</v>
+        <v>87497</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68967473</v>
+        <v>69143644</v>
       </c>
       <c r="E8" t="n">
-        <v>137359865</v>
+        <v>137710738</v>
       </c>
       <c r="F8" t="n">
-        <v>30485.93384565242</v>
+        <v>27536.01776452849</v>
       </c>
       <c r="G8" t="n">
-        <v>25982.64324094809</v>
+        <v>31140.15649481454</v>
       </c>
       <c r="H8" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="I8" t="n">
-        <v>1013391</v>
+        <v>975811</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4954605</v>
+        <v>4968123</v>
       </c>
       <c r="E9" t="n">
-        <v>7915970</v>
+        <v>7937568</v>
       </c>
       <c r="F9" t="n">
-        <v>389.727719093873</v>
+        <v>394.1653967737576</v>
       </c>
       <c r="G9" t="n">
-        <v>621.4900396862683</v>
+        <v>876.8517630333746</v>
       </c>
       <c r="H9" t="n">
-        <v>0.41</v>
+        <v>0.29</v>
       </c>
       <c r="I9" t="n">
-        <v>98723</v>
+        <v>98603</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14185295</v>
+        <v>14257495</v>
       </c>
       <c r="E10" t="n">
-        <v>41803147</v>
+        <v>42015917</v>
       </c>
       <c r="F10" t="n">
-        <v>3928.101599280181</v>
+        <v>3880.550807518695</v>
       </c>
       <c r="G10" t="n">
-        <v>2842.357768966696</v>
+        <v>5006.01327306071</v>
       </c>
       <c r="H10" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>895388</v>
+        <v>897735</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>127001244</v>
+        <v>127952617</v>
       </c>
       <c r="E11" t="n">
-        <v>497806848</v>
+        <v>501535946</v>
       </c>
       <c r="F11" t="n">
-        <v>63474.09534806753</v>
+        <v>44958.49869601377</v>
       </c>
       <c r="G11" t="n">
-        <v>39178.33713959817</v>
+        <v>43874.52191320093</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>29577030</v>
+        <v>29840329</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10757862</v>
+        <v>10446110</v>
       </c>
       <c r="E12" t="n">
-        <v>46239900</v>
+        <v>44899255</v>
       </c>
       <c r="F12" t="n">
-        <v>3325.754024996667</v>
+        <v>728.732661466296</v>
       </c>
       <c r="G12" t="n">
-        <v>3343.135572371023</v>
+        <v>2448.648783347587</v>
       </c>
       <c r="H12" t="n">
-        <v>0.21</v>
+        <v>0.87</v>
       </c>
       <c r="I12" t="n">
-        <v>784037</v>
+        <v>858360</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1002335</v>
+        <v>1002919</v>
       </c>
       <c r="E13" t="n">
-        <v>12265871</v>
+        <v>12273020</v>
       </c>
       <c r="F13" t="n">
-        <v>271.0190780440267</v>
+        <v>271.0174750142499</v>
       </c>
       <c r="G13" t="n">
-        <v>201.0091082332265</v>
+        <v>199.6563924654766</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>481.36</v>
+        <v>483.31</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>587303</v>
+        <v>576315</v>
       </c>
       <c r="E14" t="n">
-        <v>587303</v>
+        <v>576315</v>
       </c>
       <c r="F14" t="n">
-        <v>155.652562766126</v>
+        <v>451.1703376130447</v>
       </c>
       <c r="G14" t="n">
-        <v>135.5193695144053</v>
+        <v>700.0802539820011</v>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I14" t="n">
-        <v>24183</v>
+        <v>24473</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>582750725</v>
+        <v>588094869</v>
       </c>
       <c r="E15" t="n">
-        <v>728934545</v>
+        <v>735619274</v>
       </c>
       <c r="F15" t="n">
-        <v>522366.683361529</v>
+        <v>514111.3396464353</v>
       </c>
       <c r="G15" t="n">
-        <v>437725.1405874062</v>
+        <v>538681.5026914595</v>
       </c>
       <c r="H15" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>55620663</v>
+        <v>55772058</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3351071</v>
+        <v>3364676</v>
       </c>
       <c r="E16" t="n">
-        <v>9533500</v>
+        <v>9572207</v>
       </c>
       <c r="F16" t="n">
-        <v>214.8421678321225</v>
+        <v>290.4463720806366</v>
       </c>
       <c r="G16" t="n">
-        <v>51.08659294223498</v>
+        <v>51.08642728162868</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>106528</v>
+        <v>107450</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>315579</v>
+        <v>317230</v>
       </c>
       <c r="E17" t="n">
-        <v>3642152</v>
+        <v>3661213</v>
       </c>
       <c r="F17" t="n">
-        <v>17.73225052369387</v>
+        <v>2.711730389968533</v>
       </c>
       <c r="G17" t="n">
-        <v>5.432385204683883</v>
+        <v>3.99263782798429</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3397.34</v>
+        <v>3486.77</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1308024</v>
+        <v>1301362</v>
       </c>
       <c r="E18" t="n">
-        <v>10033324</v>
+        <v>9982219</v>
       </c>
       <c r="F18" t="n">
-        <v>88.02075901324601</v>
+        <v>222.8962278298836</v>
       </c>
       <c r="G18" t="n">
-        <v>167.7978793351276</v>
+        <v>129.3284265947428</v>
       </c>
       <c r="H18" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="I18" t="n">
-        <v>139244</v>
+        <v>145495</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23205942</v>
+        <v>23293134</v>
       </c>
       <c r="E19" t="n">
-        <v>23249028</v>
+        <v>23336383</v>
       </c>
       <c r="F19" t="n">
-        <v>1461.541412735698</v>
+        <v>825.6326937266879</v>
       </c>
       <c r="G19" t="n">
-        <v>856.2766281876027</v>
+        <v>1258.253604519186</v>
       </c>
       <c r="H19" t="n">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="I19" t="n">
-        <v>842648</v>
+        <v>834268</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3781640</v>
+        <v>3799393</v>
       </c>
       <c r="E20" t="n">
-        <v>20982776</v>
+        <v>21081280</v>
       </c>
       <c r="F20" t="n">
-        <v>5.507854742164517</v>
+        <v>4.141893994601975</v>
       </c>
       <c r="G20" t="n">
-        <v>4.326951700705733</v>
+        <v>54.01159187357928</v>
       </c>
       <c r="H20" t="n">
-        <v>0.97</v>
+        <v>0.13</v>
       </c>
       <c r="I20" t="n">
-        <v>6004.08</v>
+        <v>6043.35</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6899369</v>
+        <v>6903204</v>
       </c>
       <c r="E21" t="n">
-        <v>12799785</v>
+        <v>12806899</v>
       </c>
       <c r="F21" t="n">
-        <v>157.9236910701494</v>
+        <v>399.7827853263479</v>
       </c>
       <c r="G21" t="n">
-        <v>497.9873218449408</v>
+        <v>516.1620491564981</v>
       </c>
       <c r="H21" t="n">
         <v>0.7</v>
       </c>
       <c r="I21" t="n">
-        <v>52435</v>
+        <v>53190</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71645885</v>
+        <v>71794535</v>
       </c>
       <c r="E22" t="n">
-        <v>124070419</v>
+        <v>124324865</v>
       </c>
       <c r="F22" t="n">
-        <v>464.0009725019256</v>
+        <v>495.3902973400934</v>
       </c>
       <c r="G22" t="n">
-        <v>708.0529445392926</v>
+        <v>587.4628127000624</v>
       </c>
       <c r="H22" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="I22" t="n">
-        <v>780410</v>
+        <v>799907</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>172294</v>
+        <v>172177</v>
       </c>
       <c r="E23" t="n">
-        <v>518179</v>
+        <v>517826</v>
       </c>
       <c r="F23" t="n">
-        <v>5.615812018389907</v>
+        <v>5.615752601242824</v>
       </c>
       <c r="G23" t="n">
-        <v>148.0134268266579</v>
+        <v>148.0118607956863</v>
       </c>
       <c r="H23" t="n">
         <v>0.39</v>
       </c>
       <c r="I23" t="n">
-        <v>142.35</v>
+        <v>142.77</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81899222</v>
+        <v>81837731</v>
       </c>
       <c r="E24" t="n">
-        <v>240957668</v>
+        <v>240776756</v>
       </c>
       <c r="F24" t="n">
-        <v>244.2614383904706</v>
+        <v>46.67751250669048</v>
       </c>
       <c r="G24" t="n">
-        <v>256.058537677953</v>
+        <v>232.068316009248</v>
       </c>
       <c r="H24" t="n">
-        <v>0.58</v>
+        <v>0.39</v>
       </c>
       <c r="I24" t="n">
-        <v>339443</v>
+        <v>342090</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7072765</v>
+        <v>7239296</v>
       </c>
       <c r="F25" t="n">
-        <v>9.940993345695214</v>
+        <v>15.47768278823395</v>
       </c>
       <c r="G25" t="n">
-        <v>5.276722722148798</v>
+        <v>5.247146378731778</v>
       </c>
       <c r="H25" t="n">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="I25" t="n">
-        <v>18736.52</v>
+        <v>19240.56</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2437425</v>
+        <v>2457819</v>
       </c>
       <c r="E26" t="n">
-        <v>2437425</v>
+        <v>2457819</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.65</v>
+        <v>7.6</v>
       </c>
       <c r="I26" t="n">
-        <v>319130</v>
+        <v>318122</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17294612</v>
+        <v>17426702</v>
       </c>
       <c r="E27" t="n">
-        <v>22259585</v>
+        <v>22429596</v>
       </c>
       <c r="F27" t="n">
-        <v>3967.210168684177</v>
+        <v>707.243089359806</v>
       </c>
       <c r="G27" t="n">
-        <v>4976.299920886592</v>
+        <v>5078.369429489975</v>
       </c>
       <c r="H27" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="I27" t="n">
-        <v>1552936</v>
+        <v>1540076</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4755173</v>
+        <v>4752823</v>
       </c>
       <c r="E28" t="n">
-        <v>4755173</v>
+        <v>4752823</v>
       </c>
       <c r="F28" t="n">
-        <v>1471.007639221325</v>
+        <v>1101.356375126823</v>
       </c>
       <c r="G28" t="n">
-        <v>7816.786725578497</v>
+        <v>1341.730872760461</v>
       </c>
       <c r="H28" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="I28" t="n">
-        <v>1916249</v>
+        <v>1999988</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1721420</v>
+        <v>1730056</v>
       </c>
       <c r="F29" t="n">
-        <v>122.7728340781099</v>
+        <v>115.2533625993951</v>
       </c>
       <c r="G29" t="n">
-        <v>106.6574796693726</v>
+        <v>64.17010840308829</v>
       </c>
       <c r="H29" t="n">
-        <v>2.18</v>
+        <v>1.46</v>
       </c>
       <c r="I29" t="n">
-        <v>155883</v>
+        <v>157994</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3419320</v>
+        <v>3414897</v>
       </c>
       <c r="E30" t="n">
-        <v>3419320</v>
+        <v>3414897</v>
       </c>
       <c r="F30" t="n">
-        <v>532.5100547294212</v>
+        <v>542.4533998809501</v>
       </c>
       <c r="G30" t="n">
-        <v>972.1614805341004</v>
+        <v>693.656705367207</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>511834</v>
+        <v>512418</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>312879</v>
+        <v>315659</v>
       </c>
       <c r="E31" t="n">
-        <v>1460552</v>
+        <v>1473527</v>
       </c>
       <c r="F31" t="n">
-        <v>77.38442863716406</v>
+        <v>260.6483075258124</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3403310454549</v>
+        <v>333.2826710231631</v>
       </c>
       <c r="H31" t="n">
-        <v>2.05</v>
+        <v>1.37</v>
       </c>
       <c r="I31" t="n">
-        <v>704142</v>
+        <v>708392</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>367466</v>
+        <v>367011</v>
       </c>
       <c r="E32" t="n">
-        <v>367466</v>
+        <v>367011</v>
       </c>
       <c r="F32" t="n">
-        <v>121.9139926483876</v>
+        <v>121.9300649541832</v>
       </c>
       <c r="G32" t="n">
-        <v>630.8615375910168</v>
+        <v>631.0652416788174</v>
       </c>
       <c r="H32" t="n">
         <v>1.04</v>
       </c>
       <c r="I32" t="n">
-        <v>52318</v>
+        <v>52927</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1899528</v>
+        <v>1906065</v>
       </c>
       <c r="F33" t="n">
-        <v>210.6436513842352</v>
+        <v>238.777265234496</v>
       </c>
       <c r="G33" t="n">
-        <v>9.951569082098029</v>
+        <v>9.910533491582131</v>
       </c>
       <c r="H33" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1408461</v>
+        <v>1410013</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1489420</v>
+        <v>1465967</v>
       </c>
       <c r="F34" t="n">
-        <v>459.8018022430284</v>
+        <v>479.7615202982795</v>
       </c>
       <c r="G34" t="n">
-        <v>232.6247246139824</v>
+        <v>194.9780828859578</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="I34" t="n">
-        <v>293861</v>
+        <v>291146</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12786229</v>
+        <v>12777131</v>
       </c>
       <c r="E35" t="n">
-        <v>31822611</v>
+        <v>31799968</v>
       </c>
       <c r="F35" t="n">
-        <v>962.7088590145728</v>
+        <v>296.6862717278256</v>
       </c>
       <c r="G35" t="n">
-        <v>1884.244030469323</v>
+        <v>695.7596279686591</v>
       </c>
       <c r="H35" t="n">
-        <v>0.38</v>
+        <v>1.21</v>
       </c>
       <c r="I35" t="n">
-        <v>1237311</v>
+        <v>1249447</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6825022</v>
+        <v>6829429</v>
       </c>
       <c r="E36" t="n">
-        <v>9399800</v>
+        <v>9405869</v>
       </c>
       <c r="F36" t="n">
-        <v>168.1930369829099</v>
+        <v>388.2814227993588</v>
       </c>
       <c r="G36" t="n">
-        <v>2257.934875162247</v>
+        <v>775.0442512615864</v>
       </c>
       <c r="H36" t="n">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="I36" t="n">
-        <v>414144</v>
+        <v>379986</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>901181</v>
+        <v>906703</v>
       </c>
       <c r="E37" t="n">
-        <v>6308265</v>
+        <v>6346925</v>
       </c>
       <c r="F37" t="n">
-        <v>74.67315942257638</v>
+        <v>81.53495962816797</v>
       </c>
       <c r="G37" t="n">
-        <v>182.5718448882528</v>
+        <v>226.2396533220452</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
       <c r="I37" t="n">
-        <v>226318</v>
+        <v>244973</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>116826096</v>
+        <v>116701377</v>
       </c>
       <c r="E38" t="n">
-        <v>454463725</v>
+        <v>453961675</v>
       </c>
       <c r="F38" t="n">
-        <v>20108.51701384298</v>
+        <v>15130.15129410981</v>
       </c>
       <c r="G38" t="n">
-        <v>36501.28080449734</v>
+        <v>20547.90608620664</v>
       </c>
       <c r="H38" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I38" t="n">
-        <v>9465699</v>
+        <v>9323073</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5657808</v>
+        <v>5720118</v>
       </c>
       <c r="E39" t="n">
-        <v>5928477</v>
+        <v>5993768</v>
       </c>
       <c r="F39" t="n">
-        <v>145.7244102362816</v>
+        <v>1088.700296489548</v>
       </c>
       <c r="G39" t="n">
-        <v>694.3535331480812</v>
+        <v>96.42589415505655</v>
       </c>
       <c r="H39" t="n">
         <v>0.21</v>
       </c>
       <c r="I39" t="n">
-        <v>150261</v>
+        <v>154630</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5407971</v>
+        <v>5402488</v>
       </c>
       <c r="E40" t="n">
-        <v>7960827</v>
+        <v>7952756</v>
       </c>
       <c r="F40" t="n">
-        <v>1356.311600802428</v>
+        <v>1972.793273384191</v>
       </c>
       <c r="G40" t="n">
-        <v>2433.960476152204</v>
+        <v>2291.762107703523</v>
       </c>
       <c r="H40" t="n">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>667000</v>
+        <v>653514</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7595687</v>
+        <v>7574892</v>
       </c>
       <c r="E41" t="n">
-        <v>7595687</v>
+        <v>7574892</v>
       </c>
       <c r="F41" t="n">
-        <v>4460.365114069331</v>
+        <v>3531.272111522624</v>
       </c>
       <c r="G41" t="n">
-        <v>1956.851158117426</v>
+        <v>1926.70109771475</v>
       </c>
       <c r="H41" t="n">
         <v>0.83</v>
       </c>
       <c r="I41" t="n">
-        <v>358417</v>
+        <v>366952</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1455441</v>
+        <v>1458866</v>
       </c>
       <c r="E42" t="n">
-        <v>1455441</v>
+        <v>1458866</v>
       </c>
       <c r="F42" t="n">
-        <v>465.6061623360519</v>
+        <v>352.378099121259</v>
       </c>
       <c r="G42" t="n">
-        <v>155.0184312542612</v>
+        <v>206.2696145621731</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="I42" t="n">
-        <v>277625</v>
+        <v>278235</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15757544</v>
+        <v>15803526</v>
       </c>
       <c r="F43" t="n">
-        <v>440.8434884148338</v>
+        <v>145.5626274672452</v>
       </c>
       <c r="G43" t="n">
-        <v>265.9980328964854</v>
+        <v>201.9373609357394</v>
       </c>
       <c r="H43" t="n">
         <v>0.6</v>
       </c>
       <c r="I43" t="n">
-        <v>10172.71</v>
+        <v>10317.47</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>141457637</v>
+        <v>143147077</v>
       </c>
       <c r="E44" t="n">
-        <v>141457637</v>
+        <v>143147077</v>
       </c>
       <c r="F44" t="n">
-        <v>229276.1778241247</v>
+        <v>305717.3781889652</v>
       </c>
       <c r="G44" t="n">
-        <v>396380.6305011517</v>
+        <v>364955.8441806021</v>
       </c>
       <c r="H44" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I44" t="n">
-        <v>69699156</v>
+        <v>71226969</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>68071047</v>
+        <v>68427863</v>
       </c>
       <c r="E45" t="n">
-        <v>349082291</v>
+        <v>350912116</v>
       </c>
       <c r="F45" t="n">
-        <v>39179.00031271546</v>
+        <v>36600.44215167517</v>
       </c>
       <c r="G45" t="n">
-        <v>56988.05293631955</v>
+        <v>89140.44550364946</v>
       </c>
       <c r="H45" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I45" t="n">
-        <v>24433161</v>
+        <v>24840043</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>595228</v>
+        <v>595255</v>
       </c>
       <c r="F46" t="n">
-        <v>90.77245723871258</v>
+        <v>90.86527936101547</v>
       </c>
       <c r="G46" t="n">
-        <v>559.1265280740122</v>
+        <v>558.701127942595</v>
       </c>
       <c r="H46" t="n">
         <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>1523.86</v>
+        <v>1526.29</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2709433</v>
+        <v>2698649</v>
       </c>
       <c r="E47" t="n">
-        <v>10888596</v>
+        <v>10845254</v>
       </c>
       <c r="F47" t="n">
-        <v>495.7652484663233</v>
+        <v>443.187116635463</v>
       </c>
       <c r="G47" t="n">
-        <v>338.5556437654157</v>
+        <v>59.9107835775751</v>
       </c>
       <c r="H47" t="n">
-        <v>1.83</v>
+        <v>0.91</v>
       </c>
       <c r="I47" t="n">
-        <v>34166</v>
+        <v>34382</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17618859</v>
+        <v>17687478</v>
       </c>
       <c r="E48" t="n">
-        <v>124156486</v>
+        <v>124553487</v>
       </c>
       <c r="F48" t="n">
-        <v>456.5767933149757</v>
+        <v>680.9911305109906</v>
       </c>
       <c r="G48" t="n">
-        <v>673.3163854845017</v>
+        <v>741.0244453197492</v>
       </c>
       <c r="H48" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="I48" t="n">
-        <v>1063324</v>
+        <v>1076924</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1036019</v>
+        <v>1034780</v>
       </c>
       <c r="E49" t="n">
-        <v>1216039</v>
+        <v>1214584</v>
       </c>
       <c r="F49" t="n">
-        <v>1038.093056098652</v>
+        <v>1037.130766263296</v>
       </c>
       <c r="G49" t="n">
-        <v>3318.949651290617</v>
+        <v>4018.445287715303</v>
       </c>
       <c r="H49" t="n">
-        <v>0.37</v>
+        <v>1.2</v>
       </c>
       <c r="I49" t="n">
-        <v>215057</v>
+        <v>216461</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>148820</v>
+        <v>148544</v>
       </c>
       <c r="E50" t="n">
-        <v>1991295</v>
+        <v>1987601</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>43167</v>
+        <v>43386</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>261684200</v>
+        <v>264115624</v>
       </c>
       <c r="E51" t="n">
-        <v>261684200</v>
+        <v>264115624</v>
       </c>
       <c r="F51" t="n">
-        <v>29495.73213649891</v>
+        <v>25311.29220977141</v>
       </c>
       <c r="G51" t="n">
-        <v>28043.85205326885</v>
+        <v>29758.0968113226</v>
       </c>
       <c r="H51" t="n">
         <v>0.41</v>
       </c>
       <c r="I51" t="n">
-        <v>14814529</v>
+        <v>18767952</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1125237</v>
+        <v>1125635</v>
       </c>
       <c r="F52" t="n">
-        <v>4.237408207906133</v>
+        <v>4.136122345909809</v>
       </c>
       <c r="G52" t="n">
-        <v>631.5833154846617</v>
+        <v>631.585135682202</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>174965</v>
+        <v>173211</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>118453</v>
+        <v>118477</v>
       </c>
       <c r="E54" t="n">
-        <v>118453</v>
+        <v>118477</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>202.37</v>
+        <v>203.7</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6616823</v>
+        <v>6656677</v>
       </c>
       <c r="E55" t="n">
-        <v>16071752</v>
+        <v>16168555</v>
       </c>
       <c r="F55" t="n">
-        <v>513.9603587452128</v>
+        <v>473.4119874560271</v>
       </c>
       <c r="G55" t="n">
-        <v>265.1976558069417</v>
+        <v>236.4398952981288</v>
       </c>
       <c r="H55" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="I55" t="n">
-        <v>483369</v>
+        <v>486867</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>445607709</v>
+        <v>442926236</v>
       </c>
       <c r="E56" t="n">
-        <v>445607709</v>
+        <v>442926236</v>
       </c>
       <c r="F56" t="n">
-        <v>4556.443568975436</v>
+        <v>3471.544328774948</v>
       </c>
       <c r="G56" t="n">
-        <v>4078.444425974177</v>
+        <v>3169.651039321993</v>
       </c>
       <c r="H56" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="I56" t="n">
-        <v>2531960</v>
+        <v>2534020</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2491449</v>
+        <v>2490476</v>
       </c>
       <c r="E57" t="n">
-        <v>2491449</v>
+        <v>2490476</v>
       </c>
       <c r="F57" t="n">
-        <v>3.924619585519182</v>
+        <v>3.924578061746948</v>
       </c>
       <c r="G57" t="n">
-        <v>68.32016139175389</v>
+        <v>614.5440465133699</v>
       </c>
       <c r="H57" t="n">
         <v>0.74</v>
       </c>
       <c r="I57" t="n">
-        <v>54587</v>
+        <v>54536</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>179745135</v>
+        <v>189067881</v>
       </c>
       <c r="E58" t="n">
-        <v>236523576</v>
+        <v>248791220</v>
       </c>
       <c r="F58" t="n">
-        <v>5050.57739915698</v>
+        <v>4657.428034640946</v>
       </c>
       <c r="G58" t="n">
-        <v>10335.51797936022</v>
+        <v>13120.40941983151</v>
       </c>
       <c r="H58" t="n">
-        <v>1.08</v>
+        <v>0.32</v>
       </c>
       <c r="I58" t="n">
-        <v>9601153</v>
+        <v>10200107</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1128317</v>
+        <v>1134759</v>
       </c>
       <c r="E59" t="n">
-        <v>12262125</v>
+        <v>12332140</v>
       </c>
       <c r="F59" t="n">
-        <v>305.2048757241185</v>
+        <v>528.3878552915456</v>
       </c>
       <c r="G59" t="n">
-        <v>97.74581964500683</v>
+        <v>4.19432976456525</v>
       </c>
       <c r="H59" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="I59" t="n">
-        <v>31910</v>
+        <v>32197</v>
       </c>
     </row>
     <row r="60">
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2556597</v>
+        <v>2557389</v>
       </c>
       <c r="E60" t="n">
-        <v>6536161</v>
+        <v>6538187</v>
       </c>
       <c r="F60" t="n">
         <v>204.8773186132787</v>
@@ -2538,7 +2538,7 @@
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>109361</v>
+        <v>109028</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>83401487</v>
+        <v>84809181</v>
       </c>
       <c r="E61" t="n">
-        <v>233311748</v>
+        <v>237310445</v>
       </c>
       <c r="F61" t="n">
-        <v>70505.24568202064</v>
+        <v>55150.83438871148</v>
       </c>
       <c r="G61" t="n">
-        <v>90518.76086553626</v>
+        <v>55281.75189829803</v>
       </c>
       <c r="H61" t="n">
         <v>0.11</v>
       </c>
       <c r="I61" t="n">
-        <v>43746291</v>
+        <v>49885186</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>74417519</v>
+        <v>74665907</v>
       </c>
       <c r="E62" t="n">
-        <v>74417519</v>
+        <v>74665907</v>
       </c>
       <c r="F62" t="n">
-        <v>3671.509580055484</v>
+        <v>907.9215956135815</v>
       </c>
       <c r="G62" t="n">
-        <v>7645.199132457805</v>
+        <v>698.0446177887746</v>
       </c>
       <c r="H62" t="n">
-        <v>0.31</v>
+        <v>0.71</v>
       </c>
       <c r="I62" t="n">
-        <v>3295144</v>
+        <v>3359250</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4129094</v>
+        <v>4131828</v>
       </c>
       <c r="E63" t="n">
-        <v>8142921</v>
+        <v>8148312</v>
       </c>
       <c r="F63" t="n">
-        <v>1926.106542633082</v>
+        <v>2188.740546307085</v>
       </c>
       <c r="G63" t="n">
-        <v>3569.315639170344</v>
+        <v>2535.03073803141</v>
       </c>
       <c r="H63" t="n">
-        <v>0.12</v>
+        <v>0.43</v>
       </c>
       <c r="I63" t="n">
-        <v>1645740</v>
+        <v>1572960</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1628302</v>
+        <v>1632559</v>
       </c>
       <c r="E64" t="n">
-        <v>9349101</v>
+        <v>9373543</v>
       </c>
       <c r="F64" t="n">
-        <v>5.402243301465986</v>
+        <v>2.6233314139611</v>
       </c>
       <c r="G64" t="n">
-        <v>595.0316605568855</v>
+        <v>15.40666250819442</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6</v>
+        <v>2.39</v>
       </c>
       <c r="I64" t="n">
-        <v>281858</v>
+        <v>288087</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>548173</v>
+        <v>546390</v>
       </c>
       <c r="F65" t="n">
-        <v>4.101827268539434</v>
+        <v>4.101839089839525</v>
       </c>
       <c r="G65" t="n">
-        <v>8.634258602236342</v>
+        <v>8.634283485820003</v>
       </c>
       <c r="H65" t="n">
         <v>0.43</v>
       </c>
       <c r="I65" t="n">
-        <v>1723.98</v>
+        <v>1760.42</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31195010</v>
+        <v>31196883</v>
       </c>
       <c r="F66" t="n">
-        <v>759.816729168518</v>
+        <v>850.307550175865</v>
       </c>
       <c r="G66" t="n">
-        <v>317.514658183134</v>
+        <v>241.9631562316169</v>
       </c>
       <c r="H66" t="n">
         <v>0.2</v>
       </c>
       <c r="I66" t="n">
-        <v>244388</v>
+        <v>246582</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>169565</v>
+        <v>170394</v>
       </c>
       <c r="E67" t="n">
-        <v>1145091</v>
+        <v>1150689</v>
       </c>
       <c r="F67" t="n">
-        <v>404.6862982198227</v>
+        <v>220.6337553161388</v>
       </c>
       <c r="G67" t="n">
-        <v>5.43595539379947</v>
+        <v>4.202589261214924</v>
       </c>
       <c r="H67" t="n">
-        <v>0.22</v>
+        <v>0.88</v>
       </c>
       <c r="I67" t="n">
-        <v>2814814</v>
+        <v>2832072</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7693760</v>
+        <v>7697789</v>
       </c>
       <c r="E68" t="n">
-        <v>18120335</v>
+        <v>18129824</v>
       </c>
       <c r="F68" t="n">
-        <v>1195.754702615361</v>
+        <v>1200.823108715409</v>
       </c>
       <c r="G68" t="n">
-        <v>1551.001042153574</v>
+        <v>1547.791800184701</v>
       </c>
       <c r="H68" t="n">
         <v>1.2</v>
       </c>
       <c r="I68" t="n">
-        <v>32443</v>
+        <v>33279</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3036300</v>
+        <v>3070372</v>
       </c>
       <c r="E69" t="n">
-        <v>3036300</v>
+        <v>3070372</v>
       </c>
       <c r="F69" t="n">
-        <v>91.9356827667897</v>
+        <v>5.316701088353858</v>
       </c>
       <c r="G69" t="n">
-        <v>198.1070173885649</v>
+        <v>921.6602526972633</v>
       </c>
       <c r="H69" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="I69" t="n">
-        <v>19759.68</v>
+        <v>20115</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3362345</v>
+        <v>3374155</v>
       </c>
       <c r="E70" t="n">
-        <v>8296414</v>
+        <v>8325556</v>
       </c>
       <c r="F70" t="n">
-        <v>1143.641791354625</v>
+        <v>1164.626540950424</v>
       </c>
       <c r="G70" t="n">
-        <v>1177.531057884157</v>
+        <v>1118.842170682258</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>38225</v>
+        <v>37767</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23031317</v>
+        <v>23115288</v>
       </c>
       <c r="F71" t="n">
-        <v>447.8905345068884</v>
+        <v>465.461133744336</v>
       </c>
       <c r="G71" t="n">
-        <v>98.59665618229231</v>
+        <v>125.8393367385378</v>
       </c>
       <c r="H71" t="n">
         <v>0.43</v>
       </c>
       <c r="I71" t="n">
-        <v>129147</v>
+        <v>129657</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>265738</v>
+        <v>265816</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1588.39</v>
+        <v>1670.33</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>78584792</v>
+        <v>79258660</v>
       </c>
       <c r="E73" t="n">
-        <v>163889198</v>
+        <v>165294554</v>
       </c>
       <c r="F73" t="n">
-        <v>21530.02774637489</v>
+        <v>18363.93957881461</v>
       </c>
       <c r="G73" t="n">
-        <v>275.8150876030764</v>
+        <v>1102.226604053679</v>
       </c>
       <c r="H73" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I73" t="n">
-        <v>18623221</v>
+        <v>19318285</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>199352248</v>
+        <v>199991689</v>
       </c>
       <c r="F75" t="n">
-        <v>31050.31525500865</v>
+        <v>6963.386695206374</v>
       </c>
       <c r="G75" t="n">
-        <v>7357.572130409076</v>
+        <v>50571.07528261707</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I75" t="n">
-        <v>3365095</v>
+        <v>3302032</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>85818925</v>
+        <v>86079960</v>
       </c>
       <c r="E76" t="n">
-        <v>117842740</v>
+        <v>118201181</v>
       </c>
       <c r="F76" t="n">
-        <v>415.8878138529821</v>
+        <v>1661.150757125521</v>
       </c>
       <c r="G76" t="n">
-        <v>3116.508837775822</v>
+        <v>2171.584953596319</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I76" t="n">
-        <v>1061545</v>
+        <v>1073326</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>179989</v>
+        <v>180041</v>
       </c>
       <c r="E77" t="n">
-        <v>187959</v>
+        <v>188015</v>
       </c>
       <c r="F77" t="n">
-        <v>5.414354654846787</v>
+        <v>5.414445630850413</v>
       </c>
       <c r="G77" t="n">
-        <v>414.948117505851</v>
+        <v>414.9550897719564</v>
       </c>
       <c r="H77" t="n">
         <v>0.57</v>
       </c>
       <c r="I77" t="n">
-        <v>291.68</v>
+        <v>292.29</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8041494</v>
+        <v>7911556</v>
       </c>
       <c r="E78" t="n">
-        <v>8846181</v>
+        <v>8703240</v>
       </c>
       <c r="F78" t="n">
-        <v>580.9193543846803</v>
+        <v>421.1813784979179</v>
       </c>
       <c r="G78" t="n">
-        <v>277.1675660371025</v>
+        <v>413.7650180554215</v>
       </c>
       <c r="H78" t="n">
-        <v>1.29</v>
+        <v>1.78</v>
       </c>
       <c r="I78" t="n">
-        <v>739002</v>
+        <v>720850</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29006578</v>
+        <v>29093403</v>
       </c>
       <c r="E79" t="n">
-        <v>29006578</v>
+        <v>29093403</v>
       </c>
       <c r="F79" t="n">
-        <v>52.65251117340784</v>
+        <v>216.7061562290715</v>
       </c>
       <c r="G79" t="n">
-        <v>1767.400938810659</v>
+        <v>1354.405431482431</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8</v>
+        <v>1.13</v>
       </c>
       <c r="I79" t="n">
-        <v>266192</v>
+        <v>264054</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>276125456</v>
+        <v>278012509</v>
       </c>
       <c r="E80" t="n">
-        <v>276125456</v>
+        <v>278012509</v>
       </c>
       <c r="F80" t="n">
-        <v>4061.273586635185</v>
+        <v>4838.184631529892</v>
       </c>
       <c r="G80" t="n">
-        <v>7504.695726569254</v>
+        <v>166.769879945819</v>
       </c>
       <c r="H80" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="I80" t="n">
-        <v>9535608</v>
+        <v>9572198</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>653137762</v>
+        <v>662049139</v>
       </c>
       <c r="E81" t="n">
-        <v>653137762</v>
+        <v>662049139</v>
       </c>
       <c r="F81" t="n">
-        <v>1021735.534680799</v>
+        <v>1350593.218134324</v>
       </c>
       <c r="G81" t="n">
-        <v>1527298.62852685</v>
+        <v>1409003.8019395</v>
       </c>
       <c r="H81" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I81" t="n">
-        <v>312249115</v>
+        <v>320673286</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>116671</v>
+        <v>120139</v>
       </c>
       <c r="E82" t="n">
-        <v>116671</v>
+        <v>120139</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>426.86</v>
+        <v>1386.35</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>208070779</v>
+        <v>209794835</v>
       </c>
       <c r="E83" t="n">
-        <v>722856690</v>
+        <v>728846218</v>
       </c>
       <c r="F83" t="n">
-        <v>1438.230900623428</v>
+        <v>1682.056204516074</v>
       </c>
       <c r="G83" t="n">
-        <v>2167.004010799338</v>
+        <v>4135.623665356008</v>
       </c>
       <c r="H83" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="I83" t="n">
-        <v>29289909</v>
+        <v>32829339</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3497397</v>
+        <v>3415009</v>
       </c>
       <c r="E84" t="n">
-        <v>3497397</v>
+        <v>3415009</v>
       </c>
       <c r="F84" t="n">
-        <v>2551.909857545859</v>
+        <v>2848.024263524965</v>
       </c>
       <c r="G84" t="n">
-        <v>790.851594583746</v>
+        <v>622.2632260863702</v>
       </c>
       <c r="H84" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="I84" t="n">
-        <v>2532993</v>
+        <v>2514958</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>117000279</v>
+        <v>118415538</v>
       </c>
       <c r="E85" t="n">
-        <v>496970166</v>
+        <v>502946594</v>
       </c>
       <c r="F85" t="n">
-        <v>309128.8342435242</v>
+        <v>183417.1206075477</v>
       </c>
       <c r="G85" t="n">
-        <v>443545.7132052179</v>
+        <v>194907.5157968191</v>
       </c>
       <c r="H85" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="I85" t="n">
-        <v>15632623</v>
+        <v>15931510</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71422618</v>
+        <v>71851407</v>
       </c>
       <c r="E86" t="n">
-        <v>81948357</v>
+        <v>82440337</v>
       </c>
       <c r="F86" t="n">
-        <v>22079.54377187265</v>
+        <v>22848.31728899429</v>
       </c>
       <c r="G86" t="n">
-        <v>17798.47915512192</v>
+        <v>9150.723675087125</v>
       </c>
       <c r="H86" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="I86" t="n">
-        <v>1174678</v>
+        <v>1299445</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3167417</v>
+        <v>3185507</v>
       </c>
       <c r="E87" t="n">
-        <v>15880791</v>
+        <v>15971490</v>
       </c>
       <c r="F87" t="n">
-        <v>5.333461503690215</v>
+        <v>4.05856376691661</v>
       </c>
       <c r="G87" t="n">
-        <v>71.04564981835352</v>
+        <v>71.2456428435148</v>
       </c>
       <c r="H87" t="n">
         <v>0.31</v>
       </c>
       <c r="I87" t="n">
-        <v>32528</v>
+        <v>32431</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>508631</v>
+        <v>508974</v>
       </c>
       <c r="E88" t="n">
-        <v>8700107</v>
+        <v>8705962</v>
       </c>
       <c r="F88" t="n">
-        <v>634.611761635715</v>
+        <v>634.588687934225</v>
       </c>
       <c r="G88" t="n">
-        <v>1410.078965267148</v>
+        <v>1457.685888557185</v>
       </c>
       <c r="H88" t="n">
-        <v>1.13</v>
+        <v>0.82</v>
       </c>
       <c r="I88" t="n">
-        <v>162320</v>
+        <v>163334</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5782095</v>
+        <v>5774855</v>
       </c>
       <c r="E89" t="n">
-        <v>7855302</v>
+        <v>7845465</v>
       </c>
       <c r="F89" t="n">
-        <v>63.65108288939478</v>
+        <v>68.53275132115658</v>
       </c>
       <c r="G89" t="n">
-        <v>2250.276024345675</v>
+        <v>2253.966981089464</v>
       </c>
       <c r="H89" t="n">
         <v>0.34</v>
       </c>
       <c r="I89" t="n">
-        <v>5620354</v>
+        <v>5597345</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40314582</v>
+        <v>40554761</v>
       </c>
       <c r="E90" t="n">
-        <v>47086475</v>
+        <v>47366998</v>
       </c>
       <c r="F90" t="n">
-        <v>535.1480552268109</v>
+        <v>497.6362425698733</v>
       </c>
       <c r="G90" t="n">
-        <v>5.407202395112109</v>
+        <v>30.17544081987907</v>
       </c>
       <c r="H90" t="n">
         <v>1.02</v>
       </c>
       <c r="I90" t="n">
-        <v>899374</v>
+        <v>895961</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>15035648</v>
+        <v>15038911</v>
       </c>
       <c r="F91" t="n">
-        <v>225.3462507523645</v>
+        <v>224.8081443775087</v>
       </c>
       <c r="G91" t="n">
-        <v>305.2669686475809</v>
+        <v>348.8738784324189</v>
       </c>
       <c r="H91" t="n">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="I91" t="n">
-        <v>271269</v>
+        <v>280487</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36401393</v>
+        <v>36183210</v>
       </c>
       <c r="E92" t="n">
-        <v>36401393</v>
+        <v>36183210</v>
       </c>
       <c r="F92" t="n">
-        <v>347.3655801345009</v>
+        <v>451.4575340019574</v>
       </c>
       <c r="G92" t="n">
-        <v>81.2027927244274</v>
+        <v>82.31716253556979</v>
       </c>
       <c r="H92" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="I92" t="n">
-        <v>784120</v>
+        <v>788784</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17093199</v>
+        <v>17047925</v>
       </c>
       <c r="F93" t="n">
-        <v>114.2015794502726</v>
+        <v>134.78969360474</v>
       </c>
       <c r="G93" t="n">
-        <v>263.4929861600047</v>
+        <v>396.7368627262392</v>
       </c>
       <c r="H93" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="I93" t="n">
-        <v>192615</v>
+        <v>196507</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>570049</v>
+        <v>571929</v>
       </c>
       <c r="E94" t="n">
-        <v>6914139</v>
+        <v>6936936</v>
       </c>
       <c r="F94" t="n">
-        <v>853.0239180491511</v>
+        <v>1497.646276007104</v>
       </c>
       <c r="G94" t="n">
-        <v>874.468515807596</v>
+        <v>1102.718913846834</v>
       </c>
       <c r="H94" t="n">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
       <c r="I94" t="n">
-        <v>2814657</v>
+        <v>2812076</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>26124259</v>
+        <v>26180717</v>
       </c>
       <c r="E95" t="n">
-        <v>36925619</v>
+        <v>37005421</v>
       </c>
       <c r="F95" t="n">
-        <v>5.228653405990487</v>
+        <v>5.228570551066119</v>
       </c>
       <c r="G95" t="n">
-        <v>4.026862589673509</v>
+        <v>1105.043209906909</v>
       </c>
       <c r="H95" t="n">
-        <v>0.74</v>
+        <v>0.97</v>
       </c>
       <c r="I95" t="n">
-        <v>73659</v>
+        <v>75854</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1305017304</v>
+        <v>1324096556</v>
       </c>
       <c r="E96" t="n">
-        <v>6257825236</v>
+        <v>6349314155</v>
       </c>
       <c r="F96" t="n">
-        <v>482542.086377044</v>
+        <v>349483.8570299082</v>
       </c>
       <c r="G96" t="n">
-        <v>570446.6673753369</v>
+        <v>405616.6169583237</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>165988352</v>
+        <v>173448478</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>272332396</v>
+        <v>275861406</v>
       </c>
       <c r="E97" t="n">
-        <v>1175537804</v>
+        <v>1190770968</v>
       </c>
       <c r="F97" t="n">
-        <v>286345.5795154736</v>
+        <v>251985.0293456627</v>
       </c>
       <c r="G97" t="n">
-        <v>1029563.860770669</v>
+        <v>921891.8930559406</v>
       </c>
       <c r="H97" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I97" t="n">
-        <v>100893566</v>
+        <v>104661514</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5149051</v>
+        <v>5151179</v>
       </c>
       <c r="E98" t="n">
-        <v>5706175</v>
+        <v>5708533</v>
       </c>
       <c r="F98" t="n">
-        <v>370.9726916989536</v>
+        <v>830.9432356012883</v>
       </c>
       <c r="G98" t="n">
-        <v>152.5241901669305</v>
+        <v>300.1838934389346</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="I98" t="n">
-        <v>620736</v>
+        <v>632382</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>98681</v>
+        <v>94231</v>
       </c>
       <c r="E99" t="n">
-        <v>98681</v>
+        <v>94231</v>
       </c>
       <c r="F99" t="n">
-        <v>3.888185737086669</v>
+        <v>3.989555206491401</v>
       </c>
       <c r="G99" t="n">
-        <v>4.003852957875458</v>
+        <v>55.14921649203275</v>
       </c>
       <c r="H99" t="n">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="I99" t="n">
-        <v>1625.33</v>
+        <v>1536.53</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>115439393</v>
+        <v>116981829</v>
       </c>
       <c r="E100" t="n">
-        <v>115439393</v>
+        <v>116981829</v>
       </c>
       <c r="F100" t="n">
-        <v>43602.11679252678</v>
+        <v>37633.78903862928</v>
       </c>
       <c r="G100" t="n">
-        <v>14040.56083018163</v>
+        <v>11789.40056972409</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6136173</v>
+        <v>7394301</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3823745</v>
+        <v>3823297</v>
       </c>
       <c r="F101" t="n">
-        <v>617.9814355271798</v>
+        <v>1433.109783038674</v>
       </c>
       <c r="G101" t="n">
-        <v>452.8963636762371</v>
+        <v>1202.576057194342</v>
       </c>
       <c r="H101" t="n">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="I101" t="n">
-        <v>298279</v>
+        <v>294429</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2043521737</v>
+        <v>2051421268</v>
       </c>
       <c r="E102" t="n">
-        <v>2043521737</v>
+        <v>2051421268</v>
       </c>
       <c r="F102" t="n">
-        <v>6983969.04985078</v>
+        <v>6915142.516299745</v>
       </c>
       <c r="G102" t="n">
-        <v>5074385.882647256</v>
+        <v>5147374.125634927</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>6224282481</v>
+        <v>6110995991</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5340621</v>
+        <v>5339569</v>
       </c>
       <c r="E103" t="n">
-        <v>5346666</v>
+        <v>5345612</v>
       </c>
       <c r="F103" t="n">
-        <v>292.6012770974966</v>
+        <v>287.6044956441773</v>
       </c>
       <c r="G103" t="n">
-        <v>64.85836902817356</v>
+        <v>62.6981812898373</v>
       </c>
       <c r="H103" t="n">
         <v>0.75</v>
       </c>
       <c r="I103" t="n">
-        <v>147206</v>
+        <v>145253</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2237422</v>
+        <v>2367804</v>
       </c>
       <c r="F104" t="n">
-        <v>5.425632100323557</v>
+        <v>5.360337134555841</v>
       </c>
       <c r="G104" t="n">
-        <v>284.8815421997905</v>
+        <v>305.504988048421</v>
       </c>
       <c r="H104" t="n">
         <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>57108</v>
+        <v>59608</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4439255</v>
+        <v>4472076</v>
       </c>
       <c r="E105" t="n">
-        <v>5828162</v>
+        <v>5871252</v>
       </c>
       <c r="F105" t="n">
-        <v>11568.0333003527</v>
+        <v>11902.73064277244</v>
       </c>
       <c r="G105" t="n">
-        <v>11613.9970381302</v>
+        <v>12332.03243199137</v>
       </c>
       <c r="H105" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>622852</v>
+        <v>616768</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19761069</v>
+        <v>19817055</v>
       </c>
       <c r="F106" t="n">
-        <v>293.1616796713785</v>
+        <v>278.3357442925571</v>
       </c>
       <c r="G106" t="n">
-        <v>186.9916271489699</v>
+        <v>224.3255655866418</v>
       </c>
       <c r="H106" t="n">
         <v>1.01</v>
       </c>
       <c r="I106" t="n">
-        <v>52310</v>
+        <v>41509</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1345849</v>
+        <v>1344717</v>
       </c>
       <c r="E107" t="n">
-        <v>5017672</v>
+        <v>5013437</v>
       </c>
       <c r="F107" t="n">
-        <v>198.9131735067292</v>
+        <v>1732.223590668475</v>
       </c>
       <c r="G107" t="n">
-        <v>188.9882101764865</v>
+        <v>199.5281005478901</v>
       </c>
       <c r="H107" t="n">
         <v>0.24</v>
       </c>
       <c r="I107" t="n">
-        <v>578231</v>
+        <v>579553</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4327374</v>
+        <v>4273183</v>
       </c>
       <c r="E108" t="n">
-        <v>12464896</v>
+        <v>12308798</v>
       </c>
       <c r="F108" t="n">
-        <v>25.69344254554439</v>
+        <v>1498.870303378571</v>
       </c>
       <c r="G108" t="n">
-        <v>124.814961775979</v>
+        <v>1041.50987147671</v>
       </c>
       <c r="H108" t="n">
-        <v>2.46</v>
+        <v>1.37</v>
       </c>
       <c r="I108" t="n">
-        <v>617874</v>
+        <v>603397</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80644355</v>
+        <v>80700405</v>
       </c>
       <c r="E109" t="n">
-        <v>102626209</v>
+        <v>102697537</v>
       </c>
       <c r="F109" t="n">
-        <v>4659.941303632169</v>
+        <v>4499.581641725791</v>
       </c>
       <c r="G109" t="n">
-        <v>289.6589969877971</v>
+        <v>86.40735583723426</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="I109" t="n">
-        <v>6247414</v>
+        <v>6255554</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>23022514</v>
+        <v>23067600</v>
       </c>
       <c r="E110" t="n">
-        <v>29865467</v>
+        <v>29923954</v>
       </c>
       <c r="F110" t="n">
-        <v>20362.00695582038</v>
+        <v>19848.89697990382</v>
       </c>
       <c r="G110" t="n">
-        <v>14783.82576451618</v>
+        <v>13583.00246054626</v>
       </c>
       <c r="H110" t="n">
-        <v>0.49</v>
+        <v>0.27</v>
       </c>
       <c r="I110" t="n">
-        <v>163216</v>
+        <v>175136</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>662347</v>
+        <v>670676</v>
       </c>
       <c r="E111" t="n">
-        <v>662347</v>
+        <v>670676</v>
       </c>
       <c r="F111" t="n">
-        <v>7.517727373488039</v>
+        <v>35.93071990604204</v>
       </c>
       <c r="G111" t="n">
-        <v>31.33895252964007</v>
+        <v>2.560123514397924</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5</v>
+        <v>1.85</v>
       </c>
       <c r="I111" t="n">
-        <v>78666</v>
+        <v>78759</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13915854</v>
+        <v>13896162</v>
       </c>
       <c r="E112" t="n">
-        <v>13915854</v>
+        <v>13896162</v>
       </c>
       <c r="F112" t="n">
-        <v>2698.289461831882</v>
+        <v>3118.833484290046</v>
       </c>
       <c r="G112" t="n">
-        <v>4031.617817554782</v>
+        <v>2650.300836133371</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="I112" t="n">
-        <v>4883319</v>
+        <v>4903634</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99000153</v>
+        <v>99321234</v>
       </c>
       <c r="E113" t="n">
-        <v>122459645</v>
+        <v>122856812</v>
       </c>
       <c r="F113" t="n">
-        <v>441.2457431103604</v>
+        <v>460.6655603882695</v>
       </c>
       <c r="G113" t="n">
-        <v>707.1308700068962</v>
+        <v>706.8541300129883</v>
       </c>
       <c r="H113" t="n">
         <v>0.54</v>
       </c>
       <c r="I113" t="n">
-        <v>826749</v>
+        <v>843288</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>851594</v>
+        <v>903036</v>
       </c>
       <c r="F114" t="n">
-        <v>543.127017382478</v>
+        <v>107.3529634453942</v>
       </c>
       <c r="G114" t="n">
-        <v>108.5974279436576</v>
+        <v>176.7284391272958</v>
       </c>
       <c r="H114" t="n">
-        <v>0.39</v>
+        <v>0.8</v>
       </c>
       <c r="I114" t="n">
-        <v>28997</v>
+        <v>30524</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2734192</v>
+        <v>2755455</v>
       </c>
       <c r="F115" t="n">
-        <v>158.8645704431972</v>
+        <v>42.92915765204557</v>
       </c>
       <c r="G115" t="n">
-        <v>1051.302000904591</v>
+        <v>1101.909498528181</v>
       </c>
       <c r="H115" t="n">
-        <v>1.75</v>
+        <v>2.77</v>
       </c>
       <c r="I115" t="n">
-        <v>83409</v>
+        <v>84488</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11401835</v>
+        <v>11454466</v>
       </c>
       <c r="E116" t="n">
-        <v>16767403</v>
+        <v>16844802</v>
       </c>
       <c r="F116" t="n">
-        <v>3745.697529515985</v>
+        <v>3556.26919135754</v>
       </c>
       <c r="G116" t="n">
-        <v>5359.738136613285</v>
+        <v>6129.499753663223</v>
       </c>
       <c r="H116" t="n">
-        <v>0.47</v>
+        <v>1.03</v>
       </c>
       <c r="I116" t="n">
-        <v>591448</v>
+        <v>597259</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3182095</v>
+        <v>3180414</v>
       </c>
       <c r="F117" t="n">
-        <v>15.61831078361011</v>
+        <v>5.3140519150244</v>
       </c>
       <c r="G117" t="n">
-        <v>419.2153102588603</v>
+        <v>419.1973535641811</v>
       </c>
       <c r="H117" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="I117" t="n">
-        <v>35717</v>
+        <v>34358</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1133803</v>
+        <v>1130911</v>
       </c>
       <c r="F118" t="n">
-        <v>3.818032446343627</v>
+        <v>3.817884745455426</v>
       </c>
       <c r="G118" t="n">
-        <v>22.7188209010968</v>
+        <v>22.71794202170718</v>
       </c>
       <c r="H118" t="n">
         <v>0.41</v>
       </c>
       <c r="I118" t="n">
-        <v>6816.84</v>
+        <v>6832.16</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5169401</v>
+        <v>5214841</v>
       </c>
       <c r="E119" t="n">
-        <v>7232742</v>
+        <v>7296319</v>
       </c>
       <c r="F119" t="n">
-        <v>1215.479930280798</v>
+        <v>743.8724413535845</v>
       </c>
       <c r="G119" t="n">
-        <v>1853.660778853314</v>
+        <v>1605.206296303772</v>
       </c>
       <c r="H119" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="I119" t="n">
-        <v>91854</v>
+        <v>89570</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10195289</v>
+        <v>10179419</v>
       </c>
       <c r="E120" t="n">
-        <v>28082489</v>
+        <v>28038774</v>
       </c>
       <c r="F120" t="n">
-        <v>14.1275353176734</v>
+        <v>74.30960605018123</v>
       </c>
       <c r="G120" t="n">
-        <v>35.37893712110561</v>
+        <v>19.41048476174518</v>
       </c>
       <c r="H120" t="n">
-        <v>1.95</v>
+        <v>0.52</v>
       </c>
       <c r="I120" t="n">
-        <v>333098</v>
+        <v>338411</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51779460</v>
+        <v>52130757</v>
       </c>
       <c r="E121" t="n">
-        <v>131911133</v>
+        <v>132806084</v>
       </c>
       <c r="F121" t="n">
-        <v>646.9658905752865</v>
+        <v>800.1118599149321</v>
       </c>
       <c r="G121" t="n">
-        <v>11401.93512440926</v>
+        <v>10789.17906288605</v>
       </c>
       <c r="H121" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I121" t="n">
-        <v>2427326</v>
+        <v>2438720</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14890670</v>
+        <v>15700522</v>
       </c>
       <c r="E122" t="n">
-        <v>72117893</v>
+        <v>76040132</v>
       </c>
       <c r="F122" t="n">
-        <v>2454.113782661374</v>
+        <v>2104.468471175912</v>
       </c>
       <c r="G122" t="n">
-        <v>3486.459239057889</v>
+        <v>3050.415841900733</v>
       </c>
       <c r="H122" t="n">
         <v>0.24</v>
       </c>
       <c r="I122" t="n">
-        <v>3932429</v>
+        <v>4037107</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>503104</v>
+        <v>504912</v>
       </c>
       <c r="F123" t="n">
-        <v>5.531703753567871</v>
+        <v>5.199332422875278</v>
       </c>
       <c r="G123" t="n">
-        <v>3.977374428800415</v>
+        <v>4.192197332131591</v>
       </c>
       <c r="H123" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>6503.12</v>
+        <v>7436.97</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4651519</v>
+        <v>4656702</v>
       </c>
       <c r="E124" t="n">
-        <v>10602933</v>
+        <v>10614746</v>
       </c>
       <c r="F124" t="n">
-        <v>804.0892400108168</v>
+        <v>804.0937804794146</v>
       </c>
       <c r="G124" t="n">
-        <v>1835.88800269549</v>
+        <v>1835.898369445112</v>
       </c>
       <c r="H124" t="n">
         <v>1.41</v>
       </c>
       <c r="I124" t="n">
-        <v>87143</v>
+        <v>86956</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1925406140</v>
+        <v>1931807915</v>
       </c>
       <c r="F125" t="n">
-        <v>76255.96923642722</v>
+        <v>74556.33648446348</v>
       </c>
       <c r="G125" t="n">
-        <v>73861.06660897227</v>
+        <v>76132.21928045878</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1</v>
+        <v>0.62</v>
       </c>
       <c r="I125" t="n">
-        <v>27679851</v>
+        <v>27665078</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9606023</v>
+        <v>9627924</v>
       </c>
       <c r="E126" t="n">
-        <v>34960278</v>
+        <v>35039838</v>
       </c>
       <c r="F126" t="n">
-        <v>1073.4825362948</v>
+        <v>1072.164132971383</v>
       </c>
       <c r="G126" t="n">
-        <v>5.295231416979922</v>
+        <v>5.374409779724526</v>
       </c>
       <c r="H126" t="n">
         <v>0.46</v>
       </c>
       <c r="I126" t="n">
-        <v>116797</v>
+        <v>107345</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>568714</v>
+        <v>564625</v>
       </c>
       <c r="F127" t="n">
-        <v>24.80548635886113</v>
+        <v>6.501419180163403</v>
       </c>
       <c r="G127" t="n">
-        <v>4.119146946277795</v>
+        <v>103.3905505335059</v>
       </c>
       <c r="H127" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="I127" t="n">
-        <v>893.39</v>
+        <v>893.21</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12222554</v>
+        <v>12463675</v>
       </c>
       <c r="E128" t="n">
-        <v>17720940</v>
+        <v>18070531</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>20.17490326048134</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1285.743891949922</v>
       </c>
       <c r="H128" t="n">
-        <v>4.92</v>
+        <v>1.44</v>
       </c>
       <c r="I128" t="n">
-        <v>2035845</v>
+        <v>2160583</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31617236</v>
+        <v>31837357</v>
       </c>
       <c r="E129" t="n">
-        <v>98445927</v>
+        <v>99131315</v>
       </c>
       <c r="F129" t="n">
-        <v>14932.34233199387</v>
+        <v>10717.24277759918</v>
       </c>
       <c r="G129" t="n">
-        <v>11282.85664150147</v>
+        <v>8837.017640824499</v>
       </c>
       <c r="H129" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I129" t="n">
-        <v>10804548</v>
+        <v>10662446</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1979854</v>
+        <v>1969162</v>
       </c>
       <c r="E130" t="n">
-        <v>14197332</v>
+        <v>14120663</v>
       </c>
       <c r="F130" t="n">
-        <v>12.32317521884699</v>
+        <v>12.72014560476608</v>
       </c>
       <c r="G130" t="n">
-        <v>3.923573746864789</v>
+        <v>12.977613112521</v>
       </c>
       <c r="H130" t="n">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
       <c r="I130" t="n">
-        <v>2000489</v>
+        <v>2043301</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7472951</v>
+        <v>7481827</v>
       </c>
       <c r="F131" t="n">
-        <v>87.55092612223875</v>
+        <v>187.918027362863</v>
       </c>
       <c r="G131" t="n">
-        <v>746.5908215169749</v>
+        <v>105.7150437076288</v>
       </c>
       <c r="H131" t="n">
-        <v>0.84</v>
+        <v>1.32</v>
       </c>
       <c r="I131" t="n">
-        <v>508186</v>
+        <v>506831</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>205638160</v>
+        <v>208471793</v>
       </c>
       <c r="E132" t="n">
-        <v>1164449613</v>
+        <v>1180495387</v>
       </c>
       <c r="F132" t="n">
-        <v>430884.3646253446</v>
+        <v>390259.9095129296</v>
       </c>
       <c r="G132" t="n">
-        <v>610860.6577184283</v>
+        <v>530078.0675351329</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>67216625</v>
+        <v>69036309</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1042605</v>
+        <v>1049125</v>
       </c>
       <c r="E133" t="n">
-        <v>1042605</v>
+        <v>1049125</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5497.15</v>
+        <v>5493.82</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>501416</v>
+        <v>503670</v>
       </c>
       <c r="E134" t="n">
-        <v>1687695</v>
+        <v>1695283</v>
       </c>
       <c r="F134" t="n">
-        <v>183.4169138958123</v>
+        <v>126.4446277823319</v>
       </c>
       <c r="G134" t="n">
-        <v>264.6285927991796</v>
+        <v>240.4077505779339</v>
       </c>
       <c r="H134" t="n">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="I134" t="n">
-        <v>632644</v>
+        <v>633557</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>14147258</v>
+        <v>13613426</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>4.195710579553713</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>5.346886478740582</v>
       </c>
       <c r="H135" t="n">
-        <v>6.97</v>
+        <v>0.71</v>
       </c>
       <c r="I135" t="n">
-        <v>162.18</v>
+        <v>153.02</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>143382269</v>
+        <v>143742114</v>
       </c>
       <c r="E136" t="n">
-        <v>1062090881</v>
+        <v>1064756401</v>
       </c>
       <c r="F136" t="n">
-        <v>32363.15548540485</v>
+        <v>14397.05903216875</v>
       </c>
       <c r="G136" t="n">
-        <v>32923.9526938459</v>
+        <v>13940.22763067292</v>
       </c>
       <c r="H136" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="I136" t="n">
-        <v>8467418</v>
+        <v>8403513</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>32728909</v>
+        <v>33077579</v>
       </c>
       <c r="E137" t="n">
-        <v>155482482</v>
+        <v>157069374</v>
       </c>
       <c r="F137" t="n">
-        <v>10228.65512045703</v>
+        <v>10308.38641773604</v>
       </c>
       <c r="G137" t="n">
-        <v>11590.8113989367</v>
+        <v>25132.34381687603</v>
       </c>
       <c r="H137" t="n">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="I137" t="n">
-        <v>1155064</v>
+        <v>1203014</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8232003</v>
+        <v>8060901</v>
       </c>
       <c r="E138" t="n">
-        <v>11028139</v>
+        <v>10798919</v>
       </c>
       <c r="F138" t="n">
-        <v>500.3508407612075</v>
+        <v>503.7566552236446</v>
       </c>
       <c r="G138" t="n">
-        <v>11.7403602356396</v>
+        <v>292.0146844487518</v>
       </c>
       <c r="H138" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="I138" t="n">
-        <v>63088</v>
+        <v>63355</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1242446</v>
+        <v>1243664</v>
       </c>
       <c r="F139" t="n">
-        <v>26.97404782193887</v>
+        <v>66.75129385257348</v>
       </c>
       <c r="G139" t="n">
-        <v>5.139725767168213</v>
+        <v>5.139671387171006</v>
       </c>
       <c r="H139" t="n">
         <v>0.16</v>
       </c>
       <c r="I139" t="n">
-        <v>2423.77</v>
+        <v>2348.2</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2444934</v>
+        <v>2438157</v>
       </c>
       <c r="E140" t="n">
-        <v>2444934</v>
+        <v>2438157</v>
       </c>
       <c r="F140" t="n">
-        <v>184.1286070449863</v>
+        <v>14.01665103334147</v>
       </c>
       <c r="G140" t="n">
-        <v>388.671729790771</v>
+        <v>1440.401912822944</v>
       </c>
       <c r="H140" t="n">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="I140" t="n">
-        <v>274589</v>
+        <v>279579</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26948882</v>
+        <v>26914769</v>
       </c>
       <c r="E141" t="n">
-        <v>26948882</v>
+        <v>26914769</v>
       </c>
       <c r="F141" t="n">
-        <v>607.8429779959338</v>
+        <v>482.0094857118852</v>
       </c>
       <c r="G141" t="n">
-        <v>1756.366440175751</v>
+        <v>1642.082417231073</v>
       </c>
       <c r="H141" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="I141" t="n">
-        <v>314968</v>
+        <v>315131</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6465368</v>
+        <v>6486939</v>
       </c>
       <c r="E142" t="n">
-        <v>6828153</v>
+        <v>6850934</v>
       </c>
       <c r="F142" t="n">
-        <v>1074.510094220093</v>
+        <v>972.6081374064659</v>
       </c>
       <c r="G142" t="n">
-        <v>174.7288431723242</v>
+        <v>187.3016428834113</v>
       </c>
       <c r="H142" t="n">
-        <v>1.3</v>
+        <v>0.43</v>
       </c>
       <c r="I142" t="n">
-        <v>23338</v>
+        <v>21839</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3388433</v>
+        <v>3388346</v>
       </c>
       <c r="E143" t="n">
-        <v>7912557</v>
+        <v>7912353</v>
       </c>
       <c r="F143" t="n">
-        <v>1468.291431698464</v>
+        <v>1059.250453637492</v>
       </c>
       <c r="G143" t="n">
-        <v>1055.209881839236</v>
+        <v>1252.735484467489</v>
       </c>
       <c r="H143" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="I143" t="n">
-        <v>619452</v>
+        <v>617950</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1561856</v>
+        <v>1585842</v>
       </c>
       <c r="E144" t="n">
-        <v>12129555</v>
+        <v>12315829</v>
       </c>
       <c r="F144" t="n">
-        <v>200.0419505432906</v>
+        <v>200.2840470252432</v>
       </c>
       <c r="G144" t="n">
-        <v>7205.492848187408</v>
+        <v>619.2795538137931</v>
       </c>
       <c r="H144" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="I144" t="n">
-        <v>518443</v>
+        <v>527571</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>346336344</v>
+        <v>349314093</v>
       </c>
       <c r="E145" t="n">
-        <v>3115856511</v>
+        <v>3142646185</v>
       </c>
       <c r="F145" t="n">
-        <v>368869.4533973122</v>
+        <v>460314.1345082192</v>
       </c>
       <c r="G145" t="n">
-        <v>593478.0403051731</v>
+        <v>720539.9215616501</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>44032843</v>
+        <v>44093135</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>248872</v>
+        <v>248545</v>
       </c>
       <c r="E146" t="n">
-        <v>2196485</v>
+        <v>2193600</v>
       </c>
       <c r="F146" t="n">
-        <v>4.119491006529792</v>
+        <v>4.13595850738073</v>
       </c>
       <c r="G146" t="n">
-        <v>4.206146811163711</v>
+        <v>5.670448450196804</v>
       </c>
       <c r="H146" t="n">
         <v>0.73</v>
       </c>
       <c r="I146" t="n">
-        <v>93174</v>
+        <v>90040</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>641883</v>
+        <v>639312</v>
       </c>
       <c r="F147" t="n">
-        <v>561.143978847733</v>
+        <v>561.2050105466855</v>
       </c>
       <c r="G147" t="n">
-        <v>807.340680064893</v>
+        <v>793.9054301406696</v>
       </c>
       <c r="H147" t="n">
-        <v>0.58</v>
+        <v>0.78</v>
       </c>
       <c r="I147" t="n">
-        <v>4940.63</v>
+        <v>5062.35</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4920816</v>
+        <v>4920388</v>
       </c>
       <c r="E148" t="n">
-        <v>17387531</v>
+        <v>17386021</v>
       </c>
       <c r="F148" t="n">
-        <v>1748.072822733698</v>
+        <v>1637.953847303537</v>
       </c>
       <c r="G148" t="n">
-        <v>2347.804371765043</v>
+        <v>2352.168935449793</v>
       </c>
       <c r="H148" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I148" t="n">
-        <v>96706</v>
+        <v>100243</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9295895</v>
+        <v>9358560</v>
       </c>
       <c r="E149" t="n">
-        <v>43087008</v>
+        <v>43377463</v>
       </c>
       <c r="F149" t="n">
-        <v>2878.082138175548</v>
+        <v>2878.160827730097</v>
       </c>
       <c r="G149" t="n">
-        <v>3545.210373831062</v>
+        <v>3545.307303318029</v>
       </c>
       <c r="H149" t="n">
         <v>0.42</v>
       </c>
       <c r="I149" t="n">
-        <v>128572</v>
+        <v>55656</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>49688518</v>
+        <v>49395798</v>
       </c>
       <c r="E150" t="n">
-        <v>287675990</v>
+        <v>285981262</v>
       </c>
       <c r="F150" t="n">
-        <v>41175.7576115385</v>
+        <v>59589.45871184561</v>
       </c>
       <c r="G150" t="n">
-        <v>70123.64456333025</v>
+        <v>55878.83925920165</v>
       </c>
       <c r="H150" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I150" t="n">
-        <v>33303148</v>
+        <v>34403653</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>84385</v>
+        <v>84703</v>
       </c>
       <c r="E151" t="n">
-        <v>84385</v>
+        <v>84703</v>
       </c>
       <c r="F151" t="n">
-        <v>9.316969052879731</v>
+        <v>9.341709263926029</v>
       </c>
       <c r="G151" t="n">
-        <v>10.60454825945414</v>
+        <v>10.60438021637005</v>
       </c>
       <c r="H151" t="n">
         <v>0.72</v>
       </c>
       <c r="I151" t="n">
-        <v>22231</v>
+        <v>22073</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4358442</v>
+        <v>4368225</v>
       </c>
       <c r="F152" t="n">
-        <v>211.0840109496599</v>
+        <v>513.7135224423074</v>
       </c>
       <c r="G152" t="n">
-        <v>189.908146615006</v>
+        <v>160.7874668139986</v>
       </c>
       <c r="H152" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I152" t="n">
-        <v>307153</v>
+        <v>305931</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39629141</v>
+        <v>39627323</v>
       </c>
       <c r="E153" t="n">
-        <v>54733486</v>
+        <v>54730977</v>
       </c>
       <c r="F153" t="n">
-        <v>349.456202884547</v>
+        <v>4226.609840905023</v>
       </c>
       <c r="G153" t="n">
-        <v>1859.139116043862</v>
+        <v>6073.863131966752</v>
       </c>
       <c r="H153" t="n">
         <v>0.54</v>
       </c>
       <c r="I153" t="n">
-        <v>335435</v>
+        <v>314544</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2111703</v>
+        <v>2128983</v>
       </c>
       <c r="E154" t="n">
-        <v>8623649</v>
+        <v>8694215</v>
       </c>
       <c r="F154" t="n">
-        <v>543.2949339925543</v>
+        <v>589.051594237579</v>
       </c>
       <c r="G154" t="n">
-        <v>4839.898514442133</v>
+        <v>2459.924800442041</v>
       </c>
       <c r="H154" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="I154" t="n">
-        <v>567410</v>
+        <v>563879</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7348837</v>
+        <v>7307282</v>
       </c>
       <c r="E155" t="n">
-        <v>7403463</v>
+        <v>7361599</v>
       </c>
       <c r="F155" t="n">
-        <v>915.8267964673871</v>
+        <v>1145.535976933272</v>
       </c>
       <c r="G155" t="n">
-        <v>7473.885541086647</v>
+        <v>14499.64579228291</v>
       </c>
       <c r="H155" t="n">
         <v>0.17</v>
       </c>
       <c r="I155" t="n">
-        <v>5021785</v>
+        <v>5070266</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>469348</v>
+        <v>490490</v>
       </c>
       <c r="E156" t="n">
-        <v>469348</v>
+        <v>490490</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>22.8</v>
+        <v>26.29</v>
       </c>
       <c r="I156" t="n">
-        <v>10903.58</v>
+        <v>10805.57</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13734336</v>
+        <v>13781602</v>
       </c>
       <c r="E157" t="n">
-        <v>13781076</v>
+        <v>13828502</v>
       </c>
       <c r="F157" t="n">
-        <v>4741.526876569054</v>
+        <v>9068.859920825596</v>
       </c>
       <c r="G157" t="n">
-        <v>3697.917017820862</v>
+        <v>2845.731897911937</v>
       </c>
       <c r="H157" t="n">
         <v>0.06</v>
       </c>
       <c r="I157" t="n">
-        <v>5854398</v>
+        <v>6093604</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42812661</v>
+        <v>42977398</v>
       </c>
       <c r="E158" t="n">
-        <v>72685938</v>
+        <v>72965624</v>
       </c>
       <c r="F158" t="n">
-        <v>360.654591332517</v>
+        <v>276.7815004883781</v>
       </c>
       <c r="G158" t="n">
-        <v>612.4571579132946</v>
+        <v>448.5439915737441</v>
       </c>
       <c r="H158" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="I158" t="n">
-        <v>1048046</v>
+        <v>1032823</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>22980735</v>
+        <v>23299750</v>
       </c>
       <c r="E159" t="n">
-        <v>68885677</v>
+        <v>69841938</v>
       </c>
       <c r="F159" t="n">
-        <v>10776.94797618729</v>
+        <v>20754.7463549638</v>
       </c>
       <c r="G159" t="n">
-        <v>13443.39885002962</v>
+        <v>16042.03544021259</v>
       </c>
       <c r="H159" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I159" t="n">
-        <v>3452723</v>
+        <v>3539092</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>103814301</v>
+        <v>104356168</v>
       </c>
       <c r="E160" t="n">
-        <v>110363985</v>
+        <v>110940038</v>
       </c>
       <c r="F160" t="n">
-        <v>973.7504987807406</v>
+        <v>1089.158025584187</v>
       </c>
       <c r="G160" t="n">
-        <v>600.320914234097</v>
+        <v>473.8730713251931</v>
       </c>
       <c r="H160" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="I160" t="n">
-        <v>1412713</v>
+        <v>1460846</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10406281</v>
+        <v>10430189</v>
       </c>
       <c r="E161" t="n">
-        <v>45211711</v>
+        <v>45319906</v>
       </c>
       <c r="F161" t="n">
-        <v>4233.850909999554</v>
+        <v>4211.584191104057</v>
       </c>
       <c r="G161" t="n">
-        <v>2749.920706541585</v>
+        <v>2631.194123177405</v>
       </c>
       <c r="H161" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="I161" t="n">
-        <v>111706</v>
+        <v>111754</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15823974</v>
+        <v>15908443</v>
       </c>
       <c r="E162" t="n">
-        <v>96990341</v>
+        <v>97508079</v>
       </c>
       <c r="F162" t="n">
-        <v>1558.425854676723</v>
+        <v>353.9964098277833</v>
       </c>
       <c r="G162" t="n">
-        <v>660.4651656919672</v>
+        <v>1152.384626943169</v>
       </c>
       <c r="H162" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I162" t="n">
-        <v>10234510</v>
+        <v>10305602</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1505502</v>
+        <v>1511354</v>
       </c>
       <c r="E163" t="n">
-        <v>1547851</v>
+        <v>1553867</v>
       </c>
       <c r="F163" t="n">
-        <v>71.93065824399324</v>
+        <v>86.24772781656918</v>
       </c>
       <c r="G163" t="n">
-        <v>59.58814114213665</v>
+        <v>59.58603390142254</v>
       </c>
       <c r="H163" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="I163" t="n">
-        <v>145523</v>
+        <v>146767</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>96309</v>
+        <v>96366</v>
       </c>
       <c r="E164" t="n">
-        <v>273207</v>
+        <v>273369</v>
       </c>
       <c r="F164" t="n">
-        <v>4.014259134268027</v>
+        <v>4.192117241479523</v>
       </c>
       <c r="G164" t="n">
-        <v>87.18178832675446</v>
+        <v>43.8832745404428</v>
       </c>
       <c r="H164" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="I164" t="n">
-        <v>63.65</v>
+        <v>62.64</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>50394470</v>
+        <v>50414378</v>
       </c>
       <c r="E165" t="n">
-        <v>217093868</v>
+        <v>217179627</v>
       </c>
       <c r="F165" t="n">
-        <v>2877.009006547411</v>
+        <v>4557.475782743726</v>
       </c>
       <c r="G165" t="n">
-        <v>5455.489331055518</v>
+        <v>4722.764508210152</v>
       </c>
       <c r="H165" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I165" t="n">
-        <v>9870016</v>
+        <v>10163344</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7664526</v>
+        <v>7583087</v>
       </c>
       <c r="F166" t="n">
-        <v>96.85992858598765</v>
+        <v>86.47702723049277</v>
       </c>
       <c r="G166" t="n">
-        <v>448.0023064271373</v>
+        <v>460.0020660635235</v>
       </c>
       <c r="H166" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="I166" t="n">
-        <v>6630648</v>
+        <v>6632610</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>672818</v>
+        <v>675960</v>
       </c>
       <c r="E167" t="n">
-        <v>2429182</v>
+        <v>2439997</v>
       </c>
       <c r="F167" t="n">
-        <v>50.68544171846622</v>
+        <v>10.55800915113601</v>
       </c>
       <c r="G167" t="n">
-        <v>10.80943779558737</v>
+        <v>10.80896943135642</v>
       </c>
       <c r="H167" t="n">
         <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>337889</v>
+        <v>337450</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1572589</v>
+        <v>1583943</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>198.9897628235231</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>59.60264290589605</v>
       </c>
       <c r="H168" t="n">
-        <v>5.27</v>
+        <v>3.78</v>
       </c>
       <c r="I168" t="n">
-        <v>75284</v>
+        <v>69748</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13273393</v>
+        <v>13259958</v>
       </c>
       <c r="E169" t="n">
-        <v>13273393</v>
+        <v>13259958</v>
       </c>
       <c r="F169" t="n">
-        <v>666.165666699953</v>
+        <v>307.2016789515865</v>
       </c>
       <c r="G169" t="n">
-        <v>57.96284301962415</v>
+        <v>49.40918795325079</v>
       </c>
       <c r="H169" t="n">
-        <v>3.11</v>
+        <v>3.71</v>
       </c>
       <c r="I169" t="n">
-        <v>3335419</v>
+        <v>3702548</v>
       </c>
     </row>
     <row r="170">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1900903</v>
+        <v>2010903</v>
       </c>
       <c r="E170" t="n">
-        <v>6905120</v>
+        <v>7303406</v>
       </c>
       <c r="F170" t="n">
         <v>150.7556111967323</v>
@@ -6370,7 +6370,7 @@
         <v>0.27</v>
       </c>
       <c r="I170" t="n">
-        <v>147191</v>
+        <v>155460</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8947999</v>
+        <v>8934796</v>
       </c>
       <c r="E171" t="n">
-        <v>19865162</v>
+        <v>19835851</v>
       </c>
       <c r="F171" t="n">
-        <v>1610.332475215149</v>
+        <v>1828.233785529362</v>
       </c>
       <c r="G171" t="n">
-        <v>1457.75557600612</v>
+        <v>1476.961098850946</v>
       </c>
       <c r="H171" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I171" t="n">
-        <v>337289</v>
+        <v>339817</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1043224</v>
+        <v>1051507</v>
       </c>
       <c r="E172" t="n">
-        <v>3049164</v>
+        <v>3073372</v>
       </c>
       <c r="F172" t="n">
-        <v>97.91430709877139</v>
+        <v>97.91372795301167</v>
       </c>
       <c r="G172" t="n">
-        <v>660.8335001354673</v>
+        <v>660.7014898872837</v>
       </c>
       <c r="H172" t="n">
         <v>0.36</v>
       </c>
       <c r="I172" t="n">
-        <v>18895.43</v>
+        <v>19272.48</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>21031081</v>
+        <v>21164378</v>
       </c>
       <c r="E173" t="n">
-        <v>84124324</v>
+        <v>84657510</v>
       </c>
       <c r="F173" t="n">
-        <v>23729.27892847667</v>
+        <v>22645.11625855223</v>
       </c>
       <c r="G173" t="n">
-        <v>14962.24800937049</v>
+        <v>21466.855345546</v>
       </c>
       <c r="H173" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="I173" t="n">
-        <v>2474741</v>
+        <v>2448565</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>5003985</v>
+        <v>4938928</v>
       </c>
       <c r="E174" t="n">
-        <v>5003985</v>
+        <v>4938928</v>
       </c>
       <c r="F174" t="n">
-        <v>1287.581549062259</v>
+        <v>1164.120986635443</v>
       </c>
       <c r="G174" t="n">
-        <v>411.4425729362317</v>
+        <v>647.4012859402666</v>
       </c>
       <c r="H174" t="n">
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="I174" t="n">
-        <v>3078999</v>
+        <v>3083603</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>312351068</v>
+        <v>319681887</v>
       </c>
       <c r="E175" t="n">
-        <v>312351068</v>
+        <v>319681887</v>
       </c>
       <c r="F175" t="n">
-        <v>7212.520605375991</v>
+        <v>6778.021291997021</v>
       </c>
       <c r="G175" t="n">
-        <v>12448.71849626562</v>
+        <v>4505.959048181077</v>
       </c>
       <c r="H175" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="I175" t="n">
-        <v>15316608</v>
+        <v>15719382</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12754841</v>
+        <v>12802253</v>
       </c>
       <c r="E176" t="n">
-        <v>40351707</v>
+        <v>40495937</v>
       </c>
       <c r="F176" t="n">
-        <v>1404.360128900621</v>
+        <v>2695.054612305015</v>
       </c>
       <c r="G176" t="n">
-        <v>2245.663883406142</v>
+        <v>3567.08514327807</v>
       </c>
       <c r="H176" t="n">
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
       <c r="I176" t="n">
-        <v>989960</v>
+        <v>993396</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24589</v>
+        <v>24617</v>
       </c>
       <c r="E177" t="n">
-        <v>193388</v>
+        <v>193602</v>
       </c>
       <c r="F177" t="n">
-        <v>55.73013401654897</v>
+        <v>55.51795751653228</v>
       </c>
       <c r="G177" t="n">
-        <v>223.2241147191509</v>
+        <v>223.2026511731339</v>
       </c>
       <c r="H177" t="n">
         <v>0.51</v>
       </c>
       <c r="I177" t="n">
-        <v>62023</v>
+        <v>60105</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8458862</v>
+        <v>8465681</v>
       </c>
       <c r="E178" t="n">
-        <v>8458862</v>
+        <v>8465681</v>
       </c>
       <c r="F178" t="n">
-        <v>1609.521355701109</v>
+        <v>1763.704455064625</v>
       </c>
       <c r="G178" t="n">
-        <v>1218.34204511662</v>
+        <v>1391.156967293914</v>
       </c>
       <c r="H178" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I178" t="n">
-        <v>3754752</v>
+        <v>3765670</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1070415</v>
+        <v>1074055</v>
       </c>
       <c r="E179" t="n">
-        <v>2437976</v>
+        <v>2446266</v>
       </c>
       <c r="F179" t="n">
-        <v>4.132480254985765</v>
+        <v>4.151946139986557</v>
       </c>
       <c r="G179" t="n">
-        <v>5.721285132069586</v>
+        <v>5.737289103781813</v>
       </c>
       <c r="H179" t="n">
         <v>0.45</v>
       </c>
       <c r="I179" t="n">
-        <v>2064.97</v>
+        <v>1100.11</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9109643</v>
+        <v>9398195</v>
       </c>
       <c r="E180" t="n">
-        <v>9109643</v>
+        <v>9398195</v>
       </c>
       <c r="F180" t="n">
-        <v>2921.984851676659</v>
+        <v>3221.187763751505</v>
       </c>
       <c r="G180" t="n">
-        <v>2655.77580543422</v>
+        <v>2050.164345283745</v>
       </c>
       <c r="H180" t="n">
-        <v>0.77</v>
+        <v>0.25</v>
       </c>
       <c r="I180" t="n">
-        <v>2974889</v>
+        <v>3020137</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18744624</v>
+        <v>19386055</v>
       </c>
       <c r="E181" t="n">
-        <v>18744624</v>
+        <v>19386055</v>
       </c>
       <c r="F181" t="n">
-        <v>868.9821517739756</v>
+        <v>2854.565197388221</v>
       </c>
       <c r="G181" t="n">
-        <v>1834.773455219204</v>
+        <v>10765.93795814754</v>
       </c>
       <c r="H181" t="n">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="I181" t="n">
-        <v>3966908</v>
+        <v>4300264</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>32094519</v>
+        <v>32448729</v>
       </c>
       <c r="E182" t="n">
-        <v>88898633</v>
+        <v>89879760</v>
       </c>
       <c r="F182" t="n">
-        <v>5928.504036367689</v>
+        <v>4963.097782246855</v>
       </c>
       <c r="G182" t="n">
-        <v>5703.971943806744</v>
+        <v>5804.506298838129</v>
       </c>
       <c r="H182" t="n">
         <v>0.02</v>
       </c>
       <c r="I182" t="n">
-        <v>12129083</v>
+        <v>12244780</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>37744679</v>
+        <v>37980921</v>
       </c>
       <c r="E183" t="n">
-        <v>95173960</v>
+        <v>95769649</v>
       </c>
       <c r="F183" t="n">
-        <v>5008.01163633858</v>
+        <v>11313.80922409581</v>
       </c>
       <c r="G183" t="n">
-        <v>2475.460457130158</v>
+        <v>4621.775574462002</v>
       </c>
       <c r="H183" t="n">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="I183" t="n">
-        <v>3417531</v>
+        <v>3490042</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>314347853</v>
+        <v>325086329</v>
       </c>
       <c r="E184" t="n">
-        <v>319252037</v>
+        <v>330158045</v>
       </c>
       <c r="F184" t="n">
-        <v>33504.64400689503</v>
+        <v>13931.48536769617</v>
       </c>
       <c r="G184" t="n">
-        <v>32122.6315600018</v>
+        <v>20297.73450901649</v>
       </c>
       <c r="H184" t="n">
         <v>0.01</v>
       </c>
       <c r="I184" t="n">
-        <v>15817736</v>
+        <v>19454191</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>410603</v>
+        <v>418556</v>
       </c>
       <c r="F185" t="n">
-        <v>128.8720297766449</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>101.6790428065653</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>1.71</v>
+        <v>4.63</v>
       </c>
       <c r="I185" t="n">
-        <v>69340</v>
+        <v>71129</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28286599</v>
+        <v>28252938</v>
       </c>
       <c r="E186" t="n">
-        <v>67201927</v>
+        <v>67121957</v>
       </c>
       <c r="F186" t="n">
-        <v>11195.06072226758</v>
+        <v>10646.70972757589</v>
       </c>
       <c r="G186" t="n">
-        <v>7273.767372258949</v>
+        <v>6240.058454783141</v>
       </c>
       <c r="H186" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I186" t="n">
-        <v>397134</v>
+        <v>415264</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>20152432</v>
+        <v>20271444</v>
       </c>
       <c r="F187" t="n">
-        <v>4.08263349875969</v>
+        <v>3.987318426199909</v>
       </c>
       <c r="G187" t="n">
-        <v>268.3923718414721</v>
+        <v>133.8614722948495</v>
       </c>
       <c r="H187" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="I187" t="n">
-        <v>1524.69</v>
+        <v>1535.38</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12713296</v>
+        <v>12740812</v>
       </c>
       <c r="E188" t="n">
-        <v>19352503</v>
+        <v>19394390</v>
       </c>
       <c r="F188" t="n">
-        <v>3715.886702152005</v>
+        <v>2405.346340083141</v>
       </c>
       <c r="G188" t="n">
-        <v>2059.333003413193</v>
+        <v>2512.162776095767</v>
       </c>
       <c r="H188" t="n">
         <v>0.73</v>
       </c>
       <c r="I188" t="n">
-        <v>744855</v>
+        <v>723587</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>86531396</v>
+        <v>86710306</v>
       </c>
       <c r="E189" t="n">
-        <v>86531396</v>
+        <v>86710306</v>
       </c>
       <c r="F189" t="n">
-        <v>8611.394970375402</v>
+        <v>5981.457260861841</v>
       </c>
       <c r="G189" t="n">
-        <v>8530.1366967221</v>
+        <v>9313.334176990351</v>
       </c>
       <c r="H189" t="n">
-        <v>0.08</v>
+        <v>0.44</v>
       </c>
       <c r="I189" t="n">
-        <v>5004372</v>
+        <v>5261228</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>301957688</v>
+        <v>305544450</v>
       </c>
       <c r="E190" t="n">
-        <v>301957688</v>
+        <v>305544450</v>
       </c>
       <c r="F190" t="n">
-        <v>178003.196408595</v>
+        <v>207438.4102253314</v>
       </c>
       <c r="G190" t="n">
-        <v>300883.3813966791</v>
+        <v>253165.3135235144</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>80080473</v>
+        <v>81479176</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10175818</v>
+        <v>10386220</v>
       </c>
       <c r="E191" t="n">
-        <v>28890844</v>
+        <v>29488212</v>
       </c>
       <c r="F191" t="n">
-        <v>1088.641915107446</v>
+        <v>544.6974167837277</v>
       </c>
       <c r="G191" t="n">
-        <v>8801.815211828009</v>
+        <v>3687.076273549789</v>
       </c>
       <c r="H191" t="n">
-        <v>1.02</v>
+        <v>2.35</v>
       </c>
       <c r="I191" t="n">
-        <v>121468</v>
+        <v>123140</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4227992</v>
+        <v>4237969</v>
       </c>
       <c r="E192" t="n">
-        <v>28889573</v>
+        <v>28957742</v>
       </c>
       <c r="F192" t="n">
-        <v>3263.347947038122</v>
+        <v>2193.68079260046</v>
       </c>
       <c r="G192" t="n">
-        <v>2162.732785129618</v>
+        <v>2359.152782787196</v>
       </c>
       <c r="H192" t="n">
-        <v>0.96</v>
+        <v>1.17</v>
       </c>
       <c r="I192" t="n">
-        <v>2647480</v>
+        <v>2656381</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2940687</v>
+        <v>2944581</v>
       </c>
       <c r="E193" t="n">
-        <v>4358493</v>
+        <v>4363899</v>
       </c>
       <c r="F193" t="n">
-        <v>493.523433119693</v>
+        <v>269.3844010307097</v>
       </c>
       <c r="G193" t="n">
-        <v>287.3906580729347</v>
+        <v>225.97151542389</v>
       </c>
       <c r="H193" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="I193" t="n">
-        <v>192270</v>
+        <v>180993</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>91923969</v>
+        <v>93820095</v>
       </c>
       <c r="E194" t="n">
-        <v>529705558</v>
+        <v>540631854</v>
       </c>
       <c r="F194" t="n">
-        <v>538613.112404639</v>
+        <v>500586.1886707791</v>
       </c>
       <c r="G194" t="n">
-        <v>602391.1493625819</v>
+        <v>509849.5551813458</v>
       </c>
       <c r="H194" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I194" t="n">
-        <v>16933600</v>
+        <v>17600948</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>720617</v>
+        <v>726492</v>
       </c>
       <c r="E195" t="n">
-        <v>785899</v>
+        <v>792307</v>
       </c>
       <c r="F195" t="n">
-        <v>4.199094211107198</v>
+        <v>4.094747096899257</v>
       </c>
       <c r="G195" t="n">
-        <v>4.253939735064846</v>
+        <v>28.55990090955891</v>
       </c>
       <c r="H195" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="I195" t="n">
-        <v>126258</v>
+        <v>127298</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>109443287</v>
+        <v>110822230</v>
       </c>
       <c r="E196" t="n">
-        <v>269273246</v>
+        <v>272665984</v>
       </c>
       <c r="F196" t="n">
-        <v>23469.90964756391</v>
+        <v>22303.41909593488</v>
       </c>
       <c r="G196" t="n">
-        <v>51826.84980057616</v>
+        <v>22177.55753650346</v>
       </c>
       <c r="H196" t="n">
         <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2167290</v>
+        <v>2218564</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18359067</v>
+        <v>18503795</v>
       </c>
       <c r="E197" t="n">
-        <v>18359067</v>
+        <v>18503795</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>269.4412898240146</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>2.487170117898762</v>
       </c>
       <c r="H197" t="n">
-        <v>5.88</v>
+        <v>1.34</v>
       </c>
       <c r="I197" t="n">
-        <v>110325</v>
+        <v>111756</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1327008</v>
+        <v>1326911</v>
       </c>
       <c r="F198" t="n">
-        <v>37.77102478835801</v>
+        <v>37.77137640858494</v>
       </c>
       <c r="G198" t="n">
-        <v>3.959175419878931</v>
+        <v>3.959212276865667</v>
       </c>
       <c r="H198" t="n">
         <v>0.59</v>
       </c>
       <c r="I198" t="n">
-        <v>31800</v>
+        <v>29276</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>137733</v>
+        <v>137909</v>
       </c>
       <c r="E199" t="n">
-        <v>299843</v>
+        <v>300225</v>
       </c>
       <c r="F199" t="n">
-        <v>5.272841343994223</v>
+        <v>5.272837899890681</v>
       </c>
       <c r="G199" t="n">
-        <v>3.749682477075579</v>
+        <v>3.749680027865777</v>
       </c>
       <c r="H199" t="n">
         <v>0.36</v>
       </c>
       <c r="I199" t="n">
-        <v>293.64</v>
+        <v>48602</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2476357</v>
+        <v>2561942</v>
       </c>
       <c r="F200" t="n">
-        <v>127.8194307446576</v>
+        <v>221.2973565696074</v>
       </c>
       <c r="G200" t="n">
-        <v>99.33575680702104</v>
+        <v>126.0999584380103</v>
       </c>
       <c r="H200" t="n">
-        <v>3.19</v>
+        <v>2.33</v>
       </c>
       <c r="I200" t="n">
-        <v>426100</v>
+        <v>431228</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>189083</v>
+        <v>191849</v>
       </c>
       <c r="E201" t="n">
-        <v>1460101</v>
+        <v>1481461</v>
       </c>
       <c r="F201" t="n">
-        <v>4.041531119047464</v>
+        <v>4.04138370582269</v>
       </c>
       <c r="G201" t="n">
-        <v>304.0607922899462</v>
+        <v>373.4496744988552</v>
       </c>
       <c r="H201" t="n">
         <v>0.55</v>
       </c>
       <c r="I201" t="n">
-        <v>105356</v>
+        <v>106592</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>31049206</v>
+        <v>31172332</v>
       </c>
       <c r="E202" t="n">
-        <v>139020034</v>
+        <v>139571317</v>
       </c>
       <c r="F202" t="n">
-        <v>9308.887711702315</v>
+        <v>10268.70327618504</v>
       </c>
       <c r="G202" t="n">
-        <v>12667.21576401625</v>
+        <v>9890.052504578067</v>
       </c>
       <c r="H202" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="I202" t="n">
-        <v>8559741</v>
+        <v>8578731</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12956438</v>
+        <v>12967116</v>
       </c>
       <c r="E203" t="n">
-        <v>25901564</v>
+        <v>25922909</v>
       </c>
       <c r="F203" t="n">
-        <v>725.2756903861234</v>
+        <v>705.2609160455567</v>
       </c>
       <c r="G203" t="n">
-        <v>1217.27847391471</v>
+        <v>1240.864433531885</v>
       </c>
       <c r="H203" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I203" t="n">
-        <v>32311</v>
+        <v>32431</v>
       </c>
     </row>
     <row r="204">
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1489558</v>
+        <v>1459929</v>
       </c>
       <c r="F204" t="n">
         <v>311.5091758908412</v>
@@ -7560,7 +7560,7 @@
         <v>1.62</v>
       </c>
       <c r="I204" t="n">
-        <v>49743</v>
+        <v>33958</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>976383</v>
+        <v>980352</v>
       </c>
       <c r="E205" t="n">
-        <v>4515911</v>
+        <v>4534270</v>
       </c>
       <c r="F205" t="n">
-        <v>3783.788501116941</v>
+        <v>2498.447105244778</v>
       </c>
       <c r="G205" t="n">
-        <v>2745.713840634796</v>
+        <v>2623.961052074596</v>
       </c>
       <c r="H205" t="n">
         <v>0.53</v>
       </c>
       <c r="I205" t="n">
-        <v>492275</v>
+        <v>476890</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3162364</v>
+        <v>3247869</v>
       </c>
       <c r="E206" t="n">
-        <v>3162364</v>
+        <v>3247869</v>
       </c>
       <c r="F206" t="n">
-        <v>1712.022544398196</v>
+        <v>347.0145043231847</v>
       </c>
       <c r="G206" t="n">
-        <v>810.1458787044801</v>
+        <v>455.7446491703088</v>
       </c>
       <c r="H206" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I206" t="n">
-        <v>408475</v>
+        <v>417356</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>576560</v>
+        <v>586207</v>
       </c>
       <c r="E207" t="n">
-        <v>576560</v>
+        <v>586207</v>
       </c>
       <c r="F207" t="n">
-        <v>5.037578160730586</v>
+        <v>3.797610901216195</v>
       </c>
       <c r="G207" t="n">
-        <v>624.7122015284187</v>
+        <v>627.0372681334204</v>
       </c>
       <c r="H207" t="n">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="I207" t="n">
-        <v>1212478</v>
+        <v>1219515</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>15681364</v>
+        <v>15679429</v>
       </c>
       <c r="E208" t="n">
-        <v>19964880</v>
+        <v>19962417</v>
       </c>
       <c r="F208" t="n">
-        <v>133.9155609513883</v>
+        <v>135.9511063721807</v>
       </c>
       <c r="G208" t="n">
-        <v>166.3524547402224</v>
+        <v>138.2074436854454</v>
       </c>
       <c r="H208" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I208" t="n">
-        <v>921873</v>
+        <v>926905</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1787768</v>
+        <v>1791036</v>
       </c>
       <c r="E209" t="n">
-        <v>1787768</v>
+        <v>1791036</v>
       </c>
       <c r="F209" t="n">
-        <v>28.9622144763197</v>
+        <v>28.96723140485971</v>
       </c>
       <c r="G209" t="n">
-        <v>20.42580918972549</v>
+        <v>20.4250665324783</v>
       </c>
       <c r="H209" t="n">
         <v>0.57</v>
       </c>
       <c r="I209" t="n">
-        <v>4337.62</v>
+        <v>4352.78</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5788675</v>
+        <v>5850800</v>
       </c>
       <c r="E210" t="n">
-        <v>15192387</v>
+        <v>15355433</v>
       </c>
       <c r="F210" t="n">
-        <v>532.4251493236103</v>
+        <v>474.0635570588187</v>
       </c>
       <c r="G210" t="n">
-        <v>211.1592127739503</v>
+        <v>220.4893919178702</v>
       </c>
       <c r="H210" t="n">
-        <v>1.79</v>
+        <v>1.3</v>
       </c>
       <c r="I210" t="n">
-        <v>25214</v>
+        <v>25699</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29677096</v>
+        <v>29734666</v>
       </c>
       <c r="F211" t="n">
-        <v>1230.641788553572</v>
+        <v>1106.844686548617</v>
       </c>
       <c r="G211" t="n">
-        <v>1758.290093961783</v>
+        <v>1763.377105481421</v>
       </c>
       <c r="H211" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I211" t="n">
-        <v>362407</v>
+        <v>356541</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>17983825</v>
+        <v>18146298</v>
       </c>
       <c r="E212" t="n">
-        <v>17983825</v>
+        <v>18146298</v>
       </c>
       <c r="F212" t="n">
-        <v>20692.61655750257</v>
+        <v>33175.68299760333</v>
       </c>
       <c r="G212" t="n">
-        <v>25580.77304541724</v>
+        <v>32048.09085009768</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2917317</v>
+        <v>2968008</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>51158695</v>
+        <v>52309397</v>
       </c>
       <c r="E213" t="n">
-        <v>331750524</v>
+        <v>339212516</v>
       </c>
       <c r="F213" t="n">
-        <v>104288.9927667111</v>
+        <v>109794.9027192919</v>
       </c>
       <c r="G213" t="n">
-        <v>167624.1984906407</v>
+        <v>110360.8820545236</v>
       </c>
       <c r="H213" t="n">
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
       <c r="I213" t="n">
-        <v>16999309</v>
+        <v>17332320</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9132409</v>
+        <v>9118581</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>211.8436286674825</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>5.331690719510247</v>
       </c>
       <c r="H214" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="I214" t="n">
-        <v>292806</v>
+        <v>295035</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7103776</v>
+        <v>7194093</v>
       </c>
       <c r="E215" t="n">
-        <v>7113762</v>
+        <v>7204206</v>
       </c>
       <c r="F215" t="n">
-        <v>3.565851620225873</v>
+        <v>67.30072720655532</v>
       </c>
       <c r="G215" t="n">
-        <v>2268.615812594635</v>
+        <v>49.16203511749178</v>
       </c>
       <c r="H215" t="n">
         <v>0.09</v>
       </c>
       <c r="I215" t="n">
-        <v>777712</v>
+        <v>781947</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4794423</v>
+        <v>4796970</v>
       </c>
       <c r="F216" t="n">
-        <v>1147.662051945828</v>
+        <v>1036.85501212138</v>
       </c>
       <c r="G216" t="n">
-        <v>309.1828577940618</v>
+        <v>262.4951039466893</v>
       </c>
       <c r="H216" t="n">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="I216" t="n">
-        <v>196130</v>
+        <v>195379</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2395406</v>
+        <v>2443850</v>
       </c>
       <c r="E217" t="n">
-        <v>4339729</v>
+        <v>4427494</v>
       </c>
       <c r="F217" t="n">
-        <v>963.4875906598195</v>
+        <v>1398.530327605801</v>
       </c>
       <c r="G217" t="n">
-        <v>108.9278523448786</v>
+        <v>4.484415614624632</v>
       </c>
       <c r="H217" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I217" t="n">
-        <v>120325</v>
+        <v>129347</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125368446</v>
+        <v>125709071</v>
       </c>
       <c r="E218" t="n">
-        <v>2076204141</v>
+        <v>2081845169</v>
       </c>
       <c r="F218" t="n">
-        <v>6887.45990077089</v>
+        <v>4690.387971197672</v>
       </c>
       <c r="G218" t="n">
-        <v>10328.51038942689</v>
+        <v>8229.942317508345</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>4485337</v>
+        <v>4552160</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>99030972</v>
+        <v>102031509</v>
       </c>
       <c r="E219" t="n">
-        <v>100096973</v>
+        <v>103129810</v>
       </c>
       <c r="F219" t="n">
-        <v>4690.720454796698</v>
+        <v>95247.38268866269</v>
       </c>
       <c r="G219" t="n">
-        <v>24451.32370851246</v>
+        <v>29505.31482163158</v>
       </c>
       <c r="H219" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="I219" t="n">
-        <v>41315576</v>
+        <v>45424922</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>241975569</v>
+        <v>253194493</v>
       </c>
       <c r="E220" t="n">
-        <v>241975569</v>
+        <v>253194493</v>
       </c>
       <c r="F220" t="n">
-        <v>89993.73672150311</v>
+        <v>96962.75183885919</v>
       </c>
       <c r="G220" t="n">
-        <v>115251.213728228</v>
+        <v>84200.91643913419</v>
       </c>
       <c r="H220" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I220" t="n">
-        <v>47646828</v>
+        <v>50318132</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>24755339</v>
+        <v>25247387</v>
       </c>
       <c r="E221" t="n">
-        <v>148116172</v>
+        <v>151060192</v>
       </c>
       <c r="F221" t="n">
-        <v>49030.41731007898</v>
+        <v>60977.74775094364</v>
       </c>
       <c r="G221" t="n">
-        <v>87835.91678167302</v>
+        <v>66205.5846143138</v>
       </c>
       <c r="H221" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I221" t="n">
-        <v>12234212</v>
+        <v>12322101</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1051628</v>
+        <v>1047364</v>
       </c>
       <c r="F222" t="n">
-        <v>341.2919929073767</v>
+        <v>267.6318941256226</v>
       </c>
       <c r="G222" t="n">
-        <v>483.0822937934347</v>
+        <v>345.1997812349719</v>
       </c>
       <c r="H222" t="n">
-        <v>2.7</v>
+        <v>1.84</v>
       </c>
       <c r="I222" t="n">
-        <v>66568</v>
+        <v>67308</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2237323</v>
+        <v>2244002</v>
       </c>
       <c r="F223" t="n">
-        <v>148.4117067707643</v>
+        <v>134.3417626199339</v>
       </c>
       <c r="G223" t="n">
-        <v>220.9577853522518</v>
+        <v>222.0991889752416</v>
       </c>
       <c r="H223" t="n">
         <v>0.4</v>
       </c>
       <c r="I223" t="n">
-        <v>177565</v>
+        <v>178767</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>13820428</v>
+        <v>14210896</v>
       </c>
       <c r="E224" t="n">
-        <v>42410045</v>
+        <v>42949271</v>
       </c>
       <c r="F224" t="n">
-        <v>1174.313225465716</v>
+        <v>746.3330302129132</v>
       </c>
       <c r="G224" t="n">
-        <v>1604.325686812828</v>
+        <v>876.3848040715847</v>
       </c>
       <c r="H224" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="I224" t="n">
-        <v>2619899</v>
+        <v>2631301</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>55109594</v>
+        <v>55136842</v>
       </c>
       <c r="E225" t="n">
-        <v>95186249</v>
+        <v>95233313</v>
       </c>
       <c r="F225" t="n">
-        <v>13468.33230551743</v>
+        <v>13470.96967588558</v>
       </c>
       <c r="G225" t="n">
-        <v>6523.661872467263</v>
+        <v>7692.496837650026</v>
       </c>
       <c r="H225" t="n">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="I225" t="n">
-        <v>2427655</v>
+        <v>2350935</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4302242</v>
+        <v>4302502</v>
       </c>
       <c r="E226" t="n">
-        <v>4302242</v>
+        <v>4302502</v>
       </c>
       <c r="F226" t="n">
-        <v>48.50768545375591</v>
+        <v>48.61865779622718</v>
       </c>
       <c r="G226" t="n">
-        <v>15.20590389807281</v>
+        <v>90.57883287593411</v>
       </c>
       <c r="H226" t="n">
         <v>0.12</v>
       </c>
       <c r="I226" t="n">
-        <v>1719278</v>
+        <v>1741642</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>212596</v>
+        <v>211234</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>51412</v>
+        <v>52451</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6643062</v>
+        <v>6720930</v>
       </c>
       <c r="E228" t="n">
-        <v>34176535</v>
+        <v>34577142</v>
       </c>
       <c r="F228" t="n">
-        <v>143.5642240503409</v>
+        <v>121.1970382787801</v>
       </c>
       <c r="G228" t="n">
-        <v>2732.663828243772</v>
+        <v>2930.188813145995</v>
       </c>
       <c r="H228" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="I228" t="n">
-        <v>912475</v>
+        <v>909939</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>179980218</v>
+        <v>179258156</v>
       </c>
       <c r="E230" t="n">
-        <v>210270037</v>
+        <v>209426455</v>
       </c>
       <c r="F230" t="n">
-        <v>42906.73131534378</v>
+        <v>38573.09705024648</v>
       </c>
       <c r="G230" t="n">
-        <v>23241.94917422283</v>
+        <v>23236.32352918216</v>
       </c>
       <c r="H230" t="n">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="I230" t="n">
-        <v>3448138</v>
+        <v>3760479</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>305130</v>
+        <v>306437</v>
       </c>
       <c r="F231" t="n">
-        <v>5.296737313106333</v>
+        <v>9.032378952074364</v>
       </c>
       <c r="G231" t="n">
-        <v>48.89288704335171</v>
+        <v>89.73385107308394</v>
       </c>
       <c r="H231" t="n">
-        <v>0.37</v>
+        <v>1.33</v>
       </c>
       <c r="I231" t="n">
-        <v>319708</v>
+        <v>320244</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29179448</v>
+        <v>29277002</v>
       </c>
       <c r="E232" t="n">
-        <v>40010124</v>
+        <v>40143888</v>
       </c>
       <c r="F232" t="n">
-        <v>5760.293479806365</v>
+        <v>5772.465432659918</v>
       </c>
       <c r="G232" t="n">
-        <v>5937.971147895983</v>
+        <v>5982.481161457071</v>
       </c>
       <c r="H232" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I232" t="n">
-        <v>207145</v>
+        <v>206877</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1170656</v>
+        <v>1092285</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1391013</v>
+        <v>1290193</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7986936</v>
+        <v>7994727</v>
       </c>
       <c r="F234" t="n">
-        <v>456.9975225413652</v>
+        <v>468.480337053201</v>
       </c>
       <c r="G234" t="n">
-        <v>3255.486528077358</v>
+        <v>3238.594328943447</v>
       </c>
       <c r="H234" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>655155</v>
+        <v>654198</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23084514</v>
+        <v>23371721</v>
       </c>
       <c r="E235" t="n">
-        <v>23084514</v>
+        <v>23371721</v>
       </c>
       <c r="F235" t="n">
-        <v>16395.55552081569</v>
+        <v>19159.97022292283</v>
       </c>
       <c r="G235" t="n">
-        <v>26177.95309065075</v>
+        <v>8243.000667124206</v>
       </c>
       <c r="H235" t="n">
-        <v>0.14</v>
+        <v>0.39</v>
       </c>
       <c r="I235" t="n">
-        <v>1957660</v>
+        <v>1997444</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3385229</v>
+        <v>3415571</v>
       </c>
       <c r="E236" t="n">
-        <v>4534728</v>
+        <v>4575374</v>
       </c>
       <c r="F236" t="n">
-        <v>469.3231031577379</v>
+        <v>501.3576916390992</v>
       </c>
       <c r="G236" t="n">
-        <v>586.5435416447295</v>
+        <v>291.5617646590993</v>
       </c>
       <c r="H236" t="n">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="I236" t="n">
-        <v>148641</v>
+        <v>150278</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>34860663</v>
+        <v>35009006</v>
       </c>
       <c r="E237" t="n">
-        <v>173970781</v>
+        <v>174711077</v>
       </c>
       <c r="F237" t="n">
-        <v>106041.7713344592</v>
+        <v>89996.33972967054</v>
       </c>
       <c r="G237" t="n">
-        <v>91623.14338661426</v>
+        <v>65112.65964346235</v>
       </c>
       <c r="H237" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I237" t="n">
-        <v>10222691</v>
+        <v>10820219</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26574039</v>
+        <v>26631913</v>
       </c>
       <c r="E238" t="n">
-        <v>59907610</v>
+        <v>60038079</v>
       </c>
       <c r="F238" t="n">
-        <v>323.3915523898838</v>
+        <v>210.241174743948</v>
       </c>
       <c r="G238" t="n">
-        <v>84.00566453701943</v>
+        <v>135.6465088846016</v>
       </c>
       <c r="H238" t="n">
-        <v>0.18</v>
+        <v>0.63</v>
       </c>
       <c r="I238" t="n">
-        <v>388540</v>
+        <v>405269</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1957682</v>
+        <v>1961686</v>
       </c>
       <c r="E239" t="n">
-        <v>1957682</v>
+        <v>1961686</v>
       </c>
       <c r="F239" t="n">
-        <v>159.1353312033476</v>
+        <v>175.5462814836165</v>
       </c>
       <c r="G239" t="n">
-        <v>101.7907948580714</v>
+        <v>51.26634072990349</v>
       </c>
       <c r="H239" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="I239" t="n">
-        <v>12679.84</v>
+        <v>12855.45</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>72221900</v>
+        <v>72167309</v>
       </c>
       <c r="F240" t="n">
-        <v>5.583521813854744</v>
+        <v>5.576280727398123</v>
       </c>
       <c r="G240" t="n">
-        <v>3.949489052449596</v>
+        <v>4.166003590522469</v>
       </c>
       <c r="H240" t="n">
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>61245</v>
+        <v>61941</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>917045</v>
+        <v>919104</v>
       </c>
       <c r="E241" t="n">
-        <v>917045</v>
+        <v>919104</v>
       </c>
       <c r="F241" t="n">
-        <v>4.040476305756417</v>
+        <v>3.821921293070591</v>
       </c>
       <c r="G241" t="n">
-        <v>5.323689490162714</v>
+        <v>46.84575408496333</v>
       </c>
       <c r="H241" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="I241" t="n">
-        <v>12346.53</v>
+        <v>12482</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>115861</v>
+        <v>116471</v>
       </c>
       <c r="E242" t="n">
-        <v>115861</v>
+        <v>116471</v>
       </c>
       <c r="F242" t="n">
-        <v>158.0516791522505</v>
+        <v>2.789531978813045</v>
       </c>
       <c r="G242" t="n">
-        <v>11.18477478464526</v>
+        <v>158.9221122182199</v>
       </c>
       <c r="H242" t="n">
-        <v>0.46</v>
+        <v>0.08</v>
       </c>
       <c r="I242" t="n">
-        <v>39248</v>
+        <v>38921</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3501253</v>
+        <v>3503238</v>
       </c>
       <c r="E243" t="n">
-        <v>5029615</v>
+        <v>5032466</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>442.9071493131177</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>441.290883798377</v>
       </c>
       <c r="H243" t="n">
-        <v>4.18</v>
+        <v>1.79</v>
       </c>
       <c r="I243" t="n">
-        <v>142687</v>
+        <v>141600</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>319861095</v>
+        <v>323931519</v>
       </c>
       <c r="E244" t="n">
-        <v>591815969</v>
+        <v>599347182</v>
       </c>
       <c r="F244" t="n">
-        <v>17812.40268615635</v>
+        <v>32098.1705352246</v>
       </c>
       <c r="G244" t="n">
-        <v>28252.43397960076</v>
+        <v>34363.94048573905</v>
       </c>
       <c r="H244" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>14111941</v>
+        <v>14286207</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>72216046</v>
+        <v>73723434</v>
       </c>
       <c r="E245" t="n">
-        <v>688889577</v>
+        <v>703261890</v>
       </c>
       <c r="F245" t="n">
-        <v>48509.39863677719</v>
+        <v>40391.91794094451</v>
       </c>
       <c r="G245" t="n">
-        <v>74776.82044471262</v>
+        <v>50318.8066247614</v>
       </c>
       <c r="H245" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>22350754</v>
+        <v>22568825</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>82375</v>
+        <v>83095</v>
       </c>
       <c r="E246" t="n">
-        <v>684798</v>
+        <v>690787</v>
       </c>
       <c r="F246" t="n">
-        <v>3.939682524377388</v>
+        <v>105.8879020896713</v>
       </c>
       <c r="G246" t="n">
-        <v>65.22345469530674</v>
+        <v>63.35025267852559</v>
       </c>
       <c r="H246" t="n">
-        <v>0.73</v>
+        <v>0.43</v>
       </c>
       <c r="I246" t="n">
-        <v>15.81</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1891141</v>
+        <v>1907889</v>
       </c>
       <c r="E247" t="n">
-        <v>5400856</v>
+        <v>5448687</v>
       </c>
       <c r="F247" t="n">
-        <v>282.38056272609</v>
+        <v>280.0782585840641</v>
       </c>
       <c r="G247" t="n">
-        <v>268.7382652813448</v>
+        <v>261.3845291302333</v>
       </c>
       <c r="H247" t="n">
         <v>0.27</v>
       </c>
       <c r="I247" t="n">
-        <v>68157</v>
+        <v>70724</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>37939228</v>
+        <v>38174991</v>
       </c>
       <c r="E248" t="n">
-        <v>49602302</v>
+        <v>49910523</v>
       </c>
       <c r="F248" t="n">
-        <v>1021.530185846194</v>
+        <v>1087.468870031112</v>
       </c>
       <c r="G248" t="n">
-        <v>4264.292700131737</v>
+        <v>372.3549082454367</v>
       </c>
       <c r="H248" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="I248" t="n">
-        <v>350539</v>
+        <v>559090</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>11290934</v>
+        <v>11643584</v>
       </c>
       <c r="E249" t="n">
-        <v>33494908</v>
+        <v>34541056</v>
       </c>
       <c r="F249" t="n">
-        <v>913.335037050467</v>
+        <v>874.8815478010659</v>
       </c>
       <c r="G249" t="n">
-        <v>2255.674017733588</v>
+        <v>2056.751036941013</v>
       </c>
       <c r="H249" t="n">
-        <v>0.37</v>
+        <v>0.79</v>
       </c>
       <c r="I249" t="n">
-        <v>7388180</v>
+        <v>7434432</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1981080</v>
+        <v>1995666</v>
       </c>
       <c r="E250" t="n">
-        <v>5747750</v>
+        <v>5772965</v>
       </c>
       <c r="F250" t="n">
-        <v>43.02674973891114</v>
+        <v>143.9145739609387</v>
       </c>
       <c r="G250" t="n">
-        <v>183.30728416687</v>
+        <v>169.6270848321037</v>
       </c>
       <c r="H250" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I250" t="n">
-        <v>47810</v>
+        <v>46046</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7380913</v>
+        <v>7381089</v>
       </c>
       <c r="E251" t="n">
-        <v>7380924</v>
+        <v>7381100</v>
       </c>
       <c r="F251" t="n">
-        <v>2296.006848961819</v>
+        <v>2726.811025925448</v>
       </c>
       <c r="G251" t="n">
-        <v>1664.007541732498</v>
+        <v>1354.089728043755</v>
       </c>
       <c r="H251" t="n">
-        <v>0.73</v>
+        <v>0.24</v>
       </c>
       <c r="I251" t="n">
-        <v>321463</v>
+        <v>321786</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6483632</v>
+        <v>6599833</v>
       </c>
       <c r="E252" t="n">
-        <v>6483632</v>
+        <v>6599833</v>
       </c>
       <c r="F252" t="n">
-        <v>6.444495581824107</v>
+        <v>5.381448272773699</v>
       </c>
       <c r="G252" t="n">
-        <v>1462.666202971686</v>
+        <v>1147.161903498677</v>
       </c>
       <c r="H252" t="n">
         <v>0.31</v>
       </c>
       <c r="I252" t="n">
-        <v>499518</v>
+        <v>510707</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6246646</v>
+        <v>6284876</v>
       </c>
       <c r="E253" t="n">
-        <v>22816579</v>
+        <v>22956221</v>
       </c>
       <c r="F253" t="n">
-        <v>489.1884790576121</v>
+        <v>59.54444520672642</v>
       </c>
       <c r="G253" t="n">
-        <v>152.579405128073</v>
+        <v>224.6752678752226</v>
       </c>
       <c r="H253" t="n">
-        <v>2.57</v>
+        <v>1.77</v>
       </c>
       <c r="I253" t="n">
-        <v>506689</v>
+        <v>510692</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2150638</v>
+        <v>2176884</v>
       </c>
       <c r="E254" t="n">
-        <v>18970057</v>
+        <v>19201560</v>
       </c>
       <c r="F254" t="n">
-        <v>1.100479998642905</v>
+        <v>1.100432315731178</v>
       </c>
       <c r="G254" t="n">
-        <v>1489.46698559574</v>
+        <v>271.9138005665858</v>
       </c>
       <c r="H254" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="I254" t="n">
-        <v>79639</v>
+        <v>84356</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14533423</v>
+        <v>14550517</v>
       </c>
       <c r="E255" t="n">
-        <v>29422027</v>
+        <v>29456633</v>
       </c>
       <c r="F255" t="n">
-        <v>95.75073145110477</v>
+        <v>95.74474196589679</v>
       </c>
       <c r="G255" t="n">
-        <v>278.7226694635347</v>
+        <v>160.5976419389231</v>
       </c>
       <c r="H255" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="I255" t="n">
-        <v>565353</v>
+        <v>558627</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>45209455</v>
+        <v>46054206</v>
       </c>
       <c r="E256" t="n">
-        <v>45209455</v>
+        <v>46054206</v>
       </c>
       <c r="F256" t="n">
-        <v>6719.459257605949</v>
+        <v>5619.900331092795</v>
       </c>
       <c r="G256" t="n">
-        <v>4722.636498569902</v>
+        <v>1182.269850738174</v>
       </c>
       <c r="H256" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="I256" t="n">
-        <v>8541748</v>
+        <v>8505211</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8368129</v>
+        <v>8377887</v>
       </c>
       <c r="E257" t="n">
-        <v>11922666</v>
+        <v>11936570</v>
       </c>
       <c r="F257" t="n">
-        <v>77.14873569237177</v>
+        <v>71.71794330111958</v>
       </c>
       <c r="G257" t="n">
-        <v>163.4329041373981</v>
+        <v>1103.459781584734</v>
       </c>
       <c r="H257" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I257" t="n">
-        <v>393305</v>
+        <v>392205</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>151343999</v>
+        <v>151323453</v>
       </c>
       <c r="F258" t="n">
-        <v>422.9918643329128</v>
+        <v>275.9884233278561</v>
       </c>
       <c r="G258" t="n">
-        <v>166.0135276624407</v>
+        <v>61.19158373183326</v>
       </c>
       <c r="H258" t="n">
-        <v>2.59</v>
+        <v>2.21</v>
       </c>
       <c r="I258" t="n">
-        <v>1447330</v>
+        <v>1487042</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16436066</v>
+        <v>16616535</v>
       </c>
       <c r="F259" t="n">
-        <v>114.3409833351746</v>
+        <v>114.3416289869486</v>
       </c>
       <c r="G259" t="n">
-        <v>123.6729204600348</v>
+        <v>123.6736188066657</v>
       </c>
       <c r="H259" t="n">
         <v>0.84</v>
       </c>
       <c r="I259" t="n">
-        <v>1008745</v>
+        <v>1013128</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>725883</v>
+        <v>727583</v>
       </c>
       <c r="F260" t="n">
-        <v>9.631590022428359</v>
+        <v>4.999840824718828</v>
       </c>
       <c r="G260" t="n">
-        <v>3.515316799702679</v>
+        <v>3.515314503575363</v>
       </c>
       <c r="H260" t="n">
         <v>1.97</v>
       </c>
       <c r="I260" t="n">
-        <v>198278</v>
+        <v>209452</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3000103</v>
+        <v>3000966</v>
       </c>
       <c r="F261" t="n">
-        <v>40.29350994100663</v>
+        <v>40.16690649830119</v>
       </c>
       <c r="G261" t="n">
-        <v>48.41842375107802</v>
+        <v>48.31600710216414</v>
       </c>
       <c r="H261" t="n">
         <v>0.53</v>
       </c>
       <c r="I261" t="n">
-        <v>70815</v>
+        <v>70905</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2854643</v>
+        <v>2866780</v>
       </c>
       <c r="E262" t="n">
-        <v>2857115</v>
+        <v>2869263</v>
       </c>
       <c r="F262" t="n">
-        <v>4.031968910908411</v>
+        <v>4.051125398272939</v>
       </c>
       <c r="G262" t="n">
-        <v>96.22151354477272</v>
+        <v>397.5375060375319</v>
       </c>
       <c r="H262" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I262" t="n">
-        <v>110266</v>
+        <v>108989</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>62579413</v>
+        <v>62896431</v>
       </c>
       <c r="E263" t="n">
-        <v>103531349</v>
+        <v>104055824</v>
       </c>
       <c r="F263" t="n">
-        <v>7698.044139244121</v>
+        <v>7550.870540662297</v>
       </c>
       <c r="G263" t="n">
-        <v>22915.49619106015</v>
+        <v>26967.7173262843</v>
       </c>
       <c r="H263" t="n">
         <v>0.1</v>
       </c>
       <c r="I263" t="n">
-        <v>6616785</v>
+        <v>6619104</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>686031</v>
+        <v>686687</v>
       </c>
       <c r="F264" t="n">
-        <v>289.3646001603201</v>
+        <v>255.3936099128263</v>
       </c>
       <c r="G264" t="n">
-        <v>135.0172287792558</v>
+        <v>141.2034637481416</v>
       </c>
       <c r="H264" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="I264" t="n">
-        <v>674953</v>
+        <v>675024</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1262406</v>
+        <v>1270553</v>
       </c>
       <c r="E265" t="n">
-        <v>3813954</v>
+        <v>3838872</v>
       </c>
       <c r="F265" t="n">
-        <v>57.34917667082891</v>
+        <v>57.28973167923978</v>
       </c>
       <c r="G265" t="n">
-        <v>949.4460509011162</v>
+        <v>949.2880743982099</v>
       </c>
       <c r="H265" t="n">
         <v>0.27</v>
       </c>
       <c r="I265" t="n">
-        <v>14710.63</v>
+        <v>15239.72</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>39061817</v>
+        <v>39942501</v>
       </c>
       <c r="E266" t="n">
-        <v>276941909</v>
+        <v>283185817</v>
       </c>
       <c r="F266" t="n">
-        <v>64601.97247591124</v>
+        <v>52038.59103661303</v>
       </c>
       <c r="G266" t="n">
-        <v>27654.91446256547</v>
+        <v>30311.04267364956</v>
       </c>
       <c r="H266" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I266" t="n">
-        <v>1628118</v>
+        <v>1753266</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>60295</v>
+        <v>58729</v>
       </c>
       <c r="E267" t="n">
-        <v>314594</v>
+        <v>306426</v>
       </c>
       <c r="F267" t="n">
-        <v>2.646625357407156</v>
+        <v>188.0597821094605</v>
       </c>
       <c r="G267" t="n">
-        <v>2.62195592524637</v>
+        <v>3.952653610262435</v>
       </c>
       <c r="H267" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="I267" t="n">
-        <v>288481</v>
+        <v>279185</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1275528</v>
+        <v>1276567</v>
       </c>
       <c r="E268" t="n">
-        <v>7909583</v>
+        <v>7916023</v>
       </c>
       <c r="F268" t="n">
-        <v>2336.092106616365</v>
+        <v>2260.975564104646</v>
       </c>
       <c r="G268" t="n">
-        <v>2144.435761063126</v>
+        <v>2531.689027693648</v>
       </c>
       <c r="H268" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I268" t="n">
-        <v>779449</v>
+        <v>784519</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>618868067</v>
+        <v>625414746</v>
       </c>
       <c r="E269" t="n">
-        <v>2396784714</v>
+        <v>2422139038</v>
       </c>
       <c r="F269" t="n">
-        <v>195479.2961312271</v>
+        <v>164623.2654950153</v>
       </c>
       <c r="G269" t="n">
-        <v>280927.4935709923</v>
+        <v>202306.0062580686</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>33580035</v>
+        <v>35570998</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3296057</v>
+        <v>3299255</v>
       </c>
       <c r="F270" t="n">
-        <v>399.5751439967034</v>
+        <v>211.3162368297671</v>
       </c>
       <c r="G270" t="n">
-        <v>148.9904876776696</v>
+        <v>62.5488156303587</v>
       </c>
       <c r="H270" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="I270" t="n">
-        <v>33941</v>
+        <v>34028</v>
       </c>
     </row>
     <row r="271">
@@ -9885,19 +9885,19 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>716456</v>
+        <v>760485</v>
       </c>
       <c r="F271" t="n">
-        <v>28.00794707496896</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>208.5929915606788</v>
+        <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>3.29</v>
+        <v>4.12</v>
       </c>
       <c r="I271" t="n">
-        <v>156694</v>
+        <v>154589</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5892670</v>
+        <v>5913704</v>
       </c>
       <c r="E272" t="n">
-        <v>26378120</v>
+        <v>26472276</v>
       </c>
       <c r="F272" t="n">
-        <v>137.7581044165153</v>
+        <v>159.8035164926405</v>
       </c>
       <c r="G272" t="n">
-        <v>466.9088585142241</v>
+        <v>464.821446645238</v>
       </c>
       <c r="H272" t="n">
         <v>0.54</v>
       </c>
       <c r="I272" t="n">
-        <v>149502</v>
+        <v>148932</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6771002</v>
+        <v>6769120</v>
       </c>
       <c r="E273" t="n">
-        <v>12963633</v>
+        <v>12960028</v>
       </c>
       <c r="F273" t="n">
-        <v>4878.246019011092</v>
+        <v>4754.748941391775</v>
       </c>
       <c r="G273" t="n">
-        <v>2124.262156045694</v>
+        <v>2090.035490827329</v>
       </c>
       <c r="H273" t="n">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="I273" t="n">
-        <v>123507</v>
+        <v>102568</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3249238</v>
+        <v>3245699</v>
       </c>
       <c r="E274" t="n">
-        <v>21366229</v>
+        <v>21342963</v>
       </c>
       <c r="F274" t="n">
-        <v>11.03455193760897</v>
+        <v>114.7551381901424</v>
       </c>
       <c r="G274" t="n">
-        <v>175.7592788677081</v>
+        <v>209.8463484134528</v>
       </c>
       <c r="H274" t="n">
-        <v>0.9</v>
+        <v>0.39</v>
       </c>
       <c r="I274" t="n">
-        <v>1653458</v>
+        <v>1451987</v>
       </c>
     </row>
     <row r="275">
@@ -10022,10 +10022,10 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3713046</v>
+        <v>3719605</v>
       </c>
       <c r="E275" t="n">
-        <v>6329390</v>
+        <v>6340571</v>
       </c>
       <c r="F275" t="n">
         <v>646.8669418825517</v>
@@ -10037,7 +10037,7 @@
         <v>0.63</v>
       </c>
       <c r="I275" t="n">
-        <v>1115639</v>
+        <v>1122437</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>439653</v>
+        <v>441940</v>
       </c>
       <c r="E276" t="n">
-        <v>439653</v>
+        <v>441940</v>
       </c>
       <c r="F276" t="n">
-        <v>21.07971761039941</v>
+        <v>21.11801135966371</v>
       </c>
       <c r="G276" t="n">
-        <v>286.5184953434007</v>
+        <v>27.66611928703552</v>
       </c>
       <c r="H276" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="I276" t="n">
-        <v>260.45</v>
+        <v>264.19</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7231863</v>
+        <v>7346576</v>
       </c>
       <c r="E277" t="n">
-        <v>10361909</v>
+        <v>10526247</v>
       </c>
       <c r="F277" t="n">
-        <v>1699.372537295809</v>
+        <v>634.0423451381589</v>
       </c>
       <c r="G277" t="n">
-        <v>615.485100071279</v>
+        <v>1513.553694856119</v>
       </c>
       <c r="H277" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>192413</v>
+        <v>195364</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>115316696</v>
+        <v>115652938</v>
       </c>
       <c r="E278" t="n">
-        <v>1071440619</v>
+        <v>1074564740</v>
       </c>
       <c r="F278" t="n">
-        <v>9282.629181669899</v>
+        <v>8387.209516515317</v>
       </c>
       <c r="G278" t="n">
-        <v>11775.68864102277</v>
+        <v>10212.50541082274</v>
       </c>
       <c r="H278" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I278" t="n">
-        <v>9275363</v>
+        <v>9587277</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>117211926</v>
+        <v>118556572</v>
       </c>
       <c r="E279" t="n">
-        <v>178809540</v>
+        <v>180860830</v>
       </c>
       <c r="F279" t="n">
-        <v>46068.63991843423</v>
+        <v>46371.42544319904</v>
       </c>
       <c r="G279" t="n">
-        <v>54865.18765712012</v>
+        <v>50134.50641399915</v>
       </c>
       <c r="H279" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="I279" t="n">
-        <v>7975144</v>
+        <v>8486962</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>17685776</v>
+        <v>17829472</v>
       </c>
       <c r="E280" t="n">
-        <v>24263353</v>
+        <v>24460491</v>
       </c>
       <c r="F280" t="n">
-        <v>2240.23218746926</v>
+        <v>3586.66518382047</v>
       </c>
       <c r="G280" t="n">
-        <v>1013.086184011969</v>
+        <v>554.5975054183563</v>
       </c>
       <c r="H280" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I280" t="n">
-        <v>546633</v>
+        <v>660365</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5549301</v>
+        <v>5687593</v>
       </c>
       <c r="E281" t="n">
-        <v>5549301</v>
+        <v>5687593</v>
       </c>
       <c r="F281" t="n">
-        <v>14.60032971086832</v>
+        <v>8.429277816471991</v>
       </c>
       <c r="G281" t="n">
-        <v>36.95617680907246</v>
+        <v>828.43225120639</v>
       </c>
       <c r="H281" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I281" t="n">
-        <v>692391</v>
+        <v>722621</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>125389023</v>
+        <v>128311819</v>
       </c>
       <c r="E282" t="n">
-        <v>481012476</v>
+        <v>492224788</v>
       </c>
       <c r="F282" t="n">
-        <v>27267.28801970677</v>
+        <v>24446.34766568932</v>
       </c>
       <c r="G282" t="n">
-        <v>57365.30560246421</v>
+        <v>31340.33643977228</v>
       </c>
       <c r="H282" t="n">
         <v>0.02</v>
       </c>
       <c r="I282" t="n">
-        <v>32034482</v>
+        <v>33774348</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>665759</v>
+        <v>664303</v>
       </c>
       <c r="F283" t="n">
-        <v>4.065383967782813</v>
+        <v>4.065336714280472</v>
       </c>
       <c r="G283" t="n">
-        <v>3.922497866296299</v>
+        <v>3.922452273613399</v>
       </c>
       <c r="H283" t="n">
         <v>0.75</v>
       </c>
       <c r="I283" t="n">
-        <v>43952</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3237971</v>
+        <v>3251031</v>
       </c>
       <c r="E284" t="n">
-        <v>30680255</v>
+        <v>30804001</v>
       </c>
       <c r="F284" t="n">
-        <v>1288.556449608743</v>
+        <v>820.7655134028723</v>
       </c>
       <c r="G284" t="n">
-        <v>1103.639839241883</v>
+        <v>1027.646080807559</v>
       </c>
       <c r="H284" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I284" t="n">
-        <v>223508</v>
+        <v>274576</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>85079</v>
+        <v>85389</v>
       </c>
       <c r="F285" t="n">
-        <v>607.1970938448144</v>
+        <v>646.1152057863984</v>
       </c>
       <c r="G285" t="n">
-        <v>30.72858707222074</v>
+        <v>71.8423054079263</v>
       </c>
       <c r="H285" t="n">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="I285" t="n">
-        <v>15392.33</v>
+        <v>16554.89</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>132129</v>
+        <v>133324</v>
       </c>
       <c r="F286" t="n">
-        <v>4.057180223117802</v>
+        <v>5.367602915959004</v>
       </c>
       <c r="G286" t="n">
-        <v>3.945497721879121</v>
+        <v>4.235416551262936</v>
       </c>
       <c r="H286" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="I286" t="n">
-        <v>88802</v>
+        <v>87328</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21200840</v>
+        <v>21737744</v>
       </c>
       <c r="E287" t="n">
-        <v>21200840</v>
+        <v>21737744</v>
       </c>
       <c r="F287" t="n">
-        <v>1129.3909000516</v>
+        <v>1787.696852837807</v>
       </c>
       <c r="G287" t="n">
-        <v>7230.667626459741</v>
+        <v>1088.527760702544</v>
       </c>
       <c r="H287" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I287" t="n">
-        <v>692846</v>
+        <v>712302</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>554919</v>
+        <v>569876</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>1939.86</v>
+        <v>2352.88</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6708999</v>
+        <v>6931384</v>
       </c>
       <c r="E289" t="n">
-        <v>41929323</v>
+        <v>43319169</v>
       </c>
       <c r="F289" t="n">
-        <v>209.1120051759249</v>
+        <v>223.7516719651451</v>
       </c>
       <c r="G289" t="n">
-        <v>850.1364517605626</v>
+        <v>369.7499643333978</v>
       </c>
       <c r="H289" t="n">
-        <v>0.05</v>
+        <v>2.08</v>
       </c>
       <c r="I289" t="n">
-        <v>425670</v>
+        <v>450396</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494434648</v>
+        <v>496215410</v>
       </c>
       <c r="E290" t="n">
-        <v>494434648</v>
+        <v>496215410</v>
       </c>
       <c r="F290" t="n">
-        <v>1097984.393387241</v>
+        <v>1236484.722336621</v>
       </c>
       <c r="G290" t="n">
-        <v>1787940.169324635</v>
+        <v>1805648.32793758</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>32878807</v>
+        <v>33294256</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5273288</v>
+        <v>5314123</v>
       </c>
       <c r="E291" t="n">
-        <v>19636644</v>
+        <v>19747382</v>
       </c>
       <c r="F291" t="n">
-        <v>3809.213371650803</v>
+        <v>3669.380782513553</v>
       </c>
       <c r="G291" t="n">
-        <v>2360.350879337712</v>
+        <v>2259.729089809057</v>
       </c>
       <c r="H291" t="n">
         <v>0.15</v>
       </c>
       <c r="I291" t="n">
-        <v>77042</v>
+        <v>73197</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>32560363</v>
+        <v>34852798</v>
       </c>
       <c r="F292" t="n">
-        <v>14890.16744468852</v>
+        <v>10087.59744043914</v>
       </c>
       <c r="G292" t="n">
-        <v>10019.43173398434</v>
+        <v>6604.779939847924</v>
       </c>
       <c r="H292" t="n">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I292" t="n">
-        <v>5571446</v>
+        <v>5976134</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31525106</v>
+        <v>31460761</v>
       </c>
       <c r="E293" t="n">
-        <v>112997337</v>
+        <v>112766702</v>
       </c>
       <c r="F293" t="n">
-        <v>2754.662562576669</v>
+        <v>2754.555998236814</v>
       </c>
       <c r="G293" t="n">
-        <v>4240.788785500918</v>
+        <v>4240.624730250184</v>
       </c>
       <c r="H293" t="n">
         <v>0.55</v>
       </c>
       <c r="I293" t="n">
-        <v>84279</v>
+        <v>84369</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>733140</v>
+        <v>734128</v>
       </c>
       <c r="E294" t="n">
-        <v>11693324</v>
+        <v>11709083</v>
       </c>
       <c r="F294" t="n">
-        <v>15.25903316010551</v>
+        <v>15.25844286319668</v>
       </c>
       <c r="G294" t="n">
-        <v>1.624738841528188</v>
+        <v>1.624675988377158</v>
       </c>
       <c r="H294" t="n">
         <v>2.73</v>
       </c>
       <c r="I294" t="n">
-        <v>270612</v>
+        <v>272477</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>85088</v>
+        <v>82799</v>
       </c>
       <c r="F295" t="n">
-        <v>90.42148993914722</v>
+        <v>13.41050732965956</v>
       </c>
       <c r="G295" t="n">
-        <v>44.43300236214162</v>
+        <v>203.9366811034805</v>
       </c>
       <c r="H295" t="n">
-        <v>1.01</v>
+        <v>0.61</v>
       </c>
       <c r="I295" t="n">
-        <v>55593</v>
+        <v>54317</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1571439</v>
+        <v>1570588</v>
       </c>
       <c r="F296" t="n">
-        <v>3.871843138665559</v>
+        <v>5.414826983514324</v>
       </c>
       <c r="G296" t="n">
-        <v>3.95825027847741</v>
+        <v>2.97771516798309</v>
       </c>
       <c r="H296" t="n">
-        <v>1.1</v>
+        <v>0.67</v>
       </c>
       <c r="I296" t="n">
-        <v>606789</v>
+        <v>605480</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2678545262</v>
+        <v>2721737630</v>
       </c>
       <c r="E297" t="n">
-        <v>2843918103</v>
+        <v>2889777158</v>
       </c>
       <c r="F297" t="n">
-        <v>39898.00089257246</v>
+        <v>52924.24340866751</v>
       </c>
       <c r="G297" t="n">
-        <v>46073.62900329596</v>
+        <v>46989.61376164704</v>
       </c>
       <c r="H297" t="n">
         <v>0.21</v>
       </c>
       <c r="I297" t="n">
-        <v>35025683</v>
+        <v>42364180</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2202328</v>
+        <v>2211711</v>
       </c>
       <c r="E298" t="n">
-        <v>16939680</v>
+        <v>17011857</v>
       </c>
       <c r="F298" t="n">
-        <v>4056.009490561598</v>
+        <v>4062.03182440829</v>
       </c>
       <c r="G298" t="n">
-        <v>4050.990949071755</v>
+        <v>4053.138102755818</v>
       </c>
       <c r="H298" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="I298" t="n">
-        <v>169090</v>
+        <v>177928</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1724394</v>
+        <v>1751788</v>
       </c>
       <c r="E299" t="n">
-        <v>1730481</v>
+        <v>1757971</v>
       </c>
       <c r="F299" t="n">
-        <v>1045.750206046786</v>
+        <v>332.9169842182999</v>
       </c>
       <c r="G299" t="n">
-        <v>793.6086906573391</v>
+        <v>2051.331233463428</v>
       </c>
       <c r="H299" t="n">
-        <v>1.12</v>
+        <v>0.92</v>
       </c>
       <c r="I299" t="n">
-        <v>442556</v>
+        <v>453405</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>89001938</v>
+        <v>89182590</v>
       </c>
       <c r="E300" t="n">
-        <v>328999525</v>
+        <v>329666806</v>
       </c>
       <c r="F300" t="n">
-        <v>4845.889487234436</v>
+        <v>4923.678867593673</v>
       </c>
       <c r="G300" t="n">
-        <v>1020.811657154899</v>
+        <v>922.8018525947804</v>
       </c>
       <c r="H300" t="n">
-        <v>0.55</v>
+        <v>0.42</v>
       </c>
       <c r="I300" t="n">
-        <v>231104</v>
+        <v>234683</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2271792</v>
+        <v>2303379</v>
       </c>
       <c r="E301" t="n">
-        <v>9108027</v>
+        <v>9234667</v>
       </c>
       <c r="F301" t="n">
-        <v>4.094843510837284</v>
+        <v>519.6510815668635</v>
       </c>
       <c r="G301" t="n">
-        <v>379.5347717770871</v>
+        <v>5.577668580446397</v>
       </c>
       <c r="H301" t="n">
-        <v>0.55</v>
+        <v>0.87</v>
       </c>
       <c r="I301" t="n">
-        <v>41106</v>
+        <v>28097</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>61555278</v>
+        <v>63055763</v>
       </c>
       <c r="E302" t="n">
-        <v>150990924</v>
+        <v>154671513</v>
       </c>
       <c r="F302" t="n">
-        <v>2239.986900343114</v>
+        <v>2337.978544360885</v>
       </c>
       <c r="G302" t="n">
-        <v>1913.82789544357</v>
+        <v>2094.176639478863</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="I302" t="n">
-        <v>22532235</v>
+        <v>22745116</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>802233169</v>
+        <v>835348539</v>
       </c>
       <c r="E303" t="n">
-        <v>1237114377</v>
+        <v>1288181202</v>
       </c>
       <c r="F303" t="n">
-        <v>35928.69504289413</v>
+        <v>40432.15402011048</v>
       </c>
       <c r="G303" t="n">
-        <v>47157.1812309827</v>
+        <v>24285.49722060846</v>
       </c>
       <c r="H303" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I303" t="n">
-        <v>254217398</v>
+        <v>266498281</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20225514</v>
+        <v>20021232</v>
       </c>
       <c r="E304" t="n">
-        <v>20225514</v>
+        <v>20021233</v>
       </c>
       <c r="F304" t="n">
-        <v>4302.918045827456</v>
+        <v>3510.011839717904</v>
       </c>
       <c r="G304" t="n">
-        <v>3242.592326251728</v>
+        <v>2860.634476104606</v>
       </c>
       <c r="H304" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I304" t="n">
-        <v>7062840</v>
+        <v>7056965</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1817050</v>
+        <v>1820397</v>
       </c>
       <c r="E305" t="n">
-        <v>2981470</v>
+        <v>2986962</v>
       </c>
       <c r="F305" t="n">
-        <v>545.7593982757149</v>
+        <v>746.2423279084099</v>
       </c>
       <c r="G305" t="n">
-        <v>35.03786850799197</v>
+        <v>35.03635034537815</v>
       </c>
       <c r="H305" t="n">
         <v>0.77</v>
       </c>
       <c r="I305" t="n">
-        <v>180584</v>
+        <v>176353</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5779314</v>
+        <v>5877221</v>
       </c>
       <c r="E306" t="n">
-        <v>5779314</v>
+        <v>5877221</v>
       </c>
       <c r="F306" t="n">
-        <v>41.28909305722537</v>
+        <v>41.59129960261555</v>
       </c>
       <c r="G306" t="n">
-        <v>4.056958329305805</v>
+        <v>5.441001189891796</v>
       </c>
       <c r="H306" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="I306" t="n">
-        <v>568.0700000000001</v>
+        <v>417.68</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39885758</v>
+        <v>39962152</v>
       </c>
       <c r="E307" t="n">
-        <v>190222761</v>
+        <v>190583639</v>
       </c>
       <c r="F307" t="n">
-        <v>1091.809526127252</v>
+        <v>1208.12780792114</v>
       </c>
       <c r="G307" t="n">
-        <v>757.1486013188717</v>
+        <v>773.3460866907583</v>
       </c>
       <c r="H307" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="I307" t="n">
-        <v>294534</v>
+        <v>298053</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>388336</v>
+        <v>407358</v>
       </c>
       <c r="E308" t="n">
-        <v>726298</v>
+        <v>761875</v>
       </c>
       <c r="F308" t="n">
-        <v>722.9797122626582</v>
+        <v>17.75535007895424</v>
       </c>
       <c r="G308" t="n">
-        <v>107.3924010400982</v>
+        <v>4.184933032625223</v>
       </c>
       <c r="H308" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="I308" t="n">
-        <v>848.6799999999999</v>
+        <v>2127.87</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23487117</v>
+        <v>23521118</v>
       </c>
       <c r="E309" t="n">
-        <v>39145195</v>
+        <v>39201862</v>
       </c>
       <c r="F309" t="n">
-        <v>5384.300808975782</v>
+        <v>4576.36142185721</v>
       </c>
       <c r="G309" t="n">
-        <v>1405.255121233127</v>
+        <v>5506.454150048407</v>
       </c>
       <c r="H309" t="n">
-        <v>0.51</v>
+        <v>0.25</v>
       </c>
       <c r="I309" t="n">
-        <v>473411</v>
+        <v>490508</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>110016</v>
+        <v>110346</v>
       </c>
       <c r="F310" t="n">
-        <v>14.87148521486214</v>
+        <v>14.87124955652202</v>
       </c>
       <c r="G310" t="n">
-        <v>84.13543448497758</v>
+        <v>84.09079075447607</v>
       </c>
       <c r="H310" t="n">
         <v>0.18</v>
       </c>
       <c r="I310" t="n">
-        <v>50263</v>
+        <v>50417</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>23752929</v>
+        <v>24477637</v>
       </c>
       <c r="E311" t="n">
-        <v>23752929</v>
+        <v>24477637</v>
       </c>
       <c r="F311" t="n">
-        <v>4945.493353464672</v>
+        <v>3432.607442468862</v>
       </c>
       <c r="G311" t="n">
-        <v>7486.967318167692</v>
+        <v>2542.676250219423</v>
       </c>
       <c r="H311" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="I311" t="n">
-        <v>5768764</v>
+        <v>5964491</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3808904</v>
+        <v>3825035</v>
       </c>
       <c r="E312" t="n">
-        <v>8310979</v>
+        <v>8346176</v>
       </c>
       <c r="F312" t="n">
-        <v>1688.37533558326</v>
+        <v>1840.826030845502</v>
       </c>
       <c r="G312" t="n">
-        <v>1833.619963246675</v>
+        <v>1710.276757730374</v>
       </c>
       <c r="H312" t="n">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="I312" t="n">
-        <v>1761497</v>
+        <v>1816722</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9254976</v>
+        <v>9267456</v>
       </c>
       <c r="E313" t="n">
-        <v>9254976</v>
+        <v>9267456</v>
       </c>
       <c r="F313" t="n">
-        <v>15456.79831061416</v>
+        <v>15333.47387338753</v>
       </c>
       <c r="G313" t="n">
-        <v>113171.6644576757</v>
+        <v>112983.2262632602</v>
       </c>
       <c r="H313" t="n">
         <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>768231</v>
+        <v>865763</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>501151441</v>
+        <v>510452059</v>
       </c>
       <c r="E314" t="n">
-        <v>1744466458</v>
+        <v>1776841137</v>
       </c>
       <c r="F314" t="n">
-        <v>450830.0472537767</v>
+        <v>350640.2356059545</v>
       </c>
       <c r="G314" t="n">
-        <v>450324.160567939</v>
+        <v>490264.8602919155</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>31705938</v>
+        <v>33775939</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24103017</v>
+        <v>24788239</v>
       </c>
       <c r="E315" t="n">
-        <v>24082080</v>
+        <v>24766707</v>
       </c>
       <c r="F315" t="n">
-        <v>172.8338279699464</v>
+        <v>112.2628800507658</v>
       </c>
       <c r="G315" t="n">
-        <v>791.6106731703103</v>
+        <v>726.689564744391</v>
       </c>
       <c r="H315" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="I315" t="n">
-        <v>83580</v>
+        <v>158147</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48864300</v>
+        <v>49028462</v>
       </c>
       <c r="E316" t="n">
-        <v>120315507</v>
+        <v>120690215</v>
       </c>
       <c r="F316" t="n">
-        <v>496.9453962893386</v>
+        <v>979.1052349831996</v>
       </c>
       <c r="G316" t="n">
-        <v>1038.519433899672</v>
+        <v>1941.693384393945</v>
       </c>
       <c r="H316" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="I316" t="n">
-        <v>24703</v>
+        <v>25775</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12231890</v>
+        <v>12270531</v>
       </c>
       <c r="E317" t="n">
-        <v>24729005</v>
+        <v>24805841</v>
       </c>
       <c r="F317" t="n">
-        <v>360.9176570686758</v>
+        <v>360.8030771061468</v>
       </c>
       <c r="G317" t="n">
-        <v>2632.629396867343</v>
+        <v>2658.120862108876</v>
       </c>
       <c r="H317" t="n">
         <v>0.23</v>
       </c>
       <c r="I317" t="n">
-        <v>41974</v>
+        <v>43576</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7465323</v>
+        <v>7496390</v>
       </c>
       <c r="E318" t="n">
-        <v>19394107</v>
+        <v>19474814</v>
       </c>
       <c r="F318" t="n">
-        <v>300.0803712335725</v>
+        <v>300.0694259225227</v>
       </c>
       <c r="G318" t="n">
-        <v>172.7764485832553</v>
+        <v>136.2149995640171</v>
       </c>
       <c r="H318" t="n">
         <v>0.15</v>
       </c>
       <c r="I318" t="n">
-        <v>716528</v>
+        <v>717309</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>152924</v>
+        <v>152735</v>
       </c>
       <c r="F319" t="n">
-        <v>221.6787299676936</v>
+        <v>261.4512450984818</v>
       </c>
       <c r="G319" t="n">
-        <v>13.87719425559491</v>
+        <v>13.85440754157145</v>
       </c>
       <c r="H319" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="I319" t="n">
-        <v>58667</v>
+        <v>57766</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19208860870</v>
+        <v>19170200281</v>
       </c>
       <c r="F320" t="n">
-        <v>51858.39172070795</v>
+        <v>51836.09703434961</v>
       </c>
       <c r="G320" t="n">
-        <v>49646.87783033388</v>
+        <v>49952.96025386998</v>
       </c>
       <c r="H320" t="n">
         <v>0.53</v>
       </c>
       <c r="I320" t="n">
-        <v>46073720</v>
+        <v>45768995</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>106973999</v>
+        <v>111340544</v>
       </c>
       <c r="E321" t="n">
-        <v>162077968</v>
+        <v>168693789</v>
       </c>
       <c r="F321" t="n">
-        <v>15698.0731491867</v>
+        <v>20618.45816977588</v>
       </c>
       <c r="G321" t="n">
-        <v>19179.59966490863</v>
+        <v>16574.65876773675</v>
       </c>
       <c r="H321" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="I321" t="n">
-        <v>8103903</v>
+        <v>8443466</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2629834</v>
+        <v>2664050</v>
       </c>
       <c r="E322" t="n">
-        <v>10519336</v>
+        <v>10656201</v>
       </c>
       <c r="F322" t="n">
-        <v>37821.07935452931</v>
+        <v>41756.05682713838</v>
       </c>
       <c r="G322" t="n">
-        <v>15234.85001413981</v>
+        <v>12488.93517237231</v>
       </c>
       <c r="H322" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="I322" t="n">
-        <v>6885098</v>
+        <v>6992341</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>229315899</v>
+        <v>228964341</v>
       </c>
       <c r="E323" t="n">
-        <v>705060093</v>
+        <v>703979185</v>
       </c>
       <c r="F323" t="n">
-        <v>118070.9301637032</v>
+        <v>46261.83478242288</v>
       </c>
       <c r="G323" t="n">
-        <v>171457.585009469</v>
+        <v>98787.73690206392</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>16149618</v>
+        <v>16439033</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>143426714</v>
+        <v>147097952</v>
       </c>
       <c r="E324" t="n">
-        <v>374698312</v>
+        <v>384289320</v>
       </c>
       <c r="F324" t="n">
-        <v>8172.411680632382</v>
+        <v>11959.55481486405</v>
       </c>
       <c r="G324" t="n">
-        <v>9935.404481831536</v>
+        <v>9014.654526739723</v>
       </c>
       <c r="H324" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I324" t="n">
-        <v>8417094</v>
+        <v>8561302</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2445587</v>
+        <v>2442102</v>
       </c>
       <c r="E325" t="n">
-        <v>3356574</v>
+        <v>3351790</v>
       </c>
       <c r="F325" t="n">
-        <v>143.3010013577106</v>
+        <v>43.56942788008315</v>
       </c>
       <c r="G325" t="n">
-        <v>1926.366187298648</v>
+        <v>494.6261910446655</v>
       </c>
       <c r="H325" t="n">
         <v>1.05</v>
       </c>
       <c r="I325" t="n">
-        <v>1997738</v>
+        <v>2012745</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>405131613</v>
+        <v>414525681</v>
       </c>
       <c r="E326" t="n">
-        <v>2315037789</v>
+        <v>2368718176</v>
       </c>
       <c r="F326" t="n">
-        <v>289487.1039151237</v>
+        <v>205939.3551720894</v>
       </c>
       <c r="G326" t="n">
-        <v>377242.8923689724</v>
+        <v>358340.4175163796</v>
       </c>
       <c r="H326" t="n">
         <v>0.18</v>
       </c>
       <c r="I326" t="n">
-        <v>39757351</v>
+        <v>41590884</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250221.xlsx
+++ b/MexcData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91398</v>
+        <v>91172</v>
       </c>
       <c r="F2" t="n">
-        <v>4.209659064572324</v>
+        <v>3.902129373355929</v>
       </c>
       <c r="G2" t="n">
-        <v>32.63079393417244</v>
+        <v>29.00477997556757</v>
       </c>
       <c r="H2" t="n">
-        <v>0.43</v>
+        <v>0.21</v>
       </c>
       <c r="I2" t="n">
-        <v>1404.59</v>
+        <v>1400.79</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>615731752</v>
+        <v>620269343</v>
       </c>
       <c r="E3" t="n">
-        <v>1194800022</v>
+        <v>1203605168</v>
       </c>
       <c r="F3" t="n">
-        <v>18448.1560058806</v>
+        <v>13761.71701474219</v>
       </c>
       <c r="G3" t="n">
-        <v>20650.27177323674</v>
+        <v>24431.3522624258</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="I3" t="n">
-        <v>20293379</v>
+        <v>20815311</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249953270</v>
+        <v>252833996</v>
       </c>
       <c r="E4" t="n">
-        <v>1567421821</v>
+        <v>1585486453</v>
       </c>
       <c r="F4" t="n">
-        <v>67555.89962665085</v>
+        <v>70311.04356941534</v>
       </c>
       <c r="G4" t="n">
-        <v>81880.59963882141</v>
+        <v>127571.3836800347</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>18329369</v>
+        <v>18417698</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149214893</v>
+        <v>150803999</v>
       </c>
       <c r="E5" t="n">
-        <v>165353421</v>
+        <v>167114399</v>
       </c>
       <c r="F5" t="n">
-        <v>120842.2956493331</v>
+        <v>107658.9197027208</v>
       </c>
       <c r="G5" t="n">
-        <v>255154.6650802027</v>
+        <v>272002.2712892739</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>38546899</v>
+        <v>39251610</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49575467</v>
+        <v>48585321</v>
       </c>
       <c r="E6" t="n">
-        <v>62017638</v>
+        <v>60778990</v>
       </c>
       <c r="F6" t="n">
-        <v>3276.601574471921</v>
+        <v>9065.902801082164</v>
       </c>
       <c r="G6" t="n">
-        <v>4140.866661202876</v>
+        <v>8703.825627337068</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="I6" t="n">
-        <v>651642</v>
+        <v>514817</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8493278</v>
+        <v>8510493</v>
       </c>
       <c r="E7" t="n">
-        <v>8707447</v>
+        <v>8725096</v>
       </c>
       <c r="F7" t="n">
-        <v>342.2045619401038</v>
+        <v>496.222197334504</v>
       </c>
       <c r="G7" t="n">
-        <v>982.1532163645429</v>
+        <v>717.7065753892306</v>
       </c>
       <c r="H7" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="I7" t="n">
-        <v>87497</v>
+        <v>86253</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69143644</v>
+        <v>69087126</v>
       </c>
       <c r="E8" t="n">
-        <v>137710738</v>
+        <v>137598174</v>
       </c>
       <c r="F8" t="n">
-        <v>27536.01776452849</v>
+        <v>31806.54524965995</v>
       </c>
       <c r="G8" t="n">
-        <v>31140.15649481454</v>
+        <v>33719.77056705639</v>
       </c>
       <c r="H8" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I8" t="n">
-        <v>975811</v>
+        <v>978172</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4968123</v>
+        <v>4956037</v>
       </c>
       <c r="E9" t="n">
-        <v>7937568</v>
+        <v>7918258</v>
       </c>
       <c r="F9" t="n">
-        <v>394.1653967737576</v>
+        <v>394.2890692370391</v>
       </c>
       <c r="G9" t="n">
-        <v>876.8517630333746</v>
+        <v>841.8719515301259</v>
       </c>
       <c r="H9" t="n">
         <v>0.29</v>
       </c>
       <c r="I9" t="n">
-        <v>98603</v>
+        <v>98198</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14257495</v>
+        <v>14217875</v>
       </c>
       <c r="E10" t="n">
-        <v>42015917</v>
+        <v>41899161</v>
       </c>
       <c r="F10" t="n">
-        <v>3880.550807518695</v>
+        <v>3830.80437968085</v>
       </c>
       <c r="G10" t="n">
-        <v>5006.01327306071</v>
+        <v>5037.715878270954</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="I10" t="n">
-        <v>897735</v>
+        <v>897663</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>127952617</v>
+        <v>129663844</v>
       </c>
       <c r="E11" t="n">
-        <v>501535946</v>
+        <v>508243444</v>
       </c>
       <c r="F11" t="n">
-        <v>44958.49869601377</v>
+        <v>67352.91589662996</v>
       </c>
       <c r="G11" t="n">
-        <v>43874.52191320093</v>
+        <v>53809.92295052268</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>29840329</v>
+        <v>29454694</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10446110</v>
+        <v>10573163</v>
       </c>
       <c r="E12" t="n">
-        <v>44899255</v>
+        <v>45445352</v>
       </c>
       <c r="F12" t="n">
-        <v>728.732661466296</v>
+        <v>1021.213273710783</v>
       </c>
       <c r="G12" t="n">
-        <v>2448.648783347587</v>
+        <v>857.1294501103359</v>
       </c>
       <c r="H12" t="n">
-        <v>0.87</v>
+        <v>0.02</v>
       </c>
       <c r="I12" t="n">
-        <v>858360</v>
+        <v>853532</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1002919</v>
+        <v>1006218</v>
       </c>
       <c r="E13" t="n">
-        <v>12273020</v>
+        <v>12313394</v>
       </c>
       <c r="F13" t="n">
-        <v>271.0174750142499</v>
+        <v>233.3265303951192</v>
       </c>
       <c r="G13" t="n">
-        <v>199.6563924654766</v>
+        <v>199.636812301432</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>483.31</v>
+        <v>531.38</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>576315</v>
+        <v>589856</v>
       </c>
       <c r="E14" t="n">
-        <v>576315</v>
+        <v>589856</v>
       </c>
       <c r="F14" t="n">
-        <v>451.1703376130447</v>
+        <v>288.2663212472959</v>
       </c>
       <c r="G14" t="n">
-        <v>700.0802539820011</v>
+        <v>694.6079985598781</v>
       </c>
       <c r="H14" t="n">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="I14" t="n">
-        <v>24473</v>
+        <v>26601</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>588094869</v>
+        <v>591964510</v>
       </c>
       <c r="E15" t="n">
-        <v>735619274</v>
+        <v>740459620</v>
       </c>
       <c r="F15" t="n">
-        <v>514111.3396464353</v>
+        <v>451843.2559950089</v>
       </c>
       <c r="G15" t="n">
-        <v>538681.5026914595</v>
+        <v>475462.1186289837</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I15" t="n">
-        <v>55772058</v>
+        <v>56688853</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3364676</v>
+        <v>3383888</v>
       </c>
       <c r="E16" t="n">
-        <v>9572207</v>
+        <v>9626862</v>
       </c>
       <c r="F16" t="n">
-        <v>290.4463720806366</v>
+        <v>201.2418798682404</v>
       </c>
       <c r="G16" t="n">
-        <v>51.08642728162868</v>
+        <v>49.93598233949647</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="I16" t="n">
-        <v>107450</v>
+        <v>107689</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>317230</v>
+        <v>317410</v>
       </c>
       <c r="E17" t="n">
-        <v>3661213</v>
+        <v>3663287</v>
       </c>
       <c r="F17" t="n">
-        <v>2.711730389968533</v>
+        <v>3.965912402200698</v>
       </c>
       <c r="G17" t="n">
-        <v>3.99263782798429</v>
+        <v>4.112421228244526</v>
       </c>
       <c r="H17" t="n">
         <v>0.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3486.77</v>
+        <v>3427.54</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1301362</v>
+        <v>1302078</v>
       </c>
       <c r="E18" t="n">
-        <v>9982219</v>
+        <v>9987713</v>
       </c>
       <c r="F18" t="n">
-        <v>222.8962278298836</v>
+        <v>76.23587453900868</v>
       </c>
       <c r="G18" t="n">
-        <v>129.3284265947428</v>
+        <v>129.2811405453681</v>
       </c>
       <c r="H18" t="n">
         <v>0.91</v>
       </c>
       <c r="I18" t="n">
-        <v>145495</v>
+        <v>146290</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23293134</v>
+        <v>23196029</v>
       </c>
       <c r="E19" t="n">
-        <v>23336383</v>
+        <v>23239097</v>
       </c>
       <c r="F19" t="n">
-        <v>825.6326937266879</v>
+        <v>1745.636195281639</v>
       </c>
       <c r="G19" t="n">
-        <v>1258.253604519186</v>
+        <v>1019.255791856883</v>
       </c>
       <c r="H19" t="n">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="I19" t="n">
-        <v>834268</v>
+        <v>834519</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3799393</v>
+        <v>3806923</v>
       </c>
       <c r="E20" t="n">
-        <v>21081280</v>
+        <v>21123065</v>
       </c>
       <c r="F20" t="n">
-        <v>4.141893994601975</v>
+        <v>4.141499607893472</v>
       </c>
       <c r="G20" t="n">
-        <v>54.01159187357928</v>
+        <v>54.0064489476696</v>
       </c>
       <c r="H20" t="n">
         <v>0.13</v>
       </c>
       <c r="I20" t="n">
-        <v>6043.35</v>
+        <v>5751.2</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6903204</v>
+        <v>6934768</v>
       </c>
       <c r="E21" t="n">
-        <v>12806899</v>
+        <v>12865457</v>
       </c>
       <c r="F21" t="n">
-        <v>399.7827853263479</v>
+        <v>157.906803059282</v>
       </c>
       <c r="G21" t="n">
-        <v>516.1620491564981</v>
+        <v>412.5931958920032</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>53190</v>
+        <v>53751</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71794535</v>
+        <v>72046633</v>
       </c>
       <c r="E22" t="n">
-        <v>124324865</v>
+        <v>124761419</v>
       </c>
       <c r="F22" t="n">
-        <v>495.3902973400934</v>
+        <v>491.9153562524963</v>
       </c>
       <c r="G22" t="n">
-        <v>587.4628127000624</v>
+        <v>640.5843143314806</v>
       </c>
       <c r="H22" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="I22" t="n">
-        <v>799907</v>
+        <v>758236</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>172177</v>
+        <v>172872</v>
       </c>
       <c r="E23" t="n">
-        <v>517826</v>
+        <v>519916</v>
       </c>
       <c r="F23" t="n">
-        <v>5.615752601242824</v>
+        <v>5.615309771910804</v>
       </c>
       <c r="G23" t="n">
-        <v>148.0118607956863</v>
+        <v>148.0001893425256</v>
       </c>
       <c r="H23" t="n">
         <v>0.39</v>
       </c>
       <c r="I23" t="n">
-        <v>142.77</v>
+        <v>142.82</v>
       </c>
     </row>
     <row r="24">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81837731</v>
+        <v>82605075</v>
       </c>
       <c r="E24" t="n">
-        <v>240776756</v>
+        <v>243034375</v>
       </c>
       <c r="F24" t="n">
         <v>46.67751250669048</v>
@@ -1282,7 +1282,7 @@
         <v>0.39</v>
       </c>
       <c r="I24" t="n">
-        <v>342090</v>
+        <v>353204</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7239296</v>
+        <v>7202300</v>
       </c>
       <c r="F25" t="n">
-        <v>15.47768278823395</v>
+        <v>15.47639347093034</v>
       </c>
       <c r="G25" t="n">
-        <v>5.247146378731778</v>
+        <v>5.246709282513097</v>
       </c>
       <c r="H25" t="n">
         <v>0.55</v>
       </c>
       <c r="I25" t="n">
-        <v>19240.56</v>
+        <v>19136.43</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2457819</v>
+        <v>2428967</v>
       </c>
       <c r="E26" t="n">
-        <v>2457819</v>
+        <v>2428967</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>7.6</v>
       </c>
       <c r="I26" t="n">
-        <v>318122</v>
+        <v>318418</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17426702</v>
+        <v>17432345</v>
       </c>
       <c r="E27" t="n">
-        <v>22429596</v>
+        <v>22436859</v>
       </c>
       <c r="F27" t="n">
-        <v>707.243089359806</v>
+        <v>4764.927008211771</v>
       </c>
       <c r="G27" t="n">
-        <v>5078.369429489975</v>
+        <v>4400.878250881324</v>
       </c>
       <c r="H27" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="I27" t="n">
-        <v>1540076</v>
+        <v>1540485</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4752823</v>
+        <v>4774925</v>
       </c>
       <c r="E28" t="n">
-        <v>4752823</v>
+        <v>4774925</v>
       </c>
       <c r="F28" t="n">
-        <v>1101.356375126823</v>
+        <v>909.0160369611806</v>
       </c>
       <c r="G28" t="n">
-        <v>1341.730872760461</v>
+        <v>7292.840608811402</v>
       </c>
       <c r="H28" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I28" t="n">
-        <v>1999988</v>
+        <v>2017813</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1730056</v>
+        <v>1722310</v>
       </c>
       <c r="F29" t="n">
-        <v>115.2533625993951</v>
+        <v>81.62116750789633</v>
       </c>
       <c r="G29" t="n">
-        <v>64.17010840308829</v>
+        <v>102.6637548512246</v>
       </c>
       <c r="H29" t="n">
-        <v>1.46</v>
+        <v>2.18</v>
       </c>
       <c r="I29" t="n">
-        <v>157994</v>
+        <v>157099</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3414897</v>
+        <v>3419525</v>
       </c>
       <c r="E30" t="n">
-        <v>3414897</v>
+        <v>3419525</v>
       </c>
       <c r="F30" t="n">
-        <v>542.4533998809501</v>
+        <v>671.2714413620166</v>
       </c>
       <c r="G30" t="n">
-        <v>693.656705367207</v>
+        <v>684.0489773087494</v>
       </c>
       <c r="H30" t="n">
         <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>512418</v>
+        <v>512550</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>315659</v>
+        <v>313227</v>
       </c>
       <c r="E31" t="n">
-        <v>1473527</v>
+        <v>1462175</v>
       </c>
       <c r="F31" t="n">
-        <v>260.6483075258124</v>
+        <v>32.04066318793863</v>
       </c>
       <c r="G31" t="n">
-        <v>333.2826710231631</v>
+        <v>337.0823491711128</v>
       </c>
       <c r="H31" t="n">
-        <v>1.37</v>
+        <v>2.01</v>
       </c>
       <c r="I31" t="n">
-        <v>708392</v>
+        <v>700075</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>367011</v>
+        <v>374556</v>
       </c>
       <c r="E32" t="n">
-        <v>367011</v>
+        <v>374556</v>
       </c>
       <c r="F32" t="n">
-        <v>121.9300649541832</v>
+        <v>129.4072791600069</v>
       </c>
       <c r="G32" t="n">
-        <v>631.0652416788174</v>
+        <v>515.4896110922953</v>
       </c>
       <c r="H32" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="I32" t="n">
-        <v>52927</v>
+        <v>53586</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1906065</v>
+        <v>1902451</v>
       </c>
       <c r="F33" t="n">
-        <v>238.777265234496</v>
+        <v>36.23456003998008</v>
       </c>
       <c r="G33" t="n">
-        <v>9.910533491582131</v>
+        <v>9.909589821201298</v>
       </c>
       <c r="H33" t="n">
         <v>0.86</v>
       </c>
       <c r="I33" t="n">
-        <v>1410013</v>
+        <v>1407834</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1465967</v>
+        <v>1459214</v>
       </c>
       <c r="F34" t="n">
-        <v>479.7615202982795</v>
+        <v>197.6631716947353</v>
       </c>
       <c r="G34" t="n">
-        <v>194.9780828859578</v>
+        <v>155.0566352259314</v>
       </c>
       <c r="H34" t="n">
         <v>0.47</v>
       </c>
       <c r="I34" t="n">
-        <v>291146</v>
+        <v>243077</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12777131</v>
+        <v>12788000</v>
       </c>
       <c r="E35" t="n">
-        <v>31799968</v>
+        <v>31827019</v>
       </c>
       <c r="F35" t="n">
-        <v>296.6862717278256</v>
+        <v>392.356119907574</v>
       </c>
       <c r="G35" t="n">
-        <v>695.7596279686591</v>
+        <v>846.095002688084</v>
       </c>
       <c r="H35" t="n">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="I35" t="n">
-        <v>1249447</v>
+        <v>1249386</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6829429</v>
+        <v>6808691</v>
       </c>
       <c r="E36" t="n">
-        <v>9405869</v>
+        <v>9377308</v>
       </c>
       <c r="F36" t="n">
-        <v>388.2814227993588</v>
+        <v>456.8059993160935</v>
       </c>
       <c r="G36" t="n">
-        <v>775.0442512615864</v>
+        <v>162.3493198277472</v>
       </c>
       <c r="H36" t="n">
-        <v>1.78</v>
+        <v>2.13</v>
       </c>
       <c r="I36" t="n">
-        <v>379986</v>
+        <v>365227</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>906703</v>
+        <v>907824</v>
       </c>
       <c r="E37" t="n">
-        <v>6346925</v>
+        <v>6354765</v>
       </c>
       <c r="F37" t="n">
-        <v>81.53495962816797</v>
+        <v>81.53460207387</v>
       </c>
       <c r="G37" t="n">
-        <v>226.2396533220452</v>
+        <v>194.1289017126565</v>
       </c>
       <c r="H37" t="n">
         <v>0.22</v>
       </c>
       <c r="I37" t="n">
-        <v>244973</v>
+        <v>223416</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>116701377</v>
+        <v>117417421</v>
       </c>
       <c r="E38" t="n">
-        <v>453961675</v>
+        <v>456737647</v>
       </c>
       <c r="F38" t="n">
-        <v>15130.15129410981</v>
+        <v>25699.41919163896</v>
       </c>
       <c r="G38" t="n">
-        <v>20547.90608620664</v>
+        <v>27239.74790961053</v>
       </c>
       <c r="H38" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I38" t="n">
-        <v>9323073</v>
+        <v>9705482</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5720118</v>
+        <v>5728316</v>
       </c>
       <c r="E39" t="n">
-        <v>5993768</v>
+        <v>6002359</v>
       </c>
       <c r="F39" t="n">
-        <v>1088.700296489548</v>
+        <v>1193.540619480835</v>
       </c>
       <c r="G39" t="n">
-        <v>96.42589415505655</v>
+        <v>91.54488269107395</v>
       </c>
       <c r="H39" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>154630</v>
+        <v>153465</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5402488</v>
+        <v>5370860</v>
       </c>
       <c r="E40" t="n">
-        <v>7952756</v>
+        <v>7906197</v>
       </c>
       <c r="F40" t="n">
-        <v>1972.793273384191</v>
+        <v>1906.300774267198</v>
       </c>
       <c r="G40" t="n">
-        <v>2291.762107703523</v>
+        <v>2027.376830465377</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="I40" t="n">
-        <v>653514</v>
+        <v>587795</v>
       </c>
     </row>
     <row r="41">
@@ -1862,10 +1862,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7574892</v>
+        <v>7630127</v>
       </c>
       <c r="E41" t="n">
-        <v>7574892</v>
+        <v>7630127</v>
       </c>
       <c r="F41" t="n">
         <v>3531.272111522624</v>
@@ -1877,7 +1877,7 @@
         <v>0.83</v>
       </c>
       <c r="I41" t="n">
-        <v>366952</v>
+        <v>67909</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1458866</v>
+        <v>1463569</v>
       </c>
       <c r="E42" t="n">
-        <v>1458866</v>
+        <v>1463569</v>
       </c>
       <c r="F42" t="n">
-        <v>352.378099121259</v>
+        <v>607.5230449640253</v>
       </c>
       <c r="G42" t="n">
-        <v>206.2696145621731</v>
+        <v>1167.40666742187</v>
       </c>
       <c r="H42" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="I42" t="n">
-        <v>278235</v>
+        <v>277899</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15803526</v>
+        <v>15803497</v>
       </c>
       <c r="F43" t="n">
-        <v>145.5626274672452</v>
+        <v>389.7475627488188</v>
       </c>
       <c r="G43" t="n">
-        <v>201.9373609357394</v>
+        <v>287.0872374130744</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6</v>
+        <v>0.29</v>
       </c>
       <c r="I43" t="n">
-        <v>10317.47</v>
+        <v>10330.62</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>143147077</v>
+        <v>144764227</v>
       </c>
       <c r="E44" t="n">
-        <v>143147077</v>
+        <v>144764227</v>
       </c>
       <c r="F44" t="n">
-        <v>305717.3781889652</v>
+        <v>276891.4671340897</v>
       </c>
       <c r="G44" t="n">
-        <v>364955.8441806021</v>
+        <v>309997.0324153546</v>
       </c>
       <c r="H44" t="n">
         <v>0.14</v>
       </c>
       <c r="I44" t="n">
-        <v>71226969</v>
+        <v>72304374</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>68427863</v>
+        <v>68632355</v>
       </c>
       <c r="E45" t="n">
-        <v>350912116</v>
+        <v>351960795</v>
       </c>
       <c r="F45" t="n">
-        <v>36600.44215167517</v>
+        <v>48284.51127308338</v>
       </c>
       <c r="G45" t="n">
-        <v>89140.44550364946</v>
+        <v>58861.33210805249</v>
       </c>
       <c r="H45" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I45" t="n">
-        <v>24840043</v>
+        <v>25443282</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>595255</v>
+        <v>594689</v>
       </c>
       <c r="F46" t="n">
-        <v>90.86527936101547</v>
+        <v>89.54782765440574</v>
       </c>
       <c r="G46" t="n">
-        <v>558.701127942595</v>
+        <v>559.3456850334285</v>
       </c>
       <c r="H46" t="n">
         <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>1526.29</v>
+        <v>1521.49</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2698649</v>
+        <v>2726910</v>
       </c>
       <c r="E47" t="n">
-        <v>10845254</v>
+        <v>10958830</v>
       </c>
       <c r="F47" t="n">
-        <v>443.187116635463</v>
+        <v>436.0999630759188</v>
       </c>
       <c r="G47" t="n">
-        <v>59.9107835775751</v>
+        <v>332.5527720334434</v>
       </c>
       <c r="H47" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="I47" t="n">
-        <v>34382</v>
+        <v>35326</v>
       </c>
     </row>
     <row r="48">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17687478</v>
+        <v>17645864</v>
       </c>
       <c r="E48" t="n">
-        <v>124553487</v>
+        <v>124258659</v>
       </c>
       <c r="F48" t="n">
         <v>680.9911305109906</v>
@@ -2122,7 +2122,7 @@
         <v>0.24</v>
       </c>
       <c r="I48" t="n">
-        <v>1076924</v>
+        <v>1077088</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1034780</v>
+        <v>1025720</v>
       </c>
       <c r="E49" t="n">
-        <v>1214584</v>
+        <v>1203950</v>
       </c>
       <c r="F49" t="n">
-        <v>1037.130766263296</v>
+        <v>1325.553062141577</v>
       </c>
       <c r="G49" t="n">
-        <v>4018.445287715303</v>
+        <v>4610.069087787134</v>
       </c>
       <c r="H49" t="n">
-        <v>1.2</v>
+        <v>0.19</v>
       </c>
       <c r="I49" t="n">
-        <v>216461</v>
+        <v>214133</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>148544</v>
+        <v>151443</v>
       </c>
       <c r="E50" t="n">
-        <v>1987601</v>
+        <v>2026395</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>43386</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>264115624</v>
+        <v>268272727</v>
       </c>
       <c r="E51" t="n">
-        <v>264115624</v>
+        <v>268272727</v>
       </c>
       <c r="F51" t="n">
-        <v>25311.29220977141</v>
+        <v>28422.84623690751</v>
       </c>
       <c r="G51" t="n">
-        <v>29758.0968113226</v>
+        <v>31286.64585943843</v>
       </c>
       <c r="H51" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="I51" t="n">
-        <v>18767952</v>
+        <v>15447994</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1125635</v>
+        <v>1126077</v>
       </c>
       <c r="F52" t="n">
-        <v>4.136122345909809</v>
+        <v>4.1357777998829</v>
       </c>
       <c r="G52" t="n">
-        <v>631.585135682202</v>
+        <v>208.8468189010286</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>173211</v>
+        <v>171304</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>118477</v>
+        <v>118901</v>
       </c>
       <c r="E54" t="n">
-        <v>118477</v>
+        <v>118901</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>203.7</v>
+        <v>241.98</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6656677</v>
+        <v>6648716</v>
       </c>
       <c r="E55" t="n">
-        <v>16168555</v>
+        <v>16149218</v>
       </c>
       <c r="F55" t="n">
-        <v>473.4119874560271</v>
+        <v>271.0089650731432</v>
       </c>
       <c r="G55" t="n">
-        <v>236.4398952981288</v>
+        <v>332.5512976615626</v>
       </c>
       <c r="H55" t="n">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="I55" t="n">
-        <v>486867</v>
+        <v>486820</v>
       </c>
     </row>
     <row r="56">
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>442926236</v>
+        <v>444525241</v>
       </c>
       <c r="E56" t="n">
-        <v>442926236</v>
+        <v>444525241</v>
       </c>
       <c r="F56" t="n">
         <v>3471.544328774948</v>
@@ -2398,7 +2398,7 @@
         <v>0.32</v>
       </c>
       <c r="I56" t="n">
-        <v>2534020</v>
+        <v>2561783</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2490476</v>
+        <v>2440587</v>
       </c>
       <c r="E57" t="n">
-        <v>2490476</v>
+        <v>2440587</v>
       </c>
       <c r="F57" t="n">
-        <v>3.924578061746948</v>
+        <v>344.5906089520151</v>
       </c>
       <c r="G57" t="n">
-        <v>614.5440465133699</v>
+        <v>525.041437010201</v>
       </c>
       <c r="H57" t="n">
-        <v>0.74</v>
+        <v>1.83</v>
       </c>
       <c r="I57" t="n">
-        <v>54536</v>
+        <v>102219</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>189067881</v>
+        <v>190044744</v>
       </c>
       <c r="E58" t="n">
-        <v>248791220</v>
+        <v>250076657</v>
       </c>
       <c r="F58" t="n">
-        <v>4657.428034640946</v>
+        <v>9155.921916476729</v>
       </c>
       <c r="G58" t="n">
-        <v>13120.40941983151</v>
+        <v>10966.22089572513</v>
       </c>
       <c r="H58" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="I58" t="n">
-        <v>10200107</v>
+        <v>10449775</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1134759</v>
+        <v>1133762</v>
       </c>
       <c r="E59" t="n">
-        <v>12332140</v>
+        <v>12321299</v>
       </c>
       <c r="F59" t="n">
-        <v>528.3878552915456</v>
+        <v>605.9395586187161</v>
       </c>
       <c r="G59" t="n">
-        <v>4.19432976456525</v>
+        <v>4.193918915355355</v>
       </c>
       <c r="H59" t="n">
         <v>0.58</v>
       </c>
       <c r="I59" t="n">
-        <v>32197</v>
+        <v>32139</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2557389</v>
+        <v>2556328</v>
       </c>
       <c r="E60" t="n">
-        <v>6538187</v>
+        <v>6535474</v>
       </c>
       <c r="F60" t="n">
-        <v>204.8773186132787</v>
+        <v>295.0776818143248</v>
       </c>
       <c r="G60" t="n">
-        <v>256.9837021714871</v>
+        <v>248.083539255583</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>109028</v>
+        <v>109195</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>84809181</v>
+        <v>85952876</v>
       </c>
       <c r="E61" t="n">
-        <v>237310445</v>
+        <v>240410302</v>
       </c>
       <c r="F61" t="n">
-        <v>55150.83438871148</v>
+        <v>51001.14292358393</v>
       </c>
       <c r="G61" t="n">
-        <v>55281.75189829803</v>
+        <v>92630.63189866293</v>
       </c>
       <c r="H61" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="I61" t="n">
-        <v>49885186</v>
+        <v>50542095</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>74665907</v>
+        <v>75322358</v>
       </c>
       <c r="E62" t="n">
-        <v>74665907</v>
+        <v>75322358</v>
       </c>
       <c r="F62" t="n">
-        <v>907.9215956135815</v>
+        <v>4908.967001522346</v>
       </c>
       <c r="G62" t="n">
-        <v>698.0446177887746</v>
+        <v>4036.546686579248</v>
       </c>
       <c r="H62" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>3359250</v>
+        <v>3357472</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4131828</v>
+        <v>4147374</v>
       </c>
       <c r="E63" t="n">
-        <v>8148312</v>
+        <v>8178971</v>
       </c>
       <c r="F63" t="n">
-        <v>2188.740546307085</v>
+        <v>2184.572879131116</v>
       </c>
       <c r="G63" t="n">
-        <v>2535.03073803141</v>
+        <v>1531.993800981176</v>
       </c>
       <c r="H63" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="I63" t="n">
-        <v>1572960</v>
+        <v>1570661</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1632559</v>
+        <v>1645612</v>
       </c>
       <c r="E64" t="n">
-        <v>9373543</v>
+        <v>9448488</v>
       </c>
       <c r="F64" t="n">
-        <v>2.6233314139611</v>
+        <v>133.0484274649202</v>
       </c>
       <c r="G64" t="n">
-        <v>15.40666250819442</v>
+        <v>5.348541214917462</v>
       </c>
       <c r="H64" t="n">
-        <v>2.39</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I64" t="n">
-        <v>288087</v>
+        <v>289843</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>546390</v>
+        <v>545823</v>
       </c>
       <c r="F65" t="n">
-        <v>4.101839089839525</v>
+        <v>4.101497399666163</v>
       </c>
       <c r="G65" t="n">
-        <v>8.634283485820003</v>
+        <v>8.633564235318822</v>
       </c>
       <c r="H65" t="n">
         <v>0.43</v>
       </c>
       <c r="I65" t="n">
-        <v>1760.42</v>
+        <v>1724.08</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31196883</v>
+        <v>31232157</v>
       </c>
       <c r="F66" t="n">
-        <v>850.307550175865</v>
+        <v>842.6693760671227</v>
       </c>
       <c r="G66" t="n">
-        <v>241.9631562316169</v>
+        <v>390.1139660708894</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>246582</v>
+        <v>246413</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>170394</v>
+        <v>169602</v>
       </c>
       <c r="E67" t="n">
-        <v>1150689</v>
+        <v>1145343</v>
       </c>
       <c r="F67" t="n">
-        <v>220.6337553161388</v>
+        <v>135.7518167129447</v>
       </c>
       <c r="G67" t="n">
-        <v>4.202589261214924</v>
+        <v>4.050283861167759</v>
       </c>
       <c r="H67" t="n">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="I67" t="n">
-        <v>2832072</v>
+        <v>2838626</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7697789</v>
+        <v>7685029</v>
       </c>
       <c r="E68" t="n">
-        <v>18129824</v>
+        <v>18099772</v>
       </c>
       <c r="F68" t="n">
-        <v>1200.823108715409</v>
+        <v>1200.705344825323</v>
       </c>
       <c r="G68" t="n">
-        <v>1547.791800184701</v>
+        <v>1549.876062334061</v>
       </c>
       <c r="H68" t="n">
         <v>1.2</v>
       </c>
       <c r="I68" t="n">
-        <v>33279</v>
+        <v>34450</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3070372</v>
+        <v>3099419</v>
       </c>
       <c r="E69" t="n">
-        <v>3070372</v>
+        <v>3099419</v>
       </c>
       <c r="F69" t="n">
-        <v>5.316701088353858</v>
+        <v>64.63842416531874</v>
       </c>
       <c r="G69" t="n">
-        <v>921.6602526972633</v>
+        <v>5.482896234091774</v>
       </c>
       <c r="H69" t="n">
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="I69" t="n">
-        <v>20115</v>
+        <v>19914.98</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3374155</v>
+        <v>3412697</v>
       </c>
       <c r="E70" t="n">
-        <v>8325556</v>
+        <v>8420656</v>
       </c>
       <c r="F70" t="n">
-        <v>1164.626540950424</v>
+        <v>1211.792928641577</v>
       </c>
       <c r="G70" t="n">
-        <v>1118.842170682258</v>
+        <v>1219.206890310337</v>
       </c>
       <c r="H70" t="n">
         <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>37767</v>
+        <v>40960</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23115288</v>
+        <v>23079598</v>
       </c>
       <c r="F71" t="n">
-        <v>465.461133744336</v>
+        <v>465.4154862935204</v>
       </c>
       <c r="G71" t="n">
-        <v>125.8393367385378</v>
+        <v>125.7980572717548</v>
       </c>
       <c r="H71" t="n">
         <v>0.43</v>
       </c>
       <c r="I71" t="n">
-        <v>129657</v>
+        <v>129280</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>265816</v>
+        <v>263623</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1670.33</v>
+        <v>2751.33</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>79258660</v>
+        <v>80690839</v>
       </c>
       <c r="E73" t="n">
-        <v>165294554</v>
+        <v>168281377</v>
       </c>
       <c r="F73" t="n">
-        <v>18363.93957881461</v>
+        <v>14315.7845039594</v>
       </c>
       <c r="G73" t="n">
-        <v>1102.226604053679</v>
+        <v>322.0209179255802</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I73" t="n">
-        <v>19318285</v>
+        <v>19931483</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>199991689</v>
+        <v>210515448</v>
       </c>
       <c r="F75" t="n">
-        <v>6963.386695206374</v>
+        <v>5231.907855406217</v>
       </c>
       <c r="G75" t="n">
-        <v>50571.07528261707</v>
+        <v>23639.19388904206</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="I75" t="n">
-        <v>3302032</v>
+        <v>3459341</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>86079960</v>
+        <v>87527574</v>
       </c>
       <c r="E76" t="n">
-        <v>118201181</v>
+        <v>120188980</v>
       </c>
       <c r="F76" t="n">
-        <v>1661.150757125521</v>
+        <v>2334.224011450632</v>
       </c>
       <c r="G76" t="n">
-        <v>2171.584953596319</v>
+        <v>19098.4362554132</v>
       </c>
       <c r="H76" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I76" t="n">
-        <v>1073326</v>
+        <v>1115166</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>180041</v>
+        <v>179723</v>
       </c>
       <c r="E77" t="n">
-        <v>188015</v>
+        <v>187682</v>
       </c>
       <c r="F77" t="n">
-        <v>5.414445630850413</v>
+        <v>5.413623892351727</v>
       </c>
       <c r="G77" t="n">
-        <v>414.9550897719564</v>
+        <v>419.8925414518495</v>
       </c>
       <c r="H77" t="n">
         <v>0.57</v>
       </c>
       <c r="I77" t="n">
-        <v>292.29</v>
+        <v>284.32</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7911556</v>
+        <v>7807337</v>
       </c>
       <c r="E78" t="n">
-        <v>8703240</v>
+        <v>8588593</v>
       </c>
       <c r="F78" t="n">
-        <v>421.1813784979179</v>
+        <v>447.438511534522</v>
       </c>
       <c r="G78" t="n">
-        <v>413.7650180554215</v>
+        <v>924.1439217646579</v>
       </c>
       <c r="H78" t="n">
-        <v>1.78</v>
+        <v>1.2</v>
       </c>
       <c r="I78" t="n">
-        <v>720850</v>
+        <v>708414</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29093403</v>
+        <v>29355581</v>
       </c>
       <c r="E79" t="n">
-        <v>29093403</v>
+        <v>29355581</v>
       </c>
       <c r="F79" t="n">
-        <v>216.7061562290715</v>
+        <v>1142.912145717329</v>
       </c>
       <c r="G79" t="n">
-        <v>1354.405431482431</v>
+        <v>75.42836306031083</v>
       </c>
       <c r="H79" t="n">
-        <v>1.13</v>
+        <v>0.03</v>
       </c>
       <c r="I79" t="n">
-        <v>264054</v>
+        <v>265866</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>278012509</v>
+        <v>279591298</v>
       </c>
       <c r="E80" t="n">
-        <v>278012509</v>
+        <v>279591298</v>
       </c>
       <c r="F80" t="n">
-        <v>4838.184631529892</v>
+        <v>2248.265253205479</v>
       </c>
       <c r="G80" t="n">
-        <v>166.769879945819</v>
+        <v>1847.519337149441</v>
       </c>
       <c r="H80" t="n">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
       <c r="I80" t="n">
-        <v>9572198</v>
+        <v>9616515</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>662049139</v>
+        <v>678275497</v>
       </c>
       <c r="E81" t="n">
-        <v>662049139</v>
+        <v>678275497</v>
       </c>
       <c r="F81" t="n">
-        <v>1350593.218134324</v>
+        <v>460401.6871285635</v>
       </c>
       <c r="G81" t="n">
-        <v>1409003.8019395</v>
+        <v>687858.8233313371</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="I81" t="n">
-        <v>320673286</v>
+        <v>332701630</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>120139</v>
+        <v>120088</v>
       </c>
       <c r="E82" t="n">
-        <v>120139</v>
+        <v>120088</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1386.35</v>
+        <v>1383.9</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>209794835</v>
+        <v>210239690</v>
       </c>
       <c r="E83" t="n">
-        <v>728846218</v>
+        <v>730391682</v>
       </c>
       <c r="F83" t="n">
-        <v>1682.056204516074</v>
+        <v>1384.922348828728</v>
       </c>
       <c r="G83" t="n">
-        <v>4135.623665356008</v>
+        <v>4258.3769775444</v>
       </c>
       <c r="H83" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="I83" t="n">
-        <v>32829339</v>
+        <v>29900517</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3415009</v>
+        <v>3540101</v>
       </c>
       <c r="E84" t="n">
-        <v>3415009</v>
+        <v>3540100</v>
       </c>
       <c r="F84" t="n">
-        <v>2848.024263524965</v>
+        <v>1161.276196165406</v>
       </c>
       <c r="G84" t="n">
-        <v>622.2632260863702</v>
+        <v>1097.08272376222</v>
       </c>
       <c r="H84" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="I84" t="n">
-        <v>2514958</v>
+        <v>2533323</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>118415538</v>
+        <v>119808506</v>
       </c>
       <c r="E85" t="n">
-        <v>502946594</v>
+        <v>508841848</v>
       </c>
       <c r="F85" t="n">
-        <v>183417.1206075477</v>
+        <v>309750.5862925571</v>
       </c>
       <c r="G85" t="n">
-        <v>194907.5157968191</v>
+        <v>362467.9008276973</v>
       </c>
       <c r="H85" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I85" t="n">
-        <v>15931510</v>
+        <v>16195684</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71851407</v>
+        <v>71528979</v>
       </c>
       <c r="E86" t="n">
-        <v>82440337</v>
+        <v>82070392</v>
       </c>
       <c r="F86" t="n">
-        <v>22848.31728899429</v>
+        <v>24871.70043320786</v>
       </c>
       <c r="G86" t="n">
-        <v>9150.723675087125</v>
+        <v>10760.45188628439</v>
       </c>
       <c r="H86" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="I86" t="n">
-        <v>1299445</v>
+        <v>1313613</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3185507</v>
+        <v>3155357</v>
       </c>
       <c r="E87" t="n">
-        <v>15971490</v>
+        <v>15820326</v>
       </c>
       <c r="F87" t="n">
-        <v>4.05856376691661</v>
+        <v>4.058166216459078</v>
       </c>
       <c r="G87" t="n">
-        <v>71.2456428435148</v>
+        <v>71.23866408463942</v>
       </c>
       <c r="H87" t="n">
         <v>0.31</v>
       </c>
       <c r="I87" t="n">
-        <v>32431</v>
+        <v>32656</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>508974</v>
+        <v>494865</v>
       </c>
       <c r="E88" t="n">
-        <v>8705962</v>
+        <v>8464634</v>
       </c>
       <c r="F88" t="n">
-        <v>634.588687934225</v>
+        <v>720.9545822415164</v>
       </c>
       <c r="G88" t="n">
-        <v>1457.685888557185</v>
+        <v>5.321159500534343</v>
       </c>
       <c r="H88" t="n">
-        <v>0.82</v>
+        <v>1.13</v>
       </c>
       <c r="I88" t="n">
-        <v>163334</v>
+        <v>159963</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5774855</v>
+        <v>5769724</v>
       </c>
       <c r="E89" t="n">
-        <v>7845465</v>
+        <v>7838494</v>
       </c>
       <c r="F89" t="n">
-        <v>68.53275132115658</v>
+        <v>93.10550417944621</v>
       </c>
       <c r="G89" t="n">
-        <v>2253.966981089464</v>
+        <v>2331.425285053349</v>
       </c>
       <c r="H89" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I89" t="n">
-        <v>5597345</v>
+        <v>5618554</v>
       </c>
     </row>
     <row r="90">
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40554761</v>
+        <v>40641389</v>
       </c>
       <c r="E90" t="n">
-        <v>47366998</v>
+        <v>47468177</v>
       </c>
       <c r="F90" t="n">
         <v>497.6362425698733</v>
@@ -3576,7 +3576,7 @@
         <v>1.02</v>
       </c>
       <c r="I90" t="n">
-        <v>895961</v>
+        <v>880135</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>15038911</v>
+        <v>15030720</v>
       </c>
       <c r="F91" t="n">
-        <v>224.8081443775087</v>
+        <v>175.7784174671472</v>
       </c>
       <c r="G91" t="n">
-        <v>348.8738784324189</v>
+        <v>250.7353218040378</v>
       </c>
       <c r="H91" t="n">
-        <v>0.68</v>
+        <v>1.24</v>
       </c>
       <c r="I91" t="n">
-        <v>280487</v>
+        <v>277057</v>
       </c>
     </row>
     <row r="92">
@@ -3631,10 +3631,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36183210</v>
+        <v>36152241</v>
       </c>
       <c r="E92" t="n">
-        <v>36183210</v>
+        <v>36152241</v>
       </c>
       <c r="F92" t="n">
         <v>451.4575340019574</v>
@@ -3646,7 +3646,7 @@
         <v>0.74</v>
       </c>
       <c r="I92" t="n">
-        <v>788784</v>
+        <v>796700</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17047925</v>
+        <v>17069898</v>
       </c>
       <c r="F93" t="n">
-        <v>134.78969360474</v>
+        <v>134.7936013331172</v>
       </c>
       <c r="G93" t="n">
-        <v>396.7368627262392</v>
+        <v>396.698081979779</v>
       </c>
       <c r="H93" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="I93" t="n">
-        <v>196507</v>
+        <v>198602</v>
       </c>
     </row>
     <row r="94">
@@ -3701,10 +3701,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>571929</v>
+        <v>572213</v>
       </c>
       <c r="E94" t="n">
-        <v>6936936</v>
+        <v>6940391</v>
       </c>
       <c r="F94" t="n">
         <v>1497.646276007104</v>
@@ -3716,7 +3716,7 @@
         <v>0.17</v>
       </c>
       <c r="I94" t="n">
-        <v>2812076</v>
+        <v>2677103</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>26180717</v>
+        <v>26799795</v>
       </c>
       <c r="E95" t="n">
-        <v>37005421</v>
+        <v>37880200</v>
       </c>
       <c r="F95" t="n">
-        <v>5.228570551066119</v>
+        <v>4.118273456120285</v>
       </c>
       <c r="G95" t="n">
-        <v>1105.043209906909</v>
+        <v>49.0910475098521</v>
       </c>
       <c r="H95" t="n">
-        <v>0.97</v>
+        <v>0.49</v>
       </c>
       <c r="I95" t="n">
-        <v>75854</v>
+        <v>79407</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1324096556</v>
+        <v>1339525207</v>
       </c>
       <c r="E96" t="n">
-        <v>6349314155</v>
+        <v>6423297694</v>
       </c>
       <c r="F96" t="n">
-        <v>349483.8570299082</v>
+        <v>505270.7541476584</v>
       </c>
       <c r="G96" t="n">
-        <v>405616.6169583237</v>
+        <v>590292.3893871414</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>173448478</v>
+        <v>177729222</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>275861406</v>
+        <v>278669347</v>
       </c>
       <c r="E97" t="n">
-        <v>1190770968</v>
+        <v>1202891604</v>
       </c>
       <c r="F97" t="n">
-        <v>251985.0293456627</v>
+        <v>125060.1806321499</v>
       </c>
       <c r="G97" t="n">
-        <v>921891.8930559406</v>
+        <v>1122453.918310342</v>
       </c>
       <c r="H97" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="I97" t="n">
-        <v>104661514</v>
+        <v>106992479</v>
       </c>
     </row>
     <row r="98">
@@ -3841,10 +3841,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5151179</v>
+        <v>5159562</v>
       </c>
       <c r="E98" t="n">
-        <v>5708533</v>
+        <v>5717823</v>
       </c>
       <c r="F98" t="n">
         <v>830.9432356012883</v>
@@ -3856,7 +3856,7 @@
         <v>0.12</v>
       </c>
       <c r="I98" t="n">
-        <v>632382</v>
+        <v>626498</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94231</v>
+        <v>94562</v>
       </c>
       <c r="E99" t="n">
-        <v>94231</v>
+        <v>94562</v>
       </c>
       <c r="F99" t="n">
-        <v>3.989555206491401</v>
+        <v>2.619947475747246</v>
       </c>
       <c r="G99" t="n">
-        <v>55.14921649203275</v>
+        <v>37.53392508036116</v>
       </c>
       <c r="H99" t="n">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="I99" t="n">
-        <v>1536.53</v>
+        <v>1529.24</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>116981829</v>
+        <v>116594913</v>
       </c>
       <c r="E100" t="n">
-        <v>116981829</v>
+        <v>116594913</v>
       </c>
       <c r="F100" t="n">
-        <v>37633.78903862928</v>
+        <v>37751.11652074146</v>
       </c>
       <c r="G100" t="n">
-        <v>11789.40056972409</v>
+        <v>11538.32975933866</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>7394301</v>
+        <v>5453493</v>
       </c>
     </row>
     <row r="101">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3823297</v>
+        <v>3803083</v>
       </c>
       <c r="F101" t="n">
         <v>1433.109783038674</v>
@@ -3961,7 +3961,7 @@
         <v>0.63</v>
       </c>
       <c r="I101" t="n">
-        <v>294429</v>
+        <v>292101</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2051421268</v>
+        <v>2035515844</v>
       </c>
       <c r="E102" t="n">
-        <v>2051421268</v>
+        <v>2035515844</v>
       </c>
       <c r="F102" t="n">
-        <v>6915142.516299745</v>
+        <v>7099812.208193629</v>
       </c>
       <c r="G102" t="n">
-        <v>5147374.125634927</v>
+        <v>5015773.787189189</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>6110995991</v>
+        <v>7205231834</v>
       </c>
     </row>
     <row r="103">
@@ -4016,10 +4016,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5339569</v>
+        <v>5324016</v>
       </c>
       <c r="E103" t="n">
-        <v>5345612</v>
+        <v>5330041</v>
       </c>
       <c r="F103" t="n">
         <v>287.6044956441773</v>
@@ -4031,7 +4031,7 @@
         <v>0.75</v>
       </c>
       <c r="I103" t="n">
-        <v>145253</v>
+        <v>146443</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2367804</v>
+        <v>2357993</v>
       </c>
       <c r="F104" t="n">
-        <v>5.360337134555841</v>
+        <v>5.359792564953388</v>
       </c>
       <c r="G104" t="n">
-        <v>305.504988048421</v>
+        <v>305.4739510584495</v>
       </c>
       <c r="H104" t="n">
         <v>0.44</v>
       </c>
       <c r="I104" t="n">
-        <v>59608</v>
+        <v>58795</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4472076</v>
+        <v>4460590</v>
       </c>
       <c r="E105" t="n">
-        <v>5871252</v>
+        <v>5856172</v>
       </c>
       <c r="F105" t="n">
-        <v>11902.73064277244</v>
+        <v>5018.664656375047</v>
       </c>
       <c r="G105" t="n">
-        <v>12332.03243199137</v>
+        <v>12367.55984661106</v>
       </c>
       <c r="H105" t="n">
         <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>616768</v>
+        <v>613608</v>
       </c>
     </row>
     <row r="106">
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19817055</v>
+        <v>19891359</v>
       </c>
       <c r="F106" t="n">
         <v>278.3357442925571</v>
@@ -4136,7 +4136,7 @@
         <v>1.01</v>
       </c>
       <c r="I106" t="n">
-        <v>41509</v>
+        <v>31639</v>
       </c>
     </row>
     <row r="107">
@@ -4156,10 +4156,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1344717</v>
+        <v>1342895</v>
       </c>
       <c r="E107" t="n">
-        <v>5013437</v>
+        <v>5006643</v>
       </c>
       <c r="F107" t="n">
         <v>1732.223590668475</v>
@@ -4171,7 +4171,7 @@
         <v>0.24</v>
       </c>
       <c r="I107" t="n">
-        <v>579553</v>
+        <v>578170</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4273183</v>
+        <v>4278735</v>
       </c>
       <c r="E108" t="n">
-        <v>12308798</v>
+        <v>12324791</v>
       </c>
       <c r="F108" t="n">
-        <v>1498.870303378571</v>
+        <v>1568.370252872214</v>
       </c>
       <c r="G108" t="n">
-        <v>1041.50987147671</v>
+        <v>275.0185013996899</v>
       </c>
       <c r="H108" t="n">
         <v>1.37</v>
       </c>
       <c r="I108" t="n">
-        <v>603397</v>
+        <v>615377</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80700405</v>
+        <v>80929080</v>
       </c>
       <c r="E109" t="n">
-        <v>102697537</v>
+        <v>102988544</v>
       </c>
       <c r="F109" t="n">
-        <v>4499.581641725791</v>
+        <v>6072.822049703349</v>
       </c>
       <c r="G109" t="n">
-        <v>86.40735583723426</v>
+        <v>218.0282326431933</v>
       </c>
       <c r="H109" t="n">
-        <v>1.06</v>
+        <v>0.7</v>
       </c>
       <c r="I109" t="n">
-        <v>6255554</v>
+        <v>6240967</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>23067600</v>
+        <v>23164978</v>
       </c>
       <c r="E110" t="n">
-        <v>29923954</v>
+        <v>30050276</v>
       </c>
       <c r="F110" t="n">
-        <v>19848.89697990382</v>
+        <v>17157.57899716275</v>
       </c>
       <c r="G110" t="n">
-        <v>13583.00246054626</v>
+        <v>15201.51154113261</v>
       </c>
       <c r="H110" t="n">
-        <v>0.27</v>
+        <v>0.67</v>
       </c>
       <c r="I110" t="n">
-        <v>175136</v>
+        <v>166296</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>670676</v>
+        <v>671128</v>
       </c>
       <c r="E111" t="n">
-        <v>670676</v>
+        <v>671128</v>
       </c>
       <c r="F111" t="n">
-        <v>35.93071990604204</v>
+        <v>55.1488517832181</v>
       </c>
       <c r="G111" t="n">
-        <v>2.560123514397924</v>
+        <v>3.981831531523401</v>
       </c>
       <c r="H111" t="n">
-        <v>1.85</v>
+        <v>0.98</v>
       </c>
       <c r="I111" t="n">
-        <v>78759</v>
+        <v>78811</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13896162</v>
+        <v>14066104</v>
       </c>
       <c r="E112" t="n">
-        <v>13896162</v>
+        <v>14066104</v>
       </c>
       <c r="F112" t="n">
-        <v>3118.833484290046</v>
+        <v>3267.164756733488</v>
       </c>
       <c r="G112" t="n">
-        <v>2650.300836133371</v>
+        <v>3829.015744619566</v>
       </c>
       <c r="H112" t="n">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="I112" t="n">
-        <v>4903634</v>
+        <v>4917488</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99321234</v>
+        <v>99148780</v>
       </c>
       <c r="E113" t="n">
-        <v>122856812</v>
+        <v>122643492</v>
       </c>
       <c r="F113" t="n">
-        <v>460.6655603882695</v>
+        <v>917.0693408344661</v>
       </c>
       <c r="G113" t="n">
-        <v>706.8541300129883</v>
+        <v>1256.523774074076</v>
       </c>
       <c r="H113" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I113" t="n">
-        <v>843288</v>
+        <v>840735</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>903036</v>
+        <v>893835</v>
       </c>
       <c r="F114" t="n">
-        <v>107.3529634453942</v>
+        <v>510.2258479810237</v>
       </c>
       <c r="G114" t="n">
-        <v>176.7284391272958</v>
+        <v>90.25172083967438</v>
       </c>
       <c r="H114" t="n">
-        <v>0.8</v>
+        <v>1.98</v>
       </c>
       <c r="I114" t="n">
-        <v>30524</v>
+        <v>30771</v>
       </c>
     </row>
     <row r="115">
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2755455</v>
+        <v>2754094</v>
       </c>
       <c r="F115" t="n">
         <v>42.92915765204557</v>
@@ -4451,7 +4451,7 @@
         <v>2.77</v>
       </c>
       <c r="I115" t="n">
-        <v>84488</v>
+        <v>84852</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11454466</v>
+        <v>11471518</v>
       </c>
       <c r="E116" t="n">
-        <v>16844802</v>
+        <v>16869878</v>
       </c>
       <c r="F116" t="n">
-        <v>3556.26919135754</v>
+        <v>3912.408589097924</v>
       </c>
       <c r="G116" t="n">
-        <v>6129.499753663223</v>
+        <v>4941.048762628419</v>
       </c>
       <c r="H116" t="n">
-        <v>1.03</v>
+        <v>0.93</v>
       </c>
       <c r="I116" t="n">
-        <v>597259</v>
+        <v>586141</v>
       </c>
     </row>
     <row r="117">
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3180414</v>
+        <v>3174545</v>
       </c>
       <c r="F117" t="n">
         <v>5.3140519150244</v>
@@ -4521,7 +4521,7 @@
         <v>0.72</v>
       </c>
       <c r="I117" t="n">
-        <v>34358</v>
+        <v>33924</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1130911</v>
+        <v>1129613</v>
       </c>
       <c r="F118" t="n">
-        <v>3.817884745455426</v>
+        <v>5.23570463315354</v>
       </c>
       <c r="G118" t="n">
-        <v>22.71794202170718</v>
+        <v>15.77510189028173</v>
       </c>
       <c r="H118" t="n">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="I118" t="n">
-        <v>6832.16</v>
+        <v>6826.6</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5214841</v>
+        <v>5211643</v>
       </c>
       <c r="E119" t="n">
-        <v>7296319</v>
+        <v>7291844</v>
       </c>
       <c r="F119" t="n">
-        <v>743.8724413535845</v>
+        <v>746.6357710368507</v>
       </c>
       <c r="G119" t="n">
-        <v>1605.206296303772</v>
+        <v>1688.296024217344</v>
       </c>
       <c r="H119" t="n">
-        <v>0.64</v>
+        <v>1.48</v>
       </c>
       <c r="I119" t="n">
-        <v>89570</v>
+        <v>89049</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10179419</v>
+        <v>10280928</v>
       </c>
       <c r="E120" t="n">
-        <v>28038774</v>
+        <v>28318378</v>
       </c>
       <c r="F120" t="n">
-        <v>74.30960605018123</v>
+        <v>99.96422026400499</v>
       </c>
       <c r="G120" t="n">
-        <v>19.41048476174518</v>
+        <v>19.23094909192791</v>
       </c>
       <c r="H120" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="I120" t="n">
-        <v>338411</v>
+        <v>338073</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>52130757</v>
+        <v>52030055</v>
       </c>
       <c r="E121" t="n">
-        <v>132806084</v>
+        <v>132549539</v>
       </c>
       <c r="F121" t="n">
-        <v>800.1118599149321</v>
+        <v>494.1054163935665</v>
       </c>
       <c r="G121" t="n">
-        <v>10789.17906288605</v>
+        <v>11345.61623013452</v>
       </c>
       <c r="H121" t="n">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="I121" t="n">
-        <v>2438720</v>
+        <v>2428522</v>
       </c>
     </row>
     <row r="122">
@@ -4681,10 +4681,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>15700522</v>
+        <v>15482189</v>
       </c>
       <c r="E122" t="n">
-        <v>76040132</v>
+        <v>74982714</v>
       </c>
       <c r="F122" t="n">
         <v>2104.468471175912</v>
@@ -4696,7 +4696,7 @@
         <v>0.24</v>
       </c>
       <c r="I122" t="n">
-        <v>4037107</v>
+        <v>4105918</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>504912</v>
+        <v>510071</v>
       </c>
       <c r="F123" t="n">
-        <v>5.199332422875278</v>
+        <v>5.198922430294184</v>
       </c>
       <c r="G123" t="n">
-        <v>4.192197332131591</v>
+        <v>4.191866757037547</v>
       </c>
       <c r="H123" t="n">
         <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>7436.97</v>
+        <v>7311.59</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4656702</v>
+        <v>4642229</v>
       </c>
       <c r="E124" t="n">
-        <v>10614746</v>
+        <v>10581755</v>
       </c>
       <c r="F124" t="n">
-        <v>804.0937804794146</v>
+        <v>803.978088224159</v>
       </c>
       <c r="G124" t="n">
-        <v>1835.898369445112</v>
+        <v>2418.85020168485</v>
       </c>
       <c r="H124" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="I124" t="n">
-        <v>86956</v>
+        <v>86304</v>
       </c>
     </row>
     <row r="125">
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1931807915</v>
+        <v>1930571649</v>
       </c>
       <c r="F125" t="n">
         <v>74556.33648446348</v>
@@ -4801,7 +4801,7 @@
         <v>0.62</v>
       </c>
       <c r="I125" t="n">
-        <v>27665078</v>
+        <v>27742658</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9627924</v>
+        <v>9638134</v>
       </c>
       <c r="E126" t="n">
-        <v>35039838</v>
+        <v>35076986</v>
       </c>
       <c r="F126" t="n">
-        <v>1072.164132971383</v>
+        <v>953.4898738483432</v>
       </c>
       <c r="G126" t="n">
-        <v>5.374409779724526</v>
+        <v>5.415018977402664</v>
       </c>
       <c r="H126" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="I126" t="n">
-        <v>107345</v>
+        <v>100522</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>564625</v>
+        <v>563641</v>
       </c>
       <c r="F127" t="n">
-        <v>6.501419180163403</v>
+        <v>4.108472457210144</v>
       </c>
       <c r="G127" t="n">
-        <v>103.3905505335059</v>
+        <v>12.74912392387425</v>
       </c>
       <c r="H127" t="n">
-        <v>0.06</v>
+        <v>0.38</v>
       </c>
       <c r="I127" t="n">
-        <v>893.21</v>
+        <v>891.39</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12463675</v>
+        <v>12391300</v>
       </c>
       <c r="E128" t="n">
-        <v>18070531</v>
+        <v>17965596</v>
       </c>
       <c r="F128" t="n">
-        <v>20.17490326048134</v>
+        <v>672.2330133662122</v>
       </c>
       <c r="G128" t="n">
-        <v>1285.743891949922</v>
+        <v>3364.931105683492</v>
       </c>
       <c r="H128" t="n">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="I128" t="n">
-        <v>2160583</v>
+        <v>1550289</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31837357</v>
+        <v>31680083</v>
       </c>
       <c r="E129" t="n">
-        <v>99131315</v>
+        <v>98641614</v>
       </c>
       <c r="F129" t="n">
-        <v>10717.24277759918</v>
+        <v>7898.231236437397</v>
       </c>
       <c r="G129" t="n">
-        <v>8837.017640824499</v>
+        <v>7850.183826883602</v>
       </c>
       <c r="H129" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="I129" t="n">
-        <v>10662446</v>
+        <v>10640891</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1969162</v>
+        <v>1966199</v>
       </c>
       <c r="E130" t="n">
-        <v>14120663</v>
+        <v>14099418</v>
       </c>
       <c r="F130" t="n">
-        <v>12.72014560476608</v>
+        <v>12.71914104807987</v>
       </c>
       <c r="G130" t="n">
-        <v>12.977613112521</v>
+        <v>12.97658590243952</v>
       </c>
       <c r="H130" t="n">
         <v>0.43</v>
       </c>
       <c r="I130" t="n">
-        <v>2043301</v>
+        <v>2041396</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7481827</v>
+        <v>7478321</v>
       </c>
       <c r="F131" t="n">
-        <v>187.918027362863</v>
+        <v>150.0946455182683</v>
       </c>
       <c r="G131" t="n">
-        <v>105.7150437076288</v>
+        <v>193.4727023611697</v>
       </c>
       <c r="H131" t="n">
-        <v>1.32</v>
+        <v>0.84</v>
       </c>
       <c r="I131" t="n">
-        <v>506831</v>
+        <v>506179</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>208471793</v>
+        <v>209707482</v>
       </c>
       <c r="E132" t="n">
-        <v>1180495387</v>
+        <v>1187492615</v>
       </c>
       <c r="F132" t="n">
-        <v>390259.9095129296</v>
+        <v>524318.2810446217</v>
       </c>
       <c r="G132" t="n">
-        <v>530078.0675351329</v>
+        <v>398675.8805273828</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>69036309</v>
+        <v>70116599</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1049125</v>
+        <v>1053985</v>
       </c>
       <c r="E133" t="n">
-        <v>1049125</v>
+        <v>1053985</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5493.82</v>
+        <v>5540.99</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>503670</v>
+        <v>500697</v>
       </c>
       <c r="E134" t="n">
-        <v>1695283</v>
+        <v>1685277</v>
       </c>
       <c r="F134" t="n">
-        <v>126.4446277823319</v>
+        <v>177.290678833276</v>
       </c>
       <c r="G134" t="n">
-        <v>240.4077505779339</v>
+        <v>252.1493502489389</v>
       </c>
       <c r="H134" t="n">
-        <v>0.59</v>
+        <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>633557</v>
+        <v>631696</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>13613426</v>
+        <v>13573849</v>
       </c>
       <c r="F135" t="n">
-        <v>4.195710579553713</v>
+        <v>4.195299109124858</v>
       </c>
       <c r="G135" t="n">
-        <v>5.346886478740582</v>
+        <v>5.346362113289073</v>
       </c>
       <c r="H135" t="n">
         <v>0.71</v>
       </c>
       <c r="I135" t="n">
-        <v>153.02</v>
+        <v>152.58</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>143742114</v>
+        <v>144241082</v>
       </c>
       <c r="E136" t="n">
-        <v>1064756401</v>
+        <v>1068452462</v>
       </c>
       <c r="F136" t="n">
-        <v>14397.05903216875</v>
+        <v>32902.87409889681</v>
       </c>
       <c r="G136" t="n">
-        <v>13940.22763067292</v>
+        <v>32654.85794343552</v>
       </c>
       <c r="H136" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I136" t="n">
-        <v>8403513</v>
+        <v>8442899</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>33077579</v>
+        <v>32769155</v>
       </c>
       <c r="E137" t="n">
-        <v>157069374</v>
+        <v>155604820</v>
       </c>
       <c r="F137" t="n">
-        <v>10308.38641773604</v>
+        <v>10304.96468363705</v>
       </c>
       <c r="G137" t="n">
-        <v>25132.34381687603</v>
+        <v>24656.95272938682</v>
       </c>
       <c r="H137" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="I137" t="n">
-        <v>1203014</v>
+        <v>1247878</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8060901</v>
+        <v>8230315</v>
       </c>
       <c r="E138" t="n">
-        <v>10798919</v>
+        <v>11025878</v>
       </c>
       <c r="F138" t="n">
-        <v>503.7566552236446</v>
+        <v>512.763178743748</v>
       </c>
       <c r="G138" t="n">
-        <v>292.0146844487518</v>
+        <v>265.2759951917309</v>
       </c>
       <c r="H138" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="I138" t="n">
-        <v>63355</v>
+        <v>63864</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1243664</v>
+        <v>1246743</v>
       </c>
       <c r="F139" t="n">
-        <v>66.75129385257348</v>
+        <v>45.45758745837718</v>
       </c>
       <c r="G139" t="n">
-        <v>5.139671387171006</v>
+        <v>5.139266099151965</v>
       </c>
       <c r="H139" t="n">
         <v>0.16</v>
       </c>
       <c r="I139" t="n">
-        <v>2348.2</v>
+        <v>2264.43</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2438157</v>
+        <v>2456055</v>
       </c>
       <c r="E140" t="n">
-        <v>2438157</v>
+        <v>2456055</v>
       </c>
       <c r="F140" t="n">
-        <v>14.01665103334147</v>
+        <v>68.54059010789008</v>
       </c>
       <c r="G140" t="n">
-        <v>1440.401912822944</v>
+        <v>1725.606175197696</v>
       </c>
       <c r="H140" t="n">
         <v>0.22</v>
       </c>
       <c r="I140" t="n">
-        <v>279579</v>
+        <v>279676</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26914769</v>
+        <v>26847005</v>
       </c>
       <c r="E141" t="n">
-        <v>26914769</v>
+        <v>26847005</v>
       </c>
       <c r="F141" t="n">
-        <v>482.0094857118852</v>
+        <v>845.3955946412177</v>
       </c>
       <c r="G141" t="n">
-        <v>1642.082417231073</v>
+        <v>2288.748854087546</v>
       </c>
       <c r="H141" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="I141" t="n">
-        <v>315131</v>
+        <v>317123</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6486939</v>
+        <v>6449772</v>
       </c>
       <c r="E142" t="n">
-        <v>6850934</v>
+        <v>6811681</v>
       </c>
       <c r="F142" t="n">
-        <v>972.6081374064659</v>
+        <v>738.3268780047525</v>
       </c>
       <c r="G142" t="n">
-        <v>187.3016428834113</v>
+        <v>195.0214152447135</v>
       </c>
       <c r="H142" t="n">
-        <v>0.43</v>
+        <v>1.16</v>
       </c>
       <c r="I142" t="n">
-        <v>21839</v>
+        <v>21935</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3388346</v>
+        <v>3388176</v>
       </c>
       <c r="E143" t="n">
-        <v>7912353</v>
+        <v>7911956</v>
       </c>
       <c r="F143" t="n">
-        <v>1059.250453637492</v>
+        <v>1314.35555247611</v>
       </c>
       <c r="G143" t="n">
-        <v>1252.735484467489</v>
+        <v>825.8926115943271</v>
       </c>
       <c r="H143" t="n">
-        <v>0.42</v>
+        <v>0.68</v>
       </c>
       <c r="I143" t="n">
-        <v>617950</v>
+        <v>618053</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1585842</v>
+        <v>1606550</v>
       </c>
       <c r="E144" t="n">
-        <v>12315829</v>
+        <v>12476652</v>
       </c>
       <c r="F144" t="n">
-        <v>200.2840470252432</v>
+        <v>200.0499368519454</v>
       </c>
       <c r="G144" t="n">
-        <v>619.2795538137931</v>
+        <v>3205.001086233195</v>
       </c>
       <c r="H144" t="n">
-        <v>1.31</v>
+        <v>1.77</v>
       </c>
       <c r="I144" t="n">
-        <v>527571</v>
+        <v>487533</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>349314093</v>
+        <v>348708300</v>
       </c>
       <c r="E145" t="n">
-        <v>3142646185</v>
+        <v>3137196093</v>
       </c>
       <c r="F145" t="n">
-        <v>460314.1345082192</v>
+        <v>466640.1960049832</v>
       </c>
       <c r="G145" t="n">
-        <v>720539.9215616501</v>
+        <v>615326.9462805726</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>44093135</v>
+        <v>46153235</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>248545</v>
+        <v>247389</v>
       </c>
       <c r="E146" t="n">
-        <v>2193600</v>
+        <v>2183397</v>
       </c>
       <c r="F146" t="n">
-        <v>4.13595850738073</v>
+        <v>4.135553375838792</v>
       </c>
       <c r="G146" t="n">
-        <v>5.670448450196804</v>
+        <v>5.402166471408874</v>
       </c>
       <c r="H146" t="n">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="I146" t="n">
-        <v>90040</v>
+        <v>85560</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>639312</v>
+        <v>633414</v>
       </c>
       <c r="F147" t="n">
-        <v>561.2050105466855</v>
+        <v>561.1468566144599</v>
       </c>
       <c r="G147" t="n">
-        <v>793.9054301406696</v>
+        <v>815.6903399386279</v>
       </c>
       <c r="H147" t="n">
         <v>0.78</v>
       </c>
       <c r="I147" t="n">
-        <v>5062.35</v>
+        <v>5088.75</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4920388</v>
+        <v>4970364</v>
       </c>
       <c r="E148" t="n">
-        <v>17386021</v>
+        <v>17562607</v>
       </c>
       <c r="F148" t="n">
-        <v>1637.953847303537</v>
+        <v>1413.282661640775</v>
       </c>
       <c r="G148" t="n">
-        <v>2352.168935449793</v>
+        <v>2313.296627234931</v>
       </c>
       <c r="H148" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I148" t="n">
-        <v>100243</v>
+        <v>109958</v>
       </c>
     </row>
     <row r="149">
@@ -5624,10 +5624,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9358560</v>
+        <v>9315134</v>
       </c>
       <c r="E149" t="n">
-        <v>43377463</v>
+        <v>43176181</v>
       </c>
       <c r="F149" t="n">
         <v>2878.160827730097</v>
@@ -5639,7 +5639,7 @@
         <v>0.42</v>
       </c>
       <c r="I149" t="n">
-        <v>55656</v>
+        <v>110726</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>49395798</v>
+        <v>50389781</v>
       </c>
       <c r="E150" t="n">
-        <v>285981262</v>
+        <v>291736009</v>
       </c>
       <c r="F150" t="n">
-        <v>59589.45871184561</v>
+        <v>60655.81582029057</v>
       </c>
       <c r="G150" t="n">
-        <v>55878.83925920165</v>
+        <v>56863.16058530715</v>
       </c>
       <c r="H150" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I150" t="n">
-        <v>34403653</v>
+        <v>34945009</v>
       </c>
     </row>
     <row r="151">
@@ -5694,10 +5694,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>84703</v>
+        <v>84242</v>
       </c>
       <c r="E151" t="n">
-        <v>84703</v>
+        <v>84242</v>
       </c>
       <c r="F151" t="n">
         <v>9.341709263926029</v>
@@ -5709,7 +5709,7 @@
         <v>0.72</v>
       </c>
       <c r="I151" t="n">
-        <v>22073</v>
+        <v>21928</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4368225</v>
+        <v>4320964</v>
       </c>
       <c r="F152" t="n">
-        <v>513.7135224423074</v>
+        <v>508.0460281666035</v>
       </c>
       <c r="G152" t="n">
-        <v>160.7874668139986</v>
+        <v>192.4278269968256</v>
       </c>
       <c r="H152" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="I152" t="n">
-        <v>305931</v>
+        <v>298010</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39627323</v>
+        <v>39503016</v>
       </c>
       <c r="E153" t="n">
-        <v>54730977</v>
+        <v>54559290</v>
       </c>
       <c r="F153" t="n">
-        <v>4226.609840905023</v>
+        <v>4541.029209048668</v>
       </c>
       <c r="G153" t="n">
-        <v>6073.863131966752</v>
+        <v>6073.270759926245</v>
       </c>
       <c r="H153" t="n">
         <v>0.54</v>
       </c>
       <c r="I153" t="n">
-        <v>314544</v>
+        <v>342300</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2128983</v>
+        <v>2117872</v>
       </c>
       <c r="E154" t="n">
-        <v>8694215</v>
+        <v>8648839</v>
       </c>
       <c r="F154" t="n">
-        <v>589.051594237579</v>
+        <v>571.9229985486076</v>
       </c>
       <c r="G154" t="n">
-        <v>2459.924800442041</v>
+        <v>3060.920625697956</v>
       </c>
       <c r="H154" t="n">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="I154" t="n">
-        <v>563879</v>
+        <v>545081</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7307282</v>
+        <v>7396743</v>
       </c>
       <c r="E155" t="n">
-        <v>7361599</v>
+        <v>7451726</v>
       </c>
       <c r="F155" t="n">
-        <v>1145.535976933272</v>
+        <v>826.8359552814454</v>
       </c>
       <c r="G155" t="n">
-        <v>14499.64579228291</v>
+        <v>6646.779830935127</v>
       </c>
       <c r="H155" t="n">
-        <v>0.17</v>
+        <v>0.44</v>
       </c>
       <c r="I155" t="n">
-        <v>5070266</v>
+        <v>5045372</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>490490</v>
+        <v>488907</v>
       </c>
       <c r="E156" t="n">
-        <v>490490</v>
+        <v>488907</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>26.29</v>
+        <v>25.09</v>
       </c>
       <c r="I156" t="n">
-        <v>10805.57</v>
+        <v>10701.17</v>
       </c>
     </row>
     <row r="157">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>13781602</v>
+        <v>14043473</v>
       </c>
       <c r="E157" t="n">
-        <v>13828502</v>
+        <v>14091264</v>
       </c>
       <c r="F157" t="n">
         <v>9068.859920825596</v>
@@ -5919,7 +5919,7 @@
         <v>0.06</v>
       </c>
       <c r="I157" t="n">
-        <v>6093604</v>
+        <v>5596522</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>42977398</v>
+        <v>43101288</v>
       </c>
       <c r="E158" t="n">
-        <v>72965624</v>
+        <v>73175959</v>
       </c>
       <c r="F158" t="n">
-        <v>276.7815004883781</v>
+        <v>276.8172061951543</v>
       </c>
       <c r="G158" t="n">
-        <v>448.5439915737441</v>
+        <v>465.170791688344</v>
       </c>
       <c r="H158" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="I158" t="n">
-        <v>1032823</v>
+        <v>1050694</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>23299750</v>
+        <v>23261378</v>
       </c>
       <c r="E159" t="n">
-        <v>69841938</v>
+        <v>69726914</v>
       </c>
       <c r="F159" t="n">
-        <v>20754.7463549638</v>
+        <v>13266.02916918396</v>
       </c>
       <c r="G159" t="n">
-        <v>16042.03544021259</v>
+        <v>6974.51980455918</v>
       </c>
       <c r="H159" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I159" t="n">
-        <v>3539092</v>
+        <v>3480103</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>104356168</v>
+        <v>102682137</v>
       </c>
       <c r="E160" t="n">
-        <v>110940038</v>
+        <v>109160392</v>
       </c>
       <c r="F160" t="n">
-        <v>1089.158025584187</v>
+        <v>938.0510422949484</v>
       </c>
       <c r="G160" t="n">
-        <v>473.8730713251931</v>
+        <v>1505.076020980744</v>
       </c>
       <c r="H160" t="n">
-        <v>1.26</v>
+        <v>0.91</v>
       </c>
       <c r="I160" t="n">
-        <v>1460846</v>
+        <v>452337</v>
       </c>
     </row>
     <row r="161">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10430189</v>
+        <v>10380838</v>
       </c>
       <c r="E161" t="n">
-        <v>45319906</v>
+        <v>45138060</v>
       </c>
       <c r="F161" t="n">
         <v>4211.584191104057</v>
@@ -6059,7 +6059,7 @@
         <v>0.28</v>
       </c>
       <c r="I161" t="n">
-        <v>111754</v>
+        <v>110973</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15908443</v>
+        <v>15981588</v>
       </c>
       <c r="E162" t="n">
-        <v>97508079</v>
+        <v>97956410</v>
       </c>
       <c r="F162" t="n">
-        <v>353.9964098277833</v>
+        <v>984.2700575245</v>
       </c>
       <c r="G162" t="n">
-        <v>1152.384626943169</v>
+        <v>1120.012323364808</v>
       </c>
       <c r="H162" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I162" t="n">
-        <v>10305602</v>
+        <v>10415967</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1511354</v>
+        <v>1521947</v>
       </c>
       <c r="E163" t="n">
-        <v>1553867</v>
+        <v>1564758</v>
       </c>
       <c r="F163" t="n">
-        <v>86.24772781656918</v>
+        <v>95.02392343178896</v>
       </c>
       <c r="G163" t="n">
-        <v>59.58603390142254</v>
+        <v>59.58184078835605</v>
       </c>
       <c r="H163" t="n">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="I163" t="n">
-        <v>146767</v>
+        <v>145284</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>96366</v>
+        <v>91763</v>
       </c>
       <c r="E164" t="n">
-        <v>273369</v>
+        <v>260311</v>
       </c>
       <c r="F164" t="n">
-        <v>4.192117241479523</v>
+        <v>5.403298671888598</v>
       </c>
       <c r="G164" t="n">
-        <v>43.8832745404428</v>
+        <v>109.7926228522979</v>
       </c>
       <c r="H164" t="n">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="I164" t="n">
-        <v>62.64</v>
+        <v>175.16</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>50414378</v>
+        <v>49654851</v>
       </c>
       <c r="E165" t="n">
-        <v>217179627</v>
+        <v>213907671</v>
       </c>
       <c r="F165" t="n">
-        <v>4557.475782743726</v>
+        <v>4945.764774976971</v>
       </c>
       <c r="G165" t="n">
-        <v>4722.764508210152</v>
+        <v>4176.265260309373</v>
       </c>
       <c r="H165" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I165" t="n">
-        <v>10163344</v>
+        <v>9829284</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7583087</v>
+        <v>7593397</v>
       </c>
       <c r="F166" t="n">
-        <v>86.47702723049277</v>
+        <v>86.47019782156869</v>
       </c>
       <c r="G166" t="n">
-        <v>460.0020660635235</v>
+        <v>327.3958152743687</v>
       </c>
       <c r="H166" t="n">
         <v>0.53</v>
       </c>
       <c r="I166" t="n">
-        <v>6632610</v>
+        <v>6560445</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>675960</v>
+        <v>674788</v>
       </c>
       <c r="E167" t="n">
-        <v>2439997</v>
+        <v>2435768</v>
       </c>
       <c r="F167" t="n">
-        <v>10.55800915113601</v>
+        <v>10.5571753463184</v>
       </c>
       <c r="G167" t="n">
-        <v>10.80896943135642</v>
+        <v>50.81635907609073</v>
       </c>
       <c r="H167" t="n">
         <v>1.27</v>
       </c>
       <c r="I167" t="n">
-        <v>337450</v>
+        <v>337426</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1583943</v>
+        <v>1587509</v>
       </c>
       <c r="F168" t="n">
-        <v>198.9897628235231</v>
+        <v>198.9694611671537</v>
       </c>
       <c r="G168" t="n">
-        <v>59.60264290589605</v>
+        <v>59.59656202837846</v>
       </c>
       <c r="H168" t="n">
         <v>3.78</v>
       </c>
       <c r="I168" t="n">
-        <v>69748</v>
+        <v>68321</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13259958</v>
+        <v>13497332</v>
       </c>
       <c r="E169" t="n">
-        <v>13259958</v>
+        <v>13497332</v>
       </c>
       <c r="F169" t="n">
-        <v>307.2016789515865</v>
+        <v>334.7585357905258</v>
       </c>
       <c r="G169" t="n">
-        <v>49.40918795325079</v>
+        <v>41.86847033800332</v>
       </c>
       <c r="H169" t="n">
-        <v>3.71</v>
+        <v>3.05</v>
       </c>
       <c r="I169" t="n">
-        <v>3702548</v>
+        <v>3758308</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2010903</v>
+        <v>1999230</v>
       </c>
       <c r="E170" t="n">
-        <v>7303406</v>
+        <v>7261010</v>
       </c>
       <c r="F170" t="n">
-        <v>150.7556111967323</v>
+        <v>168.1723947010244</v>
       </c>
       <c r="G170" t="n">
-        <v>1090.129387605821</v>
+        <v>278.2267781859816</v>
       </c>
       <c r="H170" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="I170" t="n">
-        <v>155460</v>
+        <v>153770</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8934796</v>
+        <v>8954764</v>
       </c>
       <c r="E171" t="n">
-        <v>19835851</v>
+        <v>19878324</v>
       </c>
       <c r="F171" t="n">
-        <v>1828.233785529362</v>
+        <v>1780.817155968003</v>
       </c>
       <c r="G171" t="n">
-        <v>1476.961098850946</v>
+        <v>1774.991768842638</v>
       </c>
       <c r="H171" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="I171" t="n">
-        <v>339817</v>
+        <v>330775</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1051507</v>
+        <v>1043289</v>
       </c>
       <c r="E172" t="n">
-        <v>3073372</v>
+        <v>3049354</v>
       </c>
       <c r="F172" t="n">
-        <v>97.91372795301167</v>
+        <v>97.90412562156681</v>
       </c>
       <c r="G172" t="n">
-        <v>660.7014898872837</v>
+        <v>660.6366953500453</v>
       </c>
       <c r="H172" t="n">
         <v>0.36</v>
       </c>
       <c r="I172" t="n">
-        <v>19272.48</v>
+        <v>20007</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>21164378</v>
+        <v>21238427</v>
       </c>
       <c r="E173" t="n">
-        <v>84657510</v>
+        <v>84953706</v>
       </c>
       <c r="F173" t="n">
-        <v>22645.11625855223</v>
+        <v>16311.33753726371</v>
       </c>
       <c r="G173" t="n">
-        <v>21466.855345546</v>
+        <v>25272.31391904012</v>
       </c>
       <c r="H173" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="I173" t="n">
-        <v>2448565</v>
+        <v>2380772</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4938928</v>
+        <v>4987980</v>
       </c>
       <c r="E174" t="n">
-        <v>4938928</v>
+        <v>4987980</v>
       </c>
       <c r="F174" t="n">
-        <v>1164.120986635443</v>
+        <v>354.2330759717819</v>
       </c>
       <c r="G174" t="n">
-        <v>647.4012859402666</v>
+        <v>956.9648933887419</v>
       </c>
       <c r="H174" t="n">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
       <c r="I174" t="n">
-        <v>3083603</v>
+        <v>3076925</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>319681887</v>
+        <v>322352750</v>
       </c>
       <c r="E175" t="n">
-        <v>319681887</v>
+        <v>322352750</v>
       </c>
       <c r="F175" t="n">
-        <v>6778.021291997021</v>
+        <v>2353.331993082634</v>
       </c>
       <c r="G175" t="n">
-        <v>4505.959048181077</v>
+        <v>2361.361228664021</v>
       </c>
       <c r="H175" t="n">
         <v>0.18</v>
       </c>
       <c r="I175" t="n">
-        <v>15719382</v>
+        <v>15802689</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12802253</v>
+        <v>12854734</v>
       </c>
       <c r="E176" t="n">
-        <v>40495937</v>
+        <v>40661944</v>
       </c>
       <c r="F176" t="n">
-        <v>2695.054612305015</v>
+        <v>3130.804058988011</v>
       </c>
       <c r="G176" t="n">
-        <v>3567.08514327807</v>
+        <v>3827.913562243281</v>
       </c>
       <c r="H176" t="n">
         <v>0.49</v>
       </c>
       <c r="I176" t="n">
-        <v>993396</v>
+        <v>983071</v>
       </c>
     </row>
     <row r="177">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24617</v>
+        <v>24575</v>
       </c>
       <c r="E177" t="n">
-        <v>193602</v>
+        <v>193273</v>
       </c>
       <c r="F177" t="n">
         <v>55.51795751653228</v>
@@ -6615,7 +6615,7 @@
         <v>0.51</v>
       </c>
       <c r="I177" t="n">
-        <v>60105</v>
+        <v>59739</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8465681</v>
+        <v>8509048</v>
       </c>
       <c r="E178" t="n">
-        <v>8465681</v>
+        <v>8509048</v>
       </c>
       <c r="F178" t="n">
-        <v>1763.704455064625</v>
+        <v>1776.502219505172</v>
       </c>
       <c r="G178" t="n">
-        <v>1391.156967293914</v>
+        <v>1947.251264564004</v>
       </c>
       <c r="H178" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I178" t="n">
-        <v>3765670</v>
+        <v>3752585</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1074055</v>
+        <v>1072107</v>
       </c>
       <c r="E179" t="n">
-        <v>2446266</v>
+        <v>2441829</v>
       </c>
       <c r="F179" t="n">
-        <v>4.151946139986557</v>
+        <v>5.470858744178896</v>
       </c>
       <c r="G179" t="n">
-        <v>5.737289103781813</v>
+        <v>4.587186732757365</v>
       </c>
       <c r="H179" t="n">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I179" t="n">
-        <v>1100.11</v>
+        <v>1096.2</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9398195</v>
+        <v>9021267</v>
       </c>
       <c r="E180" t="n">
-        <v>9398195</v>
+        <v>9021267</v>
       </c>
       <c r="F180" t="n">
-        <v>3221.187763751505</v>
+        <v>4513.036334835031</v>
       </c>
       <c r="G180" t="n">
-        <v>2050.164345283745</v>
+        <v>3993.394660292795</v>
       </c>
       <c r="H180" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="I180" t="n">
-        <v>3020137</v>
+        <v>2984974</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>19386055</v>
+        <v>19468033</v>
       </c>
       <c r="E181" t="n">
-        <v>19386055</v>
+        <v>19468033</v>
       </c>
       <c r="F181" t="n">
-        <v>2854.565197388221</v>
+        <v>2053.456572958583</v>
       </c>
       <c r="G181" t="n">
-        <v>10765.93795814754</v>
+        <v>2143.955316418895</v>
       </c>
       <c r="H181" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I181" t="n">
-        <v>4300264</v>
+        <v>4507893</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>32448729</v>
+        <v>32298044</v>
       </c>
       <c r="E182" t="n">
-        <v>89879760</v>
+        <v>89462375</v>
       </c>
       <c r="F182" t="n">
-        <v>4963.097782246855</v>
+        <v>4231.078254047633</v>
       </c>
       <c r="G182" t="n">
-        <v>5804.506298838129</v>
+        <v>5045.485400152901</v>
       </c>
       <c r="H182" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="I182" t="n">
-        <v>12244780</v>
+        <v>12167142</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>37980921</v>
+        <v>37751430</v>
       </c>
       <c r="E183" t="n">
-        <v>95769649</v>
+        <v>95190983</v>
       </c>
       <c r="F183" t="n">
-        <v>11313.80922409581</v>
+        <v>9180.975626287096</v>
       </c>
       <c r="G183" t="n">
-        <v>4621.775574462002</v>
+        <v>11233.12278885712</v>
       </c>
       <c r="H183" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="I183" t="n">
-        <v>3490042</v>
+        <v>3510321</v>
       </c>
     </row>
     <row r="184">
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>325086329</v>
+        <v>321840302</v>
       </c>
       <c r="E184" t="n">
-        <v>330158045</v>
+        <v>326860268</v>
       </c>
       <c r="F184" t="n">
         <v>13931.48536769617</v>
@@ -6860,7 +6860,7 @@
         <v>0.01</v>
       </c>
       <c r="I184" t="n">
-        <v>19454191</v>
+        <v>17336489</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>418556</v>
+        <v>416117</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1.209683462959844</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>2.694229352721084</v>
       </c>
       <c r="H185" t="n">
-        <v>4.63</v>
+        <v>2.37</v>
       </c>
       <c r="I185" t="n">
-        <v>71129</v>
+        <v>70690</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28252938</v>
+        <v>28333006</v>
       </c>
       <c r="E186" t="n">
-        <v>67121957</v>
+        <v>67312178</v>
       </c>
       <c r="F186" t="n">
-        <v>10646.70972757589</v>
+        <v>10973.09572108524</v>
       </c>
       <c r="G186" t="n">
-        <v>6240.058454783141</v>
+        <v>7052.224001517249</v>
       </c>
       <c r="H186" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I186" t="n">
-        <v>415264</v>
+        <v>414462</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>20271444</v>
+        <v>20208012</v>
       </c>
       <c r="F187" t="n">
-        <v>3.987318426199909</v>
+        <v>3.98693075546707</v>
       </c>
       <c r="G187" t="n">
-        <v>133.8614722948495</v>
+        <v>260.5108101814861</v>
       </c>
       <c r="H187" t="n">
         <v>0.76</v>
       </c>
       <c r="I187" t="n">
-        <v>1535.38</v>
+        <v>1530.54</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12740812</v>
+        <v>12704466</v>
       </c>
       <c r="E188" t="n">
-        <v>19394390</v>
+        <v>19339062</v>
       </c>
       <c r="F188" t="n">
-        <v>2405.346340083141</v>
+        <v>2335.878589063177</v>
       </c>
       <c r="G188" t="n">
-        <v>2512.162776095767</v>
+        <v>2463.912743052699</v>
       </c>
       <c r="H188" t="n">
         <v>0.73</v>
       </c>
       <c r="I188" t="n">
-        <v>723587</v>
+        <v>722666</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>86710306</v>
+        <v>86939578</v>
       </c>
       <c r="E189" t="n">
-        <v>86710306</v>
+        <v>86939578</v>
       </c>
       <c r="F189" t="n">
-        <v>5981.457260861841</v>
+        <v>7557.639937922355</v>
       </c>
       <c r="G189" t="n">
-        <v>9313.334176990351</v>
+        <v>7885.569572130549</v>
       </c>
       <c r="H189" t="n">
-        <v>0.44</v>
+        <v>0.14</v>
       </c>
       <c r="I189" t="n">
-        <v>5261228</v>
+        <v>5349664</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>305544450</v>
+        <v>307129206</v>
       </c>
       <c r="E190" t="n">
-        <v>305544450</v>
+        <v>307129206</v>
       </c>
       <c r="F190" t="n">
-        <v>207438.4102253314</v>
+        <v>202280.7636815476</v>
       </c>
       <c r="G190" t="n">
-        <v>253165.3135235144</v>
+        <v>236916.1624030762</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>81479176</v>
+        <v>82031622</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10386220</v>
+        <v>10227459</v>
       </c>
       <c r="E191" t="n">
-        <v>29488212</v>
+        <v>29037462</v>
       </c>
       <c r="F191" t="n">
-        <v>544.6974167837277</v>
+        <v>479.9908756569669</v>
       </c>
       <c r="G191" t="n">
-        <v>3687.076273549789</v>
+        <v>4789.04268891668</v>
       </c>
       <c r="H191" t="n">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="I191" t="n">
-        <v>123140</v>
+        <v>118761</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4237969</v>
+        <v>4240340</v>
       </c>
       <c r="E192" t="n">
-        <v>28957742</v>
+        <v>28973947</v>
       </c>
       <c r="F192" t="n">
-        <v>2193.68079260046</v>
+        <v>4794.541424488215</v>
       </c>
       <c r="G192" t="n">
-        <v>2359.152782787196</v>
+        <v>4455.892414001552</v>
       </c>
       <c r="H192" t="n">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
       <c r="I192" t="n">
-        <v>2656381</v>
+        <v>2653859</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2944581</v>
+        <v>2988573</v>
       </c>
       <c r="E193" t="n">
-        <v>4363899</v>
+        <v>4428944</v>
       </c>
       <c r="F193" t="n">
-        <v>269.3844010307097</v>
+        <v>357.8992500063375</v>
       </c>
       <c r="G193" t="n">
-        <v>225.97151542389</v>
+        <v>451.1310412326926</v>
       </c>
       <c r="H193" t="n">
         <v>1.35</v>
       </c>
       <c r="I193" t="n">
-        <v>180993</v>
+        <v>165667</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>93820095</v>
+        <v>93721558</v>
       </c>
       <c r="E194" t="n">
-        <v>540631854</v>
+        <v>540064041</v>
       </c>
       <c r="F194" t="n">
-        <v>500586.1886707791</v>
+        <v>462937.2187019885</v>
       </c>
       <c r="G194" t="n">
-        <v>509849.5551813458</v>
+        <v>526949.0683618273</v>
       </c>
       <c r="H194" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I194" t="n">
-        <v>17600948</v>
+        <v>17660792</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>726492</v>
+        <v>727831</v>
       </c>
       <c r="E195" t="n">
-        <v>792307</v>
+        <v>793768</v>
       </c>
       <c r="F195" t="n">
-        <v>4.094747096899257</v>
+        <v>4.051411361250809</v>
       </c>
       <c r="G195" t="n">
-        <v>28.55990090955891</v>
+        <v>47.51970378222526</v>
       </c>
       <c r="H195" t="n">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="I195" t="n">
-        <v>127298</v>
+        <v>127499</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>110822230</v>
+        <v>110977217</v>
       </c>
       <c r="E196" t="n">
-        <v>272665984</v>
+        <v>273047312</v>
       </c>
       <c r="F196" t="n">
-        <v>22303.41909593488</v>
+        <v>33096.84179810787</v>
       </c>
       <c r="G196" t="n">
-        <v>22177.55753650346</v>
+        <v>48071.18556026978</v>
       </c>
       <c r="H196" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I196" t="n">
-        <v>2218564</v>
+        <v>2251686</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18503795</v>
+        <v>18754749</v>
       </c>
       <c r="E197" t="n">
-        <v>18503795</v>
+        <v>18754749</v>
       </c>
       <c r="F197" t="n">
-        <v>269.4412898240146</v>
+        <v>301.9650067663937</v>
       </c>
       <c r="G197" t="n">
-        <v>2.487170117898762</v>
+        <v>3.943908750287197</v>
       </c>
       <c r="H197" t="n">
-        <v>1.34</v>
+        <v>0.8</v>
       </c>
       <c r="I197" t="n">
-        <v>111756</v>
+        <v>117365</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1326911</v>
+        <v>1325357</v>
       </c>
       <c r="F198" t="n">
-        <v>37.77137640858494</v>
+        <v>441.3563143683002</v>
       </c>
       <c r="G198" t="n">
-        <v>3.959212276865667</v>
+        <v>5.574779107435888</v>
       </c>
       <c r="H198" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="I198" t="n">
-        <v>29276</v>
+        <v>30422</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>137909</v>
+        <v>131784</v>
       </c>
       <c r="E199" t="n">
-        <v>300225</v>
+        <v>286892</v>
       </c>
       <c r="F199" t="n">
-        <v>5.272837899890681</v>
+        <v>5.272342793478058</v>
       </c>
       <c r="G199" t="n">
-        <v>3.749680027865777</v>
+        <v>3.749327942202928</v>
       </c>
       <c r="H199" t="n">
         <v>0.36</v>
       </c>
       <c r="I199" t="n">
-        <v>48602</v>
+        <v>48608</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2561942</v>
+        <v>2697011</v>
       </c>
       <c r="F200" t="n">
-        <v>221.2973565696074</v>
+        <v>243.5010131940224</v>
       </c>
       <c r="G200" t="n">
-        <v>126.0999584380103</v>
+        <v>759.8587782231466</v>
       </c>
       <c r="H200" t="n">
-        <v>2.33</v>
+        <v>1.82</v>
       </c>
       <c r="I200" t="n">
-        <v>431228</v>
+        <v>438096</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>191849</v>
+        <v>201268</v>
       </c>
       <c r="E201" t="n">
-        <v>1481461</v>
+        <v>1554191</v>
       </c>
       <c r="F201" t="n">
-        <v>4.04138370582269</v>
+        <v>3.952715841888378</v>
       </c>
       <c r="G201" t="n">
-        <v>373.4496744988552</v>
+        <v>4.141418506591022</v>
       </c>
       <c r="H201" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="I201" t="n">
-        <v>106592</v>
+        <v>106729</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>31172332</v>
+        <v>31338363</v>
       </c>
       <c r="E202" t="n">
-        <v>139571317</v>
+        <v>140314708</v>
       </c>
       <c r="F202" t="n">
-        <v>10268.70327618504</v>
+        <v>9758.607823334349</v>
       </c>
       <c r="G202" t="n">
-        <v>9890.052504578067</v>
+        <v>12557.32567835875</v>
       </c>
       <c r="H202" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I202" t="n">
-        <v>8578731</v>
+        <v>8687945</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12967116</v>
+        <v>12949493</v>
       </c>
       <c r="E203" t="n">
-        <v>25922909</v>
+        <v>25887679</v>
       </c>
       <c r="F203" t="n">
-        <v>705.2609160455567</v>
+        <v>705.1937618567538</v>
       </c>
       <c r="G203" t="n">
-        <v>1240.864433531885</v>
+        <v>1240.746279749997</v>
       </c>
       <c r="H203" t="n">
         <v>0.37</v>
       </c>
       <c r="I203" t="n">
-        <v>32431</v>
+        <v>32253</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1459929</v>
+        <v>1451957</v>
       </c>
       <c r="F204" t="n">
-        <v>311.5091758908412</v>
+        <v>240.1224054899199</v>
       </c>
       <c r="G204" t="n">
-        <v>223.8767945905439</v>
+        <v>15.94692329768131</v>
       </c>
       <c r="H204" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="I204" t="n">
-        <v>33958</v>
+        <v>37097</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>980352</v>
+        <v>978787</v>
       </c>
       <c r="E205" t="n">
-        <v>4534270</v>
+        <v>4527030</v>
       </c>
       <c r="F205" t="n">
-        <v>2498.447105244778</v>
+        <v>2754.261380225232</v>
       </c>
       <c r="G205" t="n">
-        <v>2623.961052074596</v>
+        <v>2626.602962106578</v>
       </c>
       <c r="H205" t="n">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
       <c r="I205" t="n">
-        <v>476890</v>
+        <v>476328</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3247869</v>
+        <v>3255550</v>
       </c>
       <c r="E206" t="n">
-        <v>3247869</v>
+        <v>3255550</v>
       </c>
       <c r="F206" t="n">
-        <v>347.0145043231847</v>
+        <v>501.5938736794623</v>
       </c>
       <c r="G206" t="n">
-        <v>455.7446491703088</v>
+        <v>1207.278088082608</v>
       </c>
       <c r="H206" t="n">
         <v>0.12</v>
       </c>
       <c r="I206" t="n">
-        <v>417356</v>
+        <v>405573</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>586207</v>
+        <v>587106</v>
       </c>
       <c r="E207" t="n">
-        <v>586207</v>
+        <v>587106</v>
       </c>
       <c r="F207" t="n">
-        <v>3.797610901216195</v>
+        <v>266.648161333653</v>
       </c>
       <c r="G207" t="n">
-        <v>627.0372681334204</v>
+        <v>5.34242685326734</v>
       </c>
       <c r="H207" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="I207" t="n">
-        <v>1219515</v>
+        <v>1216145</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>15679429</v>
+        <v>15613256</v>
       </c>
       <c r="E208" t="n">
-        <v>19962417</v>
+        <v>19878167</v>
       </c>
       <c r="F208" t="n">
-        <v>135.9511063721807</v>
+        <v>135.9378473255837</v>
       </c>
       <c r="G208" t="n">
-        <v>138.2074436854454</v>
+        <v>138.1939645826652</v>
       </c>
       <c r="H208" t="n">
         <v>0.17</v>
       </c>
       <c r="I208" t="n">
-        <v>926905</v>
+        <v>922775</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1791036</v>
+        <v>1787812</v>
       </c>
       <c r="E209" t="n">
-        <v>1791036</v>
+        <v>1787812</v>
       </c>
       <c r="F209" t="n">
-        <v>28.96723140485971</v>
+        <v>28.96549532408753</v>
       </c>
       <c r="G209" t="n">
-        <v>20.4250665324783</v>
+        <v>20.42384240564402</v>
       </c>
       <c r="H209" t="n">
         <v>0.57</v>
       </c>
       <c r="I209" t="n">
-        <v>4352.78</v>
+        <v>3943.81</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5850800</v>
+        <v>5881933</v>
       </c>
       <c r="E210" t="n">
-        <v>15355433</v>
+        <v>15437143</v>
       </c>
       <c r="F210" t="n">
-        <v>474.0635570588187</v>
+        <v>477.4300574051588</v>
       </c>
       <c r="G210" t="n">
-        <v>220.4893919178702</v>
+        <v>205.8063948143914</v>
       </c>
       <c r="H210" t="n">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="I210" t="n">
-        <v>25699</v>
+        <v>24670</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29734666</v>
+        <v>29586450</v>
       </c>
       <c r="F211" t="n">
-        <v>1106.844686548617</v>
+        <v>835.1574566601663</v>
       </c>
       <c r="G211" t="n">
-        <v>1763.377105481421</v>
+        <v>1790.119128222171</v>
       </c>
       <c r="H211" t="n">
-        <v>0.2</v>
+        <v>0.88</v>
       </c>
       <c r="I211" t="n">
-        <v>356541</v>
+        <v>372971</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>18146298</v>
+        <v>18177258</v>
       </c>
       <c r="E212" t="n">
-        <v>18146298</v>
+        <v>18177258</v>
       </c>
       <c r="F212" t="n">
-        <v>33175.68299760333</v>
+        <v>26729.38269119287</v>
       </c>
       <c r="G212" t="n">
-        <v>32048.09085009768</v>
+        <v>32312.82940611757</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2968008</v>
+        <v>2960485</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>52309397</v>
+        <v>52389065</v>
       </c>
       <c r="E213" t="n">
-        <v>339212516</v>
+        <v>339729144</v>
       </c>
       <c r="F213" t="n">
-        <v>109794.9027192919</v>
+        <v>108013.2354372459</v>
       </c>
       <c r="G213" t="n">
-        <v>110360.8820545236</v>
+        <v>203747.7939463306</v>
       </c>
       <c r="H213" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="I213" t="n">
-        <v>17332320</v>
+        <v>17659471</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9118581</v>
+        <v>9120765</v>
       </c>
       <c r="F214" t="n">
-        <v>211.8436286674825</v>
+        <v>211.8309568707728</v>
       </c>
       <c r="G214" t="n">
-        <v>5.331690719510247</v>
+        <v>5.331371795116147</v>
       </c>
       <c r="H214" t="n">
         <v>0.55</v>
       </c>
       <c r="I214" t="n">
-        <v>295035</v>
+        <v>294568</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7194093</v>
+        <v>7163484</v>
       </c>
       <c r="E215" t="n">
-        <v>7204206</v>
+        <v>7173744</v>
       </c>
       <c r="F215" t="n">
-        <v>67.30072720655532</v>
+        <v>117.9255933015824</v>
       </c>
       <c r="G215" t="n">
-        <v>49.16203511749178</v>
+        <v>3.735293750664577</v>
       </c>
       <c r="H215" t="n">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
       <c r="I215" t="n">
-        <v>781947</v>
+        <v>780209</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4796970</v>
+        <v>4805895</v>
       </c>
       <c r="F216" t="n">
-        <v>1036.85501212138</v>
+        <v>945.7299658188265</v>
       </c>
       <c r="G216" t="n">
-        <v>262.4951039466893</v>
+        <v>254.8464811501858</v>
       </c>
       <c r="H216" t="n">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="I216" t="n">
-        <v>195379</v>
+        <v>127234</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2443850</v>
+        <v>2503195</v>
       </c>
       <c r="E217" t="n">
-        <v>4427494</v>
+        <v>4535009</v>
       </c>
       <c r="F217" t="n">
-        <v>1398.530327605801</v>
+        <v>1344.758963491333</v>
       </c>
       <c r="G217" t="n">
-        <v>4.484415614624632</v>
+        <v>34.20553280029287</v>
       </c>
       <c r="H217" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="I217" t="n">
-        <v>129347</v>
+        <v>131257</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125709071</v>
+        <v>125191084</v>
       </c>
       <c r="E218" t="n">
-        <v>2081845169</v>
+        <v>2073266878</v>
       </c>
       <c r="F218" t="n">
-        <v>4690.387971197672</v>
+        <v>7973.311239637615</v>
       </c>
       <c r="G218" t="n">
-        <v>8229.942317508345</v>
+        <v>10345.50287658095</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>4552160</v>
+        <v>4560248</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>102031509</v>
+        <v>100464373</v>
       </c>
       <c r="E219" t="n">
-        <v>103129810</v>
+        <v>101545804</v>
       </c>
       <c r="F219" t="n">
-        <v>95247.38268866269</v>
+        <v>12879.55902698007</v>
       </c>
       <c r="G219" t="n">
-        <v>29505.31482163158</v>
+        <v>13603.32961099377</v>
       </c>
       <c r="H219" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="I219" t="n">
-        <v>45424922</v>
+        <v>46075084</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>253194493</v>
+        <v>253838671</v>
       </c>
       <c r="E220" t="n">
-        <v>253194493</v>
+        <v>253838671</v>
       </c>
       <c r="F220" t="n">
-        <v>96962.75183885919</v>
+        <v>85709.45580408147</v>
       </c>
       <c r="G220" t="n">
-        <v>84200.91643913419</v>
+        <v>118827.5586746576</v>
       </c>
       <c r="H220" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I220" t="n">
-        <v>50318132</v>
+        <v>51929631</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>25247387</v>
+        <v>25167261</v>
       </c>
       <c r="E221" t="n">
-        <v>151060192</v>
+        <v>150580779</v>
       </c>
       <c r="F221" t="n">
-        <v>60977.74775094364</v>
+        <v>58844.31579515224</v>
       </c>
       <c r="G221" t="n">
-        <v>66205.5846143138</v>
+        <v>71624.53833752144</v>
       </c>
       <c r="H221" t="n">
         <v>0.13</v>
       </c>
       <c r="I221" t="n">
-        <v>12322101</v>
+        <v>13041876</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1047364</v>
+        <v>1051391</v>
       </c>
       <c r="F222" t="n">
-        <v>267.6318941256226</v>
+        <v>446.0775522587673</v>
       </c>
       <c r="G222" t="n">
-        <v>345.1997812349719</v>
+        <v>2799.289960161357</v>
       </c>
       <c r="H222" t="n">
-        <v>1.84</v>
+        <v>0.96</v>
       </c>
       <c r="I222" t="n">
-        <v>67308</v>
+        <v>67087</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2244002</v>
+        <v>2233777</v>
       </c>
       <c r="F223" t="n">
-        <v>134.3417626199339</v>
+        <v>179.3508337080614</v>
       </c>
       <c r="G223" t="n">
-        <v>222.0991889752416</v>
+        <v>183.7370725599956</v>
       </c>
       <c r="H223" t="n">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
       <c r="I223" t="n">
-        <v>178767</v>
+        <v>177750</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14210896</v>
+        <v>14195267</v>
       </c>
       <c r="E224" t="n">
-        <v>42949271</v>
+        <v>42902038</v>
       </c>
       <c r="F224" t="n">
-        <v>746.3330302129132</v>
+        <v>1344.66760162184</v>
       </c>
       <c r="G224" t="n">
-        <v>876.3848040715847</v>
+        <v>637.0832034497611</v>
       </c>
       <c r="H224" t="n">
-        <v>0.57</v>
+        <v>0.19</v>
       </c>
       <c r="I224" t="n">
-        <v>2631301</v>
+        <v>2627210</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>55136842</v>
+        <v>54976808</v>
       </c>
       <c r="E225" t="n">
-        <v>95233313</v>
+        <v>94956900</v>
       </c>
       <c r="F225" t="n">
-        <v>13470.96967588558</v>
+        <v>13471.02053576508</v>
       </c>
       <c r="G225" t="n">
-        <v>7692.496837650026</v>
+        <v>7692.688269833529</v>
       </c>
       <c r="H225" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I225" t="n">
-        <v>2350935</v>
+        <v>2306348</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4302502</v>
+        <v>4320575</v>
       </c>
       <c r="E226" t="n">
-        <v>4302502</v>
+        <v>4320575</v>
       </c>
       <c r="F226" t="n">
-        <v>48.61865779622718</v>
+        <v>24.41416497875629</v>
       </c>
       <c r="G226" t="n">
-        <v>90.57883287593411</v>
+        <v>4.055530710313628</v>
       </c>
       <c r="H226" t="n">
-        <v>0.12</v>
+        <v>0.55</v>
       </c>
       <c r="I226" t="n">
-        <v>1741642</v>
+        <v>1742867</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>211234</v>
+        <v>212251</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>52451</v>
+        <v>52976</v>
       </c>
     </row>
     <row r="228">
@@ -8385,10 +8385,10 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6720930</v>
+        <v>6708516</v>
       </c>
       <c r="E228" t="n">
-        <v>34577142</v>
+        <v>34513274</v>
       </c>
       <c r="F228" t="n">
         <v>121.1970382787801</v>
@@ -8400,7 +8400,7 @@
         <v>0.12</v>
       </c>
       <c r="I228" t="n">
-        <v>909939</v>
+        <v>908847</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>179258156</v>
+        <v>177408902</v>
       </c>
       <c r="E230" t="n">
-        <v>209426455</v>
+        <v>207265980</v>
       </c>
       <c r="F230" t="n">
-        <v>38573.09705024648</v>
+        <v>13913.40907629444</v>
       </c>
       <c r="G230" t="n">
-        <v>23236.32352918216</v>
+        <v>54189.5902988597</v>
       </c>
       <c r="H230" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I230" t="n">
-        <v>3760479</v>
+        <v>3923029</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>306437</v>
+        <v>305426</v>
       </c>
       <c r="F231" t="n">
-        <v>9.032378952074364</v>
+        <v>502.4749284721244</v>
       </c>
       <c r="G231" t="n">
-        <v>89.73385107308394</v>
+        <v>4.242649256924102</v>
       </c>
       <c r="H231" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="I231" t="n">
-        <v>320244</v>
+        <v>294419</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29277002</v>
+        <v>29251087</v>
       </c>
       <c r="E232" t="n">
-        <v>40143888</v>
+        <v>40108355</v>
       </c>
       <c r="F232" t="n">
-        <v>5772.465432659918</v>
+        <v>5648.770549461038</v>
       </c>
       <c r="G232" t="n">
-        <v>5982.481161457071</v>
+        <v>6059.819859024362</v>
       </c>
       <c r="H232" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I232" t="n">
-        <v>206877</v>
+        <v>206747</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1092285</v>
+        <v>953720</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1290193</v>
+        <v>1312794</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7994727</v>
+        <v>7992028</v>
       </c>
       <c r="F234" t="n">
-        <v>468.480337053201</v>
+        <v>478.735149095061</v>
       </c>
       <c r="G234" t="n">
-        <v>3238.594328943447</v>
+        <v>3308.789266840011</v>
       </c>
       <c r="H234" t="n">
         <v>0.2</v>
       </c>
       <c r="I234" t="n">
-        <v>654198</v>
+        <v>653037</v>
       </c>
     </row>
     <row r="235">
@@ -8622,10 +8622,10 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23371721</v>
+        <v>23174125</v>
       </c>
       <c r="E235" t="n">
-        <v>23371721</v>
+        <v>23174125</v>
       </c>
       <c r="F235" t="n">
         <v>19159.97022292283</v>
@@ -8637,7 +8637,7 @@
         <v>0.39</v>
       </c>
       <c r="I235" t="n">
-        <v>1997444</v>
+        <v>1995330</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3415571</v>
+        <v>3401555</v>
       </c>
       <c r="E236" t="n">
-        <v>4575374</v>
+        <v>4556598</v>
       </c>
       <c r="F236" t="n">
-        <v>501.3576916390992</v>
+        <v>483.7332046300951</v>
       </c>
       <c r="G236" t="n">
-        <v>291.5617646590993</v>
+        <v>396.3417622561689</v>
       </c>
       <c r="H236" t="n">
         <v>0.63</v>
       </c>
       <c r="I236" t="n">
-        <v>150278</v>
+        <v>149076</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>35009006</v>
+        <v>35487470</v>
       </c>
       <c r="E237" t="n">
-        <v>174711077</v>
+        <v>177098836</v>
       </c>
       <c r="F237" t="n">
-        <v>89996.33972967054</v>
+        <v>93778.16701455973</v>
       </c>
       <c r="G237" t="n">
-        <v>65112.65964346235</v>
+        <v>82345.07086290633</v>
       </c>
       <c r="H237" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I237" t="n">
-        <v>10820219</v>
+        <v>10872747</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26631913</v>
+        <v>26584492</v>
       </c>
       <c r="E238" t="n">
-        <v>60038079</v>
+        <v>59931176</v>
       </c>
       <c r="F238" t="n">
-        <v>210.241174743948</v>
+        <v>510.7005126264057</v>
       </c>
       <c r="G238" t="n">
-        <v>135.6465088846016</v>
+        <v>105.6845681453082</v>
       </c>
       <c r="H238" t="n">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="I238" t="n">
-        <v>405269</v>
+        <v>403677</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1961686</v>
+        <v>1977256</v>
       </c>
       <c r="E239" t="n">
-        <v>1961686</v>
+        <v>1977256</v>
       </c>
       <c r="F239" t="n">
-        <v>175.5462814836165</v>
+        <v>170.1363664986385</v>
       </c>
       <c r="G239" t="n">
-        <v>51.26634072990349</v>
+        <v>52.56600245581552</v>
       </c>
       <c r="H239" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I239" t="n">
-        <v>12855.45</v>
+        <v>13434.22</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>72167309</v>
+        <v>71824194</v>
       </c>
       <c r="F240" t="n">
-        <v>5.576280727398123</v>
+        <v>5.575747340797325</v>
       </c>
       <c r="G240" t="n">
-        <v>4.166003590522469</v>
+        <v>4.16560510081173</v>
       </c>
       <c r="H240" t="n">
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>61941</v>
+        <v>61443</v>
       </c>
     </row>
     <row r="241">
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>919104</v>
+        <v>920595</v>
       </c>
       <c r="E241" t="n">
-        <v>919104</v>
+        <v>920595</v>
       </c>
       <c r="F241" t="n">
         <v>3.821921293070591</v>
@@ -8847,7 +8847,7 @@
         <v>0.66</v>
       </c>
       <c r="I241" t="n">
-        <v>12482</v>
+        <v>13028.02</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>116471</v>
+        <v>116638</v>
       </c>
       <c r="E242" t="n">
-        <v>116471</v>
+        <v>116638</v>
       </c>
       <c r="F242" t="n">
-        <v>2.789531978813045</v>
+        <v>3.86154779676669</v>
       </c>
       <c r="G242" t="n">
-        <v>158.9221122182199</v>
+        <v>34.59757403496182</v>
       </c>
       <c r="H242" t="n">
         <v>0.08</v>
       </c>
       <c r="I242" t="n">
-        <v>38921</v>
+        <v>38970</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3503238</v>
+        <v>3498032</v>
       </c>
       <c r="E243" t="n">
-        <v>5032466</v>
+        <v>5024988</v>
       </c>
       <c r="F243" t="n">
-        <v>442.9071493131177</v>
+        <v>442.8641375589278</v>
       </c>
       <c r="G243" t="n">
-        <v>441.290883798377</v>
+        <v>470.496927761302</v>
       </c>
       <c r="H243" t="n">
         <v>1.79</v>
       </c>
       <c r="I243" t="n">
-        <v>141600</v>
+        <v>141724</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>323931519</v>
+        <v>323513059</v>
       </c>
       <c r="E244" t="n">
-        <v>599347182</v>
+        <v>598572936</v>
       </c>
       <c r="F244" t="n">
-        <v>32098.1705352246</v>
+        <v>33665.80585961643</v>
       </c>
       <c r="G244" t="n">
-        <v>34363.94048573905</v>
+        <v>38703.80122801385</v>
       </c>
       <c r="H244" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>14286207</v>
+        <v>14340059</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>73723434</v>
+        <v>74320932</v>
       </c>
       <c r="E245" t="n">
-        <v>703261890</v>
+        <v>708957634</v>
       </c>
       <c r="F245" t="n">
-        <v>40391.91794094451</v>
+        <v>53712.6290523365</v>
       </c>
       <c r="G245" t="n">
-        <v>50318.8066247614</v>
+        <v>63160.9446905717</v>
       </c>
       <c r="H245" t="n">
         <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>22568825</v>
+        <v>22714430</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>83095</v>
+        <v>84245</v>
       </c>
       <c r="E246" t="n">
-        <v>690787</v>
+        <v>700347</v>
       </c>
       <c r="F246" t="n">
-        <v>105.8879020896713</v>
+        <v>51.7676299715184</v>
       </c>
       <c r="G246" t="n">
-        <v>63.35025267852559</v>
+        <v>4.073301126434396</v>
       </c>
       <c r="H246" t="n">
-        <v>0.43</v>
+        <v>0.85</v>
       </c>
       <c r="I246" t="n">
-        <v>17.25</v>
+        <v>72.87</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1907889</v>
+        <v>1920182</v>
       </c>
       <c r="E247" t="n">
-        <v>5448687</v>
+        <v>5483792</v>
       </c>
       <c r="F247" t="n">
-        <v>280.0782585840641</v>
+        <v>425.9663083470971</v>
       </c>
       <c r="G247" t="n">
-        <v>261.3845291302333</v>
+        <v>280.5501803377064</v>
       </c>
       <c r="H247" t="n">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="I247" t="n">
-        <v>70724</v>
+        <v>72077</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>38174991</v>
+        <v>38482841</v>
       </c>
       <c r="E248" t="n">
-        <v>49910523</v>
+        <v>50312850</v>
       </c>
       <c r="F248" t="n">
-        <v>1087.468870031112</v>
+        <v>528.7266092259184</v>
       </c>
       <c r="G248" t="n">
-        <v>372.3549082454367</v>
+        <v>420.088971529001</v>
       </c>
       <c r="H248" t="n">
-        <v>1.18</v>
+        <v>1.91</v>
       </c>
       <c r="I248" t="n">
-        <v>559090</v>
+        <v>366657</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>11643584</v>
+        <v>11490973</v>
       </c>
       <c r="E249" t="n">
-        <v>34541056</v>
+        <v>34088331</v>
       </c>
       <c r="F249" t="n">
-        <v>874.8815478010659</v>
+        <v>849.3687807820776</v>
       </c>
       <c r="G249" t="n">
-        <v>2056.751036941013</v>
+        <v>2475.428804494444</v>
       </c>
       <c r="H249" t="n">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="I249" t="n">
-        <v>7434432</v>
+        <v>7343410</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1995666</v>
+        <v>1989178</v>
       </c>
       <c r="E250" t="n">
-        <v>5772965</v>
+        <v>5754198</v>
       </c>
       <c r="F250" t="n">
-        <v>143.9145739609387</v>
+        <v>141.9153696323412</v>
       </c>
       <c r="G250" t="n">
-        <v>169.6270848321037</v>
+        <v>163.3524400822358</v>
       </c>
       <c r="H250" t="n">
         <v>0.03</v>
       </c>
       <c r="I250" t="n">
-        <v>46046</v>
+        <v>55826</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7381089</v>
+        <v>7348420</v>
       </c>
       <c r="E251" t="n">
-        <v>7381100</v>
+        <v>7348431</v>
       </c>
       <c r="F251" t="n">
-        <v>2726.811025925448</v>
+        <v>2944.01966372402</v>
       </c>
       <c r="G251" t="n">
-        <v>1354.089728043755</v>
+        <v>2121.302976244574</v>
       </c>
       <c r="H251" t="n">
-        <v>0.24</v>
+        <v>0.74</v>
       </c>
       <c r="I251" t="n">
-        <v>321786</v>
+        <v>318013</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6599833</v>
+        <v>6570914</v>
       </c>
       <c r="E252" t="n">
-        <v>6599833</v>
+        <v>6570914</v>
       </c>
       <c r="F252" t="n">
-        <v>5.381448272773699</v>
+        <v>407.2614493530684</v>
       </c>
       <c r="G252" t="n">
-        <v>1147.161903498677</v>
+        <v>969.0479082885631</v>
       </c>
       <c r="H252" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="I252" t="n">
-        <v>510707</v>
+        <v>501129</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6284876</v>
+        <v>6267926</v>
       </c>
       <c r="E253" t="n">
-        <v>22956221</v>
+        <v>22894310</v>
       </c>
       <c r="F253" t="n">
-        <v>59.54444520672642</v>
+        <v>59.53889324586121</v>
       </c>
       <c r="G253" t="n">
-        <v>224.6752678752226</v>
+        <v>109.6752653541234</v>
       </c>
       <c r="H253" t="n">
         <v>1.77</v>
       </c>
       <c r="I253" t="n">
-        <v>510692</v>
+        <v>510344</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2176884</v>
+        <v>2343392</v>
       </c>
       <c r="E254" t="n">
-        <v>19201560</v>
+        <v>20670271</v>
       </c>
       <c r="F254" t="n">
-        <v>1.100432315731178</v>
+        <v>1.100345410543545</v>
       </c>
       <c r="G254" t="n">
-        <v>271.9138005665858</v>
+        <v>271.8923265335895</v>
       </c>
       <c r="H254" t="n">
         <v>2.75</v>
       </c>
       <c r="I254" t="n">
-        <v>84356</v>
+        <v>89435</v>
       </c>
     </row>
     <row r="255">
@@ -9322,10 +9322,10 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14550517</v>
+        <v>14531796</v>
       </c>
       <c r="E255" t="n">
-        <v>29456633</v>
+        <v>29418733</v>
       </c>
       <c r="F255" t="n">
         <v>95.74474196589679</v>
@@ -9337,7 +9337,7 @@
         <v>0.47</v>
       </c>
       <c r="I255" t="n">
-        <v>558627</v>
+        <v>549278</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>46054206</v>
+        <v>45718087</v>
       </c>
       <c r="E256" t="n">
-        <v>46054206</v>
+        <v>45718087</v>
       </c>
       <c r="F256" t="n">
-        <v>5619.900331092795</v>
+        <v>6874.418293264727</v>
       </c>
       <c r="G256" t="n">
-        <v>1182.269850738174</v>
+        <v>4621.892775598165</v>
       </c>
       <c r="H256" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I256" t="n">
-        <v>8505211</v>
+        <v>8708313</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8377887</v>
+        <v>8349653</v>
       </c>
       <c r="E257" t="n">
-        <v>11936570</v>
+        <v>11896342</v>
       </c>
       <c r="F257" t="n">
-        <v>71.71794330111958</v>
+        <v>71.26177977548905</v>
       </c>
       <c r="G257" t="n">
-        <v>1103.459781584734</v>
+        <v>1097.844888407079</v>
       </c>
       <c r="H257" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I257" t="n">
-        <v>392205</v>
+        <v>391289</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>151323453</v>
+        <v>149656570</v>
       </c>
       <c r="F258" t="n">
-        <v>275.9884233278561</v>
+        <v>211.8916017628618</v>
       </c>
       <c r="G258" t="n">
-        <v>61.19158373183326</v>
+        <v>129.1504669748734</v>
       </c>
       <c r="H258" t="n">
-        <v>2.21</v>
+        <v>2.99</v>
       </c>
       <c r="I258" t="n">
-        <v>1487042</v>
+        <v>1762703</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16616535</v>
+        <v>16675495</v>
       </c>
       <c r="F259" t="n">
-        <v>114.3416289869486</v>
+        <v>114.32517762114</v>
       </c>
       <c r="G259" t="n">
-        <v>123.6736188066657</v>
+        <v>123.6558247629575</v>
       </c>
       <c r="H259" t="n">
         <v>0.84</v>
       </c>
       <c r="I259" t="n">
-        <v>1013128</v>
+        <v>1015505</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>727583</v>
+        <v>724291</v>
       </c>
       <c r="F260" t="n">
-        <v>4.999840824718828</v>
+        <v>4.999350732448293</v>
       </c>
       <c r="G260" t="n">
-        <v>3.515314503575363</v>
+        <v>3.514969926912405</v>
       </c>
       <c r="H260" t="n">
         <v>1.97</v>
       </c>
       <c r="I260" t="n">
-        <v>209452</v>
+        <v>211174</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3000966</v>
+        <v>3076966</v>
       </c>
       <c r="F261" t="n">
-        <v>40.16690649830119</v>
+        <v>40.16400926637348</v>
       </c>
       <c r="G261" t="n">
-        <v>48.31600710216414</v>
+        <v>49.41214085408468</v>
       </c>
       <c r="H261" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="I261" t="n">
-        <v>70905</v>
+        <v>72966</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2866780</v>
+        <v>2847324</v>
       </c>
       <c r="E262" t="n">
-        <v>2869263</v>
+        <v>2849790</v>
       </c>
       <c r="F262" t="n">
-        <v>4.051125398272939</v>
+        <v>55.04334575105971</v>
       </c>
       <c r="G262" t="n">
-        <v>397.5375060375319</v>
+        <v>532.4672663160936</v>
       </c>
       <c r="H262" t="n">
-        <v>0.64</v>
+        <v>0.31</v>
       </c>
       <c r="I262" t="n">
-        <v>108989</v>
+        <v>108617</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>62896431</v>
+        <v>62974227</v>
       </c>
       <c r="E263" t="n">
-        <v>104055824</v>
+        <v>104184529</v>
       </c>
       <c r="F263" t="n">
-        <v>7550.870540662297</v>
+        <v>7725.408643983793</v>
       </c>
       <c r="G263" t="n">
-        <v>26967.7173262843</v>
+        <v>27172.82998135083</v>
       </c>
       <c r="H263" t="n">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="I263" t="n">
-        <v>6619104</v>
+        <v>6636354</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>686687</v>
+        <v>687650</v>
       </c>
       <c r="F264" t="n">
-        <v>255.3936099128263</v>
+        <v>3258.221509690864</v>
       </c>
       <c r="G264" t="n">
-        <v>141.2034637481416</v>
+        <v>139.221916820189</v>
       </c>
       <c r="H264" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="I264" t="n">
-        <v>675024</v>
+        <v>676263</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1270553</v>
+        <v>1262664</v>
       </c>
       <c r="E265" t="n">
-        <v>3838872</v>
+        <v>3814704</v>
       </c>
       <c r="F265" t="n">
-        <v>57.28973167923978</v>
+        <v>57.28427661237002</v>
       </c>
       <c r="G265" t="n">
-        <v>949.2880743982099</v>
+        <v>949.1976842048416</v>
       </c>
       <c r="H265" t="n">
         <v>0.27</v>
       </c>
       <c r="I265" t="n">
-        <v>15239.72</v>
+        <v>15555.56</v>
       </c>
     </row>
     <row r="266">
@@ -9707,10 +9707,10 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>39942501</v>
+        <v>40301046</v>
       </c>
       <c r="E266" t="n">
-        <v>283185817</v>
+        <v>285727842</v>
       </c>
       <c r="F266" t="n">
         <v>52038.59103661303</v>
@@ -9722,7 +9722,7 @@
         <v>0.25</v>
       </c>
       <c r="I266" t="n">
-        <v>1753266</v>
+        <v>1835226</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>58729</v>
+        <v>58873</v>
       </c>
       <c r="E267" t="n">
-        <v>306426</v>
+        <v>307176</v>
       </c>
       <c r="F267" t="n">
-        <v>188.0597821094605</v>
+        <v>188.041875258497</v>
       </c>
       <c r="G267" t="n">
-        <v>3.952653610262435</v>
+        <v>3.952277242820575</v>
       </c>
       <c r="H267" t="n">
         <v>1.04</v>
       </c>
       <c r="I267" t="n">
-        <v>279185</v>
+        <v>278875</v>
       </c>
     </row>
     <row r="268">
@@ -9777,10 +9777,10 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1276567</v>
+        <v>1278067</v>
       </c>
       <c r="E268" t="n">
-        <v>7916023</v>
+        <v>7925304</v>
       </c>
       <c r="F268" t="n">
         <v>2260.975564104646</v>
@@ -9792,7 +9792,7 @@
         <v>0.16</v>
       </c>
       <c r="I268" t="n">
-        <v>784519</v>
+        <v>784040</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>625414746</v>
+        <v>629480244</v>
       </c>
       <c r="E269" t="n">
-        <v>2422139038</v>
+        <v>2437884113</v>
       </c>
       <c r="F269" t="n">
-        <v>164623.2654950153</v>
+        <v>240342.6667731066</v>
       </c>
       <c r="G269" t="n">
-        <v>202306.0062580686</v>
+        <v>285395.7406437718</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>35570998</v>
+        <v>37198894</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3299255</v>
+        <v>3247084</v>
       </c>
       <c r="F270" t="n">
-        <v>211.3162368297671</v>
+        <v>157.0547156258081</v>
       </c>
       <c r="G270" t="n">
-        <v>62.5488156303587</v>
+        <v>221.5563143549552</v>
       </c>
       <c r="H270" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="I270" t="n">
-        <v>34028</v>
+        <v>33943</v>
       </c>
     </row>
     <row r="271">
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>760485</v>
+        <v>765785</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -9894,10 +9894,10 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>4.12</v>
+        <v>5.14</v>
       </c>
       <c r="I271" t="n">
-        <v>154589</v>
+        <v>156118</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5913704</v>
+        <v>5870435</v>
       </c>
       <c r="E272" t="n">
-        <v>26472276</v>
+        <v>26278585</v>
       </c>
       <c r="F272" t="n">
-        <v>159.8035164926405</v>
+        <v>272.8629823168938</v>
       </c>
       <c r="G272" t="n">
-        <v>464.821446645238</v>
+        <v>135.5589805194507</v>
       </c>
       <c r="H272" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="I272" t="n">
-        <v>148932</v>
+        <v>149383</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6769120</v>
+        <v>6743688</v>
       </c>
       <c r="E273" t="n">
-        <v>12960028</v>
+        <v>12911337</v>
       </c>
       <c r="F273" t="n">
-        <v>4754.748941391775</v>
+        <v>4754.357935780608</v>
       </c>
       <c r="G273" t="n">
-        <v>2090.035490827329</v>
+        <v>2089.870433036956</v>
       </c>
       <c r="H273" t="n">
         <v>0.61</v>
       </c>
       <c r="I273" t="n">
-        <v>102568</v>
+        <v>99990</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3245699</v>
+        <v>3247764</v>
       </c>
       <c r="E274" t="n">
-        <v>21342963</v>
+        <v>21356540</v>
       </c>
       <c r="F274" t="n">
-        <v>114.7551381901424</v>
+        <v>81.68879080916305</v>
       </c>
       <c r="G274" t="n">
-        <v>209.8463484134528</v>
+        <v>112.1955814020125</v>
       </c>
       <c r="H274" t="n">
-        <v>0.39</v>
+        <v>1.07</v>
       </c>
       <c r="I274" t="n">
-        <v>1451987</v>
+        <v>1450052</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3719605</v>
+        <v>3716922</v>
       </c>
       <c r="E275" t="n">
-        <v>6340571</v>
+        <v>6335999</v>
       </c>
       <c r="F275" t="n">
-        <v>646.8669418825517</v>
+        <v>479.0180404634597</v>
       </c>
       <c r="G275" t="n">
-        <v>463.1858446474869</v>
+        <v>1049.70320595676</v>
       </c>
       <c r="H275" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I275" t="n">
-        <v>1122437</v>
+        <v>1129594</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>441940</v>
+        <v>440882</v>
       </c>
       <c r="E276" t="n">
-        <v>441940</v>
+        <v>440882</v>
       </c>
       <c r="F276" t="n">
-        <v>21.11801135966371</v>
+        <v>21.11600052524808</v>
       </c>
       <c r="G276" t="n">
-        <v>27.66611928703552</v>
+        <v>27.66348494879874</v>
       </c>
       <c r="H276" t="n">
         <v>0.58</v>
       </c>
       <c r="I276" t="n">
-        <v>264.19</v>
+        <v>262.7</v>
       </c>
     </row>
     <row r="277">
@@ -10092,10 +10092,10 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7346576</v>
+        <v>7329790</v>
       </c>
       <c r="E277" t="n">
-        <v>10526247</v>
+        <v>10502197</v>
       </c>
       <c r="F277" t="n">
         <v>634.0423451381589</v>
@@ -10107,7 +10107,7 @@
         <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>195364</v>
+        <v>194922</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>115652938</v>
+        <v>115760327</v>
       </c>
       <c r="E278" t="n">
-        <v>1074564740</v>
+        <v>1075562522</v>
       </c>
       <c r="F278" t="n">
-        <v>8387.209516515317</v>
+        <v>9898.300249294411</v>
       </c>
       <c r="G278" t="n">
-        <v>10212.50541082274</v>
+        <v>9917.130275069952</v>
       </c>
       <c r="H278" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I278" t="n">
-        <v>9587277</v>
+        <v>9410590</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>118556572</v>
+        <v>117041751</v>
       </c>
       <c r="E279" t="n">
-        <v>180860830</v>
+        <v>178549935</v>
       </c>
       <c r="F279" t="n">
-        <v>46371.42544319904</v>
+        <v>48965.13672767505</v>
       </c>
       <c r="G279" t="n">
-        <v>50134.50641399915</v>
+        <v>51788.76041009383</v>
       </c>
       <c r="H279" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="I279" t="n">
-        <v>8486962</v>
+        <v>8607948</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>17829472</v>
+        <v>17947832</v>
       </c>
       <c r="E280" t="n">
-        <v>24460491</v>
+        <v>24622871</v>
       </c>
       <c r="F280" t="n">
-        <v>3586.66518382047</v>
+        <v>1229.267648317476</v>
       </c>
       <c r="G280" t="n">
-        <v>554.5975054183563</v>
+        <v>1262.883893080953</v>
       </c>
       <c r="H280" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="I280" t="n">
-        <v>660365</v>
+        <v>603956</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5687593</v>
+        <v>5753658</v>
       </c>
       <c r="E281" t="n">
-        <v>5687593</v>
+        <v>5753658</v>
       </c>
       <c r="F281" t="n">
-        <v>8.429277816471991</v>
+        <v>15.521610954424</v>
       </c>
       <c r="G281" t="n">
-        <v>828.43225120639</v>
+        <v>35.31582284830364</v>
       </c>
       <c r="H281" t="n">
-        <v>0.13</v>
+        <v>0.63</v>
       </c>
       <c r="I281" t="n">
-        <v>722621</v>
+        <v>737435</v>
       </c>
     </row>
     <row r="282">
@@ -10267,10 +10267,10 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>128311819</v>
+        <v>128309169</v>
       </c>
       <c r="E282" t="n">
-        <v>492224788</v>
+        <v>492214626</v>
       </c>
       <c r="F282" t="n">
         <v>24446.34766568932</v>
@@ -10282,7 +10282,7 @@
         <v>0.02</v>
       </c>
       <c r="I282" t="n">
-        <v>33774348</v>
+        <v>33875251</v>
       </c>
     </row>
     <row r="283">
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>664303</v>
+        <v>673643</v>
       </c>
       <c r="F283" t="n">
         <v>4.065336714280472</v>
@@ -10317,7 +10317,7 @@
         <v>0.75</v>
       </c>
       <c r="I283" t="n">
-        <v>43516</v>
+        <v>43036</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3251031</v>
+        <v>3322823</v>
       </c>
       <c r="E284" t="n">
-        <v>30804001</v>
+        <v>31484239</v>
       </c>
       <c r="F284" t="n">
-        <v>820.7655134028723</v>
+        <v>1085.414721372836</v>
       </c>
       <c r="G284" t="n">
-        <v>1027.646080807559</v>
+        <v>736.3770979067029</v>
       </c>
       <c r="H284" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I284" t="n">
-        <v>274576</v>
+        <v>210213</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>85389</v>
+        <v>84889</v>
       </c>
       <c r="F285" t="n">
-        <v>646.1152057863984</v>
+        <v>444.0121223119979</v>
       </c>
       <c r="G285" t="n">
-        <v>71.8423054079263</v>
+        <v>70.06957272534508</v>
       </c>
       <c r="H285" t="n">
-        <v>0.82</v>
+        <v>0.35</v>
       </c>
       <c r="I285" t="n">
-        <v>16554.89</v>
+        <v>17129.6</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>133324</v>
+        <v>133934</v>
       </c>
       <c r="F286" t="n">
-        <v>5.367602915959004</v>
+        <v>5.367203191166254</v>
       </c>
       <c r="G286" t="n">
-        <v>4.235416551262936</v>
+        <v>4.235101140262968</v>
       </c>
       <c r="H286" t="n">
         <v>0.33</v>
       </c>
       <c r="I286" t="n">
-        <v>87328</v>
+        <v>87495</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21737744</v>
+        <v>21566173</v>
       </c>
       <c r="E287" t="n">
-        <v>21737744</v>
+        <v>21566173</v>
       </c>
       <c r="F287" t="n">
-        <v>1787.696852837807</v>
+        <v>1779.188965125582</v>
       </c>
       <c r="G287" t="n">
-        <v>1088.527760702544</v>
+        <v>1415.694415516946</v>
       </c>
       <c r="H287" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I287" t="n">
-        <v>712302</v>
+        <v>703996</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>569876</v>
+        <v>574214</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>2352.88</v>
+        <v>2725.79</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6931384</v>
+        <v>6857025</v>
       </c>
       <c r="E289" t="n">
-        <v>43319169</v>
+        <v>42854443</v>
       </c>
       <c r="F289" t="n">
-        <v>223.7516719651451</v>
+        <v>77.15459432376971</v>
       </c>
       <c r="G289" t="n">
-        <v>369.7499643333978</v>
+        <v>180.6010087187353</v>
       </c>
       <c r="H289" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="I289" t="n">
-        <v>450396</v>
+        <v>445109</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>496215410</v>
+        <v>494139980</v>
       </c>
       <c r="E290" t="n">
-        <v>496215410</v>
+        <v>494139980</v>
       </c>
       <c r="F290" t="n">
-        <v>1236484.722336621</v>
+        <v>1187793.173418862</v>
       </c>
       <c r="G290" t="n">
-        <v>1805648.32793758</v>
+        <v>1806064.934809864</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>33294256</v>
+        <v>33917495</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5314123</v>
+        <v>5280016</v>
       </c>
       <c r="E291" t="n">
-        <v>19747382</v>
+        <v>19620640</v>
       </c>
       <c r="F291" t="n">
-        <v>3669.380782513553</v>
+        <v>3664.548352797458</v>
       </c>
       <c r="G291" t="n">
-        <v>2259.729089809057</v>
+        <v>5189.076884223272</v>
       </c>
       <c r="H291" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I291" t="n">
-        <v>73197</v>
+        <v>73003</v>
       </c>
     </row>
     <row r="292">
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>34852798</v>
+        <v>34701318</v>
       </c>
       <c r="F292" t="n">
         <v>10087.59744043914</v>
@@ -10630,7 +10630,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="I292" t="n">
-        <v>5976134</v>
+        <v>6004762</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31460761</v>
+        <v>31405100</v>
       </c>
       <c r="E293" t="n">
-        <v>112766702</v>
+        <v>112567191</v>
       </c>
       <c r="F293" t="n">
-        <v>2754.555998236814</v>
+        <v>2665.918764130878</v>
       </c>
       <c r="G293" t="n">
-        <v>4240.624730250184</v>
+        <v>4302.084824945957</v>
       </c>
       <c r="H293" t="n">
         <v>0.55</v>
       </c>
       <c r="I293" t="n">
-        <v>84369</v>
+        <v>82717</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>734128</v>
+        <v>737506</v>
       </c>
       <c r="E294" t="n">
-        <v>11709083</v>
+        <v>11762952</v>
       </c>
       <c r="F294" t="n">
-        <v>15.25844286319668</v>
+        <v>15.25762923850687</v>
       </c>
       <c r="G294" t="n">
-        <v>1.624675988377158</v>
+        <v>1.624589355913482</v>
       </c>
       <c r="H294" t="n">
         <v>2.73</v>
       </c>
       <c r="I294" t="n">
-        <v>272477</v>
+        <v>272887</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>82799</v>
+        <v>82436</v>
       </c>
       <c r="F295" t="n">
-        <v>13.41050732965956</v>
+        <v>13.40924811625276</v>
       </c>
       <c r="G295" t="n">
-        <v>203.9366811034805</v>
+        <v>228.6000656396209</v>
       </c>
       <c r="H295" t="n">
         <v>0.61</v>
       </c>
       <c r="I295" t="n">
-        <v>54317</v>
+        <v>53827</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1570588</v>
+        <v>1549706</v>
       </c>
       <c r="F296" t="n">
-        <v>5.414826983514324</v>
+        <v>5.414295955184597</v>
       </c>
       <c r="G296" t="n">
-        <v>2.97771516798309</v>
+        <v>2.977423145520162</v>
       </c>
       <c r="H296" t="n">
         <v>0.67</v>
       </c>
       <c r="I296" t="n">
-        <v>605480</v>
+        <v>601422</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2721737630</v>
+        <v>2731311661</v>
       </c>
       <c r="E297" t="n">
-        <v>2889777158</v>
+        <v>2899942288</v>
       </c>
       <c r="F297" t="n">
-        <v>52924.24340866751</v>
+        <v>44809.38140560847</v>
       </c>
       <c r="G297" t="n">
-        <v>46989.61376164704</v>
+        <v>60642.93603637516</v>
       </c>
       <c r="H297" t="n">
         <v>0.21</v>
       </c>
       <c r="I297" t="n">
-        <v>42364180</v>
+        <v>41045693</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2211711</v>
+        <v>2203904</v>
       </c>
       <c r="E298" t="n">
-        <v>17011857</v>
+        <v>16951806</v>
       </c>
       <c r="F298" t="n">
-        <v>4062.03182440829</v>
+        <v>1381.056448929988</v>
       </c>
       <c r="G298" t="n">
-        <v>4053.138102755818</v>
+        <v>4067.326022411009</v>
       </c>
       <c r="H298" t="n">
         <v>0.76</v>
       </c>
       <c r="I298" t="n">
-        <v>177928</v>
+        <v>126207</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1751788</v>
+        <v>1743508</v>
       </c>
       <c r="E299" t="n">
-        <v>1757971</v>
+        <v>1749662</v>
       </c>
       <c r="F299" t="n">
-        <v>332.9169842182999</v>
+        <v>944.5553012348804</v>
       </c>
       <c r="G299" t="n">
-        <v>2051.331233463428</v>
+        <v>962.8177818651272</v>
       </c>
       <c r="H299" t="n">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="I299" t="n">
-        <v>453405</v>
+        <v>450488</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>89182590</v>
+        <v>88986703</v>
       </c>
       <c r="E300" t="n">
-        <v>329666806</v>
+        <v>328942702</v>
       </c>
       <c r="F300" t="n">
-        <v>4923.678867593673</v>
+        <v>4195.7665819009</v>
       </c>
       <c r="G300" t="n">
-        <v>922.8018525947804</v>
+        <v>793.507368634918</v>
       </c>
       <c r="H300" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="I300" t="n">
-        <v>234683</v>
+        <v>225966</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2303379</v>
+        <v>2280565</v>
       </c>
       <c r="E301" t="n">
-        <v>9234667</v>
+        <v>9143201</v>
       </c>
       <c r="F301" t="n">
-        <v>519.6510815668635</v>
+        <v>558.1824137384082</v>
       </c>
       <c r="G301" t="n">
-        <v>5.577668580446397</v>
+        <v>5.577371162884898</v>
       </c>
       <c r="H301" t="n">
         <v>0.87</v>
       </c>
       <c r="I301" t="n">
-        <v>28097</v>
+        <v>26194</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>63055763</v>
+        <v>63055428</v>
       </c>
       <c r="E302" t="n">
-        <v>154671513</v>
+        <v>154670691</v>
       </c>
       <c r="F302" t="n">
-        <v>2337.978544360885</v>
+        <v>1311.986395135296</v>
       </c>
       <c r="G302" t="n">
-        <v>2094.176639478863</v>
+        <v>3289.769960494862</v>
       </c>
       <c r="H302" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I302" t="n">
-        <v>22745116</v>
+        <v>22743592</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>835348539</v>
+        <v>824192951</v>
       </c>
       <c r="E303" t="n">
-        <v>1288181202</v>
+        <v>1270978300</v>
       </c>
       <c r="F303" t="n">
-        <v>40432.15402011048</v>
+        <v>43682.52788076708</v>
       </c>
       <c r="G303" t="n">
-        <v>24285.49722060846</v>
+        <v>32076.84348914052</v>
       </c>
       <c r="H303" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I303" t="n">
-        <v>266498281</v>
+        <v>268650752</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20021232</v>
+        <v>20260515</v>
       </c>
       <c r="E304" t="n">
-        <v>20021233</v>
+        <v>20260515</v>
       </c>
       <c r="F304" t="n">
-        <v>3510.011839717904</v>
+        <v>3521.710295400528</v>
       </c>
       <c r="G304" t="n">
-        <v>2860.634476104606</v>
+        <v>3760.160946169139</v>
       </c>
       <c r="H304" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="I304" t="n">
-        <v>7056965</v>
+        <v>7062326</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1820397</v>
+        <v>1817510</v>
       </c>
       <c r="E305" t="n">
-        <v>2986962</v>
+        <v>2982225</v>
       </c>
       <c r="F305" t="n">
-        <v>746.2423279084099</v>
+        <v>235.4160279097102</v>
       </c>
       <c r="G305" t="n">
-        <v>35.03635034537815</v>
+        <v>35.03358339591909</v>
       </c>
       <c r="H305" t="n">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
       <c r="I305" t="n">
-        <v>176353</v>
+        <v>175722</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5877221</v>
+        <v>5862392</v>
       </c>
       <c r="E306" t="n">
-        <v>5877221</v>
+        <v>5862392</v>
       </c>
       <c r="F306" t="n">
-        <v>41.59129960261555</v>
+        <v>41.19401232232201</v>
       </c>
       <c r="G306" t="n">
-        <v>5.441001189891796</v>
+        <v>5.440595999137742</v>
       </c>
       <c r="H306" t="n">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="I306" t="n">
-        <v>417.68</v>
+        <v>417.75</v>
       </c>
     </row>
     <row r="307">
@@ -11140,10 +11140,10 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39962152</v>
+        <v>39796448</v>
       </c>
       <c r="E307" t="n">
-        <v>190583639</v>
+        <v>189793381</v>
       </c>
       <c r="F307" t="n">
         <v>1208.12780792114</v>
@@ -11155,7 +11155,7 @@
         <v>0.2</v>
       </c>
       <c r="I307" t="n">
-        <v>298053</v>
+        <v>298140</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>407358</v>
+        <v>406382</v>
       </c>
       <c r="E308" t="n">
-        <v>761875</v>
+        <v>760050</v>
       </c>
       <c r="F308" t="n">
-        <v>17.75535007895424</v>
+        <v>17.75394280575817</v>
       </c>
       <c r="G308" t="n">
-        <v>4.184933032625223</v>
+        <v>4.18460133856918</v>
       </c>
       <c r="H308" t="n">
         <v>0.54</v>
       </c>
       <c r="I308" t="n">
-        <v>2127.87</v>
+        <v>2123.01</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23521118</v>
+        <v>23660218</v>
       </c>
       <c r="E309" t="n">
-        <v>39201862</v>
+        <v>39433697</v>
       </c>
       <c r="F309" t="n">
-        <v>4576.36142185721</v>
+        <v>5408.114004195893</v>
       </c>
       <c r="G309" t="n">
-        <v>5506.454150048407</v>
+        <v>6485.629751728768</v>
       </c>
       <c r="H309" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="I309" t="n">
-        <v>490508</v>
+        <v>494183</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>110346</v>
+        <v>109272</v>
       </c>
       <c r="F310" t="n">
-        <v>14.87124955652202</v>
+        <v>14.87017689589723</v>
       </c>
       <c r="G310" t="n">
-        <v>84.09079075447607</v>
+        <v>84.08472530047328</v>
       </c>
       <c r="H310" t="n">
         <v>0.18</v>
       </c>
       <c r="I310" t="n">
-        <v>50417</v>
+        <v>50854</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>24477637</v>
+        <v>24310478</v>
       </c>
       <c r="E311" t="n">
-        <v>24477637</v>
+        <v>24310478</v>
       </c>
       <c r="F311" t="n">
-        <v>3432.607442468862</v>
+        <v>6519.370592093282</v>
       </c>
       <c r="G311" t="n">
-        <v>2542.676250219423</v>
+        <v>7390.606536087977</v>
       </c>
       <c r="H311" t="n">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="I311" t="n">
-        <v>5964491</v>
+        <v>5817990</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3825035</v>
+        <v>3818306</v>
       </c>
       <c r="E312" t="n">
-        <v>8346176</v>
+        <v>8331495</v>
       </c>
       <c r="F312" t="n">
-        <v>1840.826030845502</v>
+        <v>1840.688944735522</v>
       </c>
       <c r="G312" t="n">
-        <v>1710.276757730374</v>
+        <v>1710.149393610257</v>
       </c>
       <c r="H312" t="n">
         <v>0.71</v>
       </c>
       <c r="I312" t="n">
-        <v>1816722</v>
+        <v>1840879</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9267456</v>
+        <v>9254878</v>
       </c>
       <c r="E313" t="n">
-        <v>9267456</v>
+        <v>9254878</v>
       </c>
       <c r="F313" t="n">
-        <v>15333.47387338753</v>
+        <v>15423.90399900046</v>
       </c>
       <c r="G313" t="n">
-        <v>112983.2262632602</v>
+        <v>112809.6870809347</v>
       </c>
       <c r="H313" t="n">
         <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>865763</v>
+        <v>2828878</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>510452059</v>
+        <v>510337594</v>
       </c>
       <c r="E314" t="n">
-        <v>1776841137</v>
+        <v>1776442692</v>
       </c>
       <c r="F314" t="n">
-        <v>350640.2356059545</v>
+        <v>387898.0595631755</v>
       </c>
       <c r="G314" t="n">
-        <v>490264.8602919155</v>
+        <v>513453.1623638735</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>33775939</v>
+        <v>33276453</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24788239</v>
+        <v>24491834</v>
       </c>
       <c r="E315" t="n">
-        <v>24766707</v>
+        <v>24470560</v>
       </c>
       <c r="F315" t="n">
-        <v>112.2628800507658</v>
+        <v>90.10419953500555</v>
       </c>
       <c r="G315" t="n">
-        <v>726.689564744391</v>
+        <v>721.9279416271272</v>
       </c>
       <c r="H315" t="n">
-        <v>0.37</v>
+        <v>0.65</v>
       </c>
       <c r="I315" t="n">
-        <v>158147</v>
+        <v>214361</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>49028462</v>
+        <v>48975459</v>
       </c>
       <c r="E316" t="n">
-        <v>120690215</v>
+        <v>120559741</v>
       </c>
       <c r="F316" t="n">
-        <v>979.1052349831996</v>
+        <v>1105.796852693143</v>
       </c>
       <c r="G316" t="n">
-        <v>1941.693384393945</v>
+        <v>1749.355274501005</v>
       </c>
       <c r="H316" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="I316" t="n">
-        <v>25775</v>
+        <v>27150</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12270531</v>
+        <v>12266114</v>
       </c>
       <c r="E317" t="n">
-        <v>24805841</v>
+        <v>24795142</v>
       </c>
       <c r="F317" t="n">
-        <v>360.8030771061468</v>
+        <v>360.8147627057904</v>
       </c>
       <c r="G317" t="n">
-        <v>2658.120862108876</v>
+        <v>2657.924315295192</v>
       </c>
       <c r="H317" t="n">
         <v>0.23</v>
       </c>
       <c r="I317" t="n">
-        <v>43576</v>
+        <v>43911</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7496390</v>
+        <v>7486045</v>
       </c>
       <c r="E318" t="n">
-        <v>19474814</v>
+        <v>19447939</v>
       </c>
       <c r="F318" t="n">
-        <v>300.0694259225227</v>
+        <v>300.0514767456322</v>
       </c>
       <c r="G318" t="n">
-        <v>136.2149995640171</v>
+        <v>136.2068516258697</v>
       </c>
       <c r="H318" t="n">
         <v>0.15</v>
       </c>
       <c r="I318" t="n">
-        <v>717309</v>
+        <v>717796</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>152735</v>
+        <v>152531</v>
       </c>
       <c r="F319" t="n">
-        <v>261.4512450984818</v>
+        <v>162.3800439701697</v>
       </c>
       <c r="G319" t="n">
-        <v>13.85440754157145</v>
+        <v>1.100105434593754</v>
       </c>
       <c r="H319" t="n">
-        <v>1.65</v>
+        <v>0.93</v>
       </c>
       <c r="I319" t="n">
-        <v>57766</v>
+        <v>57733</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19170200281</v>
+        <v>19118242516</v>
       </c>
       <c r="F320" t="n">
-        <v>51836.09703434961</v>
+        <v>51832.46327482096</v>
       </c>
       <c r="G320" t="n">
-        <v>49952.96025386998</v>
+        <v>49849.57391985511</v>
       </c>
       <c r="H320" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="I320" t="n">
-        <v>45768995</v>
+        <v>45599570</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>111340544</v>
+        <v>110731357</v>
       </c>
       <c r="E321" t="n">
-        <v>168693789</v>
+        <v>167770800</v>
       </c>
       <c r="F321" t="n">
-        <v>20618.45816977588</v>
+        <v>15095.63156111242</v>
       </c>
       <c r="G321" t="n">
-        <v>16574.65876773675</v>
+        <v>19085.60102170249</v>
       </c>
       <c r="H321" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I321" t="n">
-        <v>8443466</v>
+        <v>8527280</v>
       </c>
     </row>
     <row r="322">
@@ -11665,10 +11665,10 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2664050</v>
+        <v>2624129</v>
       </c>
       <c r="E322" t="n">
-        <v>10656201</v>
+        <v>10496515</v>
       </c>
       <c r="F322" t="n">
         <v>41756.05682713838</v>
@@ -11680,7 +11680,7 @@
         <v>0.57</v>
       </c>
       <c r="I322" t="n">
-        <v>6992341</v>
+        <v>7003312</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>228964341</v>
+        <v>227814214</v>
       </c>
       <c r="E323" t="n">
-        <v>703979185</v>
+        <v>700442976</v>
       </c>
       <c r="F323" t="n">
-        <v>46261.83478242288</v>
+        <v>87410.67237210518</v>
       </c>
       <c r="G323" t="n">
-        <v>98787.73690206392</v>
+        <v>121579.7025130251</v>
       </c>
       <c r="H323" t="n">
         <v>0.06</v>
       </c>
       <c r="I323" t="n">
-        <v>16439033</v>
+        <v>16552331</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>147097952</v>
+        <v>147480953</v>
       </c>
       <c r="E324" t="n">
-        <v>384289320</v>
+        <v>385289899</v>
       </c>
       <c r="F324" t="n">
-        <v>11959.55481486405</v>
+        <v>11193.80286439056</v>
       </c>
       <c r="G324" t="n">
-        <v>9014.654526739723</v>
+        <v>10450.14656573752</v>
       </c>
       <c r="H324" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="I324" t="n">
-        <v>8561302</v>
+        <v>8373456</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2442102</v>
+        <v>2483621</v>
       </c>
       <c r="E325" t="n">
-        <v>3351790</v>
+        <v>3408774</v>
       </c>
       <c r="F325" t="n">
-        <v>43.56942788008315</v>
+        <v>57.57593746985012</v>
       </c>
       <c r="G325" t="n">
-        <v>494.6261910446655</v>
+        <v>385.6639905361034</v>
       </c>
       <c r="H325" t="n">
         <v>1.05</v>
       </c>
       <c r="I325" t="n">
-        <v>2012745</v>
+        <v>2006497</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>414525681</v>
+        <v>411654705</v>
       </c>
       <c r="E326" t="n">
-        <v>2368718176</v>
+        <v>2352312600</v>
       </c>
       <c r="F326" t="n">
-        <v>205939.3551720894</v>
+        <v>282511.9969235989</v>
       </c>
       <c r="G326" t="n">
-        <v>358340.4175163796</v>
+        <v>342366.0575120166</v>
       </c>
       <c r="H326" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I326" t="n">
-        <v>41590884</v>
+        <v>41603991</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250221.xlsx
+++ b/MexcData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91172</v>
+        <v>91205</v>
       </c>
       <c r="F2" t="n">
-        <v>3.902129373355929</v>
+        <v>5.218980911254802</v>
       </c>
       <c r="G2" t="n">
-        <v>29.00477997556757</v>
+        <v>28.97994911033884</v>
       </c>
       <c r="H2" t="n">
         <v>0.21</v>
       </c>
       <c r="I2" t="n">
-        <v>1400.79</v>
+        <v>1375.35</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>620269343</v>
+        <v>632475217</v>
       </c>
       <c r="E3" t="n">
-        <v>1203605168</v>
+        <v>1227298687</v>
       </c>
       <c r="F3" t="n">
-        <v>13761.71701474219</v>
+        <v>18993.56299407431</v>
       </c>
       <c r="G3" t="n">
-        <v>24431.3522624258</v>
+        <v>30171.66357418949</v>
       </c>
       <c r="H3" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="I3" t="n">
-        <v>20815311</v>
+        <v>22135949</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252833996</v>
+        <v>254393046</v>
       </c>
       <c r="E4" t="n">
-        <v>1585486453</v>
+        <v>1595263031</v>
       </c>
       <c r="F4" t="n">
-        <v>70311.04356941534</v>
+        <v>62314.38327425306</v>
       </c>
       <c r="G4" t="n">
-        <v>127571.3836800347</v>
+        <v>142612.5488931019</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>18417698</v>
+        <v>17618075</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>150803999</v>
+        <v>152546116</v>
       </c>
       <c r="E5" t="n">
-        <v>167114399</v>
+        <v>169044936</v>
       </c>
       <c r="F5" t="n">
-        <v>107658.9197027208</v>
+        <v>109571.3913862381</v>
       </c>
       <c r="G5" t="n">
-        <v>272002.2712892739</v>
+        <v>303976.6673433842</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>39251610</v>
+        <v>40547338</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48585321</v>
+        <v>50229261</v>
       </c>
       <c r="E6" t="n">
-        <v>60778990</v>
+        <v>62835517</v>
       </c>
       <c r="F6" t="n">
-        <v>9065.902801082164</v>
+        <v>9692.496696761687</v>
       </c>
       <c r="G6" t="n">
-        <v>8703.825627337068</v>
+        <v>14605.13530027053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="I6" t="n">
-        <v>514817</v>
+        <v>743518</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8510493</v>
+        <v>8574302</v>
       </c>
       <c r="E7" t="n">
-        <v>8725096</v>
+        <v>8790514</v>
       </c>
       <c r="F7" t="n">
-        <v>496.222197334504</v>
+        <v>396.7834982315611</v>
       </c>
       <c r="G7" t="n">
-        <v>717.7065753892306</v>
+        <v>250.6100638312783</v>
       </c>
       <c r="H7" t="n">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="I7" t="n">
-        <v>86253</v>
+        <v>92301</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69087126</v>
+        <v>69242655</v>
       </c>
       <c r="E8" t="n">
-        <v>137598174</v>
+        <v>137907934</v>
       </c>
       <c r="F8" t="n">
-        <v>31806.54524965995</v>
+        <v>28577.18875972581</v>
       </c>
       <c r="G8" t="n">
-        <v>33719.77056705639</v>
+        <v>26542.40788448427</v>
       </c>
       <c r="H8" t="n">
-        <v>0.14</v>
+        <v>0.39</v>
       </c>
       <c r="I8" t="n">
-        <v>978172</v>
+        <v>976253</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4956037</v>
+        <v>4962384</v>
       </c>
       <c r="E9" t="n">
-        <v>7918258</v>
+        <v>7928398</v>
       </c>
       <c r="F9" t="n">
-        <v>394.2890692370391</v>
+        <v>380.2414174272091</v>
       </c>
       <c r="G9" t="n">
-        <v>841.8719515301259</v>
+        <v>630.0325723886324</v>
       </c>
       <c r="H9" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="I9" t="n">
-        <v>98198</v>
+        <v>99394</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14217875</v>
+        <v>14182068</v>
       </c>
       <c r="E10" t="n">
-        <v>41899161</v>
+        <v>41793638</v>
       </c>
       <c r="F10" t="n">
-        <v>3830.80437968085</v>
+        <v>3879.677807632336</v>
       </c>
       <c r="G10" t="n">
-        <v>5037.715878270954</v>
+        <v>4984.301684754754</v>
       </c>
       <c r="H10" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="I10" t="n">
-        <v>897663</v>
+        <v>898835</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>129663844</v>
+        <v>129566492</v>
       </c>
       <c r="E11" t="n">
-        <v>508243444</v>
+        <v>507861855</v>
       </c>
       <c r="F11" t="n">
-        <v>67352.91589662996</v>
+        <v>66286.47731647466</v>
       </c>
       <c r="G11" t="n">
-        <v>53809.92295052268</v>
+        <v>69081.69051483112</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>29454694</v>
+        <v>29281326</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10573163</v>
+        <v>10999112</v>
       </c>
       <c r="E12" t="n">
-        <v>45445352</v>
+        <v>47276158</v>
       </c>
       <c r="F12" t="n">
-        <v>1021.213273710783</v>
+        <v>3535.256243958632</v>
       </c>
       <c r="G12" t="n">
-        <v>857.1294501103359</v>
+        <v>1297.371331793264</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="I12" t="n">
-        <v>853532</v>
+        <v>782616</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1006218</v>
+        <v>1006610</v>
       </c>
       <c r="E13" t="n">
-        <v>12313394</v>
+        <v>12318198</v>
       </c>
       <c r="F13" t="n">
-        <v>233.3265303951192</v>
+        <v>233.3355498680719</v>
       </c>
       <c r="G13" t="n">
-        <v>199.636812301432</v>
+        <v>200.3227130364475</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>531.38</v>
+        <v>526.41</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>589856</v>
+        <v>587748</v>
       </c>
       <c r="E14" t="n">
-        <v>589856</v>
+        <v>587748</v>
       </c>
       <c r="F14" t="n">
-        <v>288.2663212472959</v>
+        <v>160.347512486556</v>
       </c>
       <c r="G14" t="n">
-        <v>694.6079985598781</v>
+        <v>765.9803718793315</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
       <c r="I14" t="n">
-        <v>26601</v>
+        <v>26684</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>591964510</v>
+        <v>594586132</v>
       </c>
       <c r="E15" t="n">
-        <v>740459620</v>
+        <v>743738880</v>
       </c>
       <c r="F15" t="n">
-        <v>451843.2559950089</v>
+        <v>511138.1711856604</v>
       </c>
       <c r="G15" t="n">
-        <v>475462.1186289837</v>
+        <v>545350.1792582632</v>
       </c>
       <c r="H15" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I15" t="n">
-        <v>56688853</v>
+        <v>56057064</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3383888</v>
+        <v>3392987</v>
       </c>
       <c r="E16" t="n">
-        <v>9626862</v>
+        <v>9652748</v>
       </c>
       <c r="F16" t="n">
-        <v>201.2418798682404</v>
+        <v>195.684401209562</v>
       </c>
       <c r="G16" t="n">
-        <v>49.93598233949647</v>
+        <v>49.23579878557653</v>
       </c>
       <c r="H16" t="n">
         <v>0.72</v>
       </c>
       <c r="I16" t="n">
-        <v>107689</v>
+        <v>107828</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>317410</v>
+        <v>317954</v>
       </c>
       <c r="E17" t="n">
-        <v>3663287</v>
+        <v>3669565</v>
       </c>
       <c r="F17" t="n">
-        <v>3.965912402200698</v>
+        <v>3.965995135506068</v>
       </c>
       <c r="G17" t="n">
-        <v>4.112421228244526</v>
+        <v>4.112507017885543</v>
       </c>
       <c r="H17" t="n">
         <v>0.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3427.54</v>
+        <v>3416.76</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1302078</v>
+        <v>1296384</v>
       </c>
       <c r="E18" t="n">
-        <v>9987713</v>
+        <v>9944035</v>
       </c>
       <c r="F18" t="n">
-        <v>76.23587453900868</v>
+        <v>245.031817230313</v>
       </c>
       <c r="G18" t="n">
-        <v>129.2811405453681</v>
+        <v>116.4542686589747</v>
       </c>
       <c r="H18" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="I18" t="n">
-        <v>146290</v>
+        <v>123600</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23196029</v>
+        <v>23122106</v>
       </c>
       <c r="E19" t="n">
-        <v>23239097</v>
+        <v>23165037</v>
       </c>
       <c r="F19" t="n">
-        <v>1745.636195281639</v>
+        <v>936.3309357713363</v>
       </c>
       <c r="G19" t="n">
-        <v>1019.255791856883</v>
+        <v>1122.835749950228</v>
       </c>
       <c r="H19" t="n">
-        <v>0.55</v>
+        <v>0.78</v>
       </c>
       <c r="I19" t="n">
-        <v>834519</v>
+        <v>838858</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3806923</v>
+        <v>3792616</v>
       </c>
       <c r="E20" t="n">
-        <v>21123065</v>
+        <v>21043677</v>
       </c>
       <c r="F20" t="n">
-        <v>4.141499607893472</v>
+        <v>4.16698199998221</v>
       </c>
       <c r="G20" t="n">
-        <v>54.0064489476696</v>
+        <v>4.315878674396752</v>
       </c>
       <c r="H20" t="n">
         <v>0.13</v>
       </c>
       <c r="I20" t="n">
-        <v>5751.2</v>
+        <v>2876.27</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6934768</v>
+        <v>6954282</v>
       </c>
       <c r="E21" t="n">
-        <v>12865457</v>
+        <v>12901660</v>
       </c>
       <c r="F21" t="n">
-        <v>157.906803059282</v>
+        <v>512.7913053035569</v>
       </c>
       <c r="G21" t="n">
-        <v>412.5931958920032</v>
+        <v>137.3965203982027</v>
       </c>
       <c r="H21" t="n">
-        <v>0.47</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>53751</v>
+        <v>55526</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72046633</v>
+        <v>72595536</v>
       </c>
       <c r="E22" t="n">
-        <v>124761419</v>
+        <v>125708936</v>
       </c>
       <c r="F22" t="n">
-        <v>491.9153562524963</v>
+        <v>555.696210478241</v>
       </c>
       <c r="G22" t="n">
-        <v>640.5843143314806</v>
+        <v>511.3521296294497</v>
       </c>
       <c r="H22" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="I22" t="n">
-        <v>758236</v>
+        <v>825871</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>172872</v>
+        <v>172462</v>
       </c>
       <c r="E23" t="n">
-        <v>519916</v>
+        <v>518684</v>
       </c>
       <c r="F23" t="n">
-        <v>5.615309771910804</v>
+        <v>3.961165413053809</v>
       </c>
       <c r="G23" t="n">
-        <v>148.0001893425256</v>
+        <v>227.3940479332648</v>
       </c>
       <c r="H23" t="n">
         <v>0.39</v>
       </c>
       <c r="I23" t="n">
-        <v>142.82</v>
+        <v>179.63</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82605075</v>
+        <v>82420143</v>
       </c>
       <c r="E24" t="n">
-        <v>243034375</v>
+        <v>242490284</v>
       </c>
       <c r="F24" t="n">
-        <v>46.67751250669048</v>
+        <v>283.6227283945979</v>
       </c>
       <c r="G24" t="n">
-        <v>232.068316009248</v>
+        <v>291.7094676018388</v>
       </c>
       <c r="H24" t="n">
-        <v>0.39</v>
+        <v>0.57</v>
       </c>
       <c r="I24" t="n">
-        <v>353204</v>
+        <v>365976</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7202300</v>
+        <v>6863019</v>
       </c>
       <c r="F25" t="n">
-        <v>15.47639347093034</v>
+        <v>3.919151458315948</v>
       </c>
       <c r="G25" t="n">
-        <v>5.246709282513097</v>
+        <v>3.993478073493624</v>
       </c>
       <c r="H25" t="n">
-        <v>0.55</v>
+        <v>0.42</v>
       </c>
       <c r="I25" t="n">
-        <v>19136.43</v>
+        <v>18666.36</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2428967</v>
+        <v>2444262</v>
       </c>
       <c r="E26" t="n">
-        <v>2428967</v>
+        <v>2444262</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.6</v>
+        <v>6.74</v>
       </c>
       <c r="I26" t="n">
-        <v>318418</v>
+        <v>317671</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17432345</v>
+        <v>17822580</v>
       </c>
       <c r="E27" t="n">
-        <v>22436859</v>
+        <v>22939123</v>
       </c>
       <c r="F27" t="n">
-        <v>4764.927008211771</v>
+        <v>1764.500158139035</v>
       </c>
       <c r="G27" t="n">
-        <v>4400.878250881324</v>
+        <v>4668.856934521402</v>
       </c>
       <c r="H27" t="n">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="I27" t="n">
-        <v>1540485</v>
+        <v>1691743</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4774925</v>
+        <v>4750965</v>
       </c>
       <c r="E28" t="n">
-        <v>4774925</v>
+        <v>4750965</v>
       </c>
       <c r="F28" t="n">
-        <v>909.0160369611806</v>
+        <v>1415.673415693299</v>
       </c>
       <c r="G28" t="n">
-        <v>7292.840608811402</v>
+        <v>1953.173954434739</v>
       </c>
       <c r="H28" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>2017813</v>
+        <v>2021214</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1722310</v>
+        <v>1706144</v>
       </c>
       <c r="F29" t="n">
-        <v>81.62116750789633</v>
+        <v>37.1599998625396</v>
       </c>
       <c r="G29" t="n">
-        <v>102.6637548512246</v>
+        <v>123.3171985600112</v>
       </c>
       <c r="H29" t="n">
-        <v>2.18</v>
+        <v>1.59</v>
       </c>
       <c r="I29" t="n">
-        <v>157099</v>
+        <v>158553</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3419525</v>
+        <v>3388789</v>
       </c>
       <c r="E30" t="n">
-        <v>3419525</v>
+        <v>3388789</v>
       </c>
       <c r="F30" t="n">
-        <v>671.2714413620166</v>
+        <v>1164.555072726066</v>
       </c>
       <c r="G30" t="n">
-        <v>684.0489773087494</v>
+        <v>391.8399483501803</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>512550</v>
+        <v>535979</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>313227</v>
+        <v>327825</v>
       </c>
       <c r="E31" t="n">
-        <v>1462175</v>
+        <v>1530320</v>
       </c>
       <c r="F31" t="n">
-        <v>32.04066318793863</v>
+        <v>78.47077168696821</v>
       </c>
       <c r="G31" t="n">
-        <v>337.0823491711128</v>
+        <v>5.950326072522235</v>
       </c>
       <c r="H31" t="n">
-        <v>2.01</v>
+        <v>3.18</v>
       </c>
       <c r="I31" t="n">
-        <v>700075</v>
+        <v>724276</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>374556</v>
+        <v>387948</v>
       </c>
       <c r="E32" t="n">
-        <v>374556</v>
+        <v>387948</v>
       </c>
       <c r="F32" t="n">
-        <v>129.4072791600069</v>
+        <v>8.136740074066237</v>
       </c>
       <c r="G32" t="n">
-        <v>515.4896110922953</v>
+        <v>631.4900112366355</v>
       </c>
       <c r="H32" t="n">
-        <v>1.07</v>
+        <v>0.37</v>
       </c>
       <c r="I32" t="n">
-        <v>53586</v>
+        <v>56318</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1902451</v>
+        <v>1896097</v>
       </c>
       <c r="F33" t="n">
-        <v>36.23456003998008</v>
+        <v>37.74325046280615</v>
       </c>
       <c r="G33" t="n">
-        <v>9.909589821201298</v>
+        <v>3.915555180244785</v>
       </c>
       <c r="H33" t="n">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
       <c r="I33" t="n">
-        <v>1407834</v>
+        <v>1419506</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1459214</v>
+        <v>1464282</v>
       </c>
       <c r="F34" t="n">
-        <v>197.6631716947353</v>
+        <v>195.3309335018174</v>
       </c>
       <c r="G34" t="n">
-        <v>155.0566352259314</v>
+        <v>364.8094859084506</v>
       </c>
       <c r="H34" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="I34" t="n">
-        <v>243077</v>
+        <v>333137</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12788000</v>
+        <v>12637455</v>
       </c>
       <c r="E35" t="n">
-        <v>31827019</v>
+        <v>31452340</v>
       </c>
       <c r="F35" t="n">
-        <v>392.356119907574</v>
+        <v>584.2840188812934</v>
       </c>
       <c r="G35" t="n">
-        <v>846.095002688084</v>
+        <v>587.7360220728997</v>
       </c>
       <c r="H35" t="n">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="I35" t="n">
-        <v>1249386</v>
+        <v>1256505</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6808691</v>
+        <v>6779412</v>
       </c>
       <c r="E36" t="n">
-        <v>9377308</v>
+        <v>9336982</v>
       </c>
       <c r="F36" t="n">
-        <v>456.8059993160935</v>
+        <v>1059.97298789828</v>
       </c>
       <c r="G36" t="n">
-        <v>162.3493198277472</v>
+        <v>349.0971320075709</v>
       </c>
       <c r="H36" t="n">
-        <v>2.13</v>
+        <v>1.22</v>
       </c>
       <c r="I36" t="n">
-        <v>365227</v>
+        <v>335892</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>907824</v>
+        <v>896522</v>
       </c>
       <c r="E37" t="n">
-        <v>6354765</v>
+        <v>6275657</v>
       </c>
       <c r="F37" t="n">
-        <v>81.53460207387</v>
+        <v>103.1871650111697</v>
       </c>
       <c r="G37" t="n">
-        <v>194.1289017126565</v>
+        <v>72.3513800103368</v>
       </c>
       <c r="H37" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I37" t="n">
-        <v>223416</v>
+        <v>211808</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>117417421</v>
+        <v>116964512</v>
       </c>
       <c r="E38" t="n">
-        <v>456737647</v>
+        <v>454949609</v>
       </c>
       <c r="F38" t="n">
-        <v>25699.41919163896</v>
+        <v>14433.794924958</v>
       </c>
       <c r="G38" t="n">
-        <v>27239.74790961053</v>
+        <v>26135.71206752526</v>
       </c>
       <c r="H38" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I38" t="n">
-        <v>9705482</v>
+        <v>10974839</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5728316</v>
+        <v>5528687</v>
       </c>
       <c r="E39" t="n">
-        <v>6002359</v>
+        <v>5793180</v>
       </c>
       <c r="F39" t="n">
-        <v>1193.540619480835</v>
+        <v>587.7845552446325</v>
       </c>
       <c r="G39" t="n">
-        <v>91.54488269107395</v>
+        <v>5747.241667714828</v>
       </c>
       <c r="H39" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I39" t="n">
-        <v>153465</v>
+        <v>158590</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5370860</v>
+        <v>5166381</v>
       </c>
       <c r="E40" t="n">
-        <v>7906197</v>
+        <v>7605193</v>
       </c>
       <c r="F40" t="n">
-        <v>1906.300774267198</v>
+        <v>2456.183618348937</v>
       </c>
       <c r="G40" t="n">
-        <v>2027.376830465377</v>
+        <v>2332.992239414497</v>
       </c>
       <c r="H40" t="n">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="I40" t="n">
-        <v>587795</v>
+        <v>622780</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7630127</v>
+        <v>7621964</v>
       </c>
       <c r="E41" t="n">
-        <v>7630127</v>
+        <v>7621964</v>
       </c>
       <c r="F41" t="n">
-        <v>3531.272111522624</v>
+        <v>2047.249102213933</v>
       </c>
       <c r="G41" t="n">
-        <v>1926.70109771475</v>
+        <v>1994.35956672737</v>
       </c>
       <c r="H41" t="n">
         <v>0.83</v>
       </c>
       <c r="I41" t="n">
-        <v>67909</v>
+        <v>370030</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1463569</v>
+        <v>1488168</v>
       </c>
       <c r="E42" t="n">
-        <v>1463569</v>
+        <v>1488438</v>
       </c>
       <c r="F42" t="n">
-        <v>607.5230449640253</v>
+        <v>178.6300830061361</v>
       </c>
       <c r="G42" t="n">
-        <v>1167.40666742187</v>
+        <v>1502.00729253837</v>
       </c>
       <c r="H42" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="I42" t="n">
-        <v>277899</v>
+        <v>280061</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15803497</v>
+        <v>15793863</v>
       </c>
       <c r="F43" t="n">
-        <v>389.7475627488188</v>
+        <v>397.4945896511026</v>
       </c>
       <c r="G43" t="n">
-        <v>287.0872374130744</v>
+        <v>299.1106648756631</v>
       </c>
       <c r="H43" t="n">
-        <v>0.29</v>
+        <v>0.62</v>
       </c>
       <c r="I43" t="n">
-        <v>10330.62</v>
+        <v>10523.4</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>144764227</v>
+        <v>145858297</v>
       </c>
       <c r="E44" t="n">
-        <v>144764227</v>
+        <v>145858297</v>
       </c>
       <c r="F44" t="n">
-        <v>276891.4671340897</v>
+        <v>268896.7635059931</v>
       </c>
       <c r="G44" t="n">
-        <v>309997.0324153546</v>
+        <v>369003.9092700046</v>
       </c>
       <c r="H44" t="n">
         <v>0.14</v>
       </c>
       <c r="I44" t="n">
-        <v>72304374</v>
+        <v>73154902</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>68632355</v>
+        <v>69755734</v>
       </c>
       <c r="E45" t="n">
-        <v>351960795</v>
+        <v>357721714</v>
       </c>
       <c r="F45" t="n">
-        <v>48284.51127308338</v>
+        <v>38576.92593487621</v>
       </c>
       <c r="G45" t="n">
-        <v>58861.33210805249</v>
+        <v>57181.40201872053</v>
       </c>
       <c r="H45" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>25443282</v>
+        <v>26293617</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>594689</v>
+        <v>595131</v>
       </c>
       <c r="F46" t="n">
-        <v>89.54782765440574</v>
+        <v>147.5832414557069</v>
       </c>
       <c r="G46" t="n">
-        <v>559.3456850334285</v>
+        <v>558.8832724017789</v>
       </c>
       <c r="H46" t="n">
         <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>1521.49</v>
+        <v>1307.58</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2726910</v>
+        <v>2736493</v>
       </c>
       <c r="E47" t="n">
-        <v>10958830</v>
+        <v>10997341</v>
       </c>
       <c r="F47" t="n">
-        <v>436.0999630759188</v>
+        <v>505.5896713138594</v>
       </c>
       <c r="G47" t="n">
-        <v>332.5527720334434</v>
+        <v>88.68822001354911</v>
       </c>
       <c r="H47" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="I47" t="n">
-        <v>35326</v>
+        <v>39674</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17645864</v>
+        <v>17586888</v>
       </c>
       <c r="E48" t="n">
-        <v>124258659</v>
+        <v>123838377</v>
       </c>
       <c r="F48" t="n">
-        <v>680.9911305109906</v>
+        <v>792.0408087906062</v>
       </c>
       <c r="G48" t="n">
-        <v>741.0244453197492</v>
+        <v>1296.14637699876</v>
       </c>
       <c r="H48" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="I48" t="n">
-        <v>1077088</v>
+        <v>1089274</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1025720</v>
+        <v>1028835</v>
       </c>
       <c r="E49" t="n">
-        <v>1203950</v>
+        <v>1207606</v>
       </c>
       <c r="F49" t="n">
-        <v>1325.553062141577</v>
+        <v>2478.866922559095</v>
       </c>
       <c r="G49" t="n">
-        <v>4610.069087787134</v>
+        <v>5007.875138300864</v>
       </c>
       <c r="H49" t="n">
-        <v>0.19</v>
+        <v>0.37</v>
       </c>
       <c r="I49" t="n">
-        <v>214133</v>
+        <v>208911</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>151443</v>
+        <v>175124</v>
       </c>
       <c r="E50" t="n">
-        <v>2026395</v>
+        <v>2343259</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>44978</v>
+        <v>52849</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>268272727</v>
+        <v>268444240</v>
       </c>
       <c r="E51" t="n">
-        <v>268272727</v>
+        <v>268444240</v>
       </c>
       <c r="F51" t="n">
-        <v>28422.84623690751</v>
+        <v>20786.85437318719</v>
       </c>
       <c r="G51" t="n">
-        <v>31286.64585943843</v>
+        <v>35053.09217122556</v>
       </c>
       <c r="H51" t="n">
         <v>0.36</v>
       </c>
       <c r="I51" t="n">
-        <v>15447994</v>
+        <v>15414501</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1126077</v>
+        <v>1125843</v>
       </c>
       <c r="F52" t="n">
-        <v>4.1357777998829</v>
+        <v>4.033546626019651</v>
       </c>
       <c r="G52" t="n">
-        <v>208.8468189010286</v>
+        <v>631.8460963061092</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>171304</v>
+        <v>167667</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>118901</v>
+        <v>119639</v>
       </c>
       <c r="E54" t="n">
-        <v>118901</v>
+        <v>119639</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>241.98</v>
+        <v>244.44</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6648716</v>
+        <v>6656678</v>
       </c>
       <c r="E55" t="n">
-        <v>16149218</v>
+        <v>16168559</v>
       </c>
       <c r="F55" t="n">
-        <v>271.0089650731432</v>
+        <v>507.9950244060832</v>
       </c>
       <c r="G55" t="n">
-        <v>332.5512976615626</v>
+        <v>343.5266220100814</v>
       </c>
       <c r="H55" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="I55" t="n">
-        <v>486820</v>
+        <v>489081</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>444525241</v>
+        <v>444380741</v>
       </c>
       <c r="E56" t="n">
-        <v>444525241</v>
+        <v>444380741</v>
       </c>
       <c r="F56" t="n">
-        <v>3471.544328774948</v>
+        <v>3805.789528635164</v>
       </c>
       <c r="G56" t="n">
-        <v>3169.651039321993</v>
+        <v>2629.32826610118</v>
       </c>
       <c r="H56" t="n">
         <v>0.32</v>
       </c>
       <c r="I56" t="n">
-        <v>2561783</v>
+        <v>2692062</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2440587</v>
+        <v>2510740</v>
       </c>
       <c r="E57" t="n">
-        <v>2440587</v>
+        <v>2510740</v>
       </c>
       <c r="F57" t="n">
-        <v>344.5906089520151</v>
+        <v>329.5935466913727</v>
       </c>
       <c r="G57" t="n">
-        <v>525.041437010201</v>
+        <v>418.3047594815268</v>
       </c>
       <c r="H57" t="n">
         <v>1.83</v>
       </c>
       <c r="I57" t="n">
-        <v>102219</v>
+        <v>55487</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>190044744</v>
+        <v>195165655</v>
       </c>
       <c r="E58" t="n">
-        <v>250076657</v>
+        <v>256815177</v>
       </c>
       <c r="F58" t="n">
-        <v>9155.921916476729</v>
+        <v>10889.51110632507</v>
       </c>
       <c r="G58" t="n">
-        <v>10966.22089572513</v>
+        <v>13927.36703134383</v>
       </c>
       <c r="H58" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="I58" t="n">
-        <v>10449775</v>
+        <v>10223465</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1133762</v>
+        <v>1151005</v>
       </c>
       <c r="E59" t="n">
-        <v>12321299</v>
+        <v>12508688</v>
       </c>
       <c r="F59" t="n">
-        <v>605.9395586187161</v>
+        <v>3.95192624663511</v>
       </c>
       <c r="G59" t="n">
-        <v>4.193918915355355</v>
+        <v>5.43514987645048</v>
       </c>
       <c r="H59" t="n">
-        <v>0.58</v>
+        <v>0.32</v>
       </c>
       <c r="I59" t="n">
-        <v>32139</v>
+        <v>34032</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2556328</v>
+        <v>2553535</v>
       </c>
       <c r="E60" t="n">
-        <v>6535474</v>
+        <v>6528334</v>
       </c>
       <c r="F60" t="n">
-        <v>295.0776818143248</v>
+        <v>228.388098404112</v>
       </c>
       <c r="G60" t="n">
-        <v>248.083539255583</v>
+        <v>183.1526364788341</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>109195</v>
+        <v>107851</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>85952876</v>
+        <v>85031383</v>
       </c>
       <c r="E61" t="n">
-        <v>240410302</v>
+        <v>237874512</v>
       </c>
       <c r="F61" t="n">
-        <v>51001.14292358393</v>
+        <v>52794.32690777734</v>
       </c>
       <c r="G61" t="n">
-        <v>92630.63189866293</v>
+        <v>81008.45204568529</v>
       </c>
       <c r="H61" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I61" t="n">
-        <v>50542095</v>
+        <v>51832816</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>75322358</v>
+        <v>75490563</v>
       </c>
       <c r="E62" t="n">
-        <v>75322358</v>
+        <v>75490563</v>
       </c>
       <c r="F62" t="n">
-        <v>4908.967001522346</v>
+        <v>4264.411103670487</v>
       </c>
       <c r="G62" t="n">
-        <v>4036.546686579248</v>
+        <v>3996.897934039428</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="I62" t="n">
-        <v>3357472</v>
+        <v>3560758</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4147374</v>
+        <v>4303379</v>
       </c>
       <c r="E63" t="n">
-        <v>8178971</v>
+        <v>8486626</v>
       </c>
       <c r="F63" t="n">
-        <v>2184.572879131116</v>
+        <v>850.6815025537633</v>
       </c>
       <c r="G63" t="n">
-        <v>1531.993800981176</v>
+        <v>1757.157624974982</v>
       </c>
       <c r="H63" t="n">
-        <v>0.39</v>
+        <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>1570661</v>
+        <v>1646355</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1645612</v>
+        <v>1639492</v>
       </c>
       <c r="E64" t="n">
-        <v>9448488</v>
+        <v>9413350</v>
       </c>
       <c r="F64" t="n">
-        <v>133.0484274649202</v>
+        <v>195.622489599952</v>
       </c>
       <c r="G64" t="n">
-        <v>5.348541214917462</v>
+        <v>9.467546040523091</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="I64" t="n">
-        <v>289843</v>
+        <v>291530</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>545823</v>
+        <v>552242</v>
       </c>
       <c r="F65" t="n">
-        <v>4.101497399666163</v>
+        <v>4.042681232772637</v>
       </c>
       <c r="G65" t="n">
-        <v>8.633564235318822</v>
+        <v>8.531560383313867</v>
       </c>
       <c r="H65" t="n">
         <v>0.43</v>
       </c>
       <c r="I65" t="n">
-        <v>1724.08</v>
+        <v>1725.44</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31232157</v>
+        <v>31221629</v>
       </c>
       <c r="F66" t="n">
-        <v>842.6693760671227</v>
+        <v>838.2780807721747</v>
       </c>
       <c r="G66" t="n">
-        <v>390.1139660708894</v>
+        <v>267.6177411963974</v>
       </c>
       <c r="H66" t="n">
         <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>246413</v>
+        <v>245753</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>169602</v>
+        <v>174409</v>
       </c>
       <c r="E67" t="n">
-        <v>1145343</v>
+        <v>1177807</v>
       </c>
       <c r="F67" t="n">
-        <v>135.7518167129447</v>
+        <v>5.175047754476258</v>
       </c>
       <c r="G67" t="n">
-        <v>4.050283861167759</v>
+        <v>25.89847687415418</v>
       </c>
       <c r="H67" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I67" t="n">
-        <v>2838626</v>
+        <v>2836429</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7685029</v>
+        <v>7686680</v>
       </c>
       <c r="E68" t="n">
-        <v>18099772</v>
+        <v>18103660</v>
       </c>
       <c r="F68" t="n">
-        <v>1200.705344825323</v>
+        <v>901.4835552503577</v>
       </c>
       <c r="G68" t="n">
-        <v>1549.876062334061</v>
+        <v>2078.908670010702</v>
       </c>
       <c r="H68" t="n">
-        <v>1.2</v>
+        <v>0.11</v>
       </c>
       <c r="I68" t="n">
-        <v>34450</v>
+        <v>34289</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3099419</v>
+        <v>3109771</v>
       </c>
       <c r="E69" t="n">
-        <v>3099419</v>
+        <v>3109771</v>
       </c>
       <c r="F69" t="n">
-        <v>64.63842416531874</v>
+        <v>360.8529281406549</v>
       </c>
       <c r="G69" t="n">
-        <v>5.482896234091774</v>
+        <v>4.414768439125659</v>
       </c>
       <c r="H69" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="I69" t="n">
-        <v>19914.98</v>
+        <v>19988.91</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3412697</v>
+        <v>3450892</v>
       </c>
       <c r="E70" t="n">
-        <v>8420656</v>
+        <v>8514901</v>
       </c>
       <c r="F70" t="n">
-        <v>1211.792928641577</v>
+        <v>1257.82787084289</v>
       </c>
       <c r="G70" t="n">
-        <v>1219.206890310337</v>
+        <v>1313.386235724327</v>
       </c>
       <c r="H70" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="I70" t="n">
-        <v>40960</v>
+        <v>42149</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23079598</v>
+        <v>23120079</v>
       </c>
       <c r="F71" t="n">
-        <v>465.4154862935204</v>
+        <v>511.0091698692572</v>
       </c>
       <c r="G71" t="n">
-        <v>125.7980572717548</v>
+        <v>113.1954349194709</v>
       </c>
       <c r="H71" t="n">
         <v>0.43</v>
       </c>
       <c r="I71" t="n">
-        <v>129280</v>
+        <v>124395</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>263623</v>
+        <v>261703</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2751.33</v>
+        <v>3388.03</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>80690839</v>
+        <v>80343565</v>
       </c>
       <c r="E73" t="n">
-        <v>168281377</v>
+        <v>167557134</v>
       </c>
       <c r="F73" t="n">
-        <v>14315.7845039594</v>
+        <v>18922.95940296522</v>
       </c>
       <c r="G73" t="n">
-        <v>322.0209179255802</v>
+        <v>4068.850330119629</v>
       </c>
       <c r="H73" t="n">
         <v>0.18</v>
       </c>
       <c r="I73" t="n">
-        <v>19931483</v>
+        <v>20320932</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>210515448</v>
+        <v>214192493</v>
       </c>
       <c r="F75" t="n">
-        <v>5231.907855406217</v>
+        <v>28908.81558713836</v>
       </c>
       <c r="G75" t="n">
-        <v>23639.19388904206</v>
+        <v>21336.57892014036</v>
       </c>
       <c r="H75" t="n">
-        <v>0.24</v>
+        <v>0.51</v>
       </c>
       <c r="I75" t="n">
-        <v>3459341</v>
+        <v>3573720</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>87527574</v>
+        <v>87355403</v>
       </c>
       <c r="E76" t="n">
-        <v>120188980</v>
+        <v>119952563</v>
       </c>
       <c r="F76" t="n">
-        <v>2334.224011450632</v>
+        <v>2901.803040342639</v>
       </c>
       <c r="G76" t="n">
-        <v>19098.4362554132</v>
+        <v>13743.31782721517</v>
       </c>
       <c r="H76" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>1115166</v>
+        <v>1097326</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>179723</v>
+        <v>179703</v>
       </c>
       <c r="E77" t="n">
-        <v>187682</v>
+        <v>187662</v>
       </c>
       <c r="F77" t="n">
-        <v>5.413623892351727</v>
+        <v>5.627260413681523</v>
       </c>
       <c r="G77" t="n">
-        <v>419.8925414518495</v>
+        <v>416.351914328245</v>
       </c>
       <c r="H77" t="n">
         <v>0.57</v>
       </c>
       <c r="I77" t="n">
-        <v>284.32</v>
+        <v>272.1</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7807337</v>
+        <v>7838863</v>
       </c>
       <c r="E78" t="n">
-        <v>8588593</v>
+        <v>8623273</v>
       </c>
       <c r="F78" t="n">
-        <v>447.438511534522</v>
+        <v>698.1290011469623</v>
       </c>
       <c r="G78" t="n">
-        <v>924.1439217646579</v>
+        <v>388.4353497815579</v>
       </c>
       <c r="H78" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="I78" t="n">
-        <v>708414</v>
+        <v>707293</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29355581</v>
+        <v>29725590</v>
       </c>
       <c r="E79" t="n">
-        <v>29355581</v>
+        <v>29725590</v>
       </c>
       <c r="F79" t="n">
-        <v>1142.912145717329</v>
+        <v>458.856946758035</v>
       </c>
       <c r="G79" t="n">
-        <v>75.42836306031083</v>
+        <v>1115.50404381354</v>
       </c>
       <c r="H79" t="n">
-        <v>0.03</v>
+        <v>0.8</v>
       </c>
       <c r="I79" t="n">
-        <v>265866</v>
+        <v>280333</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>279591298</v>
+        <v>280044050</v>
       </c>
       <c r="E80" t="n">
-        <v>279591298</v>
+        <v>280044050</v>
       </c>
       <c r="F80" t="n">
-        <v>2248.265253205479</v>
+        <v>4667.389907246446</v>
       </c>
       <c r="G80" t="n">
-        <v>1847.519337149441</v>
+        <v>6955.330844811013</v>
       </c>
       <c r="H80" t="n">
-        <v>0.6</v>
+        <v>0.11</v>
       </c>
       <c r="I80" t="n">
-        <v>9616515</v>
+        <v>9577374</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>678275497</v>
+        <v>682533499</v>
       </c>
       <c r="E81" t="n">
-        <v>678275497</v>
+        <v>682533499</v>
       </c>
       <c r="F81" t="n">
-        <v>460401.6871285635</v>
+        <v>621754.1093942861</v>
       </c>
       <c r="G81" t="n">
-        <v>687858.8233313371</v>
+        <v>782799.4839021049</v>
       </c>
       <c r="H81" t="n">
         <v>0.43</v>
       </c>
       <c r="I81" t="n">
-        <v>332701630</v>
+        <v>346795948</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>120088</v>
+        <v>120175</v>
       </c>
       <c r="E82" t="n">
-        <v>120088</v>
+        <v>120175</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1383.9</v>
+        <v>1390.98</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>210239690</v>
+        <v>210314093</v>
       </c>
       <c r="E83" t="n">
-        <v>730391682</v>
+        <v>730650166</v>
       </c>
       <c r="F83" t="n">
-        <v>1384.922348828728</v>
+        <v>1120.74412723559</v>
       </c>
       <c r="G83" t="n">
-        <v>4258.3769775444</v>
+        <v>1719.668429470372</v>
       </c>
       <c r="H83" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="I83" t="n">
-        <v>29900517</v>
+        <v>29931594</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3540101</v>
+        <v>3569580</v>
       </c>
       <c r="E84" t="n">
-        <v>3540100</v>
+        <v>3569580</v>
       </c>
       <c r="F84" t="n">
-        <v>1161.276196165406</v>
+        <v>1235.160449039304</v>
       </c>
       <c r="G84" t="n">
-        <v>1097.08272376222</v>
+        <v>1042.358569955779</v>
       </c>
       <c r="H84" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="I84" t="n">
-        <v>2533323</v>
+        <v>2512228</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>119808506</v>
+        <v>120944714</v>
       </c>
       <c r="E85" t="n">
-        <v>508841848</v>
+        <v>513613822</v>
       </c>
       <c r="F85" t="n">
-        <v>309750.5862925571</v>
+        <v>302100.9192249576</v>
       </c>
       <c r="G85" t="n">
-        <v>362467.9008276973</v>
+        <v>370972.9508296649</v>
       </c>
       <c r="H85" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I85" t="n">
-        <v>16195684</v>
+        <v>16578171</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71528979</v>
+        <v>71784619</v>
       </c>
       <c r="E86" t="n">
-        <v>82070392</v>
+        <v>82363707</v>
       </c>
       <c r="F86" t="n">
-        <v>24871.70043320786</v>
+        <v>22717.92702293488</v>
       </c>
       <c r="G86" t="n">
-        <v>10760.45188628439</v>
+        <v>4236.374482256613</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="I86" t="n">
-        <v>1313613</v>
+        <v>1193105</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3155357</v>
+        <v>3137350</v>
       </c>
       <c r="E87" t="n">
-        <v>15820326</v>
+        <v>15730042</v>
       </c>
       <c r="F87" t="n">
-        <v>4.058166216459078</v>
+        <v>4.183987969903262</v>
       </c>
       <c r="G87" t="n">
-        <v>71.23866408463942</v>
+        <v>71.24204303787776</v>
       </c>
       <c r="H87" t="n">
         <v>0.31</v>
       </c>
       <c r="I87" t="n">
-        <v>32656</v>
+        <v>33169</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>494865</v>
+        <v>512312</v>
       </c>
       <c r="E88" t="n">
-        <v>8464634</v>
+        <v>8763069</v>
       </c>
       <c r="F88" t="n">
-        <v>720.9545822415164</v>
+        <v>5.600736934098474</v>
       </c>
       <c r="G88" t="n">
-        <v>5.321159500534343</v>
+        <v>5.543652915495057</v>
       </c>
       <c r="H88" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="I88" t="n">
-        <v>159963</v>
+        <v>169190</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5769724</v>
+        <v>5773253</v>
       </c>
       <c r="E89" t="n">
-        <v>7838494</v>
+        <v>7843289</v>
       </c>
       <c r="F89" t="n">
-        <v>93.10550417944621</v>
+        <v>78.35062487641179</v>
       </c>
       <c r="G89" t="n">
-        <v>2331.425285053349</v>
+        <v>2503.04499537488</v>
       </c>
       <c r="H89" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I89" t="n">
-        <v>5618554</v>
+        <v>5504223</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40641389</v>
+        <v>41232198</v>
       </c>
       <c r="E90" t="n">
-        <v>47468177</v>
+        <v>48158228</v>
       </c>
       <c r="F90" t="n">
-        <v>497.6362425698733</v>
+        <v>294.907108395506</v>
       </c>
       <c r="G90" t="n">
-        <v>30.17544081987907</v>
+        <v>255.6608995376793</v>
       </c>
       <c r="H90" t="n">
-        <v>1.02</v>
+        <v>0.09</v>
       </c>
       <c r="I90" t="n">
-        <v>880135</v>
+        <v>872378</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>15030720</v>
+        <v>14898599</v>
       </c>
       <c r="F91" t="n">
-        <v>175.7784174671472</v>
+        <v>10.38612718897333</v>
       </c>
       <c r="G91" t="n">
-        <v>250.7353218040378</v>
+        <v>685.5930191917405</v>
       </c>
       <c r="H91" t="n">
-        <v>1.24</v>
+        <v>2.43</v>
       </c>
       <c r="I91" t="n">
-        <v>277057</v>
+        <v>262317</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36152241</v>
+        <v>36850767</v>
       </c>
       <c r="E92" t="n">
-        <v>36152241</v>
+        <v>36850767</v>
       </c>
       <c r="F92" t="n">
-        <v>451.4575340019574</v>
+        <v>127.2497804363843</v>
       </c>
       <c r="G92" t="n">
-        <v>82.31716253556979</v>
+        <v>811.577661744031</v>
       </c>
       <c r="H92" t="n">
-        <v>0.74</v>
+        <v>1.07</v>
       </c>
       <c r="I92" t="n">
-        <v>796700</v>
+        <v>818737</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17069898</v>
+        <v>17164263</v>
       </c>
       <c r="F93" t="n">
-        <v>134.7936013331172</v>
+        <v>124.009421886746</v>
       </c>
       <c r="G93" t="n">
-        <v>396.698081979779</v>
+        <v>411.7309340273208</v>
       </c>
       <c r="H93" t="n">
-        <v>0.47</v>
+        <v>0.75</v>
       </c>
       <c r="I93" t="n">
-        <v>198602</v>
+        <v>214182</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>572213</v>
+        <v>571071</v>
       </c>
       <c r="E94" t="n">
-        <v>6940391</v>
+        <v>6926538</v>
       </c>
       <c r="F94" t="n">
-        <v>1497.646276007104</v>
+        <v>1386.201849013783</v>
       </c>
       <c r="G94" t="n">
-        <v>1102.718913846834</v>
+        <v>992.4621580357058</v>
       </c>
       <c r="H94" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I94" t="n">
-        <v>2677103</v>
+        <v>2801715</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>26799795</v>
+        <v>26408795</v>
       </c>
       <c r="E95" t="n">
-        <v>37880200</v>
+        <v>37327541</v>
       </c>
       <c r="F95" t="n">
-        <v>4.118273456120285</v>
+        <v>4.083806196520499</v>
       </c>
       <c r="G95" t="n">
-        <v>49.0910475098521</v>
+        <v>305.0605672805607</v>
       </c>
       <c r="H95" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="I95" t="n">
-        <v>79407</v>
+        <v>83362</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1339525207</v>
+        <v>1364777949</v>
       </c>
       <c r="E96" t="n">
-        <v>6423297694</v>
+        <v>6544389764</v>
       </c>
       <c r="F96" t="n">
-        <v>505270.7541476584</v>
+        <v>245645.6298592469</v>
       </c>
       <c r="G96" t="n">
-        <v>590292.3893871414</v>
+        <v>444419.9549681208</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>177729222</v>
+        <v>200080171</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>278669347</v>
+        <v>280941785</v>
       </c>
       <c r="E97" t="n">
-        <v>1202891604</v>
+        <v>1212700707</v>
       </c>
       <c r="F97" t="n">
-        <v>125060.1806321499</v>
+        <v>140258.9668091844</v>
       </c>
       <c r="G97" t="n">
-        <v>1122453.918310342</v>
+        <v>1077743.628662953</v>
       </c>
       <c r="H97" t="n">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="I97" t="n">
-        <v>106992479</v>
+        <v>110384826</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5159562</v>
+        <v>5125956</v>
       </c>
       <c r="E98" t="n">
-        <v>5717823</v>
+        <v>5680581</v>
       </c>
       <c r="F98" t="n">
-        <v>830.9432356012883</v>
+        <v>734.8682245945387</v>
       </c>
       <c r="G98" t="n">
-        <v>300.1838934389346</v>
+        <v>659.1226127295148</v>
       </c>
       <c r="H98" t="n">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="I98" t="n">
-        <v>626498</v>
+        <v>665426</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94562</v>
+        <v>96903</v>
       </c>
       <c r="E99" t="n">
-        <v>94562</v>
+        <v>96903</v>
       </c>
       <c r="F99" t="n">
-        <v>2.619947475747246</v>
+        <v>4.056129292596269</v>
       </c>
       <c r="G99" t="n">
-        <v>37.53392508036116</v>
+        <v>4.009306056729351</v>
       </c>
       <c r="H99" t="n">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="I99" t="n">
-        <v>1529.24</v>
+        <v>881.15</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>116594913</v>
+        <v>117323984</v>
       </c>
       <c r="E100" t="n">
-        <v>116594913</v>
+        <v>117323984</v>
       </c>
       <c r="F100" t="n">
-        <v>37751.11652074146</v>
+        <v>4558.489146190103</v>
       </c>
       <c r="G100" t="n">
-        <v>11538.32975933866</v>
+        <v>17358.54457918519</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>5453493</v>
+        <v>6411899</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3803083</v>
+        <v>3790383</v>
       </c>
       <c r="F101" t="n">
-        <v>1433.109783038674</v>
+        <v>2005.861765479612</v>
       </c>
       <c r="G101" t="n">
-        <v>1202.576057194342</v>
+        <v>1052.822058390031</v>
       </c>
       <c r="H101" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="I101" t="n">
-        <v>292101</v>
+        <v>291226</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2035515844</v>
+        <v>2045196859</v>
       </c>
       <c r="E102" t="n">
-        <v>2035515844</v>
+        <v>2045196859</v>
       </c>
       <c r="F102" t="n">
-        <v>7099812.208193629</v>
+        <v>7163296.077450153</v>
       </c>
       <c r="G102" t="n">
-        <v>5015773.787189189</v>
+        <v>5004060.09243204</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>7205231834</v>
+        <v>7505440021</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5324016</v>
+        <v>5334544</v>
       </c>
       <c r="E103" t="n">
-        <v>5330041</v>
+        <v>5340581</v>
       </c>
       <c r="F103" t="n">
-        <v>287.6044956441773</v>
+        <v>262.043517906939</v>
       </c>
       <c r="G103" t="n">
-        <v>62.6981812898373</v>
+        <v>80.38401972967472</v>
       </c>
       <c r="H103" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="I103" t="n">
-        <v>146443</v>
+        <v>147662</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2357993</v>
+        <v>2407490</v>
       </c>
       <c r="F104" t="n">
-        <v>5.359792564953388</v>
+        <v>5.413804623240308</v>
       </c>
       <c r="G104" t="n">
-        <v>305.4739510584495</v>
+        <v>763.4258153701553</v>
       </c>
       <c r="H104" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I104" t="n">
-        <v>58795</v>
+        <v>57267</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4460590</v>
+        <v>4461777</v>
       </c>
       <c r="E105" t="n">
-        <v>5856172</v>
+        <v>5857731</v>
       </c>
       <c r="F105" t="n">
-        <v>5018.664656375047</v>
+        <v>4772.833645265511</v>
       </c>
       <c r="G105" t="n">
-        <v>12367.55984661106</v>
+        <v>12471.53191522298</v>
       </c>
       <c r="H105" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>613608</v>
+        <v>620092</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19891359</v>
+        <v>19740990</v>
       </c>
       <c r="F106" t="n">
-        <v>278.3357442925571</v>
+        <v>41.47531057127578</v>
       </c>
       <c r="G106" t="n">
-        <v>224.3255655866418</v>
+        <v>905.7297194175557</v>
       </c>
       <c r="H106" t="n">
         <v>1.01</v>
       </c>
       <c r="I106" t="n">
-        <v>31639</v>
+        <v>45417</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1342895</v>
+        <v>1372726</v>
       </c>
       <c r="E107" t="n">
-        <v>5006643</v>
+        <v>5117860</v>
       </c>
       <c r="F107" t="n">
-        <v>1732.223590668475</v>
+        <v>1700.048127516082</v>
       </c>
       <c r="G107" t="n">
-        <v>199.5281005478901</v>
+        <v>155.6537481726506</v>
       </c>
       <c r="H107" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I107" t="n">
-        <v>578170</v>
+        <v>614059</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4278735</v>
+        <v>4211928</v>
       </c>
       <c r="E108" t="n">
-        <v>12324791</v>
+        <v>12132355</v>
       </c>
       <c r="F108" t="n">
-        <v>1568.370252872214</v>
+        <v>597.2602225813509</v>
       </c>
       <c r="G108" t="n">
-        <v>275.0185013996899</v>
+        <v>766.5038047368146</v>
       </c>
       <c r="H108" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="I108" t="n">
-        <v>615377</v>
+        <v>593479</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>80929080</v>
+        <v>81006606</v>
       </c>
       <c r="E109" t="n">
-        <v>102988544</v>
+        <v>103087202</v>
       </c>
       <c r="F109" t="n">
-        <v>6072.822049703349</v>
+        <v>8028.834893273823</v>
       </c>
       <c r="G109" t="n">
-        <v>218.0282326431933</v>
+        <v>370.4598279476919</v>
       </c>
       <c r="H109" t="n">
-        <v>0.7</v>
+        <v>0.39</v>
       </c>
       <c r="I109" t="n">
-        <v>6240967</v>
+        <v>6259433</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>23164978</v>
+        <v>23364225</v>
       </c>
       <c r="E110" t="n">
-        <v>30050276</v>
+        <v>30308745</v>
       </c>
       <c r="F110" t="n">
-        <v>17157.57899716275</v>
+        <v>20418.94091527771</v>
       </c>
       <c r="G110" t="n">
-        <v>15201.51154113261</v>
+        <v>15136.36238997035</v>
       </c>
       <c r="H110" t="n">
-        <v>0.67</v>
+        <v>0.24</v>
       </c>
       <c r="I110" t="n">
-        <v>166296</v>
+        <v>168350</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>671128</v>
+        <v>668309</v>
       </c>
       <c r="E111" t="n">
-        <v>671128</v>
+        <v>668309</v>
       </c>
       <c r="F111" t="n">
-        <v>55.1488517832181</v>
+        <v>35.86544287716681</v>
       </c>
       <c r="G111" t="n">
-        <v>3.981831531523401</v>
+        <v>515.5488862527868</v>
       </c>
       <c r="H111" t="n">
-        <v>0.98</v>
+        <v>1.48</v>
       </c>
       <c r="I111" t="n">
-        <v>78811</v>
+        <v>77578</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14066104</v>
+        <v>14889509</v>
       </c>
       <c r="E112" t="n">
-        <v>14066104</v>
+        <v>14889509</v>
       </c>
       <c r="F112" t="n">
-        <v>3267.164756733488</v>
+        <v>1258.791835953849</v>
       </c>
       <c r="G112" t="n">
-        <v>3829.015744619566</v>
+        <v>6143.207772791919</v>
       </c>
       <c r="H112" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="I112" t="n">
-        <v>4917488</v>
+        <v>5258917</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99148780</v>
+        <v>99155421</v>
       </c>
       <c r="E113" t="n">
-        <v>122643492</v>
+        <v>122651707</v>
       </c>
       <c r="F113" t="n">
-        <v>917.0693408344661</v>
+        <v>974.4458631044595</v>
       </c>
       <c r="G113" t="n">
-        <v>1256.523774074076</v>
+        <v>877.3877212987918</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="I113" t="n">
-        <v>840735</v>
+        <v>884984</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>893835</v>
+        <v>892950</v>
       </c>
       <c r="F114" t="n">
-        <v>510.2258479810237</v>
+        <v>255.7238238442807</v>
       </c>
       <c r="G114" t="n">
-        <v>90.25172083967438</v>
+        <v>202.4332144164837</v>
       </c>
       <c r="H114" t="n">
-        <v>1.98</v>
+        <v>0.91</v>
       </c>
       <c r="I114" t="n">
-        <v>30771</v>
+        <v>33134</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2754094</v>
+        <v>2756402</v>
       </c>
       <c r="F115" t="n">
-        <v>42.92915765204557</v>
+        <v>323.2523347319872</v>
       </c>
       <c r="G115" t="n">
-        <v>1101.909498528181</v>
+        <v>131.912207118654</v>
       </c>
       <c r="H115" t="n">
-        <v>2.77</v>
+        <v>1.39</v>
       </c>
       <c r="I115" t="n">
-        <v>84852</v>
+        <v>82485</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11471518</v>
+        <v>11468555</v>
       </c>
       <c r="E116" t="n">
-        <v>16869878</v>
+        <v>16865521</v>
       </c>
       <c r="F116" t="n">
-        <v>3912.408589097924</v>
+        <v>3391.028566104157</v>
       </c>
       <c r="G116" t="n">
-        <v>4941.048762628419</v>
+        <v>2414.957044746822</v>
       </c>
       <c r="H116" t="n">
-        <v>0.93</v>
+        <v>0.02</v>
       </c>
       <c r="I116" t="n">
-        <v>586141</v>
+        <v>579746</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3174545</v>
+        <v>3174101</v>
       </c>
       <c r="F117" t="n">
-        <v>5.3140519150244</v>
+        <v>5.402770348318176</v>
       </c>
       <c r="G117" t="n">
-        <v>419.1973535641811</v>
+        <v>419.1773557518593</v>
       </c>
       <c r="H117" t="n">
         <v>0.72</v>
       </c>
       <c r="I117" t="n">
-        <v>33924</v>
+        <v>34679</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1129613</v>
+        <v>1179547</v>
       </c>
       <c r="F118" t="n">
-        <v>5.23570463315354</v>
+        <v>5.23604156408386</v>
       </c>
       <c r="G118" t="n">
-        <v>15.77510189028173</v>
+        <v>15.78262306929244</v>
       </c>
       <c r="H118" t="n">
         <v>0.55</v>
       </c>
       <c r="I118" t="n">
-        <v>6826.6</v>
+        <v>6624.57</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5211643</v>
+        <v>5178524</v>
       </c>
       <c r="E119" t="n">
-        <v>7291844</v>
+        <v>7245506</v>
       </c>
       <c r="F119" t="n">
-        <v>746.6357710368507</v>
+        <v>743.5253406572285</v>
       </c>
       <c r="G119" t="n">
-        <v>1688.296024217344</v>
+        <v>876.643967953813</v>
       </c>
       <c r="H119" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="I119" t="n">
-        <v>89049</v>
+        <v>78766</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10280928</v>
+        <v>10320148</v>
       </c>
       <c r="E120" t="n">
-        <v>28318378</v>
+        <v>28426406</v>
       </c>
       <c r="F120" t="n">
-        <v>99.96422026400499</v>
+        <v>74.305917599517</v>
       </c>
       <c r="G120" t="n">
-        <v>19.23094909192791</v>
+        <v>19.35536812784984</v>
       </c>
       <c r="H120" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="I120" t="n">
-        <v>338073</v>
+        <v>334817</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>52030055</v>
+        <v>51880641</v>
       </c>
       <c r="E121" t="n">
-        <v>132549539</v>
+        <v>132168899</v>
       </c>
       <c r="F121" t="n">
-        <v>494.1054163935665</v>
+        <v>633.7450086865998</v>
       </c>
       <c r="G121" t="n">
-        <v>11345.61623013452</v>
+        <v>12009.58866258706</v>
       </c>
       <c r="H121" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I121" t="n">
-        <v>2428522</v>
+        <v>2422327</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>15482189</v>
+        <v>15626204</v>
       </c>
       <c r="E122" t="n">
-        <v>74982714</v>
+        <v>75680198</v>
       </c>
       <c r="F122" t="n">
-        <v>2104.468471175912</v>
+        <v>1575.01432864522</v>
       </c>
       <c r="G122" t="n">
-        <v>3050.415841900733</v>
+        <v>2849.611877267836</v>
       </c>
       <c r="H122" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="I122" t="n">
-        <v>4105918</v>
+        <v>4217196</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>510071</v>
+        <v>518812</v>
       </c>
       <c r="F123" t="n">
-        <v>5.198922430294184</v>
+        <v>8.663649004643267</v>
       </c>
       <c r="G123" t="n">
-        <v>4.191866757037547</v>
+        <v>4.19196898039336</v>
       </c>
       <c r="H123" t="n">
         <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>7311.59</v>
+        <v>7309.9</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4642229</v>
+        <v>4630964</v>
       </c>
       <c r="E124" t="n">
-        <v>10581755</v>
+        <v>10556078</v>
       </c>
       <c r="F124" t="n">
-        <v>803.978088224159</v>
+        <v>804.0144892214807</v>
       </c>
       <c r="G124" t="n">
-        <v>2418.85020168485</v>
+        <v>1835.839887414884</v>
       </c>
       <c r="H124" t="n">
         <v>1.31</v>
       </c>
       <c r="I124" t="n">
-        <v>86304</v>
+        <v>84584</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1930571649</v>
+        <v>1930285885</v>
       </c>
       <c r="F125" t="n">
-        <v>74556.33648446348</v>
+        <v>73528.23872862768</v>
       </c>
       <c r="G125" t="n">
-        <v>76132.21928045878</v>
+        <v>71359.60251197843</v>
       </c>
       <c r="H125" t="n">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="I125" t="n">
-        <v>27742658</v>
+        <v>28077670</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9638134</v>
+        <v>9556353</v>
       </c>
       <c r="E126" t="n">
-        <v>35076986</v>
+        <v>34779317</v>
       </c>
       <c r="F126" t="n">
-        <v>953.4898738483432</v>
+        <v>17.37569164399041</v>
       </c>
       <c r="G126" t="n">
-        <v>5.415018977402664</v>
+        <v>5.415228339822328</v>
       </c>
       <c r="H126" t="n">
-        <v>0.23</v>
+        <v>0.8</v>
       </c>
       <c r="I126" t="n">
-        <v>100522</v>
+        <v>124684</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>563641</v>
+        <v>564341</v>
       </c>
       <c r="F127" t="n">
-        <v>4.108472457210144</v>
+        <v>4.10859327975998</v>
       </c>
       <c r="G127" t="n">
-        <v>12.74912392387425</v>
+        <v>109.4980341363008</v>
       </c>
       <c r="H127" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="I127" t="n">
-        <v>891.39</v>
+        <v>891.24</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12391300</v>
+        <v>12308836</v>
       </c>
       <c r="E128" t="n">
-        <v>17965596</v>
+        <v>17846037</v>
       </c>
       <c r="F128" t="n">
-        <v>672.2330133662122</v>
+        <v>3371.40164640083</v>
       </c>
       <c r="G128" t="n">
-        <v>3364.931105683492</v>
+        <v>5947.552585185394</v>
       </c>
       <c r="H128" t="n">
-        <v>1.05</v>
+        <v>0.63</v>
       </c>
       <c r="I128" t="n">
-        <v>1550289</v>
+        <v>2105704</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31680083</v>
+        <v>31756361</v>
       </c>
       <c r="E129" t="n">
-        <v>98641614</v>
+        <v>98879118</v>
       </c>
       <c r="F129" t="n">
-        <v>7898.231236437397</v>
+        <v>7275.244354680849</v>
       </c>
       <c r="G129" t="n">
-        <v>7850.183826883602</v>
+        <v>8968.997214777957</v>
       </c>
       <c r="H129" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="I129" t="n">
-        <v>10640891</v>
+        <v>10295711</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1966199</v>
+        <v>1953002</v>
       </c>
       <c r="E130" t="n">
-        <v>14099418</v>
+        <v>14004784</v>
       </c>
       <c r="F130" t="n">
-        <v>12.71914104807987</v>
+        <v>12.85830766116046</v>
       </c>
       <c r="G130" t="n">
-        <v>12.97658590243952</v>
+        <v>12.62464790367769</v>
       </c>
       <c r="H130" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="I130" t="n">
-        <v>2041396</v>
+        <v>2000396</v>
       </c>
     </row>
     <row r="131">
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>7478321</v>
+        <v>7528537</v>
       </c>
       <c r="F131" t="n">
-        <v>150.0946455182683</v>
+        <v>82.23629261276253</v>
       </c>
       <c r="G131" t="n">
-        <v>193.4727023611697</v>
+        <v>139.2583617618877</v>
       </c>
       <c r="H131" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="I131" t="n">
-        <v>506179</v>
+        <v>507043</v>
       </c>
     </row>
     <row r="132">
@@ -5031,22 +5031,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>209707482</v>
+        <v>209148854</v>
       </c>
       <c r="E132" t="n">
-        <v>1187492615</v>
+        <v>1184329324</v>
       </c>
       <c r="F132" t="n">
-        <v>524318.2810446217</v>
+        <v>399640.0948653456</v>
       </c>
       <c r="G132" t="n">
-        <v>398675.8805273828</v>
+        <v>564683.3884999302</v>
       </c>
       <c r="H132" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I132" t="n">
-        <v>70116599</v>
+        <v>69693261</v>
       </c>
     </row>
     <row r="133">
@@ -5066,10 +5066,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1053985</v>
+        <v>1056156</v>
       </c>
       <c r="E133" t="n">
-        <v>1053985</v>
+        <v>1056156</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>5540.99</v>
+        <v>5694.45</v>
       </c>
     </row>
     <row r="134">
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>500697</v>
+        <v>502529</v>
       </c>
       <c r="E134" t="n">
-        <v>1685277</v>
+        <v>1691443</v>
       </c>
       <c r="F134" t="n">
-        <v>177.290678833276</v>
+        <v>193.7515191006647</v>
       </c>
       <c r="G134" t="n">
-        <v>252.1493502489389</v>
+        <v>272.1741254676739</v>
       </c>
       <c r="H134" t="n">
         <v>1.18</v>
       </c>
       <c r="I134" t="n">
-        <v>631696</v>
+        <v>632645</v>
       </c>
     </row>
     <row r="135">
@@ -5137,19 +5137,19 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>13573849</v>
+        <v>12413747</v>
       </c>
       <c r="F135" t="n">
-        <v>4.195299109124858</v>
+        <v>4.195481879421241</v>
       </c>
       <c r="G135" t="n">
-        <v>5.346362113289073</v>
+        <v>126.838752292688</v>
       </c>
       <c r="H135" t="n">
         <v>0.71</v>
       </c>
       <c r="I135" t="n">
-        <v>152.58</v>
+        <v>72.72</v>
       </c>
     </row>
     <row r="136">
@@ -5169,22 +5169,22 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>144241082</v>
+        <v>145122088</v>
       </c>
       <c r="E136" t="n">
-        <v>1068452462</v>
+        <v>1074978431</v>
       </c>
       <c r="F136" t="n">
-        <v>32902.87409889681</v>
+        <v>32952.40349658556</v>
       </c>
       <c r="G136" t="n">
-        <v>32654.85794343552</v>
+        <v>32672.28265654922</v>
       </c>
       <c r="H136" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="I136" t="n">
-        <v>8442899</v>
+        <v>8370552</v>
       </c>
     </row>
     <row r="137">
@@ -5204,22 +5204,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>32769155</v>
+        <v>32956942</v>
       </c>
       <c r="E137" t="n">
-        <v>155604820</v>
+        <v>156496529</v>
       </c>
       <c r="F137" t="n">
-        <v>10304.96468363705</v>
+        <v>1109.080698825357</v>
       </c>
       <c r="G137" t="n">
-        <v>24656.95272938682</v>
+        <v>1024.657270275191</v>
       </c>
       <c r="H137" t="n">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="I137" t="n">
-        <v>1247878</v>
+        <v>1214610</v>
       </c>
     </row>
     <row r="138">
@@ -5239,22 +5239,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8230315</v>
+        <v>8287434</v>
       </c>
       <c r="E138" t="n">
-        <v>11025878</v>
+        <v>11102398</v>
       </c>
       <c r="F138" t="n">
-        <v>512.763178743748</v>
+        <v>323.8229064154268</v>
       </c>
       <c r="G138" t="n">
-        <v>265.2759951917309</v>
+        <v>489.3401383724274</v>
       </c>
       <c r="H138" t="n">
-        <v>0.46</v>
+        <v>0.66</v>
       </c>
       <c r="I138" t="n">
-        <v>63864</v>
+        <v>65056</v>
       </c>
     </row>
     <row r="139">
@@ -5277,19 +5277,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1246743</v>
+        <v>1250720</v>
       </c>
       <c r="F139" t="n">
-        <v>45.45758745837718</v>
+        <v>8.765219787223133</v>
       </c>
       <c r="G139" t="n">
-        <v>5.139266099151965</v>
+        <v>24.91526860758668</v>
       </c>
       <c r="H139" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I139" t="n">
-        <v>2264.43</v>
+        <v>2627.09</v>
       </c>
     </row>
     <row r="140">
@@ -5309,22 +5309,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2456055</v>
+        <v>2495448</v>
       </c>
       <c r="E140" t="n">
-        <v>2456055</v>
+        <v>2495448</v>
       </c>
       <c r="F140" t="n">
-        <v>68.54059010789008</v>
+        <v>211.2778961912161</v>
       </c>
       <c r="G140" t="n">
-        <v>1725.606175197696</v>
+        <v>612.5679666538219</v>
       </c>
       <c r="H140" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="I140" t="n">
-        <v>279676</v>
+        <v>285997</v>
       </c>
     </row>
     <row r="141">
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26847005</v>
+        <v>26836724</v>
       </c>
       <c r="E141" t="n">
-        <v>26847005</v>
+        <v>26836724</v>
       </c>
       <c r="F141" t="n">
-        <v>845.3955946412177</v>
+        <v>881.4510063641015</v>
       </c>
       <c r="G141" t="n">
-        <v>2288.748854087546</v>
+        <v>1546.627129556379</v>
       </c>
       <c r="H141" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="I141" t="n">
-        <v>317123</v>
+        <v>325565</v>
       </c>
     </row>
     <row r="142">
@@ -5379,22 +5379,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6449772</v>
+        <v>6467502</v>
       </c>
       <c r="E142" t="n">
-        <v>6811681</v>
+        <v>6830406</v>
       </c>
       <c r="F142" t="n">
-        <v>738.3268780047525</v>
+        <v>798.759347087659</v>
       </c>
       <c r="G142" t="n">
-        <v>195.0214152447135</v>
+        <v>137.3954486150159</v>
       </c>
       <c r="H142" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="I142" t="n">
-        <v>21935</v>
+        <v>20559</v>
       </c>
     </row>
     <row r="143">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3388176</v>
+        <v>3386866</v>
       </c>
       <c r="E143" t="n">
-        <v>7911956</v>
+        <v>7908896</v>
       </c>
       <c r="F143" t="n">
-        <v>1314.35555247611</v>
+        <v>1274.90726591255</v>
       </c>
       <c r="G143" t="n">
-        <v>825.8926115943271</v>
+        <v>1310.652237456935</v>
       </c>
       <c r="H143" t="n">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
       <c r="I143" t="n">
-        <v>618053</v>
+        <v>645777</v>
       </c>
     </row>
     <row r="144">
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1606550</v>
+        <v>1606822</v>
       </c>
       <c r="E144" t="n">
-        <v>12476652</v>
+        <v>12478760</v>
       </c>
       <c r="F144" t="n">
-        <v>200.0499368519454</v>
+        <v>200.2306773334749</v>
       </c>
       <c r="G144" t="n">
-        <v>3205.001086233195</v>
+        <v>836.1330227099614</v>
       </c>
       <c r="H144" t="n">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="I144" t="n">
-        <v>487533</v>
+        <v>537997</v>
       </c>
     </row>
     <row r="145">
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>348708300</v>
+        <v>350870517</v>
       </c>
       <c r="E145" t="n">
-        <v>3137196093</v>
+        <v>3156648740</v>
       </c>
       <c r="F145" t="n">
-        <v>466640.1960049832</v>
+        <v>467383.5413313577</v>
       </c>
       <c r="G145" t="n">
-        <v>615326.9462805726</v>
+        <v>633624.7482464932</v>
       </c>
       <c r="H145" t="n">
         <v>0.03</v>
       </c>
       <c r="I145" t="n">
-        <v>46153235</v>
+        <v>47940174</v>
       </c>
     </row>
     <row r="146">
@@ -5519,22 +5519,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>247389</v>
+        <v>240890</v>
       </c>
       <c r="E146" t="n">
-        <v>2183397</v>
+        <v>2126036</v>
       </c>
       <c r="F146" t="n">
-        <v>4.135553375838792</v>
+        <v>5.367773514597969</v>
       </c>
       <c r="G146" t="n">
-        <v>5.402166471408874</v>
+        <v>83.7393957296034</v>
       </c>
       <c r="H146" t="n">
-        <v>0.91</v>
+        <v>0.19</v>
       </c>
       <c r="I146" t="n">
-        <v>85560</v>
+        <v>86587</v>
       </c>
     </row>
     <row r="147">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>633414</v>
+        <v>637734</v>
       </c>
       <c r="F147" t="n">
-        <v>561.1468566144599</v>
+        <v>564.7680994280299</v>
       </c>
       <c r="G147" t="n">
-        <v>815.6903399386279</v>
+        <v>783.7909384071064</v>
       </c>
       <c r="H147" t="n">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
       <c r="I147" t="n">
-        <v>5088.75</v>
+        <v>4963.98</v>
       </c>
     </row>
     <row r="148">
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4970364</v>
+        <v>4921961</v>
       </c>
       <c r="E148" t="n">
-        <v>17562607</v>
+        <v>17391580</v>
       </c>
       <c r="F148" t="n">
-        <v>1413.282661640775</v>
+        <v>1637.731973192706</v>
       </c>
       <c r="G148" t="n">
-        <v>2313.296627234931</v>
+        <v>2521.734790741855</v>
       </c>
       <c r="H148" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I148" t="n">
-        <v>109958</v>
+        <v>112089</v>
       </c>
     </row>
     <row r="149">
@@ -5624,22 +5624,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9315134</v>
+        <v>9383573</v>
       </c>
       <c r="E149" t="n">
-        <v>43176181</v>
+        <v>43493399</v>
       </c>
       <c r="F149" t="n">
-        <v>2878.160827730097</v>
+        <v>1825.726360348221</v>
       </c>
       <c r="G149" t="n">
-        <v>3545.307303318029</v>
+        <v>2981.538884665822</v>
       </c>
       <c r="H149" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="I149" t="n">
-        <v>110726</v>
+        <v>119735</v>
       </c>
     </row>
     <row r="150">
@@ -5659,22 +5659,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>50389781</v>
+        <v>51486755</v>
       </c>
       <c r="E150" t="n">
-        <v>291736009</v>
+        <v>298087035</v>
       </c>
       <c r="F150" t="n">
-        <v>60655.81582029057</v>
+        <v>65063.04976611293</v>
       </c>
       <c r="G150" t="n">
-        <v>56863.16058530715</v>
+        <v>49618.71064686924</v>
       </c>
       <c r="H150" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I150" t="n">
-        <v>34945009</v>
+        <v>38589316</v>
       </c>
     </row>
     <row r="151">
@@ -5694,22 +5694,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>84242</v>
+        <v>84127</v>
       </c>
       <c r="E151" t="n">
-        <v>84242</v>
+        <v>84127</v>
       </c>
       <c r="F151" t="n">
-        <v>9.341709263926029</v>
+        <v>3.934059219620907</v>
       </c>
       <c r="G151" t="n">
-        <v>10.60438021637005</v>
+        <v>5.321094880095902</v>
       </c>
       <c r="H151" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="I151" t="n">
-        <v>21928</v>
+        <v>21824</v>
       </c>
     </row>
     <row r="152">
@@ -5732,19 +5732,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>4320964</v>
+        <v>4327601</v>
       </c>
       <c r="F152" t="n">
-        <v>508.0460281666035</v>
+        <v>486.4120081708977</v>
       </c>
       <c r="G152" t="n">
-        <v>192.4278269968256</v>
+        <v>194.078378389733</v>
       </c>
       <c r="H152" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="I152" t="n">
-        <v>298010</v>
+        <v>294770</v>
       </c>
     </row>
     <row r="153">
@@ -5764,22 +5764,22 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39503016</v>
+        <v>39461453</v>
       </c>
       <c r="E153" t="n">
-        <v>54559290</v>
+        <v>54501886</v>
       </c>
       <c r="F153" t="n">
-        <v>4541.029209048668</v>
+        <v>4402.350198681112</v>
       </c>
       <c r="G153" t="n">
-        <v>6073.270759926245</v>
+        <v>14620.72745881187</v>
       </c>
       <c r="H153" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="I153" t="n">
-        <v>342300</v>
+        <v>294820</v>
       </c>
     </row>
     <row r="154">
@@ -5799,22 +5799,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2117872</v>
+        <v>2130389</v>
       </c>
       <c r="E154" t="n">
-        <v>8648839</v>
+        <v>8699956</v>
       </c>
       <c r="F154" t="n">
-        <v>571.9229985486076</v>
+        <v>699.7479636712637</v>
       </c>
       <c r="G154" t="n">
-        <v>3060.920625697956</v>
+        <v>2862.550711416713</v>
       </c>
       <c r="H154" t="n">
-        <v>0.46</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I154" t="n">
-        <v>545081</v>
+        <v>527518</v>
       </c>
     </row>
     <row r="155">
@@ -5834,22 +5834,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>7396743</v>
+        <v>7435492</v>
       </c>
       <c r="E155" t="n">
-        <v>7451726</v>
+        <v>7490763</v>
       </c>
       <c r="F155" t="n">
-        <v>826.8359552814454</v>
+        <v>1415.976972042022</v>
       </c>
       <c r="G155" t="n">
-        <v>6646.779830935127</v>
+        <v>1770.382618667873</v>
       </c>
       <c r="H155" t="n">
-        <v>0.44</v>
+        <v>0.11</v>
       </c>
       <c r="I155" t="n">
-        <v>5045372</v>
+        <v>4844999</v>
       </c>
     </row>
     <row r="156">
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>488907</v>
+        <v>514687</v>
       </c>
       <c r="E156" t="n">
-        <v>488907</v>
+        <v>514687</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>25.09</v>
+        <v>19.6</v>
       </c>
       <c r="I156" t="n">
-        <v>10701.17</v>
+        <v>11074.6</v>
       </c>
     </row>
     <row r="157">
@@ -5904,22 +5904,22 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>14043473</v>
+        <v>14282605</v>
       </c>
       <c r="E157" t="n">
-        <v>14091264</v>
+        <v>14331210</v>
       </c>
       <c r="F157" t="n">
-        <v>9068.859920825596</v>
+        <v>2958.591584564281</v>
       </c>
       <c r="G157" t="n">
-        <v>2845.731897911937</v>
+        <v>3562.125803370839</v>
       </c>
       <c r="H157" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="I157" t="n">
-        <v>5596522</v>
+        <v>5735053</v>
       </c>
     </row>
     <row r="158">
@@ -5939,22 +5939,22 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>43101288</v>
+        <v>43371348</v>
       </c>
       <c r="E158" t="n">
-        <v>73175959</v>
+        <v>73634460</v>
       </c>
       <c r="F158" t="n">
-        <v>276.8172061951543</v>
+        <v>294.1161266658386</v>
       </c>
       <c r="G158" t="n">
-        <v>465.170791688344</v>
+        <v>489.3721072506164</v>
       </c>
       <c r="H158" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="I158" t="n">
-        <v>1050694</v>
+        <v>1060650</v>
       </c>
     </row>
     <row r="159">
@@ -5974,22 +5974,22 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>23261378</v>
+        <v>23165380</v>
       </c>
       <c r="E159" t="n">
-        <v>69726914</v>
+        <v>69438520</v>
       </c>
       <c r="F159" t="n">
-        <v>13266.02916918396</v>
+        <v>23710.96078888623</v>
       </c>
       <c r="G159" t="n">
-        <v>6974.51980455918</v>
+        <v>6814.758903681988</v>
       </c>
       <c r="H159" t="n">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="I159" t="n">
-        <v>3480103</v>
+        <v>3508885</v>
       </c>
     </row>
     <row r="160">
@@ -6009,22 +6009,22 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>102682137</v>
+        <v>102850608</v>
       </c>
       <c r="E160" t="n">
-        <v>109160392</v>
+        <v>109339491</v>
       </c>
       <c r="F160" t="n">
-        <v>938.0510422949484</v>
+        <v>1234.55749462473</v>
       </c>
       <c r="G160" t="n">
-        <v>1505.076020980744</v>
+        <v>887.0279145638159</v>
       </c>
       <c r="H160" t="n">
-        <v>0.91</v>
+        <v>0.48</v>
       </c>
       <c r="I160" t="n">
-        <v>452337</v>
+        <v>453212</v>
       </c>
     </row>
     <row r="161">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10380838</v>
+        <v>10230722</v>
       </c>
       <c r="E161" t="n">
-        <v>45138060</v>
+        <v>45041473</v>
       </c>
       <c r="F161" t="n">
-        <v>4211.584191104057</v>
+        <v>3441.871720837689</v>
       </c>
       <c r="G161" t="n">
-        <v>2631.194123177405</v>
+        <v>4271.949346834625</v>
       </c>
       <c r="H161" t="n">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="I161" t="n">
-        <v>110973</v>
+        <v>114554</v>
       </c>
     </row>
     <row r="162">
@@ -6079,22 +6079,22 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>15981588</v>
+        <v>15974845</v>
       </c>
       <c r="E162" t="n">
-        <v>97956410</v>
+        <v>97915078</v>
       </c>
       <c r="F162" t="n">
-        <v>984.2700575245</v>
+        <v>7440.843321538944</v>
       </c>
       <c r="G162" t="n">
-        <v>1120.012323364808</v>
+        <v>2056.178058562433</v>
       </c>
       <c r="H162" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I162" t="n">
-        <v>10415967</v>
+        <v>10565565</v>
       </c>
     </row>
     <row r="163">
@@ -6114,22 +6114,22 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1521947</v>
+        <v>1524046</v>
       </c>
       <c r="E163" t="n">
-        <v>1564758</v>
+        <v>1566916</v>
       </c>
       <c r="F163" t="n">
-        <v>95.02392343178896</v>
+        <v>97.49809909540281</v>
       </c>
       <c r="G163" t="n">
-        <v>59.58184078835605</v>
+        <v>72.4046696533138</v>
       </c>
       <c r="H163" t="n">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="I163" t="n">
-        <v>145284</v>
+        <v>147569</v>
       </c>
     </row>
     <row r="164">
@@ -6145,22 +6145,22 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>91763</v>
+        <v>91771</v>
       </c>
       <c r="E164" t="n">
-        <v>260311</v>
+        <v>260333</v>
       </c>
       <c r="F164" t="n">
-        <v>5.403298671888598</v>
+        <v>5.403438156456935</v>
       </c>
       <c r="G164" t="n">
-        <v>109.7926228522979</v>
+        <v>109.7954571166121</v>
       </c>
       <c r="H164" t="n">
         <v>0.08</v>
       </c>
       <c r="I164" t="n">
-        <v>175.16</v>
+        <v>175.18</v>
       </c>
     </row>
     <row r="165">
@@ -6180,22 +6180,22 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>49654851</v>
+        <v>50266076</v>
       </c>
       <c r="E165" t="n">
-        <v>213907671</v>
+        <v>216540761</v>
       </c>
       <c r="F165" t="n">
-        <v>4945.764774976971</v>
+        <v>2912.571785328818</v>
       </c>
       <c r="G165" t="n">
-        <v>4176.265260309373</v>
+        <v>6173.24492370781</v>
       </c>
       <c r="H165" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="I165" t="n">
-        <v>9829284</v>
+        <v>10033868</v>
       </c>
     </row>
     <row r="166">
@@ -6218,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>7593397</v>
+        <v>7565703</v>
       </c>
       <c r="F166" t="n">
-        <v>86.47019782156869</v>
+        <v>75.05378409484855</v>
       </c>
       <c r="G166" t="n">
-        <v>327.3958152743687</v>
+        <v>253.9626507817568</v>
       </c>
       <c r="H166" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="I166" t="n">
-        <v>6560445</v>
+        <v>6549296</v>
       </c>
     </row>
     <row r="167">
@@ -6250,22 +6250,22 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>674788</v>
+        <v>676911</v>
       </c>
       <c r="E167" t="n">
-        <v>2435768</v>
+        <v>2443430</v>
       </c>
       <c r="F167" t="n">
-        <v>10.5571753463184</v>
+        <v>50.34183187457805</v>
       </c>
       <c r="G167" t="n">
-        <v>50.81635907609073</v>
+        <v>10.32352337062396</v>
       </c>
       <c r="H167" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="I167" t="n">
-        <v>337426</v>
+        <v>344043</v>
       </c>
     </row>
     <row r="168">
@@ -6288,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1587509</v>
+        <v>1647081</v>
       </c>
       <c r="F168" t="n">
-        <v>198.9694611671537</v>
+        <v>664.3313555681024</v>
       </c>
       <c r="G168" t="n">
-        <v>59.59656202837846</v>
+        <v>58.10753815954654</v>
       </c>
       <c r="H168" t="n">
-        <v>3.78</v>
+        <v>0.42</v>
       </c>
       <c r="I168" t="n">
-        <v>68321</v>
+        <v>68302</v>
       </c>
     </row>
     <row r="169">
@@ -6320,22 +6320,22 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>13497332</v>
+        <v>13585813</v>
       </c>
       <c r="E169" t="n">
-        <v>13497332</v>
+        <v>13585813</v>
       </c>
       <c r="F169" t="n">
-        <v>334.7585357905258</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>41.86847033800332</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>3.05</v>
+        <v>4.07</v>
       </c>
       <c r="I169" t="n">
-        <v>3758308</v>
+        <v>3893777</v>
       </c>
     </row>
     <row r="170">
@@ -6355,22 +6355,22 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1999230</v>
+        <v>2123854</v>
       </c>
       <c r="E170" t="n">
-        <v>7261010</v>
+        <v>7713566</v>
       </c>
       <c r="F170" t="n">
-        <v>168.1723947010244</v>
+        <v>161.0325473970357</v>
       </c>
       <c r="G170" t="n">
-        <v>278.2267781859816</v>
+        <v>147.4993587547629</v>
       </c>
       <c r="H170" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="I170" t="n">
-        <v>153770</v>
+        <v>163753</v>
       </c>
     </row>
     <row r="171">
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8954764</v>
+        <v>9125909</v>
       </c>
       <c r="E171" t="n">
-        <v>19878324</v>
+        <v>20258241</v>
       </c>
       <c r="F171" t="n">
-        <v>1780.817155968003</v>
+        <v>1690.807072787851</v>
       </c>
       <c r="G171" t="n">
-        <v>1774.991768842638</v>
+        <v>1625.776528311812</v>
       </c>
       <c r="H171" t="n">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="I171" t="n">
-        <v>330775</v>
+        <v>324134</v>
       </c>
     </row>
     <row r="172">
@@ -6425,22 +6425,22 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1043289</v>
+        <v>1046692</v>
       </c>
       <c r="E172" t="n">
-        <v>3049354</v>
+        <v>3059299</v>
       </c>
       <c r="F172" t="n">
-        <v>97.90412562156681</v>
+        <v>97.9106230848739</v>
       </c>
       <c r="G172" t="n">
-        <v>660.6366953500453</v>
+        <v>660.6622377345935</v>
       </c>
       <c r="H172" t="n">
         <v>0.36</v>
       </c>
       <c r="I172" t="n">
-        <v>20007</v>
+        <v>11516.19</v>
       </c>
     </row>
     <row r="173">
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>21238427</v>
+        <v>21171085</v>
       </c>
       <c r="E173" t="n">
-        <v>84953706</v>
+        <v>84684341</v>
       </c>
       <c r="F173" t="n">
-        <v>16311.33753726371</v>
+        <v>17591.31119860119</v>
       </c>
       <c r="G173" t="n">
-        <v>25272.31391904012</v>
+        <v>20006.57356372035</v>
       </c>
       <c r="H173" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="I173" t="n">
-        <v>2380772</v>
+        <v>2463652</v>
       </c>
     </row>
     <row r="174">
@@ -6495,22 +6495,22 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4987980</v>
+        <v>4913159</v>
       </c>
       <c r="E174" t="n">
-        <v>4987980</v>
+        <v>4913159</v>
       </c>
       <c r="F174" t="n">
-        <v>354.2330759717819</v>
+        <v>666.7650326550787</v>
       </c>
       <c r="G174" t="n">
-        <v>956.9648933887419</v>
+        <v>683.6833996079059</v>
       </c>
       <c r="H174" t="n">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="I174" t="n">
-        <v>3076925</v>
+        <v>3076262</v>
       </c>
     </row>
     <row r="175">
@@ -6530,22 +6530,22 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>322352750</v>
+        <v>324733259</v>
       </c>
       <c r="E175" t="n">
-        <v>322352750</v>
+        <v>324733259</v>
       </c>
       <c r="F175" t="n">
-        <v>2353.331993082634</v>
+        <v>1928.270183494417</v>
       </c>
       <c r="G175" t="n">
-        <v>2361.361228664021</v>
+        <v>3699.084371549342</v>
       </c>
       <c r="H175" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="I175" t="n">
-        <v>15802689</v>
+        <v>15992530</v>
       </c>
     </row>
     <row r="176">
@@ -6565,22 +6565,22 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12854734</v>
+        <v>12767303</v>
       </c>
       <c r="E176" t="n">
-        <v>40661944</v>
+        <v>40385384</v>
       </c>
       <c r="F176" t="n">
-        <v>3130.804058988011</v>
+        <v>3516.187370215931</v>
       </c>
       <c r="G176" t="n">
-        <v>3827.913562243281</v>
+        <v>3871.131492231746</v>
       </c>
       <c r="H176" t="n">
         <v>0.49</v>
       </c>
       <c r="I176" t="n">
-        <v>983071</v>
+        <v>967986</v>
       </c>
     </row>
     <row r="177">
@@ -6600,22 +6600,22 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>24575</v>
+        <v>24576</v>
       </c>
       <c r="E177" t="n">
-        <v>193273</v>
+        <v>193281</v>
       </c>
       <c r="F177" t="n">
-        <v>55.51795751653228</v>
+        <v>67.07604538183205</v>
       </c>
       <c r="G177" t="n">
-        <v>223.2026511731339</v>
+        <v>143.5615730820774</v>
       </c>
       <c r="H177" t="n">
         <v>0.51</v>
       </c>
       <c r="I177" t="n">
-        <v>59739</v>
+        <v>52522</v>
       </c>
     </row>
     <row r="178">
@@ -6635,22 +6635,22 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>8509048</v>
+        <v>8504842</v>
       </c>
       <c r="E178" t="n">
-        <v>8509048</v>
+        <v>8504842</v>
       </c>
       <c r="F178" t="n">
-        <v>1776.502219505172</v>
+        <v>1490.620820019505</v>
       </c>
       <c r="G178" t="n">
-        <v>1947.251264564004</v>
+        <v>1480.406884902561</v>
       </c>
       <c r="H178" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="I178" t="n">
-        <v>3752585</v>
+        <v>3750430</v>
       </c>
     </row>
     <row r="179">
@@ -6670,22 +6670,22 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1072107</v>
+        <v>1131204</v>
       </c>
       <c r="E179" t="n">
-        <v>2441829</v>
+        <v>2576429</v>
       </c>
       <c r="F179" t="n">
-        <v>5.470858744178896</v>
+        <v>10.03467349379363</v>
       </c>
       <c r="G179" t="n">
-        <v>4.587186732757365</v>
+        <v>4.041480604036194</v>
       </c>
       <c r="H179" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="I179" t="n">
-        <v>1096.2</v>
+        <v>865.1900000000001</v>
       </c>
     </row>
     <row r="180">
@@ -6705,22 +6705,22 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9021267</v>
+        <v>9292433</v>
       </c>
       <c r="E180" t="n">
-        <v>9021267</v>
+        <v>9292433</v>
       </c>
       <c r="F180" t="n">
-        <v>4513.036334835031</v>
+        <v>3937.808924370614</v>
       </c>
       <c r="G180" t="n">
-        <v>3993.394660292795</v>
+        <v>3030.203807586227</v>
       </c>
       <c r="H180" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="I180" t="n">
-        <v>2984974</v>
+        <v>2933385</v>
       </c>
     </row>
     <row r="181">
@@ -6740,22 +6740,22 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>19468033</v>
+        <v>19263747</v>
       </c>
       <c r="E181" t="n">
-        <v>19468033</v>
+        <v>19263747</v>
       </c>
       <c r="F181" t="n">
-        <v>2053.456572958583</v>
+        <v>2761.333933413644</v>
       </c>
       <c r="G181" t="n">
-        <v>2143.955316418895</v>
+        <v>1877.733197055979</v>
       </c>
       <c r="H181" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I181" t="n">
-        <v>4507893</v>
+        <v>4784094</v>
       </c>
     </row>
     <row r="182">
@@ -6775,22 +6775,22 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>32298044</v>
+        <v>32924898</v>
       </c>
       <c r="E182" t="n">
-        <v>89462375</v>
+        <v>91198700</v>
       </c>
       <c r="F182" t="n">
-        <v>4231.078254047633</v>
+        <v>4594.4697086371</v>
       </c>
       <c r="G182" t="n">
-        <v>5045.485400152901</v>
+        <v>5667.181061046694</v>
       </c>
       <c r="H182" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="I182" t="n">
-        <v>12167142</v>
+        <v>12087311</v>
       </c>
     </row>
     <row r="183">
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>37751430</v>
+        <v>37691387</v>
       </c>
       <c r="E183" t="n">
-        <v>95190983</v>
+        <v>95039582</v>
       </c>
       <c r="F183" t="n">
-        <v>9180.975626287096</v>
+        <v>9696.923855186018</v>
       </c>
       <c r="G183" t="n">
-        <v>11233.12278885712</v>
+        <v>15566.5638313046</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I183" t="n">
-        <v>3510321</v>
+        <v>3531892</v>
       </c>
     </row>
     <row r="184">
@@ -6845,22 +6845,22 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>321840302</v>
+        <v>320376305</v>
       </c>
       <c r="E184" t="n">
-        <v>326860268</v>
+        <v>325385164</v>
       </c>
       <c r="F184" t="n">
-        <v>13931.48536769617</v>
+        <v>21707.56453042399</v>
       </c>
       <c r="G184" t="n">
-        <v>20297.73450901649</v>
+        <v>21714.77472787175</v>
       </c>
       <c r="H184" t="n">
         <v>0.01</v>
       </c>
       <c r="I184" t="n">
-        <v>17336489</v>
+        <v>17933535</v>
       </c>
     </row>
     <row r="185">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>416117</v>
+        <v>417122</v>
       </c>
       <c r="F185" t="n">
-        <v>1.209683462959844</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>2.694229352721084</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>2.37</v>
+        <v>5.81</v>
       </c>
       <c r="I185" t="n">
-        <v>70690</v>
+        <v>71437</v>
       </c>
     </row>
     <row r="186">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>28333006</v>
+        <v>28846582</v>
       </c>
       <c r="E186" t="n">
-        <v>67312178</v>
+        <v>68532306</v>
       </c>
       <c r="F186" t="n">
-        <v>10973.09572108524</v>
+        <v>11061.25361144501</v>
       </c>
       <c r="G186" t="n">
-        <v>7052.224001517249</v>
+        <v>10739.86521574104</v>
       </c>
       <c r="H186" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I186" t="n">
-        <v>414462</v>
+        <v>413289</v>
       </c>
     </row>
     <row r="187">
@@ -6953,19 +6953,19 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>20208012</v>
+        <v>19724359</v>
       </c>
       <c r="F187" t="n">
-        <v>3.98693075546707</v>
+        <v>3.987106456322731</v>
       </c>
       <c r="G187" t="n">
-        <v>260.5108101814861</v>
+        <v>492.010639789717</v>
       </c>
       <c r="H187" t="n">
         <v>0.76</v>
       </c>
       <c r="I187" t="n">
-        <v>1530.54</v>
+        <v>1453.87</v>
       </c>
     </row>
     <row r="188">
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>12704466</v>
+        <v>12753670</v>
       </c>
       <c r="E188" t="n">
-        <v>19339062</v>
+        <v>19413961</v>
       </c>
       <c r="F188" t="n">
-        <v>2335.878589063177</v>
+        <v>1054.092095471787</v>
       </c>
       <c r="G188" t="n">
-        <v>2463.912743052699</v>
+        <v>2035.015645317334</v>
       </c>
       <c r="H188" t="n">
         <v>0.73</v>
       </c>
       <c r="I188" t="n">
-        <v>722666</v>
+        <v>693224</v>
       </c>
     </row>
     <row r="189">
@@ -7020,22 +7020,22 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>86939578</v>
+        <v>88383501</v>
       </c>
       <c r="E189" t="n">
-        <v>86939578</v>
+        <v>88383501</v>
       </c>
       <c r="F189" t="n">
-        <v>7557.639937922355</v>
+        <v>7135.225095437715</v>
       </c>
       <c r="G189" t="n">
-        <v>7885.569572130549</v>
+        <v>10709.81183417624</v>
       </c>
       <c r="H189" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="I189" t="n">
-        <v>5349664</v>
+        <v>5629293</v>
       </c>
     </row>
     <row r="190">
@@ -7055,22 +7055,22 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>307129206</v>
+        <v>305113203</v>
       </c>
       <c r="E190" t="n">
-        <v>307129206</v>
+        <v>305113203</v>
       </c>
       <c r="F190" t="n">
-        <v>202280.7636815476</v>
+        <v>252547.683856194</v>
       </c>
       <c r="G190" t="n">
-        <v>236916.1624030762</v>
+        <v>372687.4260420176</v>
       </c>
       <c r="H190" t="n">
         <v>0.03</v>
       </c>
       <c r="I190" t="n">
-        <v>82031622</v>
+        <v>78601634</v>
       </c>
     </row>
     <row r="191">
@@ -7090,22 +7090,22 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>10227459</v>
+        <v>10440554</v>
       </c>
       <c r="E191" t="n">
-        <v>29037462</v>
+        <v>29642474</v>
       </c>
       <c r="F191" t="n">
-        <v>479.9908756569669</v>
+        <v>420.1678945560137</v>
       </c>
       <c r="G191" t="n">
-        <v>4789.04268891668</v>
+        <v>4587.344372517329</v>
       </c>
       <c r="H191" t="n">
         <v>2.01</v>
       </c>
       <c r="I191" t="n">
-        <v>118761</v>
+        <v>118656</v>
       </c>
     </row>
     <row r="192">
@@ -7125,22 +7125,22 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>4240340</v>
+        <v>4341908</v>
       </c>
       <c r="E192" t="n">
-        <v>28973947</v>
+        <v>29667951</v>
       </c>
       <c r="F192" t="n">
-        <v>4794.541424488215</v>
+        <v>6157.897566480051</v>
       </c>
       <c r="G192" t="n">
-        <v>4455.892414001552</v>
+        <v>6769.913594278247</v>
       </c>
       <c r="H192" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="I192" t="n">
-        <v>2653859</v>
+        <v>2629250</v>
       </c>
     </row>
     <row r="193">
@@ -7160,22 +7160,22 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2988573</v>
+        <v>2985750</v>
       </c>
       <c r="E193" t="n">
-        <v>4428944</v>
+        <v>4424331</v>
       </c>
       <c r="F193" t="n">
-        <v>357.8992500063375</v>
+        <v>191.3748492966271</v>
       </c>
       <c r="G193" t="n">
-        <v>451.1310412326926</v>
+        <v>822.3517612912842</v>
       </c>
       <c r="H193" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="I193" t="n">
-        <v>165667</v>
+        <v>132397</v>
       </c>
     </row>
     <row r="194">
@@ -7195,22 +7195,22 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>93721558</v>
+        <v>93570549</v>
       </c>
       <c r="E194" t="n">
-        <v>540064041</v>
+        <v>539193861</v>
       </c>
       <c r="F194" t="n">
-        <v>462937.2187019885</v>
+        <v>464921.0872078805</v>
       </c>
       <c r="G194" t="n">
-        <v>526949.0683618273</v>
+        <v>550143.0895028196</v>
       </c>
       <c r="H194" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I194" t="n">
-        <v>17660792</v>
+        <v>18355514</v>
       </c>
     </row>
     <row r="195">
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>727831</v>
+        <v>724603</v>
       </c>
       <c r="E195" t="n">
-        <v>793768</v>
+        <v>790247</v>
       </c>
       <c r="F195" t="n">
-        <v>4.051411361250809</v>
+        <v>4.051573029718305</v>
       </c>
       <c r="G195" t="n">
-        <v>47.51970378222526</v>
+        <v>70.37191376831964</v>
       </c>
       <c r="H195" t="n">
         <v>0.41</v>
       </c>
       <c r="I195" t="n">
-        <v>127499</v>
+        <v>127902</v>
       </c>
     </row>
     <row r="196">
@@ -7265,22 +7265,22 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>110977217</v>
+        <v>111339441</v>
       </c>
       <c r="E196" t="n">
-        <v>273047312</v>
+        <v>273938526</v>
       </c>
       <c r="F196" t="n">
-        <v>33096.84179810787</v>
+        <v>34891.83969818682</v>
       </c>
       <c r="G196" t="n">
-        <v>48071.18556026978</v>
+        <v>51292.72745118365</v>
       </c>
       <c r="H196" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I196" t="n">
-        <v>2251686</v>
+        <v>2281930</v>
       </c>
     </row>
     <row r="197">
@@ -7300,22 +7300,22 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>18754749</v>
+        <v>19043860</v>
       </c>
       <c r="E197" t="n">
-        <v>18754749</v>
+        <v>19043860</v>
       </c>
       <c r="F197" t="n">
-        <v>301.9650067663937</v>
+        <v>886.3795721154839</v>
       </c>
       <c r="G197" t="n">
-        <v>3.943908750287197</v>
+        <v>3.952250942360273</v>
       </c>
       <c r="H197" t="n">
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="I197" t="n">
-        <v>117365</v>
+        <v>120471</v>
       </c>
     </row>
     <row r="198">
@@ -7338,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1325357</v>
+        <v>1326611</v>
       </c>
       <c r="F198" t="n">
-        <v>441.3563143683002</v>
+        <v>5.364850227543117</v>
       </c>
       <c r="G198" t="n">
-        <v>5.574779107435888</v>
+        <v>351.3386129320477</v>
       </c>
       <c r="H198" t="n">
-        <v>0.73</v>
+        <v>0.23</v>
       </c>
       <c r="I198" t="n">
-        <v>30422</v>
+        <v>31986</v>
       </c>
     </row>
     <row r="199">
@@ -7370,22 +7370,22 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>131784</v>
+        <v>131121</v>
       </c>
       <c r="E199" t="n">
-        <v>286892</v>
+        <v>285448</v>
       </c>
       <c r="F199" t="n">
-        <v>5.272342793478058</v>
+        <v>4.063736614819393</v>
       </c>
       <c r="G199" t="n">
-        <v>3.749327942202928</v>
+        <v>3.999511445450927</v>
       </c>
       <c r="H199" t="n">
         <v>0.36</v>
       </c>
       <c r="I199" t="n">
-        <v>48608</v>
+        <v>48430</v>
       </c>
     </row>
     <row r="200">
@@ -7408,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2697011</v>
+        <v>2817424</v>
       </c>
       <c r="F200" t="n">
-        <v>243.5010131940224</v>
+        <v>115.7061841562113</v>
       </c>
       <c r="G200" t="n">
-        <v>759.8587782231466</v>
+        <v>857.9871249594595</v>
       </c>
       <c r="H200" t="n">
-        <v>1.82</v>
+        <v>1.38</v>
       </c>
       <c r="I200" t="n">
-        <v>438096</v>
+        <v>448101</v>
       </c>
     </row>
     <row r="201">
@@ -7440,22 +7440,22 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>201268</v>
+        <v>200930</v>
       </c>
       <c r="E201" t="n">
-        <v>1554191</v>
+        <v>1551584</v>
       </c>
       <c r="F201" t="n">
-        <v>3.952715841888378</v>
+        <v>5.513381953735398</v>
       </c>
       <c r="G201" t="n">
-        <v>4.141418506591022</v>
+        <v>3.817636370264478</v>
       </c>
       <c r="H201" t="n">
-        <v>0.53</v>
+        <v>0.78</v>
       </c>
       <c r="I201" t="n">
-        <v>106729</v>
+        <v>104138</v>
       </c>
     </row>
     <row r="202">
@@ -7475,22 +7475,22 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>31338363</v>
+        <v>31776649</v>
       </c>
       <c r="E202" t="n">
-        <v>140314708</v>
+        <v>142277092</v>
       </c>
       <c r="F202" t="n">
-        <v>9758.607823334349</v>
+        <v>8339.929101961554</v>
       </c>
       <c r="G202" t="n">
-        <v>12557.32567835875</v>
+        <v>13730.76117104708</v>
       </c>
       <c r="H202" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I202" t="n">
-        <v>8687945</v>
+        <v>7937009</v>
       </c>
     </row>
     <row r="203">
@@ -7510,22 +7510,22 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>12949493</v>
+        <v>12927066</v>
       </c>
       <c r="E203" t="n">
-        <v>25887679</v>
+        <v>25842846</v>
       </c>
       <c r="F203" t="n">
-        <v>705.1937618567538</v>
+        <v>706.9194664246214</v>
       </c>
       <c r="G203" t="n">
-        <v>1240.746279749997</v>
+        <v>1236.287612756168</v>
       </c>
       <c r="H203" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I203" t="n">
-        <v>32253</v>
+        <v>27196</v>
       </c>
     </row>
     <row r="204">
@@ -7548,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>1451957</v>
+        <v>1464402</v>
       </c>
       <c r="F204" t="n">
-        <v>240.1224054899199</v>
+        <v>251.1319831538524</v>
       </c>
       <c r="G204" t="n">
-        <v>15.94692329768131</v>
+        <v>2.7288402972029</v>
       </c>
       <c r="H204" t="n">
-        <v>1.91</v>
+        <v>2.26</v>
       </c>
       <c r="I204" t="n">
-        <v>37097</v>
+        <v>47138</v>
       </c>
     </row>
     <row r="205">
@@ -7580,22 +7580,22 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>978787</v>
+        <v>982451</v>
       </c>
       <c r="E205" t="n">
-        <v>4527030</v>
+        <v>4543977</v>
       </c>
       <c r="F205" t="n">
-        <v>2754.261380225232</v>
+        <v>3604.07585875709</v>
       </c>
       <c r="G205" t="n">
-        <v>2626.602962106578</v>
+        <v>2695.932199682683</v>
       </c>
       <c r="H205" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="I205" t="n">
-        <v>476328</v>
+        <v>81683</v>
       </c>
     </row>
     <row r="206">
@@ -7615,22 +7615,22 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3255550</v>
+        <v>3273403</v>
       </c>
       <c r="E206" t="n">
-        <v>3255550</v>
+        <v>3273403</v>
       </c>
       <c r="F206" t="n">
-        <v>501.5938736794623</v>
+        <v>383.5976949826126</v>
       </c>
       <c r="G206" t="n">
-        <v>1207.278088082608</v>
+        <v>1018.579561433834</v>
       </c>
       <c r="H206" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="I206" t="n">
-        <v>405573</v>
+        <v>411848</v>
       </c>
     </row>
     <row r="207">
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>587106</v>
+        <v>590447</v>
       </c>
       <c r="E207" t="n">
-        <v>587106</v>
+        <v>590447</v>
       </c>
       <c r="F207" t="n">
-        <v>266.648161333653</v>
+        <v>249.9791005341008</v>
       </c>
       <c r="G207" t="n">
-        <v>5.34242685326734</v>
+        <v>63.7711536566016</v>
       </c>
       <c r="H207" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="I207" t="n">
-        <v>1216145</v>
+        <v>1131429</v>
       </c>
     </row>
     <row r="208">
@@ -7685,22 +7685,22 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>15613256</v>
+        <v>16031602</v>
       </c>
       <c r="E208" t="n">
-        <v>19878167</v>
+        <v>20410789</v>
       </c>
       <c r="F208" t="n">
-        <v>135.9378473255837</v>
+        <v>153.7342210213239</v>
       </c>
       <c r="G208" t="n">
-        <v>138.1939645826652</v>
+        <v>112.2030147424667</v>
       </c>
       <c r="H208" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I208" t="n">
-        <v>922775</v>
+        <v>967130</v>
       </c>
     </row>
     <row r="209">
@@ -7720,22 +7720,22 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1787812</v>
+        <v>1778196</v>
       </c>
       <c r="E209" t="n">
-        <v>1787812</v>
+        <v>1778196</v>
       </c>
       <c r="F209" t="n">
-        <v>28.96549532408753</v>
+        <v>27.5262378218492</v>
       </c>
       <c r="G209" t="n">
-        <v>20.42384240564402</v>
+        <v>912.1764025261077</v>
       </c>
       <c r="H209" t="n">
-        <v>0.57</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I209" t="n">
-        <v>3943.81</v>
+        <v>3837.04</v>
       </c>
     </row>
     <row r="210">
@@ -7755,22 +7755,22 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>5881933</v>
+        <v>6049265</v>
       </c>
       <c r="E210" t="n">
-        <v>15437143</v>
+        <v>15876306</v>
       </c>
       <c r="F210" t="n">
-        <v>477.4300574051588</v>
+        <v>385.4809422374671</v>
       </c>
       <c r="G210" t="n">
-        <v>205.8063948143914</v>
+        <v>98.30159191139211</v>
       </c>
       <c r="H210" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="I210" t="n">
-        <v>24670</v>
+        <v>26395</v>
       </c>
     </row>
     <row r="211">
@@ -7793,19 +7793,19 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>29586450</v>
+        <v>29587778</v>
       </c>
       <c r="F211" t="n">
-        <v>835.1574566601663</v>
+        <v>1473.851059030296</v>
       </c>
       <c r="G211" t="n">
-        <v>1790.119128222171</v>
+        <v>1659.228411585392</v>
       </c>
       <c r="H211" t="n">
-        <v>0.88</v>
+        <v>0.17</v>
       </c>
       <c r="I211" t="n">
-        <v>372971</v>
+        <v>401819</v>
       </c>
     </row>
     <row r="212">
@@ -7825,22 +7825,22 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>18177258</v>
+        <v>18204613</v>
       </c>
       <c r="E212" t="n">
-        <v>18177258</v>
+        <v>18204613</v>
       </c>
       <c r="F212" t="n">
-        <v>26729.38269119287</v>
+        <v>27033.14792948304</v>
       </c>
       <c r="G212" t="n">
-        <v>32312.82940611757</v>
+        <v>42119.5692827729</v>
       </c>
       <c r="H212" t="n">
         <v>0.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2960485</v>
+        <v>2942367</v>
       </c>
     </row>
     <row r="213">
@@ -7860,22 +7860,22 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>52389065</v>
+        <v>52343162</v>
       </c>
       <c r="E213" t="n">
-        <v>339729144</v>
+        <v>339431477</v>
       </c>
       <c r="F213" t="n">
-        <v>108013.2354372459</v>
+        <v>115475.1557394606</v>
       </c>
       <c r="G213" t="n">
-        <v>203747.7939463306</v>
+        <v>214323.1523321093</v>
       </c>
       <c r="H213" t="n">
         <v>0.18</v>
       </c>
       <c r="I213" t="n">
-        <v>17659471</v>
+        <v>17695654</v>
       </c>
     </row>
     <row r="214">
@@ -7898,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>9120765</v>
+        <v>9124738</v>
       </c>
       <c r="F214" t="n">
-        <v>211.8309568707728</v>
+        <v>211.9551240028246</v>
       </c>
       <c r="G214" t="n">
-        <v>5.331371795116147</v>
+        <v>5.331415600665318</v>
       </c>
       <c r="H214" t="n">
         <v>0.55</v>
       </c>
       <c r="I214" t="n">
-        <v>294568</v>
+        <v>295050</v>
       </c>
     </row>
     <row r="215">
@@ -7930,22 +7930,22 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>7163484</v>
+        <v>7300078</v>
       </c>
       <c r="E215" t="n">
-        <v>7173744</v>
+        <v>7309628</v>
       </c>
       <c r="F215" t="n">
-        <v>117.9255933015824</v>
+        <v>70.26391898121928</v>
       </c>
       <c r="G215" t="n">
-        <v>3.735293750664577</v>
+        <v>77.31962110055514</v>
       </c>
       <c r="H215" t="n">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="I215" t="n">
-        <v>780209</v>
+        <v>744578</v>
       </c>
     </row>
     <row r="216">
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>4805895</v>
+        <v>4786282</v>
       </c>
       <c r="F216" t="n">
-        <v>945.7299658188265</v>
+        <v>1106.465144784671</v>
       </c>
       <c r="G216" t="n">
-        <v>254.8464811501858</v>
+        <v>300.9487384256658</v>
       </c>
       <c r="H216" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="I216" t="n">
-        <v>127234</v>
+        <v>197862</v>
       </c>
     </row>
     <row r="217">
@@ -8000,22 +8000,22 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2503195</v>
+        <v>2539163</v>
       </c>
       <c r="E217" t="n">
-        <v>4535009</v>
+        <v>4600171</v>
       </c>
       <c r="F217" t="n">
-        <v>1344.758963491333</v>
+        <v>1511.344149191995</v>
       </c>
       <c r="G217" t="n">
-        <v>34.20553280029287</v>
+        <v>79.83038790120217</v>
       </c>
       <c r="H217" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="I217" t="n">
-        <v>131257</v>
+        <v>128069</v>
       </c>
     </row>
     <row r="218">
@@ -8035,22 +8035,22 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>125191084</v>
+        <v>124962552</v>
       </c>
       <c r="E218" t="n">
-        <v>2073266878</v>
+        <v>2069482213</v>
       </c>
       <c r="F218" t="n">
-        <v>7973.311239637615</v>
+        <v>9844.70225279851</v>
       </c>
       <c r="G218" t="n">
-        <v>10345.50287658095</v>
+        <v>13935.45696801994</v>
       </c>
       <c r="H218" t="n">
         <v>0.09</v>
       </c>
       <c r="I218" t="n">
-        <v>4560248</v>
+        <v>4658354</v>
       </c>
     </row>
     <row r="219">
@@ -8070,22 +8070,22 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>100464373</v>
+        <v>100802437</v>
       </c>
       <c r="E219" t="n">
-        <v>101545804</v>
+        <v>101887507</v>
       </c>
       <c r="F219" t="n">
-        <v>12879.55902698007</v>
+        <v>9644.89274044149</v>
       </c>
       <c r="G219" t="n">
-        <v>13603.32961099377</v>
+        <v>81041.48453284151</v>
       </c>
       <c r="H219" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I219" t="n">
-        <v>46075084</v>
+        <v>47949680</v>
       </c>
     </row>
     <row r="220">
@@ -8105,22 +8105,22 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>253838671</v>
+        <v>256617370</v>
       </c>
       <c r="E220" t="n">
-        <v>253838671</v>
+        <v>256617370</v>
       </c>
       <c r="F220" t="n">
-        <v>85709.45580408147</v>
+        <v>105294.8231345928</v>
       </c>
       <c r="G220" t="n">
-        <v>118827.5586746576</v>
+        <v>144594.1759684794</v>
       </c>
       <c r="H220" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I220" t="n">
-        <v>51929631</v>
+        <v>51838475</v>
       </c>
     </row>
     <row r="221">
@@ -8140,22 +8140,22 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>25167261</v>
+        <v>25195796</v>
       </c>
       <c r="E221" t="n">
-        <v>150580779</v>
+        <v>150751511</v>
       </c>
       <c r="F221" t="n">
-        <v>58844.31579515224</v>
+        <v>73397.75313281715</v>
       </c>
       <c r="G221" t="n">
-        <v>71624.53833752144</v>
+        <v>100390.4992961797</v>
       </c>
       <c r="H221" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I221" t="n">
-        <v>13041876</v>
+        <v>12978953</v>
       </c>
     </row>
     <row r="222">
@@ -8178,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>1051391</v>
+        <v>1096900</v>
       </c>
       <c r="F222" t="n">
-        <v>446.0775522587673</v>
+        <v>19.87992252329498</v>
       </c>
       <c r="G222" t="n">
-        <v>2799.289960161357</v>
+        <v>290.3905816171109</v>
       </c>
       <c r="H222" t="n">
-        <v>0.96</v>
+        <v>2.35</v>
       </c>
       <c r="I222" t="n">
-        <v>67087</v>
+        <v>72874</v>
       </c>
     </row>
     <row r="223">
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>2233777</v>
+        <v>2227620</v>
       </c>
       <c r="F223" t="n">
-        <v>179.3508337080614</v>
+        <v>3.94558619428906</v>
       </c>
       <c r="G223" t="n">
-        <v>183.7370725599956</v>
+        <v>3.93790227031318</v>
       </c>
       <c r="H223" t="n">
-        <v>0.21</v>
+        <v>0.84</v>
       </c>
       <c r="I223" t="n">
-        <v>177750</v>
+        <v>177767</v>
       </c>
     </row>
     <row r="224">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>14195267</v>
+        <v>14032283</v>
       </c>
       <c r="E224" t="n">
-        <v>42902038</v>
+        <v>42409454</v>
       </c>
       <c r="F224" t="n">
-        <v>1344.66760162184</v>
+        <v>850.9847851948264</v>
       </c>
       <c r="G224" t="n">
-        <v>637.0832034497611</v>
+        <v>2235.659268641843</v>
       </c>
       <c r="H224" t="n">
-        <v>0.19</v>
+        <v>0.58</v>
       </c>
       <c r="I224" t="n">
-        <v>2627210</v>
+        <v>2606126</v>
       </c>
     </row>
     <row r="225">
@@ -8280,22 +8280,22 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>54976808</v>
+        <v>54537944</v>
       </c>
       <c r="E225" t="n">
-        <v>94956900</v>
+        <v>94198886</v>
       </c>
       <c r="F225" t="n">
-        <v>13471.02053576508</v>
+        <v>6465.351724325571</v>
       </c>
       <c r="G225" t="n">
-        <v>7692.688269833529</v>
+        <v>7981.981522152895</v>
       </c>
       <c r="H225" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I225" t="n">
-        <v>2306348</v>
+        <v>2264250</v>
       </c>
     </row>
     <row r="226">
@@ -8315,22 +8315,22 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4320575</v>
+        <v>4313700</v>
       </c>
       <c r="E226" t="n">
-        <v>4320575</v>
+        <v>4313700</v>
       </c>
       <c r="F226" t="n">
-        <v>24.41416497875629</v>
+        <v>4.109705316544924</v>
       </c>
       <c r="G226" t="n">
-        <v>4.055530710313628</v>
+        <v>14.03463551468566</v>
       </c>
       <c r="H226" t="n">
         <v>0.55</v>
       </c>
       <c r="I226" t="n">
-        <v>1742867</v>
+        <v>1743951</v>
       </c>
     </row>
     <row r="227">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E227" t="n">
-        <v>212251</v>
+        <v>210088</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>5.95</v>
       </c>
       <c r="I227" t="n">
-        <v>52976</v>
+        <v>54091</v>
       </c>
     </row>
     <row r="228">
@@ -8385,22 +8385,22 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6708516</v>
+        <v>6759810</v>
       </c>
       <c r="E228" t="n">
-        <v>34513274</v>
+        <v>34777170</v>
       </c>
       <c r="F228" t="n">
-        <v>121.1970382787801</v>
+        <v>124.4817901520039</v>
       </c>
       <c r="G228" t="n">
-        <v>2930.188813145995</v>
+        <v>124.9598350621972</v>
       </c>
       <c r="H228" t="n">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
       <c r="I228" t="n">
-        <v>908847</v>
+        <v>918148</v>
       </c>
     </row>
     <row r="229">
@@ -8447,22 +8447,22 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>177408902</v>
+        <v>178175705</v>
       </c>
       <c r="E230" t="n">
-        <v>207265980</v>
+        <v>208161833</v>
       </c>
       <c r="F230" t="n">
-        <v>13913.40907629444</v>
+        <v>29463.2469852986</v>
       </c>
       <c r="G230" t="n">
-        <v>54189.5902988597</v>
+        <v>63841.35609151065</v>
       </c>
       <c r="H230" t="n">
         <v>0.13</v>
       </c>
       <c r="I230" t="n">
-        <v>3923029</v>
+        <v>3582193</v>
       </c>
     </row>
     <row r="231">
@@ -8485,19 +8485,19 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>305426</v>
+        <v>304180</v>
       </c>
       <c r="F231" t="n">
-        <v>502.4749284721244</v>
+        <v>321.8268795939821</v>
       </c>
       <c r="G231" t="n">
-        <v>4.242649256924102</v>
+        <v>47.02068902655252</v>
       </c>
       <c r="H231" t="n">
-        <v>1.13</v>
+        <v>0.85</v>
       </c>
       <c r="I231" t="n">
-        <v>294419</v>
+        <v>297399</v>
       </c>
     </row>
     <row r="232">
@@ -8517,22 +8517,22 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>29251087</v>
+        <v>29376097</v>
       </c>
       <c r="E232" t="n">
-        <v>40108355</v>
+        <v>40279764</v>
       </c>
       <c r="F232" t="n">
-        <v>5648.770549461038</v>
+        <v>5481.317900853501</v>
       </c>
       <c r="G232" t="n">
-        <v>6059.819859024362</v>
+        <v>5486.746655649718</v>
       </c>
       <c r="H232" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="I232" t="n">
-        <v>206747</v>
+        <v>232579</v>
       </c>
     </row>
     <row r="233">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>953720</v>
+        <v>1059524</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8567,7 +8567,7 @@
         <v>36.57</v>
       </c>
       <c r="I233" t="n">
-        <v>1312794</v>
+        <v>969577</v>
       </c>
     </row>
     <row r="234">
@@ -8590,19 +8590,19 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>7992028</v>
+        <v>7991301</v>
       </c>
       <c r="F234" t="n">
-        <v>478.735149095061</v>
+        <v>478.9285379748574</v>
       </c>
       <c r="G234" t="n">
-        <v>3308.789266840011</v>
+        <v>3284.465602914486</v>
       </c>
       <c r="H234" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I234" t="n">
-        <v>653037</v>
+        <v>658332</v>
       </c>
     </row>
     <row r="235">
@@ -8622,22 +8622,22 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23174125</v>
+        <v>23676683</v>
       </c>
       <c r="E235" t="n">
-        <v>23174125</v>
+        <v>23676683</v>
       </c>
       <c r="F235" t="n">
-        <v>19159.97022292283</v>
+        <v>10575.56722713743</v>
       </c>
       <c r="G235" t="n">
-        <v>8243.000667124206</v>
+        <v>7770.253197791765</v>
       </c>
       <c r="H235" t="n">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="I235" t="n">
-        <v>1995330</v>
+        <v>2055562</v>
       </c>
     </row>
     <row r="236">
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3401555</v>
+        <v>3383480</v>
       </c>
       <c r="E236" t="n">
-        <v>4556598</v>
+        <v>4532385</v>
       </c>
       <c r="F236" t="n">
-        <v>483.7332046300951</v>
+        <v>343.3724590039512</v>
       </c>
       <c r="G236" t="n">
-        <v>396.3417622561689</v>
+        <v>543.6229094852455</v>
       </c>
       <c r="H236" t="n">
         <v>0.63</v>
       </c>
       <c r="I236" t="n">
-        <v>149076</v>
+        <v>148630</v>
       </c>
     </row>
     <row r="237">
@@ -8692,22 +8692,22 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>35487470</v>
+        <v>35669206</v>
       </c>
       <c r="E237" t="n">
-        <v>177098836</v>
+        <v>178005780</v>
       </c>
       <c r="F237" t="n">
-        <v>93778.16701455973</v>
+        <v>114674.9383763615</v>
       </c>
       <c r="G237" t="n">
-        <v>82345.07086290633</v>
+        <v>79844.76679334673</v>
       </c>
       <c r="H237" t="n">
         <v>0.11</v>
       </c>
       <c r="I237" t="n">
-        <v>10872747</v>
+        <v>10978266</v>
       </c>
     </row>
     <row r="238">
@@ -8727,22 +8727,22 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26584492</v>
+        <v>26737624</v>
       </c>
       <c r="E238" t="n">
-        <v>59931176</v>
+        <v>60276391</v>
       </c>
       <c r="F238" t="n">
-        <v>510.7005126264057</v>
+        <v>232.1300432000388</v>
       </c>
       <c r="G238" t="n">
-        <v>105.6845681453082</v>
+        <v>84.96149350381393</v>
       </c>
       <c r="H238" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="I238" t="n">
-        <v>403677</v>
+        <v>389483</v>
       </c>
     </row>
     <row r="239">
@@ -8762,22 +8762,22 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1977256</v>
+        <v>1979137</v>
       </c>
       <c r="E239" t="n">
-        <v>1977256</v>
+        <v>1979137</v>
       </c>
       <c r="F239" t="n">
-        <v>170.1363664986385</v>
+        <v>182.3647450311358</v>
       </c>
       <c r="G239" t="n">
-        <v>52.56600245581552</v>
+        <v>93.17628556377122</v>
       </c>
       <c r="H239" t="n">
         <v>0.16</v>
       </c>
       <c r="I239" t="n">
-        <v>13434.22</v>
+        <v>12591.35</v>
       </c>
     </row>
     <row r="240">
@@ -8800,19 +8800,19 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>71824194</v>
+        <v>71952072</v>
       </c>
       <c r="F240" t="n">
-        <v>5.575747340797325</v>
+        <v>5.53937844899437</v>
       </c>
       <c r="G240" t="n">
-        <v>4.16560510081173</v>
+        <v>4.165795577872043</v>
       </c>
       <c r="H240" t="n">
         <v>0.51</v>
       </c>
       <c r="I240" t="n">
-        <v>61443</v>
+        <v>60837</v>
       </c>
     </row>
     <row r="241">
@@ -8832,22 +8832,22 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>920595</v>
+        <v>936961</v>
       </c>
       <c r="E241" t="n">
-        <v>920595</v>
+        <v>936961</v>
       </c>
       <c r="F241" t="n">
-        <v>3.821921293070591</v>
+        <v>3.821657480615634</v>
       </c>
       <c r="G241" t="n">
-        <v>46.84575408496333</v>
+        <v>44.38932560743825</v>
       </c>
       <c r="H241" t="n">
         <v>0.66</v>
       </c>
       <c r="I241" t="n">
-        <v>13028.02</v>
+        <v>13201.69</v>
       </c>
     </row>
     <row r="242">
@@ -8867,22 +8867,22 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>116638</v>
+        <v>118053</v>
       </c>
       <c r="E242" t="n">
-        <v>116638</v>
+        <v>118053</v>
       </c>
       <c r="F242" t="n">
-        <v>3.86154779676669</v>
+        <v>125.3529691839777</v>
       </c>
       <c r="G242" t="n">
-        <v>34.59757403496182</v>
+        <v>13.06027221998925</v>
       </c>
       <c r="H242" t="n">
-        <v>0.08</v>
+        <v>0.99</v>
       </c>
       <c r="I242" t="n">
-        <v>38970</v>
+        <v>38432</v>
       </c>
     </row>
     <row r="243">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3498032</v>
+        <v>3445617</v>
       </c>
       <c r="E243" t="n">
-        <v>5024988</v>
+        <v>4949692</v>
       </c>
       <c r="F243" t="n">
-        <v>442.8641375589278</v>
+        <v>1203.795709200031</v>
       </c>
       <c r="G243" t="n">
-        <v>470.496927761302</v>
+        <v>106.765628201749</v>
       </c>
       <c r="H243" t="n">
-        <v>1.79</v>
+        <v>2.83</v>
       </c>
       <c r="I243" t="n">
-        <v>141724</v>
+        <v>144430</v>
       </c>
     </row>
     <row r="244">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>323513059</v>
+        <v>327624859</v>
       </c>
       <c r="E244" t="n">
-        <v>598572936</v>
+        <v>606180702</v>
       </c>
       <c r="F244" t="n">
-        <v>33665.80585961643</v>
+        <v>43795.75896413237</v>
       </c>
       <c r="G244" t="n">
-        <v>38703.80122801385</v>
+        <v>47690.12020090752</v>
       </c>
       <c r="H244" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I244" t="n">
-        <v>14340059</v>
+        <v>14465856</v>
       </c>
     </row>
     <row r="245">
@@ -8972,22 +8972,22 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>74320932</v>
+        <v>74173340</v>
       </c>
       <c r="E245" t="n">
-        <v>708957634</v>
+        <v>707560337</v>
       </c>
       <c r="F245" t="n">
-        <v>53712.6290523365</v>
+        <v>44298.98445202388</v>
       </c>
       <c r="G245" t="n">
-        <v>63160.9446905717</v>
+        <v>74494.03919156524</v>
       </c>
       <c r="H245" t="n">
         <v>0.03</v>
       </c>
       <c r="I245" t="n">
-        <v>22714430</v>
+        <v>22637814</v>
       </c>
     </row>
     <row r="246">
@@ -9007,22 +9007,22 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>84245</v>
+        <v>84317</v>
       </c>
       <c r="E246" t="n">
-        <v>700347</v>
+        <v>700944</v>
       </c>
       <c r="F246" t="n">
-        <v>51.7676299715184</v>
+        <v>51.75979135258056</v>
       </c>
       <c r="G246" t="n">
-        <v>4.073301126434396</v>
+        <v>4.073485605722529</v>
       </c>
       <c r="H246" t="n">
         <v>0.85</v>
       </c>
       <c r="I246" t="n">
-        <v>72.87</v>
+        <v>71.95</v>
       </c>
     </row>
     <row r="247">
@@ -9042,22 +9042,22 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1920182</v>
+        <v>1917210</v>
       </c>
       <c r="E247" t="n">
-        <v>5483792</v>
+        <v>5475307</v>
       </c>
       <c r="F247" t="n">
-        <v>425.9663083470971</v>
+        <v>297.9978368149149</v>
       </c>
       <c r="G247" t="n">
-        <v>280.5501803377064</v>
+        <v>283.0517205667902</v>
       </c>
       <c r="H247" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="I247" t="n">
-        <v>72077</v>
+        <v>74091</v>
       </c>
     </row>
     <row r="248">
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>38482841</v>
+        <v>38372876</v>
       </c>
       <c r="E248" t="n">
-        <v>50312850</v>
+        <v>50168920</v>
       </c>
       <c r="F248" t="n">
-        <v>528.7266092259184</v>
+        <v>12875.78124375868</v>
       </c>
       <c r="G248" t="n">
-        <v>420.088971529001</v>
+        <v>3736.660696520124</v>
       </c>
       <c r="H248" t="n">
-        <v>1.91</v>
+        <v>1.18</v>
       </c>
       <c r="I248" t="n">
-        <v>366657</v>
+        <v>494807</v>
       </c>
     </row>
     <row r="249">
@@ -9112,22 +9112,22 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>11490973</v>
+        <v>11537629</v>
       </c>
       <c r="E249" t="n">
-        <v>34088331</v>
+        <v>34226736</v>
       </c>
       <c r="F249" t="n">
-        <v>849.3687807820776</v>
+        <v>1022.896874621312</v>
       </c>
       <c r="G249" t="n">
-        <v>2475.428804494444</v>
+        <v>2120.887647973982</v>
       </c>
       <c r="H249" t="n">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
       <c r="I249" t="n">
-        <v>7343410</v>
+        <v>7398050</v>
       </c>
     </row>
     <row r="250">
@@ -9147,22 +9147,22 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1989178</v>
+        <v>2007817</v>
       </c>
       <c r="E250" t="n">
-        <v>5754198</v>
+        <v>5808115</v>
       </c>
       <c r="F250" t="n">
-        <v>141.9153696323412</v>
+        <v>165.3317474221996</v>
       </c>
       <c r="G250" t="n">
-        <v>163.3524400822358</v>
+        <v>204.3554433796928</v>
       </c>
       <c r="H250" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I250" t="n">
-        <v>55826</v>
+        <v>60193</v>
       </c>
     </row>
     <row r="251">
@@ -9182,22 +9182,22 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>7348420</v>
+        <v>7364628</v>
       </c>
       <c r="E251" t="n">
-        <v>7348431</v>
+        <v>7364639</v>
       </c>
       <c r="F251" t="n">
-        <v>2944.01966372402</v>
+        <v>1329.825816709575</v>
       </c>
       <c r="G251" t="n">
-        <v>2121.302976244574</v>
+        <v>2735.515296921474</v>
       </c>
       <c r="H251" t="n">
-        <v>0.74</v>
+        <v>1.21</v>
       </c>
       <c r="I251" t="n">
-        <v>318013</v>
+        <v>317809</v>
       </c>
     </row>
     <row r="252">
@@ -9217,22 +9217,22 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6570914</v>
+        <v>6564913</v>
       </c>
       <c r="E252" t="n">
-        <v>6570914</v>
+        <v>6564913</v>
       </c>
       <c r="F252" t="n">
-        <v>407.2614493530684</v>
+        <v>476.2603530004878</v>
       </c>
       <c r="G252" t="n">
-        <v>969.0479082885631</v>
+        <v>1451.667420384483</v>
       </c>
       <c r="H252" t="n">
         <v>0.15</v>
       </c>
       <c r="I252" t="n">
-        <v>501129</v>
+        <v>510644</v>
       </c>
     </row>
     <row r="253">
@@ -9252,22 +9252,22 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6267926</v>
+        <v>6316145</v>
       </c>
       <c r="E253" t="n">
-        <v>22894310</v>
+        <v>23070434</v>
       </c>
       <c r="F253" t="n">
-        <v>59.53889324586121</v>
+        <v>59.54251031753198</v>
       </c>
       <c r="G253" t="n">
-        <v>109.6752653541234</v>
+        <v>223.5496809959311</v>
       </c>
       <c r="H253" t="n">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="I253" t="n">
-        <v>510344</v>
+        <v>521683</v>
       </c>
     </row>
     <row r="254">
@@ -9287,22 +9287,22 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2343392</v>
+        <v>2361500</v>
       </c>
       <c r="E254" t="n">
-        <v>20670271</v>
+        <v>20829995</v>
       </c>
       <c r="F254" t="n">
-        <v>1.100345410543545</v>
+        <v>2595.631701039376</v>
       </c>
       <c r="G254" t="n">
-        <v>271.8923265335895</v>
+        <v>4412.19350733318</v>
       </c>
       <c r="H254" t="n">
-        <v>2.75</v>
+        <v>0.59</v>
       </c>
       <c r="I254" t="n">
-        <v>89435</v>
+        <v>94039</v>
       </c>
     </row>
     <row r="255">
@@ -9322,22 +9322,22 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>14531796</v>
+        <v>14576166</v>
       </c>
       <c r="E255" t="n">
-        <v>29418733</v>
+        <v>29508559</v>
       </c>
       <c r="F255" t="n">
-        <v>95.74474196589679</v>
+        <v>96.14350462616497</v>
       </c>
       <c r="G255" t="n">
-        <v>160.5976419389231</v>
+        <v>272.809398443474</v>
       </c>
       <c r="H255" t="n">
-        <v>0.47</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I255" t="n">
-        <v>549278</v>
+        <v>544495</v>
       </c>
     </row>
     <row r="256">
@@ -9357,22 +9357,22 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>45718087</v>
+        <v>46199909</v>
       </c>
       <c r="E256" t="n">
-        <v>45718087</v>
+        <v>46199909</v>
       </c>
       <c r="F256" t="n">
-        <v>6874.418293264727</v>
+        <v>7042.099757162821</v>
       </c>
       <c r="G256" t="n">
-        <v>4621.892775598165</v>
+        <v>4924.269670722168</v>
       </c>
       <c r="H256" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I256" t="n">
-        <v>8708313</v>
+        <v>7653257</v>
       </c>
     </row>
     <row r="257">
@@ -9392,22 +9392,22 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>8349653</v>
+        <v>8365892</v>
       </c>
       <c r="E257" t="n">
-        <v>11896342</v>
+        <v>11919480</v>
       </c>
       <c r="F257" t="n">
-        <v>71.26177977548905</v>
+        <v>68.72192984858175</v>
       </c>
       <c r="G257" t="n">
-        <v>1097.844888407079</v>
+        <v>682.778172115631</v>
       </c>
       <c r="H257" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="I257" t="n">
-        <v>391289</v>
+        <v>394071</v>
       </c>
     </row>
     <row r="258">
@@ -9430,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>149656570</v>
+        <v>148731879</v>
       </c>
       <c r="F258" t="n">
-        <v>211.8916017628618</v>
+        <v>728.1256544768956</v>
       </c>
       <c r="G258" t="n">
-        <v>129.1504669748734</v>
+        <v>6.697409158804478</v>
       </c>
       <c r="H258" t="n">
-        <v>2.99</v>
+        <v>0.6</v>
       </c>
       <c r="I258" t="n">
-        <v>1762703</v>
+        <v>653312</v>
       </c>
     </row>
     <row r="259">
@@ -9465,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>16675495</v>
+        <v>16655322</v>
       </c>
       <c r="F259" t="n">
-        <v>114.32517762114</v>
+        <v>62.539396297785</v>
       </c>
       <c r="G259" t="n">
-        <v>123.6558247629575</v>
+        <v>131.5878720860652</v>
       </c>
       <c r="H259" t="n">
-        <v>0.84</v>
+        <v>0.59</v>
       </c>
       <c r="I259" t="n">
-        <v>1015505</v>
+        <v>1029409</v>
       </c>
     </row>
     <row r="260">
@@ -9500,19 +9500,19 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>724291</v>
+        <v>717489</v>
       </c>
       <c r="F260" t="n">
-        <v>4.999350732448293</v>
+        <v>4.999588697330545</v>
       </c>
       <c r="G260" t="n">
-        <v>3.514969926912405</v>
+        <v>3.5151372365191</v>
       </c>
       <c r="H260" t="n">
         <v>1.97</v>
       </c>
       <c r="I260" t="n">
-        <v>211174</v>
+        <v>212269</v>
       </c>
     </row>
     <row r="261">
@@ -9535,19 +9535,19 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>3076966</v>
+        <v>3162021</v>
       </c>
       <c r="F261" t="n">
-        <v>40.16400926637348</v>
+        <v>35.14648766193586</v>
       </c>
       <c r="G261" t="n">
-        <v>49.41214085408468</v>
+        <v>53.21572319864271</v>
       </c>
       <c r="H261" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="I261" t="n">
-        <v>72966</v>
+        <v>74998</v>
       </c>
     </row>
     <row r="262">
@@ -9567,22 +9567,22 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2847324</v>
+        <v>2879459</v>
       </c>
       <c r="E262" t="n">
-        <v>2849790</v>
+        <v>2881953</v>
       </c>
       <c r="F262" t="n">
-        <v>55.04334575105971</v>
+        <v>5.29020083440205</v>
       </c>
       <c r="G262" t="n">
-        <v>532.4672663160936</v>
+        <v>564.2315675406595</v>
       </c>
       <c r="H262" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="I262" t="n">
-        <v>108617</v>
+        <v>111268</v>
       </c>
     </row>
     <row r="263">
@@ -9602,22 +9602,22 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>62974227</v>
+        <v>64197836</v>
       </c>
       <c r="E263" t="n">
-        <v>104184529</v>
+        <v>106208867</v>
       </c>
       <c r="F263" t="n">
-        <v>7725.408643983793</v>
+        <v>7963.416135272503</v>
       </c>
       <c r="G263" t="n">
-        <v>27172.82998135083</v>
+        <v>12301.01673677443</v>
       </c>
       <c r="H263" t="n">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="I263" t="n">
-        <v>6636354</v>
+        <v>7028767</v>
       </c>
     </row>
     <row r="264">
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>687650</v>
+        <v>645302</v>
       </c>
       <c r="F264" t="n">
-        <v>3258.221509690864</v>
+        <v>136.3791718736761</v>
       </c>
       <c r="G264" t="n">
-        <v>139.221916820189</v>
+        <v>80.36198787134774</v>
       </c>
       <c r="H264" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="I264" t="n">
-        <v>676263</v>
+        <v>451730</v>
       </c>
     </row>
     <row r="265">
@@ -9672,22 +9672,22 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1262664</v>
+        <v>1254811</v>
       </c>
       <c r="E265" t="n">
-        <v>3814704</v>
+        <v>3791759</v>
       </c>
       <c r="F265" t="n">
-        <v>57.28427661237002</v>
+        <v>935.3227904636834</v>
       </c>
       <c r="G265" t="n">
-        <v>949.1976842048416</v>
+        <v>700.7996226619513</v>
       </c>
       <c r="H265" t="n">
-        <v>0.27</v>
+        <v>1.05</v>
       </c>
       <c r="I265" t="n">
-        <v>15555.56</v>
+        <v>16983.88</v>
       </c>
     </row>
     <row r="266">
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>40301046</v>
+        <v>40675105</v>
       </c>
       <c r="E266" t="n">
-        <v>285727842</v>
+        <v>288379859</v>
       </c>
       <c r="F266" t="n">
-        <v>52038.59103661303</v>
+        <v>63227.90079595859</v>
       </c>
       <c r="G266" t="n">
-        <v>30311.04267364956</v>
+        <v>26762.56979085953</v>
       </c>
       <c r="H266" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I266" t="n">
-        <v>1835226</v>
+        <v>1835679</v>
       </c>
     </row>
     <row r="267">
@@ -9742,22 +9742,22 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>58873</v>
+        <v>59559</v>
       </c>
       <c r="E267" t="n">
-        <v>307176</v>
+        <v>310753</v>
       </c>
       <c r="F267" t="n">
-        <v>188.041875258497</v>
+        <v>3.888031842983998</v>
       </c>
       <c r="G267" t="n">
-        <v>3.952277242820575</v>
+        <v>56.26156391005519</v>
       </c>
       <c r="H267" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="I267" t="n">
-        <v>278875</v>
+        <v>284245</v>
       </c>
     </row>
     <row r="268">
@@ -9777,22 +9777,22 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1278067</v>
+        <v>1281064</v>
       </c>
       <c r="E268" t="n">
-        <v>7925304</v>
+        <v>7943890</v>
       </c>
       <c r="F268" t="n">
-        <v>2260.975564104646</v>
+        <v>1498.06411382803</v>
       </c>
       <c r="G268" t="n">
-        <v>2531.689027693648</v>
+        <v>2733.313633223011</v>
       </c>
       <c r="H268" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="I268" t="n">
-        <v>784040</v>
+        <v>787070</v>
       </c>
     </row>
     <row r="269">
@@ -9812,22 +9812,22 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>629480244</v>
+        <v>631787078</v>
       </c>
       <c r="E269" t="n">
-        <v>2437884113</v>
+        <v>2446818138</v>
       </c>
       <c r="F269" t="n">
-        <v>240342.6667731066</v>
+        <v>233941.5280633136</v>
       </c>
       <c r="G269" t="n">
-        <v>285395.7406437718</v>
+        <v>331480.0647721569</v>
       </c>
       <c r="H269" t="n">
         <v>0.04</v>
       </c>
       <c r="I269" t="n">
-        <v>37198894</v>
+        <v>38839924</v>
       </c>
     </row>
     <row r="270">
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>3247084</v>
+        <v>3246199</v>
       </c>
       <c r="F270" t="n">
-        <v>157.0547156258081</v>
+        <v>157.0587699471671</v>
       </c>
       <c r="G270" t="n">
-        <v>221.5563143549552</v>
+        <v>221.5335981413726</v>
       </c>
       <c r="H270" t="n">
         <v>0.34</v>
       </c>
       <c r="I270" t="n">
-        <v>33943</v>
+        <v>34127</v>
       </c>
     </row>
     <row r="271">
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>765785</v>
+        <v>729157</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -9894,10 +9894,10 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>5.14</v>
+        <v>4.69</v>
       </c>
       <c r="I271" t="n">
-        <v>156118</v>
+        <v>142403</v>
       </c>
     </row>
     <row r="272">
@@ -9917,22 +9917,22 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5870435</v>
+        <v>5870408</v>
       </c>
       <c r="E272" t="n">
-        <v>26278585</v>
+        <v>26278466</v>
       </c>
       <c r="F272" t="n">
-        <v>272.8629823168938</v>
+        <v>171.2745130078578</v>
       </c>
       <c r="G272" t="n">
-        <v>135.5589805194507</v>
+        <v>129.7175719032981</v>
       </c>
       <c r="H272" t="n">
         <v>0.38</v>
       </c>
       <c r="I272" t="n">
-        <v>149383</v>
+        <v>150148</v>
       </c>
     </row>
     <row r="273">
@@ -9952,22 +9952,22 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6743688</v>
+        <v>6674050</v>
       </c>
       <c r="E273" t="n">
-        <v>12911337</v>
+        <v>12778009</v>
       </c>
       <c r="F273" t="n">
-        <v>4754.357935780608</v>
+        <v>3279.195873154301</v>
       </c>
       <c r="G273" t="n">
-        <v>2089.870433036956</v>
+        <v>4070.212159945015</v>
       </c>
       <c r="H273" t="n">
-        <v>0.61</v>
+        <v>0.86</v>
       </c>
       <c r="I273" t="n">
-        <v>99990</v>
+        <v>102632</v>
       </c>
     </row>
     <row r="274">
@@ -9987,22 +9987,22 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>3247764</v>
+        <v>3238814</v>
       </c>
       <c r="E274" t="n">
-        <v>21356540</v>
+        <v>21297687</v>
       </c>
       <c r="F274" t="n">
-        <v>81.68879080916305</v>
+        <v>281.4935931236401</v>
       </c>
       <c r="G274" t="n">
-        <v>112.1955814020125</v>
+        <v>210.6674431603958</v>
       </c>
       <c r="H274" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="I274" t="n">
-        <v>1450052</v>
+        <v>1562067</v>
       </c>
     </row>
     <row r="275">
@@ -10022,22 +10022,22 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3716922</v>
+        <v>3712990</v>
       </c>
       <c r="E275" t="n">
-        <v>6335999</v>
+        <v>6329295</v>
       </c>
       <c r="F275" t="n">
-        <v>479.0180404634597</v>
+        <v>507.8235812484029</v>
       </c>
       <c r="G275" t="n">
-        <v>1049.70320595676</v>
+        <v>482.7354660464965</v>
       </c>
       <c r="H275" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="I275" t="n">
-        <v>1129594</v>
+        <v>1163888</v>
       </c>
     </row>
     <row r="276">
@@ -10057,22 +10057,22 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>440882</v>
+        <v>439179</v>
       </c>
       <c r="E276" t="n">
-        <v>440882</v>
+        <v>439179</v>
       </c>
       <c r="F276" t="n">
-        <v>21.11600052524808</v>
+        <v>21.27134359153991</v>
       </c>
       <c r="G276" t="n">
-        <v>27.66348494879874</v>
+        <v>6.692573861848145</v>
       </c>
       <c r="H276" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="I276" t="n">
-        <v>262.7</v>
+        <v>272.62</v>
       </c>
     </row>
     <row r="277">
@@ -10092,22 +10092,22 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>7329790</v>
+        <v>7556159</v>
       </c>
       <c r="E277" t="n">
-        <v>10502197</v>
+        <v>10826528</v>
       </c>
       <c r="F277" t="n">
-        <v>634.0423451381589</v>
+        <v>1202.713636078291</v>
       </c>
       <c r="G277" t="n">
-        <v>1513.553694856119</v>
+        <v>488.4727104534276</v>
       </c>
       <c r="H277" t="n">
         <v>0.2</v>
       </c>
       <c r="I277" t="n">
-        <v>194922</v>
+        <v>206130</v>
       </c>
     </row>
     <row r="278">
@@ -10127,22 +10127,22 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>115760327</v>
+        <v>116704474</v>
       </c>
       <c r="E278" t="n">
-        <v>1075562522</v>
+        <v>1084334866</v>
       </c>
       <c r="F278" t="n">
-        <v>9898.300249294411</v>
+        <v>8374.726527643541</v>
       </c>
       <c r="G278" t="n">
-        <v>9917.130275069952</v>
+        <v>11920.4591629249</v>
       </c>
       <c r="H278" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I278" t="n">
-        <v>9410590</v>
+        <v>9842098</v>
       </c>
     </row>
     <row r="279">
@@ -10162,22 +10162,22 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>117041751</v>
+        <v>113916172</v>
       </c>
       <c r="E279" t="n">
-        <v>178549935</v>
+        <v>173781790</v>
       </c>
       <c r="F279" t="n">
-        <v>48965.13672767505</v>
+        <v>48267.78219730219</v>
       </c>
       <c r="G279" t="n">
-        <v>51788.76041009383</v>
+        <v>51375.71347905536</v>
       </c>
       <c r="H279" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I279" t="n">
-        <v>8607948</v>
+        <v>8722222</v>
       </c>
     </row>
     <row r="280">
@@ -10197,22 +10197,22 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>17947832</v>
+        <v>18162490</v>
       </c>
       <c r="E280" t="n">
-        <v>24622871</v>
+        <v>24917363</v>
       </c>
       <c r="F280" t="n">
-        <v>1229.267648317476</v>
+        <v>3389.206408996387</v>
       </c>
       <c r="G280" t="n">
-        <v>1262.883893080953</v>
+        <v>940.5803528459983</v>
       </c>
       <c r="H280" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
       <c r="I280" t="n">
-        <v>603956</v>
+        <v>614731</v>
       </c>
     </row>
     <row r="281">
@@ -10232,22 +10232,22 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>5753658</v>
+        <v>5773894</v>
       </c>
       <c r="E281" t="n">
-        <v>5753658</v>
+        <v>5773894</v>
       </c>
       <c r="F281" t="n">
-        <v>15.521610954424</v>
+        <v>15.52231392620307</v>
       </c>
       <c r="G281" t="n">
-        <v>35.31582284830364</v>
+        <v>22.11433735636714</v>
       </c>
       <c r="H281" t="n">
         <v>0.63</v>
       </c>
       <c r="I281" t="n">
-        <v>737435</v>
+        <v>744767</v>
       </c>
     </row>
     <row r="282">
@@ -10267,22 +10267,22 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>128309169</v>
+        <v>129751867</v>
       </c>
       <c r="E282" t="n">
-        <v>492214626</v>
+        <v>497749044</v>
       </c>
       <c r="F282" t="n">
-        <v>24446.34766568932</v>
+        <v>48719.11843650266</v>
       </c>
       <c r="G282" t="n">
-        <v>31340.33643977228</v>
+        <v>73072.00591021248</v>
       </c>
       <c r="H282" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I282" t="n">
-        <v>33875251</v>
+        <v>35637848</v>
       </c>
     </row>
     <row r="283">
@@ -10305,19 +10305,19 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>673643</v>
+        <v>771228</v>
       </c>
       <c r="F283" t="n">
-        <v>4.065336714280472</v>
+        <v>5.240628085208678</v>
       </c>
       <c r="G283" t="n">
-        <v>3.922452273613399</v>
+        <v>7.602844820178638</v>
       </c>
       <c r="H283" t="n">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="I283" t="n">
-        <v>43036</v>
+        <v>49528</v>
       </c>
     </row>
     <row r="284">
@@ -10337,22 +10337,22 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3322823</v>
+        <v>3300875</v>
       </c>
       <c r="E284" t="n">
-        <v>31484239</v>
+        <v>31276275</v>
       </c>
       <c r="F284" t="n">
-        <v>1085.414721372836</v>
+        <v>966.2229937450933</v>
       </c>
       <c r="G284" t="n">
-        <v>736.3770979067029</v>
+        <v>1283.552128368179</v>
       </c>
       <c r="H284" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I284" t="n">
-        <v>210213</v>
+        <v>227139</v>
       </c>
     </row>
     <row r="285">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>84889</v>
+        <v>84481</v>
       </c>
       <c r="F285" t="n">
-        <v>444.0121223119979</v>
+        <v>522.7162313312807</v>
       </c>
       <c r="G285" t="n">
-        <v>70.06957272534508</v>
+        <v>36.49612997331419</v>
       </c>
       <c r="H285" t="n">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="I285" t="n">
-        <v>17129.6</v>
+        <v>18089.53</v>
       </c>
     </row>
     <row r="286">
@@ -10410,19 +10410,19 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>133934</v>
+        <v>133417</v>
       </c>
       <c r="F286" t="n">
-        <v>5.367203191166254</v>
+        <v>5.367315156942491</v>
       </c>
       <c r="G286" t="n">
-        <v>4.235101140262968</v>
+        <v>4.23518948914221</v>
       </c>
       <c r="H286" t="n">
         <v>0.33</v>
       </c>
       <c r="I286" t="n">
-        <v>87495</v>
+        <v>87692</v>
       </c>
     </row>
     <row r="287">
@@ -10442,22 +10442,22 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>21566173</v>
+        <v>21689428</v>
       </c>
       <c r="E287" t="n">
-        <v>21566173</v>
+        <v>21689428</v>
       </c>
       <c r="F287" t="n">
-        <v>1779.188965125582</v>
+        <v>1453.447091183966</v>
       </c>
       <c r="G287" t="n">
-        <v>1415.694415516946</v>
+        <v>1034.637190883431</v>
       </c>
       <c r="H287" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="I287" t="n">
-        <v>703996</v>
+        <v>671482</v>
       </c>
     </row>
     <row r="288">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>574214</v>
+        <v>574561</v>
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="I288" t="n">
-        <v>2725.79</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="289">
@@ -10510,22 +10510,22 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>6857025</v>
+        <v>6825985</v>
       </c>
       <c r="E289" t="n">
-        <v>42854443</v>
+        <v>42660452</v>
       </c>
       <c r="F289" t="n">
-        <v>77.15459432376971</v>
+        <v>471.8654068597295</v>
       </c>
       <c r="G289" t="n">
-        <v>180.6010087187353</v>
+        <v>1400.081566377164</v>
       </c>
       <c r="H289" t="n">
-        <v>2.46</v>
+        <v>0.73</v>
       </c>
       <c r="I289" t="n">
-        <v>445109</v>
+        <v>427736</v>
       </c>
     </row>
     <row r="290">
@@ -10545,22 +10545,22 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>494139980</v>
+        <v>494425087</v>
       </c>
       <c r="E290" t="n">
-        <v>494139980</v>
+        <v>494425087</v>
       </c>
       <c r="F290" t="n">
-        <v>1187793.173418862</v>
+        <v>1252772.929683289</v>
       </c>
       <c r="G290" t="n">
-        <v>1806064.934809864</v>
+        <v>1703554.939676837</v>
       </c>
       <c r="H290" t="n">
         <v>0.01</v>
       </c>
       <c r="I290" t="n">
-        <v>33917495</v>
+        <v>33273216</v>
       </c>
     </row>
     <row r="291">
@@ -10580,22 +10580,22 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>5280016</v>
+        <v>5306711</v>
       </c>
       <c r="E291" t="n">
-        <v>19620640</v>
+        <v>19719838</v>
       </c>
       <c r="F291" t="n">
-        <v>3664.548352797458</v>
+        <v>3630.220339235325</v>
       </c>
       <c r="G291" t="n">
-        <v>5189.076884223272</v>
+        <v>5221.750658990147</v>
       </c>
       <c r="H291" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I291" t="n">
-        <v>73003</v>
+        <v>80394</v>
       </c>
     </row>
     <row r="292">
@@ -10618,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>34701318</v>
+        <v>33555327</v>
       </c>
       <c r="F292" t="n">
-        <v>10087.59744043914</v>
+        <v>7550.431891598774</v>
       </c>
       <c r="G292" t="n">
-        <v>6604.779939847924</v>
+        <v>10068.92155255345</v>
       </c>
       <c r="H292" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="I292" t="n">
-        <v>6004762</v>
+        <v>5454073</v>
       </c>
     </row>
     <row r="293">
@@ -10650,22 +10650,22 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>31405100</v>
+        <v>31475879</v>
       </c>
       <c r="E293" t="n">
-        <v>112567191</v>
+        <v>112820888</v>
       </c>
       <c r="F293" t="n">
-        <v>2665.918764130878</v>
+        <v>2686.567357137118</v>
       </c>
       <c r="G293" t="n">
-        <v>4302.084824945957</v>
+        <v>4240.251493006872</v>
       </c>
       <c r="H293" t="n">
         <v>0.55</v>
       </c>
       <c r="I293" t="n">
-        <v>82717</v>
+        <v>82632</v>
       </c>
     </row>
     <row r="294">
@@ -10685,22 +10685,22 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>737506</v>
+        <v>776288</v>
       </c>
       <c r="E294" t="n">
-        <v>11762952</v>
+        <v>12381515</v>
       </c>
       <c r="F294" t="n">
-        <v>15.25762923850687</v>
+        <v>20.50800150110043</v>
       </c>
       <c r="G294" t="n">
-        <v>1.624589355913482</v>
+        <v>20.26407210387645</v>
       </c>
       <c r="H294" t="n">
-        <v>2.73</v>
+        <v>2.4</v>
       </c>
       <c r="I294" t="n">
-        <v>272887</v>
+        <v>276280</v>
       </c>
     </row>
     <row r="295">
@@ -10723,19 +10723,19 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>82436</v>
+        <v>82412</v>
       </c>
       <c r="F295" t="n">
-        <v>13.40924811625276</v>
+        <v>13.4098310450534</v>
       </c>
       <c r="G295" t="n">
-        <v>228.6000656396209</v>
+        <v>23.81860612834165</v>
       </c>
       <c r="H295" t="n">
         <v>0.61</v>
       </c>
       <c r="I295" t="n">
-        <v>53827</v>
+        <v>53292</v>
       </c>
     </row>
     <row r="296">
@@ -10758,19 +10758,19 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>1549706</v>
+        <v>1549270</v>
       </c>
       <c r="F296" t="n">
-        <v>5.414295955184597</v>
+        <v>5.414559889388381</v>
       </c>
       <c r="G296" t="n">
-        <v>2.977423145520162</v>
+        <v>4.046985758802412</v>
       </c>
       <c r="H296" t="n">
         <v>0.67</v>
       </c>
       <c r="I296" t="n">
-        <v>601422</v>
+        <v>603464</v>
       </c>
     </row>
     <row r="297">
@@ -10790,22 +10790,22 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2731311661</v>
+        <v>2734472223</v>
       </c>
       <c r="E297" t="n">
-        <v>2899942288</v>
+        <v>2903297983</v>
       </c>
       <c r="F297" t="n">
-        <v>44809.38140560847</v>
+        <v>49067.30368763435</v>
       </c>
       <c r="G297" t="n">
-        <v>60642.93603637516</v>
+        <v>72162.88165230204</v>
       </c>
       <c r="H297" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="I297" t="n">
-        <v>41045693</v>
+        <v>41878615</v>
       </c>
     </row>
     <row r="298">
@@ -10825,22 +10825,22 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2203904</v>
+        <v>2207089</v>
       </c>
       <c r="E298" t="n">
-        <v>16951806</v>
+        <v>16976303</v>
       </c>
       <c r="F298" t="n">
-        <v>1381.056448929988</v>
+        <v>4012.767956106946</v>
       </c>
       <c r="G298" t="n">
-        <v>4067.326022411009</v>
+        <v>4021.642548403976</v>
       </c>
       <c r="H298" t="n">
         <v>0.76</v>
       </c>
       <c r="I298" t="n">
-        <v>126207</v>
+        <v>173714</v>
       </c>
     </row>
     <row r="299">
@@ -10860,22 +10860,22 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1743508</v>
+        <v>1761850</v>
       </c>
       <c r="E299" t="n">
-        <v>1749662</v>
+        <v>1768069</v>
       </c>
       <c r="F299" t="n">
-        <v>944.5553012348804</v>
+        <v>522.7817139004536</v>
       </c>
       <c r="G299" t="n">
-        <v>962.8177818651272</v>
+        <v>388.8581330135308</v>
       </c>
       <c r="H299" t="n">
-        <v>0.72</v>
+        <v>1.36</v>
       </c>
       <c r="I299" t="n">
-        <v>450488</v>
+        <v>470781</v>
       </c>
     </row>
     <row r="300">
@@ -10895,22 +10895,22 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>88986703</v>
+        <v>88920157</v>
       </c>
       <c r="E300" t="n">
-        <v>328942702</v>
+        <v>328694453</v>
       </c>
       <c r="F300" t="n">
-        <v>4195.7665819009</v>
+        <v>3465.221089792898</v>
       </c>
       <c r="G300" t="n">
-        <v>793.507368634918</v>
+        <v>1781.735755529478</v>
       </c>
       <c r="H300" t="n">
         <v>0.38</v>
       </c>
       <c r="I300" t="n">
-        <v>225966</v>
+        <v>223705</v>
       </c>
     </row>
     <row r="301">
@@ -10930,22 +10930,22 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2280565</v>
+        <v>2280529</v>
       </c>
       <c r="E301" t="n">
-        <v>9143201</v>
+        <v>9143055</v>
       </c>
       <c r="F301" t="n">
-        <v>558.1824137384082</v>
+        <v>508.8525164003854</v>
       </c>
       <c r="G301" t="n">
-        <v>5.577371162884898</v>
+        <v>4.753545988426485</v>
       </c>
       <c r="H301" t="n">
-        <v>0.87</v>
+        <v>0.44</v>
       </c>
       <c r="I301" t="n">
-        <v>26194</v>
+        <v>21485</v>
       </c>
     </row>
     <row r="302">
@@ -10965,22 +10965,22 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>63055428</v>
+        <v>63735965</v>
       </c>
       <c r="E302" t="n">
-        <v>154670691</v>
+        <v>156340002</v>
       </c>
       <c r="F302" t="n">
-        <v>1311.986395135296</v>
+        <v>1940.704649063201</v>
       </c>
       <c r="G302" t="n">
-        <v>3289.769960494862</v>
+        <v>2485.60713416323</v>
       </c>
       <c r="H302" t="n">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="I302" t="n">
-        <v>22743592</v>
+        <v>22792474</v>
       </c>
     </row>
     <row r="303">
@@ -11000,22 +11000,22 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>824192951</v>
+        <v>839533638</v>
       </c>
       <c r="E303" t="n">
-        <v>1270978300</v>
+        <v>1294634994</v>
       </c>
       <c r="F303" t="n">
-        <v>43682.52788076708</v>
+        <v>48068.42554984226</v>
       </c>
       <c r="G303" t="n">
-        <v>32076.84348914052</v>
+        <v>31492.97641474196</v>
       </c>
       <c r="H303" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I303" t="n">
-        <v>268650752</v>
+        <v>278728221</v>
       </c>
     </row>
     <row r="304">
@@ -11035,22 +11035,22 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20260515</v>
+        <v>20774422</v>
       </c>
       <c r="E304" t="n">
-        <v>20260515</v>
+        <v>20774422</v>
       </c>
       <c r="F304" t="n">
-        <v>3521.710295400528</v>
+        <v>3172.51328377269</v>
       </c>
       <c r="G304" t="n">
-        <v>3760.160946169139</v>
+        <v>3523.488290726518</v>
       </c>
       <c r="H304" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="I304" t="n">
-        <v>7062326</v>
+        <v>7113592</v>
       </c>
     </row>
     <row r="305">
@@ -11070,22 +11070,22 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1817510</v>
+        <v>1839661</v>
       </c>
       <c r="E305" t="n">
-        <v>2982225</v>
+        <v>3018571</v>
       </c>
       <c r="F305" t="n">
-        <v>235.4160279097102</v>
+        <v>1131.684110242559</v>
       </c>
       <c r="G305" t="n">
-        <v>35.03358339591909</v>
+        <v>26.49241815984672</v>
       </c>
       <c r="H305" t="n">
-        <v>0.97</v>
+        <v>0.17</v>
       </c>
       <c r="I305" t="n">
-        <v>175722</v>
+        <v>167576</v>
       </c>
     </row>
     <row r="306">
@@ -11105,22 +11105,22 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>5862392</v>
+        <v>5883100</v>
       </c>
       <c r="E306" t="n">
-        <v>5862392</v>
+        <v>5883100</v>
       </c>
       <c r="F306" t="n">
-        <v>41.19401232232201</v>
+        <v>41.19462504305218</v>
       </c>
       <c r="G306" t="n">
-        <v>5.440595999137742</v>
+        <v>5.38114911985684</v>
       </c>
       <c r="H306" t="n">
         <v>0.16</v>
       </c>
       <c r="I306" t="n">
-        <v>417.75</v>
+        <v>401.41</v>
       </c>
     </row>
     <row r="307">
@@ -11140,22 +11140,22 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>39796448</v>
+        <v>39343120</v>
       </c>
       <c r="E307" t="n">
-        <v>189793381</v>
+        <v>187630162</v>
       </c>
       <c r="F307" t="n">
-        <v>1208.12780792114</v>
+        <v>1604.506785705259</v>
       </c>
       <c r="G307" t="n">
-        <v>773.3460866907583</v>
+        <v>108.9281403830796</v>
       </c>
       <c r="H307" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I307" t="n">
-        <v>298140</v>
+        <v>429600</v>
       </c>
     </row>
     <row r="308">
@@ -11175,22 +11175,22 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>406382</v>
+        <v>406511</v>
       </c>
       <c r="E308" t="n">
-        <v>760050</v>
+        <v>760291</v>
       </c>
       <c r="F308" t="n">
-        <v>17.75394280575817</v>
+        <v>17.75446493425927</v>
       </c>
       <c r="G308" t="n">
-        <v>4.18460133856918</v>
+        <v>4.184724404169228</v>
       </c>
       <c r="H308" t="n">
         <v>0.54</v>
       </c>
       <c r="I308" t="n">
-        <v>2123.01</v>
+        <v>2158.45</v>
       </c>
     </row>
     <row r="309">
@@ -11210,22 +11210,22 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>23660218</v>
+        <v>23559314</v>
       </c>
       <c r="E309" t="n">
-        <v>39433697</v>
+        <v>39265522</v>
       </c>
       <c r="F309" t="n">
-        <v>5408.114004195893</v>
+        <v>5525.422993802888</v>
       </c>
       <c r="G309" t="n">
-        <v>6485.629751728768</v>
+        <v>5233.997295001894</v>
       </c>
       <c r="H309" t="n">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
       <c r="I309" t="n">
-        <v>494183</v>
+        <v>363675</v>
       </c>
     </row>
     <row r="310">
@@ -11248,19 +11248,19 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>109272</v>
+        <v>109199</v>
       </c>
       <c r="F310" t="n">
-        <v>14.87017689589723</v>
+        <v>14.87032509663034</v>
       </c>
       <c r="G310" t="n">
-        <v>84.08472530047328</v>
+        <v>82.92231784479399</v>
       </c>
       <c r="H310" t="n">
         <v>0.18</v>
       </c>
       <c r="I310" t="n">
-        <v>50854</v>
+        <v>51486</v>
       </c>
     </row>
     <row r="311">
@@ -11280,22 +11280,22 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>24310478</v>
+        <v>24265785</v>
       </c>
       <c r="E311" t="n">
-        <v>24310478</v>
+        <v>24265785</v>
       </c>
       <c r="F311" t="n">
-        <v>6519.370592093282</v>
+        <v>5361.056177100323</v>
       </c>
       <c r="G311" t="n">
-        <v>7390.606536087977</v>
+        <v>7862.838531863928</v>
       </c>
       <c r="H311" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="I311" t="n">
-        <v>5817990</v>
+        <v>5744885</v>
       </c>
     </row>
     <row r="312">
@@ -11315,22 +11315,22 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>3818306</v>
+        <v>3826445</v>
       </c>
       <c r="E312" t="n">
-        <v>8331495</v>
+        <v>8349254</v>
       </c>
       <c r="F312" t="n">
-        <v>1840.688944735522</v>
+        <v>1832.526763149606</v>
       </c>
       <c r="G312" t="n">
-        <v>1710.149393610257</v>
+        <v>1762.508639948261</v>
       </c>
       <c r="H312" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="I312" t="n">
-        <v>1840879</v>
+        <v>1896187</v>
       </c>
     </row>
     <row r="313">
@@ -11350,22 +11350,22 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>9254878</v>
+        <v>9251007</v>
       </c>
       <c r="E313" t="n">
-        <v>9254878</v>
+        <v>9251007</v>
       </c>
       <c r="F313" t="n">
-        <v>15423.90399900046</v>
+        <v>15483.54316244155</v>
       </c>
       <c r="G313" t="n">
-        <v>112809.6870809347</v>
+        <v>112981.6964725761</v>
       </c>
       <c r="H313" t="n">
         <v>0.02</v>
       </c>
       <c r="I313" t="n">
-        <v>2828878</v>
+        <v>2988609</v>
       </c>
     </row>
     <row r="314">
@@ -11385,22 +11385,22 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>510337594</v>
+        <v>513619294</v>
       </c>
       <c r="E314" t="n">
-        <v>1776442692</v>
+        <v>1787866017</v>
       </c>
       <c r="F314" t="n">
-        <v>387898.0595631755</v>
+        <v>281002.04188346</v>
       </c>
       <c r="G314" t="n">
-        <v>513453.1623638735</v>
+        <v>342614.3215284796</v>
       </c>
       <c r="H314" t="n">
         <v>0.06</v>
       </c>
       <c r="I314" t="n">
-        <v>33276453</v>
+        <v>35017346</v>
       </c>
     </row>
     <row r="315">
@@ -11420,22 +11420,22 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>24491834</v>
+        <v>22595250</v>
       </c>
       <c r="E315" t="n">
-        <v>24470560</v>
+        <v>22575623</v>
       </c>
       <c r="F315" t="n">
-        <v>90.10419953500555</v>
+        <v>741.2026513253297</v>
       </c>
       <c r="G315" t="n">
-        <v>721.9279416271272</v>
+        <v>163.1245816976077</v>
       </c>
       <c r="H315" t="n">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="I315" t="n">
-        <v>214361</v>
+        <v>383466</v>
       </c>
     </row>
     <row r="316">
@@ -11455,22 +11455,22 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>48975459</v>
+        <v>48974768</v>
       </c>
       <c r="E316" t="n">
-        <v>120559741</v>
+        <v>120558046</v>
       </c>
       <c r="F316" t="n">
-        <v>1105.796852693143</v>
+        <v>1037.79982992388</v>
       </c>
       <c r="G316" t="n">
-        <v>1749.355274501005</v>
+        <v>1835.634470157688</v>
       </c>
       <c r="H316" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="I316" t="n">
-        <v>27150</v>
+        <v>26922</v>
       </c>
     </row>
     <row r="317">
@@ -11490,22 +11490,22 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>12266114</v>
+        <v>12168860</v>
       </c>
       <c r="E317" t="n">
-        <v>24795142</v>
+        <v>24595482</v>
       </c>
       <c r="F317" t="n">
-        <v>360.8147627057904</v>
+        <v>49.23801460929325</v>
       </c>
       <c r="G317" t="n">
-        <v>2657.924315295192</v>
+        <v>2450.421135720585</v>
       </c>
       <c r="H317" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="I317" t="n">
-        <v>43911</v>
+        <v>46371</v>
       </c>
     </row>
     <row r="318">
@@ -11525,22 +11525,22 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>7486045</v>
+        <v>7485942</v>
       </c>
       <c r="E318" t="n">
-        <v>19447939</v>
+        <v>19447672</v>
       </c>
       <c r="F318" t="n">
-        <v>300.0514767456322</v>
+        <v>300.157068491662</v>
       </c>
       <c r="G318" t="n">
-        <v>136.2068516258697</v>
+        <v>139.94841412757</v>
       </c>
       <c r="H318" t="n">
         <v>0.15</v>
       </c>
       <c r="I318" t="n">
-        <v>717796</v>
+        <v>721364</v>
       </c>
     </row>
     <row r="319">
@@ -11563,19 +11563,19 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>152531</v>
+        <v>152471</v>
       </c>
       <c r="F319" t="n">
-        <v>162.3800439701697</v>
+        <v>261.056583546324</v>
       </c>
       <c r="G319" t="n">
-        <v>1.100105434593754</v>
+        <v>1.100133422688508</v>
       </c>
       <c r="H319" t="n">
-        <v>0.93</v>
+        <v>1.66</v>
       </c>
       <c r="I319" t="n">
-        <v>57733</v>
+        <v>58258</v>
       </c>
     </row>
     <row r="320">
@@ -11598,19 +11598,19 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>19118242516</v>
+        <v>19136510033</v>
       </c>
       <c r="F320" t="n">
-        <v>51832.46327482096</v>
+        <v>51501.21908571476</v>
       </c>
       <c r="G320" t="n">
-        <v>49849.57391985511</v>
+        <v>50021.12874481818</v>
       </c>
       <c r="H320" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I320" t="n">
-        <v>45599570</v>
+        <v>45388951</v>
       </c>
     </row>
     <row r="321">
@@ -11630,22 +11630,22 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>110731357</v>
+        <v>109077551</v>
       </c>
       <c r="E321" t="n">
-        <v>167770800</v>
+        <v>165265093</v>
       </c>
       <c r="F321" t="n">
-        <v>15095.63156111242</v>
+        <v>17252.36914575233</v>
       </c>
       <c r="G321" t="n">
-        <v>19085.60102170249</v>
+        <v>21149.04415843927</v>
       </c>
       <c r="H321" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="I321" t="n">
-        <v>8527280</v>
+        <v>8344452</v>
       </c>
     </row>
     <row r="322">
@@ -11665,22 +11665,22 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2624129</v>
+        <v>2618983</v>
       </c>
       <c r="E322" t="n">
-        <v>10496515</v>
+        <v>10475932</v>
       </c>
       <c r="F322" t="n">
-        <v>41756.05682713838</v>
+        <v>33831.71615946931</v>
       </c>
       <c r="G322" t="n">
-        <v>12488.93517237231</v>
+        <v>14034.47773351453</v>
       </c>
       <c r="H322" t="n">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="I322" t="n">
-        <v>7003312</v>
+        <v>7007726</v>
       </c>
     </row>
     <row r="323">
@@ -11700,22 +11700,22 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>227814214</v>
+        <v>227318916</v>
       </c>
       <c r="E323" t="n">
-        <v>700442976</v>
+        <v>698920121</v>
       </c>
       <c r="F323" t="n">
-        <v>87410.67237210518</v>
+        <v>102436.3023875314</v>
       </c>
       <c r="G323" t="n">
-        <v>121579.7025130251</v>
+        <v>151254.3095681678</v>
       </c>
       <c r="H323" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I323" t="n">
-        <v>16552331</v>
+        <v>16710325</v>
       </c>
     </row>
     <row r="324">
@@ -11735,22 +11735,22 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>147480953</v>
+        <v>148592270</v>
       </c>
       <c r="E324" t="n">
-        <v>385289899</v>
+        <v>388193184</v>
       </c>
       <c r="F324" t="n">
-        <v>11193.80286439056</v>
+        <v>8748.707837991804</v>
       </c>
       <c r="G324" t="n">
-        <v>10450.14656573752</v>
+        <v>12262.04348764929</v>
       </c>
       <c r="H324" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="I324" t="n">
-        <v>8373456</v>
+        <v>8837633</v>
       </c>
     </row>
     <row r="325">
@@ -11770,22 +11770,22 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2483621</v>
+        <v>2491075</v>
       </c>
       <c r="E325" t="n">
-        <v>3408774</v>
+        <v>3419006</v>
       </c>
       <c r="F325" t="n">
-        <v>57.57593746985012</v>
+        <v>117.3333571328105</v>
       </c>
       <c r="G325" t="n">
-        <v>385.6639905361034</v>
+        <v>451.2028811037318</v>
       </c>
       <c r="H325" t="n">
         <v>1.05</v>
       </c>
       <c r="I325" t="n">
-        <v>2006497</v>
+        <v>2011592</v>
       </c>
     </row>
     <row r="326">
@@ -11805,22 +11805,22 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>411654705</v>
+        <v>411618035</v>
       </c>
       <c r="E326" t="n">
-        <v>2352312600</v>
+        <v>2352103060</v>
       </c>
       <c r="F326" t="n">
-        <v>282511.9969235989</v>
+        <v>328321.4897203395</v>
       </c>
       <c r="G326" t="n">
-        <v>342366.0575120166</v>
+        <v>344192.8446422372</v>
       </c>
       <c r="H326" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="I326" t="n">
-        <v>41603991</v>
+        <v>42806632</v>
       </c>
     </row>
   </sheetData>

--- a/MexcData20250221.xlsx
+++ b/MexcData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91205</v>
+        <v>91513</v>
       </c>
       <c r="F2" t="n">
-        <v>5.218980911254802</v>
+        <v>5.218836072418441</v>
       </c>
       <c r="G2" t="n">
-        <v>28.97994911033884</v>
+        <v>28.97914484947291</v>
       </c>
       <c r="H2" t="n">
         <v>0.21</v>
       </c>
       <c r="I2" t="n">
-        <v>1375.35</v>
+        <v>1395.81</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>632475217</v>
+        <v>632015051</v>
       </c>
       <c r="E3" t="n">
-        <v>1227298687</v>
+        <v>1226412023</v>
       </c>
       <c r="F3" t="n">
-        <v>18993.56299407431</v>
+        <v>21323.73015578555</v>
       </c>
       <c r="G3" t="n">
-        <v>30171.66357418949</v>
+        <v>24236.4551928155</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05</v>
+        <v>0.29</v>
       </c>
       <c r="I3" t="n">
-        <v>22135949</v>
+        <v>22803073</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>254393046</v>
+        <v>256905407</v>
       </c>
       <c r="E4" t="n">
-        <v>1595263031</v>
+        <v>1611017696</v>
       </c>
       <c r="F4" t="n">
-        <v>62314.38327425306</v>
+        <v>86148.82836538332</v>
       </c>
       <c r="G4" t="n">
-        <v>142612.5488931019</v>
+        <v>99259.74515409861</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>17618075</v>
+        <v>17170839</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152546116</v>
+        <v>152281203</v>
       </c>
       <c r="E5" t="n">
-        <v>169044936</v>
+        <v>168751372</v>
       </c>
       <c r="F5" t="n">
-        <v>109571.3913862381</v>
+        <v>187606.8199975032</v>
       </c>
       <c r="G5" t="n">
-        <v>303976.6673433842</v>
+        <v>302543.1245120608</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>40547338</v>
+        <v>40313947</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50229261</v>
+        <v>49576629</v>
       </c>
       <c r="E6" t="n">
-        <v>62835517</v>
+        <v>62019091</v>
       </c>
       <c r="F6" t="n">
-        <v>9692.496696761687</v>
+        <v>10567.98371530158</v>
       </c>
       <c r="G6" t="n">
-        <v>14605.13530027053</v>
+        <v>14437.75445485988</v>
       </c>
       <c r="H6" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="n">
-        <v>743518</v>
+        <v>747290</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8574302</v>
+        <v>8503927</v>
       </c>
       <c r="E7" t="n">
-        <v>8790514</v>
+        <v>8718364</v>
       </c>
       <c r="F7" t="n">
-        <v>396.7834982315611</v>
+        <v>341.149833589476</v>
       </c>
       <c r="G7" t="n">
-        <v>250.6100638312783</v>
+        <v>571.0153232048207</v>
       </c>
       <c r="H7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="I7" t="n">
-        <v>92301</v>
+        <v>93783</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69242655</v>
+        <v>69273177</v>
       </c>
       <c r="E8" t="n">
-        <v>137907934</v>
+        <v>137968724</v>
       </c>
       <c r="F8" t="n">
-        <v>28577.18875972581</v>
+        <v>27263.32985613701</v>
       </c>
       <c r="G8" t="n">
-        <v>26542.40788448427</v>
+        <v>23995.58938551468</v>
       </c>
       <c r="H8" t="n">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
       <c r="I8" t="n">
-        <v>976253</v>
+        <v>963656</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4962384</v>
+        <v>4981170</v>
       </c>
       <c r="E9" t="n">
-        <v>7928398</v>
+        <v>7958412</v>
       </c>
       <c r="F9" t="n">
-        <v>380.2414174272091</v>
+        <v>289.3589730315939</v>
       </c>
       <c r="G9" t="n">
-        <v>630.0325723886324</v>
+        <v>1100.541910850357</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03</v>
+        <v>0.51</v>
       </c>
       <c r="I9" t="n">
-        <v>99394</v>
+        <v>100074</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14182068</v>
+        <v>14216789</v>
       </c>
       <c r="E10" t="n">
-        <v>41793638</v>
+        <v>41895958</v>
       </c>
       <c r="F10" t="n">
-        <v>3879.677807632336</v>
+        <v>2810.689628939708</v>
       </c>
       <c r="G10" t="n">
-        <v>4984.301684754754</v>
+        <v>5152.772511390821</v>
       </c>
       <c r="H10" t="n">
-        <v>0.47</v>
+        <v>0.58</v>
       </c>
       <c r="I10" t="n">
-        <v>898835</v>
+        <v>460135</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>129566492</v>
+        <v>128605161</v>
       </c>
       <c r="E11" t="n">
-        <v>507861855</v>
+        <v>504093726</v>
       </c>
       <c r="F11" t="n">
-        <v>66286.47731647466</v>
+        <v>75626.26492551183</v>
       </c>
       <c r="G11" t="n">
-        <v>69081.69051483112</v>
+        <v>63438.16330264631</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>29281326</v>
+        <v>28329016</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10999112</v>
+        <v>10344695</v>
       </c>
       <c r="E12" t="n">
-        <v>47276158</v>
+        <v>44463357</v>
       </c>
       <c r="F12" t="n">
-        <v>3535.256243958632</v>
+        <v>37.55575548184565</v>
       </c>
       <c r="G12" t="n">
-        <v>1297.371331793264</v>
+        <v>286.8150410416079</v>
       </c>
       <c r="H12" t="n">
-        <v>0.17</v>
+        <v>3.17</v>
       </c>
       <c r="I12" t="n">
-        <v>782616</v>
+        <v>857818</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1006610</v>
+        <v>1007203</v>
       </c>
       <c r="E13" t="n">
-        <v>12318198</v>
+        <v>12325447</v>
       </c>
       <c r="F13" t="n">
-        <v>233.3355498680719</v>
+        <v>227.7631594178142</v>
       </c>
       <c r="G13" t="n">
-        <v>200.3227130364475</v>
+        <v>200.6047553175883</v>
       </c>
       <c r="H13" t="n">
         <v>1.6</v>
       </c>
       <c r="I13" t="n">
-        <v>526.41</v>
+        <v>531.99</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>587748</v>
+        <v>594161</v>
       </c>
       <c r="E14" t="n">
-        <v>587748</v>
+        <v>594161</v>
       </c>
       <c r="F14" t="n">
-        <v>160.347512486556</v>
+        <v>468.0872450047008</v>
       </c>
       <c r="G14" t="n">
-        <v>765.9803718793315</v>
+        <v>750.3309770235127</v>
       </c>
       <c r="H14" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="I14" t="n">
-        <v>26684</v>
+        <v>35431</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>594586132</v>
+        <v>593576454</v>
       </c>
       <c r="E15" t="n">
-        <v>743738880</v>
+        <v>742475922</v>
       </c>
       <c r="F15" t="n">
-        <v>511138.1711856604</v>
+        <v>613280.367429329</v>
       </c>
       <c r="G15" t="n">
-        <v>545350.1792582632</v>
+        <v>567548.6945932442</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I15" t="n">
-        <v>56057064</v>
+        <v>56332116</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3392987</v>
+        <v>3384110</v>
       </c>
       <c r="E16" t="n">
-        <v>9652748</v>
+        <v>9627495</v>
       </c>
       <c r="F16" t="n">
-        <v>195.684401209562</v>
+        <v>171.3226460406865</v>
       </c>
       <c r="G16" t="n">
-        <v>49.23579878557653</v>
+        <v>21.76130151027879</v>
       </c>
       <c r="H16" t="n">
-        <v>0.72</v>
+        <v>1.33</v>
       </c>
       <c r="I16" t="n">
-        <v>107828</v>
+        <v>109676</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>317954</v>
+        <v>318869</v>
       </c>
       <c r="E17" t="n">
-        <v>3669565</v>
+        <v>3680125</v>
       </c>
       <c r="F17" t="n">
-        <v>3.965995135506068</v>
+        <v>3.965868500445556</v>
       </c>
       <c r="G17" t="n">
-        <v>4.112507017885543</v>
+        <v>4.0684154426171</v>
       </c>
       <c r="H17" t="n">
         <v>0.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3416.76</v>
+        <v>2632.83</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1296384</v>
+        <v>1303878</v>
       </c>
       <c r="E18" t="n">
-        <v>9944035</v>
+        <v>10001517</v>
       </c>
       <c r="F18" t="n">
-        <v>245.031817230313</v>
+        <v>85.16084274758262</v>
       </c>
       <c r="G18" t="n">
-        <v>116.4542686589747</v>
+        <v>109.5280280345321</v>
       </c>
       <c r="H18" t="n">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="I18" t="n">
-        <v>123600</v>
+        <v>147134</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23122106</v>
+        <v>23099270</v>
       </c>
       <c r="E19" t="n">
-        <v>23165037</v>
+        <v>23142159</v>
       </c>
       <c r="F19" t="n">
-        <v>936.3309357713363</v>
+        <v>874.7511527549258</v>
       </c>
       <c r="G19" t="n">
-        <v>1122.835749950228</v>
+        <v>1235.810582767439</v>
       </c>
       <c r="H19" t="n">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="I19" t="n">
-        <v>838858</v>
+        <v>837795</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3792616</v>
+        <v>3911157</v>
       </c>
       <c r="E20" t="n">
-        <v>21043677</v>
+        <v>21701412</v>
       </c>
       <c r="F20" t="n">
-        <v>4.16698199998221</v>
+        <v>4.052378948575361</v>
       </c>
       <c r="G20" t="n">
-        <v>4.315878674396752</v>
+        <v>4.329444726324016</v>
       </c>
       <c r="H20" t="n">
-        <v>0.13</v>
+        <v>0.76</v>
       </c>
       <c r="I20" t="n">
-        <v>2876.27</v>
+        <v>2218.7</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6954282</v>
+        <v>6992171</v>
       </c>
       <c r="E21" t="n">
-        <v>12901660</v>
+        <v>12971951</v>
       </c>
       <c r="F21" t="n">
-        <v>512.7913053035569</v>
+        <v>285.0116259817424</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3965203982027</v>
+        <v>179.5448464926838</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="I21" t="n">
-        <v>55526</v>
+        <v>51955</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72595536</v>
+        <v>72528367</v>
       </c>
       <c r="E22" t="n">
-        <v>125708936</v>
+        <v>125589621</v>
       </c>
       <c r="F22" t="n">
-        <v>555.696210478241</v>
+        <v>362.153803395038</v>
       </c>
       <c r="G22" t="n">
-        <v>511.3521296294497</v>
+        <v>1798.6338949979</v>
       </c>
       <c r="H22" t="n">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="I22" t="n">
-        <v>825871</v>
+        <v>815295</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>172462</v>
+        <v>176159</v>
       </c>
       <c r="E23" t="n">
-        <v>518684</v>
+        <v>529802</v>
       </c>
       <c r="F23" t="n">
-        <v>3.961165413053809</v>
+        <v>4.013676472785606</v>
       </c>
       <c r="G23" t="n">
-        <v>227.3940479332648</v>
+        <v>4.032033786552676</v>
       </c>
       <c r="H23" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I23" t="n">
-        <v>179.63</v>
+        <v>193.34</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82420143</v>
+        <v>82717536</v>
       </c>
       <c r="E24" t="n">
-        <v>242490284</v>
+        <v>243365251</v>
       </c>
       <c r="F24" t="n">
-        <v>283.6227283945979</v>
+        <v>370.9907184383183</v>
       </c>
       <c r="G24" t="n">
-        <v>291.7094676018388</v>
+        <v>360.729683606426</v>
       </c>
       <c r="H24" t="n">
-        <v>0.57</v>
+        <v>0.39</v>
       </c>
       <c r="I24" t="n">
-        <v>365976</v>
+        <v>361981</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6863019</v>
+        <v>6685680</v>
       </c>
       <c r="F25" t="n">
-        <v>3.919151458315948</v>
+        <v>5.564257255617721</v>
       </c>
       <c r="G25" t="n">
-        <v>3.993478073493624</v>
+        <v>187.4542840828899</v>
       </c>
       <c r="H25" t="n">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>18666.36</v>
+        <v>17569.71</v>
       </c>
     </row>
     <row r="26">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2444262</v>
+        <v>2442711</v>
       </c>
       <c r="E26" t="n">
-        <v>2444262</v>
+        <v>2442711</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>6.74</v>
       </c>
       <c r="I26" t="n">
-        <v>317671</v>
+        <v>314296</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17822580</v>
+        <v>17393220</v>
       </c>
       <c r="E27" t="n">
-        <v>22939123</v>
+        <v>22386501</v>
       </c>
       <c r="F27" t="n">
-        <v>1764.500158139035</v>
+        <v>4892.094386143097</v>
       </c>
       <c r="G27" t="n">
-        <v>4668.856934521402</v>
+        <v>3875.984089191863</v>
       </c>
       <c r="H27" t="n">
-        <v>0.18</v>
+        <v>0.41</v>
       </c>
       <c r="I27" t="n">
-        <v>1691743</v>
+        <v>1684805</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4750965</v>
+        <v>4750840</v>
       </c>
       <c r="E28" t="n">
-        <v>4750965</v>
+        <v>4750840</v>
       </c>
       <c r="F28" t="n">
-        <v>1415.673415693299</v>
+        <v>1483.948834660164</v>
       </c>
       <c r="G28" t="n">
-        <v>1953.173954434739</v>
+        <v>1968.551704018643</v>
       </c>
       <c r="H28" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>2021214</v>
+        <v>2045174</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1706144</v>
+        <v>1724959</v>
       </c>
       <c r="F29" t="n">
-        <v>37.1599998625396</v>
+        <v>13.35385847588408</v>
       </c>
       <c r="G29" t="n">
-        <v>123.3171985600112</v>
+        <v>181.8206647595893</v>
       </c>
       <c r="H29" t="n">
-        <v>1.59</v>
+        <v>2.17</v>
       </c>
       <c r="I29" t="n">
-        <v>158553</v>
+        <v>154829</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3388789</v>
+        <v>3399989</v>
       </c>
       <c r="E30" t="n">
-        <v>3388789</v>
+        <v>3399989</v>
       </c>
       <c r="F30" t="n">
-        <v>1164.555072726066</v>
+        <v>620.2627844555492</v>
       </c>
       <c r="G30" t="n">
-        <v>391.8399483501803</v>
+        <v>578.0372518052759</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="I30" t="n">
-        <v>535979</v>
+        <v>544570</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>327825</v>
+        <v>333581</v>
       </c>
       <c r="E31" t="n">
-        <v>1530320</v>
+        <v>1557189</v>
       </c>
       <c r="F31" t="n">
-        <v>78.47077168696821</v>
+        <v>18.99244378242544</v>
       </c>
       <c r="G31" t="n">
-        <v>5.950326072522235</v>
+        <v>64.67444580886639</v>
       </c>
       <c r="H31" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>724276</v>
+        <v>736602</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>387948</v>
+        <v>387400</v>
       </c>
       <c r="E32" t="n">
-        <v>387948</v>
+        <v>387400</v>
       </c>
       <c r="F32" t="n">
-        <v>8.136740074066237</v>
+        <v>8.136362349623111</v>
       </c>
       <c r="G32" t="n">
-        <v>631.4900112366355</v>
+        <v>269.5919810751903</v>
       </c>
       <c r="H32" t="n">
         <v>0.37</v>
       </c>
       <c r="I32" t="n">
-        <v>56318</v>
+        <v>56559</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1896097</v>
+        <v>1894635</v>
       </c>
       <c r="F33" t="n">
-        <v>37.74325046280615</v>
+        <v>37.74131531005068</v>
       </c>
       <c r="G33" t="n">
-        <v>3.915555180244785</v>
+        <v>3.915354423889586</v>
       </c>
       <c r="H33" t="n">
         <v>0.52</v>
       </c>
       <c r="I33" t="n">
-        <v>1419506</v>
+        <v>1419159</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1464282</v>
+        <v>1481611</v>
       </c>
       <c r="F34" t="n">
-        <v>195.3309335018174</v>
+        <v>379.1341971204324</v>
       </c>
       <c r="G34" t="n">
-        <v>364.8094859084506</v>
+        <v>94.79250953298175</v>
       </c>
       <c r="H34" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="I34" t="n">
-        <v>333137</v>
+        <v>342449</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>12637455</v>
+        <v>12521457</v>
       </c>
       <c r="E35" t="n">
-        <v>31452340</v>
+        <v>31163643</v>
       </c>
       <c r="F35" t="n">
-        <v>584.2840188812934</v>
+        <v>791.8017701518745</v>
       </c>
       <c r="G35" t="n">
-        <v>587.7360220728997</v>
+        <v>559.8893260562834</v>
       </c>
       <c r="H35" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="I35" t="n">
-        <v>1256505</v>
+        <v>1310469</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6779412</v>
+        <v>6732807</v>
       </c>
       <c r="E36" t="n">
-        <v>9336982</v>
+        <v>9272796</v>
       </c>
       <c r="F36" t="n">
-        <v>1059.97298789828</v>
+        <v>143.4843346580966</v>
       </c>
       <c r="G36" t="n">
-        <v>349.0971320075709</v>
+        <v>335.1953161759465</v>
       </c>
       <c r="H36" t="n">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="I36" t="n">
-        <v>335892</v>
+        <v>334407</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>896522</v>
+        <v>913158</v>
       </c>
       <c r="E37" t="n">
-        <v>6275657</v>
+        <v>6392104</v>
       </c>
       <c r="F37" t="n">
-        <v>103.1871650111697</v>
+        <v>96.23731624955199</v>
       </c>
       <c r="G37" t="n">
-        <v>72.3513800103368</v>
+        <v>259.0159927829585</v>
       </c>
       <c r="H37" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="I37" t="n">
-        <v>211808</v>
+        <v>163012</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>116964512</v>
+        <v>115754688</v>
       </c>
       <c r="E38" t="n">
-        <v>454949609</v>
+        <v>450217887</v>
       </c>
       <c r="F38" t="n">
-        <v>14433.794924958</v>
+        <v>24328.27119266449</v>
       </c>
       <c r="G38" t="n">
-        <v>26135.71206752526</v>
+        <v>24394.5741580439</v>
       </c>
       <c r="H38" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>10974839</v>
+        <v>11184640</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5528687</v>
+        <v>5580021</v>
       </c>
       <c r="E39" t="n">
-        <v>5793180</v>
+        <v>5846969</v>
       </c>
       <c r="F39" t="n">
-        <v>587.7845552446325</v>
+        <v>511.519494333449</v>
       </c>
       <c r="G39" t="n">
-        <v>5747.241667714828</v>
+        <v>4611.586435368115</v>
       </c>
       <c r="H39" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I39" t="n">
-        <v>158590</v>
+        <v>153660</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5166381</v>
+        <v>5088752</v>
       </c>
       <c r="E40" t="n">
-        <v>7605193</v>
+        <v>7490918</v>
       </c>
       <c r="F40" t="n">
-        <v>2456.183618348937</v>
+        <v>2132.155619965138</v>
       </c>
       <c r="G40" t="n">
-        <v>2332.992239414497</v>
+        <v>1217.016912100443</v>
       </c>
       <c r="H40" t="n">
-        <v>0.86</v>
+        <v>1.1</v>
       </c>
       <c r="I40" t="n">
-        <v>622780</v>
+        <v>579493</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7621964</v>
+        <v>7616077</v>
       </c>
       <c r="E41" t="n">
-        <v>7621964</v>
+        <v>7616077</v>
       </c>
       <c r="F41" t="n">
-        <v>2047.249102213933</v>
+        <v>2199.13629193196</v>
       </c>
       <c r="G41" t="n">
-        <v>1994.35956672737</v>
+        <v>2046.927028474247</v>
       </c>
       <c r="H41" t="n">
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
       <c r="I41" t="n">
-        <v>370030</v>
+        <v>395115</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1488168</v>
+        <v>1490869</v>
       </c>
       <c r="E42" t="n">
-        <v>1488438</v>
+        <v>1490869</v>
       </c>
       <c r="F42" t="n">
-        <v>178.6300830061361</v>
+        <v>234.50382517938</v>
       </c>
       <c r="G42" t="n">
-        <v>1502.00729253837</v>
+        <v>85.85414584048604</v>
       </c>
       <c r="H42" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>280061</v>
+        <v>277906</v>
       </c>
     </row>
     <row r="43">
@@ -1935,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15793863</v>
+        <v>15822147</v>
       </c>
       <c r="F43" t="n">
-        <v>397.4945896511026</v>
+        <v>475.90676530421</v>
       </c>
       <c r="G43" t="n">
-        <v>299.1106648756631</v>
+        <v>298.9532258044315</v>
       </c>
       <c r="H43" t="n">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>10523.4</v>
+        <v>10495.54</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>145858297</v>
+        <v>145423045</v>
       </c>
       <c r="E44" t="n">
-        <v>145858297</v>
+        <v>145423045</v>
       </c>
       <c r="F44" t="n">
-        <v>268896.7635059931</v>
+        <v>286204.505625033</v>
       </c>
       <c r="G44" t="n">
-        <v>369003.9092700046</v>
+        <v>340207.001422174</v>
       </c>
       <c r="H44" t="n">
         <v>0.14</v>
       </c>
       <c r="I44" t="n">
-        <v>73154902</v>
+        <v>74809399</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>69755734</v>
+        <v>69086657</v>
       </c>
       <c r="E45" t="n">
-        <v>357721714</v>
+        <v>354290549</v>
       </c>
       <c r="F45" t="n">
-        <v>38576.92593487621</v>
+        <v>36636.85999523121</v>
       </c>
       <c r="G45" t="n">
-        <v>57181.40201872053</v>
+        <v>103274.9273662732</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I45" t="n">
-        <v>26293617</v>
+        <v>25510627</v>
       </c>
     </row>
     <row r="46">
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>595131</v>
+        <v>595741</v>
       </c>
       <c r="F46" t="n">
-        <v>147.5832414557069</v>
+        <v>148.8262113956679</v>
       </c>
       <c r="G46" t="n">
-        <v>558.8832724017789</v>
+        <v>558.2984882921307</v>
       </c>
       <c r="H46" t="n">
         <v>0.67</v>
       </c>
       <c r="I46" t="n">
-        <v>1307.58</v>
+        <v>1308.66</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2736493</v>
+        <v>2738239</v>
       </c>
       <c r="E47" t="n">
-        <v>10997341</v>
+        <v>11004359</v>
       </c>
       <c r="F47" t="n">
-        <v>505.5896713138594</v>
+        <v>505.5613425101088</v>
       </c>
       <c r="G47" t="n">
-        <v>88.68822001354911</v>
+        <v>88.66580927092377</v>
       </c>
       <c r="H47" t="n">
         <v>0.91</v>
       </c>
       <c r="I47" t="n">
-        <v>39674</v>
+        <v>39212</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17586888</v>
+        <v>17829388</v>
       </c>
       <c r="E48" t="n">
-        <v>123838377</v>
+        <v>125540901</v>
       </c>
       <c r="F48" t="n">
-        <v>792.0408087906062</v>
+        <v>250.8778718233183</v>
       </c>
       <c r="G48" t="n">
-        <v>1296.14637699876</v>
+        <v>644.6340218682901</v>
       </c>
       <c r="H48" t="n">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="I48" t="n">
-        <v>1089274</v>
+        <v>1086644</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1028835</v>
+        <v>1032723</v>
       </c>
       <c r="E49" t="n">
-        <v>1207606</v>
+        <v>1212170</v>
       </c>
       <c r="F49" t="n">
-        <v>2478.866922559095</v>
+        <v>2293.475120262219</v>
       </c>
       <c r="G49" t="n">
-        <v>5007.875138300864</v>
+        <v>5008.451496513775</v>
       </c>
       <c r="H49" t="n">
         <v>0.37</v>
       </c>
       <c r="I49" t="n">
-        <v>208911</v>
+        <v>204707</v>
       </c>
     </row>
     <row r="50">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>175124</v>
+        <v>174645</v>
       </c>
       <c r="E50" t="n">
-        <v>2343259</v>
+        <v>2336848</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>52849</v>
+        <v>51947</v>
       </c>
     </row>
     <row r="51">
@@ -2210,22 +2210,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>268444240</v>
+        <v>268302354</v>
       </c>
       <c r="E51" t="n">
-        <v>268444240</v>
+        <v>268302354</v>
       </c>
       <c r="F51" t="n">
-        <v>20786.85437318719</v>
+        <v>21883.73716164341</v>
       </c>
       <c r="G51" t="n">
-        <v>35053.09217122556</v>
+        <v>32131.62270187087</v>
       </c>
       <c r="H51" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I51" t="n">
-        <v>15414501</v>
+        <v>15386606</v>
       </c>
     </row>
     <row r="52">
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1125843</v>
+        <v>1128183</v>
       </c>
       <c r="F52" t="n">
-        <v>4.033546626019651</v>
+        <v>4.033485320603647</v>
       </c>
       <c r="G52" t="n">
-        <v>631.8460963061092</v>
+        <v>631.8364929492185</v>
       </c>
       <c r="H52" t="n">
         <v>0.53</v>
       </c>
       <c r="I52" t="n">
-        <v>167667</v>
+        <v>163731</v>
       </c>
     </row>
     <row r="53">
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>119639</v>
+        <v>118533</v>
       </c>
       <c r="E54" t="n">
-        <v>119639</v>
+        <v>118533</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>51.32</v>
       </c>
       <c r="I54" t="n">
-        <v>244.44</v>
+        <v>359.12</v>
       </c>
     </row>
     <row r="55">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6656678</v>
+        <v>6664841</v>
       </c>
       <c r="E55" t="n">
-        <v>16168559</v>
+        <v>16188385</v>
       </c>
       <c r="F55" t="n">
-        <v>507.9950244060832</v>
+        <v>550.9044437944609</v>
       </c>
       <c r="G55" t="n">
-        <v>343.5266220100814</v>
+        <v>203.5589529071988</v>
       </c>
       <c r="H55" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="I55" t="n">
-        <v>489081</v>
+        <v>485192</v>
       </c>
     </row>
     <row r="56">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>444380741</v>
+        <v>442054181</v>
       </c>
       <c r="E56" t="n">
-        <v>444380741</v>
+        <v>442054181</v>
       </c>
       <c r="F56" t="n">
-        <v>3805.789528635164</v>
+        <v>5532.451497253407</v>
       </c>
       <c r="G56" t="n">
-        <v>2629.32826610118</v>
+        <v>4036.52010781027</v>
       </c>
       <c r="H56" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="I56" t="n">
-        <v>2692062</v>
+        <v>2691299</v>
       </c>
     </row>
     <row r="57">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2510740</v>
+        <v>2487965</v>
       </c>
       <c r="E57" t="n">
-        <v>2510740</v>
+        <v>2487965</v>
       </c>
       <c r="F57" t="n">
-        <v>329.5935466913727</v>
+        <v>344.5814711488813</v>
       </c>
       <c r="G57" t="n">
-        <v>418.3047594815268</v>
+        <v>389.5149514508274</v>
       </c>
       <c r="H57" t="n">
         <v>1.83</v>
       </c>
       <c r="I57" t="n">
-        <v>55487</v>
+        <v>55143</v>
       </c>
     </row>
     <row r="58">
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>195165655</v>
+        <v>208541986</v>
       </c>
       <c r="E58" t="n">
-        <v>256815177</v>
+        <v>274416863</v>
       </c>
       <c r="F58" t="n">
-        <v>10889.51110632507</v>
+        <v>7405.272954941482</v>
       </c>
       <c r="G58" t="n">
-        <v>13927.36703134383</v>
+        <v>11537.65889365133</v>
       </c>
       <c r="H58" t="n">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="I58" t="n">
-        <v>10223465</v>
+        <v>13409858</v>
       </c>
     </row>
     <row r="59">
@@ -2488,22 +2488,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1151005</v>
+        <v>1173176</v>
       </c>
       <c r="E59" t="n">
-        <v>12508688</v>
+        <v>12749637</v>
       </c>
       <c r="F59" t="n">
-        <v>3.95192624663511</v>
+        <v>689.0374081294525</v>
       </c>
       <c r="G59" t="n">
-        <v>5.43514987645048</v>
+        <v>3.934366421791854</v>
       </c>
       <c r="H59" t="n">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="I59" t="n">
-        <v>34032</v>
+        <v>30141</v>
       </c>
     </row>
     <row r="60">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2553535</v>
+        <v>2555540</v>
       </c>
       <c r="E60" t="n">
-        <v>6528334</v>
+        <v>6533460</v>
       </c>
       <c r="F60" t="n">
-        <v>228.388098404112</v>
+        <v>295.0800659144057</v>
       </c>
       <c r="G60" t="n">
-        <v>183.1526364788341</v>
+        <v>251.2985174062714</v>
       </c>
       <c r="H60" t="n">
         <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>107851</v>
+        <v>103666</v>
       </c>
     </row>
     <row r="61">
@@ -2558,22 +2558,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>85031383</v>
+        <v>84513597</v>
       </c>
       <c r="E61" t="n">
-        <v>237874512</v>
+        <v>236427842</v>
       </c>
       <c r="F61" t="n">
-        <v>52794.32690777734</v>
+        <v>48845.70500896684</v>
       </c>
       <c r="G61" t="n">
-        <v>81008.45204568529</v>
+        <v>64088.22324160171</v>
       </c>
       <c r="H61" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I61" t="n">
-        <v>51832816</v>
+        <v>47533961</v>
       </c>
     </row>
     <row r="62">
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>75490563</v>
+        <v>75118960</v>
       </c>
       <c r="E62" t="n">
-        <v>75490563</v>
+        <v>75118960</v>
       </c>
       <c r="F62" t="n">
-        <v>4264.411103670487</v>
+        <v>3974.151798237446</v>
       </c>
       <c r="G62" t="n">
-        <v>3996.897934039428</v>
+        <v>2470.631465187583</v>
       </c>
       <c r="H62" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="I62" t="n">
-        <v>3560758</v>
+        <v>3502993</v>
       </c>
     </row>
     <row r="63">
@@ -2628,22 +2628,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4303379</v>
+        <v>4314312</v>
       </c>
       <c r="E63" t="n">
-        <v>8486626</v>
+        <v>8508187</v>
       </c>
       <c r="F63" t="n">
-        <v>850.6815025537633</v>
+        <v>940.4139969058672</v>
       </c>
       <c r="G63" t="n">
-        <v>1757.157624974982</v>
+        <v>1540.563242018574</v>
       </c>
       <c r="H63" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="I63" t="n">
-        <v>1646355</v>
+        <v>1638770</v>
       </c>
     </row>
     <row r="64">
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1639492</v>
+        <v>1641969</v>
       </c>
       <c r="E64" t="n">
-        <v>9413350</v>
+        <v>9427575</v>
       </c>
       <c r="F64" t="n">
-        <v>195.622489599952</v>
+        <v>14.71647781289041</v>
       </c>
       <c r="G64" t="n">
-        <v>9.467546040523091</v>
+        <v>5.570582086998388</v>
       </c>
       <c r="H64" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="I64" t="n">
-        <v>291530</v>
+        <v>268996</v>
       </c>
     </row>
     <row r="65">
@@ -2701,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>552242</v>
+        <v>509269</v>
       </c>
       <c r="F65" t="n">
-        <v>4.042681232772637</v>
+        <v>13.77385676046831</v>
       </c>
       <c r="G65" t="n">
-        <v>8.531560383313867</v>
+        <v>46.65606093818135</v>
       </c>
       <c r="H65" t="n">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="I65" t="n">
-        <v>1725.44</v>
+        <v>1778.16</v>
       </c>
     </row>
     <row r="66">
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>31221629</v>
+        <v>31242553</v>
       </c>
       <c r="F66" t="n">
-        <v>838.2780807721747</v>
+        <v>842.2447499604046</v>
       </c>
       <c r="G66" t="n">
-        <v>267.6177411963974</v>
+        <v>275.3871157464291</v>
       </c>
       <c r="H66" t="n">
         <v>0.17</v>
       </c>
       <c r="I66" t="n">
-        <v>245753</v>
+        <v>244216</v>
       </c>
     </row>
     <row r="67">
@@ -2768,22 +2768,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>174409</v>
+        <v>176875</v>
       </c>
       <c r="E67" t="n">
-        <v>1177807</v>
+        <v>1194454</v>
       </c>
       <c r="F67" t="n">
-        <v>5.175047754476258</v>
+        <v>3.848131357254774</v>
       </c>
       <c r="G67" t="n">
-        <v>25.89847687415418</v>
+        <v>813.237840784996</v>
       </c>
       <c r="H67" t="n">
         <v>0.64</v>
       </c>
       <c r="I67" t="n">
-        <v>2836429</v>
+        <v>2872431</v>
       </c>
     </row>
     <row r="68">
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7686680</v>
+        <v>7713042</v>
       </c>
       <c r="E68" t="n">
-        <v>18103660</v>
+        <v>18165748</v>
       </c>
       <c r="F68" t="n">
-        <v>901.4835552503577</v>
+        <v>901.4950303502172</v>
       </c>
       <c r="G68" t="n">
-        <v>2078.908670010702</v>
+        <v>2132.601859124662</v>
       </c>
       <c r="H68" t="n">
         <v>0.11</v>
       </c>
       <c r="I68" t="n">
-        <v>34289</v>
+        <v>34379</v>
       </c>
     </row>
     <row r="69">
@@ -2838,22 +2838,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3109771</v>
+        <v>3099650</v>
       </c>
       <c r="E69" t="n">
-        <v>3109771</v>
+        <v>3099650</v>
       </c>
       <c r="F69" t="n">
-        <v>360.8529281406549</v>
+        <v>5.457020848806478</v>
       </c>
       <c r="G69" t="n">
-        <v>4.414768439125659</v>
+        <v>4.092839648780483</v>
       </c>
       <c r="H69" t="n">
         <v>0.68</v>
       </c>
       <c r="I69" t="n">
-        <v>19988.91</v>
+        <v>19678.05</v>
       </c>
     </row>
     <row r="70">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3450892</v>
+        <v>3436658</v>
       </c>
       <c r="E70" t="n">
-        <v>8514901</v>
+        <v>8479777</v>
       </c>
       <c r="F70" t="n">
-        <v>1257.82787084289</v>
+        <v>1212.956559690676</v>
       </c>
       <c r="G70" t="n">
-        <v>1313.386235724327</v>
+        <v>1276.326945629892</v>
       </c>
       <c r="H70" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="I70" t="n">
-        <v>42149</v>
+        <v>46370</v>
       </c>
     </row>
     <row r="71">
@@ -2911,19 +2911,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>23120079</v>
+        <v>23075242</v>
       </c>
       <c r="F71" t="n">
-        <v>511.0091698692572</v>
+        <v>451.6668196487582</v>
       </c>
       <c r="G71" t="n">
-        <v>113.1954349194709</v>
+        <v>3.957725715095135</v>
       </c>
       <c r="H71" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="I71" t="n">
-        <v>124395</v>
+        <v>124763</v>
       </c>
     </row>
     <row r="72">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>261703</v>
+        <v>259076</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3388.03</v>
+        <v>3363.05</v>
       </c>
     </row>
     <row r="73">
@@ -2976,22 +2976,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>80343565</v>
+        <v>79713348</v>
       </c>
       <c r="E73" t="n">
-        <v>167557134</v>
+        <v>166242811</v>
       </c>
       <c r="F73" t="n">
-        <v>18922.95940296522</v>
+        <v>15780.96788162543</v>
       </c>
       <c r="G73" t="n">
-        <v>4068.850330119629</v>
+        <v>1510.971235711117</v>
       </c>
       <c r="H73" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I73" t="n">
-        <v>20320932</v>
+        <v>20459170</v>
       </c>
     </row>
     <row r="74">
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>214192493</v>
+        <v>212518825</v>
       </c>
       <c r="F75" t="n">
-        <v>28908.81558713836</v>
+        <v>7475.334208235466</v>
       </c>
       <c r="G75" t="n">
-        <v>21336.57892014036</v>
+        <v>20350.0129494024</v>
       </c>
       <c r="H75" t="n">
-        <v>0.51</v>
+        <v>0.14</v>
       </c>
       <c r="I75" t="n">
-        <v>3573720</v>
+        <v>3573068</v>
       </c>
     </row>
     <row r="76">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>87355403</v>
+        <v>87945893</v>
       </c>
       <c r="E76" t="n">
-        <v>119952563</v>
+        <v>120763398</v>
       </c>
       <c r="F76" t="n">
-        <v>2901.803040342639</v>
+        <v>2471.48190562928</v>
       </c>
       <c r="G76" t="n">
-        <v>13743.31782721517</v>
+        <v>13607.56020753335</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I76" t="n">
-        <v>1097326</v>
+        <v>1100756</v>
       </c>
     </row>
     <row r="77">
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>179703</v>
+        <v>179912</v>
       </c>
       <c r="E77" t="n">
-        <v>187662</v>
+        <v>187879</v>
       </c>
       <c r="F77" t="n">
-        <v>5.627260413681523</v>
+        <v>5.627104239014471</v>
       </c>
       <c r="G77" t="n">
-        <v>416.351914328245</v>
+        <v>416.3403592167313</v>
       </c>
       <c r="H77" t="n">
         <v>0.57</v>
       </c>
       <c r="I77" t="n">
-        <v>272.1</v>
+        <v>257.7</v>
       </c>
     </row>
     <row r="78">
@@ -3143,22 +3143,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7838863</v>
+        <v>7814029</v>
       </c>
       <c r="E78" t="n">
-        <v>8623273</v>
+        <v>8595955</v>
       </c>
       <c r="F78" t="n">
-        <v>698.1290011469623</v>
+        <v>355.9518146308359</v>
       </c>
       <c r="G78" t="n">
-        <v>388.4353497815579</v>
+        <v>1527.686843685619</v>
       </c>
       <c r="H78" t="n">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="I78" t="n">
-        <v>707293</v>
+        <v>689191</v>
       </c>
     </row>
     <row r="79">
@@ -3178,22 +3178,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>29725590</v>
+        <v>29549386</v>
       </c>
       <c r="E79" t="n">
-        <v>29725590</v>
+        <v>29549386</v>
       </c>
       <c r="F79" t="n">
-        <v>458.856946758035</v>
+        <v>1175.851649143448</v>
       </c>
       <c r="G79" t="n">
-        <v>1115.50404381354</v>
+        <v>699.8595383687477</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="I79" t="n">
-        <v>280333</v>
+        <v>283153</v>
       </c>
     </row>
     <row r="80">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>280044050</v>
+        <v>282942453</v>
       </c>
       <c r="E80" t="n">
-        <v>280044050</v>
+        <v>282942453</v>
       </c>
       <c r="F80" t="n">
-        <v>4667.389907246446</v>
+        <v>59.30866685037827</v>
       </c>
       <c r="G80" t="n">
-        <v>6955.330844811013</v>
+        <v>3404.194627377389</v>
       </c>
       <c r="H80" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="I80" t="n">
-        <v>9577374</v>
+        <v>9403353</v>
       </c>
     </row>
     <row r="81">
@@ -3248,22 +3248,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>682533499</v>
+        <v>673132452</v>
       </c>
       <c r="E81" t="n">
-        <v>682533499</v>
+        <v>673132452</v>
       </c>
       <c r="F81" t="n">
-        <v>621754.1093942861</v>
+        <v>1367216.090837257</v>
       </c>
       <c r="G81" t="n">
-        <v>782799.4839021049</v>
+        <v>1271977.173080133</v>
       </c>
       <c r="H81" t="n">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="I81" t="n">
-        <v>346795948</v>
+        <v>345360281</v>
       </c>
     </row>
     <row r="82">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>120175</v>
+        <v>114132</v>
       </c>
       <c r="E82" t="n">
-        <v>120175</v>
+        <v>114132</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1390.98</v>
+        <v>1430.9</v>
       </c>
     </row>
     <row r="83">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>210314093</v>
+        <v>214178950</v>
       </c>
       <c r="E83" t="n">
-        <v>730650166</v>
+        <v>744077030</v>
       </c>
       <c r="F83" t="n">
-        <v>1120.74412723559</v>
+        <v>760.5857863950598</v>
       </c>
       <c r="G83" t="n">
-        <v>1719.668429470372</v>
+        <v>4022.077376166989</v>
       </c>
       <c r="H83" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="I83" t="n">
-        <v>29931594</v>
+        <v>30631675</v>
       </c>
     </row>
     <row r="84">
@@ -3351,22 +3351,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3569580</v>
+        <v>3846381</v>
       </c>
       <c r="E84" t="n">
-        <v>3569580</v>
+        <v>3846381</v>
       </c>
       <c r="F84" t="n">
-        <v>1235.160449039304</v>
+        <v>1174.861585093806</v>
       </c>
       <c r="G84" t="n">
-        <v>1042.358569955779</v>
+        <v>1227.318044525106</v>
       </c>
       <c r="H84" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I84" t="n">
-        <v>2512228</v>
+        <v>2532664</v>
       </c>
     </row>
     <row r="85">
@@ -3386,22 +3386,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>120944714</v>
+        <v>120686155</v>
       </c>
       <c r="E85" t="n">
-        <v>513613822</v>
+        <v>512463123</v>
       </c>
       <c r="F85" t="n">
-        <v>302100.9192249576</v>
+        <v>294466.1315415194</v>
       </c>
       <c r="G85" t="n">
-        <v>370972.9508296649</v>
+        <v>360523.1458668688</v>
       </c>
       <c r="H85" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="I85" t="n">
-        <v>16578171</v>
+        <v>14516427</v>
       </c>
     </row>
     <row r="86">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71784619</v>
+        <v>72070899</v>
       </c>
       <c r="E86" t="n">
-        <v>82363707</v>
+        <v>82692176</v>
       </c>
       <c r="F86" t="n">
-        <v>22717.92702293488</v>
+        <v>21460.43815008732</v>
       </c>
       <c r="G86" t="n">
-        <v>4236.374482256613</v>
+        <v>6488.156535611678</v>
       </c>
       <c r="H86" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="I86" t="n">
-        <v>1193105</v>
+        <v>1364524</v>
       </c>
     </row>
     <row r="87">
@@ -3456,22 +3456,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3137350</v>
+        <v>3136373</v>
       </c>
       <c r="E87" t="n">
-        <v>15730042</v>
+        <v>15725145</v>
       </c>
       <c r="F87" t="n">
-        <v>4.183987969903262</v>
+        <v>4.108701078852467</v>
       </c>
       <c r="G87" t="n">
-        <v>71.24204303787776</v>
+        <v>53.03590351437308</v>
       </c>
       <c r="H87" t="n">
         <v>0.31</v>
       </c>
       <c r="I87" t="n">
-        <v>33169</v>
+        <v>32413</v>
       </c>
     </row>
     <row r="88">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>512312</v>
+        <v>524280</v>
       </c>
       <c r="E88" t="n">
-        <v>8763069</v>
+        <v>8967782</v>
       </c>
       <c r="F88" t="n">
-        <v>5.600736934098474</v>
+        <v>5.375714485996146</v>
       </c>
       <c r="G88" t="n">
-        <v>5.543652915495057</v>
+        <v>1015.570070397569</v>
       </c>
       <c r="H88" t="n">
-        <v>1.33</v>
+        <v>0.31</v>
       </c>
       <c r="I88" t="n">
-        <v>169190</v>
+        <v>170849</v>
       </c>
     </row>
     <row r="89">
@@ -3526,22 +3526,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5773253</v>
+        <v>5805495</v>
       </c>
       <c r="E89" t="n">
-        <v>7843289</v>
+        <v>7886245</v>
       </c>
       <c r="F89" t="n">
-        <v>78.35062487641179</v>
+        <v>96.7447022417029</v>
       </c>
       <c r="G89" t="n">
-        <v>2503.04499537488</v>
+        <v>2132.567071155598</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="I89" t="n">
-        <v>5504223</v>
+        <v>1385424</v>
       </c>
     </row>
     <row r="90">
@@ -3561,22 +3561,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>41232198</v>
+        <v>41375050</v>
       </c>
       <c r="E90" t="n">
-        <v>48158228</v>
+        <v>48325075</v>
       </c>
       <c r="F90" t="n">
-        <v>294.907108395506</v>
+        <v>118.3456407048987</v>
       </c>
       <c r="G90" t="n">
-        <v>255.6608995376793</v>
+        <v>155.2056643303409</v>
       </c>
       <c r="H90" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I90" t="n">
-        <v>872378</v>
+        <v>868006</v>
       </c>
     </row>
     <row r="91">
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>14898599</v>
+        <v>14846485</v>
       </c>
       <c r="F91" t="n">
-        <v>10.38612718897333</v>
+        <v>203.8722559113962</v>
       </c>
       <c r="G91" t="n">
-        <v>685.5930191917405</v>
+        <v>971.1913926078121</v>
       </c>
       <c r="H91" t="n">
-        <v>2.43</v>
+        <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>262317</v>
+        <v>248181</v>
       </c>
     </row>
     <row r="92">
@@ -3631,22 +3631,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>36850767</v>
+        <v>36704899</v>
       </c>
       <c r="E92" t="n">
-        <v>36850767</v>
+        <v>36704899</v>
       </c>
       <c r="F92" t="n">
-        <v>127.2497804363843</v>
+        <v>148.9734178643262</v>
       </c>
       <c r="G92" t="n">
-        <v>811.577661744031</v>
+        <v>2436.169559741616</v>
       </c>
       <c r="H92" t="n">
-        <v>1.07</v>
+        <v>0.61</v>
       </c>
       <c r="I92" t="n">
-        <v>818737</v>
+        <v>815559</v>
       </c>
     </row>
     <row r="93">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>17164263</v>
+        <v>17145284</v>
       </c>
       <c r="F93" t="n">
-        <v>124.009421886746</v>
+        <v>145.7995623951582</v>
       </c>
       <c r="G93" t="n">
-        <v>411.7309340273208</v>
+        <v>496.3576613055708</v>
       </c>
       <c r="H93" t="n">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="I93" t="n">
-        <v>214182</v>
+        <v>219845</v>
       </c>
     </row>
     <row r="94">
@@ -3701,22 +3701,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>571071</v>
+        <v>569415</v>
       </c>
       <c r="E94" t="n">
-        <v>6926538</v>
+        <v>6906451</v>
       </c>
       <c r="F94" t="n">
-        <v>1386.201849013783</v>
+        <v>1199.914684313786</v>
       </c>
       <c r="G94" t="n">
-        <v>992.4621580357058</v>
+        <v>748.9618280838514</v>
       </c>
       <c r="H94" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I94" t="n">
-        <v>2801715</v>
+        <v>2796351</v>
       </c>
     </row>
     <row r="95">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>26408795</v>
+        <v>26443775</v>
       </c>
       <c r="E95" t="n">
-        <v>37327541</v>
+        <v>37376984</v>
       </c>
       <c r="F95" t="n">
-        <v>4.083806196520499</v>
+        <v>4.08369282799592</v>
       </c>
       <c r="G95" t="n">
-        <v>305.0605672805607</v>
+        <v>1396.31837624541</v>
       </c>
       <c r="H95" t="n">
         <v>0.77</v>
       </c>
       <c r="I95" t="n">
-        <v>83362</v>
+        <v>73194</v>
       </c>
     </row>
     <row r="96">
@@ -3771,22 +3771,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1364777949</v>
+        <v>1361068058</v>
       </c>
       <c r="E96" t="n">
-        <v>6544389764</v>
+        <v>6526600079</v>
       </c>
       <c r="F96" t="n">
-        <v>245645.6298592469</v>
+        <v>401697.1425717619</v>
       </c>
       <c r="G96" t="n">
-        <v>444419.9549681208</v>
+        <v>566205.3111317251</v>
       </c>
       <c r="H96" t="n">
         <v>0.02</v>
       </c>
       <c r="I96" t="n">
-        <v>200080171</v>
+        <v>205774145</v>
       </c>
     </row>
     <row r="97">
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>280941785</v>
+        <v>280001547</v>
       </c>
       <c r="E97" t="n">
-        <v>1212700707</v>
+        <v>1208642118</v>
       </c>
       <c r="F97" t="n">
-        <v>140258.9668091844</v>
+        <v>370173.8988563968</v>
       </c>
       <c r="G97" t="n">
-        <v>1077743.628662953</v>
+        <v>1827763.684154614</v>
       </c>
       <c r="H97" t="n">
         <v>0.08</v>
       </c>
       <c r="I97" t="n">
-        <v>110384826</v>
+        <v>110901954</v>
       </c>
     </row>
     <row r="98">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5125956</v>
+        <v>5071692</v>
       </c>
       <c r="E98" t="n">
-        <v>5680581</v>
+        <v>5620445</v>
       </c>
       <c r="F98" t="n">
-        <v>734.8682245945387</v>
+        <v>811.7673956397832</v>
       </c>
       <c r="G98" t="n">
-        <v>659.1226127295148</v>
+        <v>693.974085404979</v>
       </c>
       <c r="H98" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="I98" t="n">
-        <v>665426</v>
+        <v>662535</v>
       </c>
     </row>
     <row r="99">
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>96903</v>
+        <v>93839</v>
       </c>
       <c r="E99" t="n">
-        <v>96903</v>
+        <v>93839</v>
       </c>
       <c r="F99" t="n">
-        <v>4.056129292596269</v>
+        <v>4.15090657959274</v>
       </c>
       <c r="G99" t="n">
-        <v>4.009306056729351</v>
+        <v>15.56454008345004</v>
       </c>
       <c r="H99" t="n">
-        <v>0.48</v>
+        <v>0.91</v>
       </c>
       <c r="I99" t="n">
-        <v>881.15</v>
+        <v>784.47</v>
       </c>
     </row>
     <row r="100">
@@ -3911,22 +3911,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>117323984</v>
+        <v>117003810</v>
       </c>
       <c r="E100" t="n">
-        <v>117323984</v>
+        <v>117003810</v>
       </c>
       <c r="F100" t="n">
-        <v>4558.489146190103</v>
+        <v>17826.03579109519</v>
       </c>
       <c r="G100" t="n">
-        <v>17358.54457918519</v>
+        <v>4575.014467556374</v>
       </c>
       <c r="H100" t="n">
         <v>0.02</v>
       </c>
       <c r="I100" t="n">
-        <v>6411899</v>
+        <v>6338896</v>
       </c>
     </row>
     <row r="101">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3790383</v>
+        <v>3756915</v>
       </c>
       <c r="F101" t="n">
-        <v>2005.861765479612</v>
+        <v>1888.734775533598</v>
       </c>
       <c r="G101" t="n">
-        <v>1052.822058390031</v>
+        <v>1495.65100205364</v>
       </c>
       <c r="H101" t="n">
-        <v>0.53</v>
+        <v>0.95</v>
       </c>
       <c r="I101" t="n">
-        <v>291226</v>
+        <v>307422</v>
       </c>
     </row>
     <row r="102">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2045196859</v>
+        <v>2008865257</v>
       </c>
       <c r="E102" t="n">
-        <v>2045196859</v>
+        <v>2008865257</v>
       </c>
       <c r="F102" t="n">
-        <v>7163296.077450153</v>
+        <v>6871180.217065915</v>
       </c>
       <c r="G102" t="n">
-        <v>5004060.09243204</v>
+        <v>5372664.763985055</v>
       </c>
       <c r="H102" t="n">
         <v>0.01</v>
       </c>
       <c r="I102" t="n">
-        <v>7505440021</v>
+        <v>7633861767</v>
       </c>
     </row>
     <row r="103">
@@ -4016,22 +4016,22 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5334544</v>
+        <v>5357868</v>
       </c>
       <c r="E103" t="n">
-        <v>5340581</v>
+        <v>5363932</v>
       </c>
       <c r="F103" t="n">
-        <v>262.043517906939</v>
+        <v>262.0458602519623</v>
       </c>
       <c r="G103" t="n">
-        <v>80.38401972967472</v>
+        <v>82.86001616308778</v>
       </c>
       <c r="H103" t="n">
         <v>0.84</v>
       </c>
       <c r="I103" t="n">
-        <v>147662</v>
+        <v>146407</v>
       </c>
     </row>
     <row r="104">
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2407490</v>
+        <v>2342466</v>
       </c>
       <c r="F104" t="n">
-        <v>5.413804623240308</v>
+        <v>4.069684671289511</v>
       </c>
       <c r="G104" t="n">
-        <v>763.4258153701553</v>
+        <v>174.8252760938874</v>
       </c>
       <c r="H104" t="n">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="I104" t="n">
-        <v>57267</v>
+        <v>50459</v>
       </c>
     </row>
     <row r="105">
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4461777</v>
+        <v>4442620</v>
       </c>
       <c r="E105" t="n">
-        <v>5857731</v>
+        <v>5832581</v>
       </c>
       <c r="F105" t="n">
-        <v>4772.833645265511</v>
+        <v>11833.69647464988</v>
       </c>
       <c r="G105" t="n">
-        <v>12471.53191522298</v>
+        <v>12297.8302473901</v>
       </c>
       <c r="H105" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I105" t="n">
-        <v>620092</v>
+        <v>644609</v>
       </c>
     </row>
     <row r="106">
@@ -4124,19 +4124,19 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>19740990</v>
+        <v>19761723</v>
       </c>
       <c r="F106" t="n">
-        <v>41.47531057127578</v>
+        <v>174.8040167025411</v>
       </c>
       <c r="G106" t="n">
-        <v>905.7297194175557</v>
+        <v>358.3446037826409</v>
       </c>
       <c r="H106" t="n">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="I106" t="n">
-        <v>45417</v>
+        <v>43391</v>
       </c>
     </row>
     <row r="107">
@@ -4156,22 +4156,22 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1372726</v>
+        <v>1373030</v>
       </c>
       <c r="E107" t="n">
-        <v>5117860</v>
+        <v>5118993</v>
       </c>
       <c r="F107" t="n">
-        <v>1700.048127516082</v>
+        <v>1939.038048850477</v>
       </c>
       <c r="G107" t="n">
-        <v>155.6537481726506</v>
+        <v>206.8457132774123</v>
       </c>
       <c r="H107" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I107" t="n">
-        <v>614059</v>
+        <v>634399</v>
       </c>
     </row>
     <row r="108">
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4211928</v>
+        <v>4240045</v>
       </c>
       <c r="E108" t="n">
-        <v>12132355</v>
+        <v>12213344</v>
       </c>
       <c r="F108" t="n">
-        <v>597.2602225813509</v>
+        <v>660.6203248788455</v>
       </c>
       <c r="G108" t="n">
-        <v>766.5038047368146</v>
+        <v>385.4996417829665</v>
       </c>
       <c r="H108" t="n">
-        <v>1.31</v>
+        <v>1.95</v>
       </c>
       <c r="I108" t="n">
-        <v>593479</v>
+        <v>614819</v>
       </c>
     </row>
     <row r="109">
@@ -4226,22 +4226,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>81006606</v>
+        <v>80885855</v>
       </c>
       <c r="E109" t="n">
-        <v>103087202</v>
+        <v>102933537</v>
       </c>
       <c r="F109" t="n">
-        <v>8028.834893273823</v>
+        <v>3382.415278438394</v>
       </c>
       <c r="G109" t="n">
-        <v>370.4598279476919</v>
+        <v>551.5010886450026</v>
       </c>
       <c r="H109" t="n">
-        <v>0.39</v>
+        <v>0.71</v>
       </c>
       <c r="I109" t="n">
-        <v>6259433</v>
+        <v>6276215</v>
       </c>
     </row>
     <row r="110">
@@ -4261,22 +4261,22 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>23364225</v>
+        <v>23374635</v>
       </c>
       <c r="E110" t="n">
-        <v>30308745</v>
+        <v>30322249</v>
       </c>
       <c r="F110" t="n">
-        <v>20418.94091527771</v>
+        <v>18689.89956742636</v>
       </c>
       <c r="G110" t="n">
-        <v>15136.36238997035</v>
+        <v>13524.97030750316</v>
       </c>
       <c r="H110" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="I110" t="n">
-        <v>168350</v>
+        <v>164700</v>
       </c>
     </row>
     <row r="111">
@@ -4296,22 +4296,22 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>668309</v>
+        <v>682462</v>
       </c>
       <c r="E111" t="n">
-        <v>668309</v>
+        <v>682462</v>
       </c>
       <c r="F111" t="n">
-        <v>35.86544287716681</v>
+        <v>3.993964148443345</v>
       </c>
       <c r="G111" t="n">
-        <v>515.5488862527868</v>
+        <v>521.0060064608148</v>
       </c>
       <c r="H111" t="n">
-        <v>1.48</v>
+        <v>0.87</v>
       </c>
       <c r="I111" t="n">
-        <v>77578</v>
+        <v>79962</v>
       </c>
     </row>
     <row r="112">
@@ -4331,22 +4331,22 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14889509</v>
+        <v>14687054</v>
       </c>
       <c r="E112" t="n">
-        <v>14889509</v>
+        <v>14687054</v>
       </c>
       <c r="F112" t="n">
-        <v>1258.791835953849</v>
+        <v>2510.387104835774</v>
       </c>
       <c r="G112" t="n">
-        <v>6143.207772791919</v>
+        <v>2966.979909957191</v>
       </c>
       <c r="H112" t="n">
-        <v>0.32</v>
+        <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>5258917</v>
+        <v>5298486</v>
       </c>
     </row>
     <row r="113">
@@ -4366,22 +4366,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>99155421</v>
+        <v>99245647</v>
       </c>
       <c r="E113" t="n">
-        <v>122651707</v>
+        <v>122763313</v>
       </c>
       <c r="F113" t="n">
-        <v>974.4458631044595</v>
+        <v>1123.772807550232</v>
       </c>
       <c r="G113" t="n">
-        <v>877.3877212987918</v>
+        <v>804.283482994062</v>
       </c>
       <c r="H113" t="n">
-        <v>0.34</v>
+        <v>0.58</v>
       </c>
       <c r="I113" t="n">
-        <v>884984</v>
+        <v>855158</v>
       </c>
     </row>
     <row r="114">
@@ -4404,19 +4404,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>892950</v>
+        <v>895353</v>
       </c>
       <c r="F114" t="n">
-        <v>255.7238238442807</v>
+        <v>289.3036085781923</v>
       </c>
       <c r="G114" t="n">
-        <v>202.4332144164837</v>
+        <v>215.4289405754765</v>
       </c>
       <c r="H114" t="n">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="I114" t="n">
-        <v>33134</v>
+        <v>33884</v>
       </c>
     </row>
     <row r="115">
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2756402</v>
+        <v>2762900</v>
       </c>
       <c r="F115" t="n">
-        <v>323.2523347319872</v>
+        <v>272.4066434927763</v>
       </c>
       <c r="G115" t="n">
-        <v>131.912207118654</v>
+        <v>153.0162798139541</v>
       </c>
       <c r="H115" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="I115" t="n">
-        <v>82485</v>
+        <v>79292</v>
       </c>
     </row>
     <row r="116">
@@ -4471,22 +4471,22 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11468555</v>
+        <v>11215413</v>
       </c>
       <c r="E116" t="n">
-        <v>16865521</v>
+        <v>16493252</v>
       </c>
       <c r="F116" t="n">
-        <v>3391.028566104157</v>
+        <v>2903.643098290083</v>
       </c>
       <c r="G116" t="n">
-        <v>2414.957044746822</v>
+        <v>1962.987781347734</v>
       </c>
       <c r="H116" t="n">
-        <v>0.02</v>
+        <v>0.97</v>
       </c>
       <c r="I116" t="n">
-        <v>579746</v>
+        <v>584969</v>
       </c>
     </row>
     <row r="117">
@@ -4509,19 +4509,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>3174101</v>
+        <v>3172771</v>
       </c>
       <c r="F117" t="n">
-        <v>5.402770348318176</v>
+        <v>5.222438339880333</v>
       </c>
       <c r="G117" t="n">
-        <v>419.1773557518593</v>
+        <v>419.1578142227016</v>
       </c>
       <c r="H117" t="n">
         <v>0.72</v>
       </c>
       <c r="I117" t="n">
-        <v>34679</v>
+        <v>36156</v>
       </c>
     </row>
     <row r="118">
@@ -4544,19 +4544,19 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1179547</v>
+        <v>1179997</v>
       </c>
       <c r="F118" t="n">
-        <v>5.23604156408386</v>
+        <v>5.174837946104335</v>
       </c>
       <c r="G118" t="n">
-        <v>15.78262306929244</v>
+        <v>3.900141492707085</v>
       </c>
       <c r="H118" t="n">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="I118" t="n">
-        <v>6624.57</v>
+        <v>6361.44</v>
       </c>
     </row>
     <row r="119">
@@ -4576,22 +4576,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5178524</v>
+        <v>5130758</v>
       </c>
       <c r="E119" t="n">
-        <v>7245506</v>
+        <v>7178674</v>
       </c>
       <c r="F119" t="n">
-        <v>743.5253406572285</v>
+        <v>851.7722544929389</v>
       </c>
       <c r="G119" t="n">
-        <v>876.643967953813</v>
+        <v>907.2697967501526</v>
       </c>
       <c r="H119" t="n">
-        <v>1.38</v>
+        <v>0.11</v>
       </c>
       <c r="I119" t="n">
-        <v>78766</v>
+        <v>81182</v>
       </c>
     </row>
     <row r="120">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>10320148</v>
+        <v>10355125</v>
       </c>
       <c r="E120" t="n">
-        <v>28426406</v>
+        <v>28522748</v>
       </c>
       <c r="F120" t="n">
-        <v>74.305917599517</v>
+        <v>74.30218762872023</v>
       </c>
       <c r="G120" t="n">
-        <v>19.35536812784984</v>
+        <v>19.35923533468955</v>
       </c>
       <c r="H120" t="n">
         <v>0.52</v>
       </c>
       <c r="I120" t="n">
-        <v>334817</v>
+        <v>335341</v>
       </c>
     </row>
     <row r="121">
@@ -4646,22 +4646,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51880641</v>
+        <v>51847498</v>
       </c>
       <c r="E121" t="n">
-        <v>132168899</v>
+        <v>132084466</v>
       </c>
       <c r="F121" t="n">
-        <v>633.7450086865998</v>
+        <v>725.0946764399411</v>
       </c>
       <c r="G121" t="n">
-        <v>12009.58866258706</v>
+        <v>11958.32689959216</v>
       </c>
       <c r="H121" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I121" t="n">
-        <v>2422327</v>
+        <v>2384450</v>
       </c>
     </row>
     <row r="122">
@@ -4681,22 +4681,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>15626204</v>
+        <v>15700463</v>
       </c>
       <c r="E122" t="n">
-        <v>75680198</v>
+        <v>76039848</v>
       </c>
       <c r="F122" t="n">
-        <v>1575.01432864522</v>
+        <v>1653.339410437163</v>
       </c>
       <c r="G122" t="n">
-        <v>2849.611877267836</v>
+        <v>3107.468205717661</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I122" t="n">
-        <v>4217196</v>
+        <v>4254882</v>
       </c>
     </row>
     <row r="123">
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>518812</v>
+        <v>517783</v>
       </c>
       <c r="F123" t="n">
-        <v>8.663649004643267</v>
+        <v>8.66321411118088</v>
       </c>
       <c r="G123" t="n">
-        <v>4.19196898039336</v>
+        <v>14.19115117029954</v>
       </c>
       <c r="H123" t="n">
         <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>7309.9</v>
+        <v>7197.83</v>
       </c>
     </row>
     <row r="124">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4630964</v>
+        <v>4636523</v>
       </c>
       <c r="E124" t="n">
-        <v>10556078</v>
+        <v>10568750</v>
       </c>
       <c r="F124" t="n">
-        <v>804.0144892214807</v>
+        <v>994.9810870094791</v>
       </c>
       <c r="G124" t="n">
-        <v>1835.839887414884</v>
+        <v>1583.440369010376</v>
       </c>
       <c r="H124" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="I124" t="n">
-        <v>84584</v>
+        <v>83801</v>
       </c>
     </row>
     <row r="125">
@@ -4789,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1930285885</v>
+        <v>1931351840</v>
       </c>
       <c r="F125" t="n">
-        <v>73528.23872862768</v>
+        <v>72558.04556328205</v>
       </c>
       <c r="G125" t="n">
-        <v>71359.60251197843</v>
+        <v>70814.95457181516</v>
       </c>
       <c r="H125" t="n">
         <v>0.52</v>
       </c>
       <c r="I125" t="n">
-        <v>28077670</v>
+        <v>28168975</v>
       </c>
     </row>
     <row r="126">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9556353</v>
+        <v>9554788</v>
       </c>
       <c r="E126" t="n">
-        <v>34779317</v>
+        <v>34773644</v>
       </c>
       <c r="F126" t="n">
-        <v>17.37569164399041</v>
+        <v>17.37520928619908</v>
       </c>
       <c r="G126" t="n">
-        <v>5.415228339822328</v>
+        <v>524.4686671380724</v>
       </c>
       <c r="H126" t="n">
         <v>0.8</v>
       </c>
       <c r="I126" t="n">
-        <v>124684</v>
+        <v>121615</v>
       </c>
     </row>
     <row r="127">
@@ -4859,19 +4859,19 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>564341</v>
+        <v>564682</v>
       </c>
       <c r="F127" t="n">
-        <v>4.10859327975998</v>
+        <v>14.02729825337256</v>
       </c>
       <c r="G127" t="n">
-        <v>109.4980341363008</v>
+        <v>11.37335499366356</v>
       </c>
       <c r="H127" t="n">
         <v>0.32</v>
       </c>
       <c r="I127" t="n">
-        <v>891.24</v>
+        <v>891.6</v>
       </c>
     </row>
     <row r="128">
@@ -4891,22 +4891,22 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>12308836</v>
+        <v>12366927</v>
       </c>
       <c r="E128" t="n">
-        <v>17846037</v>
+        <v>17930259</v>
       </c>
       <c r="F128" t="n">
-        <v>3371.40164640083</v>
+        <v>3454.688134714116</v>
       </c>
       <c r="G128" t="n">
-        <v>5947.552585185394</v>
+        <v>5898.947694591355</v>
       </c>
       <c r="H128" t="n">
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
       <c r="I128" t="n">
-        <v>2105704</v>
+        <v>2094226</v>
       </c>
     </row>
     <row r="129">
@@ -4926,22 +4926,22 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>31756361</v>
+        <v>31838610</v>
       </c>
       <c r="E129" t="n">
-        <v>98879118</v>
+        <v>99135216</v>
       </c>
       <c r="F129" t="n">
-        <v>7275.244354680849</v>
+        <v>7242.788757691997</v>
       </c>
       <c r="G129" t="n">
-        <v>8968.997214777957</v>
+        <v>20507.1463681913</v>
       </c>
       <c r="H129" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I129" t="n">
-        <v>10295711</v>
+        <v>10271598</v>
       </c>
     </row>
     <row r="130">
@@ -4961,22 +4961,22 @@
      